--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guojun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Java\s3d-medical\code\s3d\document\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,10 +25,10 @@
     <author>joe.feng@hotmail.com</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="G19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="119">
   <si>
     <t>Comments</t>
   </si>
@@ -714,6 +714,106 @@
             }
 }</t>
   </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Get all departments</t>
+  </si>
+  <si>
+    <t>/departments</t>
+  </si>
+  <si>
+    <t>{
+   "id": 1,
+   "name": "",
+   "sort": 20,
+   "remark": "",
+   "children": [
+    {
+     "id": 1,
+     "name": "",
+     "sort": 20,
+     "remark": "",
+     "children": []
+    }
+   ]
+  }</t>
+  </si>
+  <si>
+    <t>{
+ "page": {
+  "pages": 10
+  },
+ "employees": [
+  {
+   "id": 1,
+   "name": "",
+   "userName": "",
+   "email": "",
+   "phone": "",
+   "sort": 22
+  }
+ ]
+}</t>
+  </si>
+  <si>
+    <t>Get all department users</t>
+  </si>
+  <si>
+    <t>/users?departmentId=1&amp;page=1&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>Add/edit department</t>
+  </si>
+  <si>
+    <t>Add/edit user</t>
+  </si>
+  <si>
+    <t>/users</t>
+  </si>
+  <si>
+    <t>{
+ "id": -1,
+ "name": "",
+ "parentId": 1,
+ "code": "",
+ "key": "",
+ "sort": 32,
+ "active": true,
+ "remark": ""
+}</t>
+  </si>
+  <si>
+    <t>{
+ "id": -1,
+ "realName": "",
+ "code": "",
+ "departmentId": 1,
+ "email": "",
+ "phone": "",
+ "tel": "",
+ "userName": "",
+ "languageId": 2,
+ "key": "",
+ "remark": ""
+}</t>
+  </si>
+  <si>
+    <t>Reset password</t>
+  </si>
+  <si>
+    <t>/reset-password</t>
+  </si>
+  <si>
+    <t>{
+ "userId": 1,
+ "password": ""
+}</t>
+  </si>
+  <si>
+    <t>{"status":"succeed"}</t>
+  </si>
 </sst>
 </file>
 
@@ -783,7 +883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -887,13 +987,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -974,9 +1105,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1077,16 +1205,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1461,11 +1598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IX38"/>
+  <dimension ref="A1:IX42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2049,7 +2186,7 @@
       <c r="IX3" s="12"/>
     </row>
     <row r="4" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -2324,278 +2461,288 @@
       <c r="IW4" s="12"/>
       <c r="IX4" s="12"/>
     </row>
-    <row r="5" spans="1:258" s="37" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="36"/>
-      <c r="BF5" s="36"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
-      <c r="BJ5" s="36"/>
-      <c r="BK5" s="36"/>
-      <c r="BL5" s="36"/>
-      <c r="BM5" s="36"/>
-      <c r="BN5" s="36"/>
-      <c r="BO5" s="36"/>
-      <c r="BP5" s="36"/>
-      <c r="BQ5" s="36"/>
-      <c r="BR5" s="36"/>
-      <c r="BS5" s="36"/>
-      <c r="BT5" s="36"/>
-      <c r="BU5" s="36"/>
-      <c r="BV5" s="36"/>
-      <c r="BW5" s="36"/>
-      <c r="BX5" s="36"/>
-      <c r="BY5" s="36"/>
-      <c r="BZ5" s="36"/>
-      <c r="CA5" s="36"/>
-      <c r="CB5" s="36"/>
-      <c r="CC5" s="36"/>
-      <c r="CD5" s="36"/>
-      <c r="CE5" s="36"/>
-      <c r="CF5" s="36"/>
-      <c r="CG5" s="36"/>
-      <c r="CH5" s="36"/>
-      <c r="CI5" s="36"/>
-      <c r="CJ5" s="36"/>
-      <c r="CK5" s="36"/>
-      <c r="CL5" s="36"/>
-      <c r="CM5" s="36"/>
-      <c r="CN5" s="36"/>
-      <c r="CO5" s="36"/>
-      <c r="CP5" s="36"/>
-      <c r="CQ5" s="36"/>
-      <c r="CR5" s="36"/>
-      <c r="CS5" s="36"/>
-      <c r="CT5" s="36"/>
-      <c r="CU5" s="36"/>
-      <c r="CV5" s="36"/>
-      <c r="CW5" s="36"/>
-      <c r="CX5" s="36"/>
-      <c r="CY5" s="36"/>
-      <c r="CZ5" s="36"/>
-      <c r="DA5" s="36"/>
-      <c r="DB5" s="36"/>
-      <c r="DC5" s="36"/>
-      <c r="DD5" s="36"/>
-      <c r="DE5" s="36"/>
-      <c r="DF5" s="36"/>
-      <c r="DG5" s="36"/>
-      <c r="DH5" s="36"/>
-      <c r="DI5" s="36"/>
-      <c r="DJ5" s="36"/>
-      <c r="DK5" s="36"/>
-      <c r="DL5" s="36"/>
-      <c r="DM5" s="36"/>
-      <c r="DN5" s="36"/>
-      <c r="DO5" s="36"/>
-      <c r="DP5" s="36"/>
-      <c r="DQ5" s="36"/>
-      <c r="DR5" s="36"/>
-      <c r="DS5" s="36"/>
-      <c r="DT5" s="36"/>
-      <c r="DU5" s="36"/>
-      <c r="DV5" s="36"/>
-      <c r="DW5" s="36"/>
-      <c r="DX5" s="36"/>
-      <c r="DY5" s="36"/>
-      <c r="DZ5" s="36"/>
-      <c r="EA5" s="36"/>
-      <c r="EB5" s="36"/>
-      <c r="EC5" s="36"/>
-      <c r="ED5" s="36"/>
-      <c r="EE5" s="36"/>
-      <c r="EF5" s="36"/>
-      <c r="EG5" s="36"/>
-      <c r="EH5" s="36"/>
-      <c r="EI5" s="36"/>
-      <c r="EJ5" s="36"/>
-      <c r="EK5" s="36"/>
-      <c r="EL5" s="36"/>
-      <c r="EM5" s="36"/>
-      <c r="EN5" s="36"/>
-      <c r="EO5" s="36"/>
-      <c r="EP5" s="36"/>
-      <c r="EQ5" s="36"/>
-      <c r="ER5" s="36"/>
-      <c r="ES5" s="36"/>
-      <c r="ET5" s="36"/>
-      <c r="EU5" s="36"/>
-      <c r="EV5" s="36"/>
-      <c r="EW5" s="36"/>
-      <c r="EX5" s="36"/>
-      <c r="EY5" s="36"/>
-      <c r="EZ5" s="36"/>
-      <c r="FA5" s="36"/>
-      <c r="FB5" s="36"/>
-      <c r="FC5" s="36"/>
-      <c r="FD5" s="36"/>
-      <c r="FE5" s="36"/>
-      <c r="FF5" s="36"/>
-      <c r="FG5" s="36"/>
-      <c r="FH5" s="36"/>
-      <c r="FI5" s="36"/>
-      <c r="FJ5" s="36"/>
-      <c r="FK5" s="36"/>
-      <c r="FL5" s="36"/>
-      <c r="FM5" s="36"/>
-      <c r="FN5" s="36"/>
-      <c r="FO5" s="36"/>
-      <c r="FP5" s="36"/>
-      <c r="FQ5" s="36"/>
-      <c r="FR5" s="36"/>
-      <c r="FS5" s="36"/>
-      <c r="FT5" s="36"/>
-      <c r="FU5" s="36"/>
-      <c r="FV5" s="36"/>
-      <c r="FW5" s="36"/>
-      <c r="FX5" s="36"/>
-      <c r="FY5" s="36"/>
-      <c r="FZ5" s="36"/>
-      <c r="GA5" s="36"/>
-      <c r="GB5" s="36"/>
-      <c r="GC5" s="36"/>
-      <c r="GD5" s="36"/>
-      <c r="GE5" s="36"/>
-      <c r="GF5" s="36"/>
-      <c r="GG5" s="36"/>
-      <c r="GH5" s="36"/>
-      <c r="GI5" s="36"/>
-      <c r="GJ5" s="36"/>
-      <c r="GK5" s="36"/>
-      <c r="GL5" s="36"/>
-      <c r="GM5" s="36"/>
-      <c r="GN5" s="36"/>
-      <c r="GO5" s="36"/>
-      <c r="GP5" s="36"/>
-      <c r="GQ5" s="36"/>
-      <c r="GR5" s="36"/>
-      <c r="GS5" s="36"/>
-      <c r="GT5" s="36"/>
-      <c r="GU5" s="36"/>
-      <c r="GV5" s="36"/>
-      <c r="GW5" s="36"/>
-      <c r="GX5" s="36"/>
-      <c r="GY5" s="36"/>
-      <c r="GZ5" s="36"/>
-      <c r="HA5" s="36"/>
-      <c r="HB5" s="36"/>
-      <c r="HC5" s="36"/>
-      <c r="HD5" s="36"/>
-      <c r="HE5" s="36"/>
-      <c r="HF5" s="36"/>
-      <c r="HG5" s="36"/>
-      <c r="HH5" s="36"/>
-      <c r="HI5" s="36"/>
-      <c r="HJ5" s="36"/>
-      <c r="HK5" s="36"/>
-      <c r="HL5" s="36"/>
-      <c r="HM5" s="36"/>
-      <c r="HN5" s="36"/>
-      <c r="HO5" s="36"/>
-      <c r="HP5" s="36"/>
-      <c r="HQ5" s="36"/>
-      <c r="HR5" s="36"/>
-      <c r="HS5" s="36"/>
-      <c r="HT5" s="36"/>
-      <c r="HU5" s="36"/>
-      <c r="HV5" s="36"/>
-      <c r="HW5" s="36"/>
-      <c r="HX5" s="36"/>
-      <c r="HY5" s="36"/>
-      <c r="HZ5" s="36"/>
-      <c r="IA5" s="36"/>
-      <c r="IB5" s="36"/>
-      <c r="IC5" s="36"/>
-      <c r="ID5" s="36"/>
-      <c r="IE5" s="36"/>
-      <c r="IF5" s="36"/>
-      <c r="IG5" s="36"/>
-      <c r="IH5" s="36"/>
-      <c r="II5" s="36"/>
-      <c r="IJ5" s="36"/>
-      <c r="IK5" s="36"/>
-      <c r="IL5" s="36"/>
-      <c r="IM5" s="36"/>
-      <c r="IN5" s="36"/>
-      <c r="IO5" s="36"/>
-      <c r="IP5" s="36"/>
-      <c r="IQ5" s="36"/>
-      <c r="IR5" s="36"/>
-      <c r="IS5" s="36"/>
-      <c r="IT5" s="36"/>
-      <c r="IU5" s="36"/>
-      <c r="IV5" s="36"/>
-      <c r="IW5" s="36"/>
-      <c r="IX5" s="36"/>
+    <row r="5" spans="1:258" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="35"/>
+      <c r="AX5" s="35"/>
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="35"/>
+      <c r="BA5" s="35"/>
+      <c r="BB5" s="35"/>
+      <c r="BC5" s="35"/>
+      <c r="BD5" s="35"/>
+      <c r="BE5" s="35"/>
+      <c r="BF5" s="35"/>
+      <c r="BG5" s="35"/>
+      <c r="BH5" s="35"/>
+      <c r="BI5" s="35"/>
+      <c r="BJ5" s="35"/>
+      <c r="BK5" s="35"/>
+      <c r="BL5" s="35"/>
+      <c r="BM5" s="35"/>
+      <c r="BN5" s="35"/>
+      <c r="BO5" s="35"/>
+      <c r="BP5" s="35"/>
+      <c r="BQ5" s="35"/>
+      <c r="BR5" s="35"/>
+      <c r="BS5" s="35"/>
+      <c r="BT5" s="35"/>
+      <c r="BU5" s="35"/>
+      <c r="BV5" s="35"/>
+      <c r="BW5" s="35"/>
+      <c r="BX5" s="35"/>
+      <c r="BY5" s="35"/>
+      <c r="BZ5" s="35"/>
+      <c r="CA5" s="35"/>
+      <c r="CB5" s="35"/>
+      <c r="CC5" s="35"/>
+      <c r="CD5" s="35"/>
+      <c r="CE5" s="35"/>
+      <c r="CF5" s="35"/>
+      <c r="CG5" s="35"/>
+      <c r="CH5" s="35"/>
+      <c r="CI5" s="35"/>
+      <c r="CJ5" s="35"/>
+      <c r="CK5" s="35"/>
+      <c r="CL5" s="35"/>
+      <c r="CM5" s="35"/>
+      <c r="CN5" s="35"/>
+      <c r="CO5" s="35"/>
+      <c r="CP5" s="35"/>
+      <c r="CQ5" s="35"/>
+      <c r="CR5" s="35"/>
+      <c r="CS5" s="35"/>
+      <c r="CT5" s="35"/>
+      <c r="CU5" s="35"/>
+      <c r="CV5" s="35"/>
+      <c r="CW5" s="35"/>
+      <c r="CX5" s="35"/>
+      <c r="CY5" s="35"/>
+      <c r="CZ5" s="35"/>
+      <c r="DA5" s="35"/>
+      <c r="DB5" s="35"/>
+      <c r="DC5" s="35"/>
+      <c r="DD5" s="35"/>
+      <c r="DE5" s="35"/>
+      <c r="DF5" s="35"/>
+      <c r="DG5" s="35"/>
+      <c r="DH5" s="35"/>
+      <c r="DI5" s="35"/>
+      <c r="DJ5" s="35"/>
+      <c r="DK5" s="35"/>
+      <c r="DL5" s="35"/>
+      <c r="DM5" s="35"/>
+      <c r="DN5" s="35"/>
+      <c r="DO5" s="35"/>
+      <c r="DP5" s="35"/>
+      <c r="DQ5" s="35"/>
+      <c r="DR5" s="35"/>
+      <c r="DS5" s="35"/>
+      <c r="DT5" s="35"/>
+      <c r="DU5" s="35"/>
+      <c r="DV5" s="35"/>
+      <c r="DW5" s="35"/>
+      <c r="DX5" s="35"/>
+      <c r="DY5" s="35"/>
+      <c r="DZ5" s="35"/>
+      <c r="EA5" s="35"/>
+      <c r="EB5" s="35"/>
+      <c r="EC5" s="35"/>
+      <c r="ED5" s="35"/>
+      <c r="EE5" s="35"/>
+      <c r="EF5" s="35"/>
+      <c r="EG5" s="35"/>
+      <c r="EH5" s="35"/>
+      <c r="EI5" s="35"/>
+      <c r="EJ5" s="35"/>
+      <c r="EK5" s="35"/>
+      <c r="EL5" s="35"/>
+      <c r="EM5" s="35"/>
+      <c r="EN5" s="35"/>
+      <c r="EO5" s="35"/>
+      <c r="EP5" s="35"/>
+      <c r="EQ5" s="35"/>
+      <c r="ER5" s="35"/>
+      <c r="ES5" s="35"/>
+      <c r="ET5" s="35"/>
+      <c r="EU5" s="35"/>
+      <c r="EV5" s="35"/>
+      <c r="EW5" s="35"/>
+      <c r="EX5" s="35"/>
+      <c r="EY5" s="35"/>
+      <c r="EZ5" s="35"/>
+      <c r="FA5" s="35"/>
+      <c r="FB5" s="35"/>
+      <c r="FC5" s="35"/>
+      <c r="FD5" s="35"/>
+      <c r="FE5" s="35"/>
+      <c r="FF5" s="35"/>
+      <c r="FG5" s="35"/>
+      <c r="FH5" s="35"/>
+      <c r="FI5" s="35"/>
+      <c r="FJ5" s="35"/>
+      <c r="FK5" s="35"/>
+      <c r="FL5" s="35"/>
+      <c r="FM5" s="35"/>
+      <c r="FN5" s="35"/>
+      <c r="FO5" s="35"/>
+      <c r="FP5" s="35"/>
+      <c r="FQ5" s="35"/>
+      <c r="FR5" s="35"/>
+      <c r="FS5" s="35"/>
+      <c r="FT5" s="35"/>
+      <c r="FU5" s="35"/>
+      <c r="FV5" s="35"/>
+      <c r="FW5" s="35"/>
+      <c r="FX5" s="35"/>
+      <c r="FY5" s="35"/>
+      <c r="FZ5" s="35"/>
+      <c r="GA5" s="35"/>
+      <c r="GB5" s="35"/>
+      <c r="GC5" s="35"/>
+      <c r="GD5" s="35"/>
+      <c r="GE5" s="35"/>
+      <c r="GF5" s="35"/>
+      <c r="GG5" s="35"/>
+      <c r="GH5" s="35"/>
+      <c r="GI5" s="35"/>
+      <c r="GJ5" s="35"/>
+      <c r="GK5" s="35"/>
+      <c r="GL5" s="35"/>
+      <c r="GM5" s="35"/>
+      <c r="GN5" s="35"/>
+      <c r="GO5" s="35"/>
+      <c r="GP5" s="35"/>
+      <c r="GQ5" s="35"/>
+      <c r="GR5" s="35"/>
+      <c r="GS5" s="35"/>
+      <c r="GT5" s="35"/>
+      <c r="GU5" s="35"/>
+      <c r="GV5" s="35"/>
+      <c r="GW5" s="35"/>
+      <c r="GX5" s="35"/>
+      <c r="GY5" s="35"/>
+      <c r="GZ5" s="35"/>
+      <c r="HA5" s="35"/>
+      <c r="HB5" s="35"/>
+      <c r="HC5" s="35"/>
+      <c r="HD5" s="35"/>
+      <c r="HE5" s="35"/>
+      <c r="HF5" s="35"/>
+      <c r="HG5" s="35"/>
+      <c r="HH5" s="35"/>
+      <c r="HI5" s="35"/>
+      <c r="HJ5" s="35"/>
+      <c r="HK5" s="35"/>
+      <c r="HL5" s="35"/>
+      <c r="HM5" s="35"/>
+      <c r="HN5" s="35"/>
+      <c r="HO5" s="35"/>
+      <c r="HP5" s="35"/>
+      <c r="HQ5" s="35"/>
+      <c r="HR5" s="35"/>
+      <c r="HS5" s="35"/>
+      <c r="HT5" s="35"/>
+      <c r="HU5" s="35"/>
+      <c r="HV5" s="35"/>
+      <c r="HW5" s="35"/>
+      <c r="HX5" s="35"/>
+      <c r="HY5" s="35"/>
+      <c r="HZ5" s="35"/>
+      <c r="IA5" s="35"/>
+      <c r="IB5" s="35"/>
+      <c r="IC5" s="35"/>
+      <c r="ID5" s="35"/>
+      <c r="IE5" s="35"/>
+      <c r="IF5" s="35"/>
+      <c r="IG5" s="35"/>
+      <c r="IH5" s="35"/>
+      <c r="II5" s="35"/>
+      <c r="IJ5" s="35"/>
+      <c r="IK5" s="35"/>
+      <c r="IL5" s="35"/>
+      <c r="IM5" s="35"/>
+      <c r="IN5" s="35"/>
+      <c r="IO5" s="35"/>
+      <c r="IP5" s="35"/>
+      <c r="IQ5" s="35"/>
+      <c r="IR5" s="35"/>
+      <c r="IS5" s="35"/>
+      <c r="IT5" s="35"/>
+      <c r="IU5" s="35"/>
+      <c r="IV5" s="35"/>
+      <c r="IW5" s="35"/>
+      <c r="IX5" s="35"/>
     </row>
     <row r="6" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="38"/>
+      <c r="A6" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="37"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -2844,278 +2991,298 @@
       <c r="IW6" s="12"/>
       <c r="IX6" s="12"/>
     </row>
-    <row r="7" spans="1:258" s="37" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="36"/>
-      <c r="AP7" s="36"/>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="36"/>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="36"/>
-      <c r="AV7" s="36"/>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="36"/>
-      <c r="AY7" s="36"/>
-      <c r="AZ7" s="36"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="36"/>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="36"/>
-      <c r="BK7" s="36"/>
-      <c r="BL7" s="36"/>
-      <c r="BM7" s="36"/>
-      <c r="BN7" s="36"/>
-      <c r="BO7" s="36"/>
-      <c r="BP7" s="36"/>
-      <c r="BQ7" s="36"/>
-      <c r="BR7" s="36"/>
-      <c r="BS7" s="36"/>
-      <c r="BT7" s="36"/>
-      <c r="BU7" s="36"/>
-      <c r="BV7" s="36"/>
-      <c r="BW7" s="36"/>
-      <c r="BX7" s="36"/>
-      <c r="BY7" s="36"/>
-      <c r="BZ7" s="36"/>
-      <c r="CA7" s="36"/>
-      <c r="CB7" s="36"/>
-      <c r="CC7" s="36"/>
-      <c r="CD7" s="36"/>
-      <c r="CE7" s="36"/>
-      <c r="CF7" s="36"/>
-      <c r="CG7" s="36"/>
-      <c r="CH7" s="36"/>
-      <c r="CI7" s="36"/>
-      <c r="CJ7" s="36"/>
-      <c r="CK7" s="36"/>
-      <c r="CL7" s="36"/>
-      <c r="CM7" s="36"/>
-      <c r="CN7" s="36"/>
-      <c r="CO7" s="36"/>
-      <c r="CP7" s="36"/>
-      <c r="CQ7" s="36"/>
-      <c r="CR7" s="36"/>
-      <c r="CS7" s="36"/>
-      <c r="CT7" s="36"/>
-      <c r="CU7" s="36"/>
-      <c r="CV7" s="36"/>
-      <c r="CW7" s="36"/>
-      <c r="CX7" s="36"/>
-      <c r="CY7" s="36"/>
-      <c r="CZ7" s="36"/>
-      <c r="DA7" s="36"/>
-      <c r="DB7" s="36"/>
-      <c r="DC7" s="36"/>
-      <c r="DD7" s="36"/>
-      <c r="DE7" s="36"/>
-      <c r="DF7" s="36"/>
-      <c r="DG7" s="36"/>
-      <c r="DH7" s="36"/>
-      <c r="DI7" s="36"/>
-      <c r="DJ7" s="36"/>
-      <c r="DK7" s="36"/>
-      <c r="DL7" s="36"/>
-      <c r="DM7" s="36"/>
-      <c r="DN7" s="36"/>
-      <c r="DO7" s="36"/>
-      <c r="DP7" s="36"/>
-      <c r="DQ7" s="36"/>
-      <c r="DR7" s="36"/>
-      <c r="DS7" s="36"/>
-      <c r="DT7" s="36"/>
-      <c r="DU7" s="36"/>
-      <c r="DV7" s="36"/>
-      <c r="DW7" s="36"/>
-      <c r="DX7" s="36"/>
-      <c r="DY7" s="36"/>
-      <c r="DZ7" s="36"/>
-      <c r="EA7" s="36"/>
-      <c r="EB7" s="36"/>
-      <c r="EC7" s="36"/>
-      <c r="ED7" s="36"/>
-      <c r="EE7" s="36"/>
-      <c r="EF7" s="36"/>
-      <c r="EG7" s="36"/>
-      <c r="EH7" s="36"/>
-      <c r="EI7" s="36"/>
-      <c r="EJ7" s="36"/>
-      <c r="EK7" s="36"/>
-      <c r="EL7" s="36"/>
-      <c r="EM7" s="36"/>
-      <c r="EN7" s="36"/>
-      <c r="EO7" s="36"/>
-      <c r="EP7" s="36"/>
-      <c r="EQ7" s="36"/>
-      <c r="ER7" s="36"/>
-      <c r="ES7" s="36"/>
-      <c r="ET7" s="36"/>
-      <c r="EU7" s="36"/>
-      <c r="EV7" s="36"/>
-      <c r="EW7" s="36"/>
-      <c r="EX7" s="36"/>
-      <c r="EY7" s="36"/>
-      <c r="EZ7" s="36"/>
-      <c r="FA7" s="36"/>
-      <c r="FB7" s="36"/>
-      <c r="FC7" s="36"/>
-      <c r="FD7" s="36"/>
-      <c r="FE7" s="36"/>
-      <c r="FF7" s="36"/>
-      <c r="FG7" s="36"/>
-      <c r="FH7" s="36"/>
-      <c r="FI7" s="36"/>
-      <c r="FJ7" s="36"/>
-      <c r="FK7" s="36"/>
-      <c r="FL7" s="36"/>
-      <c r="FM7" s="36"/>
-      <c r="FN7" s="36"/>
-      <c r="FO7" s="36"/>
-      <c r="FP7" s="36"/>
-      <c r="FQ7" s="36"/>
-      <c r="FR7" s="36"/>
-      <c r="FS7" s="36"/>
-      <c r="FT7" s="36"/>
-      <c r="FU7" s="36"/>
-      <c r="FV7" s="36"/>
-      <c r="FW7" s="36"/>
-      <c r="FX7" s="36"/>
-      <c r="FY7" s="36"/>
-      <c r="FZ7" s="36"/>
-      <c r="GA7" s="36"/>
-      <c r="GB7" s="36"/>
-      <c r="GC7" s="36"/>
-      <c r="GD7" s="36"/>
-      <c r="GE7" s="36"/>
-      <c r="GF7" s="36"/>
-      <c r="GG7" s="36"/>
-      <c r="GH7" s="36"/>
-      <c r="GI7" s="36"/>
-      <c r="GJ7" s="36"/>
-      <c r="GK7" s="36"/>
-      <c r="GL7" s="36"/>
-      <c r="GM7" s="36"/>
-      <c r="GN7" s="36"/>
-      <c r="GO7" s="36"/>
-      <c r="GP7" s="36"/>
-      <c r="GQ7" s="36"/>
-      <c r="GR7" s="36"/>
-      <c r="GS7" s="36"/>
-      <c r="GT7" s="36"/>
-      <c r="GU7" s="36"/>
-      <c r="GV7" s="36"/>
-      <c r="GW7" s="36"/>
-      <c r="GX7" s="36"/>
-      <c r="GY7" s="36"/>
-      <c r="GZ7" s="36"/>
-      <c r="HA7" s="36"/>
-      <c r="HB7" s="36"/>
-      <c r="HC7" s="36"/>
-      <c r="HD7" s="36"/>
-      <c r="HE7" s="36"/>
-      <c r="HF7" s="36"/>
-      <c r="HG7" s="36"/>
-      <c r="HH7" s="36"/>
-      <c r="HI7" s="36"/>
-      <c r="HJ7" s="36"/>
-      <c r="HK7" s="36"/>
-      <c r="HL7" s="36"/>
-      <c r="HM7" s="36"/>
-      <c r="HN7" s="36"/>
-      <c r="HO7" s="36"/>
-      <c r="HP7" s="36"/>
-      <c r="HQ7" s="36"/>
-      <c r="HR7" s="36"/>
-      <c r="HS7" s="36"/>
-      <c r="HT7" s="36"/>
-      <c r="HU7" s="36"/>
-      <c r="HV7" s="36"/>
-      <c r="HW7" s="36"/>
-      <c r="HX7" s="36"/>
-      <c r="HY7" s="36"/>
-      <c r="HZ7" s="36"/>
-      <c r="IA7" s="36"/>
-      <c r="IB7" s="36"/>
-      <c r="IC7" s="36"/>
-      <c r="ID7" s="36"/>
-      <c r="IE7" s="36"/>
-      <c r="IF7" s="36"/>
-      <c r="IG7" s="36"/>
-      <c r="IH7" s="36"/>
-      <c r="II7" s="36"/>
-      <c r="IJ7" s="36"/>
-      <c r="IK7" s="36"/>
-      <c r="IL7" s="36"/>
-      <c r="IM7" s="36"/>
-      <c r="IN7" s="36"/>
-      <c r="IO7" s="36"/>
-      <c r="IP7" s="36"/>
-      <c r="IQ7" s="36"/>
-      <c r="IR7" s="36"/>
-      <c r="IS7" s="36"/>
-      <c r="IT7" s="36"/>
-      <c r="IU7" s="36"/>
-      <c r="IV7" s="36"/>
-      <c r="IW7" s="36"/>
-      <c r="IX7" s="36"/>
+    <row r="7" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="65"/>
+      <c r="B7" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="12"/>
+      <c r="BI7" s="12"/>
+      <c r="BJ7" s="12"/>
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12"/>
+      <c r="BN7" s="12"/>
+      <c r="BO7" s="12"/>
+      <c r="BP7" s="12"/>
+      <c r="BQ7" s="12"/>
+      <c r="BR7" s="12"/>
+      <c r="BS7" s="12"/>
+      <c r="BT7" s="12"/>
+      <c r="BU7" s="12"/>
+      <c r="BV7" s="12"/>
+      <c r="BW7" s="12"/>
+      <c r="BX7" s="12"/>
+      <c r="BY7" s="12"/>
+      <c r="BZ7" s="12"/>
+      <c r="CA7" s="12"/>
+      <c r="CB7" s="12"/>
+      <c r="CC7" s="12"/>
+      <c r="CD7" s="12"/>
+      <c r="CE7" s="12"/>
+      <c r="CF7" s="12"/>
+      <c r="CG7" s="12"/>
+      <c r="CH7" s="12"/>
+      <c r="CI7" s="12"/>
+      <c r="CJ7" s="12"/>
+      <c r="CK7" s="12"/>
+      <c r="CL7" s="12"/>
+      <c r="CM7" s="12"/>
+      <c r="CN7" s="12"/>
+      <c r="CO7" s="12"/>
+      <c r="CP7" s="12"/>
+      <c r="CQ7" s="12"/>
+      <c r="CR7" s="12"/>
+      <c r="CS7" s="12"/>
+      <c r="CT7" s="12"/>
+      <c r="CU7" s="12"/>
+      <c r="CV7" s="12"/>
+      <c r="CW7" s="12"/>
+      <c r="CX7" s="12"/>
+      <c r="CY7" s="12"/>
+      <c r="CZ7" s="12"/>
+      <c r="DA7" s="12"/>
+      <c r="DB7" s="12"/>
+      <c r="DC7" s="12"/>
+      <c r="DD7" s="12"/>
+      <c r="DE7" s="12"/>
+      <c r="DF7" s="12"/>
+      <c r="DG7" s="12"/>
+      <c r="DH7" s="12"/>
+      <c r="DI7" s="12"/>
+      <c r="DJ7" s="12"/>
+      <c r="DK7" s="12"/>
+      <c r="DL7" s="12"/>
+      <c r="DM7" s="12"/>
+      <c r="DN7" s="12"/>
+      <c r="DO7" s="12"/>
+      <c r="DP7" s="12"/>
+      <c r="DQ7" s="12"/>
+      <c r="DR7" s="12"/>
+      <c r="DS7" s="12"/>
+      <c r="DT7" s="12"/>
+      <c r="DU7" s="12"/>
+      <c r="DV7" s="12"/>
+      <c r="DW7" s="12"/>
+      <c r="DX7" s="12"/>
+      <c r="DY7" s="12"/>
+      <c r="DZ7" s="12"/>
+      <c r="EA7" s="12"/>
+      <c r="EB7" s="12"/>
+      <c r="EC7" s="12"/>
+      <c r="ED7" s="12"/>
+      <c r="EE7" s="12"/>
+      <c r="EF7" s="12"/>
+      <c r="EG7" s="12"/>
+      <c r="EH7" s="12"/>
+      <c r="EI7" s="12"/>
+      <c r="EJ7" s="12"/>
+      <c r="EK7" s="12"/>
+      <c r="EL7" s="12"/>
+      <c r="EM7" s="12"/>
+      <c r="EN7" s="12"/>
+      <c r="EO7" s="12"/>
+      <c r="EP7" s="12"/>
+      <c r="EQ7" s="12"/>
+      <c r="ER7" s="12"/>
+      <c r="ES7" s="12"/>
+      <c r="ET7" s="12"/>
+      <c r="EU7" s="12"/>
+      <c r="EV7" s="12"/>
+      <c r="EW7" s="12"/>
+      <c r="EX7" s="12"/>
+      <c r="EY7" s="12"/>
+      <c r="EZ7" s="12"/>
+      <c r="FA7" s="12"/>
+      <c r="FB7" s="12"/>
+      <c r="FC7" s="12"/>
+      <c r="FD7" s="12"/>
+      <c r="FE7" s="12"/>
+      <c r="FF7" s="12"/>
+      <c r="FG7" s="12"/>
+      <c r="FH7" s="12"/>
+      <c r="FI7" s="12"/>
+      <c r="FJ7" s="12"/>
+      <c r="FK7" s="12"/>
+      <c r="FL7" s="12"/>
+      <c r="FM7" s="12"/>
+      <c r="FN7" s="12"/>
+      <c r="FO7" s="12"/>
+      <c r="FP7" s="12"/>
+      <c r="FQ7" s="12"/>
+      <c r="FR7" s="12"/>
+      <c r="FS7" s="12"/>
+      <c r="FT7" s="12"/>
+      <c r="FU7" s="12"/>
+      <c r="FV7" s="12"/>
+      <c r="FW7" s="12"/>
+      <c r="FX7" s="12"/>
+      <c r="FY7" s="12"/>
+      <c r="FZ7" s="12"/>
+      <c r="GA7" s="12"/>
+      <c r="GB7" s="12"/>
+      <c r="GC7" s="12"/>
+      <c r="GD7" s="12"/>
+      <c r="GE7" s="12"/>
+      <c r="GF7" s="12"/>
+      <c r="GG7" s="12"/>
+      <c r="GH7" s="12"/>
+      <c r="GI7" s="12"/>
+      <c r="GJ7" s="12"/>
+      <c r="GK7" s="12"/>
+      <c r="GL7" s="12"/>
+      <c r="GM7" s="12"/>
+      <c r="GN7" s="12"/>
+      <c r="GO7" s="12"/>
+      <c r="GP7" s="12"/>
+      <c r="GQ7" s="12"/>
+      <c r="GR7" s="12"/>
+      <c r="GS7" s="12"/>
+      <c r="GT7" s="12"/>
+      <c r="GU7" s="12"/>
+      <c r="GV7" s="12"/>
+      <c r="GW7" s="12"/>
+      <c r="GX7" s="12"/>
+      <c r="GY7" s="12"/>
+      <c r="GZ7" s="12"/>
+      <c r="HA7" s="12"/>
+      <c r="HB7" s="12"/>
+      <c r="HC7" s="12"/>
+      <c r="HD7" s="12"/>
+      <c r="HE7" s="12"/>
+      <c r="HF7" s="12"/>
+      <c r="HG7" s="12"/>
+      <c r="HH7" s="12"/>
+      <c r="HI7" s="12"/>
+      <c r="HJ7" s="12"/>
+      <c r="HK7" s="12"/>
+      <c r="HL7" s="12"/>
+      <c r="HM7" s="12"/>
+      <c r="HN7" s="12"/>
+      <c r="HO7" s="12"/>
+      <c r="HP7" s="12"/>
+      <c r="HQ7" s="12"/>
+      <c r="HR7" s="12"/>
+      <c r="HS7" s="12"/>
+      <c r="HT7" s="12"/>
+      <c r="HU7" s="12"/>
+      <c r="HV7" s="12"/>
+      <c r="HW7" s="12"/>
+      <c r="HX7" s="12"/>
+      <c r="HY7" s="12"/>
+      <c r="HZ7" s="12"/>
+      <c r="IA7" s="12"/>
+      <c r="IB7" s="12"/>
+      <c r="IC7" s="12"/>
+      <c r="ID7" s="12"/>
+      <c r="IE7" s="12"/>
+      <c r="IF7" s="12"/>
+      <c r="IG7" s="12"/>
+      <c r="IH7" s="12"/>
+      <c r="II7" s="12"/>
+      <c r="IJ7" s="12"/>
+      <c r="IK7" s="12"/>
+      <c r="IL7" s="12"/>
+      <c r="IM7" s="12"/>
+      <c r="IN7" s="12"/>
+      <c r="IO7" s="12"/>
+      <c r="IP7" s="12"/>
+      <c r="IQ7" s="12"/>
+      <c r="IR7" s="12"/>
+      <c r="IS7" s="12"/>
+      <c r="IT7" s="12"/>
+      <c r="IU7" s="12"/>
+      <c r="IV7" s="12"/>
+      <c r="IW7" s="12"/>
+      <c r="IX7" s="12"/>
     </row>
     <row r="8" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="38"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -3364,278 +3531,302 @@
       <c r="IW8" s="12"/>
       <c r="IX8" s="12"/>
     </row>
-    <row r="9" spans="1:258" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36"/>
-      <c r="AQ9" s="36"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36"/>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="36"/>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="36"/>
-      <c r="BB9" s="36"/>
-      <c r="BC9" s="36"/>
-      <c r="BD9" s="36"/>
-      <c r="BE9" s="36"/>
-      <c r="BF9" s="36"/>
-      <c r="BG9" s="36"/>
-      <c r="BH9" s="36"/>
-      <c r="BI9" s="36"/>
-      <c r="BJ9" s="36"/>
-      <c r="BK9" s="36"/>
-      <c r="BL9" s="36"/>
-      <c r="BM9" s="36"/>
-      <c r="BN9" s="36"/>
-      <c r="BO9" s="36"/>
-      <c r="BP9" s="36"/>
-      <c r="BQ9" s="36"/>
-      <c r="BR9" s="36"/>
-      <c r="BS9" s="36"/>
-      <c r="BT9" s="36"/>
-      <c r="BU9" s="36"/>
-      <c r="BV9" s="36"/>
-      <c r="BW9" s="36"/>
-      <c r="BX9" s="36"/>
-      <c r="BY9" s="36"/>
-      <c r="BZ9" s="36"/>
-      <c r="CA9" s="36"/>
-      <c r="CB9" s="36"/>
-      <c r="CC9" s="36"/>
-      <c r="CD9" s="36"/>
-      <c r="CE9" s="36"/>
-      <c r="CF9" s="36"/>
-      <c r="CG9" s="36"/>
-      <c r="CH9" s="36"/>
-      <c r="CI9" s="36"/>
-      <c r="CJ9" s="36"/>
-      <c r="CK9" s="36"/>
-      <c r="CL9" s="36"/>
-      <c r="CM9" s="36"/>
-      <c r="CN9" s="36"/>
-      <c r="CO9" s="36"/>
-      <c r="CP9" s="36"/>
-      <c r="CQ9" s="36"/>
-      <c r="CR9" s="36"/>
-      <c r="CS9" s="36"/>
-      <c r="CT9" s="36"/>
-      <c r="CU9" s="36"/>
-      <c r="CV9" s="36"/>
-      <c r="CW9" s="36"/>
-      <c r="CX9" s="36"/>
-      <c r="CY9" s="36"/>
-      <c r="CZ9" s="36"/>
-      <c r="DA9" s="36"/>
-      <c r="DB9" s="36"/>
-      <c r="DC9" s="36"/>
-      <c r="DD9" s="36"/>
-      <c r="DE9" s="36"/>
-      <c r="DF9" s="36"/>
-      <c r="DG9" s="36"/>
-      <c r="DH9" s="36"/>
-      <c r="DI9" s="36"/>
-      <c r="DJ9" s="36"/>
-      <c r="DK9" s="36"/>
-      <c r="DL9" s="36"/>
-      <c r="DM9" s="36"/>
-      <c r="DN9" s="36"/>
-      <c r="DO9" s="36"/>
-      <c r="DP9" s="36"/>
-      <c r="DQ9" s="36"/>
-      <c r="DR9" s="36"/>
-      <c r="DS9" s="36"/>
-      <c r="DT9" s="36"/>
-      <c r="DU9" s="36"/>
-      <c r="DV9" s="36"/>
-      <c r="DW9" s="36"/>
-      <c r="DX9" s="36"/>
-      <c r="DY9" s="36"/>
-      <c r="DZ9" s="36"/>
-      <c r="EA9" s="36"/>
-      <c r="EB9" s="36"/>
-      <c r="EC9" s="36"/>
-      <c r="ED9" s="36"/>
-      <c r="EE9" s="36"/>
-      <c r="EF9" s="36"/>
-      <c r="EG9" s="36"/>
-      <c r="EH9" s="36"/>
-      <c r="EI9" s="36"/>
-      <c r="EJ9" s="36"/>
-      <c r="EK9" s="36"/>
-      <c r="EL9" s="36"/>
-      <c r="EM9" s="36"/>
-      <c r="EN9" s="36"/>
-      <c r="EO9" s="36"/>
-      <c r="EP9" s="36"/>
-      <c r="EQ9" s="36"/>
-      <c r="ER9" s="36"/>
-      <c r="ES9" s="36"/>
-      <c r="ET9" s="36"/>
-      <c r="EU9" s="36"/>
-      <c r="EV9" s="36"/>
-      <c r="EW9" s="36"/>
-      <c r="EX9" s="36"/>
-      <c r="EY9" s="36"/>
-      <c r="EZ9" s="36"/>
-      <c r="FA9" s="36"/>
-      <c r="FB9" s="36"/>
-      <c r="FC9" s="36"/>
-      <c r="FD9" s="36"/>
-      <c r="FE9" s="36"/>
-      <c r="FF9" s="36"/>
-      <c r="FG9" s="36"/>
-      <c r="FH9" s="36"/>
-      <c r="FI9" s="36"/>
-      <c r="FJ9" s="36"/>
-      <c r="FK9" s="36"/>
-      <c r="FL9" s="36"/>
-      <c r="FM9" s="36"/>
-      <c r="FN9" s="36"/>
-      <c r="FO9" s="36"/>
-      <c r="FP9" s="36"/>
-      <c r="FQ9" s="36"/>
-      <c r="FR9" s="36"/>
-      <c r="FS9" s="36"/>
-      <c r="FT9" s="36"/>
-      <c r="FU9" s="36"/>
-      <c r="FV9" s="36"/>
-      <c r="FW9" s="36"/>
-      <c r="FX9" s="36"/>
-      <c r="FY9" s="36"/>
-      <c r="FZ9" s="36"/>
-      <c r="GA9" s="36"/>
-      <c r="GB9" s="36"/>
-      <c r="GC9" s="36"/>
-      <c r="GD9" s="36"/>
-      <c r="GE9" s="36"/>
-      <c r="GF9" s="36"/>
-      <c r="GG9" s="36"/>
-      <c r="GH9" s="36"/>
-      <c r="GI9" s="36"/>
-      <c r="GJ9" s="36"/>
-      <c r="GK9" s="36"/>
-      <c r="GL9" s="36"/>
-      <c r="GM9" s="36"/>
-      <c r="GN9" s="36"/>
-      <c r="GO9" s="36"/>
-      <c r="GP9" s="36"/>
-      <c r="GQ9" s="36"/>
-      <c r="GR9" s="36"/>
-      <c r="GS9" s="36"/>
-      <c r="GT9" s="36"/>
-      <c r="GU9" s="36"/>
-      <c r="GV9" s="36"/>
-      <c r="GW9" s="36"/>
-      <c r="GX9" s="36"/>
-      <c r="GY9" s="36"/>
-      <c r="GZ9" s="36"/>
-      <c r="HA9" s="36"/>
-      <c r="HB9" s="36"/>
-      <c r="HC9" s="36"/>
-      <c r="HD9" s="36"/>
-      <c r="HE9" s="36"/>
-      <c r="HF9" s="36"/>
-      <c r="HG9" s="36"/>
-      <c r="HH9" s="36"/>
-      <c r="HI9" s="36"/>
-      <c r="HJ9" s="36"/>
-      <c r="HK9" s="36"/>
-      <c r="HL9" s="36"/>
-      <c r="HM9" s="36"/>
-      <c r="HN9" s="36"/>
-      <c r="HO9" s="36"/>
-      <c r="HP9" s="36"/>
-      <c r="HQ9" s="36"/>
-      <c r="HR9" s="36"/>
-      <c r="HS9" s="36"/>
-      <c r="HT9" s="36"/>
-      <c r="HU9" s="36"/>
-      <c r="HV9" s="36"/>
-      <c r="HW9" s="36"/>
-      <c r="HX9" s="36"/>
-      <c r="HY9" s="36"/>
-      <c r="HZ9" s="36"/>
-      <c r="IA9" s="36"/>
-      <c r="IB9" s="36"/>
-      <c r="IC9" s="36"/>
-      <c r="ID9" s="36"/>
-      <c r="IE9" s="36"/>
-      <c r="IF9" s="36"/>
-      <c r="IG9" s="36"/>
-      <c r="IH9" s="36"/>
-      <c r="II9" s="36"/>
-      <c r="IJ9" s="36"/>
-      <c r="IK9" s="36"/>
-      <c r="IL9" s="36"/>
-      <c r="IM9" s="36"/>
-      <c r="IN9" s="36"/>
-      <c r="IO9" s="36"/>
-      <c r="IP9" s="36"/>
-      <c r="IQ9" s="36"/>
-      <c r="IR9" s="36"/>
-      <c r="IS9" s="36"/>
-      <c r="IT9" s="36"/>
-      <c r="IU9" s="36"/>
-      <c r="IV9" s="36"/>
-      <c r="IW9" s="36"/>
-      <c r="IX9" s="36"/>
+    <row r="9" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="65"/>
+      <c r="B9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+      <c r="BH9" s="12"/>
+      <c r="BI9" s="12"/>
+      <c r="BJ9" s="12"/>
+      <c r="BK9" s="12"/>
+      <c r="BL9" s="12"/>
+      <c r="BM9" s="12"/>
+      <c r="BN9" s="12"/>
+      <c r="BO9" s="12"/>
+      <c r="BP9" s="12"/>
+      <c r="BQ9" s="12"/>
+      <c r="BR9" s="12"/>
+      <c r="BS9" s="12"/>
+      <c r="BT9" s="12"/>
+      <c r="BU9" s="12"/>
+      <c r="BV9" s="12"/>
+      <c r="BW9" s="12"/>
+      <c r="BX9" s="12"/>
+      <c r="BY9" s="12"/>
+      <c r="BZ9" s="12"/>
+      <c r="CA9" s="12"/>
+      <c r="CB9" s="12"/>
+      <c r="CC9" s="12"/>
+      <c r="CD9" s="12"/>
+      <c r="CE9" s="12"/>
+      <c r="CF9" s="12"/>
+      <c r="CG9" s="12"/>
+      <c r="CH9" s="12"/>
+      <c r="CI9" s="12"/>
+      <c r="CJ9" s="12"/>
+      <c r="CK9" s="12"/>
+      <c r="CL9" s="12"/>
+      <c r="CM9" s="12"/>
+      <c r="CN9" s="12"/>
+      <c r="CO9" s="12"/>
+      <c r="CP9" s="12"/>
+      <c r="CQ9" s="12"/>
+      <c r="CR9" s="12"/>
+      <c r="CS9" s="12"/>
+      <c r="CT9" s="12"/>
+      <c r="CU9" s="12"/>
+      <c r="CV9" s="12"/>
+      <c r="CW9" s="12"/>
+      <c r="CX9" s="12"/>
+      <c r="CY9" s="12"/>
+      <c r="CZ9" s="12"/>
+      <c r="DA9" s="12"/>
+      <c r="DB9" s="12"/>
+      <c r="DC9" s="12"/>
+      <c r="DD9" s="12"/>
+      <c r="DE9" s="12"/>
+      <c r="DF9" s="12"/>
+      <c r="DG9" s="12"/>
+      <c r="DH9" s="12"/>
+      <c r="DI9" s="12"/>
+      <c r="DJ9" s="12"/>
+      <c r="DK9" s="12"/>
+      <c r="DL9" s="12"/>
+      <c r="DM9" s="12"/>
+      <c r="DN9" s="12"/>
+      <c r="DO9" s="12"/>
+      <c r="DP9" s="12"/>
+      <c r="DQ9" s="12"/>
+      <c r="DR9" s="12"/>
+      <c r="DS9" s="12"/>
+      <c r="DT9" s="12"/>
+      <c r="DU9" s="12"/>
+      <c r="DV9" s="12"/>
+      <c r="DW9" s="12"/>
+      <c r="DX9" s="12"/>
+      <c r="DY9" s="12"/>
+      <c r="DZ9" s="12"/>
+      <c r="EA9" s="12"/>
+      <c r="EB9" s="12"/>
+      <c r="EC9" s="12"/>
+      <c r="ED9" s="12"/>
+      <c r="EE9" s="12"/>
+      <c r="EF9" s="12"/>
+      <c r="EG9" s="12"/>
+      <c r="EH9" s="12"/>
+      <c r="EI9" s="12"/>
+      <c r="EJ9" s="12"/>
+      <c r="EK9" s="12"/>
+      <c r="EL9" s="12"/>
+      <c r="EM9" s="12"/>
+      <c r="EN9" s="12"/>
+      <c r="EO9" s="12"/>
+      <c r="EP9" s="12"/>
+      <c r="EQ9" s="12"/>
+      <c r="ER9" s="12"/>
+      <c r="ES9" s="12"/>
+      <c r="ET9" s="12"/>
+      <c r="EU9" s="12"/>
+      <c r="EV9" s="12"/>
+      <c r="EW9" s="12"/>
+      <c r="EX9" s="12"/>
+      <c r="EY9" s="12"/>
+      <c r="EZ9" s="12"/>
+      <c r="FA9" s="12"/>
+      <c r="FB9" s="12"/>
+      <c r="FC9" s="12"/>
+      <c r="FD9" s="12"/>
+      <c r="FE9" s="12"/>
+      <c r="FF9" s="12"/>
+      <c r="FG9" s="12"/>
+      <c r="FH9" s="12"/>
+      <c r="FI9" s="12"/>
+      <c r="FJ9" s="12"/>
+      <c r="FK9" s="12"/>
+      <c r="FL9" s="12"/>
+      <c r="FM9" s="12"/>
+      <c r="FN9" s="12"/>
+      <c r="FO9" s="12"/>
+      <c r="FP9" s="12"/>
+      <c r="FQ9" s="12"/>
+      <c r="FR9" s="12"/>
+      <c r="FS9" s="12"/>
+      <c r="FT9" s="12"/>
+      <c r="FU9" s="12"/>
+      <c r="FV9" s="12"/>
+      <c r="FW9" s="12"/>
+      <c r="FX9" s="12"/>
+      <c r="FY9" s="12"/>
+      <c r="FZ9" s="12"/>
+      <c r="GA9" s="12"/>
+      <c r="GB9" s="12"/>
+      <c r="GC9" s="12"/>
+      <c r="GD9" s="12"/>
+      <c r="GE9" s="12"/>
+      <c r="GF9" s="12"/>
+      <c r="GG9" s="12"/>
+      <c r="GH9" s="12"/>
+      <c r="GI9" s="12"/>
+      <c r="GJ9" s="12"/>
+      <c r="GK9" s="12"/>
+      <c r="GL9" s="12"/>
+      <c r="GM9" s="12"/>
+      <c r="GN9" s="12"/>
+      <c r="GO9" s="12"/>
+      <c r="GP9" s="12"/>
+      <c r="GQ9" s="12"/>
+      <c r="GR9" s="12"/>
+      <c r="GS9" s="12"/>
+      <c r="GT9" s="12"/>
+      <c r="GU9" s="12"/>
+      <c r="GV9" s="12"/>
+      <c r="GW9" s="12"/>
+      <c r="GX9" s="12"/>
+      <c r="GY9" s="12"/>
+      <c r="GZ9" s="12"/>
+      <c r="HA9" s="12"/>
+      <c r="HB9" s="12"/>
+      <c r="HC9" s="12"/>
+      <c r="HD9" s="12"/>
+      <c r="HE9" s="12"/>
+      <c r="HF9" s="12"/>
+      <c r="HG9" s="12"/>
+      <c r="HH9" s="12"/>
+      <c r="HI9" s="12"/>
+      <c r="HJ9" s="12"/>
+      <c r="HK9" s="12"/>
+      <c r="HL9" s="12"/>
+      <c r="HM9" s="12"/>
+      <c r="HN9" s="12"/>
+      <c r="HO9" s="12"/>
+      <c r="HP9" s="12"/>
+      <c r="HQ9" s="12"/>
+      <c r="HR9" s="12"/>
+      <c r="HS9" s="12"/>
+      <c r="HT9" s="12"/>
+      <c r="HU9" s="12"/>
+      <c r="HV9" s="12"/>
+      <c r="HW9" s="12"/>
+      <c r="HX9" s="12"/>
+      <c r="HY9" s="12"/>
+      <c r="HZ9" s="12"/>
+      <c r="IA9" s="12"/>
+      <c r="IB9" s="12"/>
+      <c r="IC9" s="12"/>
+      <c r="ID9" s="12"/>
+      <c r="IE9" s="12"/>
+      <c r="IF9" s="12"/>
+      <c r="IG9" s="12"/>
+      <c r="IH9" s="12"/>
+      <c r="II9" s="12"/>
+      <c r="IJ9" s="12"/>
+      <c r="IK9" s="12"/>
+      <c r="IL9" s="12"/>
+      <c r="IM9" s="12"/>
+      <c r="IN9" s="12"/>
+      <c r="IO9" s="12"/>
+      <c r="IP9" s="12"/>
+      <c r="IQ9" s="12"/>
+      <c r="IR9" s="12"/>
+      <c r="IS9" s="12"/>
+      <c r="IT9" s="12"/>
+      <c r="IU9" s="12"/>
+      <c r="IV9" s="12"/>
+      <c r="IW9" s="12"/>
+      <c r="IX9" s="12"/>
     </row>
     <row r="10" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="31"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -3884,278 +4075,278 @@
       <c r="IW10" s="12"/>
       <c r="IX10" s="12"/>
     </row>
-    <row r="11" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
-      <c r="AV11" s="12"/>
-      <c r="AW11" s="12"/>
-      <c r="AX11" s="12"/>
-      <c r="AY11" s="12"/>
-      <c r="AZ11" s="12"/>
-      <c r="BA11" s="12"/>
-      <c r="BB11" s="12"/>
-      <c r="BC11" s="12"/>
-      <c r="BD11" s="12"/>
-      <c r="BE11" s="12"/>
-      <c r="BF11" s="12"/>
-      <c r="BG11" s="12"/>
-      <c r="BH11" s="12"/>
-      <c r="BI11" s="12"/>
-      <c r="BJ11" s="12"/>
-      <c r="BK11" s="12"/>
-      <c r="BL11" s="12"/>
-      <c r="BM11" s="12"/>
-      <c r="BN11" s="12"/>
-      <c r="BO11" s="12"/>
-      <c r="BP11" s="12"/>
-      <c r="BQ11" s="12"/>
-      <c r="BR11" s="12"/>
-      <c r="BS11" s="12"/>
-      <c r="BT11" s="12"/>
-      <c r="BU11" s="12"/>
-      <c r="BV11" s="12"/>
-      <c r="BW11" s="12"/>
-      <c r="BX11" s="12"/>
-      <c r="BY11" s="12"/>
-      <c r="BZ11" s="12"/>
-      <c r="CA11" s="12"/>
-      <c r="CB11" s="12"/>
-      <c r="CC11" s="12"/>
-      <c r="CD11" s="12"/>
-      <c r="CE11" s="12"/>
-      <c r="CF11" s="12"/>
-      <c r="CG11" s="12"/>
-      <c r="CH11" s="12"/>
-      <c r="CI11" s="12"/>
-      <c r="CJ11" s="12"/>
-      <c r="CK11" s="12"/>
-      <c r="CL11" s="12"/>
-      <c r="CM11" s="12"/>
-      <c r="CN11" s="12"/>
-      <c r="CO11" s="12"/>
-      <c r="CP11" s="12"/>
-      <c r="CQ11" s="12"/>
-      <c r="CR11" s="12"/>
-      <c r="CS11" s="12"/>
-      <c r="CT11" s="12"/>
-      <c r="CU11" s="12"/>
-      <c r="CV11" s="12"/>
-      <c r="CW11" s="12"/>
-      <c r="CX11" s="12"/>
-      <c r="CY11" s="12"/>
-      <c r="CZ11" s="12"/>
-      <c r="DA11" s="12"/>
-      <c r="DB11" s="12"/>
-      <c r="DC11" s="12"/>
-      <c r="DD11" s="12"/>
-      <c r="DE11" s="12"/>
-      <c r="DF11" s="12"/>
-      <c r="DG11" s="12"/>
-      <c r="DH11" s="12"/>
-      <c r="DI11" s="12"/>
-      <c r="DJ11" s="12"/>
-      <c r="DK11" s="12"/>
-      <c r="DL11" s="12"/>
-      <c r="DM11" s="12"/>
-      <c r="DN11" s="12"/>
-      <c r="DO11" s="12"/>
-      <c r="DP11" s="12"/>
-      <c r="DQ11" s="12"/>
-      <c r="DR11" s="12"/>
-      <c r="DS11" s="12"/>
-      <c r="DT11" s="12"/>
-      <c r="DU11" s="12"/>
-      <c r="DV11" s="12"/>
-      <c r="DW11" s="12"/>
-      <c r="DX11" s="12"/>
-      <c r="DY11" s="12"/>
-      <c r="DZ11" s="12"/>
-      <c r="EA11" s="12"/>
-      <c r="EB11" s="12"/>
-      <c r="EC11" s="12"/>
-      <c r="ED11" s="12"/>
-      <c r="EE11" s="12"/>
-      <c r="EF11" s="12"/>
-      <c r="EG11" s="12"/>
-      <c r="EH11" s="12"/>
-      <c r="EI11" s="12"/>
-      <c r="EJ11" s="12"/>
-      <c r="EK11" s="12"/>
-      <c r="EL11" s="12"/>
-      <c r="EM11" s="12"/>
-      <c r="EN11" s="12"/>
-      <c r="EO11" s="12"/>
-      <c r="EP11" s="12"/>
-      <c r="EQ11" s="12"/>
-      <c r="ER11" s="12"/>
-      <c r="ES11" s="12"/>
-      <c r="ET11" s="12"/>
-      <c r="EU11" s="12"/>
-      <c r="EV11" s="12"/>
-      <c r="EW11" s="12"/>
-      <c r="EX11" s="12"/>
-      <c r="EY11" s="12"/>
-      <c r="EZ11" s="12"/>
-      <c r="FA11" s="12"/>
-      <c r="FB11" s="12"/>
-      <c r="FC11" s="12"/>
-      <c r="FD11" s="12"/>
-      <c r="FE11" s="12"/>
-      <c r="FF11" s="12"/>
-      <c r="FG11" s="12"/>
-      <c r="FH11" s="12"/>
-      <c r="FI11" s="12"/>
-      <c r="FJ11" s="12"/>
-      <c r="FK11" s="12"/>
-      <c r="FL11" s="12"/>
-      <c r="FM11" s="12"/>
-      <c r="FN11" s="12"/>
-      <c r="FO11" s="12"/>
-      <c r="FP11" s="12"/>
-      <c r="FQ11" s="12"/>
-      <c r="FR11" s="12"/>
-      <c r="FS11" s="12"/>
-      <c r="FT11" s="12"/>
-      <c r="FU11" s="12"/>
-      <c r="FV11" s="12"/>
-      <c r="FW11" s="12"/>
-      <c r="FX11" s="12"/>
-      <c r="FY11" s="12"/>
-      <c r="FZ11" s="12"/>
-      <c r="GA11" s="12"/>
-      <c r="GB11" s="12"/>
-      <c r="GC11" s="12"/>
-      <c r="GD11" s="12"/>
-      <c r="GE11" s="12"/>
-      <c r="GF11" s="12"/>
-      <c r="GG11" s="12"/>
-      <c r="GH11" s="12"/>
-      <c r="GI11" s="12"/>
-      <c r="GJ11" s="12"/>
-      <c r="GK11" s="12"/>
-      <c r="GL11" s="12"/>
-      <c r="GM11" s="12"/>
-      <c r="GN11" s="12"/>
-      <c r="GO11" s="12"/>
-      <c r="GP11" s="12"/>
-      <c r="GQ11" s="12"/>
-      <c r="GR11" s="12"/>
-      <c r="GS11" s="12"/>
-      <c r="GT11" s="12"/>
-      <c r="GU11" s="12"/>
-      <c r="GV11" s="12"/>
-      <c r="GW11" s="12"/>
-      <c r="GX11" s="12"/>
-      <c r="GY11" s="12"/>
-      <c r="GZ11" s="12"/>
-      <c r="HA11" s="12"/>
-      <c r="HB11" s="12"/>
-      <c r="HC11" s="12"/>
-      <c r="HD11" s="12"/>
-      <c r="HE11" s="12"/>
-      <c r="HF11" s="12"/>
-      <c r="HG11" s="12"/>
-      <c r="HH11" s="12"/>
-      <c r="HI11" s="12"/>
-      <c r="HJ11" s="12"/>
-      <c r="HK11" s="12"/>
-      <c r="HL11" s="12"/>
-      <c r="HM11" s="12"/>
-      <c r="HN11" s="12"/>
-      <c r="HO11" s="12"/>
-      <c r="HP11" s="12"/>
-      <c r="HQ11" s="12"/>
-      <c r="HR11" s="12"/>
-      <c r="HS11" s="12"/>
-      <c r="HT11" s="12"/>
-      <c r="HU11" s="12"/>
-      <c r="HV11" s="12"/>
-      <c r="HW11" s="12"/>
-      <c r="HX11" s="12"/>
-      <c r="HY11" s="12"/>
-      <c r="HZ11" s="12"/>
-      <c r="IA11" s="12"/>
-      <c r="IB11" s="12"/>
-      <c r="IC11" s="12"/>
-      <c r="ID11" s="12"/>
-      <c r="IE11" s="12"/>
-      <c r="IF11" s="12"/>
-      <c r="IG11" s="12"/>
-      <c r="IH11" s="12"/>
-      <c r="II11" s="12"/>
-      <c r="IJ11" s="12"/>
-      <c r="IK11" s="12"/>
-      <c r="IL11" s="12"/>
-      <c r="IM11" s="12"/>
-      <c r="IN11" s="12"/>
-      <c r="IO11" s="12"/>
-      <c r="IP11" s="12"/>
-      <c r="IQ11" s="12"/>
-      <c r="IR11" s="12"/>
-      <c r="IS11" s="12"/>
-      <c r="IT11" s="12"/>
-      <c r="IU11" s="12"/>
-      <c r="IV11" s="12"/>
-      <c r="IW11" s="12"/>
-      <c r="IX11" s="12"/>
+    <row r="11" spans="1:258" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="35"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="35"/>
+      <c r="AS11" s="35"/>
+      <c r="AT11" s="35"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="35"/>
+      <c r="AX11" s="35"/>
+      <c r="AY11" s="35"/>
+      <c r="AZ11" s="35"/>
+      <c r="BA11" s="35"/>
+      <c r="BB11" s="35"/>
+      <c r="BC11" s="35"/>
+      <c r="BD11" s="35"/>
+      <c r="BE11" s="35"/>
+      <c r="BF11" s="35"/>
+      <c r="BG11" s="35"/>
+      <c r="BH11" s="35"/>
+      <c r="BI11" s="35"/>
+      <c r="BJ11" s="35"/>
+      <c r="BK11" s="35"/>
+      <c r="BL11" s="35"/>
+      <c r="BM11" s="35"/>
+      <c r="BN11" s="35"/>
+      <c r="BO11" s="35"/>
+      <c r="BP11" s="35"/>
+      <c r="BQ11" s="35"/>
+      <c r="BR11" s="35"/>
+      <c r="BS11" s="35"/>
+      <c r="BT11" s="35"/>
+      <c r="BU11" s="35"/>
+      <c r="BV11" s="35"/>
+      <c r="BW11" s="35"/>
+      <c r="BX11" s="35"/>
+      <c r="BY11" s="35"/>
+      <c r="BZ11" s="35"/>
+      <c r="CA11" s="35"/>
+      <c r="CB11" s="35"/>
+      <c r="CC11" s="35"/>
+      <c r="CD11" s="35"/>
+      <c r="CE11" s="35"/>
+      <c r="CF11" s="35"/>
+      <c r="CG11" s="35"/>
+      <c r="CH11" s="35"/>
+      <c r="CI11" s="35"/>
+      <c r="CJ11" s="35"/>
+      <c r="CK11" s="35"/>
+      <c r="CL11" s="35"/>
+      <c r="CM11" s="35"/>
+      <c r="CN11" s="35"/>
+      <c r="CO11" s="35"/>
+      <c r="CP11" s="35"/>
+      <c r="CQ11" s="35"/>
+      <c r="CR11" s="35"/>
+      <c r="CS11" s="35"/>
+      <c r="CT11" s="35"/>
+      <c r="CU11" s="35"/>
+      <c r="CV11" s="35"/>
+      <c r="CW11" s="35"/>
+      <c r="CX11" s="35"/>
+      <c r="CY11" s="35"/>
+      <c r="CZ11" s="35"/>
+      <c r="DA11" s="35"/>
+      <c r="DB11" s="35"/>
+      <c r="DC11" s="35"/>
+      <c r="DD11" s="35"/>
+      <c r="DE11" s="35"/>
+      <c r="DF11" s="35"/>
+      <c r="DG11" s="35"/>
+      <c r="DH11" s="35"/>
+      <c r="DI11" s="35"/>
+      <c r="DJ11" s="35"/>
+      <c r="DK11" s="35"/>
+      <c r="DL11" s="35"/>
+      <c r="DM11" s="35"/>
+      <c r="DN11" s="35"/>
+      <c r="DO11" s="35"/>
+      <c r="DP11" s="35"/>
+      <c r="DQ11" s="35"/>
+      <c r="DR11" s="35"/>
+      <c r="DS11" s="35"/>
+      <c r="DT11" s="35"/>
+      <c r="DU11" s="35"/>
+      <c r="DV11" s="35"/>
+      <c r="DW11" s="35"/>
+      <c r="DX11" s="35"/>
+      <c r="DY11" s="35"/>
+      <c r="DZ11" s="35"/>
+      <c r="EA11" s="35"/>
+      <c r="EB11" s="35"/>
+      <c r="EC11" s="35"/>
+      <c r="ED11" s="35"/>
+      <c r="EE11" s="35"/>
+      <c r="EF11" s="35"/>
+      <c r="EG11" s="35"/>
+      <c r="EH11" s="35"/>
+      <c r="EI11" s="35"/>
+      <c r="EJ11" s="35"/>
+      <c r="EK11" s="35"/>
+      <c r="EL11" s="35"/>
+      <c r="EM11" s="35"/>
+      <c r="EN11" s="35"/>
+      <c r="EO11" s="35"/>
+      <c r="EP11" s="35"/>
+      <c r="EQ11" s="35"/>
+      <c r="ER11" s="35"/>
+      <c r="ES11" s="35"/>
+      <c r="ET11" s="35"/>
+      <c r="EU11" s="35"/>
+      <c r="EV11" s="35"/>
+      <c r="EW11" s="35"/>
+      <c r="EX11" s="35"/>
+      <c r="EY11" s="35"/>
+      <c r="EZ11" s="35"/>
+      <c r="FA11" s="35"/>
+      <c r="FB11" s="35"/>
+      <c r="FC11" s="35"/>
+      <c r="FD11" s="35"/>
+      <c r="FE11" s="35"/>
+      <c r="FF11" s="35"/>
+      <c r="FG11" s="35"/>
+      <c r="FH11" s="35"/>
+      <c r="FI11" s="35"/>
+      <c r="FJ11" s="35"/>
+      <c r="FK11" s="35"/>
+      <c r="FL11" s="35"/>
+      <c r="FM11" s="35"/>
+      <c r="FN11" s="35"/>
+      <c r="FO11" s="35"/>
+      <c r="FP11" s="35"/>
+      <c r="FQ11" s="35"/>
+      <c r="FR11" s="35"/>
+      <c r="FS11" s="35"/>
+      <c r="FT11" s="35"/>
+      <c r="FU11" s="35"/>
+      <c r="FV11" s="35"/>
+      <c r="FW11" s="35"/>
+      <c r="FX11" s="35"/>
+      <c r="FY11" s="35"/>
+      <c r="FZ11" s="35"/>
+      <c r="GA11" s="35"/>
+      <c r="GB11" s="35"/>
+      <c r="GC11" s="35"/>
+      <c r="GD11" s="35"/>
+      <c r="GE11" s="35"/>
+      <c r="GF11" s="35"/>
+      <c r="GG11" s="35"/>
+      <c r="GH11" s="35"/>
+      <c r="GI11" s="35"/>
+      <c r="GJ11" s="35"/>
+      <c r="GK11" s="35"/>
+      <c r="GL11" s="35"/>
+      <c r="GM11" s="35"/>
+      <c r="GN11" s="35"/>
+      <c r="GO11" s="35"/>
+      <c r="GP11" s="35"/>
+      <c r="GQ11" s="35"/>
+      <c r="GR11" s="35"/>
+      <c r="GS11" s="35"/>
+      <c r="GT11" s="35"/>
+      <c r="GU11" s="35"/>
+      <c r="GV11" s="35"/>
+      <c r="GW11" s="35"/>
+      <c r="GX11" s="35"/>
+      <c r="GY11" s="35"/>
+      <c r="GZ11" s="35"/>
+      <c r="HA11" s="35"/>
+      <c r="HB11" s="35"/>
+      <c r="HC11" s="35"/>
+      <c r="HD11" s="35"/>
+      <c r="HE11" s="35"/>
+      <c r="HF11" s="35"/>
+      <c r="HG11" s="35"/>
+      <c r="HH11" s="35"/>
+      <c r="HI11" s="35"/>
+      <c r="HJ11" s="35"/>
+      <c r="HK11" s="35"/>
+      <c r="HL11" s="35"/>
+      <c r="HM11" s="35"/>
+      <c r="HN11" s="35"/>
+      <c r="HO11" s="35"/>
+      <c r="HP11" s="35"/>
+      <c r="HQ11" s="35"/>
+      <c r="HR11" s="35"/>
+      <c r="HS11" s="35"/>
+      <c r="HT11" s="35"/>
+      <c r="HU11" s="35"/>
+      <c r="HV11" s="35"/>
+      <c r="HW11" s="35"/>
+      <c r="HX11" s="35"/>
+      <c r="HY11" s="35"/>
+      <c r="HZ11" s="35"/>
+      <c r="IA11" s="35"/>
+      <c r="IB11" s="35"/>
+      <c r="IC11" s="35"/>
+      <c r="ID11" s="35"/>
+      <c r="IE11" s="35"/>
+      <c r="IF11" s="35"/>
+      <c r="IG11" s="35"/>
+      <c r="IH11" s="35"/>
+      <c r="II11" s="35"/>
+      <c r="IJ11" s="35"/>
+      <c r="IK11" s="35"/>
+      <c r="IL11" s="35"/>
+      <c r="IM11" s="35"/>
+      <c r="IN11" s="35"/>
+      <c r="IO11" s="35"/>
+      <c r="IP11" s="35"/>
+      <c r="IQ11" s="35"/>
+      <c r="IR11" s="35"/>
+      <c r="IS11" s="35"/>
+      <c r="IT11" s="35"/>
+      <c r="IU11" s="35"/>
+      <c r="IV11" s="35"/>
+      <c r="IW11" s="35"/>
+      <c r="IX11" s="35"/>
     </row>
     <row r="12" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="29"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -4404,538 +4595,538 @@
       <c r="IW12" s="12"/>
       <c r="IX12" s="12"/>
     </row>
-    <row r="13" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
-      <c r="AV13" s="12"/>
-      <c r="AW13" s="12"/>
-      <c r="AX13" s="12"/>
-      <c r="AY13" s="12"/>
-      <c r="AZ13" s="12"/>
-      <c r="BA13" s="12"/>
-      <c r="BB13" s="12"/>
-      <c r="BC13" s="12"/>
-      <c r="BD13" s="12"/>
-      <c r="BE13" s="12"/>
-      <c r="BF13" s="12"/>
-      <c r="BG13" s="12"/>
-      <c r="BH13" s="12"/>
-      <c r="BI13" s="12"/>
-      <c r="BJ13" s="12"/>
-      <c r="BK13" s="12"/>
-      <c r="BL13" s="12"/>
-      <c r="BM13" s="12"/>
-      <c r="BN13" s="12"/>
-      <c r="BO13" s="12"/>
-      <c r="BP13" s="12"/>
-      <c r="BQ13" s="12"/>
-      <c r="BR13" s="12"/>
-      <c r="BS13" s="12"/>
-      <c r="BT13" s="12"/>
-      <c r="BU13" s="12"/>
-      <c r="BV13" s="12"/>
-      <c r="BW13" s="12"/>
-      <c r="BX13" s="12"/>
-      <c r="BY13" s="12"/>
-      <c r="BZ13" s="12"/>
-      <c r="CA13" s="12"/>
-      <c r="CB13" s="12"/>
-      <c r="CC13" s="12"/>
-      <c r="CD13" s="12"/>
-      <c r="CE13" s="12"/>
-      <c r="CF13" s="12"/>
-      <c r="CG13" s="12"/>
-      <c r="CH13" s="12"/>
-      <c r="CI13" s="12"/>
-      <c r="CJ13" s="12"/>
-      <c r="CK13" s="12"/>
-      <c r="CL13" s="12"/>
-      <c r="CM13" s="12"/>
-      <c r="CN13" s="12"/>
-      <c r="CO13" s="12"/>
-      <c r="CP13" s="12"/>
-      <c r="CQ13" s="12"/>
-      <c r="CR13" s="12"/>
-      <c r="CS13" s="12"/>
-      <c r="CT13" s="12"/>
-      <c r="CU13" s="12"/>
-      <c r="CV13" s="12"/>
-      <c r="CW13" s="12"/>
-      <c r="CX13" s="12"/>
-      <c r="CY13" s="12"/>
-      <c r="CZ13" s="12"/>
-      <c r="DA13" s="12"/>
-      <c r="DB13" s="12"/>
-      <c r="DC13" s="12"/>
-      <c r="DD13" s="12"/>
-      <c r="DE13" s="12"/>
-      <c r="DF13" s="12"/>
-      <c r="DG13" s="12"/>
-      <c r="DH13" s="12"/>
-      <c r="DI13" s="12"/>
-      <c r="DJ13" s="12"/>
-      <c r="DK13" s="12"/>
-      <c r="DL13" s="12"/>
-      <c r="DM13" s="12"/>
-      <c r="DN13" s="12"/>
-      <c r="DO13" s="12"/>
-      <c r="DP13" s="12"/>
-      <c r="DQ13" s="12"/>
-      <c r="DR13" s="12"/>
-      <c r="DS13" s="12"/>
-      <c r="DT13" s="12"/>
-      <c r="DU13" s="12"/>
-      <c r="DV13" s="12"/>
-      <c r="DW13" s="12"/>
-      <c r="DX13" s="12"/>
-      <c r="DY13" s="12"/>
-      <c r="DZ13" s="12"/>
-      <c r="EA13" s="12"/>
-      <c r="EB13" s="12"/>
-      <c r="EC13" s="12"/>
-      <c r="ED13" s="12"/>
-      <c r="EE13" s="12"/>
-      <c r="EF13" s="12"/>
-      <c r="EG13" s="12"/>
-      <c r="EH13" s="12"/>
-      <c r="EI13" s="12"/>
-      <c r="EJ13" s="12"/>
-      <c r="EK13" s="12"/>
-      <c r="EL13" s="12"/>
-      <c r="EM13" s="12"/>
-      <c r="EN13" s="12"/>
-      <c r="EO13" s="12"/>
-      <c r="EP13" s="12"/>
-      <c r="EQ13" s="12"/>
-      <c r="ER13" s="12"/>
-      <c r="ES13" s="12"/>
-      <c r="ET13" s="12"/>
-      <c r="EU13" s="12"/>
-      <c r="EV13" s="12"/>
-      <c r="EW13" s="12"/>
-      <c r="EX13" s="12"/>
-      <c r="EY13" s="12"/>
-      <c r="EZ13" s="12"/>
-      <c r="FA13" s="12"/>
-      <c r="FB13" s="12"/>
-      <c r="FC13" s="12"/>
-      <c r="FD13" s="12"/>
-      <c r="FE13" s="12"/>
-      <c r="FF13" s="12"/>
-      <c r="FG13" s="12"/>
-      <c r="FH13" s="12"/>
-      <c r="FI13" s="12"/>
-      <c r="FJ13" s="12"/>
-      <c r="FK13" s="12"/>
-      <c r="FL13" s="12"/>
-      <c r="FM13" s="12"/>
-      <c r="FN13" s="12"/>
-      <c r="FO13" s="12"/>
-      <c r="FP13" s="12"/>
-      <c r="FQ13" s="12"/>
-      <c r="FR13" s="12"/>
-      <c r="FS13" s="12"/>
-      <c r="FT13" s="12"/>
-      <c r="FU13" s="12"/>
-      <c r="FV13" s="12"/>
-      <c r="FW13" s="12"/>
-      <c r="FX13" s="12"/>
-      <c r="FY13" s="12"/>
-      <c r="FZ13" s="12"/>
-      <c r="GA13" s="12"/>
-      <c r="GB13" s="12"/>
-      <c r="GC13" s="12"/>
-      <c r="GD13" s="12"/>
-      <c r="GE13" s="12"/>
-      <c r="GF13" s="12"/>
-      <c r="GG13" s="12"/>
-      <c r="GH13" s="12"/>
-      <c r="GI13" s="12"/>
-      <c r="GJ13" s="12"/>
-      <c r="GK13" s="12"/>
-      <c r="GL13" s="12"/>
-      <c r="GM13" s="12"/>
-      <c r="GN13" s="12"/>
-      <c r="GO13" s="12"/>
-      <c r="GP13" s="12"/>
-      <c r="GQ13" s="12"/>
-      <c r="GR13" s="12"/>
-      <c r="GS13" s="12"/>
-      <c r="GT13" s="12"/>
-      <c r="GU13" s="12"/>
-      <c r="GV13" s="12"/>
-      <c r="GW13" s="12"/>
-      <c r="GX13" s="12"/>
-      <c r="GY13" s="12"/>
-      <c r="GZ13" s="12"/>
-      <c r="HA13" s="12"/>
-      <c r="HB13" s="12"/>
-      <c r="HC13" s="12"/>
-      <c r="HD13" s="12"/>
-      <c r="HE13" s="12"/>
-      <c r="HF13" s="12"/>
-      <c r="HG13" s="12"/>
-      <c r="HH13" s="12"/>
-      <c r="HI13" s="12"/>
-      <c r="HJ13" s="12"/>
-      <c r="HK13" s="12"/>
-      <c r="HL13" s="12"/>
-      <c r="HM13" s="12"/>
-      <c r="HN13" s="12"/>
-      <c r="HO13" s="12"/>
-      <c r="HP13" s="12"/>
-      <c r="HQ13" s="12"/>
-      <c r="HR13" s="12"/>
-      <c r="HS13" s="12"/>
-      <c r="HT13" s="12"/>
-      <c r="HU13" s="12"/>
-      <c r="HV13" s="12"/>
-      <c r="HW13" s="12"/>
-      <c r="HX13" s="12"/>
-      <c r="HY13" s="12"/>
-      <c r="HZ13" s="12"/>
-      <c r="IA13" s="12"/>
-      <c r="IB13" s="12"/>
-      <c r="IC13" s="12"/>
-      <c r="ID13" s="12"/>
-      <c r="IE13" s="12"/>
-      <c r="IF13" s="12"/>
-      <c r="IG13" s="12"/>
-      <c r="IH13" s="12"/>
-      <c r="II13" s="12"/>
-      <c r="IJ13" s="12"/>
-      <c r="IK13" s="12"/>
-      <c r="IL13" s="12"/>
-      <c r="IM13" s="12"/>
-      <c r="IN13" s="12"/>
-      <c r="IO13" s="12"/>
-      <c r="IP13" s="12"/>
-      <c r="IQ13" s="12"/>
-      <c r="IR13" s="12"/>
-      <c r="IS13" s="12"/>
-      <c r="IT13" s="12"/>
-      <c r="IU13" s="12"/>
-      <c r="IV13" s="12"/>
-      <c r="IW13" s="12"/>
-      <c r="IX13" s="12"/>
+    <row r="13" spans="1:258" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="35"/>
+      <c r="AS13" s="35"/>
+      <c r="AT13" s="35"/>
+      <c r="AU13" s="35"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="35"/>
+      <c r="AX13" s="35"/>
+      <c r="AY13" s="35"/>
+      <c r="AZ13" s="35"/>
+      <c r="BA13" s="35"/>
+      <c r="BB13" s="35"/>
+      <c r="BC13" s="35"/>
+      <c r="BD13" s="35"/>
+      <c r="BE13" s="35"/>
+      <c r="BF13" s="35"/>
+      <c r="BG13" s="35"/>
+      <c r="BH13" s="35"/>
+      <c r="BI13" s="35"/>
+      <c r="BJ13" s="35"/>
+      <c r="BK13" s="35"/>
+      <c r="BL13" s="35"/>
+      <c r="BM13" s="35"/>
+      <c r="BN13" s="35"/>
+      <c r="BO13" s="35"/>
+      <c r="BP13" s="35"/>
+      <c r="BQ13" s="35"/>
+      <c r="BR13" s="35"/>
+      <c r="BS13" s="35"/>
+      <c r="BT13" s="35"/>
+      <c r="BU13" s="35"/>
+      <c r="BV13" s="35"/>
+      <c r="BW13" s="35"/>
+      <c r="BX13" s="35"/>
+      <c r="BY13" s="35"/>
+      <c r="BZ13" s="35"/>
+      <c r="CA13" s="35"/>
+      <c r="CB13" s="35"/>
+      <c r="CC13" s="35"/>
+      <c r="CD13" s="35"/>
+      <c r="CE13" s="35"/>
+      <c r="CF13" s="35"/>
+      <c r="CG13" s="35"/>
+      <c r="CH13" s="35"/>
+      <c r="CI13" s="35"/>
+      <c r="CJ13" s="35"/>
+      <c r="CK13" s="35"/>
+      <c r="CL13" s="35"/>
+      <c r="CM13" s="35"/>
+      <c r="CN13" s="35"/>
+      <c r="CO13" s="35"/>
+      <c r="CP13" s="35"/>
+      <c r="CQ13" s="35"/>
+      <c r="CR13" s="35"/>
+      <c r="CS13" s="35"/>
+      <c r="CT13" s="35"/>
+      <c r="CU13" s="35"/>
+      <c r="CV13" s="35"/>
+      <c r="CW13" s="35"/>
+      <c r="CX13" s="35"/>
+      <c r="CY13" s="35"/>
+      <c r="CZ13" s="35"/>
+      <c r="DA13" s="35"/>
+      <c r="DB13" s="35"/>
+      <c r="DC13" s="35"/>
+      <c r="DD13" s="35"/>
+      <c r="DE13" s="35"/>
+      <c r="DF13" s="35"/>
+      <c r="DG13" s="35"/>
+      <c r="DH13" s="35"/>
+      <c r="DI13" s="35"/>
+      <c r="DJ13" s="35"/>
+      <c r="DK13" s="35"/>
+      <c r="DL13" s="35"/>
+      <c r="DM13" s="35"/>
+      <c r="DN13" s="35"/>
+      <c r="DO13" s="35"/>
+      <c r="DP13" s="35"/>
+      <c r="DQ13" s="35"/>
+      <c r="DR13" s="35"/>
+      <c r="DS13" s="35"/>
+      <c r="DT13" s="35"/>
+      <c r="DU13" s="35"/>
+      <c r="DV13" s="35"/>
+      <c r="DW13" s="35"/>
+      <c r="DX13" s="35"/>
+      <c r="DY13" s="35"/>
+      <c r="DZ13" s="35"/>
+      <c r="EA13" s="35"/>
+      <c r="EB13" s="35"/>
+      <c r="EC13" s="35"/>
+      <c r="ED13" s="35"/>
+      <c r="EE13" s="35"/>
+      <c r="EF13" s="35"/>
+      <c r="EG13" s="35"/>
+      <c r="EH13" s="35"/>
+      <c r="EI13" s="35"/>
+      <c r="EJ13" s="35"/>
+      <c r="EK13" s="35"/>
+      <c r="EL13" s="35"/>
+      <c r="EM13" s="35"/>
+      <c r="EN13" s="35"/>
+      <c r="EO13" s="35"/>
+      <c r="EP13" s="35"/>
+      <c r="EQ13" s="35"/>
+      <c r="ER13" s="35"/>
+      <c r="ES13" s="35"/>
+      <c r="ET13" s="35"/>
+      <c r="EU13" s="35"/>
+      <c r="EV13" s="35"/>
+      <c r="EW13" s="35"/>
+      <c r="EX13" s="35"/>
+      <c r="EY13" s="35"/>
+      <c r="EZ13" s="35"/>
+      <c r="FA13" s="35"/>
+      <c r="FB13" s="35"/>
+      <c r="FC13" s="35"/>
+      <c r="FD13" s="35"/>
+      <c r="FE13" s="35"/>
+      <c r="FF13" s="35"/>
+      <c r="FG13" s="35"/>
+      <c r="FH13" s="35"/>
+      <c r="FI13" s="35"/>
+      <c r="FJ13" s="35"/>
+      <c r="FK13" s="35"/>
+      <c r="FL13" s="35"/>
+      <c r="FM13" s="35"/>
+      <c r="FN13" s="35"/>
+      <c r="FO13" s="35"/>
+      <c r="FP13" s="35"/>
+      <c r="FQ13" s="35"/>
+      <c r="FR13" s="35"/>
+      <c r="FS13" s="35"/>
+      <c r="FT13" s="35"/>
+      <c r="FU13" s="35"/>
+      <c r="FV13" s="35"/>
+      <c r="FW13" s="35"/>
+      <c r="FX13" s="35"/>
+      <c r="FY13" s="35"/>
+      <c r="FZ13" s="35"/>
+      <c r="GA13" s="35"/>
+      <c r="GB13" s="35"/>
+      <c r="GC13" s="35"/>
+      <c r="GD13" s="35"/>
+      <c r="GE13" s="35"/>
+      <c r="GF13" s="35"/>
+      <c r="GG13" s="35"/>
+      <c r="GH13" s="35"/>
+      <c r="GI13" s="35"/>
+      <c r="GJ13" s="35"/>
+      <c r="GK13" s="35"/>
+      <c r="GL13" s="35"/>
+      <c r="GM13" s="35"/>
+      <c r="GN13" s="35"/>
+      <c r="GO13" s="35"/>
+      <c r="GP13" s="35"/>
+      <c r="GQ13" s="35"/>
+      <c r="GR13" s="35"/>
+      <c r="GS13" s="35"/>
+      <c r="GT13" s="35"/>
+      <c r="GU13" s="35"/>
+      <c r="GV13" s="35"/>
+      <c r="GW13" s="35"/>
+      <c r="GX13" s="35"/>
+      <c r="GY13" s="35"/>
+      <c r="GZ13" s="35"/>
+      <c r="HA13" s="35"/>
+      <c r="HB13" s="35"/>
+      <c r="HC13" s="35"/>
+      <c r="HD13" s="35"/>
+      <c r="HE13" s="35"/>
+      <c r="HF13" s="35"/>
+      <c r="HG13" s="35"/>
+      <c r="HH13" s="35"/>
+      <c r="HI13" s="35"/>
+      <c r="HJ13" s="35"/>
+      <c r="HK13" s="35"/>
+      <c r="HL13" s="35"/>
+      <c r="HM13" s="35"/>
+      <c r="HN13" s="35"/>
+      <c r="HO13" s="35"/>
+      <c r="HP13" s="35"/>
+      <c r="HQ13" s="35"/>
+      <c r="HR13" s="35"/>
+      <c r="HS13" s="35"/>
+      <c r="HT13" s="35"/>
+      <c r="HU13" s="35"/>
+      <c r="HV13" s="35"/>
+      <c r="HW13" s="35"/>
+      <c r="HX13" s="35"/>
+      <c r="HY13" s="35"/>
+      <c r="HZ13" s="35"/>
+      <c r="IA13" s="35"/>
+      <c r="IB13" s="35"/>
+      <c r="IC13" s="35"/>
+      <c r="ID13" s="35"/>
+      <c r="IE13" s="35"/>
+      <c r="IF13" s="35"/>
+      <c r="IG13" s="35"/>
+      <c r="IH13" s="35"/>
+      <c r="II13" s="35"/>
+      <c r="IJ13" s="35"/>
+      <c r="IK13" s="35"/>
+      <c r="IL13" s="35"/>
+      <c r="IM13" s="35"/>
+      <c r="IN13" s="35"/>
+      <c r="IO13" s="35"/>
+      <c r="IP13" s="35"/>
+      <c r="IQ13" s="35"/>
+      <c r="IR13" s="35"/>
+      <c r="IS13" s="35"/>
+      <c r="IT13" s="35"/>
+      <c r="IU13" s="35"/>
+      <c r="IV13" s="35"/>
+      <c r="IW13" s="35"/>
+      <c r="IX13" s="35"/>
     </row>
-    <row r="14" spans="1:258" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="36"/>
-      <c r="AX14" s="36"/>
-      <c r="AY14" s="36"/>
-      <c r="AZ14" s="36"/>
-      <c r="BA14" s="36"/>
-      <c r="BB14" s="36"/>
-      <c r="BC14" s="36"/>
-      <c r="BD14" s="36"/>
-      <c r="BE14" s="36"/>
-      <c r="BF14" s="36"/>
-      <c r="BG14" s="36"/>
-      <c r="BH14" s="36"/>
-      <c r="BI14" s="36"/>
-      <c r="BJ14" s="36"/>
-      <c r="BK14" s="36"/>
-      <c r="BL14" s="36"/>
-      <c r="BM14" s="36"/>
-      <c r="BN14" s="36"/>
-      <c r="BO14" s="36"/>
-      <c r="BP14" s="36"/>
-      <c r="BQ14" s="36"/>
-      <c r="BR14" s="36"/>
-      <c r="BS14" s="36"/>
-      <c r="BT14" s="36"/>
-      <c r="BU14" s="36"/>
-      <c r="BV14" s="36"/>
-      <c r="BW14" s="36"/>
-      <c r="BX14" s="36"/>
-      <c r="BY14" s="36"/>
-      <c r="BZ14" s="36"/>
-      <c r="CA14" s="36"/>
-      <c r="CB14" s="36"/>
-      <c r="CC14" s="36"/>
-      <c r="CD14" s="36"/>
-      <c r="CE14" s="36"/>
-      <c r="CF14" s="36"/>
-      <c r="CG14" s="36"/>
-      <c r="CH14" s="36"/>
-      <c r="CI14" s="36"/>
-      <c r="CJ14" s="36"/>
-      <c r="CK14" s="36"/>
-      <c r="CL14" s="36"/>
-      <c r="CM14" s="36"/>
-      <c r="CN14" s="36"/>
-      <c r="CO14" s="36"/>
-      <c r="CP14" s="36"/>
-      <c r="CQ14" s="36"/>
-      <c r="CR14" s="36"/>
-      <c r="CS14" s="36"/>
-      <c r="CT14" s="36"/>
-      <c r="CU14" s="36"/>
-      <c r="CV14" s="36"/>
-      <c r="CW14" s="36"/>
-      <c r="CX14" s="36"/>
-      <c r="CY14" s="36"/>
-      <c r="CZ14" s="36"/>
-      <c r="DA14" s="36"/>
-      <c r="DB14" s="36"/>
-      <c r="DC14" s="36"/>
-      <c r="DD14" s="36"/>
-      <c r="DE14" s="36"/>
-      <c r="DF14" s="36"/>
-      <c r="DG14" s="36"/>
-      <c r="DH14" s="36"/>
-      <c r="DI14" s="36"/>
-      <c r="DJ14" s="36"/>
-      <c r="DK14" s="36"/>
-      <c r="DL14" s="36"/>
-      <c r="DM14" s="36"/>
-      <c r="DN14" s="36"/>
-      <c r="DO14" s="36"/>
-      <c r="DP14" s="36"/>
-      <c r="DQ14" s="36"/>
-      <c r="DR14" s="36"/>
-      <c r="DS14" s="36"/>
-      <c r="DT14" s="36"/>
-      <c r="DU14" s="36"/>
-      <c r="DV14" s="36"/>
-      <c r="DW14" s="36"/>
-      <c r="DX14" s="36"/>
-      <c r="DY14" s="36"/>
-      <c r="DZ14" s="36"/>
-      <c r="EA14" s="36"/>
-      <c r="EB14" s="36"/>
-      <c r="EC14" s="36"/>
-      <c r="ED14" s="36"/>
-      <c r="EE14" s="36"/>
-      <c r="EF14" s="36"/>
-      <c r="EG14" s="36"/>
-      <c r="EH14" s="36"/>
-      <c r="EI14" s="36"/>
-      <c r="EJ14" s="36"/>
-      <c r="EK14" s="36"/>
-      <c r="EL14" s="36"/>
-      <c r="EM14" s="36"/>
-      <c r="EN14" s="36"/>
-      <c r="EO14" s="36"/>
-      <c r="EP14" s="36"/>
-      <c r="EQ14" s="36"/>
-      <c r="ER14" s="36"/>
-      <c r="ES14" s="36"/>
-      <c r="ET14" s="36"/>
-      <c r="EU14" s="36"/>
-      <c r="EV14" s="36"/>
-      <c r="EW14" s="36"/>
-      <c r="EX14" s="36"/>
-      <c r="EY14" s="36"/>
-      <c r="EZ14" s="36"/>
-      <c r="FA14" s="36"/>
-      <c r="FB14" s="36"/>
-      <c r="FC14" s="36"/>
-      <c r="FD14" s="36"/>
-      <c r="FE14" s="36"/>
-      <c r="FF14" s="36"/>
-      <c r="FG14" s="36"/>
-      <c r="FH14" s="36"/>
-      <c r="FI14" s="36"/>
-      <c r="FJ14" s="36"/>
-      <c r="FK14" s="36"/>
-      <c r="FL14" s="36"/>
-      <c r="FM14" s="36"/>
-      <c r="FN14" s="36"/>
-      <c r="FO14" s="36"/>
-      <c r="FP14" s="36"/>
-      <c r="FQ14" s="36"/>
-      <c r="FR14" s="36"/>
-      <c r="FS14" s="36"/>
-      <c r="FT14" s="36"/>
-      <c r="FU14" s="36"/>
-      <c r="FV14" s="36"/>
-      <c r="FW14" s="36"/>
-      <c r="FX14" s="36"/>
-      <c r="FY14" s="36"/>
-      <c r="FZ14" s="36"/>
-      <c r="GA14" s="36"/>
-      <c r="GB14" s="36"/>
-      <c r="GC14" s="36"/>
-      <c r="GD14" s="36"/>
-      <c r="GE14" s="36"/>
-      <c r="GF14" s="36"/>
-      <c r="GG14" s="36"/>
-      <c r="GH14" s="36"/>
-      <c r="GI14" s="36"/>
-      <c r="GJ14" s="36"/>
-      <c r="GK14" s="36"/>
-      <c r="GL14" s="36"/>
-      <c r="GM14" s="36"/>
-      <c r="GN14" s="36"/>
-      <c r="GO14" s="36"/>
-      <c r="GP14" s="36"/>
-      <c r="GQ14" s="36"/>
-      <c r="GR14" s="36"/>
-      <c r="GS14" s="36"/>
-      <c r="GT14" s="36"/>
-      <c r="GU14" s="36"/>
-      <c r="GV14" s="36"/>
-      <c r="GW14" s="36"/>
-      <c r="GX14" s="36"/>
-      <c r="GY14" s="36"/>
-      <c r="GZ14" s="36"/>
-      <c r="HA14" s="36"/>
-      <c r="HB14" s="36"/>
-      <c r="HC14" s="36"/>
-      <c r="HD14" s="36"/>
-      <c r="HE14" s="36"/>
-      <c r="HF14" s="36"/>
-      <c r="HG14" s="36"/>
-      <c r="HH14" s="36"/>
-      <c r="HI14" s="36"/>
-      <c r="HJ14" s="36"/>
-      <c r="HK14" s="36"/>
-      <c r="HL14" s="36"/>
-      <c r="HM14" s="36"/>
-      <c r="HN14" s="36"/>
-      <c r="HO14" s="36"/>
-      <c r="HP14" s="36"/>
-      <c r="HQ14" s="36"/>
-      <c r="HR14" s="36"/>
-      <c r="HS14" s="36"/>
-      <c r="HT14" s="36"/>
-      <c r="HU14" s="36"/>
-      <c r="HV14" s="36"/>
-      <c r="HW14" s="36"/>
-      <c r="HX14" s="36"/>
-      <c r="HY14" s="36"/>
-      <c r="HZ14" s="36"/>
-      <c r="IA14" s="36"/>
-      <c r="IB14" s="36"/>
-      <c r="IC14" s="36"/>
-      <c r="ID14" s="36"/>
-      <c r="IE14" s="36"/>
-      <c r="IF14" s="36"/>
-      <c r="IG14" s="36"/>
-      <c r="IH14" s="36"/>
-      <c r="II14" s="36"/>
-      <c r="IJ14" s="36"/>
-      <c r="IK14" s="36"/>
-      <c r="IL14" s="36"/>
-      <c r="IM14" s="36"/>
-      <c r="IN14" s="36"/>
-      <c r="IO14" s="36"/>
-      <c r="IP14" s="36"/>
-      <c r="IQ14" s="36"/>
-      <c r="IR14" s="36"/>
-      <c r="IS14" s="36"/>
-      <c r="IT14" s="36"/>
-      <c r="IU14" s="36"/>
-      <c r="IV14" s="36"/>
-      <c r="IW14" s="36"/>
-      <c r="IX14" s="36"/>
+    <row r="14" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="60"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="12"/>
+      <c r="BH14" s="12"/>
+      <c r="BI14" s="12"/>
+      <c r="BJ14" s="12"/>
+      <c r="BK14" s="12"/>
+      <c r="BL14" s="12"/>
+      <c r="BM14" s="12"/>
+      <c r="BN14" s="12"/>
+      <c r="BO14" s="12"/>
+      <c r="BP14" s="12"/>
+      <c r="BQ14" s="12"/>
+      <c r="BR14" s="12"/>
+      <c r="BS14" s="12"/>
+      <c r="BT14" s="12"/>
+      <c r="BU14" s="12"/>
+      <c r="BV14" s="12"/>
+      <c r="BW14" s="12"/>
+      <c r="BX14" s="12"/>
+      <c r="BY14" s="12"/>
+      <c r="BZ14" s="12"/>
+      <c r="CA14" s="12"/>
+      <c r="CB14" s="12"/>
+      <c r="CC14" s="12"/>
+      <c r="CD14" s="12"/>
+      <c r="CE14" s="12"/>
+      <c r="CF14" s="12"/>
+      <c r="CG14" s="12"/>
+      <c r="CH14" s="12"/>
+      <c r="CI14" s="12"/>
+      <c r="CJ14" s="12"/>
+      <c r="CK14" s="12"/>
+      <c r="CL14" s="12"/>
+      <c r="CM14" s="12"/>
+      <c r="CN14" s="12"/>
+      <c r="CO14" s="12"/>
+      <c r="CP14" s="12"/>
+      <c r="CQ14" s="12"/>
+      <c r="CR14" s="12"/>
+      <c r="CS14" s="12"/>
+      <c r="CT14" s="12"/>
+      <c r="CU14" s="12"/>
+      <c r="CV14" s="12"/>
+      <c r="CW14" s="12"/>
+      <c r="CX14" s="12"/>
+      <c r="CY14" s="12"/>
+      <c r="CZ14" s="12"/>
+      <c r="DA14" s="12"/>
+      <c r="DB14" s="12"/>
+      <c r="DC14" s="12"/>
+      <c r="DD14" s="12"/>
+      <c r="DE14" s="12"/>
+      <c r="DF14" s="12"/>
+      <c r="DG14" s="12"/>
+      <c r="DH14" s="12"/>
+      <c r="DI14" s="12"/>
+      <c r="DJ14" s="12"/>
+      <c r="DK14" s="12"/>
+      <c r="DL14" s="12"/>
+      <c r="DM14" s="12"/>
+      <c r="DN14" s="12"/>
+      <c r="DO14" s="12"/>
+      <c r="DP14" s="12"/>
+      <c r="DQ14" s="12"/>
+      <c r="DR14" s="12"/>
+      <c r="DS14" s="12"/>
+      <c r="DT14" s="12"/>
+      <c r="DU14" s="12"/>
+      <c r="DV14" s="12"/>
+      <c r="DW14" s="12"/>
+      <c r="DX14" s="12"/>
+      <c r="DY14" s="12"/>
+      <c r="DZ14" s="12"/>
+      <c r="EA14" s="12"/>
+      <c r="EB14" s="12"/>
+      <c r="EC14" s="12"/>
+      <c r="ED14" s="12"/>
+      <c r="EE14" s="12"/>
+      <c r="EF14" s="12"/>
+      <c r="EG14" s="12"/>
+      <c r="EH14" s="12"/>
+      <c r="EI14" s="12"/>
+      <c r="EJ14" s="12"/>
+      <c r="EK14" s="12"/>
+      <c r="EL14" s="12"/>
+      <c r="EM14" s="12"/>
+      <c r="EN14" s="12"/>
+      <c r="EO14" s="12"/>
+      <c r="EP14" s="12"/>
+      <c r="EQ14" s="12"/>
+      <c r="ER14" s="12"/>
+      <c r="ES14" s="12"/>
+      <c r="ET14" s="12"/>
+      <c r="EU14" s="12"/>
+      <c r="EV14" s="12"/>
+      <c r="EW14" s="12"/>
+      <c r="EX14" s="12"/>
+      <c r="EY14" s="12"/>
+      <c r="EZ14" s="12"/>
+      <c r="FA14" s="12"/>
+      <c r="FB14" s="12"/>
+      <c r="FC14" s="12"/>
+      <c r="FD14" s="12"/>
+      <c r="FE14" s="12"/>
+      <c r="FF14" s="12"/>
+      <c r="FG14" s="12"/>
+      <c r="FH14" s="12"/>
+      <c r="FI14" s="12"/>
+      <c r="FJ14" s="12"/>
+      <c r="FK14" s="12"/>
+      <c r="FL14" s="12"/>
+      <c r="FM14" s="12"/>
+      <c r="FN14" s="12"/>
+      <c r="FO14" s="12"/>
+      <c r="FP14" s="12"/>
+      <c r="FQ14" s="12"/>
+      <c r="FR14" s="12"/>
+      <c r="FS14" s="12"/>
+      <c r="FT14" s="12"/>
+      <c r="FU14" s="12"/>
+      <c r="FV14" s="12"/>
+      <c r="FW14" s="12"/>
+      <c r="FX14" s="12"/>
+      <c r="FY14" s="12"/>
+      <c r="FZ14" s="12"/>
+      <c r="GA14" s="12"/>
+      <c r="GB14" s="12"/>
+      <c r="GC14" s="12"/>
+      <c r="GD14" s="12"/>
+      <c r="GE14" s="12"/>
+      <c r="GF14" s="12"/>
+      <c r="GG14" s="12"/>
+      <c r="GH14" s="12"/>
+      <c r="GI14" s="12"/>
+      <c r="GJ14" s="12"/>
+      <c r="GK14" s="12"/>
+      <c r="GL14" s="12"/>
+      <c r="GM14" s="12"/>
+      <c r="GN14" s="12"/>
+      <c r="GO14" s="12"/>
+      <c r="GP14" s="12"/>
+      <c r="GQ14" s="12"/>
+      <c r="GR14" s="12"/>
+      <c r="GS14" s="12"/>
+      <c r="GT14" s="12"/>
+      <c r="GU14" s="12"/>
+      <c r="GV14" s="12"/>
+      <c r="GW14" s="12"/>
+      <c r="GX14" s="12"/>
+      <c r="GY14" s="12"/>
+      <c r="GZ14" s="12"/>
+      <c r="HA14" s="12"/>
+      <c r="HB14" s="12"/>
+      <c r="HC14" s="12"/>
+      <c r="HD14" s="12"/>
+      <c r="HE14" s="12"/>
+      <c r="HF14" s="12"/>
+      <c r="HG14" s="12"/>
+      <c r="HH14" s="12"/>
+      <c r="HI14" s="12"/>
+      <c r="HJ14" s="12"/>
+      <c r="HK14" s="12"/>
+      <c r="HL14" s="12"/>
+      <c r="HM14" s="12"/>
+      <c r="HN14" s="12"/>
+      <c r="HO14" s="12"/>
+      <c r="HP14" s="12"/>
+      <c r="HQ14" s="12"/>
+      <c r="HR14" s="12"/>
+      <c r="HS14" s="12"/>
+      <c r="HT14" s="12"/>
+      <c r="HU14" s="12"/>
+      <c r="HV14" s="12"/>
+      <c r="HW14" s="12"/>
+      <c r="HX14" s="12"/>
+      <c r="HY14" s="12"/>
+      <c r="HZ14" s="12"/>
+      <c r="IA14" s="12"/>
+      <c r="IB14" s="12"/>
+      <c r="IC14" s="12"/>
+      <c r="ID14" s="12"/>
+      <c r="IE14" s="12"/>
+      <c r="IF14" s="12"/>
+      <c r="IG14" s="12"/>
+      <c r="IH14" s="12"/>
+      <c r="II14" s="12"/>
+      <c r="IJ14" s="12"/>
+      <c r="IK14" s="12"/>
+      <c r="IL14" s="12"/>
+      <c r="IM14" s="12"/>
+      <c r="IN14" s="12"/>
+      <c r="IO14" s="12"/>
+      <c r="IP14" s="12"/>
+      <c r="IQ14" s="12"/>
+      <c r="IR14" s="12"/>
+      <c r="IS14" s="12"/>
+      <c r="IT14" s="12"/>
+      <c r="IU14" s="12"/>
+      <c r="IV14" s="12"/>
+      <c r="IW14" s="12"/>
+      <c r="IX14" s="12"/>
     </row>
     <row r="15" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="31"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -5185,17 +5376,17 @@
       <c r="IX15" s="12"/>
     </row>
     <row r="16" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="9"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="28"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
@@ -5444,605 +5635,1349 @@
       <c r="IW16" s="12"/>
       <c r="IX16" s="12"/>
     </row>
-    <row r="17" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
+    <row r="17" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12"/>
+      <c r="BP17" s="12"/>
+      <c r="BQ17" s="12"/>
+      <c r="BR17" s="12"/>
+      <c r="BS17" s="12"/>
+      <c r="BT17" s="12"/>
+      <c r="BU17" s="12"/>
+      <c r="BV17" s="12"/>
+      <c r="BW17" s="12"/>
+      <c r="BX17" s="12"/>
+      <c r="BY17" s="12"/>
+      <c r="BZ17" s="12"/>
+      <c r="CA17" s="12"/>
+      <c r="CB17" s="12"/>
+      <c r="CC17" s="12"/>
+      <c r="CD17" s="12"/>
+      <c r="CE17" s="12"/>
+      <c r="CF17" s="12"/>
+      <c r="CG17" s="12"/>
+      <c r="CH17" s="12"/>
+      <c r="CI17" s="12"/>
+      <c r="CJ17" s="12"/>
+      <c r="CK17" s="12"/>
+      <c r="CL17" s="12"/>
+      <c r="CM17" s="12"/>
+      <c r="CN17" s="12"/>
+      <c r="CO17" s="12"/>
+      <c r="CP17" s="12"/>
+      <c r="CQ17" s="12"/>
+      <c r="CR17" s="12"/>
+      <c r="CS17" s="12"/>
+      <c r="CT17" s="12"/>
+      <c r="CU17" s="12"/>
+      <c r="CV17" s="12"/>
+      <c r="CW17" s="12"/>
+      <c r="CX17" s="12"/>
+      <c r="CY17" s="12"/>
+      <c r="CZ17" s="12"/>
+      <c r="DA17" s="12"/>
+      <c r="DB17" s="12"/>
+      <c r="DC17" s="12"/>
+      <c r="DD17" s="12"/>
+      <c r="DE17" s="12"/>
+      <c r="DF17" s="12"/>
+      <c r="DG17" s="12"/>
+      <c r="DH17" s="12"/>
+      <c r="DI17" s="12"/>
+      <c r="DJ17" s="12"/>
+      <c r="DK17" s="12"/>
+      <c r="DL17" s="12"/>
+      <c r="DM17" s="12"/>
+      <c r="DN17" s="12"/>
+      <c r="DO17" s="12"/>
+      <c r="DP17" s="12"/>
+      <c r="DQ17" s="12"/>
+      <c r="DR17" s="12"/>
+      <c r="DS17" s="12"/>
+      <c r="DT17" s="12"/>
+      <c r="DU17" s="12"/>
+      <c r="DV17" s="12"/>
+      <c r="DW17" s="12"/>
+      <c r="DX17" s="12"/>
+      <c r="DY17" s="12"/>
+      <c r="DZ17" s="12"/>
+      <c r="EA17" s="12"/>
+      <c r="EB17" s="12"/>
+      <c r="EC17" s="12"/>
+      <c r="ED17" s="12"/>
+      <c r="EE17" s="12"/>
+      <c r="EF17" s="12"/>
+      <c r="EG17" s="12"/>
+      <c r="EH17" s="12"/>
+      <c r="EI17" s="12"/>
+      <c r="EJ17" s="12"/>
+      <c r="EK17" s="12"/>
+      <c r="EL17" s="12"/>
+      <c r="EM17" s="12"/>
+      <c r="EN17" s="12"/>
+      <c r="EO17" s="12"/>
+      <c r="EP17" s="12"/>
+      <c r="EQ17" s="12"/>
+      <c r="ER17" s="12"/>
+      <c r="ES17" s="12"/>
+      <c r="ET17" s="12"/>
+      <c r="EU17" s="12"/>
+      <c r="EV17" s="12"/>
+      <c r="EW17" s="12"/>
+      <c r="EX17" s="12"/>
+      <c r="EY17" s="12"/>
+      <c r="EZ17" s="12"/>
+      <c r="FA17" s="12"/>
+      <c r="FB17" s="12"/>
+      <c r="FC17" s="12"/>
+      <c r="FD17" s="12"/>
+      <c r="FE17" s="12"/>
+      <c r="FF17" s="12"/>
+      <c r="FG17" s="12"/>
+      <c r="FH17" s="12"/>
+      <c r="FI17" s="12"/>
+      <c r="FJ17" s="12"/>
+      <c r="FK17" s="12"/>
+      <c r="FL17" s="12"/>
+      <c r="FM17" s="12"/>
+      <c r="FN17" s="12"/>
+      <c r="FO17" s="12"/>
+      <c r="FP17" s="12"/>
+      <c r="FQ17" s="12"/>
+      <c r="FR17" s="12"/>
+      <c r="FS17" s="12"/>
+      <c r="FT17" s="12"/>
+      <c r="FU17" s="12"/>
+      <c r="FV17" s="12"/>
+      <c r="FW17" s="12"/>
+      <c r="FX17" s="12"/>
+      <c r="FY17" s="12"/>
+      <c r="FZ17" s="12"/>
+      <c r="GA17" s="12"/>
+      <c r="GB17" s="12"/>
+      <c r="GC17" s="12"/>
+      <c r="GD17" s="12"/>
+      <c r="GE17" s="12"/>
+      <c r="GF17" s="12"/>
+      <c r="GG17" s="12"/>
+      <c r="GH17" s="12"/>
+      <c r="GI17" s="12"/>
+      <c r="GJ17" s="12"/>
+      <c r="GK17" s="12"/>
+      <c r="GL17" s="12"/>
+      <c r="GM17" s="12"/>
+      <c r="GN17" s="12"/>
+      <c r="GO17" s="12"/>
+      <c r="GP17" s="12"/>
+      <c r="GQ17" s="12"/>
+      <c r="GR17" s="12"/>
+      <c r="GS17" s="12"/>
+      <c r="GT17" s="12"/>
+      <c r="GU17" s="12"/>
+      <c r="GV17" s="12"/>
+      <c r="GW17" s="12"/>
+      <c r="GX17" s="12"/>
+      <c r="GY17" s="12"/>
+      <c r="GZ17" s="12"/>
+      <c r="HA17" s="12"/>
+      <c r="HB17" s="12"/>
+      <c r="HC17" s="12"/>
+      <c r="HD17" s="12"/>
+      <c r="HE17" s="12"/>
+      <c r="HF17" s="12"/>
+      <c r="HG17" s="12"/>
+      <c r="HH17" s="12"/>
+      <c r="HI17" s="12"/>
+      <c r="HJ17" s="12"/>
+      <c r="HK17" s="12"/>
+      <c r="HL17" s="12"/>
+      <c r="HM17" s="12"/>
+      <c r="HN17" s="12"/>
+      <c r="HO17" s="12"/>
+      <c r="HP17" s="12"/>
+      <c r="HQ17" s="12"/>
+      <c r="HR17" s="12"/>
+      <c r="HS17" s="12"/>
+      <c r="HT17" s="12"/>
+      <c r="HU17" s="12"/>
+      <c r="HV17" s="12"/>
+      <c r="HW17" s="12"/>
+      <c r="HX17" s="12"/>
+      <c r="HY17" s="12"/>
+      <c r="HZ17" s="12"/>
+      <c r="IA17" s="12"/>
+      <c r="IB17" s="12"/>
+      <c r="IC17" s="12"/>
+      <c r="ID17" s="12"/>
+      <c r="IE17" s="12"/>
+      <c r="IF17" s="12"/>
+      <c r="IG17" s="12"/>
+      <c r="IH17" s="12"/>
+      <c r="II17" s="12"/>
+      <c r="IJ17" s="12"/>
+      <c r="IK17" s="12"/>
+      <c r="IL17" s="12"/>
+      <c r="IM17" s="12"/>
+      <c r="IN17" s="12"/>
+      <c r="IO17" s="12"/>
+      <c r="IP17" s="12"/>
+      <c r="IQ17" s="12"/>
+      <c r="IR17" s="12"/>
+      <c r="IS17" s="12"/>
+      <c r="IT17" s="12"/>
+      <c r="IU17" s="12"/>
+      <c r="IV17" s="12"/>
+      <c r="IW17" s="12"/>
+      <c r="IX17" s="12"/>
     </row>
-    <row r="18" spans="1:258" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="47"/>
-      <c r="AO18" s="47"/>
-      <c r="AP18" s="47"/>
-      <c r="AQ18" s="47"/>
-      <c r="AR18" s="47"/>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="47"/>
-      <c r="AU18" s="47"/>
-      <c r="AV18" s="47"/>
-      <c r="AW18" s="47"/>
-      <c r="AX18" s="47"/>
-      <c r="AY18" s="47"/>
-      <c r="AZ18" s="47"/>
-      <c r="BA18" s="47"/>
-      <c r="BB18" s="47"/>
-      <c r="BC18" s="47"/>
-      <c r="BD18" s="47"/>
-      <c r="BE18" s="47"/>
-      <c r="BF18" s="47"/>
-      <c r="BG18" s="47"/>
-      <c r="BH18" s="47"/>
-      <c r="BI18" s="47"/>
-      <c r="BJ18" s="47"/>
-      <c r="BK18" s="47"/>
-      <c r="BL18" s="47"/>
-      <c r="BM18" s="47"/>
-      <c r="BN18" s="47"/>
-      <c r="BO18" s="47"/>
-      <c r="BP18" s="47"/>
-      <c r="BQ18" s="47"/>
-      <c r="BR18" s="47"/>
-      <c r="BS18" s="47"/>
-      <c r="BT18" s="47"/>
-      <c r="BU18" s="47"/>
-      <c r="BV18" s="47"/>
-      <c r="BW18" s="47"/>
-      <c r="BX18" s="47"/>
-      <c r="BY18" s="47"/>
-      <c r="BZ18" s="47"/>
-      <c r="CA18" s="47"/>
-      <c r="CB18" s="47"/>
-      <c r="CC18" s="47"/>
-      <c r="CD18" s="47"/>
-      <c r="CE18" s="47"/>
-      <c r="CF18" s="47"/>
-      <c r="CG18" s="47"/>
-      <c r="CH18" s="47"/>
-      <c r="CI18" s="47"/>
-      <c r="CJ18" s="47"/>
-      <c r="CK18" s="47"/>
-      <c r="CL18" s="47"/>
-      <c r="CM18" s="47"/>
-      <c r="CN18" s="47"/>
-      <c r="CO18" s="47"/>
-      <c r="CP18" s="47"/>
-      <c r="CQ18" s="47"/>
-      <c r="CR18" s="47"/>
-      <c r="CS18" s="47"/>
-      <c r="CT18" s="47"/>
-      <c r="CU18" s="47"/>
-      <c r="CV18" s="47"/>
-      <c r="CW18" s="47"/>
-      <c r="CX18" s="47"/>
-      <c r="CY18" s="47"/>
-      <c r="CZ18" s="47"/>
-      <c r="DA18" s="47"/>
-      <c r="DB18" s="47"/>
-      <c r="DC18" s="47"/>
-      <c r="DD18" s="47"/>
-      <c r="DE18" s="47"/>
-      <c r="DF18" s="47"/>
-      <c r="DG18" s="47"/>
-      <c r="DH18" s="47"/>
-      <c r="DI18" s="47"/>
-      <c r="DJ18" s="47"/>
-      <c r="DK18" s="47"/>
-      <c r="DL18" s="47"/>
-      <c r="DM18" s="47"/>
-      <c r="DN18" s="47"/>
-      <c r="DO18" s="47"/>
-      <c r="DP18" s="47"/>
-      <c r="DQ18" s="47"/>
-      <c r="DR18" s="47"/>
-      <c r="DS18" s="47"/>
-      <c r="DT18" s="47"/>
-      <c r="DU18" s="47"/>
-      <c r="DV18" s="47"/>
-      <c r="DW18" s="47"/>
-      <c r="DX18" s="47"/>
-      <c r="DY18" s="47"/>
-      <c r="DZ18" s="47"/>
-      <c r="EA18" s="47"/>
-      <c r="EB18" s="47"/>
-      <c r="EC18" s="47"/>
-      <c r="ED18" s="47"/>
-      <c r="EE18" s="47"/>
-      <c r="EF18" s="47"/>
-      <c r="EG18" s="47"/>
-      <c r="EH18" s="47"/>
-      <c r="EI18" s="47"/>
-      <c r="EJ18" s="47"/>
-      <c r="EK18" s="47"/>
-      <c r="EL18" s="47"/>
-      <c r="EM18" s="47"/>
-      <c r="EN18" s="47"/>
-      <c r="EO18" s="47"/>
-      <c r="EP18" s="47"/>
-      <c r="EQ18" s="47"/>
-      <c r="ER18" s="47"/>
-      <c r="ES18" s="47"/>
-      <c r="ET18" s="47"/>
-      <c r="EU18" s="47"/>
-      <c r="EV18" s="47"/>
-      <c r="EW18" s="47"/>
-      <c r="EX18" s="47"/>
-      <c r="EY18" s="47"/>
-      <c r="EZ18" s="47"/>
-      <c r="FA18" s="47"/>
-      <c r="FB18" s="47"/>
-      <c r="FC18" s="47"/>
-      <c r="FD18" s="47"/>
-      <c r="FE18" s="47"/>
-      <c r="FF18" s="47"/>
-      <c r="FG18" s="47"/>
-      <c r="FH18" s="47"/>
-      <c r="FI18" s="47"/>
-      <c r="FJ18" s="47"/>
-      <c r="FK18" s="47"/>
-      <c r="FL18" s="47"/>
-      <c r="FM18" s="47"/>
-      <c r="FN18" s="47"/>
-      <c r="FO18" s="47"/>
-      <c r="FP18" s="47"/>
-      <c r="FQ18" s="47"/>
-      <c r="FR18" s="47"/>
-      <c r="FS18" s="47"/>
-      <c r="FT18" s="47"/>
-      <c r="FU18" s="47"/>
-      <c r="FV18" s="47"/>
-      <c r="FW18" s="47"/>
-      <c r="FX18" s="47"/>
-      <c r="FY18" s="47"/>
-      <c r="FZ18" s="47"/>
-      <c r="GA18" s="47"/>
-      <c r="GB18" s="47"/>
-      <c r="GC18" s="47"/>
-      <c r="GD18" s="47"/>
-      <c r="GE18" s="47"/>
-      <c r="GF18" s="47"/>
-      <c r="GG18" s="47"/>
-      <c r="GH18" s="47"/>
-      <c r="GI18" s="47"/>
-      <c r="GJ18" s="47"/>
-      <c r="GK18" s="47"/>
-      <c r="GL18" s="47"/>
-      <c r="GM18" s="47"/>
-      <c r="GN18" s="47"/>
-      <c r="GO18" s="47"/>
-      <c r="GP18" s="47"/>
-      <c r="GQ18" s="47"/>
-      <c r="GR18" s="47"/>
-      <c r="GS18" s="47"/>
-      <c r="GT18" s="47"/>
-      <c r="GU18" s="47"/>
-      <c r="GV18" s="47"/>
-      <c r="GW18" s="47"/>
-      <c r="GX18" s="47"/>
-      <c r="GY18" s="47"/>
-      <c r="GZ18" s="47"/>
-      <c r="HA18" s="47"/>
-      <c r="HB18" s="47"/>
-      <c r="HC18" s="47"/>
-      <c r="HD18" s="47"/>
-      <c r="HE18" s="47"/>
-      <c r="HF18" s="47"/>
-      <c r="HG18" s="47"/>
-      <c r="HH18" s="47"/>
-      <c r="HI18" s="47"/>
-      <c r="HJ18" s="47"/>
-      <c r="HK18" s="47"/>
-      <c r="HL18" s="47"/>
-      <c r="HM18" s="47"/>
-      <c r="HN18" s="47"/>
-      <c r="HO18" s="47"/>
-      <c r="HP18" s="47"/>
-      <c r="HQ18" s="47"/>
-      <c r="HR18" s="47"/>
-      <c r="HS18" s="47"/>
-      <c r="HT18" s="47"/>
-      <c r="HU18" s="47"/>
-      <c r="HV18" s="47"/>
-      <c r="HW18" s="47"/>
-      <c r="HX18" s="47"/>
-      <c r="HY18" s="47"/>
-      <c r="HZ18" s="47"/>
-      <c r="IA18" s="47"/>
-      <c r="IB18" s="47"/>
-      <c r="IC18" s="47"/>
-      <c r="ID18" s="47"/>
-      <c r="IE18" s="47"/>
-      <c r="IF18" s="47"/>
-      <c r="IG18" s="47"/>
-      <c r="IH18" s="47"/>
-      <c r="II18" s="47"/>
-      <c r="IJ18" s="47"/>
-      <c r="IK18" s="47"/>
-      <c r="IL18" s="47"/>
-      <c r="IM18" s="47"/>
-      <c r="IN18" s="47"/>
-      <c r="IO18" s="47"/>
-      <c r="IP18" s="47"/>
-      <c r="IQ18" s="47"/>
-      <c r="IR18" s="47"/>
-      <c r="IS18" s="47"/>
-      <c r="IT18" s="47"/>
-      <c r="IU18" s="47"/>
-      <c r="IV18" s="47"/>
-      <c r="IW18" s="47"/>
-      <c r="IX18" s="47"/>
+    <row r="18" spans="1:258" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="35"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="35"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="35"/>
+      <c r="AX18" s="35"/>
+      <c r="AY18" s="35"/>
+      <c r="AZ18" s="35"/>
+      <c r="BA18" s="35"/>
+      <c r="BB18" s="35"/>
+      <c r="BC18" s="35"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="35"/>
+      <c r="BF18" s="35"/>
+      <c r="BG18" s="35"/>
+      <c r="BH18" s="35"/>
+      <c r="BI18" s="35"/>
+      <c r="BJ18" s="35"/>
+      <c r="BK18" s="35"/>
+      <c r="BL18" s="35"/>
+      <c r="BM18" s="35"/>
+      <c r="BN18" s="35"/>
+      <c r="BO18" s="35"/>
+      <c r="BP18" s="35"/>
+      <c r="BQ18" s="35"/>
+      <c r="BR18" s="35"/>
+      <c r="BS18" s="35"/>
+      <c r="BT18" s="35"/>
+      <c r="BU18" s="35"/>
+      <c r="BV18" s="35"/>
+      <c r="BW18" s="35"/>
+      <c r="BX18" s="35"/>
+      <c r="BY18" s="35"/>
+      <c r="BZ18" s="35"/>
+      <c r="CA18" s="35"/>
+      <c r="CB18" s="35"/>
+      <c r="CC18" s="35"/>
+      <c r="CD18" s="35"/>
+      <c r="CE18" s="35"/>
+      <c r="CF18" s="35"/>
+      <c r="CG18" s="35"/>
+      <c r="CH18" s="35"/>
+      <c r="CI18" s="35"/>
+      <c r="CJ18" s="35"/>
+      <c r="CK18" s="35"/>
+      <c r="CL18" s="35"/>
+      <c r="CM18" s="35"/>
+      <c r="CN18" s="35"/>
+      <c r="CO18" s="35"/>
+      <c r="CP18" s="35"/>
+      <c r="CQ18" s="35"/>
+      <c r="CR18" s="35"/>
+      <c r="CS18" s="35"/>
+      <c r="CT18" s="35"/>
+      <c r="CU18" s="35"/>
+      <c r="CV18" s="35"/>
+      <c r="CW18" s="35"/>
+      <c r="CX18" s="35"/>
+      <c r="CY18" s="35"/>
+      <c r="CZ18" s="35"/>
+      <c r="DA18" s="35"/>
+      <c r="DB18" s="35"/>
+      <c r="DC18" s="35"/>
+      <c r="DD18" s="35"/>
+      <c r="DE18" s="35"/>
+      <c r="DF18" s="35"/>
+      <c r="DG18" s="35"/>
+      <c r="DH18" s="35"/>
+      <c r="DI18" s="35"/>
+      <c r="DJ18" s="35"/>
+      <c r="DK18" s="35"/>
+      <c r="DL18" s="35"/>
+      <c r="DM18" s="35"/>
+      <c r="DN18" s="35"/>
+      <c r="DO18" s="35"/>
+      <c r="DP18" s="35"/>
+      <c r="DQ18" s="35"/>
+      <c r="DR18" s="35"/>
+      <c r="DS18" s="35"/>
+      <c r="DT18" s="35"/>
+      <c r="DU18" s="35"/>
+      <c r="DV18" s="35"/>
+      <c r="DW18" s="35"/>
+      <c r="DX18" s="35"/>
+      <c r="DY18" s="35"/>
+      <c r="DZ18" s="35"/>
+      <c r="EA18" s="35"/>
+      <c r="EB18" s="35"/>
+      <c r="EC18" s="35"/>
+      <c r="ED18" s="35"/>
+      <c r="EE18" s="35"/>
+      <c r="EF18" s="35"/>
+      <c r="EG18" s="35"/>
+      <c r="EH18" s="35"/>
+      <c r="EI18" s="35"/>
+      <c r="EJ18" s="35"/>
+      <c r="EK18" s="35"/>
+      <c r="EL18" s="35"/>
+      <c r="EM18" s="35"/>
+      <c r="EN18" s="35"/>
+      <c r="EO18" s="35"/>
+      <c r="EP18" s="35"/>
+      <c r="EQ18" s="35"/>
+      <c r="ER18" s="35"/>
+      <c r="ES18" s="35"/>
+      <c r="ET18" s="35"/>
+      <c r="EU18" s="35"/>
+      <c r="EV18" s="35"/>
+      <c r="EW18" s="35"/>
+      <c r="EX18" s="35"/>
+      <c r="EY18" s="35"/>
+      <c r="EZ18" s="35"/>
+      <c r="FA18" s="35"/>
+      <c r="FB18" s="35"/>
+      <c r="FC18" s="35"/>
+      <c r="FD18" s="35"/>
+      <c r="FE18" s="35"/>
+      <c r="FF18" s="35"/>
+      <c r="FG18" s="35"/>
+      <c r="FH18" s="35"/>
+      <c r="FI18" s="35"/>
+      <c r="FJ18" s="35"/>
+      <c r="FK18" s="35"/>
+      <c r="FL18" s="35"/>
+      <c r="FM18" s="35"/>
+      <c r="FN18" s="35"/>
+      <c r="FO18" s="35"/>
+      <c r="FP18" s="35"/>
+      <c r="FQ18" s="35"/>
+      <c r="FR18" s="35"/>
+      <c r="FS18" s="35"/>
+      <c r="FT18" s="35"/>
+      <c r="FU18" s="35"/>
+      <c r="FV18" s="35"/>
+      <c r="FW18" s="35"/>
+      <c r="FX18" s="35"/>
+      <c r="FY18" s="35"/>
+      <c r="FZ18" s="35"/>
+      <c r="GA18" s="35"/>
+      <c r="GB18" s="35"/>
+      <c r="GC18" s="35"/>
+      <c r="GD18" s="35"/>
+      <c r="GE18" s="35"/>
+      <c r="GF18" s="35"/>
+      <c r="GG18" s="35"/>
+      <c r="GH18" s="35"/>
+      <c r="GI18" s="35"/>
+      <c r="GJ18" s="35"/>
+      <c r="GK18" s="35"/>
+      <c r="GL18" s="35"/>
+      <c r="GM18" s="35"/>
+      <c r="GN18" s="35"/>
+      <c r="GO18" s="35"/>
+      <c r="GP18" s="35"/>
+      <c r="GQ18" s="35"/>
+      <c r="GR18" s="35"/>
+      <c r="GS18" s="35"/>
+      <c r="GT18" s="35"/>
+      <c r="GU18" s="35"/>
+      <c r="GV18" s="35"/>
+      <c r="GW18" s="35"/>
+      <c r="GX18" s="35"/>
+      <c r="GY18" s="35"/>
+      <c r="GZ18" s="35"/>
+      <c r="HA18" s="35"/>
+      <c r="HB18" s="35"/>
+      <c r="HC18" s="35"/>
+      <c r="HD18" s="35"/>
+      <c r="HE18" s="35"/>
+      <c r="HF18" s="35"/>
+      <c r="HG18" s="35"/>
+      <c r="HH18" s="35"/>
+      <c r="HI18" s="35"/>
+      <c r="HJ18" s="35"/>
+      <c r="HK18" s="35"/>
+      <c r="HL18" s="35"/>
+      <c r="HM18" s="35"/>
+      <c r="HN18" s="35"/>
+      <c r="HO18" s="35"/>
+      <c r="HP18" s="35"/>
+      <c r="HQ18" s="35"/>
+      <c r="HR18" s="35"/>
+      <c r="HS18" s="35"/>
+      <c r="HT18" s="35"/>
+      <c r="HU18" s="35"/>
+      <c r="HV18" s="35"/>
+      <c r="HW18" s="35"/>
+      <c r="HX18" s="35"/>
+      <c r="HY18" s="35"/>
+      <c r="HZ18" s="35"/>
+      <c r="IA18" s="35"/>
+      <c r="IB18" s="35"/>
+      <c r="IC18" s="35"/>
+      <c r="ID18" s="35"/>
+      <c r="IE18" s="35"/>
+      <c r="IF18" s="35"/>
+      <c r="IG18" s="35"/>
+      <c r="IH18" s="35"/>
+      <c r="II18" s="35"/>
+      <c r="IJ18" s="35"/>
+      <c r="IK18" s="35"/>
+      <c r="IL18" s="35"/>
+      <c r="IM18" s="35"/>
+      <c r="IN18" s="35"/>
+      <c r="IO18" s="35"/>
+      <c r="IP18" s="35"/>
+      <c r="IQ18" s="35"/>
+      <c r="IR18" s="35"/>
+      <c r="IS18" s="35"/>
+      <c r="IT18" s="35"/>
+      <c r="IU18" s="35"/>
+      <c r="IV18" s="35"/>
+      <c r="IW18" s="35"/>
+      <c r="IX18" s="35"/>
     </row>
-    <row r="19" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
+    <row r="19" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="61"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+      <c r="BH19" s="12"/>
+      <c r="BI19" s="12"/>
+      <c r="BJ19" s="12"/>
+      <c r="BK19" s="12"/>
+      <c r="BL19" s="12"/>
+      <c r="BM19" s="12"/>
+      <c r="BN19" s="12"/>
+      <c r="BO19" s="12"/>
+      <c r="BP19" s="12"/>
+      <c r="BQ19" s="12"/>
+      <c r="BR19" s="12"/>
+      <c r="BS19" s="12"/>
+      <c r="BT19" s="12"/>
+      <c r="BU19" s="12"/>
+      <c r="BV19" s="12"/>
+      <c r="BW19" s="12"/>
+      <c r="BX19" s="12"/>
+      <c r="BY19" s="12"/>
+      <c r="BZ19" s="12"/>
+      <c r="CA19" s="12"/>
+      <c r="CB19" s="12"/>
+      <c r="CC19" s="12"/>
+      <c r="CD19" s="12"/>
+      <c r="CE19" s="12"/>
+      <c r="CF19" s="12"/>
+      <c r="CG19" s="12"/>
+      <c r="CH19" s="12"/>
+      <c r="CI19" s="12"/>
+      <c r="CJ19" s="12"/>
+      <c r="CK19" s="12"/>
+      <c r="CL19" s="12"/>
+      <c r="CM19" s="12"/>
+      <c r="CN19" s="12"/>
+      <c r="CO19" s="12"/>
+      <c r="CP19" s="12"/>
+      <c r="CQ19" s="12"/>
+      <c r="CR19" s="12"/>
+      <c r="CS19" s="12"/>
+      <c r="CT19" s="12"/>
+      <c r="CU19" s="12"/>
+      <c r="CV19" s="12"/>
+      <c r="CW19" s="12"/>
+      <c r="CX19" s="12"/>
+      <c r="CY19" s="12"/>
+      <c r="CZ19" s="12"/>
+      <c r="DA19" s="12"/>
+      <c r="DB19" s="12"/>
+      <c r="DC19" s="12"/>
+      <c r="DD19" s="12"/>
+      <c r="DE19" s="12"/>
+      <c r="DF19" s="12"/>
+      <c r="DG19" s="12"/>
+      <c r="DH19" s="12"/>
+      <c r="DI19" s="12"/>
+      <c r="DJ19" s="12"/>
+      <c r="DK19" s="12"/>
+      <c r="DL19" s="12"/>
+      <c r="DM19" s="12"/>
+      <c r="DN19" s="12"/>
+      <c r="DO19" s="12"/>
+      <c r="DP19" s="12"/>
+      <c r="DQ19" s="12"/>
+      <c r="DR19" s="12"/>
+      <c r="DS19" s="12"/>
+      <c r="DT19" s="12"/>
+      <c r="DU19" s="12"/>
+      <c r="DV19" s="12"/>
+      <c r="DW19" s="12"/>
+      <c r="DX19" s="12"/>
+      <c r="DY19" s="12"/>
+      <c r="DZ19" s="12"/>
+      <c r="EA19" s="12"/>
+      <c r="EB19" s="12"/>
+      <c r="EC19" s="12"/>
+      <c r="ED19" s="12"/>
+      <c r="EE19" s="12"/>
+      <c r="EF19" s="12"/>
+      <c r="EG19" s="12"/>
+      <c r="EH19" s="12"/>
+      <c r="EI19" s="12"/>
+      <c r="EJ19" s="12"/>
+      <c r="EK19" s="12"/>
+      <c r="EL19" s="12"/>
+      <c r="EM19" s="12"/>
+      <c r="EN19" s="12"/>
+      <c r="EO19" s="12"/>
+      <c r="EP19" s="12"/>
+      <c r="EQ19" s="12"/>
+      <c r="ER19" s="12"/>
+      <c r="ES19" s="12"/>
+      <c r="ET19" s="12"/>
+      <c r="EU19" s="12"/>
+      <c r="EV19" s="12"/>
+      <c r="EW19" s="12"/>
+      <c r="EX19" s="12"/>
+      <c r="EY19" s="12"/>
+      <c r="EZ19" s="12"/>
+      <c r="FA19" s="12"/>
+      <c r="FB19" s="12"/>
+      <c r="FC19" s="12"/>
+      <c r="FD19" s="12"/>
+      <c r="FE19" s="12"/>
+      <c r="FF19" s="12"/>
+      <c r="FG19" s="12"/>
+      <c r="FH19" s="12"/>
+      <c r="FI19" s="12"/>
+      <c r="FJ19" s="12"/>
+      <c r="FK19" s="12"/>
+      <c r="FL19" s="12"/>
+      <c r="FM19" s="12"/>
+      <c r="FN19" s="12"/>
+      <c r="FO19" s="12"/>
+      <c r="FP19" s="12"/>
+      <c r="FQ19" s="12"/>
+      <c r="FR19" s="12"/>
+      <c r="FS19" s="12"/>
+      <c r="FT19" s="12"/>
+      <c r="FU19" s="12"/>
+      <c r="FV19" s="12"/>
+      <c r="FW19" s="12"/>
+      <c r="FX19" s="12"/>
+      <c r="FY19" s="12"/>
+      <c r="FZ19" s="12"/>
+      <c r="GA19" s="12"/>
+      <c r="GB19" s="12"/>
+      <c r="GC19" s="12"/>
+      <c r="GD19" s="12"/>
+      <c r="GE19" s="12"/>
+      <c r="GF19" s="12"/>
+      <c r="GG19" s="12"/>
+      <c r="GH19" s="12"/>
+      <c r="GI19" s="12"/>
+      <c r="GJ19" s="12"/>
+      <c r="GK19" s="12"/>
+      <c r="GL19" s="12"/>
+      <c r="GM19" s="12"/>
+      <c r="GN19" s="12"/>
+      <c r="GO19" s="12"/>
+      <c r="GP19" s="12"/>
+      <c r="GQ19" s="12"/>
+      <c r="GR19" s="12"/>
+      <c r="GS19" s="12"/>
+      <c r="GT19" s="12"/>
+      <c r="GU19" s="12"/>
+      <c r="GV19" s="12"/>
+      <c r="GW19" s="12"/>
+      <c r="GX19" s="12"/>
+      <c r="GY19" s="12"/>
+      <c r="GZ19" s="12"/>
+      <c r="HA19" s="12"/>
+      <c r="HB19" s="12"/>
+      <c r="HC19" s="12"/>
+      <c r="HD19" s="12"/>
+      <c r="HE19" s="12"/>
+      <c r="HF19" s="12"/>
+      <c r="HG19" s="12"/>
+      <c r="HH19" s="12"/>
+      <c r="HI19" s="12"/>
+      <c r="HJ19" s="12"/>
+      <c r="HK19" s="12"/>
+      <c r="HL19" s="12"/>
+      <c r="HM19" s="12"/>
+      <c r="HN19" s="12"/>
+      <c r="HO19" s="12"/>
+      <c r="HP19" s="12"/>
+      <c r="HQ19" s="12"/>
+      <c r="HR19" s="12"/>
+      <c r="HS19" s="12"/>
+      <c r="HT19" s="12"/>
+      <c r="HU19" s="12"/>
+      <c r="HV19" s="12"/>
+      <c r="HW19" s="12"/>
+      <c r="HX19" s="12"/>
+      <c r="HY19" s="12"/>
+      <c r="HZ19" s="12"/>
+      <c r="IA19" s="12"/>
+      <c r="IB19" s="12"/>
+      <c r="IC19" s="12"/>
+      <c r="ID19" s="12"/>
+      <c r="IE19" s="12"/>
+      <c r="IF19" s="12"/>
+      <c r="IG19" s="12"/>
+      <c r="IH19" s="12"/>
+      <c r="II19" s="12"/>
+      <c r="IJ19" s="12"/>
+      <c r="IK19" s="12"/>
+      <c r="IL19" s="12"/>
+      <c r="IM19" s="12"/>
+      <c r="IN19" s="12"/>
+      <c r="IO19" s="12"/>
+      <c r="IP19" s="12"/>
+      <c r="IQ19" s="12"/>
+      <c r="IR19" s="12"/>
+      <c r="IS19" s="12"/>
+      <c r="IT19" s="12"/>
+      <c r="IU19" s="12"/>
+      <c r="IV19" s="12"/>
+      <c r="IW19" s="12"/>
+      <c r="IX19" s="12"/>
     </row>
-    <row r="20" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
+    <row r="20" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="12"/>
+      <c r="BH20" s="12"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="12"/>
+      <c r="BK20" s="12"/>
+      <c r="BL20" s="12"/>
+      <c r="BM20" s="12"/>
+      <c r="BN20" s="12"/>
+      <c r="BO20" s="12"/>
+      <c r="BP20" s="12"/>
+      <c r="BQ20" s="12"/>
+      <c r="BR20" s="12"/>
+      <c r="BS20" s="12"/>
+      <c r="BT20" s="12"/>
+      <c r="BU20" s="12"/>
+      <c r="BV20" s="12"/>
+      <c r="BW20" s="12"/>
+      <c r="BX20" s="12"/>
+      <c r="BY20" s="12"/>
+      <c r="BZ20" s="12"/>
+      <c r="CA20" s="12"/>
+      <c r="CB20" s="12"/>
+      <c r="CC20" s="12"/>
+      <c r="CD20" s="12"/>
+      <c r="CE20" s="12"/>
+      <c r="CF20" s="12"/>
+      <c r="CG20" s="12"/>
+      <c r="CH20" s="12"/>
+      <c r="CI20" s="12"/>
+      <c r="CJ20" s="12"/>
+      <c r="CK20" s="12"/>
+      <c r="CL20" s="12"/>
+      <c r="CM20" s="12"/>
+      <c r="CN20" s="12"/>
+      <c r="CO20" s="12"/>
+      <c r="CP20" s="12"/>
+      <c r="CQ20" s="12"/>
+      <c r="CR20" s="12"/>
+      <c r="CS20" s="12"/>
+      <c r="CT20" s="12"/>
+      <c r="CU20" s="12"/>
+      <c r="CV20" s="12"/>
+      <c r="CW20" s="12"/>
+      <c r="CX20" s="12"/>
+      <c r="CY20" s="12"/>
+      <c r="CZ20" s="12"/>
+      <c r="DA20" s="12"/>
+      <c r="DB20" s="12"/>
+      <c r="DC20" s="12"/>
+      <c r="DD20" s="12"/>
+      <c r="DE20" s="12"/>
+      <c r="DF20" s="12"/>
+      <c r="DG20" s="12"/>
+      <c r="DH20" s="12"/>
+      <c r="DI20" s="12"/>
+      <c r="DJ20" s="12"/>
+      <c r="DK20" s="12"/>
+      <c r="DL20" s="12"/>
+      <c r="DM20" s="12"/>
+      <c r="DN20" s="12"/>
+      <c r="DO20" s="12"/>
+      <c r="DP20" s="12"/>
+      <c r="DQ20" s="12"/>
+      <c r="DR20" s="12"/>
+      <c r="DS20" s="12"/>
+      <c r="DT20" s="12"/>
+      <c r="DU20" s="12"/>
+      <c r="DV20" s="12"/>
+      <c r="DW20" s="12"/>
+      <c r="DX20" s="12"/>
+      <c r="DY20" s="12"/>
+      <c r="DZ20" s="12"/>
+      <c r="EA20" s="12"/>
+      <c r="EB20" s="12"/>
+      <c r="EC20" s="12"/>
+      <c r="ED20" s="12"/>
+      <c r="EE20" s="12"/>
+      <c r="EF20" s="12"/>
+      <c r="EG20" s="12"/>
+      <c r="EH20" s="12"/>
+      <c r="EI20" s="12"/>
+      <c r="EJ20" s="12"/>
+      <c r="EK20" s="12"/>
+      <c r="EL20" s="12"/>
+      <c r="EM20" s="12"/>
+      <c r="EN20" s="12"/>
+      <c r="EO20" s="12"/>
+      <c r="EP20" s="12"/>
+      <c r="EQ20" s="12"/>
+      <c r="ER20" s="12"/>
+      <c r="ES20" s="12"/>
+      <c r="ET20" s="12"/>
+      <c r="EU20" s="12"/>
+      <c r="EV20" s="12"/>
+      <c r="EW20" s="12"/>
+      <c r="EX20" s="12"/>
+      <c r="EY20" s="12"/>
+      <c r="EZ20" s="12"/>
+      <c r="FA20" s="12"/>
+      <c r="FB20" s="12"/>
+      <c r="FC20" s="12"/>
+      <c r="FD20" s="12"/>
+      <c r="FE20" s="12"/>
+      <c r="FF20" s="12"/>
+      <c r="FG20" s="12"/>
+      <c r="FH20" s="12"/>
+      <c r="FI20" s="12"/>
+      <c r="FJ20" s="12"/>
+      <c r="FK20" s="12"/>
+      <c r="FL20" s="12"/>
+      <c r="FM20" s="12"/>
+      <c r="FN20" s="12"/>
+      <c r="FO20" s="12"/>
+      <c r="FP20" s="12"/>
+      <c r="FQ20" s="12"/>
+      <c r="FR20" s="12"/>
+      <c r="FS20" s="12"/>
+      <c r="FT20" s="12"/>
+      <c r="FU20" s="12"/>
+      <c r="FV20" s="12"/>
+      <c r="FW20" s="12"/>
+      <c r="FX20" s="12"/>
+      <c r="FY20" s="12"/>
+      <c r="FZ20" s="12"/>
+      <c r="GA20" s="12"/>
+      <c r="GB20" s="12"/>
+      <c r="GC20" s="12"/>
+      <c r="GD20" s="12"/>
+      <c r="GE20" s="12"/>
+      <c r="GF20" s="12"/>
+      <c r="GG20" s="12"/>
+      <c r="GH20" s="12"/>
+      <c r="GI20" s="12"/>
+      <c r="GJ20" s="12"/>
+      <c r="GK20" s="12"/>
+      <c r="GL20" s="12"/>
+      <c r="GM20" s="12"/>
+      <c r="GN20" s="12"/>
+      <c r="GO20" s="12"/>
+      <c r="GP20" s="12"/>
+      <c r="GQ20" s="12"/>
+      <c r="GR20" s="12"/>
+      <c r="GS20" s="12"/>
+      <c r="GT20" s="12"/>
+      <c r="GU20" s="12"/>
+      <c r="GV20" s="12"/>
+      <c r="GW20" s="12"/>
+      <c r="GX20" s="12"/>
+      <c r="GY20" s="12"/>
+      <c r="GZ20" s="12"/>
+      <c r="HA20" s="12"/>
+      <c r="HB20" s="12"/>
+      <c r="HC20" s="12"/>
+      <c r="HD20" s="12"/>
+      <c r="HE20" s="12"/>
+      <c r="HF20" s="12"/>
+      <c r="HG20" s="12"/>
+      <c r="HH20" s="12"/>
+      <c r="HI20" s="12"/>
+      <c r="HJ20" s="12"/>
+      <c r="HK20" s="12"/>
+      <c r="HL20" s="12"/>
+      <c r="HM20" s="12"/>
+      <c r="HN20" s="12"/>
+      <c r="HO20" s="12"/>
+      <c r="HP20" s="12"/>
+      <c r="HQ20" s="12"/>
+      <c r="HR20" s="12"/>
+      <c r="HS20" s="12"/>
+      <c r="HT20" s="12"/>
+      <c r="HU20" s="12"/>
+      <c r="HV20" s="12"/>
+      <c r="HW20" s="12"/>
+      <c r="HX20" s="12"/>
+      <c r="HY20" s="12"/>
+      <c r="HZ20" s="12"/>
+      <c r="IA20" s="12"/>
+      <c r="IB20" s="12"/>
+      <c r="IC20" s="12"/>
+      <c r="ID20" s="12"/>
+      <c r="IE20" s="12"/>
+      <c r="IF20" s="12"/>
+      <c r="IG20" s="12"/>
+      <c r="IH20" s="12"/>
+      <c r="II20" s="12"/>
+      <c r="IJ20" s="12"/>
+      <c r="IK20" s="12"/>
+      <c r="IL20" s="12"/>
+      <c r="IM20" s="12"/>
+      <c r="IN20" s="12"/>
+      <c r="IO20" s="12"/>
+      <c r="IP20" s="12"/>
+      <c r="IQ20" s="12"/>
+      <c r="IR20" s="12"/>
+      <c r="IS20" s="12"/>
+      <c r="IT20" s="12"/>
+      <c r="IU20" s="12"/>
+      <c r="IV20" s="12"/>
+      <c r="IW20" s="12"/>
+      <c r="IX20" s="12"/>
     </row>
     <row r="21" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
     </row>
-    <row r="22" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
+    <row r="22" spans="1:258" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="46"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="46"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="46"/>
+      <c r="AN22" s="46"/>
+      <c r="AO22" s="46"/>
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="46"/>
+      <c r="AS22" s="46"/>
+      <c r="AT22" s="46"/>
+      <c r="AU22" s="46"/>
+      <c r="AV22" s="46"/>
+      <c r="AW22" s="46"/>
+      <c r="AX22" s="46"/>
+      <c r="AY22" s="46"/>
+      <c r="AZ22" s="46"/>
+      <c r="BA22" s="46"/>
+      <c r="BB22" s="46"/>
+      <c r="BC22" s="46"/>
+      <c r="BD22" s="46"/>
+      <c r="BE22" s="46"/>
+      <c r="BF22" s="46"/>
+      <c r="BG22" s="46"/>
+      <c r="BH22" s="46"/>
+      <c r="BI22" s="46"/>
+      <c r="BJ22" s="46"/>
+      <c r="BK22" s="46"/>
+      <c r="BL22" s="46"/>
+      <c r="BM22" s="46"/>
+      <c r="BN22" s="46"/>
+      <c r="BO22" s="46"/>
+      <c r="BP22" s="46"/>
+      <c r="BQ22" s="46"/>
+      <c r="BR22" s="46"/>
+      <c r="BS22" s="46"/>
+      <c r="BT22" s="46"/>
+      <c r="BU22" s="46"/>
+      <c r="BV22" s="46"/>
+      <c r="BW22" s="46"/>
+      <c r="BX22" s="46"/>
+      <c r="BY22" s="46"/>
+      <c r="BZ22" s="46"/>
+      <c r="CA22" s="46"/>
+      <c r="CB22" s="46"/>
+      <c r="CC22" s="46"/>
+      <c r="CD22" s="46"/>
+      <c r="CE22" s="46"/>
+      <c r="CF22" s="46"/>
+      <c r="CG22" s="46"/>
+      <c r="CH22" s="46"/>
+      <c r="CI22" s="46"/>
+      <c r="CJ22" s="46"/>
+      <c r="CK22" s="46"/>
+      <c r="CL22" s="46"/>
+      <c r="CM22" s="46"/>
+      <c r="CN22" s="46"/>
+      <c r="CO22" s="46"/>
+      <c r="CP22" s="46"/>
+      <c r="CQ22" s="46"/>
+      <c r="CR22" s="46"/>
+      <c r="CS22" s="46"/>
+      <c r="CT22" s="46"/>
+      <c r="CU22" s="46"/>
+      <c r="CV22" s="46"/>
+      <c r="CW22" s="46"/>
+      <c r="CX22" s="46"/>
+      <c r="CY22" s="46"/>
+      <c r="CZ22" s="46"/>
+      <c r="DA22" s="46"/>
+      <c r="DB22" s="46"/>
+      <c r="DC22" s="46"/>
+      <c r="DD22" s="46"/>
+      <c r="DE22" s="46"/>
+      <c r="DF22" s="46"/>
+      <c r="DG22" s="46"/>
+      <c r="DH22" s="46"/>
+      <c r="DI22" s="46"/>
+      <c r="DJ22" s="46"/>
+      <c r="DK22" s="46"/>
+      <c r="DL22" s="46"/>
+      <c r="DM22" s="46"/>
+      <c r="DN22" s="46"/>
+      <c r="DO22" s="46"/>
+      <c r="DP22" s="46"/>
+      <c r="DQ22" s="46"/>
+      <c r="DR22" s="46"/>
+      <c r="DS22" s="46"/>
+      <c r="DT22" s="46"/>
+      <c r="DU22" s="46"/>
+      <c r="DV22" s="46"/>
+      <c r="DW22" s="46"/>
+      <c r="DX22" s="46"/>
+      <c r="DY22" s="46"/>
+      <c r="DZ22" s="46"/>
+      <c r="EA22" s="46"/>
+      <c r="EB22" s="46"/>
+      <c r="EC22" s="46"/>
+      <c r="ED22" s="46"/>
+      <c r="EE22" s="46"/>
+      <c r="EF22" s="46"/>
+      <c r="EG22" s="46"/>
+      <c r="EH22" s="46"/>
+      <c r="EI22" s="46"/>
+      <c r="EJ22" s="46"/>
+      <c r="EK22" s="46"/>
+      <c r="EL22" s="46"/>
+      <c r="EM22" s="46"/>
+      <c r="EN22" s="46"/>
+      <c r="EO22" s="46"/>
+      <c r="EP22" s="46"/>
+      <c r="EQ22" s="46"/>
+      <c r="ER22" s="46"/>
+      <c r="ES22" s="46"/>
+      <c r="ET22" s="46"/>
+      <c r="EU22" s="46"/>
+      <c r="EV22" s="46"/>
+      <c r="EW22" s="46"/>
+      <c r="EX22" s="46"/>
+      <c r="EY22" s="46"/>
+      <c r="EZ22" s="46"/>
+      <c r="FA22" s="46"/>
+      <c r="FB22" s="46"/>
+      <c r="FC22" s="46"/>
+      <c r="FD22" s="46"/>
+      <c r="FE22" s="46"/>
+      <c r="FF22" s="46"/>
+      <c r="FG22" s="46"/>
+      <c r="FH22" s="46"/>
+      <c r="FI22" s="46"/>
+      <c r="FJ22" s="46"/>
+      <c r="FK22" s="46"/>
+      <c r="FL22" s="46"/>
+      <c r="FM22" s="46"/>
+      <c r="FN22" s="46"/>
+      <c r="FO22" s="46"/>
+      <c r="FP22" s="46"/>
+      <c r="FQ22" s="46"/>
+      <c r="FR22" s="46"/>
+      <c r="FS22" s="46"/>
+      <c r="FT22" s="46"/>
+      <c r="FU22" s="46"/>
+      <c r="FV22" s="46"/>
+      <c r="FW22" s="46"/>
+      <c r="FX22" s="46"/>
+      <c r="FY22" s="46"/>
+      <c r="FZ22" s="46"/>
+      <c r="GA22" s="46"/>
+      <c r="GB22" s="46"/>
+      <c r="GC22" s="46"/>
+      <c r="GD22" s="46"/>
+      <c r="GE22" s="46"/>
+      <c r="GF22" s="46"/>
+      <c r="GG22" s="46"/>
+      <c r="GH22" s="46"/>
+      <c r="GI22" s="46"/>
+      <c r="GJ22" s="46"/>
+      <c r="GK22" s="46"/>
+      <c r="GL22" s="46"/>
+      <c r="GM22" s="46"/>
+      <c r="GN22" s="46"/>
+      <c r="GO22" s="46"/>
+      <c r="GP22" s="46"/>
+      <c r="GQ22" s="46"/>
+      <c r="GR22" s="46"/>
+      <c r="GS22" s="46"/>
+      <c r="GT22" s="46"/>
+      <c r="GU22" s="46"/>
+      <c r="GV22" s="46"/>
+      <c r="GW22" s="46"/>
+      <c r="GX22" s="46"/>
+      <c r="GY22" s="46"/>
+      <c r="GZ22" s="46"/>
+      <c r="HA22" s="46"/>
+      <c r="HB22" s="46"/>
+      <c r="HC22" s="46"/>
+      <c r="HD22" s="46"/>
+      <c r="HE22" s="46"/>
+      <c r="HF22" s="46"/>
+      <c r="HG22" s="46"/>
+      <c r="HH22" s="46"/>
+      <c r="HI22" s="46"/>
+      <c r="HJ22" s="46"/>
+      <c r="HK22" s="46"/>
+      <c r="HL22" s="46"/>
+      <c r="HM22" s="46"/>
+      <c r="HN22" s="46"/>
+      <c r="HO22" s="46"/>
+      <c r="HP22" s="46"/>
+      <c r="HQ22" s="46"/>
+      <c r="HR22" s="46"/>
+      <c r="HS22" s="46"/>
+      <c r="HT22" s="46"/>
+      <c r="HU22" s="46"/>
+      <c r="HV22" s="46"/>
+      <c r="HW22" s="46"/>
+      <c r="HX22" s="46"/>
+      <c r="HY22" s="46"/>
+      <c r="HZ22" s="46"/>
+      <c r="IA22" s="46"/>
+      <c r="IB22" s="46"/>
+      <c r="IC22" s="46"/>
+      <c r="ID22" s="46"/>
+      <c r="IE22" s="46"/>
+      <c r="IF22" s="46"/>
+      <c r="IG22" s="46"/>
+      <c r="IH22" s="46"/>
+      <c r="II22" s="46"/>
+      <c r="IJ22" s="46"/>
+      <c r="IK22" s="46"/>
+      <c r="IL22" s="46"/>
+      <c r="IM22" s="46"/>
+      <c r="IN22" s="46"/>
+      <c r="IO22" s="46"/>
+      <c r="IP22" s="46"/>
+      <c r="IQ22" s="46"/>
+      <c r="IR22" s="46"/>
+      <c r="IS22" s="46"/>
+      <c r="IT22" s="46"/>
+      <c r="IU22" s="46"/>
+      <c r="IV22" s="46"/>
+      <c r="IW22" s="46"/>
+      <c r="IX22" s="46"/>
     </row>
-    <row r="23" spans="1:258" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="47"/>
-      <c r="AL23" s="47"/>
-      <c r="AM23" s="47"/>
-      <c r="AN23" s="47"/>
-      <c r="AO23" s="47"/>
-      <c r="AP23" s="47"/>
-      <c r="AQ23" s="47"/>
-      <c r="AR23" s="47"/>
-      <c r="AS23" s="47"/>
-      <c r="AT23" s="47"/>
-      <c r="AU23" s="47"/>
-      <c r="AV23" s="47"/>
-      <c r="AW23" s="47"/>
-      <c r="AX23" s="47"/>
-      <c r="AY23" s="47"/>
-      <c r="AZ23" s="47"/>
-      <c r="BA23" s="47"/>
-      <c r="BB23" s="47"/>
-      <c r="BC23" s="47"/>
-      <c r="BD23" s="47"/>
-      <c r="BE23" s="47"/>
-      <c r="BF23" s="47"/>
-      <c r="BG23" s="47"/>
-      <c r="BH23" s="47"/>
-      <c r="BI23" s="47"/>
-      <c r="BJ23" s="47"/>
-      <c r="BK23" s="47"/>
-      <c r="BL23" s="47"/>
-      <c r="BM23" s="47"/>
-      <c r="BN23" s="47"/>
-      <c r="BO23" s="47"/>
-      <c r="BP23" s="47"/>
-      <c r="BQ23" s="47"/>
-      <c r="BR23" s="47"/>
-      <c r="BS23" s="47"/>
-      <c r="BT23" s="47"/>
-      <c r="BU23" s="47"/>
-      <c r="BV23" s="47"/>
-      <c r="BW23" s="47"/>
-      <c r="BX23" s="47"/>
-      <c r="BY23" s="47"/>
-      <c r="BZ23" s="47"/>
-      <c r="CA23" s="47"/>
-      <c r="CB23" s="47"/>
-      <c r="CC23" s="47"/>
-      <c r="CD23" s="47"/>
-      <c r="CE23" s="47"/>
-      <c r="CF23" s="47"/>
-      <c r="CG23" s="47"/>
-      <c r="CH23" s="47"/>
-      <c r="CI23" s="47"/>
-      <c r="CJ23" s="47"/>
-      <c r="CK23" s="47"/>
-      <c r="CL23" s="47"/>
-      <c r="CM23" s="47"/>
-      <c r="CN23" s="47"/>
-      <c r="CO23" s="47"/>
-      <c r="CP23" s="47"/>
-      <c r="CQ23" s="47"/>
-      <c r="CR23" s="47"/>
-      <c r="CS23" s="47"/>
-      <c r="CT23" s="47"/>
-      <c r="CU23" s="47"/>
-      <c r="CV23" s="47"/>
-      <c r="CW23" s="47"/>
-      <c r="CX23" s="47"/>
-      <c r="CY23" s="47"/>
-      <c r="CZ23" s="47"/>
-      <c r="DA23" s="47"/>
-      <c r="DB23" s="47"/>
-      <c r="DC23" s="47"/>
-      <c r="DD23" s="47"/>
-      <c r="DE23" s="47"/>
-      <c r="DF23" s="47"/>
-      <c r="DG23" s="47"/>
-      <c r="DH23" s="47"/>
-      <c r="DI23" s="47"/>
-      <c r="DJ23" s="47"/>
-      <c r="DK23" s="47"/>
-      <c r="DL23" s="47"/>
-      <c r="DM23" s="47"/>
-      <c r="DN23" s="47"/>
-      <c r="DO23" s="47"/>
-      <c r="DP23" s="47"/>
-      <c r="DQ23" s="47"/>
-      <c r="DR23" s="47"/>
-      <c r="DS23" s="47"/>
-      <c r="DT23" s="47"/>
-      <c r="DU23" s="47"/>
-      <c r="DV23" s="47"/>
-      <c r="DW23" s="47"/>
-      <c r="DX23" s="47"/>
-      <c r="DY23" s="47"/>
-      <c r="DZ23" s="47"/>
-      <c r="EA23" s="47"/>
-      <c r="EB23" s="47"/>
-      <c r="EC23" s="47"/>
-      <c r="ED23" s="47"/>
-      <c r="EE23" s="47"/>
-      <c r="EF23" s="47"/>
-      <c r="EG23" s="47"/>
-      <c r="EH23" s="47"/>
-      <c r="EI23" s="47"/>
-      <c r="EJ23" s="47"/>
-      <c r="EK23" s="47"/>
-      <c r="EL23" s="47"/>
-      <c r="EM23" s="47"/>
-      <c r="EN23" s="47"/>
-      <c r="EO23" s="47"/>
-      <c r="EP23" s="47"/>
-      <c r="EQ23" s="47"/>
-      <c r="ER23" s="47"/>
-      <c r="ES23" s="47"/>
-      <c r="ET23" s="47"/>
-      <c r="EU23" s="47"/>
-      <c r="EV23" s="47"/>
-      <c r="EW23" s="47"/>
-      <c r="EX23" s="47"/>
-      <c r="EY23" s="47"/>
-      <c r="EZ23" s="47"/>
-      <c r="FA23" s="47"/>
-      <c r="FB23" s="47"/>
-      <c r="FC23" s="47"/>
-      <c r="FD23" s="47"/>
-      <c r="FE23" s="47"/>
-      <c r="FF23" s="47"/>
-      <c r="FG23" s="47"/>
-      <c r="FH23" s="47"/>
-      <c r="FI23" s="47"/>
-      <c r="FJ23" s="47"/>
-      <c r="FK23" s="47"/>
-      <c r="FL23" s="47"/>
-      <c r="FM23" s="47"/>
-      <c r="FN23" s="47"/>
-      <c r="FO23" s="47"/>
-      <c r="FP23" s="47"/>
-      <c r="FQ23" s="47"/>
-      <c r="FR23" s="47"/>
-      <c r="FS23" s="47"/>
-      <c r="FT23" s="47"/>
-      <c r="FU23" s="47"/>
-      <c r="FV23" s="47"/>
-      <c r="FW23" s="47"/>
-      <c r="FX23" s="47"/>
-      <c r="FY23" s="47"/>
-      <c r="FZ23" s="47"/>
-      <c r="GA23" s="47"/>
-      <c r="GB23" s="47"/>
-      <c r="GC23" s="47"/>
-      <c r="GD23" s="47"/>
-      <c r="GE23" s="47"/>
-      <c r="GF23" s="47"/>
-      <c r="GG23" s="47"/>
-      <c r="GH23" s="47"/>
-      <c r="GI23" s="47"/>
-      <c r="GJ23" s="47"/>
-      <c r="GK23" s="47"/>
-      <c r="GL23" s="47"/>
-      <c r="GM23" s="47"/>
-      <c r="GN23" s="47"/>
-      <c r="GO23" s="47"/>
-      <c r="GP23" s="47"/>
-      <c r="GQ23" s="47"/>
-      <c r="GR23" s="47"/>
-      <c r="GS23" s="47"/>
-      <c r="GT23" s="47"/>
-      <c r="GU23" s="47"/>
-      <c r="GV23" s="47"/>
-      <c r="GW23" s="47"/>
-      <c r="GX23" s="47"/>
-      <c r="GY23" s="47"/>
-      <c r="GZ23" s="47"/>
-      <c r="HA23" s="47"/>
-      <c r="HB23" s="47"/>
-      <c r="HC23" s="47"/>
-      <c r="HD23" s="47"/>
-      <c r="HE23" s="47"/>
-      <c r="HF23" s="47"/>
-      <c r="HG23" s="47"/>
-      <c r="HH23" s="47"/>
-      <c r="HI23" s="47"/>
-      <c r="HJ23" s="47"/>
-      <c r="HK23" s="47"/>
-      <c r="HL23" s="47"/>
-      <c r="HM23" s="47"/>
-      <c r="HN23" s="47"/>
-      <c r="HO23" s="47"/>
-      <c r="HP23" s="47"/>
-      <c r="HQ23" s="47"/>
-      <c r="HR23" s="47"/>
-      <c r="HS23" s="47"/>
-      <c r="HT23" s="47"/>
-      <c r="HU23" s="47"/>
-      <c r="HV23" s="47"/>
-      <c r="HW23" s="47"/>
-      <c r="HX23" s="47"/>
-      <c r="HY23" s="47"/>
-      <c r="HZ23" s="47"/>
-      <c r="IA23" s="47"/>
-      <c r="IB23" s="47"/>
-      <c r="IC23" s="47"/>
-      <c r="ID23" s="47"/>
-      <c r="IE23" s="47"/>
-      <c r="IF23" s="47"/>
-      <c r="IG23" s="47"/>
-      <c r="IH23" s="47"/>
-      <c r="II23" s="47"/>
-      <c r="IJ23" s="47"/>
-      <c r="IK23" s="47"/>
-      <c r="IL23" s="47"/>
-      <c r="IM23" s="47"/>
-      <c r="IN23" s="47"/>
-      <c r="IO23" s="47"/>
-      <c r="IP23" s="47"/>
-      <c r="IQ23" s="47"/>
-      <c r="IR23" s="47"/>
-      <c r="IS23" s="47"/>
-      <c r="IT23" s="47"/>
-      <c r="IU23" s="47"/>
-      <c r="IV23" s="47"/>
-      <c r="IW23" s="47"/>
-      <c r="IX23" s="47"/>
+    <row r="23" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="55"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="56"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="26"/>
@@ -6050,42 +6985,290 @@
     </row>
     <row r="26" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="57"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
     </row>
-    <row r="27" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
+    <row r="27" spans="1:258" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="46"/>
+      <c r="AG27" s="46"/>
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="46"/>
+      <c r="AJ27" s="46"/>
+      <c r="AK27" s="46"/>
+      <c r="AL27" s="46"/>
+      <c r="AM27" s="46"/>
+      <c r="AN27" s="46"/>
+      <c r="AO27" s="46"/>
+      <c r="AP27" s="46"/>
+      <c r="AQ27" s="46"/>
+      <c r="AR27" s="46"/>
+      <c r="AS27" s="46"/>
+      <c r="AT27" s="46"/>
+      <c r="AU27" s="46"/>
+      <c r="AV27" s="46"/>
+      <c r="AW27" s="46"/>
+      <c r="AX27" s="46"/>
+      <c r="AY27" s="46"/>
+      <c r="AZ27" s="46"/>
+      <c r="BA27" s="46"/>
+      <c r="BB27" s="46"/>
+      <c r="BC27" s="46"/>
+      <c r="BD27" s="46"/>
+      <c r="BE27" s="46"/>
+      <c r="BF27" s="46"/>
+      <c r="BG27" s="46"/>
+      <c r="BH27" s="46"/>
+      <c r="BI27" s="46"/>
+      <c r="BJ27" s="46"/>
+      <c r="BK27" s="46"/>
+      <c r="BL27" s="46"/>
+      <c r="BM27" s="46"/>
+      <c r="BN27" s="46"/>
+      <c r="BO27" s="46"/>
+      <c r="BP27" s="46"/>
+      <c r="BQ27" s="46"/>
+      <c r="BR27" s="46"/>
+      <c r="BS27" s="46"/>
+      <c r="BT27" s="46"/>
+      <c r="BU27" s="46"/>
+      <c r="BV27" s="46"/>
+      <c r="BW27" s="46"/>
+      <c r="BX27" s="46"/>
+      <c r="BY27" s="46"/>
+      <c r="BZ27" s="46"/>
+      <c r="CA27" s="46"/>
+      <c r="CB27" s="46"/>
+      <c r="CC27" s="46"/>
+      <c r="CD27" s="46"/>
+      <c r="CE27" s="46"/>
+      <c r="CF27" s="46"/>
+      <c r="CG27" s="46"/>
+      <c r="CH27" s="46"/>
+      <c r="CI27" s="46"/>
+      <c r="CJ27" s="46"/>
+      <c r="CK27" s="46"/>
+      <c r="CL27" s="46"/>
+      <c r="CM27" s="46"/>
+      <c r="CN27" s="46"/>
+      <c r="CO27" s="46"/>
+      <c r="CP27" s="46"/>
+      <c r="CQ27" s="46"/>
+      <c r="CR27" s="46"/>
+      <c r="CS27" s="46"/>
+      <c r="CT27" s="46"/>
+      <c r="CU27" s="46"/>
+      <c r="CV27" s="46"/>
+      <c r="CW27" s="46"/>
+      <c r="CX27" s="46"/>
+      <c r="CY27" s="46"/>
+      <c r="CZ27" s="46"/>
+      <c r="DA27" s="46"/>
+      <c r="DB27" s="46"/>
+      <c r="DC27" s="46"/>
+      <c r="DD27" s="46"/>
+      <c r="DE27" s="46"/>
+      <c r="DF27" s="46"/>
+      <c r="DG27" s="46"/>
+      <c r="DH27" s="46"/>
+      <c r="DI27" s="46"/>
+      <c r="DJ27" s="46"/>
+      <c r="DK27" s="46"/>
+      <c r="DL27" s="46"/>
+      <c r="DM27" s="46"/>
+      <c r="DN27" s="46"/>
+      <c r="DO27" s="46"/>
+      <c r="DP27" s="46"/>
+      <c r="DQ27" s="46"/>
+      <c r="DR27" s="46"/>
+      <c r="DS27" s="46"/>
+      <c r="DT27" s="46"/>
+      <c r="DU27" s="46"/>
+      <c r="DV27" s="46"/>
+      <c r="DW27" s="46"/>
+      <c r="DX27" s="46"/>
+      <c r="DY27" s="46"/>
+      <c r="DZ27" s="46"/>
+      <c r="EA27" s="46"/>
+      <c r="EB27" s="46"/>
+      <c r="EC27" s="46"/>
+      <c r="ED27" s="46"/>
+      <c r="EE27" s="46"/>
+      <c r="EF27" s="46"/>
+      <c r="EG27" s="46"/>
+      <c r="EH27" s="46"/>
+      <c r="EI27" s="46"/>
+      <c r="EJ27" s="46"/>
+      <c r="EK27" s="46"/>
+      <c r="EL27" s="46"/>
+      <c r="EM27" s="46"/>
+      <c r="EN27" s="46"/>
+      <c r="EO27" s="46"/>
+      <c r="EP27" s="46"/>
+      <c r="EQ27" s="46"/>
+      <c r="ER27" s="46"/>
+      <c r="ES27" s="46"/>
+      <c r="ET27" s="46"/>
+      <c r="EU27" s="46"/>
+      <c r="EV27" s="46"/>
+      <c r="EW27" s="46"/>
+      <c r="EX27" s="46"/>
+      <c r="EY27" s="46"/>
+      <c r="EZ27" s="46"/>
+      <c r="FA27" s="46"/>
+      <c r="FB27" s="46"/>
+      <c r="FC27" s="46"/>
+      <c r="FD27" s="46"/>
+      <c r="FE27" s="46"/>
+      <c r="FF27" s="46"/>
+      <c r="FG27" s="46"/>
+      <c r="FH27" s="46"/>
+      <c r="FI27" s="46"/>
+      <c r="FJ27" s="46"/>
+      <c r="FK27" s="46"/>
+      <c r="FL27" s="46"/>
+      <c r="FM27" s="46"/>
+      <c r="FN27" s="46"/>
+      <c r="FO27" s="46"/>
+      <c r="FP27" s="46"/>
+      <c r="FQ27" s="46"/>
+      <c r="FR27" s="46"/>
+      <c r="FS27" s="46"/>
+      <c r="FT27" s="46"/>
+      <c r="FU27" s="46"/>
+      <c r="FV27" s="46"/>
+      <c r="FW27" s="46"/>
+      <c r="FX27" s="46"/>
+      <c r="FY27" s="46"/>
+      <c r="FZ27" s="46"/>
+      <c r="GA27" s="46"/>
+      <c r="GB27" s="46"/>
+      <c r="GC27" s="46"/>
+      <c r="GD27" s="46"/>
+      <c r="GE27" s="46"/>
+      <c r="GF27" s="46"/>
+      <c r="GG27" s="46"/>
+      <c r="GH27" s="46"/>
+      <c r="GI27" s="46"/>
+      <c r="GJ27" s="46"/>
+      <c r="GK27" s="46"/>
+      <c r="GL27" s="46"/>
+      <c r="GM27" s="46"/>
+      <c r="GN27" s="46"/>
+      <c r="GO27" s="46"/>
+      <c r="GP27" s="46"/>
+      <c r="GQ27" s="46"/>
+      <c r="GR27" s="46"/>
+      <c r="GS27" s="46"/>
+      <c r="GT27" s="46"/>
+      <c r="GU27" s="46"/>
+      <c r="GV27" s="46"/>
+      <c r="GW27" s="46"/>
+      <c r="GX27" s="46"/>
+      <c r="GY27" s="46"/>
+      <c r="GZ27" s="46"/>
+      <c r="HA27" s="46"/>
+      <c r="HB27" s="46"/>
+      <c r="HC27" s="46"/>
+      <c r="HD27" s="46"/>
+      <c r="HE27" s="46"/>
+      <c r="HF27" s="46"/>
+      <c r="HG27" s="46"/>
+      <c r="HH27" s="46"/>
+      <c r="HI27" s="46"/>
+      <c r="HJ27" s="46"/>
+      <c r="HK27" s="46"/>
+      <c r="HL27" s="46"/>
+      <c r="HM27" s="46"/>
+      <c r="HN27" s="46"/>
+      <c r="HO27" s="46"/>
+      <c r="HP27" s="46"/>
+      <c r="HQ27" s="46"/>
+      <c r="HR27" s="46"/>
+      <c r="HS27" s="46"/>
+      <c r="HT27" s="46"/>
+      <c r="HU27" s="46"/>
+      <c r="HV27" s="46"/>
+      <c r="HW27" s="46"/>
+      <c r="HX27" s="46"/>
+      <c r="HY27" s="46"/>
+      <c r="HZ27" s="46"/>
+      <c r="IA27" s="46"/>
+      <c r="IB27" s="46"/>
+      <c r="IC27" s="46"/>
+      <c r="ID27" s="46"/>
+      <c r="IE27" s="46"/>
+      <c r="IF27" s="46"/>
+      <c r="IG27" s="46"/>
+      <c r="IH27" s="46"/>
+      <c r="II27" s="46"/>
+      <c r="IJ27" s="46"/>
+      <c r="IK27" s="46"/>
+      <c r="IL27" s="46"/>
+      <c r="IM27" s="46"/>
+      <c r="IN27" s="46"/>
+      <c r="IO27" s="46"/>
+      <c r="IP27" s="46"/>
+      <c r="IQ27" s="46"/>
+      <c r="IR27" s="46"/>
+      <c r="IS27" s="46"/>
+      <c r="IT27" s="46"/>
+      <c r="IU27" s="46"/>
+      <c r="IV27" s="46"/>
+      <c r="IW27" s="46"/>
+      <c r="IX27" s="46"/>
     </row>
     <row r="28" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -6109,9 +7292,9 @@
       <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
@@ -6121,14 +7304,14 @@
       <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
     </row>
@@ -6140,12 +7323,12 @@
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -6157,31 +7340,31 @@
       <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
@@ -6193,25 +7376,74 @@
       <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
     </row>
+    <row r="39" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+    </row>
+    <row r="42" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A24:A29"/>
+  <mergeCells count="7">
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A28:A33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6812,7 +8044,7 @@
       <c r="IX3" s="12"/>
     </row>
     <row r="4" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -7087,288 +8319,288 @@
       <c r="IW4" s="12"/>
       <c r="IX4" s="12"/>
     </row>
-    <row r="5" spans="1:258" s="37" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="36"/>
-      <c r="BF5" s="36"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
-      <c r="BJ5" s="36"/>
-      <c r="BK5" s="36"/>
-      <c r="BL5" s="36"/>
-      <c r="BM5" s="36"/>
-      <c r="BN5" s="36"/>
-      <c r="BO5" s="36"/>
-      <c r="BP5" s="36"/>
-      <c r="BQ5" s="36"/>
-      <c r="BR5" s="36"/>
-      <c r="BS5" s="36"/>
-      <c r="BT5" s="36"/>
-      <c r="BU5" s="36"/>
-      <c r="BV5" s="36"/>
-      <c r="BW5" s="36"/>
-      <c r="BX5" s="36"/>
-      <c r="BY5" s="36"/>
-      <c r="BZ5" s="36"/>
-      <c r="CA5" s="36"/>
-      <c r="CB5" s="36"/>
-      <c r="CC5" s="36"/>
-      <c r="CD5" s="36"/>
-      <c r="CE5" s="36"/>
-      <c r="CF5" s="36"/>
-      <c r="CG5" s="36"/>
-      <c r="CH5" s="36"/>
-      <c r="CI5" s="36"/>
-      <c r="CJ5" s="36"/>
-      <c r="CK5" s="36"/>
-      <c r="CL5" s="36"/>
-      <c r="CM5" s="36"/>
-      <c r="CN5" s="36"/>
-      <c r="CO5" s="36"/>
-      <c r="CP5" s="36"/>
-      <c r="CQ5" s="36"/>
-      <c r="CR5" s="36"/>
-      <c r="CS5" s="36"/>
-      <c r="CT5" s="36"/>
-      <c r="CU5" s="36"/>
-      <c r="CV5" s="36"/>
-      <c r="CW5" s="36"/>
-      <c r="CX5" s="36"/>
-      <c r="CY5" s="36"/>
-      <c r="CZ5" s="36"/>
-      <c r="DA5" s="36"/>
-      <c r="DB5" s="36"/>
-      <c r="DC5" s="36"/>
-      <c r="DD5" s="36"/>
-      <c r="DE5" s="36"/>
-      <c r="DF5" s="36"/>
-      <c r="DG5" s="36"/>
-      <c r="DH5" s="36"/>
-      <c r="DI5" s="36"/>
-      <c r="DJ5" s="36"/>
-      <c r="DK5" s="36"/>
-      <c r="DL5" s="36"/>
-      <c r="DM5" s="36"/>
-      <c r="DN5" s="36"/>
-      <c r="DO5" s="36"/>
-      <c r="DP5" s="36"/>
-      <c r="DQ5" s="36"/>
-      <c r="DR5" s="36"/>
-      <c r="DS5" s="36"/>
-      <c r="DT5" s="36"/>
-      <c r="DU5" s="36"/>
-      <c r="DV5" s="36"/>
-      <c r="DW5" s="36"/>
-      <c r="DX5" s="36"/>
-      <c r="DY5" s="36"/>
-      <c r="DZ5" s="36"/>
-      <c r="EA5" s="36"/>
-      <c r="EB5" s="36"/>
-      <c r="EC5" s="36"/>
-      <c r="ED5" s="36"/>
-      <c r="EE5" s="36"/>
-      <c r="EF5" s="36"/>
-      <c r="EG5" s="36"/>
-      <c r="EH5" s="36"/>
-      <c r="EI5" s="36"/>
-      <c r="EJ5" s="36"/>
-      <c r="EK5" s="36"/>
-      <c r="EL5" s="36"/>
-      <c r="EM5" s="36"/>
-      <c r="EN5" s="36"/>
-      <c r="EO5" s="36"/>
-      <c r="EP5" s="36"/>
-      <c r="EQ5" s="36"/>
-      <c r="ER5" s="36"/>
-      <c r="ES5" s="36"/>
-      <c r="ET5" s="36"/>
-      <c r="EU5" s="36"/>
-      <c r="EV5" s="36"/>
-      <c r="EW5" s="36"/>
-      <c r="EX5" s="36"/>
-      <c r="EY5" s="36"/>
-      <c r="EZ5" s="36"/>
-      <c r="FA5" s="36"/>
-      <c r="FB5" s="36"/>
-      <c r="FC5" s="36"/>
-      <c r="FD5" s="36"/>
-      <c r="FE5" s="36"/>
-      <c r="FF5" s="36"/>
-      <c r="FG5" s="36"/>
-      <c r="FH5" s="36"/>
-      <c r="FI5" s="36"/>
-      <c r="FJ5" s="36"/>
-      <c r="FK5" s="36"/>
-      <c r="FL5" s="36"/>
-      <c r="FM5" s="36"/>
-      <c r="FN5" s="36"/>
-      <c r="FO5" s="36"/>
-      <c r="FP5" s="36"/>
-      <c r="FQ5" s="36"/>
-      <c r="FR5" s="36"/>
-      <c r="FS5" s="36"/>
-      <c r="FT5" s="36"/>
-      <c r="FU5" s="36"/>
-      <c r="FV5" s="36"/>
-      <c r="FW5" s="36"/>
-      <c r="FX5" s="36"/>
-      <c r="FY5" s="36"/>
-      <c r="FZ5" s="36"/>
-      <c r="GA5" s="36"/>
-      <c r="GB5" s="36"/>
-      <c r="GC5" s="36"/>
-      <c r="GD5" s="36"/>
-      <c r="GE5" s="36"/>
-      <c r="GF5" s="36"/>
-      <c r="GG5" s="36"/>
-      <c r="GH5" s="36"/>
-      <c r="GI5" s="36"/>
-      <c r="GJ5" s="36"/>
-      <c r="GK5" s="36"/>
-      <c r="GL5" s="36"/>
-      <c r="GM5" s="36"/>
-      <c r="GN5" s="36"/>
-      <c r="GO5" s="36"/>
-      <c r="GP5" s="36"/>
-      <c r="GQ5" s="36"/>
-      <c r="GR5" s="36"/>
-      <c r="GS5" s="36"/>
-      <c r="GT5" s="36"/>
-      <c r="GU5" s="36"/>
-      <c r="GV5" s="36"/>
-      <c r="GW5" s="36"/>
-      <c r="GX5" s="36"/>
-      <c r="GY5" s="36"/>
-      <c r="GZ5" s="36"/>
-      <c r="HA5" s="36"/>
-      <c r="HB5" s="36"/>
-      <c r="HC5" s="36"/>
-      <c r="HD5" s="36"/>
-      <c r="HE5" s="36"/>
-      <c r="HF5" s="36"/>
-      <c r="HG5" s="36"/>
-      <c r="HH5" s="36"/>
-      <c r="HI5" s="36"/>
-      <c r="HJ5" s="36"/>
-      <c r="HK5" s="36"/>
-      <c r="HL5" s="36"/>
-      <c r="HM5" s="36"/>
-      <c r="HN5" s="36"/>
-      <c r="HO5" s="36"/>
-      <c r="HP5" s="36"/>
-      <c r="HQ5" s="36"/>
-      <c r="HR5" s="36"/>
-      <c r="HS5" s="36"/>
-      <c r="HT5" s="36"/>
-      <c r="HU5" s="36"/>
-      <c r="HV5" s="36"/>
-      <c r="HW5" s="36"/>
-      <c r="HX5" s="36"/>
-      <c r="HY5" s="36"/>
-      <c r="HZ5" s="36"/>
-      <c r="IA5" s="36"/>
-      <c r="IB5" s="36"/>
-      <c r="IC5" s="36"/>
-      <c r="ID5" s="36"/>
-      <c r="IE5" s="36"/>
-      <c r="IF5" s="36"/>
-      <c r="IG5" s="36"/>
-      <c r="IH5" s="36"/>
-      <c r="II5" s="36"/>
-      <c r="IJ5" s="36"/>
-      <c r="IK5" s="36"/>
-      <c r="IL5" s="36"/>
-      <c r="IM5" s="36"/>
-      <c r="IN5" s="36"/>
-      <c r="IO5" s="36"/>
-      <c r="IP5" s="36"/>
-      <c r="IQ5" s="36"/>
-      <c r="IR5" s="36"/>
-      <c r="IS5" s="36"/>
-      <c r="IT5" s="36"/>
-      <c r="IU5" s="36"/>
-      <c r="IV5" s="36"/>
-      <c r="IW5" s="36"/>
-      <c r="IX5" s="36"/>
+    <row r="5" spans="1:258" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="35"/>
+      <c r="AX5" s="35"/>
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="35"/>
+      <c r="BA5" s="35"/>
+      <c r="BB5" s="35"/>
+      <c r="BC5" s="35"/>
+      <c r="BD5" s="35"/>
+      <c r="BE5" s="35"/>
+      <c r="BF5" s="35"/>
+      <c r="BG5" s="35"/>
+      <c r="BH5" s="35"/>
+      <c r="BI5" s="35"/>
+      <c r="BJ5" s="35"/>
+      <c r="BK5" s="35"/>
+      <c r="BL5" s="35"/>
+      <c r="BM5" s="35"/>
+      <c r="BN5" s="35"/>
+      <c r="BO5" s="35"/>
+      <c r="BP5" s="35"/>
+      <c r="BQ5" s="35"/>
+      <c r="BR5" s="35"/>
+      <c r="BS5" s="35"/>
+      <c r="BT5" s="35"/>
+      <c r="BU5" s="35"/>
+      <c r="BV5" s="35"/>
+      <c r="BW5" s="35"/>
+      <c r="BX5" s="35"/>
+      <c r="BY5" s="35"/>
+      <c r="BZ5" s="35"/>
+      <c r="CA5" s="35"/>
+      <c r="CB5" s="35"/>
+      <c r="CC5" s="35"/>
+      <c r="CD5" s="35"/>
+      <c r="CE5" s="35"/>
+      <c r="CF5" s="35"/>
+      <c r="CG5" s="35"/>
+      <c r="CH5" s="35"/>
+      <c r="CI5" s="35"/>
+      <c r="CJ5" s="35"/>
+      <c r="CK5" s="35"/>
+      <c r="CL5" s="35"/>
+      <c r="CM5" s="35"/>
+      <c r="CN5" s="35"/>
+      <c r="CO5" s="35"/>
+      <c r="CP5" s="35"/>
+      <c r="CQ5" s="35"/>
+      <c r="CR5" s="35"/>
+      <c r="CS5" s="35"/>
+      <c r="CT5" s="35"/>
+      <c r="CU5" s="35"/>
+      <c r="CV5" s="35"/>
+      <c r="CW5" s="35"/>
+      <c r="CX5" s="35"/>
+      <c r="CY5" s="35"/>
+      <c r="CZ5" s="35"/>
+      <c r="DA5" s="35"/>
+      <c r="DB5" s="35"/>
+      <c r="DC5" s="35"/>
+      <c r="DD5" s="35"/>
+      <c r="DE5" s="35"/>
+      <c r="DF5" s="35"/>
+      <c r="DG5" s="35"/>
+      <c r="DH5" s="35"/>
+      <c r="DI5" s="35"/>
+      <c r="DJ5" s="35"/>
+      <c r="DK5" s="35"/>
+      <c r="DL5" s="35"/>
+      <c r="DM5" s="35"/>
+      <c r="DN5" s="35"/>
+      <c r="DO5" s="35"/>
+      <c r="DP5" s="35"/>
+      <c r="DQ5" s="35"/>
+      <c r="DR5" s="35"/>
+      <c r="DS5" s="35"/>
+      <c r="DT5" s="35"/>
+      <c r="DU5" s="35"/>
+      <c r="DV5" s="35"/>
+      <c r="DW5" s="35"/>
+      <c r="DX5" s="35"/>
+      <c r="DY5" s="35"/>
+      <c r="DZ5" s="35"/>
+      <c r="EA5" s="35"/>
+      <c r="EB5" s="35"/>
+      <c r="EC5" s="35"/>
+      <c r="ED5" s="35"/>
+      <c r="EE5" s="35"/>
+      <c r="EF5" s="35"/>
+      <c r="EG5" s="35"/>
+      <c r="EH5" s="35"/>
+      <c r="EI5" s="35"/>
+      <c r="EJ5" s="35"/>
+      <c r="EK5" s="35"/>
+      <c r="EL5" s="35"/>
+      <c r="EM5" s="35"/>
+      <c r="EN5" s="35"/>
+      <c r="EO5" s="35"/>
+      <c r="EP5" s="35"/>
+      <c r="EQ5" s="35"/>
+      <c r="ER5" s="35"/>
+      <c r="ES5" s="35"/>
+      <c r="ET5" s="35"/>
+      <c r="EU5" s="35"/>
+      <c r="EV5" s="35"/>
+      <c r="EW5" s="35"/>
+      <c r="EX5" s="35"/>
+      <c r="EY5" s="35"/>
+      <c r="EZ5" s="35"/>
+      <c r="FA5" s="35"/>
+      <c r="FB5" s="35"/>
+      <c r="FC5" s="35"/>
+      <c r="FD5" s="35"/>
+      <c r="FE5" s="35"/>
+      <c r="FF5" s="35"/>
+      <c r="FG5" s="35"/>
+      <c r="FH5" s="35"/>
+      <c r="FI5" s="35"/>
+      <c r="FJ5" s="35"/>
+      <c r="FK5" s="35"/>
+      <c r="FL5" s="35"/>
+      <c r="FM5" s="35"/>
+      <c r="FN5" s="35"/>
+      <c r="FO5" s="35"/>
+      <c r="FP5" s="35"/>
+      <c r="FQ5" s="35"/>
+      <c r="FR5" s="35"/>
+      <c r="FS5" s="35"/>
+      <c r="FT5" s="35"/>
+      <c r="FU5" s="35"/>
+      <c r="FV5" s="35"/>
+      <c r="FW5" s="35"/>
+      <c r="FX5" s="35"/>
+      <c r="FY5" s="35"/>
+      <c r="FZ5" s="35"/>
+      <c r="GA5" s="35"/>
+      <c r="GB5" s="35"/>
+      <c r="GC5" s="35"/>
+      <c r="GD5" s="35"/>
+      <c r="GE5" s="35"/>
+      <c r="GF5" s="35"/>
+      <c r="GG5" s="35"/>
+      <c r="GH5" s="35"/>
+      <c r="GI5" s="35"/>
+      <c r="GJ5" s="35"/>
+      <c r="GK5" s="35"/>
+      <c r="GL5" s="35"/>
+      <c r="GM5" s="35"/>
+      <c r="GN5" s="35"/>
+      <c r="GO5" s="35"/>
+      <c r="GP5" s="35"/>
+      <c r="GQ5" s="35"/>
+      <c r="GR5" s="35"/>
+      <c r="GS5" s="35"/>
+      <c r="GT5" s="35"/>
+      <c r="GU5" s="35"/>
+      <c r="GV5" s="35"/>
+      <c r="GW5" s="35"/>
+      <c r="GX5" s="35"/>
+      <c r="GY5" s="35"/>
+      <c r="GZ5" s="35"/>
+      <c r="HA5" s="35"/>
+      <c r="HB5" s="35"/>
+      <c r="HC5" s="35"/>
+      <c r="HD5" s="35"/>
+      <c r="HE5" s="35"/>
+      <c r="HF5" s="35"/>
+      <c r="HG5" s="35"/>
+      <c r="HH5" s="35"/>
+      <c r="HI5" s="35"/>
+      <c r="HJ5" s="35"/>
+      <c r="HK5" s="35"/>
+      <c r="HL5" s="35"/>
+      <c r="HM5" s="35"/>
+      <c r="HN5" s="35"/>
+      <c r="HO5" s="35"/>
+      <c r="HP5" s="35"/>
+      <c r="HQ5" s="35"/>
+      <c r="HR5" s="35"/>
+      <c r="HS5" s="35"/>
+      <c r="HT5" s="35"/>
+      <c r="HU5" s="35"/>
+      <c r="HV5" s="35"/>
+      <c r="HW5" s="35"/>
+      <c r="HX5" s="35"/>
+      <c r="HY5" s="35"/>
+      <c r="HZ5" s="35"/>
+      <c r="IA5" s="35"/>
+      <c r="IB5" s="35"/>
+      <c r="IC5" s="35"/>
+      <c r="ID5" s="35"/>
+      <c r="IE5" s="35"/>
+      <c r="IF5" s="35"/>
+      <c r="IG5" s="35"/>
+      <c r="IH5" s="35"/>
+      <c r="II5" s="35"/>
+      <c r="IJ5" s="35"/>
+      <c r="IK5" s="35"/>
+      <c r="IL5" s="35"/>
+      <c r="IM5" s="35"/>
+      <c r="IN5" s="35"/>
+      <c r="IO5" s="35"/>
+      <c r="IP5" s="35"/>
+      <c r="IQ5" s="35"/>
+      <c r="IR5" s="35"/>
+      <c r="IS5" s="35"/>
+      <c r="IT5" s="35"/>
+      <c r="IU5" s="35"/>
+      <c r="IV5" s="35"/>
+      <c r="IW5" s="35"/>
+      <c r="IX5" s="35"/>
     </row>
     <row r="6" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="38"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="37"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -7617,288 +8849,288 @@
       <c r="IW6" s="12"/>
       <c r="IX6" s="12"/>
     </row>
-    <row r="7" spans="1:258" s="37" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="36"/>
-      <c r="AP7" s="36"/>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="36"/>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="36"/>
-      <c r="AV7" s="36"/>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="36"/>
-      <c r="AY7" s="36"/>
-      <c r="AZ7" s="36"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="36"/>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="36"/>
-      <c r="BK7" s="36"/>
-      <c r="BL7" s="36"/>
-      <c r="BM7" s="36"/>
-      <c r="BN7" s="36"/>
-      <c r="BO7" s="36"/>
-      <c r="BP7" s="36"/>
-      <c r="BQ7" s="36"/>
-      <c r="BR7" s="36"/>
-      <c r="BS7" s="36"/>
-      <c r="BT7" s="36"/>
-      <c r="BU7" s="36"/>
-      <c r="BV7" s="36"/>
-      <c r="BW7" s="36"/>
-      <c r="BX7" s="36"/>
-      <c r="BY7" s="36"/>
-      <c r="BZ7" s="36"/>
-      <c r="CA7" s="36"/>
-      <c r="CB7" s="36"/>
-      <c r="CC7" s="36"/>
-      <c r="CD7" s="36"/>
-      <c r="CE7" s="36"/>
-      <c r="CF7" s="36"/>
-      <c r="CG7" s="36"/>
-      <c r="CH7" s="36"/>
-      <c r="CI7" s="36"/>
-      <c r="CJ7" s="36"/>
-      <c r="CK7" s="36"/>
-      <c r="CL7" s="36"/>
-      <c r="CM7" s="36"/>
-      <c r="CN7" s="36"/>
-      <c r="CO7" s="36"/>
-      <c r="CP7" s="36"/>
-      <c r="CQ7" s="36"/>
-      <c r="CR7" s="36"/>
-      <c r="CS7" s="36"/>
-      <c r="CT7" s="36"/>
-      <c r="CU7" s="36"/>
-      <c r="CV7" s="36"/>
-      <c r="CW7" s="36"/>
-      <c r="CX7" s="36"/>
-      <c r="CY7" s="36"/>
-      <c r="CZ7" s="36"/>
-      <c r="DA7" s="36"/>
-      <c r="DB7" s="36"/>
-      <c r="DC7" s="36"/>
-      <c r="DD7" s="36"/>
-      <c r="DE7" s="36"/>
-      <c r="DF7" s="36"/>
-      <c r="DG7" s="36"/>
-      <c r="DH7" s="36"/>
-      <c r="DI7" s="36"/>
-      <c r="DJ7" s="36"/>
-      <c r="DK7" s="36"/>
-      <c r="DL7" s="36"/>
-      <c r="DM7" s="36"/>
-      <c r="DN7" s="36"/>
-      <c r="DO7" s="36"/>
-      <c r="DP7" s="36"/>
-      <c r="DQ7" s="36"/>
-      <c r="DR7" s="36"/>
-      <c r="DS7" s="36"/>
-      <c r="DT7" s="36"/>
-      <c r="DU7" s="36"/>
-      <c r="DV7" s="36"/>
-      <c r="DW7" s="36"/>
-      <c r="DX7" s="36"/>
-      <c r="DY7" s="36"/>
-      <c r="DZ7" s="36"/>
-      <c r="EA7" s="36"/>
-      <c r="EB7" s="36"/>
-      <c r="EC7" s="36"/>
-      <c r="ED7" s="36"/>
-      <c r="EE7" s="36"/>
-      <c r="EF7" s="36"/>
-      <c r="EG7" s="36"/>
-      <c r="EH7" s="36"/>
-      <c r="EI7" s="36"/>
-      <c r="EJ7" s="36"/>
-      <c r="EK7" s="36"/>
-      <c r="EL7" s="36"/>
-      <c r="EM7" s="36"/>
-      <c r="EN7" s="36"/>
-      <c r="EO7" s="36"/>
-      <c r="EP7" s="36"/>
-      <c r="EQ7" s="36"/>
-      <c r="ER7" s="36"/>
-      <c r="ES7" s="36"/>
-      <c r="ET7" s="36"/>
-      <c r="EU7" s="36"/>
-      <c r="EV7" s="36"/>
-      <c r="EW7" s="36"/>
-      <c r="EX7" s="36"/>
-      <c r="EY7" s="36"/>
-      <c r="EZ7" s="36"/>
-      <c r="FA7" s="36"/>
-      <c r="FB7" s="36"/>
-      <c r="FC7" s="36"/>
-      <c r="FD7" s="36"/>
-      <c r="FE7" s="36"/>
-      <c r="FF7" s="36"/>
-      <c r="FG7" s="36"/>
-      <c r="FH7" s="36"/>
-      <c r="FI7" s="36"/>
-      <c r="FJ7" s="36"/>
-      <c r="FK7" s="36"/>
-      <c r="FL7" s="36"/>
-      <c r="FM7" s="36"/>
-      <c r="FN7" s="36"/>
-      <c r="FO7" s="36"/>
-      <c r="FP7" s="36"/>
-      <c r="FQ7" s="36"/>
-      <c r="FR7" s="36"/>
-      <c r="FS7" s="36"/>
-      <c r="FT7" s="36"/>
-      <c r="FU7" s="36"/>
-      <c r="FV7" s="36"/>
-      <c r="FW7" s="36"/>
-      <c r="FX7" s="36"/>
-      <c r="FY7" s="36"/>
-      <c r="FZ7" s="36"/>
-      <c r="GA7" s="36"/>
-      <c r="GB7" s="36"/>
-      <c r="GC7" s="36"/>
-      <c r="GD7" s="36"/>
-      <c r="GE7" s="36"/>
-      <c r="GF7" s="36"/>
-      <c r="GG7" s="36"/>
-      <c r="GH7" s="36"/>
-      <c r="GI7" s="36"/>
-      <c r="GJ7" s="36"/>
-      <c r="GK7" s="36"/>
-      <c r="GL7" s="36"/>
-      <c r="GM7" s="36"/>
-      <c r="GN7" s="36"/>
-      <c r="GO7" s="36"/>
-      <c r="GP7" s="36"/>
-      <c r="GQ7" s="36"/>
-      <c r="GR7" s="36"/>
-      <c r="GS7" s="36"/>
-      <c r="GT7" s="36"/>
-      <c r="GU7" s="36"/>
-      <c r="GV7" s="36"/>
-      <c r="GW7" s="36"/>
-      <c r="GX7" s="36"/>
-      <c r="GY7" s="36"/>
-      <c r="GZ7" s="36"/>
-      <c r="HA7" s="36"/>
-      <c r="HB7" s="36"/>
-      <c r="HC7" s="36"/>
-      <c r="HD7" s="36"/>
-      <c r="HE7" s="36"/>
-      <c r="HF7" s="36"/>
-      <c r="HG7" s="36"/>
-      <c r="HH7" s="36"/>
-      <c r="HI7" s="36"/>
-      <c r="HJ7" s="36"/>
-      <c r="HK7" s="36"/>
-      <c r="HL7" s="36"/>
-      <c r="HM7" s="36"/>
-      <c r="HN7" s="36"/>
-      <c r="HO7" s="36"/>
-      <c r="HP7" s="36"/>
-      <c r="HQ7" s="36"/>
-      <c r="HR7" s="36"/>
-      <c r="HS7" s="36"/>
-      <c r="HT7" s="36"/>
-      <c r="HU7" s="36"/>
-      <c r="HV7" s="36"/>
-      <c r="HW7" s="36"/>
-      <c r="HX7" s="36"/>
-      <c r="HY7" s="36"/>
-      <c r="HZ7" s="36"/>
-      <c r="IA7" s="36"/>
-      <c r="IB7" s="36"/>
-      <c r="IC7" s="36"/>
-      <c r="ID7" s="36"/>
-      <c r="IE7" s="36"/>
-      <c r="IF7" s="36"/>
-      <c r="IG7" s="36"/>
-      <c r="IH7" s="36"/>
-      <c r="II7" s="36"/>
-      <c r="IJ7" s="36"/>
-      <c r="IK7" s="36"/>
-      <c r="IL7" s="36"/>
-      <c r="IM7" s="36"/>
-      <c r="IN7" s="36"/>
-      <c r="IO7" s="36"/>
-      <c r="IP7" s="36"/>
-      <c r="IQ7" s="36"/>
-      <c r="IR7" s="36"/>
-      <c r="IS7" s="36"/>
-      <c r="IT7" s="36"/>
-      <c r="IU7" s="36"/>
-      <c r="IV7" s="36"/>
-      <c r="IW7" s="36"/>
-      <c r="IX7" s="36"/>
+    <row r="7" spans="1:258" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="35"/>
+      <c r="AQ7" s="35"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="35"/>
+      <c r="BC7" s="35"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="35"/>
+      <c r="BF7" s="35"/>
+      <c r="BG7" s="35"/>
+      <c r="BH7" s="35"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="35"/>
+      <c r="BL7" s="35"/>
+      <c r="BM7" s="35"/>
+      <c r="BN7" s="35"/>
+      <c r="BO7" s="35"/>
+      <c r="BP7" s="35"/>
+      <c r="BQ7" s="35"/>
+      <c r="BR7" s="35"/>
+      <c r="BS7" s="35"/>
+      <c r="BT7" s="35"/>
+      <c r="BU7" s="35"/>
+      <c r="BV7" s="35"/>
+      <c r="BW7" s="35"/>
+      <c r="BX7" s="35"/>
+      <c r="BY7" s="35"/>
+      <c r="BZ7" s="35"/>
+      <c r="CA7" s="35"/>
+      <c r="CB7" s="35"/>
+      <c r="CC7" s="35"/>
+      <c r="CD7" s="35"/>
+      <c r="CE7" s="35"/>
+      <c r="CF7" s="35"/>
+      <c r="CG7" s="35"/>
+      <c r="CH7" s="35"/>
+      <c r="CI7" s="35"/>
+      <c r="CJ7" s="35"/>
+      <c r="CK7" s="35"/>
+      <c r="CL7" s="35"/>
+      <c r="CM7" s="35"/>
+      <c r="CN7" s="35"/>
+      <c r="CO7" s="35"/>
+      <c r="CP7" s="35"/>
+      <c r="CQ7" s="35"/>
+      <c r="CR7" s="35"/>
+      <c r="CS7" s="35"/>
+      <c r="CT7" s="35"/>
+      <c r="CU7" s="35"/>
+      <c r="CV7" s="35"/>
+      <c r="CW7" s="35"/>
+      <c r="CX7" s="35"/>
+      <c r="CY7" s="35"/>
+      <c r="CZ7" s="35"/>
+      <c r="DA7" s="35"/>
+      <c r="DB7" s="35"/>
+      <c r="DC7" s="35"/>
+      <c r="DD7" s="35"/>
+      <c r="DE7" s="35"/>
+      <c r="DF7" s="35"/>
+      <c r="DG7" s="35"/>
+      <c r="DH7" s="35"/>
+      <c r="DI7" s="35"/>
+      <c r="DJ7" s="35"/>
+      <c r="DK7" s="35"/>
+      <c r="DL7" s="35"/>
+      <c r="DM7" s="35"/>
+      <c r="DN7" s="35"/>
+      <c r="DO7" s="35"/>
+      <c r="DP7" s="35"/>
+      <c r="DQ7" s="35"/>
+      <c r="DR7" s="35"/>
+      <c r="DS7" s="35"/>
+      <c r="DT7" s="35"/>
+      <c r="DU7" s="35"/>
+      <c r="DV7" s="35"/>
+      <c r="DW7" s="35"/>
+      <c r="DX7" s="35"/>
+      <c r="DY7" s="35"/>
+      <c r="DZ7" s="35"/>
+      <c r="EA7" s="35"/>
+      <c r="EB7" s="35"/>
+      <c r="EC7" s="35"/>
+      <c r="ED7" s="35"/>
+      <c r="EE7" s="35"/>
+      <c r="EF7" s="35"/>
+      <c r="EG7" s="35"/>
+      <c r="EH7" s="35"/>
+      <c r="EI7" s="35"/>
+      <c r="EJ7" s="35"/>
+      <c r="EK7" s="35"/>
+      <c r="EL7" s="35"/>
+      <c r="EM7" s="35"/>
+      <c r="EN7" s="35"/>
+      <c r="EO7" s="35"/>
+      <c r="EP7" s="35"/>
+      <c r="EQ7" s="35"/>
+      <c r="ER7" s="35"/>
+      <c r="ES7" s="35"/>
+      <c r="ET7" s="35"/>
+      <c r="EU7" s="35"/>
+      <c r="EV7" s="35"/>
+      <c r="EW7" s="35"/>
+      <c r="EX7" s="35"/>
+      <c r="EY7" s="35"/>
+      <c r="EZ7" s="35"/>
+      <c r="FA7" s="35"/>
+      <c r="FB7" s="35"/>
+      <c r="FC7" s="35"/>
+      <c r="FD7" s="35"/>
+      <c r="FE7" s="35"/>
+      <c r="FF7" s="35"/>
+      <c r="FG7" s="35"/>
+      <c r="FH7" s="35"/>
+      <c r="FI7" s="35"/>
+      <c r="FJ7" s="35"/>
+      <c r="FK7" s="35"/>
+      <c r="FL7" s="35"/>
+      <c r="FM7" s="35"/>
+      <c r="FN7" s="35"/>
+      <c r="FO7" s="35"/>
+      <c r="FP7" s="35"/>
+      <c r="FQ7" s="35"/>
+      <c r="FR7" s="35"/>
+      <c r="FS7" s="35"/>
+      <c r="FT7" s="35"/>
+      <c r="FU7" s="35"/>
+      <c r="FV7" s="35"/>
+      <c r="FW7" s="35"/>
+      <c r="FX7" s="35"/>
+      <c r="FY7" s="35"/>
+      <c r="FZ7" s="35"/>
+      <c r="GA7" s="35"/>
+      <c r="GB7" s="35"/>
+      <c r="GC7" s="35"/>
+      <c r="GD7" s="35"/>
+      <c r="GE7" s="35"/>
+      <c r="GF7" s="35"/>
+      <c r="GG7" s="35"/>
+      <c r="GH7" s="35"/>
+      <c r="GI7" s="35"/>
+      <c r="GJ7" s="35"/>
+      <c r="GK7" s="35"/>
+      <c r="GL7" s="35"/>
+      <c r="GM7" s="35"/>
+      <c r="GN7" s="35"/>
+      <c r="GO7" s="35"/>
+      <c r="GP7" s="35"/>
+      <c r="GQ7" s="35"/>
+      <c r="GR7" s="35"/>
+      <c r="GS7" s="35"/>
+      <c r="GT7" s="35"/>
+      <c r="GU7" s="35"/>
+      <c r="GV7" s="35"/>
+      <c r="GW7" s="35"/>
+      <c r="GX7" s="35"/>
+      <c r="GY7" s="35"/>
+      <c r="GZ7" s="35"/>
+      <c r="HA7" s="35"/>
+      <c r="HB7" s="35"/>
+      <c r="HC7" s="35"/>
+      <c r="HD7" s="35"/>
+      <c r="HE7" s="35"/>
+      <c r="HF7" s="35"/>
+      <c r="HG7" s="35"/>
+      <c r="HH7" s="35"/>
+      <c r="HI7" s="35"/>
+      <c r="HJ7" s="35"/>
+      <c r="HK7" s="35"/>
+      <c r="HL7" s="35"/>
+      <c r="HM7" s="35"/>
+      <c r="HN7" s="35"/>
+      <c r="HO7" s="35"/>
+      <c r="HP7" s="35"/>
+      <c r="HQ7" s="35"/>
+      <c r="HR7" s="35"/>
+      <c r="HS7" s="35"/>
+      <c r="HT7" s="35"/>
+      <c r="HU7" s="35"/>
+      <c r="HV7" s="35"/>
+      <c r="HW7" s="35"/>
+      <c r="HX7" s="35"/>
+      <c r="HY7" s="35"/>
+      <c r="HZ7" s="35"/>
+      <c r="IA7" s="35"/>
+      <c r="IB7" s="35"/>
+      <c r="IC7" s="35"/>
+      <c r="ID7" s="35"/>
+      <c r="IE7" s="35"/>
+      <c r="IF7" s="35"/>
+      <c r="IG7" s="35"/>
+      <c r="IH7" s="35"/>
+      <c r="II7" s="35"/>
+      <c r="IJ7" s="35"/>
+      <c r="IK7" s="35"/>
+      <c r="IL7" s="35"/>
+      <c r="IM7" s="35"/>
+      <c r="IN7" s="35"/>
+      <c r="IO7" s="35"/>
+      <c r="IP7" s="35"/>
+      <c r="IQ7" s="35"/>
+      <c r="IR7" s="35"/>
+      <c r="IS7" s="35"/>
+      <c r="IT7" s="35"/>
+      <c r="IU7" s="35"/>
+      <c r="IV7" s="35"/>
+      <c r="IW7" s="35"/>
+      <c r="IX7" s="35"/>
     </row>
     <row r="8" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="38"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="37"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -8147,290 +9379,290 @@
       <c r="IW8" s="12"/>
       <c r="IX8" s="12"/>
     </row>
-    <row r="9" spans="1:258" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36"/>
-      <c r="AQ9" s="36"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36"/>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="36"/>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="36"/>
-      <c r="BB9" s="36"/>
-      <c r="BC9" s="36"/>
-      <c r="BD9" s="36"/>
-      <c r="BE9" s="36"/>
-      <c r="BF9" s="36"/>
-      <c r="BG9" s="36"/>
-      <c r="BH9" s="36"/>
-      <c r="BI9" s="36"/>
-      <c r="BJ9" s="36"/>
-      <c r="BK9" s="36"/>
-      <c r="BL9" s="36"/>
-      <c r="BM9" s="36"/>
-      <c r="BN9" s="36"/>
-      <c r="BO9" s="36"/>
-      <c r="BP9" s="36"/>
-      <c r="BQ9" s="36"/>
-      <c r="BR9" s="36"/>
-      <c r="BS9" s="36"/>
-      <c r="BT9" s="36"/>
-      <c r="BU9" s="36"/>
-      <c r="BV9" s="36"/>
-      <c r="BW9" s="36"/>
-      <c r="BX9" s="36"/>
-      <c r="BY9" s="36"/>
-      <c r="BZ9" s="36"/>
-      <c r="CA9" s="36"/>
-      <c r="CB9" s="36"/>
-      <c r="CC9" s="36"/>
-      <c r="CD9" s="36"/>
-      <c r="CE9" s="36"/>
-      <c r="CF9" s="36"/>
-      <c r="CG9" s="36"/>
-      <c r="CH9" s="36"/>
-      <c r="CI9" s="36"/>
-      <c r="CJ9" s="36"/>
-      <c r="CK9" s="36"/>
-      <c r="CL9" s="36"/>
-      <c r="CM9" s="36"/>
-      <c r="CN9" s="36"/>
-      <c r="CO9" s="36"/>
-      <c r="CP9" s="36"/>
-      <c r="CQ9" s="36"/>
-      <c r="CR9" s="36"/>
-      <c r="CS9" s="36"/>
-      <c r="CT9" s="36"/>
-      <c r="CU9" s="36"/>
-      <c r="CV9" s="36"/>
-      <c r="CW9" s="36"/>
-      <c r="CX9" s="36"/>
-      <c r="CY9" s="36"/>
-      <c r="CZ9" s="36"/>
-      <c r="DA9" s="36"/>
-      <c r="DB9" s="36"/>
-      <c r="DC9" s="36"/>
-      <c r="DD9" s="36"/>
-      <c r="DE9" s="36"/>
-      <c r="DF9" s="36"/>
-      <c r="DG9" s="36"/>
-      <c r="DH9" s="36"/>
-      <c r="DI9" s="36"/>
-      <c r="DJ9" s="36"/>
-      <c r="DK9" s="36"/>
-      <c r="DL9" s="36"/>
-      <c r="DM9" s="36"/>
-      <c r="DN9" s="36"/>
-      <c r="DO9" s="36"/>
-      <c r="DP9" s="36"/>
-      <c r="DQ9" s="36"/>
-      <c r="DR9" s="36"/>
-      <c r="DS9" s="36"/>
-      <c r="DT9" s="36"/>
-      <c r="DU9" s="36"/>
-      <c r="DV9" s="36"/>
-      <c r="DW9" s="36"/>
-      <c r="DX9" s="36"/>
-      <c r="DY9" s="36"/>
-      <c r="DZ9" s="36"/>
-      <c r="EA9" s="36"/>
-      <c r="EB9" s="36"/>
-      <c r="EC9" s="36"/>
-      <c r="ED9" s="36"/>
-      <c r="EE9" s="36"/>
-      <c r="EF9" s="36"/>
-      <c r="EG9" s="36"/>
-      <c r="EH9" s="36"/>
-      <c r="EI9" s="36"/>
-      <c r="EJ9" s="36"/>
-      <c r="EK9" s="36"/>
-      <c r="EL9" s="36"/>
-      <c r="EM9" s="36"/>
-      <c r="EN9" s="36"/>
-      <c r="EO9" s="36"/>
-      <c r="EP9" s="36"/>
-      <c r="EQ9" s="36"/>
-      <c r="ER9" s="36"/>
-      <c r="ES9" s="36"/>
-      <c r="ET9" s="36"/>
-      <c r="EU9" s="36"/>
-      <c r="EV9" s="36"/>
-      <c r="EW9" s="36"/>
-      <c r="EX9" s="36"/>
-      <c r="EY9" s="36"/>
-      <c r="EZ9" s="36"/>
-      <c r="FA9" s="36"/>
-      <c r="FB9" s="36"/>
-      <c r="FC9" s="36"/>
-      <c r="FD9" s="36"/>
-      <c r="FE9" s="36"/>
-      <c r="FF9" s="36"/>
-      <c r="FG9" s="36"/>
-      <c r="FH9" s="36"/>
-      <c r="FI9" s="36"/>
-      <c r="FJ9" s="36"/>
-      <c r="FK9" s="36"/>
-      <c r="FL9" s="36"/>
-      <c r="FM9" s="36"/>
-      <c r="FN9" s="36"/>
-      <c r="FO9" s="36"/>
-      <c r="FP9" s="36"/>
-      <c r="FQ9" s="36"/>
-      <c r="FR9" s="36"/>
-      <c r="FS9" s="36"/>
-      <c r="FT9" s="36"/>
-      <c r="FU9" s="36"/>
-      <c r="FV9" s="36"/>
-      <c r="FW9" s="36"/>
-      <c r="FX9" s="36"/>
-      <c r="FY9" s="36"/>
-      <c r="FZ9" s="36"/>
-      <c r="GA9" s="36"/>
-      <c r="GB9" s="36"/>
-      <c r="GC9" s="36"/>
-      <c r="GD9" s="36"/>
-      <c r="GE9" s="36"/>
-      <c r="GF9" s="36"/>
-      <c r="GG9" s="36"/>
-      <c r="GH9" s="36"/>
-      <c r="GI9" s="36"/>
-      <c r="GJ9" s="36"/>
-      <c r="GK9" s="36"/>
-      <c r="GL9" s="36"/>
-      <c r="GM9" s="36"/>
-      <c r="GN9" s="36"/>
-      <c r="GO9" s="36"/>
-      <c r="GP9" s="36"/>
-      <c r="GQ9" s="36"/>
-      <c r="GR9" s="36"/>
-      <c r="GS9" s="36"/>
-      <c r="GT9" s="36"/>
-      <c r="GU9" s="36"/>
-      <c r="GV9" s="36"/>
-      <c r="GW9" s="36"/>
-      <c r="GX9" s="36"/>
-      <c r="GY9" s="36"/>
-      <c r="GZ9" s="36"/>
-      <c r="HA9" s="36"/>
-      <c r="HB9" s="36"/>
-      <c r="HC9" s="36"/>
-      <c r="HD9" s="36"/>
-      <c r="HE9" s="36"/>
-      <c r="HF9" s="36"/>
-      <c r="HG9" s="36"/>
-      <c r="HH9" s="36"/>
-      <c r="HI9" s="36"/>
-      <c r="HJ9" s="36"/>
-      <c r="HK9" s="36"/>
-      <c r="HL9" s="36"/>
-      <c r="HM9" s="36"/>
-      <c r="HN9" s="36"/>
-      <c r="HO9" s="36"/>
-      <c r="HP9" s="36"/>
-      <c r="HQ9" s="36"/>
-      <c r="HR9" s="36"/>
-      <c r="HS9" s="36"/>
-      <c r="HT9" s="36"/>
-      <c r="HU9" s="36"/>
-      <c r="HV9" s="36"/>
-      <c r="HW9" s="36"/>
-      <c r="HX9" s="36"/>
-      <c r="HY9" s="36"/>
-      <c r="HZ9" s="36"/>
-      <c r="IA9" s="36"/>
-      <c r="IB9" s="36"/>
-      <c r="IC9" s="36"/>
-      <c r="ID9" s="36"/>
-      <c r="IE9" s="36"/>
-      <c r="IF9" s="36"/>
-      <c r="IG9" s="36"/>
-      <c r="IH9" s="36"/>
-      <c r="II9" s="36"/>
-      <c r="IJ9" s="36"/>
-      <c r="IK9" s="36"/>
-      <c r="IL9" s="36"/>
-      <c r="IM9" s="36"/>
-      <c r="IN9" s="36"/>
-      <c r="IO9" s="36"/>
-      <c r="IP9" s="36"/>
-      <c r="IQ9" s="36"/>
-      <c r="IR9" s="36"/>
-      <c r="IS9" s="36"/>
-      <c r="IT9" s="36"/>
-      <c r="IU9" s="36"/>
-      <c r="IV9" s="36"/>
-      <c r="IW9" s="36"/>
-      <c r="IX9" s="36"/>
+    <row r="9" spans="1:258" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35"/>
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35"/>
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35"/>
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35"/>
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35"/>
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="35"/>
+      <c r="BS9" s="35"/>
+      <c r="BT9" s="35"/>
+      <c r="BU9" s="35"/>
+      <c r="BV9" s="35"/>
+      <c r="BW9" s="35"/>
+      <c r="BX9" s="35"/>
+      <c r="BY9" s="35"/>
+      <c r="BZ9" s="35"/>
+      <c r="CA9" s="35"/>
+      <c r="CB9" s="35"/>
+      <c r="CC9" s="35"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="35"/>
+      <c r="CF9" s="35"/>
+      <c r="CG9" s="35"/>
+      <c r="CH9" s="35"/>
+      <c r="CI9" s="35"/>
+      <c r="CJ9" s="35"/>
+      <c r="CK9" s="35"/>
+      <c r="CL9" s="35"/>
+      <c r="CM9" s="35"/>
+      <c r="CN9" s="35"/>
+      <c r="CO9" s="35"/>
+      <c r="CP9" s="35"/>
+      <c r="CQ9" s="35"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="35"/>
+      <c r="CT9" s="35"/>
+      <c r="CU9" s="35"/>
+      <c r="CV9" s="35"/>
+      <c r="CW9" s="35"/>
+      <c r="CX9" s="35"/>
+      <c r="CY9" s="35"/>
+      <c r="CZ9" s="35"/>
+      <c r="DA9" s="35"/>
+      <c r="DB9" s="35"/>
+      <c r="DC9" s="35"/>
+      <c r="DD9" s="35"/>
+      <c r="DE9" s="35"/>
+      <c r="DF9" s="35"/>
+      <c r="DG9" s="35"/>
+      <c r="DH9" s="35"/>
+      <c r="DI9" s="35"/>
+      <c r="DJ9" s="35"/>
+      <c r="DK9" s="35"/>
+      <c r="DL9" s="35"/>
+      <c r="DM9" s="35"/>
+      <c r="DN9" s="35"/>
+      <c r="DO9" s="35"/>
+      <c r="DP9" s="35"/>
+      <c r="DQ9" s="35"/>
+      <c r="DR9" s="35"/>
+      <c r="DS9" s="35"/>
+      <c r="DT9" s="35"/>
+      <c r="DU9" s="35"/>
+      <c r="DV9" s="35"/>
+      <c r="DW9" s="35"/>
+      <c r="DX9" s="35"/>
+      <c r="DY9" s="35"/>
+      <c r="DZ9" s="35"/>
+      <c r="EA9" s="35"/>
+      <c r="EB9" s="35"/>
+      <c r="EC9" s="35"/>
+      <c r="ED9" s="35"/>
+      <c r="EE9" s="35"/>
+      <c r="EF9" s="35"/>
+      <c r="EG9" s="35"/>
+      <c r="EH9" s="35"/>
+      <c r="EI9" s="35"/>
+      <c r="EJ9" s="35"/>
+      <c r="EK9" s="35"/>
+      <c r="EL9" s="35"/>
+      <c r="EM9" s="35"/>
+      <c r="EN9" s="35"/>
+      <c r="EO9" s="35"/>
+      <c r="EP9" s="35"/>
+      <c r="EQ9" s="35"/>
+      <c r="ER9" s="35"/>
+      <c r="ES9" s="35"/>
+      <c r="ET9" s="35"/>
+      <c r="EU9" s="35"/>
+      <c r="EV9" s="35"/>
+      <c r="EW9" s="35"/>
+      <c r="EX9" s="35"/>
+      <c r="EY9" s="35"/>
+      <c r="EZ9" s="35"/>
+      <c r="FA9" s="35"/>
+      <c r="FB9" s="35"/>
+      <c r="FC9" s="35"/>
+      <c r="FD9" s="35"/>
+      <c r="FE9" s="35"/>
+      <c r="FF9" s="35"/>
+      <c r="FG9" s="35"/>
+      <c r="FH9" s="35"/>
+      <c r="FI9" s="35"/>
+      <c r="FJ9" s="35"/>
+      <c r="FK9" s="35"/>
+      <c r="FL9" s="35"/>
+      <c r="FM9" s="35"/>
+      <c r="FN9" s="35"/>
+      <c r="FO9" s="35"/>
+      <c r="FP9" s="35"/>
+      <c r="FQ9" s="35"/>
+      <c r="FR9" s="35"/>
+      <c r="FS9" s="35"/>
+      <c r="FT9" s="35"/>
+      <c r="FU9" s="35"/>
+      <c r="FV9" s="35"/>
+      <c r="FW9" s="35"/>
+      <c r="FX9" s="35"/>
+      <c r="FY9" s="35"/>
+      <c r="FZ9" s="35"/>
+      <c r="GA9" s="35"/>
+      <c r="GB9" s="35"/>
+      <c r="GC9" s="35"/>
+      <c r="GD9" s="35"/>
+      <c r="GE9" s="35"/>
+      <c r="GF9" s="35"/>
+      <c r="GG9" s="35"/>
+      <c r="GH9" s="35"/>
+      <c r="GI9" s="35"/>
+      <c r="GJ9" s="35"/>
+      <c r="GK9" s="35"/>
+      <c r="GL9" s="35"/>
+      <c r="GM9" s="35"/>
+      <c r="GN9" s="35"/>
+      <c r="GO9" s="35"/>
+      <c r="GP9" s="35"/>
+      <c r="GQ9" s="35"/>
+      <c r="GR9" s="35"/>
+      <c r="GS9" s="35"/>
+      <c r="GT9" s="35"/>
+      <c r="GU9" s="35"/>
+      <c r="GV9" s="35"/>
+      <c r="GW9" s="35"/>
+      <c r="GX9" s="35"/>
+      <c r="GY9" s="35"/>
+      <c r="GZ9" s="35"/>
+      <c r="HA9" s="35"/>
+      <c r="HB9" s="35"/>
+      <c r="HC9" s="35"/>
+      <c r="HD9" s="35"/>
+      <c r="HE9" s="35"/>
+      <c r="HF9" s="35"/>
+      <c r="HG9" s="35"/>
+      <c r="HH9" s="35"/>
+      <c r="HI9" s="35"/>
+      <c r="HJ9" s="35"/>
+      <c r="HK9" s="35"/>
+      <c r="HL9" s="35"/>
+      <c r="HM9" s="35"/>
+      <c r="HN9" s="35"/>
+      <c r="HO9" s="35"/>
+      <c r="HP9" s="35"/>
+      <c r="HQ9" s="35"/>
+      <c r="HR9" s="35"/>
+      <c r="HS9" s="35"/>
+      <c r="HT9" s="35"/>
+      <c r="HU9" s="35"/>
+      <c r="HV9" s="35"/>
+      <c r="HW9" s="35"/>
+      <c r="HX9" s="35"/>
+      <c r="HY9" s="35"/>
+      <c r="HZ9" s="35"/>
+      <c r="IA9" s="35"/>
+      <c r="IB9" s="35"/>
+      <c r="IC9" s="35"/>
+      <c r="ID9" s="35"/>
+      <c r="IE9" s="35"/>
+      <c r="IF9" s="35"/>
+      <c r="IG9" s="35"/>
+      <c r="IH9" s="35"/>
+      <c r="II9" s="35"/>
+      <c r="IJ9" s="35"/>
+      <c r="IK9" s="35"/>
+      <c r="IL9" s="35"/>
+      <c r="IM9" s="35"/>
+      <c r="IN9" s="35"/>
+      <c r="IO9" s="35"/>
+      <c r="IP9" s="35"/>
+      <c r="IQ9" s="35"/>
+      <c r="IR9" s="35"/>
+      <c r="IS9" s="35"/>
+      <c r="IT9" s="35"/>
+      <c r="IU9" s="35"/>
+      <c r="IV9" s="35"/>
+      <c r="IW9" s="35"/>
+      <c r="IX9" s="35"/>
     </row>
     <row r="10" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="31"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -8680,7 +9912,7 @@
       <c r="IX10" s="12"/>
     </row>
     <row r="11" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="11" t="s">
         <v>31</v>
       </c>
@@ -8950,25 +10182,25 @@
       <c r="IX11" s="12"/>
     </row>
     <row r="12" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="29" t="s">
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="28" t="s">
         <v>16</v>
       </c>
       <c r="L12" s="12"/>
@@ -9220,7 +10452,7 @@
       <c r="IX12" s="12"/>
     </row>
     <row r="13" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="11" t="s">
         <v>97</v>
       </c>
@@ -9236,9 +10468,9 @@
       <c r="H13" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -9487,290 +10719,290 @@
       <c r="IW13" s="12"/>
       <c r="IX13" s="12"/>
     </row>
-    <row r="14" spans="1:258" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="36"/>
-      <c r="AX14" s="36"/>
-      <c r="AY14" s="36"/>
-      <c r="AZ14" s="36"/>
-      <c r="BA14" s="36"/>
-      <c r="BB14" s="36"/>
-      <c r="BC14" s="36"/>
-      <c r="BD14" s="36"/>
-      <c r="BE14" s="36"/>
-      <c r="BF14" s="36"/>
-      <c r="BG14" s="36"/>
-      <c r="BH14" s="36"/>
-      <c r="BI14" s="36"/>
-      <c r="BJ14" s="36"/>
-      <c r="BK14" s="36"/>
-      <c r="BL14" s="36"/>
-      <c r="BM14" s="36"/>
-      <c r="BN14" s="36"/>
-      <c r="BO14" s="36"/>
-      <c r="BP14" s="36"/>
-      <c r="BQ14" s="36"/>
-      <c r="BR14" s="36"/>
-      <c r="BS14" s="36"/>
-      <c r="BT14" s="36"/>
-      <c r="BU14" s="36"/>
-      <c r="BV14" s="36"/>
-      <c r="BW14" s="36"/>
-      <c r="BX14" s="36"/>
-      <c r="BY14" s="36"/>
-      <c r="BZ14" s="36"/>
-      <c r="CA14" s="36"/>
-      <c r="CB14" s="36"/>
-      <c r="CC14" s="36"/>
-      <c r="CD14" s="36"/>
-      <c r="CE14" s="36"/>
-      <c r="CF14" s="36"/>
-      <c r="CG14" s="36"/>
-      <c r="CH14" s="36"/>
-      <c r="CI14" s="36"/>
-      <c r="CJ14" s="36"/>
-      <c r="CK14" s="36"/>
-      <c r="CL14" s="36"/>
-      <c r="CM14" s="36"/>
-      <c r="CN14" s="36"/>
-      <c r="CO14" s="36"/>
-      <c r="CP14" s="36"/>
-      <c r="CQ14" s="36"/>
-      <c r="CR14" s="36"/>
-      <c r="CS14" s="36"/>
-      <c r="CT14" s="36"/>
-      <c r="CU14" s="36"/>
-      <c r="CV14" s="36"/>
-      <c r="CW14" s="36"/>
-      <c r="CX14" s="36"/>
-      <c r="CY14" s="36"/>
-      <c r="CZ14" s="36"/>
-      <c r="DA14" s="36"/>
-      <c r="DB14" s="36"/>
-      <c r="DC14" s="36"/>
-      <c r="DD14" s="36"/>
-      <c r="DE14" s="36"/>
-      <c r="DF14" s="36"/>
-      <c r="DG14" s="36"/>
-      <c r="DH14" s="36"/>
-      <c r="DI14" s="36"/>
-      <c r="DJ14" s="36"/>
-      <c r="DK14" s="36"/>
-      <c r="DL14" s="36"/>
-      <c r="DM14" s="36"/>
-      <c r="DN14" s="36"/>
-      <c r="DO14" s="36"/>
-      <c r="DP14" s="36"/>
-      <c r="DQ14" s="36"/>
-      <c r="DR14" s="36"/>
-      <c r="DS14" s="36"/>
-      <c r="DT14" s="36"/>
-      <c r="DU14" s="36"/>
-      <c r="DV14" s="36"/>
-      <c r="DW14" s="36"/>
-      <c r="DX14" s="36"/>
-      <c r="DY14" s="36"/>
-      <c r="DZ14" s="36"/>
-      <c r="EA14" s="36"/>
-      <c r="EB14" s="36"/>
-      <c r="EC14" s="36"/>
-      <c r="ED14" s="36"/>
-      <c r="EE14" s="36"/>
-      <c r="EF14" s="36"/>
-      <c r="EG14" s="36"/>
-      <c r="EH14" s="36"/>
-      <c r="EI14" s="36"/>
-      <c r="EJ14" s="36"/>
-      <c r="EK14" s="36"/>
-      <c r="EL14" s="36"/>
-      <c r="EM14" s="36"/>
-      <c r="EN14" s="36"/>
-      <c r="EO14" s="36"/>
-      <c r="EP14" s="36"/>
-      <c r="EQ14" s="36"/>
-      <c r="ER14" s="36"/>
-      <c r="ES14" s="36"/>
-      <c r="ET14" s="36"/>
-      <c r="EU14" s="36"/>
-      <c r="EV14" s="36"/>
-      <c r="EW14" s="36"/>
-      <c r="EX14" s="36"/>
-      <c r="EY14" s="36"/>
-      <c r="EZ14" s="36"/>
-      <c r="FA14" s="36"/>
-      <c r="FB14" s="36"/>
-      <c r="FC14" s="36"/>
-      <c r="FD14" s="36"/>
-      <c r="FE14" s="36"/>
-      <c r="FF14" s="36"/>
-      <c r="FG14" s="36"/>
-      <c r="FH14" s="36"/>
-      <c r="FI14" s="36"/>
-      <c r="FJ14" s="36"/>
-      <c r="FK14" s="36"/>
-      <c r="FL14" s="36"/>
-      <c r="FM14" s="36"/>
-      <c r="FN14" s="36"/>
-      <c r="FO14" s="36"/>
-      <c r="FP14" s="36"/>
-      <c r="FQ14" s="36"/>
-      <c r="FR14" s="36"/>
-      <c r="FS14" s="36"/>
-      <c r="FT14" s="36"/>
-      <c r="FU14" s="36"/>
-      <c r="FV14" s="36"/>
-      <c r="FW14" s="36"/>
-      <c r="FX14" s="36"/>
-      <c r="FY14" s="36"/>
-      <c r="FZ14" s="36"/>
-      <c r="GA14" s="36"/>
-      <c r="GB14" s="36"/>
-      <c r="GC14" s="36"/>
-      <c r="GD14" s="36"/>
-      <c r="GE14" s="36"/>
-      <c r="GF14" s="36"/>
-      <c r="GG14" s="36"/>
-      <c r="GH14" s="36"/>
-      <c r="GI14" s="36"/>
-      <c r="GJ14" s="36"/>
-      <c r="GK14" s="36"/>
-      <c r="GL14" s="36"/>
-      <c r="GM14" s="36"/>
-      <c r="GN14" s="36"/>
-      <c r="GO14" s="36"/>
-      <c r="GP14" s="36"/>
-      <c r="GQ14" s="36"/>
-      <c r="GR14" s="36"/>
-      <c r="GS14" s="36"/>
-      <c r="GT14" s="36"/>
-      <c r="GU14" s="36"/>
-      <c r="GV14" s="36"/>
-      <c r="GW14" s="36"/>
-      <c r="GX14" s="36"/>
-      <c r="GY14" s="36"/>
-      <c r="GZ14" s="36"/>
-      <c r="HA14" s="36"/>
-      <c r="HB14" s="36"/>
-      <c r="HC14" s="36"/>
-      <c r="HD14" s="36"/>
-      <c r="HE14" s="36"/>
-      <c r="HF14" s="36"/>
-      <c r="HG14" s="36"/>
-      <c r="HH14" s="36"/>
-      <c r="HI14" s="36"/>
-      <c r="HJ14" s="36"/>
-      <c r="HK14" s="36"/>
-      <c r="HL14" s="36"/>
-      <c r="HM14" s="36"/>
-      <c r="HN14" s="36"/>
-      <c r="HO14" s="36"/>
-      <c r="HP14" s="36"/>
-      <c r="HQ14" s="36"/>
-      <c r="HR14" s="36"/>
-      <c r="HS14" s="36"/>
-      <c r="HT14" s="36"/>
-      <c r="HU14" s="36"/>
-      <c r="HV14" s="36"/>
-      <c r="HW14" s="36"/>
-      <c r="HX14" s="36"/>
-      <c r="HY14" s="36"/>
-      <c r="HZ14" s="36"/>
-      <c r="IA14" s="36"/>
-      <c r="IB14" s="36"/>
-      <c r="IC14" s="36"/>
-      <c r="ID14" s="36"/>
-      <c r="IE14" s="36"/>
-      <c r="IF14" s="36"/>
-      <c r="IG14" s="36"/>
-      <c r="IH14" s="36"/>
-      <c r="II14" s="36"/>
-      <c r="IJ14" s="36"/>
-      <c r="IK14" s="36"/>
-      <c r="IL14" s="36"/>
-      <c r="IM14" s="36"/>
-      <c r="IN14" s="36"/>
-      <c r="IO14" s="36"/>
-      <c r="IP14" s="36"/>
-      <c r="IQ14" s="36"/>
-      <c r="IR14" s="36"/>
-      <c r="IS14" s="36"/>
-      <c r="IT14" s="36"/>
-      <c r="IU14" s="36"/>
-      <c r="IV14" s="36"/>
-      <c r="IW14" s="36"/>
-      <c r="IX14" s="36"/>
+    <row r="14" spans="1:258" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="35"/>
+      <c r="AS14" s="35"/>
+      <c r="AT14" s="35"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="35"/>
+      <c r="AY14" s="35"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="35"/>
+      <c r="BB14" s="35"/>
+      <c r="BC14" s="35"/>
+      <c r="BD14" s="35"/>
+      <c r="BE14" s="35"/>
+      <c r="BF14" s="35"/>
+      <c r="BG14" s="35"/>
+      <c r="BH14" s="35"/>
+      <c r="BI14" s="35"/>
+      <c r="BJ14" s="35"/>
+      <c r="BK14" s="35"/>
+      <c r="BL14" s="35"/>
+      <c r="BM14" s="35"/>
+      <c r="BN14" s="35"/>
+      <c r="BO14" s="35"/>
+      <c r="BP14" s="35"/>
+      <c r="BQ14" s="35"/>
+      <c r="BR14" s="35"/>
+      <c r="BS14" s="35"/>
+      <c r="BT14" s="35"/>
+      <c r="BU14" s="35"/>
+      <c r="BV14" s="35"/>
+      <c r="BW14" s="35"/>
+      <c r="BX14" s="35"/>
+      <c r="BY14" s="35"/>
+      <c r="BZ14" s="35"/>
+      <c r="CA14" s="35"/>
+      <c r="CB14" s="35"/>
+      <c r="CC14" s="35"/>
+      <c r="CD14" s="35"/>
+      <c r="CE14" s="35"/>
+      <c r="CF14" s="35"/>
+      <c r="CG14" s="35"/>
+      <c r="CH14" s="35"/>
+      <c r="CI14" s="35"/>
+      <c r="CJ14" s="35"/>
+      <c r="CK14" s="35"/>
+      <c r="CL14" s="35"/>
+      <c r="CM14" s="35"/>
+      <c r="CN14" s="35"/>
+      <c r="CO14" s="35"/>
+      <c r="CP14" s="35"/>
+      <c r="CQ14" s="35"/>
+      <c r="CR14" s="35"/>
+      <c r="CS14" s="35"/>
+      <c r="CT14" s="35"/>
+      <c r="CU14" s="35"/>
+      <c r="CV14" s="35"/>
+      <c r="CW14" s="35"/>
+      <c r="CX14" s="35"/>
+      <c r="CY14" s="35"/>
+      <c r="CZ14" s="35"/>
+      <c r="DA14" s="35"/>
+      <c r="DB14" s="35"/>
+      <c r="DC14" s="35"/>
+      <c r="DD14" s="35"/>
+      <c r="DE14" s="35"/>
+      <c r="DF14" s="35"/>
+      <c r="DG14" s="35"/>
+      <c r="DH14" s="35"/>
+      <c r="DI14" s="35"/>
+      <c r="DJ14" s="35"/>
+      <c r="DK14" s="35"/>
+      <c r="DL14" s="35"/>
+      <c r="DM14" s="35"/>
+      <c r="DN14" s="35"/>
+      <c r="DO14" s="35"/>
+      <c r="DP14" s="35"/>
+      <c r="DQ14" s="35"/>
+      <c r="DR14" s="35"/>
+      <c r="DS14" s="35"/>
+      <c r="DT14" s="35"/>
+      <c r="DU14" s="35"/>
+      <c r="DV14" s="35"/>
+      <c r="DW14" s="35"/>
+      <c r="DX14" s="35"/>
+      <c r="DY14" s="35"/>
+      <c r="DZ14" s="35"/>
+      <c r="EA14" s="35"/>
+      <c r="EB14" s="35"/>
+      <c r="EC14" s="35"/>
+      <c r="ED14" s="35"/>
+      <c r="EE14" s="35"/>
+      <c r="EF14" s="35"/>
+      <c r="EG14" s="35"/>
+      <c r="EH14" s="35"/>
+      <c r="EI14" s="35"/>
+      <c r="EJ14" s="35"/>
+      <c r="EK14" s="35"/>
+      <c r="EL14" s="35"/>
+      <c r="EM14" s="35"/>
+      <c r="EN14" s="35"/>
+      <c r="EO14" s="35"/>
+      <c r="EP14" s="35"/>
+      <c r="EQ14" s="35"/>
+      <c r="ER14" s="35"/>
+      <c r="ES14" s="35"/>
+      <c r="ET14" s="35"/>
+      <c r="EU14" s="35"/>
+      <c r="EV14" s="35"/>
+      <c r="EW14" s="35"/>
+      <c r="EX14" s="35"/>
+      <c r="EY14" s="35"/>
+      <c r="EZ14" s="35"/>
+      <c r="FA14" s="35"/>
+      <c r="FB14" s="35"/>
+      <c r="FC14" s="35"/>
+      <c r="FD14" s="35"/>
+      <c r="FE14" s="35"/>
+      <c r="FF14" s="35"/>
+      <c r="FG14" s="35"/>
+      <c r="FH14" s="35"/>
+      <c r="FI14" s="35"/>
+      <c r="FJ14" s="35"/>
+      <c r="FK14" s="35"/>
+      <c r="FL14" s="35"/>
+      <c r="FM14" s="35"/>
+      <c r="FN14" s="35"/>
+      <c r="FO14" s="35"/>
+      <c r="FP14" s="35"/>
+      <c r="FQ14" s="35"/>
+      <c r="FR14" s="35"/>
+      <c r="FS14" s="35"/>
+      <c r="FT14" s="35"/>
+      <c r="FU14" s="35"/>
+      <c r="FV14" s="35"/>
+      <c r="FW14" s="35"/>
+      <c r="FX14" s="35"/>
+      <c r="FY14" s="35"/>
+      <c r="FZ14" s="35"/>
+      <c r="GA14" s="35"/>
+      <c r="GB14" s="35"/>
+      <c r="GC14" s="35"/>
+      <c r="GD14" s="35"/>
+      <c r="GE14" s="35"/>
+      <c r="GF14" s="35"/>
+      <c r="GG14" s="35"/>
+      <c r="GH14" s="35"/>
+      <c r="GI14" s="35"/>
+      <c r="GJ14" s="35"/>
+      <c r="GK14" s="35"/>
+      <c r="GL14" s="35"/>
+      <c r="GM14" s="35"/>
+      <c r="GN14" s="35"/>
+      <c r="GO14" s="35"/>
+      <c r="GP14" s="35"/>
+      <c r="GQ14" s="35"/>
+      <c r="GR14" s="35"/>
+      <c r="GS14" s="35"/>
+      <c r="GT14" s="35"/>
+      <c r="GU14" s="35"/>
+      <c r="GV14" s="35"/>
+      <c r="GW14" s="35"/>
+      <c r="GX14" s="35"/>
+      <c r="GY14" s="35"/>
+      <c r="GZ14" s="35"/>
+      <c r="HA14" s="35"/>
+      <c r="HB14" s="35"/>
+      <c r="HC14" s="35"/>
+      <c r="HD14" s="35"/>
+      <c r="HE14" s="35"/>
+      <c r="HF14" s="35"/>
+      <c r="HG14" s="35"/>
+      <c r="HH14" s="35"/>
+      <c r="HI14" s="35"/>
+      <c r="HJ14" s="35"/>
+      <c r="HK14" s="35"/>
+      <c r="HL14" s="35"/>
+      <c r="HM14" s="35"/>
+      <c r="HN14" s="35"/>
+      <c r="HO14" s="35"/>
+      <c r="HP14" s="35"/>
+      <c r="HQ14" s="35"/>
+      <c r="HR14" s="35"/>
+      <c r="HS14" s="35"/>
+      <c r="HT14" s="35"/>
+      <c r="HU14" s="35"/>
+      <c r="HV14" s="35"/>
+      <c r="HW14" s="35"/>
+      <c r="HX14" s="35"/>
+      <c r="HY14" s="35"/>
+      <c r="HZ14" s="35"/>
+      <c r="IA14" s="35"/>
+      <c r="IB14" s="35"/>
+      <c r="IC14" s="35"/>
+      <c r="ID14" s="35"/>
+      <c r="IE14" s="35"/>
+      <c r="IF14" s="35"/>
+      <c r="IG14" s="35"/>
+      <c r="IH14" s="35"/>
+      <c r="II14" s="35"/>
+      <c r="IJ14" s="35"/>
+      <c r="IK14" s="35"/>
+      <c r="IL14" s="35"/>
+      <c r="IM14" s="35"/>
+      <c r="IN14" s="35"/>
+      <c r="IO14" s="35"/>
+      <c r="IP14" s="35"/>
+      <c r="IQ14" s="35"/>
+      <c r="IR14" s="35"/>
+      <c r="IS14" s="35"/>
+      <c r="IT14" s="35"/>
+      <c r="IU14" s="35"/>
+      <c r="IV14" s="35"/>
+      <c r="IW14" s="35"/>
+      <c r="IX14" s="35"/>
     </row>
     <row r="15" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="33" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="31"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -10020,7 +11252,7 @@
       <c r="IX15" s="12"/>
     </row>
     <row r="16" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="11" t="s">
         <v>39</v>
       </c>
@@ -10288,312 +11520,312 @@
       <c r="IX16" s="12"/>
     </row>
     <row r="17" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44" t="s">
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
-    <row r="18" spans="1:258" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="47"/>
-      <c r="AO18" s="47"/>
-      <c r="AP18" s="47"/>
-      <c r="AQ18" s="47"/>
-      <c r="AR18" s="47"/>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="47"/>
-      <c r="AU18" s="47"/>
-      <c r="AV18" s="47"/>
-      <c r="AW18" s="47"/>
-      <c r="AX18" s="47"/>
-      <c r="AY18" s="47"/>
-      <c r="AZ18" s="47"/>
-      <c r="BA18" s="47"/>
-      <c r="BB18" s="47"/>
-      <c r="BC18" s="47"/>
-      <c r="BD18" s="47"/>
-      <c r="BE18" s="47"/>
-      <c r="BF18" s="47"/>
-      <c r="BG18" s="47"/>
-      <c r="BH18" s="47"/>
-      <c r="BI18" s="47"/>
-      <c r="BJ18" s="47"/>
-      <c r="BK18" s="47"/>
-      <c r="BL18" s="47"/>
-      <c r="BM18" s="47"/>
-      <c r="BN18" s="47"/>
-      <c r="BO18" s="47"/>
-      <c r="BP18" s="47"/>
-      <c r="BQ18" s="47"/>
-      <c r="BR18" s="47"/>
-      <c r="BS18" s="47"/>
-      <c r="BT18" s="47"/>
-      <c r="BU18" s="47"/>
-      <c r="BV18" s="47"/>
-      <c r="BW18" s="47"/>
-      <c r="BX18" s="47"/>
-      <c r="BY18" s="47"/>
-      <c r="BZ18" s="47"/>
-      <c r="CA18" s="47"/>
-      <c r="CB18" s="47"/>
-      <c r="CC18" s="47"/>
-      <c r="CD18" s="47"/>
-      <c r="CE18" s="47"/>
-      <c r="CF18" s="47"/>
-      <c r="CG18" s="47"/>
-      <c r="CH18" s="47"/>
-      <c r="CI18" s="47"/>
-      <c r="CJ18" s="47"/>
-      <c r="CK18" s="47"/>
-      <c r="CL18" s="47"/>
-      <c r="CM18" s="47"/>
-      <c r="CN18" s="47"/>
-      <c r="CO18" s="47"/>
-      <c r="CP18" s="47"/>
-      <c r="CQ18" s="47"/>
-      <c r="CR18" s="47"/>
-      <c r="CS18" s="47"/>
-      <c r="CT18" s="47"/>
-      <c r="CU18" s="47"/>
-      <c r="CV18" s="47"/>
-      <c r="CW18" s="47"/>
-      <c r="CX18" s="47"/>
-      <c r="CY18" s="47"/>
-      <c r="CZ18" s="47"/>
-      <c r="DA18" s="47"/>
-      <c r="DB18" s="47"/>
-      <c r="DC18" s="47"/>
-      <c r="DD18" s="47"/>
-      <c r="DE18" s="47"/>
-      <c r="DF18" s="47"/>
-      <c r="DG18" s="47"/>
-      <c r="DH18" s="47"/>
-      <c r="DI18" s="47"/>
-      <c r="DJ18" s="47"/>
-      <c r="DK18" s="47"/>
-      <c r="DL18" s="47"/>
-      <c r="DM18" s="47"/>
-      <c r="DN18" s="47"/>
-      <c r="DO18" s="47"/>
-      <c r="DP18" s="47"/>
-      <c r="DQ18" s="47"/>
-      <c r="DR18" s="47"/>
-      <c r="DS18" s="47"/>
-      <c r="DT18" s="47"/>
-      <c r="DU18" s="47"/>
-      <c r="DV18" s="47"/>
-      <c r="DW18" s="47"/>
-      <c r="DX18" s="47"/>
-      <c r="DY18" s="47"/>
-      <c r="DZ18" s="47"/>
-      <c r="EA18" s="47"/>
-      <c r="EB18" s="47"/>
-      <c r="EC18" s="47"/>
-      <c r="ED18" s="47"/>
-      <c r="EE18" s="47"/>
-      <c r="EF18" s="47"/>
-      <c r="EG18" s="47"/>
-      <c r="EH18" s="47"/>
-      <c r="EI18" s="47"/>
-      <c r="EJ18" s="47"/>
-      <c r="EK18" s="47"/>
-      <c r="EL18" s="47"/>
-      <c r="EM18" s="47"/>
-      <c r="EN18" s="47"/>
-      <c r="EO18" s="47"/>
-      <c r="EP18" s="47"/>
-      <c r="EQ18" s="47"/>
-      <c r="ER18" s="47"/>
-      <c r="ES18" s="47"/>
-      <c r="ET18" s="47"/>
-      <c r="EU18" s="47"/>
-      <c r="EV18" s="47"/>
-      <c r="EW18" s="47"/>
-      <c r="EX18" s="47"/>
-      <c r="EY18" s="47"/>
-      <c r="EZ18" s="47"/>
-      <c r="FA18" s="47"/>
-      <c r="FB18" s="47"/>
-      <c r="FC18" s="47"/>
-      <c r="FD18" s="47"/>
-      <c r="FE18" s="47"/>
-      <c r="FF18" s="47"/>
-      <c r="FG18" s="47"/>
-      <c r="FH18" s="47"/>
-      <c r="FI18" s="47"/>
-      <c r="FJ18" s="47"/>
-      <c r="FK18" s="47"/>
-      <c r="FL18" s="47"/>
-      <c r="FM18" s="47"/>
-      <c r="FN18" s="47"/>
-      <c r="FO18" s="47"/>
-      <c r="FP18" s="47"/>
-      <c r="FQ18" s="47"/>
-      <c r="FR18" s="47"/>
-      <c r="FS18" s="47"/>
-      <c r="FT18" s="47"/>
-      <c r="FU18" s="47"/>
-      <c r="FV18" s="47"/>
-      <c r="FW18" s="47"/>
-      <c r="FX18" s="47"/>
-      <c r="FY18" s="47"/>
-      <c r="FZ18" s="47"/>
-      <c r="GA18" s="47"/>
-      <c r="GB18" s="47"/>
-      <c r="GC18" s="47"/>
-      <c r="GD18" s="47"/>
-      <c r="GE18" s="47"/>
-      <c r="GF18" s="47"/>
-      <c r="GG18" s="47"/>
-      <c r="GH18" s="47"/>
-      <c r="GI18" s="47"/>
-      <c r="GJ18" s="47"/>
-      <c r="GK18" s="47"/>
-      <c r="GL18" s="47"/>
-      <c r="GM18" s="47"/>
-      <c r="GN18" s="47"/>
-      <c r="GO18" s="47"/>
-      <c r="GP18" s="47"/>
-      <c r="GQ18" s="47"/>
-      <c r="GR18" s="47"/>
-      <c r="GS18" s="47"/>
-      <c r="GT18" s="47"/>
-      <c r="GU18" s="47"/>
-      <c r="GV18" s="47"/>
-      <c r="GW18" s="47"/>
-      <c r="GX18" s="47"/>
-      <c r="GY18" s="47"/>
-      <c r="GZ18" s="47"/>
-      <c r="HA18" s="47"/>
-      <c r="HB18" s="47"/>
-      <c r="HC18" s="47"/>
-      <c r="HD18" s="47"/>
-      <c r="HE18" s="47"/>
-      <c r="HF18" s="47"/>
-      <c r="HG18" s="47"/>
-      <c r="HH18" s="47"/>
-      <c r="HI18" s="47"/>
-      <c r="HJ18" s="47"/>
-      <c r="HK18" s="47"/>
-      <c r="HL18" s="47"/>
-      <c r="HM18" s="47"/>
-      <c r="HN18" s="47"/>
-      <c r="HO18" s="47"/>
-      <c r="HP18" s="47"/>
-      <c r="HQ18" s="47"/>
-      <c r="HR18" s="47"/>
-      <c r="HS18" s="47"/>
-      <c r="HT18" s="47"/>
-      <c r="HU18" s="47"/>
-      <c r="HV18" s="47"/>
-      <c r="HW18" s="47"/>
-      <c r="HX18" s="47"/>
-      <c r="HY18" s="47"/>
-      <c r="HZ18" s="47"/>
-      <c r="IA18" s="47"/>
-      <c r="IB18" s="47"/>
-      <c r="IC18" s="47"/>
-      <c r="ID18" s="47"/>
-      <c r="IE18" s="47"/>
-      <c r="IF18" s="47"/>
-      <c r="IG18" s="47"/>
-      <c r="IH18" s="47"/>
-      <c r="II18" s="47"/>
-      <c r="IJ18" s="47"/>
-      <c r="IK18" s="47"/>
-      <c r="IL18" s="47"/>
-      <c r="IM18" s="47"/>
-      <c r="IN18" s="47"/>
-      <c r="IO18" s="47"/>
-      <c r="IP18" s="47"/>
-      <c r="IQ18" s="47"/>
-      <c r="IR18" s="47"/>
-      <c r="IS18" s="47"/>
-      <c r="IT18" s="47"/>
-      <c r="IU18" s="47"/>
-      <c r="IV18" s="47"/>
-      <c r="IW18" s="47"/>
-      <c r="IX18" s="47"/>
+    <row r="18" spans="1:258" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="46"/>
+      <c r="AS18" s="46"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="46"/>
+      <c r="AV18" s="46"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="46"/>
+      <c r="AY18" s="46"/>
+      <c r="AZ18" s="46"/>
+      <c r="BA18" s="46"/>
+      <c r="BB18" s="46"/>
+      <c r="BC18" s="46"/>
+      <c r="BD18" s="46"/>
+      <c r="BE18" s="46"/>
+      <c r="BF18" s="46"/>
+      <c r="BG18" s="46"/>
+      <c r="BH18" s="46"/>
+      <c r="BI18" s="46"/>
+      <c r="BJ18" s="46"/>
+      <c r="BK18" s="46"/>
+      <c r="BL18" s="46"/>
+      <c r="BM18" s="46"/>
+      <c r="BN18" s="46"/>
+      <c r="BO18" s="46"/>
+      <c r="BP18" s="46"/>
+      <c r="BQ18" s="46"/>
+      <c r="BR18" s="46"/>
+      <c r="BS18" s="46"/>
+      <c r="BT18" s="46"/>
+      <c r="BU18" s="46"/>
+      <c r="BV18" s="46"/>
+      <c r="BW18" s="46"/>
+      <c r="BX18" s="46"/>
+      <c r="BY18" s="46"/>
+      <c r="BZ18" s="46"/>
+      <c r="CA18" s="46"/>
+      <c r="CB18" s="46"/>
+      <c r="CC18" s="46"/>
+      <c r="CD18" s="46"/>
+      <c r="CE18" s="46"/>
+      <c r="CF18" s="46"/>
+      <c r="CG18" s="46"/>
+      <c r="CH18" s="46"/>
+      <c r="CI18" s="46"/>
+      <c r="CJ18" s="46"/>
+      <c r="CK18" s="46"/>
+      <c r="CL18" s="46"/>
+      <c r="CM18" s="46"/>
+      <c r="CN18" s="46"/>
+      <c r="CO18" s="46"/>
+      <c r="CP18" s="46"/>
+      <c r="CQ18" s="46"/>
+      <c r="CR18" s="46"/>
+      <c r="CS18" s="46"/>
+      <c r="CT18" s="46"/>
+      <c r="CU18" s="46"/>
+      <c r="CV18" s="46"/>
+      <c r="CW18" s="46"/>
+      <c r="CX18" s="46"/>
+      <c r="CY18" s="46"/>
+      <c r="CZ18" s="46"/>
+      <c r="DA18" s="46"/>
+      <c r="DB18" s="46"/>
+      <c r="DC18" s="46"/>
+      <c r="DD18" s="46"/>
+      <c r="DE18" s="46"/>
+      <c r="DF18" s="46"/>
+      <c r="DG18" s="46"/>
+      <c r="DH18" s="46"/>
+      <c r="DI18" s="46"/>
+      <c r="DJ18" s="46"/>
+      <c r="DK18" s="46"/>
+      <c r="DL18" s="46"/>
+      <c r="DM18" s="46"/>
+      <c r="DN18" s="46"/>
+      <c r="DO18" s="46"/>
+      <c r="DP18" s="46"/>
+      <c r="DQ18" s="46"/>
+      <c r="DR18" s="46"/>
+      <c r="DS18" s="46"/>
+      <c r="DT18" s="46"/>
+      <c r="DU18" s="46"/>
+      <c r="DV18" s="46"/>
+      <c r="DW18" s="46"/>
+      <c r="DX18" s="46"/>
+      <c r="DY18" s="46"/>
+      <c r="DZ18" s="46"/>
+      <c r="EA18" s="46"/>
+      <c r="EB18" s="46"/>
+      <c r="EC18" s="46"/>
+      <c r="ED18" s="46"/>
+      <c r="EE18" s="46"/>
+      <c r="EF18" s="46"/>
+      <c r="EG18" s="46"/>
+      <c r="EH18" s="46"/>
+      <c r="EI18" s="46"/>
+      <c r="EJ18" s="46"/>
+      <c r="EK18" s="46"/>
+      <c r="EL18" s="46"/>
+      <c r="EM18" s="46"/>
+      <c r="EN18" s="46"/>
+      <c r="EO18" s="46"/>
+      <c r="EP18" s="46"/>
+      <c r="EQ18" s="46"/>
+      <c r="ER18" s="46"/>
+      <c r="ES18" s="46"/>
+      <c r="ET18" s="46"/>
+      <c r="EU18" s="46"/>
+      <c r="EV18" s="46"/>
+      <c r="EW18" s="46"/>
+      <c r="EX18" s="46"/>
+      <c r="EY18" s="46"/>
+      <c r="EZ18" s="46"/>
+      <c r="FA18" s="46"/>
+      <c r="FB18" s="46"/>
+      <c r="FC18" s="46"/>
+      <c r="FD18" s="46"/>
+      <c r="FE18" s="46"/>
+      <c r="FF18" s="46"/>
+      <c r="FG18" s="46"/>
+      <c r="FH18" s="46"/>
+      <c r="FI18" s="46"/>
+      <c r="FJ18" s="46"/>
+      <c r="FK18" s="46"/>
+      <c r="FL18" s="46"/>
+      <c r="FM18" s="46"/>
+      <c r="FN18" s="46"/>
+      <c r="FO18" s="46"/>
+      <c r="FP18" s="46"/>
+      <c r="FQ18" s="46"/>
+      <c r="FR18" s="46"/>
+      <c r="FS18" s="46"/>
+      <c r="FT18" s="46"/>
+      <c r="FU18" s="46"/>
+      <c r="FV18" s="46"/>
+      <c r="FW18" s="46"/>
+      <c r="FX18" s="46"/>
+      <c r="FY18" s="46"/>
+      <c r="FZ18" s="46"/>
+      <c r="GA18" s="46"/>
+      <c r="GB18" s="46"/>
+      <c r="GC18" s="46"/>
+      <c r="GD18" s="46"/>
+      <c r="GE18" s="46"/>
+      <c r="GF18" s="46"/>
+      <c r="GG18" s="46"/>
+      <c r="GH18" s="46"/>
+      <c r="GI18" s="46"/>
+      <c r="GJ18" s="46"/>
+      <c r="GK18" s="46"/>
+      <c r="GL18" s="46"/>
+      <c r="GM18" s="46"/>
+      <c r="GN18" s="46"/>
+      <c r="GO18" s="46"/>
+      <c r="GP18" s="46"/>
+      <c r="GQ18" s="46"/>
+      <c r="GR18" s="46"/>
+      <c r="GS18" s="46"/>
+      <c r="GT18" s="46"/>
+      <c r="GU18" s="46"/>
+      <c r="GV18" s="46"/>
+      <c r="GW18" s="46"/>
+      <c r="GX18" s="46"/>
+      <c r="GY18" s="46"/>
+      <c r="GZ18" s="46"/>
+      <c r="HA18" s="46"/>
+      <c r="HB18" s="46"/>
+      <c r="HC18" s="46"/>
+      <c r="HD18" s="46"/>
+      <c r="HE18" s="46"/>
+      <c r="HF18" s="46"/>
+      <c r="HG18" s="46"/>
+      <c r="HH18" s="46"/>
+      <c r="HI18" s="46"/>
+      <c r="HJ18" s="46"/>
+      <c r="HK18" s="46"/>
+      <c r="HL18" s="46"/>
+      <c r="HM18" s="46"/>
+      <c r="HN18" s="46"/>
+      <c r="HO18" s="46"/>
+      <c r="HP18" s="46"/>
+      <c r="HQ18" s="46"/>
+      <c r="HR18" s="46"/>
+      <c r="HS18" s="46"/>
+      <c r="HT18" s="46"/>
+      <c r="HU18" s="46"/>
+      <c r="HV18" s="46"/>
+      <c r="HW18" s="46"/>
+      <c r="HX18" s="46"/>
+      <c r="HY18" s="46"/>
+      <c r="HZ18" s="46"/>
+      <c r="IA18" s="46"/>
+      <c r="IB18" s="46"/>
+      <c r="IC18" s="46"/>
+      <c r="ID18" s="46"/>
+      <c r="IE18" s="46"/>
+      <c r="IF18" s="46"/>
+      <c r="IG18" s="46"/>
+      <c r="IH18" s="46"/>
+      <c r="II18" s="46"/>
+      <c r="IJ18" s="46"/>
+      <c r="IK18" s="46"/>
+      <c r="IL18" s="46"/>
+      <c r="IM18" s="46"/>
+      <c r="IN18" s="46"/>
+      <c r="IO18" s="46"/>
+      <c r="IP18" s="46"/>
+      <c r="IQ18" s="46"/>
+      <c r="IR18" s="46"/>
+      <c r="IS18" s="46"/>
+      <c r="IT18" s="46"/>
+      <c r="IU18" s="46"/>
+      <c r="IV18" s="46"/>
+      <c r="IW18" s="46"/>
+      <c r="IX18" s="46"/>
     </row>
     <row r="19" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46" t="s">
+      <c r="E19" s="45"/>
+      <c r="F19" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="11" t="s">
         <v>56</v>
       </c>
@@ -10604,7 +11836,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="26"/>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="45" t="s">
         <v>62</v>
       </c>
       <c r="G20" s="25" t="s">
@@ -10614,7 +11846,7 @@
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="11" t="s">
         <v>51</v>
       </c>
@@ -10625,7 +11857,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="26"/>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="45" t="s">
         <v>62</v>
       </c>
       <c r="G21" s="25"/>
@@ -10636,311 +11868,311 @@
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="46" t="s">
+      <c r="E22" s="42"/>
+      <c r="F22" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44" t="s">
+      <c r="G22" s="43"/>
+      <c r="H22" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
     </row>
-    <row r="23" spans="1:258" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="47"/>
-      <c r="AL23" s="47"/>
-      <c r="AM23" s="47"/>
-      <c r="AN23" s="47"/>
-      <c r="AO23" s="47"/>
-      <c r="AP23" s="47"/>
-      <c r="AQ23" s="47"/>
-      <c r="AR23" s="47"/>
-      <c r="AS23" s="47"/>
-      <c r="AT23" s="47"/>
-      <c r="AU23" s="47"/>
-      <c r="AV23" s="47"/>
-      <c r="AW23" s="47"/>
-      <c r="AX23" s="47"/>
-      <c r="AY23" s="47"/>
-      <c r="AZ23" s="47"/>
-      <c r="BA23" s="47"/>
-      <c r="BB23" s="47"/>
-      <c r="BC23" s="47"/>
-      <c r="BD23" s="47"/>
-      <c r="BE23" s="47"/>
-      <c r="BF23" s="47"/>
-      <c r="BG23" s="47"/>
-      <c r="BH23" s="47"/>
-      <c r="BI23" s="47"/>
-      <c r="BJ23" s="47"/>
-      <c r="BK23" s="47"/>
-      <c r="BL23" s="47"/>
-      <c r="BM23" s="47"/>
-      <c r="BN23" s="47"/>
-      <c r="BO23" s="47"/>
-      <c r="BP23" s="47"/>
-      <c r="BQ23" s="47"/>
-      <c r="BR23" s="47"/>
-      <c r="BS23" s="47"/>
-      <c r="BT23" s="47"/>
-      <c r="BU23" s="47"/>
-      <c r="BV23" s="47"/>
-      <c r="BW23" s="47"/>
-      <c r="BX23" s="47"/>
-      <c r="BY23" s="47"/>
-      <c r="BZ23" s="47"/>
-      <c r="CA23" s="47"/>
-      <c r="CB23" s="47"/>
-      <c r="CC23" s="47"/>
-      <c r="CD23" s="47"/>
-      <c r="CE23" s="47"/>
-      <c r="CF23" s="47"/>
-      <c r="CG23" s="47"/>
-      <c r="CH23" s="47"/>
-      <c r="CI23" s="47"/>
-      <c r="CJ23" s="47"/>
-      <c r="CK23" s="47"/>
-      <c r="CL23" s="47"/>
-      <c r="CM23" s="47"/>
-      <c r="CN23" s="47"/>
-      <c r="CO23" s="47"/>
-      <c r="CP23" s="47"/>
-      <c r="CQ23" s="47"/>
-      <c r="CR23" s="47"/>
-      <c r="CS23" s="47"/>
-      <c r="CT23" s="47"/>
-      <c r="CU23" s="47"/>
-      <c r="CV23" s="47"/>
-      <c r="CW23" s="47"/>
-      <c r="CX23" s="47"/>
-      <c r="CY23" s="47"/>
-      <c r="CZ23" s="47"/>
-      <c r="DA23" s="47"/>
-      <c r="DB23" s="47"/>
-      <c r="DC23" s="47"/>
-      <c r="DD23" s="47"/>
-      <c r="DE23" s="47"/>
-      <c r="DF23" s="47"/>
-      <c r="DG23" s="47"/>
-      <c r="DH23" s="47"/>
-      <c r="DI23" s="47"/>
-      <c r="DJ23" s="47"/>
-      <c r="DK23" s="47"/>
-      <c r="DL23" s="47"/>
-      <c r="DM23" s="47"/>
-      <c r="DN23" s="47"/>
-      <c r="DO23" s="47"/>
-      <c r="DP23" s="47"/>
-      <c r="DQ23" s="47"/>
-      <c r="DR23" s="47"/>
-      <c r="DS23" s="47"/>
-      <c r="DT23" s="47"/>
-      <c r="DU23" s="47"/>
-      <c r="DV23" s="47"/>
-      <c r="DW23" s="47"/>
-      <c r="DX23" s="47"/>
-      <c r="DY23" s="47"/>
-      <c r="DZ23" s="47"/>
-      <c r="EA23" s="47"/>
-      <c r="EB23" s="47"/>
-      <c r="EC23" s="47"/>
-      <c r="ED23" s="47"/>
-      <c r="EE23" s="47"/>
-      <c r="EF23" s="47"/>
-      <c r="EG23" s="47"/>
-      <c r="EH23" s="47"/>
-      <c r="EI23" s="47"/>
-      <c r="EJ23" s="47"/>
-      <c r="EK23" s="47"/>
-      <c r="EL23" s="47"/>
-      <c r="EM23" s="47"/>
-      <c r="EN23" s="47"/>
-      <c r="EO23" s="47"/>
-      <c r="EP23" s="47"/>
-      <c r="EQ23" s="47"/>
-      <c r="ER23" s="47"/>
-      <c r="ES23" s="47"/>
-      <c r="ET23" s="47"/>
-      <c r="EU23" s="47"/>
-      <c r="EV23" s="47"/>
-      <c r="EW23" s="47"/>
-      <c r="EX23" s="47"/>
-      <c r="EY23" s="47"/>
-      <c r="EZ23" s="47"/>
-      <c r="FA23" s="47"/>
-      <c r="FB23" s="47"/>
-      <c r="FC23" s="47"/>
-      <c r="FD23" s="47"/>
-      <c r="FE23" s="47"/>
-      <c r="FF23" s="47"/>
-      <c r="FG23" s="47"/>
-      <c r="FH23" s="47"/>
-      <c r="FI23" s="47"/>
-      <c r="FJ23" s="47"/>
-      <c r="FK23" s="47"/>
-      <c r="FL23" s="47"/>
-      <c r="FM23" s="47"/>
-      <c r="FN23" s="47"/>
-      <c r="FO23" s="47"/>
-      <c r="FP23" s="47"/>
-      <c r="FQ23" s="47"/>
-      <c r="FR23" s="47"/>
-      <c r="FS23" s="47"/>
-      <c r="FT23" s="47"/>
-      <c r="FU23" s="47"/>
-      <c r="FV23" s="47"/>
-      <c r="FW23" s="47"/>
-      <c r="FX23" s="47"/>
-      <c r="FY23" s="47"/>
-      <c r="FZ23" s="47"/>
-      <c r="GA23" s="47"/>
-      <c r="GB23" s="47"/>
-      <c r="GC23" s="47"/>
-      <c r="GD23" s="47"/>
-      <c r="GE23" s="47"/>
-      <c r="GF23" s="47"/>
-      <c r="GG23" s="47"/>
-      <c r="GH23" s="47"/>
-      <c r="GI23" s="47"/>
-      <c r="GJ23" s="47"/>
-      <c r="GK23" s="47"/>
-      <c r="GL23" s="47"/>
-      <c r="GM23" s="47"/>
-      <c r="GN23" s="47"/>
-      <c r="GO23" s="47"/>
-      <c r="GP23" s="47"/>
-      <c r="GQ23" s="47"/>
-      <c r="GR23" s="47"/>
-      <c r="GS23" s="47"/>
-      <c r="GT23" s="47"/>
-      <c r="GU23" s="47"/>
-      <c r="GV23" s="47"/>
-      <c r="GW23" s="47"/>
-      <c r="GX23" s="47"/>
-      <c r="GY23" s="47"/>
-      <c r="GZ23" s="47"/>
-      <c r="HA23" s="47"/>
-      <c r="HB23" s="47"/>
-      <c r="HC23" s="47"/>
-      <c r="HD23" s="47"/>
-      <c r="HE23" s="47"/>
-      <c r="HF23" s="47"/>
-      <c r="HG23" s="47"/>
-      <c r="HH23" s="47"/>
-      <c r="HI23" s="47"/>
-      <c r="HJ23" s="47"/>
-      <c r="HK23" s="47"/>
-      <c r="HL23" s="47"/>
-      <c r="HM23" s="47"/>
-      <c r="HN23" s="47"/>
-      <c r="HO23" s="47"/>
-      <c r="HP23" s="47"/>
-      <c r="HQ23" s="47"/>
-      <c r="HR23" s="47"/>
-      <c r="HS23" s="47"/>
-      <c r="HT23" s="47"/>
-      <c r="HU23" s="47"/>
-      <c r="HV23" s="47"/>
-      <c r="HW23" s="47"/>
-      <c r="HX23" s="47"/>
-      <c r="HY23" s="47"/>
-      <c r="HZ23" s="47"/>
-      <c r="IA23" s="47"/>
-      <c r="IB23" s="47"/>
-      <c r="IC23" s="47"/>
-      <c r="ID23" s="47"/>
-      <c r="IE23" s="47"/>
-      <c r="IF23" s="47"/>
-      <c r="IG23" s="47"/>
-      <c r="IH23" s="47"/>
-      <c r="II23" s="47"/>
-      <c r="IJ23" s="47"/>
-      <c r="IK23" s="47"/>
-      <c r="IL23" s="47"/>
-      <c r="IM23" s="47"/>
-      <c r="IN23" s="47"/>
-      <c r="IO23" s="47"/>
-      <c r="IP23" s="47"/>
-      <c r="IQ23" s="47"/>
-      <c r="IR23" s="47"/>
-      <c r="IS23" s="47"/>
-      <c r="IT23" s="47"/>
-      <c r="IU23" s="47"/>
-      <c r="IV23" s="47"/>
-      <c r="IW23" s="47"/>
-      <c r="IX23" s="47"/>
+    <row r="23" spans="1:258" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="46"/>
+      <c r="AN23" s="46"/>
+      <c r="AO23" s="46"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="46"/>
+      <c r="AR23" s="46"/>
+      <c r="AS23" s="46"/>
+      <c r="AT23" s="46"/>
+      <c r="AU23" s="46"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="46"/>
+      <c r="BB23" s="46"/>
+      <c r="BC23" s="46"/>
+      <c r="BD23" s="46"/>
+      <c r="BE23" s="46"/>
+      <c r="BF23" s="46"/>
+      <c r="BG23" s="46"/>
+      <c r="BH23" s="46"/>
+      <c r="BI23" s="46"/>
+      <c r="BJ23" s="46"/>
+      <c r="BK23" s="46"/>
+      <c r="BL23" s="46"/>
+      <c r="BM23" s="46"/>
+      <c r="BN23" s="46"/>
+      <c r="BO23" s="46"/>
+      <c r="BP23" s="46"/>
+      <c r="BQ23" s="46"/>
+      <c r="BR23" s="46"/>
+      <c r="BS23" s="46"/>
+      <c r="BT23" s="46"/>
+      <c r="BU23" s="46"/>
+      <c r="BV23" s="46"/>
+      <c r="BW23" s="46"/>
+      <c r="BX23" s="46"/>
+      <c r="BY23" s="46"/>
+      <c r="BZ23" s="46"/>
+      <c r="CA23" s="46"/>
+      <c r="CB23" s="46"/>
+      <c r="CC23" s="46"/>
+      <c r="CD23" s="46"/>
+      <c r="CE23" s="46"/>
+      <c r="CF23" s="46"/>
+      <c r="CG23" s="46"/>
+      <c r="CH23" s="46"/>
+      <c r="CI23" s="46"/>
+      <c r="CJ23" s="46"/>
+      <c r="CK23" s="46"/>
+      <c r="CL23" s="46"/>
+      <c r="CM23" s="46"/>
+      <c r="CN23" s="46"/>
+      <c r="CO23" s="46"/>
+      <c r="CP23" s="46"/>
+      <c r="CQ23" s="46"/>
+      <c r="CR23" s="46"/>
+      <c r="CS23" s="46"/>
+      <c r="CT23" s="46"/>
+      <c r="CU23" s="46"/>
+      <c r="CV23" s="46"/>
+      <c r="CW23" s="46"/>
+      <c r="CX23" s="46"/>
+      <c r="CY23" s="46"/>
+      <c r="CZ23" s="46"/>
+      <c r="DA23" s="46"/>
+      <c r="DB23" s="46"/>
+      <c r="DC23" s="46"/>
+      <c r="DD23" s="46"/>
+      <c r="DE23" s="46"/>
+      <c r="DF23" s="46"/>
+      <c r="DG23" s="46"/>
+      <c r="DH23" s="46"/>
+      <c r="DI23" s="46"/>
+      <c r="DJ23" s="46"/>
+      <c r="DK23" s="46"/>
+      <c r="DL23" s="46"/>
+      <c r="DM23" s="46"/>
+      <c r="DN23" s="46"/>
+      <c r="DO23" s="46"/>
+      <c r="DP23" s="46"/>
+      <c r="DQ23" s="46"/>
+      <c r="DR23" s="46"/>
+      <c r="DS23" s="46"/>
+      <c r="DT23" s="46"/>
+      <c r="DU23" s="46"/>
+      <c r="DV23" s="46"/>
+      <c r="DW23" s="46"/>
+      <c r="DX23" s="46"/>
+      <c r="DY23" s="46"/>
+      <c r="DZ23" s="46"/>
+      <c r="EA23" s="46"/>
+      <c r="EB23" s="46"/>
+      <c r="EC23" s="46"/>
+      <c r="ED23" s="46"/>
+      <c r="EE23" s="46"/>
+      <c r="EF23" s="46"/>
+      <c r="EG23" s="46"/>
+      <c r="EH23" s="46"/>
+      <c r="EI23" s="46"/>
+      <c r="EJ23" s="46"/>
+      <c r="EK23" s="46"/>
+      <c r="EL23" s="46"/>
+      <c r="EM23" s="46"/>
+      <c r="EN23" s="46"/>
+      <c r="EO23" s="46"/>
+      <c r="EP23" s="46"/>
+      <c r="EQ23" s="46"/>
+      <c r="ER23" s="46"/>
+      <c r="ES23" s="46"/>
+      <c r="ET23" s="46"/>
+      <c r="EU23" s="46"/>
+      <c r="EV23" s="46"/>
+      <c r="EW23" s="46"/>
+      <c r="EX23" s="46"/>
+      <c r="EY23" s="46"/>
+      <c r="EZ23" s="46"/>
+      <c r="FA23" s="46"/>
+      <c r="FB23" s="46"/>
+      <c r="FC23" s="46"/>
+      <c r="FD23" s="46"/>
+      <c r="FE23" s="46"/>
+      <c r="FF23" s="46"/>
+      <c r="FG23" s="46"/>
+      <c r="FH23" s="46"/>
+      <c r="FI23" s="46"/>
+      <c r="FJ23" s="46"/>
+      <c r="FK23" s="46"/>
+      <c r="FL23" s="46"/>
+      <c r="FM23" s="46"/>
+      <c r="FN23" s="46"/>
+      <c r="FO23" s="46"/>
+      <c r="FP23" s="46"/>
+      <c r="FQ23" s="46"/>
+      <c r="FR23" s="46"/>
+      <c r="FS23" s="46"/>
+      <c r="FT23" s="46"/>
+      <c r="FU23" s="46"/>
+      <c r="FV23" s="46"/>
+      <c r="FW23" s="46"/>
+      <c r="FX23" s="46"/>
+      <c r="FY23" s="46"/>
+      <c r="FZ23" s="46"/>
+      <c r="GA23" s="46"/>
+      <c r="GB23" s="46"/>
+      <c r="GC23" s="46"/>
+      <c r="GD23" s="46"/>
+      <c r="GE23" s="46"/>
+      <c r="GF23" s="46"/>
+      <c r="GG23" s="46"/>
+      <c r="GH23" s="46"/>
+      <c r="GI23" s="46"/>
+      <c r="GJ23" s="46"/>
+      <c r="GK23" s="46"/>
+      <c r="GL23" s="46"/>
+      <c r="GM23" s="46"/>
+      <c r="GN23" s="46"/>
+      <c r="GO23" s="46"/>
+      <c r="GP23" s="46"/>
+      <c r="GQ23" s="46"/>
+      <c r="GR23" s="46"/>
+      <c r="GS23" s="46"/>
+      <c r="GT23" s="46"/>
+      <c r="GU23" s="46"/>
+      <c r="GV23" s="46"/>
+      <c r="GW23" s="46"/>
+      <c r="GX23" s="46"/>
+      <c r="GY23" s="46"/>
+      <c r="GZ23" s="46"/>
+      <c r="HA23" s="46"/>
+      <c r="HB23" s="46"/>
+      <c r="HC23" s="46"/>
+      <c r="HD23" s="46"/>
+      <c r="HE23" s="46"/>
+      <c r="HF23" s="46"/>
+      <c r="HG23" s="46"/>
+      <c r="HH23" s="46"/>
+      <c r="HI23" s="46"/>
+      <c r="HJ23" s="46"/>
+      <c r="HK23" s="46"/>
+      <c r="HL23" s="46"/>
+      <c r="HM23" s="46"/>
+      <c r="HN23" s="46"/>
+      <c r="HO23" s="46"/>
+      <c r="HP23" s="46"/>
+      <c r="HQ23" s="46"/>
+      <c r="HR23" s="46"/>
+      <c r="HS23" s="46"/>
+      <c r="HT23" s="46"/>
+      <c r="HU23" s="46"/>
+      <c r="HV23" s="46"/>
+      <c r="HW23" s="46"/>
+      <c r="HX23" s="46"/>
+      <c r="HY23" s="46"/>
+      <c r="HZ23" s="46"/>
+      <c r="IA23" s="46"/>
+      <c r="IB23" s="46"/>
+      <c r="IC23" s="46"/>
+      <c r="ID23" s="46"/>
+      <c r="IE23" s="46"/>
+      <c r="IF23" s="46"/>
+      <c r="IG23" s="46"/>
+      <c r="IH23" s="46"/>
+      <c r="II23" s="46"/>
+      <c r="IJ23" s="46"/>
+      <c r="IK23" s="46"/>
+      <c r="IL23" s="46"/>
+      <c r="IM23" s="46"/>
+      <c r="IN23" s="46"/>
+      <c r="IO23" s="46"/>
+      <c r="IP23" s="46"/>
+      <c r="IQ23" s="46"/>
+      <c r="IR23" s="46"/>
+      <c r="IS23" s="46"/>
+      <c r="IT23" s="46"/>
+      <c r="IU23" s="46"/>
+      <c r="IV23" s="46"/>
+      <c r="IW23" s="46"/>
+      <c r="IX23" s="46"/>
     </row>
     <row r="24" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46" t="s">
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45" t="s">
+      <c r="G24" s="44"/>
+      <c r="H24" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="25" t="s">
         <v>67</v>
       </c>
@@ -10962,7 +12194,7 @@
       <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="25" t="s">
         <v>70</v>
       </c>
@@ -10986,7 +12218,7 @@
       <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="25" t="s">
         <v>79</v>
       </c>
@@ -11008,7 +12240,7 @@
       <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="25" t="s">
         <v>73</v>
       </c>
@@ -11032,7 +12264,7 @@
       <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="25" t="s">
         <v>75</v>
       </c>
@@ -11054,7 +12286,7 @@
       <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="55" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -11078,8 +12310,8 @@
       <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="59" t="s">
+      <c r="A31" s="56"/>
+      <c r="B31" s="58" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -11100,8 +12332,8 @@
       <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="9" t="s">
         <v>86</v>
       </c>
@@ -11120,7 +12352,7 @@
       <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="25" t="s">
         <v>91</v>
       </c>
@@ -11142,7 +12374,7 @@
       <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="25" t="s">
         <v>94</v>
       </c>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -25,10 +25,10 @@
     <author>joe.feng@hotmail.com</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="122">
   <si>
     <t>Comments</t>
   </si>
@@ -725,23 +725,6 @@
   </si>
   <si>
     <t>{
-   "id": 1,
-   "name": "",
-   "sort": 20,
-   "remark": "",
-   "children": [
-    {
-     "id": 1,
-     "name": "",
-     "sort": 20,
-     "remark": "",
-     "children": []
-    }
-   ]
-  }</t>
-  </si>
-  <si>
-    <t>{
  "page": {
   "pages": 10
   },
@@ -813,6 +796,39 @@
   </si>
   <si>
     <t>{"status":"succeed"}</t>
+  </si>
+  <si>
+    <t>{
+   "id": 1,
+   "text": "",
+   "nodes": [
+    {
+     "id": 1,
+     "text": "",
+     "nodes": []
+    }
+   ]
+  }</t>
+  </si>
+  <si>
+    <t>Get sub departments</t>
+  </si>
+  <si>
+    <t>/departments/$id/departments?page=1&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>{
+ "page": {
+  "pages": 10
+  },
+ "departments":[{
+   "id": 1,
+   "text": "",
+   "parent": "",
+   "order": 1,
+   "remark": ""
+  }]
+}</t>
   </si>
 </sst>
 </file>
@@ -1190,6 +1206,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1215,15 +1240,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1598,11 +1614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IX42"/>
+  <dimension ref="A1:IX43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2722,13 +2738,13 @@
       <c r="IX5" s="35"/>
     </row>
     <row r="6" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="55" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="39" t="s">
         <v>105</v>
       </c>
       <c r="D6" s="37" t="s">
@@ -2738,7 +2754,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="39"/>
@@ -2992,25 +3008,25 @@
       <c r="IX6" s="12"/>
     </row>
     <row r="7" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -3260,29 +3276,25 @@
       <c r="IX7" s="12"/>
     </row>
     <row r="8" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="9"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -3532,12 +3544,12 @@
       <c r="IX8" s="12"/>
     </row>
     <row r="9" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>15</v>
@@ -3545,10 +3557,10 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>101</v>
@@ -3804,12 +3816,12 @@
       <c r="IX9" s="12"/>
     </row>
     <row r="10" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
@@ -3817,10 +3829,10 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>101</v>
@@ -4075,1058 +4087,1070 @@
       <c r="IW10" s="12"/>
       <c r="IX10" s="12"/>
     </row>
-    <row r="11" spans="1:258" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="35"/>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="35"/>
-      <c r="AX11" s="35"/>
-      <c r="AY11" s="35"/>
-      <c r="AZ11" s="35"/>
-      <c r="BA11" s="35"/>
-      <c r="BB11" s="35"/>
-      <c r="BC11" s="35"/>
-      <c r="BD11" s="35"/>
-      <c r="BE11" s="35"/>
-      <c r="BF11" s="35"/>
-      <c r="BG11" s="35"/>
-      <c r="BH11" s="35"/>
-      <c r="BI11" s="35"/>
-      <c r="BJ11" s="35"/>
-      <c r="BK11" s="35"/>
-      <c r="BL11" s="35"/>
-      <c r="BM11" s="35"/>
-      <c r="BN11" s="35"/>
-      <c r="BO11" s="35"/>
-      <c r="BP11" s="35"/>
-      <c r="BQ11" s="35"/>
-      <c r="BR11" s="35"/>
-      <c r="BS11" s="35"/>
-      <c r="BT11" s="35"/>
-      <c r="BU11" s="35"/>
-      <c r="BV11" s="35"/>
-      <c r="BW11" s="35"/>
-      <c r="BX11" s="35"/>
-      <c r="BY11" s="35"/>
-      <c r="BZ11" s="35"/>
-      <c r="CA11" s="35"/>
-      <c r="CB11" s="35"/>
-      <c r="CC11" s="35"/>
-      <c r="CD11" s="35"/>
-      <c r="CE11" s="35"/>
-      <c r="CF11" s="35"/>
-      <c r="CG11" s="35"/>
-      <c r="CH11" s="35"/>
-      <c r="CI11" s="35"/>
-      <c r="CJ11" s="35"/>
-      <c r="CK11" s="35"/>
-      <c r="CL11" s="35"/>
-      <c r="CM11" s="35"/>
-      <c r="CN11" s="35"/>
-      <c r="CO11" s="35"/>
-      <c r="CP11" s="35"/>
-      <c r="CQ11" s="35"/>
-      <c r="CR11" s="35"/>
-      <c r="CS11" s="35"/>
-      <c r="CT11" s="35"/>
-      <c r="CU11" s="35"/>
-      <c r="CV11" s="35"/>
-      <c r="CW11" s="35"/>
-      <c r="CX11" s="35"/>
-      <c r="CY11" s="35"/>
-      <c r="CZ11" s="35"/>
-      <c r="DA11" s="35"/>
-      <c r="DB11" s="35"/>
-      <c r="DC11" s="35"/>
-      <c r="DD11" s="35"/>
-      <c r="DE11" s="35"/>
-      <c r="DF11" s="35"/>
-      <c r="DG11" s="35"/>
-      <c r="DH11" s="35"/>
-      <c r="DI11" s="35"/>
-      <c r="DJ11" s="35"/>
-      <c r="DK11" s="35"/>
-      <c r="DL11" s="35"/>
-      <c r="DM11" s="35"/>
-      <c r="DN11" s="35"/>
-      <c r="DO11" s="35"/>
-      <c r="DP11" s="35"/>
-      <c r="DQ11" s="35"/>
-      <c r="DR11" s="35"/>
-      <c r="DS11" s="35"/>
-      <c r="DT11" s="35"/>
-      <c r="DU11" s="35"/>
-      <c r="DV11" s="35"/>
-      <c r="DW11" s="35"/>
-      <c r="DX11" s="35"/>
-      <c r="DY11" s="35"/>
-      <c r="DZ11" s="35"/>
-      <c r="EA11" s="35"/>
-      <c r="EB11" s="35"/>
-      <c r="EC11" s="35"/>
-      <c r="ED11" s="35"/>
-      <c r="EE11" s="35"/>
-      <c r="EF11" s="35"/>
-      <c r="EG11" s="35"/>
-      <c r="EH11" s="35"/>
-      <c r="EI11" s="35"/>
-      <c r="EJ11" s="35"/>
-      <c r="EK11" s="35"/>
-      <c r="EL11" s="35"/>
-      <c r="EM11" s="35"/>
-      <c r="EN11" s="35"/>
-      <c r="EO11" s="35"/>
-      <c r="EP11" s="35"/>
-      <c r="EQ11" s="35"/>
-      <c r="ER11" s="35"/>
-      <c r="ES11" s="35"/>
-      <c r="ET11" s="35"/>
-      <c r="EU11" s="35"/>
-      <c r="EV11" s="35"/>
-      <c r="EW11" s="35"/>
-      <c r="EX11" s="35"/>
-      <c r="EY11" s="35"/>
-      <c r="EZ11" s="35"/>
-      <c r="FA11" s="35"/>
-      <c r="FB11" s="35"/>
-      <c r="FC11" s="35"/>
-      <c r="FD11" s="35"/>
-      <c r="FE11" s="35"/>
-      <c r="FF11" s="35"/>
-      <c r="FG11" s="35"/>
-      <c r="FH11" s="35"/>
-      <c r="FI11" s="35"/>
-      <c r="FJ11" s="35"/>
-      <c r="FK11" s="35"/>
-      <c r="FL11" s="35"/>
-      <c r="FM11" s="35"/>
-      <c r="FN11" s="35"/>
-      <c r="FO11" s="35"/>
-      <c r="FP11" s="35"/>
-      <c r="FQ11" s="35"/>
-      <c r="FR11" s="35"/>
-      <c r="FS11" s="35"/>
-      <c r="FT11" s="35"/>
-      <c r="FU11" s="35"/>
-      <c r="FV11" s="35"/>
-      <c r="FW11" s="35"/>
-      <c r="FX11" s="35"/>
-      <c r="FY11" s="35"/>
-      <c r="FZ11" s="35"/>
-      <c r="GA11" s="35"/>
-      <c r="GB11" s="35"/>
-      <c r="GC11" s="35"/>
-      <c r="GD11" s="35"/>
-      <c r="GE11" s="35"/>
-      <c r="GF11" s="35"/>
-      <c r="GG11" s="35"/>
-      <c r="GH11" s="35"/>
-      <c r="GI11" s="35"/>
-      <c r="GJ11" s="35"/>
-      <c r="GK11" s="35"/>
-      <c r="GL11" s="35"/>
-      <c r="GM11" s="35"/>
-      <c r="GN11" s="35"/>
-      <c r="GO11" s="35"/>
-      <c r="GP11" s="35"/>
-      <c r="GQ11" s="35"/>
-      <c r="GR11" s="35"/>
-      <c r="GS11" s="35"/>
-      <c r="GT11" s="35"/>
-      <c r="GU11" s="35"/>
-      <c r="GV11" s="35"/>
-      <c r="GW11" s="35"/>
-      <c r="GX11" s="35"/>
-      <c r="GY11" s="35"/>
-      <c r="GZ11" s="35"/>
-      <c r="HA11" s="35"/>
-      <c r="HB11" s="35"/>
-      <c r="HC11" s="35"/>
-      <c r="HD11" s="35"/>
-      <c r="HE11" s="35"/>
-      <c r="HF11" s="35"/>
-      <c r="HG11" s="35"/>
-      <c r="HH11" s="35"/>
-      <c r="HI11" s="35"/>
-      <c r="HJ11" s="35"/>
-      <c r="HK11" s="35"/>
-      <c r="HL11" s="35"/>
-      <c r="HM11" s="35"/>
-      <c r="HN11" s="35"/>
-      <c r="HO11" s="35"/>
-      <c r="HP11" s="35"/>
-      <c r="HQ11" s="35"/>
-      <c r="HR11" s="35"/>
-      <c r="HS11" s="35"/>
-      <c r="HT11" s="35"/>
-      <c r="HU11" s="35"/>
-      <c r="HV11" s="35"/>
-      <c r="HW11" s="35"/>
-      <c r="HX11" s="35"/>
-      <c r="HY11" s="35"/>
-      <c r="HZ11" s="35"/>
-      <c r="IA11" s="35"/>
-      <c r="IB11" s="35"/>
-      <c r="IC11" s="35"/>
-      <c r="ID11" s="35"/>
-      <c r="IE11" s="35"/>
-      <c r="IF11" s="35"/>
-      <c r="IG11" s="35"/>
-      <c r="IH11" s="35"/>
-      <c r="II11" s="35"/>
-      <c r="IJ11" s="35"/>
-      <c r="IK11" s="35"/>
-      <c r="IL11" s="35"/>
-      <c r="IM11" s="35"/>
-      <c r="IN11" s="35"/>
-      <c r="IO11" s="35"/>
-      <c r="IP11" s="35"/>
-      <c r="IQ11" s="35"/>
-      <c r="IR11" s="35"/>
-      <c r="IS11" s="35"/>
-      <c r="IT11" s="35"/>
-      <c r="IU11" s="35"/>
-      <c r="IV11" s="35"/>
-      <c r="IW11" s="35"/>
-      <c r="IX11" s="35"/>
+    <row r="11" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="57"/>
+      <c r="B11" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+      <c r="BH11" s="12"/>
+      <c r="BI11" s="12"/>
+      <c r="BJ11" s="12"/>
+      <c r="BK11" s="12"/>
+      <c r="BL11" s="12"/>
+      <c r="BM11" s="12"/>
+      <c r="BN11" s="12"/>
+      <c r="BO11" s="12"/>
+      <c r="BP11" s="12"/>
+      <c r="BQ11" s="12"/>
+      <c r="BR11" s="12"/>
+      <c r="BS11" s="12"/>
+      <c r="BT11" s="12"/>
+      <c r="BU11" s="12"/>
+      <c r="BV11" s="12"/>
+      <c r="BW11" s="12"/>
+      <c r="BX11" s="12"/>
+      <c r="BY11" s="12"/>
+      <c r="BZ11" s="12"/>
+      <c r="CA11" s="12"/>
+      <c r="CB11" s="12"/>
+      <c r="CC11" s="12"/>
+      <c r="CD11" s="12"/>
+      <c r="CE11" s="12"/>
+      <c r="CF11" s="12"/>
+      <c r="CG11" s="12"/>
+      <c r="CH11" s="12"/>
+      <c r="CI11" s="12"/>
+      <c r="CJ11" s="12"/>
+      <c r="CK11" s="12"/>
+      <c r="CL11" s="12"/>
+      <c r="CM11" s="12"/>
+      <c r="CN11" s="12"/>
+      <c r="CO11" s="12"/>
+      <c r="CP11" s="12"/>
+      <c r="CQ11" s="12"/>
+      <c r="CR11" s="12"/>
+      <c r="CS11" s="12"/>
+      <c r="CT11" s="12"/>
+      <c r="CU11" s="12"/>
+      <c r="CV11" s="12"/>
+      <c r="CW11" s="12"/>
+      <c r="CX11" s="12"/>
+      <c r="CY11" s="12"/>
+      <c r="CZ11" s="12"/>
+      <c r="DA11" s="12"/>
+      <c r="DB11" s="12"/>
+      <c r="DC11" s="12"/>
+      <c r="DD11" s="12"/>
+      <c r="DE11" s="12"/>
+      <c r="DF11" s="12"/>
+      <c r="DG11" s="12"/>
+      <c r="DH11" s="12"/>
+      <c r="DI11" s="12"/>
+      <c r="DJ11" s="12"/>
+      <c r="DK11" s="12"/>
+      <c r="DL11" s="12"/>
+      <c r="DM11" s="12"/>
+      <c r="DN11" s="12"/>
+      <c r="DO11" s="12"/>
+      <c r="DP11" s="12"/>
+      <c r="DQ11" s="12"/>
+      <c r="DR11" s="12"/>
+      <c r="DS11" s="12"/>
+      <c r="DT11" s="12"/>
+      <c r="DU11" s="12"/>
+      <c r="DV11" s="12"/>
+      <c r="DW11" s="12"/>
+      <c r="DX11" s="12"/>
+      <c r="DY11" s="12"/>
+      <c r="DZ11" s="12"/>
+      <c r="EA11" s="12"/>
+      <c r="EB11" s="12"/>
+      <c r="EC11" s="12"/>
+      <c r="ED11" s="12"/>
+      <c r="EE11" s="12"/>
+      <c r="EF11" s="12"/>
+      <c r="EG11" s="12"/>
+      <c r="EH11" s="12"/>
+      <c r="EI11" s="12"/>
+      <c r="EJ11" s="12"/>
+      <c r="EK11" s="12"/>
+      <c r="EL11" s="12"/>
+      <c r="EM11" s="12"/>
+      <c r="EN11" s="12"/>
+      <c r="EO11" s="12"/>
+      <c r="EP11" s="12"/>
+      <c r="EQ11" s="12"/>
+      <c r="ER11" s="12"/>
+      <c r="ES11" s="12"/>
+      <c r="ET11" s="12"/>
+      <c r="EU11" s="12"/>
+      <c r="EV11" s="12"/>
+      <c r="EW11" s="12"/>
+      <c r="EX11" s="12"/>
+      <c r="EY11" s="12"/>
+      <c r="EZ11" s="12"/>
+      <c r="FA11" s="12"/>
+      <c r="FB11" s="12"/>
+      <c r="FC11" s="12"/>
+      <c r="FD11" s="12"/>
+      <c r="FE11" s="12"/>
+      <c r="FF11" s="12"/>
+      <c r="FG11" s="12"/>
+      <c r="FH11" s="12"/>
+      <c r="FI11" s="12"/>
+      <c r="FJ11" s="12"/>
+      <c r="FK11" s="12"/>
+      <c r="FL11" s="12"/>
+      <c r="FM11" s="12"/>
+      <c r="FN11" s="12"/>
+      <c r="FO11" s="12"/>
+      <c r="FP11" s="12"/>
+      <c r="FQ11" s="12"/>
+      <c r="FR11" s="12"/>
+      <c r="FS11" s="12"/>
+      <c r="FT11" s="12"/>
+      <c r="FU11" s="12"/>
+      <c r="FV11" s="12"/>
+      <c r="FW11" s="12"/>
+      <c r="FX11" s="12"/>
+      <c r="FY11" s="12"/>
+      <c r="FZ11" s="12"/>
+      <c r="GA11" s="12"/>
+      <c r="GB11" s="12"/>
+      <c r="GC11" s="12"/>
+      <c r="GD11" s="12"/>
+      <c r="GE11" s="12"/>
+      <c r="GF11" s="12"/>
+      <c r="GG11" s="12"/>
+      <c r="GH11" s="12"/>
+      <c r="GI11" s="12"/>
+      <c r="GJ11" s="12"/>
+      <c r="GK11" s="12"/>
+      <c r="GL11" s="12"/>
+      <c r="GM11" s="12"/>
+      <c r="GN11" s="12"/>
+      <c r="GO11" s="12"/>
+      <c r="GP11" s="12"/>
+      <c r="GQ11" s="12"/>
+      <c r="GR11" s="12"/>
+      <c r="GS11" s="12"/>
+      <c r="GT11" s="12"/>
+      <c r="GU11" s="12"/>
+      <c r="GV11" s="12"/>
+      <c r="GW11" s="12"/>
+      <c r="GX11" s="12"/>
+      <c r="GY11" s="12"/>
+      <c r="GZ11" s="12"/>
+      <c r="HA11" s="12"/>
+      <c r="HB11" s="12"/>
+      <c r="HC11" s="12"/>
+      <c r="HD11" s="12"/>
+      <c r="HE11" s="12"/>
+      <c r="HF11" s="12"/>
+      <c r="HG11" s="12"/>
+      <c r="HH11" s="12"/>
+      <c r="HI11" s="12"/>
+      <c r="HJ11" s="12"/>
+      <c r="HK11" s="12"/>
+      <c r="HL11" s="12"/>
+      <c r="HM11" s="12"/>
+      <c r="HN11" s="12"/>
+      <c r="HO11" s="12"/>
+      <c r="HP11" s="12"/>
+      <c r="HQ11" s="12"/>
+      <c r="HR11" s="12"/>
+      <c r="HS11" s="12"/>
+      <c r="HT11" s="12"/>
+      <c r="HU11" s="12"/>
+      <c r="HV11" s="12"/>
+      <c r="HW11" s="12"/>
+      <c r="HX11" s="12"/>
+      <c r="HY11" s="12"/>
+      <c r="HZ11" s="12"/>
+      <c r="IA11" s="12"/>
+      <c r="IB11" s="12"/>
+      <c r="IC11" s="12"/>
+      <c r="ID11" s="12"/>
+      <c r="IE11" s="12"/>
+      <c r="IF11" s="12"/>
+      <c r="IG11" s="12"/>
+      <c r="IH11" s="12"/>
+      <c r="II11" s="12"/>
+      <c r="IJ11" s="12"/>
+      <c r="IK11" s="12"/>
+      <c r="IL11" s="12"/>
+      <c r="IM11" s="12"/>
+      <c r="IN11" s="12"/>
+      <c r="IO11" s="12"/>
+      <c r="IP11" s="12"/>
+      <c r="IQ11" s="12"/>
+      <c r="IR11" s="12"/>
+      <c r="IS11" s="12"/>
+      <c r="IT11" s="12"/>
+      <c r="IU11" s="12"/>
+      <c r="IV11" s="12"/>
+      <c r="IW11" s="12"/>
+      <c r="IX11" s="12"/>
     </row>
-    <row r="12" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="12"/>
-      <c r="AW12" s="12"/>
-      <c r="AX12" s="12"/>
-      <c r="AY12" s="12"/>
-      <c r="AZ12" s="12"/>
-      <c r="BA12" s="12"/>
-      <c r="BB12" s="12"/>
-      <c r="BC12" s="12"/>
-      <c r="BD12" s="12"/>
-      <c r="BE12" s="12"/>
-      <c r="BF12" s="12"/>
-      <c r="BG12" s="12"/>
-      <c r="BH12" s="12"/>
-      <c r="BI12" s="12"/>
-      <c r="BJ12" s="12"/>
-      <c r="BK12" s="12"/>
-      <c r="BL12" s="12"/>
-      <c r="BM12" s="12"/>
-      <c r="BN12" s="12"/>
-      <c r="BO12" s="12"/>
-      <c r="BP12" s="12"/>
-      <c r="BQ12" s="12"/>
-      <c r="BR12" s="12"/>
-      <c r="BS12" s="12"/>
-      <c r="BT12" s="12"/>
-      <c r="BU12" s="12"/>
-      <c r="BV12" s="12"/>
-      <c r="BW12" s="12"/>
-      <c r="BX12" s="12"/>
-      <c r="BY12" s="12"/>
-      <c r="BZ12" s="12"/>
-      <c r="CA12" s="12"/>
-      <c r="CB12" s="12"/>
-      <c r="CC12" s="12"/>
-      <c r="CD12" s="12"/>
-      <c r="CE12" s="12"/>
-      <c r="CF12" s="12"/>
-      <c r="CG12" s="12"/>
-      <c r="CH12" s="12"/>
-      <c r="CI12" s="12"/>
-      <c r="CJ12" s="12"/>
-      <c r="CK12" s="12"/>
-      <c r="CL12" s="12"/>
-      <c r="CM12" s="12"/>
-      <c r="CN12" s="12"/>
-      <c r="CO12" s="12"/>
-      <c r="CP12" s="12"/>
-      <c r="CQ12" s="12"/>
-      <c r="CR12" s="12"/>
-      <c r="CS12" s="12"/>
-      <c r="CT12" s="12"/>
-      <c r="CU12" s="12"/>
-      <c r="CV12" s="12"/>
-      <c r="CW12" s="12"/>
-      <c r="CX12" s="12"/>
-      <c r="CY12" s="12"/>
-      <c r="CZ12" s="12"/>
-      <c r="DA12" s="12"/>
-      <c r="DB12" s="12"/>
-      <c r="DC12" s="12"/>
-      <c r="DD12" s="12"/>
-      <c r="DE12" s="12"/>
-      <c r="DF12" s="12"/>
-      <c r="DG12" s="12"/>
-      <c r="DH12" s="12"/>
-      <c r="DI12" s="12"/>
-      <c r="DJ12" s="12"/>
-      <c r="DK12" s="12"/>
-      <c r="DL12" s="12"/>
-      <c r="DM12" s="12"/>
-      <c r="DN12" s="12"/>
-      <c r="DO12" s="12"/>
-      <c r="DP12" s="12"/>
-      <c r="DQ12" s="12"/>
-      <c r="DR12" s="12"/>
-      <c r="DS12" s="12"/>
-      <c r="DT12" s="12"/>
-      <c r="DU12" s="12"/>
-      <c r="DV12" s="12"/>
-      <c r="DW12" s="12"/>
-      <c r="DX12" s="12"/>
-      <c r="DY12" s="12"/>
-      <c r="DZ12" s="12"/>
-      <c r="EA12" s="12"/>
-      <c r="EB12" s="12"/>
-      <c r="EC12" s="12"/>
-      <c r="ED12" s="12"/>
-      <c r="EE12" s="12"/>
-      <c r="EF12" s="12"/>
-      <c r="EG12" s="12"/>
-      <c r="EH12" s="12"/>
-      <c r="EI12" s="12"/>
-      <c r="EJ12" s="12"/>
-      <c r="EK12" s="12"/>
-      <c r="EL12" s="12"/>
-      <c r="EM12" s="12"/>
-      <c r="EN12" s="12"/>
-      <c r="EO12" s="12"/>
-      <c r="EP12" s="12"/>
-      <c r="EQ12" s="12"/>
-      <c r="ER12" s="12"/>
-      <c r="ES12" s="12"/>
-      <c r="ET12" s="12"/>
-      <c r="EU12" s="12"/>
-      <c r="EV12" s="12"/>
-      <c r="EW12" s="12"/>
-      <c r="EX12" s="12"/>
-      <c r="EY12" s="12"/>
-      <c r="EZ12" s="12"/>
-      <c r="FA12" s="12"/>
-      <c r="FB12" s="12"/>
-      <c r="FC12" s="12"/>
-      <c r="FD12" s="12"/>
-      <c r="FE12" s="12"/>
-      <c r="FF12" s="12"/>
-      <c r="FG12" s="12"/>
-      <c r="FH12" s="12"/>
-      <c r="FI12" s="12"/>
-      <c r="FJ12" s="12"/>
-      <c r="FK12" s="12"/>
-      <c r="FL12" s="12"/>
-      <c r="FM12" s="12"/>
-      <c r="FN12" s="12"/>
-      <c r="FO12" s="12"/>
-      <c r="FP12" s="12"/>
-      <c r="FQ12" s="12"/>
-      <c r="FR12" s="12"/>
-      <c r="FS12" s="12"/>
-      <c r="FT12" s="12"/>
-      <c r="FU12" s="12"/>
-      <c r="FV12" s="12"/>
-      <c r="FW12" s="12"/>
-      <c r="FX12" s="12"/>
-      <c r="FY12" s="12"/>
-      <c r="FZ12" s="12"/>
-      <c r="GA12" s="12"/>
-      <c r="GB12" s="12"/>
-      <c r="GC12" s="12"/>
-      <c r="GD12" s="12"/>
-      <c r="GE12" s="12"/>
-      <c r="GF12" s="12"/>
-      <c r="GG12" s="12"/>
-      <c r="GH12" s="12"/>
-      <c r="GI12" s="12"/>
-      <c r="GJ12" s="12"/>
-      <c r="GK12" s="12"/>
-      <c r="GL12" s="12"/>
-      <c r="GM12" s="12"/>
-      <c r="GN12" s="12"/>
-      <c r="GO12" s="12"/>
-      <c r="GP12" s="12"/>
-      <c r="GQ12" s="12"/>
-      <c r="GR12" s="12"/>
-      <c r="GS12" s="12"/>
-      <c r="GT12" s="12"/>
-      <c r="GU12" s="12"/>
-      <c r="GV12" s="12"/>
-      <c r="GW12" s="12"/>
-      <c r="GX12" s="12"/>
-      <c r="GY12" s="12"/>
-      <c r="GZ12" s="12"/>
-      <c r="HA12" s="12"/>
-      <c r="HB12" s="12"/>
-      <c r="HC12" s="12"/>
-      <c r="HD12" s="12"/>
-      <c r="HE12" s="12"/>
-      <c r="HF12" s="12"/>
-      <c r="HG12" s="12"/>
-      <c r="HH12" s="12"/>
-      <c r="HI12" s="12"/>
-      <c r="HJ12" s="12"/>
-      <c r="HK12" s="12"/>
-      <c r="HL12" s="12"/>
-      <c r="HM12" s="12"/>
-      <c r="HN12" s="12"/>
-      <c r="HO12" s="12"/>
-      <c r="HP12" s="12"/>
-      <c r="HQ12" s="12"/>
-      <c r="HR12" s="12"/>
-      <c r="HS12" s="12"/>
-      <c r="HT12" s="12"/>
-      <c r="HU12" s="12"/>
-      <c r="HV12" s="12"/>
-      <c r="HW12" s="12"/>
-      <c r="HX12" s="12"/>
-      <c r="HY12" s="12"/>
-      <c r="HZ12" s="12"/>
-      <c r="IA12" s="12"/>
-      <c r="IB12" s="12"/>
-      <c r="IC12" s="12"/>
-      <c r="ID12" s="12"/>
-      <c r="IE12" s="12"/>
-      <c r="IF12" s="12"/>
-      <c r="IG12" s="12"/>
-      <c r="IH12" s="12"/>
-      <c r="II12" s="12"/>
-      <c r="IJ12" s="12"/>
-      <c r="IK12" s="12"/>
-      <c r="IL12" s="12"/>
-      <c r="IM12" s="12"/>
-      <c r="IN12" s="12"/>
-      <c r="IO12" s="12"/>
-      <c r="IP12" s="12"/>
-      <c r="IQ12" s="12"/>
-      <c r="IR12" s="12"/>
-      <c r="IS12" s="12"/>
-      <c r="IT12" s="12"/>
-      <c r="IU12" s="12"/>
-      <c r="IV12" s="12"/>
-      <c r="IW12" s="12"/>
-      <c r="IX12" s="12"/>
+    <row r="12" spans="1:258" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="35"/>
+      <c r="AS12" s="35"/>
+      <c r="AT12" s="35"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="35"/>
+      <c r="AX12" s="35"/>
+      <c r="AY12" s="35"/>
+      <c r="AZ12" s="35"/>
+      <c r="BA12" s="35"/>
+      <c r="BB12" s="35"/>
+      <c r="BC12" s="35"/>
+      <c r="BD12" s="35"/>
+      <c r="BE12" s="35"/>
+      <c r="BF12" s="35"/>
+      <c r="BG12" s="35"/>
+      <c r="BH12" s="35"/>
+      <c r="BI12" s="35"/>
+      <c r="BJ12" s="35"/>
+      <c r="BK12" s="35"/>
+      <c r="BL12" s="35"/>
+      <c r="BM12" s="35"/>
+      <c r="BN12" s="35"/>
+      <c r="BO12" s="35"/>
+      <c r="BP12" s="35"/>
+      <c r="BQ12" s="35"/>
+      <c r="BR12" s="35"/>
+      <c r="BS12" s="35"/>
+      <c r="BT12" s="35"/>
+      <c r="BU12" s="35"/>
+      <c r="BV12" s="35"/>
+      <c r="BW12" s="35"/>
+      <c r="BX12" s="35"/>
+      <c r="BY12" s="35"/>
+      <c r="BZ12" s="35"/>
+      <c r="CA12" s="35"/>
+      <c r="CB12" s="35"/>
+      <c r="CC12" s="35"/>
+      <c r="CD12" s="35"/>
+      <c r="CE12" s="35"/>
+      <c r="CF12" s="35"/>
+      <c r="CG12" s="35"/>
+      <c r="CH12" s="35"/>
+      <c r="CI12" s="35"/>
+      <c r="CJ12" s="35"/>
+      <c r="CK12" s="35"/>
+      <c r="CL12" s="35"/>
+      <c r="CM12" s="35"/>
+      <c r="CN12" s="35"/>
+      <c r="CO12" s="35"/>
+      <c r="CP12" s="35"/>
+      <c r="CQ12" s="35"/>
+      <c r="CR12" s="35"/>
+      <c r="CS12" s="35"/>
+      <c r="CT12" s="35"/>
+      <c r="CU12" s="35"/>
+      <c r="CV12" s="35"/>
+      <c r="CW12" s="35"/>
+      <c r="CX12" s="35"/>
+      <c r="CY12" s="35"/>
+      <c r="CZ12" s="35"/>
+      <c r="DA12" s="35"/>
+      <c r="DB12" s="35"/>
+      <c r="DC12" s="35"/>
+      <c r="DD12" s="35"/>
+      <c r="DE12" s="35"/>
+      <c r="DF12" s="35"/>
+      <c r="DG12" s="35"/>
+      <c r="DH12" s="35"/>
+      <c r="DI12" s="35"/>
+      <c r="DJ12" s="35"/>
+      <c r="DK12" s="35"/>
+      <c r="DL12" s="35"/>
+      <c r="DM12" s="35"/>
+      <c r="DN12" s="35"/>
+      <c r="DO12" s="35"/>
+      <c r="DP12" s="35"/>
+      <c r="DQ12" s="35"/>
+      <c r="DR12" s="35"/>
+      <c r="DS12" s="35"/>
+      <c r="DT12" s="35"/>
+      <c r="DU12" s="35"/>
+      <c r="DV12" s="35"/>
+      <c r="DW12" s="35"/>
+      <c r="DX12" s="35"/>
+      <c r="DY12" s="35"/>
+      <c r="DZ12" s="35"/>
+      <c r="EA12" s="35"/>
+      <c r="EB12" s="35"/>
+      <c r="EC12" s="35"/>
+      <c r="ED12" s="35"/>
+      <c r="EE12" s="35"/>
+      <c r="EF12" s="35"/>
+      <c r="EG12" s="35"/>
+      <c r="EH12" s="35"/>
+      <c r="EI12" s="35"/>
+      <c r="EJ12" s="35"/>
+      <c r="EK12" s="35"/>
+      <c r="EL12" s="35"/>
+      <c r="EM12" s="35"/>
+      <c r="EN12" s="35"/>
+      <c r="EO12" s="35"/>
+      <c r="EP12" s="35"/>
+      <c r="EQ12" s="35"/>
+      <c r="ER12" s="35"/>
+      <c r="ES12" s="35"/>
+      <c r="ET12" s="35"/>
+      <c r="EU12" s="35"/>
+      <c r="EV12" s="35"/>
+      <c r="EW12" s="35"/>
+      <c r="EX12" s="35"/>
+      <c r="EY12" s="35"/>
+      <c r="EZ12" s="35"/>
+      <c r="FA12" s="35"/>
+      <c r="FB12" s="35"/>
+      <c r="FC12" s="35"/>
+      <c r="FD12" s="35"/>
+      <c r="FE12" s="35"/>
+      <c r="FF12" s="35"/>
+      <c r="FG12" s="35"/>
+      <c r="FH12" s="35"/>
+      <c r="FI12" s="35"/>
+      <c r="FJ12" s="35"/>
+      <c r="FK12" s="35"/>
+      <c r="FL12" s="35"/>
+      <c r="FM12" s="35"/>
+      <c r="FN12" s="35"/>
+      <c r="FO12" s="35"/>
+      <c r="FP12" s="35"/>
+      <c r="FQ12" s="35"/>
+      <c r="FR12" s="35"/>
+      <c r="FS12" s="35"/>
+      <c r="FT12" s="35"/>
+      <c r="FU12" s="35"/>
+      <c r="FV12" s="35"/>
+      <c r="FW12" s="35"/>
+      <c r="FX12" s="35"/>
+      <c r="FY12" s="35"/>
+      <c r="FZ12" s="35"/>
+      <c r="GA12" s="35"/>
+      <c r="GB12" s="35"/>
+      <c r="GC12" s="35"/>
+      <c r="GD12" s="35"/>
+      <c r="GE12" s="35"/>
+      <c r="GF12" s="35"/>
+      <c r="GG12" s="35"/>
+      <c r="GH12" s="35"/>
+      <c r="GI12" s="35"/>
+      <c r="GJ12" s="35"/>
+      <c r="GK12" s="35"/>
+      <c r="GL12" s="35"/>
+      <c r="GM12" s="35"/>
+      <c r="GN12" s="35"/>
+      <c r="GO12" s="35"/>
+      <c r="GP12" s="35"/>
+      <c r="GQ12" s="35"/>
+      <c r="GR12" s="35"/>
+      <c r="GS12" s="35"/>
+      <c r="GT12" s="35"/>
+      <c r="GU12" s="35"/>
+      <c r="GV12" s="35"/>
+      <c r="GW12" s="35"/>
+      <c r="GX12" s="35"/>
+      <c r="GY12" s="35"/>
+      <c r="GZ12" s="35"/>
+      <c r="HA12" s="35"/>
+      <c r="HB12" s="35"/>
+      <c r="HC12" s="35"/>
+      <c r="HD12" s="35"/>
+      <c r="HE12" s="35"/>
+      <c r="HF12" s="35"/>
+      <c r="HG12" s="35"/>
+      <c r="HH12" s="35"/>
+      <c r="HI12" s="35"/>
+      <c r="HJ12" s="35"/>
+      <c r="HK12" s="35"/>
+      <c r="HL12" s="35"/>
+      <c r="HM12" s="35"/>
+      <c r="HN12" s="35"/>
+      <c r="HO12" s="35"/>
+      <c r="HP12" s="35"/>
+      <c r="HQ12" s="35"/>
+      <c r="HR12" s="35"/>
+      <c r="HS12" s="35"/>
+      <c r="HT12" s="35"/>
+      <c r="HU12" s="35"/>
+      <c r="HV12" s="35"/>
+      <c r="HW12" s="35"/>
+      <c r="HX12" s="35"/>
+      <c r="HY12" s="35"/>
+      <c r="HZ12" s="35"/>
+      <c r="IA12" s="35"/>
+      <c r="IB12" s="35"/>
+      <c r="IC12" s="35"/>
+      <c r="ID12" s="35"/>
+      <c r="IE12" s="35"/>
+      <c r="IF12" s="35"/>
+      <c r="IG12" s="35"/>
+      <c r="IH12" s="35"/>
+      <c r="II12" s="35"/>
+      <c r="IJ12" s="35"/>
+      <c r="IK12" s="35"/>
+      <c r="IL12" s="35"/>
+      <c r="IM12" s="35"/>
+      <c r="IN12" s="35"/>
+      <c r="IO12" s="35"/>
+      <c r="IP12" s="35"/>
+      <c r="IQ12" s="35"/>
+      <c r="IR12" s="35"/>
+      <c r="IS12" s="35"/>
+      <c r="IT12" s="35"/>
+      <c r="IU12" s="35"/>
+      <c r="IV12" s="35"/>
+      <c r="IW12" s="35"/>
+      <c r="IX12" s="35"/>
     </row>
-    <row r="13" spans="1:258" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="35"/>
-      <c r="AQ13" s="35"/>
-      <c r="AR13" s="35"/>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="35"/>
-      <c r="AU13" s="35"/>
-      <c r="AV13" s="35"/>
-      <c r="AW13" s="35"/>
-      <c r="AX13" s="35"/>
-      <c r="AY13" s="35"/>
-      <c r="AZ13" s="35"/>
-      <c r="BA13" s="35"/>
-      <c r="BB13" s="35"/>
-      <c r="BC13" s="35"/>
-      <c r="BD13" s="35"/>
-      <c r="BE13" s="35"/>
-      <c r="BF13" s="35"/>
-      <c r="BG13" s="35"/>
-      <c r="BH13" s="35"/>
-      <c r="BI13" s="35"/>
-      <c r="BJ13" s="35"/>
-      <c r="BK13" s="35"/>
-      <c r="BL13" s="35"/>
-      <c r="BM13" s="35"/>
-      <c r="BN13" s="35"/>
-      <c r="BO13" s="35"/>
-      <c r="BP13" s="35"/>
-      <c r="BQ13" s="35"/>
-      <c r="BR13" s="35"/>
-      <c r="BS13" s="35"/>
-      <c r="BT13" s="35"/>
-      <c r="BU13" s="35"/>
-      <c r="BV13" s="35"/>
-      <c r="BW13" s="35"/>
-      <c r="BX13" s="35"/>
-      <c r="BY13" s="35"/>
-      <c r="BZ13" s="35"/>
-      <c r="CA13" s="35"/>
-      <c r="CB13" s="35"/>
-      <c r="CC13" s="35"/>
-      <c r="CD13" s="35"/>
-      <c r="CE13" s="35"/>
-      <c r="CF13" s="35"/>
-      <c r="CG13" s="35"/>
-      <c r="CH13" s="35"/>
-      <c r="CI13" s="35"/>
-      <c r="CJ13" s="35"/>
-      <c r="CK13" s="35"/>
-      <c r="CL13" s="35"/>
-      <c r="CM13" s="35"/>
-      <c r="CN13" s="35"/>
-      <c r="CO13" s="35"/>
-      <c r="CP13" s="35"/>
-      <c r="CQ13" s="35"/>
-      <c r="CR13" s="35"/>
-      <c r="CS13" s="35"/>
-      <c r="CT13" s="35"/>
-      <c r="CU13" s="35"/>
-      <c r="CV13" s="35"/>
-      <c r="CW13" s="35"/>
-      <c r="CX13" s="35"/>
-      <c r="CY13" s="35"/>
-      <c r="CZ13" s="35"/>
-      <c r="DA13" s="35"/>
-      <c r="DB13" s="35"/>
-      <c r="DC13" s="35"/>
-      <c r="DD13" s="35"/>
-      <c r="DE13" s="35"/>
-      <c r="DF13" s="35"/>
-      <c r="DG13" s="35"/>
-      <c r="DH13" s="35"/>
-      <c r="DI13" s="35"/>
-      <c r="DJ13" s="35"/>
-      <c r="DK13" s="35"/>
-      <c r="DL13" s="35"/>
-      <c r="DM13" s="35"/>
-      <c r="DN13" s="35"/>
-      <c r="DO13" s="35"/>
-      <c r="DP13" s="35"/>
-      <c r="DQ13" s="35"/>
-      <c r="DR13" s="35"/>
-      <c r="DS13" s="35"/>
-      <c r="DT13" s="35"/>
-      <c r="DU13" s="35"/>
-      <c r="DV13" s="35"/>
-      <c r="DW13" s="35"/>
-      <c r="DX13" s="35"/>
-      <c r="DY13" s="35"/>
-      <c r="DZ13" s="35"/>
-      <c r="EA13" s="35"/>
-      <c r="EB13" s="35"/>
-      <c r="EC13" s="35"/>
-      <c r="ED13" s="35"/>
-      <c r="EE13" s="35"/>
-      <c r="EF13" s="35"/>
-      <c r="EG13" s="35"/>
-      <c r="EH13" s="35"/>
-      <c r="EI13" s="35"/>
-      <c r="EJ13" s="35"/>
-      <c r="EK13" s="35"/>
-      <c r="EL13" s="35"/>
-      <c r="EM13" s="35"/>
-      <c r="EN13" s="35"/>
-      <c r="EO13" s="35"/>
-      <c r="EP13" s="35"/>
-      <c r="EQ13" s="35"/>
-      <c r="ER13" s="35"/>
-      <c r="ES13" s="35"/>
-      <c r="ET13" s="35"/>
-      <c r="EU13" s="35"/>
-      <c r="EV13" s="35"/>
-      <c r="EW13" s="35"/>
-      <c r="EX13" s="35"/>
-      <c r="EY13" s="35"/>
-      <c r="EZ13" s="35"/>
-      <c r="FA13" s="35"/>
-      <c r="FB13" s="35"/>
-      <c r="FC13" s="35"/>
-      <c r="FD13" s="35"/>
-      <c r="FE13" s="35"/>
-      <c r="FF13" s="35"/>
-      <c r="FG13" s="35"/>
-      <c r="FH13" s="35"/>
-      <c r="FI13" s="35"/>
-      <c r="FJ13" s="35"/>
-      <c r="FK13" s="35"/>
-      <c r="FL13" s="35"/>
-      <c r="FM13" s="35"/>
-      <c r="FN13" s="35"/>
-      <c r="FO13" s="35"/>
-      <c r="FP13" s="35"/>
-      <c r="FQ13" s="35"/>
-      <c r="FR13" s="35"/>
-      <c r="FS13" s="35"/>
-      <c r="FT13" s="35"/>
-      <c r="FU13" s="35"/>
-      <c r="FV13" s="35"/>
-      <c r="FW13" s="35"/>
-      <c r="FX13" s="35"/>
-      <c r="FY13" s="35"/>
-      <c r="FZ13" s="35"/>
-      <c r="GA13" s="35"/>
-      <c r="GB13" s="35"/>
-      <c r="GC13" s="35"/>
-      <c r="GD13" s="35"/>
-      <c r="GE13" s="35"/>
-      <c r="GF13" s="35"/>
-      <c r="GG13" s="35"/>
-      <c r="GH13" s="35"/>
-      <c r="GI13" s="35"/>
-      <c r="GJ13" s="35"/>
-      <c r="GK13" s="35"/>
-      <c r="GL13" s="35"/>
-      <c r="GM13" s="35"/>
-      <c r="GN13" s="35"/>
-      <c r="GO13" s="35"/>
-      <c r="GP13" s="35"/>
-      <c r="GQ13" s="35"/>
-      <c r="GR13" s="35"/>
-      <c r="GS13" s="35"/>
-      <c r="GT13" s="35"/>
-      <c r="GU13" s="35"/>
-      <c r="GV13" s="35"/>
-      <c r="GW13" s="35"/>
-      <c r="GX13" s="35"/>
-      <c r="GY13" s="35"/>
-      <c r="GZ13" s="35"/>
-      <c r="HA13" s="35"/>
-      <c r="HB13" s="35"/>
-      <c r="HC13" s="35"/>
-      <c r="HD13" s="35"/>
-      <c r="HE13" s="35"/>
-      <c r="HF13" s="35"/>
-      <c r="HG13" s="35"/>
-      <c r="HH13" s="35"/>
-      <c r="HI13" s="35"/>
-      <c r="HJ13" s="35"/>
-      <c r="HK13" s="35"/>
-      <c r="HL13" s="35"/>
-      <c r="HM13" s="35"/>
-      <c r="HN13" s="35"/>
-      <c r="HO13" s="35"/>
-      <c r="HP13" s="35"/>
-      <c r="HQ13" s="35"/>
-      <c r="HR13" s="35"/>
-      <c r="HS13" s="35"/>
-      <c r="HT13" s="35"/>
-      <c r="HU13" s="35"/>
-      <c r="HV13" s="35"/>
-      <c r="HW13" s="35"/>
-      <c r="HX13" s="35"/>
-      <c r="HY13" s="35"/>
-      <c r="HZ13" s="35"/>
-      <c r="IA13" s="35"/>
-      <c r="IB13" s="35"/>
-      <c r="IC13" s="35"/>
-      <c r="ID13" s="35"/>
-      <c r="IE13" s="35"/>
-      <c r="IF13" s="35"/>
-      <c r="IG13" s="35"/>
-      <c r="IH13" s="35"/>
-      <c r="II13" s="35"/>
-      <c r="IJ13" s="35"/>
-      <c r="IK13" s="35"/>
-      <c r="IL13" s="35"/>
-      <c r="IM13" s="35"/>
-      <c r="IN13" s="35"/>
-      <c r="IO13" s="35"/>
-      <c r="IP13" s="35"/>
-      <c r="IQ13" s="35"/>
-      <c r="IR13" s="35"/>
-      <c r="IS13" s="35"/>
-      <c r="IT13" s="35"/>
-      <c r="IU13" s="35"/>
-      <c r="IV13" s="35"/>
-      <c r="IW13" s="35"/>
-      <c r="IX13" s="35"/>
+    <row r="13" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+      <c r="BG13" s="12"/>
+      <c r="BH13" s="12"/>
+      <c r="BI13" s="12"/>
+      <c r="BJ13" s="12"/>
+      <c r="BK13" s="12"/>
+      <c r="BL13" s="12"/>
+      <c r="BM13" s="12"/>
+      <c r="BN13" s="12"/>
+      <c r="BO13" s="12"/>
+      <c r="BP13" s="12"/>
+      <c r="BQ13" s="12"/>
+      <c r="BR13" s="12"/>
+      <c r="BS13" s="12"/>
+      <c r="BT13" s="12"/>
+      <c r="BU13" s="12"/>
+      <c r="BV13" s="12"/>
+      <c r="BW13" s="12"/>
+      <c r="BX13" s="12"/>
+      <c r="BY13" s="12"/>
+      <c r="BZ13" s="12"/>
+      <c r="CA13" s="12"/>
+      <c r="CB13" s="12"/>
+      <c r="CC13" s="12"/>
+      <c r="CD13" s="12"/>
+      <c r="CE13" s="12"/>
+      <c r="CF13" s="12"/>
+      <c r="CG13" s="12"/>
+      <c r="CH13" s="12"/>
+      <c r="CI13" s="12"/>
+      <c r="CJ13" s="12"/>
+      <c r="CK13" s="12"/>
+      <c r="CL13" s="12"/>
+      <c r="CM13" s="12"/>
+      <c r="CN13" s="12"/>
+      <c r="CO13" s="12"/>
+      <c r="CP13" s="12"/>
+      <c r="CQ13" s="12"/>
+      <c r="CR13" s="12"/>
+      <c r="CS13" s="12"/>
+      <c r="CT13" s="12"/>
+      <c r="CU13" s="12"/>
+      <c r="CV13" s="12"/>
+      <c r="CW13" s="12"/>
+      <c r="CX13" s="12"/>
+      <c r="CY13" s="12"/>
+      <c r="CZ13" s="12"/>
+      <c r="DA13" s="12"/>
+      <c r="DB13" s="12"/>
+      <c r="DC13" s="12"/>
+      <c r="DD13" s="12"/>
+      <c r="DE13" s="12"/>
+      <c r="DF13" s="12"/>
+      <c r="DG13" s="12"/>
+      <c r="DH13" s="12"/>
+      <c r="DI13" s="12"/>
+      <c r="DJ13" s="12"/>
+      <c r="DK13" s="12"/>
+      <c r="DL13" s="12"/>
+      <c r="DM13" s="12"/>
+      <c r="DN13" s="12"/>
+      <c r="DO13" s="12"/>
+      <c r="DP13" s="12"/>
+      <c r="DQ13" s="12"/>
+      <c r="DR13" s="12"/>
+      <c r="DS13" s="12"/>
+      <c r="DT13" s="12"/>
+      <c r="DU13" s="12"/>
+      <c r="DV13" s="12"/>
+      <c r="DW13" s="12"/>
+      <c r="DX13" s="12"/>
+      <c r="DY13" s="12"/>
+      <c r="DZ13" s="12"/>
+      <c r="EA13" s="12"/>
+      <c r="EB13" s="12"/>
+      <c r="EC13" s="12"/>
+      <c r="ED13" s="12"/>
+      <c r="EE13" s="12"/>
+      <c r="EF13" s="12"/>
+      <c r="EG13" s="12"/>
+      <c r="EH13" s="12"/>
+      <c r="EI13" s="12"/>
+      <c r="EJ13" s="12"/>
+      <c r="EK13" s="12"/>
+      <c r="EL13" s="12"/>
+      <c r="EM13" s="12"/>
+      <c r="EN13" s="12"/>
+      <c r="EO13" s="12"/>
+      <c r="EP13" s="12"/>
+      <c r="EQ13" s="12"/>
+      <c r="ER13" s="12"/>
+      <c r="ES13" s="12"/>
+      <c r="ET13" s="12"/>
+      <c r="EU13" s="12"/>
+      <c r="EV13" s="12"/>
+      <c r="EW13" s="12"/>
+      <c r="EX13" s="12"/>
+      <c r="EY13" s="12"/>
+      <c r="EZ13" s="12"/>
+      <c r="FA13" s="12"/>
+      <c r="FB13" s="12"/>
+      <c r="FC13" s="12"/>
+      <c r="FD13" s="12"/>
+      <c r="FE13" s="12"/>
+      <c r="FF13" s="12"/>
+      <c r="FG13" s="12"/>
+      <c r="FH13" s="12"/>
+      <c r="FI13" s="12"/>
+      <c r="FJ13" s="12"/>
+      <c r="FK13" s="12"/>
+      <c r="FL13" s="12"/>
+      <c r="FM13" s="12"/>
+      <c r="FN13" s="12"/>
+      <c r="FO13" s="12"/>
+      <c r="FP13" s="12"/>
+      <c r="FQ13" s="12"/>
+      <c r="FR13" s="12"/>
+      <c r="FS13" s="12"/>
+      <c r="FT13" s="12"/>
+      <c r="FU13" s="12"/>
+      <c r="FV13" s="12"/>
+      <c r="FW13" s="12"/>
+      <c r="FX13" s="12"/>
+      <c r="FY13" s="12"/>
+      <c r="FZ13" s="12"/>
+      <c r="GA13" s="12"/>
+      <c r="GB13" s="12"/>
+      <c r="GC13" s="12"/>
+      <c r="GD13" s="12"/>
+      <c r="GE13" s="12"/>
+      <c r="GF13" s="12"/>
+      <c r="GG13" s="12"/>
+      <c r="GH13" s="12"/>
+      <c r="GI13" s="12"/>
+      <c r="GJ13" s="12"/>
+      <c r="GK13" s="12"/>
+      <c r="GL13" s="12"/>
+      <c r="GM13" s="12"/>
+      <c r="GN13" s="12"/>
+      <c r="GO13" s="12"/>
+      <c r="GP13" s="12"/>
+      <c r="GQ13" s="12"/>
+      <c r="GR13" s="12"/>
+      <c r="GS13" s="12"/>
+      <c r="GT13" s="12"/>
+      <c r="GU13" s="12"/>
+      <c r="GV13" s="12"/>
+      <c r="GW13" s="12"/>
+      <c r="GX13" s="12"/>
+      <c r="GY13" s="12"/>
+      <c r="GZ13" s="12"/>
+      <c r="HA13" s="12"/>
+      <c r="HB13" s="12"/>
+      <c r="HC13" s="12"/>
+      <c r="HD13" s="12"/>
+      <c r="HE13" s="12"/>
+      <c r="HF13" s="12"/>
+      <c r="HG13" s="12"/>
+      <c r="HH13" s="12"/>
+      <c r="HI13" s="12"/>
+      <c r="HJ13" s="12"/>
+      <c r="HK13" s="12"/>
+      <c r="HL13" s="12"/>
+      <c r="HM13" s="12"/>
+      <c r="HN13" s="12"/>
+      <c r="HO13" s="12"/>
+      <c r="HP13" s="12"/>
+      <c r="HQ13" s="12"/>
+      <c r="HR13" s="12"/>
+      <c r="HS13" s="12"/>
+      <c r="HT13" s="12"/>
+      <c r="HU13" s="12"/>
+      <c r="HV13" s="12"/>
+      <c r="HW13" s="12"/>
+      <c r="HX13" s="12"/>
+      <c r="HY13" s="12"/>
+      <c r="HZ13" s="12"/>
+      <c r="IA13" s="12"/>
+      <c r="IB13" s="12"/>
+      <c r="IC13" s="12"/>
+      <c r="ID13" s="12"/>
+      <c r="IE13" s="12"/>
+      <c r="IF13" s="12"/>
+      <c r="IG13" s="12"/>
+      <c r="IH13" s="12"/>
+      <c r="II13" s="12"/>
+      <c r="IJ13" s="12"/>
+      <c r="IK13" s="12"/>
+      <c r="IL13" s="12"/>
+      <c r="IM13" s="12"/>
+      <c r="IN13" s="12"/>
+      <c r="IO13" s="12"/>
+      <c r="IP13" s="12"/>
+      <c r="IQ13" s="12"/>
+      <c r="IR13" s="12"/>
+      <c r="IS13" s="12"/>
+      <c r="IT13" s="12"/>
+      <c r="IU13" s="12"/>
+      <c r="IV13" s="12"/>
+      <c r="IW13" s="12"/>
+      <c r="IX13" s="12"/>
     </row>
-    <row r="14" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
-      <c r="AV14" s="12"/>
-      <c r="AW14" s="12"/>
-      <c r="AX14" s="12"/>
-      <c r="AY14" s="12"/>
-      <c r="AZ14" s="12"/>
-      <c r="BA14" s="12"/>
-      <c r="BB14" s="12"/>
-      <c r="BC14" s="12"/>
-      <c r="BD14" s="12"/>
-      <c r="BE14" s="12"/>
-      <c r="BF14" s="12"/>
-      <c r="BG14" s="12"/>
-      <c r="BH14" s="12"/>
-      <c r="BI14" s="12"/>
-      <c r="BJ14" s="12"/>
-      <c r="BK14" s="12"/>
-      <c r="BL14" s="12"/>
-      <c r="BM14" s="12"/>
-      <c r="BN14" s="12"/>
-      <c r="BO14" s="12"/>
-      <c r="BP14" s="12"/>
-      <c r="BQ14" s="12"/>
-      <c r="BR14" s="12"/>
-      <c r="BS14" s="12"/>
-      <c r="BT14" s="12"/>
-      <c r="BU14" s="12"/>
-      <c r="BV14" s="12"/>
-      <c r="BW14" s="12"/>
-      <c r="BX14" s="12"/>
-      <c r="BY14" s="12"/>
-      <c r="BZ14" s="12"/>
-      <c r="CA14" s="12"/>
-      <c r="CB14" s="12"/>
-      <c r="CC14" s="12"/>
-      <c r="CD14" s="12"/>
-      <c r="CE14" s="12"/>
-      <c r="CF14" s="12"/>
-      <c r="CG14" s="12"/>
-      <c r="CH14" s="12"/>
-      <c r="CI14" s="12"/>
-      <c r="CJ14" s="12"/>
-      <c r="CK14" s="12"/>
-      <c r="CL14" s="12"/>
-      <c r="CM14" s="12"/>
-      <c r="CN14" s="12"/>
-      <c r="CO14" s="12"/>
-      <c r="CP14" s="12"/>
-      <c r="CQ14" s="12"/>
-      <c r="CR14" s="12"/>
-      <c r="CS14" s="12"/>
-      <c r="CT14" s="12"/>
-      <c r="CU14" s="12"/>
-      <c r="CV14" s="12"/>
-      <c r="CW14" s="12"/>
-      <c r="CX14" s="12"/>
-      <c r="CY14" s="12"/>
-      <c r="CZ14" s="12"/>
-      <c r="DA14" s="12"/>
-      <c r="DB14" s="12"/>
-      <c r="DC14" s="12"/>
-      <c r="DD14" s="12"/>
-      <c r="DE14" s="12"/>
-      <c r="DF14" s="12"/>
-      <c r="DG14" s="12"/>
-      <c r="DH14" s="12"/>
-      <c r="DI14" s="12"/>
-      <c r="DJ14" s="12"/>
-      <c r="DK14" s="12"/>
-      <c r="DL14" s="12"/>
-      <c r="DM14" s="12"/>
-      <c r="DN14" s="12"/>
-      <c r="DO14" s="12"/>
-      <c r="DP14" s="12"/>
-      <c r="DQ14" s="12"/>
-      <c r="DR14" s="12"/>
-      <c r="DS14" s="12"/>
-      <c r="DT14" s="12"/>
-      <c r="DU14" s="12"/>
-      <c r="DV14" s="12"/>
-      <c r="DW14" s="12"/>
-      <c r="DX14" s="12"/>
-      <c r="DY14" s="12"/>
-      <c r="DZ14" s="12"/>
-      <c r="EA14" s="12"/>
-      <c r="EB14" s="12"/>
-      <c r="EC14" s="12"/>
-      <c r="ED14" s="12"/>
-      <c r="EE14" s="12"/>
-      <c r="EF14" s="12"/>
-      <c r="EG14" s="12"/>
-      <c r="EH14" s="12"/>
-      <c r="EI14" s="12"/>
-      <c r="EJ14" s="12"/>
-      <c r="EK14" s="12"/>
-      <c r="EL14" s="12"/>
-      <c r="EM14" s="12"/>
-      <c r="EN14" s="12"/>
-      <c r="EO14" s="12"/>
-      <c r="EP14" s="12"/>
-      <c r="EQ14" s="12"/>
-      <c r="ER14" s="12"/>
-      <c r="ES14" s="12"/>
-      <c r="ET14" s="12"/>
-      <c r="EU14" s="12"/>
-      <c r="EV14" s="12"/>
-      <c r="EW14" s="12"/>
-      <c r="EX14" s="12"/>
-      <c r="EY14" s="12"/>
-      <c r="EZ14" s="12"/>
-      <c r="FA14" s="12"/>
-      <c r="FB14" s="12"/>
-      <c r="FC14" s="12"/>
-      <c r="FD14" s="12"/>
-      <c r="FE14" s="12"/>
-      <c r="FF14" s="12"/>
-      <c r="FG14" s="12"/>
-      <c r="FH14" s="12"/>
-      <c r="FI14" s="12"/>
-      <c r="FJ14" s="12"/>
-      <c r="FK14" s="12"/>
-      <c r="FL14" s="12"/>
-      <c r="FM14" s="12"/>
-      <c r="FN14" s="12"/>
-      <c r="FO14" s="12"/>
-      <c r="FP14" s="12"/>
-      <c r="FQ14" s="12"/>
-      <c r="FR14" s="12"/>
-      <c r="FS14" s="12"/>
-      <c r="FT14" s="12"/>
-      <c r="FU14" s="12"/>
-      <c r="FV14" s="12"/>
-      <c r="FW14" s="12"/>
-      <c r="FX14" s="12"/>
-      <c r="FY14" s="12"/>
-      <c r="FZ14" s="12"/>
-      <c r="GA14" s="12"/>
-      <c r="GB14" s="12"/>
-      <c r="GC14" s="12"/>
-      <c r="GD14" s="12"/>
-      <c r="GE14" s="12"/>
-      <c r="GF14" s="12"/>
-      <c r="GG14" s="12"/>
-      <c r="GH14" s="12"/>
-      <c r="GI14" s="12"/>
-      <c r="GJ14" s="12"/>
-      <c r="GK14" s="12"/>
-      <c r="GL14" s="12"/>
-      <c r="GM14" s="12"/>
-      <c r="GN14" s="12"/>
-      <c r="GO14" s="12"/>
-      <c r="GP14" s="12"/>
-      <c r="GQ14" s="12"/>
-      <c r="GR14" s="12"/>
-      <c r="GS14" s="12"/>
-      <c r="GT14" s="12"/>
-      <c r="GU14" s="12"/>
-      <c r="GV14" s="12"/>
-      <c r="GW14" s="12"/>
-      <c r="GX14" s="12"/>
-      <c r="GY14" s="12"/>
-      <c r="GZ14" s="12"/>
-      <c r="HA14" s="12"/>
-      <c r="HB14" s="12"/>
-      <c r="HC14" s="12"/>
-      <c r="HD14" s="12"/>
-      <c r="HE14" s="12"/>
-      <c r="HF14" s="12"/>
-      <c r="HG14" s="12"/>
-      <c r="HH14" s="12"/>
-      <c r="HI14" s="12"/>
-      <c r="HJ14" s="12"/>
-      <c r="HK14" s="12"/>
-      <c r="HL14" s="12"/>
-      <c r="HM14" s="12"/>
-      <c r="HN14" s="12"/>
-      <c r="HO14" s="12"/>
-      <c r="HP14" s="12"/>
-      <c r="HQ14" s="12"/>
-      <c r="HR14" s="12"/>
-      <c r="HS14" s="12"/>
-      <c r="HT14" s="12"/>
-      <c r="HU14" s="12"/>
-      <c r="HV14" s="12"/>
-      <c r="HW14" s="12"/>
-      <c r="HX14" s="12"/>
-      <c r="HY14" s="12"/>
-      <c r="HZ14" s="12"/>
-      <c r="IA14" s="12"/>
-      <c r="IB14" s="12"/>
-      <c r="IC14" s="12"/>
-      <c r="ID14" s="12"/>
-      <c r="IE14" s="12"/>
-      <c r="IF14" s="12"/>
-      <c r="IG14" s="12"/>
-      <c r="IH14" s="12"/>
-      <c r="II14" s="12"/>
-      <c r="IJ14" s="12"/>
-      <c r="IK14" s="12"/>
-      <c r="IL14" s="12"/>
-      <c r="IM14" s="12"/>
-      <c r="IN14" s="12"/>
-      <c r="IO14" s="12"/>
-      <c r="IP14" s="12"/>
-      <c r="IQ14" s="12"/>
-      <c r="IR14" s="12"/>
-      <c r="IS14" s="12"/>
-      <c r="IT14" s="12"/>
-      <c r="IU14" s="12"/>
-      <c r="IV14" s="12"/>
-      <c r="IW14" s="12"/>
-      <c r="IX14" s="12"/>
+    <row r="14" spans="1:258" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="35"/>
+      <c r="AS14" s="35"/>
+      <c r="AT14" s="35"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="35"/>
+      <c r="AY14" s="35"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="35"/>
+      <c r="BB14" s="35"/>
+      <c r="BC14" s="35"/>
+      <c r="BD14" s="35"/>
+      <c r="BE14" s="35"/>
+      <c r="BF14" s="35"/>
+      <c r="BG14" s="35"/>
+      <c r="BH14" s="35"/>
+      <c r="BI14" s="35"/>
+      <c r="BJ14" s="35"/>
+      <c r="BK14" s="35"/>
+      <c r="BL14" s="35"/>
+      <c r="BM14" s="35"/>
+      <c r="BN14" s="35"/>
+      <c r="BO14" s="35"/>
+      <c r="BP14" s="35"/>
+      <c r="BQ14" s="35"/>
+      <c r="BR14" s="35"/>
+      <c r="BS14" s="35"/>
+      <c r="BT14" s="35"/>
+      <c r="BU14" s="35"/>
+      <c r="BV14" s="35"/>
+      <c r="BW14" s="35"/>
+      <c r="BX14" s="35"/>
+      <c r="BY14" s="35"/>
+      <c r="BZ14" s="35"/>
+      <c r="CA14" s="35"/>
+      <c r="CB14" s="35"/>
+      <c r="CC14" s="35"/>
+      <c r="CD14" s="35"/>
+      <c r="CE14" s="35"/>
+      <c r="CF14" s="35"/>
+      <c r="CG14" s="35"/>
+      <c r="CH14" s="35"/>
+      <c r="CI14" s="35"/>
+      <c r="CJ14" s="35"/>
+      <c r="CK14" s="35"/>
+      <c r="CL14" s="35"/>
+      <c r="CM14" s="35"/>
+      <c r="CN14" s="35"/>
+      <c r="CO14" s="35"/>
+      <c r="CP14" s="35"/>
+      <c r="CQ14" s="35"/>
+      <c r="CR14" s="35"/>
+      <c r="CS14" s="35"/>
+      <c r="CT14" s="35"/>
+      <c r="CU14" s="35"/>
+      <c r="CV14" s="35"/>
+      <c r="CW14" s="35"/>
+      <c r="CX14" s="35"/>
+      <c r="CY14" s="35"/>
+      <c r="CZ14" s="35"/>
+      <c r="DA14" s="35"/>
+      <c r="DB14" s="35"/>
+      <c r="DC14" s="35"/>
+      <c r="DD14" s="35"/>
+      <c r="DE14" s="35"/>
+      <c r="DF14" s="35"/>
+      <c r="DG14" s="35"/>
+      <c r="DH14" s="35"/>
+      <c r="DI14" s="35"/>
+      <c r="DJ14" s="35"/>
+      <c r="DK14" s="35"/>
+      <c r="DL14" s="35"/>
+      <c r="DM14" s="35"/>
+      <c r="DN14" s="35"/>
+      <c r="DO14" s="35"/>
+      <c r="DP14" s="35"/>
+      <c r="DQ14" s="35"/>
+      <c r="DR14" s="35"/>
+      <c r="DS14" s="35"/>
+      <c r="DT14" s="35"/>
+      <c r="DU14" s="35"/>
+      <c r="DV14" s="35"/>
+      <c r="DW14" s="35"/>
+      <c r="DX14" s="35"/>
+      <c r="DY14" s="35"/>
+      <c r="DZ14" s="35"/>
+      <c r="EA14" s="35"/>
+      <c r="EB14" s="35"/>
+      <c r="EC14" s="35"/>
+      <c r="ED14" s="35"/>
+      <c r="EE14" s="35"/>
+      <c r="EF14" s="35"/>
+      <c r="EG14" s="35"/>
+      <c r="EH14" s="35"/>
+      <c r="EI14" s="35"/>
+      <c r="EJ14" s="35"/>
+      <c r="EK14" s="35"/>
+      <c r="EL14" s="35"/>
+      <c r="EM14" s="35"/>
+      <c r="EN14" s="35"/>
+      <c r="EO14" s="35"/>
+      <c r="EP14" s="35"/>
+      <c r="EQ14" s="35"/>
+      <c r="ER14" s="35"/>
+      <c r="ES14" s="35"/>
+      <c r="ET14" s="35"/>
+      <c r="EU14" s="35"/>
+      <c r="EV14" s="35"/>
+      <c r="EW14" s="35"/>
+      <c r="EX14" s="35"/>
+      <c r="EY14" s="35"/>
+      <c r="EZ14" s="35"/>
+      <c r="FA14" s="35"/>
+      <c r="FB14" s="35"/>
+      <c r="FC14" s="35"/>
+      <c r="FD14" s="35"/>
+      <c r="FE14" s="35"/>
+      <c r="FF14" s="35"/>
+      <c r="FG14" s="35"/>
+      <c r="FH14" s="35"/>
+      <c r="FI14" s="35"/>
+      <c r="FJ14" s="35"/>
+      <c r="FK14" s="35"/>
+      <c r="FL14" s="35"/>
+      <c r="FM14" s="35"/>
+      <c r="FN14" s="35"/>
+      <c r="FO14" s="35"/>
+      <c r="FP14" s="35"/>
+      <c r="FQ14" s="35"/>
+      <c r="FR14" s="35"/>
+      <c r="FS14" s="35"/>
+      <c r="FT14" s="35"/>
+      <c r="FU14" s="35"/>
+      <c r="FV14" s="35"/>
+      <c r="FW14" s="35"/>
+      <c r="FX14" s="35"/>
+      <c r="FY14" s="35"/>
+      <c r="FZ14" s="35"/>
+      <c r="GA14" s="35"/>
+      <c r="GB14" s="35"/>
+      <c r="GC14" s="35"/>
+      <c r="GD14" s="35"/>
+      <c r="GE14" s="35"/>
+      <c r="GF14" s="35"/>
+      <c r="GG14" s="35"/>
+      <c r="GH14" s="35"/>
+      <c r="GI14" s="35"/>
+      <c r="GJ14" s="35"/>
+      <c r="GK14" s="35"/>
+      <c r="GL14" s="35"/>
+      <c r="GM14" s="35"/>
+      <c r="GN14" s="35"/>
+      <c r="GO14" s="35"/>
+      <c r="GP14" s="35"/>
+      <c r="GQ14" s="35"/>
+      <c r="GR14" s="35"/>
+      <c r="GS14" s="35"/>
+      <c r="GT14" s="35"/>
+      <c r="GU14" s="35"/>
+      <c r="GV14" s="35"/>
+      <c r="GW14" s="35"/>
+      <c r="GX14" s="35"/>
+      <c r="GY14" s="35"/>
+      <c r="GZ14" s="35"/>
+      <c r="HA14" s="35"/>
+      <c r="HB14" s="35"/>
+      <c r="HC14" s="35"/>
+      <c r="HD14" s="35"/>
+      <c r="HE14" s="35"/>
+      <c r="HF14" s="35"/>
+      <c r="HG14" s="35"/>
+      <c r="HH14" s="35"/>
+      <c r="HI14" s="35"/>
+      <c r="HJ14" s="35"/>
+      <c r="HK14" s="35"/>
+      <c r="HL14" s="35"/>
+      <c r="HM14" s="35"/>
+      <c r="HN14" s="35"/>
+      <c r="HO14" s="35"/>
+      <c r="HP14" s="35"/>
+      <c r="HQ14" s="35"/>
+      <c r="HR14" s="35"/>
+      <c r="HS14" s="35"/>
+      <c r="HT14" s="35"/>
+      <c r="HU14" s="35"/>
+      <c r="HV14" s="35"/>
+      <c r="HW14" s="35"/>
+      <c r="HX14" s="35"/>
+      <c r="HY14" s="35"/>
+      <c r="HZ14" s="35"/>
+      <c r="IA14" s="35"/>
+      <c r="IB14" s="35"/>
+      <c r="IC14" s="35"/>
+      <c r="ID14" s="35"/>
+      <c r="IE14" s="35"/>
+      <c r="IF14" s="35"/>
+      <c r="IG14" s="35"/>
+      <c r="IH14" s="35"/>
+      <c r="II14" s="35"/>
+      <c r="IJ14" s="35"/>
+      <c r="IK14" s="35"/>
+      <c r="IL14" s="35"/>
+      <c r="IM14" s="35"/>
+      <c r="IN14" s="35"/>
+      <c r="IO14" s="35"/>
+      <c r="IP14" s="35"/>
+      <c r="IQ14" s="35"/>
+      <c r="IR14" s="35"/>
+      <c r="IS14" s="35"/>
+      <c r="IT14" s="35"/>
+      <c r="IU14" s="35"/>
+      <c r="IV14" s="35"/>
+      <c r="IW14" s="35"/>
+      <c r="IX14" s="35"/>
     </row>
     <row r="15" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="9"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -5376,17 +5400,17 @@
       <c r="IX15" s="12"/>
     </row>
     <row r="16" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="28"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
@@ -5636,17 +5660,17 @@
       <c r="IX16" s="12"/>
     </row>
     <row r="17" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -5895,538 +5919,538 @@
       <c r="IW17" s="12"/>
       <c r="IX17" s="12"/>
     </row>
-    <row r="18" spans="1:258" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
-      <c r="AR18" s="35"/>
-      <c r="AS18" s="35"/>
-      <c r="AT18" s="35"/>
-      <c r="AU18" s="35"/>
-      <c r="AV18" s="35"/>
-      <c r="AW18" s="35"/>
-      <c r="AX18" s="35"/>
-      <c r="AY18" s="35"/>
-      <c r="AZ18" s="35"/>
-      <c r="BA18" s="35"/>
-      <c r="BB18" s="35"/>
-      <c r="BC18" s="35"/>
-      <c r="BD18" s="35"/>
-      <c r="BE18" s="35"/>
-      <c r="BF18" s="35"/>
-      <c r="BG18" s="35"/>
-      <c r="BH18" s="35"/>
-      <c r="BI18" s="35"/>
-      <c r="BJ18" s="35"/>
-      <c r="BK18" s="35"/>
-      <c r="BL18" s="35"/>
-      <c r="BM18" s="35"/>
-      <c r="BN18" s="35"/>
-      <c r="BO18" s="35"/>
-      <c r="BP18" s="35"/>
-      <c r="BQ18" s="35"/>
-      <c r="BR18" s="35"/>
-      <c r="BS18" s="35"/>
-      <c r="BT18" s="35"/>
-      <c r="BU18" s="35"/>
-      <c r="BV18" s="35"/>
-      <c r="BW18" s="35"/>
-      <c r="BX18" s="35"/>
-      <c r="BY18" s="35"/>
-      <c r="BZ18" s="35"/>
-      <c r="CA18" s="35"/>
-      <c r="CB18" s="35"/>
-      <c r="CC18" s="35"/>
-      <c r="CD18" s="35"/>
-      <c r="CE18" s="35"/>
-      <c r="CF18" s="35"/>
-      <c r="CG18" s="35"/>
-      <c r="CH18" s="35"/>
-      <c r="CI18" s="35"/>
-      <c r="CJ18" s="35"/>
-      <c r="CK18" s="35"/>
-      <c r="CL18" s="35"/>
-      <c r="CM18" s="35"/>
-      <c r="CN18" s="35"/>
-      <c r="CO18" s="35"/>
-      <c r="CP18" s="35"/>
-      <c r="CQ18" s="35"/>
-      <c r="CR18" s="35"/>
-      <c r="CS18" s="35"/>
-      <c r="CT18" s="35"/>
-      <c r="CU18" s="35"/>
-      <c r="CV18" s="35"/>
-      <c r="CW18" s="35"/>
-      <c r="CX18" s="35"/>
-      <c r="CY18" s="35"/>
-      <c r="CZ18" s="35"/>
-      <c r="DA18" s="35"/>
-      <c r="DB18" s="35"/>
-      <c r="DC18" s="35"/>
-      <c r="DD18" s="35"/>
-      <c r="DE18" s="35"/>
-      <c r="DF18" s="35"/>
-      <c r="DG18" s="35"/>
-      <c r="DH18" s="35"/>
-      <c r="DI18" s="35"/>
-      <c r="DJ18" s="35"/>
-      <c r="DK18" s="35"/>
-      <c r="DL18" s="35"/>
-      <c r="DM18" s="35"/>
-      <c r="DN18" s="35"/>
-      <c r="DO18" s="35"/>
-      <c r="DP18" s="35"/>
-      <c r="DQ18" s="35"/>
-      <c r="DR18" s="35"/>
-      <c r="DS18" s="35"/>
-      <c r="DT18" s="35"/>
-      <c r="DU18" s="35"/>
-      <c r="DV18" s="35"/>
-      <c r="DW18" s="35"/>
-      <c r="DX18" s="35"/>
-      <c r="DY18" s="35"/>
-      <c r="DZ18" s="35"/>
-      <c r="EA18" s="35"/>
-      <c r="EB18" s="35"/>
-      <c r="EC18" s="35"/>
-      <c r="ED18" s="35"/>
-      <c r="EE18" s="35"/>
-      <c r="EF18" s="35"/>
-      <c r="EG18" s="35"/>
-      <c r="EH18" s="35"/>
-      <c r="EI18" s="35"/>
-      <c r="EJ18" s="35"/>
-      <c r="EK18" s="35"/>
-      <c r="EL18" s="35"/>
-      <c r="EM18" s="35"/>
-      <c r="EN18" s="35"/>
-      <c r="EO18" s="35"/>
-      <c r="EP18" s="35"/>
-      <c r="EQ18" s="35"/>
-      <c r="ER18" s="35"/>
-      <c r="ES18" s="35"/>
-      <c r="ET18" s="35"/>
-      <c r="EU18" s="35"/>
-      <c r="EV18" s="35"/>
-      <c r="EW18" s="35"/>
-      <c r="EX18" s="35"/>
-      <c r="EY18" s="35"/>
-      <c r="EZ18" s="35"/>
-      <c r="FA18" s="35"/>
-      <c r="FB18" s="35"/>
-      <c r="FC18" s="35"/>
-      <c r="FD18" s="35"/>
-      <c r="FE18" s="35"/>
-      <c r="FF18" s="35"/>
-      <c r="FG18" s="35"/>
-      <c r="FH18" s="35"/>
-      <c r="FI18" s="35"/>
-      <c r="FJ18" s="35"/>
-      <c r="FK18" s="35"/>
-      <c r="FL18" s="35"/>
-      <c r="FM18" s="35"/>
-      <c r="FN18" s="35"/>
-      <c r="FO18" s="35"/>
-      <c r="FP18" s="35"/>
-      <c r="FQ18" s="35"/>
-      <c r="FR18" s="35"/>
-      <c r="FS18" s="35"/>
-      <c r="FT18" s="35"/>
-      <c r="FU18" s="35"/>
-      <c r="FV18" s="35"/>
-      <c r="FW18" s="35"/>
-      <c r="FX18" s="35"/>
-      <c r="FY18" s="35"/>
-      <c r="FZ18" s="35"/>
-      <c r="GA18" s="35"/>
-      <c r="GB18" s="35"/>
-      <c r="GC18" s="35"/>
-      <c r="GD18" s="35"/>
-      <c r="GE18" s="35"/>
-      <c r="GF18" s="35"/>
-      <c r="GG18" s="35"/>
-      <c r="GH18" s="35"/>
-      <c r="GI18" s="35"/>
-      <c r="GJ18" s="35"/>
-      <c r="GK18" s="35"/>
-      <c r="GL18" s="35"/>
-      <c r="GM18" s="35"/>
-      <c r="GN18" s="35"/>
-      <c r="GO18" s="35"/>
-      <c r="GP18" s="35"/>
-      <c r="GQ18" s="35"/>
-      <c r="GR18" s="35"/>
-      <c r="GS18" s="35"/>
-      <c r="GT18" s="35"/>
-      <c r="GU18" s="35"/>
-      <c r="GV18" s="35"/>
-      <c r="GW18" s="35"/>
-      <c r="GX18" s="35"/>
-      <c r="GY18" s="35"/>
-      <c r="GZ18" s="35"/>
-      <c r="HA18" s="35"/>
-      <c r="HB18" s="35"/>
-      <c r="HC18" s="35"/>
-      <c r="HD18" s="35"/>
-      <c r="HE18" s="35"/>
-      <c r="HF18" s="35"/>
-      <c r="HG18" s="35"/>
-      <c r="HH18" s="35"/>
-      <c r="HI18" s="35"/>
-      <c r="HJ18" s="35"/>
-      <c r="HK18" s="35"/>
-      <c r="HL18" s="35"/>
-      <c r="HM18" s="35"/>
-      <c r="HN18" s="35"/>
-      <c r="HO18" s="35"/>
-      <c r="HP18" s="35"/>
-      <c r="HQ18" s="35"/>
-      <c r="HR18" s="35"/>
-      <c r="HS18" s="35"/>
-      <c r="HT18" s="35"/>
-      <c r="HU18" s="35"/>
-      <c r="HV18" s="35"/>
-      <c r="HW18" s="35"/>
-      <c r="HX18" s="35"/>
-      <c r="HY18" s="35"/>
-      <c r="HZ18" s="35"/>
-      <c r="IA18" s="35"/>
-      <c r="IB18" s="35"/>
-      <c r="IC18" s="35"/>
-      <c r="ID18" s="35"/>
-      <c r="IE18" s="35"/>
-      <c r="IF18" s="35"/>
-      <c r="IG18" s="35"/>
-      <c r="IH18" s="35"/>
-      <c r="II18" s="35"/>
-      <c r="IJ18" s="35"/>
-      <c r="IK18" s="35"/>
-      <c r="IL18" s="35"/>
-      <c r="IM18" s="35"/>
-      <c r="IN18" s="35"/>
-      <c r="IO18" s="35"/>
-      <c r="IP18" s="35"/>
-      <c r="IQ18" s="35"/>
-      <c r="IR18" s="35"/>
-      <c r="IS18" s="35"/>
-      <c r="IT18" s="35"/>
-      <c r="IU18" s="35"/>
-      <c r="IV18" s="35"/>
-      <c r="IW18" s="35"/>
-      <c r="IX18" s="35"/>
+    <row r="18" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+      <c r="BH18" s="12"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="12"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="12"/>
+      <c r="BM18" s="12"/>
+      <c r="BN18" s="12"/>
+      <c r="BO18" s="12"/>
+      <c r="BP18" s="12"/>
+      <c r="BQ18" s="12"/>
+      <c r="BR18" s="12"/>
+      <c r="BS18" s="12"/>
+      <c r="BT18" s="12"/>
+      <c r="BU18" s="12"/>
+      <c r="BV18" s="12"/>
+      <c r="BW18" s="12"/>
+      <c r="BX18" s="12"/>
+      <c r="BY18" s="12"/>
+      <c r="BZ18" s="12"/>
+      <c r="CA18" s="12"/>
+      <c r="CB18" s="12"/>
+      <c r="CC18" s="12"/>
+      <c r="CD18" s="12"/>
+      <c r="CE18" s="12"/>
+      <c r="CF18" s="12"/>
+      <c r="CG18" s="12"/>
+      <c r="CH18" s="12"/>
+      <c r="CI18" s="12"/>
+      <c r="CJ18" s="12"/>
+      <c r="CK18" s="12"/>
+      <c r="CL18" s="12"/>
+      <c r="CM18" s="12"/>
+      <c r="CN18" s="12"/>
+      <c r="CO18" s="12"/>
+      <c r="CP18" s="12"/>
+      <c r="CQ18" s="12"/>
+      <c r="CR18" s="12"/>
+      <c r="CS18" s="12"/>
+      <c r="CT18" s="12"/>
+      <c r="CU18" s="12"/>
+      <c r="CV18" s="12"/>
+      <c r="CW18" s="12"/>
+      <c r="CX18" s="12"/>
+      <c r="CY18" s="12"/>
+      <c r="CZ18" s="12"/>
+      <c r="DA18" s="12"/>
+      <c r="DB18" s="12"/>
+      <c r="DC18" s="12"/>
+      <c r="DD18" s="12"/>
+      <c r="DE18" s="12"/>
+      <c r="DF18" s="12"/>
+      <c r="DG18" s="12"/>
+      <c r="DH18" s="12"/>
+      <c r="DI18" s="12"/>
+      <c r="DJ18" s="12"/>
+      <c r="DK18" s="12"/>
+      <c r="DL18" s="12"/>
+      <c r="DM18" s="12"/>
+      <c r="DN18" s="12"/>
+      <c r="DO18" s="12"/>
+      <c r="DP18" s="12"/>
+      <c r="DQ18" s="12"/>
+      <c r="DR18" s="12"/>
+      <c r="DS18" s="12"/>
+      <c r="DT18" s="12"/>
+      <c r="DU18" s="12"/>
+      <c r="DV18" s="12"/>
+      <c r="DW18" s="12"/>
+      <c r="DX18" s="12"/>
+      <c r="DY18" s="12"/>
+      <c r="DZ18" s="12"/>
+      <c r="EA18" s="12"/>
+      <c r="EB18" s="12"/>
+      <c r="EC18" s="12"/>
+      <c r="ED18" s="12"/>
+      <c r="EE18" s="12"/>
+      <c r="EF18" s="12"/>
+      <c r="EG18" s="12"/>
+      <c r="EH18" s="12"/>
+      <c r="EI18" s="12"/>
+      <c r="EJ18" s="12"/>
+      <c r="EK18" s="12"/>
+      <c r="EL18" s="12"/>
+      <c r="EM18" s="12"/>
+      <c r="EN18" s="12"/>
+      <c r="EO18" s="12"/>
+      <c r="EP18" s="12"/>
+      <c r="EQ18" s="12"/>
+      <c r="ER18" s="12"/>
+      <c r="ES18" s="12"/>
+      <c r="ET18" s="12"/>
+      <c r="EU18" s="12"/>
+      <c r="EV18" s="12"/>
+      <c r="EW18" s="12"/>
+      <c r="EX18" s="12"/>
+      <c r="EY18" s="12"/>
+      <c r="EZ18" s="12"/>
+      <c r="FA18" s="12"/>
+      <c r="FB18" s="12"/>
+      <c r="FC18" s="12"/>
+      <c r="FD18" s="12"/>
+      <c r="FE18" s="12"/>
+      <c r="FF18" s="12"/>
+      <c r="FG18" s="12"/>
+      <c r="FH18" s="12"/>
+      <c r="FI18" s="12"/>
+      <c r="FJ18" s="12"/>
+      <c r="FK18" s="12"/>
+      <c r="FL18" s="12"/>
+      <c r="FM18" s="12"/>
+      <c r="FN18" s="12"/>
+      <c r="FO18" s="12"/>
+      <c r="FP18" s="12"/>
+      <c r="FQ18" s="12"/>
+      <c r="FR18" s="12"/>
+      <c r="FS18" s="12"/>
+      <c r="FT18" s="12"/>
+      <c r="FU18" s="12"/>
+      <c r="FV18" s="12"/>
+      <c r="FW18" s="12"/>
+      <c r="FX18" s="12"/>
+      <c r="FY18" s="12"/>
+      <c r="FZ18" s="12"/>
+      <c r="GA18" s="12"/>
+      <c r="GB18" s="12"/>
+      <c r="GC18" s="12"/>
+      <c r="GD18" s="12"/>
+      <c r="GE18" s="12"/>
+      <c r="GF18" s="12"/>
+      <c r="GG18" s="12"/>
+      <c r="GH18" s="12"/>
+      <c r="GI18" s="12"/>
+      <c r="GJ18" s="12"/>
+      <c r="GK18" s="12"/>
+      <c r="GL18" s="12"/>
+      <c r="GM18" s="12"/>
+      <c r="GN18" s="12"/>
+      <c r="GO18" s="12"/>
+      <c r="GP18" s="12"/>
+      <c r="GQ18" s="12"/>
+      <c r="GR18" s="12"/>
+      <c r="GS18" s="12"/>
+      <c r="GT18" s="12"/>
+      <c r="GU18" s="12"/>
+      <c r="GV18" s="12"/>
+      <c r="GW18" s="12"/>
+      <c r="GX18" s="12"/>
+      <c r="GY18" s="12"/>
+      <c r="GZ18" s="12"/>
+      <c r="HA18" s="12"/>
+      <c r="HB18" s="12"/>
+      <c r="HC18" s="12"/>
+      <c r="HD18" s="12"/>
+      <c r="HE18" s="12"/>
+      <c r="HF18" s="12"/>
+      <c r="HG18" s="12"/>
+      <c r="HH18" s="12"/>
+      <c r="HI18" s="12"/>
+      <c r="HJ18" s="12"/>
+      <c r="HK18" s="12"/>
+      <c r="HL18" s="12"/>
+      <c r="HM18" s="12"/>
+      <c r="HN18" s="12"/>
+      <c r="HO18" s="12"/>
+      <c r="HP18" s="12"/>
+      <c r="HQ18" s="12"/>
+      <c r="HR18" s="12"/>
+      <c r="HS18" s="12"/>
+      <c r="HT18" s="12"/>
+      <c r="HU18" s="12"/>
+      <c r="HV18" s="12"/>
+      <c r="HW18" s="12"/>
+      <c r="HX18" s="12"/>
+      <c r="HY18" s="12"/>
+      <c r="HZ18" s="12"/>
+      <c r="IA18" s="12"/>
+      <c r="IB18" s="12"/>
+      <c r="IC18" s="12"/>
+      <c r="ID18" s="12"/>
+      <c r="IE18" s="12"/>
+      <c r="IF18" s="12"/>
+      <c r="IG18" s="12"/>
+      <c r="IH18" s="12"/>
+      <c r="II18" s="12"/>
+      <c r="IJ18" s="12"/>
+      <c r="IK18" s="12"/>
+      <c r="IL18" s="12"/>
+      <c r="IM18" s="12"/>
+      <c r="IN18" s="12"/>
+      <c r="IO18" s="12"/>
+      <c r="IP18" s="12"/>
+      <c r="IQ18" s="12"/>
+      <c r="IR18" s="12"/>
+      <c r="IS18" s="12"/>
+      <c r="IT18" s="12"/>
+      <c r="IU18" s="12"/>
+      <c r="IV18" s="12"/>
+      <c r="IW18" s="12"/>
+      <c r="IX18" s="12"/>
     </row>
-    <row r="19" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="12"/>
-      <c r="AN19" s="12"/>
-      <c r="AO19" s="12"/>
-      <c r="AP19" s="12"/>
-      <c r="AQ19" s="12"/>
-      <c r="AR19" s="12"/>
-      <c r="AS19" s="12"/>
-      <c r="AT19" s="12"/>
-      <c r="AU19" s="12"/>
-      <c r="AV19" s="12"/>
-      <c r="AW19" s="12"/>
-      <c r="AX19" s="12"/>
-      <c r="AY19" s="12"/>
-      <c r="AZ19" s="12"/>
-      <c r="BA19" s="12"/>
-      <c r="BB19" s="12"/>
-      <c r="BC19" s="12"/>
-      <c r="BD19" s="12"/>
-      <c r="BE19" s="12"/>
-      <c r="BF19" s="12"/>
-      <c r="BG19" s="12"/>
-      <c r="BH19" s="12"/>
-      <c r="BI19" s="12"/>
-      <c r="BJ19" s="12"/>
-      <c r="BK19" s="12"/>
-      <c r="BL19" s="12"/>
-      <c r="BM19" s="12"/>
-      <c r="BN19" s="12"/>
-      <c r="BO19" s="12"/>
-      <c r="BP19" s="12"/>
-      <c r="BQ19" s="12"/>
-      <c r="BR19" s="12"/>
-      <c r="BS19" s="12"/>
-      <c r="BT19" s="12"/>
-      <c r="BU19" s="12"/>
-      <c r="BV19" s="12"/>
-      <c r="BW19" s="12"/>
-      <c r="BX19" s="12"/>
-      <c r="BY19" s="12"/>
-      <c r="BZ19" s="12"/>
-      <c r="CA19" s="12"/>
-      <c r="CB19" s="12"/>
-      <c r="CC19" s="12"/>
-      <c r="CD19" s="12"/>
-      <c r="CE19" s="12"/>
-      <c r="CF19" s="12"/>
-      <c r="CG19" s="12"/>
-      <c r="CH19" s="12"/>
-      <c r="CI19" s="12"/>
-      <c r="CJ19" s="12"/>
-      <c r="CK19" s="12"/>
-      <c r="CL19" s="12"/>
-      <c r="CM19" s="12"/>
-      <c r="CN19" s="12"/>
-      <c r="CO19" s="12"/>
-      <c r="CP19" s="12"/>
-      <c r="CQ19" s="12"/>
-      <c r="CR19" s="12"/>
-      <c r="CS19" s="12"/>
-      <c r="CT19" s="12"/>
-      <c r="CU19" s="12"/>
-      <c r="CV19" s="12"/>
-      <c r="CW19" s="12"/>
-      <c r="CX19" s="12"/>
-      <c r="CY19" s="12"/>
-      <c r="CZ19" s="12"/>
-      <c r="DA19" s="12"/>
-      <c r="DB19" s="12"/>
-      <c r="DC19" s="12"/>
-      <c r="DD19" s="12"/>
-      <c r="DE19" s="12"/>
-      <c r="DF19" s="12"/>
-      <c r="DG19" s="12"/>
-      <c r="DH19" s="12"/>
-      <c r="DI19" s="12"/>
-      <c r="DJ19" s="12"/>
-      <c r="DK19" s="12"/>
-      <c r="DL19" s="12"/>
-      <c r="DM19" s="12"/>
-      <c r="DN19" s="12"/>
-      <c r="DO19" s="12"/>
-      <c r="DP19" s="12"/>
-      <c r="DQ19" s="12"/>
-      <c r="DR19" s="12"/>
-      <c r="DS19" s="12"/>
-      <c r="DT19" s="12"/>
-      <c r="DU19" s="12"/>
-      <c r="DV19" s="12"/>
-      <c r="DW19" s="12"/>
-      <c r="DX19" s="12"/>
-      <c r="DY19" s="12"/>
-      <c r="DZ19" s="12"/>
-      <c r="EA19" s="12"/>
-      <c r="EB19" s="12"/>
-      <c r="EC19" s="12"/>
-      <c r="ED19" s="12"/>
-      <c r="EE19" s="12"/>
-      <c r="EF19" s="12"/>
-      <c r="EG19" s="12"/>
-      <c r="EH19" s="12"/>
-      <c r="EI19" s="12"/>
-      <c r="EJ19" s="12"/>
-      <c r="EK19" s="12"/>
-      <c r="EL19" s="12"/>
-      <c r="EM19" s="12"/>
-      <c r="EN19" s="12"/>
-      <c r="EO19" s="12"/>
-      <c r="EP19" s="12"/>
-      <c r="EQ19" s="12"/>
-      <c r="ER19" s="12"/>
-      <c r="ES19" s="12"/>
-      <c r="ET19" s="12"/>
-      <c r="EU19" s="12"/>
-      <c r="EV19" s="12"/>
-      <c r="EW19" s="12"/>
-      <c r="EX19" s="12"/>
-      <c r="EY19" s="12"/>
-      <c r="EZ19" s="12"/>
-      <c r="FA19" s="12"/>
-      <c r="FB19" s="12"/>
-      <c r="FC19" s="12"/>
-      <c r="FD19" s="12"/>
-      <c r="FE19" s="12"/>
-      <c r="FF19" s="12"/>
-      <c r="FG19" s="12"/>
-      <c r="FH19" s="12"/>
-      <c r="FI19" s="12"/>
-      <c r="FJ19" s="12"/>
-      <c r="FK19" s="12"/>
-      <c r="FL19" s="12"/>
-      <c r="FM19" s="12"/>
-      <c r="FN19" s="12"/>
-      <c r="FO19" s="12"/>
-      <c r="FP19" s="12"/>
-      <c r="FQ19" s="12"/>
-      <c r="FR19" s="12"/>
-      <c r="FS19" s="12"/>
-      <c r="FT19" s="12"/>
-      <c r="FU19" s="12"/>
-      <c r="FV19" s="12"/>
-      <c r="FW19" s="12"/>
-      <c r="FX19" s="12"/>
-      <c r="FY19" s="12"/>
-      <c r="FZ19" s="12"/>
-      <c r="GA19" s="12"/>
-      <c r="GB19" s="12"/>
-      <c r="GC19" s="12"/>
-      <c r="GD19" s="12"/>
-      <c r="GE19" s="12"/>
-      <c r="GF19" s="12"/>
-      <c r="GG19" s="12"/>
-      <c r="GH19" s="12"/>
-      <c r="GI19" s="12"/>
-      <c r="GJ19" s="12"/>
-      <c r="GK19" s="12"/>
-      <c r="GL19" s="12"/>
-      <c r="GM19" s="12"/>
-      <c r="GN19" s="12"/>
-      <c r="GO19" s="12"/>
-      <c r="GP19" s="12"/>
-      <c r="GQ19" s="12"/>
-      <c r="GR19" s="12"/>
-      <c r="GS19" s="12"/>
-      <c r="GT19" s="12"/>
-      <c r="GU19" s="12"/>
-      <c r="GV19" s="12"/>
-      <c r="GW19" s="12"/>
-      <c r="GX19" s="12"/>
-      <c r="GY19" s="12"/>
-      <c r="GZ19" s="12"/>
-      <c r="HA19" s="12"/>
-      <c r="HB19" s="12"/>
-      <c r="HC19" s="12"/>
-      <c r="HD19" s="12"/>
-      <c r="HE19" s="12"/>
-      <c r="HF19" s="12"/>
-      <c r="HG19" s="12"/>
-      <c r="HH19" s="12"/>
-      <c r="HI19" s="12"/>
-      <c r="HJ19" s="12"/>
-      <c r="HK19" s="12"/>
-      <c r="HL19" s="12"/>
-      <c r="HM19" s="12"/>
-      <c r="HN19" s="12"/>
-      <c r="HO19" s="12"/>
-      <c r="HP19" s="12"/>
-      <c r="HQ19" s="12"/>
-      <c r="HR19" s="12"/>
-      <c r="HS19" s="12"/>
-      <c r="HT19" s="12"/>
-      <c r="HU19" s="12"/>
-      <c r="HV19" s="12"/>
-      <c r="HW19" s="12"/>
-      <c r="HX19" s="12"/>
-      <c r="HY19" s="12"/>
-      <c r="HZ19" s="12"/>
-      <c r="IA19" s="12"/>
-      <c r="IB19" s="12"/>
-      <c r="IC19" s="12"/>
-      <c r="ID19" s="12"/>
-      <c r="IE19" s="12"/>
-      <c r="IF19" s="12"/>
-      <c r="IG19" s="12"/>
-      <c r="IH19" s="12"/>
-      <c r="II19" s="12"/>
-      <c r="IJ19" s="12"/>
-      <c r="IK19" s="12"/>
-      <c r="IL19" s="12"/>
-      <c r="IM19" s="12"/>
-      <c r="IN19" s="12"/>
-      <c r="IO19" s="12"/>
-      <c r="IP19" s="12"/>
-      <c r="IQ19" s="12"/>
-      <c r="IR19" s="12"/>
-      <c r="IS19" s="12"/>
-      <c r="IT19" s="12"/>
-      <c r="IU19" s="12"/>
-      <c r="IV19" s="12"/>
-      <c r="IW19" s="12"/>
-      <c r="IX19" s="12"/>
+    <row r="19" spans="1:258" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="35"/>
+      <c r="AP19" s="35"/>
+      <c r="AQ19" s="35"/>
+      <c r="AR19" s="35"/>
+      <c r="AS19" s="35"/>
+      <c r="AT19" s="35"/>
+      <c r="AU19" s="35"/>
+      <c r="AV19" s="35"/>
+      <c r="AW19" s="35"/>
+      <c r="AX19" s="35"/>
+      <c r="AY19" s="35"/>
+      <c r="AZ19" s="35"/>
+      <c r="BA19" s="35"/>
+      <c r="BB19" s="35"/>
+      <c r="BC19" s="35"/>
+      <c r="BD19" s="35"/>
+      <c r="BE19" s="35"/>
+      <c r="BF19" s="35"/>
+      <c r="BG19" s="35"/>
+      <c r="BH19" s="35"/>
+      <c r="BI19" s="35"/>
+      <c r="BJ19" s="35"/>
+      <c r="BK19" s="35"/>
+      <c r="BL19" s="35"/>
+      <c r="BM19" s="35"/>
+      <c r="BN19" s="35"/>
+      <c r="BO19" s="35"/>
+      <c r="BP19" s="35"/>
+      <c r="BQ19" s="35"/>
+      <c r="BR19" s="35"/>
+      <c r="BS19" s="35"/>
+      <c r="BT19" s="35"/>
+      <c r="BU19" s="35"/>
+      <c r="BV19" s="35"/>
+      <c r="BW19" s="35"/>
+      <c r="BX19" s="35"/>
+      <c r="BY19" s="35"/>
+      <c r="BZ19" s="35"/>
+      <c r="CA19" s="35"/>
+      <c r="CB19" s="35"/>
+      <c r="CC19" s="35"/>
+      <c r="CD19" s="35"/>
+      <c r="CE19" s="35"/>
+      <c r="CF19" s="35"/>
+      <c r="CG19" s="35"/>
+      <c r="CH19" s="35"/>
+      <c r="CI19" s="35"/>
+      <c r="CJ19" s="35"/>
+      <c r="CK19" s="35"/>
+      <c r="CL19" s="35"/>
+      <c r="CM19" s="35"/>
+      <c r="CN19" s="35"/>
+      <c r="CO19" s="35"/>
+      <c r="CP19" s="35"/>
+      <c r="CQ19" s="35"/>
+      <c r="CR19" s="35"/>
+      <c r="CS19" s="35"/>
+      <c r="CT19" s="35"/>
+      <c r="CU19" s="35"/>
+      <c r="CV19" s="35"/>
+      <c r="CW19" s="35"/>
+      <c r="CX19" s="35"/>
+      <c r="CY19" s="35"/>
+      <c r="CZ19" s="35"/>
+      <c r="DA19" s="35"/>
+      <c r="DB19" s="35"/>
+      <c r="DC19" s="35"/>
+      <c r="DD19" s="35"/>
+      <c r="DE19" s="35"/>
+      <c r="DF19" s="35"/>
+      <c r="DG19" s="35"/>
+      <c r="DH19" s="35"/>
+      <c r="DI19" s="35"/>
+      <c r="DJ19" s="35"/>
+      <c r="DK19" s="35"/>
+      <c r="DL19" s="35"/>
+      <c r="DM19" s="35"/>
+      <c r="DN19" s="35"/>
+      <c r="DO19" s="35"/>
+      <c r="DP19" s="35"/>
+      <c r="DQ19" s="35"/>
+      <c r="DR19" s="35"/>
+      <c r="DS19" s="35"/>
+      <c r="DT19" s="35"/>
+      <c r="DU19" s="35"/>
+      <c r="DV19" s="35"/>
+      <c r="DW19" s="35"/>
+      <c r="DX19" s="35"/>
+      <c r="DY19" s="35"/>
+      <c r="DZ19" s="35"/>
+      <c r="EA19" s="35"/>
+      <c r="EB19" s="35"/>
+      <c r="EC19" s="35"/>
+      <c r="ED19" s="35"/>
+      <c r="EE19" s="35"/>
+      <c r="EF19" s="35"/>
+      <c r="EG19" s="35"/>
+      <c r="EH19" s="35"/>
+      <c r="EI19" s="35"/>
+      <c r="EJ19" s="35"/>
+      <c r="EK19" s="35"/>
+      <c r="EL19" s="35"/>
+      <c r="EM19" s="35"/>
+      <c r="EN19" s="35"/>
+      <c r="EO19" s="35"/>
+      <c r="EP19" s="35"/>
+      <c r="EQ19" s="35"/>
+      <c r="ER19" s="35"/>
+      <c r="ES19" s="35"/>
+      <c r="ET19" s="35"/>
+      <c r="EU19" s="35"/>
+      <c r="EV19" s="35"/>
+      <c r="EW19" s="35"/>
+      <c r="EX19" s="35"/>
+      <c r="EY19" s="35"/>
+      <c r="EZ19" s="35"/>
+      <c r="FA19" s="35"/>
+      <c r="FB19" s="35"/>
+      <c r="FC19" s="35"/>
+      <c r="FD19" s="35"/>
+      <c r="FE19" s="35"/>
+      <c r="FF19" s="35"/>
+      <c r="FG19" s="35"/>
+      <c r="FH19" s="35"/>
+      <c r="FI19" s="35"/>
+      <c r="FJ19" s="35"/>
+      <c r="FK19" s="35"/>
+      <c r="FL19" s="35"/>
+      <c r="FM19" s="35"/>
+      <c r="FN19" s="35"/>
+      <c r="FO19" s="35"/>
+      <c r="FP19" s="35"/>
+      <c r="FQ19" s="35"/>
+      <c r="FR19" s="35"/>
+      <c r="FS19" s="35"/>
+      <c r="FT19" s="35"/>
+      <c r="FU19" s="35"/>
+      <c r="FV19" s="35"/>
+      <c r="FW19" s="35"/>
+      <c r="FX19" s="35"/>
+      <c r="FY19" s="35"/>
+      <c r="FZ19" s="35"/>
+      <c r="GA19" s="35"/>
+      <c r="GB19" s="35"/>
+      <c r="GC19" s="35"/>
+      <c r="GD19" s="35"/>
+      <c r="GE19" s="35"/>
+      <c r="GF19" s="35"/>
+      <c r="GG19" s="35"/>
+      <c r="GH19" s="35"/>
+      <c r="GI19" s="35"/>
+      <c r="GJ19" s="35"/>
+      <c r="GK19" s="35"/>
+      <c r="GL19" s="35"/>
+      <c r="GM19" s="35"/>
+      <c r="GN19" s="35"/>
+      <c r="GO19" s="35"/>
+      <c r="GP19" s="35"/>
+      <c r="GQ19" s="35"/>
+      <c r="GR19" s="35"/>
+      <c r="GS19" s="35"/>
+      <c r="GT19" s="35"/>
+      <c r="GU19" s="35"/>
+      <c r="GV19" s="35"/>
+      <c r="GW19" s="35"/>
+      <c r="GX19" s="35"/>
+      <c r="GY19" s="35"/>
+      <c r="GZ19" s="35"/>
+      <c r="HA19" s="35"/>
+      <c r="HB19" s="35"/>
+      <c r="HC19" s="35"/>
+      <c r="HD19" s="35"/>
+      <c r="HE19" s="35"/>
+      <c r="HF19" s="35"/>
+      <c r="HG19" s="35"/>
+      <c r="HH19" s="35"/>
+      <c r="HI19" s="35"/>
+      <c r="HJ19" s="35"/>
+      <c r="HK19" s="35"/>
+      <c r="HL19" s="35"/>
+      <c r="HM19" s="35"/>
+      <c r="HN19" s="35"/>
+      <c r="HO19" s="35"/>
+      <c r="HP19" s="35"/>
+      <c r="HQ19" s="35"/>
+      <c r="HR19" s="35"/>
+      <c r="HS19" s="35"/>
+      <c r="HT19" s="35"/>
+      <c r="HU19" s="35"/>
+      <c r="HV19" s="35"/>
+      <c r="HW19" s="35"/>
+      <c r="HX19" s="35"/>
+      <c r="HY19" s="35"/>
+      <c r="HZ19" s="35"/>
+      <c r="IA19" s="35"/>
+      <c r="IB19" s="35"/>
+      <c r="IC19" s="35"/>
+      <c r="ID19" s="35"/>
+      <c r="IE19" s="35"/>
+      <c r="IF19" s="35"/>
+      <c r="IG19" s="35"/>
+      <c r="IH19" s="35"/>
+      <c r="II19" s="35"/>
+      <c r="IJ19" s="35"/>
+      <c r="IK19" s="35"/>
+      <c r="IL19" s="35"/>
+      <c r="IM19" s="35"/>
+      <c r="IN19" s="35"/>
+      <c r="IO19" s="35"/>
+      <c r="IP19" s="35"/>
+      <c r="IQ19" s="35"/>
+      <c r="IR19" s="35"/>
+      <c r="IS19" s="35"/>
+      <c r="IT19" s="35"/>
+      <c r="IU19" s="35"/>
+      <c r="IV19" s="35"/>
+      <c r="IW19" s="35"/>
+      <c r="IX19" s="35"/>
     </row>
     <row r="20" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="9"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -6675,612 +6699,860 @@
       <c r="IW20" s="12"/>
       <c r="IX20" s="12"/>
     </row>
-    <row r="21" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
+    <row r="21" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="65"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="12"/>
+      <c r="BG21" s="12"/>
+      <c r="BH21" s="12"/>
+      <c r="BI21" s="12"/>
+      <c r="BJ21" s="12"/>
+      <c r="BK21" s="12"/>
+      <c r="BL21" s="12"/>
+      <c r="BM21" s="12"/>
+      <c r="BN21" s="12"/>
+      <c r="BO21" s="12"/>
+      <c r="BP21" s="12"/>
+      <c r="BQ21" s="12"/>
+      <c r="BR21" s="12"/>
+      <c r="BS21" s="12"/>
+      <c r="BT21" s="12"/>
+      <c r="BU21" s="12"/>
+      <c r="BV21" s="12"/>
+      <c r="BW21" s="12"/>
+      <c r="BX21" s="12"/>
+      <c r="BY21" s="12"/>
+      <c r="BZ21" s="12"/>
+      <c r="CA21" s="12"/>
+      <c r="CB21" s="12"/>
+      <c r="CC21" s="12"/>
+      <c r="CD21" s="12"/>
+      <c r="CE21" s="12"/>
+      <c r="CF21" s="12"/>
+      <c r="CG21" s="12"/>
+      <c r="CH21" s="12"/>
+      <c r="CI21" s="12"/>
+      <c r="CJ21" s="12"/>
+      <c r="CK21" s="12"/>
+      <c r="CL21" s="12"/>
+      <c r="CM21" s="12"/>
+      <c r="CN21" s="12"/>
+      <c r="CO21" s="12"/>
+      <c r="CP21" s="12"/>
+      <c r="CQ21" s="12"/>
+      <c r="CR21" s="12"/>
+      <c r="CS21" s="12"/>
+      <c r="CT21" s="12"/>
+      <c r="CU21" s="12"/>
+      <c r="CV21" s="12"/>
+      <c r="CW21" s="12"/>
+      <c r="CX21" s="12"/>
+      <c r="CY21" s="12"/>
+      <c r="CZ21" s="12"/>
+      <c r="DA21" s="12"/>
+      <c r="DB21" s="12"/>
+      <c r="DC21" s="12"/>
+      <c r="DD21" s="12"/>
+      <c r="DE21" s="12"/>
+      <c r="DF21" s="12"/>
+      <c r="DG21" s="12"/>
+      <c r="DH21" s="12"/>
+      <c r="DI21" s="12"/>
+      <c r="DJ21" s="12"/>
+      <c r="DK21" s="12"/>
+      <c r="DL21" s="12"/>
+      <c r="DM21" s="12"/>
+      <c r="DN21" s="12"/>
+      <c r="DO21" s="12"/>
+      <c r="DP21" s="12"/>
+      <c r="DQ21" s="12"/>
+      <c r="DR21" s="12"/>
+      <c r="DS21" s="12"/>
+      <c r="DT21" s="12"/>
+      <c r="DU21" s="12"/>
+      <c r="DV21" s="12"/>
+      <c r="DW21" s="12"/>
+      <c r="DX21" s="12"/>
+      <c r="DY21" s="12"/>
+      <c r="DZ21" s="12"/>
+      <c r="EA21" s="12"/>
+      <c r="EB21" s="12"/>
+      <c r="EC21" s="12"/>
+      <c r="ED21" s="12"/>
+      <c r="EE21" s="12"/>
+      <c r="EF21" s="12"/>
+      <c r="EG21" s="12"/>
+      <c r="EH21" s="12"/>
+      <c r="EI21" s="12"/>
+      <c r="EJ21" s="12"/>
+      <c r="EK21" s="12"/>
+      <c r="EL21" s="12"/>
+      <c r="EM21" s="12"/>
+      <c r="EN21" s="12"/>
+      <c r="EO21" s="12"/>
+      <c r="EP21" s="12"/>
+      <c r="EQ21" s="12"/>
+      <c r="ER21" s="12"/>
+      <c r="ES21" s="12"/>
+      <c r="ET21" s="12"/>
+      <c r="EU21" s="12"/>
+      <c r="EV21" s="12"/>
+      <c r="EW21" s="12"/>
+      <c r="EX21" s="12"/>
+      <c r="EY21" s="12"/>
+      <c r="EZ21" s="12"/>
+      <c r="FA21" s="12"/>
+      <c r="FB21" s="12"/>
+      <c r="FC21" s="12"/>
+      <c r="FD21" s="12"/>
+      <c r="FE21" s="12"/>
+      <c r="FF21" s="12"/>
+      <c r="FG21" s="12"/>
+      <c r="FH21" s="12"/>
+      <c r="FI21" s="12"/>
+      <c r="FJ21" s="12"/>
+      <c r="FK21" s="12"/>
+      <c r="FL21" s="12"/>
+      <c r="FM21" s="12"/>
+      <c r="FN21" s="12"/>
+      <c r="FO21" s="12"/>
+      <c r="FP21" s="12"/>
+      <c r="FQ21" s="12"/>
+      <c r="FR21" s="12"/>
+      <c r="FS21" s="12"/>
+      <c r="FT21" s="12"/>
+      <c r="FU21" s="12"/>
+      <c r="FV21" s="12"/>
+      <c r="FW21" s="12"/>
+      <c r="FX21" s="12"/>
+      <c r="FY21" s="12"/>
+      <c r="FZ21" s="12"/>
+      <c r="GA21" s="12"/>
+      <c r="GB21" s="12"/>
+      <c r="GC21" s="12"/>
+      <c r="GD21" s="12"/>
+      <c r="GE21" s="12"/>
+      <c r="GF21" s="12"/>
+      <c r="GG21" s="12"/>
+      <c r="GH21" s="12"/>
+      <c r="GI21" s="12"/>
+      <c r="GJ21" s="12"/>
+      <c r="GK21" s="12"/>
+      <c r="GL21" s="12"/>
+      <c r="GM21" s="12"/>
+      <c r="GN21" s="12"/>
+      <c r="GO21" s="12"/>
+      <c r="GP21" s="12"/>
+      <c r="GQ21" s="12"/>
+      <c r="GR21" s="12"/>
+      <c r="GS21" s="12"/>
+      <c r="GT21" s="12"/>
+      <c r="GU21" s="12"/>
+      <c r="GV21" s="12"/>
+      <c r="GW21" s="12"/>
+      <c r="GX21" s="12"/>
+      <c r="GY21" s="12"/>
+      <c r="GZ21" s="12"/>
+      <c r="HA21" s="12"/>
+      <c r="HB21" s="12"/>
+      <c r="HC21" s="12"/>
+      <c r="HD21" s="12"/>
+      <c r="HE21" s="12"/>
+      <c r="HF21" s="12"/>
+      <c r="HG21" s="12"/>
+      <c r="HH21" s="12"/>
+      <c r="HI21" s="12"/>
+      <c r="HJ21" s="12"/>
+      <c r="HK21" s="12"/>
+      <c r="HL21" s="12"/>
+      <c r="HM21" s="12"/>
+      <c r="HN21" s="12"/>
+      <c r="HO21" s="12"/>
+      <c r="HP21" s="12"/>
+      <c r="HQ21" s="12"/>
+      <c r="HR21" s="12"/>
+      <c r="HS21" s="12"/>
+      <c r="HT21" s="12"/>
+      <c r="HU21" s="12"/>
+      <c r="HV21" s="12"/>
+      <c r="HW21" s="12"/>
+      <c r="HX21" s="12"/>
+      <c r="HY21" s="12"/>
+      <c r="HZ21" s="12"/>
+      <c r="IA21" s="12"/>
+      <c r="IB21" s="12"/>
+      <c r="IC21" s="12"/>
+      <c r="ID21" s="12"/>
+      <c r="IE21" s="12"/>
+      <c r="IF21" s="12"/>
+      <c r="IG21" s="12"/>
+      <c r="IH21" s="12"/>
+      <c r="II21" s="12"/>
+      <c r="IJ21" s="12"/>
+      <c r="IK21" s="12"/>
+      <c r="IL21" s="12"/>
+      <c r="IM21" s="12"/>
+      <c r="IN21" s="12"/>
+      <c r="IO21" s="12"/>
+      <c r="IP21" s="12"/>
+      <c r="IQ21" s="12"/>
+      <c r="IR21" s="12"/>
+      <c r="IS21" s="12"/>
+      <c r="IT21" s="12"/>
+      <c r="IU21" s="12"/>
+      <c r="IV21" s="12"/>
+      <c r="IW21" s="12"/>
+      <c r="IX21" s="12"/>
     </row>
-    <row r="22" spans="1:258" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="46"/>
-      <c r="AJ22" s="46"/>
-      <c r="AK22" s="46"/>
-      <c r="AL22" s="46"/>
-      <c r="AM22" s="46"/>
-      <c r="AN22" s="46"/>
-      <c r="AO22" s="46"/>
-      <c r="AP22" s="46"/>
-      <c r="AQ22" s="46"/>
-      <c r="AR22" s="46"/>
-      <c r="AS22" s="46"/>
-      <c r="AT22" s="46"/>
-      <c r="AU22" s="46"/>
-      <c r="AV22" s="46"/>
-      <c r="AW22" s="46"/>
-      <c r="AX22" s="46"/>
-      <c r="AY22" s="46"/>
-      <c r="AZ22" s="46"/>
-      <c r="BA22" s="46"/>
-      <c r="BB22" s="46"/>
-      <c r="BC22" s="46"/>
-      <c r="BD22" s="46"/>
-      <c r="BE22" s="46"/>
-      <c r="BF22" s="46"/>
-      <c r="BG22" s="46"/>
-      <c r="BH22" s="46"/>
-      <c r="BI22" s="46"/>
-      <c r="BJ22" s="46"/>
-      <c r="BK22" s="46"/>
-      <c r="BL22" s="46"/>
-      <c r="BM22" s="46"/>
-      <c r="BN22" s="46"/>
-      <c r="BO22" s="46"/>
-      <c r="BP22" s="46"/>
-      <c r="BQ22" s="46"/>
-      <c r="BR22" s="46"/>
-      <c r="BS22" s="46"/>
-      <c r="BT22" s="46"/>
-      <c r="BU22" s="46"/>
-      <c r="BV22" s="46"/>
-      <c r="BW22" s="46"/>
-      <c r="BX22" s="46"/>
-      <c r="BY22" s="46"/>
-      <c r="BZ22" s="46"/>
-      <c r="CA22" s="46"/>
-      <c r="CB22" s="46"/>
-      <c r="CC22" s="46"/>
-      <c r="CD22" s="46"/>
-      <c r="CE22" s="46"/>
-      <c r="CF22" s="46"/>
-      <c r="CG22" s="46"/>
-      <c r="CH22" s="46"/>
-      <c r="CI22" s="46"/>
-      <c r="CJ22" s="46"/>
-      <c r="CK22" s="46"/>
-      <c r="CL22" s="46"/>
-      <c r="CM22" s="46"/>
-      <c r="CN22" s="46"/>
-      <c r="CO22" s="46"/>
-      <c r="CP22" s="46"/>
-      <c r="CQ22" s="46"/>
-      <c r="CR22" s="46"/>
-      <c r="CS22" s="46"/>
-      <c r="CT22" s="46"/>
-      <c r="CU22" s="46"/>
-      <c r="CV22" s="46"/>
-      <c r="CW22" s="46"/>
-      <c r="CX22" s="46"/>
-      <c r="CY22" s="46"/>
-      <c r="CZ22" s="46"/>
-      <c r="DA22" s="46"/>
-      <c r="DB22" s="46"/>
-      <c r="DC22" s="46"/>
-      <c r="DD22" s="46"/>
-      <c r="DE22" s="46"/>
-      <c r="DF22" s="46"/>
-      <c r="DG22" s="46"/>
-      <c r="DH22" s="46"/>
-      <c r="DI22" s="46"/>
-      <c r="DJ22" s="46"/>
-      <c r="DK22" s="46"/>
-      <c r="DL22" s="46"/>
-      <c r="DM22" s="46"/>
-      <c r="DN22" s="46"/>
-      <c r="DO22" s="46"/>
-      <c r="DP22" s="46"/>
-      <c r="DQ22" s="46"/>
-      <c r="DR22" s="46"/>
-      <c r="DS22" s="46"/>
-      <c r="DT22" s="46"/>
-      <c r="DU22" s="46"/>
-      <c r="DV22" s="46"/>
-      <c r="DW22" s="46"/>
-      <c r="DX22" s="46"/>
-      <c r="DY22" s="46"/>
-      <c r="DZ22" s="46"/>
-      <c r="EA22" s="46"/>
-      <c r="EB22" s="46"/>
-      <c r="EC22" s="46"/>
-      <c r="ED22" s="46"/>
-      <c r="EE22" s="46"/>
-      <c r="EF22" s="46"/>
-      <c r="EG22" s="46"/>
-      <c r="EH22" s="46"/>
-      <c r="EI22" s="46"/>
-      <c r="EJ22" s="46"/>
-      <c r="EK22" s="46"/>
-      <c r="EL22" s="46"/>
-      <c r="EM22" s="46"/>
-      <c r="EN22" s="46"/>
-      <c r="EO22" s="46"/>
-      <c r="EP22" s="46"/>
-      <c r="EQ22" s="46"/>
-      <c r="ER22" s="46"/>
-      <c r="ES22" s="46"/>
-      <c r="ET22" s="46"/>
-      <c r="EU22" s="46"/>
-      <c r="EV22" s="46"/>
-      <c r="EW22" s="46"/>
-      <c r="EX22" s="46"/>
-      <c r="EY22" s="46"/>
-      <c r="EZ22" s="46"/>
-      <c r="FA22" s="46"/>
-      <c r="FB22" s="46"/>
-      <c r="FC22" s="46"/>
-      <c r="FD22" s="46"/>
-      <c r="FE22" s="46"/>
-      <c r="FF22" s="46"/>
-      <c r="FG22" s="46"/>
-      <c r="FH22" s="46"/>
-      <c r="FI22" s="46"/>
-      <c r="FJ22" s="46"/>
-      <c r="FK22" s="46"/>
-      <c r="FL22" s="46"/>
-      <c r="FM22" s="46"/>
-      <c r="FN22" s="46"/>
-      <c r="FO22" s="46"/>
-      <c r="FP22" s="46"/>
-      <c r="FQ22" s="46"/>
-      <c r="FR22" s="46"/>
-      <c r="FS22" s="46"/>
-      <c r="FT22" s="46"/>
-      <c r="FU22" s="46"/>
-      <c r="FV22" s="46"/>
-      <c r="FW22" s="46"/>
-      <c r="FX22" s="46"/>
-      <c r="FY22" s="46"/>
-      <c r="FZ22" s="46"/>
-      <c r="GA22" s="46"/>
-      <c r="GB22" s="46"/>
-      <c r="GC22" s="46"/>
-      <c r="GD22" s="46"/>
-      <c r="GE22" s="46"/>
-      <c r="GF22" s="46"/>
-      <c r="GG22" s="46"/>
-      <c r="GH22" s="46"/>
-      <c r="GI22" s="46"/>
-      <c r="GJ22" s="46"/>
-      <c r="GK22" s="46"/>
-      <c r="GL22" s="46"/>
-      <c r="GM22" s="46"/>
-      <c r="GN22" s="46"/>
-      <c r="GO22" s="46"/>
-      <c r="GP22" s="46"/>
-      <c r="GQ22" s="46"/>
-      <c r="GR22" s="46"/>
-      <c r="GS22" s="46"/>
-      <c r="GT22" s="46"/>
-      <c r="GU22" s="46"/>
-      <c r="GV22" s="46"/>
-      <c r="GW22" s="46"/>
-      <c r="GX22" s="46"/>
-      <c r="GY22" s="46"/>
-      <c r="GZ22" s="46"/>
-      <c r="HA22" s="46"/>
-      <c r="HB22" s="46"/>
-      <c r="HC22" s="46"/>
-      <c r="HD22" s="46"/>
-      <c r="HE22" s="46"/>
-      <c r="HF22" s="46"/>
-      <c r="HG22" s="46"/>
-      <c r="HH22" s="46"/>
-      <c r="HI22" s="46"/>
-      <c r="HJ22" s="46"/>
-      <c r="HK22" s="46"/>
-      <c r="HL22" s="46"/>
-      <c r="HM22" s="46"/>
-      <c r="HN22" s="46"/>
-      <c r="HO22" s="46"/>
-      <c r="HP22" s="46"/>
-      <c r="HQ22" s="46"/>
-      <c r="HR22" s="46"/>
-      <c r="HS22" s="46"/>
-      <c r="HT22" s="46"/>
-      <c r="HU22" s="46"/>
-      <c r="HV22" s="46"/>
-      <c r="HW22" s="46"/>
-      <c r="HX22" s="46"/>
-      <c r="HY22" s="46"/>
-      <c r="HZ22" s="46"/>
-      <c r="IA22" s="46"/>
-      <c r="IB22" s="46"/>
-      <c r="IC22" s="46"/>
-      <c r="ID22" s="46"/>
-      <c r="IE22" s="46"/>
-      <c r="IF22" s="46"/>
-      <c r="IG22" s="46"/>
-      <c r="IH22" s="46"/>
-      <c r="II22" s="46"/>
-      <c r="IJ22" s="46"/>
-      <c r="IK22" s="46"/>
-      <c r="IL22" s="46"/>
-      <c r="IM22" s="46"/>
-      <c r="IN22" s="46"/>
-      <c r="IO22" s="46"/>
-      <c r="IP22" s="46"/>
-      <c r="IQ22" s="46"/>
-      <c r="IR22" s="46"/>
-      <c r="IS22" s="46"/>
-      <c r="IT22" s="46"/>
-      <c r="IU22" s="46"/>
-      <c r="IV22" s="46"/>
-      <c r="IW22" s="46"/>
-      <c r="IX22" s="46"/>
+    <row r="22" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="66"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
     </row>
-    <row r="23" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
+    <row r="23" spans="1:258" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="46"/>
+      <c r="AN23" s="46"/>
+      <c r="AO23" s="46"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="46"/>
+      <c r="AR23" s="46"/>
+      <c r="AS23" s="46"/>
+      <c r="AT23" s="46"/>
+      <c r="AU23" s="46"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="46"/>
+      <c r="BB23" s="46"/>
+      <c r="BC23" s="46"/>
+      <c r="BD23" s="46"/>
+      <c r="BE23" s="46"/>
+      <c r="BF23" s="46"/>
+      <c r="BG23" s="46"/>
+      <c r="BH23" s="46"/>
+      <c r="BI23" s="46"/>
+      <c r="BJ23" s="46"/>
+      <c r="BK23" s="46"/>
+      <c r="BL23" s="46"/>
+      <c r="BM23" s="46"/>
+      <c r="BN23" s="46"/>
+      <c r="BO23" s="46"/>
+      <c r="BP23" s="46"/>
+      <c r="BQ23" s="46"/>
+      <c r="BR23" s="46"/>
+      <c r="BS23" s="46"/>
+      <c r="BT23" s="46"/>
+      <c r="BU23" s="46"/>
+      <c r="BV23" s="46"/>
+      <c r="BW23" s="46"/>
+      <c r="BX23" s="46"/>
+      <c r="BY23" s="46"/>
+      <c r="BZ23" s="46"/>
+      <c r="CA23" s="46"/>
+      <c r="CB23" s="46"/>
+      <c r="CC23" s="46"/>
+      <c r="CD23" s="46"/>
+      <c r="CE23" s="46"/>
+      <c r="CF23" s="46"/>
+      <c r="CG23" s="46"/>
+      <c r="CH23" s="46"/>
+      <c r="CI23" s="46"/>
+      <c r="CJ23" s="46"/>
+      <c r="CK23" s="46"/>
+      <c r="CL23" s="46"/>
+      <c r="CM23" s="46"/>
+      <c r="CN23" s="46"/>
+      <c r="CO23" s="46"/>
+      <c r="CP23" s="46"/>
+      <c r="CQ23" s="46"/>
+      <c r="CR23" s="46"/>
+      <c r="CS23" s="46"/>
+      <c r="CT23" s="46"/>
+      <c r="CU23" s="46"/>
+      <c r="CV23" s="46"/>
+      <c r="CW23" s="46"/>
+      <c r="CX23" s="46"/>
+      <c r="CY23" s="46"/>
+      <c r="CZ23" s="46"/>
+      <c r="DA23" s="46"/>
+      <c r="DB23" s="46"/>
+      <c r="DC23" s="46"/>
+      <c r="DD23" s="46"/>
+      <c r="DE23" s="46"/>
+      <c r="DF23" s="46"/>
+      <c r="DG23" s="46"/>
+      <c r="DH23" s="46"/>
+      <c r="DI23" s="46"/>
+      <c r="DJ23" s="46"/>
+      <c r="DK23" s="46"/>
+      <c r="DL23" s="46"/>
+      <c r="DM23" s="46"/>
+      <c r="DN23" s="46"/>
+      <c r="DO23" s="46"/>
+      <c r="DP23" s="46"/>
+      <c r="DQ23" s="46"/>
+      <c r="DR23" s="46"/>
+      <c r="DS23" s="46"/>
+      <c r="DT23" s="46"/>
+      <c r="DU23" s="46"/>
+      <c r="DV23" s="46"/>
+      <c r="DW23" s="46"/>
+      <c r="DX23" s="46"/>
+      <c r="DY23" s="46"/>
+      <c r="DZ23" s="46"/>
+      <c r="EA23" s="46"/>
+      <c r="EB23" s="46"/>
+      <c r="EC23" s="46"/>
+      <c r="ED23" s="46"/>
+      <c r="EE23" s="46"/>
+      <c r="EF23" s="46"/>
+      <c r="EG23" s="46"/>
+      <c r="EH23" s="46"/>
+      <c r="EI23" s="46"/>
+      <c r="EJ23" s="46"/>
+      <c r="EK23" s="46"/>
+      <c r="EL23" s="46"/>
+      <c r="EM23" s="46"/>
+      <c r="EN23" s="46"/>
+      <c r="EO23" s="46"/>
+      <c r="EP23" s="46"/>
+      <c r="EQ23" s="46"/>
+      <c r="ER23" s="46"/>
+      <c r="ES23" s="46"/>
+      <c r="ET23" s="46"/>
+      <c r="EU23" s="46"/>
+      <c r="EV23" s="46"/>
+      <c r="EW23" s="46"/>
+      <c r="EX23" s="46"/>
+      <c r="EY23" s="46"/>
+      <c r="EZ23" s="46"/>
+      <c r="FA23" s="46"/>
+      <c r="FB23" s="46"/>
+      <c r="FC23" s="46"/>
+      <c r="FD23" s="46"/>
+      <c r="FE23" s="46"/>
+      <c r="FF23" s="46"/>
+      <c r="FG23" s="46"/>
+      <c r="FH23" s="46"/>
+      <c r="FI23" s="46"/>
+      <c r="FJ23" s="46"/>
+      <c r="FK23" s="46"/>
+      <c r="FL23" s="46"/>
+      <c r="FM23" s="46"/>
+      <c r="FN23" s="46"/>
+      <c r="FO23" s="46"/>
+      <c r="FP23" s="46"/>
+      <c r="FQ23" s="46"/>
+      <c r="FR23" s="46"/>
+      <c r="FS23" s="46"/>
+      <c r="FT23" s="46"/>
+      <c r="FU23" s="46"/>
+      <c r="FV23" s="46"/>
+      <c r="FW23" s="46"/>
+      <c r="FX23" s="46"/>
+      <c r="FY23" s="46"/>
+      <c r="FZ23" s="46"/>
+      <c r="GA23" s="46"/>
+      <c r="GB23" s="46"/>
+      <c r="GC23" s="46"/>
+      <c r="GD23" s="46"/>
+      <c r="GE23" s="46"/>
+      <c r="GF23" s="46"/>
+      <c r="GG23" s="46"/>
+      <c r="GH23" s="46"/>
+      <c r="GI23" s="46"/>
+      <c r="GJ23" s="46"/>
+      <c r="GK23" s="46"/>
+      <c r="GL23" s="46"/>
+      <c r="GM23" s="46"/>
+      <c r="GN23" s="46"/>
+      <c r="GO23" s="46"/>
+      <c r="GP23" s="46"/>
+      <c r="GQ23" s="46"/>
+      <c r="GR23" s="46"/>
+      <c r="GS23" s="46"/>
+      <c r="GT23" s="46"/>
+      <c r="GU23" s="46"/>
+      <c r="GV23" s="46"/>
+      <c r="GW23" s="46"/>
+      <c r="GX23" s="46"/>
+      <c r="GY23" s="46"/>
+      <c r="GZ23" s="46"/>
+      <c r="HA23" s="46"/>
+      <c r="HB23" s="46"/>
+      <c r="HC23" s="46"/>
+      <c r="HD23" s="46"/>
+      <c r="HE23" s="46"/>
+      <c r="HF23" s="46"/>
+      <c r="HG23" s="46"/>
+      <c r="HH23" s="46"/>
+      <c r="HI23" s="46"/>
+      <c r="HJ23" s="46"/>
+      <c r="HK23" s="46"/>
+      <c r="HL23" s="46"/>
+      <c r="HM23" s="46"/>
+      <c r="HN23" s="46"/>
+      <c r="HO23" s="46"/>
+      <c r="HP23" s="46"/>
+      <c r="HQ23" s="46"/>
+      <c r="HR23" s="46"/>
+      <c r="HS23" s="46"/>
+      <c r="HT23" s="46"/>
+      <c r="HU23" s="46"/>
+      <c r="HV23" s="46"/>
+      <c r="HW23" s="46"/>
+      <c r="HX23" s="46"/>
+      <c r="HY23" s="46"/>
+      <c r="HZ23" s="46"/>
+      <c r="IA23" s="46"/>
+      <c r="IB23" s="46"/>
+      <c r="IC23" s="46"/>
+      <c r="ID23" s="46"/>
+      <c r="IE23" s="46"/>
+      <c r="IF23" s="46"/>
+      <c r="IG23" s="46"/>
+      <c r="IH23" s="46"/>
+      <c r="II23" s="46"/>
+      <c r="IJ23" s="46"/>
+      <c r="IK23" s="46"/>
+      <c r="IL23" s="46"/>
+      <c r="IM23" s="46"/>
+      <c r="IN23" s="46"/>
+      <c r="IO23" s="46"/>
+      <c r="IP23" s="46"/>
+      <c r="IQ23" s="46"/>
+      <c r="IR23" s="46"/>
+      <c r="IS23" s="46"/>
+      <c r="IT23" s="46"/>
+      <c r="IU23" s="46"/>
+      <c r="IV23" s="46"/>
+      <c r="IW23" s="46"/>
+      <c r="IX23" s="46"/>
     </row>
     <row r="24" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="45"/>
-      <c r="G24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="11"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
       <c r="F25" s="45"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="45"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
     </row>
-    <row r="27" spans="1:258" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="46"/>
-      <c r="AJ27" s="46"/>
-      <c r="AK27" s="46"/>
-      <c r="AL27" s="46"/>
-      <c r="AM27" s="46"/>
-      <c r="AN27" s="46"/>
-      <c r="AO27" s="46"/>
-      <c r="AP27" s="46"/>
-      <c r="AQ27" s="46"/>
-      <c r="AR27" s="46"/>
-      <c r="AS27" s="46"/>
-      <c r="AT27" s="46"/>
-      <c r="AU27" s="46"/>
-      <c r="AV27" s="46"/>
-      <c r="AW27" s="46"/>
-      <c r="AX27" s="46"/>
-      <c r="AY27" s="46"/>
-      <c r="AZ27" s="46"/>
-      <c r="BA27" s="46"/>
-      <c r="BB27" s="46"/>
-      <c r="BC27" s="46"/>
-      <c r="BD27" s="46"/>
-      <c r="BE27" s="46"/>
-      <c r="BF27" s="46"/>
-      <c r="BG27" s="46"/>
-      <c r="BH27" s="46"/>
-      <c r="BI27" s="46"/>
-      <c r="BJ27" s="46"/>
-      <c r="BK27" s="46"/>
-      <c r="BL27" s="46"/>
-      <c r="BM27" s="46"/>
-      <c r="BN27" s="46"/>
-      <c r="BO27" s="46"/>
-      <c r="BP27" s="46"/>
-      <c r="BQ27" s="46"/>
-      <c r="BR27" s="46"/>
-      <c r="BS27" s="46"/>
-      <c r="BT27" s="46"/>
-      <c r="BU27" s="46"/>
-      <c r="BV27" s="46"/>
-      <c r="BW27" s="46"/>
-      <c r="BX27" s="46"/>
-      <c r="BY27" s="46"/>
-      <c r="BZ27" s="46"/>
-      <c r="CA27" s="46"/>
-      <c r="CB27" s="46"/>
-      <c r="CC27" s="46"/>
-      <c r="CD27" s="46"/>
-      <c r="CE27" s="46"/>
-      <c r="CF27" s="46"/>
-      <c r="CG27" s="46"/>
-      <c r="CH27" s="46"/>
-      <c r="CI27" s="46"/>
-      <c r="CJ27" s="46"/>
-      <c r="CK27" s="46"/>
-      <c r="CL27" s="46"/>
-      <c r="CM27" s="46"/>
-      <c r="CN27" s="46"/>
-      <c r="CO27" s="46"/>
-      <c r="CP27" s="46"/>
-      <c r="CQ27" s="46"/>
-      <c r="CR27" s="46"/>
-      <c r="CS27" s="46"/>
-      <c r="CT27" s="46"/>
-      <c r="CU27" s="46"/>
-      <c r="CV27" s="46"/>
-      <c r="CW27" s="46"/>
-      <c r="CX27" s="46"/>
-      <c r="CY27" s="46"/>
-      <c r="CZ27" s="46"/>
-      <c r="DA27" s="46"/>
-      <c r="DB27" s="46"/>
-      <c r="DC27" s="46"/>
-      <c r="DD27" s="46"/>
-      <c r="DE27" s="46"/>
-      <c r="DF27" s="46"/>
-      <c r="DG27" s="46"/>
-      <c r="DH27" s="46"/>
-      <c r="DI27" s="46"/>
-      <c r="DJ27" s="46"/>
-      <c r="DK27" s="46"/>
-      <c r="DL27" s="46"/>
-      <c r="DM27" s="46"/>
-      <c r="DN27" s="46"/>
-      <c r="DO27" s="46"/>
-      <c r="DP27" s="46"/>
-      <c r="DQ27" s="46"/>
-      <c r="DR27" s="46"/>
-      <c r="DS27" s="46"/>
-      <c r="DT27" s="46"/>
-      <c r="DU27" s="46"/>
-      <c r="DV27" s="46"/>
-      <c r="DW27" s="46"/>
-      <c r="DX27" s="46"/>
-      <c r="DY27" s="46"/>
-      <c r="DZ27" s="46"/>
-      <c r="EA27" s="46"/>
-      <c r="EB27" s="46"/>
-      <c r="EC27" s="46"/>
-      <c r="ED27" s="46"/>
-      <c r="EE27" s="46"/>
-      <c r="EF27" s="46"/>
-      <c r="EG27" s="46"/>
-      <c r="EH27" s="46"/>
-      <c r="EI27" s="46"/>
-      <c r="EJ27" s="46"/>
-      <c r="EK27" s="46"/>
-      <c r="EL27" s="46"/>
-      <c r="EM27" s="46"/>
-      <c r="EN27" s="46"/>
-      <c r="EO27" s="46"/>
-      <c r="EP27" s="46"/>
-      <c r="EQ27" s="46"/>
-      <c r="ER27" s="46"/>
-      <c r="ES27" s="46"/>
-      <c r="ET27" s="46"/>
-      <c r="EU27" s="46"/>
-      <c r="EV27" s="46"/>
-      <c r="EW27" s="46"/>
-      <c r="EX27" s="46"/>
-      <c r="EY27" s="46"/>
-      <c r="EZ27" s="46"/>
-      <c r="FA27" s="46"/>
-      <c r="FB27" s="46"/>
-      <c r="FC27" s="46"/>
-      <c r="FD27" s="46"/>
-      <c r="FE27" s="46"/>
-      <c r="FF27" s="46"/>
-      <c r="FG27" s="46"/>
-      <c r="FH27" s="46"/>
-      <c r="FI27" s="46"/>
-      <c r="FJ27" s="46"/>
-      <c r="FK27" s="46"/>
-      <c r="FL27" s="46"/>
-      <c r="FM27" s="46"/>
-      <c r="FN27" s="46"/>
-      <c r="FO27" s="46"/>
-      <c r="FP27" s="46"/>
-      <c r="FQ27" s="46"/>
-      <c r="FR27" s="46"/>
-      <c r="FS27" s="46"/>
-      <c r="FT27" s="46"/>
-      <c r="FU27" s="46"/>
-      <c r="FV27" s="46"/>
-      <c r="FW27" s="46"/>
-      <c r="FX27" s="46"/>
-      <c r="FY27" s="46"/>
-      <c r="FZ27" s="46"/>
-      <c r="GA27" s="46"/>
-      <c r="GB27" s="46"/>
-      <c r="GC27" s="46"/>
-      <c r="GD27" s="46"/>
-      <c r="GE27" s="46"/>
-      <c r="GF27" s="46"/>
-      <c r="GG27" s="46"/>
-      <c r="GH27" s="46"/>
-      <c r="GI27" s="46"/>
-      <c r="GJ27" s="46"/>
-      <c r="GK27" s="46"/>
-      <c r="GL27" s="46"/>
-      <c r="GM27" s="46"/>
-      <c r="GN27" s="46"/>
-      <c r="GO27" s="46"/>
-      <c r="GP27" s="46"/>
-      <c r="GQ27" s="46"/>
-      <c r="GR27" s="46"/>
-      <c r="GS27" s="46"/>
-      <c r="GT27" s="46"/>
-      <c r="GU27" s="46"/>
-      <c r="GV27" s="46"/>
-      <c r="GW27" s="46"/>
-      <c r="GX27" s="46"/>
-      <c r="GY27" s="46"/>
-      <c r="GZ27" s="46"/>
-      <c r="HA27" s="46"/>
-      <c r="HB27" s="46"/>
-      <c r="HC27" s="46"/>
-      <c r="HD27" s="46"/>
-      <c r="HE27" s="46"/>
-      <c r="HF27" s="46"/>
-      <c r="HG27" s="46"/>
-      <c r="HH27" s="46"/>
-      <c r="HI27" s="46"/>
-      <c r="HJ27" s="46"/>
-      <c r="HK27" s="46"/>
-      <c r="HL27" s="46"/>
-      <c r="HM27" s="46"/>
-      <c r="HN27" s="46"/>
-      <c r="HO27" s="46"/>
-      <c r="HP27" s="46"/>
-      <c r="HQ27" s="46"/>
-      <c r="HR27" s="46"/>
-      <c r="HS27" s="46"/>
-      <c r="HT27" s="46"/>
-      <c r="HU27" s="46"/>
-      <c r="HV27" s="46"/>
-      <c r="HW27" s="46"/>
-      <c r="HX27" s="46"/>
-      <c r="HY27" s="46"/>
-      <c r="HZ27" s="46"/>
-      <c r="IA27" s="46"/>
-      <c r="IB27" s="46"/>
-      <c r="IC27" s="46"/>
-      <c r="ID27" s="46"/>
-      <c r="IE27" s="46"/>
-      <c r="IF27" s="46"/>
-      <c r="IG27" s="46"/>
-      <c r="IH27" s="46"/>
-      <c r="II27" s="46"/>
-      <c r="IJ27" s="46"/>
-      <c r="IK27" s="46"/>
-      <c r="IL27" s="46"/>
-      <c r="IM27" s="46"/>
-      <c r="IN27" s="46"/>
-      <c r="IO27" s="46"/>
-      <c r="IP27" s="46"/>
-      <c r="IQ27" s="46"/>
-      <c r="IR27" s="46"/>
-      <c r="IS27" s="46"/>
-      <c r="IT27" s="46"/>
-      <c r="IU27" s="46"/>
-      <c r="IV27" s="46"/>
-      <c r="IW27" s="46"/>
-      <c r="IX27" s="46"/>
+    <row r="27" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
     </row>
-    <row r="28" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+    <row r="28" spans="1:258" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="46"/>
+      <c r="AN28" s="46"/>
+      <c r="AO28" s="46"/>
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="46"/>
+      <c r="AR28" s="46"/>
+      <c r="AS28" s="46"/>
+      <c r="AT28" s="46"/>
+      <c r="AU28" s="46"/>
+      <c r="AV28" s="46"/>
+      <c r="AW28" s="46"/>
+      <c r="AX28" s="46"/>
+      <c r="AY28" s="46"/>
+      <c r="AZ28" s="46"/>
+      <c r="BA28" s="46"/>
+      <c r="BB28" s="46"/>
+      <c r="BC28" s="46"/>
+      <c r="BD28" s="46"/>
+      <c r="BE28" s="46"/>
+      <c r="BF28" s="46"/>
+      <c r="BG28" s="46"/>
+      <c r="BH28" s="46"/>
+      <c r="BI28" s="46"/>
+      <c r="BJ28" s="46"/>
+      <c r="BK28" s="46"/>
+      <c r="BL28" s="46"/>
+      <c r="BM28" s="46"/>
+      <c r="BN28" s="46"/>
+      <c r="BO28" s="46"/>
+      <c r="BP28" s="46"/>
+      <c r="BQ28" s="46"/>
+      <c r="BR28" s="46"/>
+      <c r="BS28" s="46"/>
+      <c r="BT28" s="46"/>
+      <c r="BU28" s="46"/>
+      <c r="BV28" s="46"/>
+      <c r="BW28" s="46"/>
+      <c r="BX28" s="46"/>
+      <c r="BY28" s="46"/>
+      <c r="BZ28" s="46"/>
+      <c r="CA28" s="46"/>
+      <c r="CB28" s="46"/>
+      <c r="CC28" s="46"/>
+      <c r="CD28" s="46"/>
+      <c r="CE28" s="46"/>
+      <c r="CF28" s="46"/>
+      <c r="CG28" s="46"/>
+      <c r="CH28" s="46"/>
+      <c r="CI28" s="46"/>
+      <c r="CJ28" s="46"/>
+      <c r="CK28" s="46"/>
+      <c r="CL28" s="46"/>
+      <c r="CM28" s="46"/>
+      <c r="CN28" s="46"/>
+      <c r="CO28" s="46"/>
+      <c r="CP28" s="46"/>
+      <c r="CQ28" s="46"/>
+      <c r="CR28" s="46"/>
+      <c r="CS28" s="46"/>
+      <c r="CT28" s="46"/>
+      <c r="CU28" s="46"/>
+      <c r="CV28" s="46"/>
+      <c r="CW28" s="46"/>
+      <c r="CX28" s="46"/>
+      <c r="CY28" s="46"/>
+      <c r="CZ28" s="46"/>
+      <c r="DA28" s="46"/>
+      <c r="DB28" s="46"/>
+      <c r="DC28" s="46"/>
+      <c r="DD28" s="46"/>
+      <c r="DE28" s="46"/>
+      <c r="DF28" s="46"/>
+      <c r="DG28" s="46"/>
+      <c r="DH28" s="46"/>
+      <c r="DI28" s="46"/>
+      <c r="DJ28" s="46"/>
+      <c r="DK28" s="46"/>
+      <c r="DL28" s="46"/>
+      <c r="DM28" s="46"/>
+      <c r="DN28" s="46"/>
+      <c r="DO28" s="46"/>
+      <c r="DP28" s="46"/>
+      <c r="DQ28" s="46"/>
+      <c r="DR28" s="46"/>
+      <c r="DS28" s="46"/>
+      <c r="DT28" s="46"/>
+      <c r="DU28" s="46"/>
+      <c r="DV28" s="46"/>
+      <c r="DW28" s="46"/>
+      <c r="DX28" s="46"/>
+      <c r="DY28" s="46"/>
+      <c r="DZ28" s="46"/>
+      <c r="EA28" s="46"/>
+      <c r="EB28" s="46"/>
+      <c r="EC28" s="46"/>
+      <c r="ED28" s="46"/>
+      <c r="EE28" s="46"/>
+      <c r="EF28" s="46"/>
+      <c r="EG28" s="46"/>
+      <c r="EH28" s="46"/>
+      <c r="EI28" s="46"/>
+      <c r="EJ28" s="46"/>
+      <c r="EK28" s="46"/>
+      <c r="EL28" s="46"/>
+      <c r="EM28" s="46"/>
+      <c r="EN28" s="46"/>
+      <c r="EO28" s="46"/>
+      <c r="EP28" s="46"/>
+      <c r="EQ28" s="46"/>
+      <c r="ER28" s="46"/>
+      <c r="ES28" s="46"/>
+      <c r="ET28" s="46"/>
+      <c r="EU28" s="46"/>
+      <c r="EV28" s="46"/>
+      <c r="EW28" s="46"/>
+      <c r="EX28" s="46"/>
+      <c r="EY28" s="46"/>
+      <c r="EZ28" s="46"/>
+      <c r="FA28" s="46"/>
+      <c r="FB28" s="46"/>
+      <c r="FC28" s="46"/>
+      <c r="FD28" s="46"/>
+      <c r="FE28" s="46"/>
+      <c r="FF28" s="46"/>
+      <c r="FG28" s="46"/>
+      <c r="FH28" s="46"/>
+      <c r="FI28" s="46"/>
+      <c r="FJ28" s="46"/>
+      <c r="FK28" s="46"/>
+      <c r="FL28" s="46"/>
+      <c r="FM28" s="46"/>
+      <c r="FN28" s="46"/>
+      <c r="FO28" s="46"/>
+      <c r="FP28" s="46"/>
+      <c r="FQ28" s="46"/>
+      <c r="FR28" s="46"/>
+      <c r="FS28" s="46"/>
+      <c r="FT28" s="46"/>
+      <c r="FU28" s="46"/>
+      <c r="FV28" s="46"/>
+      <c r="FW28" s="46"/>
+      <c r="FX28" s="46"/>
+      <c r="FY28" s="46"/>
+      <c r="FZ28" s="46"/>
+      <c r="GA28" s="46"/>
+      <c r="GB28" s="46"/>
+      <c r="GC28" s="46"/>
+      <c r="GD28" s="46"/>
+      <c r="GE28" s="46"/>
+      <c r="GF28" s="46"/>
+      <c r="GG28" s="46"/>
+      <c r="GH28" s="46"/>
+      <c r="GI28" s="46"/>
+      <c r="GJ28" s="46"/>
+      <c r="GK28" s="46"/>
+      <c r="GL28" s="46"/>
+      <c r="GM28" s="46"/>
+      <c r="GN28" s="46"/>
+      <c r="GO28" s="46"/>
+      <c r="GP28" s="46"/>
+      <c r="GQ28" s="46"/>
+      <c r="GR28" s="46"/>
+      <c r="GS28" s="46"/>
+      <c r="GT28" s="46"/>
+      <c r="GU28" s="46"/>
+      <c r="GV28" s="46"/>
+      <c r="GW28" s="46"/>
+      <c r="GX28" s="46"/>
+      <c r="GY28" s="46"/>
+      <c r="GZ28" s="46"/>
+      <c r="HA28" s="46"/>
+      <c r="HB28" s="46"/>
+      <c r="HC28" s="46"/>
+      <c r="HD28" s="46"/>
+      <c r="HE28" s="46"/>
+      <c r="HF28" s="46"/>
+      <c r="HG28" s="46"/>
+      <c r="HH28" s="46"/>
+      <c r="HI28" s="46"/>
+      <c r="HJ28" s="46"/>
+      <c r="HK28" s="46"/>
+      <c r="HL28" s="46"/>
+      <c r="HM28" s="46"/>
+      <c r="HN28" s="46"/>
+      <c r="HO28" s="46"/>
+      <c r="HP28" s="46"/>
+      <c r="HQ28" s="46"/>
+      <c r="HR28" s="46"/>
+      <c r="HS28" s="46"/>
+      <c r="HT28" s="46"/>
+      <c r="HU28" s="46"/>
+      <c r="HV28" s="46"/>
+      <c r="HW28" s="46"/>
+      <c r="HX28" s="46"/>
+      <c r="HY28" s="46"/>
+      <c r="HZ28" s="46"/>
+      <c r="IA28" s="46"/>
+      <c r="IB28" s="46"/>
+      <c r="IC28" s="46"/>
+      <c r="ID28" s="46"/>
+      <c r="IE28" s="46"/>
+      <c r="IF28" s="46"/>
+      <c r="IG28" s="46"/>
+      <c r="IH28" s="46"/>
+      <c r="II28" s="46"/>
+      <c r="IJ28" s="46"/>
+      <c r="IK28" s="46"/>
+      <c r="IL28" s="46"/>
+      <c r="IM28" s="46"/>
+      <c r="IN28" s="46"/>
+      <c r="IO28" s="46"/>
+      <c r="IP28" s="46"/>
+      <c r="IQ28" s="46"/>
+      <c r="IR28" s="46"/>
+      <c r="IS28" s="46"/>
+      <c r="IT28" s="46"/>
+      <c r="IU28" s="46"/>
+      <c r="IV28" s="46"/>
+      <c r="IW28" s="46"/>
+      <c r="IX28" s="46"/>
     </row>
     <row r="29" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -7292,43 +7564,43 @@
       <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="25"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="25"/>
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -7340,20 +7612,20 @@
       <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="11"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="9"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
@@ -7364,38 +7636,38 @@
       <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="26"/>
       <c r="J39" s="26"/>
     </row>
@@ -7435,15 +7707,27 @@
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
     </row>
+    <row r="43" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -9640,7 +9924,7 @@
       <c r="IX9" s="35"/>
     </row>
     <row r="10" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="63" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="32" t="s">
@@ -9912,7 +10196,7 @@
       <c r="IX10" s="12"/>
     </row>
     <row r="11" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="11" t="s">
         <v>31</v>
       </c>
@@ -10182,7 +10466,7 @@
       <c r="IX11" s="12"/>
     </row>
     <row r="12" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="29" t="s">
         <v>34</v>
       </c>
@@ -10980,7 +11264,7 @@
       <c r="IX14" s="35"/>
     </row>
     <row r="15" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="64" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -11252,7 +11536,7 @@
       <c r="IX15" s="12"/>
     </row>
     <row r="16" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="11" t="s">
         <v>39</v>
       </c>
@@ -11520,7 +11804,7 @@
       <c r="IX16" s="12"/>
     </row>
     <row r="17" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="29" t="s">
         <v>41</v>
       </c>
@@ -11801,7 +12085,7 @@
       <c r="IX18" s="46"/>
     </row>
     <row r="19" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="58" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -11825,7 +12109,7 @@
       <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="11" t="s">
         <v>56</v>
       </c>
@@ -11846,7 +12130,7 @@
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="11" t="s">
         <v>51</v>
       </c>
@@ -11868,7 +12152,7 @@
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="29" t="s">
         <v>52</v>
       </c>
@@ -12150,7 +12434,7 @@
       <c r="IX23" s="46"/>
     </row>
     <row r="24" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="58" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="44" t="s">
@@ -12172,7 +12456,7 @@
       <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="25" t="s">
         <v>67</v>
       </c>
@@ -12194,7 +12478,7 @@
       <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="25" t="s">
         <v>70</v>
       </c>
@@ -12218,7 +12502,7 @@
       <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="25" t="s">
         <v>79</v>
       </c>
@@ -12240,7 +12524,7 @@
       <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="25" t="s">
         <v>73</v>
       </c>
@@ -12264,7 +12548,7 @@
       <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="25" t="s">
         <v>75</v>
       </c>
@@ -12286,7 +12570,7 @@
       <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="58" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -12310,8 +12594,8 @@
       <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="58" t="s">
+      <c r="A31" s="59"/>
+      <c r="B31" s="61" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -12332,8 +12616,8 @@
       <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="9" t="s">
         <v>86</v>
       </c>
@@ -12352,7 +12636,7 @@
       <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="25" t="s">
         <v>91</v>
       </c>
@@ -12374,7 +12658,7 @@
       <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="25" t="s">
         <v>94</v>
       </c>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -724,23 +724,6 @@
     <t>/departments</t>
   </si>
   <si>
-    <t>{
- "page": {
-  "pages": 10
-  },
- "employees": [
-  {
-   "id": 1,
-   "name": "",
-   "userName": "",
-   "email": "",
-   "phone": "",
-   "sort": 22
-  }
- ]
-}</t>
-  </si>
-  <si>
     <t>Get all department users</t>
   </si>
   <si>
@@ -818,9 +801,7 @@
   </si>
   <si>
     <t>{
- "page": {
-  "pages": 10
-  },
+ "count": 100,
  "departments":[{
    "id": 1,
    "text": "",
@@ -828,6 +809,21 @@
    "order": 1,
    "remark": ""
   }]
+}</t>
+  </si>
+  <si>
+    <t>{
+ "count": 100,
+ "employees": [
+  {
+   "id": 1,
+   "name": "",
+   "userName": "",
+   "email": "",
+   "phone": "",
+   "sort": 22
+  }
+ ]
 }</t>
   </si>
 </sst>
@@ -2754,7 +2750,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="39"/>
@@ -3010,10 +3006,10 @@
     <row r="7" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
       <c r="B7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>25</v>
@@ -3022,7 +3018,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="11"/>
@@ -3278,10 +3274,10 @@
     <row r="8" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>107</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>108</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>25</v>
@@ -3290,7 +3286,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
@@ -3546,7 +3542,7 @@
     <row r="9" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>105</v>
@@ -3557,10 +3553,10 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>101</v>
@@ -3818,10 +3814,10 @@
     <row r="10" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
@@ -3829,10 +3825,10 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>101</v>
@@ -4090,10 +4086,10 @@
     <row r="11" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
       <c r="B11" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>15</v>
@@ -4101,10 +4097,10 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>101</v>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -817,11 +817,12 @@
  "employees": [
   {
    "id": 1,
-   "name": "",
+   "realName": "",
    "userName": "",
    "email": "",
    "phone": "",
-   "sort": 22
+   "order": 22,
+   "department": ""
   }
  ]
 }</t>
@@ -1613,8 +1614,8 @@
   <dimension ref="A1:IX43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -25,10 +25,10 @@
     <author>joe.feng@hotmail.com</author>
   </authors>
   <commentList>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C22" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="G22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="126">
   <si>
     <t>Comments</t>
   </si>
@@ -825,6 +825,22 @@
    "department": ""
   }
  ]
+}</t>
+  </si>
+  <si>
+    <t>Delete departments</t>
+  </si>
+  <si>
+    <t>{
+  "departmentIds": [1,2,3]
+}</t>
+  </si>
+  <si>
+    <t>Delete users</t>
+  </si>
+  <si>
+    <t>{
+  "userIds": [1,2,3]
 }</t>
   </si>
 </sst>
@@ -1611,11 +1627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IX43"/>
+  <dimension ref="A1:IX45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3815,25 +3831,23 @@
     <row r="10" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="11" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="11" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="I10" s="9"/>
       <c r="J10" s="11"/>
       <c r="K10" s="9"/>
       <c r="L10" s="12"/>
@@ -4085,12 +4099,12 @@
       <c r="IX10" s="12"/>
     </row>
     <row r="11" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>15</v>
@@ -4098,7 +4112,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>116</v>
@@ -4356,278 +4370,300 @@
       <c r="IW11" s="12"/>
       <c r="IX11" s="12"/>
     </row>
-    <row r="12" spans="1:258" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="35"/>
-      <c r="AP12" s="35"/>
-      <c r="AQ12" s="35"/>
-      <c r="AR12" s="35"/>
-      <c r="AS12" s="35"/>
-      <c r="AT12" s="35"/>
-      <c r="AU12" s="35"/>
-      <c r="AV12" s="35"/>
-      <c r="AW12" s="35"/>
-      <c r="AX12" s="35"/>
-      <c r="AY12" s="35"/>
-      <c r="AZ12" s="35"/>
-      <c r="BA12" s="35"/>
-      <c r="BB12" s="35"/>
-      <c r="BC12" s="35"/>
-      <c r="BD12" s="35"/>
-      <c r="BE12" s="35"/>
-      <c r="BF12" s="35"/>
-      <c r="BG12" s="35"/>
-      <c r="BH12" s="35"/>
-      <c r="BI12" s="35"/>
-      <c r="BJ12" s="35"/>
-      <c r="BK12" s="35"/>
-      <c r="BL12" s="35"/>
-      <c r="BM12" s="35"/>
-      <c r="BN12" s="35"/>
-      <c r="BO12" s="35"/>
-      <c r="BP12" s="35"/>
-      <c r="BQ12" s="35"/>
-      <c r="BR12" s="35"/>
-      <c r="BS12" s="35"/>
-      <c r="BT12" s="35"/>
-      <c r="BU12" s="35"/>
-      <c r="BV12" s="35"/>
-      <c r="BW12" s="35"/>
-      <c r="BX12" s="35"/>
-      <c r="BY12" s="35"/>
-      <c r="BZ12" s="35"/>
-      <c r="CA12" s="35"/>
-      <c r="CB12" s="35"/>
-      <c r="CC12" s="35"/>
-      <c r="CD12" s="35"/>
-      <c r="CE12" s="35"/>
-      <c r="CF12" s="35"/>
-      <c r="CG12" s="35"/>
-      <c r="CH12" s="35"/>
-      <c r="CI12" s="35"/>
-      <c r="CJ12" s="35"/>
-      <c r="CK12" s="35"/>
-      <c r="CL12" s="35"/>
-      <c r="CM12" s="35"/>
-      <c r="CN12" s="35"/>
-      <c r="CO12" s="35"/>
-      <c r="CP12" s="35"/>
-      <c r="CQ12" s="35"/>
-      <c r="CR12" s="35"/>
-      <c r="CS12" s="35"/>
-      <c r="CT12" s="35"/>
-      <c r="CU12" s="35"/>
-      <c r="CV12" s="35"/>
-      <c r="CW12" s="35"/>
-      <c r="CX12" s="35"/>
-      <c r="CY12" s="35"/>
-      <c r="CZ12" s="35"/>
-      <c r="DA12" s="35"/>
-      <c r="DB12" s="35"/>
-      <c r="DC12" s="35"/>
-      <c r="DD12" s="35"/>
-      <c r="DE12" s="35"/>
-      <c r="DF12" s="35"/>
-      <c r="DG12" s="35"/>
-      <c r="DH12" s="35"/>
-      <c r="DI12" s="35"/>
-      <c r="DJ12" s="35"/>
-      <c r="DK12" s="35"/>
-      <c r="DL12" s="35"/>
-      <c r="DM12" s="35"/>
-      <c r="DN12" s="35"/>
-      <c r="DO12" s="35"/>
-      <c r="DP12" s="35"/>
-      <c r="DQ12" s="35"/>
-      <c r="DR12" s="35"/>
-      <c r="DS12" s="35"/>
-      <c r="DT12" s="35"/>
-      <c r="DU12" s="35"/>
-      <c r="DV12" s="35"/>
-      <c r="DW12" s="35"/>
-      <c r="DX12" s="35"/>
-      <c r="DY12" s="35"/>
-      <c r="DZ12" s="35"/>
-      <c r="EA12" s="35"/>
-      <c r="EB12" s="35"/>
-      <c r="EC12" s="35"/>
-      <c r="ED12" s="35"/>
-      <c r="EE12" s="35"/>
-      <c r="EF12" s="35"/>
-      <c r="EG12" s="35"/>
-      <c r="EH12" s="35"/>
-      <c r="EI12" s="35"/>
-      <c r="EJ12" s="35"/>
-      <c r="EK12" s="35"/>
-      <c r="EL12" s="35"/>
-      <c r="EM12" s="35"/>
-      <c r="EN12" s="35"/>
-      <c r="EO12" s="35"/>
-      <c r="EP12" s="35"/>
-      <c r="EQ12" s="35"/>
-      <c r="ER12" s="35"/>
-      <c r="ES12" s="35"/>
-      <c r="ET12" s="35"/>
-      <c r="EU12" s="35"/>
-      <c r="EV12" s="35"/>
-      <c r="EW12" s="35"/>
-      <c r="EX12" s="35"/>
-      <c r="EY12" s="35"/>
-      <c r="EZ12" s="35"/>
-      <c r="FA12" s="35"/>
-      <c r="FB12" s="35"/>
-      <c r="FC12" s="35"/>
-      <c r="FD12" s="35"/>
-      <c r="FE12" s="35"/>
-      <c r="FF12" s="35"/>
-      <c r="FG12" s="35"/>
-      <c r="FH12" s="35"/>
-      <c r="FI12" s="35"/>
-      <c r="FJ12" s="35"/>
-      <c r="FK12" s="35"/>
-      <c r="FL12" s="35"/>
-      <c r="FM12" s="35"/>
-      <c r="FN12" s="35"/>
-      <c r="FO12" s="35"/>
-      <c r="FP12" s="35"/>
-      <c r="FQ12" s="35"/>
-      <c r="FR12" s="35"/>
-      <c r="FS12" s="35"/>
-      <c r="FT12" s="35"/>
-      <c r="FU12" s="35"/>
-      <c r="FV12" s="35"/>
-      <c r="FW12" s="35"/>
-      <c r="FX12" s="35"/>
-      <c r="FY12" s="35"/>
-      <c r="FZ12" s="35"/>
-      <c r="GA12" s="35"/>
-      <c r="GB12" s="35"/>
-      <c r="GC12" s="35"/>
-      <c r="GD12" s="35"/>
-      <c r="GE12" s="35"/>
-      <c r="GF12" s="35"/>
-      <c r="GG12" s="35"/>
-      <c r="GH12" s="35"/>
-      <c r="GI12" s="35"/>
-      <c r="GJ12" s="35"/>
-      <c r="GK12" s="35"/>
-      <c r="GL12" s="35"/>
-      <c r="GM12" s="35"/>
-      <c r="GN12" s="35"/>
-      <c r="GO12" s="35"/>
-      <c r="GP12" s="35"/>
-      <c r="GQ12" s="35"/>
-      <c r="GR12" s="35"/>
-      <c r="GS12" s="35"/>
-      <c r="GT12" s="35"/>
-      <c r="GU12" s="35"/>
-      <c r="GV12" s="35"/>
-      <c r="GW12" s="35"/>
-      <c r="GX12" s="35"/>
-      <c r="GY12" s="35"/>
-      <c r="GZ12" s="35"/>
-      <c r="HA12" s="35"/>
-      <c r="HB12" s="35"/>
-      <c r="HC12" s="35"/>
-      <c r="HD12" s="35"/>
-      <c r="HE12" s="35"/>
-      <c r="HF12" s="35"/>
-      <c r="HG12" s="35"/>
-      <c r="HH12" s="35"/>
-      <c r="HI12" s="35"/>
-      <c r="HJ12" s="35"/>
-      <c r="HK12" s="35"/>
-      <c r="HL12" s="35"/>
-      <c r="HM12" s="35"/>
-      <c r="HN12" s="35"/>
-      <c r="HO12" s="35"/>
-      <c r="HP12" s="35"/>
-      <c r="HQ12" s="35"/>
-      <c r="HR12" s="35"/>
-      <c r="HS12" s="35"/>
-      <c r="HT12" s="35"/>
-      <c r="HU12" s="35"/>
-      <c r="HV12" s="35"/>
-      <c r="HW12" s="35"/>
-      <c r="HX12" s="35"/>
-      <c r="HY12" s="35"/>
-      <c r="HZ12" s="35"/>
-      <c r="IA12" s="35"/>
-      <c r="IB12" s="35"/>
-      <c r="IC12" s="35"/>
-      <c r="ID12" s="35"/>
-      <c r="IE12" s="35"/>
-      <c r="IF12" s="35"/>
-      <c r="IG12" s="35"/>
-      <c r="IH12" s="35"/>
-      <c r="II12" s="35"/>
-      <c r="IJ12" s="35"/>
-      <c r="IK12" s="35"/>
-      <c r="IL12" s="35"/>
-      <c r="IM12" s="35"/>
-      <c r="IN12" s="35"/>
-      <c r="IO12" s="35"/>
-      <c r="IP12" s="35"/>
-      <c r="IQ12" s="35"/>
-      <c r="IR12" s="35"/>
-      <c r="IS12" s="35"/>
-      <c r="IT12" s="35"/>
-      <c r="IU12" s="35"/>
-      <c r="IV12" s="35"/>
-      <c r="IW12" s="35"/>
-      <c r="IX12" s="35"/>
+    <row r="12" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="56"/>
+      <c r="B12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="12"/>
+      <c r="BH12" s="12"/>
+      <c r="BI12" s="12"/>
+      <c r="BJ12" s="12"/>
+      <c r="BK12" s="12"/>
+      <c r="BL12" s="12"/>
+      <c r="BM12" s="12"/>
+      <c r="BN12" s="12"/>
+      <c r="BO12" s="12"/>
+      <c r="BP12" s="12"/>
+      <c r="BQ12" s="12"/>
+      <c r="BR12" s="12"/>
+      <c r="BS12" s="12"/>
+      <c r="BT12" s="12"/>
+      <c r="BU12" s="12"/>
+      <c r="BV12" s="12"/>
+      <c r="BW12" s="12"/>
+      <c r="BX12" s="12"/>
+      <c r="BY12" s="12"/>
+      <c r="BZ12" s="12"/>
+      <c r="CA12" s="12"/>
+      <c r="CB12" s="12"/>
+      <c r="CC12" s="12"/>
+      <c r="CD12" s="12"/>
+      <c r="CE12" s="12"/>
+      <c r="CF12" s="12"/>
+      <c r="CG12" s="12"/>
+      <c r="CH12" s="12"/>
+      <c r="CI12" s="12"/>
+      <c r="CJ12" s="12"/>
+      <c r="CK12" s="12"/>
+      <c r="CL12" s="12"/>
+      <c r="CM12" s="12"/>
+      <c r="CN12" s="12"/>
+      <c r="CO12" s="12"/>
+      <c r="CP12" s="12"/>
+      <c r="CQ12" s="12"/>
+      <c r="CR12" s="12"/>
+      <c r="CS12" s="12"/>
+      <c r="CT12" s="12"/>
+      <c r="CU12" s="12"/>
+      <c r="CV12" s="12"/>
+      <c r="CW12" s="12"/>
+      <c r="CX12" s="12"/>
+      <c r="CY12" s="12"/>
+      <c r="CZ12" s="12"/>
+      <c r="DA12" s="12"/>
+      <c r="DB12" s="12"/>
+      <c r="DC12" s="12"/>
+      <c r="DD12" s="12"/>
+      <c r="DE12" s="12"/>
+      <c r="DF12" s="12"/>
+      <c r="DG12" s="12"/>
+      <c r="DH12" s="12"/>
+      <c r="DI12" s="12"/>
+      <c r="DJ12" s="12"/>
+      <c r="DK12" s="12"/>
+      <c r="DL12" s="12"/>
+      <c r="DM12" s="12"/>
+      <c r="DN12" s="12"/>
+      <c r="DO12" s="12"/>
+      <c r="DP12" s="12"/>
+      <c r="DQ12" s="12"/>
+      <c r="DR12" s="12"/>
+      <c r="DS12" s="12"/>
+      <c r="DT12" s="12"/>
+      <c r="DU12" s="12"/>
+      <c r="DV12" s="12"/>
+      <c r="DW12" s="12"/>
+      <c r="DX12" s="12"/>
+      <c r="DY12" s="12"/>
+      <c r="DZ12" s="12"/>
+      <c r="EA12" s="12"/>
+      <c r="EB12" s="12"/>
+      <c r="EC12" s="12"/>
+      <c r="ED12" s="12"/>
+      <c r="EE12" s="12"/>
+      <c r="EF12" s="12"/>
+      <c r="EG12" s="12"/>
+      <c r="EH12" s="12"/>
+      <c r="EI12" s="12"/>
+      <c r="EJ12" s="12"/>
+      <c r="EK12" s="12"/>
+      <c r="EL12" s="12"/>
+      <c r="EM12" s="12"/>
+      <c r="EN12" s="12"/>
+      <c r="EO12" s="12"/>
+      <c r="EP12" s="12"/>
+      <c r="EQ12" s="12"/>
+      <c r="ER12" s="12"/>
+      <c r="ES12" s="12"/>
+      <c r="ET12" s="12"/>
+      <c r="EU12" s="12"/>
+      <c r="EV12" s="12"/>
+      <c r="EW12" s="12"/>
+      <c r="EX12" s="12"/>
+      <c r="EY12" s="12"/>
+      <c r="EZ12" s="12"/>
+      <c r="FA12" s="12"/>
+      <c r="FB12" s="12"/>
+      <c r="FC12" s="12"/>
+      <c r="FD12" s="12"/>
+      <c r="FE12" s="12"/>
+      <c r="FF12" s="12"/>
+      <c r="FG12" s="12"/>
+      <c r="FH12" s="12"/>
+      <c r="FI12" s="12"/>
+      <c r="FJ12" s="12"/>
+      <c r="FK12" s="12"/>
+      <c r="FL12" s="12"/>
+      <c r="FM12" s="12"/>
+      <c r="FN12" s="12"/>
+      <c r="FO12" s="12"/>
+      <c r="FP12" s="12"/>
+      <c r="FQ12" s="12"/>
+      <c r="FR12" s="12"/>
+      <c r="FS12" s="12"/>
+      <c r="FT12" s="12"/>
+      <c r="FU12" s="12"/>
+      <c r="FV12" s="12"/>
+      <c r="FW12" s="12"/>
+      <c r="FX12" s="12"/>
+      <c r="FY12" s="12"/>
+      <c r="FZ12" s="12"/>
+      <c r="GA12" s="12"/>
+      <c r="GB12" s="12"/>
+      <c r="GC12" s="12"/>
+      <c r="GD12" s="12"/>
+      <c r="GE12" s="12"/>
+      <c r="GF12" s="12"/>
+      <c r="GG12" s="12"/>
+      <c r="GH12" s="12"/>
+      <c r="GI12" s="12"/>
+      <c r="GJ12" s="12"/>
+      <c r="GK12" s="12"/>
+      <c r="GL12" s="12"/>
+      <c r="GM12" s="12"/>
+      <c r="GN12" s="12"/>
+      <c r="GO12" s="12"/>
+      <c r="GP12" s="12"/>
+      <c r="GQ12" s="12"/>
+      <c r="GR12" s="12"/>
+      <c r="GS12" s="12"/>
+      <c r="GT12" s="12"/>
+      <c r="GU12" s="12"/>
+      <c r="GV12" s="12"/>
+      <c r="GW12" s="12"/>
+      <c r="GX12" s="12"/>
+      <c r="GY12" s="12"/>
+      <c r="GZ12" s="12"/>
+      <c r="HA12" s="12"/>
+      <c r="HB12" s="12"/>
+      <c r="HC12" s="12"/>
+      <c r="HD12" s="12"/>
+      <c r="HE12" s="12"/>
+      <c r="HF12" s="12"/>
+      <c r="HG12" s="12"/>
+      <c r="HH12" s="12"/>
+      <c r="HI12" s="12"/>
+      <c r="HJ12" s="12"/>
+      <c r="HK12" s="12"/>
+      <c r="HL12" s="12"/>
+      <c r="HM12" s="12"/>
+      <c r="HN12" s="12"/>
+      <c r="HO12" s="12"/>
+      <c r="HP12" s="12"/>
+      <c r="HQ12" s="12"/>
+      <c r="HR12" s="12"/>
+      <c r="HS12" s="12"/>
+      <c r="HT12" s="12"/>
+      <c r="HU12" s="12"/>
+      <c r="HV12" s="12"/>
+      <c r="HW12" s="12"/>
+      <c r="HX12" s="12"/>
+      <c r="HY12" s="12"/>
+      <c r="HZ12" s="12"/>
+      <c r="IA12" s="12"/>
+      <c r="IB12" s="12"/>
+      <c r="IC12" s="12"/>
+      <c r="ID12" s="12"/>
+      <c r="IE12" s="12"/>
+      <c r="IF12" s="12"/>
+      <c r="IG12" s="12"/>
+      <c r="IH12" s="12"/>
+      <c r="II12" s="12"/>
+      <c r="IJ12" s="12"/>
+      <c r="IK12" s="12"/>
+      <c r="IL12" s="12"/>
+      <c r="IM12" s="12"/>
+      <c r="IN12" s="12"/>
+      <c r="IO12" s="12"/>
+      <c r="IP12" s="12"/>
+      <c r="IQ12" s="12"/>
+      <c r="IR12" s="12"/>
+      <c r="IS12" s="12"/>
+      <c r="IT12" s="12"/>
+      <c r="IU12" s="12"/>
+      <c r="IV12" s="12"/>
+      <c r="IW12" s="12"/>
+      <c r="IX12" s="12"/>
     </row>
     <row r="13" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="37"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -4876,14 +4912,14 @@
       <c r="IW13" s="12"/>
       <c r="IX13" s="12"/>
     </row>
-    <row r="14" spans="1:258" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
+    <row r="14" spans="1:258" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="41"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="35"/>
       <c r="J14" s="34"/>
@@ -5137,17 +5173,17 @@
       <c r="IX14" s="35"/>
     </row>
     <row r="15" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="30"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -5396,278 +5432,278 @@
       <c r="IW15" s="12"/>
       <c r="IX15" s="12"/>
     </row>
-    <row r="16" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="12"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="12"/>
-      <c r="AZ16" s="12"/>
-      <c r="BA16" s="12"/>
-      <c r="BB16" s="12"/>
-      <c r="BC16" s="12"/>
-      <c r="BD16" s="12"/>
-      <c r="BE16" s="12"/>
-      <c r="BF16" s="12"/>
-      <c r="BG16" s="12"/>
-      <c r="BH16" s="12"/>
-      <c r="BI16" s="12"/>
-      <c r="BJ16" s="12"/>
-      <c r="BK16" s="12"/>
-      <c r="BL16" s="12"/>
-      <c r="BM16" s="12"/>
-      <c r="BN16" s="12"/>
-      <c r="BO16" s="12"/>
-      <c r="BP16" s="12"/>
-      <c r="BQ16" s="12"/>
-      <c r="BR16" s="12"/>
-      <c r="BS16" s="12"/>
-      <c r="BT16" s="12"/>
-      <c r="BU16" s="12"/>
-      <c r="BV16" s="12"/>
-      <c r="BW16" s="12"/>
-      <c r="BX16" s="12"/>
-      <c r="BY16" s="12"/>
-      <c r="BZ16" s="12"/>
-      <c r="CA16" s="12"/>
-      <c r="CB16" s="12"/>
-      <c r="CC16" s="12"/>
-      <c r="CD16" s="12"/>
-      <c r="CE16" s="12"/>
-      <c r="CF16" s="12"/>
-      <c r="CG16" s="12"/>
-      <c r="CH16" s="12"/>
-      <c r="CI16" s="12"/>
-      <c r="CJ16" s="12"/>
-      <c r="CK16" s="12"/>
-      <c r="CL16" s="12"/>
-      <c r="CM16" s="12"/>
-      <c r="CN16" s="12"/>
-      <c r="CO16" s="12"/>
-      <c r="CP16" s="12"/>
-      <c r="CQ16" s="12"/>
-      <c r="CR16" s="12"/>
-      <c r="CS16" s="12"/>
-      <c r="CT16" s="12"/>
-      <c r="CU16" s="12"/>
-      <c r="CV16" s="12"/>
-      <c r="CW16" s="12"/>
-      <c r="CX16" s="12"/>
-      <c r="CY16" s="12"/>
-      <c r="CZ16" s="12"/>
-      <c r="DA16" s="12"/>
-      <c r="DB16" s="12"/>
-      <c r="DC16" s="12"/>
-      <c r="DD16" s="12"/>
-      <c r="DE16" s="12"/>
-      <c r="DF16" s="12"/>
-      <c r="DG16" s="12"/>
-      <c r="DH16" s="12"/>
-      <c r="DI16" s="12"/>
-      <c r="DJ16" s="12"/>
-      <c r="DK16" s="12"/>
-      <c r="DL16" s="12"/>
-      <c r="DM16" s="12"/>
-      <c r="DN16" s="12"/>
-      <c r="DO16" s="12"/>
-      <c r="DP16" s="12"/>
-      <c r="DQ16" s="12"/>
-      <c r="DR16" s="12"/>
-      <c r="DS16" s="12"/>
-      <c r="DT16" s="12"/>
-      <c r="DU16" s="12"/>
-      <c r="DV16" s="12"/>
-      <c r="DW16" s="12"/>
-      <c r="DX16" s="12"/>
-      <c r="DY16" s="12"/>
-      <c r="DZ16" s="12"/>
-      <c r="EA16" s="12"/>
-      <c r="EB16" s="12"/>
-      <c r="EC16" s="12"/>
-      <c r="ED16" s="12"/>
-      <c r="EE16" s="12"/>
-      <c r="EF16" s="12"/>
-      <c r="EG16" s="12"/>
-      <c r="EH16" s="12"/>
-      <c r="EI16" s="12"/>
-      <c r="EJ16" s="12"/>
-      <c r="EK16" s="12"/>
-      <c r="EL16" s="12"/>
-      <c r="EM16" s="12"/>
-      <c r="EN16" s="12"/>
-      <c r="EO16" s="12"/>
-      <c r="EP16" s="12"/>
-      <c r="EQ16" s="12"/>
-      <c r="ER16" s="12"/>
-      <c r="ES16" s="12"/>
-      <c r="ET16" s="12"/>
-      <c r="EU16" s="12"/>
-      <c r="EV16" s="12"/>
-      <c r="EW16" s="12"/>
-      <c r="EX16" s="12"/>
-      <c r="EY16" s="12"/>
-      <c r="EZ16" s="12"/>
-      <c r="FA16" s="12"/>
-      <c r="FB16" s="12"/>
-      <c r="FC16" s="12"/>
-      <c r="FD16" s="12"/>
-      <c r="FE16" s="12"/>
-      <c r="FF16" s="12"/>
-      <c r="FG16" s="12"/>
-      <c r="FH16" s="12"/>
-      <c r="FI16" s="12"/>
-      <c r="FJ16" s="12"/>
-      <c r="FK16" s="12"/>
-      <c r="FL16" s="12"/>
-      <c r="FM16" s="12"/>
-      <c r="FN16" s="12"/>
-      <c r="FO16" s="12"/>
-      <c r="FP16" s="12"/>
-      <c r="FQ16" s="12"/>
-      <c r="FR16" s="12"/>
-      <c r="FS16" s="12"/>
-      <c r="FT16" s="12"/>
-      <c r="FU16" s="12"/>
-      <c r="FV16" s="12"/>
-      <c r="FW16" s="12"/>
-      <c r="FX16" s="12"/>
-      <c r="FY16" s="12"/>
-      <c r="FZ16" s="12"/>
-      <c r="GA16" s="12"/>
-      <c r="GB16" s="12"/>
-      <c r="GC16" s="12"/>
-      <c r="GD16" s="12"/>
-      <c r="GE16" s="12"/>
-      <c r="GF16" s="12"/>
-      <c r="GG16" s="12"/>
-      <c r="GH16" s="12"/>
-      <c r="GI16" s="12"/>
-      <c r="GJ16" s="12"/>
-      <c r="GK16" s="12"/>
-      <c r="GL16" s="12"/>
-      <c r="GM16" s="12"/>
-      <c r="GN16" s="12"/>
-      <c r="GO16" s="12"/>
-      <c r="GP16" s="12"/>
-      <c r="GQ16" s="12"/>
-      <c r="GR16" s="12"/>
-      <c r="GS16" s="12"/>
-      <c r="GT16" s="12"/>
-      <c r="GU16" s="12"/>
-      <c r="GV16" s="12"/>
-      <c r="GW16" s="12"/>
-      <c r="GX16" s="12"/>
-      <c r="GY16" s="12"/>
-      <c r="GZ16" s="12"/>
-      <c r="HA16" s="12"/>
-      <c r="HB16" s="12"/>
-      <c r="HC16" s="12"/>
-      <c r="HD16" s="12"/>
-      <c r="HE16" s="12"/>
-      <c r="HF16" s="12"/>
-      <c r="HG16" s="12"/>
-      <c r="HH16" s="12"/>
-      <c r="HI16" s="12"/>
-      <c r="HJ16" s="12"/>
-      <c r="HK16" s="12"/>
-      <c r="HL16" s="12"/>
-      <c r="HM16" s="12"/>
-      <c r="HN16" s="12"/>
-      <c r="HO16" s="12"/>
-      <c r="HP16" s="12"/>
-      <c r="HQ16" s="12"/>
-      <c r="HR16" s="12"/>
-      <c r="HS16" s="12"/>
-      <c r="HT16" s="12"/>
-      <c r="HU16" s="12"/>
-      <c r="HV16" s="12"/>
-      <c r="HW16" s="12"/>
-      <c r="HX16" s="12"/>
-      <c r="HY16" s="12"/>
-      <c r="HZ16" s="12"/>
-      <c r="IA16" s="12"/>
-      <c r="IB16" s="12"/>
-      <c r="IC16" s="12"/>
-      <c r="ID16" s="12"/>
-      <c r="IE16" s="12"/>
-      <c r="IF16" s="12"/>
-      <c r="IG16" s="12"/>
-      <c r="IH16" s="12"/>
-      <c r="II16" s="12"/>
-      <c r="IJ16" s="12"/>
-      <c r="IK16" s="12"/>
-      <c r="IL16" s="12"/>
-      <c r="IM16" s="12"/>
-      <c r="IN16" s="12"/>
-      <c r="IO16" s="12"/>
-      <c r="IP16" s="12"/>
-      <c r="IQ16" s="12"/>
-      <c r="IR16" s="12"/>
-      <c r="IS16" s="12"/>
-      <c r="IT16" s="12"/>
-      <c r="IU16" s="12"/>
-      <c r="IV16" s="12"/>
-      <c r="IW16" s="12"/>
-      <c r="IX16" s="12"/>
+    <row r="16" spans="1:258" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="35"/>
+      <c r="AQ16" s="35"/>
+      <c r="AR16" s="35"/>
+      <c r="AS16" s="35"/>
+      <c r="AT16" s="35"/>
+      <c r="AU16" s="35"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="35"/>
+      <c r="AX16" s="35"/>
+      <c r="AY16" s="35"/>
+      <c r="AZ16" s="35"/>
+      <c r="BA16" s="35"/>
+      <c r="BB16" s="35"/>
+      <c r="BC16" s="35"/>
+      <c r="BD16" s="35"/>
+      <c r="BE16" s="35"/>
+      <c r="BF16" s="35"/>
+      <c r="BG16" s="35"/>
+      <c r="BH16" s="35"/>
+      <c r="BI16" s="35"/>
+      <c r="BJ16" s="35"/>
+      <c r="BK16" s="35"/>
+      <c r="BL16" s="35"/>
+      <c r="BM16" s="35"/>
+      <c r="BN16" s="35"/>
+      <c r="BO16" s="35"/>
+      <c r="BP16" s="35"/>
+      <c r="BQ16" s="35"/>
+      <c r="BR16" s="35"/>
+      <c r="BS16" s="35"/>
+      <c r="BT16" s="35"/>
+      <c r="BU16" s="35"/>
+      <c r="BV16" s="35"/>
+      <c r="BW16" s="35"/>
+      <c r="BX16" s="35"/>
+      <c r="BY16" s="35"/>
+      <c r="BZ16" s="35"/>
+      <c r="CA16" s="35"/>
+      <c r="CB16" s="35"/>
+      <c r="CC16" s="35"/>
+      <c r="CD16" s="35"/>
+      <c r="CE16" s="35"/>
+      <c r="CF16" s="35"/>
+      <c r="CG16" s="35"/>
+      <c r="CH16" s="35"/>
+      <c r="CI16" s="35"/>
+      <c r="CJ16" s="35"/>
+      <c r="CK16" s="35"/>
+      <c r="CL16" s="35"/>
+      <c r="CM16" s="35"/>
+      <c r="CN16" s="35"/>
+      <c r="CO16" s="35"/>
+      <c r="CP16" s="35"/>
+      <c r="CQ16" s="35"/>
+      <c r="CR16" s="35"/>
+      <c r="CS16" s="35"/>
+      <c r="CT16" s="35"/>
+      <c r="CU16" s="35"/>
+      <c r="CV16" s="35"/>
+      <c r="CW16" s="35"/>
+      <c r="CX16" s="35"/>
+      <c r="CY16" s="35"/>
+      <c r="CZ16" s="35"/>
+      <c r="DA16" s="35"/>
+      <c r="DB16" s="35"/>
+      <c r="DC16" s="35"/>
+      <c r="DD16" s="35"/>
+      <c r="DE16" s="35"/>
+      <c r="DF16" s="35"/>
+      <c r="DG16" s="35"/>
+      <c r="DH16" s="35"/>
+      <c r="DI16" s="35"/>
+      <c r="DJ16" s="35"/>
+      <c r="DK16" s="35"/>
+      <c r="DL16" s="35"/>
+      <c r="DM16" s="35"/>
+      <c r="DN16" s="35"/>
+      <c r="DO16" s="35"/>
+      <c r="DP16" s="35"/>
+      <c r="DQ16" s="35"/>
+      <c r="DR16" s="35"/>
+      <c r="DS16" s="35"/>
+      <c r="DT16" s="35"/>
+      <c r="DU16" s="35"/>
+      <c r="DV16" s="35"/>
+      <c r="DW16" s="35"/>
+      <c r="DX16" s="35"/>
+      <c r="DY16" s="35"/>
+      <c r="DZ16" s="35"/>
+      <c r="EA16" s="35"/>
+      <c r="EB16" s="35"/>
+      <c r="EC16" s="35"/>
+      <c r="ED16" s="35"/>
+      <c r="EE16" s="35"/>
+      <c r="EF16" s="35"/>
+      <c r="EG16" s="35"/>
+      <c r="EH16" s="35"/>
+      <c r="EI16" s="35"/>
+      <c r="EJ16" s="35"/>
+      <c r="EK16" s="35"/>
+      <c r="EL16" s="35"/>
+      <c r="EM16" s="35"/>
+      <c r="EN16" s="35"/>
+      <c r="EO16" s="35"/>
+      <c r="EP16" s="35"/>
+      <c r="EQ16" s="35"/>
+      <c r="ER16" s="35"/>
+      <c r="ES16" s="35"/>
+      <c r="ET16" s="35"/>
+      <c r="EU16" s="35"/>
+      <c r="EV16" s="35"/>
+      <c r="EW16" s="35"/>
+      <c r="EX16" s="35"/>
+      <c r="EY16" s="35"/>
+      <c r="EZ16" s="35"/>
+      <c r="FA16" s="35"/>
+      <c r="FB16" s="35"/>
+      <c r="FC16" s="35"/>
+      <c r="FD16" s="35"/>
+      <c r="FE16" s="35"/>
+      <c r="FF16" s="35"/>
+      <c r="FG16" s="35"/>
+      <c r="FH16" s="35"/>
+      <c r="FI16" s="35"/>
+      <c r="FJ16" s="35"/>
+      <c r="FK16" s="35"/>
+      <c r="FL16" s="35"/>
+      <c r="FM16" s="35"/>
+      <c r="FN16" s="35"/>
+      <c r="FO16" s="35"/>
+      <c r="FP16" s="35"/>
+      <c r="FQ16" s="35"/>
+      <c r="FR16" s="35"/>
+      <c r="FS16" s="35"/>
+      <c r="FT16" s="35"/>
+      <c r="FU16" s="35"/>
+      <c r="FV16" s="35"/>
+      <c r="FW16" s="35"/>
+      <c r="FX16" s="35"/>
+      <c r="FY16" s="35"/>
+      <c r="FZ16" s="35"/>
+      <c r="GA16" s="35"/>
+      <c r="GB16" s="35"/>
+      <c r="GC16" s="35"/>
+      <c r="GD16" s="35"/>
+      <c r="GE16" s="35"/>
+      <c r="GF16" s="35"/>
+      <c r="GG16" s="35"/>
+      <c r="GH16" s="35"/>
+      <c r="GI16" s="35"/>
+      <c r="GJ16" s="35"/>
+      <c r="GK16" s="35"/>
+      <c r="GL16" s="35"/>
+      <c r="GM16" s="35"/>
+      <c r="GN16" s="35"/>
+      <c r="GO16" s="35"/>
+      <c r="GP16" s="35"/>
+      <c r="GQ16" s="35"/>
+      <c r="GR16" s="35"/>
+      <c r="GS16" s="35"/>
+      <c r="GT16" s="35"/>
+      <c r="GU16" s="35"/>
+      <c r="GV16" s="35"/>
+      <c r="GW16" s="35"/>
+      <c r="GX16" s="35"/>
+      <c r="GY16" s="35"/>
+      <c r="GZ16" s="35"/>
+      <c r="HA16" s="35"/>
+      <c r="HB16" s="35"/>
+      <c r="HC16" s="35"/>
+      <c r="HD16" s="35"/>
+      <c r="HE16" s="35"/>
+      <c r="HF16" s="35"/>
+      <c r="HG16" s="35"/>
+      <c r="HH16" s="35"/>
+      <c r="HI16" s="35"/>
+      <c r="HJ16" s="35"/>
+      <c r="HK16" s="35"/>
+      <c r="HL16" s="35"/>
+      <c r="HM16" s="35"/>
+      <c r="HN16" s="35"/>
+      <c r="HO16" s="35"/>
+      <c r="HP16" s="35"/>
+      <c r="HQ16" s="35"/>
+      <c r="HR16" s="35"/>
+      <c r="HS16" s="35"/>
+      <c r="HT16" s="35"/>
+      <c r="HU16" s="35"/>
+      <c r="HV16" s="35"/>
+      <c r="HW16" s="35"/>
+      <c r="HX16" s="35"/>
+      <c r="HY16" s="35"/>
+      <c r="HZ16" s="35"/>
+      <c r="IA16" s="35"/>
+      <c r="IB16" s="35"/>
+      <c r="IC16" s="35"/>
+      <c r="ID16" s="35"/>
+      <c r="IE16" s="35"/>
+      <c r="IF16" s="35"/>
+      <c r="IG16" s="35"/>
+      <c r="IH16" s="35"/>
+      <c r="II16" s="35"/>
+      <c r="IJ16" s="35"/>
+      <c r="IK16" s="35"/>
+      <c r="IL16" s="35"/>
+      <c r="IM16" s="35"/>
+      <c r="IN16" s="35"/>
+      <c r="IO16" s="35"/>
+      <c r="IP16" s="35"/>
+      <c r="IQ16" s="35"/>
+      <c r="IR16" s="35"/>
+      <c r="IS16" s="35"/>
+      <c r="IT16" s="35"/>
+      <c r="IU16" s="35"/>
+      <c r="IV16" s="35"/>
+      <c r="IW16" s="35"/>
+      <c r="IX16" s="35"/>
     </row>
     <row r="17" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="63"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="28"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -5917,7 +5953,7 @@
       <c r="IX17" s="12"/>
     </row>
     <row r="18" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -5925,9 +5961,9 @@
       <c r="F18" s="9"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
@@ -6176,278 +6212,278 @@
       <c r="IW18" s="12"/>
       <c r="IX18" s="12"/>
     </row>
-    <row r="19" spans="1:258" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="35"/>
-      <c r="AQ19" s="35"/>
-      <c r="AR19" s="35"/>
-      <c r="AS19" s="35"/>
-      <c r="AT19" s="35"/>
-      <c r="AU19" s="35"/>
-      <c r="AV19" s="35"/>
-      <c r="AW19" s="35"/>
-      <c r="AX19" s="35"/>
-      <c r="AY19" s="35"/>
-      <c r="AZ19" s="35"/>
-      <c r="BA19" s="35"/>
-      <c r="BB19" s="35"/>
-      <c r="BC19" s="35"/>
-      <c r="BD19" s="35"/>
-      <c r="BE19" s="35"/>
-      <c r="BF19" s="35"/>
-      <c r="BG19" s="35"/>
-      <c r="BH19" s="35"/>
-      <c r="BI19" s="35"/>
-      <c r="BJ19" s="35"/>
-      <c r="BK19" s="35"/>
-      <c r="BL19" s="35"/>
-      <c r="BM19" s="35"/>
-      <c r="BN19" s="35"/>
-      <c r="BO19" s="35"/>
-      <c r="BP19" s="35"/>
-      <c r="BQ19" s="35"/>
-      <c r="BR19" s="35"/>
-      <c r="BS19" s="35"/>
-      <c r="BT19" s="35"/>
-      <c r="BU19" s="35"/>
-      <c r="BV19" s="35"/>
-      <c r="BW19" s="35"/>
-      <c r="BX19" s="35"/>
-      <c r="BY19" s="35"/>
-      <c r="BZ19" s="35"/>
-      <c r="CA19" s="35"/>
-      <c r="CB19" s="35"/>
-      <c r="CC19" s="35"/>
-      <c r="CD19" s="35"/>
-      <c r="CE19" s="35"/>
-      <c r="CF19" s="35"/>
-      <c r="CG19" s="35"/>
-      <c r="CH19" s="35"/>
-      <c r="CI19" s="35"/>
-      <c r="CJ19" s="35"/>
-      <c r="CK19" s="35"/>
-      <c r="CL19" s="35"/>
-      <c r="CM19" s="35"/>
-      <c r="CN19" s="35"/>
-      <c r="CO19" s="35"/>
-      <c r="CP19" s="35"/>
-      <c r="CQ19" s="35"/>
-      <c r="CR19" s="35"/>
-      <c r="CS19" s="35"/>
-      <c r="CT19" s="35"/>
-      <c r="CU19" s="35"/>
-      <c r="CV19" s="35"/>
-      <c r="CW19" s="35"/>
-      <c r="CX19" s="35"/>
-      <c r="CY19" s="35"/>
-      <c r="CZ19" s="35"/>
-      <c r="DA19" s="35"/>
-      <c r="DB19" s="35"/>
-      <c r="DC19" s="35"/>
-      <c r="DD19" s="35"/>
-      <c r="DE19" s="35"/>
-      <c r="DF19" s="35"/>
-      <c r="DG19" s="35"/>
-      <c r="DH19" s="35"/>
-      <c r="DI19" s="35"/>
-      <c r="DJ19" s="35"/>
-      <c r="DK19" s="35"/>
-      <c r="DL19" s="35"/>
-      <c r="DM19" s="35"/>
-      <c r="DN19" s="35"/>
-      <c r="DO19" s="35"/>
-      <c r="DP19" s="35"/>
-      <c r="DQ19" s="35"/>
-      <c r="DR19" s="35"/>
-      <c r="DS19" s="35"/>
-      <c r="DT19" s="35"/>
-      <c r="DU19" s="35"/>
-      <c r="DV19" s="35"/>
-      <c r="DW19" s="35"/>
-      <c r="DX19" s="35"/>
-      <c r="DY19" s="35"/>
-      <c r="DZ19" s="35"/>
-      <c r="EA19" s="35"/>
-      <c r="EB19" s="35"/>
-      <c r="EC19" s="35"/>
-      <c r="ED19" s="35"/>
-      <c r="EE19" s="35"/>
-      <c r="EF19" s="35"/>
-      <c r="EG19" s="35"/>
-      <c r="EH19" s="35"/>
-      <c r="EI19" s="35"/>
-      <c r="EJ19" s="35"/>
-      <c r="EK19" s="35"/>
-      <c r="EL19" s="35"/>
-      <c r="EM19" s="35"/>
-      <c r="EN19" s="35"/>
-      <c r="EO19" s="35"/>
-      <c r="EP19" s="35"/>
-      <c r="EQ19" s="35"/>
-      <c r="ER19" s="35"/>
-      <c r="ES19" s="35"/>
-      <c r="ET19" s="35"/>
-      <c r="EU19" s="35"/>
-      <c r="EV19" s="35"/>
-      <c r="EW19" s="35"/>
-      <c r="EX19" s="35"/>
-      <c r="EY19" s="35"/>
-      <c r="EZ19" s="35"/>
-      <c r="FA19" s="35"/>
-      <c r="FB19" s="35"/>
-      <c r="FC19" s="35"/>
-      <c r="FD19" s="35"/>
-      <c r="FE19" s="35"/>
-      <c r="FF19" s="35"/>
-      <c r="FG19" s="35"/>
-      <c r="FH19" s="35"/>
-      <c r="FI19" s="35"/>
-      <c r="FJ19" s="35"/>
-      <c r="FK19" s="35"/>
-      <c r="FL19" s="35"/>
-      <c r="FM19" s="35"/>
-      <c r="FN19" s="35"/>
-      <c r="FO19" s="35"/>
-      <c r="FP19" s="35"/>
-      <c r="FQ19" s="35"/>
-      <c r="FR19" s="35"/>
-      <c r="FS19" s="35"/>
-      <c r="FT19" s="35"/>
-      <c r="FU19" s="35"/>
-      <c r="FV19" s="35"/>
-      <c r="FW19" s="35"/>
-      <c r="FX19" s="35"/>
-      <c r="FY19" s="35"/>
-      <c r="FZ19" s="35"/>
-      <c r="GA19" s="35"/>
-      <c r="GB19" s="35"/>
-      <c r="GC19" s="35"/>
-      <c r="GD19" s="35"/>
-      <c r="GE19" s="35"/>
-      <c r="GF19" s="35"/>
-      <c r="GG19" s="35"/>
-      <c r="GH19" s="35"/>
-      <c r="GI19" s="35"/>
-      <c r="GJ19" s="35"/>
-      <c r="GK19" s="35"/>
-      <c r="GL19" s="35"/>
-      <c r="GM19" s="35"/>
-      <c r="GN19" s="35"/>
-      <c r="GO19" s="35"/>
-      <c r="GP19" s="35"/>
-      <c r="GQ19" s="35"/>
-      <c r="GR19" s="35"/>
-      <c r="GS19" s="35"/>
-      <c r="GT19" s="35"/>
-      <c r="GU19" s="35"/>
-      <c r="GV19" s="35"/>
-      <c r="GW19" s="35"/>
-      <c r="GX19" s="35"/>
-      <c r="GY19" s="35"/>
-      <c r="GZ19" s="35"/>
-      <c r="HA19" s="35"/>
-      <c r="HB19" s="35"/>
-      <c r="HC19" s="35"/>
-      <c r="HD19" s="35"/>
-      <c r="HE19" s="35"/>
-      <c r="HF19" s="35"/>
-      <c r="HG19" s="35"/>
-      <c r="HH19" s="35"/>
-      <c r="HI19" s="35"/>
-      <c r="HJ19" s="35"/>
-      <c r="HK19" s="35"/>
-      <c r="HL19" s="35"/>
-      <c r="HM19" s="35"/>
-      <c r="HN19" s="35"/>
-      <c r="HO19" s="35"/>
-      <c r="HP19" s="35"/>
-      <c r="HQ19" s="35"/>
-      <c r="HR19" s="35"/>
-      <c r="HS19" s="35"/>
-      <c r="HT19" s="35"/>
-      <c r="HU19" s="35"/>
-      <c r="HV19" s="35"/>
-      <c r="HW19" s="35"/>
-      <c r="HX19" s="35"/>
-      <c r="HY19" s="35"/>
-      <c r="HZ19" s="35"/>
-      <c r="IA19" s="35"/>
-      <c r="IB19" s="35"/>
-      <c r="IC19" s="35"/>
-      <c r="ID19" s="35"/>
-      <c r="IE19" s="35"/>
-      <c r="IF19" s="35"/>
-      <c r="IG19" s="35"/>
-      <c r="IH19" s="35"/>
-      <c r="II19" s="35"/>
-      <c r="IJ19" s="35"/>
-      <c r="IK19" s="35"/>
-      <c r="IL19" s="35"/>
-      <c r="IM19" s="35"/>
-      <c r="IN19" s="35"/>
-      <c r="IO19" s="35"/>
-      <c r="IP19" s="35"/>
-      <c r="IQ19" s="35"/>
-      <c r="IR19" s="35"/>
-      <c r="IS19" s="35"/>
-      <c r="IT19" s="35"/>
-      <c r="IU19" s="35"/>
-      <c r="IV19" s="35"/>
-      <c r="IW19" s="35"/>
-      <c r="IX19" s="35"/>
+    <row r="19" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="63"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+      <c r="BH19" s="12"/>
+      <c r="BI19" s="12"/>
+      <c r="BJ19" s="12"/>
+      <c r="BK19" s="12"/>
+      <c r="BL19" s="12"/>
+      <c r="BM19" s="12"/>
+      <c r="BN19" s="12"/>
+      <c r="BO19" s="12"/>
+      <c r="BP19" s="12"/>
+      <c r="BQ19" s="12"/>
+      <c r="BR19" s="12"/>
+      <c r="BS19" s="12"/>
+      <c r="BT19" s="12"/>
+      <c r="BU19" s="12"/>
+      <c r="BV19" s="12"/>
+      <c r="BW19" s="12"/>
+      <c r="BX19" s="12"/>
+      <c r="BY19" s="12"/>
+      <c r="BZ19" s="12"/>
+      <c r="CA19" s="12"/>
+      <c r="CB19" s="12"/>
+      <c r="CC19" s="12"/>
+      <c r="CD19" s="12"/>
+      <c r="CE19" s="12"/>
+      <c r="CF19" s="12"/>
+      <c r="CG19" s="12"/>
+      <c r="CH19" s="12"/>
+      <c r="CI19" s="12"/>
+      <c r="CJ19" s="12"/>
+      <c r="CK19" s="12"/>
+      <c r="CL19" s="12"/>
+      <c r="CM19" s="12"/>
+      <c r="CN19" s="12"/>
+      <c r="CO19" s="12"/>
+      <c r="CP19" s="12"/>
+      <c r="CQ19" s="12"/>
+      <c r="CR19" s="12"/>
+      <c r="CS19" s="12"/>
+      <c r="CT19" s="12"/>
+      <c r="CU19" s="12"/>
+      <c r="CV19" s="12"/>
+      <c r="CW19" s="12"/>
+      <c r="CX19" s="12"/>
+      <c r="CY19" s="12"/>
+      <c r="CZ19" s="12"/>
+      <c r="DA19" s="12"/>
+      <c r="DB19" s="12"/>
+      <c r="DC19" s="12"/>
+      <c r="DD19" s="12"/>
+      <c r="DE19" s="12"/>
+      <c r="DF19" s="12"/>
+      <c r="DG19" s="12"/>
+      <c r="DH19" s="12"/>
+      <c r="DI19" s="12"/>
+      <c r="DJ19" s="12"/>
+      <c r="DK19" s="12"/>
+      <c r="DL19" s="12"/>
+      <c r="DM19" s="12"/>
+      <c r="DN19" s="12"/>
+      <c r="DO19" s="12"/>
+      <c r="DP19" s="12"/>
+      <c r="DQ19" s="12"/>
+      <c r="DR19" s="12"/>
+      <c r="DS19" s="12"/>
+      <c r="DT19" s="12"/>
+      <c r="DU19" s="12"/>
+      <c r="DV19" s="12"/>
+      <c r="DW19" s="12"/>
+      <c r="DX19" s="12"/>
+      <c r="DY19" s="12"/>
+      <c r="DZ19" s="12"/>
+      <c r="EA19" s="12"/>
+      <c r="EB19" s="12"/>
+      <c r="EC19" s="12"/>
+      <c r="ED19" s="12"/>
+      <c r="EE19" s="12"/>
+      <c r="EF19" s="12"/>
+      <c r="EG19" s="12"/>
+      <c r="EH19" s="12"/>
+      <c r="EI19" s="12"/>
+      <c r="EJ19" s="12"/>
+      <c r="EK19" s="12"/>
+      <c r="EL19" s="12"/>
+      <c r="EM19" s="12"/>
+      <c r="EN19" s="12"/>
+      <c r="EO19" s="12"/>
+      <c r="EP19" s="12"/>
+      <c r="EQ19" s="12"/>
+      <c r="ER19" s="12"/>
+      <c r="ES19" s="12"/>
+      <c r="ET19" s="12"/>
+      <c r="EU19" s="12"/>
+      <c r="EV19" s="12"/>
+      <c r="EW19" s="12"/>
+      <c r="EX19" s="12"/>
+      <c r="EY19" s="12"/>
+      <c r="EZ19" s="12"/>
+      <c r="FA19" s="12"/>
+      <c r="FB19" s="12"/>
+      <c r="FC19" s="12"/>
+      <c r="FD19" s="12"/>
+      <c r="FE19" s="12"/>
+      <c r="FF19" s="12"/>
+      <c r="FG19" s="12"/>
+      <c r="FH19" s="12"/>
+      <c r="FI19" s="12"/>
+      <c r="FJ19" s="12"/>
+      <c r="FK19" s="12"/>
+      <c r="FL19" s="12"/>
+      <c r="FM19" s="12"/>
+      <c r="FN19" s="12"/>
+      <c r="FO19" s="12"/>
+      <c r="FP19" s="12"/>
+      <c r="FQ19" s="12"/>
+      <c r="FR19" s="12"/>
+      <c r="FS19" s="12"/>
+      <c r="FT19" s="12"/>
+      <c r="FU19" s="12"/>
+      <c r="FV19" s="12"/>
+      <c r="FW19" s="12"/>
+      <c r="FX19" s="12"/>
+      <c r="FY19" s="12"/>
+      <c r="FZ19" s="12"/>
+      <c r="GA19" s="12"/>
+      <c r="GB19" s="12"/>
+      <c r="GC19" s="12"/>
+      <c r="GD19" s="12"/>
+      <c r="GE19" s="12"/>
+      <c r="GF19" s="12"/>
+      <c r="GG19" s="12"/>
+      <c r="GH19" s="12"/>
+      <c r="GI19" s="12"/>
+      <c r="GJ19" s="12"/>
+      <c r="GK19" s="12"/>
+      <c r="GL19" s="12"/>
+      <c r="GM19" s="12"/>
+      <c r="GN19" s="12"/>
+      <c r="GO19" s="12"/>
+      <c r="GP19" s="12"/>
+      <c r="GQ19" s="12"/>
+      <c r="GR19" s="12"/>
+      <c r="GS19" s="12"/>
+      <c r="GT19" s="12"/>
+      <c r="GU19" s="12"/>
+      <c r="GV19" s="12"/>
+      <c r="GW19" s="12"/>
+      <c r="GX19" s="12"/>
+      <c r="GY19" s="12"/>
+      <c r="GZ19" s="12"/>
+      <c r="HA19" s="12"/>
+      <c r="HB19" s="12"/>
+      <c r="HC19" s="12"/>
+      <c r="HD19" s="12"/>
+      <c r="HE19" s="12"/>
+      <c r="HF19" s="12"/>
+      <c r="HG19" s="12"/>
+      <c r="HH19" s="12"/>
+      <c r="HI19" s="12"/>
+      <c r="HJ19" s="12"/>
+      <c r="HK19" s="12"/>
+      <c r="HL19" s="12"/>
+      <c r="HM19" s="12"/>
+      <c r="HN19" s="12"/>
+      <c r="HO19" s="12"/>
+      <c r="HP19" s="12"/>
+      <c r="HQ19" s="12"/>
+      <c r="HR19" s="12"/>
+      <c r="HS19" s="12"/>
+      <c r="HT19" s="12"/>
+      <c r="HU19" s="12"/>
+      <c r="HV19" s="12"/>
+      <c r="HW19" s="12"/>
+      <c r="HX19" s="12"/>
+      <c r="HY19" s="12"/>
+      <c r="HZ19" s="12"/>
+      <c r="IA19" s="12"/>
+      <c r="IB19" s="12"/>
+      <c r="IC19" s="12"/>
+      <c r="ID19" s="12"/>
+      <c r="IE19" s="12"/>
+      <c r="IF19" s="12"/>
+      <c r="IG19" s="12"/>
+      <c r="IH19" s="12"/>
+      <c r="II19" s="12"/>
+      <c r="IJ19" s="12"/>
+      <c r="IK19" s="12"/>
+      <c r="IL19" s="12"/>
+      <c r="IM19" s="12"/>
+      <c r="IN19" s="12"/>
+      <c r="IO19" s="12"/>
+      <c r="IP19" s="12"/>
+      <c r="IQ19" s="12"/>
+      <c r="IR19" s="12"/>
+      <c r="IS19" s="12"/>
+      <c r="IT19" s="12"/>
+      <c r="IU19" s="12"/>
+      <c r="IV19" s="12"/>
+      <c r="IW19" s="12"/>
+      <c r="IX19" s="12"/>
     </row>
     <row r="20" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="30"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -6696,881 +6732,1377 @@
       <c r="IW20" s="12"/>
       <c r="IX20" s="12"/>
     </row>
-    <row r="21" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="12"/>
-      <c r="AV21" s="12"/>
-      <c r="AW21" s="12"/>
-      <c r="AX21" s="12"/>
-      <c r="AY21" s="12"/>
-      <c r="AZ21" s="12"/>
-      <c r="BA21" s="12"/>
-      <c r="BB21" s="12"/>
-      <c r="BC21" s="12"/>
-      <c r="BD21" s="12"/>
-      <c r="BE21" s="12"/>
-      <c r="BF21" s="12"/>
-      <c r="BG21" s="12"/>
-      <c r="BH21" s="12"/>
-      <c r="BI21" s="12"/>
-      <c r="BJ21" s="12"/>
-      <c r="BK21" s="12"/>
-      <c r="BL21" s="12"/>
-      <c r="BM21" s="12"/>
-      <c r="BN21" s="12"/>
-      <c r="BO21" s="12"/>
-      <c r="BP21" s="12"/>
-      <c r="BQ21" s="12"/>
-      <c r="BR21" s="12"/>
-      <c r="BS21" s="12"/>
-      <c r="BT21" s="12"/>
-      <c r="BU21" s="12"/>
-      <c r="BV21" s="12"/>
-      <c r="BW21" s="12"/>
-      <c r="BX21" s="12"/>
-      <c r="BY21" s="12"/>
-      <c r="BZ21" s="12"/>
-      <c r="CA21" s="12"/>
-      <c r="CB21" s="12"/>
-      <c r="CC21" s="12"/>
-      <c r="CD21" s="12"/>
-      <c r="CE21" s="12"/>
-      <c r="CF21" s="12"/>
-      <c r="CG21" s="12"/>
-      <c r="CH21" s="12"/>
-      <c r="CI21" s="12"/>
-      <c r="CJ21" s="12"/>
-      <c r="CK21" s="12"/>
-      <c r="CL21" s="12"/>
-      <c r="CM21" s="12"/>
-      <c r="CN21" s="12"/>
-      <c r="CO21" s="12"/>
-      <c r="CP21" s="12"/>
-      <c r="CQ21" s="12"/>
-      <c r="CR21" s="12"/>
-      <c r="CS21" s="12"/>
-      <c r="CT21" s="12"/>
-      <c r="CU21" s="12"/>
-      <c r="CV21" s="12"/>
-      <c r="CW21" s="12"/>
-      <c r="CX21" s="12"/>
-      <c r="CY21" s="12"/>
-      <c r="CZ21" s="12"/>
-      <c r="DA21" s="12"/>
-      <c r="DB21" s="12"/>
-      <c r="DC21" s="12"/>
-      <c r="DD21" s="12"/>
-      <c r="DE21" s="12"/>
-      <c r="DF21" s="12"/>
-      <c r="DG21" s="12"/>
-      <c r="DH21" s="12"/>
-      <c r="DI21" s="12"/>
-      <c r="DJ21" s="12"/>
-      <c r="DK21" s="12"/>
-      <c r="DL21" s="12"/>
-      <c r="DM21" s="12"/>
-      <c r="DN21" s="12"/>
-      <c r="DO21" s="12"/>
-      <c r="DP21" s="12"/>
-      <c r="DQ21" s="12"/>
-      <c r="DR21" s="12"/>
-      <c r="DS21" s="12"/>
-      <c r="DT21" s="12"/>
-      <c r="DU21" s="12"/>
-      <c r="DV21" s="12"/>
-      <c r="DW21" s="12"/>
-      <c r="DX21" s="12"/>
-      <c r="DY21" s="12"/>
-      <c r="DZ21" s="12"/>
-      <c r="EA21" s="12"/>
-      <c r="EB21" s="12"/>
-      <c r="EC21" s="12"/>
-      <c r="ED21" s="12"/>
-      <c r="EE21" s="12"/>
-      <c r="EF21" s="12"/>
-      <c r="EG21" s="12"/>
-      <c r="EH21" s="12"/>
-      <c r="EI21" s="12"/>
-      <c r="EJ21" s="12"/>
-      <c r="EK21" s="12"/>
-      <c r="EL21" s="12"/>
-      <c r="EM21" s="12"/>
-      <c r="EN21" s="12"/>
-      <c r="EO21" s="12"/>
-      <c r="EP21" s="12"/>
-      <c r="EQ21" s="12"/>
-      <c r="ER21" s="12"/>
-      <c r="ES21" s="12"/>
-      <c r="ET21" s="12"/>
-      <c r="EU21" s="12"/>
-      <c r="EV21" s="12"/>
-      <c r="EW21" s="12"/>
-      <c r="EX21" s="12"/>
-      <c r="EY21" s="12"/>
-      <c r="EZ21" s="12"/>
-      <c r="FA21" s="12"/>
-      <c r="FB21" s="12"/>
-      <c r="FC21" s="12"/>
-      <c r="FD21" s="12"/>
-      <c r="FE21" s="12"/>
-      <c r="FF21" s="12"/>
-      <c r="FG21" s="12"/>
-      <c r="FH21" s="12"/>
-      <c r="FI21" s="12"/>
-      <c r="FJ21" s="12"/>
-      <c r="FK21" s="12"/>
-      <c r="FL21" s="12"/>
-      <c r="FM21" s="12"/>
-      <c r="FN21" s="12"/>
-      <c r="FO21" s="12"/>
-      <c r="FP21" s="12"/>
-      <c r="FQ21" s="12"/>
-      <c r="FR21" s="12"/>
-      <c r="FS21" s="12"/>
-      <c r="FT21" s="12"/>
-      <c r="FU21" s="12"/>
-      <c r="FV21" s="12"/>
-      <c r="FW21" s="12"/>
-      <c r="FX21" s="12"/>
-      <c r="FY21" s="12"/>
-      <c r="FZ21" s="12"/>
-      <c r="GA21" s="12"/>
-      <c r="GB21" s="12"/>
-      <c r="GC21" s="12"/>
-      <c r="GD21" s="12"/>
-      <c r="GE21" s="12"/>
-      <c r="GF21" s="12"/>
-      <c r="GG21" s="12"/>
-      <c r="GH21" s="12"/>
-      <c r="GI21" s="12"/>
-      <c r="GJ21" s="12"/>
-      <c r="GK21" s="12"/>
-      <c r="GL21" s="12"/>
-      <c r="GM21" s="12"/>
-      <c r="GN21" s="12"/>
-      <c r="GO21" s="12"/>
-      <c r="GP21" s="12"/>
-      <c r="GQ21" s="12"/>
-      <c r="GR21" s="12"/>
-      <c r="GS21" s="12"/>
-      <c r="GT21" s="12"/>
-      <c r="GU21" s="12"/>
-      <c r="GV21" s="12"/>
-      <c r="GW21" s="12"/>
-      <c r="GX21" s="12"/>
-      <c r="GY21" s="12"/>
-      <c r="GZ21" s="12"/>
-      <c r="HA21" s="12"/>
-      <c r="HB21" s="12"/>
-      <c r="HC21" s="12"/>
-      <c r="HD21" s="12"/>
-      <c r="HE21" s="12"/>
-      <c r="HF21" s="12"/>
-      <c r="HG21" s="12"/>
-      <c r="HH21" s="12"/>
-      <c r="HI21" s="12"/>
-      <c r="HJ21" s="12"/>
-      <c r="HK21" s="12"/>
-      <c r="HL21" s="12"/>
-      <c r="HM21" s="12"/>
-      <c r="HN21" s="12"/>
-      <c r="HO21" s="12"/>
-      <c r="HP21" s="12"/>
-      <c r="HQ21" s="12"/>
-      <c r="HR21" s="12"/>
-      <c r="HS21" s="12"/>
-      <c r="HT21" s="12"/>
-      <c r="HU21" s="12"/>
-      <c r="HV21" s="12"/>
-      <c r="HW21" s="12"/>
-      <c r="HX21" s="12"/>
-      <c r="HY21" s="12"/>
-      <c r="HZ21" s="12"/>
-      <c r="IA21" s="12"/>
-      <c r="IB21" s="12"/>
-      <c r="IC21" s="12"/>
-      <c r="ID21" s="12"/>
-      <c r="IE21" s="12"/>
-      <c r="IF21" s="12"/>
-      <c r="IG21" s="12"/>
-      <c r="IH21" s="12"/>
-      <c r="II21" s="12"/>
-      <c r="IJ21" s="12"/>
-      <c r="IK21" s="12"/>
-      <c r="IL21" s="12"/>
-      <c r="IM21" s="12"/>
-      <c r="IN21" s="12"/>
-      <c r="IO21" s="12"/>
-      <c r="IP21" s="12"/>
-      <c r="IQ21" s="12"/>
-      <c r="IR21" s="12"/>
-      <c r="IS21" s="12"/>
-      <c r="IT21" s="12"/>
-      <c r="IU21" s="12"/>
-      <c r="IV21" s="12"/>
-      <c r="IW21" s="12"/>
-      <c r="IX21" s="12"/>
+    <row r="21" spans="1:258" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="35"/>
+      <c r="AP21" s="35"/>
+      <c r="AQ21" s="35"/>
+      <c r="AR21" s="35"/>
+      <c r="AS21" s="35"/>
+      <c r="AT21" s="35"/>
+      <c r="AU21" s="35"/>
+      <c r="AV21" s="35"/>
+      <c r="AW21" s="35"/>
+      <c r="AX21" s="35"/>
+      <c r="AY21" s="35"/>
+      <c r="AZ21" s="35"/>
+      <c r="BA21" s="35"/>
+      <c r="BB21" s="35"/>
+      <c r="BC21" s="35"/>
+      <c r="BD21" s="35"/>
+      <c r="BE21" s="35"/>
+      <c r="BF21" s="35"/>
+      <c r="BG21" s="35"/>
+      <c r="BH21" s="35"/>
+      <c r="BI21" s="35"/>
+      <c r="BJ21" s="35"/>
+      <c r="BK21" s="35"/>
+      <c r="BL21" s="35"/>
+      <c r="BM21" s="35"/>
+      <c r="BN21" s="35"/>
+      <c r="BO21" s="35"/>
+      <c r="BP21" s="35"/>
+      <c r="BQ21" s="35"/>
+      <c r="BR21" s="35"/>
+      <c r="BS21" s="35"/>
+      <c r="BT21" s="35"/>
+      <c r="BU21" s="35"/>
+      <c r="BV21" s="35"/>
+      <c r="BW21" s="35"/>
+      <c r="BX21" s="35"/>
+      <c r="BY21" s="35"/>
+      <c r="BZ21" s="35"/>
+      <c r="CA21" s="35"/>
+      <c r="CB21" s="35"/>
+      <c r="CC21" s="35"/>
+      <c r="CD21" s="35"/>
+      <c r="CE21" s="35"/>
+      <c r="CF21" s="35"/>
+      <c r="CG21" s="35"/>
+      <c r="CH21" s="35"/>
+      <c r="CI21" s="35"/>
+      <c r="CJ21" s="35"/>
+      <c r="CK21" s="35"/>
+      <c r="CL21" s="35"/>
+      <c r="CM21" s="35"/>
+      <c r="CN21" s="35"/>
+      <c r="CO21" s="35"/>
+      <c r="CP21" s="35"/>
+      <c r="CQ21" s="35"/>
+      <c r="CR21" s="35"/>
+      <c r="CS21" s="35"/>
+      <c r="CT21" s="35"/>
+      <c r="CU21" s="35"/>
+      <c r="CV21" s="35"/>
+      <c r="CW21" s="35"/>
+      <c r="CX21" s="35"/>
+      <c r="CY21" s="35"/>
+      <c r="CZ21" s="35"/>
+      <c r="DA21" s="35"/>
+      <c r="DB21" s="35"/>
+      <c r="DC21" s="35"/>
+      <c r="DD21" s="35"/>
+      <c r="DE21" s="35"/>
+      <c r="DF21" s="35"/>
+      <c r="DG21" s="35"/>
+      <c r="DH21" s="35"/>
+      <c r="DI21" s="35"/>
+      <c r="DJ21" s="35"/>
+      <c r="DK21" s="35"/>
+      <c r="DL21" s="35"/>
+      <c r="DM21" s="35"/>
+      <c r="DN21" s="35"/>
+      <c r="DO21" s="35"/>
+      <c r="DP21" s="35"/>
+      <c r="DQ21" s="35"/>
+      <c r="DR21" s="35"/>
+      <c r="DS21" s="35"/>
+      <c r="DT21" s="35"/>
+      <c r="DU21" s="35"/>
+      <c r="DV21" s="35"/>
+      <c r="DW21" s="35"/>
+      <c r="DX21" s="35"/>
+      <c r="DY21" s="35"/>
+      <c r="DZ21" s="35"/>
+      <c r="EA21" s="35"/>
+      <c r="EB21" s="35"/>
+      <c r="EC21" s="35"/>
+      <c r="ED21" s="35"/>
+      <c r="EE21" s="35"/>
+      <c r="EF21" s="35"/>
+      <c r="EG21" s="35"/>
+      <c r="EH21" s="35"/>
+      <c r="EI21" s="35"/>
+      <c r="EJ21" s="35"/>
+      <c r="EK21" s="35"/>
+      <c r="EL21" s="35"/>
+      <c r="EM21" s="35"/>
+      <c r="EN21" s="35"/>
+      <c r="EO21" s="35"/>
+      <c r="EP21" s="35"/>
+      <c r="EQ21" s="35"/>
+      <c r="ER21" s="35"/>
+      <c r="ES21" s="35"/>
+      <c r="ET21" s="35"/>
+      <c r="EU21" s="35"/>
+      <c r="EV21" s="35"/>
+      <c r="EW21" s="35"/>
+      <c r="EX21" s="35"/>
+      <c r="EY21" s="35"/>
+      <c r="EZ21" s="35"/>
+      <c r="FA21" s="35"/>
+      <c r="FB21" s="35"/>
+      <c r="FC21" s="35"/>
+      <c r="FD21" s="35"/>
+      <c r="FE21" s="35"/>
+      <c r="FF21" s="35"/>
+      <c r="FG21" s="35"/>
+      <c r="FH21" s="35"/>
+      <c r="FI21" s="35"/>
+      <c r="FJ21" s="35"/>
+      <c r="FK21" s="35"/>
+      <c r="FL21" s="35"/>
+      <c r="FM21" s="35"/>
+      <c r="FN21" s="35"/>
+      <c r="FO21" s="35"/>
+      <c r="FP21" s="35"/>
+      <c r="FQ21" s="35"/>
+      <c r="FR21" s="35"/>
+      <c r="FS21" s="35"/>
+      <c r="FT21" s="35"/>
+      <c r="FU21" s="35"/>
+      <c r="FV21" s="35"/>
+      <c r="FW21" s="35"/>
+      <c r="FX21" s="35"/>
+      <c r="FY21" s="35"/>
+      <c r="FZ21" s="35"/>
+      <c r="GA21" s="35"/>
+      <c r="GB21" s="35"/>
+      <c r="GC21" s="35"/>
+      <c r="GD21" s="35"/>
+      <c r="GE21" s="35"/>
+      <c r="GF21" s="35"/>
+      <c r="GG21" s="35"/>
+      <c r="GH21" s="35"/>
+      <c r="GI21" s="35"/>
+      <c r="GJ21" s="35"/>
+      <c r="GK21" s="35"/>
+      <c r="GL21" s="35"/>
+      <c r="GM21" s="35"/>
+      <c r="GN21" s="35"/>
+      <c r="GO21" s="35"/>
+      <c r="GP21" s="35"/>
+      <c r="GQ21" s="35"/>
+      <c r="GR21" s="35"/>
+      <c r="GS21" s="35"/>
+      <c r="GT21" s="35"/>
+      <c r="GU21" s="35"/>
+      <c r="GV21" s="35"/>
+      <c r="GW21" s="35"/>
+      <c r="GX21" s="35"/>
+      <c r="GY21" s="35"/>
+      <c r="GZ21" s="35"/>
+      <c r="HA21" s="35"/>
+      <c r="HB21" s="35"/>
+      <c r="HC21" s="35"/>
+      <c r="HD21" s="35"/>
+      <c r="HE21" s="35"/>
+      <c r="HF21" s="35"/>
+      <c r="HG21" s="35"/>
+      <c r="HH21" s="35"/>
+      <c r="HI21" s="35"/>
+      <c r="HJ21" s="35"/>
+      <c r="HK21" s="35"/>
+      <c r="HL21" s="35"/>
+      <c r="HM21" s="35"/>
+      <c r="HN21" s="35"/>
+      <c r="HO21" s="35"/>
+      <c r="HP21" s="35"/>
+      <c r="HQ21" s="35"/>
+      <c r="HR21" s="35"/>
+      <c r="HS21" s="35"/>
+      <c r="HT21" s="35"/>
+      <c r="HU21" s="35"/>
+      <c r="HV21" s="35"/>
+      <c r="HW21" s="35"/>
+      <c r="HX21" s="35"/>
+      <c r="HY21" s="35"/>
+      <c r="HZ21" s="35"/>
+      <c r="IA21" s="35"/>
+      <c r="IB21" s="35"/>
+      <c r="IC21" s="35"/>
+      <c r="ID21" s="35"/>
+      <c r="IE21" s="35"/>
+      <c r="IF21" s="35"/>
+      <c r="IG21" s="35"/>
+      <c r="IH21" s="35"/>
+      <c r="II21" s="35"/>
+      <c r="IJ21" s="35"/>
+      <c r="IK21" s="35"/>
+      <c r="IL21" s="35"/>
+      <c r="IM21" s="35"/>
+      <c r="IN21" s="35"/>
+      <c r="IO21" s="35"/>
+      <c r="IP21" s="35"/>
+      <c r="IQ21" s="35"/>
+      <c r="IR21" s="35"/>
+      <c r="IS21" s="35"/>
+      <c r="IT21" s="35"/>
+      <c r="IU21" s="35"/>
+      <c r="IV21" s="35"/>
+      <c r="IW21" s="35"/>
+      <c r="IX21" s="35"/>
     </row>
-    <row r="22" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="66"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
+    <row r="22" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="64"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="12"/>
+      <c r="BC22" s="12"/>
+      <c r="BD22" s="12"/>
+      <c r="BE22" s="12"/>
+      <c r="BF22" s="12"/>
+      <c r="BG22" s="12"/>
+      <c r="BH22" s="12"/>
+      <c r="BI22" s="12"/>
+      <c r="BJ22" s="12"/>
+      <c r="BK22" s="12"/>
+      <c r="BL22" s="12"/>
+      <c r="BM22" s="12"/>
+      <c r="BN22" s="12"/>
+      <c r="BO22" s="12"/>
+      <c r="BP22" s="12"/>
+      <c r="BQ22" s="12"/>
+      <c r="BR22" s="12"/>
+      <c r="BS22" s="12"/>
+      <c r="BT22" s="12"/>
+      <c r="BU22" s="12"/>
+      <c r="BV22" s="12"/>
+      <c r="BW22" s="12"/>
+      <c r="BX22" s="12"/>
+      <c r="BY22" s="12"/>
+      <c r="BZ22" s="12"/>
+      <c r="CA22" s="12"/>
+      <c r="CB22" s="12"/>
+      <c r="CC22" s="12"/>
+      <c r="CD22" s="12"/>
+      <c r="CE22" s="12"/>
+      <c r="CF22" s="12"/>
+      <c r="CG22" s="12"/>
+      <c r="CH22" s="12"/>
+      <c r="CI22" s="12"/>
+      <c r="CJ22" s="12"/>
+      <c r="CK22" s="12"/>
+      <c r="CL22" s="12"/>
+      <c r="CM22" s="12"/>
+      <c r="CN22" s="12"/>
+      <c r="CO22" s="12"/>
+      <c r="CP22" s="12"/>
+      <c r="CQ22" s="12"/>
+      <c r="CR22" s="12"/>
+      <c r="CS22" s="12"/>
+      <c r="CT22" s="12"/>
+      <c r="CU22" s="12"/>
+      <c r="CV22" s="12"/>
+      <c r="CW22" s="12"/>
+      <c r="CX22" s="12"/>
+      <c r="CY22" s="12"/>
+      <c r="CZ22" s="12"/>
+      <c r="DA22" s="12"/>
+      <c r="DB22" s="12"/>
+      <c r="DC22" s="12"/>
+      <c r="DD22" s="12"/>
+      <c r="DE22" s="12"/>
+      <c r="DF22" s="12"/>
+      <c r="DG22" s="12"/>
+      <c r="DH22" s="12"/>
+      <c r="DI22" s="12"/>
+      <c r="DJ22" s="12"/>
+      <c r="DK22" s="12"/>
+      <c r="DL22" s="12"/>
+      <c r="DM22" s="12"/>
+      <c r="DN22" s="12"/>
+      <c r="DO22" s="12"/>
+      <c r="DP22" s="12"/>
+      <c r="DQ22" s="12"/>
+      <c r="DR22" s="12"/>
+      <c r="DS22" s="12"/>
+      <c r="DT22" s="12"/>
+      <c r="DU22" s="12"/>
+      <c r="DV22" s="12"/>
+      <c r="DW22" s="12"/>
+      <c r="DX22" s="12"/>
+      <c r="DY22" s="12"/>
+      <c r="DZ22" s="12"/>
+      <c r="EA22" s="12"/>
+      <c r="EB22" s="12"/>
+      <c r="EC22" s="12"/>
+      <c r="ED22" s="12"/>
+      <c r="EE22" s="12"/>
+      <c r="EF22" s="12"/>
+      <c r="EG22" s="12"/>
+      <c r="EH22" s="12"/>
+      <c r="EI22" s="12"/>
+      <c r="EJ22" s="12"/>
+      <c r="EK22" s="12"/>
+      <c r="EL22" s="12"/>
+      <c r="EM22" s="12"/>
+      <c r="EN22" s="12"/>
+      <c r="EO22" s="12"/>
+      <c r="EP22" s="12"/>
+      <c r="EQ22" s="12"/>
+      <c r="ER22" s="12"/>
+      <c r="ES22" s="12"/>
+      <c r="ET22" s="12"/>
+      <c r="EU22" s="12"/>
+      <c r="EV22" s="12"/>
+      <c r="EW22" s="12"/>
+      <c r="EX22" s="12"/>
+      <c r="EY22" s="12"/>
+      <c r="EZ22" s="12"/>
+      <c r="FA22" s="12"/>
+      <c r="FB22" s="12"/>
+      <c r="FC22" s="12"/>
+      <c r="FD22" s="12"/>
+      <c r="FE22" s="12"/>
+      <c r="FF22" s="12"/>
+      <c r="FG22" s="12"/>
+      <c r="FH22" s="12"/>
+      <c r="FI22" s="12"/>
+      <c r="FJ22" s="12"/>
+      <c r="FK22" s="12"/>
+      <c r="FL22" s="12"/>
+      <c r="FM22" s="12"/>
+      <c r="FN22" s="12"/>
+      <c r="FO22" s="12"/>
+      <c r="FP22" s="12"/>
+      <c r="FQ22" s="12"/>
+      <c r="FR22" s="12"/>
+      <c r="FS22" s="12"/>
+      <c r="FT22" s="12"/>
+      <c r="FU22" s="12"/>
+      <c r="FV22" s="12"/>
+      <c r="FW22" s="12"/>
+      <c r="FX22" s="12"/>
+      <c r="FY22" s="12"/>
+      <c r="FZ22" s="12"/>
+      <c r="GA22" s="12"/>
+      <c r="GB22" s="12"/>
+      <c r="GC22" s="12"/>
+      <c r="GD22" s="12"/>
+      <c r="GE22" s="12"/>
+      <c r="GF22" s="12"/>
+      <c r="GG22" s="12"/>
+      <c r="GH22" s="12"/>
+      <c r="GI22" s="12"/>
+      <c r="GJ22" s="12"/>
+      <c r="GK22" s="12"/>
+      <c r="GL22" s="12"/>
+      <c r="GM22" s="12"/>
+      <c r="GN22" s="12"/>
+      <c r="GO22" s="12"/>
+      <c r="GP22" s="12"/>
+      <c r="GQ22" s="12"/>
+      <c r="GR22" s="12"/>
+      <c r="GS22" s="12"/>
+      <c r="GT22" s="12"/>
+      <c r="GU22" s="12"/>
+      <c r="GV22" s="12"/>
+      <c r="GW22" s="12"/>
+      <c r="GX22" s="12"/>
+      <c r="GY22" s="12"/>
+      <c r="GZ22" s="12"/>
+      <c r="HA22" s="12"/>
+      <c r="HB22" s="12"/>
+      <c r="HC22" s="12"/>
+      <c r="HD22" s="12"/>
+      <c r="HE22" s="12"/>
+      <c r="HF22" s="12"/>
+      <c r="HG22" s="12"/>
+      <c r="HH22" s="12"/>
+      <c r="HI22" s="12"/>
+      <c r="HJ22" s="12"/>
+      <c r="HK22" s="12"/>
+      <c r="HL22" s="12"/>
+      <c r="HM22" s="12"/>
+      <c r="HN22" s="12"/>
+      <c r="HO22" s="12"/>
+      <c r="HP22" s="12"/>
+      <c r="HQ22" s="12"/>
+      <c r="HR22" s="12"/>
+      <c r="HS22" s="12"/>
+      <c r="HT22" s="12"/>
+      <c r="HU22" s="12"/>
+      <c r="HV22" s="12"/>
+      <c r="HW22" s="12"/>
+      <c r="HX22" s="12"/>
+      <c r="HY22" s="12"/>
+      <c r="HZ22" s="12"/>
+      <c r="IA22" s="12"/>
+      <c r="IB22" s="12"/>
+      <c r="IC22" s="12"/>
+      <c r="ID22" s="12"/>
+      <c r="IE22" s="12"/>
+      <c r="IF22" s="12"/>
+      <c r="IG22" s="12"/>
+      <c r="IH22" s="12"/>
+      <c r="II22" s="12"/>
+      <c r="IJ22" s="12"/>
+      <c r="IK22" s="12"/>
+      <c r="IL22" s="12"/>
+      <c r="IM22" s="12"/>
+      <c r="IN22" s="12"/>
+      <c r="IO22" s="12"/>
+      <c r="IP22" s="12"/>
+      <c r="IQ22" s="12"/>
+      <c r="IR22" s="12"/>
+      <c r="IS22" s="12"/>
+      <c r="IT22" s="12"/>
+      <c r="IU22" s="12"/>
+      <c r="IV22" s="12"/>
+      <c r="IW22" s="12"/>
+      <c r="IX22" s="12"/>
     </row>
-    <row r="23" spans="1:258" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="46"/>
-      <c r="AL23" s="46"/>
-      <c r="AM23" s="46"/>
-      <c r="AN23" s="46"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="46"/>
-      <c r="AQ23" s="46"/>
-      <c r="AR23" s="46"/>
-      <c r="AS23" s="46"/>
-      <c r="AT23" s="46"/>
-      <c r="AU23" s="46"/>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="46"/>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="46"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="46"/>
-      <c r="BB23" s="46"/>
-      <c r="BC23" s="46"/>
-      <c r="BD23" s="46"/>
-      <c r="BE23" s="46"/>
-      <c r="BF23" s="46"/>
-      <c r="BG23" s="46"/>
-      <c r="BH23" s="46"/>
-      <c r="BI23" s="46"/>
-      <c r="BJ23" s="46"/>
-      <c r="BK23" s="46"/>
-      <c r="BL23" s="46"/>
-      <c r="BM23" s="46"/>
-      <c r="BN23" s="46"/>
-      <c r="BO23" s="46"/>
-      <c r="BP23" s="46"/>
-      <c r="BQ23" s="46"/>
-      <c r="BR23" s="46"/>
-      <c r="BS23" s="46"/>
-      <c r="BT23" s="46"/>
-      <c r="BU23" s="46"/>
-      <c r="BV23" s="46"/>
-      <c r="BW23" s="46"/>
-      <c r="BX23" s="46"/>
-      <c r="BY23" s="46"/>
-      <c r="BZ23" s="46"/>
-      <c r="CA23" s="46"/>
-      <c r="CB23" s="46"/>
-      <c r="CC23" s="46"/>
-      <c r="CD23" s="46"/>
-      <c r="CE23" s="46"/>
-      <c r="CF23" s="46"/>
-      <c r="CG23" s="46"/>
-      <c r="CH23" s="46"/>
-      <c r="CI23" s="46"/>
-      <c r="CJ23" s="46"/>
-      <c r="CK23" s="46"/>
-      <c r="CL23" s="46"/>
-      <c r="CM23" s="46"/>
-      <c r="CN23" s="46"/>
-      <c r="CO23" s="46"/>
-      <c r="CP23" s="46"/>
-      <c r="CQ23" s="46"/>
-      <c r="CR23" s="46"/>
-      <c r="CS23" s="46"/>
-      <c r="CT23" s="46"/>
-      <c r="CU23" s="46"/>
-      <c r="CV23" s="46"/>
-      <c r="CW23" s="46"/>
-      <c r="CX23" s="46"/>
-      <c r="CY23" s="46"/>
-      <c r="CZ23" s="46"/>
-      <c r="DA23" s="46"/>
-      <c r="DB23" s="46"/>
-      <c r="DC23" s="46"/>
-      <c r="DD23" s="46"/>
-      <c r="DE23" s="46"/>
-      <c r="DF23" s="46"/>
-      <c r="DG23" s="46"/>
-      <c r="DH23" s="46"/>
-      <c r="DI23" s="46"/>
-      <c r="DJ23" s="46"/>
-      <c r="DK23" s="46"/>
-      <c r="DL23" s="46"/>
-      <c r="DM23" s="46"/>
-      <c r="DN23" s="46"/>
-      <c r="DO23" s="46"/>
-      <c r="DP23" s="46"/>
-      <c r="DQ23" s="46"/>
-      <c r="DR23" s="46"/>
-      <c r="DS23" s="46"/>
-      <c r="DT23" s="46"/>
-      <c r="DU23" s="46"/>
-      <c r="DV23" s="46"/>
-      <c r="DW23" s="46"/>
-      <c r="DX23" s="46"/>
-      <c r="DY23" s="46"/>
-      <c r="DZ23" s="46"/>
-      <c r="EA23" s="46"/>
-      <c r="EB23" s="46"/>
-      <c r="EC23" s="46"/>
-      <c r="ED23" s="46"/>
-      <c r="EE23" s="46"/>
-      <c r="EF23" s="46"/>
-      <c r="EG23" s="46"/>
-      <c r="EH23" s="46"/>
-      <c r="EI23" s="46"/>
-      <c r="EJ23" s="46"/>
-      <c r="EK23" s="46"/>
-      <c r="EL23" s="46"/>
-      <c r="EM23" s="46"/>
-      <c r="EN23" s="46"/>
-      <c r="EO23" s="46"/>
-      <c r="EP23" s="46"/>
-      <c r="EQ23" s="46"/>
-      <c r="ER23" s="46"/>
-      <c r="ES23" s="46"/>
-      <c r="ET23" s="46"/>
-      <c r="EU23" s="46"/>
-      <c r="EV23" s="46"/>
-      <c r="EW23" s="46"/>
-      <c r="EX23" s="46"/>
-      <c r="EY23" s="46"/>
-      <c r="EZ23" s="46"/>
-      <c r="FA23" s="46"/>
-      <c r="FB23" s="46"/>
-      <c r="FC23" s="46"/>
-      <c r="FD23" s="46"/>
-      <c r="FE23" s="46"/>
-      <c r="FF23" s="46"/>
-      <c r="FG23" s="46"/>
-      <c r="FH23" s="46"/>
-      <c r="FI23" s="46"/>
-      <c r="FJ23" s="46"/>
-      <c r="FK23" s="46"/>
-      <c r="FL23" s="46"/>
-      <c r="FM23" s="46"/>
-      <c r="FN23" s="46"/>
-      <c r="FO23" s="46"/>
-      <c r="FP23" s="46"/>
-      <c r="FQ23" s="46"/>
-      <c r="FR23" s="46"/>
-      <c r="FS23" s="46"/>
-      <c r="FT23" s="46"/>
-      <c r="FU23" s="46"/>
-      <c r="FV23" s="46"/>
-      <c r="FW23" s="46"/>
-      <c r="FX23" s="46"/>
-      <c r="FY23" s="46"/>
-      <c r="FZ23" s="46"/>
-      <c r="GA23" s="46"/>
-      <c r="GB23" s="46"/>
-      <c r="GC23" s="46"/>
-      <c r="GD23" s="46"/>
-      <c r="GE23" s="46"/>
-      <c r="GF23" s="46"/>
-      <c r="GG23" s="46"/>
-      <c r="GH23" s="46"/>
-      <c r="GI23" s="46"/>
-      <c r="GJ23" s="46"/>
-      <c r="GK23" s="46"/>
-      <c r="GL23" s="46"/>
-      <c r="GM23" s="46"/>
-      <c r="GN23" s="46"/>
-      <c r="GO23" s="46"/>
-      <c r="GP23" s="46"/>
-      <c r="GQ23" s="46"/>
-      <c r="GR23" s="46"/>
-      <c r="GS23" s="46"/>
-      <c r="GT23" s="46"/>
-      <c r="GU23" s="46"/>
-      <c r="GV23" s="46"/>
-      <c r="GW23" s="46"/>
-      <c r="GX23" s="46"/>
-      <c r="GY23" s="46"/>
-      <c r="GZ23" s="46"/>
-      <c r="HA23" s="46"/>
-      <c r="HB23" s="46"/>
-      <c r="HC23" s="46"/>
-      <c r="HD23" s="46"/>
-      <c r="HE23" s="46"/>
-      <c r="HF23" s="46"/>
-      <c r="HG23" s="46"/>
-      <c r="HH23" s="46"/>
-      <c r="HI23" s="46"/>
-      <c r="HJ23" s="46"/>
-      <c r="HK23" s="46"/>
-      <c r="HL23" s="46"/>
-      <c r="HM23" s="46"/>
-      <c r="HN23" s="46"/>
-      <c r="HO23" s="46"/>
-      <c r="HP23" s="46"/>
-      <c r="HQ23" s="46"/>
-      <c r="HR23" s="46"/>
-      <c r="HS23" s="46"/>
-      <c r="HT23" s="46"/>
-      <c r="HU23" s="46"/>
-      <c r="HV23" s="46"/>
-      <c r="HW23" s="46"/>
-      <c r="HX23" s="46"/>
-      <c r="HY23" s="46"/>
-      <c r="HZ23" s="46"/>
-      <c r="IA23" s="46"/>
-      <c r="IB23" s="46"/>
-      <c r="IC23" s="46"/>
-      <c r="ID23" s="46"/>
-      <c r="IE23" s="46"/>
-      <c r="IF23" s="46"/>
-      <c r="IG23" s="46"/>
-      <c r="IH23" s="46"/>
-      <c r="II23" s="46"/>
-      <c r="IJ23" s="46"/>
-      <c r="IK23" s="46"/>
-      <c r="IL23" s="46"/>
-      <c r="IM23" s="46"/>
-      <c r="IN23" s="46"/>
-      <c r="IO23" s="46"/>
-      <c r="IP23" s="46"/>
-      <c r="IQ23" s="46"/>
-      <c r="IR23" s="46"/>
-      <c r="IS23" s="46"/>
-      <c r="IT23" s="46"/>
-      <c r="IU23" s="46"/>
-      <c r="IV23" s="46"/>
-      <c r="IW23" s="46"/>
-      <c r="IX23" s="46"/>
+    <row r="23" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="65"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12"/>
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12"/>
+      <c r="BG23" s="12"/>
+      <c r="BH23" s="12"/>
+      <c r="BI23" s="12"/>
+      <c r="BJ23" s="12"/>
+      <c r="BK23" s="12"/>
+      <c r="BL23" s="12"/>
+      <c r="BM23" s="12"/>
+      <c r="BN23" s="12"/>
+      <c r="BO23" s="12"/>
+      <c r="BP23" s="12"/>
+      <c r="BQ23" s="12"/>
+      <c r="BR23" s="12"/>
+      <c r="BS23" s="12"/>
+      <c r="BT23" s="12"/>
+      <c r="BU23" s="12"/>
+      <c r="BV23" s="12"/>
+      <c r="BW23" s="12"/>
+      <c r="BX23" s="12"/>
+      <c r="BY23" s="12"/>
+      <c r="BZ23" s="12"/>
+      <c r="CA23" s="12"/>
+      <c r="CB23" s="12"/>
+      <c r="CC23" s="12"/>
+      <c r="CD23" s="12"/>
+      <c r="CE23" s="12"/>
+      <c r="CF23" s="12"/>
+      <c r="CG23" s="12"/>
+      <c r="CH23" s="12"/>
+      <c r="CI23" s="12"/>
+      <c r="CJ23" s="12"/>
+      <c r="CK23" s="12"/>
+      <c r="CL23" s="12"/>
+      <c r="CM23" s="12"/>
+      <c r="CN23" s="12"/>
+      <c r="CO23" s="12"/>
+      <c r="CP23" s="12"/>
+      <c r="CQ23" s="12"/>
+      <c r="CR23" s="12"/>
+      <c r="CS23" s="12"/>
+      <c r="CT23" s="12"/>
+      <c r="CU23" s="12"/>
+      <c r="CV23" s="12"/>
+      <c r="CW23" s="12"/>
+      <c r="CX23" s="12"/>
+      <c r="CY23" s="12"/>
+      <c r="CZ23" s="12"/>
+      <c r="DA23" s="12"/>
+      <c r="DB23" s="12"/>
+      <c r="DC23" s="12"/>
+      <c r="DD23" s="12"/>
+      <c r="DE23" s="12"/>
+      <c r="DF23" s="12"/>
+      <c r="DG23" s="12"/>
+      <c r="DH23" s="12"/>
+      <c r="DI23" s="12"/>
+      <c r="DJ23" s="12"/>
+      <c r="DK23" s="12"/>
+      <c r="DL23" s="12"/>
+      <c r="DM23" s="12"/>
+      <c r="DN23" s="12"/>
+      <c r="DO23" s="12"/>
+      <c r="DP23" s="12"/>
+      <c r="DQ23" s="12"/>
+      <c r="DR23" s="12"/>
+      <c r="DS23" s="12"/>
+      <c r="DT23" s="12"/>
+      <c r="DU23" s="12"/>
+      <c r="DV23" s="12"/>
+      <c r="DW23" s="12"/>
+      <c r="DX23" s="12"/>
+      <c r="DY23" s="12"/>
+      <c r="DZ23" s="12"/>
+      <c r="EA23" s="12"/>
+      <c r="EB23" s="12"/>
+      <c r="EC23" s="12"/>
+      <c r="ED23" s="12"/>
+      <c r="EE23" s="12"/>
+      <c r="EF23" s="12"/>
+      <c r="EG23" s="12"/>
+      <c r="EH23" s="12"/>
+      <c r="EI23" s="12"/>
+      <c r="EJ23" s="12"/>
+      <c r="EK23" s="12"/>
+      <c r="EL23" s="12"/>
+      <c r="EM23" s="12"/>
+      <c r="EN23" s="12"/>
+      <c r="EO23" s="12"/>
+      <c r="EP23" s="12"/>
+      <c r="EQ23" s="12"/>
+      <c r="ER23" s="12"/>
+      <c r="ES23" s="12"/>
+      <c r="ET23" s="12"/>
+      <c r="EU23" s="12"/>
+      <c r="EV23" s="12"/>
+      <c r="EW23" s="12"/>
+      <c r="EX23" s="12"/>
+      <c r="EY23" s="12"/>
+      <c r="EZ23" s="12"/>
+      <c r="FA23" s="12"/>
+      <c r="FB23" s="12"/>
+      <c r="FC23" s="12"/>
+      <c r="FD23" s="12"/>
+      <c r="FE23" s="12"/>
+      <c r="FF23" s="12"/>
+      <c r="FG23" s="12"/>
+      <c r="FH23" s="12"/>
+      <c r="FI23" s="12"/>
+      <c r="FJ23" s="12"/>
+      <c r="FK23" s="12"/>
+      <c r="FL23" s="12"/>
+      <c r="FM23" s="12"/>
+      <c r="FN23" s="12"/>
+      <c r="FO23" s="12"/>
+      <c r="FP23" s="12"/>
+      <c r="FQ23" s="12"/>
+      <c r="FR23" s="12"/>
+      <c r="FS23" s="12"/>
+      <c r="FT23" s="12"/>
+      <c r="FU23" s="12"/>
+      <c r="FV23" s="12"/>
+      <c r="FW23" s="12"/>
+      <c r="FX23" s="12"/>
+      <c r="FY23" s="12"/>
+      <c r="FZ23" s="12"/>
+      <c r="GA23" s="12"/>
+      <c r="GB23" s="12"/>
+      <c r="GC23" s="12"/>
+      <c r="GD23" s="12"/>
+      <c r="GE23" s="12"/>
+      <c r="GF23" s="12"/>
+      <c r="GG23" s="12"/>
+      <c r="GH23" s="12"/>
+      <c r="GI23" s="12"/>
+      <c r="GJ23" s="12"/>
+      <c r="GK23" s="12"/>
+      <c r="GL23" s="12"/>
+      <c r="GM23" s="12"/>
+      <c r="GN23" s="12"/>
+      <c r="GO23" s="12"/>
+      <c r="GP23" s="12"/>
+      <c r="GQ23" s="12"/>
+      <c r="GR23" s="12"/>
+      <c r="GS23" s="12"/>
+      <c r="GT23" s="12"/>
+      <c r="GU23" s="12"/>
+      <c r="GV23" s="12"/>
+      <c r="GW23" s="12"/>
+      <c r="GX23" s="12"/>
+      <c r="GY23" s="12"/>
+      <c r="GZ23" s="12"/>
+      <c r="HA23" s="12"/>
+      <c r="HB23" s="12"/>
+      <c r="HC23" s="12"/>
+      <c r="HD23" s="12"/>
+      <c r="HE23" s="12"/>
+      <c r="HF23" s="12"/>
+      <c r="HG23" s="12"/>
+      <c r="HH23" s="12"/>
+      <c r="HI23" s="12"/>
+      <c r="HJ23" s="12"/>
+      <c r="HK23" s="12"/>
+      <c r="HL23" s="12"/>
+      <c r="HM23" s="12"/>
+      <c r="HN23" s="12"/>
+      <c r="HO23" s="12"/>
+      <c r="HP23" s="12"/>
+      <c r="HQ23" s="12"/>
+      <c r="HR23" s="12"/>
+      <c r="HS23" s="12"/>
+      <c r="HT23" s="12"/>
+      <c r="HU23" s="12"/>
+      <c r="HV23" s="12"/>
+      <c r="HW23" s="12"/>
+      <c r="HX23" s="12"/>
+      <c r="HY23" s="12"/>
+      <c r="HZ23" s="12"/>
+      <c r="IA23" s="12"/>
+      <c r="IB23" s="12"/>
+      <c r="IC23" s="12"/>
+      <c r="ID23" s="12"/>
+      <c r="IE23" s="12"/>
+      <c r="IF23" s="12"/>
+      <c r="IG23" s="12"/>
+      <c r="IH23" s="12"/>
+      <c r="II23" s="12"/>
+      <c r="IJ23" s="12"/>
+      <c r="IK23" s="12"/>
+      <c r="IL23" s="12"/>
+      <c r="IM23" s="12"/>
+      <c r="IN23" s="12"/>
+      <c r="IO23" s="12"/>
+      <c r="IP23" s="12"/>
+      <c r="IQ23" s="12"/>
+      <c r="IR23" s="12"/>
+      <c r="IS23" s="12"/>
+      <c r="IT23" s="12"/>
+      <c r="IU23" s="12"/>
+      <c r="IV23" s="12"/>
+      <c r="IW23" s="12"/>
+      <c r="IX23" s="12"/>
     </row>
     <row r="24" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
     </row>
-    <row r="25" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="25"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+    <row r="25" spans="1:258" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="46"/>
+      <c r="AK25" s="46"/>
+      <c r="AL25" s="46"/>
+      <c r="AM25" s="46"/>
+      <c r="AN25" s="46"/>
+      <c r="AO25" s="46"/>
+      <c r="AP25" s="46"/>
+      <c r="AQ25" s="46"/>
+      <c r="AR25" s="46"/>
+      <c r="AS25" s="46"/>
+      <c r="AT25" s="46"/>
+      <c r="AU25" s="46"/>
+      <c r="AV25" s="46"/>
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="46"/>
+      <c r="AY25" s="46"/>
+      <c r="AZ25" s="46"/>
+      <c r="BA25" s="46"/>
+      <c r="BB25" s="46"/>
+      <c r="BC25" s="46"/>
+      <c r="BD25" s="46"/>
+      <c r="BE25" s="46"/>
+      <c r="BF25" s="46"/>
+      <c r="BG25" s="46"/>
+      <c r="BH25" s="46"/>
+      <c r="BI25" s="46"/>
+      <c r="BJ25" s="46"/>
+      <c r="BK25" s="46"/>
+      <c r="BL25" s="46"/>
+      <c r="BM25" s="46"/>
+      <c r="BN25" s="46"/>
+      <c r="BO25" s="46"/>
+      <c r="BP25" s="46"/>
+      <c r="BQ25" s="46"/>
+      <c r="BR25" s="46"/>
+      <c r="BS25" s="46"/>
+      <c r="BT25" s="46"/>
+      <c r="BU25" s="46"/>
+      <c r="BV25" s="46"/>
+      <c r="BW25" s="46"/>
+      <c r="BX25" s="46"/>
+      <c r="BY25" s="46"/>
+      <c r="BZ25" s="46"/>
+      <c r="CA25" s="46"/>
+      <c r="CB25" s="46"/>
+      <c r="CC25" s="46"/>
+      <c r="CD25" s="46"/>
+      <c r="CE25" s="46"/>
+      <c r="CF25" s="46"/>
+      <c r="CG25" s="46"/>
+      <c r="CH25" s="46"/>
+      <c r="CI25" s="46"/>
+      <c r="CJ25" s="46"/>
+      <c r="CK25" s="46"/>
+      <c r="CL25" s="46"/>
+      <c r="CM25" s="46"/>
+      <c r="CN25" s="46"/>
+      <c r="CO25" s="46"/>
+      <c r="CP25" s="46"/>
+      <c r="CQ25" s="46"/>
+      <c r="CR25" s="46"/>
+      <c r="CS25" s="46"/>
+      <c r="CT25" s="46"/>
+      <c r="CU25" s="46"/>
+      <c r="CV25" s="46"/>
+      <c r="CW25" s="46"/>
+      <c r="CX25" s="46"/>
+      <c r="CY25" s="46"/>
+      <c r="CZ25" s="46"/>
+      <c r="DA25" s="46"/>
+      <c r="DB25" s="46"/>
+      <c r="DC25" s="46"/>
+      <c r="DD25" s="46"/>
+      <c r="DE25" s="46"/>
+      <c r="DF25" s="46"/>
+      <c r="DG25" s="46"/>
+      <c r="DH25" s="46"/>
+      <c r="DI25" s="46"/>
+      <c r="DJ25" s="46"/>
+      <c r="DK25" s="46"/>
+      <c r="DL25" s="46"/>
+      <c r="DM25" s="46"/>
+      <c r="DN25" s="46"/>
+      <c r="DO25" s="46"/>
+      <c r="DP25" s="46"/>
+      <c r="DQ25" s="46"/>
+      <c r="DR25" s="46"/>
+      <c r="DS25" s="46"/>
+      <c r="DT25" s="46"/>
+      <c r="DU25" s="46"/>
+      <c r="DV25" s="46"/>
+      <c r="DW25" s="46"/>
+      <c r="DX25" s="46"/>
+      <c r="DY25" s="46"/>
+      <c r="DZ25" s="46"/>
+      <c r="EA25" s="46"/>
+      <c r="EB25" s="46"/>
+      <c r="EC25" s="46"/>
+      <c r="ED25" s="46"/>
+      <c r="EE25" s="46"/>
+      <c r="EF25" s="46"/>
+      <c r="EG25" s="46"/>
+      <c r="EH25" s="46"/>
+      <c r="EI25" s="46"/>
+      <c r="EJ25" s="46"/>
+      <c r="EK25" s="46"/>
+      <c r="EL25" s="46"/>
+      <c r="EM25" s="46"/>
+      <c r="EN25" s="46"/>
+      <c r="EO25" s="46"/>
+      <c r="EP25" s="46"/>
+      <c r="EQ25" s="46"/>
+      <c r="ER25" s="46"/>
+      <c r="ES25" s="46"/>
+      <c r="ET25" s="46"/>
+      <c r="EU25" s="46"/>
+      <c r="EV25" s="46"/>
+      <c r="EW25" s="46"/>
+      <c r="EX25" s="46"/>
+      <c r="EY25" s="46"/>
+      <c r="EZ25" s="46"/>
+      <c r="FA25" s="46"/>
+      <c r="FB25" s="46"/>
+      <c r="FC25" s="46"/>
+      <c r="FD25" s="46"/>
+      <c r="FE25" s="46"/>
+      <c r="FF25" s="46"/>
+      <c r="FG25" s="46"/>
+      <c r="FH25" s="46"/>
+      <c r="FI25" s="46"/>
+      <c r="FJ25" s="46"/>
+      <c r="FK25" s="46"/>
+      <c r="FL25" s="46"/>
+      <c r="FM25" s="46"/>
+      <c r="FN25" s="46"/>
+      <c r="FO25" s="46"/>
+      <c r="FP25" s="46"/>
+      <c r="FQ25" s="46"/>
+      <c r="FR25" s="46"/>
+      <c r="FS25" s="46"/>
+      <c r="FT25" s="46"/>
+      <c r="FU25" s="46"/>
+      <c r="FV25" s="46"/>
+      <c r="FW25" s="46"/>
+      <c r="FX25" s="46"/>
+      <c r="FY25" s="46"/>
+      <c r="FZ25" s="46"/>
+      <c r="GA25" s="46"/>
+      <c r="GB25" s="46"/>
+      <c r="GC25" s="46"/>
+      <c r="GD25" s="46"/>
+      <c r="GE25" s="46"/>
+      <c r="GF25" s="46"/>
+      <c r="GG25" s="46"/>
+      <c r="GH25" s="46"/>
+      <c r="GI25" s="46"/>
+      <c r="GJ25" s="46"/>
+      <c r="GK25" s="46"/>
+      <c r="GL25" s="46"/>
+      <c r="GM25" s="46"/>
+      <c r="GN25" s="46"/>
+      <c r="GO25" s="46"/>
+      <c r="GP25" s="46"/>
+      <c r="GQ25" s="46"/>
+      <c r="GR25" s="46"/>
+      <c r="GS25" s="46"/>
+      <c r="GT25" s="46"/>
+      <c r="GU25" s="46"/>
+      <c r="GV25" s="46"/>
+      <c r="GW25" s="46"/>
+      <c r="GX25" s="46"/>
+      <c r="GY25" s="46"/>
+      <c r="GZ25" s="46"/>
+      <c r="HA25" s="46"/>
+      <c r="HB25" s="46"/>
+      <c r="HC25" s="46"/>
+      <c r="HD25" s="46"/>
+      <c r="HE25" s="46"/>
+      <c r="HF25" s="46"/>
+      <c r="HG25" s="46"/>
+      <c r="HH25" s="46"/>
+      <c r="HI25" s="46"/>
+      <c r="HJ25" s="46"/>
+      <c r="HK25" s="46"/>
+      <c r="HL25" s="46"/>
+      <c r="HM25" s="46"/>
+      <c r="HN25" s="46"/>
+      <c r="HO25" s="46"/>
+      <c r="HP25" s="46"/>
+      <c r="HQ25" s="46"/>
+      <c r="HR25" s="46"/>
+      <c r="HS25" s="46"/>
+      <c r="HT25" s="46"/>
+      <c r="HU25" s="46"/>
+      <c r="HV25" s="46"/>
+      <c r="HW25" s="46"/>
+      <c r="HX25" s="46"/>
+      <c r="HY25" s="46"/>
+      <c r="HZ25" s="46"/>
+      <c r="IA25" s="46"/>
+      <c r="IB25" s="46"/>
+      <c r="IC25" s="46"/>
+      <c r="ID25" s="46"/>
+      <c r="IE25" s="46"/>
+      <c r="IF25" s="46"/>
+      <c r="IG25" s="46"/>
+      <c r="IH25" s="46"/>
+      <c r="II25" s="46"/>
+      <c r="IJ25" s="46"/>
+      <c r="IK25" s="46"/>
+      <c r="IL25" s="46"/>
+      <c r="IM25" s="46"/>
+      <c r="IN25" s="46"/>
+      <c r="IO25" s="46"/>
+      <c r="IP25" s="46"/>
+      <c r="IQ25" s="46"/>
+      <c r="IR25" s="46"/>
+      <c r="IS25" s="46"/>
+      <c r="IT25" s="46"/>
+      <c r="IU25" s="46"/>
+      <c r="IV25" s="46"/>
+      <c r="IW25" s="46"/>
+      <c r="IX25" s="46"/>
     </row>
     <row r="26" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="45"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="45"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="G27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
     </row>
-    <row r="28" spans="1:258" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
-      <c r="AM28" s="46"/>
-      <c r="AN28" s="46"/>
-      <c r="AO28" s="46"/>
-      <c r="AP28" s="46"/>
-      <c r="AQ28" s="46"/>
-      <c r="AR28" s="46"/>
-      <c r="AS28" s="46"/>
-      <c r="AT28" s="46"/>
-      <c r="AU28" s="46"/>
-      <c r="AV28" s="46"/>
-      <c r="AW28" s="46"/>
-      <c r="AX28" s="46"/>
-      <c r="AY28" s="46"/>
-      <c r="AZ28" s="46"/>
-      <c r="BA28" s="46"/>
-      <c r="BB28" s="46"/>
-      <c r="BC28" s="46"/>
-      <c r="BD28" s="46"/>
-      <c r="BE28" s="46"/>
-      <c r="BF28" s="46"/>
-      <c r="BG28" s="46"/>
-      <c r="BH28" s="46"/>
-      <c r="BI28" s="46"/>
-      <c r="BJ28" s="46"/>
-      <c r="BK28" s="46"/>
-      <c r="BL28" s="46"/>
-      <c r="BM28" s="46"/>
-      <c r="BN28" s="46"/>
-      <c r="BO28" s="46"/>
-      <c r="BP28" s="46"/>
-      <c r="BQ28" s="46"/>
-      <c r="BR28" s="46"/>
-      <c r="BS28" s="46"/>
-      <c r="BT28" s="46"/>
-      <c r="BU28" s="46"/>
-      <c r="BV28" s="46"/>
-      <c r="BW28" s="46"/>
-      <c r="BX28" s="46"/>
-      <c r="BY28" s="46"/>
-      <c r="BZ28" s="46"/>
-      <c r="CA28" s="46"/>
-      <c r="CB28" s="46"/>
-      <c r="CC28" s="46"/>
-      <c r="CD28" s="46"/>
-      <c r="CE28" s="46"/>
-      <c r="CF28" s="46"/>
-      <c r="CG28" s="46"/>
-      <c r="CH28" s="46"/>
-      <c r="CI28" s="46"/>
-      <c r="CJ28" s="46"/>
-      <c r="CK28" s="46"/>
-      <c r="CL28" s="46"/>
-      <c r="CM28" s="46"/>
-      <c r="CN28" s="46"/>
-      <c r="CO28" s="46"/>
-      <c r="CP28" s="46"/>
-      <c r="CQ28" s="46"/>
-      <c r="CR28" s="46"/>
-      <c r="CS28" s="46"/>
-      <c r="CT28" s="46"/>
-      <c r="CU28" s="46"/>
-      <c r="CV28" s="46"/>
-      <c r="CW28" s="46"/>
-      <c r="CX28" s="46"/>
-      <c r="CY28" s="46"/>
-      <c r="CZ28" s="46"/>
-      <c r="DA28" s="46"/>
-      <c r="DB28" s="46"/>
-      <c r="DC28" s="46"/>
-      <c r="DD28" s="46"/>
-      <c r="DE28" s="46"/>
-      <c r="DF28" s="46"/>
-      <c r="DG28" s="46"/>
-      <c r="DH28" s="46"/>
-      <c r="DI28" s="46"/>
-      <c r="DJ28" s="46"/>
-      <c r="DK28" s="46"/>
-      <c r="DL28" s="46"/>
-      <c r="DM28" s="46"/>
-      <c r="DN28" s="46"/>
-      <c r="DO28" s="46"/>
-      <c r="DP28" s="46"/>
-      <c r="DQ28" s="46"/>
-      <c r="DR28" s="46"/>
-      <c r="DS28" s="46"/>
-      <c r="DT28" s="46"/>
-      <c r="DU28" s="46"/>
-      <c r="DV28" s="46"/>
-      <c r="DW28" s="46"/>
-      <c r="DX28" s="46"/>
-      <c r="DY28" s="46"/>
-      <c r="DZ28" s="46"/>
-      <c r="EA28" s="46"/>
-      <c r="EB28" s="46"/>
-      <c r="EC28" s="46"/>
-      <c r="ED28" s="46"/>
-      <c r="EE28" s="46"/>
-      <c r="EF28" s="46"/>
-      <c r="EG28" s="46"/>
-      <c r="EH28" s="46"/>
-      <c r="EI28" s="46"/>
-      <c r="EJ28" s="46"/>
-      <c r="EK28" s="46"/>
-      <c r="EL28" s="46"/>
-      <c r="EM28" s="46"/>
-      <c r="EN28" s="46"/>
-      <c r="EO28" s="46"/>
-      <c r="EP28" s="46"/>
-      <c r="EQ28" s="46"/>
-      <c r="ER28" s="46"/>
-      <c r="ES28" s="46"/>
-      <c r="ET28" s="46"/>
-      <c r="EU28" s="46"/>
-      <c r="EV28" s="46"/>
-      <c r="EW28" s="46"/>
-      <c r="EX28" s="46"/>
-      <c r="EY28" s="46"/>
-      <c r="EZ28" s="46"/>
-      <c r="FA28" s="46"/>
-      <c r="FB28" s="46"/>
-      <c r="FC28" s="46"/>
-      <c r="FD28" s="46"/>
-      <c r="FE28" s="46"/>
-      <c r="FF28" s="46"/>
-      <c r="FG28" s="46"/>
-      <c r="FH28" s="46"/>
-      <c r="FI28" s="46"/>
-      <c r="FJ28" s="46"/>
-      <c r="FK28" s="46"/>
-      <c r="FL28" s="46"/>
-      <c r="FM28" s="46"/>
-      <c r="FN28" s="46"/>
-      <c r="FO28" s="46"/>
-      <c r="FP28" s="46"/>
-      <c r="FQ28" s="46"/>
-      <c r="FR28" s="46"/>
-      <c r="FS28" s="46"/>
-      <c r="FT28" s="46"/>
-      <c r="FU28" s="46"/>
-      <c r="FV28" s="46"/>
-      <c r="FW28" s="46"/>
-      <c r="FX28" s="46"/>
-      <c r="FY28" s="46"/>
-      <c r="FZ28" s="46"/>
-      <c r="GA28" s="46"/>
-      <c r="GB28" s="46"/>
-      <c r="GC28" s="46"/>
-      <c r="GD28" s="46"/>
-      <c r="GE28" s="46"/>
-      <c r="GF28" s="46"/>
-      <c r="GG28" s="46"/>
-      <c r="GH28" s="46"/>
-      <c r="GI28" s="46"/>
-      <c r="GJ28" s="46"/>
-      <c r="GK28" s="46"/>
-      <c r="GL28" s="46"/>
-      <c r="GM28" s="46"/>
-      <c r="GN28" s="46"/>
-      <c r="GO28" s="46"/>
-      <c r="GP28" s="46"/>
-      <c r="GQ28" s="46"/>
-      <c r="GR28" s="46"/>
-      <c r="GS28" s="46"/>
-      <c r="GT28" s="46"/>
-      <c r="GU28" s="46"/>
-      <c r="GV28" s="46"/>
-      <c r="GW28" s="46"/>
-      <c r="GX28" s="46"/>
-      <c r="GY28" s="46"/>
-      <c r="GZ28" s="46"/>
-      <c r="HA28" s="46"/>
-      <c r="HB28" s="46"/>
-      <c r="HC28" s="46"/>
-      <c r="HD28" s="46"/>
-      <c r="HE28" s="46"/>
-      <c r="HF28" s="46"/>
-      <c r="HG28" s="46"/>
-      <c r="HH28" s="46"/>
-      <c r="HI28" s="46"/>
-      <c r="HJ28" s="46"/>
-      <c r="HK28" s="46"/>
-      <c r="HL28" s="46"/>
-      <c r="HM28" s="46"/>
-      <c r="HN28" s="46"/>
-      <c r="HO28" s="46"/>
-      <c r="HP28" s="46"/>
-      <c r="HQ28" s="46"/>
-      <c r="HR28" s="46"/>
-      <c r="HS28" s="46"/>
-      <c r="HT28" s="46"/>
-      <c r="HU28" s="46"/>
-      <c r="HV28" s="46"/>
-      <c r="HW28" s="46"/>
-      <c r="HX28" s="46"/>
-      <c r="HY28" s="46"/>
-      <c r="HZ28" s="46"/>
-      <c r="IA28" s="46"/>
-      <c r="IB28" s="46"/>
-      <c r="IC28" s="46"/>
-      <c r="ID28" s="46"/>
-      <c r="IE28" s="46"/>
-      <c r="IF28" s="46"/>
-      <c r="IG28" s="46"/>
-      <c r="IH28" s="46"/>
-      <c r="II28" s="46"/>
-      <c r="IJ28" s="46"/>
-      <c r="IK28" s="46"/>
-      <c r="IL28" s="46"/>
-      <c r="IM28" s="46"/>
-      <c r="IN28" s="46"/>
-      <c r="IO28" s="46"/>
-      <c r="IP28" s="46"/>
-      <c r="IQ28" s="46"/>
-      <c r="IR28" s="46"/>
-      <c r="IS28" s="46"/>
-      <c r="IT28" s="46"/>
-      <c r="IU28" s="46"/>
-      <c r="IV28" s="46"/>
-      <c r="IW28" s="46"/>
-      <c r="IX28" s="46"/>
+    <row r="28" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="45"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
     </row>
-    <row r="30" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="59"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+    <row r="30" spans="1:258" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="49"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="46"/>
+      <c r="AK30" s="46"/>
+      <c r="AL30" s="46"/>
+      <c r="AM30" s="46"/>
+      <c r="AN30" s="46"/>
+      <c r="AO30" s="46"/>
+      <c r="AP30" s="46"/>
+      <c r="AQ30" s="46"/>
+      <c r="AR30" s="46"/>
+      <c r="AS30" s="46"/>
+      <c r="AT30" s="46"/>
+      <c r="AU30" s="46"/>
+      <c r="AV30" s="46"/>
+      <c r="AW30" s="46"/>
+      <c r="AX30" s="46"/>
+      <c r="AY30" s="46"/>
+      <c r="AZ30" s="46"/>
+      <c r="BA30" s="46"/>
+      <c r="BB30" s="46"/>
+      <c r="BC30" s="46"/>
+      <c r="BD30" s="46"/>
+      <c r="BE30" s="46"/>
+      <c r="BF30" s="46"/>
+      <c r="BG30" s="46"/>
+      <c r="BH30" s="46"/>
+      <c r="BI30" s="46"/>
+      <c r="BJ30" s="46"/>
+      <c r="BK30" s="46"/>
+      <c r="BL30" s="46"/>
+      <c r="BM30" s="46"/>
+      <c r="BN30" s="46"/>
+      <c r="BO30" s="46"/>
+      <c r="BP30" s="46"/>
+      <c r="BQ30" s="46"/>
+      <c r="BR30" s="46"/>
+      <c r="BS30" s="46"/>
+      <c r="BT30" s="46"/>
+      <c r="BU30" s="46"/>
+      <c r="BV30" s="46"/>
+      <c r="BW30" s="46"/>
+      <c r="BX30" s="46"/>
+      <c r="BY30" s="46"/>
+      <c r="BZ30" s="46"/>
+      <c r="CA30" s="46"/>
+      <c r="CB30" s="46"/>
+      <c r="CC30" s="46"/>
+      <c r="CD30" s="46"/>
+      <c r="CE30" s="46"/>
+      <c r="CF30" s="46"/>
+      <c r="CG30" s="46"/>
+      <c r="CH30" s="46"/>
+      <c r="CI30" s="46"/>
+      <c r="CJ30" s="46"/>
+      <c r="CK30" s="46"/>
+      <c r="CL30" s="46"/>
+      <c r="CM30" s="46"/>
+      <c r="CN30" s="46"/>
+      <c r="CO30" s="46"/>
+      <c r="CP30" s="46"/>
+      <c r="CQ30" s="46"/>
+      <c r="CR30" s="46"/>
+      <c r="CS30" s="46"/>
+      <c r="CT30" s="46"/>
+      <c r="CU30" s="46"/>
+      <c r="CV30" s="46"/>
+      <c r="CW30" s="46"/>
+      <c r="CX30" s="46"/>
+      <c r="CY30" s="46"/>
+      <c r="CZ30" s="46"/>
+      <c r="DA30" s="46"/>
+      <c r="DB30" s="46"/>
+      <c r="DC30" s="46"/>
+      <c r="DD30" s="46"/>
+      <c r="DE30" s="46"/>
+      <c r="DF30" s="46"/>
+      <c r="DG30" s="46"/>
+      <c r="DH30" s="46"/>
+      <c r="DI30" s="46"/>
+      <c r="DJ30" s="46"/>
+      <c r="DK30" s="46"/>
+      <c r="DL30" s="46"/>
+      <c r="DM30" s="46"/>
+      <c r="DN30" s="46"/>
+      <c r="DO30" s="46"/>
+      <c r="DP30" s="46"/>
+      <c r="DQ30" s="46"/>
+      <c r="DR30" s="46"/>
+      <c r="DS30" s="46"/>
+      <c r="DT30" s="46"/>
+      <c r="DU30" s="46"/>
+      <c r="DV30" s="46"/>
+      <c r="DW30" s="46"/>
+      <c r="DX30" s="46"/>
+      <c r="DY30" s="46"/>
+      <c r="DZ30" s="46"/>
+      <c r="EA30" s="46"/>
+      <c r="EB30" s="46"/>
+      <c r="EC30" s="46"/>
+      <c r="ED30" s="46"/>
+      <c r="EE30" s="46"/>
+      <c r="EF30" s="46"/>
+      <c r="EG30" s="46"/>
+      <c r="EH30" s="46"/>
+      <c r="EI30" s="46"/>
+      <c r="EJ30" s="46"/>
+      <c r="EK30" s="46"/>
+      <c r="EL30" s="46"/>
+      <c r="EM30" s="46"/>
+      <c r="EN30" s="46"/>
+      <c r="EO30" s="46"/>
+      <c r="EP30" s="46"/>
+      <c r="EQ30" s="46"/>
+      <c r="ER30" s="46"/>
+      <c r="ES30" s="46"/>
+      <c r="ET30" s="46"/>
+      <c r="EU30" s="46"/>
+      <c r="EV30" s="46"/>
+      <c r="EW30" s="46"/>
+      <c r="EX30" s="46"/>
+      <c r="EY30" s="46"/>
+      <c r="EZ30" s="46"/>
+      <c r="FA30" s="46"/>
+      <c r="FB30" s="46"/>
+      <c r="FC30" s="46"/>
+      <c r="FD30" s="46"/>
+      <c r="FE30" s="46"/>
+      <c r="FF30" s="46"/>
+      <c r="FG30" s="46"/>
+      <c r="FH30" s="46"/>
+      <c r="FI30" s="46"/>
+      <c r="FJ30" s="46"/>
+      <c r="FK30" s="46"/>
+      <c r="FL30" s="46"/>
+      <c r="FM30" s="46"/>
+      <c r="FN30" s="46"/>
+      <c r="FO30" s="46"/>
+      <c r="FP30" s="46"/>
+      <c r="FQ30" s="46"/>
+      <c r="FR30" s="46"/>
+      <c r="FS30" s="46"/>
+      <c r="FT30" s="46"/>
+      <c r="FU30" s="46"/>
+      <c r="FV30" s="46"/>
+      <c r="FW30" s="46"/>
+      <c r="FX30" s="46"/>
+      <c r="FY30" s="46"/>
+      <c r="FZ30" s="46"/>
+      <c r="GA30" s="46"/>
+      <c r="GB30" s="46"/>
+      <c r="GC30" s="46"/>
+      <c r="GD30" s="46"/>
+      <c r="GE30" s="46"/>
+      <c r="GF30" s="46"/>
+      <c r="GG30" s="46"/>
+      <c r="GH30" s="46"/>
+      <c r="GI30" s="46"/>
+      <c r="GJ30" s="46"/>
+      <c r="GK30" s="46"/>
+      <c r="GL30" s="46"/>
+      <c r="GM30" s="46"/>
+      <c r="GN30" s="46"/>
+      <c r="GO30" s="46"/>
+      <c r="GP30" s="46"/>
+      <c r="GQ30" s="46"/>
+      <c r="GR30" s="46"/>
+      <c r="GS30" s="46"/>
+      <c r="GT30" s="46"/>
+      <c r="GU30" s="46"/>
+      <c r="GV30" s="46"/>
+      <c r="GW30" s="46"/>
+      <c r="GX30" s="46"/>
+      <c r="GY30" s="46"/>
+      <c r="GZ30" s="46"/>
+      <c r="HA30" s="46"/>
+      <c r="HB30" s="46"/>
+      <c r="HC30" s="46"/>
+      <c r="HD30" s="46"/>
+      <c r="HE30" s="46"/>
+      <c r="HF30" s="46"/>
+      <c r="HG30" s="46"/>
+      <c r="HH30" s="46"/>
+      <c r="HI30" s="46"/>
+      <c r="HJ30" s="46"/>
+      <c r="HK30" s="46"/>
+      <c r="HL30" s="46"/>
+      <c r="HM30" s="46"/>
+      <c r="HN30" s="46"/>
+      <c r="HO30" s="46"/>
+      <c r="HP30" s="46"/>
+      <c r="HQ30" s="46"/>
+      <c r="HR30" s="46"/>
+      <c r="HS30" s="46"/>
+      <c r="HT30" s="46"/>
+      <c r="HU30" s="46"/>
+      <c r="HV30" s="46"/>
+      <c r="HW30" s="46"/>
+      <c r="HX30" s="46"/>
+      <c r="HY30" s="46"/>
+      <c r="HZ30" s="46"/>
+      <c r="IA30" s="46"/>
+      <c r="IB30" s="46"/>
+      <c r="IC30" s="46"/>
+      <c r="ID30" s="46"/>
+      <c r="IE30" s="46"/>
+      <c r="IF30" s="46"/>
+      <c r="IG30" s="46"/>
+      <c r="IH30" s="46"/>
+      <c r="II30" s="46"/>
+      <c r="IJ30" s="46"/>
+      <c r="IK30" s="46"/>
+      <c r="IL30" s="46"/>
+      <c r="IM30" s="46"/>
+      <c r="IN30" s="46"/>
+      <c r="IO30" s="46"/>
+      <c r="IP30" s="46"/>
+      <c r="IQ30" s="46"/>
+      <c r="IR30" s="46"/>
+      <c r="IS30" s="46"/>
+      <c r="IT30" s="46"/>
+      <c r="IU30" s="46"/>
+      <c r="IV30" s="46"/>
+      <c r="IW30" s="46"/>
+      <c r="IX30" s="46"/>
     </row>
     <row r="31" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="59"/>
@@ -7580,7 +8112,7 @@
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="11"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
     </row>
@@ -7591,85 +8123,85 @@
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="11"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="60"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
-      <c r="G35" s="25"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="25"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="11"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="59"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="9"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="11"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="59"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="26"/>
       <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -7681,14 +8213,14 @@
       <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
     </row>
@@ -7716,15 +8248,39 @@
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
     </row>
+    <row r="44" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+    </row>
+    <row r="45" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A31:A36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -727,9 +727,6 @@
     <t>Get all department users</t>
   </si>
   <si>
-    <t>/users?departmentId=1&amp;page=1&amp;pageSize=10</t>
-  </si>
-  <si>
     <t>Add/edit department</t>
   </si>
   <si>
@@ -842,6 +839,9 @@
     <t>{
   "userIds": [1,2,3]
 }</t>
+  </si>
+  <si>
+    <t>/departments/$id/employees?page=1&amp;pageSize=10</t>
   </si>
 </sst>
 </file>
@@ -1630,8 +1630,8 @@
   <dimension ref="A1:IX45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2767,7 +2767,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="39"/>
@@ -3023,10 +3023,10 @@
     <row r="7" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
       <c r="B7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>25</v>
@@ -3035,7 +3035,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="11"/>
@@ -3294,7 +3294,7 @@
         <v>106</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>25</v>
@@ -3303,7 +3303,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
@@ -3559,7 +3559,7 @@
     <row r="9" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>105</v>
@@ -3570,10 +3570,10 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>101</v>
@@ -3831,7 +3831,7 @@
     <row r="10" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>105</v>
@@ -3842,10 +3842,10 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="11"/>
@@ -4101,10 +4101,10 @@
     <row r="11" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
       <c r="B11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>15</v>
@@ -4112,10 +4112,10 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>101</v>
@@ -4373,10 +4373,10 @@
     <row r="12" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
       <c r="B12" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>76</v>
@@ -4384,10 +4384,10 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
@@ -4643,10 +4643,10 @@
     <row r="13" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
       <c r="B13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>15</v>
@@ -4654,10 +4654,10 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>101</v>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -25,10 +25,10 @@
     <author>joe.feng@hotmail.com</author>
   </authors>
   <commentList>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C25" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0">
+    <comment ref="G25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="130">
   <si>
     <t>Comments</t>
   </si>
@@ -843,6 +843,27 @@
   <si>
     <t>/departments/$id/employees?page=1&amp;pageSize=10</t>
   </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Get roles by page</t>
+  </si>
+  <si>
+    <t>/roles?page=1&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>{
+ "count": 100,
+ "roles":[{
+   "id": 1,
+   "name": "",
+   "category": "",
+   "creator": "",
+   "remark": ""
+  }]
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -1053,7 +1074,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1254,6 +1275,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1627,11 +1651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IX45"/>
+  <dimension ref="A1:IX48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -5173,14 +5197,24 @@
       <c r="IX14" s="35"/>
     </row>
     <row r="15" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="A15" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="39" t="s">
+        <v>129</v>
+      </c>
       <c r="I15" s="37"/>
       <c r="J15" s="39"/>
       <c r="K15" s="37"/>
@@ -5432,278 +5466,278 @@
       <c r="IW15" s="12"/>
       <c r="IX15" s="12"/>
     </row>
-    <row r="16" spans="1:258" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="35"/>
-      <c r="AQ16" s="35"/>
-      <c r="AR16" s="35"/>
-      <c r="AS16" s="35"/>
-      <c r="AT16" s="35"/>
-      <c r="AU16" s="35"/>
-      <c r="AV16" s="35"/>
-      <c r="AW16" s="35"/>
-      <c r="AX16" s="35"/>
-      <c r="AY16" s="35"/>
-      <c r="AZ16" s="35"/>
-      <c r="BA16" s="35"/>
-      <c r="BB16" s="35"/>
-      <c r="BC16" s="35"/>
-      <c r="BD16" s="35"/>
-      <c r="BE16" s="35"/>
-      <c r="BF16" s="35"/>
-      <c r="BG16" s="35"/>
-      <c r="BH16" s="35"/>
-      <c r="BI16" s="35"/>
-      <c r="BJ16" s="35"/>
-      <c r="BK16" s="35"/>
-      <c r="BL16" s="35"/>
-      <c r="BM16" s="35"/>
-      <c r="BN16" s="35"/>
-      <c r="BO16" s="35"/>
-      <c r="BP16" s="35"/>
-      <c r="BQ16" s="35"/>
-      <c r="BR16" s="35"/>
-      <c r="BS16" s="35"/>
-      <c r="BT16" s="35"/>
-      <c r="BU16" s="35"/>
-      <c r="BV16" s="35"/>
-      <c r="BW16" s="35"/>
-      <c r="BX16" s="35"/>
-      <c r="BY16" s="35"/>
-      <c r="BZ16" s="35"/>
-      <c r="CA16" s="35"/>
-      <c r="CB16" s="35"/>
-      <c r="CC16" s="35"/>
-      <c r="CD16" s="35"/>
-      <c r="CE16" s="35"/>
-      <c r="CF16" s="35"/>
-      <c r="CG16" s="35"/>
-      <c r="CH16" s="35"/>
-      <c r="CI16" s="35"/>
-      <c r="CJ16" s="35"/>
-      <c r="CK16" s="35"/>
-      <c r="CL16" s="35"/>
-      <c r="CM16" s="35"/>
-      <c r="CN16" s="35"/>
-      <c r="CO16" s="35"/>
-      <c r="CP16" s="35"/>
-      <c r="CQ16" s="35"/>
-      <c r="CR16" s="35"/>
-      <c r="CS16" s="35"/>
-      <c r="CT16" s="35"/>
-      <c r="CU16" s="35"/>
-      <c r="CV16" s="35"/>
-      <c r="CW16" s="35"/>
-      <c r="CX16" s="35"/>
-      <c r="CY16" s="35"/>
-      <c r="CZ16" s="35"/>
-      <c r="DA16" s="35"/>
-      <c r="DB16" s="35"/>
-      <c r="DC16" s="35"/>
-      <c r="DD16" s="35"/>
-      <c r="DE16" s="35"/>
-      <c r="DF16" s="35"/>
-      <c r="DG16" s="35"/>
-      <c r="DH16" s="35"/>
-      <c r="DI16" s="35"/>
-      <c r="DJ16" s="35"/>
-      <c r="DK16" s="35"/>
-      <c r="DL16" s="35"/>
-      <c r="DM16" s="35"/>
-      <c r="DN16" s="35"/>
-      <c r="DO16" s="35"/>
-      <c r="DP16" s="35"/>
-      <c r="DQ16" s="35"/>
-      <c r="DR16" s="35"/>
-      <c r="DS16" s="35"/>
-      <c r="DT16" s="35"/>
-      <c r="DU16" s="35"/>
-      <c r="DV16" s="35"/>
-      <c r="DW16" s="35"/>
-      <c r="DX16" s="35"/>
-      <c r="DY16" s="35"/>
-      <c r="DZ16" s="35"/>
-      <c r="EA16" s="35"/>
-      <c r="EB16" s="35"/>
-      <c r="EC16" s="35"/>
-      <c r="ED16" s="35"/>
-      <c r="EE16" s="35"/>
-      <c r="EF16" s="35"/>
-      <c r="EG16" s="35"/>
-      <c r="EH16" s="35"/>
-      <c r="EI16" s="35"/>
-      <c r="EJ16" s="35"/>
-      <c r="EK16" s="35"/>
-      <c r="EL16" s="35"/>
-      <c r="EM16" s="35"/>
-      <c r="EN16" s="35"/>
-      <c r="EO16" s="35"/>
-      <c r="EP16" s="35"/>
-      <c r="EQ16" s="35"/>
-      <c r="ER16" s="35"/>
-      <c r="ES16" s="35"/>
-      <c r="ET16" s="35"/>
-      <c r="EU16" s="35"/>
-      <c r="EV16" s="35"/>
-      <c r="EW16" s="35"/>
-      <c r="EX16" s="35"/>
-      <c r="EY16" s="35"/>
-      <c r="EZ16" s="35"/>
-      <c r="FA16" s="35"/>
-      <c r="FB16" s="35"/>
-      <c r="FC16" s="35"/>
-      <c r="FD16" s="35"/>
-      <c r="FE16" s="35"/>
-      <c r="FF16" s="35"/>
-      <c r="FG16" s="35"/>
-      <c r="FH16" s="35"/>
-      <c r="FI16" s="35"/>
-      <c r="FJ16" s="35"/>
-      <c r="FK16" s="35"/>
-      <c r="FL16" s="35"/>
-      <c r="FM16" s="35"/>
-      <c r="FN16" s="35"/>
-      <c r="FO16" s="35"/>
-      <c r="FP16" s="35"/>
-      <c r="FQ16" s="35"/>
-      <c r="FR16" s="35"/>
-      <c r="FS16" s="35"/>
-      <c r="FT16" s="35"/>
-      <c r="FU16" s="35"/>
-      <c r="FV16" s="35"/>
-      <c r="FW16" s="35"/>
-      <c r="FX16" s="35"/>
-      <c r="FY16" s="35"/>
-      <c r="FZ16" s="35"/>
-      <c r="GA16" s="35"/>
-      <c r="GB16" s="35"/>
-      <c r="GC16" s="35"/>
-      <c r="GD16" s="35"/>
-      <c r="GE16" s="35"/>
-      <c r="GF16" s="35"/>
-      <c r="GG16" s="35"/>
-      <c r="GH16" s="35"/>
-      <c r="GI16" s="35"/>
-      <c r="GJ16" s="35"/>
-      <c r="GK16" s="35"/>
-      <c r="GL16" s="35"/>
-      <c r="GM16" s="35"/>
-      <c r="GN16" s="35"/>
-      <c r="GO16" s="35"/>
-      <c r="GP16" s="35"/>
-      <c r="GQ16" s="35"/>
-      <c r="GR16" s="35"/>
-      <c r="GS16" s="35"/>
-      <c r="GT16" s="35"/>
-      <c r="GU16" s="35"/>
-      <c r="GV16" s="35"/>
-      <c r="GW16" s="35"/>
-      <c r="GX16" s="35"/>
-      <c r="GY16" s="35"/>
-      <c r="GZ16" s="35"/>
-      <c r="HA16" s="35"/>
-      <c r="HB16" s="35"/>
-      <c r="HC16" s="35"/>
-      <c r="HD16" s="35"/>
-      <c r="HE16" s="35"/>
-      <c r="HF16" s="35"/>
-      <c r="HG16" s="35"/>
-      <c r="HH16" s="35"/>
-      <c r="HI16" s="35"/>
-      <c r="HJ16" s="35"/>
-      <c r="HK16" s="35"/>
-      <c r="HL16" s="35"/>
-      <c r="HM16" s="35"/>
-      <c r="HN16" s="35"/>
-      <c r="HO16" s="35"/>
-      <c r="HP16" s="35"/>
-      <c r="HQ16" s="35"/>
-      <c r="HR16" s="35"/>
-      <c r="HS16" s="35"/>
-      <c r="HT16" s="35"/>
-      <c r="HU16" s="35"/>
-      <c r="HV16" s="35"/>
-      <c r="HW16" s="35"/>
-      <c r="HX16" s="35"/>
-      <c r="HY16" s="35"/>
-      <c r="HZ16" s="35"/>
-      <c r="IA16" s="35"/>
-      <c r="IB16" s="35"/>
-      <c r="IC16" s="35"/>
-      <c r="ID16" s="35"/>
-      <c r="IE16" s="35"/>
-      <c r="IF16" s="35"/>
-      <c r="IG16" s="35"/>
-      <c r="IH16" s="35"/>
-      <c r="II16" s="35"/>
-      <c r="IJ16" s="35"/>
-      <c r="IK16" s="35"/>
-      <c r="IL16" s="35"/>
-      <c r="IM16" s="35"/>
-      <c r="IN16" s="35"/>
-      <c r="IO16" s="35"/>
-      <c r="IP16" s="35"/>
-      <c r="IQ16" s="35"/>
-      <c r="IR16" s="35"/>
-      <c r="IS16" s="35"/>
-      <c r="IT16" s="35"/>
-      <c r="IU16" s="35"/>
-      <c r="IV16" s="35"/>
-      <c r="IW16" s="35"/>
-      <c r="IX16" s="35"/>
+    <row r="16" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="65"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+      <c r="BH16" s="12"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="12"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="12"/>
+      <c r="BM16" s="12"/>
+      <c r="BN16" s="12"/>
+      <c r="BO16" s="12"/>
+      <c r="BP16" s="12"/>
+      <c r="BQ16" s="12"/>
+      <c r="BR16" s="12"/>
+      <c r="BS16" s="12"/>
+      <c r="BT16" s="12"/>
+      <c r="BU16" s="12"/>
+      <c r="BV16" s="12"/>
+      <c r="BW16" s="12"/>
+      <c r="BX16" s="12"/>
+      <c r="BY16" s="12"/>
+      <c r="BZ16" s="12"/>
+      <c r="CA16" s="12"/>
+      <c r="CB16" s="12"/>
+      <c r="CC16" s="12"/>
+      <c r="CD16" s="12"/>
+      <c r="CE16" s="12"/>
+      <c r="CF16" s="12"/>
+      <c r="CG16" s="12"/>
+      <c r="CH16" s="12"/>
+      <c r="CI16" s="12"/>
+      <c r="CJ16" s="12"/>
+      <c r="CK16" s="12"/>
+      <c r="CL16" s="12"/>
+      <c r="CM16" s="12"/>
+      <c r="CN16" s="12"/>
+      <c r="CO16" s="12"/>
+      <c r="CP16" s="12"/>
+      <c r="CQ16" s="12"/>
+      <c r="CR16" s="12"/>
+      <c r="CS16" s="12"/>
+      <c r="CT16" s="12"/>
+      <c r="CU16" s="12"/>
+      <c r="CV16" s="12"/>
+      <c r="CW16" s="12"/>
+      <c r="CX16" s="12"/>
+      <c r="CY16" s="12"/>
+      <c r="CZ16" s="12"/>
+      <c r="DA16" s="12"/>
+      <c r="DB16" s="12"/>
+      <c r="DC16" s="12"/>
+      <c r="DD16" s="12"/>
+      <c r="DE16" s="12"/>
+      <c r="DF16" s="12"/>
+      <c r="DG16" s="12"/>
+      <c r="DH16" s="12"/>
+      <c r="DI16" s="12"/>
+      <c r="DJ16" s="12"/>
+      <c r="DK16" s="12"/>
+      <c r="DL16" s="12"/>
+      <c r="DM16" s="12"/>
+      <c r="DN16" s="12"/>
+      <c r="DO16" s="12"/>
+      <c r="DP16" s="12"/>
+      <c r="DQ16" s="12"/>
+      <c r="DR16" s="12"/>
+      <c r="DS16" s="12"/>
+      <c r="DT16" s="12"/>
+      <c r="DU16" s="12"/>
+      <c r="DV16" s="12"/>
+      <c r="DW16" s="12"/>
+      <c r="DX16" s="12"/>
+      <c r="DY16" s="12"/>
+      <c r="DZ16" s="12"/>
+      <c r="EA16" s="12"/>
+      <c r="EB16" s="12"/>
+      <c r="EC16" s="12"/>
+      <c r="ED16" s="12"/>
+      <c r="EE16" s="12"/>
+      <c r="EF16" s="12"/>
+      <c r="EG16" s="12"/>
+      <c r="EH16" s="12"/>
+      <c r="EI16" s="12"/>
+      <c r="EJ16" s="12"/>
+      <c r="EK16" s="12"/>
+      <c r="EL16" s="12"/>
+      <c r="EM16" s="12"/>
+      <c r="EN16" s="12"/>
+      <c r="EO16" s="12"/>
+      <c r="EP16" s="12"/>
+      <c r="EQ16" s="12"/>
+      <c r="ER16" s="12"/>
+      <c r="ES16" s="12"/>
+      <c r="ET16" s="12"/>
+      <c r="EU16" s="12"/>
+      <c r="EV16" s="12"/>
+      <c r="EW16" s="12"/>
+      <c r="EX16" s="12"/>
+      <c r="EY16" s="12"/>
+      <c r="EZ16" s="12"/>
+      <c r="FA16" s="12"/>
+      <c r="FB16" s="12"/>
+      <c r="FC16" s="12"/>
+      <c r="FD16" s="12"/>
+      <c r="FE16" s="12"/>
+      <c r="FF16" s="12"/>
+      <c r="FG16" s="12"/>
+      <c r="FH16" s="12"/>
+      <c r="FI16" s="12"/>
+      <c r="FJ16" s="12"/>
+      <c r="FK16" s="12"/>
+      <c r="FL16" s="12"/>
+      <c r="FM16" s="12"/>
+      <c r="FN16" s="12"/>
+      <c r="FO16" s="12"/>
+      <c r="FP16" s="12"/>
+      <c r="FQ16" s="12"/>
+      <c r="FR16" s="12"/>
+      <c r="FS16" s="12"/>
+      <c r="FT16" s="12"/>
+      <c r="FU16" s="12"/>
+      <c r="FV16" s="12"/>
+      <c r="FW16" s="12"/>
+      <c r="FX16" s="12"/>
+      <c r="FY16" s="12"/>
+      <c r="FZ16" s="12"/>
+      <c r="GA16" s="12"/>
+      <c r="GB16" s="12"/>
+      <c r="GC16" s="12"/>
+      <c r="GD16" s="12"/>
+      <c r="GE16" s="12"/>
+      <c r="GF16" s="12"/>
+      <c r="GG16" s="12"/>
+      <c r="GH16" s="12"/>
+      <c r="GI16" s="12"/>
+      <c r="GJ16" s="12"/>
+      <c r="GK16" s="12"/>
+      <c r="GL16" s="12"/>
+      <c r="GM16" s="12"/>
+      <c r="GN16" s="12"/>
+      <c r="GO16" s="12"/>
+      <c r="GP16" s="12"/>
+      <c r="GQ16" s="12"/>
+      <c r="GR16" s="12"/>
+      <c r="GS16" s="12"/>
+      <c r="GT16" s="12"/>
+      <c r="GU16" s="12"/>
+      <c r="GV16" s="12"/>
+      <c r="GW16" s="12"/>
+      <c r="GX16" s="12"/>
+      <c r="GY16" s="12"/>
+      <c r="GZ16" s="12"/>
+      <c r="HA16" s="12"/>
+      <c r="HB16" s="12"/>
+      <c r="HC16" s="12"/>
+      <c r="HD16" s="12"/>
+      <c r="HE16" s="12"/>
+      <c r="HF16" s="12"/>
+      <c r="HG16" s="12"/>
+      <c r="HH16" s="12"/>
+      <c r="HI16" s="12"/>
+      <c r="HJ16" s="12"/>
+      <c r="HK16" s="12"/>
+      <c r="HL16" s="12"/>
+      <c r="HM16" s="12"/>
+      <c r="HN16" s="12"/>
+      <c r="HO16" s="12"/>
+      <c r="HP16" s="12"/>
+      <c r="HQ16" s="12"/>
+      <c r="HR16" s="12"/>
+      <c r="HS16" s="12"/>
+      <c r="HT16" s="12"/>
+      <c r="HU16" s="12"/>
+      <c r="HV16" s="12"/>
+      <c r="HW16" s="12"/>
+      <c r="HX16" s="12"/>
+      <c r="HY16" s="12"/>
+      <c r="HZ16" s="12"/>
+      <c r="IA16" s="12"/>
+      <c r="IB16" s="12"/>
+      <c r="IC16" s="12"/>
+      <c r="ID16" s="12"/>
+      <c r="IE16" s="12"/>
+      <c r="IF16" s="12"/>
+      <c r="IG16" s="12"/>
+      <c r="IH16" s="12"/>
+      <c r="II16" s="12"/>
+      <c r="IJ16" s="12"/>
+      <c r="IK16" s="12"/>
+      <c r="IL16" s="12"/>
+      <c r="IM16" s="12"/>
+      <c r="IN16" s="12"/>
+      <c r="IO16" s="12"/>
+      <c r="IP16" s="12"/>
+      <c r="IQ16" s="12"/>
+      <c r="IR16" s="12"/>
+      <c r="IS16" s="12"/>
+      <c r="IT16" s="12"/>
+      <c r="IU16" s="12"/>
+      <c r="IV16" s="12"/>
+      <c r="IW16" s="12"/>
+      <c r="IX16" s="12"/>
     </row>
     <row r="17" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="30"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -5953,13 +5987,13 @@
       <c r="IX17" s="12"/>
     </row>
     <row r="18" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="11"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
@@ -6212,278 +6246,278 @@
       <c r="IW18" s="12"/>
       <c r="IX18" s="12"/>
     </row>
-    <row r="19" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="12"/>
-      <c r="AN19" s="12"/>
-      <c r="AO19" s="12"/>
-      <c r="AP19" s="12"/>
-      <c r="AQ19" s="12"/>
-      <c r="AR19" s="12"/>
-      <c r="AS19" s="12"/>
-      <c r="AT19" s="12"/>
-      <c r="AU19" s="12"/>
-      <c r="AV19" s="12"/>
-      <c r="AW19" s="12"/>
-      <c r="AX19" s="12"/>
-      <c r="AY19" s="12"/>
-      <c r="AZ19" s="12"/>
-      <c r="BA19" s="12"/>
-      <c r="BB19" s="12"/>
-      <c r="BC19" s="12"/>
-      <c r="BD19" s="12"/>
-      <c r="BE19" s="12"/>
-      <c r="BF19" s="12"/>
-      <c r="BG19" s="12"/>
-      <c r="BH19" s="12"/>
-      <c r="BI19" s="12"/>
-      <c r="BJ19" s="12"/>
-      <c r="BK19" s="12"/>
-      <c r="BL19" s="12"/>
-      <c r="BM19" s="12"/>
-      <c r="BN19" s="12"/>
-      <c r="BO19" s="12"/>
-      <c r="BP19" s="12"/>
-      <c r="BQ19" s="12"/>
-      <c r="BR19" s="12"/>
-      <c r="BS19" s="12"/>
-      <c r="BT19" s="12"/>
-      <c r="BU19" s="12"/>
-      <c r="BV19" s="12"/>
-      <c r="BW19" s="12"/>
-      <c r="BX19" s="12"/>
-      <c r="BY19" s="12"/>
-      <c r="BZ19" s="12"/>
-      <c r="CA19" s="12"/>
-      <c r="CB19" s="12"/>
-      <c r="CC19" s="12"/>
-      <c r="CD19" s="12"/>
-      <c r="CE19" s="12"/>
-      <c r="CF19" s="12"/>
-      <c r="CG19" s="12"/>
-      <c r="CH19" s="12"/>
-      <c r="CI19" s="12"/>
-      <c r="CJ19" s="12"/>
-      <c r="CK19" s="12"/>
-      <c r="CL19" s="12"/>
-      <c r="CM19" s="12"/>
-      <c r="CN19" s="12"/>
-      <c r="CO19" s="12"/>
-      <c r="CP19" s="12"/>
-      <c r="CQ19" s="12"/>
-      <c r="CR19" s="12"/>
-      <c r="CS19" s="12"/>
-      <c r="CT19" s="12"/>
-      <c r="CU19" s="12"/>
-      <c r="CV19" s="12"/>
-      <c r="CW19" s="12"/>
-      <c r="CX19" s="12"/>
-      <c r="CY19" s="12"/>
-      <c r="CZ19" s="12"/>
-      <c r="DA19" s="12"/>
-      <c r="DB19" s="12"/>
-      <c r="DC19" s="12"/>
-      <c r="DD19" s="12"/>
-      <c r="DE19" s="12"/>
-      <c r="DF19" s="12"/>
-      <c r="DG19" s="12"/>
-      <c r="DH19" s="12"/>
-      <c r="DI19" s="12"/>
-      <c r="DJ19" s="12"/>
-      <c r="DK19" s="12"/>
-      <c r="DL19" s="12"/>
-      <c r="DM19" s="12"/>
-      <c r="DN19" s="12"/>
-      <c r="DO19" s="12"/>
-      <c r="DP19" s="12"/>
-      <c r="DQ19" s="12"/>
-      <c r="DR19" s="12"/>
-      <c r="DS19" s="12"/>
-      <c r="DT19" s="12"/>
-      <c r="DU19" s="12"/>
-      <c r="DV19" s="12"/>
-      <c r="DW19" s="12"/>
-      <c r="DX19" s="12"/>
-      <c r="DY19" s="12"/>
-      <c r="DZ19" s="12"/>
-      <c r="EA19" s="12"/>
-      <c r="EB19" s="12"/>
-      <c r="EC19" s="12"/>
-      <c r="ED19" s="12"/>
-      <c r="EE19" s="12"/>
-      <c r="EF19" s="12"/>
-      <c r="EG19" s="12"/>
-      <c r="EH19" s="12"/>
-      <c r="EI19" s="12"/>
-      <c r="EJ19" s="12"/>
-      <c r="EK19" s="12"/>
-      <c r="EL19" s="12"/>
-      <c r="EM19" s="12"/>
-      <c r="EN19" s="12"/>
-      <c r="EO19" s="12"/>
-      <c r="EP19" s="12"/>
-      <c r="EQ19" s="12"/>
-      <c r="ER19" s="12"/>
-      <c r="ES19" s="12"/>
-      <c r="ET19" s="12"/>
-      <c r="EU19" s="12"/>
-      <c r="EV19" s="12"/>
-      <c r="EW19" s="12"/>
-      <c r="EX19" s="12"/>
-      <c r="EY19" s="12"/>
-      <c r="EZ19" s="12"/>
-      <c r="FA19" s="12"/>
-      <c r="FB19" s="12"/>
-      <c r="FC19" s="12"/>
-      <c r="FD19" s="12"/>
-      <c r="FE19" s="12"/>
-      <c r="FF19" s="12"/>
-      <c r="FG19" s="12"/>
-      <c r="FH19" s="12"/>
-      <c r="FI19" s="12"/>
-      <c r="FJ19" s="12"/>
-      <c r="FK19" s="12"/>
-      <c r="FL19" s="12"/>
-      <c r="FM19" s="12"/>
-      <c r="FN19" s="12"/>
-      <c r="FO19" s="12"/>
-      <c r="FP19" s="12"/>
-      <c r="FQ19" s="12"/>
-      <c r="FR19" s="12"/>
-      <c r="FS19" s="12"/>
-      <c r="FT19" s="12"/>
-      <c r="FU19" s="12"/>
-      <c r="FV19" s="12"/>
-      <c r="FW19" s="12"/>
-      <c r="FX19" s="12"/>
-      <c r="FY19" s="12"/>
-      <c r="FZ19" s="12"/>
-      <c r="GA19" s="12"/>
-      <c r="GB19" s="12"/>
-      <c r="GC19" s="12"/>
-      <c r="GD19" s="12"/>
-      <c r="GE19" s="12"/>
-      <c r="GF19" s="12"/>
-      <c r="GG19" s="12"/>
-      <c r="GH19" s="12"/>
-      <c r="GI19" s="12"/>
-      <c r="GJ19" s="12"/>
-      <c r="GK19" s="12"/>
-      <c r="GL19" s="12"/>
-      <c r="GM19" s="12"/>
-      <c r="GN19" s="12"/>
-      <c r="GO19" s="12"/>
-      <c r="GP19" s="12"/>
-      <c r="GQ19" s="12"/>
-      <c r="GR19" s="12"/>
-      <c r="GS19" s="12"/>
-      <c r="GT19" s="12"/>
-      <c r="GU19" s="12"/>
-      <c r="GV19" s="12"/>
-      <c r="GW19" s="12"/>
-      <c r="GX19" s="12"/>
-      <c r="GY19" s="12"/>
-      <c r="GZ19" s="12"/>
-      <c r="HA19" s="12"/>
-      <c r="HB19" s="12"/>
-      <c r="HC19" s="12"/>
-      <c r="HD19" s="12"/>
-      <c r="HE19" s="12"/>
-      <c r="HF19" s="12"/>
-      <c r="HG19" s="12"/>
-      <c r="HH19" s="12"/>
-      <c r="HI19" s="12"/>
-      <c r="HJ19" s="12"/>
-      <c r="HK19" s="12"/>
-      <c r="HL19" s="12"/>
-      <c r="HM19" s="12"/>
-      <c r="HN19" s="12"/>
-      <c r="HO19" s="12"/>
-      <c r="HP19" s="12"/>
-      <c r="HQ19" s="12"/>
-      <c r="HR19" s="12"/>
-      <c r="HS19" s="12"/>
-      <c r="HT19" s="12"/>
-      <c r="HU19" s="12"/>
-      <c r="HV19" s="12"/>
-      <c r="HW19" s="12"/>
-      <c r="HX19" s="12"/>
-      <c r="HY19" s="12"/>
-      <c r="HZ19" s="12"/>
-      <c r="IA19" s="12"/>
-      <c r="IB19" s="12"/>
-      <c r="IC19" s="12"/>
-      <c r="ID19" s="12"/>
-      <c r="IE19" s="12"/>
-      <c r="IF19" s="12"/>
-      <c r="IG19" s="12"/>
-      <c r="IH19" s="12"/>
-      <c r="II19" s="12"/>
-      <c r="IJ19" s="12"/>
-      <c r="IK19" s="12"/>
-      <c r="IL19" s="12"/>
-      <c r="IM19" s="12"/>
-      <c r="IN19" s="12"/>
-      <c r="IO19" s="12"/>
-      <c r="IP19" s="12"/>
-      <c r="IQ19" s="12"/>
-      <c r="IR19" s="12"/>
-      <c r="IS19" s="12"/>
-      <c r="IT19" s="12"/>
-      <c r="IU19" s="12"/>
-      <c r="IV19" s="12"/>
-      <c r="IW19" s="12"/>
-      <c r="IX19" s="12"/>
+    <row r="19" spans="1:258" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="35"/>
+      <c r="AP19" s="35"/>
+      <c r="AQ19" s="35"/>
+      <c r="AR19" s="35"/>
+      <c r="AS19" s="35"/>
+      <c r="AT19" s="35"/>
+      <c r="AU19" s="35"/>
+      <c r="AV19" s="35"/>
+      <c r="AW19" s="35"/>
+      <c r="AX19" s="35"/>
+      <c r="AY19" s="35"/>
+      <c r="AZ19" s="35"/>
+      <c r="BA19" s="35"/>
+      <c r="BB19" s="35"/>
+      <c r="BC19" s="35"/>
+      <c r="BD19" s="35"/>
+      <c r="BE19" s="35"/>
+      <c r="BF19" s="35"/>
+      <c r="BG19" s="35"/>
+      <c r="BH19" s="35"/>
+      <c r="BI19" s="35"/>
+      <c r="BJ19" s="35"/>
+      <c r="BK19" s="35"/>
+      <c r="BL19" s="35"/>
+      <c r="BM19" s="35"/>
+      <c r="BN19" s="35"/>
+      <c r="BO19" s="35"/>
+      <c r="BP19" s="35"/>
+      <c r="BQ19" s="35"/>
+      <c r="BR19" s="35"/>
+      <c r="BS19" s="35"/>
+      <c r="BT19" s="35"/>
+      <c r="BU19" s="35"/>
+      <c r="BV19" s="35"/>
+      <c r="BW19" s="35"/>
+      <c r="BX19" s="35"/>
+      <c r="BY19" s="35"/>
+      <c r="BZ19" s="35"/>
+      <c r="CA19" s="35"/>
+      <c r="CB19" s="35"/>
+      <c r="CC19" s="35"/>
+      <c r="CD19" s="35"/>
+      <c r="CE19" s="35"/>
+      <c r="CF19" s="35"/>
+      <c r="CG19" s="35"/>
+      <c r="CH19" s="35"/>
+      <c r="CI19" s="35"/>
+      <c r="CJ19" s="35"/>
+      <c r="CK19" s="35"/>
+      <c r="CL19" s="35"/>
+      <c r="CM19" s="35"/>
+      <c r="CN19" s="35"/>
+      <c r="CO19" s="35"/>
+      <c r="CP19" s="35"/>
+      <c r="CQ19" s="35"/>
+      <c r="CR19" s="35"/>
+      <c r="CS19" s="35"/>
+      <c r="CT19" s="35"/>
+      <c r="CU19" s="35"/>
+      <c r="CV19" s="35"/>
+      <c r="CW19" s="35"/>
+      <c r="CX19" s="35"/>
+      <c r="CY19" s="35"/>
+      <c r="CZ19" s="35"/>
+      <c r="DA19" s="35"/>
+      <c r="DB19" s="35"/>
+      <c r="DC19" s="35"/>
+      <c r="DD19" s="35"/>
+      <c r="DE19" s="35"/>
+      <c r="DF19" s="35"/>
+      <c r="DG19" s="35"/>
+      <c r="DH19" s="35"/>
+      <c r="DI19" s="35"/>
+      <c r="DJ19" s="35"/>
+      <c r="DK19" s="35"/>
+      <c r="DL19" s="35"/>
+      <c r="DM19" s="35"/>
+      <c r="DN19" s="35"/>
+      <c r="DO19" s="35"/>
+      <c r="DP19" s="35"/>
+      <c r="DQ19" s="35"/>
+      <c r="DR19" s="35"/>
+      <c r="DS19" s="35"/>
+      <c r="DT19" s="35"/>
+      <c r="DU19" s="35"/>
+      <c r="DV19" s="35"/>
+      <c r="DW19" s="35"/>
+      <c r="DX19" s="35"/>
+      <c r="DY19" s="35"/>
+      <c r="DZ19" s="35"/>
+      <c r="EA19" s="35"/>
+      <c r="EB19" s="35"/>
+      <c r="EC19" s="35"/>
+      <c r="ED19" s="35"/>
+      <c r="EE19" s="35"/>
+      <c r="EF19" s="35"/>
+      <c r="EG19" s="35"/>
+      <c r="EH19" s="35"/>
+      <c r="EI19" s="35"/>
+      <c r="EJ19" s="35"/>
+      <c r="EK19" s="35"/>
+      <c r="EL19" s="35"/>
+      <c r="EM19" s="35"/>
+      <c r="EN19" s="35"/>
+      <c r="EO19" s="35"/>
+      <c r="EP19" s="35"/>
+      <c r="EQ19" s="35"/>
+      <c r="ER19" s="35"/>
+      <c r="ES19" s="35"/>
+      <c r="ET19" s="35"/>
+      <c r="EU19" s="35"/>
+      <c r="EV19" s="35"/>
+      <c r="EW19" s="35"/>
+      <c r="EX19" s="35"/>
+      <c r="EY19" s="35"/>
+      <c r="EZ19" s="35"/>
+      <c r="FA19" s="35"/>
+      <c r="FB19" s="35"/>
+      <c r="FC19" s="35"/>
+      <c r="FD19" s="35"/>
+      <c r="FE19" s="35"/>
+      <c r="FF19" s="35"/>
+      <c r="FG19" s="35"/>
+      <c r="FH19" s="35"/>
+      <c r="FI19" s="35"/>
+      <c r="FJ19" s="35"/>
+      <c r="FK19" s="35"/>
+      <c r="FL19" s="35"/>
+      <c r="FM19" s="35"/>
+      <c r="FN19" s="35"/>
+      <c r="FO19" s="35"/>
+      <c r="FP19" s="35"/>
+      <c r="FQ19" s="35"/>
+      <c r="FR19" s="35"/>
+      <c r="FS19" s="35"/>
+      <c r="FT19" s="35"/>
+      <c r="FU19" s="35"/>
+      <c r="FV19" s="35"/>
+      <c r="FW19" s="35"/>
+      <c r="FX19" s="35"/>
+      <c r="FY19" s="35"/>
+      <c r="FZ19" s="35"/>
+      <c r="GA19" s="35"/>
+      <c r="GB19" s="35"/>
+      <c r="GC19" s="35"/>
+      <c r="GD19" s="35"/>
+      <c r="GE19" s="35"/>
+      <c r="GF19" s="35"/>
+      <c r="GG19" s="35"/>
+      <c r="GH19" s="35"/>
+      <c r="GI19" s="35"/>
+      <c r="GJ19" s="35"/>
+      <c r="GK19" s="35"/>
+      <c r="GL19" s="35"/>
+      <c r="GM19" s="35"/>
+      <c r="GN19" s="35"/>
+      <c r="GO19" s="35"/>
+      <c r="GP19" s="35"/>
+      <c r="GQ19" s="35"/>
+      <c r="GR19" s="35"/>
+      <c r="GS19" s="35"/>
+      <c r="GT19" s="35"/>
+      <c r="GU19" s="35"/>
+      <c r="GV19" s="35"/>
+      <c r="GW19" s="35"/>
+      <c r="GX19" s="35"/>
+      <c r="GY19" s="35"/>
+      <c r="GZ19" s="35"/>
+      <c r="HA19" s="35"/>
+      <c r="HB19" s="35"/>
+      <c r="HC19" s="35"/>
+      <c r="HD19" s="35"/>
+      <c r="HE19" s="35"/>
+      <c r="HF19" s="35"/>
+      <c r="HG19" s="35"/>
+      <c r="HH19" s="35"/>
+      <c r="HI19" s="35"/>
+      <c r="HJ19" s="35"/>
+      <c r="HK19" s="35"/>
+      <c r="HL19" s="35"/>
+      <c r="HM19" s="35"/>
+      <c r="HN19" s="35"/>
+      <c r="HO19" s="35"/>
+      <c r="HP19" s="35"/>
+      <c r="HQ19" s="35"/>
+      <c r="HR19" s="35"/>
+      <c r="HS19" s="35"/>
+      <c r="HT19" s="35"/>
+      <c r="HU19" s="35"/>
+      <c r="HV19" s="35"/>
+      <c r="HW19" s="35"/>
+      <c r="HX19" s="35"/>
+      <c r="HY19" s="35"/>
+      <c r="HZ19" s="35"/>
+      <c r="IA19" s="35"/>
+      <c r="IB19" s="35"/>
+      <c r="IC19" s="35"/>
+      <c r="ID19" s="35"/>
+      <c r="IE19" s="35"/>
+      <c r="IF19" s="35"/>
+      <c r="IG19" s="35"/>
+      <c r="IH19" s="35"/>
+      <c r="II19" s="35"/>
+      <c r="IJ19" s="35"/>
+      <c r="IK19" s="35"/>
+      <c r="IL19" s="35"/>
+      <c r="IM19" s="35"/>
+      <c r="IN19" s="35"/>
+      <c r="IO19" s="35"/>
+      <c r="IP19" s="35"/>
+      <c r="IQ19" s="35"/>
+      <c r="IR19" s="35"/>
+      <c r="IS19" s="35"/>
+      <c r="IT19" s="35"/>
+      <c r="IU19" s="35"/>
+      <c r="IV19" s="35"/>
+      <c r="IW19" s="35"/>
+      <c r="IX19" s="35"/>
     </row>
     <row r="20" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -6732,278 +6766,278 @@
       <c r="IW20" s="12"/>
       <c r="IX20" s="12"/>
     </row>
-    <row r="21" spans="1:258" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="35"/>
-      <c r="AQ21" s="35"/>
-      <c r="AR21" s="35"/>
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="35"/>
-      <c r="AU21" s="35"/>
-      <c r="AV21" s="35"/>
-      <c r="AW21" s="35"/>
-      <c r="AX21" s="35"/>
-      <c r="AY21" s="35"/>
-      <c r="AZ21" s="35"/>
-      <c r="BA21" s="35"/>
-      <c r="BB21" s="35"/>
-      <c r="BC21" s="35"/>
-      <c r="BD21" s="35"/>
-      <c r="BE21" s="35"/>
-      <c r="BF21" s="35"/>
-      <c r="BG21" s="35"/>
-      <c r="BH21" s="35"/>
-      <c r="BI21" s="35"/>
-      <c r="BJ21" s="35"/>
-      <c r="BK21" s="35"/>
-      <c r="BL21" s="35"/>
-      <c r="BM21" s="35"/>
-      <c r="BN21" s="35"/>
-      <c r="BO21" s="35"/>
-      <c r="BP21" s="35"/>
-      <c r="BQ21" s="35"/>
-      <c r="BR21" s="35"/>
-      <c r="BS21" s="35"/>
-      <c r="BT21" s="35"/>
-      <c r="BU21" s="35"/>
-      <c r="BV21" s="35"/>
-      <c r="BW21" s="35"/>
-      <c r="BX21" s="35"/>
-      <c r="BY21" s="35"/>
-      <c r="BZ21" s="35"/>
-      <c r="CA21" s="35"/>
-      <c r="CB21" s="35"/>
-      <c r="CC21" s="35"/>
-      <c r="CD21" s="35"/>
-      <c r="CE21" s="35"/>
-      <c r="CF21" s="35"/>
-      <c r="CG21" s="35"/>
-      <c r="CH21" s="35"/>
-      <c r="CI21" s="35"/>
-      <c r="CJ21" s="35"/>
-      <c r="CK21" s="35"/>
-      <c r="CL21" s="35"/>
-      <c r="CM21" s="35"/>
-      <c r="CN21" s="35"/>
-      <c r="CO21" s="35"/>
-      <c r="CP21" s="35"/>
-      <c r="CQ21" s="35"/>
-      <c r="CR21" s="35"/>
-      <c r="CS21" s="35"/>
-      <c r="CT21" s="35"/>
-      <c r="CU21" s="35"/>
-      <c r="CV21" s="35"/>
-      <c r="CW21" s="35"/>
-      <c r="CX21" s="35"/>
-      <c r="CY21" s="35"/>
-      <c r="CZ21" s="35"/>
-      <c r="DA21" s="35"/>
-      <c r="DB21" s="35"/>
-      <c r="DC21" s="35"/>
-      <c r="DD21" s="35"/>
-      <c r="DE21" s="35"/>
-      <c r="DF21" s="35"/>
-      <c r="DG21" s="35"/>
-      <c r="DH21" s="35"/>
-      <c r="DI21" s="35"/>
-      <c r="DJ21" s="35"/>
-      <c r="DK21" s="35"/>
-      <c r="DL21" s="35"/>
-      <c r="DM21" s="35"/>
-      <c r="DN21" s="35"/>
-      <c r="DO21" s="35"/>
-      <c r="DP21" s="35"/>
-      <c r="DQ21" s="35"/>
-      <c r="DR21" s="35"/>
-      <c r="DS21" s="35"/>
-      <c r="DT21" s="35"/>
-      <c r="DU21" s="35"/>
-      <c r="DV21" s="35"/>
-      <c r="DW21" s="35"/>
-      <c r="DX21" s="35"/>
-      <c r="DY21" s="35"/>
-      <c r="DZ21" s="35"/>
-      <c r="EA21" s="35"/>
-      <c r="EB21" s="35"/>
-      <c r="EC21" s="35"/>
-      <c r="ED21" s="35"/>
-      <c r="EE21" s="35"/>
-      <c r="EF21" s="35"/>
-      <c r="EG21" s="35"/>
-      <c r="EH21" s="35"/>
-      <c r="EI21" s="35"/>
-      <c r="EJ21" s="35"/>
-      <c r="EK21" s="35"/>
-      <c r="EL21" s="35"/>
-      <c r="EM21" s="35"/>
-      <c r="EN21" s="35"/>
-      <c r="EO21" s="35"/>
-      <c r="EP21" s="35"/>
-      <c r="EQ21" s="35"/>
-      <c r="ER21" s="35"/>
-      <c r="ES21" s="35"/>
-      <c r="ET21" s="35"/>
-      <c r="EU21" s="35"/>
-      <c r="EV21" s="35"/>
-      <c r="EW21" s="35"/>
-      <c r="EX21" s="35"/>
-      <c r="EY21" s="35"/>
-      <c r="EZ21" s="35"/>
-      <c r="FA21" s="35"/>
-      <c r="FB21" s="35"/>
-      <c r="FC21" s="35"/>
-      <c r="FD21" s="35"/>
-      <c r="FE21" s="35"/>
-      <c r="FF21" s="35"/>
-      <c r="FG21" s="35"/>
-      <c r="FH21" s="35"/>
-      <c r="FI21" s="35"/>
-      <c r="FJ21" s="35"/>
-      <c r="FK21" s="35"/>
-      <c r="FL21" s="35"/>
-      <c r="FM21" s="35"/>
-      <c r="FN21" s="35"/>
-      <c r="FO21" s="35"/>
-      <c r="FP21" s="35"/>
-      <c r="FQ21" s="35"/>
-      <c r="FR21" s="35"/>
-      <c r="FS21" s="35"/>
-      <c r="FT21" s="35"/>
-      <c r="FU21" s="35"/>
-      <c r="FV21" s="35"/>
-      <c r="FW21" s="35"/>
-      <c r="FX21" s="35"/>
-      <c r="FY21" s="35"/>
-      <c r="FZ21" s="35"/>
-      <c r="GA21" s="35"/>
-      <c r="GB21" s="35"/>
-      <c r="GC21" s="35"/>
-      <c r="GD21" s="35"/>
-      <c r="GE21" s="35"/>
-      <c r="GF21" s="35"/>
-      <c r="GG21" s="35"/>
-      <c r="GH21" s="35"/>
-      <c r="GI21" s="35"/>
-      <c r="GJ21" s="35"/>
-      <c r="GK21" s="35"/>
-      <c r="GL21" s="35"/>
-      <c r="GM21" s="35"/>
-      <c r="GN21" s="35"/>
-      <c r="GO21" s="35"/>
-      <c r="GP21" s="35"/>
-      <c r="GQ21" s="35"/>
-      <c r="GR21" s="35"/>
-      <c r="GS21" s="35"/>
-      <c r="GT21" s="35"/>
-      <c r="GU21" s="35"/>
-      <c r="GV21" s="35"/>
-      <c r="GW21" s="35"/>
-      <c r="GX21" s="35"/>
-      <c r="GY21" s="35"/>
-      <c r="GZ21" s="35"/>
-      <c r="HA21" s="35"/>
-      <c r="HB21" s="35"/>
-      <c r="HC21" s="35"/>
-      <c r="HD21" s="35"/>
-      <c r="HE21" s="35"/>
-      <c r="HF21" s="35"/>
-      <c r="HG21" s="35"/>
-      <c r="HH21" s="35"/>
-      <c r="HI21" s="35"/>
-      <c r="HJ21" s="35"/>
-      <c r="HK21" s="35"/>
-      <c r="HL21" s="35"/>
-      <c r="HM21" s="35"/>
-      <c r="HN21" s="35"/>
-      <c r="HO21" s="35"/>
-      <c r="HP21" s="35"/>
-      <c r="HQ21" s="35"/>
-      <c r="HR21" s="35"/>
-      <c r="HS21" s="35"/>
-      <c r="HT21" s="35"/>
-      <c r="HU21" s="35"/>
-      <c r="HV21" s="35"/>
-      <c r="HW21" s="35"/>
-      <c r="HX21" s="35"/>
-      <c r="HY21" s="35"/>
-      <c r="HZ21" s="35"/>
-      <c r="IA21" s="35"/>
-      <c r="IB21" s="35"/>
-      <c r="IC21" s="35"/>
-      <c r="ID21" s="35"/>
-      <c r="IE21" s="35"/>
-      <c r="IF21" s="35"/>
-      <c r="IG21" s="35"/>
-      <c r="IH21" s="35"/>
-      <c r="II21" s="35"/>
-      <c r="IJ21" s="35"/>
-      <c r="IK21" s="35"/>
-      <c r="IL21" s="35"/>
-      <c r="IM21" s="35"/>
-      <c r="IN21" s="35"/>
-      <c r="IO21" s="35"/>
-      <c r="IP21" s="35"/>
-      <c r="IQ21" s="35"/>
-      <c r="IR21" s="35"/>
-      <c r="IS21" s="35"/>
-      <c r="IT21" s="35"/>
-      <c r="IU21" s="35"/>
-      <c r="IV21" s="35"/>
-      <c r="IW21" s="35"/>
-      <c r="IX21" s="35"/>
+    <row r="21" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="63"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="12"/>
+      <c r="BG21" s="12"/>
+      <c r="BH21" s="12"/>
+      <c r="BI21" s="12"/>
+      <c r="BJ21" s="12"/>
+      <c r="BK21" s="12"/>
+      <c r="BL21" s="12"/>
+      <c r="BM21" s="12"/>
+      <c r="BN21" s="12"/>
+      <c r="BO21" s="12"/>
+      <c r="BP21" s="12"/>
+      <c r="BQ21" s="12"/>
+      <c r="BR21" s="12"/>
+      <c r="BS21" s="12"/>
+      <c r="BT21" s="12"/>
+      <c r="BU21" s="12"/>
+      <c r="BV21" s="12"/>
+      <c r="BW21" s="12"/>
+      <c r="BX21" s="12"/>
+      <c r="BY21" s="12"/>
+      <c r="BZ21" s="12"/>
+      <c r="CA21" s="12"/>
+      <c r="CB21" s="12"/>
+      <c r="CC21" s="12"/>
+      <c r="CD21" s="12"/>
+      <c r="CE21" s="12"/>
+      <c r="CF21" s="12"/>
+      <c r="CG21" s="12"/>
+      <c r="CH21" s="12"/>
+      <c r="CI21" s="12"/>
+      <c r="CJ21" s="12"/>
+      <c r="CK21" s="12"/>
+      <c r="CL21" s="12"/>
+      <c r="CM21" s="12"/>
+      <c r="CN21" s="12"/>
+      <c r="CO21" s="12"/>
+      <c r="CP21" s="12"/>
+      <c r="CQ21" s="12"/>
+      <c r="CR21" s="12"/>
+      <c r="CS21" s="12"/>
+      <c r="CT21" s="12"/>
+      <c r="CU21" s="12"/>
+      <c r="CV21" s="12"/>
+      <c r="CW21" s="12"/>
+      <c r="CX21" s="12"/>
+      <c r="CY21" s="12"/>
+      <c r="CZ21" s="12"/>
+      <c r="DA21" s="12"/>
+      <c r="DB21" s="12"/>
+      <c r="DC21" s="12"/>
+      <c r="DD21" s="12"/>
+      <c r="DE21" s="12"/>
+      <c r="DF21" s="12"/>
+      <c r="DG21" s="12"/>
+      <c r="DH21" s="12"/>
+      <c r="DI21" s="12"/>
+      <c r="DJ21" s="12"/>
+      <c r="DK21" s="12"/>
+      <c r="DL21" s="12"/>
+      <c r="DM21" s="12"/>
+      <c r="DN21" s="12"/>
+      <c r="DO21" s="12"/>
+      <c r="DP21" s="12"/>
+      <c r="DQ21" s="12"/>
+      <c r="DR21" s="12"/>
+      <c r="DS21" s="12"/>
+      <c r="DT21" s="12"/>
+      <c r="DU21" s="12"/>
+      <c r="DV21" s="12"/>
+      <c r="DW21" s="12"/>
+      <c r="DX21" s="12"/>
+      <c r="DY21" s="12"/>
+      <c r="DZ21" s="12"/>
+      <c r="EA21" s="12"/>
+      <c r="EB21" s="12"/>
+      <c r="EC21" s="12"/>
+      <c r="ED21" s="12"/>
+      <c r="EE21" s="12"/>
+      <c r="EF21" s="12"/>
+      <c r="EG21" s="12"/>
+      <c r="EH21" s="12"/>
+      <c r="EI21" s="12"/>
+      <c r="EJ21" s="12"/>
+      <c r="EK21" s="12"/>
+      <c r="EL21" s="12"/>
+      <c r="EM21" s="12"/>
+      <c r="EN21" s="12"/>
+      <c r="EO21" s="12"/>
+      <c r="EP21" s="12"/>
+      <c r="EQ21" s="12"/>
+      <c r="ER21" s="12"/>
+      <c r="ES21" s="12"/>
+      <c r="ET21" s="12"/>
+      <c r="EU21" s="12"/>
+      <c r="EV21" s="12"/>
+      <c r="EW21" s="12"/>
+      <c r="EX21" s="12"/>
+      <c r="EY21" s="12"/>
+      <c r="EZ21" s="12"/>
+      <c r="FA21" s="12"/>
+      <c r="FB21" s="12"/>
+      <c r="FC21" s="12"/>
+      <c r="FD21" s="12"/>
+      <c r="FE21" s="12"/>
+      <c r="FF21" s="12"/>
+      <c r="FG21" s="12"/>
+      <c r="FH21" s="12"/>
+      <c r="FI21" s="12"/>
+      <c r="FJ21" s="12"/>
+      <c r="FK21" s="12"/>
+      <c r="FL21" s="12"/>
+      <c r="FM21" s="12"/>
+      <c r="FN21" s="12"/>
+      <c r="FO21" s="12"/>
+      <c r="FP21" s="12"/>
+      <c r="FQ21" s="12"/>
+      <c r="FR21" s="12"/>
+      <c r="FS21" s="12"/>
+      <c r="FT21" s="12"/>
+      <c r="FU21" s="12"/>
+      <c r="FV21" s="12"/>
+      <c r="FW21" s="12"/>
+      <c r="FX21" s="12"/>
+      <c r="FY21" s="12"/>
+      <c r="FZ21" s="12"/>
+      <c r="GA21" s="12"/>
+      <c r="GB21" s="12"/>
+      <c r="GC21" s="12"/>
+      <c r="GD21" s="12"/>
+      <c r="GE21" s="12"/>
+      <c r="GF21" s="12"/>
+      <c r="GG21" s="12"/>
+      <c r="GH21" s="12"/>
+      <c r="GI21" s="12"/>
+      <c r="GJ21" s="12"/>
+      <c r="GK21" s="12"/>
+      <c r="GL21" s="12"/>
+      <c r="GM21" s="12"/>
+      <c r="GN21" s="12"/>
+      <c r="GO21" s="12"/>
+      <c r="GP21" s="12"/>
+      <c r="GQ21" s="12"/>
+      <c r="GR21" s="12"/>
+      <c r="GS21" s="12"/>
+      <c r="GT21" s="12"/>
+      <c r="GU21" s="12"/>
+      <c r="GV21" s="12"/>
+      <c r="GW21" s="12"/>
+      <c r="GX21" s="12"/>
+      <c r="GY21" s="12"/>
+      <c r="GZ21" s="12"/>
+      <c r="HA21" s="12"/>
+      <c r="HB21" s="12"/>
+      <c r="HC21" s="12"/>
+      <c r="HD21" s="12"/>
+      <c r="HE21" s="12"/>
+      <c r="HF21" s="12"/>
+      <c r="HG21" s="12"/>
+      <c r="HH21" s="12"/>
+      <c r="HI21" s="12"/>
+      <c r="HJ21" s="12"/>
+      <c r="HK21" s="12"/>
+      <c r="HL21" s="12"/>
+      <c r="HM21" s="12"/>
+      <c r="HN21" s="12"/>
+      <c r="HO21" s="12"/>
+      <c r="HP21" s="12"/>
+      <c r="HQ21" s="12"/>
+      <c r="HR21" s="12"/>
+      <c r="HS21" s="12"/>
+      <c r="HT21" s="12"/>
+      <c r="HU21" s="12"/>
+      <c r="HV21" s="12"/>
+      <c r="HW21" s="12"/>
+      <c r="HX21" s="12"/>
+      <c r="HY21" s="12"/>
+      <c r="HZ21" s="12"/>
+      <c r="IA21" s="12"/>
+      <c r="IB21" s="12"/>
+      <c r="IC21" s="12"/>
+      <c r="ID21" s="12"/>
+      <c r="IE21" s="12"/>
+      <c r="IF21" s="12"/>
+      <c r="IG21" s="12"/>
+      <c r="IH21" s="12"/>
+      <c r="II21" s="12"/>
+      <c r="IJ21" s="12"/>
+      <c r="IK21" s="12"/>
+      <c r="IL21" s="12"/>
+      <c r="IM21" s="12"/>
+      <c r="IN21" s="12"/>
+      <c r="IO21" s="12"/>
+      <c r="IP21" s="12"/>
+      <c r="IQ21" s="12"/>
+      <c r="IR21" s="12"/>
+      <c r="IS21" s="12"/>
+      <c r="IT21" s="12"/>
+      <c r="IU21" s="12"/>
+      <c r="IV21" s="12"/>
+      <c r="IW21" s="12"/>
+      <c r="IX21" s="12"/>
     </row>
     <row r="22" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="30"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -7253,7 +7287,7 @@
       <c r="IX22" s="12"/>
     </row>
     <row r="23" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -7261,9 +7295,9 @@
       <c r="F23" s="9"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="9"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
@@ -7512,648 +7546,1392 @@
       <c r="IW23" s="12"/>
       <c r="IX23" s="12"/>
     </row>
-    <row r="24" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="66"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
+    <row r="24" spans="1:258" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="35"/>
+      <c r="AP24" s="35"/>
+      <c r="AQ24" s="35"/>
+      <c r="AR24" s="35"/>
+      <c r="AS24" s="35"/>
+      <c r="AT24" s="35"/>
+      <c r="AU24" s="35"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="35"/>
+      <c r="AX24" s="35"/>
+      <c r="AY24" s="35"/>
+      <c r="AZ24" s="35"/>
+      <c r="BA24" s="35"/>
+      <c r="BB24" s="35"/>
+      <c r="BC24" s="35"/>
+      <c r="BD24" s="35"/>
+      <c r="BE24" s="35"/>
+      <c r="BF24" s="35"/>
+      <c r="BG24" s="35"/>
+      <c r="BH24" s="35"/>
+      <c r="BI24" s="35"/>
+      <c r="BJ24" s="35"/>
+      <c r="BK24" s="35"/>
+      <c r="BL24" s="35"/>
+      <c r="BM24" s="35"/>
+      <c r="BN24" s="35"/>
+      <c r="BO24" s="35"/>
+      <c r="BP24" s="35"/>
+      <c r="BQ24" s="35"/>
+      <c r="BR24" s="35"/>
+      <c r="BS24" s="35"/>
+      <c r="BT24" s="35"/>
+      <c r="BU24" s="35"/>
+      <c r="BV24" s="35"/>
+      <c r="BW24" s="35"/>
+      <c r="BX24" s="35"/>
+      <c r="BY24" s="35"/>
+      <c r="BZ24" s="35"/>
+      <c r="CA24" s="35"/>
+      <c r="CB24" s="35"/>
+      <c r="CC24" s="35"/>
+      <c r="CD24" s="35"/>
+      <c r="CE24" s="35"/>
+      <c r="CF24" s="35"/>
+      <c r="CG24" s="35"/>
+      <c r="CH24" s="35"/>
+      <c r="CI24" s="35"/>
+      <c r="CJ24" s="35"/>
+      <c r="CK24" s="35"/>
+      <c r="CL24" s="35"/>
+      <c r="CM24" s="35"/>
+      <c r="CN24" s="35"/>
+      <c r="CO24" s="35"/>
+      <c r="CP24" s="35"/>
+      <c r="CQ24" s="35"/>
+      <c r="CR24" s="35"/>
+      <c r="CS24" s="35"/>
+      <c r="CT24" s="35"/>
+      <c r="CU24" s="35"/>
+      <c r="CV24" s="35"/>
+      <c r="CW24" s="35"/>
+      <c r="CX24" s="35"/>
+      <c r="CY24" s="35"/>
+      <c r="CZ24" s="35"/>
+      <c r="DA24" s="35"/>
+      <c r="DB24" s="35"/>
+      <c r="DC24" s="35"/>
+      <c r="DD24" s="35"/>
+      <c r="DE24" s="35"/>
+      <c r="DF24" s="35"/>
+      <c r="DG24" s="35"/>
+      <c r="DH24" s="35"/>
+      <c r="DI24" s="35"/>
+      <c r="DJ24" s="35"/>
+      <c r="DK24" s="35"/>
+      <c r="DL24" s="35"/>
+      <c r="DM24" s="35"/>
+      <c r="DN24" s="35"/>
+      <c r="DO24" s="35"/>
+      <c r="DP24" s="35"/>
+      <c r="DQ24" s="35"/>
+      <c r="DR24" s="35"/>
+      <c r="DS24" s="35"/>
+      <c r="DT24" s="35"/>
+      <c r="DU24" s="35"/>
+      <c r="DV24" s="35"/>
+      <c r="DW24" s="35"/>
+      <c r="DX24" s="35"/>
+      <c r="DY24" s="35"/>
+      <c r="DZ24" s="35"/>
+      <c r="EA24" s="35"/>
+      <c r="EB24" s="35"/>
+      <c r="EC24" s="35"/>
+      <c r="ED24" s="35"/>
+      <c r="EE24" s="35"/>
+      <c r="EF24" s="35"/>
+      <c r="EG24" s="35"/>
+      <c r="EH24" s="35"/>
+      <c r="EI24" s="35"/>
+      <c r="EJ24" s="35"/>
+      <c r="EK24" s="35"/>
+      <c r="EL24" s="35"/>
+      <c r="EM24" s="35"/>
+      <c r="EN24" s="35"/>
+      <c r="EO24" s="35"/>
+      <c r="EP24" s="35"/>
+      <c r="EQ24" s="35"/>
+      <c r="ER24" s="35"/>
+      <c r="ES24" s="35"/>
+      <c r="ET24" s="35"/>
+      <c r="EU24" s="35"/>
+      <c r="EV24" s="35"/>
+      <c r="EW24" s="35"/>
+      <c r="EX24" s="35"/>
+      <c r="EY24" s="35"/>
+      <c r="EZ24" s="35"/>
+      <c r="FA24" s="35"/>
+      <c r="FB24" s="35"/>
+      <c r="FC24" s="35"/>
+      <c r="FD24" s="35"/>
+      <c r="FE24" s="35"/>
+      <c r="FF24" s="35"/>
+      <c r="FG24" s="35"/>
+      <c r="FH24" s="35"/>
+      <c r="FI24" s="35"/>
+      <c r="FJ24" s="35"/>
+      <c r="FK24" s="35"/>
+      <c r="FL24" s="35"/>
+      <c r="FM24" s="35"/>
+      <c r="FN24" s="35"/>
+      <c r="FO24" s="35"/>
+      <c r="FP24" s="35"/>
+      <c r="FQ24" s="35"/>
+      <c r="FR24" s="35"/>
+      <c r="FS24" s="35"/>
+      <c r="FT24" s="35"/>
+      <c r="FU24" s="35"/>
+      <c r="FV24" s="35"/>
+      <c r="FW24" s="35"/>
+      <c r="FX24" s="35"/>
+      <c r="FY24" s="35"/>
+      <c r="FZ24" s="35"/>
+      <c r="GA24" s="35"/>
+      <c r="GB24" s="35"/>
+      <c r="GC24" s="35"/>
+      <c r="GD24" s="35"/>
+      <c r="GE24" s="35"/>
+      <c r="GF24" s="35"/>
+      <c r="GG24" s="35"/>
+      <c r="GH24" s="35"/>
+      <c r="GI24" s="35"/>
+      <c r="GJ24" s="35"/>
+      <c r="GK24" s="35"/>
+      <c r="GL24" s="35"/>
+      <c r="GM24" s="35"/>
+      <c r="GN24" s="35"/>
+      <c r="GO24" s="35"/>
+      <c r="GP24" s="35"/>
+      <c r="GQ24" s="35"/>
+      <c r="GR24" s="35"/>
+      <c r="GS24" s="35"/>
+      <c r="GT24" s="35"/>
+      <c r="GU24" s="35"/>
+      <c r="GV24" s="35"/>
+      <c r="GW24" s="35"/>
+      <c r="GX24" s="35"/>
+      <c r="GY24" s="35"/>
+      <c r="GZ24" s="35"/>
+      <c r="HA24" s="35"/>
+      <c r="HB24" s="35"/>
+      <c r="HC24" s="35"/>
+      <c r="HD24" s="35"/>
+      <c r="HE24" s="35"/>
+      <c r="HF24" s="35"/>
+      <c r="HG24" s="35"/>
+      <c r="HH24" s="35"/>
+      <c r="HI24" s="35"/>
+      <c r="HJ24" s="35"/>
+      <c r="HK24" s="35"/>
+      <c r="HL24" s="35"/>
+      <c r="HM24" s="35"/>
+      <c r="HN24" s="35"/>
+      <c r="HO24" s="35"/>
+      <c r="HP24" s="35"/>
+      <c r="HQ24" s="35"/>
+      <c r="HR24" s="35"/>
+      <c r="HS24" s="35"/>
+      <c r="HT24" s="35"/>
+      <c r="HU24" s="35"/>
+      <c r="HV24" s="35"/>
+      <c r="HW24" s="35"/>
+      <c r="HX24" s="35"/>
+      <c r="HY24" s="35"/>
+      <c r="HZ24" s="35"/>
+      <c r="IA24" s="35"/>
+      <c r="IB24" s="35"/>
+      <c r="IC24" s="35"/>
+      <c r="ID24" s="35"/>
+      <c r="IE24" s="35"/>
+      <c r="IF24" s="35"/>
+      <c r="IG24" s="35"/>
+      <c r="IH24" s="35"/>
+      <c r="II24" s="35"/>
+      <c r="IJ24" s="35"/>
+      <c r="IK24" s="35"/>
+      <c r="IL24" s="35"/>
+      <c r="IM24" s="35"/>
+      <c r="IN24" s="35"/>
+      <c r="IO24" s="35"/>
+      <c r="IP24" s="35"/>
+      <c r="IQ24" s="35"/>
+      <c r="IR24" s="35"/>
+      <c r="IS24" s="35"/>
+      <c r="IT24" s="35"/>
+      <c r="IU24" s="35"/>
+      <c r="IV24" s="35"/>
+      <c r="IW24" s="35"/>
+      <c r="IX24" s="35"/>
     </row>
-    <row r="25" spans="1:258" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="46"/>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="46"/>
-      <c r="AI25" s="46"/>
-      <c r="AJ25" s="46"/>
-      <c r="AK25" s="46"/>
-      <c r="AL25" s="46"/>
-      <c r="AM25" s="46"/>
-      <c r="AN25" s="46"/>
-      <c r="AO25" s="46"/>
-      <c r="AP25" s="46"/>
-      <c r="AQ25" s="46"/>
-      <c r="AR25" s="46"/>
-      <c r="AS25" s="46"/>
-      <c r="AT25" s="46"/>
-      <c r="AU25" s="46"/>
-      <c r="AV25" s="46"/>
-      <c r="AW25" s="46"/>
-      <c r="AX25" s="46"/>
-      <c r="AY25" s="46"/>
-      <c r="AZ25" s="46"/>
-      <c r="BA25" s="46"/>
-      <c r="BB25" s="46"/>
-      <c r="BC25" s="46"/>
-      <c r="BD25" s="46"/>
-      <c r="BE25" s="46"/>
-      <c r="BF25" s="46"/>
-      <c r="BG25" s="46"/>
-      <c r="BH25" s="46"/>
-      <c r="BI25" s="46"/>
-      <c r="BJ25" s="46"/>
-      <c r="BK25" s="46"/>
-      <c r="BL25" s="46"/>
-      <c r="BM25" s="46"/>
-      <c r="BN25" s="46"/>
-      <c r="BO25" s="46"/>
-      <c r="BP25" s="46"/>
-      <c r="BQ25" s="46"/>
-      <c r="BR25" s="46"/>
-      <c r="BS25" s="46"/>
-      <c r="BT25" s="46"/>
-      <c r="BU25" s="46"/>
-      <c r="BV25" s="46"/>
-      <c r="BW25" s="46"/>
-      <c r="BX25" s="46"/>
-      <c r="BY25" s="46"/>
-      <c r="BZ25" s="46"/>
-      <c r="CA25" s="46"/>
-      <c r="CB25" s="46"/>
-      <c r="CC25" s="46"/>
-      <c r="CD25" s="46"/>
-      <c r="CE25" s="46"/>
-      <c r="CF25" s="46"/>
-      <c r="CG25" s="46"/>
-      <c r="CH25" s="46"/>
-      <c r="CI25" s="46"/>
-      <c r="CJ25" s="46"/>
-      <c r="CK25" s="46"/>
-      <c r="CL25" s="46"/>
-      <c r="CM25" s="46"/>
-      <c r="CN25" s="46"/>
-      <c r="CO25" s="46"/>
-      <c r="CP25" s="46"/>
-      <c r="CQ25" s="46"/>
-      <c r="CR25" s="46"/>
-      <c r="CS25" s="46"/>
-      <c r="CT25" s="46"/>
-      <c r="CU25" s="46"/>
-      <c r="CV25" s="46"/>
-      <c r="CW25" s="46"/>
-      <c r="CX25" s="46"/>
-      <c r="CY25" s="46"/>
-      <c r="CZ25" s="46"/>
-      <c r="DA25" s="46"/>
-      <c r="DB25" s="46"/>
-      <c r="DC25" s="46"/>
-      <c r="DD25" s="46"/>
-      <c r="DE25" s="46"/>
-      <c r="DF25" s="46"/>
-      <c r="DG25" s="46"/>
-      <c r="DH25" s="46"/>
-      <c r="DI25" s="46"/>
-      <c r="DJ25" s="46"/>
-      <c r="DK25" s="46"/>
-      <c r="DL25" s="46"/>
-      <c r="DM25" s="46"/>
-      <c r="DN25" s="46"/>
-      <c r="DO25" s="46"/>
-      <c r="DP25" s="46"/>
-      <c r="DQ25" s="46"/>
-      <c r="DR25" s="46"/>
-      <c r="DS25" s="46"/>
-      <c r="DT25" s="46"/>
-      <c r="DU25" s="46"/>
-      <c r="DV25" s="46"/>
-      <c r="DW25" s="46"/>
-      <c r="DX25" s="46"/>
-      <c r="DY25" s="46"/>
-      <c r="DZ25" s="46"/>
-      <c r="EA25" s="46"/>
-      <c r="EB25" s="46"/>
-      <c r="EC25" s="46"/>
-      <c r="ED25" s="46"/>
-      <c r="EE25" s="46"/>
-      <c r="EF25" s="46"/>
-      <c r="EG25" s="46"/>
-      <c r="EH25" s="46"/>
-      <c r="EI25" s="46"/>
-      <c r="EJ25" s="46"/>
-      <c r="EK25" s="46"/>
-      <c r="EL25" s="46"/>
-      <c r="EM25" s="46"/>
-      <c r="EN25" s="46"/>
-      <c r="EO25" s="46"/>
-      <c r="EP25" s="46"/>
-      <c r="EQ25" s="46"/>
-      <c r="ER25" s="46"/>
-      <c r="ES25" s="46"/>
-      <c r="ET25" s="46"/>
-      <c r="EU25" s="46"/>
-      <c r="EV25" s="46"/>
-      <c r="EW25" s="46"/>
-      <c r="EX25" s="46"/>
-      <c r="EY25" s="46"/>
-      <c r="EZ25" s="46"/>
-      <c r="FA25" s="46"/>
-      <c r="FB25" s="46"/>
-      <c r="FC25" s="46"/>
-      <c r="FD25" s="46"/>
-      <c r="FE25" s="46"/>
-      <c r="FF25" s="46"/>
-      <c r="FG25" s="46"/>
-      <c r="FH25" s="46"/>
-      <c r="FI25" s="46"/>
-      <c r="FJ25" s="46"/>
-      <c r="FK25" s="46"/>
-      <c r="FL25" s="46"/>
-      <c r="FM25" s="46"/>
-      <c r="FN25" s="46"/>
-      <c r="FO25" s="46"/>
-      <c r="FP25" s="46"/>
-      <c r="FQ25" s="46"/>
-      <c r="FR25" s="46"/>
-      <c r="FS25" s="46"/>
-      <c r="FT25" s="46"/>
-      <c r="FU25" s="46"/>
-      <c r="FV25" s="46"/>
-      <c r="FW25" s="46"/>
-      <c r="FX25" s="46"/>
-      <c r="FY25" s="46"/>
-      <c r="FZ25" s="46"/>
-      <c r="GA25" s="46"/>
-      <c r="GB25" s="46"/>
-      <c r="GC25" s="46"/>
-      <c r="GD25" s="46"/>
-      <c r="GE25" s="46"/>
-      <c r="GF25" s="46"/>
-      <c r="GG25" s="46"/>
-      <c r="GH25" s="46"/>
-      <c r="GI25" s="46"/>
-      <c r="GJ25" s="46"/>
-      <c r="GK25" s="46"/>
-      <c r="GL25" s="46"/>
-      <c r="GM25" s="46"/>
-      <c r="GN25" s="46"/>
-      <c r="GO25" s="46"/>
-      <c r="GP25" s="46"/>
-      <c r="GQ25" s="46"/>
-      <c r="GR25" s="46"/>
-      <c r="GS25" s="46"/>
-      <c r="GT25" s="46"/>
-      <c r="GU25" s="46"/>
-      <c r="GV25" s="46"/>
-      <c r="GW25" s="46"/>
-      <c r="GX25" s="46"/>
-      <c r="GY25" s="46"/>
-      <c r="GZ25" s="46"/>
-      <c r="HA25" s="46"/>
-      <c r="HB25" s="46"/>
-      <c r="HC25" s="46"/>
-      <c r="HD25" s="46"/>
-      <c r="HE25" s="46"/>
-      <c r="HF25" s="46"/>
-      <c r="HG25" s="46"/>
-      <c r="HH25" s="46"/>
-      <c r="HI25" s="46"/>
-      <c r="HJ25" s="46"/>
-      <c r="HK25" s="46"/>
-      <c r="HL25" s="46"/>
-      <c r="HM25" s="46"/>
-      <c r="HN25" s="46"/>
-      <c r="HO25" s="46"/>
-      <c r="HP25" s="46"/>
-      <c r="HQ25" s="46"/>
-      <c r="HR25" s="46"/>
-      <c r="HS25" s="46"/>
-      <c r="HT25" s="46"/>
-      <c r="HU25" s="46"/>
-      <c r="HV25" s="46"/>
-      <c r="HW25" s="46"/>
-      <c r="HX25" s="46"/>
-      <c r="HY25" s="46"/>
-      <c r="HZ25" s="46"/>
-      <c r="IA25" s="46"/>
-      <c r="IB25" s="46"/>
-      <c r="IC25" s="46"/>
-      <c r="ID25" s="46"/>
-      <c r="IE25" s="46"/>
-      <c r="IF25" s="46"/>
-      <c r="IG25" s="46"/>
-      <c r="IH25" s="46"/>
-      <c r="II25" s="46"/>
-      <c r="IJ25" s="46"/>
-      <c r="IK25" s="46"/>
-      <c r="IL25" s="46"/>
-      <c r="IM25" s="46"/>
-      <c r="IN25" s="46"/>
-      <c r="IO25" s="46"/>
-      <c r="IP25" s="46"/>
-      <c r="IQ25" s="46"/>
-      <c r="IR25" s="46"/>
-      <c r="IS25" s="46"/>
-      <c r="IT25" s="46"/>
-      <c r="IU25" s="46"/>
-      <c r="IV25" s="46"/>
-      <c r="IW25" s="46"/>
-      <c r="IX25" s="46"/>
+    <row r="25" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="64"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
+      <c r="BA25" s="12"/>
+      <c r="BB25" s="12"/>
+      <c r="BC25" s="12"/>
+      <c r="BD25" s="12"/>
+      <c r="BE25" s="12"/>
+      <c r="BF25" s="12"/>
+      <c r="BG25" s="12"/>
+      <c r="BH25" s="12"/>
+      <c r="BI25" s="12"/>
+      <c r="BJ25" s="12"/>
+      <c r="BK25" s="12"/>
+      <c r="BL25" s="12"/>
+      <c r="BM25" s="12"/>
+      <c r="BN25" s="12"/>
+      <c r="BO25" s="12"/>
+      <c r="BP25" s="12"/>
+      <c r="BQ25" s="12"/>
+      <c r="BR25" s="12"/>
+      <c r="BS25" s="12"/>
+      <c r="BT25" s="12"/>
+      <c r="BU25" s="12"/>
+      <c r="BV25" s="12"/>
+      <c r="BW25" s="12"/>
+      <c r="BX25" s="12"/>
+      <c r="BY25" s="12"/>
+      <c r="BZ25" s="12"/>
+      <c r="CA25" s="12"/>
+      <c r="CB25" s="12"/>
+      <c r="CC25" s="12"/>
+      <c r="CD25" s="12"/>
+      <c r="CE25" s="12"/>
+      <c r="CF25" s="12"/>
+      <c r="CG25" s="12"/>
+      <c r="CH25" s="12"/>
+      <c r="CI25" s="12"/>
+      <c r="CJ25" s="12"/>
+      <c r="CK25" s="12"/>
+      <c r="CL25" s="12"/>
+      <c r="CM25" s="12"/>
+      <c r="CN25" s="12"/>
+      <c r="CO25" s="12"/>
+      <c r="CP25" s="12"/>
+      <c r="CQ25" s="12"/>
+      <c r="CR25" s="12"/>
+      <c r="CS25" s="12"/>
+      <c r="CT25" s="12"/>
+      <c r="CU25" s="12"/>
+      <c r="CV25" s="12"/>
+      <c r="CW25" s="12"/>
+      <c r="CX25" s="12"/>
+      <c r="CY25" s="12"/>
+      <c r="CZ25" s="12"/>
+      <c r="DA25" s="12"/>
+      <c r="DB25" s="12"/>
+      <c r="DC25" s="12"/>
+      <c r="DD25" s="12"/>
+      <c r="DE25" s="12"/>
+      <c r="DF25" s="12"/>
+      <c r="DG25" s="12"/>
+      <c r="DH25" s="12"/>
+      <c r="DI25" s="12"/>
+      <c r="DJ25" s="12"/>
+      <c r="DK25" s="12"/>
+      <c r="DL25" s="12"/>
+      <c r="DM25" s="12"/>
+      <c r="DN25" s="12"/>
+      <c r="DO25" s="12"/>
+      <c r="DP25" s="12"/>
+      <c r="DQ25" s="12"/>
+      <c r="DR25" s="12"/>
+      <c r="DS25" s="12"/>
+      <c r="DT25" s="12"/>
+      <c r="DU25" s="12"/>
+      <c r="DV25" s="12"/>
+      <c r="DW25" s="12"/>
+      <c r="DX25" s="12"/>
+      <c r="DY25" s="12"/>
+      <c r="DZ25" s="12"/>
+      <c r="EA25" s="12"/>
+      <c r="EB25" s="12"/>
+      <c r="EC25" s="12"/>
+      <c r="ED25" s="12"/>
+      <c r="EE25" s="12"/>
+      <c r="EF25" s="12"/>
+      <c r="EG25" s="12"/>
+      <c r="EH25" s="12"/>
+      <c r="EI25" s="12"/>
+      <c r="EJ25" s="12"/>
+      <c r="EK25" s="12"/>
+      <c r="EL25" s="12"/>
+      <c r="EM25" s="12"/>
+      <c r="EN25" s="12"/>
+      <c r="EO25" s="12"/>
+      <c r="EP25" s="12"/>
+      <c r="EQ25" s="12"/>
+      <c r="ER25" s="12"/>
+      <c r="ES25" s="12"/>
+      <c r="ET25" s="12"/>
+      <c r="EU25" s="12"/>
+      <c r="EV25" s="12"/>
+      <c r="EW25" s="12"/>
+      <c r="EX25" s="12"/>
+      <c r="EY25" s="12"/>
+      <c r="EZ25" s="12"/>
+      <c r="FA25" s="12"/>
+      <c r="FB25" s="12"/>
+      <c r="FC25" s="12"/>
+      <c r="FD25" s="12"/>
+      <c r="FE25" s="12"/>
+      <c r="FF25" s="12"/>
+      <c r="FG25" s="12"/>
+      <c r="FH25" s="12"/>
+      <c r="FI25" s="12"/>
+      <c r="FJ25" s="12"/>
+      <c r="FK25" s="12"/>
+      <c r="FL25" s="12"/>
+      <c r="FM25" s="12"/>
+      <c r="FN25" s="12"/>
+      <c r="FO25" s="12"/>
+      <c r="FP25" s="12"/>
+      <c r="FQ25" s="12"/>
+      <c r="FR25" s="12"/>
+      <c r="FS25" s="12"/>
+      <c r="FT25" s="12"/>
+      <c r="FU25" s="12"/>
+      <c r="FV25" s="12"/>
+      <c r="FW25" s="12"/>
+      <c r="FX25" s="12"/>
+      <c r="FY25" s="12"/>
+      <c r="FZ25" s="12"/>
+      <c r="GA25" s="12"/>
+      <c r="GB25" s="12"/>
+      <c r="GC25" s="12"/>
+      <c r="GD25" s="12"/>
+      <c r="GE25" s="12"/>
+      <c r="GF25" s="12"/>
+      <c r="GG25" s="12"/>
+      <c r="GH25" s="12"/>
+      <c r="GI25" s="12"/>
+      <c r="GJ25" s="12"/>
+      <c r="GK25" s="12"/>
+      <c r="GL25" s="12"/>
+      <c r="GM25" s="12"/>
+      <c r="GN25" s="12"/>
+      <c r="GO25" s="12"/>
+      <c r="GP25" s="12"/>
+      <c r="GQ25" s="12"/>
+      <c r="GR25" s="12"/>
+      <c r="GS25" s="12"/>
+      <c r="GT25" s="12"/>
+      <c r="GU25" s="12"/>
+      <c r="GV25" s="12"/>
+      <c r="GW25" s="12"/>
+      <c r="GX25" s="12"/>
+      <c r="GY25" s="12"/>
+      <c r="GZ25" s="12"/>
+      <c r="HA25" s="12"/>
+      <c r="HB25" s="12"/>
+      <c r="HC25" s="12"/>
+      <c r="HD25" s="12"/>
+      <c r="HE25" s="12"/>
+      <c r="HF25" s="12"/>
+      <c r="HG25" s="12"/>
+      <c r="HH25" s="12"/>
+      <c r="HI25" s="12"/>
+      <c r="HJ25" s="12"/>
+      <c r="HK25" s="12"/>
+      <c r="HL25" s="12"/>
+      <c r="HM25" s="12"/>
+      <c r="HN25" s="12"/>
+      <c r="HO25" s="12"/>
+      <c r="HP25" s="12"/>
+      <c r="HQ25" s="12"/>
+      <c r="HR25" s="12"/>
+      <c r="HS25" s="12"/>
+      <c r="HT25" s="12"/>
+      <c r="HU25" s="12"/>
+      <c r="HV25" s="12"/>
+      <c r="HW25" s="12"/>
+      <c r="HX25" s="12"/>
+      <c r="HY25" s="12"/>
+      <c r="HZ25" s="12"/>
+      <c r="IA25" s="12"/>
+      <c r="IB25" s="12"/>
+      <c r="IC25" s="12"/>
+      <c r="ID25" s="12"/>
+      <c r="IE25" s="12"/>
+      <c r="IF25" s="12"/>
+      <c r="IG25" s="12"/>
+      <c r="IH25" s="12"/>
+      <c r="II25" s="12"/>
+      <c r="IJ25" s="12"/>
+      <c r="IK25" s="12"/>
+      <c r="IL25" s="12"/>
+      <c r="IM25" s="12"/>
+      <c r="IN25" s="12"/>
+      <c r="IO25" s="12"/>
+      <c r="IP25" s="12"/>
+      <c r="IQ25" s="12"/>
+      <c r="IR25" s="12"/>
+      <c r="IS25" s="12"/>
+      <c r="IT25" s="12"/>
+      <c r="IU25" s="12"/>
+      <c r="IV25" s="12"/>
+      <c r="IW25" s="12"/>
+      <c r="IX25" s="12"/>
     </row>
-    <row r="26" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
+    <row r="26" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="65"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="12"/>
+      <c r="BC26" s="12"/>
+      <c r="BD26" s="12"/>
+      <c r="BE26" s="12"/>
+      <c r="BF26" s="12"/>
+      <c r="BG26" s="12"/>
+      <c r="BH26" s="12"/>
+      <c r="BI26" s="12"/>
+      <c r="BJ26" s="12"/>
+      <c r="BK26" s="12"/>
+      <c r="BL26" s="12"/>
+      <c r="BM26" s="12"/>
+      <c r="BN26" s="12"/>
+      <c r="BO26" s="12"/>
+      <c r="BP26" s="12"/>
+      <c r="BQ26" s="12"/>
+      <c r="BR26" s="12"/>
+      <c r="BS26" s="12"/>
+      <c r="BT26" s="12"/>
+      <c r="BU26" s="12"/>
+      <c r="BV26" s="12"/>
+      <c r="BW26" s="12"/>
+      <c r="BX26" s="12"/>
+      <c r="BY26" s="12"/>
+      <c r="BZ26" s="12"/>
+      <c r="CA26" s="12"/>
+      <c r="CB26" s="12"/>
+      <c r="CC26" s="12"/>
+      <c r="CD26" s="12"/>
+      <c r="CE26" s="12"/>
+      <c r="CF26" s="12"/>
+      <c r="CG26" s="12"/>
+      <c r="CH26" s="12"/>
+      <c r="CI26" s="12"/>
+      <c r="CJ26" s="12"/>
+      <c r="CK26" s="12"/>
+      <c r="CL26" s="12"/>
+      <c r="CM26" s="12"/>
+      <c r="CN26" s="12"/>
+      <c r="CO26" s="12"/>
+      <c r="CP26" s="12"/>
+      <c r="CQ26" s="12"/>
+      <c r="CR26" s="12"/>
+      <c r="CS26" s="12"/>
+      <c r="CT26" s="12"/>
+      <c r="CU26" s="12"/>
+      <c r="CV26" s="12"/>
+      <c r="CW26" s="12"/>
+      <c r="CX26" s="12"/>
+      <c r="CY26" s="12"/>
+      <c r="CZ26" s="12"/>
+      <c r="DA26" s="12"/>
+      <c r="DB26" s="12"/>
+      <c r="DC26" s="12"/>
+      <c r="DD26" s="12"/>
+      <c r="DE26" s="12"/>
+      <c r="DF26" s="12"/>
+      <c r="DG26" s="12"/>
+      <c r="DH26" s="12"/>
+      <c r="DI26" s="12"/>
+      <c r="DJ26" s="12"/>
+      <c r="DK26" s="12"/>
+      <c r="DL26" s="12"/>
+      <c r="DM26" s="12"/>
+      <c r="DN26" s="12"/>
+      <c r="DO26" s="12"/>
+      <c r="DP26" s="12"/>
+      <c r="DQ26" s="12"/>
+      <c r="DR26" s="12"/>
+      <c r="DS26" s="12"/>
+      <c r="DT26" s="12"/>
+      <c r="DU26" s="12"/>
+      <c r="DV26" s="12"/>
+      <c r="DW26" s="12"/>
+      <c r="DX26" s="12"/>
+      <c r="DY26" s="12"/>
+      <c r="DZ26" s="12"/>
+      <c r="EA26" s="12"/>
+      <c r="EB26" s="12"/>
+      <c r="EC26" s="12"/>
+      <c r="ED26" s="12"/>
+      <c r="EE26" s="12"/>
+      <c r="EF26" s="12"/>
+      <c r="EG26" s="12"/>
+      <c r="EH26" s="12"/>
+      <c r="EI26" s="12"/>
+      <c r="EJ26" s="12"/>
+      <c r="EK26" s="12"/>
+      <c r="EL26" s="12"/>
+      <c r="EM26" s="12"/>
+      <c r="EN26" s="12"/>
+      <c r="EO26" s="12"/>
+      <c r="EP26" s="12"/>
+      <c r="EQ26" s="12"/>
+      <c r="ER26" s="12"/>
+      <c r="ES26" s="12"/>
+      <c r="ET26" s="12"/>
+      <c r="EU26" s="12"/>
+      <c r="EV26" s="12"/>
+      <c r="EW26" s="12"/>
+      <c r="EX26" s="12"/>
+      <c r="EY26" s="12"/>
+      <c r="EZ26" s="12"/>
+      <c r="FA26" s="12"/>
+      <c r="FB26" s="12"/>
+      <c r="FC26" s="12"/>
+      <c r="FD26" s="12"/>
+      <c r="FE26" s="12"/>
+      <c r="FF26" s="12"/>
+      <c r="FG26" s="12"/>
+      <c r="FH26" s="12"/>
+      <c r="FI26" s="12"/>
+      <c r="FJ26" s="12"/>
+      <c r="FK26" s="12"/>
+      <c r="FL26" s="12"/>
+      <c r="FM26" s="12"/>
+      <c r="FN26" s="12"/>
+      <c r="FO26" s="12"/>
+      <c r="FP26" s="12"/>
+      <c r="FQ26" s="12"/>
+      <c r="FR26" s="12"/>
+      <c r="FS26" s="12"/>
+      <c r="FT26" s="12"/>
+      <c r="FU26" s="12"/>
+      <c r="FV26" s="12"/>
+      <c r="FW26" s="12"/>
+      <c r="FX26" s="12"/>
+      <c r="FY26" s="12"/>
+      <c r="FZ26" s="12"/>
+      <c r="GA26" s="12"/>
+      <c r="GB26" s="12"/>
+      <c r="GC26" s="12"/>
+      <c r="GD26" s="12"/>
+      <c r="GE26" s="12"/>
+      <c r="GF26" s="12"/>
+      <c r="GG26" s="12"/>
+      <c r="GH26" s="12"/>
+      <c r="GI26" s="12"/>
+      <c r="GJ26" s="12"/>
+      <c r="GK26" s="12"/>
+      <c r="GL26" s="12"/>
+      <c r="GM26" s="12"/>
+      <c r="GN26" s="12"/>
+      <c r="GO26" s="12"/>
+      <c r="GP26" s="12"/>
+      <c r="GQ26" s="12"/>
+      <c r="GR26" s="12"/>
+      <c r="GS26" s="12"/>
+      <c r="GT26" s="12"/>
+      <c r="GU26" s="12"/>
+      <c r="GV26" s="12"/>
+      <c r="GW26" s="12"/>
+      <c r="GX26" s="12"/>
+      <c r="GY26" s="12"/>
+      <c r="GZ26" s="12"/>
+      <c r="HA26" s="12"/>
+      <c r="HB26" s="12"/>
+      <c r="HC26" s="12"/>
+      <c r="HD26" s="12"/>
+      <c r="HE26" s="12"/>
+      <c r="HF26" s="12"/>
+      <c r="HG26" s="12"/>
+      <c r="HH26" s="12"/>
+      <c r="HI26" s="12"/>
+      <c r="HJ26" s="12"/>
+      <c r="HK26" s="12"/>
+      <c r="HL26" s="12"/>
+      <c r="HM26" s="12"/>
+      <c r="HN26" s="12"/>
+      <c r="HO26" s="12"/>
+      <c r="HP26" s="12"/>
+      <c r="HQ26" s="12"/>
+      <c r="HR26" s="12"/>
+      <c r="HS26" s="12"/>
+      <c r="HT26" s="12"/>
+      <c r="HU26" s="12"/>
+      <c r="HV26" s="12"/>
+      <c r="HW26" s="12"/>
+      <c r="HX26" s="12"/>
+      <c r="HY26" s="12"/>
+      <c r="HZ26" s="12"/>
+      <c r="IA26" s="12"/>
+      <c r="IB26" s="12"/>
+      <c r="IC26" s="12"/>
+      <c r="ID26" s="12"/>
+      <c r="IE26" s="12"/>
+      <c r="IF26" s="12"/>
+      <c r="IG26" s="12"/>
+      <c r="IH26" s="12"/>
+      <c r="II26" s="12"/>
+      <c r="IJ26" s="12"/>
+      <c r="IK26" s="12"/>
+      <c r="IL26" s="12"/>
+      <c r="IM26" s="12"/>
+      <c r="IN26" s="12"/>
+      <c r="IO26" s="12"/>
+      <c r="IP26" s="12"/>
+      <c r="IQ26" s="12"/>
+      <c r="IR26" s="12"/>
+      <c r="IS26" s="12"/>
+      <c r="IT26" s="12"/>
+      <c r="IU26" s="12"/>
+      <c r="IV26" s="12"/>
+      <c r="IW26" s="12"/>
+      <c r="IX26" s="12"/>
     </row>
     <row r="27" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="25"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
     </row>
-    <row r="28" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
+    <row r="28" spans="1:258" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="46"/>
+      <c r="AN28" s="46"/>
+      <c r="AO28" s="46"/>
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="46"/>
+      <c r="AR28" s="46"/>
+      <c r="AS28" s="46"/>
+      <c r="AT28" s="46"/>
+      <c r="AU28" s="46"/>
+      <c r="AV28" s="46"/>
+      <c r="AW28" s="46"/>
+      <c r="AX28" s="46"/>
+      <c r="AY28" s="46"/>
+      <c r="AZ28" s="46"/>
+      <c r="BA28" s="46"/>
+      <c r="BB28" s="46"/>
+      <c r="BC28" s="46"/>
+      <c r="BD28" s="46"/>
+      <c r="BE28" s="46"/>
+      <c r="BF28" s="46"/>
+      <c r="BG28" s="46"/>
+      <c r="BH28" s="46"/>
+      <c r="BI28" s="46"/>
+      <c r="BJ28" s="46"/>
+      <c r="BK28" s="46"/>
+      <c r="BL28" s="46"/>
+      <c r="BM28" s="46"/>
+      <c r="BN28" s="46"/>
+      <c r="BO28" s="46"/>
+      <c r="BP28" s="46"/>
+      <c r="BQ28" s="46"/>
+      <c r="BR28" s="46"/>
+      <c r="BS28" s="46"/>
+      <c r="BT28" s="46"/>
+      <c r="BU28" s="46"/>
+      <c r="BV28" s="46"/>
+      <c r="BW28" s="46"/>
+      <c r="BX28" s="46"/>
+      <c r="BY28" s="46"/>
+      <c r="BZ28" s="46"/>
+      <c r="CA28" s="46"/>
+      <c r="CB28" s="46"/>
+      <c r="CC28" s="46"/>
+      <c r="CD28" s="46"/>
+      <c r="CE28" s="46"/>
+      <c r="CF28" s="46"/>
+      <c r="CG28" s="46"/>
+      <c r="CH28" s="46"/>
+      <c r="CI28" s="46"/>
+      <c r="CJ28" s="46"/>
+      <c r="CK28" s="46"/>
+      <c r="CL28" s="46"/>
+      <c r="CM28" s="46"/>
+      <c r="CN28" s="46"/>
+      <c r="CO28" s="46"/>
+      <c r="CP28" s="46"/>
+      <c r="CQ28" s="46"/>
+      <c r="CR28" s="46"/>
+      <c r="CS28" s="46"/>
+      <c r="CT28" s="46"/>
+      <c r="CU28" s="46"/>
+      <c r="CV28" s="46"/>
+      <c r="CW28" s="46"/>
+      <c r="CX28" s="46"/>
+      <c r="CY28" s="46"/>
+      <c r="CZ28" s="46"/>
+      <c r="DA28" s="46"/>
+      <c r="DB28" s="46"/>
+      <c r="DC28" s="46"/>
+      <c r="DD28" s="46"/>
+      <c r="DE28" s="46"/>
+      <c r="DF28" s="46"/>
+      <c r="DG28" s="46"/>
+      <c r="DH28" s="46"/>
+      <c r="DI28" s="46"/>
+      <c r="DJ28" s="46"/>
+      <c r="DK28" s="46"/>
+      <c r="DL28" s="46"/>
+      <c r="DM28" s="46"/>
+      <c r="DN28" s="46"/>
+      <c r="DO28" s="46"/>
+      <c r="DP28" s="46"/>
+      <c r="DQ28" s="46"/>
+      <c r="DR28" s="46"/>
+      <c r="DS28" s="46"/>
+      <c r="DT28" s="46"/>
+      <c r="DU28" s="46"/>
+      <c r="DV28" s="46"/>
+      <c r="DW28" s="46"/>
+      <c r="DX28" s="46"/>
+      <c r="DY28" s="46"/>
+      <c r="DZ28" s="46"/>
+      <c r="EA28" s="46"/>
+      <c r="EB28" s="46"/>
+      <c r="EC28" s="46"/>
+      <c r="ED28" s="46"/>
+      <c r="EE28" s="46"/>
+      <c r="EF28" s="46"/>
+      <c r="EG28" s="46"/>
+      <c r="EH28" s="46"/>
+      <c r="EI28" s="46"/>
+      <c r="EJ28" s="46"/>
+      <c r="EK28" s="46"/>
+      <c r="EL28" s="46"/>
+      <c r="EM28" s="46"/>
+      <c r="EN28" s="46"/>
+      <c r="EO28" s="46"/>
+      <c r="EP28" s="46"/>
+      <c r="EQ28" s="46"/>
+      <c r="ER28" s="46"/>
+      <c r="ES28" s="46"/>
+      <c r="ET28" s="46"/>
+      <c r="EU28" s="46"/>
+      <c r="EV28" s="46"/>
+      <c r="EW28" s="46"/>
+      <c r="EX28" s="46"/>
+      <c r="EY28" s="46"/>
+      <c r="EZ28" s="46"/>
+      <c r="FA28" s="46"/>
+      <c r="FB28" s="46"/>
+      <c r="FC28" s="46"/>
+      <c r="FD28" s="46"/>
+      <c r="FE28" s="46"/>
+      <c r="FF28" s="46"/>
+      <c r="FG28" s="46"/>
+      <c r="FH28" s="46"/>
+      <c r="FI28" s="46"/>
+      <c r="FJ28" s="46"/>
+      <c r="FK28" s="46"/>
+      <c r="FL28" s="46"/>
+      <c r="FM28" s="46"/>
+      <c r="FN28" s="46"/>
+      <c r="FO28" s="46"/>
+      <c r="FP28" s="46"/>
+      <c r="FQ28" s="46"/>
+      <c r="FR28" s="46"/>
+      <c r="FS28" s="46"/>
+      <c r="FT28" s="46"/>
+      <c r="FU28" s="46"/>
+      <c r="FV28" s="46"/>
+      <c r="FW28" s="46"/>
+      <c r="FX28" s="46"/>
+      <c r="FY28" s="46"/>
+      <c r="FZ28" s="46"/>
+      <c r="GA28" s="46"/>
+      <c r="GB28" s="46"/>
+      <c r="GC28" s="46"/>
+      <c r="GD28" s="46"/>
+      <c r="GE28" s="46"/>
+      <c r="GF28" s="46"/>
+      <c r="GG28" s="46"/>
+      <c r="GH28" s="46"/>
+      <c r="GI28" s="46"/>
+      <c r="GJ28" s="46"/>
+      <c r="GK28" s="46"/>
+      <c r="GL28" s="46"/>
+      <c r="GM28" s="46"/>
+      <c r="GN28" s="46"/>
+      <c r="GO28" s="46"/>
+      <c r="GP28" s="46"/>
+      <c r="GQ28" s="46"/>
+      <c r="GR28" s="46"/>
+      <c r="GS28" s="46"/>
+      <c r="GT28" s="46"/>
+      <c r="GU28" s="46"/>
+      <c r="GV28" s="46"/>
+      <c r="GW28" s="46"/>
+      <c r="GX28" s="46"/>
+      <c r="GY28" s="46"/>
+      <c r="GZ28" s="46"/>
+      <c r="HA28" s="46"/>
+      <c r="HB28" s="46"/>
+      <c r="HC28" s="46"/>
+      <c r="HD28" s="46"/>
+      <c r="HE28" s="46"/>
+      <c r="HF28" s="46"/>
+      <c r="HG28" s="46"/>
+      <c r="HH28" s="46"/>
+      <c r="HI28" s="46"/>
+      <c r="HJ28" s="46"/>
+      <c r="HK28" s="46"/>
+      <c r="HL28" s="46"/>
+      <c r="HM28" s="46"/>
+      <c r="HN28" s="46"/>
+      <c r="HO28" s="46"/>
+      <c r="HP28" s="46"/>
+      <c r="HQ28" s="46"/>
+      <c r="HR28" s="46"/>
+      <c r="HS28" s="46"/>
+      <c r="HT28" s="46"/>
+      <c r="HU28" s="46"/>
+      <c r="HV28" s="46"/>
+      <c r="HW28" s="46"/>
+      <c r="HX28" s="46"/>
+      <c r="HY28" s="46"/>
+      <c r="HZ28" s="46"/>
+      <c r="IA28" s="46"/>
+      <c r="IB28" s="46"/>
+      <c r="IC28" s="46"/>
+      <c r="ID28" s="46"/>
+      <c r="IE28" s="46"/>
+      <c r="IF28" s="46"/>
+      <c r="IG28" s="46"/>
+      <c r="IH28" s="46"/>
+      <c r="II28" s="46"/>
+      <c r="IJ28" s="46"/>
+      <c r="IK28" s="46"/>
+      <c r="IL28" s="46"/>
+      <c r="IM28" s="46"/>
+      <c r="IN28" s="46"/>
+      <c r="IO28" s="46"/>
+      <c r="IP28" s="46"/>
+      <c r="IQ28" s="46"/>
+      <c r="IR28" s="46"/>
+      <c r="IS28" s="46"/>
+      <c r="IT28" s="46"/>
+      <c r="IU28" s="46"/>
+      <c r="IV28" s="46"/>
+      <c r="IW28" s="46"/>
+      <c r="IX28" s="46"/>
     </row>
     <row r="29" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="60"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="45"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
     </row>
-    <row r="30" spans="1:258" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="46"/>
-      <c r="AJ30" s="46"/>
-      <c r="AK30" s="46"/>
-      <c r="AL30" s="46"/>
-      <c r="AM30" s="46"/>
-      <c r="AN30" s="46"/>
-      <c r="AO30" s="46"/>
-      <c r="AP30" s="46"/>
-      <c r="AQ30" s="46"/>
-      <c r="AR30" s="46"/>
-      <c r="AS30" s="46"/>
-      <c r="AT30" s="46"/>
-      <c r="AU30" s="46"/>
-      <c r="AV30" s="46"/>
-      <c r="AW30" s="46"/>
-      <c r="AX30" s="46"/>
-      <c r="AY30" s="46"/>
-      <c r="AZ30" s="46"/>
-      <c r="BA30" s="46"/>
-      <c r="BB30" s="46"/>
-      <c r="BC30" s="46"/>
-      <c r="BD30" s="46"/>
-      <c r="BE30" s="46"/>
-      <c r="BF30" s="46"/>
-      <c r="BG30" s="46"/>
-      <c r="BH30" s="46"/>
-      <c r="BI30" s="46"/>
-      <c r="BJ30" s="46"/>
-      <c r="BK30" s="46"/>
-      <c r="BL30" s="46"/>
-      <c r="BM30" s="46"/>
-      <c r="BN30" s="46"/>
-      <c r="BO30" s="46"/>
-      <c r="BP30" s="46"/>
-      <c r="BQ30" s="46"/>
-      <c r="BR30" s="46"/>
-      <c r="BS30" s="46"/>
-      <c r="BT30" s="46"/>
-      <c r="BU30" s="46"/>
-      <c r="BV30" s="46"/>
-      <c r="BW30" s="46"/>
-      <c r="BX30" s="46"/>
-      <c r="BY30" s="46"/>
-      <c r="BZ30" s="46"/>
-      <c r="CA30" s="46"/>
-      <c r="CB30" s="46"/>
-      <c r="CC30" s="46"/>
-      <c r="CD30" s="46"/>
-      <c r="CE30" s="46"/>
-      <c r="CF30" s="46"/>
-      <c r="CG30" s="46"/>
-      <c r="CH30" s="46"/>
-      <c r="CI30" s="46"/>
-      <c r="CJ30" s="46"/>
-      <c r="CK30" s="46"/>
-      <c r="CL30" s="46"/>
-      <c r="CM30" s="46"/>
-      <c r="CN30" s="46"/>
-      <c r="CO30" s="46"/>
-      <c r="CP30" s="46"/>
-      <c r="CQ30" s="46"/>
-      <c r="CR30" s="46"/>
-      <c r="CS30" s="46"/>
-      <c r="CT30" s="46"/>
-      <c r="CU30" s="46"/>
-      <c r="CV30" s="46"/>
-      <c r="CW30" s="46"/>
-      <c r="CX30" s="46"/>
-      <c r="CY30" s="46"/>
-      <c r="CZ30" s="46"/>
-      <c r="DA30" s="46"/>
-      <c r="DB30" s="46"/>
-      <c r="DC30" s="46"/>
-      <c r="DD30" s="46"/>
-      <c r="DE30" s="46"/>
-      <c r="DF30" s="46"/>
-      <c r="DG30" s="46"/>
-      <c r="DH30" s="46"/>
-      <c r="DI30" s="46"/>
-      <c r="DJ30" s="46"/>
-      <c r="DK30" s="46"/>
-      <c r="DL30" s="46"/>
-      <c r="DM30" s="46"/>
-      <c r="DN30" s="46"/>
-      <c r="DO30" s="46"/>
-      <c r="DP30" s="46"/>
-      <c r="DQ30" s="46"/>
-      <c r="DR30" s="46"/>
-      <c r="DS30" s="46"/>
-      <c r="DT30" s="46"/>
-      <c r="DU30" s="46"/>
-      <c r="DV30" s="46"/>
-      <c r="DW30" s="46"/>
-      <c r="DX30" s="46"/>
-      <c r="DY30" s="46"/>
-      <c r="DZ30" s="46"/>
-      <c r="EA30" s="46"/>
-      <c r="EB30" s="46"/>
-      <c r="EC30" s="46"/>
-      <c r="ED30" s="46"/>
-      <c r="EE30" s="46"/>
-      <c r="EF30" s="46"/>
-      <c r="EG30" s="46"/>
-      <c r="EH30" s="46"/>
-      <c r="EI30" s="46"/>
-      <c r="EJ30" s="46"/>
-      <c r="EK30" s="46"/>
-      <c r="EL30" s="46"/>
-      <c r="EM30" s="46"/>
-      <c r="EN30" s="46"/>
-      <c r="EO30" s="46"/>
-      <c r="EP30" s="46"/>
-      <c r="EQ30" s="46"/>
-      <c r="ER30" s="46"/>
-      <c r="ES30" s="46"/>
-      <c r="ET30" s="46"/>
-      <c r="EU30" s="46"/>
-      <c r="EV30" s="46"/>
-      <c r="EW30" s="46"/>
-      <c r="EX30" s="46"/>
-      <c r="EY30" s="46"/>
-      <c r="EZ30" s="46"/>
-      <c r="FA30" s="46"/>
-      <c r="FB30" s="46"/>
-      <c r="FC30" s="46"/>
-      <c r="FD30" s="46"/>
-      <c r="FE30" s="46"/>
-      <c r="FF30" s="46"/>
-      <c r="FG30" s="46"/>
-      <c r="FH30" s="46"/>
-      <c r="FI30" s="46"/>
-      <c r="FJ30" s="46"/>
-      <c r="FK30" s="46"/>
-      <c r="FL30" s="46"/>
-      <c r="FM30" s="46"/>
-      <c r="FN30" s="46"/>
-      <c r="FO30" s="46"/>
-      <c r="FP30" s="46"/>
-      <c r="FQ30" s="46"/>
-      <c r="FR30" s="46"/>
-      <c r="FS30" s="46"/>
-      <c r="FT30" s="46"/>
-      <c r="FU30" s="46"/>
-      <c r="FV30" s="46"/>
-      <c r="FW30" s="46"/>
-      <c r="FX30" s="46"/>
-      <c r="FY30" s="46"/>
-      <c r="FZ30" s="46"/>
-      <c r="GA30" s="46"/>
-      <c r="GB30" s="46"/>
-      <c r="GC30" s="46"/>
-      <c r="GD30" s="46"/>
-      <c r="GE30" s="46"/>
-      <c r="GF30" s="46"/>
-      <c r="GG30" s="46"/>
-      <c r="GH30" s="46"/>
-      <c r="GI30" s="46"/>
-      <c r="GJ30" s="46"/>
-      <c r="GK30" s="46"/>
-      <c r="GL30" s="46"/>
-      <c r="GM30" s="46"/>
-      <c r="GN30" s="46"/>
-      <c r="GO30" s="46"/>
-      <c r="GP30" s="46"/>
-      <c r="GQ30" s="46"/>
-      <c r="GR30" s="46"/>
-      <c r="GS30" s="46"/>
-      <c r="GT30" s="46"/>
-      <c r="GU30" s="46"/>
-      <c r="GV30" s="46"/>
-      <c r="GW30" s="46"/>
-      <c r="GX30" s="46"/>
-      <c r="GY30" s="46"/>
-      <c r="GZ30" s="46"/>
-      <c r="HA30" s="46"/>
-      <c r="HB30" s="46"/>
-      <c r="HC30" s="46"/>
-      <c r="HD30" s="46"/>
-      <c r="HE30" s="46"/>
-      <c r="HF30" s="46"/>
-      <c r="HG30" s="46"/>
-      <c r="HH30" s="46"/>
-      <c r="HI30" s="46"/>
-      <c r="HJ30" s="46"/>
-      <c r="HK30" s="46"/>
-      <c r="HL30" s="46"/>
-      <c r="HM30" s="46"/>
-      <c r="HN30" s="46"/>
-      <c r="HO30" s="46"/>
-      <c r="HP30" s="46"/>
-      <c r="HQ30" s="46"/>
-      <c r="HR30" s="46"/>
-      <c r="HS30" s="46"/>
-      <c r="HT30" s="46"/>
-      <c r="HU30" s="46"/>
-      <c r="HV30" s="46"/>
-      <c r="HW30" s="46"/>
-      <c r="HX30" s="46"/>
-      <c r="HY30" s="46"/>
-      <c r="HZ30" s="46"/>
-      <c r="IA30" s="46"/>
-      <c r="IB30" s="46"/>
-      <c r="IC30" s="46"/>
-      <c r="ID30" s="46"/>
-      <c r="IE30" s="46"/>
-      <c r="IF30" s="46"/>
-      <c r="IG30" s="46"/>
-      <c r="IH30" s="46"/>
-      <c r="II30" s="46"/>
-      <c r="IJ30" s="46"/>
-      <c r="IK30" s="46"/>
-      <c r="IL30" s="46"/>
-      <c r="IM30" s="46"/>
-      <c r="IN30" s="46"/>
-      <c r="IO30" s="46"/>
-      <c r="IP30" s="46"/>
-      <c r="IQ30" s="46"/>
-      <c r="IR30" s="46"/>
-      <c r="IS30" s="46"/>
-      <c r="IT30" s="46"/>
-      <c r="IU30" s="46"/>
-      <c r="IV30" s="46"/>
-      <c r="IW30" s="46"/>
-      <c r="IX30" s="46"/>
+    <row r="30" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="59"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="58"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="45"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
     </row>
-    <row r="33" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+    <row r="33" spans="1:258" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="49"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="46"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="46"/>
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="46"/>
+      <c r="AL33" s="46"/>
+      <c r="AM33" s="46"/>
+      <c r="AN33" s="46"/>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="46"/>
+      <c r="AQ33" s="46"/>
+      <c r="AR33" s="46"/>
+      <c r="AS33" s="46"/>
+      <c r="AT33" s="46"/>
+      <c r="AU33" s="46"/>
+      <c r="AV33" s="46"/>
+      <c r="AW33" s="46"/>
+      <c r="AX33" s="46"/>
+      <c r="AY33" s="46"/>
+      <c r="AZ33" s="46"/>
+      <c r="BA33" s="46"/>
+      <c r="BB33" s="46"/>
+      <c r="BC33" s="46"/>
+      <c r="BD33" s="46"/>
+      <c r="BE33" s="46"/>
+      <c r="BF33" s="46"/>
+      <c r="BG33" s="46"/>
+      <c r="BH33" s="46"/>
+      <c r="BI33" s="46"/>
+      <c r="BJ33" s="46"/>
+      <c r="BK33" s="46"/>
+      <c r="BL33" s="46"/>
+      <c r="BM33" s="46"/>
+      <c r="BN33" s="46"/>
+      <c r="BO33" s="46"/>
+      <c r="BP33" s="46"/>
+      <c r="BQ33" s="46"/>
+      <c r="BR33" s="46"/>
+      <c r="BS33" s="46"/>
+      <c r="BT33" s="46"/>
+      <c r="BU33" s="46"/>
+      <c r="BV33" s="46"/>
+      <c r="BW33" s="46"/>
+      <c r="BX33" s="46"/>
+      <c r="BY33" s="46"/>
+      <c r="BZ33" s="46"/>
+      <c r="CA33" s="46"/>
+      <c r="CB33" s="46"/>
+      <c r="CC33" s="46"/>
+      <c r="CD33" s="46"/>
+      <c r="CE33" s="46"/>
+      <c r="CF33" s="46"/>
+      <c r="CG33" s="46"/>
+      <c r="CH33" s="46"/>
+      <c r="CI33" s="46"/>
+      <c r="CJ33" s="46"/>
+      <c r="CK33" s="46"/>
+      <c r="CL33" s="46"/>
+      <c r="CM33" s="46"/>
+      <c r="CN33" s="46"/>
+      <c r="CO33" s="46"/>
+      <c r="CP33" s="46"/>
+      <c r="CQ33" s="46"/>
+      <c r="CR33" s="46"/>
+      <c r="CS33" s="46"/>
+      <c r="CT33" s="46"/>
+      <c r="CU33" s="46"/>
+      <c r="CV33" s="46"/>
+      <c r="CW33" s="46"/>
+      <c r="CX33" s="46"/>
+      <c r="CY33" s="46"/>
+      <c r="CZ33" s="46"/>
+      <c r="DA33" s="46"/>
+      <c r="DB33" s="46"/>
+      <c r="DC33" s="46"/>
+      <c r="DD33" s="46"/>
+      <c r="DE33" s="46"/>
+      <c r="DF33" s="46"/>
+      <c r="DG33" s="46"/>
+      <c r="DH33" s="46"/>
+      <c r="DI33" s="46"/>
+      <c r="DJ33" s="46"/>
+      <c r="DK33" s="46"/>
+      <c r="DL33" s="46"/>
+      <c r="DM33" s="46"/>
+      <c r="DN33" s="46"/>
+      <c r="DO33" s="46"/>
+      <c r="DP33" s="46"/>
+      <c r="DQ33" s="46"/>
+      <c r="DR33" s="46"/>
+      <c r="DS33" s="46"/>
+      <c r="DT33" s="46"/>
+      <c r="DU33" s="46"/>
+      <c r="DV33" s="46"/>
+      <c r="DW33" s="46"/>
+      <c r="DX33" s="46"/>
+      <c r="DY33" s="46"/>
+      <c r="DZ33" s="46"/>
+      <c r="EA33" s="46"/>
+      <c r="EB33" s="46"/>
+      <c r="EC33" s="46"/>
+      <c r="ED33" s="46"/>
+      <c r="EE33" s="46"/>
+      <c r="EF33" s="46"/>
+      <c r="EG33" s="46"/>
+      <c r="EH33" s="46"/>
+      <c r="EI33" s="46"/>
+      <c r="EJ33" s="46"/>
+      <c r="EK33" s="46"/>
+      <c r="EL33" s="46"/>
+      <c r="EM33" s="46"/>
+      <c r="EN33" s="46"/>
+      <c r="EO33" s="46"/>
+      <c r="EP33" s="46"/>
+      <c r="EQ33" s="46"/>
+      <c r="ER33" s="46"/>
+      <c r="ES33" s="46"/>
+      <c r="ET33" s="46"/>
+      <c r="EU33" s="46"/>
+      <c r="EV33" s="46"/>
+      <c r="EW33" s="46"/>
+      <c r="EX33" s="46"/>
+      <c r="EY33" s="46"/>
+      <c r="EZ33" s="46"/>
+      <c r="FA33" s="46"/>
+      <c r="FB33" s="46"/>
+      <c r="FC33" s="46"/>
+      <c r="FD33" s="46"/>
+      <c r="FE33" s="46"/>
+      <c r="FF33" s="46"/>
+      <c r="FG33" s="46"/>
+      <c r="FH33" s="46"/>
+      <c r="FI33" s="46"/>
+      <c r="FJ33" s="46"/>
+      <c r="FK33" s="46"/>
+      <c r="FL33" s="46"/>
+      <c r="FM33" s="46"/>
+      <c r="FN33" s="46"/>
+      <c r="FO33" s="46"/>
+      <c r="FP33" s="46"/>
+      <c r="FQ33" s="46"/>
+      <c r="FR33" s="46"/>
+      <c r="FS33" s="46"/>
+      <c r="FT33" s="46"/>
+      <c r="FU33" s="46"/>
+      <c r="FV33" s="46"/>
+      <c r="FW33" s="46"/>
+      <c r="FX33" s="46"/>
+      <c r="FY33" s="46"/>
+      <c r="FZ33" s="46"/>
+      <c r="GA33" s="46"/>
+      <c r="GB33" s="46"/>
+      <c r="GC33" s="46"/>
+      <c r="GD33" s="46"/>
+      <c r="GE33" s="46"/>
+      <c r="GF33" s="46"/>
+      <c r="GG33" s="46"/>
+      <c r="GH33" s="46"/>
+      <c r="GI33" s="46"/>
+      <c r="GJ33" s="46"/>
+      <c r="GK33" s="46"/>
+      <c r="GL33" s="46"/>
+      <c r="GM33" s="46"/>
+      <c r="GN33" s="46"/>
+      <c r="GO33" s="46"/>
+      <c r="GP33" s="46"/>
+      <c r="GQ33" s="46"/>
+      <c r="GR33" s="46"/>
+      <c r="GS33" s="46"/>
+      <c r="GT33" s="46"/>
+      <c r="GU33" s="46"/>
+      <c r="GV33" s="46"/>
+      <c r="GW33" s="46"/>
+      <c r="GX33" s="46"/>
+      <c r="GY33" s="46"/>
+      <c r="GZ33" s="46"/>
+      <c r="HA33" s="46"/>
+      <c r="HB33" s="46"/>
+      <c r="HC33" s="46"/>
+      <c r="HD33" s="46"/>
+      <c r="HE33" s="46"/>
+      <c r="HF33" s="46"/>
+      <c r="HG33" s="46"/>
+      <c r="HH33" s="46"/>
+      <c r="HI33" s="46"/>
+      <c r="HJ33" s="46"/>
+      <c r="HK33" s="46"/>
+      <c r="HL33" s="46"/>
+      <c r="HM33" s="46"/>
+      <c r="HN33" s="46"/>
+      <c r="HO33" s="46"/>
+      <c r="HP33" s="46"/>
+      <c r="HQ33" s="46"/>
+      <c r="HR33" s="46"/>
+      <c r="HS33" s="46"/>
+      <c r="HT33" s="46"/>
+      <c r="HU33" s="46"/>
+      <c r="HV33" s="46"/>
+      <c r="HW33" s="46"/>
+      <c r="HX33" s="46"/>
+      <c r="HY33" s="46"/>
+      <c r="HZ33" s="46"/>
+      <c r="IA33" s="46"/>
+      <c r="IB33" s="46"/>
+      <c r="IC33" s="46"/>
+      <c r="ID33" s="46"/>
+      <c r="IE33" s="46"/>
+      <c r="IF33" s="46"/>
+      <c r="IG33" s="46"/>
+      <c r="IH33" s="46"/>
+      <c r="II33" s="46"/>
+      <c r="IJ33" s="46"/>
+      <c r="IK33" s="46"/>
+      <c r="IL33" s="46"/>
+      <c r="IM33" s="46"/>
+      <c r="IN33" s="46"/>
+      <c r="IO33" s="46"/>
+      <c r="IP33" s="46"/>
+      <c r="IQ33" s="46"/>
+      <c r="IR33" s="46"/>
+      <c r="IS33" s="46"/>
+      <c r="IT33" s="46"/>
+      <c r="IU33" s="46"/>
+      <c r="IV33" s="46"/>
+      <c r="IW33" s="46"/>
+      <c r="IX33" s="46"/>
     </row>
-    <row r="34" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="59"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+    <row r="34" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="58"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
     </row>
-    <row r="35" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="59"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
-      <c r="G35" s="11"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
     </row>
-    <row r="36" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
+    <row r="36" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="59"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -8164,80 +8942,80 @@
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
     </row>
-    <row r="37" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
+    <row r="37" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="59"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
     </row>
-    <row r="38" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="59"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
     </row>
-    <row r="39" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="59"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="9"/>
+    <row r="39" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="60"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="11"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="26"/>
       <c r="J39" s="26"/>
     </row>
-    <row r="40" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+    <row r="40" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="58"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
     </row>
-    <row r="41" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="60"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
+    <row r="41" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="59"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
     </row>
-    <row r="42" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
+    <row r="42" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="59"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
     </row>
-    <row r="43" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
+    <row r="43" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="59"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
@@ -8248,19 +9026,19 @@
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
     </row>
-    <row r="44" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
+    <row r="44" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="60"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
@@ -8272,15 +9050,52 @@
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
     </row>
+    <row r="46" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+    </row>
+    <row r="47" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+    </row>
+    <row r="48" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A6:A13"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="133">
   <si>
     <t>Comments</t>
   </si>
@@ -864,6 +864,28 @@
   }]
 }</t>
   </si>
+  <si>
+    <t>/permission-categories</t>
+  </si>
+  <si>
+    <t>Get all permission categories</t>
+  </si>
+  <si>
+    <t>{
+                "permissionCategories": [
+                    {
+                       "id": 1,
+                        "name": '督办',
+                        "permissions": [
+                            {
+                                "id": 1,
+                                "name": '督办_默认权限'
+                            }
+                        ]
+                    }
+                ]
+            }</t>
+  </si>
 </sst>
 </file>
 
@@ -1240,6 +1262,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1275,9 +1300,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1655,7 +1677,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2775,7 +2797,7 @@
       <c r="IX5" s="35"/>
     </row>
     <row r="6" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="39" t="s">
@@ -3045,7 +3067,7 @@
       <c r="IX6" s="12"/>
     </row>
     <row r="7" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="11" t="s">
         <v>117</v>
       </c>
@@ -3313,7 +3335,7 @@
       <c r="IX7" s="12"/>
     </row>
     <row r="8" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="29" t="s">
         <v>106</v>
       </c>
@@ -3581,7 +3603,7 @@
       <c r="IX8" s="12"/>
     </row>
     <row r="9" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="11" t="s">
         <v>107</v>
       </c>
@@ -3853,7 +3875,7 @@
       <c r="IX9" s="12"/>
     </row>
     <row r="10" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="11" t="s">
         <v>121</v>
       </c>
@@ -4123,7 +4145,7 @@
       <c r="IX10" s="12"/>
     </row>
     <row r="11" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="11" t="s">
         <v>108</v>
       </c>
@@ -4395,7 +4417,7 @@
       <c r="IX11" s="12"/>
     </row>
     <row r="12" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="11" t="s">
         <v>123</v>
       </c>
@@ -4665,7 +4687,7 @@
       <c r="IX12" s="12"/>
     </row>
     <row r="13" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="11" t="s">
         <v>112</v>
       </c>
@@ -5197,7 +5219,7 @@
       <c r="IX14" s="35"/>
     </row>
     <row r="15" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="65" t="s">
         <v>126</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -5467,14 +5489,22 @@
       <c r="IX15" s="12"/>
     </row>
     <row r="16" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="11"/>
       <c r="K16" s="9"/>
@@ -5727,13 +5757,13 @@
       <c r="IX16" s="12"/>
     </row>
     <row r="17" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="67"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="11"/>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
@@ -5987,13 +6017,13 @@
       <c r="IX17" s="12"/>
     </row>
     <row r="18" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="67"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="11"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
@@ -6507,7 +6537,7 @@
       <c r="IX19" s="35"/>
     </row>
     <row r="20" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
       <c r="D20" s="30"/>
@@ -6767,7 +6797,7 @@
       <c r="IX20" s="12"/>
     </row>
     <row r="21" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -7027,7 +7057,7 @@
       <c r="IX21" s="12"/>
     </row>
     <row r="22" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="29"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -7807,7 +7837,7 @@
       <c r="IX24" s="35"/>
     </row>
     <row r="25" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="64"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="30"/>
@@ -8067,7 +8097,7 @@
       <c r="IX25" s="12"/>
     </row>
     <row r="26" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -8327,7 +8357,7 @@
       <c r="IX26" s="12"/>
     </row>
     <row r="27" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="66"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="29"/>
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
@@ -8600,7 +8630,7 @@
       <c r="IX28" s="46"/>
     </row>
     <row r="29" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="32"/>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
@@ -8612,7 +8642,7 @@
       <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="59"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="11"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -8623,7 +8653,7 @@
       <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="11"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
@@ -8635,7 +8665,7 @@
       <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="60"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="29"/>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
@@ -8907,7 +8937,7 @@
       <c r="IX33" s="46"/>
     </row>
     <row r="34" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="44"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -8919,7 +8949,7 @@
       <c r="J34" s="45"/>
     </row>
     <row r="35" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="59"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -8931,7 +8961,7 @@
       <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -8943,7 +8973,7 @@
       <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="59"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
@@ -8955,7 +8985,7 @@
       <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="59"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -8967,7 +8997,7 @@
       <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -8979,7 +9009,7 @@
       <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -8991,8 +9021,8 @@
       <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="59"/>
-      <c r="B41" s="61"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="9"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
@@ -9003,8 +9033,8 @@
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="59"/>
-      <c r="B42" s="62"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="9"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
@@ -9015,7 +9045,7 @@
       <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="59"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
@@ -9027,7 +9057,7 @@
       <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="60"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
@@ -11292,7 +11322,7 @@
       <c r="IX9" s="35"/>
     </row>
     <row r="10" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="32" t="s">
@@ -11564,7 +11594,7 @@
       <c r="IX10" s="12"/>
     </row>
     <row r="11" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="11" t="s">
         <v>31</v>
       </c>
@@ -11834,7 +11864,7 @@
       <c r="IX11" s="12"/>
     </row>
     <row r="12" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="29" t="s">
         <v>34</v>
       </c>
@@ -12632,7 +12662,7 @@
       <c r="IX14" s="35"/>
     </row>
     <row r="15" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="65" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -12904,7 +12934,7 @@
       <c r="IX15" s="12"/>
     </row>
     <row r="16" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="11" t="s">
         <v>39</v>
       </c>
@@ -13172,7 +13202,7 @@
       <c r="IX16" s="12"/>
     </row>
     <row r="17" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="29" t="s">
         <v>41</v>
       </c>
@@ -13453,7 +13483,7 @@
       <c r="IX18" s="46"/>
     </row>
     <row r="19" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="59" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -13477,7 +13507,7 @@
       <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="11" t="s">
         <v>56</v>
       </c>
@@ -13498,7 +13528,7 @@
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="11" t="s">
         <v>51</v>
       </c>
@@ -13520,7 +13550,7 @@
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="29" t="s">
         <v>52</v>
       </c>
@@ -13802,7 +13832,7 @@
       <c r="IX23" s="46"/>
     </row>
     <row r="24" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="59" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="44" t="s">
@@ -13824,7 +13854,7 @@
       <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="25" t="s">
         <v>67</v>
       </c>
@@ -13846,7 +13876,7 @@
       <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="25" t="s">
         <v>70</v>
       </c>
@@ -13870,7 +13900,7 @@
       <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="25" t="s">
         <v>79</v>
       </c>
@@ -13892,7 +13922,7 @@
       <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="25" t="s">
         <v>73</v>
       </c>
@@ -13916,7 +13946,7 @@
       <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="60"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="25" t="s">
         <v>75</v>
       </c>
@@ -13938,7 +13968,7 @@
       <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="59" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -13962,8 +13992,8 @@
       <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
-      <c r="B31" s="61" t="s">
+      <c r="A31" s="60"/>
+      <c r="B31" s="62" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -13984,8 +14014,8 @@
       <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="62"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="9" t="s">
         <v>86</v>
       </c>
@@ -14004,7 +14034,7 @@
       <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="25" t="s">
         <v>91</v>
       </c>
@@ -14026,7 +14056,7 @@
       <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="60"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="25" t="s">
         <v>94</v>
       </c>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -25,10 +25,10 @@
     <author>joe.feng@hotmail.com</author>
   </authors>
   <commentList>
-    <comment ref="C25" authorId="0" shapeId="0">
+    <comment ref="C28" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="G25" authorId="0" shapeId="0">
+    <comment ref="G28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="146">
   <si>
     <t>Comments</t>
   </si>
@@ -738,18 +738,6 @@
   <si>
     <t>{
  "id": -1,
- "name": "",
- "parentId": 1,
- "code": "",
- "key": "",
- "sort": 32,
- "active": true,
- "remark": ""
-}</t>
-  </si>
-  <si>
-    <t>{
- "id": -1,
  "realName": "",
  "code": "",
  "departmentId": 1,
@@ -871,19 +859,115 @@
     <t>Get all permission categories</t>
   </si>
   <si>
+    <t>Get role by id</t>
+  </si>
+  <si>
+    <t>/roles/$roleId</t>
+  </si>
+  <si>
+    <t>{
+                role: {
+                    id: 1,
+                    name: '督办发布员',
+                    categoryId: 1,
+                    users: [
+                        {id: 1, name: '张悦'}
+                    ],
+                    permissions: [1,2,3,4,5],
+                    remark: '督办',
+                    creator: '管理员'
+                }
+            }</t>
+  </si>
+  <si>
+    <t>Search user by name</t>
+  </si>
+  <si>
+    <t>/users/search</t>
+  </si>
+  <si>
+    <t>{
+  "realName": ""
+}</t>
+  </si>
+  <si>
+    <t>{
+  "users": [
+     {
+       "id": 1,
+       "realName": ""
+     }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+ "id": -1,
+ "name": "",
+ "parentId": 1,
+ "code": "",
+ "key": "",
+ "order": 32,
+ "active": true,
+ "remark": ""
+}</t>
+  </si>
+  <si>
+    <t>Get user roles information</t>
+  </si>
+  <si>
+    <t>/users/:userId/roles</t>
+  </si>
+  <si>
+    <t>Get permission</t>
+  </si>
+  <si>
+    <t>/permissions/$permissionId</t>
+  </si>
+  <si>
     <t>{
                 "permissionCategories": [
                     {
                        "id": 1,
-                        "name": '督办',
-                        "permissions": [
+                        "text": '督办',
+                        "nodes": [
                             {
                                 "id": 1,
-                                "name": '督办_默认权限'
+                                "text": '督办_默认权限'
                             }
                         ]
                     }
                 ]
+            }</t>
+  </si>
+  <si>
+    <t>{
+                    id: 1,
+                    name: '周志德',
+                    permissionCategories: [
+                        {
+                            id: 1,
+                            text: '督办',
+                            nodes: [
+                                {
+                                    id: 1,
+                                    text: '督办_默认权限'
+                                }
+                            ]
+                        }
+                    ],
+                    "departments": ["长江证券"],
+                    "remark": '备注'
+                }</t>
+  </si>
+  <si>
+    <t>{
+                "permission": {
+                    "text": '督办_默认权限',
+                    "remark": '访问督办模块的基本信息',
+                    "roles": ["角色1", "角色2"],
+                    "departments": ["部门1", "部门2"]
+                }
             }</t>
   </si>
 </sst>
@@ -1673,11 +1757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IX48"/>
+  <dimension ref="A1:IX51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2813,7 +2897,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="39"/>
@@ -3069,10 +3153,10 @@
     <row r="7" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
       <c r="B7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>25</v>
@@ -3081,7 +3165,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="11"/>
@@ -3340,7 +3424,7 @@
         <v>106</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>25</v>
@@ -3349,7 +3433,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
@@ -3616,10 +3700,10 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>101</v>
@@ -3877,7 +3961,7 @@
     <row r="10" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>105</v>
@@ -3888,10 +3972,10 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="11"/>
@@ -4158,10 +4242,10 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>101</v>
@@ -4419,7 +4503,7 @@
     <row r="12" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
       <c r="B12" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>109</v>
@@ -4430,10 +4514,10 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
@@ -4687,12 +4771,12 @@
       <c r="IX12" s="12"/>
     </row>
     <row r="13" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="11" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>15</v>
@@ -4700,14 +4784,12 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="11" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>101</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="I13" s="9"/>
       <c r="J13" s="11"/>
       <c r="K13" s="9"/>
       <c r="L13" s="12"/>
@@ -4958,288 +5040,298 @@
       <c r="IW13" s="12"/>
       <c r="IX13" s="12"/>
     </row>
-    <row r="14" spans="1:258" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
-      <c r="AR14" s="35"/>
-      <c r="AS14" s="35"/>
-      <c r="AT14" s="35"/>
-      <c r="AU14" s="35"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="35"/>
-      <c r="AX14" s="35"/>
-      <c r="AY14" s="35"/>
-      <c r="AZ14" s="35"/>
-      <c r="BA14" s="35"/>
-      <c r="BB14" s="35"/>
-      <c r="BC14" s="35"/>
-      <c r="BD14" s="35"/>
-      <c r="BE14" s="35"/>
-      <c r="BF14" s="35"/>
-      <c r="BG14" s="35"/>
-      <c r="BH14" s="35"/>
-      <c r="BI14" s="35"/>
-      <c r="BJ14" s="35"/>
-      <c r="BK14" s="35"/>
-      <c r="BL14" s="35"/>
-      <c r="BM14" s="35"/>
-      <c r="BN14" s="35"/>
-      <c r="BO14" s="35"/>
-      <c r="BP14" s="35"/>
-      <c r="BQ14" s="35"/>
-      <c r="BR14" s="35"/>
-      <c r="BS14" s="35"/>
-      <c r="BT14" s="35"/>
-      <c r="BU14" s="35"/>
-      <c r="BV14" s="35"/>
-      <c r="BW14" s="35"/>
-      <c r="BX14" s="35"/>
-      <c r="BY14" s="35"/>
-      <c r="BZ14" s="35"/>
-      <c r="CA14" s="35"/>
-      <c r="CB14" s="35"/>
-      <c r="CC14" s="35"/>
-      <c r="CD14" s="35"/>
-      <c r="CE14" s="35"/>
-      <c r="CF14" s="35"/>
-      <c r="CG14" s="35"/>
-      <c r="CH14" s="35"/>
-      <c r="CI14" s="35"/>
-      <c r="CJ14" s="35"/>
-      <c r="CK14" s="35"/>
-      <c r="CL14" s="35"/>
-      <c r="CM14" s="35"/>
-      <c r="CN14" s="35"/>
-      <c r="CO14" s="35"/>
-      <c r="CP14" s="35"/>
-      <c r="CQ14" s="35"/>
-      <c r="CR14" s="35"/>
-      <c r="CS14" s="35"/>
-      <c r="CT14" s="35"/>
-      <c r="CU14" s="35"/>
-      <c r="CV14" s="35"/>
-      <c r="CW14" s="35"/>
-      <c r="CX14" s="35"/>
-      <c r="CY14" s="35"/>
-      <c r="CZ14" s="35"/>
-      <c r="DA14" s="35"/>
-      <c r="DB14" s="35"/>
-      <c r="DC14" s="35"/>
-      <c r="DD14" s="35"/>
-      <c r="DE14" s="35"/>
-      <c r="DF14" s="35"/>
-      <c r="DG14" s="35"/>
-      <c r="DH14" s="35"/>
-      <c r="DI14" s="35"/>
-      <c r="DJ14" s="35"/>
-      <c r="DK14" s="35"/>
-      <c r="DL14" s="35"/>
-      <c r="DM14" s="35"/>
-      <c r="DN14" s="35"/>
-      <c r="DO14" s="35"/>
-      <c r="DP14" s="35"/>
-      <c r="DQ14" s="35"/>
-      <c r="DR14" s="35"/>
-      <c r="DS14" s="35"/>
-      <c r="DT14" s="35"/>
-      <c r="DU14" s="35"/>
-      <c r="DV14" s="35"/>
-      <c r="DW14" s="35"/>
-      <c r="DX14" s="35"/>
-      <c r="DY14" s="35"/>
-      <c r="DZ14" s="35"/>
-      <c r="EA14" s="35"/>
-      <c r="EB14" s="35"/>
-      <c r="EC14" s="35"/>
-      <c r="ED14" s="35"/>
-      <c r="EE14" s="35"/>
-      <c r="EF14" s="35"/>
-      <c r="EG14" s="35"/>
-      <c r="EH14" s="35"/>
-      <c r="EI14" s="35"/>
-      <c r="EJ14" s="35"/>
-      <c r="EK14" s="35"/>
-      <c r="EL14" s="35"/>
-      <c r="EM14" s="35"/>
-      <c r="EN14" s="35"/>
-      <c r="EO14" s="35"/>
-      <c r="EP14" s="35"/>
-      <c r="EQ14" s="35"/>
-      <c r="ER14" s="35"/>
-      <c r="ES14" s="35"/>
-      <c r="ET14" s="35"/>
-      <c r="EU14" s="35"/>
-      <c r="EV14" s="35"/>
-      <c r="EW14" s="35"/>
-      <c r="EX14" s="35"/>
-      <c r="EY14" s="35"/>
-      <c r="EZ14" s="35"/>
-      <c r="FA14" s="35"/>
-      <c r="FB14" s="35"/>
-      <c r="FC14" s="35"/>
-      <c r="FD14" s="35"/>
-      <c r="FE14" s="35"/>
-      <c r="FF14" s="35"/>
-      <c r="FG14" s="35"/>
-      <c r="FH14" s="35"/>
-      <c r="FI14" s="35"/>
-      <c r="FJ14" s="35"/>
-      <c r="FK14" s="35"/>
-      <c r="FL14" s="35"/>
-      <c r="FM14" s="35"/>
-      <c r="FN14" s="35"/>
-      <c r="FO14" s="35"/>
-      <c r="FP14" s="35"/>
-      <c r="FQ14" s="35"/>
-      <c r="FR14" s="35"/>
-      <c r="FS14" s="35"/>
-      <c r="FT14" s="35"/>
-      <c r="FU14" s="35"/>
-      <c r="FV14" s="35"/>
-      <c r="FW14" s="35"/>
-      <c r="FX14" s="35"/>
-      <c r="FY14" s="35"/>
-      <c r="FZ14" s="35"/>
-      <c r="GA14" s="35"/>
-      <c r="GB14" s="35"/>
-      <c r="GC14" s="35"/>
-      <c r="GD14" s="35"/>
-      <c r="GE14" s="35"/>
-      <c r="GF14" s="35"/>
-      <c r="GG14" s="35"/>
-      <c r="GH14" s="35"/>
-      <c r="GI14" s="35"/>
-      <c r="GJ14" s="35"/>
-      <c r="GK14" s="35"/>
-      <c r="GL14" s="35"/>
-      <c r="GM14" s="35"/>
-      <c r="GN14" s="35"/>
-      <c r="GO14" s="35"/>
-      <c r="GP14" s="35"/>
-      <c r="GQ14" s="35"/>
-      <c r="GR14" s="35"/>
-      <c r="GS14" s="35"/>
-      <c r="GT14" s="35"/>
-      <c r="GU14" s="35"/>
-      <c r="GV14" s="35"/>
-      <c r="GW14" s="35"/>
-      <c r="GX14" s="35"/>
-      <c r="GY14" s="35"/>
-      <c r="GZ14" s="35"/>
-      <c r="HA14" s="35"/>
-      <c r="HB14" s="35"/>
-      <c r="HC14" s="35"/>
-      <c r="HD14" s="35"/>
-      <c r="HE14" s="35"/>
-      <c r="HF14" s="35"/>
-      <c r="HG14" s="35"/>
-      <c r="HH14" s="35"/>
-      <c r="HI14" s="35"/>
-      <c r="HJ14" s="35"/>
-      <c r="HK14" s="35"/>
-      <c r="HL14" s="35"/>
-      <c r="HM14" s="35"/>
-      <c r="HN14" s="35"/>
-      <c r="HO14" s="35"/>
-      <c r="HP14" s="35"/>
-      <c r="HQ14" s="35"/>
-      <c r="HR14" s="35"/>
-      <c r="HS14" s="35"/>
-      <c r="HT14" s="35"/>
-      <c r="HU14" s="35"/>
-      <c r="HV14" s="35"/>
-      <c r="HW14" s="35"/>
-      <c r="HX14" s="35"/>
-      <c r="HY14" s="35"/>
-      <c r="HZ14" s="35"/>
-      <c r="IA14" s="35"/>
-      <c r="IB14" s="35"/>
-      <c r="IC14" s="35"/>
-      <c r="ID14" s="35"/>
-      <c r="IE14" s="35"/>
-      <c r="IF14" s="35"/>
-      <c r="IG14" s="35"/>
-      <c r="IH14" s="35"/>
-      <c r="II14" s="35"/>
-      <c r="IJ14" s="35"/>
-      <c r="IK14" s="35"/>
-      <c r="IL14" s="35"/>
-      <c r="IM14" s="35"/>
-      <c r="IN14" s="35"/>
-      <c r="IO14" s="35"/>
-      <c r="IP14" s="35"/>
-      <c r="IQ14" s="35"/>
-      <c r="IR14" s="35"/>
-      <c r="IS14" s="35"/>
-      <c r="IT14" s="35"/>
-      <c r="IU14" s="35"/>
-      <c r="IV14" s="35"/>
-      <c r="IW14" s="35"/>
-      <c r="IX14" s="35"/>
+    <row r="14" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="57"/>
+      <c r="B14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="12"/>
+      <c r="BH14" s="12"/>
+      <c r="BI14" s="12"/>
+      <c r="BJ14" s="12"/>
+      <c r="BK14" s="12"/>
+      <c r="BL14" s="12"/>
+      <c r="BM14" s="12"/>
+      <c r="BN14" s="12"/>
+      <c r="BO14" s="12"/>
+      <c r="BP14" s="12"/>
+      <c r="BQ14" s="12"/>
+      <c r="BR14" s="12"/>
+      <c r="BS14" s="12"/>
+      <c r="BT14" s="12"/>
+      <c r="BU14" s="12"/>
+      <c r="BV14" s="12"/>
+      <c r="BW14" s="12"/>
+      <c r="BX14" s="12"/>
+      <c r="BY14" s="12"/>
+      <c r="BZ14" s="12"/>
+      <c r="CA14" s="12"/>
+      <c r="CB14" s="12"/>
+      <c r="CC14" s="12"/>
+      <c r="CD14" s="12"/>
+      <c r="CE14" s="12"/>
+      <c r="CF14" s="12"/>
+      <c r="CG14" s="12"/>
+      <c r="CH14" s="12"/>
+      <c r="CI14" s="12"/>
+      <c r="CJ14" s="12"/>
+      <c r="CK14" s="12"/>
+      <c r="CL14" s="12"/>
+      <c r="CM14" s="12"/>
+      <c r="CN14" s="12"/>
+      <c r="CO14" s="12"/>
+      <c r="CP14" s="12"/>
+      <c r="CQ14" s="12"/>
+      <c r="CR14" s="12"/>
+      <c r="CS14" s="12"/>
+      <c r="CT14" s="12"/>
+      <c r="CU14" s="12"/>
+      <c r="CV14" s="12"/>
+      <c r="CW14" s="12"/>
+      <c r="CX14" s="12"/>
+      <c r="CY14" s="12"/>
+      <c r="CZ14" s="12"/>
+      <c r="DA14" s="12"/>
+      <c r="DB14" s="12"/>
+      <c r="DC14" s="12"/>
+      <c r="DD14" s="12"/>
+      <c r="DE14" s="12"/>
+      <c r="DF14" s="12"/>
+      <c r="DG14" s="12"/>
+      <c r="DH14" s="12"/>
+      <c r="DI14" s="12"/>
+      <c r="DJ14" s="12"/>
+      <c r="DK14" s="12"/>
+      <c r="DL14" s="12"/>
+      <c r="DM14" s="12"/>
+      <c r="DN14" s="12"/>
+      <c r="DO14" s="12"/>
+      <c r="DP14" s="12"/>
+      <c r="DQ14" s="12"/>
+      <c r="DR14" s="12"/>
+      <c r="DS14" s="12"/>
+      <c r="DT14" s="12"/>
+      <c r="DU14" s="12"/>
+      <c r="DV14" s="12"/>
+      <c r="DW14" s="12"/>
+      <c r="DX14" s="12"/>
+      <c r="DY14" s="12"/>
+      <c r="DZ14" s="12"/>
+      <c r="EA14" s="12"/>
+      <c r="EB14" s="12"/>
+      <c r="EC14" s="12"/>
+      <c r="ED14" s="12"/>
+      <c r="EE14" s="12"/>
+      <c r="EF14" s="12"/>
+      <c r="EG14" s="12"/>
+      <c r="EH14" s="12"/>
+      <c r="EI14" s="12"/>
+      <c r="EJ14" s="12"/>
+      <c r="EK14" s="12"/>
+      <c r="EL14" s="12"/>
+      <c r="EM14" s="12"/>
+      <c r="EN14" s="12"/>
+      <c r="EO14" s="12"/>
+      <c r="EP14" s="12"/>
+      <c r="EQ14" s="12"/>
+      <c r="ER14" s="12"/>
+      <c r="ES14" s="12"/>
+      <c r="ET14" s="12"/>
+      <c r="EU14" s="12"/>
+      <c r="EV14" s="12"/>
+      <c r="EW14" s="12"/>
+      <c r="EX14" s="12"/>
+      <c r="EY14" s="12"/>
+      <c r="EZ14" s="12"/>
+      <c r="FA14" s="12"/>
+      <c r="FB14" s="12"/>
+      <c r="FC14" s="12"/>
+      <c r="FD14" s="12"/>
+      <c r="FE14" s="12"/>
+      <c r="FF14" s="12"/>
+      <c r="FG14" s="12"/>
+      <c r="FH14" s="12"/>
+      <c r="FI14" s="12"/>
+      <c r="FJ14" s="12"/>
+      <c r="FK14" s="12"/>
+      <c r="FL14" s="12"/>
+      <c r="FM14" s="12"/>
+      <c r="FN14" s="12"/>
+      <c r="FO14" s="12"/>
+      <c r="FP14" s="12"/>
+      <c r="FQ14" s="12"/>
+      <c r="FR14" s="12"/>
+      <c r="FS14" s="12"/>
+      <c r="FT14" s="12"/>
+      <c r="FU14" s="12"/>
+      <c r="FV14" s="12"/>
+      <c r="FW14" s="12"/>
+      <c r="FX14" s="12"/>
+      <c r="FY14" s="12"/>
+      <c r="FZ14" s="12"/>
+      <c r="GA14" s="12"/>
+      <c r="GB14" s="12"/>
+      <c r="GC14" s="12"/>
+      <c r="GD14" s="12"/>
+      <c r="GE14" s="12"/>
+      <c r="GF14" s="12"/>
+      <c r="GG14" s="12"/>
+      <c r="GH14" s="12"/>
+      <c r="GI14" s="12"/>
+      <c r="GJ14" s="12"/>
+      <c r="GK14" s="12"/>
+      <c r="GL14" s="12"/>
+      <c r="GM14" s="12"/>
+      <c r="GN14" s="12"/>
+      <c r="GO14" s="12"/>
+      <c r="GP14" s="12"/>
+      <c r="GQ14" s="12"/>
+      <c r="GR14" s="12"/>
+      <c r="GS14" s="12"/>
+      <c r="GT14" s="12"/>
+      <c r="GU14" s="12"/>
+      <c r="GV14" s="12"/>
+      <c r="GW14" s="12"/>
+      <c r="GX14" s="12"/>
+      <c r="GY14" s="12"/>
+      <c r="GZ14" s="12"/>
+      <c r="HA14" s="12"/>
+      <c r="HB14" s="12"/>
+      <c r="HC14" s="12"/>
+      <c r="HD14" s="12"/>
+      <c r="HE14" s="12"/>
+      <c r="HF14" s="12"/>
+      <c r="HG14" s="12"/>
+      <c r="HH14" s="12"/>
+      <c r="HI14" s="12"/>
+      <c r="HJ14" s="12"/>
+      <c r="HK14" s="12"/>
+      <c r="HL14" s="12"/>
+      <c r="HM14" s="12"/>
+      <c r="HN14" s="12"/>
+      <c r="HO14" s="12"/>
+      <c r="HP14" s="12"/>
+      <c r="HQ14" s="12"/>
+      <c r="HR14" s="12"/>
+      <c r="HS14" s="12"/>
+      <c r="HT14" s="12"/>
+      <c r="HU14" s="12"/>
+      <c r="HV14" s="12"/>
+      <c r="HW14" s="12"/>
+      <c r="HX14" s="12"/>
+      <c r="HY14" s="12"/>
+      <c r="HZ14" s="12"/>
+      <c r="IA14" s="12"/>
+      <c r="IB14" s="12"/>
+      <c r="IC14" s="12"/>
+      <c r="ID14" s="12"/>
+      <c r="IE14" s="12"/>
+      <c r="IF14" s="12"/>
+      <c r="IG14" s="12"/>
+      <c r="IH14" s="12"/>
+      <c r="II14" s="12"/>
+      <c r="IJ14" s="12"/>
+      <c r="IK14" s="12"/>
+      <c r="IL14" s="12"/>
+      <c r="IM14" s="12"/>
+      <c r="IN14" s="12"/>
+      <c r="IO14" s="12"/>
+      <c r="IP14" s="12"/>
+      <c r="IQ14" s="12"/>
+      <c r="IR14" s="12"/>
+      <c r="IS14" s="12"/>
+      <c r="IT14" s="12"/>
+      <c r="IU14" s="12"/>
+      <c r="IV14" s="12"/>
+      <c r="IW14" s="12"/>
+      <c r="IX14" s="12"/>
     </row>
     <row r="15" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="37"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -5488,286 +5580,288 @@
       <c r="IW15" s="12"/>
       <c r="IX15" s="12"/>
     </row>
-    <row r="16" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
-      <c r="B16" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="12"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="12"/>
-      <c r="AZ16" s="12"/>
-      <c r="BA16" s="12"/>
-      <c r="BB16" s="12"/>
-      <c r="BC16" s="12"/>
-      <c r="BD16" s="12"/>
-      <c r="BE16" s="12"/>
-      <c r="BF16" s="12"/>
-      <c r="BG16" s="12"/>
-      <c r="BH16" s="12"/>
-      <c r="BI16" s="12"/>
-      <c r="BJ16" s="12"/>
-      <c r="BK16" s="12"/>
-      <c r="BL16" s="12"/>
-      <c r="BM16" s="12"/>
-      <c r="BN16" s="12"/>
-      <c r="BO16" s="12"/>
-      <c r="BP16" s="12"/>
-      <c r="BQ16" s="12"/>
-      <c r="BR16" s="12"/>
-      <c r="BS16" s="12"/>
-      <c r="BT16" s="12"/>
-      <c r="BU16" s="12"/>
-      <c r="BV16" s="12"/>
-      <c r="BW16" s="12"/>
-      <c r="BX16" s="12"/>
-      <c r="BY16" s="12"/>
-      <c r="BZ16" s="12"/>
-      <c r="CA16" s="12"/>
-      <c r="CB16" s="12"/>
-      <c r="CC16" s="12"/>
-      <c r="CD16" s="12"/>
-      <c r="CE16" s="12"/>
-      <c r="CF16" s="12"/>
-      <c r="CG16" s="12"/>
-      <c r="CH16" s="12"/>
-      <c r="CI16" s="12"/>
-      <c r="CJ16" s="12"/>
-      <c r="CK16" s="12"/>
-      <c r="CL16" s="12"/>
-      <c r="CM16" s="12"/>
-      <c r="CN16" s="12"/>
-      <c r="CO16" s="12"/>
-      <c r="CP16" s="12"/>
-      <c r="CQ16" s="12"/>
-      <c r="CR16" s="12"/>
-      <c r="CS16" s="12"/>
-      <c r="CT16" s="12"/>
-      <c r="CU16" s="12"/>
-      <c r="CV16" s="12"/>
-      <c r="CW16" s="12"/>
-      <c r="CX16" s="12"/>
-      <c r="CY16" s="12"/>
-      <c r="CZ16" s="12"/>
-      <c r="DA16" s="12"/>
-      <c r="DB16" s="12"/>
-      <c r="DC16" s="12"/>
-      <c r="DD16" s="12"/>
-      <c r="DE16" s="12"/>
-      <c r="DF16" s="12"/>
-      <c r="DG16" s="12"/>
-      <c r="DH16" s="12"/>
-      <c r="DI16" s="12"/>
-      <c r="DJ16" s="12"/>
-      <c r="DK16" s="12"/>
-      <c r="DL16" s="12"/>
-      <c r="DM16" s="12"/>
-      <c r="DN16" s="12"/>
-      <c r="DO16" s="12"/>
-      <c r="DP16" s="12"/>
-      <c r="DQ16" s="12"/>
-      <c r="DR16" s="12"/>
-      <c r="DS16" s="12"/>
-      <c r="DT16" s="12"/>
-      <c r="DU16" s="12"/>
-      <c r="DV16" s="12"/>
-      <c r="DW16" s="12"/>
-      <c r="DX16" s="12"/>
-      <c r="DY16" s="12"/>
-      <c r="DZ16" s="12"/>
-      <c r="EA16" s="12"/>
-      <c r="EB16" s="12"/>
-      <c r="EC16" s="12"/>
-      <c r="ED16" s="12"/>
-      <c r="EE16" s="12"/>
-      <c r="EF16" s="12"/>
-      <c r="EG16" s="12"/>
-      <c r="EH16" s="12"/>
-      <c r="EI16" s="12"/>
-      <c r="EJ16" s="12"/>
-      <c r="EK16" s="12"/>
-      <c r="EL16" s="12"/>
-      <c r="EM16" s="12"/>
-      <c r="EN16" s="12"/>
-      <c r="EO16" s="12"/>
-      <c r="EP16" s="12"/>
-      <c r="EQ16" s="12"/>
-      <c r="ER16" s="12"/>
-      <c r="ES16" s="12"/>
-      <c r="ET16" s="12"/>
-      <c r="EU16" s="12"/>
-      <c r="EV16" s="12"/>
-      <c r="EW16" s="12"/>
-      <c r="EX16" s="12"/>
-      <c r="EY16" s="12"/>
-      <c r="EZ16" s="12"/>
-      <c r="FA16" s="12"/>
-      <c r="FB16" s="12"/>
-      <c r="FC16" s="12"/>
-      <c r="FD16" s="12"/>
-      <c r="FE16" s="12"/>
-      <c r="FF16" s="12"/>
-      <c r="FG16" s="12"/>
-      <c r="FH16" s="12"/>
-      <c r="FI16" s="12"/>
-      <c r="FJ16" s="12"/>
-      <c r="FK16" s="12"/>
-      <c r="FL16" s="12"/>
-      <c r="FM16" s="12"/>
-      <c r="FN16" s="12"/>
-      <c r="FO16" s="12"/>
-      <c r="FP16" s="12"/>
-      <c r="FQ16" s="12"/>
-      <c r="FR16" s="12"/>
-      <c r="FS16" s="12"/>
-      <c r="FT16" s="12"/>
-      <c r="FU16" s="12"/>
-      <c r="FV16" s="12"/>
-      <c r="FW16" s="12"/>
-      <c r="FX16" s="12"/>
-      <c r="FY16" s="12"/>
-      <c r="FZ16" s="12"/>
-      <c r="GA16" s="12"/>
-      <c r="GB16" s="12"/>
-      <c r="GC16" s="12"/>
-      <c r="GD16" s="12"/>
-      <c r="GE16" s="12"/>
-      <c r="GF16" s="12"/>
-      <c r="GG16" s="12"/>
-      <c r="GH16" s="12"/>
-      <c r="GI16" s="12"/>
-      <c r="GJ16" s="12"/>
-      <c r="GK16" s="12"/>
-      <c r="GL16" s="12"/>
-      <c r="GM16" s="12"/>
-      <c r="GN16" s="12"/>
-      <c r="GO16" s="12"/>
-      <c r="GP16" s="12"/>
-      <c r="GQ16" s="12"/>
-      <c r="GR16" s="12"/>
-      <c r="GS16" s="12"/>
-      <c r="GT16" s="12"/>
-      <c r="GU16" s="12"/>
-      <c r="GV16" s="12"/>
-      <c r="GW16" s="12"/>
-      <c r="GX16" s="12"/>
-      <c r="GY16" s="12"/>
-      <c r="GZ16" s="12"/>
-      <c r="HA16" s="12"/>
-      <c r="HB16" s="12"/>
-      <c r="HC16" s="12"/>
-      <c r="HD16" s="12"/>
-      <c r="HE16" s="12"/>
-      <c r="HF16" s="12"/>
-      <c r="HG16" s="12"/>
-      <c r="HH16" s="12"/>
-      <c r="HI16" s="12"/>
-      <c r="HJ16" s="12"/>
-      <c r="HK16" s="12"/>
-      <c r="HL16" s="12"/>
-      <c r="HM16" s="12"/>
-      <c r="HN16" s="12"/>
-      <c r="HO16" s="12"/>
-      <c r="HP16" s="12"/>
-      <c r="HQ16" s="12"/>
-      <c r="HR16" s="12"/>
-      <c r="HS16" s="12"/>
-      <c r="HT16" s="12"/>
-      <c r="HU16" s="12"/>
-      <c r="HV16" s="12"/>
-      <c r="HW16" s="12"/>
-      <c r="HX16" s="12"/>
-      <c r="HY16" s="12"/>
-      <c r="HZ16" s="12"/>
-      <c r="IA16" s="12"/>
-      <c r="IB16" s="12"/>
-      <c r="IC16" s="12"/>
-      <c r="ID16" s="12"/>
-      <c r="IE16" s="12"/>
-      <c r="IF16" s="12"/>
-      <c r="IG16" s="12"/>
-      <c r="IH16" s="12"/>
-      <c r="II16" s="12"/>
-      <c r="IJ16" s="12"/>
-      <c r="IK16" s="12"/>
-      <c r="IL16" s="12"/>
-      <c r="IM16" s="12"/>
-      <c r="IN16" s="12"/>
-      <c r="IO16" s="12"/>
-      <c r="IP16" s="12"/>
-      <c r="IQ16" s="12"/>
-      <c r="IR16" s="12"/>
-      <c r="IS16" s="12"/>
-      <c r="IT16" s="12"/>
-      <c r="IU16" s="12"/>
-      <c r="IV16" s="12"/>
-      <c r="IW16" s="12"/>
-      <c r="IX16" s="12"/>
+    <row r="16" spans="1:258" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="35"/>
+      <c r="AQ16" s="35"/>
+      <c r="AR16" s="35"/>
+      <c r="AS16" s="35"/>
+      <c r="AT16" s="35"/>
+      <c r="AU16" s="35"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="35"/>
+      <c r="AX16" s="35"/>
+      <c r="AY16" s="35"/>
+      <c r="AZ16" s="35"/>
+      <c r="BA16" s="35"/>
+      <c r="BB16" s="35"/>
+      <c r="BC16" s="35"/>
+      <c r="BD16" s="35"/>
+      <c r="BE16" s="35"/>
+      <c r="BF16" s="35"/>
+      <c r="BG16" s="35"/>
+      <c r="BH16" s="35"/>
+      <c r="BI16" s="35"/>
+      <c r="BJ16" s="35"/>
+      <c r="BK16" s="35"/>
+      <c r="BL16" s="35"/>
+      <c r="BM16" s="35"/>
+      <c r="BN16" s="35"/>
+      <c r="BO16" s="35"/>
+      <c r="BP16" s="35"/>
+      <c r="BQ16" s="35"/>
+      <c r="BR16" s="35"/>
+      <c r="BS16" s="35"/>
+      <c r="BT16" s="35"/>
+      <c r="BU16" s="35"/>
+      <c r="BV16" s="35"/>
+      <c r="BW16" s="35"/>
+      <c r="BX16" s="35"/>
+      <c r="BY16" s="35"/>
+      <c r="BZ16" s="35"/>
+      <c r="CA16" s="35"/>
+      <c r="CB16" s="35"/>
+      <c r="CC16" s="35"/>
+      <c r="CD16" s="35"/>
+      <c r="CE16" s="35"/>
+      <c r="CF16" s="35"/>
+      <c r="CG16" s="35"/>
+      <c r="CH16" s="35"/>
+      <c r="CI16" s="35"/>
+      <c r="CJ16" s="35"/>
+      <c r="CK16" s="35"/>
+      <c r="CL16" s="35"/>
+      <c r="CM16" s="35"/>
+      <c r="CN16" s="35"/>
+      <c r="CO16" s="35"/>
+      <c r="CP16" s="35"/>
+      <c r="CQ16" s="35"/>
+      <c r="CR16" s="35"/>
+      <c r="CS16" s="35"/>
+      <c r="CT16" s="35"/>
+      <c r="CU16" s="35"/>
+      <c r="CV16" s="35"/>
+      <c r="CW16" s="35"/>
+      <c r="CX16" s="35"/>
+      <c r="CY16" s="35"/>
+      <c r="CZ16" s="35"/>
+      <c r="DA16" s="35"/>
+      <c r="DB16" s="35"/>
+      <c r="DC16" s="35"/>
+      <c r="DD16" s="35"/>
+      <c r="DE16" s="35"/>
+      <c r="DF16" s="35"/>
+      <c r="DG16" s="35"/>
+      <c r="DH16" s="35"/>
+      <c r="DI16" s="35"/>
+      <c r="DJ16" s="35"/>
+      <c r="DK16" s="35"/>
+      <c r="DL16" s="35"/>
+      <c r="DM16" s="35"/>
+      <c r="DN16" s="35"/>
+      <c r="DO16" s="35"/>
+      <c r="DP16" s="35"/>
+      <c r="DQ16" s="35"/>
+      <c r="DR16" s="35"/>
+      <c r="DS16" s="35"/>
+      <c r="DT16" s="35"/>
+      <c r="DU16" s="35"/>
+      <c r="DV16" s="35"/>
+      <c r="DW16" s="35"/>
+      <c r="DX16" s="35"/>
+      <c r="DY16" s="35"/>
+      <c r="DZ16" s="35"/>
+      <c r="EA16" s="35"/>
+      <c r="EB16" s="35"/>
+      <c r="EC16" s="35"/>
+      <c r="ED16" s="35"/>
+      <c r="EE16" s="35"/>
+      <c r="EF16" s="35"/>
+      <c r="EG16" s="35"/>
+      <c r="EH16" s="35"/>
+      <c r="EI16" s="35"/>
+      <c r="EJ16" s="35"/>
+      <c r="EK16" s="35"/>
+      <c r="EL16" s="35"/>
+      <c r="EM16" s="35"/>
+      <c r="EN16" s="35"/>
+      <c r="EO16" s="35"/>
+      <c r="EP16" s="35"/>
+      <c r="EQ16" s="35"/>
+      <c r="ER16" s="35"/>
+      <c r="ES16" s="35"/>
+      <c r="ET16" s="35"/>
+      <c r="EU16" s="35"/>
+      <c r="EV16" s="35"/>
+      <c r="EW16" s="35"/>
+      <c r="EX16" s="35"/>
+      <c r="EY16" s="35"/>
+      <c r="EZ16" s="35"/>
+      <c r="FA16" s="35"/>
+      <c r="FB16" s="35"/>
+      <c r="FC16" s="35"/>
+      <c r="FD16" s="35"/>
+      <c r="FE16" s="35"/>
+      <c r="FF16" s="35"/>
+      <c r="FG16" s="35"/>
+      <c r="FH16" s="35"/>
+      <c r="FI16" s="35"/>
+      <c r="FJ16" s="35"/>
+      <c r="FK16" s="35"/>
+      <c r="FL16" s="35"/>
+      <c r="FM16" s="35"/>
+      <c r="FN16" s="35"/>
+      <c r="FO16" s="35"/>
+      <c r="FP16" s="35"/>
+      <c r="FQ16" s="35"/>
+      <c r="FR16" s="35"/>
+      <c r="FS16" s="35"/>
+      <c r="FT16" s="35"/>
+      <c r="FU16" s="35"/>
+      <c r="FV16" s="35"/>
+      <c r="FW16" s="35"/>
+      <c r="FX16" s="35"/>
+      <c r="FY16" s="35"/>
+      <c r="FZ16" s="35"/>
+      <c r="GA16" s="35"/>
+      <c r="GB16" s="35"/>
+      <c r="GC16" s="35"/>
+      <c r="GD16" s="35"/>
+      <c r="GE16" s="35"/>
+      <c r="GF16" s="35"/>
+      <c r="GG16" s="35"/>
+      <c r="GH16" s="35"/>
+      <c r="GI16" s="35"/>
+      <c r="GJ16" s="35"/>
+      <c r="GK16" s="35"/>
+      <c r="GL16" s="35"/>
+      <c r="GM16" s="35"/>
+      <c r="GN16" s="35"/>
+      <c r="GO16" s="35"/>
+      <c r="GP16" s="35"/>
+      <c r="GQ16" s="35"/>
+      <c r="GR16" s="35"/>
+      <c r="GS16" s="35"/>
+      <c r="GT16" s="35"/>
+      <c r="GU16" s="35"/>
+      <c r="GV16" s="35"/>
+      <c r="GW16" s="35"/>
+      <c r="GX16" s="35"/>
+      <c r="GY16" s="35"/>
+      <c r="GZ16" s="35"/>
+      <c r="HA16" s="35"/>
+      <c r="HB16" s="35"/>
+      <c r="HC16" s="35"/>
+      <c r="HD16" s="35"/>
+      <c r="HE16" s="35"/>
+      <c r="HF16" s="35"/>
+      <c r="HG16" s="35"/>
+      <c r="HH16" s="35"/>
+      <c r="HI16" s="35"/>
+      <c r="HJ16" s="35"/>
+      <c r="HK16" s="35"/>
+      <c r="HL16" s="35"/>
+      <c r="HM16" s="35"/>
+      <c r="HN16" s="35"/>
+      <c r="HO16" s="35"/>
+      <c r="HP16" s="35"/>
+      <c r="HQ16" s="35"/>
+      <c r="HR16" s="35"/>
+      <c r="HS16" s="35"/>
+      <c r="HT16" s="35"/>
+      <c r="HU16" s="35"/>
+      <c r="HV16" s="35"/>
+      <c r="HW16" s="35"/>
+      <c r="HX16" s="35"/>
+      <c r="HY16" s="35"/>
+      <c r="HZ16" s="35"/>
+      <c r="IA16" s="35"/>
+      <c r="IB16" s="35"/>
+      <c r="IC16" s="35"/>
+      <c r="ID16" s="35"/>
+      <c r="IE16" s="35"/>
+      <c r="IF16" s="35"/>
+      <c r="IG16" s="35"/>
+      <c r="IH16" s="35"/>
+      <c r="II16" s="35"/>
+      <c r="IJ16" s="35"/>
+      <c r="IK16" s="35"/>
+      <c r="IL16" s="35"/>
+      <c r="IM16" s="35"/>
+      <c r="IN16" s="35"/>
+      <c r="IO16" s="35"/>
+      <c r="IP16" s="35"/>
+      <c r="IQ16" s="35"/>
+      <c r="IR16" s="35"/>
+      <c r="IS16" s="35"/>
+      <c r="IT16" s="35"/>
+      <c r="IU16" s="35"/>
+      <c r="IV16" s="35"/>
+      <c r="IW16" s="35"/>
+      <c r="IX16" s="35"/>
     </row>
     <row r="17" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="9"/>
+      <c r="A17" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -6017,14 +6111,22 @@
       <c r="IX17" s="12"/>
     </row>
     <row r="18" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="55"/>
-      <c r="H18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="9"/>
@@ -6276,278 +6378,294 @@
       <c r="IW18" s="12"/>
       <c r="IX18" s="12"/>
     </row>
-    <row r="19" spans="1:258" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="35"/>
-      <c r="AQ19" s="35"/>
-      <c r="AR19" s="35"/>
-      <c r="AS19" s="35"/>
-      <c r="AT19" s="35"/>
-      <c r="AU19" s="35"/>
-      <c r="AV19" s="35"/>
-      <c r="AW19" s="35"/>
-      <c r="AX19" s="35"/>
-      <c r="AY19" s="35"/>
-      <c r="AZ19" s="35"/>
-      <c r="BA19" s="35"/>
-      <c r="BB19" s="35"/>
-      <c r="BC19" s="35"/>
-      <c r="BD19" s="35"/>
-      <c r="BE19" s="35"/>
-      <c r="BF19" s="35"/>
-      <c r="BG19" s="35"/>
-      <c r="BH19" s="35"/>
-      <c r="BI19" s="35"/>
-      <c r="BJ19" s="35"/>
-      <c r="BK19" s="35"/>
-      <c r="BL19" s="35"/>
-      <c r="BM19" s="35"/>
-      <c r="BN19" s="35"/>
-      <c r="BO19" s="35"/>
-      <c r="BP19" s="35"/>
-      <c r="BQ19" s="35"/>
-      <c r="BR19" s="35"/>
-      <c r="BS19" s="35"/>
-      <c r="BT19" s="35"/>
-      <c r="BU19" s="35"/>
-      <c r="BV19" s="35"/>
-      <c r="BW19" s="35"/>
-      <c r="BX19" s="35"/>
-      <c r="BY19" s="35"/>
-      <c r="BZ19" s="35"/>
-      <c r="CA19" s="35"/>
-      <c r="CB19" s="35"/>
-      <c r="CC19" s="35"/>
-      <c r="CD19" s="35"/>
-      <c r="CE19" s="35"/>
-      <c r="CF19" s="35"/>
-      <c r="CG19" s="35"/>
-      <c r="CH19" s="35"/>
-      <c r="CI19" s="35"/>
-      <c r="CJ19" s="35"/>
-      <c r="CK19" s="35"/>
-      <c r="CL19" s="35"/>
-      <c r="CM19" s="35"/>
-      <c r="CN19" s="35"/>
-      <c r="CO19" s="35"/>
-      <c r="CP19" s="35"/>
-      <c r="CQ19" s="35"/>
-      <c r="CR19" s="35"/>
-      <c r="CS19" s="35"/>
-      <c r="CT19" s="35"/>
-      <c r="CU19" s="35"/>
-      <c r="CV19" s="35"/>
-      <c r="CW19" s="35"/>
-      <c r="CX19" s="35"/>
-      <c r="CY19" s="35"/>
-      <c r="CZ19" s="35"/>
-      <c r="DA19" s="35"/>
-      <c r="DB19" s="35"/>
-      <c r="DC19" s="35"/>
-      <c r="DD19" s="35"/>
-      <c r="DE19" s="35"/>
-      <c r="DF19" s="35"/>
-      <c r="DG19" s="35"/>
-      <c r="DH19" s="35"/>
-      <c r="DI19" s="35"/>
-      <c r="DJ19" s="35"/>
-      <c r="DK19" s="35"/>
-      <c r="DL19" s="35"/>
-      <c r="DM19" s="35"/>
-      <c r="DN19" s="35"/>
-      <c r="DO19" s="35"/>
-      <c r="DP19" s="35"/>
-      <c r="DQ19" s="35"/>
-      <c r="DR19" s="35"/>
-      <c r="DS19" s="35"/>
-      <c r="DT19" s="35"/>
-      <c r="DU19" s="35"/>
-      <c r="DV19" s="35"/>
-      <c r="DW19" s="35"/>
-      <c r="DX19" s="35"/>
-      <c r="DY19" s="35"/>
-      <c r="DZ19" s="35"/>
-      <c r="EA19" s="35"/>
-      <c r="EB19" s="35"/>
-      <c r="EC19" s="35"/>
-      <c r="ED19" s="35"/>
-      <c r="EE19" s="35"/>
-      <c r="EF19" s="35"/>
-      <c r="EG19" s="35"/>
-      <c r="EH19" s="35"/>
-      <c r="EI19" s="35"/>
-      <c r="EJ19" s="35"/>
-      <c r="EK19" s="35"/>
-      <c r="EL19" s="35"/>
-      <c r="EM19" s="35"/>
-      <c r="EN19" s="35"/>
-      <c r="EO19" s="35"/>
-      <c r="EP19" s="35"/>
-      <c r="EQ19" s="35"/>
-      <c r="ER19" s="35"/>
-      <c r="ES19" s="35"/>
-      <c r="ET19" s="35"/>
-      <c r="EU19" s="35"/>
-      <c r="EV19" s="35"/>
-      <c r="EW19" s="35"/>
-      <c r="EX19" s="35"/>
-      <c r="EY19" s="35"/>
-      <c r="EZ19" s="35"/>
-      <c r="FA19" s="35"/>
-      <c r="FB19" s="35"/>
-      <c r="FC19" s="35"/>
-      <c r="FD19" s="35"/>
-      <c r="FE19" s="35"/>
-      <c r="FF19" s="35"/>
-      <c r="FG19" s="35"/>
-      <c r="FH19" s="35"/>
-      <c r="FI19" s="35"/>
-      <c r="FJ19" s="35"/>
-      <c r="FK19" s="35"/>
-      <c r="FL19" s="35"/>
-      <c r="FM19" s="35"/>
-      <c r="FN19" s="35"/>
-      <c r="FO19" s="35"/>
-      <c r="FP19" s="35"/>
-      <c r="FQ19" s="35"/>
-      <c r="FR19" s="35"/>
-      <c r="FS19" s="35"/>
-      <c r="FT19" s="35"/>
-      <c r="FU19" s="35"/>
-      <c r="FV19" s="35"/>
-      <c r="FW19" s="35"/>
-      <c r="FX19" s="35"/>
-      <c r="FY19" s="35"/>
-      <c r="FZ19" s="35"/>
-      <c r="GA19" s="35"/>
-      <c r="GB19" s="35"/>
-      <c r="GC19" s="35"/>
-      <c r="GD19" s="35"/>
-      <c r="GE19" s="35"/>
-      <c r="GF19" s="35"/>
-      <c r="GG19" s="35"/>
-      <c r="GH19" s="35"/>
-      <c r="GI19" s="35"/>
-      <c r="GJ19" s="35"/>
-      <c r="GK19" s="35"/>
-      <c r="GL19" s="35"/>
-      <c r="GM19" s="35"/>
-      <c r="GN19" s="35"/>
-      <c r="GO19" s="35"/>
-      <c r="GP19" s="35"/>
-      <c r="GQ19" s="35"/>
-      <c r="GR19" s="35"/>
-      <c r="GS19" s="35"/>
-      <c r="GT19" s="35"/>
-      <c r="GU19" s="35"/>
-      <c r="GV19" s="35"/>
-      <c r="GW19" s="35"/>
-      <c r="GX19" s="35"/>
-      <c r="GY19" s="35"/>
-      <c r="GZ19" s="35"/>
-      <c r="HA19" s="35"/>
-      <c r="HB19" s="35"/>
-      <c r="HC19" s="35"/>
-      <c r="HD19" s="35"/>
-      <c r="HE19" s="35"/>
-      <c r="HF19" s="35"/>
-      <c r="HG19" s="35"/>
-      <c r="HH19" s="35"/>
-      <c r="HI19" s="35"/>
-      <c r="HJ19" s="35"/>
-      <c r="HK19" s="35"/>
-      <c r="HL19" s="35"/>
-      <c r="HM19" s="35"/>
-      <c r="HN19" s="35"/>
-      <c r="HO19" s="35"/>
-      <c r="HP19" s="35"/>
-      <c r="HQ19" s="35"/>
-      <c r="HR19" s="35"/>
-      <c r="HS19" s="35"/>
-      <c r="HT19" s="35"/>
-      <c r="HU19" s="35"/>
-      <c r="HV19" s="35"/>
-      <c r="HW19" s="35"/>
-      <c r="HX19" s="35"/>
-      <c r="HY19" s="35"/>
-      <c r="HZ19" s="35"/>
-      <c r="IA19" s="35"/>
-      <c r="IB19" s="35"/>
-      <c r="IC19" s="35"/>
-      <c r="ID19" s="35"/>
-      <c r="IE19" s="35"/>
-      <c r="IF19" s="35"/>
-      <c r="IG19" s="35"/>
-      <c r="IH19" s="35"/>
-      <c r="II19" s="35"/>
-      <c r="IJ19" s="35"/>
-      <c r="IK19" s="35"/>
-      <c r="IL19" s="35"/>
-      <c r="IM19" s="35"/>
-      <c r="IN19" s="35"/>
-      <c r="IO19" s="35"/>
-      <c r="IP19" s="35"/>
-      <c r="IQ19" s="35"/>
-      <c r="IR19" s="35"/>
-      <c r="IS19" s="35"/>
-      <c r="IT19" s="35"/>
-      <c r="IU19" s="35"/>
-      <c r="IV19" s="35"/>
-      <c r="IW19" s="35"/>
-      <c r="IX19" s="35"/>
+    <row r="19" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="66"/>
+      <c r="B19" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+      <c r="BH19" s="12"/>
+      <c r="BI19" s="12"/>
+      <c r="BJ19" s="12"/>
+      <c r="BK19" s="12"/>
+      <c r="BL19" s="12"/>
+      <c r="BM19" s="12"/>
+      <c r="BN19" s="12"/>
+      <c r="BO19" s="12"/>
+      <c r="BP19" s="12"/>
+      <c r="BQ19" s="12"/>
+      <c r="BR19" s="12"/>
+      <c r="BS19" s="12"/>
+      <c r="BT19" s="12"/>
+      <c r="BU19" s="12"/>
+      <c r="BV19" s="12"/>
+      <c r="BW19" s="12"/>
+      <c r="BX19" s="12"/>
+      <c r="BY19" s="12"/>
+      <c r="BZ19" s="12"/>
+      <c r="CA19" s="12"/>
+      <c r="CB19" s="12"/>
+      <c r="CC19" s="12"/>
+      <c r="CD19" s="12"/>
+      <c r="CE19" s="12"/>
+      <c r="CF19" s="12"/>
+      <c r="CG19" s="12"/>
+      <c r="CH19" s="12"/>
+      <c r="CI19" s="12"/>
+      <c r="CJ19" s="12"/>
+      <c r="CK19" s="12"/>
+      <c r="CL19" s="12"/>
+      <c r="CM19" s="12"/>
+      <c r="CN19" s="12"/>
+      <c r="CO19" s="12"/>
+      <c r="CP19" s="12"/>
+      <c r="CQ19" s="12"/>
+      <c r="CR19" s="12"/>
+      <c r="CS19" s="12"/>
+      <c r="CT19" s="12"/>
+      <c r="CU19" s="12"/>
+      <c r="CV19" s="12"/>
+      <c r="CW19" s="12"/>
+      <c r="CX19" s="12"/>
+      <c r="CY19" s="12"/>
+      <c r="CZ19" s="12"/>
+      <c r="DA19" s="12"/>
+      <c r="DB19" s="12"/>
+      <c r="DC19" s="12"/>
+      <c r="DD19" s="12"/>
+      <c r="DE19" s="12"/>
+      <c r="DF19" s="12"/>
+      <c r="DG19" s="12"/>
+      <c r="DH19" s="12"/>
+      <c r="DI19" s="12"/>
+      <c r="DJ19" s="12"/>
+      <c r="DK19" s="12"/>
+      <c r="DL19" s="12"/>
+      <c r="DM19" s="12"/>
+      <c r="DN19" s="12"/>
+      <c r="DO19" s="12"/>
+      <c r="DP19" s="12"/>
+      <c r="DQ19" s="12"/>
+      <c r="DR19" s="12"/>
+      <c r="DS19" s="12"/>
+      <c r="DT19" s="12"/>
+      <c r="DU19" s="12"/>
+      <c r="DV19" s="12"/>
+      <c r="DW19" s="12"/>
+      <c r="DX19" s="12"/>
+      <c r="DY19" s="12"/>
+      <c r="DZ19" s="12"/>
+      <c r="EA19" s="12"/>
+      <c r="EB19" s="12"/>
+      <c r="EC19" s="12"/>
+      <c r="ED19" s="12"/>
+      <c r="EE19" s="12"/>
+      <c r="EF19" s="12"/>
+      <c r="EG19" s="12"/>
+      <c r="EH19" s="12"/>
+      <c r="EI19" s="12"/>
+      <c r="EJ19" s="12"/>
+      <c r="EK19" s="12"/>
+      <c r="EL19" s="12"/>
+      <c r="EM19" s="12"/>
+      <c r="EN19" s="12"/>
+      <c r="EO19" s="12"/>
+      <c r="EP19" s="12"/>
+      <c r="EQ19" s="12"/>
+      <c r="ER19" s="12"/>
+      <c r="ES19" s="12"/>
+      <c r="ET19" s="12"/>
+      <c r="EU19" s="12"/>
+      <c r="EV19" s="12"/>
+      <c r="EW19" s="12"/>
+      <c r="EX19" s="12"/>
+      <c r="EY19" s="12"/>
+      <c r="EZ19" s="12"/>
+      <c r="FA19" s="12"/>
+      <c r="FB19" s="12"/>
+      <c r="FC19" s="12"/>
+      <c r="FD19" s="12"/>
+      <c r="FE19" s="12"/>
+      <c r="FF19" s="12"/>
+      <c r="FG19" s="12"/>
+      <c r="FH19" s="12"/>
+      <c r="FI19" s="12"/>
+      <c r="FJ19" s="12"/>
+      <c r="FK19" s="12"/>
+      <c r="FL19" s="12"/>
+      <c r="FM19" s="12"/>
+      <c r="FN19" s="12"/>
+      <c r="FO19" s="12"/>
+      <c r="FP19" s="12"/>
+      <c r="FQ19" s="12"/>
+      <c r="FR19" s="12"/>
+      <c r="FS19" s="12"/>
+      <c r="FT19" s="12"/>
+      <c r="FU19" s="12"/>
+      <c r="FV19" s="12"/>
+      <c r="FW19" s="12"/>
+      <c r="FX19" s="12"/>
+      <c r="FY19" s="12"/>
+      <c r="FZ19" s="12"/>
+      <c r="GA19" s="12"/>
+      <c r="GB19" s="12"/>
+      <c r="GC19" s="12"/>
+      <c r="GD19" s="12"/>
+      <c r="GE19" s="12"/>
+      <c r="GF19" s="12"/>
+      <c r="GG19" s="12"/>
+      <c r="GH19" s="12"/>
+      <c r="GI19" s="12"/>
+      <c r="GJ19" s="12"/>
+      <c r="GK19" s="12"/>
+      <c r="GL19" s="12"/>
+      <c r="GM19" s="12"/>
+      <c r="GN19" s="12"/>
+      <c r="GO19" s="12"/>
+      <c r="GP19" s="12"/>
+      <c r="GQ19" s="12"/>
+      <c r="GR19" s="12"/>
+      <c r="GS19" s="12"/>
+      <c r="GT19" s="12"/>
+      <c r="GU19" s="12"/>
+      <c r="GV19" s="12"/>
+      <c r="GW19" s="12"/>
+      <c r="GX19" s="12"/>
+      <c r="GY19" s="12"/>
+      <c r="GZ19" s="12"/>
+      <c r="HA19" s="12"/>
+      <c r="HB19" s="12"/>
+      <c r="HC19" s="12"/>
+      <c r="HD19" s="12"/>
+      <c r="HE19" s="12"/>
+      <c r="HF19" s="12"/>
+      <c r="HG19" s="12"/>
+      <c r="HH19" s="12"/>
+      <c r="HI19" s="12"/>
+      <c r="HJ19" s="12"/>
+      <c r="HK19" s="12"/>
+      <c r="HL19" s="12"/>
+      <c r="HM19" s="12"/>
+      <c r="HN19" s="12"/>
+      <c r="HO19" s="12"/>
+      <c r="HP19" s="12"/>
+      <c r="HQ19" s="12"/>
+      <c r="HR19" s="12"/>
+      <c r="HS19" s="12"/>
+      <c r="HT19" s="12"/>
+      <c r="HU19" s="12"/>
+      <c r="HV19" s="12"/>
+      <c r="HW19" s="12"/>
+      <c r="HX19" s="12"/>
+      <c r="HY19" s="12"/>
+      <c r="HZ19" s="12"/>
+      <c r="IA19" s="12"/>
+      <c r="IB19" s="12"/>
+      <c r="IC19" s="12"/>
+      <c r="ID19" s="12"/>
+      <c r="IE19" s="12"/>
+      <c r="IF19" s="12"/>
+      <c r="IG19" s="12"/>
+      <c r="IH19" s="12"/>
+      <c r="II19" s="12"/>
+      <c r="IJ19" s="12"/>
+      <c r="IK19" s="12"/>
+      <c r="IL19" s="12"/>
+      <c r="IM19" s="12"/>
+      <c r="IN19" s="12"/>
+      <c r="IO19" s="12"/>
+      <c r="IP19" s="12"/>
+      <c r="IQ19" s="12"/>
+      <c r="IR19" s="12"/>
+      <c r="IS19" s="12"/>
+      <c r="IT19" s="12"/>
+      <c r="IU19" s="12"/>
+      <c r="IV19" s="12"/>
+      <c r="IW19" s="12"/>
+      <c r="IX19" s="12"/>
     </row>
     <row r="20" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="30"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -6797,13 +6915,13 @@
       <c r="IX20" s="12"/>
     </row>
     <row r="21" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="11"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
@@ -7056,278 +7174,278 @@
       <c r="IW21" s="12"/>
       <c r="IX21" s="12"/>
     </row>
-    <row r="22" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
-      <c r="AY22" s="12"/>
-      <c r="AZ22" s="12"/>
-      <c r="BA22" s="12"/>
-      <c r="BB22" s="12"/>
-      <c r="BC22" s="12"/>
-      <c r="BD22" s="12"/>
-      <c r="BE22" s="12"/>
-      <c r="BF22" s="12"/>
-      <c r="BG22" s="12"/>
-      <c r="BH22" s="12"/>
-      <c r="BI22" s="12"/>
-      <c r="BJ22" s="12"/>
-      <c r="BK22" s="12"/>
-      <c r="BL22" s="12"/>
-      <c r="BM22" s="12"/>
-      <c r="BN22" s="12"/>
-      <c r="BO22" s="12"/>
-      <c r="BP22" s="12"/>
-      <c r="BQ22" s="12"/>
-      <c r="BR22" s="12"/>
-      <c r="BS22" s="12"/>
-      <c r="BT22" s="12"/>
-      <c r="BU22" s="12"/>
-      <c r="BV22" s="12"/>
-      <c r="BW22" s="12"/>
-      <c r="BX22" s="12"/>
-      <c r="BY22" s="12"/>
-      <c r="BZ22" s="12"/>
-      <c r="CA22" s="12"/>
-      <c r="CB22" s="12"/>
-      <c r="CC22" s="12"/>
-      <c r="CD22" s="12"/>
-      <c r="CE22" s="12"/>
-      <c r="CF22" s="12"/>
-      <c r="CG22" s="12"/>
-      <c r="CH22" s="12"/>
-      <c r="CI22" s="12"/>
-      <c r="CJ22" s="12"/>
-      <c r="CK22" s="12"/>
-      <c r="CL22" s="12"/>
-      <c r="CM22" s="12"/>
-      <c r="CN22" s="12"/>
-      <c r="CO22" s="12"/>
-      <c r="CP22" s="12"/>
-      <c r="CQ22" s="12"/>
-      <c r="CR22" s="12"/>
-      <c r="CS22" s="12"/>
-      <c r="CT22" s="12"/>
-      <c r="CU22" s="12"/>
-      <c r="CV22" s="12"/>
-      <c r="CW22" s="12"/>
-      <c r="CX22" s="12"/>
-      <c r="CY22" s="12"/>
-      <c r="CZ22" s="12"/>
-      <c r="DA22" s="12"/>
-      <c r="DB22" s="12"/>
-      <c r="DC22" s="12"/>
-      <c r="DD22" s="12"/>
-      <c r="DE22" s="12"/>
-      <c r="DF22" s="12"/>
-      <c r="DG22" s="12"/>
-      <c r="DH22" s="12"/>
-      <c r="DI22" s="12"/>
-      <c r="DJ22" s="12"/>
-      <c r="DK22" s="12"/>
-      <c r="DL22" s="12"/>
-      <c r="DM22" s="12"/>
-      <c r="DN22" s="12"/>
-      <c r="DO22" s="12"/>
-      <c r="DP22" s="12"/>
-      <c r="DQ22" s="12"/>
-      <c r="DR22" s="12"/>
-      <c r="DS22" s="12"/>
-      <c r="DT22" s="12"/>
-      <c r="DU22" s="12"/>
-      <c r="DV22" s="12"/>
-      <c r="DW22" s="12"/>
-      <c r="DX22" s="12"/>
-      <c r="DY22" s="12"/>
-      <c r="DZ22" s="12"/>
-      <c r="EA22" s="12"/>
-      <c r="EB22" s="12"/>
-      <c r="EC22" s="12"/>
-      <c r="ED22" s="12"/>
-      <c r="EE22" s="12"/>
-      <c r="EF22" s="12"/>
-      <c r="EG22" s="12"/>
-      <c r="EH22" s="12"/>
-      <c r="EI22" s="12"/>
-      <c r="EJ22" s="12"/>
-      <c r="EK22" s="12"/>
-      <c r="EL22" s="12"/>
-      <c r="EM22" s="12"/>
-      <c r="EN22" s="12"/>
-      <c r="EO22" s="12"/>
-      <c r="EP22" s="12"/>
-      <c r="EQ22" s="12"/>
-      <c r="ER22" s="12"/>
-      <c r="ES22" s="12"/>
-      <c r="ET22" s="12"/>
-      <c r="EU22" s="12"/>
-      <c r="EV22" s="12"/>
-      <c r="EW22" s="12"/>
-      <c r="EX22" s="12"/>
-      <c r="EY22" s="12"/>
-      <c r="EZ22" s="12"/>
-      <c r="FA22" s="12"/>
-      <c r="FB22" s="12"/>
-      <c r="FC22" s="12"/>
-      <c r="FD22" s="12"/>
-      <c r="FE22" s="12"/>
-      <c r="FF22" s="12"/>
-      <c r="FG22" s="12"/>
-      <c r="FH22" s="12"/>
-      <c r="FI22" s="12"/>
-      <c r="FJ22" s="12"/>
-      <c r="FK22" s="12"/>
-      <c r="FL22" s="12"/>
-      <c r="FM22" s="12"/>
-      <c r="FN22" s="12"/>
-      <c r="FO22" s="12"/>
-      <c r="FP22" s="12"/>
-      <c r="FQ22" s="12"/>
-      <c r="FR22" s="12"/>
-      <c r="FS22" s="12"/>
-      <c r="FT22" s="12"/>
-      <c r="FU22" s="12"/>
-      <c r="FV22" s="12"/>
-      <c r="FW22" s="12"/>
-      <c r="FX22" s="12"/>
-      <c r="FY22" s="12"/>
-      <c r="FZ22" s="12"/>
-      <c r="GA22" s="12"/>
-      <c r="GB22" s="12"/>
-      <c r="GC22" s="12"/>
-      <c r="GD22" s="12"/>
-      <c r="GE22" s="12"/>
-      <c r="GF22" s="12"/>
-      <c r="GG22" s="12"/>
-      <c r="GH22" s="12"/>
-      <c r="GI22" s="12"/>
-      <c r="GJ22" s="12"/>
-      <c r="GK22" s="12"/>
-      <c r="GL22" s="12"/>
-      <c r="GM22" s="12"/>
-      <c r="GN22" s="12"/>
-      <c r="GO22" s="12"/>
-      <c r="GP22" s="12"/>
-      <c r="GQ22" s="12"/>
-      <c r="GR22" s="12"/>
-      <c r="GS22" s="12"/>
-      <c r="GT22" s="12"/>
-      <c r="GU22" s="12"/>
-      <c r="GV22" s="12"/>
-      <c r="GW22" s="12"/>
-      <c r="GX22" s="12"/>
-      <c r="GY22" s="12"/>
-      <c r="GZ22" s="12"/>
-      <c r="HA22" s="12"/>
-      <c r="HB22" s="12"/>
-      <c r="HC22" s="12"/>
-      <c r="HD22" s="12"/>
-      <c r="HE22" s="12"/>
-      <c r="HF22" s="12"/>
-      <c r="HG22" s="12"/>
-      <c r="HH22" s="12"/>
-      <c r="HI22" s="12"/>
-      <c r="HJ22" s="12"/>
-      <c r="HK22" s="12"/>
-      <c r="HL22" s="12"/>
-      <c r="HM22" s="12"/>
-      <c r="HN22" s="12"/>
-      <c r="HO22" s="12"/>
-      <c r="HP22" s="12"/>
-      <c r="HQ22" s="12"/>
-      <c r="HR22" s="12"/>
-      <c r="HS22" s="12"/>
-      <c r="HT22" s="12"/>
-      <c r="HU22" s="12"/>
-      <c r="HV22" s="12"/>
-      <c r="HW22" s="12"/>
-      <c r="HX22" s="12"/>
-      <c r="HY22" s="12"/>
-      <c r="HZ22" s="12"/>
-      <c r="IA22" s="12"/>
-      <c r="IB22" s="12"/>
-      <c r="IC22" s="12"/>
-      <c r="ID22" s="12"/>
-      <c r="IE22" s="12"/>
-      <c r="IF22" s="12"/>
-      <c r="IG22" s="12"/>
-      <c r="IH22" s="12"/>
-      <c r="II22" s="12"/>
-      <c r="IJ22" s="12"/>
-      <c r="IK22" s="12"/>
-      <c r="IL22" s="12"/>
-      <c r="IM22" s="12"/>
-      <c r="IN22" s="12"/>
-      <c r="IO22" s="12"/>
-      <c r="IP22" s="12"/>
-      <c r="IQ22" s="12"/>
-      <c r="IR22" s="12"/>
-      <c r="IS22" s="12"/>
-      <c r="IT22" s="12"/>
-      <c r="IU22" s="12"/>
-      <c r="IV22" s="12"/>
-      <c r="IW22" s="12"/>
-      <c r="IX22" s="12"/>
+    <row r="22" spans="1:258" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="35"/>
+      <c r="AQ22" s="35"/>
+      <c r="AR22" s="35"/>
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="35"/>
+      <c r="AU22" s="35"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="35"/>
+      <c r="AX22" s="35"/>
+      <c r="AY22" s="35"/>
+      <c r="AZ22" s="35"/>
+      <c r="BA22" s="35"/>
+      <c r="BB22" s="35"/>
+      <c r="BC22" s="35"/>
+      <c r="BD22" s="35"/>
+      <c r="BE22" s="35"/>
+      <c r="BF22" s="35"/>
+      <c r="BG22" s="35"/>
+      <c r="BH22" s="35"/>
+      <c r="BI22" s="35"/>
+      <c r="BJ22" s="35"/>
+      <c r="BK22" s="35"/>
+      <c r="BL22" s="35"/>
+      <c r="BM22" s="35"/>
+      <c r="BN22" s="35"/>
+      <c r="BO22" s="35"/>
+      <c r="BP22" s="35"/>
+      <c r="BQ22" s="35"/>
+      <c r="BR22" s="35"/>
+      <c r="BS22" s="35"/>
+      <c r="BT22" s="35"/>
+      <c r="BU22" s="35"/>
+      <c r="BV22" s="35"/>
+      <c r="BW22" s="35"/>
+      <c r="BX22" s="35"/>
+      <c r="BY22" s="35"/>
+      <c r="BZ22" s="35"/>
+      <c r="CA22" s="35"/>
+      <c r="CB22" s="35"/>
+      <c r="CC22" s="35"/>
+      <c r="CD22" s="35"/>
+      <c r="CE22" s="35"/>
+      <c r="CF22" s="35"/>
+      <c r="CG22" s="35"/>
+      <c r="CH22" s="35"/>
+      <c r="CI22" s="35"/>
+      <c r="CJ22" s="35"/>
+      <c r="CK22" s="35"/>
+      <c r="CL22" s="35"/>
+      <c r="CM22" s="35"/>
+      <c r="CN22" s="35"/>
+      <c r="CO22" s="35"/>
+      <c r="CP22" s="35"/>
+      <c r="CQ22" s="35"/>
+      <c r="CR22" s="35"/>
+      <c r="CS22" s="35"/>
+      <c r="CT22" s="35"/>
+      <c r="CU22" s="35"/>
+      <c r="CV22" s="35"/>
+      <c r="CW22" s="35"/>
+      <c r="CX22" s="35"/>
+      <c r="CY22" s="35"/>
+      <c r="CZ22" s="35"/>
+      <c r="DA22" s="35"/>
+      <c r="DB22" s="35"/>
+      <c r="DC22" s="35"/>
+      <c r="DD22" s="35"/>
+      <c r="DE22" s="35"/>
+      <c r="DF22" s="35"/>
+      <c r="DG22" s="35"/>
+      <c r="DH22" s="35"/>
+      <c r="DI22" s="35"/>
+      <c r="DJ22" s="35"/>
+      <c r="DK22" s="35"/>
+      <c r="DL22" s="35"/>
+      <c r="DM22" s="35"/>
+      <c r="DN22" s="35"/>
+      <c r="DO22" s="35"/>
+      <c r="DP22" s="35"/>
+      <c r="DQ22" s="35"/>
+      <c r="DR22" s="35"/>
+      <c r="DS22" s="35"/>
+      <c r="DT22" s="35"/>
+      <c r="DU22" s="35"/>
+      <c r="DV22" s="35"/>
+      <c r="DW22" s="35"/>
+      <c r="DX22" s="35"/>
+      <c r="DY22" s="35"/>
+      <c r="DZ22" s="35"/>
+      <c r="EA22" s="35"/>
+      <c r="EB22" s="35"/>
+      <c r="EC22" s="35"/>
+      <c r="ED22" s="35"/>
+      <c r="EE22" s="35"/>
+      <c r="EF22" s="35"/>
+      <c r="EG22" s="35"/>
+      <c r="EH22" s="35"/>
+      <c r="EI22" s="35"/>
+      <c r="EJ22" s="35"/>
+      <c r="EK22" s="35"/>
+      <c r="EL22" s="35"/>
+      <c r="EM22" s="35"/>
+      <c r="EN22" s="35"/>
+      <c r="EO22" s="35"/>
+      <c r="EP22" s="35"/>
+      <c r="EQ22" s="35"/>
+      <c r="ER22" s="35"/>
+      <c r="ES22" s="35"/>
+      <c r="ET22" s="35"/>
+      <c r="EU22" s="35"/>
+      <c r="EV22" s="35"/>
+      <c r="EW22" s="35"/>
+      <c r="EX22" s="35"/>
+      <c r="EY22" s="35"/>
+      <c r="EZ22" s="35"/>
+      <c r="FA22" s="35"/>
+      <c r="FB22" s="35"/>
+      <c r="FC22" s="35"/>
+      <c r="FD22" s="35"/>
+      <c r="FE22" s="35"/>
+      <c r="FF22" s="35"/>
+      <c r="FG22" s="35"/>
+      <c r="FH22" s="35"/>
+      <c r="FI22" s="35"/>
+      <c r="FJ22" s="35"/>
+      <c r="FK22" s="35"/>
+      <c r="FL22" s="35"/>
+      <c r="FM22" s="35"/>
+      <c r="FN22" s="35"/>
+      <c r="FO22" s="35"/>
+      <c r="FP22" s="35"/>
+      <c r="FQ22" s="35"/>
+      <c r="FR22" s="35"/>
+      <c r="FS22" s="35"/>
+      <c r="FT22" s="35"/>
+      <c r="FU22" s="35"/>
+      <c r="FV22" s="35"/>
+      <c r="FW22" s="35"/>
+      <c r="FX22" s="35"/>
+      <c r="FY22" s="35"/>
+      <c r="FZ22" s="35"/>
+      <c r="GA22" s="35"/>
+      <c r="GB22" s="35"/>
+      <c r="GC22" s="35"/>
+      <c r="GD22" s="35"/>
+      <c r="GE22" s="35"/>
+      <c r="GF22" s="35"/>
+      <c r="GG22" s="35"/>
+      <c r="GH22" s="35"/>
+      <c r="GI22" s="35"/>
+      <c r="GJ22" s="35"/>
+      <c r="GK22" s="35"/>
+      <c r="GL22" s="35"/>
+      <c r="GM22" s="35"/>
+      <c r="GN22" s="35"/>
+      <c r="GO22" s="35"/>
+      <c r="GP22" s="35"/>
+      <c r="GQ22" s="35"/>
+      <c r="GR22" s="35"/>
+      <c r="GS22" s="35"/>
+      <c r="GT22" s="35"/>
+      <c r="GU22" s="35"/>
+      <c r="GV22" s="35"/>
+      <c r="GW22" s="35"/>
+      <c r="GX22" s="35"/>
+      <c r="GY22" s="35"/>
+      <c r="GZ22" s="35"/>
+      <c r="HA22" s="35"/>
+      <c r="HB22" s="35"/>
+      <c r="HC22" s="35"/>
+      <c r="HD22" s="35"/>
+      <c r="HE22" s="35"/>
+      <c r="HF22" s="35"/>
+      <c r="HG22" s="35"/>
+      <c r="HH22" s="35"/>
+      <c r="HI22" s="35"/>
+      <c r="HJ22" s="35"/>
+      <c r="HK22" s="35"/>
+      <c r="HL22" s="35"/>
+      <c r="HM22" s="35"/>
+      <c r="HN22" s="35"/>
+      <c r="HO22" s="35"/>
+      <c r="HP22" s="35"/>
+      <c r="HQ22" s="35"/>
+      <c r="HR22" s="35"/>
+      <c r="HS22" s="35"/>
+      <c r="HT22" s="35"/>
+      <c r="HU22" s="35"/>
+      <c r="HV22" s="35"/>
+      <c r="HW22" s="35"/>
+      <c r="HX22" s="35"/>
+      <c r="HY22" s="35"/>
+      <c r="HZ22" s="35"/>
+      <c r="IA22" s="35"/>
+      <c r="IB22" s="35"/>
+      <c r="IC22" s="35"/>
+      <c r="ID22" s="35"/>
+      <c r="IE22" s="35"/>
+      <c r="IF22" s="35"/>
+      <c r="IG22" s="35"/>
+      <c r="IH22" s="35"/>
+      <c r="II22" s="35"/>
+      <c r="IJ22" s="35"/>
+      <c r="IK22" s="35"/>
+      <c r="IL22" s="35"/>
+      <c r="IM22" s="35"/>
+      <c r="IN22" s="35"/>
+      <c r="IO22" s="35"/>
+      <c r="IP22" s="35"/>
+      <c r="IQ22" s="35"/>
+      <c r="IR22" s="35"/>
+      <c r="IS22" s="35"/>
+      <c r="IT22" s="35"/>
+      <c r="IU22" s="35"/>
+      <c r="IV22" s="35"/>
+      <c r="IW22" s="35"/>
+      <c r="IX22" s="35"/>
     </row>
     <row r="23" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="52"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
@@ -7576,278 +7694,278 @@
       <c r="IW23" s="12"/>
       <c r="IX23" s="12"/>
     </row>
-    <row r="24" spans="1:258" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
-      <c r="AR24" s="35"/>
-      <c r="AS24" s="35"/>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="35"/>
-      <c r="AW24" s="35"/>
-      <c r="AX24" s="35"/>
-      <c r="AY24" s="35"/>
-      <c r="AZ24" s="35"/>
-      <c r="BA24" s="35"/>
-      <c r="BB24" s="35"/>
-      <c r="BC24" s="35"/>
-      <c r="BD24" s="35"/>
-      <c r="BE24" s="35"/>
-      <c r="BF24" s="35"/>
-      <c r="BG24" s="35"/>
-      <c r="BH24" s="35"/>
-      <c r="BI24" s="35"/>
-      <c r="BJ24" s="35"/>
-      <c r="BK24" s="35"/>
-      <c r="BL24" s="35"/>
-      <c r="BM24" s="35"/>
-      <c r="BN24" s="35"/>
-      <c r="BO24" s="35"/>
-      <c r="BP24" s="35"/>
-      <c r="BQ24" s="35"/>
-      <c r="BR24" s="35"/>
-      <c r="BS24" s="35"/>
-      <c r="BT24" s="35"/>
-      <c r="BU24" s="35"/>
-      <c r="BV24" s="35"/>
-      <c r="BW24" s="35"/>
-      <c r="BX24" s="35"/>
-      <c r="BY24" s="35"/>
-      <c r="BZ24" s="35"/>
-      <c r="CA24" s="35"/>
-      <c r="CB24" s="35"/>
-      <c r="CC24" s="35"/>
-      <c r="CD24" s="35"/>
-      <c r="CE24" s="35"/>
-      <c r="CF24" s="35"/>
-      <c r="CG24" s="35"/>
-      <c r="CH24" s="35"/>
-      <c r="CI24" s="35"/>
-      <c r="CJ24" s="35"/>
-      <c r="CK24" s="35"/>
-      <c r="CL24" s="35"/>
-      <c r="CM24" s="35"/>
-      <c r="CN24" s="35"/>
-      <c r="CO24" s="35"/>
-      <c r="CP24" s="35"/>
-      <c r="CQ24" s="35"/>
-      <c r="CR24" s="35"/>
-      <c r="CS24" s="35"/>
-      <c r="CT24" s="35"/>
-      <c r="CU24" s="35"/>
-      <c r="CV24" s="35"/>
-      <c r="CW24" s="35"/>
-      <c r="CX24" s="35"/>
-      <c r="CY24" s="35"/>
-      <c r="CZ24" s="35"/>
-      <c r="DA24" s="35"/>
-      <c r="DB24" s="35"/>
-      <c r="DC24" s="35"/>
-      <c r="DD24" s="35"/>
-      <c r="DE24" s="35"/>
-      <c r="DF24" s="35"/>
-      <c r="DG24" s="35"/>
-      <c r="DH24" s="35"/>
-      <c r="DI24" s="35"/>
-      <c r="DJ24" s="35"/>
-      <c r="DK24" s="35"/>
-      <c r="DL24" s="35"/>
-      <c r="DM24" s="35"/>
-      <c r="DN24" s="35"/>
-      <c r="DO24" s="35"/>
-      <c r="DP24" s="35"/>
-      <c r="DQ24" s="35"/>
-      <c r="DR24" s="35"/>
-      <c r="DS24" s="35"/>
-      <c r="DT24" s="35"/>
-      <c r="DU24" s="35"/>
-      <c r="DV24" s="35"/>
-      <c r="DW24" s="35"/>
-      <c r="DX24" s="35"/>
-      <c r="DY24" s="35"/>
-      <c r="DZ24" s="35"/>
-      <c r="EA24" s="35"/>
-      <c r="EB24" s="35"/>
-      <c r="EC24" s="35"/>
-      <c r="ED24" s="35"/>
-      <c r="EE24" s="35"/>
-      <c r="EF24" s="35"/>
-      <c r="EG24" s="35"/>
-      <c r="EH24" s="35"/>
-      <c r="EI24" s="35"/>
-      <c r="EJ24" s="35"/>
-      <c r="EK24" s="35"/>
-      <c r="EL24" s="35"/>
-      <c r="EM24" s="35"/>
-      <c r="EN24" s="35"/>
-      <c r="EO24" s="35"/>
-      <c r="EP24" s="35"/>
-      <c r="EQ24" s="35"/>
-      <c r="ER24" s="35"/>
-      <c r="ES24" s="35"/>
-      <c r="ET24" s="35"/>
-      <c r="EU24" s="35"/>
-      <c r="EV24" s="35"/>
-      <c r="EW24" s="35"/>
-      <c r="EX24" s="35"/>
-      <c r="EY24" s="35"/>
-      <c r="EZ24" s="35"/>
-      <c r="FA24" s="35"/>
-      <c r="FB24" s="35"/>
-      <c r="FC24" s="35"/>
-      <c r="FD24" s="35"/>
-      <c r="FE24" s="35"/>
-      <c r="FF24" s="35"/>
-      <c r="FG24" s="35"/>
-      <c r="FH24" s="35"/>
-      <c r="FI24" s="35"/>
-      <c r="FJ24" s="35"/>
-      <c r="FK24" s="35"/>
-      <c r="FL24" s="35"/>
-      <c r="FM24" s="35"/>
-      <c r="FN24" s="35"/>
-      <c r="FO24" s="35"/>
-      <c r="FP24" s="35"/>
-      <c r="FQ24" s="35"/>
-      <c r="FR24" s="35"/>
-      <c r="FS24" s="35"/>
-      <c r="FT24" s="35"/>
-      <c r="FU24" s="35"/>
-      <c r="FV24" s="35"/>
-      <c r="FW24" s="35"/>
-      <c r="FX24" s="35"/>
-      <c r="FY24" s="35"/>
-      <c r="FZ24" s="35"/>
-      <c r="GA24" s="35"/>
-      <c r="GB24" s="35"/>
-      <c r="GC24" s="35"/>
-      <c r="GD24" s="35"/>
-      <c r="GE24" s="35"/>
-      <c r="GF24" s="35"/>
-      <c r="GG24" s="35"/>
-      <c r="GH24" s="35"/>
-      <c r="GI24" s="35"/>
-      <c r="GJ24" s="35"/>
-      <c r="GK24" s="35"/>
-      <c r="GL24" s="35"/>
-      <c r="GM24" s="35"/>
-      <c r="GN24" s="35"/>
-      <c r="GO24" s="35"/>
-      <c r="GP24" s="35"/>
-      <c r="GQ24" s="35"/>
-      <c r="GR24" s="35"/>
-      <c r="GS24" s="35"/>
-      <c r="GT24" s="35"/>
-      <c r="GU24" s="35"/>
-      <c r="GV24" s="35"/>
-      <c r="GW24" s="35"/>
-      <c r="GX24" s="35"/>
-      <c r="GY24" s="35"/>
-      <c r="GZ24" s="35"/>
-      <c r="HA24" s="35"/>
-      <c r="HB24" s="35"/>
-      <c r="HC24" s="35"/>
-      <c r="HD24" s="35"/>
-      <c r="HE24" s="35"/>
-      <c r="HF24" s="35"/>
-      <c r="HG24" s="35"/>
-      <c r="HH24" s="35"/>
-      <c r="HI24" s="35"/>
-      <c r="HJ24" s="35"/>
-      <c r="HK24" s="35"/>
-      <c r="HL24" s="35"/>
-      <c r="HM24" s="35"/>
-      <c r="HN24" s="35"/>
-      <c r="HO24" s="35"/>
-      <c r="HP24" s="35"/>
-      <c r="HQ24" s="35"/>
-      <c r="HR24" s="35"/>
-      <c r="HS24" s="35"/>
-      <c r="HT24" s="35"/>
-      <c r="HU24" s="35"/>
-      <c r="HV24" s="35"/>
-      <c r="HW24" s="35"/>
-      <c r="HX24" s="35"/>
-      <c r="HY24" s="35"/>
-      <c r="HZ24" s="35"/>
-      <c r="IA24" s="35"/>
-      <c r="IB24" s="35"/>
-      <c r="IC24" s="35"/>
-      <c r="ID24" s="35"/>
-      <c r="IE24" s="35"/>
-      <c r="IF24" s="35"/>
-      <c r="IG24" s="35"/>
-      <c r="IH24" s="35"/>
-      <c r="II24" s="35"/>
-      <c r="IJ24" s="35"/>
-      <c r="IK24" s="35"/>
-      <c r="IL24" s="35"/>
-      <c r="IM24" s="35"/>
-      <c r="IN24" s="35"/>
-      <c r="IO24" s="35"/>
-      <c r="IP24" s="35"/>
-      <c r="IQ24" s="35"/>
-      <c r="IR24" s="35"/>
-      <c r="IS24" s="35"/>
-      <c r="IT24" s="35"/>
-      <c r="IU24" s="35"/>
-      <c r="IV24" s="35"/>
-      <c r="IW24" s="35"/>
-      <c r="IX24" s="35"/>
+    <row r="24" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="64"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12"/>
+      <c r="BB24" s="12"/>
+      <c r="BC24" s="12"/>
+      <c r="BD24" s="12"/>
+      <c r="BE24" s="12"/>
+      <c r="BF24" s="12"/>
+      <c r="BG24" s="12"/>
+      <c r="BH24" s="12"/>
+      <c r="BI24" s="12"/>
+      <c r="BJ24" s="12"/>
+      <c r="BK24" s="12"/>
+      <c r="BL24" s="12"/>
+      <c r="BM24" s="12"/>
+      <c r="BN24" s="12"/>
+      <c r="BO24" s="12"/>
+      <c r="BP24" s="12"/>
+      <c r="BQ24" s="12"/>
+      <c r="BR24" s="12"/>
+      <c r="BS24" s="12"/>
+      <c r="BT24" s="12"/>
+      <c r="BU24" s="12"/>
+      <c r="BV24" s="12"/>
+      <c r="BW24" s="12"/>
+      <c r="BX24" s="12"/>
+      <c r="BY24" s="12"/>
+      <c r="BZ24" s="12"/>
+      <c r="CA24" s="12"/>
+      <c r="CB24" s="12"/>
+      <c r="CC24" s="12"/>
+      <c r="CD24" s="12"/>
+      <c r="CE24" s="12"/>
+      <c r="CF24" s="12"/>
+      <c r="CG24" s="12"/>
+      <c r="CH24" s="12"/>
+      <c r="CI24" s="12"/>
+      <c r="CJ24" s="12"/>
+      <c r="CK24" s="12"/>
+      <c r="CL24" s="12"/>
+      <c r="CM24" s="12"/>
+      <c r="CN24" s="12"/>
+      <c r="CO24" s="12"/>
+      <c r="CP24" s="12"/>
+      <c r="CQ24" s="12"/>
+      <c r="CR24" s="12"/>
+      <c r="CS24" s="12"/>
+      <c r="CT24" s="12"/>
+      <c r="CU24" s="12"/>
+      <c r="CV24" s="12"/>
+      <c r="CW24" s="12"/>
+      <c r="CX24" s="12"/>
+      <c r="CY24" s="12"/>
+      <c r="CZ24" s="12"/>
+      <c r="DA24" s="12"/>
+      <c r="DB24" s="12"/>
+      <c r="DC24" s="12"/>
+      <c r="DD24" s="12"/>
+      <c r="DE24" s="12"/>
+      <c r="DF24" s="12"/>
+      <c r="DG24" s="12"/>
+      <c r="DH24" s="12"/>
+      <c r="DI24" s="12"/>
+      <c r="DJ24" s="12"/>
+      <c r="DK24" s="12"/>
+      <c r="DL24" s="12"/>
+      <c r="DM24" s="12"/>
+      <c r="DN24" s="12"/>
+      <c r="DO24" s="12"/>
+      <c r="DP24" s="12"/>
+      <c r="DQ24" s="12"/>
+      <c r="DR24" s="12"/>
+      <c r="DS24" s="12"/>
+      <c r="DT24" s="12"/>
+      <c r="DU24" s="12"/>
+      <c r="DV24" s="12"/>
+      <c r="DW24" s="12"/>
+      <c r="DX24" s="12"/>
+      <c r="DY24" s="12"/>
+      <c r="DZ24" s="12"/>
+      <c r="EA24" s="12"/>
+      <c r="EB24" s="12"/>
+      <c r="EC24" s="12"/>
+      <c r="ED24" s="12"/>
+      <c r="EE24" s="12"/>
+      <c r="EF24" s="12"/>
+      <c r="EG24" s="12"/>
+      <c r="EH24" s="12"/>
+      <c r="EI24" s="12"/>
+      <c r="EJ24" s="12"/>
+      <c r="EK24" s="12"/>
+      <c r="EL24" s="12"/>
+      <c r="EM24" s="12"/>
+      <c r="EN24" s="12"/>
+      <c r="EO24" s="12"/>
+      <c r="EP24" s="12"/>
+      <c r="EQ24" s="12"/>
+      <c r="ER24" s="12"/>
+      <c r="ES24" s="12"/>
+      <c r="ET24" s="12"/>
+      <c r="EU24" s="12"/>
+      <c r="EV24" s="12"/>
+      <c r="EW24" s="12"/>
+      <c r="EX24" s="12"/>
+      <c r="EY24" s="12"/>
+      <c r="EZ24" s="12"/>
+      <c r="FA24" s="12"/>
+      <c r="FB24" s="12"/>
+      <c r="FC24" s="12"/>
+      <c r="FD24" s="12"/>
+      <c r="FE24" s="12"/>
+      <c r="FF24" s="12"/>
+      <c r="FG24" s="12"/>
+      <c r="FH24" s="12"/>
+      <c r="FI24" s="12"/>
+      <c r="FJ24" s="12"/>
+      <c r="FK24" s="12"/>
+      <c r="FL24" s="12"/>
+      <c r="FM24" s="12"/>
+      <c r="FN24" s="12"/>
+      <c r="FO24" s="12"/>
+      <c r="FP24" s="12"/>
+      <c r="FQ24" s="12"/>
+      <c r="FR24" s="12"/>
+      <c r="FS24" s="12"/>
+      <c r="FT24" s="12"/>
+      <c r="FU24" s="12"/>
+      <c r="FV24" s="12"/>
+      <c r="FW24" s="12"/>
+      <c r="FX24" s="12"/>
+      <c r="FY24" s="12"/>
+      <c r="FZ24" s="12"/>
+      <c r="GA24" s="12"/>
+      <c r="GB24" s="12"/>
+      <c r="GC24" s="12"/>
+      <c r="GD24" s="12"/>
+      <c r="GE24" s="12"/>
+      <c r="GF24" s="12"/>
+      <c r="GG24" s="12"/>
+      <c r="GH24" s="12"/>
+      <c r="GI24" s="12"/>
+      <c r="GJ24" s="12"/>
+      <c r="GK24" s="12"/>
+      <c r="GL24" s="12"/>
+      <c r="GM24" s="12"/>
+      <c r="GN24" s="12"/>
+      <c r="GO24" s="12"/>
+      <c r="GP24" s="12"/>
+      <c r="GQ24" s="12"/>
+      <c r="GR24" s="12"/>
+      <c r="GS24" s="12"/>
+      <c r="GT24" s="12"/>
+      <c r="GU24" s="12"/>
+      <c r="GV24" s="12"/>
+      <c r="GW24" s="12"/>
+      <c r="GX24" s="12"/>
+      <c r="GY24" s="12"/>
+      <c r="GZ24" s="12"/>
+      <c r="HA24" s="12"/>
+      <c r="HB24" s="12"/>
+      <c r="HC24" s="12"/>
+      <c r="HD24" s="12"/>
+      <c r="HE24" s="12"/>
+      <c r="HF24" s="12"/>
+      <c r="HG24" s="12"/>
+      <c r="HH24" s="12"/>
+      <c r="HI24" s="12"/>
+      <c r="HJ24" s="12"/>
+      <c r="HK24" s="12"/>
+      <c r="HL24" s="12"/>
+      <c r="HM24" s="12"/>
+      <c r="HN24" s="12"/>
+      <c r="HO24" s="12"/>
+      <c r="HP24" s="12"/>
+      <c r="HQ24" s="12"/>
+      <c r="HR24" s="12"/>
+      <c r="HS24" s="12"/>
+      <c r="HT24" s="12"/>
+      <c r="HU24" s="12"/>
+      <c r="HV24" s="12"/>
+      <c r="HW24" s="12"/>
+      <c r="HX24" s="12"/>
+      <c r="HY24" s="12"/>
+      <c r="HZ24" s="12"/>
+      <c r="IA24" s="12"/>
+      <c r="IB24" s="12"/>
+      <c r="IC24" s="12"/>
+      <c r="ID24" s="12"/>
+      <c r="IE24" s="12"/>
+      <c r="IF24" s="12"/>
+      <c r="IG24" s="12"/>
+      <c r="IH24" s="12"/>
+      <c r="II24" s="12"/>
+      <c r="IJ24" s="12"/>
+      <c r="IK24" s="12"/>
+      <c r="IL24" s="12"/>
+      <c r="IM24" s="12"/>
+      <c r="IN24" s="12"/>
+      <c r="IO24" s="12"/>
+      <c r="IP24" s="12"/>
+      <c r="IQ24" s="12"/>
+      <c r="IR24" s="12"/>
+      <c r="IS24" s="12"/>
+      <c r="IT24" s="12"/>
+      <c r="IU24" s="12"/>
+      <c r="IV24" s="12"/>
+      <c r="IW24" s="12"/>
+      <c r="IX24" s="12"/>
     </row>
     <row r="25" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="30"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="28"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -8097,7 +8215,7 @@
       <c r="IX25" s="12"/>
     </row>
     <row r="26" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="66"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -8105,9 +8223,9 @@
       <c r="F26" s="9"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="9"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -8356,633 +8474,1377 @@
       <c r="IW26" s="12"/>
       <c r="IX26" s="12"/>
     </row>
-    <row r="27" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
+    <row r="27" spans="1:258" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="35"/>
+      <c r="AK27" s="35"/>
+      <c r="AL27" s="35"/>
+      <c r="AM27" s="35"/>
+      <c r="AN27" s="35"/>
+      <c r="AO27" s="35"/>
+      <c r="AP27" s="35"/>
+      <c r="AQ27" s="35"/>
+      <c r="AR27" s="35"/>
+      <c r="AS27" s="35"/>
+      <c r="AT27" s="35"/>
+      <c r="AU27" s="35"/>
+      <c r="AV27" s="35"/>
+      <c r="AW27" s="35"/>
+      <c r="AX27" s="35"/>
+      <c r="AY27" s="35"/>
+      <c r="AZ27" s="35"/>
+      <c r="BA27" s="35"/>
+      <c r="BB27" s="35"/>
+      <c r="BC27" s="35"/>
+      <c r="BD27" s="35"/>
+      <c r="BE27" s="35"/>
+      <c r="BF27" s="35"/>
+      <c r="BG27" s="35"/>
+      <c r="BH27" s="35"/>
+      <c r="BI27" s="35"/>
+      <c r="BJ27" s="35"/>
+      <c r="BK27" s="35"/>
+      <c r="BL27" s="35"/>
+      <c r="BM27" s="35"/>
+      <c r="BN27" s="35"/>
+      <c r="BO27" s="35"/>
+      <c r="BP27" s="35"/>
+      <c r="BQ27" s="35"/>
+      <c r="BR27" s="35"/>
+      <c r="BS27" s="35"/>
+      <c r="BT27" s="35"/>
+      <c r="BU27" s="35"/>
+      <c r="BV27" s="35"/>
+      <c r="BW27" s="35"/>
+      <c r="BX27" s="35"/>
+      <c r="BY27" s="35"/>
+      <c r="BZ27" s="35"/>
+      <c r="CA27" s="35"/>
+      <c r="CB27" s="35"/>
+      <c r="CC27" s="35"/>
+      <c r="CD27" s="35"/>
+      <c r="CE27" s="35"/>
+      <c r="CF27" s="35"/>
+      <c r="CG27" s="35"/>
+      <c r="CH27" s="35"/>
+      <c r="CI27" s="35"/>
+      <c r="CJ27" s="35"/>
+      <c r="CK27" s="35"/>
+      <c r="CL27" s="35"/>
+      <c r="CM27" s="35"/>
+      <c r="CN27" s="35"/>
+      <c r="CO27" s="35"/>
+      <c r="CP27" s="35"/>
+      <c r="CQ27" s="35"/>
+      <c r="CR27" s="35"/>
+      <c r="CS27" s="35"/>
+      <c r="CT27" s="35"/>
+      <c r="CU27" s="35"/>
+      <c r="CV27" s="35"/>
+      <c r="CW27" s="35"/>
+      <c r="CX27" s="35"/>
+      <c r="CY27" s="35"/>
+      <c r="CZ27" s="35"/>
+      <c r="DA27" s="35"/>
+      <c r="DB27" s="35"/>
+      <c r="DC27" s="35"/>
+      <c r="DD27" s="35"/>
+      <c r="DE27" s="35"/>
+      <c r="DF27" s="35"/>
+      <c r="DG27" s="35"/>
+      <c r="DH27" s="35"/>
+      <c r="DI27" s="35"/>
+      <c r="DJ27" s="35"/>
+      <c r="DK27" s="35"/>
+      <c r="DL27" s="35"/>
+      <c r="DM27" s="35"/>
+      <c r="DN27" s="35"/>
+      <c r="DO27" s="35"/>
+      <c r="DP27" s="35"/>
+      <c r="DQ27" s="35"/>
+      <c r="DR27" s="35"/>
+      <c r="DS27" s="35"/>
+      <c r="DT27" s="35"/>
+      <c r="DU27" s="35"/>
+      <c r="DV27" s="35"/>
+      <c r="DW27" s="35"/>
+      <c r="DX27" s="35"/>
+      <c r="DY27" s="35"/>
+      <c r="DZ27" s="35"/>
+      <c r="EA27" s="35"/>
+      <c r="EB27" s="35"/>
+      <c r="EC27" s="35"/>
+      <c r="ED27" s="35"/>
+      <c r="EE27" s="35"/>
+      <c r="EF27" s="35"/>
+      <c r="EG27" s="35"/>
+      <c r="EH27" s="35"/>
+      <c r="EI27" s="35"/>
+      <c r="EJ27" s="35"/>
+      <c r="EK27" s="35"/>
+      <c r="EL27" s="35"/>
+      <c r="EM27" s="35"/>
+      <c r="EN27" s="35"/>
+      <c r="EO27" s="35"/>
+      <c r="EP27" s="35"/>
+      <c r="EQ27" s="35"/>
+      <c r="ER27" s="35"/>
+      <c r="ES27" s="35"/>
+      <c r="ET27" s="35"/>
+      <c r="EU27" s="35"/>
+      <c r="EV27" s="35"/>
+      <c r="EW27" s="35"/>
+      <c r="EX27" s="35"/>
+      <c r="EY27" s="35"/>
+      <c r="EZ27" s="35"/>
+      <c r="FA27" s="35"/>
+      <c r="FB27" s="35"/>
+      <c r="FC27" s="35"/>
+      <c r="FD27" s="35"/>
+      <c r="FE27" s="35"/>
+      <c r="FF27" s="35"/>
+      <c r="FG27" s="35"/>
+      <c r="FH27" s="35"/>
+      <c r="FI27" s="35"/>
+      <c r="FJ27" s="35"/>
+      <c r="FK27" s="35"/>
+      <c r="FL27" s="35"/>
+      <c r="FM27" s="35"/>
+      <c r="FN27" s="35"/>
+      <c r="FO27" s="35"/>
+      <c r="FP27" s="35"/>
+      <c r="FQ27" s="35"/>
+      <c r="FR27" s="35"/>
+      <c r="FS27" s="35"/>
+      <c r="FT27" s="35"/>
+      <c r="FU27" s="35"/>
+      <c r="FV27" s="35"/>
+      <c r="FW27" s="35"/>
+      <c r="FX27" s="35"/>
+      <c r="FY27" s="35"/>
+      <c r="FZ27" s="35"/>
+      <c r="GA27" s="35"/>
+      <c r="GB27" s="35"/>
+      <c r="GC27" s="35"/>
+      <c r="GD27" s="35"/>
+      <c r="GE27" s="35"/>
+      <c r="GF27" s="35"/>
+      <c r="GG27" s="35"/>
+      <c r="GH27" s="35"/>
+      <c r="GI27" s="35"/>
+      <c r="GJ27" s="35"/>
+      <c r="GK27" s="35"/>
+      <c r="GL27" s="35"/>
+      <c r="GM27" s="35"/>
+      <c r="GN27" s="35"/>
+      <c r="GO27" s="35"/>
+      <c r="GP27" s="35"/>
+      <c r="GQ27" s="35"/>
+      <c r="GR27" s="35"/>
+      <c r="GS27" s="35"/>
+      <c r="GT27" s="35"/>
+      <c r="GU27" s="35"/>
+      <c r="GV27" s="35"/>
+      <c r="GW27" s="35"/>
+      <c r="GX27" s="35"/>
+      <c r="GY27" s="35"/>
+      <c r="GZ27" s="35"/>
+      <c r="HA27" s="35"/>
+      <c r="HB27" s="35"/>
+      <c r="HC27" s="35"/>
+      <c r="HD27" s="35"/>
+      <c r="HE27" s="35"/>
+      <c r="HF27" s="35"/>
+      <c r="HG27" s="35"/>
+      <c r="HH27" s="35"/>
+      <c r="HI27" s="35"/>
+      <c r="HJ27" s="35"/>
+      <c r="HK27" s="35"/>
+      <c r="HL27" s="35"/>
+      <c r="HM27" s="35"/>
+      <c r="HN27" s="35"/>
+      <c r="HO27" s="35"/>
+      <c r="HP27" s="35"/>
+      <c r="HQ27" s="35"/>
+      <c r="HR27" s="35"/>
+      <c r="HS27" s="35"/>
+      <c r="HT27" s="35"/>
+      <c r="HU27" s="35"/>
+      <c r="HV27" s="35"/>
+      <c r="HW27" s="35"/>
+      <c r="HX27" s="35"/>
+      <c r="HY27" s="35"/>
+      <c r="HZ27" s="35"/>
+      <c r="IA27" s="35"/>
+      <c r="IB27" s="35"/>
+      <c r="IC27" s="35"/>
+      <c r="ID27" s="35"/>
+      <c r="IE27" s="35"/>
+      <c r="IF27" s="35"/>
+      <c r="IG27" s="35"/>
+      <c r="IH27" s="35"/>
+      <c r="II27" s="35"/>
+      <c r="IJ27" s="35"/>
+      <c r="IK27" s="35"/>
+      <c r="IL27" s="35"/>
+      <c r="IM27" s="35"/>
+      <c r="IN27" s="35"/>
+      <c r="IO27" s="35"/>
+      <c r="IP27" s="35"/>
+      <c r="IQ27" s="35"/>
+      <c r="IR27" s="35"/>
+      <c r="IS27" s="35"/>
+      <c r="IT27" s="35"/>
+      <c r="IU27" s="35"/>
+      <c r="IV27" s="35"/>
+      <c r="IW27" s="35"/>
+      <c r="IX27" s="35"/>
     </row>
-    <row r="28" spans="1:258" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
-      <c r="AM28" s="46"/>
-      <c r="AN28" s="46"/>
-      <c r="AO28" s="46"/>
-      <c r="AP28" s="46"/>
-      <c r="AQ28" s="46"/>
-      <c r="AR28" s="46"/>
-      <c r="AS28" s="46"/>
-      <c r="AT28" s="46"/>
-      <c r="AU28" s="46"/>
-      <c r="AV28" s="46"/>
-      <c r="AW28" s="46"/>
-      <c r="AX28" s="46"/>
-      <c r="AY28" s="46"/>
-      <c r="AZ28" s="46"/>
-      <c r="BA28" s="46"/>
-      <c r="BB28" s="46"/>
-      <c r="BC28" s="46"/>
-      <c r="BD28" s="46"/>
-      <c r="BE28" s="46"/>
-      <c r="BF28" s="46"/>
-      <c r="BG28" s="46"/>
-      <c r="BH28" s="46"/>
-      <c r="BI28" s="46"/>
-      <c r="BJ28" s="46"/>
-      <c r="BK28" s="46"/>
-      <c r="BL28" s="46"/>
-      <c r="BM28" s="46"/>
-      <c r="BN28" s="46"/>
-      <c r="BO28" s="46"/>
-      <c r="BP28" s="46"/>
-      <c r="BQ28" s="46"/>
-      <c r="BR28" s="46"/>
-      <c r="BS28" s="46"/>
-      <c r="BT28" s="46"/>
-      <c r="BU28" s="46"/>
-      <c r="BV28" s="46"/>
-      <c r="BW28" s="46"/>
-      <c r="BX28" s="46"/>
-      <c r="BY28" s="46"/>
-      <c r="BZ28" s="46"/>
-      <c r="CA28" s="46"/>
-      <c r="CB28" s="46"/>
-      <c r="CC28" s="46"/>
-      <c r="CD28" s="46"/>
-      <c r="CE28" s="46"/>
-      <c r="CF28" s="46"/>
-      <c r="CG28" s="46"/>
-      <c r="CH28" s="46"/>
-      <c r="CI28" s="46"/>
-      <c r="CJ28" s="46"/>
-      <c r="CK28" s="46"/>
-      <c r="CL28" s="46"/>
-      <c r="CM28" s="46"/>
-      <c r="CN28" s="46"/>
-      <c r="CO28" s="46"/>
-      <c r="CP28" s="46"/>
-      <c r="CQ28" s="46"/>
-      <c r="CR28" s="46"/>
-      <c r="CS28" s="46"/>
-      <c r="CT28" s="46"/>
-      <c r="CU28" s="46"/>
-      <c r="CV28" s="46"/>
-      <c r="CW28" s="46"/>
-      <c r="CX28" s="46"/>
-      <c r="CY28" s="46"/>
-      <c r="CZ28" s="46"/>
-      <c r="DA28" s="46"/>
-      <c r="DB28" s="46"/>
-      <c r="DC28" s="46"/>
-      <c r="DD28" s="46"/>
-      <c r="DE28" s="46"/>
-      <c r="DF28" s="46"/>
-      <c r="DG28" s="46"/>
-      <c r="DH28" s="46"/>
-      <c r="DI28" s="46"/>
-      <c r="DJ28" s="46"/>
-      <c r="DK28" s="46"/>
-      <c r="DL28" s="46"/>
-      <c r="DM28" s="46"/>
-      <c r="DN28" s="46"/>
-      <c r="DO28" s="46"/>
-      <c r="DP28" s="46"/>
-      <c r="DQ28" s="46"/>
-      <c r="DR28" s="46"/>
-      <c r="DS28" s="46"/>
-      <c r="DT28" s="46"/>
-      <c r="DU28" s="46"/>
-      <c r="DV28" s="46"/>
-      <c r="DW28" s="46"/>
-      <c r="DX28" s="46"/>
-      <c r="DY28" s="46"/>
-      <c r="DZ28" s="46"/>
-      <c r="EA28" s="46"/>
-      <c r="EB28" s="46"/>
-      <c r="EC28" s="46"/>
-      <c r="ED28" s="46"/>
-      <c r="EE28" s="46"/>
-      <c r="EF28" s="46"/>
-      <c r="EG28" s="46"/>
-      <c r="EH28" s="46"/>
-      <c r="EI28" s="46"/>
-      <c r="EJ28" s="46"/>
-      <c r="EK28" s="46"/>
-      <c r="EL28" s="46"/>
-      <c r="EM28" s="46"/>
-      <c r="EN28" s="46"/>
-      <c r="EO28" s="46"/>
-      <c r="EP28" s="46"/>
-      <c r="EQ28" s="46"/>
-      <c r="ER28" s="46"/>
-      <c r="ES28" s="46"/>
-      <c r="ET28" s="46"/>
-      <c r="EU28" s="46"/>
-      <c r="EV28" s="46"/>
-      <c r="EW28" s="46"/>
-      <c r="EX28" s="46"/>
-      <c r="EY28" s="46"/>
-      <c r="EZ28" s="46"/>
-      <c r="FA28" s="46"/>
-      <c r="FB28" s="46"/>
-      <c r="FC28" s="46"/>
-      <c r="FD28" s="46"/>
-      <c r="FE28" s="46"/>
-      <c r="FF28" s="46"/>
-      <c r="FG28" s="46"/>
-      <c r="FH28" s="46"/>
-      <c r="FI28" s="46"/>
-      <c r="FJ28" s="46"/>
-      <c r="FK28" s="46"/>
-      <c r="FL28" s="46"/>
-      <c r="FM28" s="46"/>
-      <c r="FN28" s="46"/>
-      <c r="FO28" s="46"/>
-      <c r="FP28" s="46"/>
-      <c r="FQ28" s="46"/>
-      <c r="FR28" s="46"/>
-      <c r="FS28" s="46"/>
-      <c r="FT28" s="46"/>
-      <c r="FU28" s="46"/>
-      <c r="FV28" s="46"/>
-      <c r="FW28" s="46"/>
-      <c r="FX28" s="46"/>
-      <c r="FY28" s="46"/>
-      <c r="FZ28" s="46"/>
-      <c r="GA28" s="46"/>
-      <c r="GB28" s="46"/>
-      <c r="GC28" s="46"/>
-      <c r="GD28" s="46"/>
-      <c r="GE28" s="46"/>
-      <c r="GF28" s="46"/>
-      <c r="GG28" s="46"/>
-      <c r="GH28" s="46"/>
-      <c r="GI28" s="46"/>
-      <c r="GJ28" s="46"/>
-      <c r="GK28" s="46"/>
-      <c r="GL28" s="46"/>
-      <c r="GM28" s="46"/>
-      <c r="GN28" s="46"/>
-      <c r="GO28" s="46"/>
-      <c r="GP28" s="46"/>
-      <c r="GQ28" s="46"/>
-      <c r="GR28" s="46"/>
-      <c r="GS28" s="46"/>
-      <c r="GT28" s="46"/>
-      <c r="GU28" s="46"/>
-      <c r="GV28" s="46"/>
-      <c r="GW28" s="46"/>
-      <c r="GX28" s="46"/>
-      <c r="GY28" s="46"/>
-      <c r="GZ28" s="46"/>
-      <c r="HA28" s="46"/>
-      <c r="HB28" s="46"/>
-      <c r="HC28" s="46"/>
-      <c r="HD28" s="46"/>
-      <c r="HE28" s="46"/>
-      <c r="HF28" s="46"/>
-      <c r="HG28" s="46"/>
-      <c r="HH28" s="46"/>
-      <c r="HI28" s="46"/>
-      <c r="HJ28" s="46"/>
-      <c r="HK28" s="46"/>
-      <c r="HL28" s="46"/>
-      <c r="HM28" s="46"/>
-      <c r="HN28" s="46"/>
-      <c r="HO28" s="46"/>
-      <c r="HP28" s="46"/>
-      <c r="HQ28" s="46"/>
-      <c r="HR28" s="46"/>
-      <c r="HS28" s="46"/>
-      <c r="HT28" s="46"/>
-      <c r="HU28" s="46"/>
-      <c r="HV28" s="46"/>
-      <c r="HW28" s="46"/>
-      <c r="HX28" s="46"/>
-      <c r="HY28" s="46"/>
-      <c r="HZ28" s="46"/>
-      <c r="IA28" s="46"/>
-      <c r="IB28" s="46"/>
-      <c r="IC28" s="46"/>
-      <c r="ID28" s="46"/>
-      <c r="IE28" s="46"/>
-      <c r="IF28" s="46"/>
-      <c r="IG28" s="46"/>
-      <c r="IH28" s="46"/>
-      <c r="II28" s="46"/>
-      <c r="IJ28" s="46"/>
-      <c r="IK28" s="46"/>
-      <c r="IL28" s="46"/>
-      <c r="IM28" s="46"/>
-      <c r="IN28" s="46"/>
-      <c r="IO28" s="46"/>
-      <c r="IP28" s="46"/>
-      <c r="IQ28" s="46"/>
-      <c r="IR28" s="46"/>
-      <c r="IS28" s="46"/>
-      <c r="IT28" s="46"/>
-      <c r="IU28" s="46"/>
-      <c r="IV28" s="46"/>
-      <c r="IW28" s="46"/>
-      <c r="IX28" s="46"/>
+    <row r="28" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="65"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+      <c r="BC28" s="12"/>
+      <c r="BD28" s="12"/>
+      <c r="BE28" s="12"/>
+      <c r="BF28" s="12"/>
+      <c r="BG28" s="12"/>
+      <c r="BH28" s="12"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
+      <c r="BM28" s="12"/>
+      <c r="BN28" s="12"/>
+      <c r="BO28" s="12"/>
+      <c r="BP28" s="12"/>
+      <c r="BQ28" s="12"/>
+      <c r="BR28" s="12"/>
+      <c r="BS28" s="12"/>
+      <c r="BT28" s="12"/>
+      <c r="BU28" s="12"/>
+      <c r="BV28" s="12"/>
+      <c r="BW28" s="12"/>
+      <c r="BX28" s="12"/>
+      <c r="BY28" s="12"/>
+      <c r="BZ28" s="12"/>
+      <c r="CA28" s="12"/>
+      <c r="CB28" s="12"/>
+      <c r="CC28" s="12"/>
+      <c r="CD28" s="12"/>
+      <c r="CE28" s="12"/>
+      <c r="CF28" s="12"/>
+      <c r="CG28" s="12"/>
+      <c r="CH28" s="12"/>
+      <c r="CI28" s="12"/>
+      <c r="CJ28" s="12"/>
+      <c r="CK28" s="12"/>
+      <c r="CL28" s="12"/>
+      <c r="CM28" s="12"/>
+      <c r="CN28" s="12"/>
+      <c r="CO28" s="12"/>
+      <c r="CP28" s="12"/>
+      <c r="CQ28" s="12"/>
+      <c r="CR28" s="12"/>
+      <c r="CS28" s="12"/>
+      <c r="CT28" s="12"/>
+      <c r="CU28" s="12"/>
+      <c r="CV28" s="12"/>
+      <c r="CW28" s="12"/>
+      <c r="CX28" s="12"/>
+      <c r="CY28" s="12"/>
+      <c r="CZ28" s="12"/>
+      <c r="DA28" s="12"/>
+      <c r="DB28" s="12"/>
+      <c r="DC28" s="12"/>
+      <c r="DD28" s="12"/>
+      <c r="DE28" s="12"/>
+      <c r="DF28" s="12"/>
+      <c r="DG28" s="12"/>
+      <c r="DH28" s="12"/>
+      <c r="DI28" s="12"/>
+      <c r="DJ28" s="12"/>
+      <c r="DK28" s="12"/>
+      <c r="DL28" s="12"/>
+      <c r="DM28" s="12"/>
+      <c r="DN28" s="12"/>
+      <c r="DO28" s="12"/>
+      <c r="DP28" s="12"/>
+      <c r="DQ28" s="12"/>
+      <c r="DR28" s="12"/>
+      <c r="DS28" s="12"/>
+      <c r="DT28" s="12"/>
+      <c r="DU28" s="12"/>
+      <c r="DV28" s="12"/>
+      <c r="DW28" s="12"/>
+      <c r="DX28" s="12"/>
+      <c r="DY28" s="12"/>
+      <c r="DZ28" s="12"/>
+      <c r="EA28" s="12"/>
+      <c r="EB28" s="12"/>
+      <c r="EC28" s="12"/>
+      <c r="ED28" s="12"/>
+      <c r="EE28" s="12"/>
+      <c r="EF28" s="12"/>
+      <c r="EG28" s="12"/>
+      <c r="EH28" s="12"/>
+      <c r="EI28" s="12"/>
+      <c r="EJ28" s="12"/>
+      <c r="EK28" s="12"/>
+      <c r="EL28" s="12"/>
+      <c r="EM28" s="12"/>
+      <c r="EN28" s="12"/>
+      <c r="EO28" s="12"/>
+      <c r="EP28" s="12"/>
+      <c r="EQ28" s="12"/>
+      <c r="ER28" s="12"/>
+      <c r="ES28" s="12"/>
+      <c r="ET28" s="12"/>
+      <c r="EU28" s="12"/>
+      <c r="EV28" s="12"/>
+      <c r="EW28" s="12"/>
+      <c r="EX28" s="12"/>
+      <c r="EY28" s="12"/>
+      <c r="EZ28" s="12"/>
+      <c r="FA28" s="12"/>
+      <c r="FB28" s="12"/>
+      <c r="FC28" s="12"/>
+      <c r="FD28" s="12"/>
+      <c r="FE28" s="12"/>
+      <c r="FF28" s="12"/>
+      <c r="FG28" s="12"/>
+      <c r="FH28" s="12"/>
+      <c r="FI28" s="12"/>
+      <c r="FJ28" s="12"/>
+      <c r="FK28" s="12"/>
+      <c r="FL28" s="12"/>
+      <c r="FM28" s="12"/>
+      <c r="FN28" s="12"/>
+      <c r="FO28" s="12"/>
+      <c r="FP28" s="12"/>
+      <c r="FQ28" s="12"/>
+      <c r="FR28" s="12"/>
+      <c r="FS28" s="12"/>
+      <c r="FT28" s="12"/>
+      <c r="FU28" s="12"/>
+      <c r="FV28" s="12"/>
+      <c r="FW28" s="12"/>
+      <c r="FX28" s="12"/>
+      <c r="FY28" s="12"/>
+      <c r="FZ28" s="12"/>
+      <c r="GA28" s="12"/>
+      <c r="GB28" s="12"/>
+      <c r="GC28" s="12"/>
+      <c r="GD28" s="12"/>
+      <c r="GE28" s="12"/>
+      <c r="GF28" s="12"/>
+      <c r="GG28" s="12"/>
+      <c r="GH28" s="12"/>
+      <c r="GI28" s="12"/>
+      <c r="GJ28" s="12"/>
+      <c r="GK28" s="12"/>
+      <c r="GL28" s="12"/>
+      <c r="GM28" s="12"/>
+      <c r="GN28" s="12"/>
+      <c r="GO28" s="12"/>
+      <c r="GP28" s="12"/>
+      <c r="GQ28" s="12"/>
+      <c r="GR28" s="12"/>
+      <c r="GS28" s="12"/>
+      <c r="GT28" s="12"/>
+      <c r="GU28" s="12"/>
+      <c r="GV28" s="12"/>
+      <c r="GW28" s="12"/>
+      <c r="GX28" s="12"/>
+      <c r="GY28" s="12"/>
+      <c r="GZ28" s="12"/>
+      <c r="HA28" s="12"/>
+      <c r="HB28" s="12"/>
+      <c r="HC28" s="12"/>
+      <c r="HD28" s="12"/>
+      <c r="HE28" s="12"/>
+      <c r="HF28" s="12"/>
+      <c r="HG28" s="12"/>
+      <c r="HH28" s="12"/>
+      <c r="HI28" s="12"/>
+      <c r="HJ28" s="12"/>
+      <c r="HK28" s="12"/>
+      <c r="HL28" s="12"/>
+      <c r="HM28" s="12"/>
+      <c r="HN28" s="12"/>
+      <c r="HO28" s="12"/>
+      <c r="HP28" s="12"/>
+      <c r="HQ28" s="12"/>
+      <c r="HR28" s="12"/>
+      <c r="HS28" s="12"/>
+      <c r="HT28" s="12"/>
+      <c r="HU28" s="12"/>
+      <c r="HV28" s="12"/>
+      <c r="HW28" s="12"/>
+      <c r="HX28" s="12"/>
+      <c r="HY28" s="12"/>
+      <c r="HZ28" s="12"/>
+      <c r="IA28" s="12"/>
+      <c r="IB28" s="12"/>
+      <c r="IC28" s="12"/>
+      <c r="ID28" s="12"/>
+      <c r="IE28" s="12"/>
+      <c r="IF28" s="12"/>
+      <c r="IG28" s="12"/>
+      <c r="IH28" s="12"/>
+      <c r="II28" s="12"/>
+      <c r="IJ28" s="12"/>
+      <c r="IK28" s="12"/>
+      <c r="IL28" s="12"/>
+      <c r="IM28" s="12"/>
+      <c r="IN28" s="12"/>
+      <c r="IO28" s="12"/>
+      <c r="IP28" s="12"/>
+      <c r="IQ28" s="12"/>
+      <c r="IR28" s="12"/>
+      <c r="IS28" s="12"/>
+      <c r="IT28" s="12"/>
+      <c r="IU28" s="12"/>
+      <c r="IV28" s="12"/>
+      <c r="IW28" s="12"/>
+      <c r="IX28" s="12"/>
     </row>
-    <row r="29" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
+    <row r="29" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="66"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="12"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="12"/>
+      <c r="AY29" s="12"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12"/>
+      <c r="BB29" s="12"/>
+      <c r="BC29" s="12"/>
+      <c r="BD29" s="12"/>
+      <c r="BE29" s="12"/>
+      <c r="BF29" s="12"/>
+      <c r="BG29" s="12"/>
+      <c r="BH29" s="12"/>
+      <c r="BI29" s="12"/>
+      <c r="BJ29" s="12"/>
+      <c r="BK29" s="12"/>
+      <c r="BL29" s="12"/>
+      <c r="BM29" s="12"/>
+      <c r="BN29" s="12"/>
+      <c r="BO29" s="12"/>
+      <c r="BP29" s="12"/>
+      <c r="BQ29" s="12"/>
+      <c r="BR29" s="12"/>
+      <c r="BS29" s="12"/>
+      <c r="BT29" s="12"/>
+      <c r="BU29" s="12"/>
+      <c r="BV29" s="12"/>
+      <c r="BW29" s="12"/>
+      <c r="BX29" s="12"/>
+      <c r="BY29" s="12"/>
+      <c r="BZ29" s="12"/>
+      <c r="CA29" s="12"/>
+      <c r="CB29" s="12"/>
+      <c r="CC29" s="12"/>
+      <c r="CD29" s="12"/>
+      <c r="CE29" s="12"/>
+      <c r="CF29" s="12"/>
+      <c r="CG29" s="12"/>
+      <c r="CH29" s="12"/>
+      <c r="CI29" s="12"/>
+      <c r="CJ29" s="12"/>
+      <c r="CK29" s="12"/>
+      <c r="CL29" s="12"/>
+      <c r="CM29" s="12"/>
+      <c r="CN29" s="12"/>
+      <c r="CO29" s="12"/>
+      <c r="CP29" s="12"/>
+      <c r="CQ29" s="12"/>
+      <c r="CR29" s="12"/>
+      <c r="CS29" s="12"/>
+      <c r="CT29" s="12"/>
+      <c r="CU29" s="12"/>
+      <c r="CV29" s="12"/>
+      <c r="CW29" s="12"/>
+      <c r="CX29" s="12"/>
+      <c r="CY29" s="12"/>
+      <c r="CZ29" s="12"/>
+      <c r="DA29" s="12"/>
+      <c r="DB29" s="12"/>
+      <c r="DC29" s="12"/>
+      <c r="DD29" s="12"/>
+      <c r="DE29" s="12"/>
+      <c r="DF29" s="12"/>
+      <c r="DG29" s="12"/>
+      <c r="DH29" s="12"/>
+      <c r="DI29" s="12"/>
+      <c r="DJ29" s="12"/>
+      <c r="DK29" s="12"/>
+      <c r="DL29" s="12"/>
+      <c r="DM29" s="12"/>
+      <c r="DN29" s="12"/>
+      <c r="DO29" s="12"/>
+      <c r="DP29" s="12"/>
+      <c r="DQ29" s="12"/>
+      <c r="DR29" s="12"/>
+      <c r="DS29" s="12"/>
+      <c r="DT29" s="12"/>
+      <c r="DU29" s="12"/>
+      <c r="DV29" s="12"/>
+      <c r="DW29" s="12"/>
+      <c r="DX29" s="12"/>
+      <c r="DY29" s="12"/>
+      <c r="DZ29" s="12"/>
+      <c r="EA29" s="12"/>
+      <c r="EB29" s="12"/>
+      <c r="EC29" s="12"/>
+      <c r="ED29" s="12"/>
+      <c r="EE29" s="12"/>
+      <c r="EF29" s="12"/>
+      <c r="EG29" s="12"/>
+      <c r="EH29" s="12"/>
+      <c r="EI29" s="12"/>
+      <c r="EJ29" s="12"/>
+      <c r="EK29" s="12"/>
+      <c r="EL29" s="12"/>
+      <c r="EM29" s="12"/>
+      <c r="EN29" s="12"/>
+      <c r="EO29" s="12"/>
+      <c r="EP29" s="12"/>
+      <c r="EQ29" s="12"/>
+      <c r="ER29" s="12"/>
+      <c r="ES29" s="12"/>
+      <c r="ET29" s="12"/>
+      <c r="EU29" s="12"/>
+      <c r="EV29" s="12"/>
+      <c r="EW29" s="12"/>
+      <c r="EX29" s="12"/>
+      <c r="EY29" s="12"/>
+      <c r="EZ29" s="12"/>
+      <c r="FA29" s="12"/>
+      <c r="FB29" s="12"/>
+      <c r="FC29" s="12"/>
+      <c r="FD29" s="12"/>
+      <c r="FE29" s="12"/>
+      <c r="FF29" s="12"/>
+      <c r="FG29" s="12"/>
+      <c r="FH29" s="12"/>
+      <c r="FI29" s="12"/>
+      <c r="FJ29" s="12"/>
+      <c r="FK29" s="12"/>
+      <c r="FL29" s="12"/>
+      <c r="FM29" s="12"/>
+      <c r="FN29" s="12"/>
+      <c r="FO29" s="12"/>
+      <c r="FP29" s="12"/>
+      <c r="FQ29" s="12"/>
+      <c r="FR29" s="12"/>
+      <c r="FS29" s="12"/>
+      <c r="FT29" s="12"/>
+      <c r="FU29" s="12"/>
+      <c r="FV29" s="12"/>
+      <c r="FW29" s="12"/>
+      <c r="FX29" s="12"/>
+      <c r="FY29" s="12"/>
+      <c r="FZ29" s="12"/>
+      <c r="GA29" s="12"/>
+      <c r="GB29" s="12"/>
+      <c r="GC29" s="12"/>
+      <c r="GD29" s="12"/>
+      <c r="GE29" s="12"/>
+      <c r="GF29" s="12"/>
+      <c r="GG29" s="12"/>
+      <c r="GH29" s="12"/>
+      <c r="GI29" s="12"/>
+      <c r="GJ29" s="12"/>
+      <c r="GK29" s="12"/>
+      <c r="GL29" s="12"/>
+      <c r="GM29" s="12"/>
+      <c r="GN29" s="12"/>
+      <c r="GO29" s="12"/>
+      <c r="GP29" s="12"/>
+      <c r="GQ29" s="12"/>
+      <c r="GR29" s="12"/>
+      <c r="GS29" s="12"/>
+      <c r="GT29" s="12"/>
+      <c r="GU29" s="12"/>
+      <c r="GV29" s="12"/>
+      <c r="GW29" s="12"/>
+      <c r="GX29" s="12"/>
+      <c r="GY29" s="12"/>
+      <c r="GZ29" s="12"/>
+      <c r="HA29" s="12"/>
+      <c r="HB29" s="12"/>
+      <c r="HC29" s="12"/>
+      <c r="HD29" s="12"/>
+      <c r="HE29" s="12"/>
+      <c r="HF29" s="12"/>
+      <c r="HG29" s="12"/>
+      <c r="HH29" s="12"/>
+      <c r="HI29" s="12"/>
+      <c r="HJ29" s="12"/>
+      <c r="HK29" s="12"/>
+      <c r="HL29" s="12"/>
+      <c r="HM29" s="12"/>
+      <c r="HN29" s="12"/>
+      <c r="HO29" s="12"/>
+      <c r="HP29" s="12"/>
+      <c r="HQ29" s="12"/>
+      <c r="HR29" s="12"/>
+      <c r="HS29" s="12"/>
+      <c r="HT29" s="12"/>
+      <c r="HU29" s="12"/>
+      <c r="HV29" s="12"/>
+      <c r="HW29" s="12"/>
+      <c r="HX29" s="12"/>
+      <c r="HY29" s="12"/>
+      <c r="HZ29" s="12"/>
+      <c r="IA29" s="12"/>
+      <c r="IB29" s="12"/>
+      <c r="IC29" s="12"/>
+      <c r="ID29" s="12"/>
+      <c r="IE29" s="12"/>
+      <c r="IF29" s="12"/>
+      <c r="IG29" s="12"/>
+      <c r="IH29" s="12"/>
+      <c r="II29" s="12"/>
+      <c r="IJ29" s="12"/>
+      <c r="IK29" s="12"/>
+      <c r="IL29" s="12"/>
+      <c r="IM29" s="12"/>
+      <c r="IN29" s="12"/>
+      <c r="IO29" s="12"/>
+      <c r="IP29" s="12"/>
+      <c r="IQ29" s="12"/>
+      <c r="IR29" s="12"/>
+      <c r="IS29" s="12"/>
+      <c r="IT29" s="12"/>
+      <c r="IU29" s="12"/>
+      <c r="IV29" s="12"/>
+      <c r="IW29" s="12"/>
+      <c r="IX29" s="12"/>
     </row>
     <row r="30" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="60"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="25"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
     </row>
-    <row r="31" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="60"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+    <row r="31" spans="1:258" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="46"/>
+      <c r="AI31" s="46"/>
+      <c r="AJ31" s="46"/>
+      <c r="AK31" s="46"/>
+      <c r="AL31" s="46"/>
+      <c r="AM31" s="46"/>
+      <c r="AN31" s="46"/>
+      <c r="AO31" s="46"/>
+      <c r="AP31" s="46"/>
+      <c r="AQ31" s="46"/>
+      <c r="AR31" s="46"/>
+      <c r="AS31" s="46"/>
+      <c r="AT31" s="46"/>
+      <c r="AU31" s="46"/>
+      <c r="AV31" s="46"/>
+      <c r="AW31" s="46"/>
+      <c r="AX31" s="46"/>
+      <c r="AY31" s="46"/>
+      <c r="AZ31" s="46"/>
+      <c r="BA31" s="46"/>
+      <c r="BB31" s="46"/>
+      <c r="BC31" s="46"/>
+      <c r="BD31" s="46"/>
+      <c r="BE31" s="46"/>
+      <c r="BF31" s="46"/>
+      <c r="BG31" s="46"/>
+      <c r="BH31" s="46"/>
+      <c r="BI31" s="46"/>
+      <c r="BJ31" s="46"/>
+      <c r="BK31" s="46"/>
+      <c r="BL31" s="46"/>
+      <c r="BM31" s="46"/>
+      <c r="BN31" s="46"/>
+      <c r="BO31" s="46"/>
+      <c r="BP31" s="46"/>
+      <c r="BQ31" s="46"/>
+      <c r="BR31" s="46"/>
+      <c r="BS31" s="46"/>
+      <c r="BT31" s="46"/>
+      <c r="BU31" s="46"/>
+      <c r="BV31" s="46"/>
+      <c r="BW31" s="46"/>
+      <c r="BX31" s="46"/>
+      <c r="BY31" s="46"/>
+      <c r="BZ31" s="46"/>
+      <c r="CA31" s="46"/>
+      <c r="CB31" s="46"/>
+      <c r="CC31" s="46"/>
+      <c r="CD31" s="46"/>
+      <c r="CE31" s="46"/>
+      <c r="CF31" s="46"/>
+      <c r="CG31" s="46"/>
+      <c r="CH31" s="46"/>
+      <c r="CI31" s="46"/>
+      <c r="CJ31" s="46"/>
+      <c r="CK31" s="46"/>
+      <c r="CL31" s="46"/>
+      <c r="CM31" s="46"/>
+      <c r="CN31" s="46"/>
+      <c r="CO31" s="46"/>
+      <c r="CP31" s="46"/>
+      <c r="CQ31" s="46"/>
+      <c r="CR31" s="46"/>
+      <c r="CS31" s="46"/>
+      <c r="CT31" s="46"/>
+      <c r="CU31" s="46"/>
+      <c r="CV31" s="46"/>
+      <c r="CW31" s="46"/>
+      <c r="CX31" s="46"/>
+      <c r="CY31" s="46"/>
+      <c r="CZ31" s="46"/>
+      <c r="DA31" s="46"/>
+      <c r="DB31" s="46"/>
+      <c r="DC31" s="46"/>
+      <c r="DD31" s="46"/>
+      <c r="DE31" s="46"/>
+      <c r="DF31" s="46"/>
+      <c r="DG31" s="46"/>
+      <c r="DH31" s="46"/>
+      <c r="DI31" s="46"/>
+      <c r="DJ31" s="46"/>
+      <c r="DK31" s="46"/>
+      <c r="DL31" s="46"/>
+      <c r="DM31" s="46"/>
+      <c r="DN31" s="46"/>
+      <c r="DO31" s="46"/>
+      <c r="DP31" s="46"/>
+      <c r="DQ31" s="46"/>
+      <c r="DR31" s="46"/>
+      <c r="DS31" s="46"/>
+      <c r="DT31" s="46"/>
+      <c r="DU31" s="46"/>
+      <c r="DV31" s="46"/>
+      <c r="DW31" s="46"/>
+      <c r="DX31" s="46"/>
+      <c r="DY31" s="46"/>
+      <c r="DZ31" s="46"/>
+      <c r="EA31" s="46"/>
+      <c r="EB31" s="46"/>
+      <c r="EC31" s="46"/>
+      <c r="ED31" s="46"/>
+      <c r="EE31" s="46"/>
+      <c r="EF31" s="46"/>
+      <c r="EG31" s="46"/>
+      <c r="EH31" s="46"/>
+      <c r="EI31" s="46"/>
+      <c r="EJ31" s="46"/>
+      <c r="EK31" s="46"/>
+      <c r="EL31" s="46"/>
+      <c r="EM31" s="46"/>
+      <c r="EN31" s="46"/>
+      <c r="EO31" s="46"/>
+      <c r="EP31" s="46"/>
+      <c r="EQ31" s="46"/>
+      <c r="ER31" s="46"/>
+      <c r="ES31" s="46"/>
+      <c r="ET31" s="46"/>
+      <c r="EU31" s="46"/>
+      <c r="EV31" s="46"/>
+      <c r="EW31" s="46"/>
+      <c r="EX31" s="46"/>
+      <c r="EY31" s="46"/>
+      <c r="EZ31" s="46"/>
+      <c r="FA31" s="46"/>
+      <c r="FB31" s="46"/>
+      <c r="FC31" s="46"/>
+      <c r="FD31" s="46"/>
+      <c r="FE31" s="46"/>
+      <c r="FF31" s="46"/>
+      <c r="FG31" s="46"/>
+      <c r="FH31" s="46"/>
+      <c r="FI31" s="46"/>
+      <c r="FJ31" s="46"/>
+      <c r="FK31" s="46"/>
+      <c r="FL31" s="46"/>
+      <c r="FM31" s="46"/>
+      <c r="FN31" s="46"/>
+      <c r="FO31" s="46"/>
+      <c r="FP31" s="46"/>
+      <c r="FQ31" s="46"/>
+      <c r="FR31" s="46"/>
+      <c r="FS31" s="46"/>
+      <c r="FT31" s="46"/>
+      <c r="FU31" s="46"/>
+      <c r="FV31" s="46"/>
+      <c r="FW31" s="46"/>
+      <c r="FX31" s="46"/>
+      <c r="FY31" s="46"/>
+      <c r="FZ31" s="46"/>
+      <c r="GA31" s="46"/>
+      <c r="GB31" s="46"/>
+      <c r="GC31" s="46"/>
+      <c r="GD31" s="46"/>
+      <c r="GE31" s="46"/>
+      <c r="GF31" s="46"/>
+      <c r="GG31" s="46"/>
+      <c r="GH31" s="46"/>
+      <c r="GI31" s="46"/>
+      <c r="GJ31" s="46"/>
+      <c r="GK31" s="46"/>
+      <c r="GL31" s="46"/>
+      <c r="GM31" s="46"/>
+      <c r="GN31" s="46"/>
+      <c r="GO31" s="46"/>
+      <c r="GP31" s="46"/>
+      <c r="GQ31" s="46"/>
+      <c r="GR31" s="46"/>
+      <c r="GS31" s="46"/>
+      <c r="GT31" s="46"/>
+      <c r="GU31" s="46"/>
+      <c r="GV31" s="46"/>
+      <c r="GW31" s="46"/>
+      <c r="GX31" s="46"/>
+      <c r="GY31" s="46"/>
+      <c r="GZ31" s="46"/>
+      <c r="HA31" s="46"/>
+      <c r="HB31" s="46"/>
+      <c r="HC31" s="46"/>
+      <c r="HD31" s="46"/>
+      <c r="HE31" s="46"/>
+      <c r="HF31" s="46"/>
+      <c r="HG31" s="46"/>
+      <c r="HH31" s="46"/>
+      <c r="HI31" s="46"/>
+      <c r="HJ31" s="46"/>
+      <c r="HK31" s="46"/>
+      <c r="HL31" s="46"/>
+      <c r="HM31" s="46"/>
+      <c r="HN31" s="46"/>
+      <c r="HO31" s="46"/>
+      <c r="HP31" s="46"/>
+      <c r="HQ31" s="46"/>
+      <c r="HR31" s="46"/>
+      <c r="HS31" s="46"/>
+      <c r="HT31" s="46"/>
+      <c r="HU31" s="46"/>
+      <c r="HV31" s="46"/>
+      <c r="HW31" s="46"/>
+      <c r="HX31" s="46"/>
+      <c r="HY31" s="46"/>
+      <c r="HZ31" s="46"/>
+      <c r="IA31" s="46"/>
+      <c r="IB31" s="46"/>
+      <c r="IC31" s="46"/>
+      <c r="ID31" s="46"/>
+      <c r="IE31" s="46"/>
+      <c r="IF31" s="46"/>
+      <c r="IG31" s="46"/>
+      <c r="IH31" s="46"/>
+      <c r="II31" s="46"/>
+      <c r="IJ31" s="46"/>
+      <c r="IK31" s="46"/>
+      <c r="IL31" s="46"/>
+      <c r="IM31" s="46"/>
+      <c r="IN31" s="46"/>
+      <c r="IO31" s="46"/>
+      <c r="IP31" s="46"/>
+      <c r="IQ31" s="46"/>
+      <c r="IR31" s="46"/>
+      <c r="IS31" s="46"/>
+      <c r="IT31" s="46"/>
+      <c r="IU31" s="46"/>
+      <c r="IV31" s="46"/>
+      <c r="IW31" s="46"/>
+      <c r="IX31" s="46"/>
     </row>
     <row r="32" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="45"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
     </row>
-    <row r="33" spans="1:258" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="46"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="46"/>
-      <c r="AL33" s="46"/>
-      <c r="AM33" s="46"/>
-      <c r="AN33" s="46"/>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="46"/>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="46"/>
-      <c r="AS33" s="46"/>
-      <c r="AT33" s="46"/>
-      <c r="AU33" s="46"/>
-      <c r="AV33" s="46"/>
-      <c r="AW33" s="46"/>
-      <c r="AX33" s="46"/>
-      <c r="AY33" s="46"/>
-      <c r="AZ33" s="46"/>
-      <c r="BA33" s="46"/>
-      <c r="BB33" s="46"/>
-      <c r="BC33" s="46"/>
-      <c r="BD33" s="46"/>
-      <c r="BE33" s="46"/>
-      <c r="BF33" s="46"/>
-      <c r="BG33" s="46"/>
-      <c r="BH33" s="46"/>
-      <c r="BI33" s="46"/>
-      <c r="BJ33" s="46"/>
-      <c r="BK33" s="46"/>
-      <c r="BL33" s="46"/>
-      <c r="BM33" s="46"/>
-      <c r="BN33" s="46"/>
-      <c r="BO33" s="46"/>
-      <c r="BP33" s="46"/>
-      <c r="BQ33" s="46"/>
-      <c r="BR33" s="46"/>
-      <c r="BS33" s="46"/>
-      <c r="BT33" s="46"/>
-      <c r="BU33" s="46"/>
-      <c r="BV33" s="46"/>
-      <c r="BW33" s="46"/>
-      <c r="BX33" s="46"/>
-      <c r="BY33" s="46"/>
-      <c r="BZ33" s="46"/>
-      <c r="CA33" s="46"/>
-      <c r="CB33" s="46"/>
-      <c r="CC33" s="46"/>
-      <c r="CD33" s="46"/>
-      <c r="CE33" s="46"/>
-      <c r="CF33" s="46"/>
-      <c r="CG33" s="46"/>
-      <c r="CH33" s="46"/>
-      <c r="CI33" s="46"/>
-      <c r="CJ33" s="46"/>
-      <c r="CK33" s="46"/>
-      <c r="CL33" s="46"/>
-      <c r="CM33" s="46"/>
-      <c r="CN33" s="46"/>
-      <c r="CO33" s="46"/>
-      <c r="CP33" s="46"/>
-      <c r="CQ33" s="46"/>
-      <c r="CR33" s="46"/>
-      <c r="CS33" s="46"/>
-      <c r="CT33" s="46"/>
-      <c r="CU33" s="46"/>
-      <c r="CV33" s="46"/>
-      <c r="CW33" s="46"/>
-      <c r="CX33" s="46"/>
-      <c r="CY33" s="46"/>
-      <c r="CZ33" s="46"/>
-      <c r="DA33" s="46"/>
-      <c r="DB33" s="46"/>
-      <c r="DC33" s="46"/>
-      <c r="DD33" s="46"/>
-      <c r="DE33" s="46"/>
-      <c r="DF33" s="46"/>
-      <c r="DG33" s="46"/>
-      <c r="DH33" s="46"/>
-      <c r="DI33" s="46"/>
-      <c r="DJ33" s="46"/>
-      <c r="DK33" s="46"/>
-      <c r="DL33" s="46"/>
-      <c r="DM33" s="46"/>
-      <c r="DN33" s="46"/>
-      <c r="DO33" s="46"/>
-      <c r="DP33" s="46"/>
-      <c r="DQ33" s="46"/>
-      <c r="DR33" s="46"/>
-      <c r="DS33" s="46"/>
-      <c r="DT33" s="46"/>
-      <c r="DU33" s="46"/>
-      <c r="DV33" s="46"/>
-      <c r="DW33" s="46"/>
-      <c r="DX33" s="46"/>
-      <c r="DY33" s="46"/>
-      <c r="DZ33" s="46"/>
-      <c r="EA33" s="46"/>
-      <c r="EB33" s="46"/>
-      <c r="EC33" s="46"/>
-      <c r="ED33" s="46"/>
-      <c r="EE33" s="46"/>
-      <c r="EF33" s="46"/>
-      <c r="EG33" s="46"/>
-      <c r="EH33" s="46"/>
-      <c r="EI33" s="46"/>
-      <c r="EJ33" s="46"/>
-      <c r="EK33" s="46"/>
-      <c r="EL33" s="46"/>
-      <c r="EM33" s="46"/>
-      <c r="EN33" s="46"/>
-      <c r="EO33" s="46"/>
-      <c r="EP33" s="46"/>
-      <c r="EQ33" s="46"/>
-      <c r="ER33" s="46"/>
-      <c r="ES33" s="46"/>
-      <c r="ET33" s="46"/>
-      <c r="EU33" s="46"/>
-      <c r="EV33" s="46"/>
-      <c r="EW33" s="46"/>
-      <c r="EX33" s="46"/>
-      <c r="EY33" s="46"/>
-      <c r="EZ33" s="46"/>
-      <c r="FA33" s="46"/>
-      <c r="FB33" s="46"/>
-      <c r="FC33" s="46"/>
-      <c r="FD33" s="46"/>
-      <c r="FE33" s="46"/>
-      <c r="FF33" s="46"/>
-      <c r="FG33" s="46"/>
-      <c r="FH33" s="46"/>
-      <c r="FI33" s="46"/>
-      <c r="FJ33" s="46"/>
-      <c r="FK33" s="46"/>
-      <c r="FL33" s="46"/>
-      <c r="FM33" s="46"/>
-      <c r="FN33" s="46"/>
-      <c r="FO33" s="46"/>
-      <c r="FP33" s="46"/>
-      <c r="FQ33" s="46"/>
-      <c r="FR33" s="46"/>
-      <c r="FS33" s="46"/>
-      <c r="FT33" s="46"/>
-      <c r="FU33" s="46"/>
-      <c r="FV33" s="46"/>
-      <c r="FW33" s="46"/>
-      <c r="FX33" s="46"/>
-      <c r="FY33" s="46"/>
-      <c r="FZ33" s="46"/>
-      <c r="GA33" s="46"/>
-      <c r="GB33" s="46"/>
-      <c r="GC33" s="46"/>
-      <c r="GD33" s="46"/>
-      <c r="GE33" s="46"/>
-      <c r="GF33" s="46"/>
-      <c r="GG33" s="46"/>
-      <c r="GH33" s="46"/>
-      <c r="GI33" s="46"/>
-      <c r="GJ33" s="46"/>
-      <c r="GK33" s="46"/>
-      <c r="GL33" s="46"/>
-      <c r="GM33" s="46"/>
-      <c r="GN33" s="46"/>
-      <c r="GO33" s="46"/>
-      <c r="GP33" s="46"/>
-      <c r="GQ33" s="46"/>
-      <c r="GR33" s="46"/>
-      <c r="GS33" s="46"/>
-      <c r="GT33" s="46"/>
-      <c r="GU33" s="46"/>
-      <c r="GV33" s="46"/>
-      <c r="GW33" s="46"/>
-      <c r="GX33" s="46"/>
-      <c r="GY33" s="46"/>
-      <c r="GZ33" s="46"/>
-      <c r="HA33" s="46"/>
-      <c r="HB33" s="46"/>
-      <c r="HC33" s="46"/>
-      <c r="HD33" s="46"/>
-      <c r="HE33" s="46"/>
-      <c r="HF33" s="46"/>
-      <c r="HG33" s="46"/>
-      <c r="HH33" s="46"/>
-      <c r="HI33" s="46"/>
-      <c r="HJ33" s="46"/>
-      <c r="HK33" s="46"/>
-      <c r="HL33" s="46"/>
-      <c r="HM33" s="46"/>
-      <c r="HN33" s="46"/>
-      <c r="HO33" s="46"/>
-      <c r="HP33" s="46"/>
-      <c r="HQ33" s="46"/>
-      <c r="HR33" s="46"/>
-      <c r="HS33" s="46"/>
-      <c r="HT33" s="46"/>
-      <c r="HU33" s="46"/>
-      <c r="HV33" s="46"/>
-      <c r="HW33" s="46"/>
-      <c r="HX33" s="46"/>
-      <c r="HY33" s="46"/>
-      <c r="HZ33" s="46"/>
-      <c r="IA33" s="46"/>
-      <c r="IB33" s="46"/>
-      <c r="IC33" s="46"/>
-      <c r="ID33" s="46"/>
-      <c r="IE33" s="46"/>
-      <c r="IF33" s="46"/>
-      <c r="IG33" s="46"/>
-      <c r="IH33" s="46"/>
-      <c r="II33" s="46"/>
-      <c r="IJ33" s="46"/>
-      <c r="IK33" s="46"/>
-      <c r="IL33" s="46"/>
-      <c r="IM33" s="46"/>
-      <c r="IN33" s="46"/>
-      <c r="IO33" s="46"/>
-      <c r="IP33" s="46"/>
-      <c r="IQ33" s="46"/>
-      <c r="IR33" s="46"/>
-      <c r="IS33" s="46"/>
-      <c r="IT33" s="46"/>
-      <c r="IU33" s="46"/>
-      <c r="IV33" s="46"/>
-      <c r="IW33" s="46"/>
-      <c r="IX33" s="46"/>
+    <row r="33" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="60"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="25"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="59"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="45"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
     </row>
-    <row r="36" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
+    <row r="36" spans="1:258" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="49"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="46"/>
+      <c r="AF36" s="46"/>
+      <c r="AG36" s="46"/>
+      <c r="AH36" s="46"/>
+      <c r="AI36" s="46"/>
+      <c r="AJ36" s="46"/>
+      <c r="AK36" s="46"/>
+      <c r="AL36" s="46"/>
+      <c r="AM36" s="46"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="46"/>
+      <c r="AP36" s="46"/>
+      <c r="AQ36" s="46"/>
+      <c r="AR36" s="46"/>
+      <c r="AS36" s="46"/>
+      <c r="AT36" s="46"/>
+      <c r="AU36" s="46"/>
+      <c r="AV36" s="46"/>
+      <c r="AW36" s="46"/>
+      <c r="AX36" s="46"/>
+      <c r="AY36" s="46"/>
+      <c r="AZ36" s="46"/>
+      <c r="BA36" s="46"/>
+      <c r="BB36" s="46"/>
+      <c r="BC36" s="46"/>
+      <c r="BD36" s="46"/>
+      <c r="BE36" s="46"/>
+      <c r="BF36" s="46"/>
+      <c r="BG36" s="46"/>
+      <c r="BH36" s="46"/>
+      <c r="BI36" s="46"/>
+      <c r="BJ36" s="46"/>
+      <c r="BK36" s="46"/>
+      <c r="BL36" s="46"/>
+      <c r="BM36" s="46"/>
+      <c r="BN36" s="46"/>
+      <c r="BO36" s="46"/>
+      <c r="BP36" s="46"/>
+      <c r="BQ36" s="46"/>
+      <c r="BR36" s="46"/>
+      <c r="BS36" s="46"/>
+      <c r="BT36" s="46"/>
+      <c r="BU36" s="46"/>
+      <c r="BV36" s="46"/>
+      <c r="BW36" s="46"/>
+      <c r="BX36" s="46"/>
+      <c r="BY36" s="46"/>
+      <c r="BZ36" s="46"/>
+      <c r="CA36" s="46"/>
+      <c r="CB36" s="46"/>
+      <c r="CC36" s="46"/>
+      <c r="CD36" s="46"/>
+      <c r="CE36" s="46"/>
+      <c r="CF36" s="46"/>
+      <c r="CG36" s="46"/>
+      <c r="CH36" s="46"/>
+      <c r="CI36" s="46"/>
+      <c r="CJ36" s="46"/>
+      <c r="CK36" s="46"/>
+      <c r="CL36" s="46"/>
+      <c r="CM36" s="46"/>
+      <c r="CN36" s="46"/>
+      <c r="CO36" s="46"/>
+      <c r="CP36" s="46"/>
+      <c r="CQ36" s="46"/>
+      <c r="CR36" s="46"/>
+      <c r="CS36" s="46"/>
+      <c r="CT36" s="46"/>
+      <c r="CU36" s="46"/>
+      <c r="CV36" s="46"/>
+      <c r="CW36" s="46"/>
+      <c r="CX36" s="46"/>
+      <c r="CY36" s="46"/>
+      <c r="CZ36" s="46"/>
+      <c r="DA36" s="46"/>
+      <c r="DB36" s="46"/>
+      <c r="DC36" s="46"/>
+      <c r="DD36" s="46"/>
+      <c r="DE36" s="46"/>
+      <c r="DF36" s="46"/>
+      <c r="DG36" s="46"/>
+      <c r="DH36" s="46"/>
+      <c r="DI36" s="46"/>
+      <c r="DJ36" s="46"/>
+      <c r="DK36" s="46"/>
+      <c r="DL36" s="46"/>
+      <c r="DM36" s="46"/>
+      <c r="DN36" s="46"/>
+      <c r="DO36" s="46"/>
+      <c r="DP36" s="46"/>
+      <c r="DQ36" s="46"/>
+      <c r="DR36" s="46"/>
+      <c r="DS36" s="46"/>
+      <c r="DT36" s="46"/>
+      <c r="DU36" s="46"/>
+      <c r="DV36" s="46"/>
+      <c r="DW36" s="46"/>
+      <c r="DX36" s="46"/>
+      <c r="DY36" s="46"/>
+      <c r="DZ36" s="46"/>
+      <c r="EA36" s="46"/>
+      <c r="EB36" s="46"/>
+      <c r="EC36" s="46"/>
+      <c r="ED36" s="46"/>
+      <c r="EE36" s="46"/>
+      <c r="EF36" s="46"/>
+      <c r="EG36" s="46"/>
+      <c r="EH36" s="46"/>
+      <c r="EI36" s="46"/>
+      <c r="EJ36" s="46"/>
+      <c r="EK36" s="46"/>
+      <c r="EL36" s="46"/>
+      <c r="EM36" s="46"/>
+      <c r="EN36" s="46"/>
+      <c r="EO36" s="46"/>
+      <c r="EP36" s="46"/>
+      <c r="EQ36" s="46"/>
+      <c r="ER36" s="46"/>
+      <c r="ES36" s="46"/>
+      <c r="ET36" s="46"/>
+      <c r="EU36" s="46"/>
+      <c r="EV36" s="46"/>
+      <c r="EW36" s="46"/>
+      <c r="EX36" s="46"/>
+      <c r="EY36" s="46"/>
+      <c r="EZ36" s="46"/>
+      <c r="FA36" s="46"/>
+      <c r="FB36" s="46"/>
+      <c r="FC36" s="46"/>
+      <c r="FD36" s="46"/>
+      <c r="FE36" s="46"/>
+      <c r="FF36" s="46"/>
+      <c r="FG36" s="46"/>
+      <c r="FH36" s="46"/>
+      <c r="FI36" s="46"/>
+      <c r="FJ36" s="46"/>
+      <c r="FK36" s="46"/>
+      <c r="FL36" s="46"/>
+      <c r="FM36" s="46"/>
+      <c r="FN36" s="46"/>
+      <c r="FO36" s="46"/>
+      <c r="FP36" s="46"/>
+      <c r="FQ36" s="46"/>
+      <c r="FR36" s="46"/>
+      <c r="FS36" s="46"/>
+      <c r="FT36" s="46"/>
+      <c r="FU36" s="46"/>
+      <c r="FV36" s="46"/>
+      <c r="FW36" s="46"/>
+      <c r="FX36" s="46"/>
+      <c r="FY36" s="46"/>
+      <c r="FZ36" s="46"/>
+      <c r="GA36" s="46"/>
+      <c r="GB36" s="46"/>
+      <c r="GC36" s="46"/>
+      <c r="GD36" s="46"/>
+      <c r="GE36" s="46"/>
+      <c r="GF36" s="46"/>
+      <c r="GG36" s="46"/>
+      <c r="GH36" s="46"/>
+      <c r="GI36" s="46"/>
+      <c r="GJ36" s="46"/>
+      <c r="GK36" s="46"/>
+      <c r="GL36" s="46"/>
+      <c r="GM36" s="46"/>
+      <c r="GN36" s="46"/>
+      <c r="GO36" s="46"/>
+      <c r="GP36" s="46"/>
+      <c r="GQ36" s="46"/>
+      <c r="GR36" s="46"/>
+      <c r="GS36" s="46"/>
+      <c r="GT36" s="46"/>
+      <c r="GU36" s="46"/>
+      <c r="GV36" s="46"/>
+      <c r="GW36" s="46"/>
+      <c r="GX36" s="46"/>
+      <c r="GY36" s="46"/>
+      <c r="GZ36" s="46"/>
+      <c r="HA36" s="46"/>
+      <c r="HB36" s="46"/>
+      <c r="HC36" s="46"/>
+      <c r="HD36" s="46"/>
+      <c r="HE36" s="46"/>
+      <c r="HF36" s="46"/>
+      <c r="HG36" s="46"/>
+      <c r="HH36" s="46"/>
+      <c r="HI36" s="46"/>
+      <c r="HJ36" s="46"/>
+      <c r="HK36" s="46"/>
+      <c r="HL36" s="46"/>
+      <c r="HM36" s="46"/>
+      <c r="HN36" s="46"/>
+      <c r="HO36" s="46"/>
+      <c r="HP36" s="46"/>
+      <c r="HQ36" s="46"/>
+      <c r="HR36" s="46"/>
+      <c r="HS36" s="46"/>
+      <c r="HT36" s="46"/>
+      <c r="HU36" s="46"/>
+      <c r="HV36" s="46"/>
+      <c r="HW36" s="46"/>
+      <c r="HX36" s="46"/>
+      <c r="HY36" s="46"/>
+      <c r="HZ36" s="46"/>
+      <c r="IA36" s="46"/>
+      <c r="IB36" s="46"/>
+      <c r="IC36" s="46"/>
+      <c r="ID36" s="46"/>
+      <c r="IE36" s="46"/>
+      <c r="IF36" s="46"/>
+      <c r="IG36" s="46"/>
+      <c r="IH36" s="46"/>
+      <c r="II36" s="46"/>
+      <c r="IJ36" s="46"/>
+      <c r="IK36" s="46"/>
+      <c r="IL36" s="46"/>
+      <c r="IM36" s="46"/>
+      <c r="IN36" s="46"/>
+      <c r="IO36" s="46"/>
+      <c r="IP36" s="46"/>
+      <c r="IQ36" s="46"/>
+      <c r="IR36" s="46"/>
+      <c r="IS36" s="46"/>
+      <c r="IT36" s="46"/>
+      <c r="IU36" s="46"/>
+      <c r="IV36" s="46"/>
+      <c r="IW36" s="46"/>
+      <c r="IX36" s="46"/>
     </row>
     <row r="37" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
     </row>
     <row r="38" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="60"/>
@@ -8991,13 +9853,13 @@
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -9009,79 +9871,79 @@
       <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
+      <c r="H40" s="11"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="60"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="9"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="60"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="11"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="60"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="H44" s="11"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
+      <c r="H45" s="11"/>
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
@@ -9093,14 +9955,14 @@
       <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="26"/>
       <c r="J47" s="26"/>
     </row>
@@ -9116,16 +9978,52 @@
       <c r="I48" s="26"/>
       <c r="J48" s="26"/>
     </row>
+    <row r="49" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+    </row>
+    <row r="51" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="24"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A17:A21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -797,22 +797,6 @@
 }</t>
   </si>
   <si>
-    <t>{
- "count": 100,
- "employees": [
-  {
-   "id": 1,
-   "realName": "",
-   "userName": "",
-   "email": "",
-   "phone": "",
-   "order": 22,
-   "department": ""
-  }
- ]
-}</t>
-  </si>
-  <si>
     <t>Delete departments</t>
   </si>
   <si>
@@ -827,9 +811,6 @@
     <t>{
   "userIds": [1,2,3]
 }</t>
-  </si>
-  <si>
-    <t>/departments/$id/employees?page=1&amp;pageSize=10</t>
   </si>
   <si>
     <t>Roles</t>
@@ -969,6 +950,25 @@
                     "departments": ["部门1", "部门2"]
                 }
             }</t>
+  </si>
+  <si>
+    <t>/departments/$id/users?page=1&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>{
+ "count": 100,
+ "users": [
+  {
+   "id": 1,
+   "realName": "",
+   "userName": "",
+   "email": "",
+   "phone": "",
+   "order": 22,
+   "department": ""
+  }
+ ]
+}</t>
   </si>
 </sst>
 </file>
@@ -1759,9 +1759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IX51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3424,7 +3424,7 @@
         <v>106</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>25</v>
@@ -3433,7 +3433,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
@@ -3700,7 +3700,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>114</v>
@@ -3961,7 +3961,7 @@
     <row r="10" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>105</v>
@@ -3972,7 +3972,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>114</v>
@@ -4503,7 +4503,7 @@
     <row r="12" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
       <c r="B12" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>109</v>
@@ -4514,7 +4514,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>114</v>
@@ -4773,10 +4773,10 @@
     <row r="13" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
       <c r="B13" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>15</v>
@@ -4784,10 +4784,10 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
@@ -5043,10 +5043,10 @@
     <row r="14" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
       <c r="B14" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>25</v>
@@ -5055,7 +5055,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
@@ -5842,13 +5842,13 @@
     </row>
     <row r="17" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>125</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>127</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>25</v>
@@ -5857,7 +5857,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="38"/>
       <c r="H17" s="39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="39"/>
@@ -6113,10 +6113,10 @@
     <row r="18" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
       <c r="B18" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>25</v>
@@ -6125,7 +6125,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="55"/>
       <c r="H18" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
@@ -6381,10 +6381,10 @@
     <row r="19" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
       <c r="B19" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>25</v>
@@ -6393,7 +6393,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="55"/>
       <c r="H19" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
@@ -6649,10 +6649,10 @@
     <row r="20" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
       <c r="B20" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>25</v>
@@ -6661,7 +6661,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="55"/>
       <c r="H20" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -25,10 +25,10 @@
     <author>joe.feng@hotmail.com</author>
   </authors>
   <commentList>
-    <comment ref="C28" authorId="0" shapeId="0">
+    <comment ref="C29" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="G28" authorId="0" shapeId="0">
+    <comment ref="G29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="149">
   <si>
     <t>Comments</t>
   </si>
@@ -782,9 +782,6 @@
     <t>Get sub departments</t>
   </si>
   <si>
-    <t>/departments/$id/departments?page=1&amp;pageSize=10</t>
-  </si>
-  <si>
     <t>{
  "count": 100,
  "departments":[{
@@ -841,9 +838,6 @@
   </si>
   <si>
     <t>Get role by id</t>
-  </si>
-  <si>
-    <t>/roles/$roleId</t>
   </si>
   <si>
     <t>{
@@ -903,9 +897,6 @@
     <t>Get permission</t>
   </si>
   <si>
-    <t>/permissions/$permissionId</t>
-  </si>
-  <si>
     <t>{
                 "permissionCategories": [
                     {
@@ -952,9 +943,6 @@
             }</t>
   </si>
   <si>
-    <t>/departments/$id/users?page=1&amp;pageSize=10</t>
-  </si>
-  <si>
     <t>{
  "count": 100,
  "users": [
@@ -968,6 +956,41 @@
    "department": ""
   }
  ]
+}</t>
+  </si>
+  <si>
+    <t>Get user by id</t>
+  </si>
+  <si>
+    <t>/users/:userId</t>
+  </si>
+  <si>
+    <t>/departments/:departmentId/departments?page=1&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>/departments/:departmentId/users?page=1&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>/roles/:roleId</t>
+  </si>
+  <si>
+    <t>/permissions/:permissionId</t>
+  </si>
+  <si>
+    <t>{
+ "id": 1,
+ "realName": "",
+ "code": "",
+ "departmentId": 1,
+ "departmentName" : "",
+ "email": "",
+ "phone": "",
+ "tel": "",
+ "userName": "",
+ "languageId": 2,
+ "language": "",
+ "key": "",
+ "remark": ""
 }</t>
   </si>
 </sst>
@@ -1757,11 +1780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IX51"/>
+  <dimension ref="A1:IX52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3156,7 +3179,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>25</v>
@@ -3165,7 +3188,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="11"/>
@@ -3424,7 +3447,7 @@
         <v>106</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>25</v>
@@ -3433,7 +3456,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
@@ -3700,7 +3723,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>114</v>
@@ -3961,7 +3984,7 @@
     <row r="10" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>105</v>
@@ -3972,7 +3995,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>114</v>
@@ -4503,21 +4526,19 @@
     <row r="12" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
       <c r="B12" s="11" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="11" t="s">
-        <v>122</v>
-      </c>
+      <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
@@ -4773,21 +4794,21 @@
     <row r="13" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
       <c r="B13" s="11" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="11" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
@@ -5043,19 +5064,21 @@
     <row r="14" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
       <c r="B14" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="H14" s="11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
@@ -5309,27 +5332,23 @@
       <c r="IX14" s="12"/>
     </row>
     <row r="15" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="11" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>101</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="I15" s="9"/>
       <c r="J15" s="11"/>
       <c r="K15" s="9"/>
       <c r="L15" s="12"/>
@@ -5580,556 +5599,560 @@
       <c r="IW15" s="12"/>
       <c r="IX15" s="12"/>
     </row>
-    <row r="16" spans="1:258" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="35"/>
-      <c r="AQ16" s="35"/>
-      <c r="AR16" s="35"/>
-      <c r="AS16" s="35"/>
-      <c r="AT16" s="35"/>
-      <c r="AU16" s="35"/>
-      <c r="AV16" s="35"/>
-      <c r="AW16" s="35"/>
-      <c r="AX16" s="35"/>
-      <c r="AY16" s="35"/>
-      <c r="AZ16" s="35"/>
-      <c r="BA16" s="35"/>
-      <c r="BB16" s="35"/>
-      <c r="BC16" s="35"/>
-      <c r="BD16" s="35"/>
-      <c r="BE16" s="35"/>
-      <c r="BF16" s="35"/>
-      <c r="BG16" s="35"/>
-      <c r="BH16" s="35"/>
-      <c r="BI16" s="35"/>
-      <c r="BJ16" s="35"/>
-      <c r="BK16" s="35"/>
-      <c r="BL16" s="35"/>
-      <c r="BM16" s="35"/>
-      <c r="BN16" s="35"/>
-      <c r="BO16" s="35"/>
-      <c r="BP16" s="35"/>
-      <c r="BQ16" s="35"/>
-      <c r="BR16" s="35"/>
-      <c r="BS16" s="35"/>
-      <c r="BT16" s="35"/>
-      <c r="BU16" s="35"/>
-      <c r="BV16" s="35"/>
-      <c r="BW16" s="35"/>
-      <c r="BX16" s="35"/>
-      <c r="BY16" s="35"/>
-      <c r="BZ16" s="35"/>
-      <c r="CA16" s="35"/>
-      <c r="CB16" s="35"/>
-      <c r="CC16" s="35"/>
-      <c r="CD16" s="35"/>
-      <c r="CE16" s="35"/>
-      <c r="CF16" s="35"/>
-      <c r="CG16" s="35"/>
-      <c r="CH16" s="35"/>
-      <c r="CI16" s="35"/>
-      <c r="CJ16" s="35"/>
-      <c r="CK16" s="35"/>
-      <c r="CL16" s="35"/>
-      <c r="CM16" s="35"/>
-      <c r="CN16" s="35"/>
-      <c r="CO16" s="35"/>
-      <c r="CP16" s="35"/>
-      <c r="CQ16" s="35"/>
-      <c r="CR16" s="35"/>
-      <c r="CS16" s="35"/>
-      <c r="CT16" s="35"/>
-      <c r="CU16" s="35"/>
-      <c r="CV16" s="35"/>
-      <c r="CW16" s="35"/>
-      <c r="CX16" s="35"/>
-      <c r="CY16" s="35"/>
-      <c r="CZ16" s="35"/>
-      <c r="DA16" s="35"/>
-      <c r="DB16" s="35"/>
-      <c r="DC16" s="35"/>
-      <c r="DD16" s="35"/>
-      <c r="DE16" s="35"/>
-      <c r="DF16" s="35"/>
-      <c r="DG16" s="35"/>
-      <c r="DH16" s="35"/>
-      <c r="DI16" s="35"/>
-      <c r="DJ16" s="35"/>
-      <c r="DK16" s="35"/>
-      <c r="DL16" s="35"/>
-      <c r="DM16" s="35"/>
-      <c r="DN16" s="35"/>
-      <c r="DO16" s="35"/>
-      <c r="DP16" s="35"/>
-      <c r="DQ16" s="35"/>
-      <c r="DR16" s="35"/>
-      <c r="DS16" s="35"/>
-      <c r="DT16" s="35"/>
-      <c r="DU16" s="35"/>
-      <c r="DV16" s="35"/>
-      <c r="DW16" s="35"/>
-      <c r="DX16" s="35"/>
-      <c r="DY16" s="35"/>
-      <c r="DZ16" s="35"/>
-      <c r="EA16" s="35"/>
-      <c r="EB16" s="35"/>
-      <c r="EC16" s="35"/>
-      <c r="ED16" s="35"/>
-      <c r="EE16" s="35"/>
-      <c r="EF16" s="35"/>
-      <c r="EG16" s="35"/>
-      <c r="EH16" s="35"/>
-      <c r="EI16" s="35"/>
-      <c r="EJ16" s="35"/>
-      <c r="EK16" s="35"/>
-      <c r="EL16" s="35"/>
-      <c r="EM16" s="35"/>
-      <c r="EN16" s="35"/>
-      <c r="EO16" s="35"/>
-      <c r="EP16" s="35"/>
-      <c r="EQ16" s="35"/>
-      <c r="ER16" s="35"/>
-      <c r="ES16" s="35"/>
-      <c r="ET16" s="35"/>
-      <c r="EU16" s="35"/>
-      <c r="EV16" s="35"/>
-      <c r="EW16" s="35"/>
-      <c r="EX16" s="35"/>
-      <c r="EY16" s="35"/>
-      <c r="EZ16" s="35"/>
-      <c r="FA16" s="35"/>
-      <c r="FB16" s="35"/>
-      <c r="FC16" s="35"/>
-      <c r="FD16" s="35"/>
-      <c r="FE16" s="35"/>
-      <c r="FF16" s="35"/>
-      <c r="FG16" s="35"/>
-      <c r="FH16" s="35"/>
-      <c r="FI16" s="35"/>
-      <c r="FJ16" s="35"/>
-      <c r="FK16" s="35"/>
-      <c r="FL16" s="35"/>
-      <c r="FM16" s="35"/>
-      <c r="FN16" s="35"/>
-      <c r="FO16" s="35"/>
-      <c r="FP16" s="35"/>
-      <c r="FQ16" s="35"/>
-      <c r="FR16" s="35"/>
-      <c r="FS16" s="35"/>
-      <c r="FT16" s="35"/>
-      <c r="FU16" s="35"/>
-      <c r="FV16" s="35"/>
-      <c r="FW16" s="35"/>
-      <c r="FX16" s="35"/>
-      <c r="FY16" s="35"/>
-      <c r="FZ16" s="35"/>
-      <c r="GA16" s="35"/>
-      <c r="GB16" s="35"/>
-      <c r="GC16" s="35"/>
-      <c r="GD16" s="35"/>
-      <c r="GE16" s="35"/>
-      <c r="GF16" s="35"/>
-      <c r="GG16" s="35"/>
-      <c r="GH16" s="35"/>
-      <c r="GI16" s="35"/>
-      <c r="GJ16" s="35"/>
-      <c r="GK16" s="35"/>
-      <c r="GL16" s="35"/>
-      <c r="GM16" s="35"/>
-      <c r="GN16" s="35"/>
-      <c r="GO16" s="35"/>
-      <c r="GP16" s="35"/>
-      <c r="GQ16" s="35"/>
-      <c r="GR16" s="35"/>
-      <c r="GS16" s="35"/>
-      <c r="GT16" s="35"/>
-      <c r="GU16" s="35"/>
-      <c r="GV16" s="35"/>
-      <c r="GW16" s="35"/>
-      <c r="GX16" s="35"/>
-      <c r="GY16" s="35"/>
-      <c r="GZ16" s="35"/>
-      <c r="HA16" s="35"/>
-      <c r="HB16" s="35"/>
-      <c r="HC16" s="35"/>
-      <c r="HD16" s="35"/>
-      <c r="HE16" s="35"/>
-      <c r="HF16" s="35"/>
-      <c r="HG16" s="35"/>
-      <c r="HH16" s="35"/>
-      <c r="HI16" s="35"/>
-      <c r="HJ16" s="35"/>
-      <c r="HK16" s="35"/>
-      <c r="HL16" s="35"/>
-      <c r="HM16" s="35"/>
-      <c r="HN16" s="35"/>
-      <c r="HO16" s="35"/>
-      <c r="HP16" s="35"/>
-      <c r="HQ16" s="35"/>
-      <c r="HR16" s="35"/>
-      <c r="HS16" s="35"/>
-      <c r="HT16" s="35"/>
-      <c r="HU16" s="35"/>
-      <c r="HV16" s="35"/>
-      <c r="HW16" s="35"/>
-      <c r="HX16" s="35"/>
-      <c r="HY16" s="35"/>
-      <c r="HZ16" s="35"/>
-      <c r="IA16" s="35"/>
-      <c r="IB16" s="35"/>
-      <c r="IC16" s="35"/>
-      <c r="ID16" s="35"/>
-      <c r="IE16" s="35"/>
-      <c r="IF16" s="35"/>
-      <c r="IG16" s="35"/>
-      <c r="IH16" s="35"/>
-      <c r="II16" s="35"/>
-      <c r="IJ16" s="35"/>
-      <c r="IK16" s="35"/>
-      <c r="IL16" s="35"/>
-      <c r="IM16" s="35"/>
-      <c r="IN16" s="35"/>
-      <c r="IO16" s="35"/>
-      <c r="IP16" s="35"/>
-      <c r="IQ16" s="35"/>
-      <c r="IR16" s="35"/>
-      <c r="IS16" s="35"/>
-      <c r="IT16" s="35"/>
-      <c r="IU16" s="35"/>
-      <c r="IV16" s="35"/>
-      <c r="IW16" s="35"/>
-      <c r="IX16" s="35"/>
+    <row r="16" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="58"/>
+      <c r="B16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+      <c r="BH16" s="12"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="12"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="12"/>
+      <c r="BM16" s="12"/>
+      <c r="BN16" s="12"/>
+      <c r="BO16" s="12"/>
+      <c r="BP16" s="12"/>
+      <c r="BQ16" s="12"/>
+      <c r="BR16" s="12"/>
+      <c r="BS16" s="12"/>
+      <c r="BT16" s="12"/>
+      <c r="BU16" s="12"/>
+      <c r="BV16" s="12"/>
+      <c r="BW16" s="12"/>
+      <c r="BX16" s="12"/>
+      <c r="BY16" s="12"/>
+      <c r="BZ16" s="12"/>
+      <c r="CA16" s="12"/>
+      <c r="CB16" s="12"/>
+      <c r="CC16" s="12"/>
+      <c r="CD16" s="12"/>
+      <c r="CE16" s="12"/>
+      <c r="CF16" s="12"/>
+      <c r="CG16" s="12"/>
+      <c r="CH16" s="12"/>
+      <c r="CI16" s="12"/>
+      <c r="CJ16" s="12"/>
+      <c r="CK16" s="12"/>
+      <c r="CL16" s="12"/>
+      <c r="CM16" s="12"/>
+      <c r="CN16" s="12"/>
+      <c r="CO16" s="12"/>
+      <c r="CP16" s="12"/>
+      <c r="CQ16" s="12"/>
+      <c r="CR16" s="12"/>
+      <c r="CS16" s="12"/>
+      <c r="CT16" s="12"/>
+      <c r="CU16" s="12"/>
+      <c r="CV16" s="12"/>
+      <c r="CW16" s="12"/>
+      <c r="CX16" s="12"/>
+      <c r="CY16" s="12"/>
+      <c r="CZ16" s="12"/>
+      <c r="DA16" s="12"/>
+      <c r="DB16" s="12"/>
+      <c r="DC16" s="12"/>
+      <c r="DD16" s="12"/>
+      <c r="DE16" s="12"/>
+      <c r="DF16" s="12"/>
+      <c r="DG16" s="12"/>
+      <c r="DH16" s="12"/>
+      <c r="DI16" s="12"/>
+      <c r="DJ16" s="12"/>
+      <c r="DK16" s="12"/>
+      <c r="DL16" s="12"/>
+      <c r="DM16" s="12"/>
+      <c r="DN16" s="12"/>
+      <c r="DO16" s="12"/>
+      <c r="DP16" s="12"/>
+      <c r="DQ16" s="12"/>
+      <c r="DR16" s="12"/>
+      <c r="DS16" s="12"/>
+      <c r="DT16" s="12"/>
+      <c r="DU16" s="12"/>
+      <c r="DV16" s="12"/>
+      <c r="DW16" s="12"/>
+      <c r="DX16" s="12"/>
+      <c r="DY16" s="12"/>
+      <c r="DZ16" s="12"/>
+      <c r="EA16" s="12"/>
+      <c r="EB16" s="12"/>
+      <c r="EC16" s="12"/>
+      <c r="ED16" s="12"/>
+      <c r="EE16" s="12"/>
+      <c r="EF16" s="12"/>
+      <c r="EG16" s="12"/>
+      <c r="EH16" s="12"/>
+      <c r="EI16" s="12"/>
+      <c r="EJ16" s="12"/>
+      <c r="EK16" s="12"/>
+      <c r="EL16" s="12"/>
+      <c r="EM16" s="12"/>
+      <c r="EN16" s="12"/>
+      <c r="EO16" s="12"/>
+      <c r="EP16" s="12"/>
+      <c r="EQ16" s="12"/>
+      <c r="ER16" s="12"/>
+      <c r="ES16" s="12"/>
+      <c r="ET16" s="12"/>
+      <c r="EU16" s="12"/>
+      <c r="EV16" s="12"/>
+      <c r="EW16" s="12"/>
+      <c r="EX16" s="12"/>
+      <c r="EY16" s="12"/>
+      <c r="EZ16" s="12"/>
+      <c r="FA16" s="12"/>
+      <c r="FB16" s="12"/>
+      <c r="FC16" s="12"/>
+      <c r="FD16" s="12"/>
+      <c r="FE16" s="12"/>
+      <c r="FF16" s="12"/>
+      <c r="FG16" s="12"/>
+      <c r="FH16" s="12"/>
+      <c r="FI16" s="12"/>
+      <c r="FJ16" s="12"/>
+      <c r="FK16" s="12"/>
+      <c r="FL16" s="12"/>
+      <c r="FM16" s="12"/>
+      <c r="FN16" s="12"/>
+      <c r="FO16" s="12"/>
+      <c r="FP16" s="12"/>
+      <c r="FQ16" s="12"/>
+      <c r="FR16" s="12"/>
+      <c r="FS16" s="12"/>
+      <c r="FT16" s="12"/>
+      <c r="FU16" s="12"/>
+      <c r="FV16" s="12"/>
+      <c r="FW16" s="12"/>
+      <c r="FX16" s="12"/>
+      <c r="FY16" s="12"/>
+      <c r="FZ16" s="12"/>
+      <c r="GA16" s="12"/>
+      <c r="GB16" s="12"/>
+      <c r="GC16" s="12"/>
+      <c r="GD16" s="12"/>
+      <c r="GE16" s="12"/>
+      <c r="GF16" s="12"/>
+      <c r="GG16" s="12"/>
+      <c r="GH16" s="12"/>
+      <c r="GI16" s="12"/>
+      <c r="GJ16" s="12"/>
+      <c r="GK16" s="12"/>
+      <c r="GL16" s="12"/>
+      <c r="GM16" s="12"/>
+      <c r="GN16" s="12"/>
+      <c r="GO16" s="12"/>
+      <c r="GP16" s="12"/>
+      <c r="GQ16" s="12"/>
+      <c r="GR16" s="12"/>
+      <c r="GS16" s="12"/>
+      <c r="GT16" s="12"/>
+      <c r="GU16" s="12"/>
+      <c r="GV16" s="12"/>
+      <c r="GW16" s="12"/>
+      <c r="GX16" s="12"/>
+      <c r="GY16" s="12"/>
+      <c r="GZ16" s="12"/>
+      <c r="HA16" s="12"/>
+      <c r="HB16" s="12"/>
+      <c r="HC16" s="12"/>
+      <c r="HD16" s="12"/>
+      <c r="HE16" s="12"/>
+      <c r="HF16" s="12"/>
+      <c r="HG16" s="12"/>
+      <c r="HH16" s="12"/>
+      <c r="HI16" s="12"/>
+      <c r="HJ16" s="12"/>
+      <c r="HK16" s="12"/>
+      <c r="HL16" s="12"/>
+      <c r="HM16" s="12"/>
+      <c r="HN16" s="12"/>
+      <c r="HO16" s="12"/>
+      <c r="HP16" s="12"/>
+      <c r="HQ16" s="12"/>
+      <c r="HR16" s="12"/>
+      <c r="HS16" s="12"/>
+      <c r="HT16" s="12"/>
+      <c r="HU16" s="12"/>
+      <c r="HV16" s="12"/>
+      <c r="HW16" s="12"/>
+      <c r="HX16" s="12"/>
+      <c r="HY16" s="12"/>
+      <c r="HZ16" s="12"/>
+      <c r="IA16" s="12"/>
+      <c r="IB16" s="12"/>
+      <c r="IC16" s="12"/>
+      <c r="ID16" s="12"/>
+      <c r="IE16" s="12"/>
+      <c r="IF16" s="12"/>
+      <c r="IG16" s="12"/>
+      <c r="IH16" s="12"/>
+      <c r="II16" s="12"/>
+      <c r="IJ16" s="12"/>
+      <c r="IK16" s="12"/>
+      <c r="IL16" s="12"/>
+      <c r="IM16" s="12"/>
+      <c r="IN16" s="12"/>
+      <c r="IO16" s="12"/>
+      <c r="IP16" s="12"/>
+      <c r="IQ16" s="12"/>
+      <c r="IR16" s="12"/>
+      <c r="IS16" s="12"/>
+      <c r="IT16" s="12"/>
+      <c r="IU16" s="12"/>
+      <c r="IV16" s="12"/>
+      <c r="IW16" s="12"/>
+      <c r="IX16" s="12"/>
     </row>
-    <row r="17" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="12"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="12"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="12"/>
-      <c r="AX17" s="12"/>
-      <c r="AY17" s="12"/>
-      <c r="AZ17" s="12"/>
-      <c r="BA17" s="12"/>
-      <c r="BB17" s="12"/>
-      <c r="BC17" s="12"/>
-      <c r="BD17" s="12"/>
-      <c r="BE17" s="12"/>
-      <c r="BF17" s="12"/>
-      <c r="BG17" s="12"/>
-      <c r="BH17" s="12"/>
-      <c r="BI17" s="12"/>
-      <c r="BJ17" s="12"/>
-      <c r="BK17" s="12"/>
-      <c r="BL17" s="12"/>
-      <c r="BM17" s="12"/>
-      <c r="BN17" s="12"/>
-      <c r="BO17" s="12"/>
-      <c r="BP17" s="12"/>
-      <c r="BQ17" s="12"/>
-      <c r="BR17" s="12"/>
-      <c r="BS17" s="12"/>
-      <c r="BT17" s="12"/>
-      <c r="BU17" s="12"/>
-      <c r="BV17" s="12"/>
-      <c r="BW17" s="12"/>
-      <c r="BX17" s="12"/>
-      <c r="BY17" s="12"/>
-      <c r="BZ17" s="12"/>
-      <c r="CA17" s="12"/>
-      <c r="CB17" s="12"/>
-      <c r="CC17" s="12"/>
-      <c r="CD17" s="12"/>
-      <c r="CE17" s="12"/>
-      <c r="CF17" s="12"/>
-      <c r="CG17" s="12"/>
-      <c r="CH17" s="12"/>
-      <c r="CI17" s="12"/>
-      <c r="CJ17" s="12"/>
-      <c r="CK17" s="12"/>
-      <c r="CL17" s="12"/>
-      <c r="CM17" s="12"/>
-      <c r="CN17" s="12"/>
-      <c r="CO17" s="12"/>
-      <c r="CP17" s="12"/>
-      <c r="CQ17" s="12"/>
-      <c r="CR17" s="12"/>
-      <c r="CS17" s="12"/>
-      <c r="CT17" s="12"/>
-      <c r="CU17" s="12"/>
-      <c r="CV17" s="12"/>
-      <c r="CW17" s="12"/>
-      <c r="CX17" s="12"/>
-      <c r="CY17" s="12"/>
-      <c r="CZ17" s="12"/>
-      <c r="DA17" s="12"/>
-      <c r="DB17" s="12"/>
-      <c r="DC17" s="12"/>
-      <c r="DD17" s="12"/>
-      <c r="DE17" s="12"/>
-      <c r="DF17" s="12"/>
-      <c r="DG17" s="12"/>
-      <c r="DH17" s="12"/>
-      <c r="DI17" s="12"/>
-      <c r="DJ17" s="12"/>
-      <c r="DK17" s="12"/>
-      <c r="DL17" s="12"/>
-      <c r="DM17" s="12"/>
-      <c r="DN17" s="12"/>
-      <c r="DO17" s="12"/>
-      <c r="DP17" s="12"/>
-      <c r="DQ17" s="12"/>
-      <c r="DR17" s="12"/>
-      <c r="DS17" s="12"/>
-      <c r="DT17" s="12"/>
-      <c r="DU17" s="12"/>
-      <c r="DV17" s="12"/>
-      <c r="DW17" s="12"/>
-      <c r="DX17" s="12"/>
-      <c r="DY17" s="12"/>
-      <c r="DZ17" s="12"/>
-      <c r="EA17" s="12"/>
-      <c r="EB17" s="12"/>
-      <c r="EC17" s="12"/>
-      <c r="ED17" s="12"/>
-      <c r="EE17" s="12"/>
-      <c r="EF17" s="12"/>
-      <c r="EG17" s="12"/>
-      <c r="EH17" s="12"/>
-      <c r="EI17" s="12"/>
-      <c r="EJ17" s="12"/>
-      <c r="EK17" s="12"/>
-      <c r="EL17" s="12"/>
-      <c r="EM17" s="12"/>
-      <c r="EN17" s="12"/>
-      <c r="EO17" s="12"/>
-      <c r="EP17" s="12"/>
-      <c r="EQ17" s="12"/>
-      <c r="ER17" s="12"/>
-      <c r="ES17" s="12"/>
-      <c r="ET17" s="12"/>
-      <c r="EU17" s="12"/>
-      <c r="EV17" s="12"/>
-      <c r="EW17" s="12"/>
-      <c r="EX17" s="12"/>
-      <c r="EY17" s="12"/>
-      <c r="EZ17" s="12"/>
-      <c r="FA17" s="12"/>
-      <c r="FB17" s="12"/>
-      <c r="FC17" s="12"/>
-      <c r="FD17" s="12"/>
-      <c r="FE17" s="12"/>
-      <c r="FF17" s="12"/>
-      <c r="FG17" s="12"/>
-      <c r="FH17" s="12"/>
-      <c r="FI17" s="12"/>
-      <c r="FJ17" s="12"/>
-      <c r="FK17" s="12"/>
-      <c r="FL17" s="12"/>
-      <c r="FM17" s="12"/>
-      <c r="FN17" s="12"/>
-      <c r="FO17" s="12"/>
-      <c r="FP17" s="12"/>
-      <c r="FQ17" s="12"/>
-      <c r="FR17" s="12"/>
-      <c r="FS17" s="12"/>
-      <c r="FT17" s="12"/>
-      <c r="FU17" s="12"/>
-      <c r="FV17" s="12"/>
-      <c r="FW17" s="12"/>
-      <c r="FX17" s="12"/>
-      <c r="FY17" s="12"/>
-      <c r="FZ17" s="12"/>
-      <c r="GA17" s="12"/>
-      <c r="GB17" s="12"/>
-      <c r="GC17" s="12"/>
-      <c r="GD17" s="12"/>
-      <c r="GE17" s="12"/>
-      <c r="GF17" s="12"/>
-      <c r="GG17" s="12"/>
-      <c r="GH17" s="12"/>
-      <c r="GI17" s="12"/>
-      <c r="GJ17" s="12"/>
-      <c r="GK17" s="12"/>
-      <c r="GL17" s="12"/>
-      <c r="GM17" s="12"/>
-      <c r="GN17" s="12"/>
-      <c r="GO17" s="12"/>
-      <c r="GP17" s="12"/>
-      <c r="GQ17" s="12"/>
-      <c r="GR17" s="12"/>
-      <c r="GS17" s="12"/>
-      <c r="GT17" s="12"/>
-      <c r="GU17" s="12"/>
-      <c r="GV17" s="12"/>
-      <c r="GW17" s="12"/>
-      <c r="GX17" s="12"/>
-      <c r="GY17" s="12"/>
-      <c r="GZ17" s="12"/>
-      <c r="HA17" s="12"/>
-      <c r="HB17" s="12"/>
-      <c r="HC17" s="12"/>
-      <c r="HD17" s="12"/>
-      <c r="HE17" s="12"/>
-      <c r="HF17" s="12"/>
-      <c r="HG17" s="12"/>
-      <c r="HH17" s="12"/>
-      <c r="HI17" s="12"/>
-      <c r="HJ17" s="12"/>
-      <c r="HK17" s="12"/>
-      <c r="HL17" s="12"/>
-      <c r="HM17" s="12"/>
-      <c r="HN17" s="12"/>
-      <c r="HO17" s="12"/>
-      <c r="HP17" s="12"/>
-      <c r="HQ17" s="12"/>
-      <c r="HR17" s="12"/>
-      <c r="HS17" s="12"/>
-      <c r="HT17" s="12"/>
-      <c r="HU17" s="12"/>
-      <c r="HV17" s="12"/>
-      <c r="HW17" s="12"/>
-      <c r="HX17" s="12"/>
-      <c r="HY17" s="12"/>
-      <c r="HZ17" s="12"/>
-      <c r="IA17" s="12"/>
-      <c r="IB17" s="12"/>
-      <c r="IC17" s="12"/>
-      <c r="ID17" s="12"/>
-      <c r="IE17" s="12"/>
-      <c r="IF17" s="12"/>
-      <c r="IG17" s="12"/>
-      <c r="IH17" s="12"/>
-      <c r="II17" s="12"/>
-      <c r="IJ17" s="12"/>
-      <c r="IK17" s="12"/>
-      <c r="IL17" s="12"/>
-      <c r="IM17" s="12"/>
-      <c r="IN17" s="12"/>
-      <c r="IO17" s="12"/>
-      <c r="IP17" s="12"/>
-      <c r="IQ17" s="12"/>
-      <c r="IR17" s="12"/>
-      <c r="IS17" s="12"/>
-      <c r="IT17" s="12"/>
-      <c r="IU17" s="12"/>
-      <c r="IV17" s="12"/>
-      <c r="IW17" s="12"/>
-      <c r="IX17" s="12"/>
+    <row r="17" spans="1:258" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="35"/>
+      <c r="AQ17" s="35"/>
+      <c r="AR17" s="35"/>
+      <c r="AS17" s="35"/>
+      <c r="AT17" s="35"/>
+      <c r="AU17" s="35"/>
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="35"/>
+      <c r="AX17" s="35"/>
+      <c r="AY17" s="35"/>
+      <c r="AZ17" s="35"/>
+      <c r="BA17" s="35"/>
+      <c r="BB17" s="35"/>
+      <c r="BC17" s="35"/>
+      <c r="BD17" s="35"/>
+      <c r="BE17" s="35"/>
+      <c r="BF17" s="35"/>
+      <c r="BG17" s="35"/>
+      <c r="BH17" s="35"/>
+      <c r="BI17" s="35"/>
+      <c r="BJ17" s="35"/>
+      <c r="BK17" s="35"/>
+      <c r="BL17" s="35"/>
+      <c r="BM17" s="35"/>
+      <c r="BN17" s="35"/>
+      <c r="BO17" s="35"/>
+      <c r="BP17" s="35"/>
+      <c r="BQ17" s="35"/>
+      <c r="BR17" s="35"/>
+      <c r="BS17" s="35"/>
+      <c r="BT17" s="35"/>
+      <c r="BU17" s="35"/>
+      <c r="BV17" s="35"/>
+      <c r="BW17" s="35"/>
+      <c r="BX17" s="35"/>
+      <c r="BY17" s="35"/>
+      <c r="BZ17" s="35"/>
+      <c r="CA17" s="35"/>
+      <c r="CB17" s="35"/>
+      <c r="CC17" s="35"/>
+      <c r="CD17" s="35"/>
+      <c r="CE17" s="35"/>
+      <c r="CF17" s="35"/>
+      <c r="CG17" s="35"/>
+      <c r="CH17" s="35"/>
+      <c r="CI17" s="35"/>
+      <c r="CJ17" s="35"/>
+      <c r="CK17" s="35"/>
+      <c r="CL17" s="35"/>
+      <c r="CM17" s="35"/>
+      <c r="CN17" s="35"/>
+      <c r="CO17" s="35"/>
+      <c r="CP17" s="35"/>
+      <c r="CQ17" s="35"/>
+      <c r="CR17" s="35"/>
+      <c r="CS17" s="35"/>
+      <c r="CT17" s="35"/>
+      <c r="CU17" s="35"/>
+      <c r="CV17" s="35"/>
+      <c r="CW17" s="35"/>
+      <c r="CX17" s="35"/>
+      <c r="CY17" s="35"/>
+      <c r="CZ17" s="35"/>
+      <c r="DA17" s="35"/>
+      <c r="DB17" s="35"/>
+      <c r="DC17" s="35"/>
+      <c r="DD17" s="35"/>
+      <c r="DE17" s="35"/>
+      <c r="DF17" s="35"/>
+      <c r="DG17" s="35"/>
+      <c r="DH17" s="35"/>
+      <c r="DI17" s="35"/>
+      <c r="DJ17" s="35"/>
+      <c r="DK17" s="35"/>
+      <c r="DL17" s="35"/>
+      <c r="DM17" s="35"/>
+      <c r="DN17" s="35"/>
+      <c r="DO17" s="35"/>
+      <c r="DP17" s="35"/>
+      <c r="DQ17" s="35"/>
+      <c r="DR17" s="35"/>
+      <c r="DS17" s="35"/>
+      <c r="DT17" s="35"/>
+      <c r="DU17" s="35"/>
+      <c r="DV17" s="35"/>
+      <c r="DW17" s="35"/>
+      <c r="DX17" s="35"/>
+      <c r="DY17" s="35"/>
+      <c r="DZ17" s="35"/>
+      <c r="EA17" s="35"/>
+      <c r="EB17" s="35"/>
+      <c r="EC17" s="35"/>
+      <c r="ED17" s="35"/>
+      <c r="EE17" s="35"/>
+      <c r="EF17" s="35"/>
+      <c r="EG17" s="35"/>
+      <c r="EH17" s="35"/>
+      <c r="EI17" s="35"/>
+      <c r="EJ17" s="35"/>
+      <c r="EK17" s="35"/>
+      <c r="EL17" s="35"/>
+      <c r="EM17" s="35"/>
+      <c r="EN17" s="35"/>
+      <c r="EO17" s="35"/>
+      <c r="EP17" s="35"/>
+      <c r="EQ17" s="35"/>
+      <c r="ER17" s="35"/>
+      <c r="ES17" s="35"/>
+      <c r="ET17" s="35"/>
+      <c r="EU17" s="35"/>
+      <c r="EV17" s="35"/>
+      <c r="EW17" s="35"/>
+      <c r="EX17" s="35"/>
+      <c r="EY17" s="35"/>
+      <c r="EZ17" s="35"/>
+      <c r="FA17" s="35"/>
+      <c r="FB17" s="35"/>
+      <c r="FC17" s="35"/>
+      <c r="FD17" s="35"/>
+      <c r="FE17" s="35"/>
+      <c r="FF17" s="35"/>
+      <c r="FG17" s="35"/>
+      <c r="FH17" s="35"/>
+      <c r="FI17" s="35"/>
+      <c r="FJ17" s="35"/>
+      <c r="FK17" s="35"/>
+      <c r="FL17" s="35"/>
+      <c r="FM17" s="35"/>
+      <c r="FN17" s="35"/>
+      <c r="FO17" s="35"/>
+      <c r="FP17" s="35"/>
+      <c r="FQ17" s="35"/>
+      <c r="FR17" s="35"/>
+      <c r="FS17" s="35"/>
+      <c r="FT17" s="35"/>
+      <c r="FU17" s="35"/>
+      <c r="FV17" s="35"/>
+      <c r="FW17" s="35"/>
+      <c r="FX17" s="35"/>
+      <c r="FY17" s="35"/>
+      <c r="FZ17" s="35"/>
+      <c r="GA17" s="35"/>
+      <c r="GB17" s="35"/>
+      <c r="GC17" s="35"/>
+      <c r="GD17" s="35"/>
+      <c r="GE17" s="35"/>
+      <c r="GF17" s="35"/>
+      <c r="GG17" s="35"/>
+      <c r="GH17" s="35"/>
+      <c r="GI17" s="35"/>
+      <c r="GJ17" s="35"/>
+      <c r="GK17" s="35"/>
+      <c r="GL17" s="35"/>
+      <c r="GM17" s="35"/>
+      <c r="GN17" s="35"/>
+      <c r="GO17" s="35"/>
+      <c r="GP17" s="35"/>
+      <c r="GQ17" s="35"/>
+      <c r="GR17" s="35"/>
+      <c r="GS17" s="35"/>
+      <c r="GT17" s="35"/>
+      <c r="GU17" s="35"/>
+      <c r="GV17" s="35"/>
+      <c r="GW17" s="35"/>
+      <c r="GX17" s="35"/>
+      <c r="GY17" s="35"/>
+      <c r="GZ17" s="35"/>
+      <c r="HA17" s="35"/>
+      <c r="HB17" s="35"/>
+      <c r="HC17" s="35"/>
+      <c r="HD17" s="35"/>
+      <c r="HE17" s="35"/>
+      <c r="HF17" s="35"/>
+      <c r="HG17" s="35"/>
+      <c r="HH17" s="35"/>
+      <c r="HI17" s="35"/>
+      <c r="HJ17" s="35"/>
+      <c r="HK17" s="35"/>
+      <c r="HL17" s="35"/>
+      <c r="HM17" s="35"/>
+      <c r="HN17" s="35"/>
+      <c r="HO17" s="35"/>
+      <c r="HP17" s="35"/>
+      <c r="HQ17" s="35"/>
+      <c r="HR17" s="35"/>
+      <c r="HS17" s="35"/>
+      <c r="HT17" s="35"/>
+      <c r="HU17" s="35"/>
+      <c r="HV17" s="35"/>
+      <c r="HW17" s="35"/>
+      <c r="HX17" s="35"/>
+      <c r="HY17" s="35"/>
+      <c r="HZ17" s="35"/>
+      <c r="IA17" s="35"/>
+      <c r="IB17" s="35"/>
+      <c r="IC17" s="35"/>
+      <c r="ID17" s="35"/>
+      <c r="IE17" s="35"/>
+      <c r="IF17" s="35"/>
+      <c r="IG17" s="35"/>
+      <c r="IH17" s="35"/>
+      <c r="II17" s="35"/>
+      <c r="IJ17" s="35"/>
+      <c r="IK17" s="35"/>
+      <c r="IL17" s="35"/>
+      <c r="IM17" s="35"/>
+      <c r="IN17" s="35"/>
+      <c r="IO17" s="35"/>
+      <c r="IP17" s="35"/>
+      <c r="IQ17" s="35"/>
+      <c r="IR17" s="35"/>
+      <c r="IS17" s="35"/>
+      <c r="IT17" s="35"/>
+      <c r="IU17" s="35"/>
+      <c r="IV17" s="35"/>
+      <c r="IW17" s="35"/>
+      <c r="IX17" s="35"/>
     </row>
     <row r="18" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
-      <c r="B18" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="A18" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="9"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
@@ -6383,8 +6406,8 @@
       <c r="B19" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>127</v>
+      <c r="C19" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>25</v>
@@ -6393,7 +6416,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="55"/>
       <c r="H19" s="11" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
@@ -6649,10 +6672,10 @@
     <row r="20" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
       <c r="B20" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>140</v>
+        <v>127</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>25</v>
@@ -6661,7 +6684,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="55"/>
       <c r="H20" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
@@ -6915,14 +6938,22 @@
       <c r="IX20" s="12"/>
     </row>
     <row r="21" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="55"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
       <c r="K21" s="9"/>
@@ -7174,538 +7205,538 @@
       <c r="IW21" s="12"/>
       <c r="IX21" s="12"/>
     </row>
-    <row r="22" spans="1:258" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="35"/>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35"/>
-      <c r="AU22" s="35"/>
-      <c r="AV22" s="35"/>
-      <c r="AW22" s="35"/>
-      <c r="AX22" s="35"/>
-      <c r="AY22" s="35"/>
-      <c r="AZ22" s="35"/>
-      <c r="BA22" s="35"/>
-      <c r="BB22" s="35"/>
-      <c r="BC22" s="35"/>
-      <c r="BD22" s="35"/>
-      <c r="BE22" s="35"/>
-      <c r="BF22" s="35"/>
-      <c r="BG22" s="35"/>
-      <c r="BH22" s="35"/>
-      <c r="BI22" s="35"/>
-      <c r="BJ22" s="35"/>
-      <c r="BK22" s="35"/>
-      <c r="BL22" s="35"/>
-      <c r="BM22" s="35"/>
-      <c r="BN22" s="35"/>
-      <c r="BO22" s="35"/>
-      <c r="BP22" s="35"/>
-      <c r="BQ22" s="35"/>
-      <c r="BR22" s="35"/>
-      <c r="BS22" s="35"/>
-      <c r="BT22" s="35"/>
-      <c r="BU22" s="35"/>
-      <c r="BV22" s="35"/>
-      <c r="BW22" s="35"/>
-      <c r="BX22" s="35"/>
-      <c r="BY22" s="35"/>
-      <c r="BZ22" s="35"/>
-      <c r="CA22" s="35"/>
-      <c r="CB22" s="35"/>
-      <c r="CC22" s="35"/>
-      <c r="CD22" s="35"/>
-      <c r="CE22" s="35"/>
-      <c r="CF22" s="35"/>
-      <c r="CG22" s="35"/>
-      <c r="CH22" s="35"/>
-      <c r="CI22" s="35"/>
-      <c r="CJ22" s="35"/>
-      <c r="CK22" s="35"/>
-      <c r="CL22" s="35"/>
-      <c r="CM22" s="35"/>
-      <c r="CN22" s="35"/>
-      <c r="CO22" s="35"/>
-      <c r="CP22" s="35"/>
-      <c r="CQ22" s="35"/>
-      <c r="CR22" s="35"/>
-      <c r="CS22" s="35"/>
-      <c r="CT22" s="35"/>
-      <c r="CU22" s="35"/>
-      <c r="CV22" s="35"/>
-      <c r="CW22" s="35"/>
-      <c r="CX22" s="35"/>
-      <c r="CY22" s="35"/>
-      <c r="CZ22" s="35"/>
-      <c r="DA22" s="35"/>
-      <c r="DB22" s="35"/>
-      <c r="DC22" s="35"/>
-      <c r="DD22" s="35"/>
-      <c r="DE22" s="35"/>
-      <c r="DF22" s="35"/>
-      <c r="DG22" s="35"/>
-      <c r="DH22" s="35"/>
-      <c r="DI22" s="35"/>
-      <c r="DJ22" s="35"/>
-      <c r="DK22" s="35"/>
-      <c r="DL22" s="35"/>
-      <c r="DM22" s="35"/>
-      <c r="DN22" s="35"/>
-      <c r="DO22" s="35"/>
-      <c r="DP22" s="35"/>
-      <c r="DQ22" s="35"/>
-      <c r="DR22" s="35"/>
-      <c r="DS22" s="35"/>
-      <c r="DT22" s="35"/>
-      <c r="DU22" s="35"/>
-      <c r="DV22" s="35"/>
-      <c r="DW22" s="35"/>
-      <c r="DX22" s="35"/>
-      <c r="DY22" s="35"/>
-      <c r="DZ22" s="35"/>
-      <c r="EA22" s="35"/>
-      <c r="EB22" s="35"/>
-      <c r="EC22" s="35"/>
-      <c r="ED22" s="35"/>
-      <c r="EE22" s="35"/>
-      <c r="EF22" s="35"/>
-      <c r="EG22" s="35"/>
-      <c r="EH22" s="35"/>
-      <c r="EI22" s="35"/>
-      <c r="EJ22" s="35"/>
-      <c r="EK22" s="35"/>
-      <c r="EL22" s="35"/>
-      <c r="EM22" s="35"/>
-      <c r="EN22" s="35"/>
-      <c r="EO22" s="35"/>
-      <c r="EP22" s="35"/>
-      <c r="EQ22" s="35"/>
-      <c r="ER22" s="35"/>
-      <c r="ES22" s="35"/>
-      <c r="ET22" s="35"/>
-      <c r="EU22" s="35"/>
-      <c r="EV22" s="35"/>
-      <c r="EW22" s="35"/>
-      <c r="EX22" s="35"/>
-      <c r="EY22" s="35"/>
-      <c r="EZ22" s="35"/>
-      <c r="FA22" s="35"/>
-      <c r="FB22" s="35"/>
-      <c r="FC22" s="35"/>
-      <c r="FD22" s="35"/>
-      <c r="FE22" s="35"/>
-      <c r="FF22" s="35"/>
-      <c r="FG22" s="35"/>
-      <c r="FH22" s="35"/>
-      <c r="FI22" s="35"/>
-      <c r="FJ22" s="35"/>
-      <c r="FK22" s="35"/>
-      <c r="FL22" s="35"/>
-      <c r="FM22" s="35"/>
-      <c r="FN22" s="35"/>
-      <c r="FO22" s="35"/>
-      <c r="FP22" s="35"/>
-      <c r="FQ22" s="35"/>
-      <c r="FR22" s="35"/>
-      <c r="FS22" s="35"/>
-      <c r="FT22" s="35"/>
-      <c r="FU22" s="35"/>
-      <c r="FV22" s="35"/>
-      <c r="FW22" s="35"/>
-      <c r="FX22" s="35"/>
-      <c r="FY22" s="35"/>
-      <c r="FZ22" s="35"/>
-      <c r="GA22" s="35"/>
-      <c r="GB22" s="35"/>
-      <c r="GC22" s="35"/>
-      <c r="GD22" s="35"/>
-      <c r="GE22" s="35"/>
-      <c r="GF22" s="35"/>
-      <c r="GG22" s="35"/>
-      <c r="GH22" s="35"/>
-      <c r="GI22" s="35"/>
-      <c r="GJ22" s="35"/>
-      <c r="GK22" s="35"/>
-      <c r="GL22" s="35"/>
-      <c r="GM22" s="35"/>
-      <c r="GN22" s="35"/>
-      <c r="GO22" s="35"/>
-      <c r="GP22" s="35"/>
-      <c r="GQ22" s="35"/>
-      <c r="GR22" s="35"/>
-      <c r="GS22" s="35"/>
-      <c r="GT22" s="35"/>
-      <c r="GU22" s="35"/>
-      <c r="GV22" s="35"/>
-      <c r="GW22" s="35"/>
-      <c r="GX22" s="35"/>
-      <c r="GY22" s="35"/>
-      <c r="GZ22" s="35"/>
-      <c r="HA22" s="35"/>
-      <c r="HB22" s="35"/>
-      <c r="HC22" s="35"/>
-      <c r="HD22" s="35"/>
-      <c r="HE22" s="35"/>
-      <c r="HF22" s="35"/>
-      <c r="HG22" s="35"/>
-      <c r="HH22" s="35"/>
-      <c r="HI22" s="35"/>
-      <c r="HJ22" s="35"/>
-      <c r="HK22" s="35"/>
-      <c r="HL22" s="35"/>
-      <c r="HM22" s="35"/>
-      <c r="HN22" s="35"/>
-      <c r="HO22" s="35"/>
-      <c r="HP22" s="35"/>
-      <c r="HQ22" s="35"/>
-      <c r="HR22" s="35"/>
-      <c r="HS22" s="35"/>
-      <c r="HT22" s="35"/>
-      <c r="HU22" s="35"/>
-      <c r="HV22" s="35"/>
-      <c r="HW22" s="35"/>
-      <c r="HX22" s="35"/>
-      <c r="HY22" s="35"/>
-      <c r="HZ22" s="35"/>
-      <c r="IA22" s="35"/>
-      <c r="IB22" s="35"/>
-      <c r="IC22" s="35"/>
-      <c r="ID22" s="35"/>
-      <c r="IE22" s="35"/>
-      <c r="IF22" s="35"/>
-      <c r="IG22" s="35"/>
-      <c r="IH22" s="35"/>
-      <c r="II22" s="35"/>
-      <c r="IJ22" s="35"/>
-      <c r="IK22" s="35"/>
-      <c r="IL22" s="35"/>
-      <c r="IM22" s="35"/>
-      <c r="IN22" s="35"/>
-      <c r="IO22" s="35"/>
-      <c r="IP22" s="35"/>
-      <c r="IQ22" s="35"/>
-      <c r="IR22" s="35"/>
-      <c r="IS22" s="35"/>
-      <c r="IT22" s="35"/>
-      <c r="IU22" s="35"/>
-      <c r="IV22" s="35"/>
-      <c r="IW22" s="35"/>
-      <c r="IX22" s="35"/>
+    <row r="22" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="67"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="12"/>
+      <c r="BC22" s="12"/>
+      <c r="BD22" s="12"/>
+      <c r="BE22" s="12"/>
+      <c r="BF22" s="12"/>
+      <c r="BG22" s="12"/>
+      <c r="BH22" s="12"/>
+      <c r="BI22" s="12"/>
+      <c r="BJ22" s="12"/>
+      <c r="BK22" s="12"/>
+      <c r="BL22" s="12"/>
+      <c r="BM22" s="12"/>
+      <c r="BN22" s="12"/>
+      <c r="BO22" s="12"/>
+      <c r="BP22" s="12"/>
+      <c r="BQ22" s="12"/>
+      <c r="BR22" s="12"/>
+      <c r="BS22" s="12"/>
+      <c r="BT22" s="12"/>
+      <c r="BU22" s="12"/>
+      <c r="BV22" s="12"/>
+      <c r="BW22" s="12"/>
+      <c r="BX22" s="12"/>
+      <c r="BY22" s="12"/>
+      <c r="BZ22" s="12"/>
+      <c r="CA22" s="12"/>
+      <c r="CB22" s="12"/>
+      <c r="CC22" s="12"/>
+      <c r="CD22" s="12"/>
+      <c r="CE22" s="12"/>
+      <c r="CF22" s="12"/>
+      <c r="CG22" s="12"/>
+      <c r="CH22" s="12"/>
+      <c r="CI22" s="12"/>
+      <c r="CJ22" s="12"/>
+      <c r="CK22" s="12"/>
+      <c r="CL22" s="12"/>
+      <c r="CM22" s="12"/>
+      <c r="CN22" s="12"/>
+      <c r="CO22" s="12"/>
+      <c r="CP22" s="12"/>
+      <c r="CQ22" s="12"/>
+      <c r="CR22" s="12"/>
+      <c r="CS22" s="12"/>
+      <c r="CT22" s="12"/>
+      <c r="CU22" s="12"/>
+      <c r="CV22" s="12"/>
+      <c r="CW22" s="12"/>
+      <c r="CX22" s="12"/>
+      <c r="CY22" s="12"/>
+      <c r="CZ22" s="12"/>
+      <c r="DA22" s="12"/>
+      <c r="DB22" s="12"/>
+      <c r="DC22" s="12"/>
+      <c r="DD22" s="12"/>
+      <c r="DE22" s="12"/>
+      <c r="DF22" s="12"/>
+      <c r="DG22" s="12"/>
+      <c r="DH22" s="12"/>
+      <c r="DI22" s="12"/>
+      <c r="DJ22" s="12"/>
+      <c r="DK22" s="12"/>
+      <c r="DL22" s="12"/>
+      <c r="DM22" s="12"/>
+      <c r="DN22" s="12"/>
+      <c r="DO22" s="12"/>
+      <c r="DP22" s="12"/>
+      <c r="DQ22" s="12"/>
+      <c r="DR22" s="12"/>
+      <c r="DS22" s="12"/>
+      <c r="DT22" s="12"/>
+      <c r="DU22" s="12"/>
+      <c r="DV22" s="12"/>
+      <c r="DW22" s="12"/>
+      <c r="DX22" s="12"/>
+      <c r="DY22" s="12"/>
+      <c r="DZ22" s="12"/>
+      <c r="EA22" s="12"/>
+      <c r="EB22" s="12"/>
+      <c r="EC22" s="12"/>
+      <c r="ED22" s="12"/>
+      <c r="EE22" s="12"/>
+      <c r="EF22" s="12"/>
+      <c r="EG22" s="12"/>
+      <c r="EH22" s="12"/>
+      <c r="EI22" s="12"/>
+      <c r="EJ22" s="12"/>
+      <c r="EK22" s="12"/>
+      <c r="EL22" s="12"/>
+      <c r="EM22" s="12"/>
+      <c r="EN22" s="12"/>
+      <c r="EO22" s="12"/>
+      <c r="EP22" s="12"/>
+      <c r="EQ22" s="12"/>
+      <c r="ER22" s="12"/>
+      <c r="ES22" s="12"/>
+      <c r="ET22" s="12"/>
+      <c r="EU22" s="12"/>
+      <c r="EV22" s="12"/>
+      <c r="EW22" s="12"/>
+      <c r="EX22" s="12"/>
+      <c r="EY22" s="12"/>
+      <c r="EZ22" s="12"/>
+      <c r="FA22" s="12"/>
+      <c r="FB22" s="12"/>
+      <c r="FC22" s="12"/>
+      <c r="FD22" s="12"/>
+      <c r="FE22" s="12"/>
+      <c r="FF22" s="12"/>
+      <c r="FG22" s="12"/>
+      <c r="FH22" s="12"/>
+      <c r="FI22" s="12"/>
+      <c r="FJ22" s="12"/>
+      <c r="FK22" s="12"/>
+      <c r="FL22" s="12"/>
+      <c r="FM22" s="12"/>
+      <c r="FN22" s="12"/>
+      <c r="FO22" s="12"/>
+      <c r="FP22" s="12"/>
+      <c r="FQ22" s="12"/>
+      <c r="FR22" s="12"/>
+      <c r="FS22" s="12"/>
+      <c r="FT22" s="12"/>
+      <c r="FU22" s="12"/>
+      <c r="FV22" s="12"/>
+      <c r="FW22" s="12"/>
+      <c r="FX22" s="12"/>
+      <c r="FY22" s="12"/>
+      <c r="FZ22" s="12"/>
+      <c r="GA22" s="12"/>
+      <c r="GB22" s="12"/>
+      <c r="GC22" s="12"/>
+      <c r="GD22" s="12"/>
+      <c r="GE22" s="12"/>
+      <c r="GF22" s="12"/>
+      <c r="GG22" s="12"/>
+      <c r="GH22" s="12"/>
+      <c r="GI22" s="12"/>
+      <c r="GJ22" s="12"/>
+      <c r="GK22" s="12"/>
+      <c r="GL22" s="12"/>
+      <c r="GM22" s="12"/>
+      <c r="GN22" s="12"/>
+      <c r="GO22" s="12"/>
+      <c r="GP22" s="12"/>
+      <c r="GQ22" s="12"/>
+      <c r="GR22" s="12"/>
+      <c r="GS22" s="12"/>
+      <c r="GT22" s="12"/>
+      <c r="GU22" s="12"/>
+      <c r="GV22" s="12"/>
+      <c r="GW22" s="12"/>
+      <c r="GX22" s="12"/>
+      <c r="GY22" s="12"/>
+      <c r="GZ22" s="12"/>
+      <c r="HA22" s="12"/>
+      <c r="HB22" s="12"/>
+      <c r="HC22" s="12"/>
+      <c r="HD22" s="12"/>
+      <c r="HE22" s="12"/>
+      <c r="HF22" s="12"/>
+      <c r="HG22" s="12"/>
+      <c r="HH22" s="12"/>
+      <c r="HI22" s="12"/>
+      <c r="HJ22" s="12"/>
+      <c r="HK22" s="12"/>
+      <c r="HL22" s="12"/>
+      <c r="HM22" s="12"/>
+      <c r="HN22" s="12"/>
+      <c r="HO22" s="12"/>
+      <c r="HP22" s="12"/>
+      <c r="HQ22" s="12"/>
+      <c r="HR22" s="12"/>
+      <c r="HS22" s="12"/>
+      <c r="HT22" s="12"/>
+      <c r="HU22" s="12"/>
+      <c r="HV22" s="12"/>
+      <c r="HW22" s="12"/>
+      <c r="HX22" s="12"/>
+      <c r="HY22" s="12"/>
+      <c r="HZ22" s="12"/>
+      <c r="IA22" s="12"/>
+      <c r="IB22" s="12"/>
+      <c r="IC22" s="12"/>
+      <c r="ID22" s="12"/>
+      <c r="IE22" s="12"/>
+      <c r="IF22" s="12"/>
+      <c r="IG22" s="12"/>
+      <c r="IH22" s="12"/>
+      <c r="II22" s="12"/>
+      <c r="IJ22" s="12"/>
+      <c r="IK22" s="12"/>
+      <c r="IL22" s="12"/>
+      <c r="IM22" s="12"/>
+      <c r="IN22" s="12"/>
+      <c r="IO22" s="12"/>
+      <c r="IP22" s="12"/>
+      <c r="IQ22" s="12"/>
+      <c r="IR22" s="12"/>
+      <c r="IS22" s="12"/>
+      <c r="IT22" s="12"/>
+      <c r="IU22" s="12"/>
+      <c r="IV22" s="12"/>
+      <c r="IW22" s="12"/>
+      <c r="IX22" s="12"/>
     </row>
-    <row r="23" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="12"/>
-      <c r="AN23" s="12"/>
-      <c r="AO23" s="12"/>
-      <c r="AP23" s="12"/>
-      <c r="AQ23" s="12"/>
-      <c r="AR23" s="12"/>
-      <c r="AS23" s="12"/>
-      <c r="AT23" s="12"/>
-      <c r="AU23" s="12"/>
-      <c r="AV23" s="12"/>
-      <c r="AW23" s="12"/>
-      <c r="AX23" s="12"/>
-      <c r="AY23" s="12"/>
-      <c r="AZ23" s="12"/>
-      <c r="BA23" s="12"/>
-      <c r="BB23" s="12"/>
-      <c r="BC23" s="12"/>
-      <c r="BD23" s="12"/>
-      <c r="BE23" s="12"/>
-      <c r="BF23" s="12"/>
-      <c r="BG23" s="12"/>
-      <c r="BH23" s="12"/>
-      <c r="BI23" s="12"/>
-      <c r="BJ23" s="12"/>
-      <c r="BK23" s="12"/>
-      <c r="BL23" s="12"/>
-      <c r="BM23" s="12"/>
-      <c r="BN23" s="12"/>
-      <c r="BO23" s="12"/>
-      <c r="BP23" s="12"/>
-      <c r="BQ23" s="12"/>
-      <c r="BR23" s="12"/>
-      <c r="BS23" s="12"/>
-      <c r="BT23" s="12"/>
-      <c r="BU23" s="12"/>
-      <c r="BV23" s="12"/>
-      <c r="BW23" s="12"/>
-      <c r="BX23" s="12"/>
-      <c r="BY23" s="12"/>
-      <c r="BZ23" s="12"/>
-      <c r="CA23" s="12"/>
-      <c r="CB23" s="12"/>
-      <c r="CC23" s="12"/>
-      <c r="CD23" s="12"/>
-      <c r="CE23" s="12"/>
-      <c r="CF23" s="12"/>
-      <c r="CG23" s="12"/>
-      <c r="CH23" s="12"/>
-      <c r="CI23" s="12"/>
-      <c r="CJ23" s="12"/>
-      <c r="CK23" s="12"/>
-      <c r="CL23" s="12"/>
-      <c r="CM23" s="12"/>
-      <c r="CN23" s="12"/>
-      <c r="CO23" s="12"/>
-      <c r="CP23" s="12"/>
-      <c r="CQ23" s="12"/>
-      <c r="CR23" s="12"/>
-      <c r="CS23" s="12"/>
-      <c r="CT23" s="12"/>
-      <c r="CU23" s="12"/>
-      <c r="CV23" s="12"/>
-      <c r="CW23" s="12"/>
-      <c r="CX23" s="12"/>
-      <c r="CY23" s="12"/>
-      <c r="CZ23" s="12"/>
-      <c r="DA23" s="12"/>
-      <c r="DB23" s="12"/>
-      <c r="DC23" s="12"/>
-      <c r="DD23" s="12"/>
-      <c r="DE23" s="12"/>
-      <c r="DF23" s="12"/>
-      <c r="DG23" s="12"/>
-      <c r="DH23" s="12"/>
-      <c r="DI23" s="12"/>
-      <c r="DJ23" s="12"/>
-      <c r="DK23" s="12"/>
-      <c r="DL23" s="12"/>
-      <c r="DM23" s="12"/>
-      <c r="DN23" s="12"/>
-      <c r="DO23" s="12"/>
-      <c r="DP23" s="12"/>
-      <c r="DQ23" s="12"/>
-      <c r="DR23" s="12"/>
-      <c r="DS23" s="12"/>
-      <c r="DT23" s="12"/>
-      <c r="DU23" s="12"/>
-      <c r="DV23" s="12"/>
-      <c r="DW23" s="12"/>
-      <c r="DX23" s="12"/>
-      <c r="DY23" s="12"/>
-      <c r="DZ23" s="12"/>
-      <c r="EA23" s="12"/>
-      <c r="EB23" s="12"/>
-      <c r="EC23" s="12"/>
-      <c r="ED23" s="12"/>
-      <c r="EE23" s="12"/>
-      <c r="EF23" s="12"/>
-      <c r="EG23" s="12"/>
-      <c r="EH23" s="12"/>
-      <c r="EI23" s="12"/>
-      <c r="EJ23" s="12"/>
-      <c r="EK23" s="12"/>
-      <c r="EL23" s="12"/>
-      <c r="EM23" s="12"/>
-      <c r="EN23" s="12"/>
-      <c r="EO23" s="12"/>
-      <c r="EP23" s="12"/>
-      <c r="EQ23" s="12"/>
-      <c r="ER23" s="12"/>
-      <c r="ES23" s="12"/>
-      <c r="ET23" s="12"/>
-      <c r="EU23" s="12"/>
-      <c r="EV23" s="12"/>
-      <c r="EW23" s="12"/>
-      <c r="EX23" s="12"/>
-      <c r="EY23" s="12"/>
-      <c r="EZ23" s="12"/>
-      <c r="FA23" s="12"/>
-      <c r="FB23" s="12"/>
-      <c r="FC23" s="12"/>
-      <c r="FD23" s="12"/>
-      <c r="FE23" s="12"/>
-      <c r="FF23" s="12"/>
-      <c r="FG23" s="12"/>
-      <c r="FH23" s="12"/>
-      <c r="FI23" s="12"/>
-      <c r="FJ23" s="12"/>
-      <c r="FK23" s="12"/>
-      <c r="FL23" s="12"/>
-      <c r="FM23" s="12"/>
-      <c r="FN23" s="12"/>
-      <c r="FO23" s="12"/>
-      <c r="FP23" s="12"/>
-      <c r="FQ23" s="12"/>
-      <c r="FR23" s="12"/>
-      <c r="FS23" s="12"/>
-      <c r="FT23" s="12"/>
-      <c r="FU23" s="12"/>
-      <c r="FV23" s="12"/>
-      <c r="FW23" s="12"/>
-      <c r="FX23" s="12"/>
-      <c r="FY23" s="12"/>
-      <c r="FZ23" s="12"/>
-      <c r="GA23" s="12"/>
-      <c r="GB23" s="12"/>
-      <c r="GC23" s="12"/>
-      <c r="GD23" s="12"/>
-      <c r="GE23" s="12"/>
-      <c r="GF23" s="12"/>
-      <c r="GG23" s="12"/>
-      <c r="GH23" s="12"/>
-      <c r="GI23" s="12"/>
-      <c r="GJ23" s="12"/>
-      <c r="GK23" s="12"/>
-      <c r="GL23" s="12"/>
-      <c r="GM23" s="12"/>
-      <c r="GN23" s="12"/>
-      <c r="GO23" s="12"/>
-      <c r="GP23" s="12"/>
-      <c r="GQ23" s="12"/>
-      <c r="GR23" s="12"/>
-      <c r="GS23" s="12"/>
-      <c r="GT23" s="12"/>
-      <c r="GU23" s="12"/>
-      <c r="GV23" s="12"/>
-      <c r="GW23" s="12"/>
-      <c r="GX23" s="12"/>
-      <c r="GY23" s="12"/>
-      <c r="GZ23" s="12"/>
-      <c r="HA23" s="12"/>
-      <c r="HB23" s="12"/>
-      <c r="HC23" s="12"/>
-      <c r="HD23" s="12"/>
-      <c r="HE23" s="12"/>
-      <c r="HF23" s="12"/>
-      <c r="HG23" s="12"/>
-      <c r="HH23" s="12"/>
-      <c r="HI23" s="12"/>
-      <c r="HJ23" s="12"/>
-      <c r="HK23" s="12"/>
-      <c r="HL23" s="12"/>
-      <c r="HM23" s="12"/>
-      <c r="HN23" s="12"/>
-      <c r="HO23" s="12"/>
-      <c r="HP23" s="12"/>
-      <c r="HQ23" s="12"/>
-      <c r="HR23" s="12"/>
-      <c r="HS23" s="12"/>
-      <c r="HT23" s="12"/>
-      <c r="HU23" s="12"/>
-      <c r="HV23" s="12"/>
-      <c r="HW23" s="12"/>
-      <c r="HX23" s="12"/>
-      <c r="HY23" s="12"/>
-      <c r="HZ23" s="12"/>
-      <c r="IA23" s="12"/>
-      <c r="IB23" s="12"/>
-      <c r="IC23" s="12"/>
-      <c r="ID23" s="12"/>
-      <c r="IE23" s="12"/>
-      <c r="IF23" s="12"/>
-      <c r="IG23" s="12"/>
-      <c r="IH23" s="12"/>
-      <c r="II23" s="12"/>
-      <c r="IJ23" s="12"/>
-      <c r="IK23" s="12"/>
-      <c r="IL23" s="12"/>
-      <c r="IM23" s="12"/>
-      <c r="IN23" s="12"/>
-      <c r="IO23" s="12"/>
-      <c r="IP23" s="12"/>
-      <c r="IQ23" s="12"/>
-      <c r="IR23" s="12"/>
-      <c r="IS23" s="12"/>
-      <c r="IT23" s="12"/>
-      <c r="IU23" s="12"/>
-      <c r="IV23" s="12"/>
-      <c r="IW23" s="12"/>
-      <c r="IX23" s="12"/>
+    <row r="23" spans="1:258" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="35"/>
+      <c r="AP23" s="35"/>
+      <c r="AQ23" s="35"/>
+      <c r="AR23" s="35"/>
+      <c r="AS23" s="35"/>
+      <c r="AT23" s="35"/>
+      <c r="AU23" s="35"/>
+      <c r="AV23" s="35"/>
+      <c r="AW23" s="35"/>
+      <c r="AX23" s="35"/>
+      <c r="AY23" s="35"/>
+      <c r="AZ23" s="35"/>
+      <c r="BA23" s="35"/>
+      <c r="BB23" s="35"/>
+      <c r="BC23" s="35"/>
+      <c r="BD23" s="35"/>
+      <c r="BE23" s="35"/>
+      <c r="BF23" s="35"/>
+      <c r="BG23" s="35"/>
+      <c r="BH23" s="35"/>
+      <c r="BI23" s="35"/>
+      <c r="BJ23" s="35"/>
+      <c r="BK23" s="35"/>
+      <c r="BL23" s="35"/>
+      <c r="BM23" s="35"/>
+      <c r="BN23" s="35"/>
+      <c r="BO23" s="35"/>
+      <c r="BP23" s="35"/>
+      <c r="BQ23" s="35"/>
+      <c r="BR23" s="35"/>
+      <c r="BS23" s="35"/>
+      <c r="BT23" s="35"/>
+      <c r="BU23" s="35"/>
+      <c r="BV23" s="35"/>
+      <c r="BW23" s="35"/>
+      <c r="BX23" s="35"/>
+      <c r="BY23" s="35"/>
+      <c r="BZ23" s="35"/>
+      <c r="CA23" s="35"/>
+      <c r="CB23" s="35"/>
+      <c r="CC23" s="35"/>
+      <c r="CD23" s="35"/>
+      <c r="CE23" s="35"/>
+      <c r="CF23" s="35"/>
+      <c r="CG23" s="35"/>
+      <c r="CH23" s="35"/>
+      <c r="CI23" s="35"/>
+      <c r="CJ23" s="35"/>
+      <c r="CK23" s="35"/>
+      <c r="CL23" s="35"/>
+      <c r="CM23" s="35"/>
+      <c r="CN23" s="35"/>
+      <c r="CO23" s="35"/>
+      <c r="CP23" s="35"/>
+      <c r="CQ23" s="35"/>
+      <c r="CR23" s="35"/>
+      <c r="CS23" s="35"/>
+      <c r="CT23" s="35"/>
+      <c r="CU23" s="35"/>
+      <c r="CV23" s="35"/>
+      <c r="CW23" s="35"/>
+      <c r="CX23" s="35"/>
+      <c r="CY23" s="35"/>
+      <c r="CZ23" s="35"/>
+      <c r="DA23" s="35"/>
+      <c r="DB23" s="35"/>
+      <c r="DC23" s="35"/>
+      <c r="DD23" s="35"/>
+      <c r="DE23" s="35"/>
+      <c r="DF23" s="35"/>
+      <c r="DG23" s="35"/>
+      <c r="DH23" s="35"/>
+      <c r="DI23" s="35"/>
+      <c r="DJ23" s="35"/>
+      <c r="DK23" s="35"/>
+      <c r="DL23" s="35"/>
+      <c r="DM23" s="35"/>
+      <c r="DN23" s="35"/>
+      <c r="DO23" s="35"/>
+      <c r="DP23" s="35"/>
+      <c r="DQ23" s="35"/>
+      <c r="DR23" s="35"/>
+      <c r="DS23" s="35"/>
+      <c r="DT23" s="35"/>
+      <c r="DU23" s="35"/>
+      <c r="DV23" s="35"/>
+      <c r="DW23" s="35"/>
+      <c r="DX23" s="35"/>
+      <c r="DY23" s="35"/>
+      <c r="DZ23" s="35"/>
+      <c r="EA23" s="35"/>
+      <c r="EB23" s="35"/>
+      <c r="EC23" s="35"/>
+      <c r="ED23" s="35"/>
+      <c r="EE23" s="35"/>
+      <c r="EF23" s="35"/>
+      <c r="EG23" s="35"/>
+      <c r="EH23" s="35"/>
+      <c r="EI23" s="35"/>
+      <c r="EJ23" s="35"/>
+      <c r="EK23" s="35"/>
+      <c r="EL23" s="35"/>
+      <c r="EM23" s="35"/>
+      <c r="EN23" s="35"/>
+      <c r="EO23" s="35"/>
+      <c r="EP23" s="35"/>
+      <c r="EQ23" s="35"/>
+      <c r="ER23" s="35"/>
+      <c r="ES23" s="35"/>
+      <c r="ET23" s="35"/>
+      <c r="EU23" s="35"/>
+      <c r="EV23" s="35"/>
+      <c r="EW23" s="35"/>
+      <c r="EX23" s="35"/>
+      <c r="EY23" s="35"/>
+      <c r="EZ23" s="35"/>
+      <c r="FA23" s="35"/>
+      <c r="FB23" s="35"/>
+      <c r="FC23" s="35"/>
+      <c r="FD23" s="35"/>
+      <c r="FE23" s="35"/>
+      <c r="FF23" s="35"/>
+      <c r="FG23" s="35"/>
+      <c r="FH23" s="35"/>
+      <c r="FI23" s="35"/>
+      <c r="FJ23" s="35"/>
+      <c r="FK23" s="35"/>
+      <c r="FL23" s="35"/>
+      <c r="FM23" s="35"/>
+      <c r="FN23" s="35"/>
+      <c r="FO23" s="35"/>
+      <c r="FP23" s="35"/>
+      <c r="FQ23" s="35"/>
+      <c r="FR23" s="35"/>
+      <c r="FS23" s="35"/>
+      <c r="FT23" s="35"/>
+      <c r="FU23" s="35"/>
+      <c r="FV23" s="35"/>
+      <c r="FW23" s="35"/>
+      <c r="FX23" s="35"/>
+      <c r="FY23" s="35"/>
+      <c r="FZ23" s="35"/>
+      <c r="GA23" s="35"/>
+      <c r="GB23" s="35"/>
+      <c r="GC23" s="35"/>
+      <c r="GD23" s="35"/>
+      <c r="GE23" s="35"/>
+      <c r="GF23" s="35"/>
+      <c r="GG23" s="35"/>
+      <c r="GH23" s="35"/>
+      <c r="GI23" s="35"/>
+      <c r="GJ23" s="35"/>
+      <c r="GK23" s="35"/>
+      <c r="GL23" s="35"/>
+      <c r="GM23" s="35"/>
+      <c r="GN23" s="35"/>
+      <c r="GO23" s="35"/>
+      <c r="GP23" s="35"/>
+      <c r="GQ23" s="35"/>
+      <c r="GR23" s="35"/>
+      <c r="GS23" s="35"/>
+      <c r="GT23" s="35"/>
+      <c r="GU23" s="35"/>
+      <c r="GV23" s="35"/>
+      <c r="GW23" s="35"/>
+      <c r="GX23" s="35"/>
+      <c r="GY23" s="35"/>
+      <c r="GZ23" s="35"/>
+      <c r="HA23" s="35"/>
+      <c r="HB23" s="35"/>
+      <c r="HC23" s="35"/>
+      <c r="HD23" s="35"/>
+      <c r="HE23" s="35"/>
+      <c r="HF23" s="35"/>
+      <c r="HG23" s="35"/>
+      <c r="HH23" s="35"/>
+      <c r="HI23" s="35"/>
+      <c r="HJ23" s="35"/>
+      <c r="HK23" s="35"/>
+      <c r="HL23" s="35"/>
+      <c r="HM23" s="35"/>
+      <c r="HN23" s="35"/>
+      <c r="HO23" s="35"/>
+      <c r="HP23" s="35"/>
+      <c r="HQ23" s="35"/>
+      <c r="HR23" s="35"/>
+      <c r="HS23" s="35"/>
+      <c r="HT23" s="35"/>
+      <c r="HU23" s="35"/>
+      <c r="HV23" s="35"/>
+      <c r="HW23" s="35"/>
+      <c r="HX23" s="35"/>
+      <c r="HY23" s="35"/>
+      <c r="HZ23" s="35"/>
+      <c r="IA23" s="35"/>
+      <c r="IB23" s="35"/>
+      <c r="IC23" s="35"/>
+      <c r="ID23" s="35"/>
+      <c r="IE23" s="35"/>
+      <c r="IF23" s="35"/>
+      <c r="IG23" s="35"/>
+      <c r="IH23" s="35"/>
+      <c r="II23" s="35"/>
+      <c r="IJ23" s="35"/>
+      <c r="IK23" s="35"/>
+      <c r="IL23" s="35"/>
+      <c r="IM23" s="35"/>
+      <c r="IN23" s="35"/>
+      <c r="IO23" s="35"/>
+      <c r="IP23" s="35"/>
+      <c r="IQ23" s="35"/>
+      <c r="IR23" s="35"/>
+      <c r="IS23" s="35"/>
+      <c r="IT23" s="35"/>
+      <c r="IU23" s="35"/>
+      <c r="IV23" s="35"/>
+      <c r="IW23" s="35"/>
+      <c r="IX23" s="35"/>
     </row>
     <row r="24" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="64"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="30"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -7956,16 +7987,16 @@
     </row>
     <row r="25" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="28"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -8215,17 +8246,17 @@
       <c r="IX25" s="12"/>
     </row>
     <row r="26" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="28"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -8474,538 +8505,538 @@
       <c r="IW26" s="12"/>
       <c r="IX26" s="12"/>
     </row>
-    <row r="27" spans="1:258" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="35"/>
-      <c r="AE27" s="35"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="35"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="35"/>
-      <c r="AK27" s="35"/>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="35"/>
-      <c r="AN27" s="35"/>
-      <c r="AO27" s="35"/>
-      <c r="AP27" s="35"/>
-      <c r="AQ27" s="35"/>
-      <c r="AR27" s="35"/>
-      <c r="AS27" s="35"/>
-      <c r="AT27" s="35"/>
-      <c r="AU27" s="35"/>
-      <c r="AV27" s="35"/>
-      <c r="AW27" s="35"/>
-      <c r="AX27" s="35"/>
-      <c r="AY27" s="35"/>
-      <c r="AZ27" s="35"/>
-      <c r="BA27" s="35"/>
-      <c r="BB27" s="35"/>
-      <c r="BC27" s="35"/>
-      <c r="BD27" s="35"/>
-      <c r="BE27" s="35"/>
-      <c r="BF27" s="35"/>
-      <c r="BG27" s="35"/>
-      <c r="BH27" s="35"/>
-      <c r="BI27" s="35"/>
-      <c r="BJ27" s="35"/>
-      <c r="BK27" s="35"/>
-      <c r="BL27" s="35"/>
-      <c r="BM27" s="35"/>
-      <c r="BN27" s="35"/>
-      <c r="BO27" s="35"/>
-      <c r="BP27" s="35"/>
-      <c r="BQ27" s="35"/>
-      <c r="BR27" s="35"/>
-      <c r="BS27" s="35"/>
-      <c r="BT27" s="35"/>
-      <c r="BU27" s="35"/>
-      <c r="BV27" s="35"/>
-      <c r="BW27" s="35"/>
-      <c r="BX27" s="35"/>
-      <c r="BY27" s="35"/>
-      <c r="BZ27" s="35"/>
-      <c r="CA27" s="35"/>
-      <c r="CB27" s="35"/>
-      <c r="CC27" s="35"/>
-      <c r="CD27" s="35"/>
-      <c r="CE27" s="35"/>
-      <c r="CF27" s="35"/>
-      <c r="CG27" s="35"/>
-      <c r="CH27" s="35"/>
-      <c r="CI27" s="35"/>
-      <c r="CJ27" s="35"/>
-      <c r="CK27" s="35"/>
-      <c r="CL27" s="35"/>
-      <c r="CM27" s="35"/>
-      <c r="CN27" s="35"/>
-      <c r="CO27" s="35"/>
-      <c r="CP27" s="35"/>
-      <c r="CQ27" s="35"/>
-      <c r="CR27" s="35"/>
-      <c r="CS27" s="35"/>
-      <c r="CT27" s="35"/>
-      <c r="CU27" s="35"/>
-      <c r="CV27" s="35"/>
-      <c r="CW27" s="35"/>
-      <c r="CX27" s="35"/>
-      <c r="CY27" s="35"/>
-      <c r="CZ27" s="35"/>
-      <c r="DA27" s="35"/>
-      <c r="DB27" s="35"/>
-      <c r="DC27" s="35"/>
-      <c r="DD27" s="35"/>
-      <c r="DE27" s="35"/>
-      <c r="DF27" s="35"/>
-      <c r="DG27" s="35"/>
-      <c r="DH27" s="35"/>
-      <c r="DI27" s="35"/>
-      <c r="DJ27" s="35"/>
-      <c r="DK27" s="35"/>
-      <c r="DL27" s="35"/>
-      <c r="DM27" s="35"/>
-      <c r="DN27" s="35"/>
-      <c r="DO27" s="35"/>
-      <c r="DP27" s="35"/>
-      <c r="DQ27" s="35"/>
-      <c r="DR27" s="35"/>
-      <c r="DS27" s="35"/>
-      <c r="DT27" s="35"/>
-      <c r="DU27" s="35"/>
-      <c r="DV27" s="35"/>
-      <c r="DW27" s="35"/>
-      <c r="DX27" s="35"/>
-      <c r="DY27" s="35"/>
-      <c r="DZ27" s="35"/>
-      <c r="EA27" s="35"/>
-      <c r="EB27" s="35"/>
-      <c r="EC27" s="35"/>
-      <c r="ED27" s="35"/>
-      <c r="EE27" s="35"/>
-      <c r="EF27" s="35"/>
-      <c r="EG27" s="35"/>
-      <c r="EH27" s="35"/>
-      <c r="EI27" s="35"/>
-      <c r="EJ27" s="35"/>
-      <c r="EK27" s="35"/>
-      <c r="EL27" s="35"/>
-      <c r="EM27" s="35"/>
-      <c r="EN27" s="35"/>
-      <c r="EO27" s="35"/>
-      <c r="EP27" s="35"/>
-      <c r="EQ27" s="35"/>
-      <c r="ER27" s="35"/>
-      <c r="ES27" s="35"/>
-      <c r="ET27" s="35"/>
-      <c r="EU27" s="35"/>
-      <c r="EV27" s="35"/>
-      <c r="EW27" s="35"/>
-      <c r="EX27" s="35"/>
-      <c r="EY27" s="35"/>
-      <c r="EZ27" s="35"/>
-      <c r="FA27" s="35"/>
-      <c r="FB27" s="35"/>
-      <c r="FC27" s="35"/>
-      <c r="FD27" s="35"/>
-      <c r="FE27" s="35"/>
-      <c r="FF27" s="35"/>
-      <c r="FG27" s="35"/>
-      <c r="FH27" s="35"/>
-      <c r="FI27" s="35"/>
-      <c r="FJ27" s="35"/>
-      <c r="FK27" s="35"/>
-      <c r="FL27" s="35"/>
-      <c r="FM27" s="35"/>
-      <c r="FN27" s="35"/>
-      <c r="FO27" s="35"/>
-      <c r="FP27" s="35"/>
-      <c r="FQ27" s="35"/>
-      <c r="FR27" s="35"/>
-      <c r="FS27" s="35"/>
-      <c r="FT27" s="35"/>
-      <c r="FU27" s="35"/>
-      <c r="FV27" s="35"/>
-      <c r="FW27" s="35"/>
-      <c r="FX27" s="35"/>
-      <c r="FY27" s="35"/>
-      <c r="FZ27" s="35"/>
-      <c r="GA27" s="35"/>
-      <c r="GB27" s="35"/>
-      <c r="GC27" s="35"/>
-      <c r="GD27" s="35"/>
-      <c r="GE27" s="35"/>
-      <c r="GF27" s="35"/>
-      <c r="GG27" s="35"/>
-      <c r="GH27" s="35"/>
-      <c r="GI27" s="35"/>
-      <c r="GJ27" s="35"/>
-      <c r="GK27" s="35"/>
-      <c r="GL27" s="35"/>
-      <c r="GM27" s="35"/>
-      <c r="GN27" s="35"/>
-      <c r="GO27" s="35"/>
-      <c r="GP27" s="35"/>
-      <c r="GQ27" s="35"/>
-      <c r="GR27" s="35"/>
-      <c r="GS27" s="35"/>
-      <c r="GT27" s="35"/>
-      <c r="GU27" s="35"/>
-      <c r="GV27" s="35"/>
-      <c r="GW27" s="35"/>
-      <c r="GX27" s="35"/>
-      <c r="GY27" s="35"/>
-      <c r="GZ27" s="35"/>
-      <c r="HA27" s="35"/>
-      <c r="HB27" s="35"/>
-      <c r="HC27" s="35"/>
-      <c r="HD27" s="35"/>
-      <c r="HE27" s="35"/>
-      <c r="HF27" s="35"/>
-      <c r="HG27" s="35"/>
-      <c r="HH27" s="35"/>
-      <c r="HI27" s="35"/>
-      <c r="HJ27" s="35"/>
-      <c r="HK27" s="35"/>
-      <c r="HL27" s="35"/>
-      <c r="HM27" s="35"/>
-      <c r="HN27" s="35"/>
-      <c r="HO27" s="35"/>
-      <c r="HP27" s="35"/>
-      <c r="HQ27" s="35"/>
-      <c r="HR27" s="35"/>
-      <c r="HS27" s="35"/>
-      <c r="HT27" s="35"/>
-      <c r="HU27" s="35"/>
-      <c r="HV27" s="35"/>
-      <c r="HW27" s="35"/>
-      <c r="HX27" s="35"/>
-      <c r="HY27" s="35"/>
-      <c r="HZ27" s="35"/>
-      <c r="IA27" s="35"/>
-      <c r="IB27" s="35"/>
-      <c r="IC27" s="35"/>
-      <c r="ID27" s="35"/>
-      <c r="IE27" s="35"/>
-      <c r="IF27" s="35"/>
-      <c r="IG27" s="35"/>
-      <c r="IH27" s="35"/>
-      <c r="II27" s="35"/>
-      <c r="IJ27" s="35"/>
-      <c r="IK27" s="35"/>
-      <c r="IL27" s="35"/>
-      <c r="IM27" s="35"/>
-      <c r="IN27" s="35"/>
-      <c r="IO27" s="35"/>
-      <c r="IP27" s="35"/>
-      <c r="IQ27" s="35"/>
-      <c r="IR27" s="35"/>
-      <c r="IS27" s="35"/>
-      <c r="IT27" s="35"/>
-      <c r="IU27" s="35"/>
-      <c r="IV27" s="35"/>
-      <c r="IW27" s="35"/>
-      <c r="IX27" s="35"/>
+    <row r="27" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="50"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="12"/>
+      <c r="AY27" s="12"/>
+      <c r="AZ27" s="12"/>
+      <c r="BA27" s="12"/>
+      <c r="BB27" s="12"/>
+      <c r="BC27" s="12"/>
+      <c r="BD27" s="12"/>
+      <c r="BE27" s="12"/>
+      <c r="BF27" s="12"/>
+      <c r="BG27" s="12"/>
+      <c r="BH27" s="12"/>
+      <c r="BI27" s="12"/>
+      <c r="BJ27" s="12"/>
+      <c r="BK27" s="12"/>
+      <c r="BL27" s="12"/>
+      <c r="BM27" s="12"/>
+      <c r="BN27" s="12"/>
+      <c r="BO27" s="12"/>
+      <c r="BP27" s="12"/>
+      <c r="BQ27" s="12"/>
+      <c r="BR27" s="12"/>
+      <c r="BS27" s="12"/>
+      <c r="BT27" s="12"/>
+      <c r="BU27" s="12"/>
+      <c r="BV27" s="12"/>
+      <c r="BW27" s="12"/>
+      <c r="BX27" s="12"/>
+      <c r="BY27" s="12"/>
+      <c r="BZ27" s="12"/>
+      <c r="CA27" s="12"/>
+      <c r="CB27" s="12"/>
+      <c r="CC27" s="12"/>
+      <c r="CD27" s="12"/>
+      <c r="CE27" s="12"/>
+      <c r="CF27" s="12"/>
+      <c r="CG27" s="12"/>
+      <c r="CH27" s="12"/>
+      <c r="CI27" s="12"/>
+      <c r="CJ27" s="12"/>
+      <c r="CK27" s="12"/>
+      <c r="CL27" s="12"/>
+      <c r="CM27" s="12"/>
+      <c r="CN27" s="12"/>
+      <c r="CO27" s="12"/>
+      <c r="CP27" s="12"/>
+      <c r="CQ27" s="12"/>
+      <c r="CR27" s="12"/>
+      <c r="CS27" s="12"/>
+      <c r="CT27" s="12"/>
+      <c r="CU27" s="12"/>
+      <c r="CV27" s="12"/>
+      <c r="CW27" s="12"/>
+      <c r="CX27" s="12"/>
+      <c r="CY27" s="12"/>
+      <c r="CZ27" s="12"/>
+      <c r="DA27" s="12"/>
+      <c r="DB27" s="12"/>
+      <c r="DC27" s="12"/>
+      <c r="DD27" s="12"/>
+      <c r="DE27" s="12"/>
+      <c r="DF27" s="12"/>
+      <c r="DG27" s="12"/>
+      <c r="DH27" s="12"/>
+      <c r="DI27" s="12"/>
+      <c r="DJ27" s="12"/>
+      <c r="DK27" s="12"/>
+      <c r="DL27" s="12"/>
+      <c r="DM27" s="12"/>
+      <c r="DN27" s="12"/>
+      <c r="DO27" s="12"/>
+      <c r="DP27" s="12"/>
+      <c r="DQ27" s="12"/>
+      <c r="DR27" s="12"/>
+      <c r="DS27" s="12"/>
+      <c r="DT27" s="12"/>
+      <c r="DU27" s="12"/>
+      <c r="DV27" s="12"/>
+      <c r="DW27" s="12"/>
+      <c r="DX27" s="12"/>
+      <c r="DY27" s="12"/>
+      <c r="DZ27" s="12"/>
+      <c r="EA27" s="12"/>
+      <c r="EB27" s="12"/>
+      <c r="EC27" s="12"/>
+      <c r="ED27" s="12"/>
+      <c r="EE27" s="12"/>
+      <c r="EF27" s="12"/>
+      <c r="EG27" s="12"/>
+      <c r="EH27" s="12"/>
+      <c r="EI27" s="12"/>
+      <c r="EJ27" s="12"/>
+      <c r="EK27" s="12"/>
+      <c r="EL27" s="12"/>
+      <c r="EM27" s="12"/>
+      <c r="EN27" s="12"/>
+      <c r="EO27" s="12"/>
+      <c r="EP27" s="12"/>
+      <c r="EQ27" s="12"/>
+      <c r="ER27" s="12"/>
+      <c r="ES27" s="12"/>
+      <c r="ET27" s="12"/>
+      <c r="EU27" s="12"/>
+      <c r="EV27" s="12"/>
+      <c r="EW27" s="12"/>
+      <c r="EX27" s="12"/>
+      <c r="EY27" s="12"/>
+      <c r="EZ27" s="12"/>
+      <c r="FA27" s="12"/>
+      <c r="FB27" s="12"/>
+      <c r="FC27" s="12"/>
+      <c r="FD27" s="12"/>
+      <c r="FE27" s="12"/>
+      <c r="FF27" s="12"/>
+      <c r="FG27" s="12"/>
+      <c r="FH27" s="12"/>
+      <c r="FI27" s="12"/>
+      <c r="FJ27" s="12"/>
+      <c r="FK27" s="12"/>
+      <c r="FL27" s="12"/>
+      <c r="FM27" s="12"/>
+      <c r="FN27" s="12"/>
+      <c r="FO27" s="12"/>
+      <c r="FP27" s="12"/>
+      <c r="FQ27" s="12"/>
+      <c r="FR27" s="12"/>
+      <c r="FS27" s="12"/>
+      <c r="FT27" s="12"/>
+      <c r="FU27" s="12"/>
+      <c r="FV27" s="12"/>
+      <c r="FW27" s="12"/>
+      <c r="FX27" s="12"/>
+      <c r="FY27" s="12"/>
+      <c r="FZ27" s="12"/>
+      <c r="GA27" s="12"/>
+      <c r="GB27" s="12"/>
+      <c r="GC27" s="12"/>
+      <c r="GD27" s="12"/>
+      <c r="GE27" s="12"/>
+      <c r="GF27" s="12"/>
+      <c r="GG27" s="12"/>
+      <c r="GH27" s="12"/>
+      <c r="GI27" s="12"/>
+      <c r="GJ27" s="12"/>
+      <c r="GK27" s="12"/>
+      <c r="GL27" s="12"/>
+      <c r="GM27" s="12"/>
+      <c r="GN27" s="12"/>
+      <c r="GO27" s="12"/>
+      <c r="GP27" s="12"/>
+      <c r="GQ27" s="12"/>
+      <c r="GR27" s="12"/>
+      <c r="GS27" s="12"/>
+      <c r="GT27" s="12"/>
+      <c r="GU27" s="12"/>
+      <c r="GV27" s="12"/>
+      <c r="GW27" s="12"/>
+      <c r="GX27" s="12"/>
+      <c r="GY27" s="12"/>
+      <c r="GZ27" s="12"/>
+      <c r="HA27" s="12"/>
+      <c r="HB27" s="12"/>
+      <c r="HC27" s="12"/>
+      <c r="HD27" s="12"/>
+      <c r="HE27" s="12"/>
+      <c r="HF27" s="12"/>
+      <c r="HG27" s="12"/>
+      <c r="HH27" s="12"/>
+      <c r="HI27" s="12"/>
+      <c r="HJ27" s="12"/>
+      <c r="HK27" s="12"/>
+      <c r="HL27" s="12"/>
+      <c r="HM27" s="12"/>
+      <c r="HN27" s="12"/>
+      <c r="HO27" s="12"/>
+      <c r="HP27" s="12"/>
+      <c r="HQ27" s="12"/>
+      <c r="HR27" s="12"/>
+      <c r="HS27" s="12"/>
+      <c r="HT27" s="12"/>
+      <c r="HU27" s="12"/>
+      <c r="HV27" s="12"/>
+      <c r="HW27" s="12"/>
+      <c r="HX27" s="12"/>
+      <c r="HY27" s="12"/>
+      <c r="HZ27" s="12"/>
+      <c r="IA27" s="12"/>
+      <c r="IB27" s="12"/>
+      <c r="IC27" s="12"/>
+      <c r="ID27" s="12"/>
+      <c r="IE27" s="12"/>
+      <c r="IF27" s="12"/>
+      <c r="IG27" s="12"/>
+      <c r="IH27" s="12"/>
+      <c r="II27" s="12"/>
+      <c r="IJ27" s="12"/>
+      <c r="IK27" s="12"/>
+      <c r="IL27" s="12"/>
+      <c r="IM27" s="12"/>
+      <c r="IN27" s="12"/>
+      <c r="IO27" s="12"/>
+      <c r="IP27" s="12"/>
+      <c r="IQ27" s="12"/>
+      <c r="IR27" s="12"/>
+      <c r="IS27" s="12"/>
+      <c r="IT27" s="12"/>
+      <c r="IU27" s="12"/>
+      <c r="IV27" s="12"/>
+      <c r="IW27" s="12"/>
+      <c r="IX27" s="12"/>
     </row>
-    <row r="28" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12"/>
-      <c r="AJ28" s="12"/>
-      <c r="AK28" s="12"/>
-      <c r="AL28" s="12"/>
-      <c r="AM28" s="12"/>
-      <c r="AN28" s="12"/>
-      <c r="AO28" s="12"/>
-      <c r="AP28" s="12"/>
-      <c r="AQ28" s="12"/>
-      <c r="AR28" s="12"/>
-      <c r="AS28" s="12"/>
-      <c r="AT28" s="12"/>
-      <c r="AU28" s="12"/>
-      <c r="AV28" s="12"/>
-      <c r="AW28" s="12"/>
-      <c r="AX28" s="12"/>
-      <c r="AY28" s="12"/>
-      <c r="AZ28" s="12"/>
-      <c r="BA28" s="12"/>
-      <c r="BB28" s="12"/>
-      <c r="BC28" s="12"/>
-      <c r="BD28" s="12"/>
-      <c r="BE28" s="12"/>
-      <c r="BF28" s="12"/>
-      <c r="BG28" s="12"/>
-      <c r="BH28" s="12"/>
-      <c r="BI28" s="12"/>
-      <c r="BJ28" s="12"/>
-      <c r="BK28" s="12"/>
-      <c r="BL28" s="12"/>
-      <c r="BM28" s="12"/>
-      <c r="BN28" s="12"/>
-      <c r="BO28" s="12"/>
-      <c r="BP28" s="12"/>
-      <c r="BQ28" s="12"/>
-      <c r="BR28" s="12"/>
-      <c r="BS28" s="12"/>
-      <c r="BT28" s="12"/>
-      <c r="BU28" s="12"/>
-      <c r="BV28" s="12"/>
-      <c r="BW28" s="12"/>
-      <c r="BX28" s="12"/>
-      <c r="BY28" s="12"/>
-      <c r="BZ28" s="12"/>
-      <c r="CA28" s="12"/>
-      <c r="CB28" s="12"/>
-      <c r="CC28" s="12"/>
-      <c r="CD28" s="12"/>
-      <c r="CE28" s="12"/>
-      <c r="CF28" s="12"/>
-      <c r="CG28" s="12"/>
-      <c r="CH28" s="12"/>
-      <c r="CI28" s="12"/>
-      <c r="CJ28" s="12"/>
-      <c r="CK28" s="12"/>
-      <c r="CL28" s="12"/>
-      <c r="CM28" s="12"/>
-      <c r="CN28" s="12"/>
-      <c r="CO28" s="12"/>
-      <c r="CP28" s="12"/>
-      <c r="CQ28" s="12"/>
-      <c r="CR28" s="12"/>
-      <c r="CS28" s="12"/>
-      <c r="CT28" s="12"/>
-      <c r="CU28" s="12"/>
-      <c r="CV28" s="12"/>
-      <c r="CW28" s="12"/>
-      <c r="CX28" s="12"/>
-      <c r="CY28" s="12"/>
-      <c r="CZ28" s="12"/>
-      <c r="DA28" s="12"/>
-      <c r="DB28" s="12"/>
-      <c r="DC28" s="12"/>
-      <c r="DD28" s="12"/>
-      <c r="DE28" s="12"/>
-      <c r="DF28" s="12"/>
-      <c r="DG28" s="12"/>
-      <c r="DH28" s="12"/>
-      <c r="DI28" s="12"/>
-      <c r="DJ28" s="12"/>
-      <c r="DK28" s="12"/>
-      <c r="DL28" s="12"/>
-      <c r="DM28" s="12"/>
-      <c r="DN28" s="12"/>
-      <c r="DO28" s="12"/>
-      <c r="DP28" s="12"/>
-      <c r="DQ28" s="12"/>
-      <c r="DR28" s="12"/>
-      <c r="DS28" s="12"/>
-      <c r="DT28" s="12"/>
-      <c r="DU28" s="12"/>
-      <c r="DV28" s="12"/>
-      <c r="DW28" s="12"/>
-      <c r="DX28" s="12"/>
-      <c r="DY28" s="12"/>
-      <c r="DZ28" s="12"/>
-      <c r="EA28" s="12"/>
-      <c r="EB28" s="12"/>
-      <c r="EC28" s="12"/>
-      <c r="ED28" s="12"/>
-      <c r="EE28" s="12"/>
-      <c r="EF28" s="12"/>
-      <c r="EG28" s="12"/>
-      <c r="EH28" s="12"/>
-      <c r="EI28" s="12"/>
-      <c r="EJ28" s="12"/>
-      <c r="EK28" s="12"/>
-      <c r="EL28" s="12"/>
-      <c r="EM28" s="12"/>
-      <c r="EN28" s="12"/>
-      <c r="EO28" s="12"/>
-      <c r="EP28" s="12"/>
-      <c r="EQ28" s="12"/>
-      <c r="ER28" s="12"/>
-      <c r="ES28" s="12"/>
-      <c r="ET28" s="12"/>
-      <c r="EU28" s="12"/>
-      <c r="EV28" s="12"/>
-      <c r="EW28" s="12"/>
-      <c r="EX28" s="12"/>
-      <c r="EY28" s="12"/>
-      <c r="EZ28" s="12"/>
-      <c r="FA28" s="12"/>
-      <c r="FB28" s="12"/>
-      <c r="FC28" s="12"/>
-      <c r="FD28" s="12"/>
-      <c r="FE28" s="12"/>
-      <c r="FF28" s="12"/>
-      <c r="FG28" s="12"/>
-      <c r="FH28" s="12"/>
-      <c r="FI28" s="12"/>
-      <c r="FJ28" s="12"/>
-      <c r="FK28" s="12"/>
-      <c r="FL28" s="12"/>
-      <c r="FM28" s="12"/>
-      <c r="FN28" s="12"/>
-      <c r="FO28" s="12"/>
-      <c r="FP28" s="12"/>
-      <c r="FQ28" s="12"/>
-      <c r="FR28" s="12"/>
-      <c r="FS28" s="12"/>
-      <c r="FT28" s="12"/>
-      <c r="FU28" s="12"/>
-      <c r="FV28" s="12"/>
-      <c r="FW28" s="12"/>
-      <c r="FX28" s="12"/>
-      <c r="FY28" s="12"/>
-      <c r="FZ28" s="12"/>
-      <c r="GA28" s="12"/>
-      <c r="GB28" s="12"/>
-      <c r="GC28" s="12"/>
-      <c r="GD28" s="12"/>
-      <c r="GE28" s="12"/>
-      <c r="GF28" s="12"/>
-      <c r="GG28" s="12"/>
-      <c r="GH28" s="12"/>
-      <c r="GI28" s="12"/>
-      <c r="GJ28" s="12"/>
-      <c r="GK28" s="12"/>
-      <c r="GL28" s="12"/>
-      <c r="GM28" s="12"/>
-      <c r="GN28" s="12"/>
-      <c r="GO28" s="12"/>
-      <c r="GP28" s="12"/>
-      <c r="GQ28" s="12"/>
-      <c r="GR28" s="12"/>
-      <c r="GS28" s="12"/>
-      <c r="GT28" s="12"/>
-      <c r="GU28" s="12"/>
-      <c r="GV28" s="12"/>
-      <c r="GW28" s="12"/>
-      <c r="GX28" s="12"/>
-      <c r="GY28" s="12"/>
-      <c r="GZ28" s="12"/>
-      <c r="HA28" s="12"/>
-      <c r="HB28" s="12"/>
-      <c r="HC28" s="12"/>
-      <c r="HD28" s="12"/>
-      <c r="HE28" s="12"/>
-      <c r="HF28" s="12"/>
-      <c r="HG28" s="12"/>
-      <c r="HH28" s="12"/>
-      <c r="HI28" s="12"/>
-      <c r="HJ28" s="12"/>
-      <c r="HK28" s="12"/>
-      <c r="HL28" s="12"/>
-      <c r="HM28" s="12"/>
-      <c r="HN28" s="12"/>
-      <c r="HO28" s="12"/>
-      <c r="HP28" s="12"/>
-      <c r="HQ28" s="12"/>
-      <c r="HR28" s="12"/>
-      <c r="HS28" s="12"/>
-      <c r="HT28" s="12"/>
-      <c r="HU28" s="12"/>
-      <c r="HV28" s="12"/>
-      <c r="HW28" s="12"/>
-      <c r="HX28" s="12"/>
-      <c r="HY28" s="12"/>
-      <c r="HZ28" s="12"/>
-      <c r="IA28" s="12"/>
-      <c r="IB28" s="12"/>
-      <c r="IC28" s="12"/>
-      <c r="ID28" s="12"/>
-      <c r="IE28" s="12"/>
-      <c r="IF28" s="12"/>
-      <c r="IG28" s="12"/>
-      <c r="IH28" s="12"/>
-      <c r="II28" s="12"/>
-      <c r="IJ28" s="12"/>
-      <c r="IK28" s="12"/>
-      <c r="IL28" s="12"/>
-      <c r="IM28" s="12"/>
-      <c r="IN28" s="12"/>
-      <c r="IO28" s="12"/>
-      <c r="IP28" s="12"/>
-      <c r="IQ28" s="12"/>
-      <c r="IR28" s="12"/>
-      <c r="IS28" s="12"/>
-      <c r="IT28" s="12"/>
-      <c r="IU28" s="12"/>
-      <c r="IV28" s="12"/>
-      <c r="IW28" s="12"/>
-      <c r="IX28" s="12"/>
+    <row r="28" spans="1:258" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="35"/>
+      <c r="AK28" s="35"/>
+      <c r="AL28" s="35"/>
+      <c r="AM28" s="35"/>
+      <c r="AN28" s="35"/>
+      <c r="AO28" s="35"/>
+      <c r="AP28" s="35"/>
+      <c r="AQ28" s="35"/>
+      <c r="AR28" s="35"/>
+      <c r="AS28" s="35"/>
+      <c r="AT28" s="35"/>
+      <c r="AU28" s="35"/>
+      <c r="AV28" s="35"/>
+      <c r="AW28" s="35"/>
+      <c r="AX28" s="35"/>
+      <c r="AY28" s="35"/>
+      <c r="AZ28" s="35"/>
+      <c r="BA28" s="35"/>
+      <c r="BB28" s="35"/>
+      <c r="BC28" s="35"/>
+      <c r="BD28" s="35"/>
+      <c r="BE28" s="35"/>
+      <c r="BF28" s="35"/>
+      <c r="BG28" s="35"/>
+      <c r="BH28" s="35"/>
+      <c r="BI28" s="35"/>
+      <c r="BJ28" s="35"/>
+      <c r="BK28" s="35"/>
+      <c r="BL28" s="35"/>
+      <c r="BM28" s="35"/>
+      <c r="BN28" s="35"/>
+      <c r="BO28" s="35"/>
+      <c r="BP28" s="35"/>
+      <c r="BQ28" s="35"/>
+      <c r="BR28" s="35"/>
+      <c r="BS28" s="35"/>
+      <c r="BT28" s="35"/>
+      <c r="BU28" s="35"/>
+      <c r="BV28" s="35"/>
+      <c r="BW28" s="35"/>
+      <c r="BX28" s="35"/>
+      <c r="BY28" s="35"/>
+      <c r="BZ28" s="35"/>
+      <c r="CA28" s="35"/>
+      <c r="CB28" s="35"/>
+      <c r="CC28" s="35"/>
+      <c r="CD28" s="35"/>
+      <c r="CE28" s="35"/>
+      <c r="CF28" s="35"/>
+      <c r="CG28" s="35"/>
+      <c r="CH28" s="35"/>
+      <c r="CI28" s="35"/>
+      <c r="CJ28" s="35"/>
+      <c r="CK28" s="35"/>
+      <c r="CL28" s="35"/>
+      <c r="CM28" s="35"/>
+      <c r="CN28" s="35"/>
+      <c r="CO28" s="35"/>
+      <c r="CP28" s="35"/>
+      <c r="CQ28" s="35"/>
+      <c r="CR28" s="35"/>
+      <c r="CS28" s="35"/>
+      <c r="CT28" s="35"/>
+      <c r="CU28" s="35"/>
+      <c r="CV28" s="35"/>
+      <c r="CW28" s="35"/>
+      <c r="CX28" s="35"/>
+      <c r="CY28" s="35"/>
+      <c r="CZ28" s="35"/>
+      <c r="DA28" s="35"/>
+      <c r="DB28" s="35"/>
+      <c r="DC28" s="35"/>
+      <c r="DD28" s="35"/>
+      <c r="DE28" s="35"/>
+      <c r="DF28" s="35"/>
+      <c r="DG28" s="35"/>
+      <c r="DH28" s="35"/>
+      <c r="DI28" s="35"/>
+      <c r="DJ28" s="35"/>
+      <c r="DK28" s="35"/>
+      <c r="DL28" s="35"/>
+      <c r="DM28" s="35"/>
+      <c r="DN28" s="35"/>
+      <c r="DO28" s="35"/>
+      <c r="DP28" s="35"/>
+      <c r="DQ28" s="35"/>
+      <c r="DR28" s="35"/>
+      <c r="DS28" s="35"/>
+      <c r="DT28" s="35"/>
+      <c r="DU28" s="35"/>
+      <c r="DV28" s="35"/>
+      <c r="DW28" s="35"/>
+      <c r="DX28" s="35"/>
+      <c r="DY28" s="35"/>
+      <c r="DZ28" s="35"/>
+      <c r="EA28" s="35"/>
+      <c r="EB28" s="35"/>
+      <c r="EC28" s="35"/>
+      <c r="ED28" s="35"/>
+      <c r="EE28" s="35"/>
+      <c r="EF28" s="35"/>
+      <c r="EG28" s="35"/>
+      <c r="EH28" s="35"/>
+      <c r="EI28" s="35"/>
+      <c r="EJ28" s="35"/>
+      <c r="EK28" s="35"/>
+      <c r="EL28" s="35"/>
+      <c r="EM28" s="35"/>
+      <c r="EN28" s="35"/>
+      <c r="EO28" s="35"/>
+      <c r="EP28" s="35"/>
+      <c r="EQ28" s="35"/>
+      <c r="ER28" s="35"/>
+      <c r="ES28" s="35"/>
+      <c r="ET28" s="35"/>
+      <c r="EU28" s="35"/>
+      <c r="EV28" s="35"/>
+      <c r="EW28" s="35"/>
+      <c r="EX28" s="35"/>
+      <c r="EY28" s="35"/>
+      <c r="EZ28" s="35"/>
+      <c r="FA28" s="35"/>
+      <c r="FB28" s="35"/>
+      <c r="FC28" s="35"/>
+      <c r="FD28" s="35"/>
+      <c r="FE28" s="35"/>
+      <c r="FF28" s="35"/>
+      <c r="FG28" s="35"/>
+      <c r="FH28" s="35"/>
+      <c r="FI28" s="35"/>
+      <c r="FJ28" s="35"/>
+      <c r="FK28" s="35"/>
+      <c r="FL28" s="35"/>
+      <c r="FM28" s="35"/>
+      <c r="FN28" s="35"/>
+      <c r="FO28" s="35"/>
+      <c r="FP28" s="35"/>
+      <c r="FQ28" s="35"/>
+      <c r="FR28" s="35"/>
+      <c r="FS28" s="35"/>
+      <c r="FT28" s="35"/>
+      <c r="FU28" s="35"/>
+      <c r="FV28" s="35"/>
+      <c r="FW28" s="35"/>
+      <c r="FX28" s="35"/>
+      <c r="FY28" s="35"/>
+      <c r="FZ28" s="35"/>
+      <c r="GA28" s="35"/>
+      <c r="GB28" s="35"/>
+      <c r="GC28" s="35"/>
+      <c r="GD28" s="35"/>
+      <c r="GE28" s="35"/>
+      <c r="GF28" s="35"/>
+      <c r="GG28" s="35"/>
+      <c r="GH28" s="35"/>
+      <c r="GI28" s="35"/>
+      <c r="GJ28" s="35"/>
+      <c r="GK28" s="35"/>
+      <c r="GL28" s="35"/>
+      <c r="GM28" s="35"/>
+      <c r="GN28" s="35"/>
+      <c r="GO28" s="35"/>
+      <c r="GP28" s="35"/>
+      <c r="GQ28" s="35"/>
+      <c r="GR28" s="35"/>
+      <c r="GS28" s="35"/>
+      <c r="GT28" s="35"/>
+      <c r="GU28" s="35"/>
+      <c r="GV28" s="35"/>
+      <c r="GW28" s="35"/>
+      <c r="GX28" s="35"/>
+      <c r="GY28" s="35"/>
+      <c r="GZ28" s="35"/>
+      <c r="HA28" s="35"/>
+      <c r="HB28" s="35"/>
+      <c r="HC28" s="35"/>
+      <c r="HD28" s="35"/>
+      <c r="HE28" s="35"/>
+      <c r="HF28" s="35"/>
+      <c r="HG28" s="35"/>
+      <c r="HH28" s="35"/>
+      <c r="HI28" s="35"/>
+      <c r="HJ28" s="35"/>
+      <c r="HK28" s="35"/>
+      <c r="HL28" s="35"/>
+      <c r="HM28" s="35"/>
+      <c r="HN28" s="35"/>
+      <c r="HO28" s="35"/>
+      <c r="HP28" s="35"/>
+      <c r="HQ28" s="35"/>
+      <c r="HR28" s="35"/>
+      <c r="HS28" s="35"/>
+      <c r="HT28" s="35"/>
+      <c r="HU28" s="35"/>
+      <c r="HV28" s="35"/>
+      <c r="HW28" s="35"/>
+      <c r="HX28" s="35"/>
+      <c r="HY28" s="35"/>
+      <c r="HZ28" s="35"/>
+      <c r="IA28" s="35"/>
+      <c r="IB28" s="35"/>
+      <c r="IC28" s="35"/>
+      <c r="ID28" s="35"/>
+      <c r="IE28" s="35"/>
+      <c r="IF28" s="35"/>
+      <c r="IG28" s="35"/>
+      <c r="IH28" s="35"/>
+      <c r="II28" s="35"/>
+      <c r="IJ28" s="35"/>
+      <c r="IK28" s="35"/>
+      <c r="IL28" s="35"/>
+      <c r="IM28" s="35"/>
+      <c r="IN28" s="35"/>
+      <c r="IO28" s="35"/>
+      <c r="IP28" s="35"/>
+      <c r="IQ28" s="35"/>
+      <c r="IR28" s="35"/>
+      <c r="IS28" s="35"/>
+      <c r="IT28" s="35"/>
+      <c r="IU28" s="35"/>
+      <c r="IV28" s="35"/>
+      <c r="IW28" s="35"/>
+      <c r="IX28" s="35"/>
     </row>
     <row r="29" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="9"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="30"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -9254,301 +9285,550 @@
       <c r="IW29" s="12"/>
       <c r="IX29" s="12"/>
     </row>
-    <row r="30" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
+    <row r="30" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="66"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12"/>
+      <c r="AV30" s="12"/>
+      <c r="AW30" s="12"/>
+      <c r="AX30" s="12"/>
+      <c r="AY30" s="12"/>
+      <c r="AZ30" s="12"/>
+      <c r="BA30" s="12"/>
+      <c r="BB30" s="12"/>
+      <c r="BC30" s="12"/>
+      <c r="BD30" s="12"/>
+      <c r="BE30" s="12"/>
+      <c r="BF30" s="12"/>
+      <c r="BG30" s="12"/>
+      <c r="BH30" s="12"/>
+      <c r="BI30" s="12"/>
+      <c r="BJ30" s="12"/>
+      <c r="BK30" s="12"/>
+      <c r="BL30" s="12"/>
+      <c r="BM30" s="12"/>
+      <c r="BN30" s="12"/>
+      <c r="BO30" s="12"/>
+      <c r="BP30" s="12"/>
+      <c r="BQ30" s="12"/>
+      <c r="BR30" s="12"/>
+      <c r="BS30" s="12"/>
+      <c r="BT30" s="12"/>
+      <c r="BU30" s="12"/>
+      <c r="BV30" s="12"/>
+      <c r="BW30" s="12"/>
+      <c r="BX30" s="12"/>
+      <c r="BY30" s="12"/>
+      <c r="BZ30" s="12"/>
+      <c r="CA30" s="12"/>
+      <c r="CB30" s="12"/>
+      <c r="CC30" s="12"/>
+      <c r="CD30" s="12"/>
+      <c r="CE30" s="12"/>
+      <c r="CF30" s="12"/>
+      <c r="CG30" s="12"/>
+      <c r="CH30" s="12"/>
+      <c r="CI30" s="12"/>
+      <c r="CJ30" s="12"/>
+      <c r="CK30" s="12"/>
+      <c r="CL30" s="12"/>
+      <c r="CM30" s="12"/>
+      <c r="CN30" s="12"/>
+      <c r="CO30" s="12"/>
+      <c r="CP30" s="12"/>
+      <c r="CQ30" s="12"/>
+      <c r="CR30" s="12"/>
+      <c r="CS30" s="12"/>
+      <c r="CT30" s="12"/>
+      <c r="CU30" s="12"/>
+      <c r="CV30" s="12"/>
+      <c r="CW30" s="12"/>
+      <c r="CX30" s="12"/>
+      <c r="CY30" s="12"/>
+      <c r="CZ30" s="12"/>
+      <c r="DA30" s="12"/>
+      <c r="DB30" s="12"/>
+      <c r="DC30" s="12"/>
+      <c r="DD30" s="12"/>
+      <c r="DE30" s="12"/>
+      <c r="DF30" s="12"/>
+      <c r="DG30" s="12"/>
+      <c r="DH30" s="12"/>
+      <c r="DI30" s="12"/>
+      <c r="DJ30" s="12"/>
+      <c r="DK30" s="12"/>
+      <c r="DL30" s="12"/>
+      <c r="DM30" s="12"/>
+      <c r="DN30" s="12"/>
+      <c r="DO30" s="12"/>
+      <c r="DP30" s="12"/>
+      <c r="DQ30" s="12"/>
+      <c r="DR30" s="12"/>
+      <c r="DS30" s="12"/>
+      <c r="DT30" s="12"/>
+      <c r="DU30" s="12"/>
+      <c r="DV30" s="12"/>
+      <c r="DW30" s="12"/>
+      <c r="DX30" s="12"/>
+      <c r="DY30" s="12"/>
+      <c r="DZ30" s="12"/>
+      <c r="EA30" s="12"/>
+      <c r="EB30" s="12"/>
+      <c r="EC30" s="12"/>
+      <c r="ED30" s="12"/>
+      <c r="EE30" s="12"/>
+      <c r="EF30" s="12"/>
+      <c r="EG30" s="12"/>
+      <c r="EH30" s="12"/>
+      <c r="EI30" s="12"/>
+      <c r="EJ30" s="12"/>
+      <c r="EK30" s="12"/>
+      <c r="EL30" s="12"/>
+      <c r="EM30" s="12"/>
+      <c r="EN30" s="12"/>
+      <c r="EO30" s="12"/>
+      <c r="EP30" s="12"/>
+      <c r="EQ30" s="12"/>
+      <c r="ER30" s="12"/>
+      <c r="ES30" s="12"/>
+      <c r="ET30" s="12"/>
+      <c r="EU30" s="12"/>
+      <c r="EV30" s="12"/>
+      <c r="EW30" s="12"/>
+      <c r="EX30" s="12"/>
+      <c r="EY30" s="12"/>
+      <c r="EZ30" s="12"/>
+      <c r="FA30" s="12"/>
+      <c r="FB30" s="12"/>
+      <c r="FC30" s="12"/>
+      <c r="FD30" s="12"/>
+      <c r="FE30" s="12"/>
+      <c r="FF30" s="12"/>
+      <c r="FG30" s="12"/>
+      <c r="FH30" s="12"/>
+      <c r="FI30" s="12"/>
+      <c r="FJ30" s="12"/>
+      <c r="FK30" s="12"/>
+      <c r="FL30" s="12"/>
+      <c r="FM30" s="12"/>
+      <c r="FN30" s="12"/>
+      <c r="FO30" s="12"/>
+      <c r="FP30" s="12"/>
+      <c r="FQ30" s="12"/>
+      <c r="FR30" s="12"/>
+      <c r="FS30" s="12"/>
+      <c r="FT30" s="12"/>
+      <c r="FU30" s="12"/>
+      <c r="FV30" s="12"/>
+      <c r="FW30" s="12"/>
+      <c r="FX30" s="12"/>
+      <c r="FY30" s="12"/>
+      <c r="FZ30" s="12"/>
+      <c r="GA30" s="12"/>
+      <c r="GB30" s="12"/>
+      <c r="GC30" s="12"/>
+      <c r="GD30" s="12"/>
+      <c r="GE30" s="12"/>
+      <c r="GF30" s="12"/>
+      <c r="GG30" s="12"/>
+      <c r="GH30" s="12"/>
+      <c r="GI30" s="12"/>
+      <c r="GJ30" s="12"/>
+      <c r="GK30" s="12"/>
+      <c r="GL30" s="12"/>
+      <c r="GM30" s="12"/>
+      <c r="GN30" s="12"/>
+      <c r="GO30" s="12"/>
+      <c r="GP30" s="12"/>
+      <c r="GQ30" s="12"/>
+      <c r="GR30" s="12"/>
+      <c r="GS30" s="12"/>
+      <c r="GT30" s="12"/>
+      <c r="GU30" s="12"/>
+      <c r="GV30" s="12"/>
+      <c r="GW30" s="12"/>
+      <c r="GX30" s="12"/>
+      <c r="GY30" s="12"/>
+      <c r="GZ30" s="12"/>
+      <c r="HA30" s="12"/>
+      <c r="HB30" s="12"/>
+      <c r="HC30" s="12"/>
+      <c r="HD30" s="12"/>
+      <c r="HE30" s="12"/>
+      <c r="HF30" s="12"/>
+      <c r="HG30" s="12"/>
+      <c r="HH30" s="12"/>
+      <c r="HI30" s="12"/>
+      <c r="HJ30" s="12"/>
+      <c r="HK30" s="12"/>
+      <c r="HL30" s="12"/>
+      <c r="HM30" s="12"/>
+      <c r="HN30" s="12"/>
+      <c r="HO30" s="12"/>
+      <c r="HP30" s="12"/>
+      <c r="HQ30" s="12"/>
+      <c r="HR30" s="12"/>
+      <c r="HS30" s="12"/>
+      <c r="HT30" s="12"/>
+      <c r="HU30" s="12"/>
+      <c r="HV30" s="12"/>
+      <c r="HW30" s="12"/>
+      <c r="HX30" s="12"/>
+      <c r="HY30" s="12"/>
+      <c r="HZ30" s="12"/>
+      <c r="IA30" s="12"/>
+      <c r="IB30" s="12"/>
+      <c r="IC30" s="12"/>
+      <c r="ID30" s="12"/>
+      <c r="IE30" s="12"/>
+      <c r="IF30" s="12"/>
+      <c r="IG30" s="12"/>
+      <c r="IH30" s="12"/>
+      <c r="II30" s="12"/>
+      <c r="IJ30" s="12"/>
+      <c r="IK30" s="12"/>
+      <c r="IL30" s="12"/>
+      <c r="IM30" s="12"/>
+      <c r="IN30" s="12"/>
+      <c r="IO30" s="12"/>
+      <c r="IP30" s="12"/>
+      <c r="IQ30" s="12"/>
+      <c r="IR30" s="12"/>
+      <c r="IS30" s="12"/>
+      <c r="IT30" s="12"/>
+      <c r="IU30" s="12"/>
+      <c r="IV30" s="12"/>
+      <c r="IW30" s="12"/>
+      <c r="IX30" s="12"/>
     </row>
-    <row r="31" spans="1:258" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="46"/>
-      <c r="AI31" s="46"/>
-      <c r="AJ31" s="46"/>
-      <c r="AK31" s="46"/>
-      <c r="AL31" s="46"/>
-      <c r="AM31" s="46"/>
-      <c r="AN31" s="46"/>
-      <c r="AO31" s="46"/>
-      <c r="AP31" s="46"/>
-      <c r="AQ31" s="46"/>
-      <c r="AR31" s="46"/>
-      <c r="AS31" s="46"/>
-      <c r="AT31" s="46"/>
-      <c r="AU31" s="46"/>
-      <c r="AV31" s="46"/>
-      <c r="AW31" s="46"/>
-      <c r="AX31" s="46"/>
-      <c r="AY31" s="46"/>
-      <c r="AZ31" s="46"/>
-      <c r="BA31" s="46"/>
-      <c r="BB31" s="46"/>
-      <c r="BC31" s="46"/>
-      <c r="BD31" s="46"/>
-      <c r="BE31" s="46"/>
-      <c r="BF31" s="46"/>
-      <c r="BG31" s="46"/>
-      <c r="BH31" s="46"/>
-      <c r="BI31" s="46"/>
-      <c r="BJ31" s="46"/>
-      <c r="BK31" s="46"/>
-      <c r="BL31" s="46"/>
-      <c r="BM31" s="46"/>
-      <c r="BN31" s="46"/>
-      <c r="BO31" s="46"/>
-      <c r="BP31" s="46"/>
-      <c r="BQ31" s="46"/>
-      <c r="BR31" s="46"/>
-      <c r="BS31" s="46"/>
-      <c r="BT31" s="46"/>
-      <c r="BU31" s="46"/>
-      <c r="BV31" s="46"/>
-      <c r="BW31" s="46"/>
-      <c r="BX31" s="46"/>
-      <c r="BY31" s="46"/>
-      <c r="BZ31" s="46"/>
-      <c r="CA31" s="46"/>
-      <c r="CB31" s="46"/>
-      <c r="CC31" s="46"/>
-      <c r="CD31" s="46"/>
-      <c r="CE31" s="46"/>
-      <c r="CF31" s="46"/>
-      <c r="CG31" s="46"/>
-      <c r="CH31" s="46"/>
-      <c r="CI31" s="46"/>
-      <c r="CJ31" s="46"/>
-      <c r="CK31" s="46"/>
-      <c r="CL31" s="46"/>
-      <c r="CM31" s="46"/>
-      <c r="CN31" s="46"/>
-      <c r="CO31" s="46"/>
-      <c r="CP31" s="46"/>
-      <c r="CQ31" s="46"/>
-      <c r="CR31" s="46"/>
-      <c r="CS31" s="46"/>
-      <c r="CT31" s="46"/>
-      <c r="CU31" s="46"/>
-      <c r="CV31" s="46"/>
-      <c r="CW31" s="46"/>
-      <c r="CX31" s="46"/>
-      <c r="CY31" s="46"/>
-      <c r="CZ31" s="46"/>
-      <c r="DA31" s="46"/>
-      <c r="DB31" s="46"/>
-      <c r="DC31" s="46"/>
-      <c r="DD31" s="46"/>
-      <c r="DE31" s="46"/>
-      <c r="DF31" s="46"/>
-      <c r="DG31" s="46"/>
-      <c r="DH31" s="46"/>
-      <c r="DI31" s="46"/>
-      <c r="DJ31" s="46"/>
-      <c r="DK31" s="46"/>
-      <c r="DL31" s="46"/>
-      <c r="DM31" s="46"/>
-      <c r="DN31" s="46"/>
-      <c r="DO31" s="46"/>
-      <c r="DP31" s="46"/>
-      <c r="DQ31" s="46"/>
-      <c r="DR31" s="46"/>
-      <c r="DS31" s="46"/>
-      <c r="DT31" s="46"/>
-      <c r="DU31" s="46"/>
-      <c r="DV31" s="46"/>
-      <c r="DW31" s="46"/>
-      <c r="DX31" s="46"/>
-      <c r="DY31" s="46"/>
-      <c r="DZ31" s="46"/>
-      <c r="EA31" s="46"/>
-      <c r="EB31" s="46"/>
-      <c r="EC31" s="46"/>
-      <c r="ED31" s="46"/>
-      <c r="EE31" s="46"/>
-      <c r="EF31" s="46"/>
-      <c r="EG31" s="46"/>
-      <c r="EH31" s="46"/>
-      <c r="EI31" s="46"/>
-      <c r="EJ31" s="46"/>
-      <c r="EK31" s="46"/>
-      <c r="EL31" s="46"/>
-      <c r="EM31" s="46"/>
-      <c r="EN31" s="46"/>
-      <c r="EO31" s="46"/>
-      <c r="EP31" s="46"/>
-      <c r="EQ31" s="46"/>
-      <c r="ER31" s="46"/>
-      <c r="ES31" s="46"/>
-      <c r="ET31" s="46"/>
-      <c r="EU31" s="46"/>
-      <c r="EV31" s="46"/>
-      <c r="EW31" s="46"/>
-      <c r="EX31" s="46"/>
-      <c r="EY31" s="46"/>
-      <c r="EZ31" s="46"/>
-      <c r="FA31" s="46"/>
-      <c r="FB31" s="46"/>
-      <c r="FC31" s="46"/>
-      <c r="FD31" s="46"/>
-      <c r="FE31" s="46"/>
-      <c r="FF31" s="46"/>
-      <c r="FG31" s="46"/>
-      <c r="FH31" s="46"/>
-      <c r="FI31" s="46"/>
-      <c r="FJ31" s="46"/>
-      <c r="FK31" s="46"/>
-      <c r="FL31" s="46"/>
-      <c r="FM31" s="46"/>
-      <c r="FN31" s="46"/>
-      <c r="FO31" s="46"/>
-      <c r="FP31" s="46"/>
-      <c r="FQ31" s="46"/>
-      <c r="FR31" s="46"/>
-      <c r="FS31" s="46"/>
-      <c r="FT31" s="46"/>
-      <c r="FU31" s="46"/>
-      <c r="FV31" s="46"/>
-      <c r="FW31" s="46"/>
-      <c r="FX31" s="46"/>
-      <c r="FY31" s="46"/>
-      <c r="FZ31" s="46"/>
-      <c r="GA31" s="46"/>
-      <c r="GB31" s="46"/>
-      <c r="GC31" s="46"/>
-      <c r="GD31" s="46"/>
-      <c r="GE31" s="46"/>
-      <c r="GF31" s="46"/>
-      <c r="GG31" s="46"/>
-      <c r="GH31" s="46"/>
-      <c r="GI31" s="46"/>
-      <c r="GJ31" s="46"/>
-      <c r="GK31" s="46"/>
-      <c r="GL31" s="46"/>
-      <c r="GM31" s="46"/>
-      <c r="GN31" s="46"/>
-      <c r="GO31" s="46"/>
-      <c r="GP31" s="46"/>
-      <c r="GQ31" s="46"/>
-      <c r="GR31" s="46"/>
-      <c r="GS31" s="46"/>
-      <c r="GT31" s="46"/>
-      <c r="GU31" s="46"/>
-      <c r="GV31" s="46"/>
-      <c r="GW31" s="46"/>
-      <c r="GX31" s="46"/>
-      <c r="GY31" s="46"/>
-      <c r="GZ31" s="46"/>
-      <c r="HA31" s="46"/>
-      <c r="HB31" s="46"/>
-      <c r="HC31" s="46"/>
-      <c r="HD31" s="46"/>
-      <c r="HE31" s="46"/>
-      <c r="HF31" s="46"/>
-      <c r="HG31" s="46"/>
-      <c r="HH31" s="46"/>
-      <c r="HI31" s="46"/>
-      <c r="HJ31" s="46"/>
-      <c r="HK31" s="46"/>
-      <c r="HL31" s="46"/>
-      <c r="HM31" s="46"/>
-      <c r="HN31" s="46"/>
-      <c r="HO31" s="46"/>
-      <c r="HP31" s="46"/>
-      <c r="HQ31" s="46"/>
-      <c r="HR31" s="46"/>
-      <c r="HS31" s="46"/>
-      <c r="HT31" s="46"/>
-      <c r="HU31" s="46"/>
-      <c r="HV31" s="46"/>
-      <c r="HW31" s="46"/>
-      <c r="HX31" s="46"/>
-      <c r="HY31" s="46"/>
-      <c r="HZ31" s="46"/>
-      <c r="IA31" s="46"/>
-      <c r="IB31" s="46"/>
-      <c r="IC31" s="46"/>
-      <c r="ID31" s="46"/>
-      <c r="IE31" s="46"/>
-      <c r="IF31" s="46"/>
-      <c r="IG31" s="46"/>
-      <c r="IH31" s="46"/>
-      <c r="II31" s="46"/>
-      <c r="IJ31" s="46"/>
-      <c r="IK31" s="46"/>
-      <c r="IL31" s="46"/>
-      <c r="IM31" s="46"/>
-      <c r="IN31" s="46"/>
-      <c r="IO31" s="46"/>
-      <c r="IP31" s="46"/>
-      <c r="IQ31" s="46"/>
-      <c r="IR31" s="46"/>
-      <c r="IS31" s="46"/>
-      <c r="IT31" s="46"/>
-      <c r="IU31" s="46"/>
-      <c r="IV31" s="46"/>
-      <c r="IW31" s="46"/>
-      <c r="IX31" s="46"/>
+    <row r="31" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="67"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
     </row>
-    <row r="32" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
+    <row r="32" spans="1:258" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="46"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="46"/>
+      <c r="AL32" s="46"/>
+      <c r="AM32" s="46"/>
+      <c r="AN32" s="46"/>
+      <c r="AO32" s="46"/>
+      <c r="AP32" s="46"/>
+      <c r="AQ32" s="46"/>
+      <c r="AR32" s="46"/>
+      <c r="AS32" s="46"/>
+      <c r="AT32" s="46"/>
+      <c r="AU32" s="46"/>
+      <c r="AV32" s="46"/>
+      <c r="AW32" s="46"/>
+      <c r="AX32" s="46"/>
+      <c r="AY32" s="46"/>
+      <c r="AZ32" s="46"/>
+      <c r="BA32" s="46"/>
+      <c r="BB32" s="46"/>
+      <c r="BC32" s="46"/>
+      <c r="BD32" s="46"/>
+      <c r="BE32" s="46"/>
+      <c r="BF32" s="46"/>
+      <c r="BG32" s="46"/>
+      <c r="BH32" s="46"/>
+      <c r="BI32" s="46"/>
+      <c r="BJ32" s="46"/>
+      <c r="BK32" s="46"/>
+      <c r="BL32" s="46"/>
+      <c r="BM32" s="46"/>
+      <c r="BN32" s="46"/>
+      <c r="BO32" s="46"/>
+      <c r="BP32" s="46"/>
+      <c r="BQ32" s="46"/>
+      <c r="BR32" s="46"/>
+      <c r="BS32" s="46"/>
+      <c r="BT32" s="46"/>
+      <c r="BU32" s="46"/>
+      <c r="BV32" s="46"/>
+      <c r="BW32" s="46"/>
+      <c r="BX32" s="46"/>
+      <c r="BY32" s="46"/>
+      <c r="BZ32" s="46"/>
+      <c r="CA32" s="46"/>
+      <c r="CB32" s="46"/>
+      <c r="CC32" s="46"/>
+      <c r="CD32" s="46"/>
+      <c r="CE32" s="46"/>
+      <c r="CF32" s="46"/>
+      <c r="CG32" s="46"/>
+      <c r="CH32" s="46"/>
+      <c r="CI32" s="46"/>
+      <c r="CJ32" s="46"/>
+      <c r="CK32" s="46"/>
+      <c r="CL32" s="46"/>
+      <c r="CM32" s="46"/>
+      <c r="CN32" s="46"/>
+      <c r="CO32" s="46"/>
+      <c r="CP32" s="46"/>
+      <c r="CQ32" s="46"/>
+      <c r="CR32" s="46"/>
+      <c r="CS32" s="46"/>
+      <c r="CT32" s="46"/>
+      <c r="CU32" s="46"/>
+      <c r="CV32" s="46"/>
+      <c r="CW32" s="46"/>
+      <c r="CX32" s="46"/>
+      <c r="CY32" s="46"/>
+      <c r="CZ32" s="46"/>
+      <c r="DA32" s="46"/>
+      <c r="DB32" s="46"/>
+      <c r="DC32" s="46"/>
+      <c r="DD32" s="46"/>
+      <c r="DE32" s="46"/>
+      <c r="DF32" s="46"/>
+      <c r="DG32" s="46"/>
+      <c r="DH32" s="46"/>
+      <c r="DI32" s="46"/>
+      <c r="DJ32" s="46"/>
+      <c r="DK32" s="46"/>
+      <c r="DL32" s="46"/>
+      <c r="DM32" s="46"/>
+      <c r="DN32" s="46"/>
+      <c r="DO32" s="46"/>
+      <c r="DP32" s="46"/>
+      <c r="DQ32" s="46"/>
+      <c r="DR32" s="46"/>
+      <c r="DS32" s="46"/>
+      <c r="DT32" s="46"/>
+      <c r="DU32" s="46"/>
+      <c r="DV32" s="46"/>
+      <c r="DW32" s="46"/>
+      <c r="DX32" s="46"/>
+      <c r="DY32" s="46"/>
+      <c r="DZ32" s="46"/>
+      <c r="EA32" s="46"/>
+      <c r="EB32" s="46"/>
+      <c r="EC32" s="46"/>
+      <c r="ED32" s="46"/>
+      <c r="EE32" s="46"/>
+      <c r="EF32" s="46"/>
+      <c r="EG32" s="46"/>
+      <c r="EH32" s="46"/>
+      <c r="EI32" s="46"/>
+      <c r="EJ32" s="46"/>
+      <c r="EK32" s="46"/>
+      <c r="EL32" s="46"/>
+      <c r="EM32" s="46"/>
+      <c r="EN32" s="46"/>
+      <c r="EO32" s="46"/>
+      <c r="EP32" s="46"/>
+      <c r="EQ32" s="46"/>
+      <c r="ER32" s="46"/>
+      <c r="ES32" s="46"/>
+      <c r="ET32" s="46"/>
+      <c r="EU32" s="46"/>
+      <c r="EV32" s="46"/>
+      <c r="EW32" s="46"/>
+      <c r="EX32" s="46"/>
+      <c r="EY32" s="46"/>
+      <c r="EZ32" s="46"/>
+      <c r="FA32" s="46"/>
+      <c r="FB32" s="46"/>
+      <c r="FC32" s="46"/>
+      <c r="FD32" s="46"/>
+      <c r="FE32" s="46"/>
+      <c r="FF32" s="46"/>
+      <c r="FG32" s="46"/>
+      <c r="FH32" s="46"/>
+      <c r="FI32" s="46"/>
+      <c r="FJ32" s="46"/>
+      <c r="FK32" s="46"/>
+      <c r="FL32" s="46"/>
+      <c r="FM32" s="46"/>
+      <c r="FN32" s="46"/>
+      <c r="FO32" s="46"/>
+      <c r="FP32" s="46"/>
+      <c r="FQ32" s="46"/>
+      <c r="FR32" s="46"/>
+      <c r="FS32" s="46"/>
+      <c r="FT32" s="46"/>
+      <c r="FU32" s="46"/>
+      <c r="FV32" s="46"/>
+      <c r="FW32" s="46"/>
+      <c r="FX32" s="46"/>
+      <c r="FY32" s="46"/>
+      <c r="FZ32" s="46"/>
+      <c r="GA32" s="46"/>
+      <c r="GB32" s="46"/>
+      <c r="GC32" s="46"/>
+      <c r="GD32" s="46"/>
+      <c r="GE32" s="46"/>
+      <c r="GF32" s="46"/>
+      <c r="GG32" s="46"/>
+      <c r="GH32" s="46"/>
+      <c r="GI32" s="46"/>
+      <c r="GJ32" s="46"/>
+      <c r="GK32" s="46"/>
+      <c r="GL32" s="46"/>
+      <c r="GM32" s="46"/>
+      <c r="GN32" s="46"/>
+      <c r="GO32" s="46"/>
+      <c r="GP32" s="46"/>
+      <c r="GQ32" s="46"/>
+      <c r="GR32" s="46"/>
+      <c r="GS32" s="46"/>
+      <c r="GT32" s="46"/>
+      <c r="GU32" s="46"/>
+      <c r="GV32" s="46"/>
+      <c r="GW32" s="46"/>
+      <c r="GX32" s="46"/>
+      <c r="GY32" s="46"/>
+      <c r="GZ32" s="46"/>
+      <c r="HA32" s="46"/>
+      <c r="HB32" s="46"/>
+      <c r="HC32" s="46"/>
+      <c r="HD32" s="46"/>
+      <c r="HE32" s="46"/>
+      <c r="HF32" s="46"/>
+      <c r="HG32" s="46"/>
+      <c r="HH32" s="46"/>
+      <c r="HI32" s="46"/>
+      <c r="HJ32" s="46"/>
+      <c r="HK32" s="46"/>
+      <c r="HL32" s="46"/>
+      <c r="HM32" s="46"/>
+      <c r="HN32" s="46"/>
+      <c r="HO32" s="46"/>
+      <c r="HP32" s="46"/>
+      <c r="HQ32" s="46"/>
+      <c r="HR32" s="46"/>
+      <c r="HS32" s="46"/>
+      <c r="HT32" s="46"/>
+      <c r="HU32" s="46"/>
+      <c r="HV32" s="46"/>
+      <c r="HW32" s="46"/>
+      <c r="HX32" s="46"/>
+      <c r="HY32" s="46"/>
+      <c r="HZ32" s="46"/>
+      <c r="IA32" s="46"/>
+      <c r="IB32" s="46"/>
+      <c r="IC32" s="46"/>
+      <c r="ID32" s="46"/>
+      <c r="IE32" s="46"/>
+      <c r="IF32" s="46"/>
+      <c r="IG32" s="46"/>
+      <c r="IH32" s="46"/>
+      <c r="II32" s="46"/>
+      <c r="IJ32" s="46"/>
+      <c r="IK32" s="46"/>
+      <c r="IL32" s="46"/>
+      <c r="IM32" s="46"/>
+      <c r="IN32" s="46"/>
+      <c r="IO32" s="46"/>
+      <c r="IP32" s="46"/>
+      <c r="IQ32" s="46"/>
+      <c r="IR32" s="46"/>
+      <c r="IS32" s="46"/>
+      <c r="IT32" s="46"/>
+      <c r="IU32" s="46"/>
+      <c r="IV32" s="46"/>
+      <c r="IW32" s="46"/>
+      <c r="IX32" s="46"/>
     </row>
     <row r="33" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="60"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="45"/>
-      <c r="G33" s="25"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
     </row>
     <row r="34" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="60"/>
@@ -9558,305 +9838,304 @@
       <c r="E34" s="26"/>
       <c r="F34" s="45"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="45"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
     </row>
-    <row r="36" spans="1:258" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="46"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="46"/>
-      <c r="AE36" s="46"/>
-      <c r="AF36" s="46"/>
-      <c r="AG36" s="46"/>
-      <c r="AH36" s="46"/>
-      <c r="AI36" s="46"/>
-      <c r="AJ36" s="46"/>
-      <c r="AK36" s="46"/>
-      <c r="AL36" s="46"/>
-      <c r="AM36" s="46"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="46"/>
-      <c r="AP36" s="46"/>
-      <c r="AQ36" s="46"/>
-      <c r="AR36" s="46"/>
-      <c r="AS36" s="46"/>
-      <c r="AT36" s="46"/>
-      <c r="AU36" s="46"/>
-      <c r="AV36" s="46"/>
-      <c r="AW36" s="46"/>
-      <c r="AX36" s="46"/>
-      <c r="AY36" s="46"/>
-      <c r="AZ36" s="46"/>
-      <c r="BA36" s="46"/>
-      <c r="BB36" s="46"/>
-      <c r="BC36" s="46"/>
-      <c r="BD36" s="46"/>
-      <c r="BE36" s="46"/>
-      <c r="BF36" s="46"/>
-      <c r="BG36" s="46"/>
-      <c r="BH36" s="46"/>
-      <c r="BI36" s="46"/>
-      <c r="BJ36" s="46"/>
-      <c r="BK36" s="46"/>
-      <c r="BL36" s="46"/>
-      <c r="BM36" s="46"/>
-      <c r="BN36" s="46"/>
-      <c r="BO36" s="46"/>
-      <c r="BP36" s="46"/>
-      <c r="BQ36" s="46"/>
-      <c r="BR36" s="46"/>
-      <c r="BS36" s="46"/>
-      <c r="BT36" s="46"/>
-      <c r="BU36" s="46"/>
-      <c r="BV36" s="46"/>
-      <c r="BW36" s="46"/>
-      <c r="BX36" s="46"/>
-      <c r="BY36" s="46"/>
-      <c r="BZ36" s="46"/>
-      <c r="CA36" s="46"/>
-      <c r="CB36" s="46"/>
-      <c r="CC36" s="46"/>
-      <c r="CD36" s="46"/>
-      <c r="CE36" s="46"/>
-      <c r="CF36" s="46"/>
-      <c r="CG36" s="46"/>
-      <c r="CH36" s="46"/>
-      <c r="CI36" s="46"/>
-      <c r="CJ36" s="46"/>
-      <c r="CK36" s="46"/>
-      <c r="CL36" s="46"/>
-      <c r="CM36" s="46"/>
-      <c r="CN36" s="46"/>
-      <c r="CO36" s="46"/>
-      <c r="CP36" s="46"/>
-      <c r="CQ36" s="46"/>
-      <c r="CR36" s="46"/>
-      <c r="CS36" s="46"/>
-      <c r="CT36" s="46"/>
-      <c r="CU36" s="46"/>
-      <c r="CV36" s="46"/>
-      <c r="CW36" s="46"/>
-      <c r="CX36" s="46"/>
-      <c r="CY36" s="46"/>
-      <c r="CZ36" s="46"/>
-      <c r="DA36" s="46"/>
-      <c r="DB36" s="46"/>
-      <c r="DC36" s="46"/>
-      <c r="DD36" s="46"/>
-      <c r="DE36" s="46"/>
-      <c r="DF36" s="46"/>
-      <c r="DG36" s="46"/>
-      <c r="DH36" s="46"/>
-      <c r="DI36" s="46"/>
-      <c r="DJ36" s="46"/>
-      <c r="DK36" s="46"/>
-      <c r="DL36" s="46"/>
-      <c r="DM36" s="46"/>
-      <c r="DN36" s="46"/>
-      <c r="DO36" s="46"/>
-      <c r="DP36" s="46"/>
-      <c r="DQ36" s="46"/>
-      <c r="DR36" s="46"/>
-      <c r="DS36" s="46"/>
-      <c r="DT36" s="46"/>
-      <c r="DU36" s="46"/>
-      <c r="DV36" s="46"/>
-      <c r="DW36" s="46"/>
-      <c r="DX36" s="46"/>
-      <c r="DY36" s="46"/>
-      <c r="DZ36" s="46"/>
-      <c r="EA36" s="46"/>
-      <c r="EB36" s="46"/>
-      <c r="EC36" s="46"/>
-      <c r="ED36" s="46"/>
-      <c r="EE36" s="46"/>
-      <c r="EF36" s="46"/>
-      <c r="EG36" s="46"/>
-      <c r="EH36" s="46"/>
-      <c r="EI36" s="46"/>
-      <c r="EJ36" s="46"/>
-      <c r="EK36" s="46"/>
-      <c r="EL36" s="46"/>
-      <c r="EM36" s="46"/>
-      <c r="EN36" s="46"/>
-      <c r="EO36" s="46"/>
-      <c r="EP36" s="46"/>
-      <c r="EQ36" s="46"/>
-      <c r="ER36" s="46"/>
-      <c r="ES36" s="46"/>
-      <c r="ET36" s="46"/>
-      <c r="EU36" s="46"/>
-      <c r="EV36" s="46"/>
-      <c r="EW36" s="46"/>
-      <c r="EX36" s="46"/>
-      <c r="EY36" s="46"/>
-      <c r="EZ36" s="46"/>
-      <c r="FA36" s="46"/>
-      <c r="FB36" s="46"/>
-      <c r="FC36" s="46"/>
-      <c r="FD36" s="46"/>
-      <c r="FE36" s="46"/>
-      <c r="FF36" s="46"/>
-      <c r="FG36" s="46"/>
-      <c r="FH36" s="46"/>
-      <c r="FI36" s="46"/>
-      <c r="FJ36" s="46"/>
-      <c r="FK36" s="46"/>
-      <c r="FL36" s="46"/>
-      <c r="FM36" s="46"/>
-      <c r="FN36" s="46"/>
-      <c r="FO36" s="46"/>
-      <c r="FP36" s="46"/>
-      <c r="FQ36" s="46"/>
-      <c r="FR36" s="46"/>
-      <c r="FS36" s="46"/>
-      <c r="FT36" s="46"/>
-      <c r="FU36" s="46"/>
-      <c r="FV36" s="46"/>
-      <c r="FW36" s="46"/>
-      <c r="FX36" s="46"/>
-      <c r="FY36" s="46"/>
-      <c r="FZ36" s="46"/>
-      <c r="GA36" s="46"/>
-      <c r="GB36" s="46"/>
-      <c r="GC36" s="46"/>
-      <c r="GD36" s="46"/>
-      <c r="GE36" s="46"/>
-      <c r="GF36" s="46"/>
-      <c r="GG36" s="46"/>
-      <c r="GH36" s="46"/>
-      <c r="GI36" s="46"/>
-      <c r="GJ36" s="46"/>
-      <c r="GK36" s="46"/>
-      <c r="GL36" s="46"/>
-      <c r="GM36" s="46"/>
-      <c r="GN36" s="46"/>
-      <c r="GO36" s="46"/>
-      <c r="GP36" s="46"/>
-      <c r="GQ36" s="46"/>
-      <c r="GR36" s="46"/>
-      <c r="GS36" s="46"/>
-      <c r="GT36" s="46"/>
-      <c r="GU36" s="46"/>
-      <c r="GV36" s="46"/>
-      <c r="GW36" s="46"/>
-      <c r="GX36" s="46"/>
-      <c r="GY36" s="46"/>
-      <c r="GZ36" s="46"/>
-      <c r="HA36" s="46"/>
-      <c r="HB36" s="46"/>
-      <c r="HC36" s="46"/>
-      <c r="HD36" s="46"/>
-      <c r="HE36" s="46"/>
-      <c r="HF36" s="46"/>
-      <c r="HG36" s="46"/>
-      <c r="HH36" s="46"/>
-      <c r="HI36" s="46"/>
-      <c r="HJ36" s="46"/>
-      <c r="HK36" s="46"/>
-      <c r="HL36" s="46"/>
-      <c r="HM36" s="46"/>
-      <c r="HN36" s="46"/>
-      <c r="HO36" s="46"/>
-      <c r="HP36" s="46"/>
-      <c r="HQ36" s="46"/>
-      <c r="HR36" s="46"/>
-      <c r="HS36" s="46"/>
-      <c r="HT36" s="46"/>
-      <c r="HU36" s="46"/>
-      <c r="HV36" s="46"/>
-      <c r="HW36" s="46"/>
-      <c r="HX36" s="46"/>
-      <c r="HY36" s="46"/>
-      <c r="HZ36" s="46"/>
-      <c r="IA36" s="46"/>
-      <c r="IB36" s="46"/>
-      <c r="IC36" s="46"/>
-      <c r="ID36" s="46"/>
-      <c r="IE36" s="46"/>
-      <c r="IF36" s="46"/>
-      <c r="IG36" s="46"/>
-      <c r="IH36" s="46"/>
-      <c r="II36" s="46"/>
-      <c r="IJ36" s="46"/>
-      <c r="IK36" s="46"/>
-      <c r="IL36" s="46"/>
-      <c r="IM36" s="46"/>
-      <c r="IN36" s="46"/>
-      <c r="IO36" s="46"/>
-      <c r="IP36" s="46"/>
-      <c r="IQ36" s="46"/>
-      <c r="IR36" s="46"/>
-      <c r="IS36" s="46"/>
-      <c r="IT36" s="46"/>
-      <c r="IU36" s="46"/>
-      <c r="IV36" s="46"/>
-      <c r="IW36" s="46"/>
-      <c r="IX36" s="46"/>
+    <row r="36" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="61"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
     </row>
-    <row r="37" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="59"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
+    <row r="37" spans="1:258" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="49"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="46"/>
+      <c r="AE37" s="46"/>
+      <c r="AF37" s="46"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="46"/>
+      <c r="AM37" s="46"/>
+      <c r="AN37" s="46"/>
+      <c r="AO37" s="46"/>
+      <c r="AP37" s="46"/>
+      <c r="AQ37" s="46"/>
+      <c r="AR37" s="46"/>
+      <c r="AS37" s="46"/>
+      <c r="AT37" s="46"/>
+      <c r="AU37" s="46"/>
+      <c r="AV37" s="46"/>
+      <c r="AW37" s="46"/>
+      <c r="AX37" s="46"/>
+      <c r="AY37" s="46"/>
+      <c r="AZ37" s="46"/>
+      <c r="BA37" s="46"/>
+      <c r="BB37" s="46"/>
+      <c r="BC37" s="46"/>
+      <c r="BD37" s="46"/>
+      <c r="BE37" s="46"/>
+      <c r="BF37" s="46"/>
+      <c r="BG37" s="46"/>
+      <c r="BH37" s="46"/>
+      <c r="BI37" s="46"/>
+      <c r="BJ37" s="46"/>
+      <c r="BK37" s="46"/>
+      <c r="BL37" s="46"/>
+      <c r="BM37" s="46"/>
+      <c r="BN37" s="46"/>
+      <c r="BO37" s="46"/>
+      <c r="BP37" s="46"/>
+      <c r="BQ37" s="46"/>
+      <c r="BR37" s="46"/>
+      <c r="BS37" s="46"/>
+      <c r="BT37" s="46"/>
+      <c r="BU37" s="46"/>
+      <c r="BV37" s="46"/>
+      <c r="BW37" s="46"/>
+      <c r="BX37" s="46"/>
+      <c r="BY37" s="46"/>
+      <c r="BZ37" s="46"/>
+      <c r="CA37" s="46"/>
+      <c r="CB37" s="46"/>
+      <c r="CC37" s="46"/>
+      <c r="CD37" s="46"/>
+      <c r="CE37" s="46"/>
+      <c r="CF37" s="46"/>
+      <c r="CG37" s="46"/>
+      <c r="CH37" s="46"/>
+      <c r="CI37" s="46"/>
+      <c r="CJ37" s="46"/>
+      <c r="CK37" s="46"/>
+      <c r="CL37" s="46"/>
+      <c r="CM37" s="46"/>
+      <c r="CN37" s="46"/>
+      <c r="CO37" s="46"/>
+      <c r="CP37" s="46"/>
+      <c r="CQ37" s="46"/>
+      <c r="CR37" s="46"/>
+      <c r="CS37" s="46"/>
+      <c r="CT37" s="46"/>
+      <c r="CU37" s="46"/>
+      <c r="CV37" s="46"/>
+      <c r="CW37" s="46"/>
+      <c r="CX37" s="46"/>
+      <c r="CY37" s="46"/>
+      <c r="CZ37" s="46"/>
+      <c r="DA37" s="46"/>
+      <c r="DB37" s="46"/>
+      <c r="DC37" s="46"/>
+      <c r="DD37" s="46"/>
+      <c r="DE37" s="46"/>
+      <c r="DF37" s="46"/>
+      <c r="DG37" s="46"/>
+      <c r="DH37" s="46"/>
+      <c r="DI37" s="46"/>
+      <c r="DJ37" s="46"/>
+      <c r="DK37" s="46"/>
+      <c r="DL37" s="46"/>
+      <c r="DM37" s="46"/>
+      <c r="DN37" s="46"/>
+      <c r="DO37" s="46"/>
+      <c r="DP37" s="46"/>
+      <c r="DQ37" s="46"/>
+      <c r="DR37" s="46"/>
+      <c r="DS37" s="46"/>
+      <c r="DT37" s="46"/>
+      <c r="DU37" s="46"/>
+      <c r="DV37" s="46"/>
+      <c r="DW37" s="46"/>
+      <c r="DX37" s="46"/>
+      <c r="DY37" s="46"/>
+      <c r="DZ37" s="46"/>
+      <c r="EA37" s="46"/>
+      <c r="EB37" s="46"/>
+      <c r="EC37" s="46"/>
+      <c r="ED37" s="46"/>
+      <c r="EE37" s="46"/>
+      <c r="EF37" s="46"/>
+      <c r="EG37" s="46"/>
+      <c r="EH37" s="46"/>
+      <c r="EI37" s="46"/>
+      <c r="EJ37" s="46"/>
+      <c r="EK37" s="46"/>
+      <c r="EL37" s="46"/>
+      <c r="EM37" s="46"/>
+      <c r="EN37" s="46"/>
+      <c r="EO37" s="46"/>
+      <c r="EP37" s="46"/>
+      <c r="EQ37" s="46"/>
+      <c r="ER37" s="46"/>
+      <c r="ES37" s="46"/>
+      <c r="ET37" s="46"/>
+      <c r="EU37" s="46"/>
+      <c r="EV37" s="46"/>
+      <c r="EW37" s="46"/>
+      <c r="EX37" s="46"/>
+      <c r="EY37" s="46"/>
+      <c r="EZ37" s="46"/>
+      <c r="FA37" s="46"/>
+      <c r="FB37" s="46"/>
+      <c r="FC37" s="46"/>
+      <c r="FD37" s="46"/>
+      <c r="FE37" s="46"/>
+      <c r="FF37" s="46"/>
+      <c r="FG37" s="46"/>
+      <c r="FH37" s="46"/>
+      <c r="FI37" s="46"/>
+      <c r="FJ37" s="46"/>
+      <c r="FK37" s="46"/>
+      <c r="FL37" s="46"/>
+      <c r="FM37" s="46"/>
+      <c r="FN37" s="46"/>
+      <c r="FO37" s="46"/>
+      <c r="FP37" s="46"/>
+      <c r="FQ37" s="46"/>
+      <c r="FR37" s="46"/>
+      <c r="FS37" s="46"/>
+      <c r="FT37" s="46"/>
+      <c r="FU37" s="46"/>
+      <c r="FV37" s="46"/>
+      <c r="FW37" s="46"/>
+      <c r="FX37" s="46"/>
+      <c r="FY37" s="46"/>
+      <c r="FZ37" s="46"/>
+      <c r="GA37" s="46"/>
+      <c r="GB37" s="46"/>
+      <c r="GC37" s="46"/>
+      <c r="GD37" s="46"/>
+      <c r="GE37" s="46"/>
+      <c r="GF37" s="46"/>
+      <c r="GG37" s="46"/>
+      <c r="GH37" s="46"/>
+      <c r="GI37" s="46"/>
+      <c r="GJ37" s="46"/>
+      <c r="GK37" s="46"/>
+      <c r="GL37" s="46"/>
+      <c r="GM37" s="46"/>
+      <c r="GN37" s="46"/>
+      <c r="GO37" s="46"/>
+      <c r="GP37" s="46"/>
+      <c r="GQ37" s="46"/>
+      <c r="GR37" s="46"/>
+      <c r="GS37" s="46"/>
+      <c r="GT37" s="46"/>
+      <c r="GU37" s="46"/>
+      <c r="GV37" s="46"/>
+      <c r="GW37" s="46"/>
+      <c r="GX37" s="46"/>
+      <c r="GY37" s="46"/>
+      <c r="GZ37" s="46"/>
+      <c r="HA37" s="46"/>
+      <c r="HB37" s="46"/>
+      <c r="HC37" s="46"/>
+      <c r="HD37" s="46"/>
+      <c r="HE37" s="46"/>
+      <c r="HF37" s="46"/>
+      <c r="HG37" s="46"/>
+      <c r="HH37" s="46"/>
+      <c r="HI37" s="46"/>
+      <c r="HJ37" s="46"/>
+      <c r="HK37" s="46"/>
+      <c r="HL37" s="46"/>
+      <c r="HM37" s="46"/>
+      <c r="HN37" s="46"/>
+      <c r="HO37" s="46"/>
+      <c r="HP37" s="46"/>
+      <c r="HQ37" s="46"/>
+      <c r="HR37" s="46"/>
+      <c r="HS37" s="46"/>
+      <c r="HT37" s="46"/>
+      <c r="HU37" s="46"/>
+      <c r="HV37" s="46"/>
+      <c r="HW37" s="46"/>
+      <c r="HX37" s="46"/>
+      <c r="HY37" s="46"/>
+      <c r="HZ37" s="46"/>
+      <c r="IA37" s="46"/>
+      <c r="IB37" s="46"/>
+      <c r="IC37" s="46"/>
+      <c r="ID37" s="46"/>
+      <c r="IE37" s="46"/>
+      <c r="IF37" s="46"/>
+      <c r="IG37" s="46"/>
+      <c r="IH37" s="46"/>
+      <c r="II37" s="46"/>
+      <c r="IJ37" s="46"/>
+      <c r="IK37" s="46"/>
+      <c r="IL37" s="46"/>
+      <c r="IM37" s="46"/>
+      <c r="IN37" s="46"/>
+      <c r="IO37" s="46"/>
+      <c r="IP37" s="46"/>
+      <c r="IQ37" s="46"/>
+      <c r="IR37" s="46"/>
+      <c r="IS37" s="46"/>
+      <c r="IT37" s="46"/>
+      <c r="IU37" s="46"/>
+      <c r="IV37" s="46"/>
+      <c r="IW37" s="46"/>
+      <c r="IX37" s="46"/>
     </row>
     <row r="38" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
     </row>
     <row r="39" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="60"/>
@@ -9878,7 +10157,7 @@
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="11"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
     </row>
@@ -9889,25 +10168,25 @@
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
-      <c r="G42" s="25"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="25"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="59"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
@@ -9919,20 +10198,20 @@
       <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="60"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="9"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="11"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="60"/>
-      <c r="B45" s="63"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="9"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
@@ -9944,37 +10223,37 @@
     </row>
     <row r="46" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="60"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
+      <c r="H46" s="11"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+      <c r="H47" s="26"/>
       <c r="I47" s="26"/>
       <c r="J47" s="26"/>
     </row>
     <row r="48" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="26"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="26"/>
       <c r="J48" s="26"/>
     </row>
@@ -10014,16 +10293,28 @@
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
     </row>
+    <row r="52" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="24"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -25,10 +25,10 @@
     <author>joe.feng@hotmail.com</author>
   </authors>
   <commentList>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment ref="C30" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="G29" authorId="0" shapeId="0">
+    <comment ref="G30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="152">
   <si>
     <t>Comments</t>
   </si>
@@ -876,18 +876,6 @@
 }</t>
   </si>
   <si>
-    <t>{
- "id": -1,
- "name": "",
- "parentId": 1,
- "code": "",
- "key": "",
- "order": 32,
- "active": true,
- "remark": ""
-}</t>
-  </si>
-  <si>
     <t>Get user roles information</t>
   </si>
   <si>
@@ -992,6 +980,36 @@
  "key": "",
  "remark": ""
 }</t>
+  </si>
+  <si>
+    <t>{
+ "id": -1,
+ "name": "",
+ "parentId": 1,
+ "code": "",
+ "key": "",
+ "order": 32,
+ "active": 1,
+ "remark": ""
+}</t>
+  </si>
+  <si>
+    <t>/departments/:deaprtmentId</t>
+  </si>
+  <si>
+    <t>{
+ "id": 1,
+ "name": "",
+ "parentId": 1,
+ "code": "",
+ "key": "",
+ "order": 32,
+ "active": 1,
+ "remark": ""
+}</t>
+  </si>
+  <si>
+    <t>Get department by id</t>
   </si>
 </sst>
 </file>
@@ -1780,11 +1798,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IX52"/>
+  <dimension ref="A1:IX53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3179,7 +3197,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>25</v>
@@ -3447,7 +3465,7 @@
         <v>106</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>25</v>
@@ -3456,7 +3474,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
@@ -3723,7 +3741,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>114</v>
@@ -3984,21 +4002,19 @@
     <row r="10" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="11" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="11" t="s">
-        <v>119</v>
-      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="11"/>
@@ -4254,25 +4270,23 @@
     <row r="11" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
       <c r="B11" s="11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
@@ -4526,21 +4540,25 @@
     <row r="12" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
       <c r="B12" s="11" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="H12" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I12" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="9"/>
       <c r="L12" s="12"/>
@@ -4794,21 +4812,19 @@
     <row r="13" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
       <c r="B13" s="11" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="11" t="s">
-        <v>121</v>
-      </c>
+      <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
@@ -5064,21 +5080,21 @@
     <row r="14" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
       <c r="B14" s="11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
@@ -5334,19 +5350,21 @@
     <row r="15" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
       <c r="B15" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="H15" s="11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
@@ -5600,27 +5618,23 @@
       <c r="IX15" s="12"/>
     </row>
     <row r="16" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="11" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>101</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="I16" s="9"/>
       <c r="J16" s="11"/>
       <c r="K16" s="9"/>
       <c r="L16" s="12"/>
@@ -5871,556 +5885,560 @@
       <c r="IW16" s="12"/>
       <c r="IX16" s="12"/>
     </row>
-    <row r="17" spans="1:258" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="35"/>
-      <c r="AQ17" s="35"/>
-      <c r="AR17" s="35"/>
-      <c r="AS17" s="35"/>
-      <c r="AT17" s="35"/>
-      <c r="AU17" s="35"/>
-      <c r="AV17" s="35"/>
-      <c r="AW17" s="35"/>
-      <c r="AX17" s="35"/>
-      <c r="AY17" s="35"/>
-      <c r="AZ17" s="35"/>
-      <c r="BA17" s="35"/>
-      <c r="BB17" s="35"/>
-      <c r="BC17" s="35"/>
-      <c r="BD17" s="35"/>
-      <c r="BE17" s="35"/>
-      <c r="BF17" s="35"/>
-      <c r="BG17" s="35"/>
-      <c r="BH17" s="35"/>
-      <c r="BI17" s="35"/>
-      <c r="BJ17" s="35"/>
-      <c r="BK17" s="35"/>
-      <c r="BL17" s="35"/>
-      <c r="BM17" s="35"/>
-      <c r="BN17" s="35"/>
-      <c r="BO17" s="35"/>
-      <c r="BP17" s="35"/>
-      <c r="BQ17" s="35"/>
-      <c r="BR17" s="35"/>
-      <c r="BS17" s="35"/>
-      <c r="BT17" s="35"/>
-      <c r="BU17" s="35"/>
-      <c r="BV17" s="35"/>
-      <c r="BW17" s="35"/>
-      <c r="BX17" s="35"/>
-      <c r="BY17" s="35"/>
-      <c r="BZ17" s="35"/>
-      <c r="CA17" s="35"/>
-      <c r="CB17" s="35"/>
-      <c r="CC17" s="35"/>
-      <c r="CD17" s="35"/>
-      <c r="CE17" s="35"/>
-      <c r="CF17" s="35"/>
-      <c r="CG17" s="35"/>
-      <c r="CH17" s="35"/>
-      <c r="CI17" s="35"/>
-      <c r="CJ17" s="35"/>
-      <c r="CK17" s="35"/>
-      <c r="CL17" s="35"/>
-      <c r="CM17" s="35"/>
-      <c r="CN17" s="35"/>
-      <c r="CO17" s="35"/>
-      <c r="CP17" s="35"/>
-      <c r="CQ17" s="35"/>
-      <c r="CR17" s="35"/>
-      <c r="CS17" s="35"/>
-      <c r="CT17" s="35"/>
-      <c r="CU17" s="35"/>
-      <c r="CV17" s="35"/>
-      <c r="CW17" s="35"/>
-      <c r="CX17" s="35"/>
-      <c r="CY17" s="35"/>
-      <c r="CZ17" s="35"/>
-      <c r="DA17" s="35"/>
-      <c r="DB17" s="35"/>
-      <c r="DC17" s="35"/>
-      <c r="DD17" s="35"/>
-      <c r="DE17" s="35"/>
-      <c r="DF17" s="35"/>
-      <c r="DG17" s="35"/>
-      <c r="DH17" s="35"/>
-      <c r="DI17" s="35"/>
-      <c r="DJ17" s="35"/>
-      <c r="DK17" s="35"/>
-      <c r="DL17" s="35"/>
-      <c r="DM17" s="35"/>
-      <c r="DN17" s="35"/>
-      <c r="DO17" s="35"/>
-      <c r="DP17" s="35"/>
-      <c r="DQ17" s="35"/>
-      <c r="DR17" s="35"/>
-      <c r="DS17" s="35"/>
-      <c r="DT17" s="35"/>
-      <c r="DU17" s="35"/>
-      <c r="DV17" s="35"/>
-      <c r="DW17" s="35"/>
-      <c r="DX17" s="35"/>
-      <c r="DY17" s="35"/>
-      <c r="DZ17" s="35"/>
-      <c r="EA17" s="35"/>
-      <c r="EB17" s="35"/>
-      <c r="EC17" s="35"/>
-      <c r="ED17" s="35"/>
-      <c r="EE17" s="35"/>
-      <c r="EF17" s="35"/>
-      <c r="EG17" s="35"/>
-      <c r="EH17" s="35"/>
-      <c r="EI17" s="35"/>
-      <c r="EJ17" s="35"/>
-      <c r="EK17" s="35"/>
-      <c r="EL17" s="35"/>
-      <c r="EM17" s="35"/>
-      <c r="EN17" s="35"/>
-      <c r="EO17" s="35"/>
-      <c r="EP17" s="35"/>
-      <c r="EQ17" s="35"/>
-      <c r="ER17" s="35"/>
-      <c r="ES17" s="35"/>
-      <c r="ET17" s="35"/>
-      <c r="EU17" s="35"/>
-      <c r="EV17" s="35"/>
-      <c r="EW17" s="35"/>
-      <c r="EX17" s="35"/>
-      <c r="EY17" s="35"/>
-      <c r="EZ17" s="35"/>
-      <c r="FA17" s="35"/>
-      <c r="FB17" s="35"/>
-      <c r="FC17" s="35"/>
-      <c r="FD17" s="35"/>
-      <c r="FE17" s="35"/>
-      <c r="FF17" s="35"/>
-      <c r="FG17" s="35"/>
-      <c r="FH17" s="35"/>
-      <c r="FI17" s="35"/>
-      <c r="FJ17" s="35"/>
-      <c r="FK17" s="35"/>
-      <c r="FL17" s="35"/>
-      <c r="FM17" s="35"/>
-      <c r="FN17" s="35"/>
-      <c r="FO17" s="35"/>
-      <c r="FP17" s="35"/>
-      <c r="FQ17" s="35"/>
-      <c r="FR17" s="35"/>
-      <c r="FS17" s="35"/>
-      <c r="FT17" s="35"/>
-      <c r="FU17" s="35"/>
-      <c r="FV17" s="35"/>
-      <c r="FW17" s="35"/>
-      <c r="FX17" s="35"/>
-      <c r="FY17" s="35"/>
-      <c r="FZ17" s="35"/>
-      <c r="GA17" s="35"/>
-      <c r="GB17" s="35"/>
-      <c r="GC17" s="35"/>
-      <c r="GD17" s="35"/>
-      <c r="GE17" s="35"/>
-      <c r="GF17" s="35"/>
-      <c r="GG17" s="35"/>
-      <c r="GH17" s="35"/>
-      <c r="GI17" s="35"/>
-      <c r="GJ17" s="35"/>
-      <c r="GK17" s="35"/>
-      <c r="GL17" s="35"/>
-      <c r="GM17" s="35"/>
-      <c r="GN17" s="35"/>
-      <c r="GO17" s="35"/>
-      <c r="GP17" s="35"/>
-      <c r="GQ17" s="35"/>
-      <c r="GR17" s="35"/>
-      <c r="GS17" s="35"/>
-      <c r="GT17" s="35"/>
-      <c r="GU17" s="35"/>
-      <c r="GV17" s="35"/>
-      <c r="GW17" s="35"/>
-      <c r="GX17" s="35"/>
-      <c r="GY17" s="35"/>
-      <c r="GZ17" s="35"/>
-      <c r="HA17" s="35"/>
-      <c r="HB17" s="35"/>
-      <c r="HC17" s="35"/>
-      <c r="HD17" s="35"/>
-      <c r="HE17" s="35"/>
-      <c r="HF17" s="35"/>
-      <c r="HG17" s="35"/>
-      <c r="HH17" s="35"/>
-      <c r="HI17" s="35"/>
-      <c r="HJ17" s="35"/>
-      <c r="HK17" s="35"/>
-      <c r="HL17" s="35"/>
-      <c r="HM17" s="35"/>
-      <c r="HN17" s="35"/>
-      <c r="HO17" s="35"/>
-      <c r="HP17" s="35"/>
-      <c r="HQ17" s="35"/>
-      <c r="HR17" s="35"/>
-      <c r="HS17" s="35"/>
-      <c r="HT17" s="35"/>
-      <c r="HU17" s="35"/>
-      <c r="HV17" s="35"/>
-      <c r="HW17" s="35"/>
-      <c r="HX17" s="35"/>
-      <c r="HY17" s="35"/>
-      <c r="HZ17" s="35"/>
-      <c r="IA17" s="35"/>
-      <c r="IB17" s="35"/>
-      <c r="IC17" s="35"/>
-      <c r="ID17" s="35"/>
-      <c r="IE17" s="35"/>
-      <c r="IF17" s="35"/>
-      <c r="IG17" s="35"/>
-      <c r="IH17" s="35"/>
-      <c r="II17" s="35"/>
-      <c r="IJ17" s="35"/>
-      <c r="IK17" s="35"/>
-      <c r="IL17" s="35"/>
-      <c r="IM17" s="35"/>
-      <c r="IN17" s="35"/>
-      <c r="IO17" s="35"/>
-      <c r="IP17" s="35"/>
-      <c r="IQ17" s="35"/>
-      <c r="IR17" s="35"/>
-      <c r="IS17" s="35"/>
-      <c r="IT17" s="35"/>
-      <c r="IU17" s="35"/>
-      <c r="IV17" s="35"/>
-      <c r="IW17" s="35"/>
-      <c r="IX17" s="35"/>
+    <row r="17" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="58"/>
+      <c r="B17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12"/>
+      <c r="BP17" s="12"/>
+      <c r="BQ17" s="12"/>
+      <c r="BR17" s="12"/>
+      <c r="BS17" s="12"/>
+      <c r="BT17" s="12"/>
+      <c r="BU17" s="12"/>
+      <c r="BV17" s="12"/>
+      <c r="BW17" s="12"/>
+      <c r="BX17" s="12"/>
+      <c r="BY17" s="12"/>
+      <c r="BZ17" s="12"/>
+      <c r="CA17" s="12"/>
+      <c r="CB17" s="12"/>
+      <c r="CC17" s="12"/>
+      <c r="CD17" s="12"/>
+      <c r="CE17" s="12"/>
+      <c r="CF17" s="12"/>
+      <c r="CG17" s="12"/>
+      <c r="CH17" s="12"/>
+      <c r="CI17" s="12"/>
+      <c r="CJ17" s="12"/>
+      <c r="CK17" s="12"/>
+      <c r="CL17" s="12"/>
+      <c r="CM17" s="12"/>
+      <c r="CN17" s="12"/>
+      <c r="CO17" s="12"/>
+      <c r="CP17" s="12"/>
+      <c r="CQ17" s="12"/>
+      <c r="CR17" s="12"/>
+      <c r="CS17" s="12"/>
+      <c r="CT17" s="12"/>
+      <c r="CU17" s="12"/>
+      <c r="CV17" s="12"/>
+      <c r="CW17" s="12"/>
+      <c r="CX17" s="12"/>
+      <c r="CY17" s="12"/>
+      <c r="CZ17" s="12"/>
+      <c r="DA17" s="12"/>
+      <c r="DB17" s="12"/>
+      <c r="DC17" s="12"/>
+      <c r="DD17" s="12"/>
+      <c r="DE17" s="12"/>
+      <c r="DF17" s="12"/>
+      <c r="DG17" s="12"/>
+      <c r="DH17" s="12"/>
+      <c r="DI17" s="12"/>
+      <c r="DJ17" s="12"/>
+      <c r="DK17" s="12"/>
+      <c r="DL17" s="12"/>
+      <c r="DM17" s="12"/>
+      <c r="DN17" s="12"/>
+      <c r="DO17" s="12"/>
+      <c r="DP17" s="12"/>
+      <c r="DQ17" s="12"/>
+      <c r="DR17" s="12"/>
+      <c r="DS17" s="12"/>
+      <c r="DT17" s="12"/>
+      <c r="DU17" s="12"/>
+      <c r="DV17" s="12"/>
+      <c r="DW17" s="12"/>
+      <c r="DX17" s="12"/>
+      <c r="DY17" s="12"/>
+      <c r="DZ17" s="12"/>
+      <c r="EA17" s="12"/>
+      <c r="EB17" s="12"/>
+      <c r="EC17" s="12"/>
+      <c r="ED17" s="12"/>
+      <c r="EE17" s="12"/>
+      <c r="EF17" s="12"/>
+      <c r="EG17" s="12"/>
+      <c r="EH17" s="12"/>
+      <c r="EI17" s="12"/>
+      <c r="EJ17" s="12"/>
+      <c r="EK17" s="12"/>
+      <c r="EL17" s="12"/>
+      <c r="EM17" s="12"/>
+      <c r="EN17" s="12"/>
+      <c r="EO17" s="12"/>
+      <c r="EP17" s="12"/>
+      <c r="EQ17" s="12"/>
+      <c r="ER17" s="12"/>
+      <c r="ES17" s="12"/>
+      <c r="ET17" s="12"/>
+      <c r="EU17" s="12"/>
+      <c r="EV17" s="12"/>
+      <c r="EW17" s="12"/>
+      <c r="EX17" s="12"/>
+      <c r="EY17" s="12"/>
+      <c r="EZ17" s="12"/>
+      <c r="FA17" s="12"/>
+      <c r="FB17" s="12"/>
+      <c r="FC17" s="12"/>
+      <c r="FD17" s="12"/>
+      <c r="FE17" s="12"/>
+      <c r="FF17" s="12"/>
+      <c r="FG17" s="12"/>
+      <c r="FH17" s="12"/>
+      <c r="FI17" s="12"/>
+      <c r="FJ17" s="12"/>
+      <c r="FK17" s="12"/>
+      <c r="FL17" s="12"/>
+      <c r="FM17" s="12"/>
+      <c r="FN17" s="12"/>
+      <c r="FO17" s="12"/>
+      <c r="FP17" s="12"/>
+      <c r="FQ17" s="12"/>
+      <c r="FR17" s="12"/>
+      <c r="FS17" s="12"/>
+      <c r="FT17" s="12"/>
+      <c r="FU17" s="12"/>
+      <c r="FV17" s="12"/>
+      <c r="FW17" s="12"/>
+      <c r="FX17" s="12"/>
+      <c r="FY17" s="12"/>
+      <c r="FZ17" s="12"/>
+      <c r="GA17" s="12"/>
+      <c r="GB17" s="12"/>
+      <c r="GC17" s="12"/>
+      <c r="GD17" s="12"/>
+      <c r="GE17" s="12"/>
+      <c r="GF17" s="12"/>
+      <c r="GG17" s="12"/>
+      <c r="GH17" s="12"/>
+      <c r="GI17" s="12"/>
+      <c r="GJ17" s="12"/>
+      <c r="GK17" s="12"/>
+      <c r="GL17" s="12"/>
+      <c r="GM17" s="12"/>
+      <c r="GN17" s="12"/>
+      <c r="GO17" s="12"/>
+      <c r="GP17" s="12"/>
+      <c r="GQ17" s="12"/>
+      <c r="GR17" s="12"/>
+      <c r="GS17" s="12"/>
+      <c r="GT17" s="12"/>
+      <c r="GU17" s="12"/>
+      <c r="GV17" s="12"/>
+      <c r="GW17" s="12"/>
+      <c r="GX17" s="12"/>
+      <c r="GY17" s="12"/>
+      <c r="GZ17" s="12"/>
+      <c r="HA17" s="12"/>
+      <c r="HB17" s="12"/>
+      <c r="HC17" s="12"/>
+      <c r="HD17" s="12"/>
+      <c r="HE17" s="12"/>
+      <c r="HF17" s="12"/>
+      <c r="HG17" s="12"/>
+      <c r="HH17" s="12"/>
+      <c r="HI17" s="12"/>
+      <c r="HJ17" s="12"/>
+      <c r="HK17" s="12"/>
+      <c r="HL17" s="12"/>
+      <c r="HM17" s="12"/>
+      <c r="HN17" s="12"/>
+      <c r="HO17" s="12"/>
+      <c r="HP17" s="12"/>
+      <c r="HQ17" s="12"/>
+      <c r="HR17" s="12"/>
+      <c r="HS17" s="12"/>
+      <c r="HT17" s="12"/>
+      <c r="HU17" s="12"/>
+      <c r="HV17" s="12"/>
+      <c r="HW17" s="12"/>
+      <c r="HX17" s="12"/>
+      <c r="HY17" s="12"/>
+      <c r="HZ17" s="12"/>
+      <c r="IA17" s="12"/>
+      <c r="IB17" s="12"/>
+      <c r="IC17" s="12"/>
+      <c r="ID17" s="12"/>
+      <c r="IE17" s="12"/>
+      <c r="IF17" s="12"/>
+      <c r="IG17" s="12"/>
+      <c r="IH17" s="12"/>
+      <c r="II17" s="12"/>
+      <c r="IJ17" s="12"/>
+      <c r="IK17" s="12"/>
+      <c r="IL17" s="12"/>
+      <c r="IM17" s="12"/>
+      <c r="IN17" s="12"/>
+      <c r="IO17" s="12"/>
+      <c r="IP17" s="12"/>
+      <c r="IQ17" s="12"/>
+      <c r="IR17" s="12"/>
+      <c r="IS17" s="12"/>
+      <c r="IT17" s="12"/>
+      <c r="IU17" s="12"/>
+      <c r="IV17" s="12"/>
+      <c r="IW17" s="12"/>
+      <c r="IX17" s="12"/>
     </row>
-    <row r="18" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="12"/>
-      <c r="AN18" s="12"/>
-      <c r="AO18" s="12"/>
-      <c r="AP18" s="12"/>
-      <c r="AQ18" s="12"/>
-      <c r="AR18" s="12"/>
-      <c r="AS18" s="12"/>
-      <c r="AT18" s="12"/>
-      <c r="AU18" s="12"/>
-      <c r="AV18" s="12"/>
-      <c r="AW18" s="12"/>
-      <c r="AX18" s="12"/>
-      <c r="AY18" s="12"/>
-      <c r="AZ18" s="12"/>
-      <c r="BA18" s="12"/>
-      <c r="BB18" s="12"/>
-      <c r="BC18" s="12"/>
-      <c r="BD18" s="12"/>
-      <c r="BE18" s="12"/>
-      <c r="BF18" s="12"/>
-      <c r="BG18" s="12"/>
-      <c r="BH18" s="12"/>
-      <c r="BI18" s="12"/>
-      <c r="BJ18" s="12"/>
-      <c r="BK18" s="12"/>
-      <c r="BL18" s="12"/>
-      <c r="BM18" s="12"/>
-      <c r="BN18" s="12"/>
-      <c r="BO18" s="12"/>
-      <c r="BP18" s="12"/>
-      <c r="BQ18" s="12"/>
-      <c r="BR18" s="12"/>
-      <c r="BS18" s="12"/>
-      <c r="BT18" s="12"/>
-      <c r="BU18" s="12"/>
-      <c r="BV18" s="12"/>
-      <c r="BW18" s="12"/>
-      <c r="BX18" s="12"/>
-      <c r="BY18" s="12"/>
-      <c r="BZ18" s="12"/>
-      <c r="CA18" s="12"/>
-      <c r="CB18" s="12"/>
-      <c r="CC18" s="12"/>
-      <c r="CD18" s="12"/>
-      <c r="CE18" s="12"/>
-      <c r="CF18" s="12"/>
-      <c r="CG18" s="12"/>
-      <c r="CH18" s="12"/>
-      <c r="CI18" s="12"/>
-      <c r="CJ18" s="12"/>
-      <c r="CK18" s="12"/>
-      <c r="CL18" s="12"/>
-      <c r="CM18" s="12"/>
-      <c r="CN18" s="12"/>
-      <c r="CO18" s="12"/>
-      <c r="CP18" s="12"/>
-      <c r="CQ18" s="12"/>
-      <c r="CR18" s="12"/>
-      <c r="CS18" s="12"/>
-      <c r="CT18" s="12"/>
-      <c r="CU18" s="12"/>
-      <c r="CV18" s="12"/>
-      <c r="CW18" s="12"/>
-      <c r="CX18" s="12"/>
-      <c r="CY18" s="12"/>
-      <c r="CZ18" s="12"/>
-      <c r="DA18" s="12"/>
-      <c r="DB18" s="12"/>
-      <c r="DC18" s="12"/>
-      <c r="DD18" s="12"/>
-      <c r="DE18" s="12"/>
-      <c r="DF18" s="12"/>
-      <c r="DG18" s="12"/>
-      <c r="DH18" s="12"/>
-      <c r="DI18" s="12"/>
-      <c r="DJ18" s="12"/>
-      <c r="DK18" s="12"/>
-      <c r="DL18" s="12"/>
-      <c r="DM18" s="12"/>
-      <c r="DN18" s="12"/>
-      <c r="DO18" s="12"/>
-      <c r="DP18" s="12"/>
-      <c r="DQ18" s="12"/>
-      <c r="DR18" s="12"/>
-      <c r="DS18" s="12"/>
-      <c r="DT18" s="12"/>
-      <c r="DU18" s="12"/>
-      <c r="DV18" s="12"/>
-      <c r="DW18" s="12"/>
-      <c r="DX18" s="12"/>
-      <c r="DY18" s="12"/>
-      <c r="DZ18" s="12"/>
-      <c r="EA18" s="12"/>
-      <c r="EB18" s="12"/>
-      <c r="EC18" s="12"/>
-      <c r="ED18" s="12"/>
-      <c r="EE18" s="12"/>
-      <c r="EF18" s="12"/>
-      <c r="EG18" s="12"/>
-      <c r="EH18" s="12"/>
-      <c r="EI18" s="12"/>
-      <c r="EJ18" s="12"/>
-      <c r="EK18" s="12"/>
-      <c r="EL18" s="12"/>
-      <c r="EM18" s="12"/>
-      <c r="EN18" s="12"/>
-      <c r="EO18" s="12"/>
-      <c r="EP18" s="12"/>
-      <c r="EQ18" s="12"/>
-      <c r="ER18" s="12"/>
-      <c r="ES18" s="12"/>
-      <c r="ET18" s="12"/>
-      <c r="EU18" s="12"/>
-      <c r="EV18" s="12"/>
-      <c r="EW18" s="12"/>
-      <c r="EX18" s="12"/>
-      <c r="EY18" s="12"/>
-      <c r="EZ18" s="12"/>
-      <c r="FA18" s="12"/>
-      <c r="FB18" s="12"/>
-      <c r="FC18" s="12"/>
-      <c r="FD18" s="12"/>
-      <c r="FE18" s="12"/>
-      <c r="FF18" s="12"/>
-      <c r="FG18" s="12"/>
-      <c r="FH18" s="12"/>
-      <c r="FI18" s="12"/>
-      <c r="FJ18" s="12"/>
-      <c r="FK18" s="12"/>
-      <c r="FL18" s="12"/>
-      <c r="FM18" s="12"/>
-      <c r="FN18" s="12"/>
-      <c r="FO18" s="12"/>
-      <c r="FP18" s="12"/>
-      <c r="FQ18" s="12"/>
-      <c r="FR18" s="12"/>
-      <c r="FS18" s="12"/>
-      <c r="FT18" s="12"/>
-      <c r="FU18" s="12"/>
-      <c r="FV18" s="12"/>
-      <c r="FW18" s="12"/>
-      <c r="FX18" s="12"/>
-      <c r="FY18" s="12"/>
-      <c r="FZ18" s="12"/>
-      <c r="GA18" s="12"/>
-      <c r="GB18" s="12"/>
-      <c r="GC18" s="12"/>
-      <c r="GD18" s="12"/>
-      <c r="GE18" s="12"/>
-      <c r="GF18" s="12"/>
-      <c r="GG18" s="12"/>
-      <c r="GH18" s="12"/>
-      <c r="GI18" s="12"/>
-      <c r="GJ18" s="12"/>
-      <c r="GK18" s="12"/>
-      <c r="GL18" s="12"/>
-      <c r="GM18" s="12"/>
-      <c r="GN18" s="12"/>
-      <c r="GO18" s="12"/>
-      <c r="GP18" s="12"/>
-      <c r="GQ18" s="12"/>
-      <c r="GR18" s="12"/>
-      <c r="GS18" s="12"/>
-      <c r="GT18" s="12"/>
-      <c r="GU18" s="12"/>
-      <c r="GV18" s="12"/>
-      <c r="GW18" s="12"/>
-      <c r="GX18" s="12"/>
-      <c r="GY18" s="12"/>
-      <c r="GZ18" s="12"/>
-      <c r="HA18" s="12"/>
-      <c r="HB18" s="12"/>
-      <c r="HC18" s="12"/>
-      <c r="HD18" s="12"/>
-      <c r="HE18" s="12"/>
-      <c r="HF18" s="12"/>
-      <c r="HG18" s="12"/>
-      <c r="HH18" s="12"/>
-      <c r="HI18" s="12"/>
-      <c r="HJ18" s="12"/>
-      <c r="HK18" s="12"/>
-      <c r="HL18" s="12"/>
-      <c r="HM18" s="12"/>
-      <c r="HN18" s="12"/>
-      <c r="HO18" s="12"/>
-      <c r="HP18" s="12"/>
-      <c r="HQ18" s="12"/>
-      <c r="HR18" s="12"/>
-      <c r="HS18" s="12"/>
-      <c r="HT18" s="12"/>
-      <c r="HU18" s="12"/>
-      <c r="HV18" s="12"/>
-      <c r="HW18" s="12"/>
-      <c r="HX18" s="12"/>
-      <c r="HY18" s="12"/>
-      <c r="HZ18" s="12"/>
-      <c r="IA18" s="12"/>
-      <c r="IB18" s="12"/>
-      <c r="IC18" s="12"/>
-      <c r="ID18" s="12"/>
-      <c r="IE18" s="12"/>
-      <c r="IF18" s="12"/>
-      <c r="IG18" s="12"/>
-      <c r="IH18" s="12"/>
-      <c r="II18" s="12"/>
-      <c r="IJ18" s="12"/>
-      <c r="IK18" s="12"/>
-      <c r="IL18" s="12"/>
-      <c r="IM18" s="12"/>
-      <c r="IN18" s="12"/>
-      <c r="IO18" s="12"/>
-      <c r="IP18" s="12"/>
-      <c r="IQ18" s="12"/>
-      <c r="IR18" s="12"/>
-      <c r="IS18" s="12"/>
-      <c r="IT18" s="12"/>
-      <c r="IU18" s="12"/>
-      <c r="IV18" s="12"/>
-      <c r="IW18" s="12"/>
-      <c r="IX18" s="12"/>
+    <row r="18" spans="1:258" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="35"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="35"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="35"/>
+      <c r="AX18" s="35"/>
+      <c r="AY18" s="35"/>
+      <c r="AZ18" s="35"/>
+      <c r="BA18" s="35"/>
+      <c r="BB18" s="35"/>
+      <c r="BC18" s="35"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="35"/>
+      <c r="BF18" s="35"/>
+      <c r="BG18" s="35"/>
+      <c r="BH18" s="35"/>
+      <c r="BI18" s="35"/>
+      <c r="BJ18" s="35"/>
+      <c r="BK18" s="35"/>
+      <c r="BL18" s="35"/>
+      <c r="BM18" s="35"/>
+      <c r="BN18" s="35"/>
+      <c r="BO18" s="35"/>
+      <c r="BP18" s="35"/>
+      <c r="BQ18" s="35"/>
+      <c r="BR18" s="35"/>
+      <c r="BS18" s="35"/>
+      <c r="BT18" s="35"/>
+      <c r="BU18" s="35"/>
+      <c r="BV18" s="35"/>
+      <c r="BW18" s="35"/>
+      <c r="BX18" s="35"/>
+      <c r="BY18" s="35"/>
+      <c r="BZ18" s="35"/>
+      <c r="CA18" s="35"/>
+      <c r="CB18" s="35"/>
+      <c r="CC18" s="35"/>
+      <c r="CD18" s="35"/>
+      <c r="CE18" s="35"/>
+      <c r="CF18" s="35"/>
+      <c r="CG18" s="35"/>
+      <c r="CH18" s="35"/>
+      <c r="CI18" s="35"/>
+      <c r="CJ18" s="35"/>
+      <c r="CK18" s="35"/>
+      <c r="CL18" s="35"/>
+      <c r="CM18" s="35"/>
+      <c r="CN18" s="35"/>
+      <c r="CO18" s="35"/>
+      <c r="CP18" s="35"/>
+      <c r="CQ18" s="35"/>
+      <c r="CR18" s="35"/>
+      <c r="CS18" s="35"/>
+      <c r="CT18" s="35"/>
+      <c r="CU18" s="35"/>
+      <c r="CV18" s="35"/>
+      <c r="CW18" s="35"/>
+      <c r="CX18" s="35"/>
+      <c r="CY18" s="35"/>
+      <c r="CZ18" s="35"/>
+      <c r="DA18" s="35"/>
+      <c r="DB18" s="35"/>
+      <c r="DC18" s="35"/>
+      <c r="DD18" s="35"/>
+      <c r="DE18" s="35"/>
+      <c r="DF18" s="35"/>
+      <c r="DG18" s="35"/>
+      <c r="DH18" s="35"/>
+      <c r="DI18" s="35"/>
+      <c r="DJ18" s="35"/>
+      <c r="DK18" s="35"/>
+      <c r="DL18" s="35"/>
+      <c r="DM18" s="35"/>
+      <c r="DN18" s="35"/>
+      <c r="DO18" s="35"/>
+      <c r="DP18" s="35"/>
+      <c r="DQ18" s="35"/>
+      <c r="DR18" s="35"/>
+      <c r="DS18" s="35"/>
+      <c r="DT18" s="35"/>
+      <c r="DU18" s="35"/>
+      <c r="DV18" s="35"/>
+      <c r="DW18" s="35"/>
+      <c r="DX18" s="35"/>
+      <c r="DY18" s="35"/>
+      <c r="DZ18" s="35"/>
+      <c r="EA18" s="35"/>
+      <c r="EB18" s="35"/>
+      <c r="EC18" s="35"/>
+      <c r="ED18" s="35"/>
+      <c r="EE18" s="35"/>
+      <c r="EF18" s="35"/>
+      <c r="EG18" s="35"/>
+      <c r="EH18" s="35"/>
+      <c r="EI18" s="35"/>
+      <c r="EJ18" s="35"/>
+      <c r="EK18" s="35"/>
+      <c r="EL18" s="35"/>
+      <c r="EM18" s="35"/>
+      <c r="EN18" s="35"/>
+      <c r="EO18" s="35"/>
+      <c r="EP18" s="35"/>
+      <c r="EQ18" s="35"/>
+      <c r="ER18" s="35"/>
+      <c r="ES18" s="35"/>
+      <c r="ET18" s="35"/>
+      <c r="EU18" s="35"/>
+      <c r="EV18" s="35"/>
+      <c r="EW18" s="35"/>
+      <c r="EX18" s="35"/>
+      <c r="EY18" s="35"/>
+      <c r="EZ18" s="35"/>
+      <c r="FA18" s="35"/>
+      <c r="FB18" s="35"/>
+      <c r="FC18" s="35"/>
+      <c r="FD18" s="35"/>
+      <c r="FE18" s="35"/>
+      <c r="FF18" s="35"/>
+      <c r="FG18" s="35"/>
+      <c r="FH18" s="35"/>
+      <c r="FI18" s="35"/>
+      <c r="FJ18" s="35"/>
+      <c r="FK18" s="35"/>
+      <c r="FL18" s="35"/>
+      <c r="FM18" s="35"/>
+      <c r="FN18" s="35"/>
+      <c r="FO18" s="35"/>
+      <c r="FP18" s="35"/>
+      <c r="FQ18" s="35"/>
+      <c r="FR18" s="35"/>
+      <c r="FS18" s="35"/>
+      <c r="FT18" s="35"/>
+      <c r="FU18" s="35"/>
+      <c r="FV18" s="35"/>
+      <c r="FW18" s="35"/>
+      <c r="FX18" s="35"/>
+      <c r="FY18" s="35"/>
+      <c r="FZ18" s="35"/>
+      <c r="GA18" s="35"/>
+      <c r="GB18" s="35"/>
+      <c r="GC18" s="35"/>
+      <c r="GD18" s="35"/>
+      <c r="GE18" s="35"/>
+      <c r="GF18" s="35"/>
+      <c r="GG18" s="35"/>
+      <c r="GH18" s="35"/>
+      <c r="GI18" s="35"/>
+      <c r="GJ18" s="35"/>
+      <c r="GK18" s="35"/>
+      <c r="GL18" s="35"/>
+      <c r="GM18" s="35"/>
+      <c r="GN18" s="35"/>
+      <c r="GO18" s="35"/>
+      <c r="GP18" s="35"/>
+      <c r="GQ18" s="35"/>
+      <c r="GR18" s="35"/>
+      <c r="GS18" s="35"/>
+      <c r="GT18" s="35"/>
+      <c r="GU18" s="35"/>
+      <c r="GV18" s="35"/>
+      <c r="GW18" s="35"/>
+      <c r="GX18" s="35"/>
+      <c r="GY18" s="35"/>
+      <c r="GZ18" s="35"/>
+      <c r="HA18" s="35"/>
+      <c r="HB18" s="35"/>
+      <c r="HC18" s="35"/>
+      <c r="HD18" s="35"/>
+      <c r="HE18" s="35"/>
+      <c r="HF18" s="35"/>
+      <c r="HG18" s="35"/>
+      <c r="HH18" s="35"/>
+      <c r="HI18" s="35"/>
+      <c r="HJ18" s="35"/>
+      <c r="HK18" s="35"/>
+      <c r="HL18" s="35"/>
+      <c r="HM18" s="35"/>
+      <c r="HN18" s="35"/>
+      <c r="HO18" s="35"/>
+      <c r="HP18" s="35"/>
+      <c r="HQ18" s="35"/>
+      <c r="HR18" s="35"/>
+      <c r="HS18" s="35"/>
+      <c r="HT18" s="35"/>
+      <c r="HU18" s="35"/>
+      <c r="HV18" s="35"/>
+      <c r="HW18" s="35"/>
+      <c r="HX18" s="35"/>
+      <c r="HY18" s="35"/>
+      <c r="HZ18" s="35"/>
+      <c r="IA18" s="35"/>
+      <c r="IB18" s="35"/>
+      <c r="IC18" s="35"/>
+      <c r="ID18" s="35"/>
+      <c r="IE18" s="35"/>
+      <c r="IF18" s="35"/>
+      <c r="IG18" s="35"/>
+      <c r="IH18" s="35"/>
+      <c r="II18" s="35"/>
+      <c r="IJ18" s="35"/>
+      <c r="IK18" s="35"/>
+      <c r="IL18" s="35"/>
+      <c r="IM18" s="35"/>
+      <c r="IN18" s="35"/>
+      <c r="IO18" s="35"/>
+      <c r="IP18" s="35"/>
+      <c r="IQ18" s="35"/>
+      <c r="IR18" s="35"/>
+      <c r="IS18" s="35"/>
+      <c r="IT18" s="35"/>
+      <c r="IU18" s="35"/>
+      <c r="IV18" s="35"/>
+      <c r="IW18" s="35"/>
+      <c r="IX18" s="35"/>
     </row>
     <row r="19" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
-      <c r="B19" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="A19" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="9"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -6672,10 +6690,10 @@
     <row r="20" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
       <c r="B20" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>25</v>
@@ -6684,7 +6702,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="55"/>
       <c r="H20" s="11" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
@@ -6940,10 +6958,10 @@
     <row r="21" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
       <c r="B21" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>147</v>
+        <v>127</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>25</v>
@@ -6952,7 +6970,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="55"/>
       <c r="H21" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
@@ -7206,14 +7224,22 @@
       <c r="IX21" s="12"/>
     </row>
     <row r="22" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="55"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="9"/>
@@ -7465,538 +7491,538 @@
       <c r="IW22" s="12"/>
       <c r="IX22" s="12"/>
     </row>
-    <row r="23" spans="1:258" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="35"/>
-      <c r="AQ23" s="35"/>
-      <c r="AR23" s="35"/>
-      <c r="AS23" s="35"/>
-      <c r="AT23" s="35"/>
-      <c r="AU23" s="35"/>
-      <c r="AV23" s="35"/>
-      <c r="AW23" s="35"/>
-      <c r="AX23" s="35"/>
-      <c r="AY23" s="35"/>
-      <c r="AZ23" s="35"/>
-      <c r="BA23" s="35"/>
-      <c r="BB23" s="35"/>
-      <c r="BC23" s="35"/>
-      <c r="BD23" s="35"/>
-      <c r="BE23" s="35"/>
-      <c r="BF23" s="35"/>
-      <c r="BG23" s="35"/>
-      <c r="BH23" s="35"/>
-      <c r="BI23" s="35"/>
-      <c r="BJ23" s="35"/>
-      <c r="BK23" s="35"/>
-      <c r="BL23" s="35"/>
-      <c r="BM23" s="35"/>
-      <c r="BN23" s="35"/>
-      <c r="BO23" s="35"/>
-      <c r="BP23" s="35"/>
-      <c r="BQ23" s="35"/>
-      <c r="BR23" s="35"/>
-      <c r="BS23" s="35"/>
-      <c r="BT23" s="35"/>
-      <c r="BU23" s="35"/>
-      <c r="BV23" s="35"/>
-      <c r="BW23" s="35"/>
-      <c r="BX23" s="35"/>
-      <c r="BY23" s="35"/>
-      <c r="BZ23" s="35"/>
-      <c r="CA23" s="35"/>
-      <c r="CB23" s="35"/>
-      <c r="CC23" s="35"/>
-      <c r="CD23" s="35"/>
-      <c r="CE23" s="35"/>
-      <c r="CF23" s="35"/>
-      <c r="CG23" s="35"/>
-      <c r="CH23" s="35"/>
-      <c r="CI23" s="35"/>
-      <c r="CJ23" s="35"/>
-      <c r="CK23" s="35"/>
-      <c r="CL23" s="35"/>
-      <c r="CM23" s="35"/>
-      <c r="CN23" s="35"/>
-      <c r="CO23" s="35"/>
-      <c r="CP23" s="35"/>
-      <c r="CQ23" s="35"/>
-      <c r="CR23" s="35"/>
-      <c r="CS23" s="35"/>
-      <c r="CT23" s="35"/>
-      <c r="CU23" s="35"/>
-      <c r="CV23" s="35"/>
-      <c r="CW23" s="35"/>
-      <c r="CX23" s="35"/>
-      <c r="CY23" s="35"/>
-      <c r="CZ23" s="35"/>
-      <c r="DA23" s="35"/>
-      <c r="DB23" s="35"/>
-      <c r="DC23" s="35"/>
-      <c r="DD23" s="35"/>
-      <c r="DE23" s="35"/>
-      <c r="DF23" s="35"/>
-      <c r="DG23" s="35"/>
-      <c r="DH23" s="35"/>
-      <c r="DI23" s="35"/>
-      <c r="DJ23" s="35"/>
-      <c r="DK23" s="35"/>
-      <c r="DL23" s="35"/>
-      <c r="DM23" s="35"/>
-      <c r="DN23" s="35"/>
-      <c r="DO23" s="35"/>
-      <c r="DP23" s="35"/>
-      <c r="DQ23" s="35"/>
-      <c r="DR23" s="35"/>
-      <c r="DS23" s="35"/>
-      <c r="DT23" s="35"/>
-      <c r="DU23" s="35"/>
-      <c r="DV23" s="35"/>
-      <c r="DW23" s="35"/>
-      <c r="DX23" s="35"/>
-      <c r="DY23" s="35"/>
-      <c r="DZ23" s="35"/>
-      <c r="EA23" s="35"/>
-      <c r="EB23" s="35"/>
-      <c r="EC23" s="35"/>
-      <c r="ED23" s="35"/>
-      <c r="EE23" s="35"/>
-      <c r="EF23" s="35"/>
-      <c r="EG23" s="35"/>
-      <c r="EH23" s="35"/>
-      <c r="EI23" s="35"/>
-      <c r="EJ23" s="35"/>
-      <c r="EK23" s="35"/>
-      <c r="EL23" s="35"/>
-      <c r="EM23" s="35"/>
-      <c r="EN23" s="35"/>
-      <c r="EO23" s="35"/>
-      <c r="EP23" s="35"/>
-      <c r="EQ23" s="35"/>
-      <c r="ER23" s="35"/>
-      <c r="ES23" s="35"/>
-      <c r="ET23" s="35"/>
-      <c r="EU23" s="35"/>
-      <c r="EV23" s="35"/>
-      <c r="EW23" s="35"/>
-      <c r="EX23" s="35"/>
-      <c r="EY23" s="35"/>
-      <c r="EZ23" s="35"/>
-      <c r="FA23" s="35"/>
-      <c r="FB23" s="35"/>
-      <c r="FC23" s="35"/>
-      <c r="FD23" s="35"/>
-      <c r="FE23" s="35"/>
-      <c r="FF23" s="35"/>
-      <c r="FG23" s="35"/>
-      <c r="FH23" s="35"/>
-      <c r="FI23" s="35"/>
-      <c r="FJ23" s="35"/>
-      <c r="FK23" s="35"/>
-      <c r="FL23" s="35"/>
-      <c r="FM23" s="35"/>
-      <c r="FN23" s="35"/>
-      <c r="FO23" s="35"/>
-      <c r="FP23" s="35"/>
-      <c r="FQ23" s="35"/>
-      <c r="FR23" s="35"/>
-      <c r="FS23" s="35"/>
-      <c r="FT23" s="35"/>
-      <c r="FU23" s="35"/>
-      <c r="FV23" s="35"/>
-      <c r="FW23" s="35"/>
-      <c r="FX23" s="35"/>
-      <c r="FY23" s="35"/>
-      <c r="FZ23" s="35"/>
-      <c r="GA23" s="35"/>
-      <c r="GB23" s="35"/>
-      <c r="GC23" s="35"/>
-      <c r="GD23" s="35"/>
-      <c r="GE23" s="35"/>
-      <c r="GF23" s="35"/>
-      <c r="GG23" s="35"/>
-      <c r="GH23" s="35"/>
-      <c r="GI23" s="35"/>
-      <c r="GJ23" s="35"/>
-      <c r="GK23" s="35"/>
-      <c r="GL23" s="35"/>
-      <c r="GM23" s="35"/>
-      <c r="GN23" s="35"/>
-      <c r="GO23" s="35"/>
-      <c r="GP23" s="35"/>
-      <c r="GQ23" s="35"/>
-      <c r="GR23" s="35"/>
-      <c r="GS23" s="35"/>
-      <c r="GT23" s="35"/>
-      <c r="GU23" s="35"/>
-      <c r="GV23" s="35"/>
-      <c r="GW23" s="35"/>
-      <c r="GX23" s="35"/>
-      <c r="GY23" s="35"/>
-      <c r="GZ23" s="35"/>
-      <c r="HA23" s="35"/>
-      <c r="HB23" s="35"/>
-      <c r="HC23" s="35"/>
-      <c r="HD23" s="35"/>
-      <c r="HE23" s="35"/>
-      <c r="HF23" s="35"/>
-      <c r="HG23" s="35"/>
-      <c r="HH23" s="35"/>
-      <c r="HI23" s="35"/>
-      <c r="HJ23" s="35"/>
-      <c r="HK23" s="35"/>
-      <c r="HL23" s="35"/>
-      <c r="HM23" s="35"/>
-      <c r="HN23" s="35"/>
-      <c r="HO23" s="35"/>
-      <c r="HP23" s="35"/>
-      <c r="HQ23" s="35"/>
-      <c r="HR23" s="35"/>
-      <c r="HS23" s="35"/>
-      <c r="HT23" s="35"/>
-      <c r="HU23" s="35"/>
-      <c r="HV23" s="35"/>
-      <c r="HW23" s="35"/>
-      <c r="HX23" s="35"/>
-      <c r="HY23" s="35"/>
-      <c r="HZ23" s="35"/>
-      <c r="IA23" s="35"/>
-      <c r="IB23" s="35"/>
-      <c r="IC23" s="35"/>
-      <c r="ID23" s="35"/>
-      <c r="IE23" s="35"/>
-      <c r="IF23" s="35"/>
-      <c r="IG23" s="35"/>
-      <c r="IH23" s="35"/>
-      <c r="II23" s="35"/>
-      <c r="IJ23" s="35"/>
-      <c r="IK23" s="35"/>
-      <c r="IL23" s="35"/>
-      <c r="IM23" s="35"/>
-      <c r="IN23" s="35"/>
-      <c r="IO23" s="35"/>
-      <c r="IP23" s="35"/>
-      <c r="IQ23" s="35"/>
-      <c r="IR23" s="35"/>
-      <c r="IS23" s="35"/>
-      <c r="IT23" s="35"/>
-      <c r="IU23" s="35"/>
-      <c r="IV23" s="35"/>
-      <c r="IW23" s="35"/>
-      <c r="IX23" s="35"/>
+    <row r="23" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="67"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12"/>
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12"/>
+      <c r="BG23" s="12"/>
+      <c r="BH23" s="12"/>
+      <c r="BI23" s="12"/>
+      <c r="BJ23" s="12"/>
+      <c r="BK23" s="12"/>
+      <c r="BL23" s="12"/>
+      <c r="BM23" s="12"/>
+      <c r="BN23" s="12"/>
+      <c r="BO23" s="12"/>
+      <c r="BP23" s="12"/>
+      <c r="BQ23" s="12"/>
+      <c r="BR23" s="12"/>
+      <c r="BS23" s="12"/>
+      <c r="BT23" s="12"/>
+      <c r="BU23" s="12"/>
+      <c r="BV23" s="12"/>
+      <c r="BW23" s="12"/>
+      <c r="BX23" s="12"/>
+      <c r="BY23" s="12"/>
+      <c r="BZ23" s="12"/>
+      <c r="CA23" s="12"/>
+      <c r="CB23" s="12"/>
+      <c r="CC23" s="12"/>
+      <c r="CD23" s="12"/>
+      <c r="CE23" s="12"/>
+      <c r="CF23" s="12"/>
+      <c r="CG23" s="12"/>
+      <c r="CH23" s="12"/>
+      <c r="CI23" s="12"/>
+      <c r="CJ23" s="12"/>
+      <c r="CK23" s="12"/>
+      <c r="CL23" s="12"/>
+      <c r="CM23" s="12"/>
+      <c r="CN23" s="12"/>
+      <c r="CO23" s="12"/>
+      <c r="CP23" s="12"/>
+      <c r="CQ23" s="12"/>
+      <c r="CR23" s="12"/>
+      <c r="CS23" s="12"/>
+      <c r="CT23" s="12"/>
+      <c r="CU23" s="12"/>
+      <c r="CV23" s="12"/>
+      <c r="CW23" s="12"/>
+      <c r="CX23" s="12"/>
+      <c r="CY23" s="12"/>
+      <c r="CZ23" s="12"/>
+      <c r="DA23" s="12"/>
+      <c r="DB23" s="12"/>
+      <c r="DC23" s="12"/>
+      <c r="DD23" s="12"/>
+      <c r="DE23" s="12"/>
+      <c r="DF23" s="12"/>
+      <c r="DG23" s="12"/>
+      <c r="DH23" s="12"/>
+      <c r="DI23" s="12"/>
+      <c r="DJ23" s="12"/>
+      <c r="DK23" s="12"/>
+      <c r="DL23" s="12"/>
+      <c r="DM23" s="12"/>
+      <c r="DN23" s="12"/>
+      <c r="DO23" s="12"/>
+      <c r="DP23" s="12"/>
+      <c r="DQ23" s="12"/>
+      <c r="DR23" s="12"/>
+      <c r="DS23" s="12"/>
+      <c r="DT23" s="12"/>
+      <c r="DU23" s="12"/>
+      <c r="DV23" s="12"/>
+      <c r="DW23" s="12"/>
+      <c r="DX23" s="12"/>
+      <c r="DY23" s="12"/>
+      <c r="DZ23" s="12"/>
+      <c r="EA23" s="12"/>
+      <c r="EB23" s="12"/>
+      <c r="EC23" s="12"/>
+      <c r="ED23" s="12"/>
+      <c r="EE23" s="12"/>
+      <c r="EF23" s="12"/>
+      <c r="EG23" s="12"/>
+      <c r="EH23" s="12"/>
+      <c r="EI23" s="12"/>
+      <c r="EJ23" s="12"/>
+      <c r="EK23" s="12"/>
+      <c r="EL23" s="12"/>
+      <c r="EM23" s="12"/>
+      <c r="EN23" s="12"/>
+      <c r="EO23" s="12"/>
+      <c r="EP23" s="12"/>
+      <c r="EQ23" s="12"/>
+      <c r="ER23" s="12"/>
+      <c r="ES23" s="12"/>
+      <c r="ET23" s="12"/>
+      <c r="EU23" s="12"/>
+      <c r="EV23" s="12"/>
+      <c r="EW23" s="12"/>
+      <c r="EX23" s="12"/>
+      <c r="EY23" s="12"/>
+      <c r="EZ23" s="12"/>
+      <c r="FA23" s="12"/>
+      <c r="FB23" s="12"/>
+      <c r="FC23" s="12"/>
+      <c r="FD23" s="12"/>
+      <c r="FE23" s="12"/>
+      <c r="FF23" s="12"/>
+      <c r="FG23" s="12"/>
+      <c r="FH23" s="12"/>
+      <c r="FI23" s="12"/>
+      <c r="FJ23" s="12"/>
+      <c r="FK23" s="12"/>
+      <c r="FL23" s="12"/>
+      <c r="FM23" s="12"/>
+      <c r="FN23" s="12"/>
+      <c r="FO23" s="12"/>
+      <c r="FP23" s="12"/>
+      <c r="FQ23" s="12"/>
+      <c r="FR23" s="12"/>
+      <c r="FS23" s="12"/>
+      <c r="FT23" s="12"/>
+      <c r="FU23" s="12"/>
+      <c r="FV23" s="12"/>
+      <c r="FW23" s="12"/>
+      <c r="FX23" s="12"/>
+      <c r="FY23" s="12"/>
+      <c r="FZ23" s="12"/>
+      <c r="GA23" s="12"/>
+      <c r="GB23" s="12"/>
+      <c r="GC23" s="12"/>
+      <c r="GD23" s="12"/>
+      <c r="GE23" s="12"/>
+      <c r="GF23" s="12"/>
+      <c r="GG23" s="12"/>
+      <c r="GH23" s="12"/>
+      <c r="GI23" s="12"/>
+      <c r="GJ23" s="12"/>
+      <c r="GK23" s="12"/>
+      <c r="GL23" s="12"/>
+      <c r="GM23" s="12"/>
+      <c r="GN23" s="12"/>
+      <c r="GO23" s="12"/>
+      <c r="GP23" s="12"/>
+      <c r="GQ23" s="12"/>
+      <c r="GR23" s="12"/>
+      <c r="GS23" s="12"/>
+      <c r="GT23" s="12"/>
+      <c r="GU23" s="12"/>
+      <c r="GV23" s="12"/>
+      <c r="GW23" s="12"/>
+      <c r="GX23" s="12"/>
+      <c r="GY23" s="12"/>
+      <c r="GZ23" s="12"/>
+      <c r="HA23" s="12"/>
+      <c r="HB23" s="12"/>
+      <c r="HC23" s="12"/>
+      <c r="HD23" s="12"/>
+      <c r="HE23" s="12"/>
+      <c r="HF23" s="12"/>
+      <c r="HG23" s="12"/>
+      <c r="HH23" s="12"/>
+      <c r="HI23" s="12"/>
+      <c r="HJ23" s="12"/>
+      <c r="HK23" s="12"/>
+      <c r="HL23" s="12"/>
+      <c r="HM23" s="12"/>
+      <c r="HN23" s="12"/>
+      <c r="HO23" s="12"/>
+      <c r="HP23" s="12"/>
+      <c r="HQ23" s="12"/>
+      <c r="HR23" s="12"/>
+      <c r="HS23" s="12"/>
+      <c r="HT23" s="12"/>
+      <c r="HU23" s="12"/>
+      <c r="HV23" s="12"/>
+      <c r="HW23" s="12"/>
+      <c r="HX23" s="12"/>
+      <c r="HY23" s="12"/>
+      <c r="HZ23" s="12"/>
+      <c r="IA23" s="12"/>
+      <c r="IB23" s="12"/>
+      <c r="IC23" s="12"/>
+      <c r="ID23" s="12"/>
+      <c r="IE23" s="12"/>
+      <c r="IF23" s="12"/>
+      <c r="IG23" s="12"/>
+      <c r="IH23" s="12"/>
+      <c r="II23" s="12"/>
+      <c r="IJ23" s="12"/>
+      <c r="IK23" s="12"/>
+      <c r="IL23" s="12"/>
+      <c r="IM23" s="12"/>
+      <c r="IN23" s="12"/>
+      <c r="IO23" s="12"/>
+      <c r="IP23" s="12"/>
+      <c r="IQ23" s="12"/>
+      <c r="IR23" s="12"/>
+      <c r="IS23" s="12"/>
+      <c r="IT23" s="12"/>
+      <c r="IU23" s="12"/>
+      <c r="IV23" s="12"/>
+      <c r="IW23" s="12"/>
+      <c r="IX23" s="12"/>
     </row>
-    <row r="24" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="64"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="12"/>
-      <c r="AJ24" s="12"/>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
-      <c r="AM24" s="12"/>
-      <c r="AN24" s="12"/>
-      <c r="AO24" s="12"/>
-      <c r="AP24" s="12"/>
-      <c r="AQ24" s="12"/>
-      <c r="AR24" s="12"/>
-      <c r="AS24" s="12"/>
-      <c r="AT24" s="12"/>
-      <c r="AU24" s="12"/>
-      <c r="AV24" s="12"/>
-      <c r="AW24" s="12"/>
-      <c r="AX24" s="12"/>
-      <c r="AY24" s="12"/>
-      <c r="AZ24" s="12"/>
-      <c r="BA24" s="12"/>
-      <c r="BB24" s="12"/>
-      <c r="BC24" s="12"/>
-      <c r="BD24" s="12"/>
-      <c r="BE24" s="12"/>
-      <c r="BF24" s="12"/>
-      <c r="BG24" s="12"/>
-      <c r="BH24" s="12"/>
-      <c r="BI24" s="12"/>
-      <c r="BJ24" s="12"/>
-      <c r="BK24" s="12"/>
-      <c r="BL24" s="12"/>
-      <c r="BM24" s="12"/>
-      <c r="BN24" s="12"/>
-      <c r="BO24" s="12"/>
-      <c r="BP24" s="12"/>
-      <c r="BQ24" s="12"/>
-      <c r="BR24" s="12"/>
-      <c r="BS24" s="12"/>
-      <c r="BT24" s="12"/>
-      <c r="BU24" s="12"/>
-      <c r="BV24" s="12"/>
-      <c r="BW24" s="12"/>
-      <c r="BX24" s="12"/>
-      <c r="BY24" s="12"/>
-      <c r="BZ24" s="12"/>
-      <c r="CA24" s="12"/>
-      <c r="CB24" s="12"/>
-      <c r="CC24" s="12"/>
-      <c r="CD24" s="12"/>
-      <c r="CE24" s="12"/>
-      <c r="CF24" s="12"/>
-      <c r="CG24" s="12"/>
-      <c r="CH24" s="12"/>
-      <c r="CI24" s="12"/>
-      <c r="CJ24" s="12"/>
-      <c r="CK24" s="12"/>
-      <c r="CL24" s="12"/>
-      <c r="CM24" s="12"/>
-      <c r="CN24" s="12"/>
-      <c r="CO24" s="12"/>
-      <c r="CP24" s="12"/>
-      <c r="CQ24" s="12"/>
-      <c r="CR24" s="12"/>
-      <c r="CS24" s="12"/>
-      <c r="CT24" s="12"/>
-      <c r="CU24" s="12"/>
-      <c r="CV24" s="12"/>
-      <c r="CW24" s="12"/>
-      <c r="CX24" s="12"/>
-      <c r="CY24" s="12"/>
-      <c r="CZ24" s="12"/>
-      <c r="DA24" s="12"/>
-      <c r="DB24" s="12"/>
-      <c r="DC24" s="12"/>
-      <c r="DD24" s="12"/>
-      <c r="DE24" s="12"/>
-      <c r="DF24" s="12"/>
-      <c r="DG24" s="12"/>
-      <c r="DH24" s="12"/>
-      <c r="DI24" s="12"/>
-      <c r="DJ24" s="12"/>
-      <c r="DK24" s="12"/>
-      <c r="DL24" s="12"/>
-      <c r="DM24" s="12"/>
-      <c r="DN24" s="12"/>
-      <c r="DO24" s="12"/>
-      <c r="DP24" s="12"/>
-      <c r="DQ24" s="12"/>
-      <c r="DR24" s="12"/>
-      <c r="DS24" s="12"/>
-      <c r="DT24" s="12"/>
-      <c r="DU24" s="12"/>
-      <c r="DV24" s="12"/>
-      <c r="DW24" s="12"/>
-      <c r="DX24" s="12"/>
-      <c r="DY24" s="12"/>
-      <c r="DZ24" s="12"/>
-      <c r="EA24" s="12"/>
-      <c r="EB24" s="12"/>
-      <c r="EC24" s="12"/>
-      <c r="ED24" s="12"/>
-      <c r="EE24" s="12"/>
-      <c r="EF24" s="12"/>
-      <c r="EG24" s="12"/>
-      <c r="EH24" s="12"/>
-      <c r="EI24" s="12"/>
-      <c r="EJ24" s="12"/>
-      <c r="EK24" s="12"/>
-      <c r="EL24" s="12"/>
-      <c r="EM24" s="12"/>
-      <c r="EN24" s="12"/>
-      <c r="EO24" s="12"/>
-      <c r="EP24" s="12"/>
-      <c r="EQ24" s="12"/>
-      <c r="ER24" s="12"/>
-      <c r="ES24" s="12"/>
-      <c r="ET24" s="12"/>
-      <c r="EU24" s="12"/>
-      <c r="EV24" s="12"/>
-      <c r="EW24" s="12"/>
-      <c r="EX24" s="12"/>
-      <c r="EY24" s="12"/>
-      <c r="EZ24" s="12"/>
-      <c r="FA24" s="12"/>
-      <c r="FB24" s="12"/>
-      <c r="FC24" s="12"/>
-      <c r="FD24" s="12"/>
-      <c r="FE24" s="12"/>
-      <c r="FF24" s="12"/>
-      <c r="FG24" s="12"/>
-      <c r="FH24" s="12"/>
-      <c r="FI24" s="12"/>
-      <c r="FJ24" s="12"/>
-      <c r="FK24" s="12"/>
-      <c r="FL24" s="12"/>
-      <c r="FM24" s="12"/>
-      <c r="FN24" s="12"/>
-      <c r="FO24" s="12"/>
-      <c r="FP24" s="12"/>
-      <c r="FQ24" s="12"/>
-      <c r="FR24" s="12"/>
-      <c r="FS24" s="12"/>
-      <c r="FT24" s="12"/>
-      <c r="FU24" s="12"/>
-      <c r="FV24" s="12"/>
-      <c r="FW24" s="12"/>
-      <c r="FX24" s="12"/>
-      <c r="FY24" s="12"/>
-      <c r="FZ24" s="12"/>
-      <c r="GA24" s="12"/>
-      <c r="GB24" s="12"/>
-      <c r="GC24" s="12"/>
-      <c r="GD24" s="12"/>
-      <c r="GE24" s="12"/>
-      <c r="GF24" s="12"/>
-      <c r="GG24" s="12"/>
-      <c r="GH24" s="12"/>
-      <c r="GI24" s="12"/>
-      <c r="GJ24" s="12"/>
-      <c r="GK24" s="12"/>
-      <c r="GL24" s="12"/>
-      <c r="GM24" s="12"/>
-      <c r="GN24" s="12"/>
-      <c r="GO24" s="12"/>
-      <c r="GP24" s="12"/>
-      <c r="GQ24" s="12"/>
-      <c r="GR24" s="12"/>
-      <c r="GS24" s="12"/>
-      <c r="GT24" s="12"/>
-      <c r="GU24" s="12"/>
-      <c r="GV24" s="12"/>
-      <c r="GW24" s="12"/>
-      <c r="GX24" s="12"/>
-      <c r="GY24" s="12"/>
-      <c r="GZ24" s="12"/>
-      <c r="HA24" s="12"/>
-      <c r="HB24" s="12"/>
-      <c r="HC24" s="12"/>
-      <c r="HD24" s="12"/>
-      <c r="HE24" s="12"/>
-      <c r="HF24" s="12"/>
-      <c r="HG24" s="12"/>
-      <c r="HH24" s="12"/>
-      <c r="HI24" s="12"/>
-      <c r="HJ24" s="12"/>
-      <c r="HK24" s="12"/>
-      <c r="HL24" s="12"/>
-      <c r="HM24" s="12"/>
-      <c r="HN24" s="12"/>
-      <c r="HO24" s="12"/>
-      <c r="HP24" s="12"/>
-      <c r="HQ24" s="12"/>
-      <c r="HR24" s="12"/>
-      <c r="HS24" s="12"/>
-      <c r="HT24" s="12"/>
-      <c r="HU24" s="12"/>
-      <c r="HV24" s="12"/>
-      <c r="HW24" s="12"/>
-      <c r="HX24" s="12"/>
-      <c r="HY24" s="12"/>
-      <c r="HZ24" s="12"/>
-      <c r="IA24" s="12"/>
-      <c r="IB24" s="12"/>
-      <c r="IC24" s="12"/>
-      <c r="ID24" s="12"/>
-      <c r="IE24" s="12"/>
-      <c r="IF24" s="12"/>
-      <c r="IG24" s="12"/>
-      <c r="IH24" s="12"/>
-      <c r="II24" s="12"/>
-      <c r="IJ24" s="12"/>
-      <c r="IK24" s="12"/>
-      <c r="IL24" s="12"/>
-      <c r="IM24" s="12"/>
-      <c r="IN24" s="12"/>
-      <c r="IO24" s="12"/>
-      <c r="IP24" s="12"/>
-      <c r="IQ24" s="12"/>
-      <c r="IR24" s="12"/>
-      <c r="IS24" s="12"/>
-      <c r="IT24" s="12"/>
-      <c r="IU24" s="12"/>
-      <c r="IV24" s="12"/>
-      <c r="IW24" s="12"/>
-      <c r="IX24" s="12"/>
+    <row r="24" spans="1:258" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="40"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="35"/>
+      <c r="AP24" s="35"/>
+      <c r="AQ24" s="35"/>
+      <c r="AR24" s="35"/>
+      <c r="AS24" s="35"/>
+      <c r="AT24" s="35"/>
+      <c r="AU24" s="35"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="35"/>
+      <c r="AX24" s="35"/>
+      <c r="AY24" s="35"/>
+      <c r="AZ24" s="35"/>
+      <c r="BA24" s="35"/>
+      <c r="BB24" s="35"/>
+      <c r="BC24" s="35"/>
+      <c r="BD24" s="35"/>
+      <c r="BE24" s="35"/>
+      <c r="BF24" s="35"/>
+      <c r="BG24" s="35"/>
+      <c r="BH24" s="35"/>
+      <c r="BI24" s="35"/>
+      <c r="BJ24" s="35"/>
+      <c r="BK24" s="35"/>
+      <c r="BL24" s="35"/>
+      <c r="BM24" s="35"/>
+      <c r="BN24" s="35"/>
+      <c r="BO24" s="35"/>
+      <c r="BP24" s="35"/>
+      <c r="BQ24" s="35"/>
+      <c r="BR24" s="35"/>
+      <c r="BS24" s="35"/>
+      <c r="BT24" s="35"/>
+      <c r="BU24" s="35"/>
+      <c r="BV24" s="35"/>
+      <c r="BW24" s="35"/>
+      <c r="BX24" s="35"/>
+      <c r="BY24" s="35"/>
+      <c r="BZ24" s="35"/>
+      <c r="CA24" s="35"/>
+      <c r="CB24" s="35"/>
+      <c r="CC24" s="35"/>
+      <c r="CD24" s="35"/>
+      <c r="CE24" s="35"/>
+      <c r="CF24" s="35"/>
+      <c r="CG24" s="35"/>
+      <c r="CH24" s="35"/>
+      <c r="CI24" s="35"/>
+      <c r="CJ24" s="35"/>
+      <c r="CK24" s="35"/>
+      <c r="CL24" s="35"/>
+      <c r="CM24" s="35"/>
+      <c r="CN24" s="35"/>
+      <c r="CO24" s="35"/>
+      <c r="CP24" s="35"/>
+      <c r="CQ24" s="35"/>
+      <c r="CR24" s="35"/>
+      <c r="CS24" s="35"/>
+      <c r="CT24" s="35"/>
+      <c r="CU24" s="35"/>
+      <c r="CV24" s="35"/>
+      <c r="CW24" s="35"/>
+      <c r="CX24" s="35"/>
+      <c r="CY24" s="35"/>
+      <c r="CZ24" s="35"/>
+      <c r="DA24" s="35"/>
+      <c r="DB24" s="35"/>
+      <c r="DC24" s="35"/>
+      <c r="DD24" s="35"/>
+      <c r="DE24" s="35"/>
+      <c r="DF24" s="35"/>
+      <c r="DG24" s="35"/>
+      <c r="DH24" s="35"/>
+      <c r="DI24" s="35"/>
+      <c r="DJ24" s="35"/>
+      <c r="DK24" s="35"/>
+      <c r="DL24" s="35"/>
+      <c r="DM24" s="35"/>
+      <c r="DN24" s="35"/>
+      <c r="DO24" s="35"/>
+      <c r="DP24" s="35"/>
+      <c r="DQ24" s="35"/>
+      <c r="DR24" s="35"/>
+      <c r="DS24" s="35"/>
+      <c r="DT24" s="35"/>
+      <c r="DU24" s="35"/>
+      <c r="DV24" s="35"/>
+      <c r="DW24" s="35"/>
+      <c r="DX24" s="35"/>
+      <c r="DY24" s="35"/>
+      <c r="DZ24" s="35"/>
+      <c r="EA24" s="35"/>
+      <c r="EB24" s="35"/>
+      <c r="EC24" s="35"/>
+      <c r="ED24" s="35"/>
+      <c r="EE24" s="35"/>
+      <c r="EF24" s="35"/>
+      <c r="EG24" s="35"/>
+      <c r="EH24" s="35"/>
+      <c r="EI24" s="35"/>
+      <c r="EJ24" s="35"/>
+      <c r="EK24" s="35"/>
+      <c r="EL24" s="35"/>
+      <c r="EM24" s="35"/>
+      <c r="EN24" s="35"/>
+      <c r="EO24" s="35"/>
+      <c r="EP24" s="35"/>
+      <c r="EQ24" s="35"/>
+      <c r="ER24" s="35"/>
+      <c r="ES24" s="35"/>
+      <c r="ET24" s="35"/>
+      <c r="EU24" s="35"/>
+      <c r="EV24" s="35"/>
+      <c r="EW24" s="35"/>
+      <c r="EX24" s="35"/>
+      <c r="EY24" s="35"/>
+      <c r="EZ24" s="35"/>
+      <c r="FA24" s="35"/>
+      <c r="FB24" s="35"/>
+      <c r="FC24" s="35"/>
+      <c r="FD24" s="35"/>
+      <c r="FE24" s="35"/>
+      <c r="FF24" s="35"/>
+      <c r="FG24" s="35"/>
+      <c r="FH24" s="35"/>
+      <c r="FI24" s="35"/>
+      <c r="FJ24" s="35"/>
+      <c r="FK24" s="35"/>
+      <c r="FL24" s="35"/>
+      <c r="FM24" s="35"/>
+      <c r="FN24" s="35"/>
+      <c r="FO24" s="35"/>
+      <c r="FP24" s="35"/>
+      <c r="FQ24" s="35"/>
+      <c r="FR24" s="35"/>
+      <c r="FS24" s="35"/>
+      <c r="FT24" s="35"/>
+      <c r="FU24" s="35"/>
+      <c r="FV24" s="35"/>
+      <c r="FW24" s="35"/>
+      <c r="FX24" s="35"/>
+      <c r="FY24" s="35"/>
+      <c r="FZ24" s="35"/>
+      <c r="GA24" s="35"/>
+      <c r="GB24" s="35"/>
+      <c r="GC24" s="35"/>
+      <c r="GD24" s="35"/>
+      <c r="GE24" s="35"/>
+      <c r="GF24" s="35"/>
+      <c r="GG24" s="35"/>
+      <c r="GH24" s="35"/>
+      <c r="GI24" s="35"/>
+      <c r="GJ24" s="35"/>
+      <c r="GK24" s="35"/>
+      <c r="GL24" s="35"/>
+      <c r="GM24" s="35"/>
+      <c r="GN24" s="35"/>
+      <c r="GO24" s="35"/>
+      <c r="GP24" s="35"/>
+      <c r="GQ24" s="35"/>
+      <c r="GR24" s="35"/>
+      <c r="GS24" s="35"/>
+      <c r="GT24" s="35"/>
+      <c r="GU24" s="35"/>
+      <c r="GV24" s="35"/>
+      <c r="GW24" s="35"/>
+      <c r="GX24" s="35"/>
+      <c r="GY24" s="35"/>
+      <c r="GZ24" s="35"/>
+      <c r="HA24" s="35"/>
+      <c r="HB24" s="35"/>
+      <c r="HC24" s="35"/>
+      <c r="HD24" s="35"/>
+      <c r="HE24" s="35"/>
+      <c r="HF24" s="35"/>
+      <c r="HG24" s="35"/>
+      <c r="HH24" s="35"/>
+      <c r="HI24" s="35"/>
+      <c r="HJ24" s="35"/>
+      <c r="HK24" s="35"/>
+      <c r="HL24" s="35"/>
+      <c r="HM24" s="35"/>
+      <c r="HN24" s="35"/>
+      <c r="HO24" s="35"/>
+      <c r="HP24" s="35"/>
+      <c r="HQ24" s="35"/>
+      <c r="HR24" s="35"/>
+      <c r="HS24" s="35"/>
+      <c r="HT24" s="35"/>
+      <c r="HU24" s="35"/>
+      <c r="HV24" s="35"/>
+      <c r="HW24" s="35"/>
+      <c r="HX24" s="35"/>
+      <c r="HY24" s="35"/>
+      <c r="HZ24" s="35"/>
+      <c r="IA24" s="35"/>
+      <c r="IB24" s="35"/>
+      <c r="IC24" s="35"/>
+      <c r="ID24" s="35"/>
+      <c r="IE24" s="35"/>
+      <c r="IF24" s="35"/>
+      <c r="IG24" s="35"/>
+      <c r="IH24" s="35"/>
+      <c r="II24" s="35"/>
+      <c r="IJ24" s="35"/>
+      <c r="IK24" s="35"/>
+      <c r="IL24" s="35"/>
+      <c r="IM24" s="35"/>
+      <c r="IN24" s="35"/>
+      <c r="IO24" s="35"/>
+      <c r="IP24" s="35"/>
+      <c r="IQ24" s="35"/>
+      <c r="IR24" s="35"/>
+      <c r="IS24" s="35"/>
+      <c r="IT24" s="35"/>
+      <c r="IU24" s="35"/>
+      <c r="IV24" s="35"/>
+      <c r="IW24" s="35"/>
+      <c r="IX24" s="35"/>
     </row>
     <row r="25" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="9"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="30"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -8247,16 +8273,16 @@
     </row>
     <row r="26" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="64"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="28"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -8506,17 +8532,17 @@
       <c r="IX26" s="12"/>
     </row>
     <row r="27" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="28"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
@@ -8765,538 +8791,538 @@
       <c r="IW27" s="12"/>
       <c r="IX27" s="12"/>
     </row>
-    <row r="28" spans="1:258" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="35"/>
-      <c r="AK28" s="35"/>
-      <c r="AL28" s="35"/>
-      <c r="AM28" s="35"/>
-      <c r="AN28" s="35"/>
-      <c r="AO28" s="35"/>
-      <c r="AP28" s="35"/>
-      <c r="AQ28" s="35"/>
-      <c r="AR28" s="35"/>
-      <c r="AS28" s="35"/>
-      <c r="AT28" s="35"/>
-      <c r="AU28" s="35"/>
-      <c r="AV28" s="35"/>
-      <c r="AW28" s="35"/>
-      <c r="AX28" s="35"/>
-      <c r="AY28" s="35"/>
-      <c r="AZ28" s="35"/>
-      <c r="BA28" s="35"/>
-      <c r="BB28" s="35"/>
-      <c r="BC28" s="35"/>
-      <c r="BD28" s="35"/>
-      <c r="BE28" s="35"/>
-      <c r="BF28" s="35"/>
-      <c r="BG28" s="35"/>
-      <c r="BH28" s="35"/>
-      <c r="BI28" s="35"/>
-      <c r="BJ28" s="35"/>
-      <c r="BK28" s="35"/>
-      <c r="BL28" s="35"/>
-      <c r="BM28" s="35"/>
-      <c r="BN28" s="35"/>
-      <c r="BO28" s="35"/>
-      <c r="BP28" s="35"/>
-      <c r="BQ28" s="35"/>
-      <c r="BR28" s="35"/>
-      <c r="BS28" s="35"/>
-      <c r="BT28" s="35"/>
-      <c r="BU28" s="35"/>
-      <c r="BV28" s="35"/>
-      <c r="BW28" s="35"/>
-      <c r="BX28" s="35"/>
-      <c r="BY28" s="35"/>
-      <c r="BZ28" s="35"/>
-      <c r="CA28" s="35"/>
-      <c r="CB28" s="35"/>
-      <c r="CC28" s="35"/>
-      <c r="CD28" s="35"/>
-      <c r="CE28" s="35"/>
-      <c r="CF28" s="35"/>
-      <c r="CG28" s="35"/>
-      <c r="CH28" s="35"/>
-      <c r="CI28" s="35"/>
-      <c r="CJ28" s="35"/>
-      <c r="CK28" s="35"/>
-      <c r="CL28" s="35"/>
-      <c r="CM28" s="35"/>
-      <c r="CN28" s="35"/>
-      <c r="CO28" s="35"/>
-      <c r="CP28" s="35"/>
-      <c r="CQ28" s="35"/>
-      <c r="CR28" s="35"/>
-      <c r="CS28" s="35"/>
-      <c r="CT28" s="35"/>
-      <c r="CU28" s="35"/>
-      <c r="CV28" s="35"/>
-      <c r="CW28" s="35"/>
-      <c r="CX28" s="35"/>
-      <c r="CY28" s="35"/>
-      <c r="CZ28" s="35"/>
-      <c r="DA28" s="35"/>
-      <c r="DB28" s="35"/>
-      <c r="DC28" s="35"/>
-      <c r="DD28" s="35"/>
-      <c r="DE28" s="35"/>
-      <c r="DF28" s="35"/>
-      <c r="DG28" s="35"/>
-      <c r="DH28" s="35"/>
-      <c r="DI28" s="35"/>
-      <c r="DJ28" s="35"/>
-      <c r="DK28" s="35"/>
-      <c r="DL28" s="35"/>
-      <c r="DM28" s="35"/>
-      <c r="DN28" s="35"/>
-      <c r="DO28" s="35"/>
-      <c r="DP28" s="35"/>
-      <c r="DQ28" s="35"/>
-      <c r="DR28" s="35"/>
-      <c r="DS28" s="35"/>
-      <c r="DT28" s="35"/>
-      <c r="DU28" s="35"/>
-      <c r="DV28" s="35"/>
-      <c r="DW28" s="35"/>
-      <c r="DX28" s="35"/>
-      <c r="DY28" s="35"/>
-      <c r="DZ28" s="35"/>
-      <c r="EA28" s="35"/>
-      <c r="EB28" s="35"/>
-      <c r="EC28" s="35"/>
-      <c r="ED28" s="35"/>
-      <c r="EE28" s="35"/>
-      <c r="EF28" s="35"/>
-      <c r="EG28" s="35"/>
-      <c r="EH28" s="35"/>
-      <c r="EI28" s="35"/>
-      <c r="EJ28" s="35"/>
-      <c r="EK28" s="35"/>
-      <c r="EL28" s="35"/>
-      <c r="EM28" s="35"/>
-      <c r="EN28" s="35"/>
-      <c r="EO28" s="35"/>
-      <c r="EP28" s="35"/>
-      <c r="EQ28" s="35"/>
-      <c r="ER28" s="35"/>
-      <c r="ES28" s="35"/>
-      <c r="ET28" s="35"/>
-      <c r="EU28" s="35"/>
-      <c r="EV28" s="35"/>
-      <c r="EW28" s="35"/>
-      <c r="EX28" s="35"/>
-      <c r="EY28" s="35"/>
-      <c r="EZ28" s="35"/>
-      <c r="FA28" s="35"/>
-      <c r="FB28" s="35"/>
-      <c r="FC28" s="35"/>
-      <c r="FD28" s="35"/>
-      <c r="FE28" s="35"/>
-      <c r="FF28" s="35"/>
-      <c r="FG28" s="35"/>
-      <c r="FH28" s="35"/>
-      <c r="FI28" s="35"/>
-      <c r="FJ28" s="35"/>
-      <c r="FK28" s="35"/>
-      <c r="FL28" s="35"/>
-      <c r="FM28" s="35"/>
-      <c r="FN28" s="35"/>
-      <c r="FO28" s="35"/>
-      <c r="FP28" s="35"/>
-      <c r="FQ28" s="35"/>
-      <c r="FR28" s="35"/>
-      <c r="FS28" s="35"/>
-      <c r="FT28" s="35"/>
-      <c r="FU28" s="35"/>
-      <c r="FV28" s="35"/>
-      <c r="FW28" s="35"/>
-      <c r="FX28" s="35"/>
-      <c r="FY28" s="35"/>
-      <c r="FZ28" s="35"/>
-      <c r="GA28" s="35"/>
-      <c r="GB28" s="35"/>
-      <c r="GC28" s="35"/>
-      <c r="GD28" s="35"/>
-      <c r="GE28" s="35"/>
-      <c r="GF28" s="35"/>
-      <c r="GG28" s="35"/>
-      <c r="GH28" s="35"/>
-      <c r="GI28" s="35"/>
-      <c r="GJ28" s="35"/>
-      <c r="GK28" s="35"/>
-      <c r="GL28" s="35"/>
-      <c r="GM28" s="35"/>
-      <c r="GN28" s="35"/>
-      <c r="GO28" s="35"/>
-      <c r="GP28" s="35"/>
-      <c r="GQ28" s="35"/>
-      <c r="GR28" s="35"/>
-      <c r="GS28" s="35"/>
-      <c r="GT28" s="35"/>
-      <c r="GU28" s="35"/>
-      <c r="GV28" s="35"/>
-      <c r="GW28" s="35"/>
-      <c r="GX28" s="35"/>
-      <c r="GY28" s="35"/>
-      <c r="GZ28" s="35"/>
-      <c r="HA28" s="35"/>
-      <c r="HB28" s="35"/>
-      <c r="HC28" s="35"/>
-      <c r="HD28" s="35"/>
-      <c r="HE28" s="35"/>
-      <c r="HF28" s="35"/>
-      <c r="HG28" s="35"/>
-      <c r="HH28" s="35"/>
-      <c r="HI28" s="35"/>
-      <c r="HJ28" s="35"/>
-      <c r="HK28" s="35"/>
-      <c r="HL28" s="35"/>
-      <c r="HM28" s="35"/>
-      <c r="HN28" s="35"/>
-      <c r="HO28" s="35"/>
-      <c r="HP28" s="35"/>
-      <c r="HQ28" s="35"/>
-      <c r="HR28" s="35"/>
-      <c r="HS28" s="35"/>
-      <c r="HT28" s="35"/>
-      <c r="HU28" s="35"/>
-      <c r="HV28" s="35"/>
-      <c r="HW28" s="35"/>
-      <c r="HX28" s="35"/>
-      <c r="HY28" s="35"/>
-      <c r="HZ28" s="35"/>
-      <c r="IA28" s="35"/>
-      <c r="IB28" s="35"/>
-      <c r="IC28" s="35"/>
-      <c r="ID28" s="35"/>
-      <c r="IE28" s="35"/>
-      <c r="IF28" s="35"/>
-      <c r="IG28" s="35"/>
-      <c r="IH28" s="35"/>
-      <c r="II28" s="35"/>
-      <c r="IJ28" s="35"/>
-      <c r="IK28" s="35"/>
-      <c r="IL28" s="35"/>
-      <c r="IM28" s="35"/>
-      <c r="IN28" s="35"/>
-      <c r="IO28" s="35"/>
-      <c r="IP28" s="35"/>
-      <c r="IQ28" s="35"/>
-      <c r="IR28" s="35"/>
-      <c r="IS28" s="35"/>
-      <c r="IT28" s="35"/>
-      <c r="IU28" s="35"/>
-      <c r="IV28" s="35"/>
-      <c r="IW28" s="35"/>
-      <c r="IX28" s="35"/>
+    <row r="28" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="50"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+      <c r="BC28" s="12"/>
+      <c r="BD28" s="12"/>
+      <c r="BE28" s="12"/>
+      <c r="BF28" s="12"/>
+      <c r="BG28" s="12"/>
+      <c r="BH28" s="12"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
+      <c r="BM28" s="12"/>
+      <c r="BN28" s="12"/>
+      <c r="BO28" s="12"/>
+      <c r="BP28" s="12"/>
+      <c r="BQ28" s="12"/>
+      <c r="BR28" s="12"/>
+      <c r="BS28" s="12"/>
+      <c r="BT28" s="12"/>
+      <c r="BU28" s="12"/>
+      <c r="BV28" s="12"/>
+      <c r="BW28" s="12"/>
+      <c r="BX28" s="12"/>
+      <c r="BY28" s="12"/>
+      <c r="BZ28" s="12"/>
+      <c r="CA28" s="12"/>
+      <c r="CB28" s="12"/>
+      <c r="CC28" s="12"/>
+      <c r="CD28" s="12"/>
+      <c r="CE28" s="12"/>
+      <c r="CF28" s="12"/>
+      <c r="CG28" s="12"/>
+      <c r="CH28" s="12"/>
+      <c r="CI28" s="12"/>
+      <c r="CJ28" s="12"/>
+      <c r="CK28" s="12"/>
+      <c r="CL28" s="12"/>
+      <c r="CM28" s="12"/>
+      <c r="CN28" s="12"/>
+      <c r="CO28" s="12"/>
+      <c r="CP28" s="12"/>
+      <c r="CQ28" s="12"/>
+      <c r="CR28" s="12"/>
+      <c r="CS28" s="12"/>
+      <c r="CT28" s="12"/>
+      <c r="CU28" s="12"/>
+      <c r="CV28" s="12"/>
+      <c r="CW28" s="12"/>
+      <c r="CX28" s="12"/>
+      <c r="CY28" s="12"/>
+      <c r="CZ28" s="12"/>
+      <c r="DA28" s="12"/>
+      <c r="DB28" s="12"/>
+      <c r="DC28" s="12"/>
+      <c r="DD28" s="12"/>
+      <c r="DE28" s="12"/>
+      <c r="DF28" s="12"/>
+      <c r="DG28" s="12"/>
+      <c r="DH28" s="12"/>
+      <c r="DI28" s="12"/>
+      <c r="DJ28" s="12"/>
+      <c r="DK28" s="12"/>
+      <c r="DL28" s="12"/>
+      <c r="DM28" s="12"/>
+      <c r="DN28" s="12"/>
+      <c r="DO28" s="12"/>
+      <c r="DP28" s="12"/>
+      <c r="DQ28" s="12"/>
+      <c r="DR28" s="12"/>
+      <c r="DS28" s="12"/>
+      <c r="DT28" s="12"/>
+      <c r="DU28" s="12"/>
+      <c r="DV28" s="12"/>
+      <c r="DW28" s="12"/>
+      <c r="DX28" s="12"/>
+      <c r="DY28" s="12"/>
+      <c r="DZ28" s="12"/>
+      <c r="EA28" s="12"/>
+      <c r="EB28" s="12"/>
+      <c r="EC28" s="12"/>
+      <c r="ED28" s="12"/>
+      <c r="EE28" s="12"/>
+      <c r="EF28" s="12"/>
+      <c r="EG28" s="12"/>
+      <c r="EH28" s="12"/>
+      <c r="EI28" s="12"/>
+      <c r="EJ28" s="12"/>
+      <c r="EK28" s="12"/>
+      <c r="EL28" s="12"/>
+      <c r="EM28" s="12"/>
+      <c r="EN28" s="12"/>
+      <c r="EO28" s="12"/>
+      <c r="EP28" s="12"/>
+      <c r="EQ28" s="12"/>
+      <c r="ER28" s="12"/>
+      <c r="ES28" s="12"/>
+      <c r="ET28" s="12"/>
+      <c r="EU28" s="12"/>
+      <c r="EV28" s="12"/>
+      <c r="EW28" s="12"/>
+      <c r="EX28" s="12"/>
+      <c r="EY28" s="12"/>
+      <c r="EZ28" s="12"/>
+      <c r="FA28" s="12"/>
+      <c r="FB28" s="12"/>
+      <c r="FC28" s="12"/>
+      <c r="FD28" s="12"/>
+      <c r="FE28" s="12"/>
+      <c r="FF28" s="12"/>
+      <c r="FG28" s="12"/>
+      <c r="FH28" s="12"/>
+      <c r="FI28" s="12"/>
+      <c r="FJ28" s="12"/>
+      <c r="FK28" s="12"/>
+      <c r="FL28" s="12"/>
+      <c r="FM28" s="12"/>
+      <c r="FN28" s="12"/>
+      <c r="FO28" s="12"/>
+      <c r="FP28" s="12"/>
+      <c r="FQ28" s="12"/>
+      <c r="FR28" s="12"/>
+      <c r="FS28" s="12"/>
+      <c r="FT28" s="12"/>
+      <c r="FU28" s="12"/>
+      <c r="FV28" s="12"/>
+      <c r="FW28" s="12"/>
+      <c r="FX28" s="12"/>
+      <c r="FY28" s="12"/>
+      <c r="FZ28" s="12"/>
+      <c r="GA28" s="12"/>
+      <c r="GB28" s="12"/>
+      <c r="GC28" s="12"/>
+      <c r="GD28" s="12"/>
+      <c r="GE28" s="12"/>
+      <c r="GF28" s="12"/>
+      <c r="GG28" s="12"/>
+      <c r="GH28" s="12"/>
+      <c r="GI28" s="12"/>
+      <c r="GJ28" s="12"/>
+      <c r="GK28" s="12"/>
+      <c r="GL28" s="12"/>
+      <c r="GM28" s="12"/>
+      <c r="GN28" s="12"/>
+      <c r="GO28" s="12"/>
+      <c r="GP28" s="12"/>
+      <c r="GQ28" s="12"/>
+      <c r="GR28" s="12"/>
+      <c r="GS28" s="12"/>
+      <c r="GT28" s="12"/>
+      <c r="GU28" s="12"/>
+      <c r="GV28" s="12"/>
+      <c r="GW28" s="12"/>
+      <c r="GX28" s="12"/>
+      <c r="GY28" s="12"/>
+      <c r="GZ28" s="12"/>
+      <c r="HA28" s="12"/>
+      <c r="HB28" s="12"/>
+      <c r="HC28" s="12"/>
+      <c r="HD28" s="12"/>
+      <c r="HE28" s="12"/>
+      <c r="HF28" s="12"/>
+      <c r="HG28" s="12"/>
+      <c r="HH28" s="12"/>
+      <c r="HI28" s="12"/>
+      <c r="HJ28" s="12"/>
+      <c r="HK28" s="12"/>
+      <c r="HL28" s="12"/>
+      <c r="HM28" s="12"/>
+      <c r="HN28" s="12"/>
+      <c r="HO28" s="12"/>
+      <c r="HP28" s="12"/>
+      <c r="HQ28" s="12"/>
+      <c r="HR28" s="12"/>
+      <c r="HS28" s="12"/>
+      <c r="HT28" s="12"/>
+      <c r="HU28" s="12"/>
+      <c r="HV28" s="12"/>
+      <c r="HW28" s="12"/>
+      <c r="HX28" s="12"/>
+      <c r="HY28" s="12"/>
+      <c r="HZ28" s="12"/>
+      <c r="IA28" s="12"/>
+      <c r="IB28" s="12"/>
+      <c r="IC28" s="12"/>
+      <c r="ID28" s="12"/>
+      <c r="IE28" s="12"/>
+      <c r="IF28" s="12"/>
+      <c r="IG28" s="12"/>
+      <c r="IH28" s="12"/>
+      <c r="II28" s="12"/>
+      <c r="IJ28" s="12"/>
+      <c r="IK28" s="12"/>
+      <c r="IL28" s="12"/>
+      <c r="IM28" s="12"/>
+      <c r="IN28" s="12"/>
+      <c r="IO28" s="12"/>
+      <c r="IP28" s="12"/>
+      <c r="IQ28" s="12"/>
+      <c r="IR28" s="12"/>
+      <c r="IS28" s="12"/>
+      <c r="IT28" s="12"/>
+      <c r="IU28" s="12"/>
+      <c r="IV28" s="12"/>
+      <c r="IW28" s="12"/>
+      <c r="IX28" s="12"/>
     </row>
-    <row r="29" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="12"/>
-      <c r="AN29" s="12"/>
-      <c r="AO29" s="12"/>
-      <c r="AP29" s="12"/>
-      <c r="AQ29" s="12"/>
-      <c r="AR29" s="12"/>
-      <c r="AS29" s="12"/>
-      <c r="AT29" s="12"/>
-      <c r="AU29" s="12"/>
-      <c r="AV29" s="12"/>
-      <c r="AW29" s="12"/>
-      <c r="AX29" s="12"/>
-      <c r="AY29" s="12"/>
-      <c r="AZ29" s="12"/>
-      <c r="BA29" s="12"/>
-      <c r="BB29" s="12"/>
-      <c r="BC29" s="12"/>
-      <c r="BD29" s="12"/>
-      <c r="BE29" s="12"/>
-      <c r="BF29" s="12"/>
-      <c r="BG29" s="12"/>
-      <c r="BH29" s="12"/>
-      <c r="BI29" s="12"/>
-      <c r="BJ29" s="12"/>
-      <c r="BK29" s="12"/>
-      <c r="BL29" s="12"/>
-      <c r="BM29" s="12"/>
-      <c r="BN29" s="12"/>
-      <c r="BO29" s="12"/>
-      <c r="BP29" s="12"/>
-      <c r="BQ29" s="12"/>
-      <c r="BR29" s="12"/>
-      <c r="BS29" s="12"/>
-      <c r="BT29" s="12"/>
-      <c r="BU29" s="12"/>
-      <c r="BV29" s="12"/>
-      <c r="BW29" s="12"/>
-      <c r="BX29" s="12"/>
-      <c r="BY29" s="12"/>
-      <c r="BZ29" s="12"/>
-      <c r="CA29" s="12"/>
-      <c r="CB29" s="12"/>
-      <c r="CC29" s="12"/>
-      <c r="CD29" s="12"/>
-      <c r="CE29" s="12"/>
-      <c r="CF29" s="12"/>
-      <c r="CG29" s="12"/>
-      <c r="CH29" s="12"/>
-      <c r="CI29" s="12"/>
-      <c r="CJ29" s="12"/>
-      <c r="CK29" s="12"/>
-      <c r="CL29" s="12"/>
-      <c r="CM29" s="12"/>
-      <c r="CN29" s="12"/>
-      <c r="CO29" s="12"/>
-      <c r="CP29" s="12"/>
-      <c r="CQ29" s="12"/>
-      <c r="CR29" s="12"/>
-      <c r="CS29" s="12"/>
-      <c r="CT29" s="12"/>
-      <c r="CU29" s="12"/>
-      <c r="CV29" s="12"/>
-      <c r="CW29" s="12"/>
-      <c r="CX29" s="12"/>
-      <c r="CY29" s="12"/>
-      <c r="CZ29" s="12"/>
-      <c r="DA29" s="12"/>
-      <c r="DB29" s="12"/>
-      <c r="DC29" s="12"/>
-      <c r="DD29" s="12"/>
-      <c r="DE29" s="12"/>
-      <c r="DF29" s="12"/>
-      <c r="DG29" s="12"/>
-      <c r="DH29" s="12"/>
-      <c r="DI29" s="12"/>
-      <c r="DJ29" s="12"/>
-      <c r="DK29" s="12"/>
-      <c r="DL29" s="12"/>
-      <c r="DM29" s="12"/>
-      <c r="DN29" s="12"/>
-      <c r="DO29" s="12"/>
-      <c r="DP29" s="12"/>
-      <c r="DQ29" s="12"/>
-      <c r="DR29" s="12"/>
-      <c r="DS29" s="12"/>
-      <c r="DT29" s="12"/>
-      <c r="DU29" s="12"/>
-      <c r="DV29" s="12"/>
-      <c r="DW29" s="12"/>
-      <c r="DX29" s="12"/>
-      <c r="DY29" s="12"/>
-      <c r="DZ29" s="12"/>
-      <c r="EA29" s="12"/>
-      <c r="EB29" s="12"/>
-      <c r="EC29" s="12"/>
-      <c r="ED29" s="12"/>
-      <c r="EE29" s="12"/>
-      <c r="EF29" s="12"/>
-      <c r="EG29" s="12"/>
-      <c r="EH29" s="12"/>
-      <c r="EI29" s="12"/>
-      <c r="EJ29" s="12"/>
-      <c r="EK29" s="12"/>
-      <c r="EL29" s="12"/>
-      <c r="EM29" s="12"/>
-      <c r="EN29" s="12"/>
-      <c r="EO29" s="12"/>
-      <c r="EP29" s="12"/>
-      <c r="EQ29" s="12"/>
-      <c r="ER29" s="12"/>
-      <c r="ES29" s="12"/>
-      <c r="ET29" s="12"/>
-      <c r="EU29" s="12"/>
-      <c r="EV29" s="12"/>
-      <c r="EW29" s="12"/>
-      <c r="EX29" s="12"/>
-      <c r="EY29" s="12"/>
-      <c r="EZ29" s="12"/>
-      <c r="FA29" s="12"/>
-      <c r="FB29" s="12"/>
-      <c r="FC29" s="12"/>
-      <c r="FD29" s="12"/>
-      <c r="FE29" s="12"/>
-      <c r="FF29" s="12"/>
-      <c r="FG29" s="12"/>
-      <c r="FH29" s="12"/>
-      <c r="FI29" s="12"/>
-      <c r="FJ29" s="12"/>
-      <c r="FK29" s="12"/>
-      <c r="FL29" s="12"/>
-      <c r="FM29" s="12"/>
-      <c r="FN29" s="12"/>
-      <c r="FO29" s="12"/>
-      <c r="FP29" s="12"/>
-      <c r="FQ29" s="12"/>
-      <c r="FR29" s="12"/>
-      <c r="FS29" s="12"/>
-      <c r="FT29" s="12"/>
-      <c r="FU29" s="12"/>
-      <c r="FV29" s="12"/>
-      <c r="FW29" s="12"/>
-      <c r="FX29" s="12"/>
-      <c r="FY29" s="12"/>
-      <c r="FZ29" s="12"/>
-      <c r="GA29" s="12"/>
-      <c r="GB29" s="12"/>
-      <c r="GC29" s="12"/>
-      <c r="GD29" s="12"/>
-      <c r="GE29" s="12"/>
-      <c r="GF29" s="12"/>
-      <c r="GG29" s="12"/>
-      <c r="GH29" s="12"/>
-      <c r="GI29" s="12"/>
-      <c r="GJ29" s="12"/>
-      <c r="GK29" s="12"/>
-      <c r="GL29" s="12"/>
-      <c r="GM29" s="12"/>
-      <c r="GN29" s="12"/>
-      <c r="GO29" s="12"/>
-      <c r="GP29" s="12"/>
-      <c r="GQ29" s="12"/>
-      <c r="GR29" s="12"/>
-      <c r="GS29" s="12"/>
-      <c r="GT29" s="12"/>
-      <c r="GU29" s="12"/>
-      <c r="GV29" s="12"/>
-      <c r="GW29" s="12"/>
-      <c r="GX29" s="12"/>
-      <c r="GY29" s="12"/>
-      <c r="GZ29" s="12"/>
-      <c r="HA29" s="12"/>
-      <c r="HB29" s="12"/>
-      <c r="HC29" s="12"/>
-      <c r="HD29" s="12"/>
-      <c r="HE29" s="12"/>
-      <c r="HF29" s="12"/>
-      <c r="HG29" s="12"/>
-      <c r="HH29" s="12"/>
-      <c r="HI29" s="12"/>
-      <c r="HJ29" s="12"/>
-      <c r="HK29" s="12"/>
-      <c r="HL29" s="12"/>
-      <c r="HM29" s="12"/>
-      <c r="HN29" s="12"/>
-      <c r="HO29" s="12"/>
-      <c r="HP29" s="12"/>
-      <c r="HQ29" s="12"/>
-      <c r="HR29" s="12"/>
-      <c r="HS29" s="12"/>
-      <c r="HT29" s="12"/>
-      <c r="HU29" s="12"/>
-      <c r="HV29" s="12"/>
-      <c r="HW29" s="12"/>
-      <c r="HX29" s="12"/>
-      <c r="HY29" s="12"/>
-      <c r="HZ29" s="12"/>
-      <c r="IA29" s="12"/>
-      <c r="IB29" s="12"/>
-      <c r="IC29" s="12"/>
-      <c r="ID29" s="12"/>
-      <c r="IE29" s="12"/>
-      <c r="IF29" s="12"/>
-      <c r="IG29" s="12"/>
-      <c r="IH29" s="12"/>
-      <c r="II29" s="12"/>
-      <c r="IJ29" s="12"/>
-      <c r="IK29" s="12"/>
-      <c r="IL29" s="12"/>
-      <c r="IM29" s="12"/>
-      <c r="IN29" s="12"/>
-      <c r="IO29" s="12"/>
-      <c r="IP29" s="12"/>
-      <c r="IQ29" s="12"/>
-      <c r="IR29" s="12"/>
-      <c r="IS29" s="12"/>
-      <c r="IT29" s="12"/>
-      <c r="IU29" s="12"/>
-      <c r="IV29" s="12"/>
-      <c r="IW29" s="12"/>
-      <c r="IX29" s="12"/>
+    <row r="29" spans="1:258" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="35"/>
+      <c r="AK29" s="35"/>
+      <c r="AL29" s="35"/>
+      <c r="AM29" s="35"/>
+      <c r="AN29" s="35"/>
+      <c r="AO29" s="35"/>
+      <c r="AP29" s="35"/>
+      <c r="AQ29" s="35"/>
+      <c r="AR29" s="35"/>
+      <c r="AS29" s="35"/>
+      <c r="AT29" s="35"/>
+      <c r="AU29" s="35"/>
+      <c r="AV29" s="35"/>
+      <c r="AW29" s="35"/>
+      <c r="AX29" s="35"/>
+      <c r="AY29" s="35"/>
+      <c r="AZ29" s="35"/>
+      <c r="BA29" s="35"/>
+      <c r="BB29" s="35"/>
+      <c r="BC29" s="35"/>
+      <c r="BD29" s="35"/>
+      <c r="BE29" s="35"/>
+      <c r="BF29" s="35"/>
+      <c r="BG29" s="35"/>
+      <c r="BH29" s="35"/>
+      <c r="BI29" s="35"/>
+      <c r="BJ29" s="35"/>
+      <c r="BK29" s="35"/>
+      <c r="BL29" s="35"/>
+      <c r="BM29" s="35"/>
+      <c r="BN29" s="35"/>
+      <c r="BO29" s="35"/>
+      <c r="BP29" s="35"/>
+      <c r="BQ29" s="35"/>
+      <c r="BR29" s="35"/>
+      <c r="BS29" s="35"/>
+      <c r="BT29" s="35"/>
+      <c r="BU29" s="35"/>
+      <c r="BV29" s="35"/>
+      <c r="BW29" s="35"/>
+      <c r="BX29" s="35"/>
+      <c r="BY29" s="35"/>
+      <c r="BZ29" s="35"/>
+      <c r="CA29" s="35"/>
+      <c r="CB29" s="35"/>
+      <c r="CC29" s="35"/>
+      <c r="CD29" s="35"/>
+      <c r="CE29" s="35"/>
+      <c r="CF29" s="35"/>
+      <c r="CG29" s="35"/>
+      <c r="CH29" s="35"/>
+      <c r="CI29" s="35"/>
+      <c r="CJ29" s="35"/>
+      <c r="CK29" s="35"/>
+      <c r="CL29" s="35"/>
+      <c r="CM29" s="35"/>
+      <c r="CN29" s="35"/>
+      <c r="CO29" s="35"/>
+      <c r="CP29" s="35"/>
+      <c r="CQ29" s="35"/>
+      <c r="CR29" s="35"/>
+      <c r="CS29" s="35"/>
+      <c r="CT29" s="35"/>
+      <c r="CU29" s="35"/>
+      <c r="CV29" s="35"/>
+      <c r="CW29" s="35"/>
+      <c r="CX29" s="35"/>
+      <c r="CY29" s="35"/>
+      <c r="CZ29" s="35"/>
+      <c r="DA29" s="35"/>
+      <c r="DB29" s="35"/>
+      <c r="DC29" s="35"/>
+      <c r="DD29" s="35"/>
+      <c r="DE29" s="35"/>
+      <c r="DF29" s="35"/>
+      <c r="DG29" s="35"/>
+      <c r="DH29" s="35"/>
+      <c r="DI29" s="35"/>
+      <c r="DJ29" s="35"/>
+      <c r="DK29" s="35"/>
+      <c r="DL29" s="35"/>
+      <c r="DM29" s="35"/>
+      <c r="DN29" s="35"/>
+      <c r="DO29" s="35"/>
+      <c r="DP29" s="35"/>
+      <c r="DQ29" s="35"/>
+      <c r="DR29" s="35"/>
+      <c r="DS29" s="35"/>
+      <c r="DT29" s="35"/>
+      <c r="DU29" s="35"/>
+      <c r="DV29" s="35"/>
+      <c r="DW29" s="35"/>
+      <c r="DX29" s="35"/>
+      <c r="DY29" s="35"/>
+      <c r="DZ29" s="35"/>
+      <c r="EA29" s="35"/>
+      <c r="EB29" s="35"/>
+      <c r="EC29" s="35"/>
+      <c r="ED29" s="35"/>
+      <c r="EE29" s="35"/>
+      <c r="EF29" s="35"/>
+      <c r="EG29" s="35"/>
+      <c r="EH29" s="35"/>
+      <c r="EI29" s="35"/>
+      <c r="EJ29" s="35"/>
+      <c r="EK29" s="35"/>
+      <c r="EL29" s="35"/>
+      <c r="EM29" s="35"/>
+      <c r="EN29" s="35"/>
+      <c r="EO29" s="35"/>
+      <c r="EP29" s="35"/>
+      <c r="EQ29" s="35"/>
+      <c r="ER29" s="35"/>
+      <c r="ES29" s="35"/>
+      <c r="ET29" s="35"/>
+      <c r="EU29" s="35"/>
+      <c r="EV29" s="35"/>
+      <c r="EW29" s="35"/>
+      <c r="EX29" s="35"/>
+      <c r="EY29" s="35"/>
+      <c r="EZ29" s="35"/>
+      <c r="FA29" s="35"/>
+      <c r="FB29" s="35"/>
+      <c r="FC29" s="35"/>
+      <c r="FD29" s="35"/>
+      <c r="FE29" s="35"/>
+      <c r="FF29" s="35"/>
+      <c r="FG29" s="35"/>
+      <c r="FH29" s="35"/>
+      <c r="FI29" s="35"/>
+      <c r="FJ29" s="35"/>
+      <c r="FK29" s="35"/>
+      <c r="FL29" s="35"/>
+      <c r="FM29" s="35"/>
+      <c r="FN29" s="35"/>
+      <c r="FO29" s="35"/>
+      <c r="FP29" s="35"/>
+      <c r="FQ29" s="35"/>
+      <c r="FR29" s="35"/>
+      <c r="FS29" s="35"/>
+      <c r="FT29" s="35"/>
+      <c r="FU29" s="35"/>
+      <c r="FV29" s="35"/>
+      <c r="FW29" s="35"/>
+      <c r="FX29" s="35"/>
+      <c r="FY29" s="35"/>
+      <c r="FZ29" s="35"/>
+      <c r="GA29" s="35"/>
+      <c r="GB29" s="35"/>
+      <c r="GC29" s="35"/>
+      <c r="GD29" s="35"/>
+      <c r="GE29" s="35"/>
+      <c r="GF29" s="35"/>
+      <c r="GG29" s="35"/>
+      <c r="GH29" s="35"/>
+      <c r="GI29" s="35"/>
+      <c r="GJ29" s="35"/>
+      <c r="GK29" s="35"/>
+      <c r="GL29" s="35"/>
+      <c r="GM29" s="35"/>
+      <c r="GN29" s="35"/>
+      <c r="GO29" s="35"/>
+      <c r="GP29" s="35"/>
+      <c r="GQ29" s="35"/>
+      <c r="GR29" s="35"/>
+      <c r="GS29" s="35"/>
+      <c r="GT29" s="35"/>
+      <c r="GU29" s="35"/>
+      <c r="GV29" s="35"/>
+      <c r="GW29" s="35"/>
+      <c r="GX29" s="35"/>
+      <c r="GY29" s="35"/>
+      <c r="GZ29" s="35"/>
+      <c r="HA29" s="35"/>
+      <c r="HB29" s="35"/>
+      <c r="HC29" s="35"/>
+      <c r="HD29" s="35"/>
+      <c r="HE29" s="35"/>
+      <c r="HF29" s="35"/>
+      <c r="HG29" s="35"/>
+      <c r="HH29" s="35"/>
+      <c r="HI29" s="35"/>
+      <c r="HJ29" s="35"/>
+      <c r="HK29" s="35"/>
+      <c r="HL29" s="35"/>
+      <c r="HM29" s="35"/>
+      <c r="HN29" s="35"/>
+      <c r="HO29" s="35"/>
+      <c r="HP29" s="35"/>
+      <c r="HQ29" s="35"/>
+      <c r="HR29" s="35"/>
+      <c r="HS29" s="35"/>
+      <c r="HT29" s="35"/>
+      <c r="HU29" s="35"/>
+      <c r="HV29" s="35"/>
+      <c r="HW29" s="35"/>
+      <c r="HX29" s="35"/>
+      <c r="HY29" s="35"/>
+      <c r="HZ29" s="35"/>
+      <c r="IA29" s="35"/>
+      <c r="IB29" s="35"/>
+      <c r="IC29" s="35"/>
+      <c r="ID29" s="35"/>
+      <c r="IE29" s="35"/>
+      <c r="IF29" s="35"/>
+      <c r="IG29" s="35"/>
+      <c r="IH29" s="35"/>
+      <c r="II29" s="35"/>
+      <c r="IJ29" s="35"/>
+      <c r="IK29" s="35"/>
+      <c r="IL29" s="35"/>
+      <c r="IM29" s="35"/>
+      <c r="IN29" s="35"/>
+      <c r="IO29" s="35"/>
+      <c r="IP29" s="35"/>
+      <c r="IQ29" s="35"/>
+      <c r="IR29" s="35"/>
+      <c r="IS29" s="35"/>
+      <c r="IT29" s="35"/>
+      <c r="IU29" s="35"/>
+      <c r="IV29" s="35"/>
+      <c r="IW29" s="35"/>
+      <c r="IX29" s="35"/>
     </row>
     <row r="30" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="66"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="9"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="30"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -9545,301 +9571,550 @@
       <c r="IW30" s="12"/>
       <c r="IX30" s="12"/>
     </row>
-    <row r="31" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
+    <row r="31" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="66"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AT31" s="12"/>
+      <c r="AU31" s="12"/>
+      <c r="AV31" s="12"/>
+      <c r="AW31" s="12"/>
+      <c r="AX31" s="12"/>
+      <c r="AY31" s="12"/>
+      <c r="AZ31" s="12"/>
+      <c r="BA31" s="12"/>
+      <c r="BB31" s="12"/>
+      <c r="BC31" s="12"/>
+      <c r="BD31" s="12"/>
+      <c r="BE31" s="12"/>
+      <c r="BF31" s="12"/>
+      <c r="BG31" s="12"/>
+      <c r="BH31" s="12"/>
+      <c r="BI31" s="12"/>
+      <c r="BJ31" s="12"/>
+      <c r="BK31" s="12"/>
+      <c r="BL31" s="12"/>
+      <c r="BM31" s="12"/>
+      <c r="BN31" s="12"/>
+      <c r="BO31" s="12"/>
+      <c r="BP31" s="12"/>
+      <c r="BQ31" s="12"/>
+      <c r="BR31" s="12"/>
+      <c r="BS31" s="12"/>
+      <c r="BT31" s="12"/>
+      <c r="BU31" s="12"/>
+      <c r="BV31" s="12"/>
+      <c r="BW31" s="12"/>
+      <c r="BX31" s="12"/>
+      <c r="BY31" s="12"/>
+      <c r="BZ31" s="12"/>
+      <c r="CA31" s="12"/>
+      <c r="CB31" s="12"/>
+      <c r="CC31" s="12"/>
+      <c r="CD31" s="12"/>
+      <c r="CE31" s="12"/>
+      <c r="CF31" s="12"/>
+      <c r="CG31" s="12"/>
+      <c r="CH31" s="12"/>
+      <c r="CI31" s="12"/>
+      <c r="CJ31" s="12"/>
+      <c r="CK31" s="12"/>
+      <c r="CL31" s="12"/>
+      <c r="CM31" s="12"/>
+      <c r="CN31" s="12"/>
+      <c r="CO31" s="12"/>
+      <c r="CP31" s="12"/>
+      <c r="CQ31" s="12"/>
+      <c r="CR31" s="12"/>
+      <c r="CS31" s="12"/>
+      <c r="CT31" s="12"/>
+      <c r="CU31" s="12"/>
+      <c r="CV31" s="12"/>
+      <c r="CW31" s="12"/>
+      <c r="CX31" s="12"/>
+      <c r="CY31" s="12"/>
+      <c r="CZ31" s="12"/>
+      <c r="DA31" s="12"/>
+      <c r="DB31" s="12"/>
+      <c r="DC31" s="12"/>
+      <c r="DD31" s="12"/>
+      <c r="DE31" s="12"/>
+      <c r="DF31" s="12"/>
+      <c r="DG31" s="12"/>
+      <c r="DH31" s="12"/>
+      <c r="DI31" s="12"/>
+      <c r="DJ31" s="12"/>
+      <c r="DK31" s="12"/>
+      <c r="DL31" s="12"/>
+      <c r="DM31" s="12"/>
+      <c r="DN31" s="12"/>
+      <c r="DO31" s="12"/>
+      <c r="DP31" s="12"/>
+      <c r="DQ31" s="12"/>
+      <c r="DR31" s="12"/>
+      <c r="DS31" s="12"/>
+      <c r="DT31" s="12"/>
+      <c r="DU31" s="12"/>
+      <c r="DV31" s="12"/>
+      <c r="DW31" s="12"/>
+      <c r="DX31" s="12"/>
+      <c r="DY31" s="12"/>
+      <c r="DZ31" s="12"/>
+      <c r="EA31" s="12"/>
+      <c r="EB31" s="12"/>
+      <c r="EC31" s="12"/>
+      <c r="ED31" s="12"/>
+      <c r="EE31" s="12"/>
+      <c r="EF31" s="12"/>
+      <c r="EG31" s="12"/>
+      <c r="EH31" s="12"/>
+      <c r="EI31" s="12"/>
+      <c r="EJ31" s="12"/>
+      <c r="EK31" s="12"/>
+      <c r="EL31" s="12"/>
+      <c r="EM31" s="12"/>
+      <c r="EN31" s="12"/>
+      <c r="EO31" s="12"/>
+      <c r="EP31" s="12"/>
+      <c r="EQ31" s="12"/>
+      <c r="ER31" s="12"/>
+      <c r="ES31" s="12"/>
+      <c r="ET31" s="12"/>
+      <c r="EU31" s="12"/>
+      <c r="EV31" s="12"/>
+      <c r="EW31" s="12"/>
+      <c r="EX31" s="12"/>
+      <c r="EY31" s="12"/>
+      <c r="EZ31" s="12"/>
+      <c r="FA31" s="12"/>
+      <c r="FB31" s="12"/>
+      <c r="FC31" s="12"/>
+      <c r="FD31" s="12"/>
+      <c r="FE31" s="12"/>
+      <c r="FF31" s="12"/>
+      <c r="FG31" s="12"/>
+      <c r="FH31" s="12"/>
+      <c r="FI31" s="12"/>
+      <c r="FJ31" s="12"/>
+      <c r="FK31" s="12"/>
+      <c r="FL31" s="12"/>
+      <c r="FM31" s="12"/>
+      <c r="FN31" s="12"/>
+      <c r="FO31" s="12"/>
+      <c r="FP31" s="12"/>
+      <c r="FQ31" s="12"/>
+      <c r="FR31" s="12"/>
+      <c r="FS31" s="12"/>
+      <c r="FT31" s="12"/>
+      <c r="FU31" s="12"/>
+      <c r="FV31" s="12"/>
+      <c r="FW31" s="12"/>
+      <c r="FX31" s="12"/>
+      <c r="FY31" s="12"/>
+      <c r="FZ31" s="12"/>
+      <c r="GA31" s="12"/>
+      <c r="GB31" s="12"/>
+      <c r="GC31" s="12"/>
+      <c r="GD31" s="12"/>
+      <c r="GE31" s="12"/>
+      <c r="GF31" s="12"/>
+      <c r="GG31" s="12"/>
+      <c r="GH31" s="12"/>
+      <c r="GI31" s="12"/>
+      <c r="GJ31" s="12"/>
+      <c r="GK31" s="12"/>
+      <c r="GL31" s="12"/>
+      <c r="GM31" s="12"/>
+      <c r="GN31" s="12"/>
+      <c r="GO31" s="12"/>
+      <c r="GP31" s="12"/>
+      <c r="GQ31" s="12"/>
+      <c r="GR31" s="12"/>
+      <c r="GS31" s="12"/>
+      <c r="GT31" s="12"/>
+      <c r="GU31" s="12"/>
+      <c r="GV31" s="12"/>
+      <c r="GW31" s="12"/>
+      <c r="GX31" s="12"/>
+      <c r="GY31" s="12"/>
+      <c r="GZ31" s="12"/>
+      <c r="HA31" s="12"/>
+      <c r="HB31" s="12"/>
+      <c r="HC31" s="12"/>
+      <c r="HD31" s="12"/>
+      <c r="HE31" s="12"/>
+      <c r="HF31" s="12"/>
+      <c r="HG31" s="12"/>
+      <c r="HH31" s="12"/>
+      <c r="HI31" s="12"/>
+      <c r="HJ31" s="12"/>
+      <c r="HK31" s="12"/>
+      <c r="HL31" s="12"/>
+      <c r="HM31" s="12"/>
+      <c r="HN31" s="12"/>
+      <c r="HO31" s="12"/>
+      <c r="HP31" s="12"/>
+      <c r="HQ31" s="12"/>
+      <c r="HR31" s="12"/>
+      <c r="HS31" s="12"/>
+      <c r="HT31" s="12"/>
+      <c r="HU31" s="12"/>
+      <c r="HV31" s="12"/>
+      <c r="HW31" s="12"/>
+      <c r="HX31" s="12"/>
+      <c r="HY31" s="12"/>
+      <c r="HZ31" s="12"/>
+      <c r="IA31" s="12"/>
+      <c r="IB31" s="12"/>
+      <c r="IC31" s="12"/>
+      <c r="ID31" s="12"/>
+      <c r="IE31" s="12"/>
+      <c r="IF31" s="12"/>
+      <c r="IG31" s="12"/>
+      <c r="IH31" s="12"/>
+      <c r="II31" s="12"/>
+      <c r="IJ31" s="12"/>
+      <c r="IK31" s="12"/>
+      <c r="IL31" s="12"/>
+      <c r="IM31" s="12"/>
+      <c r="IN31" s="12"/>
+      <c r="IO31" s="12"/>
+      <c r="IP31" s="12"/>
+      <c r="IQ31" s="12"/>
+      <c r="IR31" s="12"/>
+      <c r="IS31" s="12"/>
+      <c r="IT31" s="12"/>
+      <c r="IU31" s="12"/>
+      <c r="IV31" s="12"/>
+      <c r="IW31" s="12"/>
+      <c r="IX31" s="12"/>
     </row>
-    <row r="32" spans="1:258" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="46"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="46"/>
-      <c r="AJ32" s="46"/>
-      <c r="AK32" s="46"/>
-      <c r="AL32" s="46"/>
-      <c r="AM32" s="46"/>
-      <c r="AN32" s="46"/>
-      <c r="AO32" s="46"/>
-      <c r="AP32" s="46"/>
-      <c r="AQ32" s="46"/>
-      <c r="AR32" s="46"/>
-      <c r="AS32" s="46"/>
-      <c r="AT32" s="46"/>
-      <c r="AU32" s="46"/>
-      <c r="AV32" s="46"/>
-      <c r="AW32" s="46"/>
-      <c r="AX32" s="46"/>
-      <c r="AY32" s="46"/>
-      <c r="AZ32" s="46"/>
-      <c r="BA32" s="46"/>
-      <c r="BB32" s="46"/>
-      <c r="BC32" s="46"/>
-      <c r="BD32" s="46"/>
-      <c r="BE32" s="46"/>
-      <c r="BF32" s="46"/>
-      <c r="BG32" s="46"/>
-      <c r="BH32" s="46"/>
-      <c r="BI32" s="46"/>
-      <c r="BJ32" s="46"/>
-      <c r="BK32" s="46"/>
-      <c r="BL32" s="46"/>
-      <c r="BM32" s="46"/>
-      <c r="BN32" s="46"/>
-      <c r="BO32" s="46"/>
-      <c r="BP32" s="46"/>
-      <c r="BQ32" s="46"/>
-      <c r="BR32" s="46"/>
-      <c r="BS32" s="46"/>
-      <c r="BT32" s="46"/>
-      <c r="BU32" s="46"/>
-      <c r="BV32" s="46"/>
-      <c r="BW32" s="46"/>
-      <c r="BX32" s="46"/>
-      <c r="BY32" s="46"/>
-      <c r="BZ32" s="46"/>
-      <c r="CA32" s="46"/>
-      <c r="CB32" s="46"/>
-      <c r="CC32" s="46"/>
-      <c r="CD32" s="46"/>
-      <c r="CE32" s="46"/>
-      <c r="CF32" s="46"/>
-      <c r="CG32" s="46"/>
-      <c r="CH32" s="46"/>
-      <c r="CI32" s="46"/>
-      <c r="CJ32" s="46"/>
-      <c r="CK32" s="46"/>
-      <c r="CL32" s="46"/>
-      <c r="CM32" s="46"/>
-      <c r="CN32" s="46"/>
-      <c r="CO32" s="46"/>
-      <c r="CP32" s="46"/>
-      <c r="CQ32" s="46"/>
-      <c r="CR32" s="46"/>
-      <c r="CS32" s="46"/>
-      <c r="CT32" s="46"/>
-      <c r="CU32" s="46"/>
-      <c r="CV32" s="46"/>
-      <c r="CW32" s="46"/>
-      <c r="CX32" s="46"/>
-      <c r="CY32" s="46"/>
-      <c r="CZ32" s="46"/>
-      <c r="DA32" s="46"/>
-      <c r="DB32" s="46"/>
-      <c r="DC32" s="46"/>
-      <c r="DD32" s="46"/>
-      <c r="DE32" s="46"/>
-      <c r="DF32" s="46"/>
-      <c r="DG32" s="46"/>
-      <c r="DH32" s="46"/>
-      <c r="DI32" s="46"/>
-      <c r="DJ32" s="46"/>
-      <c r="DK32" s="46"/>
-      <c r="DL32" s="46"/>
-      <c r="DM32" s="46"/>
-      <c r="DN32" s="46"/>
-      <c r="DO32" s="46"/>
-      <c r="DP32" s="46"/>
-      <c r="DQ32" s="46"/>
-      <c r="DR32" s="46"/>
-      <c r="DS32" s="46"/>
-      <c r="DT32" s="46"/>
-      <c r="DU32" s="46"/>
-      <c r="DV32" s="46"/>
-      <c r="DW32" s="46"/>
-      <c r="DX32" s="46"/>
-      <c r="DY32" s="46"/>
-      <c r="DZ32" s="46"/>
-      <c r="EA32" s="46"/>
-      <c r="EB32" s="46"/>
-      <c r="EC32" s="46"/>
-      <c r="ED32" s="46"/>
-      <c r="EE32" s="46"/>
-      <c r="EF32" s="46"/>
-      <c r="EG32" s="46"/>
-      <c r="EH32" s="46"/>
-      <c r="EI32" s="46"/>
-      <c r="EJ32" s="46"/>
-      <c r="EK32" s="46"/>
-      <c r="EL32" s="46"/>
-      <c r="EM32" s="46"/>
-      <c r="EN32" s="46"/>
-      <c r="EO32" s="46"/>
-      <c r="EP32" s="46"/>
-      <c r="EQ32" s="46"/>
-      <c r="ER32" s="46"/>
-      <c r="ES32" s="46"/>
-      <c r="ET32" s="46"/>
-      <c r="EU32" s="46"/>
-      <c r="EV32" s="46"/>
-      <c r="EW32" s="46"/>
-      <c r="EX32" s="46"/>
-      <c r="EY32" s="46"/>
-      <c r="EZ32" s="46"/>
-      <c r="FA32" s="46"/>
-      <c r="FB32" s="46"/>
-      <c r="FC32" s="46"/>
-      <c r="FD32" s="46"/>
-      <c r="FE32" s="46"/>
-      <c r="FF32" s="46"/>
-      <c r="FG32" s="46"/>
-      <c r="FH32" s="46"/>
-      <c r="FI32" s="46"/>
-      <c r="FJ32" s="46"/>
-      <c r="FK32" s="46"/>
-      <c r="FL32" s="46"/>
-      <c r="FM32" s="46"/>
-      <c r="FN32" s="46"/>
-      <c r="FO32" s="46"/>
-      <c r="FP32" s="46"/>
-      <c r="FQ32" s="46"/>
-      <c r="FR32" s="46"/>
-      <c r="FS32" s="46"/>
-      <c r="FT32" s="46"/>
-      <c r="FU32" s="46"/>
-      <c r="FV32" s="46"/>
-      <c r="FW32" s="46"/>
-      <c r="FX32" s="46"/>
-      <c r="FY32" s="46"/>
-      <c r="FZ32" s="46"/>
-      <c r="GA32" s="46"/>
-      <c r="GB32" s="46"/>
-      <c r="GC32" s="46"/>
-      <c r="GD32" s="46"/>
-      <c r="GE32" s="46"/>
-      <c r="GF32" s="46"/>
-      <c r="GG32" s="46"/>
-      <c r="GH32" s="46"/>
-      <c r="GI32" s="46"/>
-      <c r="GJ32" s="46"/>
-      <c r="GK32" s="46"/>
-      <c r="GL32" s="46"/>
-      <c r="GM32" s="46"/>
-      <c r="GN32" s="46"/>
-      <c r="GO32" s="46"/>
-      <c r="GP32" s="46"/>
-      <c r="GQ32" s="46"/>
-      <c r="GR32" s="46"/>
-      <c r="GS32" s="46"/>
-      <c r="GT32" s="46"/>
-      <c r="GU32" s="46"/>
-      <c r="GV32" s="46"/>
-      <c r="GW32" s="46"/>
-      <c r="GX32" s="46"/>
-      <c r="GY32" s="46"/>
-      <c r="GZ32" s="46"/>
-      <c r="HA32" s="46"/>
-      <c r="HB32" s="46"/>
-      <c r="HC32" s="46"/>
-      <c r="HD32" s="46"/>
-      <c r="HE32" s="46"/>
-      <c r="HF32" s="46"/>
-      <c r="HG32" s="46"/>
-      <c r="HH32" s="46"/>
-      <c r="HI32" s="46"/>
-      <c r="HJ32" s="46"/>
-      <c r="HK32" s="46"/>
-      <c r="HL32" s="46"/>
-      <c r="HM32" s="46"/>
-      <c r="HN32" s="46"/>
-      <c r="HO32" s="46"/>
-      <c r="HP32" s="46"/>
-      <c r="HQ32" s="46"/>
-      <c r="HR32" s="46"/>
-      <c r="HS32" s="46"/>
-      <c r="HT32" s="46"/>
-      <c r="HU32" s="46"/>
-      <c r="HV32" s="46"/>
-      <c r="HW32" s="46"/>
-      <c r="HX32" s="46"/>
-      <c r="HY32" s="46"/>
-      <c r="HZ32" s="46"/>
-      <c r="IA32" s="46"/>
-      <c r="IB32" s="46"/>
-      <c r="IC32" s="46"/>
-      <c r="ID32" s="46"/>
-      <c r="IE32" s="46"/>
-      <c r="IF32" s="46"/>
-      <c r="IG32" s="46"/>
-      <c r="IH32" s="46"/>
-      <c r="II32" s="46"/>
-      <c r="IJ32" s="46"/>
-      <c r="IK32" s="46"/>
-      <c r="IL32" s="46"/>
-      <c r="IM32" s="46"/>
-      <c r="IN32" s="46"/>
-      <c r="IO32" s="46"/>
-      <c r="IP32" s="46"/>
-      <c r="IQ32" s="46"/>
-      <c r="IR32" s="46"/>
-      <c r="IS32" s="46"/>
-      <c r="IT32" s="46"/>
-      <c r="IU32" s="46"/>
-      <c r="IV32" s="46"/>
-      <c r="IW32" s="46"/>
-      <c r="IX32" s="46"/>
+    <row r="32" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="67"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
     </row>
-    <row r="33" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+    <row r="33" spans="1:258" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="46"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="46"/>
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="46"/>
+      <c r="AL33" s="46"/>
+      <c r="AM33" s="46"/>
+      <c r="AN33" s="46"/>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="46"/>
+      <c r="AQ33" s="46"/>
+      <c r="AR33" s="46"/>
+      <c r="AS33" s="46"/>
+      <c r="AT33" s="46"/>
+      <c r="AU33" s="46"/>
+      <c r="AV33" s="46"/>
+      <c r="AW33" s="46"/>
+      <c r="AX33" s="46"/>
+      <c r="AY33" s="46"/>
+      <c r="AZ33" s="46"/>
+      <c r="BA33" s="46"/>
+      <c r="BB33" s="46"/>
+      <c r="BC33" s="46"/>
+      <c r="BD33" s="46"/>
+      <c r="BE33" s="46"/>
+      <c r="BF33" s="46"/>
+      <c r="BG33" s="46"/>
+      <c r="BH33" s="46"/>
+      <c r="BI33" s="46"/>
+      <c r="BJ33" s="46"/>
+      <c r="BK33" s="46"/>
+      <c r="BL33" s="46"/>
+      <c r="BM33" s="46"/>
+      <c r="BN33" s="46"/>
+      <c r="BO33" s="46"/>
+      <c r="BP33" s="46"/>
+      <c r="BQ33" s="46"/>
+      <c r="BR33" s="46"/>
+      <c r="BS33" s="46"/>
+      <c r="BT33" s="46"/>
+      <c r="BU33" s="46"/>
+      <c r="BV33" s="46"/>
+      <c r="BW33" s="46"/>
+      <c r="BX33" s="46"/>
+      <c r="BY33" s="46"/>
+      <c r="BZ33" s="46"/>
+      <c r="CA33" s="46"/>
+      <c r="CB33" s="46"/>
+      <c r="CC33" s="46"/>
+      <c r="CD33" s="46"/>
+      <c r="CE33" s="46"/>
+      <c r="CF33" s="46"/>
+      <c r="CG33" s="46"/>
+      <c r="CH33" s="46"/>
+      <c r="CI33" s="46"/>
+      <c r="CJ33" s="46"/>
+      <c r="CK33" s="46"/>
+      <c r="CL33" s="46"/>
+      <c r="CM33" s="46"/>
+      <c r="CN33" s="46"/>
+      <c r="CO33" s="46"/>
+      <c r="CP33" s="46"/>
+      <c r="CQ33" s="46"/>
+      <c r="CR33" s="46"/>
+      <c r="CS33" s="46"/>
+      <c r="CT33" s="46"/>
+      <c r="CU33" s="46"/>
+      <c r="CV33" s="46"/>
+      <c r="CW33" s="46"/>
+      <c r="CX33" s="46"/>
+      <c r="CY33" s="46"/>
+      <c r="CZ33" s="46"/>
+      <c r="DA33" s="46"/>
+      <c r="DB33" s="46"/>
+      <c r="DC33" s="46"/>
+      <c r="DD33" s="46"/>
+      <c r="DE33" s="46"/>
+      <c r="DF33" s="46"/>
+      <c r="DG33" s="46"/>
+      <c r="DH33" s="46"/>
+      <c r="DI33" s="46"/>
+      <c r="DJ33" s="46"/>
+      <c r="DK33" s="46"/>
+      <c r="DL33" s="46"/>
+      <c r="DM33" s="46"/>
+      <c r="DN33" s="46"/>
+      <c r="DO33" s="46"/>
+      <c r="DP33" s="46"/>
+      <c r="DQ33" s="46"/>
+      <c r="DR33" s="46"/>
+      <c r="DS33" s="46"/>
+      <c r="DT33" s="46"/>
+      <c r="DU33" s="46"/>
+      <c r="DV33" s="46"/>
+      <c r="DW33" s="46"/>
+      <c r="DX33" s="46"/>
+      <c r="DY33" s="46"/>
+      <c r="DZ33" s="46"/>
+      <c r="EA33" s="46"/>
+      <c r="EB33" s="46"/>
+      <c r="EC33" s="46"/>
+      <c r="ED33" s="46"/>
+      <c r="EE33" s="46"/>
+      <c r="EF33" s="46"/>
+      <c r="EG33" s="46"/>
+      <c r="EH33" s="46"/>
+      <c r="EI33" s="46"/>
+      <c r="EJ33" s="46"/>
+      <c r="EK33" s="46"/>
+      <c r="EL33" s="46"/>
+      <c r="EM33" s="46"/>
+      <c r="EN33" s="46"/>
+      <c r="EO33" s="46"/>
+      <c r="EP33" s="46"/>
+      <c r="EQ33" s="46"/>
+      <c r="ER33" s="46"/>
+      <c r="ES33" s="46"/>
+      <c r="ET33" s="46"/>
+      <c r="EU33" s="46"/>
+      <c r="EV33" s="46"/>
+      <c r="EW33" s="46"/>
+      <c r="EX33" s="46"/>
+      <c r="EY33" s="46"/>
+      <c r="EZ33" s="46"/>
+      <c r="FA33" s="46"/>
+      <c r="FB33" s="46"/>
+      <c r="FC33" s="46"/>
+      <c r="FD33" s="46"/>
+      <c r="FE33" s="46"/>
+      <c r="FF33" s="46"/>
+      <c r="FG33" s="46"/>
+      <c r="FH33" s="46"/>
+      <c r="FI33" s="46"/>
+      <c r="FJ33" s="46"/>
+      <c r="FK33" s="46"/>
+      <c r="FL33" s="46"/>
+      <c r="FM33" s="46"/>
+      <c r="FN33" s="46"/>
+      <c r="FO33" s="46"/>
+      <c r="FP33" s="46"/>
+      <c r="FQ33" s="46"/>
+      <c r="FR33" s="46"/>
+      <c r="FS33" s="46"/>
+      <c r="FT33" s="46"/>
+      <c r="FU33" s="46"/>
+      <c r="FV33" s="46"/>
+      <c r="FW33" s="46"/>
+      <c r="FX33" s="46"/>
+      <c r="FY33" s="46"/>
+      <c r="FZ33" s="46"/>
+      <c r="GA33" s="46"/>
+      <c r="GB33" s="46"/>
+      <c r="GC33" s="46"/>
+      <c r="GD33" s="46"/>
+      <c r="GE33" s="46"/>
+      <c r="GF33" s="46"/>
+      <c r="GG33" s="46"/>
+      <c r="GH33" s="46"/>
+      <c r="GI33" s="46"/>
+      <c r="GJ33" s="46"/>
+      <c r="GK33" s="46"/>
+      <c r="GL33" s="46"/>
+      <c r="GM33" s="46"/>
+      <c r="GN33" s="46"/>
+      <c r="GO33" s="46"/>
+      <c r="GP33" s="46"/>
+      <c r="GQ33" s="46"/>
+      <c r="GR33" s="46"/>
+      <c r="GS33" s="46"/>
+      <c r="GT33" s="46"/>
+      <c r="GU33" s="46"/>
+      <c r="GV33" s="46"/>
+      <c r="GW33" s="46"/>
+      <c r="GX33" s="46"/>
+      <c r="GY33" s="46"/>
+      <c r="GZ33" s="46"/>
+      <c r="HA33" s="46"/>
+      <c r="HB33" s="46"/>
+      <c r="HC33" s="46"/>
+      <c r="HD33" s="46"/>
+      <c r="HE33" s="46"/>
+      <c r="HF33" s="46"/>
+      <c r="HG33" s="46"/>
+      <c r="HH33" s="46"/>
+      <c r="HI33" s="46"/>
+      <c r="HJ33" s="46"/>
+      <c r="HK33" s="46"/>
+      <c r="HL33" s="46"/>
+      <c r="HM33" s="46"/>
+      <c r="HN33" s="46"/>
+      <c r="HO33" s="46"/>
+      <c r="HP33" s="46"/>
+      <c r="HQ33" s="46"/>
+      <c r="HR33" s="46"/>
+      <c r="HS33" s="46"/>
+      <c r="HT33" s="46"/>
+      <c r="HU33" s="46"/>
+      <c r="HV33" s="46"/>
+      <c r="HW33" s="46"/>
+      <c r="HX33" s="46"/>
+      <c r="HY33" s="46"/>
+      <c r="HZ33" s="46"/>
+      <c r="IA33" s="46"/>
+      <c r="IB33" s="46"/>
+      <c r="IC33" s="46"/>
+      <c r="ID33" s="46"/>
+      <c r="IE33" s="46"/>
+      <c r="IF33" s="46"/>
+      <c r="IG33" s="46"/>
+      <c r="IH33" s="46"/>
+      <c r="II33" s="46"/>
+      <c r="IJ33" s="46"/>
+      <c r="IK33" s="46"/>
+      <c r="IL33" s="46"/>
+      <c r="IM33" s="46"/>
+      <c r="IN33" s="46"/>
+      <c r="IO33" s="46"/>
+      <c r="IP33" s="46"/>
+      <c r="IQ33" s="46"/>
+      <c r="IR33" s="46"/>
+      <c r="IS33" s="46"/>
+      <c r="IT33" s="46"/>
+      <c r="IU33" s="46"/>
+      <c r="IV33" s="46"/>
+      <c r="IW33" s="46"/>
+      <c r="IX33" s="46"/>
     </row>
     <row r="34" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="60"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="45"/>
-      <c r="G34" s="25"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
     </row>
     <row r="35" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="60"/>
@@ -9849,305 +10124,304 @@
       <c r="E35" s="26"/>
       <c r="F35" s="45"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="45"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
     </row>
-    <row r="37" spans="1:258" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="46"/>
-      <c r="AE37" s="46"/>
-      <c r="AF37" s="46"/>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="46"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="46"/>
-      <c r="AL37" s="46"/>
-      <c r="AM37" s="46"/>
-      <c r="AN37" s="46"/>
-      <c r="AO37" s="46"/>
-      <c r="AP37" s="46"/>
-      <c r="AQ37" s="46"/>
-      <c r="AR37" s="46"/>
-      <c r="AS37" s="46"/>
-      <c r="AT37" s="46"/>
-      <c r="AU37" s="46"/>
-      <c r="AV37" s="46"/>
-      <c r="AW37" s="46"/>
-      <c r="AX37" s="46"/>
-      <c r="AY37" s="46"/>
-      <c r="AZ37" s="46"/>
-      <c r="BA37" s="46"/>
-      <c r="BB37" s="46"/>
-      <c r="BC37" s="46"/>
-      <c r="BD37" s="46"/>
-      <c r="BE37" s="46"/>
-      <c r="BF37" s="46"/>
-      <c r="BG37" s="46"/>
-      <c r="BH37" s="46"/>
-      <c r="BI37" s="46"/>
-      <c r="BJ37" s="46"/>
-      <c r="BK37" s="46"/>
-      <c r="BL37" s="46"/>
-      <c r="BM37" s="46"/>
-      <c r="BN37" s="46"/>
-      <c r="BO37" s="46"/>
-      <c r="BP37" s="46"/>
-      <c r="BQ37" s="46"/>
-      <c r="BR37" s="46"/>
-      <c r="BS37" s="46"/>
-      <c r="BT37" s="46"/>
-      <c r="BU37" s="46"/>
-      <c r="BV37" s="46"/>
-      <c r="BW37" s="46"/>
-      <c r="BX37" s="46"/>
-      <c r="BY37" s="46"/>
-      <c r="BZ37" s="46"/>
-      <c r="CA37" s="46"/>
-      <c r="CB37" s="46"/>
-      <c r="CC37" s="46"/>
-      <c r="CD37" s="46"/>
-      <c r="CE37" s="46"/>
-      <c r="CF37" s="46"/>
-      <c r="CG37" s="46"/>
-      <c r="CH37" s="46"/>
-      <c r="CI37" s="46"/>
-      <c r="CJ37" s="46"/>
-      <c r="CK37" s="46"/>
-      <c r="CL37" s="46"/>
-      <c r="CM37" s="46"/>
-      <c r="CN37" s="46"/>
-      <c r="CO37" s="46"/>
-      <c r="CP37" s="46"/>
-      <c r="CQ37" s="46"/>
-      <c r="CR37" s="46"/>
-      <c r="CS37" s="46"/>
-      <c r="CT37" s="46"/>
-      <c r="CU37" s="46"/>
-      <c r="CV37" s="46"/>
-      <c r="CW37" s="46"/>
-      <c r="CX37" s="46"/>
-      <c r="CY37" s="46"/>
-      <c r="CZ37" s="46"/>
-      <c r="DA37" s="46"/>
-      <c r="DB37" s="46"/>
-      <c r="DC37" s="46"/>
-      <c r="DD37" s="46"/>
-      <c r="DE37" s="46"/>
-      <c r="DF37" s="46"/>
-      <c r="DG37" s="46"/>
-      <c r="DH37" s="46"/>
-      <c r="DI37" s="46"/>
-      <c r="DJ37" s="46"/>
-      <c r="DK37" s="46"/>
-      <c r="DL37" s="46"/>
-      <c r="DM37" s="46"/>
-      <c r="DN37" s="46"/>
-      <c r="DO37" s="46"/>
-      <c r="DP37" s="46"/>
-      <c r="DQ37" s="46"/>
-      <c r="DR37" s="46"/>
-      <c r="DS37" s="46"/>
-      <c r="DT37" s="46"/>
-      <c r="DU37" s="46"/>
-      <c r="DV37" s="46"/>
-      <c r="DW37" s="46"/>
-      <c r="DX37" s="46"/>
-      <c r="DY37" s="46"/>
-      <c r="DZ37" s="46"/>
-      <c r="EA37" s="46"/>
-      <c r="EB37" s="46"/>
-      <c r="EC37" s="46"/>
-      <c r="ED37" s="46"/>
-      <c r="EE37" s="46"/>
-      <c r="EF37" s="46"/>
-      <c r="EG37" s="46"/>
-      <c r="EH37" s="46"/>
-      <c r="EI37" s="46"/>
-      <c r="EJ37" s="46"/>
-      <c r="EK37" s="46"/>
-      <c r="EL37" s="46"/>
-      <c r="EM37" s="46"/>
-      <c r="EN37" s="46"/>
-      <c r="EO37" s="46"/>
-      <c r="EP37" s="46"/>
-      <c r="EQ37" s="46"/>
-      <c r="ER37" s="46"/>
-      <c r="ES37" s="46"/>
-      <c r="ET37" s="46"/>
-      <c r="EU37" s="46"/>
-      <c r="EV37" s="46"/>
-      <c r="EW37" s="46"/>
-      <c r="EX37" s="46"/>
-      <c r="EY37" s="46"/>
-      <c r="EZ37" s="46"/>
-      <c r="FA37" s="46"/>
-      <c r="FB37" s="46"/>
-      <c r="FC37" s="46"/>
-      <c r="FD37" s="46"/>
-      <c r="FE37" s="46"/>
-      <c r="FF37" s="46"/>
-      <c r="FG37" s="46"/>
-      <c r="FH37" s="46"/>
-      <c r="FI37" s="46"/>
-      <c r="FJ37" s="46"/>
-      <c r="FK37" s="46"/>
-      <c r="FL37" s="46"/>
-      <c r="FM37" s="46"/>
-      <c r="FN37" s="46"/>
-      <c r="FO37" s="46"/>
-      <c r="FP37" s="46"/>
-      <c r="FQ37" s="46"/>
-      <c r="FR37" s="46"/>
-      <c r="FS37" s="46"/>
-      <c r="FT37" s="46"/>
-      <c r="FU37" s="46"/>
-      <c r="FV37" s="46"/>
-      <c r="FW37" s="46"/>
-      <c r="FX37" s="46"/>
-      <c r="FY37" s="46"/>
-      <c r="FZ37" s="46"/>
-      <c r="GA37" s="46"/>
-      <c r="GB37" s="46"/>
-      <c r="GC37" s="46"/>
-      <c r="GD37" s="46"/>
-      <c r="GE37" s="46"/>
-      <c r="GF37" s="46"/>
-      <c r="GG37" s="46"/>
-      <c r="GH37" s="46"/>
-      <c r="GI37" s="46"/>
-      <c r="GJ37" s="46"/>
-      <c r="GK37" s="46"/>
-      <c r="GL37" s="46"/>
-      <c r="GM37" s="46"/>
-      <c r="GN37" s="46"/>
-      <c r="GO37" s="46"/>
-      <c r="GP37" s="46"/>
-      <c r="GQ37" s="46"/>
-      <c r="GR37" s="46"/>
-      <c r="GS37" s="46"/>
-      <c r="GT37" s="46"/>
-      <c r="GU37" s="46"/>
-      <c r="GV37" s="46"/>
-      <c r="GW37" s="46"/>
-      <c r="GX37" s="46"/>
-      <c r="GY37" s="46"/>
-      <c r="GZ37" s="46"/>
-      <c r="HA37" s="46"/>
-      <c r="HB37" s="46"/>
-      <c r="HC37" s="46"/>
-      <c r="HD37" s="46"/>
-      <c r="HE37" s="46"/>
-      <c r="HF37" s="46"/>
-      <c r="HG37" s="46"/>
-      <c r="HH37" s="46"/>
-      <c r="HI37" s="46"/>
-      <c r="HJ37" s="46"/>
-      <c r="HK37" s="46"/>
-      <c r="HL37" s="46"/>
-      <c r="HM37" s="46"/>
-      <c r="HN37" s="46"/>
-      <c r="HO37" s="46"/>
-      <c r="HP37" s="46"/>
-      <c r="HQ37" s="46"/>
-      <c r="HR37" s="46"/>
-      <c r="HS37" s="46"/>
-      <c r="HT37" s="46"/>
-      <c r="HU37" s="46"/>
-      <c r="HV37" s="46"/>
-      <c r="HW37" s="46"/>
-      <c r="HX37" s="46"/>
-      <c r="HY37" s="46"/>
-      <c r="HZ37" s="46"/>
-      <c r="IA37" s="46"/>
-      <c r="IB37" s="46"/>
-      <c r="IC37" s="46"/>
-      <c r="ID37" s="46"/>
-      <c r="IE37" s="46"/>
-      <c r="IF37" s="46"/>
-      <c r="IG37" s="46"/>
-      <c r="IH37" s="46"/>
-      <c r="II37" s="46"/>
-      <c r="IJ37" s="46"/>
-      <c r="IK37" s="46"/>
-      <c r="IL37" s="46"/>
-      <c r="IM37" s="46"/>
-      <c r="IN37" s="46"/>
-      <c r="IO37" s="46"/>
-      <c r="IP37" s="46"/>
-      <c r="IQ37" s="46"/>
-      <c r="IR37" s="46"/>
-      <c r="IS37" s="46"/>
-      <c r="IT37" s="46"/>
-      <c r="IU37" s="46"/>
-      <c r="IV37" s="46"/>
-      <c r="IW37" s="46"/>
-      <c r="IX37" s="46"/>
+    <row r="37" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="61"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
     </row>
-    <row r="38" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="59"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
+    <row r="38" spans="1:258" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="49"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="46"/>
+      <c r="AD38" s="46"/>
+      <c r="AE38" s="46"/>
+      <c r="AF38" s="46"/>
+      <c r="AG38" s="46"/>
+      <c r="AH38" s="46"/>
+      <c r="AI38" s="46"/>
+      <c r="AJ38" s="46"/>
+      <c r="AK38" s="46"/>
+      <c r="AL38" s="46"/>
+      <c r="AM38" s="46"/>
+      <c r="AN38" s="46"/>
+      <c r="AO38" s="46"/>
+      <c r="AP38" s="46"/>
+      <c r="AQ38" s="46"/>
+      <c r="AR38" s="46"/>
+      <c r="AS38" s="46"/>
+      <c r="AT38" s="46"/>
+      <c r="AU38" s="46"/>
+      <c r="AV38" s="46"/>
+      <c r="AW38" s="46"/>
+      <c r="AX38" s="46"/>
+      <c r="AY38" s="46"/>
+      <c r="AZ38" s="46"/>
+      <c r="BA38" s="46"/>
+      <c r="BB38" s="46"/>
+      <c r="BC38" s="46"/>
+      <c r="BD38" s="46"/>
+      <c r="BE38" s="46"/>
+      <c r="BF38" s="46"/>
+      <c r="BG38" s="46"/>
+      <c r="BH38" s="46"/>
+      <c r="BI38" s="46"/>
+      <c r="BJ38" s="46"/>
+      <c r="BK38" s="46"/>
+      <c r="BL38" s="46"/>
+      <c r="BM38" s="46"/>
+      <c r="BN38" s="46"/>
+      <c r="BO38" s="46"/>
+      <c r="BP38" s="46"/>
+      <c r="BQ38" s="46"/>
+      <c r="BR38" s="46"/>
+      <c r="BS38" s="46"/>
+      <c r="BT38" s="46"/>
+      <c r="BU38" s="46"/>
+      <c r="BV38" s="46"/>
+      <c r="BW38" s="46"/>
+      <c r="BX38" s="46"/>
+      <c r="BY38" s="46"/>
+      <c r="BZ38" s="46"/>
+      <c r="CA38" s="46"/>
+      <c r="CB38" s="46"/>
+      <c r="CC38" s="46"/>
+      <c r="CD38" s="46"/>
+      <c r="CE38" s="46"/>
+      <c r="CF38" s="46"/>
+      <c r="CG38" s="46"/>
+      <c r="CH38" s="46"/>
+      <c r="CI38" s="46"/>
+      <c r="CJ38" s="46"/>
+      <c r="CK38" s="46"/>
+      <c r="CL38" s="46"/>
+      <c r="CM38" s="46"/>
+      <c r="CN38" s="46"/>
+      <c r="CO38" s="46"/>
+      <c r="CP38" s="46"/>
+      <c r="CQ38" s="46"/>
+      <c r="CR38" s="46"/>
+      <c r="CS38" s="46"/>
+      <c r="CT38" s="46"/>
+      <c r="CU38" s="46"/>
+      <c r="CV38" s="46"/>
+      <c r="CW38" s="46"/>
+      <c r="CX38" s="46"/>
+      <c r="CY38" s="46"/>
+      <c r="CZ38" s="46"/>
+      <c r="DA38" s="46"/>
+      <c r="DB38" s="46"/>
+      <c r="DC38" s="46"/>
+      <c r="DD38" s="46"/>
+      <c r="DE38" s="46"/>
+      <c r="DF38" s="46"/>
+      <c r="DG38" s="46"/>
+      <c r="DH38" s="46"/>
+      <c r="DI38" s="46"/>
+      <c r="DJ38" s="46"/>
+      <c r="DK38" s="46"/>
+      <c r="DL38" s="46"/>
+      <c r="DM38" s="46"/>
+      <c r="DN38" s="46"/>
+      <c r="DO38" s="46"/>
+      <c r="DP38" s="46"/>
+      <c r="DQ38" s="46"/>
+      <c r="DR38" s="46"/>
+      <c r="DS38" s="46"/>
+      <c r="DT38" s="46"/>
+      <c r="DU38" s="46"/>
+      <c r="DV38" s="46"/>
+      <c r="DW38" s="46"/>
+      <c r="DX38" s="46"/>
+      <c r="DY38" s="46"/>
+      <c r="DZ38" s="46"/>
+      <c r="EA38" s="46"/>
+      <c r="EB38" s="46"/>
+      <c r="EC38" s="46"/>
+      <c r="ED38" s="46"/>
+      <c r="EE38" s="46"/>
+      <c r="EF38" s="46"/>
+      <c r="EG38" s="46"/>
+      <c r="EH38" s="46"/>
+      <c r="EI38" s="46"/>
+      <c r="EJ38" s="46"/>
+      <c r="EK38" s="46"/>
+      <c r="EL38" s="46"/>
+      <c r="EM38" s="46"/>
+      <c r="EN38" s="46"/>
+      <c r="EO38" s="46"/>
+      <c r="EP38" s="46"/>
+      <c r="EQ38" s="46"/>
+      <c r="ER38" s="46"/>
+      <c r="ES38" s="46"/>
+      <c r="ET38" s="46"/>
+      <c r="EU38" s="46"/>
+      <c r="EV38" s="46"/>
+      <c r="EW38" s="46"/>
+      <c r="EX38" s="46"/>
+      <c r="EY38" s="46"/>
+      <c r="EZ38" s="46"/>
+      <c r="FA38" s="46"/>
+      <c r="FB38" s="46"/>
+      <c r="FC38" s="46"/>
+      <c r="FD38" s="46"/>
+      <c r="FE38" s="46"/>
+      <c r="FF38" s="46"/>
+      <c r="FG38" s="46"/>
+      <c r="FH38" s="46"/>
+      <c r="FI38" s="46"/>
+      <c r="FJ38" s="46"/>
+      <c r="FK38" s="46"/>
+      <c r="FL38" s="46"/>
+      <c r="FM38" s="46"/>
+      <c r="FN38" s="46"/>
+      <c r="FO38" s="46"/>
+      <c r="FP38" s="46"/>
+      <c r="FQ38" s="46"/>
+      <c r="FR38" s="46"/>
+      <c r="FS38" s="46"/>
+      <c r="FT38" s="46"/>
+      <c r="FU38" s="46"/>
+      <c r="FV38" s="46"/>
+      <c r="FW38" s="46"/>
+      <c r="FX38" s="46"/>
+      <c r="FY38" s="46"/>
+      <c r="FZ38" s="46"/>
+      <c r="GA38" s="46"/>
+      <c r="GB38" s="46"/>
+      <c r="GC38" s="46"/>
+      <c r="GD38" s="46"/>
+      <c r="GE38" s="46"/>
+      <c r="GF38" s="46"/>
+      <c r="GG38" s="46"/>
+      <c r="GH38" s="46"/>
+      <c r="GI38" s="46"/>
+      <c r="GJ38" s="46"/>
+      <c r="GK38" s="46"/>
+      <c r="GL38" s="46"/>
+      <c r="GM38" s="46"/>
+      <c r="GN38" s="46"/>
+      <c r="GO38" s="46"/>
+      <c r="GP38" s="46"/>
+      <c r="GQ38" s="46"/>
+      <c r="GR38" s="46"/>
+      <c r="GS38" s="46"/>
+      <c r="GT38" s="46"/>
+      <c r="GU38" s="46"/>
+      <c r="GV38" s="46"/>
+      <c r="GW38" s="46"/>
+      <c r="GX38" s="46"/>
+      <c r="GY38" s="46"/>
+      <c r="GZ38" s="46"/>
+      <c r="HA38" s="46"/>
+      <c r="HB38" s="46"/>
+      <c r="HC38" s="46"/>
+      <c r="HD38" s="46"/>
+      <c r="HE38" s="46"/>
+      <c r="HF38" s="46"/>
+      <c r="HG38" s="46"/>
+      <c r="HH38" s="46"/>
+      <c r="HI38" s="46"/>
+      <c r="HJ38" s="46"/>
+      <c r="HK38" s="46"/>
+      <c r="HL38" s="46"/>
+      <c r="HM38" s="46"/>
+      <c r="HN38" s="46"/>
+      <c r="HO38" s="46"/>
+      <c r="HP38" s="46"/>
+      <c r="HQ38" s="46"/>
+      <c r="HR38" s="46"/>
+      <c r="HS38" s="46"/>
+      <c r="HT38" s="46"/>
+      <c r="HU38" s="46"/>
+      <c r="HV38" s="46"/>
+      <c r="HW38" s="46"/>
+      <c r="HX38" s="46"/>
+      <c r="HY38" s="46"/>
+      <c r="HZ38" s="46"/>
+      <c r="IA38" s="46"/>
+      <c r="IB38" s="46"/>
+      <c r="IC38" s="46"/>
+      <c r="ID38" s="46"/>
+      <c r="IE38" s="46"/>
+      <c r="IF38" s="46"/>
+      <c r="IG38" s="46"/>
+      <c r="IH38" s="46"/>
+      <c r="II38" s="46"/>
+      <c r="IJ38" s="46"/>
+      <c r="IK38" s="46"/>
+      <c r="IL38" s="46"/>
+      <c r="IM38" s="46"/>
+      <c r="IN38" s="46"/>
+      <c r="IO38" s="46"/>
+      <c r="IP38" s="46"/>
+      <c r="IQ38" s="46"/>
+      <c r="IR38" s="46"/>
+      <c r="IS38" s="46"/>
+      <c r="IT38" s="46"/>
+      <c r="IU38" s="46"/>
+      <c r="IV38" s="46"/>
+      <c r="IW38" s="46"/>
+      <c r="IX38" s="46"/>
     </row>
     <row r="39" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
     </row>
     <row r="40" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
@@ -10169,7 +10443,7 @@
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="11"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
     </row>
@@ -10180,25 +10454,25 @@
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
-      <c r="G43" s="25"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="25"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
@@ -10210,20 +10484,20 @@
       <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="60"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="9"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="11"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="60"/>
-      <c r="B46" s="63"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="9"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
@@ -10235,37 +10509,37 @@
     </row>
     <row r="47" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="60"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
+      <c r="H47" s="11"/>
       <c r="I47" s="26"/>
       <c r="J47" s="26"/>
     </row>
     <row r="48" spans="1:258" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="61"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
+      <c r="H48" s="26"/>
       <c r="I48" s="26"/>
       <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="26"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="26"/>
       <c r="J49" s="26"/>
     </row>
@@ -10305,16 +10579,28 @@
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
     </row>
+    <row r="53" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="24"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A6:A16"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -966,23 +966,6 @@
   </si>
   <si>
     <t>{
- "id": 1,
- "realName": "",
- "code": "",
- "departmentId": 1,
- "departmentName" : "",
- "email": "",
- "phone": "",
- "tel": "",
- "userName": "",
- "languageId": 2,
- "language": "",
- "key": "",
- "remark": ""
-}</t>
-  </si>
-  <si>
-    <t>{
  "id": -1,
  "name": "",
  "parentId": 1,
@@ -997,7 +980,30 @@
     <t>/departments/:deaprtmentId</t>
   </si>
   <si>
+    <t>Get department by id</t>
+  </si>
+  <si>
     <t>{
+ "user": {
+ "id": 1,
+ "realName": "",
+ "code": "",
+ "departmentId": 1,
+ "departmentName" : "",
+ "email": "",
+ "phone": "",
+ "tel": "",
+ "userName": "",
+ "languageId": 2,
+ "language": "",
+ "key": "",
+ "remark": ""
+}
+}</t>
+  </si>
+  <si>
+    <t>{
+ "department": {
  "id": 1,
  "name": "",
  "parentId": 1,
@@ -1006,10 +1012,8 @@
  "order": 32,
  "active": 1,
  "remark": ""
+ }
 }</t>
-  </si>
-  <si>
-    <t>Get department by id</t>
   </si>
 </sst>
 </file>
@@ -1801,8 +1805,8 @@
   <dimension ref="A1:IX53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3741,7 +3745,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>114</v>
@@ -4002,10 +4006,10 @@
     <row r="10" spans="1:258" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>25</v>
@@ -4014,7 +4018,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="11"/>
@@ -4824,7 +4828,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -153,6 +153,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"status":"succeed",
 "token":"",
 "user":{
@@ -316,8 +322,7 @@
  "name": "",
  "parentId": 1,
  "code": "",
- "key": "",
- "sort": 32,
+ "order": 32,
  "active": true,
  "remark": ""
 }</t>
@@ -1019,13 +1024,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1047,56 +1045,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1116,8 +1068,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,8 +1113,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,7 +1138,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,12 +1188,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1196,6 +1195,156 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,120 +1362,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1334,36 +1369,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,28 +1481,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1517,17 +1517,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1570,153 +1564,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2348,9 +2353,9 @@
   <dimension ref="A1:IX48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.2" defaultRowHeight="15.75"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -322,7 +322,6 @@
  "name": "",
  "parentId": 1,
  "code": "",
- "order": 32,
  "active": true,
  "remark": ""
 }</t>
@@ -2355,7 +2354,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.2" defaultRowHeight="15.75"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -236,7 +236,48 @@
   }</t>
   </si>
   <si>
-    <t>complete</t>
+    <r>
+      <t>此处被改为返回数据方式，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为顶层机构不止一个。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+[{
+   "id": 1,
+   "text": "",
+   "nodes": [
+    {
+     "id": 1,
+     "text": "",
+     "nodes": []
+    }
+   ]
+  }]
+complete</t>
+    </r>
   </si>
   <si>
     <t>Get sub departments</t>
@@ -430,7 +471,53 @@
   </si>
   <si>
     <r>
-      <t>{
+      <t>此处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sort </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被修改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>order, key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被去除。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+{
  "id":5,
  "name": "111</t>
     </r>
@@ -1213,14 +1300,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1376,13 +1463,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2221,16 +2308,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2664,7 +2751,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.2" defaultRowHeight="15.75"/>
@@ -3809,7 +3896,7 @@
       <c r="I6" s="26"/>
       <c r="J6" s="76"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="74" t="s">
+      <c r="L6" s="77" t="s">
         <v>28</v>
       </c>
       <c r="M6" s="58"/>
@@ -4345,8 +4432,8 @@
         <v>34</v>
       </c>
       <c r="I8" s="35"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78" t="s">
+      <c r="J8" s="78"/>
+      <c r="K8" s="79" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="74"/>
@@ -4619,9 +4706,9 @@
       <c r="I9" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="79"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="66"/>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="77" t="s">
         <v>39</v>
       </c>
       <c r="M9" s="81"/>
@@ -8057,7 +8144,7 @@
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
-      <c r="J22" s="77"/>
+      <c r="J22" s="78"/>
       <c r="K22" s="21"/>
       <c r="L22" s="74"/>
       <c r="M22" s="58"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -2751,7 +2751,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.2" defaultRowHeight="15.75"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
   <si>
     <t>Module</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>此处被改为返回数据方式，</t>
     </r>
     <r>
@@ -336,6 +342,9 @@
     </r>
   </si>
   <si>
+    <t>complete</t>
+  </si>
+  <si>
     <t>Get all department users</t>
   </si>
   <si>
@@ -365,6 +374,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
  "id": -1,
  "name": "</t>
@@ -471,6 +486,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>此处</t>
     </r>
     <r>
@@ -1250,12 +1271,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1306,15 +1327,37 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1333,14 +1376,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1348,7 +1391,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1363,18 +1406,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1392,27 +1443,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1431,25 +1466,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1495,19 +1522,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,43 +1600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,13 +1624,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,37 +1660,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,37 +1702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1831,9 +1858,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1877,15 +1930,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1901,28 +1945,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1931,152 +1958,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2287,19 +2314,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2311,10 +2329,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2751,7 +2772,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.2" defaultRowHeight="15.75"/>
@@ -2806,7 +2827,7 @@
       <c r="K1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="70" t="s">
+      <c r="L1" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2826,11 +2847,11 @@
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="70" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="15"/>
-      <c r="L2" s="72"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="57"/>
       <c r="N2" s="57"/>
       <c r="O2" s="57"/>
@@ -3089,8 +3110,8 @@
       <c r="H3" s="18"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="58"/>
       <c r="N3" s="58"/>
       <c r="O3" s="58"/>
@@ -3362,11 +3383,11 @@
       <c r="I4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="75"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="74"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="58"/>
       <c r="N4" s="58"/>
       <c r="O4" s="58"/>
@@ -3894,9 +3915,9 @@
         <v>27</v>
       </c>
       <c r="I6" s="26"/>
-      <c r="J6" s="76"/>
+      <c r="J6" s="73"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="77" t="s">
+      <c r="L6" s="74" t="s">
         <v>28</v>
       </c>
       <c r="M6" s="58"/>
@@ -4164,9 +4185,11 @@
         <v>31</v>
       </c>
       <c r="I7" s="20"/>
-      <c r="J7" s="75"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="74"/>
+      <c r="L7" s="75" t="s">
+        <v>32</v>
+      </c>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
@@ -4417,10 +4440,10 @@
     <row r="8" s="2" customFormat="1" ht="99.95" customHeight="1" spans="1:258">
       <c r="A8" s="64"/>
       <c r="B8" s="35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>26</v>
@@ -4429,14 +4452,14 @@
       <c r="F8" s="36"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="35"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="74"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="21"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
@@ -4687,7 +4710,7 @@
     <row r="9" s="61" customFormat="1" ht="138" customHeight="1" spans="1:258">
       <c r="A9" s="64"/>
       <c r="B9" s="65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="65" t="s">
         <v>25</v>
@@ -4698,289 +4721,289 @@
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
       <c r="G9" s="65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="80"/>
+      <c r="J9" s="78"/>
       <c r="K9" s="66"/>
-      <c r="L9" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="81"/>
-      <c r="AE9" s="81"/>
-      <c r="AF9" s="81"/>
-      <c r="AG9" s="81"/>
-      <c r="AH9" s="81"/>
-      <c r="AI9" s="81"/>
-      <c r="AJ9" s="81"/>
-      <c r="AK9" s="81"/>
-      <c r="AL9" s="81"/>
-      <c r="AM9" s="81"/>
-      <c r="AN9" s="81"/>
-      <c r="AO9" s="81"/>
-      <c r="AP9" s="81"/>
-      <c r="AQ9" s="81"/>
-      <c r="AR9" s="81"/>
-      <c r="AS9" s="81"/>
-      <c r="AT9" s="81"/>
-      <c r="AU9" s="81"/>
-      <c r="AV9" s="81"/>
-      <c r="AW9" s="81"/>
-      <c r="AX9" s="81"/>
-      <c r="AY9" s="81"/>
-      <c r="AZ9" s="81"/>
-      <c r="BA9" s="81"/>
-      <c r="BB9" s="81"/>
-      <c r="BC9" s="81"/>
-      <c r="BD9" s="81"/>
-      <c r="BE9" s="81"/>
-      <c r="BF9" s="81"/>
-      <c r="BG9" s="81"/>
-      <c r="BH9" s="81"/>
-      <c r="BI9" s="81"/>
-      <c r="BJ9" s="81"/>
-      <c r="BK9" s="81"/>
-      <c r="BL9" s="81"/>
-      <c r="BM9" s="81"/>
-      <c r="BN9" s="81"/>
-      <c r="BO9" s="81"/>
-      <c r="BP9" s="81"/>
-      <c r="BQ9" s="81"/>
-      <c r="BR9" s="81"/>
-      <c r="BS9" s="81"/>
-      <c r="BT9" s="81"/>
-      <c r="BU9" s="81"/>
-      <c r="BV9" s="81"/>
-      <c r="BW9" s="81"/>
-      <c r="BX9" s="81"/>
-      <c r="BY9" s="81"/>
-      <c r="BZ9" s="81"/>
-      <c r="CA9" s="81"/>
-      <c r="CB9" s="81"/>
-      <c r="CC9" s="81"/>
-      <c r="CD9" s="81"/>
-      <c r="CE9" s="81"/>
-      <c r="CF9" s="81"/>
-      <c r="CG9" s="81"/>
-      <c r="CH9" s="81"/>
-      <c r="CI9" s="81"/>
-      <c r="CJ9" s="81"/>
-      <c r="CK9" s="81"/>
-      <c r="CL9" s="81"/>
-      <c r="CM9" s="81"/>
-      <c r="CN9" s="81"/>
-      <c r="CO9" s="81"/>
-      <c r="CP9" s="81"/>
-      <c r="CQ9" s="81"/>
-      <c r="CR9" s="81"/>
-      <c r="CS9" s="81"/>
-      <c r="CT9" s="81"/>
-      <c r="CU9" s="81"/>
-      <c r="CV9" s="81"/>
-      <c r="CW9" s="81"/>
-      <c r="CX9" s="81"/>
-      <c r="CY9" s="81"/>
-      <c r="CZ9" s="81"/>
-      <c r="DA9" s="81"/>
-      <c r="DB9" s="81"/>
-      <c r="DC9" s="81"/>
-      <c r="DD9" s="81"/>
-      <c r="DE9" s="81"/>
-      <c r="DF9" s="81"/>
-      <c r="DG9" s="81"/>
-      <c r="DH9" s="81"/>
-      <c r="DI9" s="81"/>
-      <c r="DJ9" s="81"/>
-      <c r="DK9" s="81"/>
-      <c r="DL9" s="81"/>
-      <c r="DM9" s="81"/>
-      <c r="DN9" s="81"/>
-      <c r="DO9" s="81"/>
-      <c r="DP9" s="81"/>
-      <c r="DQ9" s="81"/>
-      <c r="DR9" s="81"/>
-      <c r="DS9" s="81"/>
-      <c r="DT9" s="81"/>
-      <c r="DU9" s="81"/>
-      <c r="DV9" s="81"/>
-      <c r="DW9" s="81"/>
-      <c r="DX9" s="81"/>
-      <c r="DY9" s="81"/>
-      <c r="DZ9" s="81"/>
-      <c r="EA9" s="81"/>
-      <c r="EB9" s="81"/>
-      <c r="EC9" s="81"/>
-      <c r="ED9" s="81"/>
-      <c r="EE9" s="81"/>
-      <c r="EF9" s="81"/>
-      <c r="EG9" s="81"/>
-      <c r="EH9" s="81"/>
-      <c r="EI9" s="81"/>
-      <c r="EJ9" s="81"/>
-      <c r="EK9" s="81"/>
-      <c r="EL9" s="81"/>
-      <c r="EM9" s="81"/>
-      <c r="EN9" s="81"/>
-      <c r="EO9" s="81"/>
-      <c r="EP9" s="81"/>
-      <c r="EQ9" s="81"/>
-      <c r="ER9" s="81"/>
-      <c r="ES9" s="81"/>
-      <c r="ET9" s="81"/>
-      <c r="EU9" s="81"/>
-      <c r="EV9" s="81"/>
-      <c r="EW9" s="81"/>
-      <c r="EX9" s="81"/>
-      <c r="EY9" s="81"/>
-      <c r="EZ9" s="81"/>
-      <c r="FA9" s="81"/>
-      <c r="FB9" s="81"/>
-      <c r="FC9" s="81"/>
-      <c r="FD9" s="81"/>
-      <c r="FE9" s="81"/>
-      <c r="FF9" s="81"/>
-      <c r="FG9" s="81"/>
-      <c r="FH9" s="81"/>
-      <c r="FI9" s="81"/>
-      <c r="FJ9" s="81"/>
-      <c r="FK9" s="81"/>
-      <c r="FL9" s="81"/>
-      <c r="FM9" s="81"/>
-      <c r="FN9" s="81"/>
-      <c r="FO9" s="81"/>
-      <c r="FP9" s="81"/>
-      <c r="FQ9" s="81"/>
-      <c r="FR9" s="81"/>
-      <c r="FS9" s="81"/>
-      <c r="FT9" s="81"/>
-      <c r="FU9" s="81"/>
-      <c r="FV9" s="81"/>
-      <c r="FW9" s="81"/>
-      <c r="FX9" s="81"/>
-      <c r="FY9" s="81"/>
-      <c r="FZ9" s="81"/>
-      <c r="GA9" s="81"/>
-      <c r="GB9" s="81"/>
-      <c r="GC9" s="81"/>
-      <c r="GD9" s="81"/>
-      <c r="GE9" s="81"/>
-      <c r="GF9" s="81"/>
-      <c r="GG9" s="81"/>
-      <c r="GH9" s="81"/>
-      <c r="GI9" s="81"/>
-      <c r="GJ9" s="81"/>
-      <c r="GK9" s="81"/>
-      <c r="GL9" s="81"/>
-      <c r="GM9" s="81"/>
-      <c r="GN9" s="81"/>
-      <c r="GO9" s="81"/>
-      <c r="GP9" s="81"/>
-      <c r="GQ9" s="81"/>
-      <c r="GR9" s="81"/>
-      <c r="GS9" s="81"/>
-      <c r="GT9" s="81"/>
-      <c r="GU9" s="81"/>
-      <c r="GV9" s="81"/>
-      <c r="GW9" s="81"/>
-      <c r="GX9" s="81"/>
-      <c r="GY9" s="81"/>
-      <c r="GZ9" s="81"/>
-      <c r="HA9" s="81"/>
-      <c r="HB9" s="81"/>
-      <c r="HC9" s="81"/>
-      <c r="HD9" s="81"/>
-      <c r="HE9" s="81"/>
-      <c r="HF9" s="81"/>
-      <c r="HG9" s="81"/>
-      <c r="HH9" s="81"/>
-      <c r="HI9" s="81"/>
-      <c r="HJ9" s="81"/>
-      <c r="HK9" s="81"/>
-      <c r="HL9" s="81"/>
-      <c r="HM9" s="81"/>
-      <c r="HN9" s="81"/>
-      <c r="HO9" s="81"/>
-      <c r="HP9" s="81"/>
-      <c r="HQ9" s="81"/>
-      <c r="HR9" s="81"/>
-      <c r="HS9" s="81"/>
-      <c r="HT9" s="81"/>
-      <c r="HU9" s="81"/>
-      <c r="HV9" s="81"/>
-      <c r="HW9" s="81"/>
-      <c r="HX9" s="81"/>
-      <c r="HY9" s="81"/>
-      <c r="HZ9" s="81"/>
-      <c r="IA9" s="81"/>
-      <c r="IB9" s="81"/>
-      <c r="IC9" s="81"/>
-      <c r="ID9" s="81"/>
-      <c r="IE9" s="81"/>
-      <c r="IF9" s="81"/>
-      <c r="IG9" s="81"/>
-      <c r="IH9" s="81"/>
-      <c r="II9" s="81"/>
-      <c r="IJ9" s="81"/>
-      <c r="IK9" s="81"/>
-      <c r="IL9" s="81"/>
-      <c r="IM9" s="81"/>
-      <c r="IN9" s="81"/>
-      <c r="IO9" s="81"/>
-      <c r="IP9" s="81"/>
-      <c r="IQ9" s="81"/>
-      <c r="IR9" s="81"/>
-      <c r="IS9" s="81"/>
-      <c r="IT9" s="81"/>
-      <c r="IU9" s="81"/>
-      <c r="IV9" s="81"/>
-      <c r="IW9" s="81"/>
-      <c r="IX9" s="81"/>
+      <c r="L9" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="79"/>
+      <c r="AM9" s="79"/>
+      <c r="AN9" s="79"/>
+      <c r="AO9" s="79"/>
+      <c r="AP9" s="79"/>
+      <c r="AQ9" s="79"/>
+      <c r="AR9" s="79"/>
+      <c r="AS9" s="79"/>
+      <c r="AT9" s="79"/>
+      <c r="AU9" s="79"/>
+      <c r="AV9" s="79"/>
+      <c r="AW9" s="79"/>
+      <c r="AX9" s="79"/>
+      <c r="AY9" s="79"/>
+      <c r="AZ9" s="79"/>
+      <c r="BA9" s="79"/>
+      <c r="BB9" s="79"/>
+      <c r="BC9" s="79"/>
+      <c r="BD9" s="79"/>
+      <c r="BE9" s="79"/>
+      <c r="BF9" s="79"/>
+      <c r="BG9" s="79"/>
+      <c r="BH9" s="79"/>
+      <c r="BI9" s="79"/>
+      <c r="BJ9" s="79"/>
+      <c r="BK9" s="79"/>
+      <c r="BL9" s="79"/>
+      <c r="BM9" s="79"/>
+      <c r="BN9" s="79"/>
+      <c r="BO9" s="79"/>
+      <c r="BP9" s="79"/>
+      <c r="BQ9" s="79"/>
+      <c r="BR9" s="79"/>
+      <c r="BS9" s="79"/>
+      <c r="BT9" s="79"/>
+      <c r="BU9" s="79"/>
+      <c r="BV9" s="79"/>
+      <c r="BW9" s="79"/>
+      <c r="BX9" s="79"/>
+      <c r="BY9" s="79"/>
+      <c r="BZ9" s="79"/>
+      <c r="CA9" s="79"/>
+      <c r="CB9" s="79"/>
+      <c r="CC9" s="79"/>
+      <c r="CD9" s="79"/>
+      <c r="CE9" s="79"/>
+      <c r="CF9" s="79"/>
+      <c r="CG9" s="79"/>
+      <c r="CH9" s="79"/>
+      <c r="CI9" s="79"/>
+      <c r="CJ9" s="79"/>
+      <c r="CK9" s="79"/>
+      <c r="CL9" s="79"/>
+      <c r="CM9" s="79"/>
+      <c r="CN9" s="79"/>
+      <c r="CO9" s="79"/>
+      <c r="CP9" s="79"/>
+      <c r="CQ9" s="79"/>
+      <c r="CR9" s="79"/>
+      <c r="CS9" s="79"/>
+      <c r="CT9" s="79"/>
+      <c r="CU9" s="79"/>
+      <c r="CV9" s="79"/>
+      <c r="CW9" s="79"/>
+      <c r="CX9" s="79"/>
+      <c r="CY9" s="79"/>
+      <c r="CZ9" s="79"/>
+      <c r="DA9" s="79"/>
+      <c r="DB9" s="79"/>
+      <c r="DC9" s="79"/>
+      <c r="DD9" s="79"/>
+      <c r="DE9" s="79"/>
+      <c r="DF9" s="79"/>
+      <c r="DG9" s="79"/>
+      <c r="DH9" s="79"/>
+      <c r="DI9" s="79"/>
+      <c r="DJ9" s="79"/>
+      <c r="DK9" s="79"/>
+      <c r="DL9" s="79"/>
+      <c r="DM9" s="79"/>
+      <c r="DN9" s="79"/>
+      <c r="DO9" s="79"/>
+      <c r="DP9" s="79"/>
+      <c r="DQ9" s="79"/>
+      <c r="DR9" s="79"/>
+      <c r="DS9" s="79"/>
+      <c r="DT9" s="79"/>
+      <c r="DU9" s="79"/>
+      <c r="DV9" s="79"/>
+      <c r="DW9" s="79"/>
+      <c r="DX9" s="79"/>
+      <c r="DY9" s="79"/>
+      <c r="DZ9" s="79"/>
+      <c r="EA9" s="79"/>
+      <c r="EB9" s="79"/>
+      <c r="EC9" s="79"/>
+      <c r="ED9" s="79"/>
+      <c r="EE9" s="79"/>
+      <c r="EF9" s="79"/>
+      <c r="EG9" s="79"/>
+      <c r="EH9" s="79"/>
+      <c r="EI9" s="79"/>
+      <c r="EJ9" s="79"/>
+      <c r="EK9" s="79"/>
+      <c r="EL9" s="79"/>
+      <c r="EM9" s="79"/>
+      <c r="EN9" s="79"/>
+      <c r="EO9" s="79"/>
+      <c r="EP9" s="79"/>
+      <c r="EQ9" s="79"/>
+      <c r="ER9" s="79"/>
+      <c r="ES9" s="79"/>
+      <c r="ET9" s="79"/>
+      <c r="EU9" s="79"/>
+      <c r="EV9" s="79"/>
+      <c r="EW9" s="79"/>
+      <c r="EX9" s="79"/>
+      <c r="EY9" s="79"/>
+      <c r="EZ9" s="79"/>
+      <c r="FA9" s="79"/>
+      <c r="FB9" s="79"/>
+      <c r="FC9" s="79"/>
+      <c r="FD9" s="79"/>
+      <c r="FE9" s="79"/>
+      <c r="FF9" s="79"/>
+      <c r="FG9" s="79"/>
+      <c r="FH9" s="79"/>
+      <c r="FI9" s="79"/>
+      <c r="FJ9" s="79"/>
+      <c r="FK9" s="79"/>
+      <c r="FL9" s="79"/>
+      <c r="FM9" s="79"/>
+      <c r="FN9" s="79"/>
+      <c r="FO9" s="79"/>
+      <c r="FP9" s="79"/>
+      <c r="FQ9" s="79"/>
+      <c r="FR9" s="79"/>
+      <c r="FS9" s="79"/>
+      <c r="FT9" s="79"/>
+      <c r="FU9" s="79"/>
+      <c r="FV9" s="79"/>
+      <c r="FW9" s="79"/>
+      <c r="FX9" s="79"/>
+      <c r="FY9" s="79"/>
+      <c r="FZ9" s="79"/>
+      <c r="GA9" s="79"/>
+      <c r="GB9" s="79"/>
+      <c r="GC9" s="79"/>
+      <c r="GD9" s="79"/>
+      <c r="GE9" s="79"/>
+      <c r="GF9" s="79"/>
+      <c r="GG9" s="79"/>
+      <c r="GH9" s="79"/>
+      <c r="GI9" s="79"/>
+      <c r="GJ9" s="79"/>
+      <c r="GK9" s="79"/>
+      <c r="GL9" s="79"/>
+      <c r="GM9" s="79"/>
+      <c r="GN9" s="79"/>
+      <c r="GO9" s="79"/>
+      <c r="GP9" s="79"/>
+      <c r="GQ9" s="79"/>
+      <c r="GR9" s="79"/>
+      <c r="GS9" s="79"/>
+      <c r="GT9" s="79"/>
+      <c r="GU9" s="79"/>
+      <c r="GV9" s="79"/>
+      <c r="GW9" s="79"/>
+      <c r="GX9" s="79"/>
+      <c r="GY9" s="79"/>
+      <c r="GZ9" s="79"/>
+      <c r="HA9" s="79"/>
+      <c r="HB9" s="79"/>
+      <c r="HC9" s="79"/>
+      <c r="HD9" s="79"/>
+      <c r="HE9" s="79"/>
+      <c r="HF9" s="79"/>
+      <c r="HG9" s="79"/>
+      <c r="HH9" s="79"/>
+      <c r="HI9" s="79"/>
+      <c r="HJ9" s="79"/>
+      <c r="HK9" s="79"/>
+      <c r="HL9" s="79"/>
+      <c r="HM9" s="79"/>
+      <c r="HN9" s="79"/>
+      <c r="HO9" s="79"/>
+      <c r="HP9" s="79"/>
+      <c r="HQ9" s="79"/>
+      <c r="HR9" s="79"/>
+      <c r="HS9" s="79"/>
+      <c r="HT9" s="79"/>
+      <c r="HU9" s="79"/>
+      <c r="HV9" s="79"/>
+      <c r="HW9" s="79"/>
+      <c r="HX9" s="79"/>
+      <c r="HY9" s="79"/>
+      <c r="HZ9" s="79"/>
+      <c r="IA9" s="79"/>
+      <c r="IB9" s="79"/>
+      <c r="IC9" s="79"/>
+      <c r="ID9" s="79"/>
+      <c r="IE9" s="79"/>
+      <c r="IF9" s="79"/>
+      <c r="IG9" s="79"/>
+      <c r="IH9" s="79"/>
+      <c r="II9" s="79"/>
+      <c r="IJ9" s="79"/>
+      <c r="IK9" s="79"/>
+      <c r="IL9" s="79"/>
+      <c r="IM9" s="79"/>
+      <c r="IN9" s="79"/>
+      <c r="IO9" s="79"/>
+      <c r="IP9" s="79"/>
+      <c r="IQ9" s="79"/>
+      <c r="IR9" s="79"/>
+      <c r="IS9" s="79"/>
+      <c r="IT9" s="79"/>
+      <c r="IU9" s="79"/>
+      <c r="IV9" s="79"/>
+      <c r="IW9" s="79"/>
+      <c r="IX9" s="79"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="99.95" customHeight="1" spans="1:258">
       <c r="A10" s="64"/>
       <c r="B10" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" s="20"/>
-      <c r="J10" s="75"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="74"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="58"/>
       <c r="N10" s="58"/>
       <c r="O10" s="58"/>
@@ -5230,13 +5253,13 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="99.95" customHeight="1" spans="1:258">
       <c r="A11" s="63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>18</v>
@@ -5244,17 +5267,17 @@
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="75"/>
+      <c r="J11" s="72"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="74"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="58"/>
       <c r="N11" s="58"/>
       <c r="O11" s="58"/>
@@ -5505,26 +5528,26 @@
     <row r="12" s="2" customFormat="1" ht="99.95" customHeight="1" spans="1:258">
       <c r="A12" s="64"/>
       <c r="B12" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I12" s="20"/>
-      <c r="J12" s="75"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="74"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="58"/>
       <c r="N12" s="58"/>
       <c r="O12" s="58"/>
@@ -5775,10 +5798,10 @@
     <row r="13" s="2" customFormat="1" ht="99.95" customHeight="1" spans="1:258">
       <c r="A13" s="67"/>
       <c r="B13" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>18</v>
@@ -5786,17 +5809,17 @@
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="75"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="21"/>
-      <c r="L13" s="74"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="58"/>
       <c r="N13" s="58"/>
       <c r="O13" s="58"/>
@@ -6306,13 +6329,13 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="99.95" customHeight="1" spans="1:258">
       <c r="A15" s="37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>26</v>
@@ -6321,12 +6344,12 @@
       <c r="F15" s="27"/>
       <c r="G15" s="29"/>
       <c r="H15" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="J15" s="76"/>
+      <c r="J15" s="73"/>
       <c r="K15" s="21"/>
-      <c r="L15" s="74"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
@@ -6584,9 +6607,9 @@
       <c r="G16" s="68"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="75"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="74"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="58"/>
       <c r="N16" s="58"/>
       <c r="O16" s="58"/>
@@ -6844,9 +6867,9 @@
       <c r="G17" s="68"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="75"/>
+      <c r="J17" s="72"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="74"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="58"/>
       <c r="N17" s="58"/>
       <c r="O17" s="58"/>
@@ -7104,9 +7127,9 @@
       <c r="G18" s="68"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="75"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="74"/>
+      <c r="L18" s="21"/>
       <c r="M18" s="58"/>
       <c r="N18" s="58"/>
       <c r="O18" s="58"/>
@@ -7624,9 +7647,9 @@
       <c r="G20" s="34"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="82"/>
+      <c r="J20" s="80"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="74"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
@@ -7884,9 +7907,9 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
-      <c r="J21" s="75"/>
+      <c r="J21" s="72"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="74"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="58"/>
       <c r="N21" s="58"/>
       <c r="O21" s="58"/>
@@ -8144,9 +8167,9 @@
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
-      <c r="J22" s="78"/>
+      <c r="J22" s="76"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="74"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="58"/>
       <c r="N22" s="58"/>
       <c r="O22" s="58"/>
@@ -8406,7 +8429,7 @@
       <c r="I23" s="60"/>
       <c r="J23" s="60"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="74"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="58"/>
       <c r="N23" s="58"/>
       <c r="O23" s="58"/>
@@ -8924,9 +8947,9 @@
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
-      <c r="J25" s="82"/>
+      <c r="J25" s="80"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="74"/>
+      <c r="L25" s="21"/>
       <c r="M25" s="58"/>
       <c r="N25" s="58"/>
       <c r="O25" s="58"/>
@@ -9184,9 +9207,9 @@
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="75"/>
+      <c r="J26" s="72"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="74"/>
+      <c r="L26" s="21"/>
       <c r="M26" s="58"/>
       <c r="N26" s="58"/>
       <c r="O26" s="58"/>
@@ -9444,9 +9467,9 @@
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="83"/>
+      <c r="J27" s="81"/>
       <c r="K27" s="47"/>
-      <c r="L27" s="70"/>
+      <c r="L27" s="47"/>
     </row>
     <row r="28" s="4" customFormat="1" ht="18.75" customHeight="1" spans="1:258">
       <c r="A28" s="22"/>
@@ -9718,9 +9741,9 @@
       <c r="G29" s="45"/>
       <c r="H29" s="44"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
     </row>
     <row r="30" ht="99.95" customHeight="1" spans="1:12">
       <c r="A30" s="46"/>
@@ -9731,9 +9754,9 @@
       <c r="F30" s="44"/>
       <c r="G30" s="48"/>
       <c r="I30" s="48"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
     </row>
     <row r="31" ht="99.95" customHeight="1" spans="1:12">
       <c r="A31" s="46"/>
@@ -9745,9 +9768,9 @@
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
     </row>
     <row r="32" ht="99.95" customHeight="1" spans="1:12">
       <c r="A32" s="49"/>
@@ -9759,9 +9782,9 @@
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
     </row>
     <row r="33" s="4" customFormat="1" customHeight="1" spans="1:258">
       <c r="A33" s="50"/>
@@ -10033,9 +10056,9 @@
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
       <c r="I34" s="45"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
     </row>
     <row r="35" ht="99.95" customHeight="1" spans="1:12">
       <c r="A35" s="46"/>
@@ -10047,9 +10070,9 @@
       <c r="G35" s="48"/>
       <c r="H35" s="48"/>
       <c r="I35" s="48"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
     </row>
     <row r="36" ht="99.95" customHeight="1" spans="1:12">
       <c r="A36" s="46"/>
@@ -10061,9 +10084,9 @@
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
       <c r="I36" s="48"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
     </row>
     <row r="37" ht="99.95" customHeight="1" spans="1:12">
       <c r="A37" s="46"/>
@@ -10075,9 +10098,9 @@
       <c r="G37" s="48"/>
       <c r="H37" s="20"/>
       <c r="I37" s="48"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
     </row>
     <row r="38" ht="99.95" customHeight="1" spans="1:12">
       <c r="A38" s="46"/>
@@ -10089,9 +10112,9 @@
       <c r="G38" s="20"/>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
     </row>
     <row r="39" ht="99.95" customHeight="1" spans="1:12">
       <c r="A39" s="49"/>
@@ -10103,9 +10126,9 @@
       <c r="G39" s="48"/>
       <c r="H39" s="48"/>
       <c r="I39" s="48"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
     </row>
     <row r="40" ht="99.95" customHeight="1" spans="1:12">
       <c r="A40" s="43"/>
@@ -10117,9 +10140,9 @@
       <c r="G40" s="48"/>
       <c r="H40" s="48"/>
       <c r="I40" s="48"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
     </row>
     <row r="41" ht="99.95" customHeight="1" spans="1:12">
       <c r="A41" s="46"/>
@@ -10131,9 +10154,9 @@
       <c r="G41" s="48"/>
       <c r="H41" s="20"/>
       <c r="I41" s="48"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
     </row>
     <row r="42" ht="99.95" customHeight="1" spans="1:12">
       <c r="A42" s="46"/>
@@ -10145,9 +10168,9 @@
       <c r="G42" s="48"/>
       <c r="H42" s="20"/>
       <c r="I42" s="48"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
     </row>
     <row r="43" ht="99.95" customHeight="1" spans="1:12">
       <c r="A43" s="46"/>
@@ -10159,9 +10182,9 @@
       <c r="G43" s="48"/>
       <c r="H43" s="47"/>
       <c r="I43" s="48"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
     </row>
     <row r="44" ht="99.95" customHeight="1" spans="1:12">
       <c r="A44" s="49"/>
@@ -10173,9 +10196,9 @@
       <c r="G44" s="48"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
     </row>
     <row r="45" ht="99.95" customHeight="1" spans="1:12">
       <c r="A45" s="53"/>
@@ -10187,9 +10210,9 @@
       <c r="G45" s="48"/>
       <c r="H45" s="47"/>
       <c r="I45" s="48"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
     </row>
     <row r="46" ht="99.95" customHeight="1" spans="1:12">
       <c r="A46" s="53"/>
@@ -10201,9 +10224,9 @@
       <c r="G46" s="48"/>
       <c r="H46" s="47"/>
       <c r="I46" s="48"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
     </row>
     <row r="47" ht="99.95" customHeight="1" spans="1:12">
       <c r="A47" s="53"/>
@@ -10215,9 +10238,9 @@
       <c r="G47" s="48"/>
       <c r="H47" s="47"/>
       <c r="I47" s="48"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
     </row>
     <row r="48" ht="99.95" customHeight="1" spans="1:12">
       <c r="A48" s="53"/>
@@ -10229,9 +10252,9 @@
       <c r="G48" s="48"/>
       <c r="H48" s="47"/>
       <c r="I48" s="48"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10862,7 +10885,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>21</v>
@@ -11381,13 +11404,13 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="99.95" customHeight="1" spans="1:258">
       <c r="A6" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>26</v>
@@ -11396,7 +11419,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="26"/>
@@ -11911,13 +11934,13 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="99.95" customHeight="1" spans="1:258">
       <c r="A8" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>26</v>
@@ -11926,7 +11949,7 @@
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
       <c r="H8" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="26"/>
@@ -12441,13 +12464,13 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="99.95" customHeight="1" spans="1:258">
       <c r="A10" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>18</v>
@@ -12455,10 +12478,10 @@
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="32"/>
@@ -12714,10 +12737,10 @@
     <row r="11" s="2" customFormat="1" ht="99.95" customHeight="1" spans="1:258">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>26</v>
@@ -12726,7 +12749,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="20"/>
@@ -12984,10 +13007,10 @@
     <row r="12" s="2" customFormat="1" ht="99.95" customHeight="1" spans="1:258">
       <c r="A12" s="19"/>
       <c r="B12" s="35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>26</v>
@@ -12996,7 +13019,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
@@ -13254,10 +13277,10 @@
     <row r="13" s="2" customFormat="1" ht="99.95" customHeight="1" spans="1:258">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>26</v>
@@ -13266,7 +13289,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13" s="59"/>
       <c r="J13" s="60"/>
@@ -13781,13 +13804,13 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="99.95" customHeight="1" spans="1:258">
       <c r="A15" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>18</v>
@@ -13795,10 +13818,10 @@
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="32"/>
@@ -14054,10 +14077,10 @@
     <row r="16" s="2" customFormat="1" ht="99.95" customHeight="1" spans="1:258">
       <c r="A16" s="25"/>
       <c r="B16" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>26</v>
@@ -14066,7 +14089,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
@@ -14322,10 +14345,10 @@
     <row r="17" ht="99.95" customHeight="1" spans="1:11">
       <c r="A17" s="38"/>
       <c r="B17" s="35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>26</v>
@@ -14334,7 +14357,7 @@
       <c r="F17" s="39"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
@@ -14602,23 +14625,23 @@
     </row>
     <row r="19" ht="99.95" customHeight="1" spans="1:10">
       <c r="A19" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
@@ -14627,20 +14650,20 @@
     <row r="20" ht="99.95" customHeight="1" spans="1:10">
       <c r="A20" s="46"/>
       <c r="B20" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D20" s="47" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
@@ -14648,21 +14671,21 @@
     <row r="21" ht="99.95" customHeight="1" spans="1:10">
       <c r="A21" s="46"/>
       <c r="B21" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D21" s="47" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
@@ -14670,21 +14693,21 @@
     <row r="22" ht="99.95" customHeight="1" spans="1:10">
       <c r="A22" s="49"/>
       <c r="B22" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
@@ -14951,22 +14974,22 @@
     </row>
     <row r="24" ht="99.95" customHeight="1" spans="1:10">
       <c r="A24" s="43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G24" s="45"/>
       <c r="H24" s="45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -14974,21 +14997,21 @@
     <row r="25" ht="99.95" customHeight="1" spans="1:10">
       <c r="A25" s="46"/>
       <c r="B25" s="48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D25" s="47" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" s="48"/>
       <c r="H25" s="48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I25" s="47"/>
       <c r="J25" s="47"/>
@@ -14996,23 +15019,23 @@
     <row r="26" ht="99.95" customHeight="1" spans="1:10">
       <c r="A26" s="46"/>
       <c r="B26" s="48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D26" s="47" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H26" s="48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I26" s="47"/>
       <c r="J26" s="47"/>
@@ -15020,21 +15043,21 @@
     <row r="27" ht="99.95" customHeight="1" spans="1:10">
       <c r="A27" s="46"/>
       <c r="B27" s="48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" s="47" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G27" s="48"/>
       <c r="H27" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I27" s="47"/>
       <c r="J27" s="47"/>
@@ -15042,23 +15065,23 @@
     <row r="28" ht="99.95" customHeight="1" spans="1:10">
       <c r="A28" s="46"/>
       <c r="B28" s="48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D28" s="47" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H28" s="48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I28" s="47"/>
       <c r="J28" s="47"/>
@@ -15066,45 +15089,45 @@
     <row r="29" ht="99.95" customHeight="1" spans="1:10">
       <c r="A29" s="49"/>
       <c r="B29" s="48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G29" s="48"/>
       <c r="H29" s="48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I29" s="47"/>
       <c r="J29" s="47"/>
     </row>
     <row r="30" ht="99.95" customHeight="1" spans="1:10">
       <c r="A30" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D30" s="47" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G30" s="48"/>
       <c r="H30" s="48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I30" s="47"/>
       <c r="J30" s="47"/>
@@ -15112,21 +15135,21 @@
     <row r="31" ht="99.95" customHeight="1" spans="1:10">
       <c r="A31" s="46"/>
       <c r="B31" s="51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D31" s="47" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G31" s="48"/>
       <c r="H31" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I31" s="47"/>
       <c r="J31" s="47"/>
@@ -15135,18 +15158,18 @@
       <c r="A32" s="46"/>
       <c r="B32" s="52"/>
       <c r="C32" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" s="47" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G32" s="48"/>
       <c r="H32" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I32" s="47"/>
       <c r="J32" s="47"/>
@@ -15154,20 +15177,20 @@
     <row r="33" ht="99.95" customHeight="1" spans="1:10">
       <c r="A33" s="46"/>
       <c r="B33" s="48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D33" s="47" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G33" s="48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H33" s="47"/>
       <c r="I33" s="47"/>
@@ -15176,21 +15199,21 @@
     <row r="34" ht="99.95" customHeight="1" spans="1:10">
       <c r="A34" s="49"/>
       <c r="B34" s="48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G34" s="48"/>
       <c r="H34" s="48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I34" s="47"/>
       <c r="J34" s="47"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -278,62 +278,6 @@
     <t>/departments/:departmentId/departments?page=1&amp;pageSize=10</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{
- "count": 100,
- "departments":[{
-   "id": 1,
-   "text": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当前点击的机构名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-   "parent": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>父机构名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-   "order": 1,
-   "remark": ""
-  }]
-}</t>
-    </r>
-  </si>
-  <si>
     <t>complete</t>
   </si>
   <si>
@@ -343,130 +287,10 @@
     <t>/departments/:departmentId/users?page=1&amp;pageSize=10</t>
   </si>
   <si>
-    <t>{
- "count": 100,
- "users": [
-  {
-   "id": 1,
-   "realName": "",
-   "userName": "",
-   "email": "",
-   "phone": "",
-   "order": 22,
-   "department": ""
-  }
- ]
-}</t>
-  </si>
-  <si>
     <t>直属机构的员工</t>
   </si>
   <si>
     <t>Add/edit department</t>
-  </si>
-  <si>
-    <r>
-      <t>{
- "id": -1,
- "name": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放射科</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>诊断组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
- "parentId": 2,
- "code": "001001002",
- "key": "",
- "active": true,
- "remark": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放射科</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>诊断组，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试数据录入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"
- "order":1
-}</t>
-    </r>
   </si>
   <si>
     <t>{"status":"succeed"}</t>
@@ -728,9 +552,6 @@
     <t>{
   "userIds": [1,2,3]
 }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         i</t>
   </si>
   <si>
     <t>/users/search</t>
@@ -1547,12 +1368,185 @@
   }
 ]</t>
   </si>
+  <si>
+    <r>
+      <t>{
+ "id": -1,
+ "name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放射科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诊断组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+ "parentId": 2,
+ "code": "001001002",
+ "key": "",
+ "active": true,
+ "remark": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放射科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诊断组，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试数据录入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+ "order":1
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Search users</t>
+  </si>
+  <si>
+    <r>
+      <t>{
+ "count": 100,
+ "result":[{
+   "id": 1,
+   "text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前点击的机构名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+   "parent": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>父机构名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+   "order": 1,
+   "remark": ""
+  }]
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+ "count": 100,
+ "result": [
+  {
+   "id": 1,
+   "realName": "",
+   "userName": "",
+   "email": "",
+   "phone": "",
+   "order": 22,
+   "department": ""
+  }
+ ]
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1649,12 +1643,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
@@ -1666,6 +1654,24 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1848,7 +1854,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2023,12 +2029,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2087,9 +2087,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2134,6 +2131,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2158,25 +2191,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2307,7 +2322,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2342,7 +2357,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2554,8 +2569,8 @@
   <dimension ref="A1:IX52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A11"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75"/>
@@ -2607,7 +2622,7 @@
       <c r="J1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="43" t="s">
@@ -2630,11 +2645,11 @@
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
       <c r="O2" s="50"/>
@@ -2893,7 +2908,7 @@
       <c r="H3" s="18"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="72"/>
+      <c r="K3" s="70"/>
       <c r="L3" s="21"/>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
@@ -3146,7 +3161,7 @@
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="92" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -3166,8 +3181,8 @@
       <c r="I4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73" t="s">
+      <c r="J4" s="71"/>
+      <c r="K4" s="71" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="21"/>
@@ -3429,7 +3444,7 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
-      <c r="K5" s="73"/>
+      <c r="K5" s="71"/>
       <c r="L5" s="21"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
@@ -3679,10 +3694,10 @@
       <c r="IX5" s="24"/>
     </row>
     <row r="6" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="93" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -3695,12 +3710,12 @@
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I6" s="26"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="75" t="s">
+      <c r="J6" s="72"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="73" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="51"/>
@@ -3951,8 +3966,8 @@
       <c r="IX6" s="51"/>
     </row>
     <row r="7" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A7" s="96"/>
-      <c r="B7" s="108" t="s">
+      <c r="A7" s="105"/>
+      <c r="B7" s="92" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -3965,13 +3980,13 @@
       <c r="F7" s="21"/>
       <c r="G7" s="20"/>
       <c r="H7" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="74" t="s">
         <v>30</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="76" t="s">
-        <v>31</v>
       </c>
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
@@ -4221,12 +4236,12 @@
       <c r="IX7" s="51"/>
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="105"/>
+      <c r="B8" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>33</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>26</v>
@@ -4235,12 +4250,12 @@
       <c r="F8" s="36"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="I8" s="35"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78" t="s">
-        <v>35</v>
+      <c r="J8" s="75"/>
+      <c r="K8" s="76" t="s">
+        <v>33</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="51"/>
@@ -4491,569 +4506,569 @@
       <c r="IX8" s="51"/>
     </row>
     <row r="9" spans="1:258" s="54" customFormat="1" ht="138" customHeight="1">
-      <c r="A9" s="96"/>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="105"/>
+      <c r="B9" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="96"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="81"/>
-      <c r="AE9" s="81"/>
-      <c r="AF9" s="81"/>
-      <c r="AG9" s="81"/>
-      <c r="AH9" s="81"/>
-      <c r="AI9" s="81"/>
-      <c r="AJ9" s="81"/>
-      <c r="AK9" s="81"/>
-      <c r="AL9" s="81"/>
-      <c r="AM9" s="81"/>
-      <c r="AN9" s="81"/>
-      <c r="AO9" s="81"/>
-      <c r="AP9" s="81"/>
-      <c r="AQ9" s="81"/>
-      <c r="AR9" s="81"/>
-      <c r="AS9" s="81"/>
-      <c r="AT9" s="81"/>
-      <c r="AU9" s="81"/>
-      <c r="AV9" s="81"/>
-      <c r="AW9" s="81"/>
-      <c r="AX9" s="81"/>
-      <c r="AY9" s="81"/>
-      <c r="AZ9" s="81"/>
-      <c r="BA9" s="81"/>
-      <c r="BB9" s="81"/>
-      <c r="BC9" s="81"/>
-      <c r="BD9" s="81"/>
-      <c r="BE9" s="81"/>
-      <c r="BF9" s="81"/>
-      <c r="BG9" s="81"/>
-      <c r="BH9" s="81"/>
-      <c r="BI9" s="81"/>
-      <c r="BJ9" s="81"/>
-      <c r="BK9" s="81"/>
-      <c r="BL9" s="81"/>
-      <c r="BM9" s="81"/>
-      <c r="BN9" s="81"/>
-      <c r="BO9" s="81"/>
-      <c r="BP9" s="81"/>
-      <c r="BQ9" s="81"/>
-      <c r="BR9" s="81"/>
-      <c r="BS9" s="81"/>
-      <c r="BT9" s="81"/>
-      <c r="BU9" s="81"/>
-      <c r="BV9" s="81"/>
-      <c r="BW9" s="81"/>
-      <c r="BX9" s="81"/>
-      <c r="BY9" s="81"/>
-      <c r="BZ9" s="81"/>
-      <c r="CA9" s="81"/>
-      <c r="CB9" s="81"/>
-      <c r="CC9" s="81"/>
-      <c r="CD9" s="81"/>
-      <c r="CE9" s="81"/>
-      <c r="CF9" s="81"/>
-      <c r="CG9" s="81"/>
-      <c r="CH9" s="81"/>
-      <c r="CI9" s="81"/>
-      <c r="CJ9" s="81"/>
-      <c r="CK9" s="81"/>
-      <c r="CL9" s="81"/>
-      <c r="CM9" s="81"/>
-      <c r="CN9" s="81"/>
-      <c r="CO9" s="81"/>
-      <c r="CP9" s="81"/>
-      <c r="CQ9" s="81"/>
-      <c r="CR9" s="81"/>
-      <c r="CS9" s="81"/>
-      <c r="CT9" s="81"/>
-      <c r="CU9" s="81"/>
-      <c r="CV9" s="81"/>
-      <c r="CW9" s="81"/>
-      <c r="CX9" s="81"/>
-      <c r="CY9" s="81"/>
-      <c r="CZ9" s="81"/>
-      <c r="DA9" s="81"/>
-      <c r="DB9" s="81"/>
-      <c r="DC9" s="81"/>
-      <c r="DD9" s="81"/>
-      <c r="DE9" s="81"/>
-      <c r="DF9" s="81"/>
-      <c r="DG9" s="81"/>
-      <c r="DH9" s="81"/>
-      <c r="DI9" s="81"/>
-      <c r="DJ9" s="81"/>
-      <c r="DK9" s="81"/>
-      <c r="DL9" s="81"/>
-      <c r="DM9" s="81"/>
-      <c r="DN9" s="81"/>
-      <c r="DO9" s="81"/>
-      <c r="DP9" s="81"/>
-      <c r="DQ9" s="81"/>
-      <c r="DR9" s="81"/>
-      <c r="DS9" s="81"/>
-      <c r="DT9" s="81"/>
-      <c r="DU9" s="81"/>
-      <c r="DV9" s="81"/>
-      <c r="DW9" s="81"/>
-      <c r="DX9" s="81"/>
-      <c r="DY9" s="81"/>
-      <c r="DZ9" s="81"/>
-      <c r="EA9" s="81"/>
-      <c r="EB9" s="81"/>
-      <c r="EC9" s="81"/>
-      <c r="ED9" s="81"/>
-      <c r="EE9" s="81"/>
-      <c r="EF9" s="81"/>
-      <c r="EG9" s="81"/>
-      <c r="EH9" s="81"/>
-      <c r="EI9" s="81"/>
-      <c r="EJ9" s="81"/>
-      <c r="EK9" s="81"/>
-      <c r="EL9" s="81"/>
-      <c r="EM9" s="81"/>
-      <c r="EN9" s="81"/>
-      <c r="EO9" s="81"/>
-      <c r="EP9" s="81"/>
-      <c r="EQ9" s="81"/>
-      <c r="ER9" s="81"/>
-      <c r="ES9" s="81"/>
-      <c r="ET9" s="81"/>
-      <c r="EU9" s="81"/>
-      <c r="EV9" s="81"/>
-      <c r="EW9" s="81"/>
-      <c r="EX9" s="81"/>
-      <c r="EY9" s="81"/>
-      <c r="EZ9" s="81"/>
-      <c r="FA9" s="81"/>
-      <c r="FB9" s="81"/>
-      <c r="FC9" s="81"/>
-      <c r="FD9" s="81"/>
-      <c r="FE9" s="81"/>
-      <c r="FF9" s="81"/>
-      <c r="FG9" s="81"/>
-      <c r="FH9" s="81"/>
-      <c r="FI9" s="81"/>
-      <c r="FJ9" s="81"/>
-      <c r="FK9" s="81"/>
-      <c r="FL9" s="81"/>
-      <c r="FM9" s="81"/>
-      <c r="FN9" s="81"/>
-      <c r="FO9" s="81"/>
-      <c r="FP9" s="81"/>
-      <c r="FQ9" s="81"/>
-      <c r="FR9" s="81"/>
-      <c r="FS9" s="81"/>
-      <c r="FT9" s="81"/>
-      <c r="FU9" s="81"/>
-      <c r="FV9" s="81"/>
-      <c r="FW9" s="81"/>
-      <c r="FX9" s="81"/>
-      <c r="FY9" s="81"/>
-      <c r="FZ9" s="81"/>
-      <c r="GA9" s="81"/>
-      <c r="GB9" s="81"/>
-      <c r="GC9" s="81"/>
-      <c r="GD9" s="81"/>
-      <c r="GE9" s="81"/>
-      <c r="GF9" s="81"/>
-      <c r="GG9" s="81"/>
-      <c r="GH9" s="81"/>
-      <c r="GI9" s="81"/>
-      <c r="GJ9" s="81"/>
-      <c r="GK9" s="81"/>
-      <c r="GL9" s="81"/>
-      <c r="GM9" s="81"/>
-      <c r="GN9" s="81"/>
-      <c r="GO9" s="81"/>
-      <c r="GP9" s="81"/>
-      <c r="GQ9" s="81"/>
-      <c r="GR9" s="81"/>
-      <c r="GS9" s="81"/>
-      <c r="GT9" s="81"/>
-      <c r="GU9" s="81"/>
-      <c r="GV9" s="81"/>
-      <c r="GW9" s="81"/>
-      <c r="GX9" s="81"/>
-      <c r="GY9" s="81"/>
-      <c r="GZ9" s="81"/>
-      <c r="HA9" s="81"/>
-      <c r="HB9" s="81"/>
-      <c r="HC9" s="81"/>
-      <c r="HD9" s="81"/>
-      <c r="HE9" s="81"/>
-      <c r="HF9" s="81"/>
-      <c r="HG9" s="81"/>
-      <c r="HH9" s="81"/>
-      <c r="HI9" s="81"/>
-      <c r="HJ9" s="81"/>
-      <c r="HK9" s="81"/>
-      <c r="HL9" s="81"/>
-      <c r="HM9" s="81"/>
-      <c r="HN9" s="81"/>
-      <c r="HO9" s="81"/>
-      <c r="HP9" s="81"/>
-      <c r="HQ9" s="81"/>
-      <c r="HR9" s="81"/>
-      <c r="HS9" s="81"/>
-      <c r="HT9" s="81"/>
-      <c r="HU9" s="81"/>
-      <c r="HV9" s="81"/>
-      <c r="HW9" s="81"/>
-      <c r="HX9" s="81"/>
-      <c r="HY9" s="81"/>
-      <c r="HZ9" s="81"/>
-      <c r="IA9" s="81"/>
-      <c r="IB9" s="81"/>
-      <c r="IC9" s="81"/>
-      <c r="ID9" s="81"/>
-      <c r="IE9" s="81"/>
-      <c r="IF9" s="81"/>
-      <c r="IG9" s="81"/>
-      <c r="IH9" s="81"/>
-      <c r="II9" s="81"/>
-      <c r="IJ9" s="81"/>
-      <c r="IK9" s="81"/>
-      <c r="IL9" s="81"/>
-      <c r="IM9" s="81"/>
-      <c r="IN9" s="81"/>
-      <c r="IO9" s="81"/>
-      <c r="IP9" s="81"/>
-      <c r="IQ9" s="81"/>
-      <c r="IR9" s="81"/>
-      <c r="IS9" s="81"/>
-      <c r="IT9" s="81"/>
-      <c r="IU9" s="81"/>
-      <c r="IV9" s="81"/>
-      <c r="IW9" s="81"/>
-      <c r="IX9" s="81"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="78"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="78"/>
+      <c r="BA9" s="78"/>
+      <c r="BB9" s="78"/>
+      <c r="BC9" s="78"/>
+      <c r="BD9" s="78"/>
+      <c r="BE9" s="78"/>
+      <c r="BF9" s="78"/>
+      <c r="BG9" s="78"/>
+      <c r="BH9" s="78"/>
+      <c r="BI9" s="78"/>
+      <c r="BJ9" s="78"/>
+      <c r="BK9" s="78"/>
+      <c r="BL9" s="78"/>
+      <c r="BM9" s="78"/>
+      <c r="BN9" s="78"/>
+      <c r="BO9" s="78"/>
+      <c r="BP9" s="78"/>
+      <c r="BQ9" s="78"/>
+      <c r="BR9" s="78"/>
+      <c r="BS9" s="78"/>
+      <c r="BT9" s="78"/>
+      <c r="BU9" s="78"/>
+      <c r="BV9" s="78"/>
+      <c r="BW9" s="78"/>
+      <c r="BX9" s="78"/>
+      <c r="BY9" s="78"/>
+      <c r="BZ9" s="78"/>
+      <c r="CA9" s="78"/>
+      <c r="CB9" s="78"/>
+      <c r="CC9" s="78"/>
+      <c r="CD9" s="78"/>
+      <c r="CE9" s="78"/>
+      <c r="CF9" s="78"/>
+      <c r="CG9" s="78"/>
+      <c r="CH9" s="78"/>
+      <c r="CI9" s="78"/>
+      <c r="CJ9" s="78"/>
+      <c r="CK9" s="78"/>
+      <c r="CL9" s="78"/>
+      <c r="CM9" s="78"/>
+      <c r="CN9" s="78"/>
+      <c r="CO9" s="78"/>
+      <c r="CP9" s="78"/>
+      <c r="CQ9" s="78"/>
+      <c r="CR9" s="78"/>
+      <c r="CS9" s="78"/>
+      <c r="CT9" s="78"/>
+      <c r="CU9" s="78"/>
+      <c r="CV9" s="78"/>
+      <c r="CW9" s="78"/>
+      <c r="CX9" s="78"/>
+      <c r="CY9" s="78"/>
+      <c r="CZ9" s="78"/>
+      <c r="DA9" s="78"/>
+      <c r="DB9" s="78"/>
+      <c r="DC9" s="78"/>
+      <c r="DD9" s="78"/>
+      <c r="DE9" s="78"/>
+      <c r="DF9" s="78"/>
+      <c r="DG9" s="78"/>
+      <c r="DH9" s="78"/>
+      <c r="DI9" s="78"/>
+      <c r="DJ9" s="78"/>
+      <c r="DK9" s="78"/>
+      <c r="DL9" s="78"/>
+      <c r="DM9" s="78"/>
+      <c r="DN9" s="78"/>
+      <c r="DO9" s="78"/>
+      <c r="DP9" s="78"/>
+      <c r="DQ9" s="78"/>
+      <c r="DR9" s="78"/>
+      <c r="DS9" s="78"/>
+      <c r="DT9" s="78"/>
+      <c r="DU9" s="78"/>
+      <c r="DV9" s="78"/>
+      <c r="DW9" s="78"/>
+      <c r="DX9" s="78"/>
+      <c r="DY9" s="78"/>
+      <c r="DZ9" s="78"/>
+      <c r="EA9" s="78"/>
+      <c r="EB9" s="78"/>
+      <c r="EC9" s="78"/>
+      <c r="ED9" s="78"/>
+      <c r="EE9" s="78"/>
+      <c r="EF9" s="78"/>
+      <c r="EG9" s="78"/>
+      <c r="EH9" s="78"/>
+      <c r="EI9" s="78"/>
+      <c r="EJ9" s="78"/>
+      <c r="EK9" s="78"/>
+      <c r="EL9" s="78"/>
+      <c r="EM9" s="78"/>
+      <c r="EN9" s="78"/>
+      <c r="EO9" s="78"/>
+      <c r="EP9" s="78"/>
+      <c r="EQ9" s="78"/>
+      <c r="ER9" s="78"/>
+      <c r="ES9" s="78"/>
+      <c r="ET9" s="78"/>
+      <c r="EU9" s="78"/>
+      <c r="EV9" s="78"/>
+      <c r="EW9" s="78"/>
+      <c r="EX9" s="78"/>
+      <c r="EY9" s="78"/>
+      <c r="EZ9" s="78"/>
+      <c r="FA9" s="78"/>
+      <c r="FB9" s="78"/>
+      <c r="FC9" s="78"/>
+      <c r="FD9" s="78"/>
+      <c r="FE9" s="78"/>
+      <c r="FF9" s="78"/>
+      <c r="FG9" s="78"/>
+      <c r="FH9" s="78"/>
+      <c r="FI9" s="78"/>
+      <c r="FJ9" s="78"/>
+      <c r="FK9" s="78"/>
+      <c r="FL9" s="78"/>
+      <c r="FM9" s="78"/>
+      <c r="FN9" s="78"/>
+      <c r="FO9" s="78"/>
+      <c r="FP9" s="78"/>
+      <c r="FQ9" s="78"/>
+      <c r="FR9" s="78"/>
+      <c r="FS9" s="78"/>
+      <c r="FT9" s="78"/>
+      <c r="FU9" s="78"/>
+      <c r="FV9" s="78"/>
+      <c r="FW9" s="78"/>
+      <c r="FX9" s="78"/>
+      <c r="FY9" s="78"/>
+      <c r="FZ9" s="78"/>
+      <c r="GA9" s="78"/>
+      <c r="GB9" s="78"/>
+      <c r="GC9" s="78"/>
+      <c r="GD9" s="78"/>
+      <c r="GE9" s="78"/>
+      <c r="GF9" s="78"/>
+      <c r="GG9" s="78"/>
+      <c r="GH9" s="78"/>
+      <c r="GI9" s="78"/>
+      <c r="GJ9" s="78"/>
+      <c r="GK9" s="78"/>
+      <c r="GL9" s="78"/>
+      <c r="GM9" s="78"/>
+      <c r="GN9" s="78"/>
+      <c r="GO9" s="78"/>
+      <c r="GP9" s="78"/>
+      <c r="GQ9" s="78"/>
+      <c r="GR9" s="78"/>
+      <c r="GS9" s="78"/>
+      <c r="GT9" s="78"/>
+      <c r="GU9" s="78"/>
+      <c r="GV9" s="78"/>
+      <c r="GW9" s="78"/>
+      <c r="GX9" s="78"/>
+      <c r="GY9" s="78"/>
+      <c r="GZ9" s="78"/>
+      <c r="HA9" s="78"/>
+      <c r="HB9" s="78"/>
+      <c r="HC9" s="78"/>
+      <c r="HD9" s="78"/>
+      <c r="HE9" s="78"/>
+      <c r="HF9" s="78"/>
+      <c r="HG9" s="78"/>
+      <c r="HH9" s="78"/>
+      <c r="HI9" s="78"/>
+      <c r="HJ9" s="78"/>
+      <c r="HK9" s="78"/>
+      <c r="HL9" s="78"/>
+      <c r="HM9" s="78"/>
+      <c r="HN9" s="78"/>
+      <c r="HO9" s="78"/>
+      <c r="HP9" s="78"/>
+      <c r="HQ9" s="78"/>
+      <c r="HR9" s="78"/>
+      <c r="HS9" s="78"/>
+      <c r="HT9" s="78"/>
+      <c r="HU9" s="78"/>
+      <c r="HV9" s="78"/>
+      <c r="HW9" s="78"/>
+      <c r="HX9" s="78"/>
+      <c r="HY9" s="78"/>
+      <c r="HZ9" s="78"/>
+      <c r="IA9" s="78"/>
+      <c r="IB9" s="78"/>
+      <c r="IC9" s="78"/>
+      <c r="ID9" s="78"/>
+      <c r="IE9" s="78"/>
+      <c r="IF9" s="78"/>
+      <c r="IG9" s="78"/>
+      <c r="IH9" s="78"/>
+      <c r="II9" s="78"/>
+      <c r="IJ9" s="78"/>
+      <c r="IK9" s="78"/>
+      <c r="IL9" s="78"/>
+      <c r="IM9" s="78"/>
+      <c r="IN9" s="78"/>
+      <c r="IO9" s="78"/>
+      <c r="IP9" s="78"/>
+      <c r="IQ9" s="78"/>
+      <c r="IR9" s="78"/>
+      <c r="IS9" s="78"/>
+      <c r="IT9" s="78"/>
+      <c r="IU9" s="78"/>
+      <c r="IV9" s="78"/>
+      <c r="IW9" s="78"/>
+      <c r="IX9" s="78"/>
     </row>
     <row r="10" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A10" s="96"/>
-      <c r="B10" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="61" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="84"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="84"/>
-      <c r="BD10" s="84"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="84"/>
-      <c r="BG10" s="84"/>
-      <c r="BH10" s="84"/>
-      <c r="BI10" s="84"/>
-      <c r="BJ10" s="84"/>
-      <c r="BK10" s="84"/>
-      <c r="BL10" s="84"/>
-      <c r="BM10" s="84"/>
-      <c r="BN10" s="84"/>
-      <c r="BO10" s="84"/>
-      <c r="BP10" s="84"/>
-      <c r="BQ10" s="84"/>
-      <c r="BR10" s="84"/>
-      <c r="BS10" s="84"/>
-      <c r="BT10" s="84"/>
-      <c r="BU10" s="84"/>
-      <c r="BV10" s="84"/>
-      <c r="BW10" s="84"/>
-      <c r="BX10" s="84"/>
-      <c r="BY10" s="84"/>
-      <c r="BZ10" s="84"/>
-      <c r="CA10" s="84"/>
-      <c r="CB10" s="84"/>
-      <c r="CC10" s="84"/>
-      <c r="CD10" s="84"/>
-      <c r="CE10" s="84"/>
-      <c r="CF10" s="84"/>
-      <c r="CG10" s="84"/>
-      <c r="CH10" s="84"/>
-      <c r="CI10" s="84"/>
-      <c r="CJ10" s="84"/>
-      <c r="CK10" s="84"/>
-      <c r="CL10" s="84"/>
-      <c r="CM10" s="84"/>
-      <c r="CN10" s="84"/>
-      <c r="CO10" s="84"/>
-      <c r="CP10" s="84"/>
-      <c r="CQ10" s="84"/>
-      <c r="CR10" s="84"/>
-      <c r="CS10" s="84"/>
-      <c r="CT10" s="84"/>
-      <c r="CU10" s="84"/>
-      <c r="CV10" s="84"/>
-      <c r="CW10" s="84"/>
-      <c r="CX10" s="84"/>
-      <c r="CY10" s="84"/>
-      <c r="CZ10" s="84"/>
-      <c r="DA10" s="84"/>
-      <c r="DB10" s="84"/>
-      <c r="DC10" s="84"/>
-      <c r="DD10" s="84"/>
-      <c r="DE10" s="84"/>
-      <c r="DF10" s="84"/>
-      <c r="DG10" s="84"/>
-      <c r="DH10" s="84"/>
-      <c r="DI10" s="84"/>
-      <c r="DJ10" s="84"/>
-      <c r="DK10" s="84"/>
-      <c r="DL10" s="84"/>
-      <c r="DM10" s="84"/>
-      <c r="DN10" s="84"/>
-      <c r="DO10" s="84"/>
-      <c r="DP10" s="84"/>
-      <c r="DQ10" s="84"/>
-      <c r="DR10" s="84"/>
-      <c r="DS10" s="84"/>
-      <c r="DT10" s="84"/>
-      <c r="DU10" s="84"/>
-      <c r="DV10" s="84"/>
-      <c r="DW10" s="84"/>
-      <c r="DX10" s="84"/>
-      <c r="DY10" s="84"/>
-      <c r="DZ10" s="84"/>
-      <c r="EA10" s="84"/>
-      <c r="EB10" s="84"/>
-      <c r="EC10" s="84"/>
-      <c r="ED10" s="84"/>
-      <c r="EE10" s="84"/>
-      <c r="EF10" s="84"/>
-      <c r="EG10" s="84"/>
-      <c r="EH10" s="84"/>
-      <c r="EI10" s="84"/>
-      <c r="EJ10" s="84"/>
-      <c r="EK10" s="84"/>
-      <c r="EL10" s="84"/>
-      <c r="EM10" s="84"/>
-      <c r="EN10" s="84"/>
-      <c r="EO10" s="84"/>
-      <c r="EP10" s="84"/>
-      <c r="EQ10" s="84"/>
-      <c r="ER10" s="84"/>
-      <c r="ES10" s="84"/>
-      <c r="ET10" s="84"/>
-      <c r="EU10" s="84"/>
-      <c r="EV10" s="84"/>
-      <c r="EW10" s="84"/>
-      <c r="EX10" s="84"/>
-      <c r="EY10" s="84"/>
-      <c r="EZ10" s="84"/>
-      <c r="FA10" s="84"/>
-      <c r="FB10" s="84"/>
-      <c r="FC10" s="84"/>
-      <c r="FD10" s="84"/>
-      <c r="FE10" s="84"/>
-      <c r="FF10" s="84"/>
-      <c r="FG10" s="84"/>
-      <c r="FH10" s="84"/>
-      <c r="FI10" s="84"/>
-      <c r="FJ10" s="84"/>
-      <c r="FK10" s="84"/>
-      <c r="FL10" s="84"/>
-      <c r="FM10" s="84"/>
-      <c r="FN10" s="84"/>
-      <c r="FO10" s="84"/>
-      <c r="FP10" s="84"/>
-      <c r="FQ10" s="84"/>
-      <c r="FR10" s="84"/>
-      <c r="FS10" s="84"/>
-      <c r="FT10" s="84"/>
-      <c r="FU10" s="84"/>
-      <c r="FV10" s="84"/>
-      <c r="FW10" s="84"/>
-      <c r="FX10" s="84"/>
-      <c r="FY10" s="84"/>
-      <c r="FZ10" s="84"/>
-      <c r="GA10" s="84"/>
-      <c r="GB10" s="84"/>
-      <c r="GC10" s="84"/>
-      <c r="GD10" s="84"/>
-      <c r="GE10" s="84"/>
-      <c r="GF10" s="84"/>
-      <c r="GG10" s="84"/>
-      <c r="GH10" s="84"/>
-      <c r="GI10" s="84"/>
-      <c r="GJ10" s="84"/>
-      <c r="GK10" s="84"/>
-      <c r="GL10" s="84"/>
-      <c r="GM10" s="84"/>
-      <c r="GN10" s="84"/>
-      <c r="GO10" s="84"/>
-      <c r="GP10" s="84"/>
-      <c r="GQ10" s="84"/>
-      <c r="GR10" s="84"/>
-      <c r="GS10" s="84"/>
-      <c r="GT10" s="84"/>
-      <c r="GU10" s="84"/>
-      <c r="GV10" s="84"/>
-      <c r="GW10" s="84"/>
-      <c r="GX10" s="84"/>
-      <c r="GY10" s="84"/>
-      <c r="GZ10" s="84"/>
-      <c r="HA10" s="84"/>
-      <c r="HB10" s="84"/>
-      <c r="HC10" s="84"/>
-      <c r="HD10" s="84"/>
-      <c r="HE10" s="84"/>
-      <c r="HF10" s="84"/>
-      <c r="HG10" s="84"/>
-      <c r="HH10" s="84"/>
-      <c r="HI10" s="84"/>
-      <c r="HJ10" s="84"/>
-      <c r="HK10" s="84"/>
-      <c r="HL10" s="84"/>
-      <c r="HM10" s="84"/>
-      <c r="HN10" s="84"/>
-      <c r="HO10" s="84"/>
-      <c r="HP10" s="84"/>
-      <c r="HQ10" s="84"/>
-      <c r="HR10" s="84"/>
-      <c r="HS10" s="84"/>
-      <c r="HT10" s="84"/>
-      <c r="HU10" s="84"/>
-      <c r="HV10" s="84"/>
-      <c r="HW10" s="84"/>
-      <c r="HX10" s="84"/>
-      <c r="HY10" s="84"/>
-      <c r="HZ10" s="84"/>
-      <c r="IA10" s="84"/>
-      <c r="IB10" s="84"/>
-      <c r="IC10" s="84"/>
-      <c r="ID10" s="84"/>
-      <c r="IE10" s="84"/>
-      <c r="IF10" s="84"/>
-      <c r="IG10" s="84"/>
-      <c r="IH10" s="84"/>
-      <c r="II10" s="84"/>
-      <c r="IJ10" s="84"/>
-      <c r="IK10" s="84"/>
-      <c r="IL10" s="84"/>
-      <c r="IM10" s="84"/>
-      <c r="IN10" s="84"/>
-      <c r="IO10" s="84"/>
-      <c r="IP10" s="84"/>
-      <c r="IQ10" s="84"/>
-      <c r="IR10" s="84"/>
-      <c r="IS10" s="84"/>
-      <c r="IT10" s="84"/>
-      <c r="IU10" s="84"/>
-      <c r="IV10" s="84"/>
-      <c r="IW10" s="84"/>
-      <c r="IX10" s="84"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="59"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="81"/>
+      <c r="AE10" s="81"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="81"/>
+      <c r="AI10" s="81"/>
+      <c r="AJ10" s="81"/>
+      <c r="AK10" s="81"/>
+      <c r="AL10" s="81"/>
+      <c r="AM10" s="81"/>
+      <c r="AN10" s="81"/>
+      <c r="AO10" s="81"/>
+      <c r="AP10" s="81"/>
+      <c r="AQ10" s="81"/>
+      <c r="AR10" s="81"/>
+      <c r="AS10" s="81"/>
+      <c r="AT10" s="81"/>
+      <c r="AU10" s="81"/>
+      <c r="AV10" s="81"/>
+      <c r="AW10" s="81"/>
+      <c r="AX10" s="81"/>
+      <c r="AY10" s="81"/>
+      <c r="AZ10" s="81"/>
+      <c r="BA10" s="81"/>
+      <c r="BB10" s="81"/>
+      <c r="BC10" s="81"/>
+      <c r="BD10" s="81"/>
+      <c r="BE10" s="81"/>
+      <c r="BF10" s="81"/>
+      <c r="BG10" s="81"/>
+      <c r="BH10" s="81"/>
+      <c r="BI10" s="81"/>
+      <c r="BJ10" s="81"/>
+      <c r="BK10" s="81"/>
+      <c r="BL10" s="81"/>
+      <c r="BM10" s="81"/>
+      <c r="BN10" s="81"/>
+      <c r="BO10" s="81"/>
+      <c r="BP10" s="81"/>
+      <c r="BQ10" s="81"/>
+      <c r="BR10" s="81"/>
+      <c r="BS10" s="81"/>
+      <c r="BT10" s="81"/>
+      <c r="BU10" s="81"/>
+      <c r="BV10" s="81"/>
+      <c r="BW10" s="81"/>
+      <c r="BX10" s="81"/>
+      <c r="BY10" s="81"/>
+      <c r="BZ10" s="81"/>
+      <c r="CA10" s="81"/>
+      <c r="CB10" s="81"/>
+      <c r="CC10" s="81"/>
+      <c r="CD10" s="81"/>
+      <c r="CE10" s="81"/>
+      <c r="CF10" s="81"/>
+      <c r="CG10" s="81"/>
+      <c r="CH10" s="81"/>
+      <c r="CI10" s="81"/>
+      <c r="CJ10" s="81"/>
+      <c r="CK10" s="81"/>
+      <c r="CL10" s="81"/>
+      <c r="CM10" s="81"/>
+      <c r="CN10" s="81"/>
+      <c r="CO10" s="81"/>
+      <c r="CP10" s="81"/>
+      <c r="CQ10" s="81"/>
+      <c r="CR10" s="81"/>
+      <c r="CS10" s="81"/>
+      <c r="CT10" s="81"/>
+      <c r="CU10" s="81"/>
+      <c r="CV10" s="81"/>
+      <c r="CW10" s="81"/>
+      <c r="CX10" s="81"/>
+      <c r="CY10" s="81"/>
+      <c r="CZ10" s="81"/>
+      <c r="DA10" s="81"/>
+      <c r="DB10" s="81"/>
+      <c r="DC10" s="81"/>
+      <c r="DD10" s="81"/>
+      <c r="DE10" s="81"/>
+      <c r="DF10" s="81"/>
+      <c r="DG10" s="81"/>
+      <c r="DH10" s="81"/>
+      <c r="DI10" s="81"/>
+      <c r="DJ10" s="81"/>
+      <c r="DK10" s="81"/>
+      <c r="DL10" s="81"/>
+      <c r="DM10" s="81"/>
+      <c r="DN10" s="81"/>
+      <c r="DO10" s="81"/>
+      <c r="DP10" s="81"/>
+      <c r="DQ10" s="81"/>
+      <c r="DR10" s="81"/>
+      <c r="DS10" s="81"/>
+      <c r="DT10" s="81"/>
+      <c r="DU10" s="81"/>
+      <c r="DV10" s="81"/>
+      <c r="DW10" s="81"/>
+      <c r="DX10" s="81"/>
+      <c r="DY10" s="81"/>
+      <c r="DZ10" s="81"/>
+      <c r="EA10" s="81"/>
+      <c r="EB10" s="81"/>
+      <c r="EC10" s="81"/>
+      <c r="ED10" s="81"/>
+      <c r="EE10" s="81"/>
+      <c r="EF10" s="81"/>
+      <c r="EG10" s="81"/>
+      <c r="EH10" s="81"/>
+      <c r="EI10" s="81"/>
+      <c r="EJ10" s="81"/>
+      <c r="EK10" s="81"/>
+      <c r="EL10" s="81"/>
+      <c r="EM10" s="81"/>
+      <c r="EN10" s="81"/>
+      <c r="EO10" s="81"/>
+      <c r="EP10" s="81"/>
+      <c r="EQ10" s="81"/>
+      <c r="ER10" s="81"/>
+      <c r="ES10" s="81"/>
+      <c r="ET10" s="81"/>
+      <c r="EU10" s="81"/>
+      <c r="EV10" s="81"/>
+      <c r="EW10" s="81"/>
+      <c r="EX10" s="81"/>
+      <c r="EY10" s="81"/>
+      <c r="EZ10" s="81"/>
+      <c r="FA10" s="81"/>
+      <c r="FB10" s="81"/>
+      <c r="FC10" s="81"/>
+      <c r="FD10" s="81"/>
+      <c r="FE10" s="81"/>
+      <c r="FF10" s="81"/>
+      <c r="FG10" s="81"/>
+      <c r="FH10" s="81"/>
+      <c r="FI10" s="81"/>
+      <c r="FJ10" s="81"/>
+      <c r="FK10" s="81"/>
+      <c r="FL10" s="81"/>
+      <c r="FM10" s="81"/>
+      <c r="FN10" s="81"/>
+      <c r="FO10" s="81"/>
+      <c r="FP10" s="81"/>
+      <c r="FQ10" s="81"/>
+      <c r="FR10" s="81"/>
+      <c r="FS10" s="81"/>
+      <c r="FT10" s="81"/>
+      <c r="FU10" s="81"/>
+      <c r="FV10" s="81"/>
+      <c r="FW10" s="81"/>
+      <c r="FX10" s="81"/>
+      <c r="FY10" s="81"/>
+      <c r="FZ10" s="81"/>
+      <c r="GA10" s="81"/>
+      <c r="GB10" s="81"/>
+      <c r="GC10" s="81"/>
+      <c r="GD10" s="81"/>
+      <c r="GE10" s="81"/>
+      <c r="GF10" s="81"/>
+      <c r="GG10" s="81"/>
+      <c r="GH10" s="81"/>
+      <c r="GI10" s="81"/>
+      <c r="GJ10" s="81"/>
+      <c r="GK10" s="81"/>
+      <c r="GL10" s="81"/>
+      <c r="GM10" s="81"/>
+      <c r="GN10" s="81"/>
+      <c r="GO10" s="81"/>
+      <c r="GP10" s="81"/>
+      <c r="GQ10" s="81"/>
+      <c r="GR10" s="81"/>
+      <c r="GS10" s="81"/>
+      <c r="GT10" s="81"/>
+      <c r="GU10" s="81"/>
+      <c r="GV10" s="81"/>
+      <c r="GW10" s="81"/>
+      <c r="GX10" s="81"/>
+      <c r="GY10" s="81"/>
+      <c r="GZ10" s="81"/>
+      <c r="HA10" s="81"/>
+      <c r="HB10" s="81"/>
+      <c r="HC10" s="81"/>
+      <c r="HD10" s="81"/>
+      <c r="HE10" s="81"/>
+      <c r="HF10" s="81"/>
+      <c r="HG10" s="81"/>
+      <c r="HH10" s="81"/>
+      <c r="HI10" s="81"/>
+      <c r="HJ10" s="81"/>
+      <c r="HK10" s="81"/>
+      <c r="HL10" s="81"/>
+      <c r="HM10" s="81"/>
+      <c r="HN10" s="81"/>
+      <c r="HO10" s="81"/>
+      <c r="HP10" s="81"/>
+      <c r="HQ10" s="81"/>
+      <c r="HR10" s="81"/>
+      <c r="HS10" s="81"/>
+      <c r="HT10" s="81"/>
+      <c r="HU10" s="81"/>
+      <c r="HV10" s="81"/>
+      <c r="HW10" s="81"/>
+      <c r="HX10" s="81"/>
+      <c r="HY10" s="81"/>
+      <c r="HZ10" s="81"/>
+      <c r="IA10" s="81"/>
+      <c r="IB10" s="81"/>
+      <c r="IC10" s="81"/>
+      <c r="ID10" s="81"/>
+      <c r="IE10" s="81"/>
+      <c r="IF10" s="81"/>
+      <c r="IG10" s="81"/>
+      <c r="IH10" s="81"/>
+      <c r="II10" s="81"/>
+      <c r="IJ10" s="81"/>
+      <c r="IK10" s="81"/>
+      <c r="IL10" s="81"/>
+      <c r="IM10" s="81"/>
+      <c r="IN10" s="81"/>
+      <c r="IO10" s="81"/>
+      <c r="IP10" s="81"/>
+      <c r="IQ10" s="81"/>
+      <c r="IR10" s="81"/>
+      <c r="IS10" s="81"/>
+      <c r="IT10" s="81"/>
+      <c r="IU10" s="81"/>
+      <c r="IV10" s="81"/>
+      <c r="IW10" s="81"/>
+      <c r="IX10" s="81"/>
     </row>
     <row r="11" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A11" s="96"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="20"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="72"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="21"/>
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
@@ -5303,33 +5318,33 @@
       <c r="IX11" s="51"/>
     </row>
     <row r="12" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="H12" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="61" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="85"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="63" t="s">
-        <v>50</v>
       </c>
       <c r="M12" s="51"/>
       <c r="N12" s="51"/>
@@ -5579,1094 +5594,1094 @@
       <c r="IX12" s="51"/>
     </row>
     <row r="13" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A13" s="96"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="105"/>
+      <c r="B13" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="63"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="84"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="84"/>
-      <c r="AX13" s="84"/>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="84"/>
-      <c r="BA13" s="84"/>
-      <c r="BB13" s="84"/>
-      <c r="BC13" s="84"/>
-      <c r="BD13" s="84"/>
-      <c r="BE13" s="84"/>
-      <c r="BF13" s="84"/>
-      <c r="BG13" s="84"/>
-      <c r="BH13" s="84"/>
-      <c r="BI13" s="84"/>
-      <c r="BJ13" s="84"/>
-      <c r="BK13" s="84"/>
-      <c r="BL13" s="84"/>
-      <c r="BM13" s="84"/>
-      <c r="BN13" s="84"/>
-      <c r="BO13" s="84"/>
-      <c r="BP13" s="84"/>
-      <c r="BQ13" s="84"/>
-      <c r="BR13" s="84"/>
-      <c r="BS13" s="84"/>
-      <c r="BT13" s="84"/>
-      <c r="BU13" s="84"/>
-      <c r="BV13" s="84"/>
-      <c r="BW13" s="84"/>
-      <c r="BX13" s="84"/>
-      <c r="BY13" s="84"/>
-      <c r="BZ13" s="84"/>
-      <c r="CA13" s="84"/>
-      <c r="CB13" s="84"/>
-      <c r="CC13" s="84"/>
-      <c r="CD13" s="84"/>
-      <c r="CE13" s="84"/>
-      <c r="CF13" s="84"/>
-      <c r="CG13" s="84"/>
-      <c r="CH13" s="84"/>
-      <c r="CI13" s="84"/>
-      <c r="CJ13" s="84"/>
-      <c r="CK13" s="84"/>
-      <c r="CL13" s="84"/>
-      <c r="CM13" s="84"/>
-      <c r="CN13" s="84"/>
-      <c r="CO13" s="84"/>
-      <c r="CP13" s="84"/>
-      <c r="CQ13" s="84"/>
-      <c r="CR13" s="84"/>
-      <c r="CS13" s="84"/>
-      <c r="CT13" s="84"/>
-      <c r="CU13" s="84"/>
-      <c r="CV13" s="84"/>
-      <c r="CW13" s="84"/>
-      <c r="CX13" s="84"/>
-      <c r="CY13" s="84"/>
-      <c r="CZ13" s="84"/>
-      <c r="DA13" s="84"/>
-      <c r="DB13" s="84"/>
-      <c r="DC13" s="84"/>
-      <c r="DD13" s="84"/>
-      <c r="DE13" s="84"/>
-      <c r="DF13" s="84"/>
-      <c r="DG13" s="84"/>
-      <c r="DH13" s="84"/>
-      <c r="DI13" s="84"/>
-      <c r="DJ13" s="84"/>
-      <c r="DK13" s="84"/>
-      <c r="DL13" s="84"/>
-      <c r="DM13" s="84"/>
-      <c r="DN13" s="84"/>
-      <c r="DO13" s="84"/>
-      <c r="DP13" s="84"/>
-      <c r="DQ13" s="84"/>
-      <c r="DR13" s="84"/>
-      <c r="DS13" s="84"/>
-      <c r="DT13" s="84"/>
-      <c r="DU13" s="84"/>
-      <c r="DV13" s="84"/>
-      <c r="DW13" s="84"/>
-      <c r="DX13" s="84"/>
-      <c r="DY13" s="84"/>
-      <c r="DZ13" s="84"/>
-      <c r="EA13" s="84"/>
-      <c r="EB13" s="84"/>
-      <c r="EC13" s="84"/>
-      <c r="ED13" s="84"/>
-      <c r="EE13" s="84"/>
-      <c r="EF13" s="84"/>
-      <c r="EG13" s="84"/>
-      <c r="EH13" s="84"/>
-      <c r="EI13" s="84"/>
-      <c r="EJ13" s="84"/>
-      <c r="EK13" s="84"/>
-      <c r="EL13" s="84"/>
-      <c r="EM13" s="84"/>
-      <c r="EN13" s="84"/>
-      <c r="EO13" s="84"/>
-      <c r="EP13" s="84"/>
-      <c r="EQ13" s="84"/>
-      <c r="ER13" s="84"/>
-      <c r="ES13" s="84"/>
-      <c r="ET13" s="84"/>
-      <c r="EU13" s="84"/>
-      <c r="EV13" s="84"/>
-      <c r="EW13" s="84"/>
-      <c r="EX13" s="84"/>
-      <c r="EY13" s="84"/>
-      <c r="EZ13" s="84"/>
-      <c r="FA13" s="84"/>
-      <c r="FB13" s="84"/>
-      <c r="FC13" s="84"/>
-      <c r="FD13" s="84"/>
-      <c r="FE13" s="84"/>
-      <c r="FF13" s="84"/>
-      <c r="FG13" s="84"/>
-      <c r="FH13" s="84"/>
-      <c r="FI13" s="84"/>
-      <c r="FJ13" s="84"/>
-      <c r="FK13" s="84"/>
-      <c r="FL13" s="84"/>
-      <c r="FM13" s="84"/>
-      <c r="FN13" s="84"/>
-      <c r="FO13" s="84"/>
-      <c r="FP13" s="84"/>
-      <c r="FQ13" s="84"/>
-      <c r="FR13" s="84"/>
-      <c r="FS13" s="84"/>
-      <c r="FT13" s="84"/>
-      <c r="FU13" s="84"/>
-      <c r="FV13" s="84"/>
-      <c r="FW13" s="84"/>
-      <c r="FX13" s="84"/>
-      <c r="FY13" s="84"/>
-      <c r="FZ13" s="84"/>
-      <c r="GA13" s="84"/>
-      <c r="GB13" s="84"/>
-      <c r="GC13" s="84"/>
-      <c r="GD13" s="84"/>
-      <c r="GE13" s="84"/>
-      <c r="GF13" s="84"/>
-      <c r="GG13" s="84"/>
-      <c r="GH13" s="84"/>
-      <c r="GI13" s="84"/>
-      <c r="GJ13" s="84"/>
-      <c r="GK13" s="84"/>
-      <c r="GL13" s="84"/>
-      <c r="GM13" s="84"/>
-      <c r="GN13" s="84"/>
-      <c r="GO13" s="84"/>
-      <c r="GP13" s="84"/>
-      <c r="GQ13" s="84"/>
-      <c r="GR13" s="84"/>
-      <c r="GS13" s="84"/>
-      <c r="GT13" s="84"/>
-      <c r="GU13" s="84"/>
-      <c r="GV13" s="84"/>
-      <c r="GW13" s="84"/>
-      <c r="GX13" s="84"/>
-      <c r="GY13" s="84"/>
-      <c r="GZ13" s="84"/>
-      <c r="HA13" s="84"/>
-      <c r="HB13" s="84"/>
-      <c r="HC13" s="84"/>
-      <c r="HD13" s="84"/>
-      <c r="HE13" s="84"/>
-      <c r="HF13" s="84"/>
-      <c r="HG13" s="84"/>
-      <c r="HH13" s="84"/>
-      <c r="HI13" s="84"/>
-      <c r="HJ13" s="84"/>
-      <c r="HK13" s="84"/>
-      <c r="HL13" s="84"/>
-      <c r="HM13" s="84"/>
-      <c r="HN13" s="84"/>
-      <c r="HO13" s="84"/>
-      <c r="HP13" s="84"/>
-      <c r="HQ13" s="84"/>
-      <c r="HR13" s="84"/>
-      <c r="HS13" s="84"/>
-      <c r="HT13" s="84"/>
-      <c r="HU13" s="84"/>
-      <c r="HV13" s="84"/>
-      <c r="HW13" s="84"/>
-      <c r="HX13" s="84"/>
-      <c r="HY13" s="84"/>
-      <c r="HZ13" s="84"/>
-      <c r="IA13" s="84"/>
-      <c r="IB13" s="84"/>
-      <c r="IC13" s="84"/>
-      <c r="ID13" s="84"/>
-      <c r="IE13" s="84"/>
-      <c r="IF13" s="84"/>
-      <c r="IG13" s="84"/>
-      <c r="IH13" s="84"/>
-      <c r="II13" s="84"/>
-      <c r="IJ13" s="84"/>
-      <c r="IK13" s="84"/>
-      <c r="IL13" s="84"/>
-      <c r="IM13" s="84"/>
-      <c r="IN13" s="84"/>
-      <c r="IO13" s="84"/>
-      <c r="IP13" s="84"/>
-      <c r="IQ13" s="84"/>
-      <c r="IR13" s="84"/>
-      <c r="IS13" s="84"/>
-      <c r="IT13" s="84"/>
-      <c r="IU13" s="84"/>
-      <c r="IV13" s="84"/>
-      <c r="IW13" s="84"/>
-      <c r="IX13" s="84"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="81"/>
+      <c r="AF13" s="81"/>
+      <c r="AG13" s="81"/>
+      <c r="AH13" s="81"/>
+      <c r="AI13" s="81"/>
+      <c r="AJ13" s="81"/>
+      <c r="AK13" s="81"/>
+      <c r="AL13" s="81"/>
+      <c r="AM13" s="81"/>
+      <c r="AN13" s="81"/>
+      <c r="AO13" s="81"/>
+      <c r="AP13" s="81"/>
+      <c r="AQ13" s="81"/>
+      <c r="AR13" s="81"/>
+      <c r="AS13" s="81"/>
+      <c r="AT13" s="81"/>
+      <c r="AU13" s="81"/>
+      <c r="AV13" s="81"/>
+      <c r="AW13" s="81"/>
+      <c r="AX13" s="81"/>
+      <c r="AY13" s="81"/>
+      <c r="AZ13" s="81"/>
+      <c r="BA13" s="81"/>
+      <c r="BB13" s="81"/>
+      <c r="BC13" s="81"/>
+      <c r="BD13" s="81"/>
+      <c r="BE13" s="81"/>
+      <c r="BF13" s="81"/>
+      <c r="BG13" s="81"/>
+      <c r="BH13" s="81"/>
+      <c r="BI13" s="81"/>
+      <c r="BJ13" s="81"/>
+      <c r="BK13" s="81"/>
+      <c r="BL13" s="81"/>
+      <c r="BM13" s="81"/>
+      <c r="BN13" s="81"/>
+      <c r="BO13" s="81"/>
+      <c r="BP13" s="81"/>
+      <c r="BQ13" s="81"/>
+      <c r="BR13" s="81"/>
+      <c r="BS13" s="81"/>
+      <c r="BT13" s="81"/>
+      <c r="BU13" s="81"/>
+      <c r="BV13" s="81"/>
+      <c r="BW13" s="81"/>
+      <c r="BX13" s="81"/>
+      <c r="BY13" s="81"/>
+      <c r="BZ13" s="81"/>
+      <c r="CA13" s="81"/>
+      <c r="CB13" s="81"/>
+      <c r="CC13" s="81"/>
+      <c r="CD13" s="81"/>
+      <c r="CE13" s="81"/>
+      <c r="CF13" s="81"/>
+      <c r="CG13" s="81"/>
+      <c r="CH13" s="81"/>
+      <c r="CI13" s="81"/>
+      <c r="CJ13" s="81"/>
+      <c r="CK13" s="81"/>
+      <c r="CL13" s="81"/>
+      <c r="CM13" s="81"/>
+      <c r="CN13" s="81"/>
+      <c r="CO13" s="81"/>
+      <c r="CP13" s="81"/>
+      <c r="CQ13" s="81"/>
+      <c r="CR13" s="81"/>
+      <c r="CS13" s="81"/>
+      <c r="CT13" s="81"/>
+      <c r="CU13" s="81"/>
+      <c r="CV13" s="81"/>
+      <c r="CW13" s="81"/>
+      <c r="CX13" s="81"/>
+      <c r="CY13" s="81"/>
+      <c r="CZ13" s="81"/>
+      <c r="DA13" s="81"/>
+      <c r="DB13" s="81"/>
+      <c r="DC13" s="81"/>
+      <c r="DD13" s="81"/>
+      <c r="DE13" s="81"/>
+      <c r="DF13" s="81"/>
+      <c r="DG13" s="81"/>
+      <c r="DH13" s="81"/>
+      <c r="DI13" s="81"/>
+      <c r="DJ13" s="81"/>
+      <c r="DK13" s="81"/>
+      <c r="DL13" s="81"/>
+      <c r="DM13" s="81"/>
+      <c r="DN13" s="81"/>
+      <c r="DO13" s="81"/>
+      <c r="DP13" s="81"/>
+      <c r="DQ13" s="81"/>
+      <c r="DR13" s="81"/>
+      <c r="DS13" s="81"/>
+      <c r="DT13" s="81"/>
+      <c r="DU13" s="81"/>
+      <c r="DV13" s="81"/>
+      <c r="DW13" s="81"/>
+      <c r="DX13" s="81"/>
+      <c r="DY13" s="81"/>
+      <c r="DZ13" s="81"/>
+      <c r="EA13" s="81"/>
+      <c r="EB13" s="81"/>
+      <c r="EC13" s="81"/>
+      <c r="ED13" s="81"/>
+      <c r="EE13" s="81"/>
+      <c r="EF13" s="81"/>
+      <c r="EG13" s="81"/>
+      <c r="EH13" s="81"/>
+      <c r="EI13" s="81"/>
+      <c r="EJ13" s="81"/>
+      <c r="EK13" s="81"/>
+      <c r="EL13" s="81"/>
+      <c r="EM13" s="81"/>
+      <c r="EN13" s="81"/>
+      <c r="EO13" s="81"/>
+      <c r="EP13" s="81"/>
+      <c r="EQ13" s="81"/>
+      <c r="ER13" s="81"/>
+      <c r="ES13" s="81"/>
+      <c r="ET13" s="81"/>
+      <c r="EU13" s="81"/>
+      <c r="EV13" s="81"/>
+      <c r="EW13" s="81"/>
+      <c r="EX13" s="81"/>
+      <c r="EY13" s="81"/>
+      <c r="EZ13" s="81"/>
+      <c r="FA13" s="81"/>
+      <c r="FB13" s="81"/>
+      <c r="FC13" s="81"/>
+      <c r="FD13" s="81"/>
+      <c r="FE13" s="81"/>
+      <c r="FF13" s="81"/>
+      <c r="FG13" s="81"/>
+      <c r="FH13" s="81"/>
+      <c r="FI13" s="81"/>
+      <c r="FJ13" s="81"/>
+      <c r="FK13" s="81"/>
+      <c r="FL13" s="81"/>
+      <c r="FM13" s="81"/>
+      <c r="FN13" s="81"/>
+      <c r="FO13" s="81"/>
+      <c r="FP13" s="81"/>
+      <c r="FQ13" s="81"/>
+      <c r="FR13" s="81"/>
+      <c r="FS13" s="81"/>
+      <c r="FT13" s="81"/>
+      <c r="FU13" s="81"/>
+      <c r="FV13" s="81"/>
+      <c r="FW13" s="81"/>
+      <c r="FX13" s="81"/>
+      <c r="FY13" s="81"/>
+      <c r="FZ13" s="81"/>
+      <c r="GA13" s="81"/>
+      <c r="GB13" s="81"/>
+      <c r="GC13" s="81"/>
+      <c r="GD13" s="81"/>
+      <c r="GE13" s="81"/>
+      <c r="GF13" s="81"/>
+      <c r="GG13" s="81"/>
+      <c r="GH13" s="81"/>
+      <c r="GI13" s="81"/>
+      <c r="GJ13" s="81"/>
+      <c r="GK13" s="81"/>
+      <c r="GL13" s="81"/>
+      <c r="GM13" s="81"/>
+      <c r="GN13" s="81"/>
+      <c r="GO13" s="81"/>
+      <c r="GP13" s="81"/>
+      <c r="GQ13" s="81"/>
+      <c r="GR13" s="81"/>
+      <c r="GS13" s="81"/>
+      <c r="GT13" s="81"/>
+      <c r="GU13" s="81"/>
+      <c r="GV13" s="81"/>
+      <c r="GW13" s="81"/>
+      <c r="GX13" s="81"/>
+      <c r="GY13" s="81"/>
+      <c r="GZ13" s="81"/>
+      <c r="HA13" s="81"/>
+      <c r="HB13" s="81"/>
+      <c r="HC13" s="81"/>
+      <c r="HD13" s="81"/>
+      <c r="HE13" s="81"/>
+      <c r="HF13" s="81"/>
+      <c r="HG13" s="81"/>
+      <c r="HH13" s="81"/>
+      <c r="HI13" s="81"/>
+      <c r="HJ13" s="81"/>
+      <c r="HK13" s="81"/>
+      <c r="HL13" s="81"/>
+      <c r="HM13" s="81"/>
+      <c r="HN13" s="81"/>
+      <c r="HO13" s="81"/>
+      <c r="HP13" s="81"/>
+      <c r="HQ13" s="81"/>
+      <c r="HR13" s="81"/>
+      <c r="HS13" s="81"/>
+      <c r="HT13" s="81"/>
+      <c r="HU13" s="81"/>
+      <c r="HV13" s="81"/>
+      <c r="HW13" s="81"/>
+      <c r="HX13" s="81"/>
+      <c r="HY13" s="81"/>
+      <c r="HZ13" s="81"/>
+      <c r="IA13" s="81"/>
+      <c r="IB13" s="81"/>
+      <c r="IC13" s="81"/>
+      <c r="ID13" s="81"/>
+      <c r="IE13" s="81"/>
+      <c r="IF13" s="81"/>
+      <c r="IG13" s="81"/>
+      <c r="IH13" s="81"/>
+      <c r="II13" s="81"/>
+      <c r="IJ13" s="81"/>
+      <c r="IK13" s="81"/>
+      <c r="IL13" s="81"/>
+      <c r="IM13" s="81"/>
+      <c r="IN13" s="81"/>
+      <c r="IO13" s="81"/>
+      <c r="IP13" s="81"/>
+      <c r="IQ13" s="81"/>
+      <c r="IR13" s="81"/>
+      <c r="IS13" s="81"/>
+      <c r="IT13" s="81"/>
+      <c r="IU13" s="81"/>
+      <c r="IV13" s="81"/>
+      <c r="IW13" s="81"/>
+      <c r="IX13" s="81"/>
     </row>
     <row r="14" spans="1:258" s="56" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A14" s="97"/>
-      <c r="B14" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="63">
+      <c r="A14" s="106"/>
+      <c r="B14" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="60"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="61">
         <v>1</v>
       </c>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="89"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="89"/>
-      <c r="AL14" s="89"/>
-      <c r="AM14" s="89"/>
-      <c r="AN14" s="89"/>
-      <c r="AO14" s="89"/>
-      <c r="AP14" s="89"/>
-      <c r="AQ14" s="89"/>
-      <c r="AR14" s="89"/>
-      <c r="AS14" s="89"/>
-      <c r="AT14" s="89"/>
-      <c r="AU14" s="89"/>
-      <c r="AV14" s="89"/>
-      <c r="AW14" s="89"/>
-      <c r="AX14" s="89"/>
-      <c r="AY14" s="89"/>
-      <c r="AZ14" s="89"/>
-      <c r="BA14" s="89"/>
-      <c r="BB14" s="89"/>
-      <c r="BC14" s="89"/>
-      <c r="BD14" s="89"/>
-      <c r="BE14" s="89"/>
-      <c r="BF14" s="89"/>
-      <c r="BG14" s="89"/>
-      <c r="BH14" s="89"/>
-      <c r="BI14" s="89"/>
-      <c r="BJ14" s="89"/>
-      <c r="BK14" s="89"/>
-      <c r="BL14" s="89"/>
-      <c r="BM14" s="89"/>
-      <c r="BN14" s="89"/>
-      <c r="BO14" s="89"/>
-      <c r="BP14" s="89"/>
-      <c r="BQ14" s="89"/>
-      <c r="BR14" s="89"/>
-      <c r="BS14" s="89"/>
-      <c r="BT14" s="89"/>
-      <c r="BU14" s="89"/>
-      <c r="BV14" s="89"/>
-      <c r="BW14" s="89"/>
-      <c r="BX14" s="89"/>
-      <c r="BY14" s="89"/>
-      <c r="BZ14" s="89"/>
-      <c r="CA14" s="89"/>
-      <c r="CB14" s="89"/>
-      <c r="CC14" s="89"/>
-      <c r="CD14" s="89"/>
-      <c r="CE14" s="89"/>
-      <c r="CF14" s="89"/>
-      <c r="CG14" s="89"/>
-      <c r="CH14" s="89"/>
-      <c r="CI14" s="89"/>
-      <c r="CJ14" s="89"/>
-      <c r="CK14" s="89"/>
-      <c r="CL14" s="89"/>
-      <c r="CM14" s="89"/>
-      <c r="CN14" s="89"/>
-      <c r="CO14" s="89"/>
-      <c r="CP14" s="89"/>
-      <c r="CQ14" s="89"/>
-      <c r="CR14" s="89"/>
-      <c r="CS14" s="89"/>
-      <c r="CT14" s="89"/>
-      <c r="CU14" s="89"/>
-      <c r="CV14" s="89"/>
-      <c r="CW14" s="89"/>
-      <c r="CX14" s="89"/>
-      <c r="CY14" s="89"/>
-      <c r="CZ14" s="89"/>
-      <c r="DA14" s="89"/>
-      <c r="DB14" s="89"/>
-      <c r="DC14" s="89"/>
-      <c r="DD14" s="89"/>
-      <c r="DE14" s="89"/>
-      <c r="DF14" s="89"/>
-      <c r="DG14" s="89"/>
-      <c r="DH14" s="89"/>
-      <c r="DI14" s="89"/>
-      <c r="DJ14" s="89"/>
-      <c r="DK14" s="89"/>
-      <c r="DL14" s="89"/>
-      <c r="DM14" s="89"/>
-      <c r="DN14" s="89"/>
-      <c r="DO14" s="89"/>
-      <c r="DP14" s="89"/>
-      <c r="DQ14" s="89"/>
-      <c r="DR14" s="89"/>
-      <c r="DS14" s="89"/>
-      <c r="DT14" s="89"/>
-      <c r="DU14" s="89"/>
-      <c r="DV14" s="89"/>
-      <c r="DW14" s="89"/>
-      <c r="DX14" s="89"/>
-      <c r="DY14" s="89"/>
-      <c r="DZ14" s="89"/>
-      <c r="EA14" s="89"/>
-      <c r="EB14" s="89"/>
-      <c r="EC14" s="89"/>
-      <c r="ED14" s="89"/>
-      <c r="EE14" s="89"/>
-      <c r="EF14" s="89"/>
-      <c r="EG14" s="89"/>
-      <c r="EH14" s="89"/>
-      <c r="EI14" s="89"/>
-      <c r="EJ14" s="89"/>
-      <c r="EK14" s="89"/>
-      <c r="EL14" s="89"/>
-      <c r="EM14" s="89"/>
-      <c r="EN14" s="89"/>
-      <c r="EO14" s="89"/>
-      <c r="EP14" s="89"/>
-      <c r="EQ14" s="89"/>
-      <c r="ER14" s="89"/>
-      <c r="ES14" s="89"/>
-      <c r="ET14" s="89"/>
-      <c r="EU14" s="89"/>
-      <c r="EV14" s="89"/>
-      <c r="EW14" s="89"/>
-      <c r="EX14" s="89"/>
-      <c r="EY14" s="89"/>
-      <c r="EZ14" s="89"/>
-      <c r="FA14" s="89"/>
-      <c r="FB14" s="89"/>
-      <c r="FC14" s="89"/>
-      <c r="FD14" s="89"/>
-      <c r="FE14" s="89"/>
-      <c r="FF14" s="89"/>
-      <c r="FG14" s="89"/>
-      <c r="FH14" s="89"/>
-      <c r="FI14" s="89"/>
-      <c r="FJ14" s="89"/>
-      <c r="FK14" s="89"/>
-      <c r="FL14" s="89"/>
-      <c r="FM14" s="89"/>
-      <c r="FN14" s="89"/>
-      <c r="FO14" s="89"/>
-      <c r="FP14" s="89"/>
-      <c r="FQ14" s="89"/>
-      <c r="FR14" s="89"/>
-      <c r="FS14" s="89"/>
-      <c r="FT14" s="89"/>
-      <c r="FU14" s="89"/>
-      <c r="FV14" s="89"/>
-      <c r="FW14" s="89"/>
-      <c r="FX14" s="89"/>
-      <c r="FY14" s="89"/>
-      <c r="FZ14" s="89"/>
-      <c r="GA14" s="89"/>
-      <c r="GB14" s="89"/>
-      <c r="GC14" s="89"/>
-      <c r="GD14" s="89"/>
-      <c r="GE14" s="89"/>
-      <c r="GF14" s="89"/>
-      <c r="GG14" s="89"/>
-      <c r="GH14" s="89"/>
-      <c r="GI14" s="89"/>
-      <c r="GJ14" s="89"/>
-      <c r="GK14" s="89"/>
-      <c r="GL14" s="89"/>
-      <c r="GM14" s="89"/>
-      <c r="GN14" s="89"/>
-      <c r="GO14" s="89"/>
-      <c r="GP14" s="89"/>
-      <c r="GQ14" s="89"/>
-      <c r="GR14" s="89"/>
-      <c r="GS14" s="89"/>
-      <c r="GT14" s="89"/>
-      <c r="GU14" s="89"/>
-      <c r="GV14" s="89"/>
-      <c r="GW14" s="89"/>
-      <c r="GX14" s="89"/>
-      <c r="GY14" s="89"/>
-      <c r="GZ14" s="89"/>
-      <c r="HA14" s="89"/>
-      <c r="HB14" s="89"/>
-      <c r="HC14" s="89"/>
-      <c r="HD14" s="89"/>
-      <c r="HE14" s="89"/>
-      <c r="HF14" s="89"/>
-      <c r="HG14" s="89"/>
-      <c r="HH14" s="89"/>
-      <c r="HI14" s="89"/>
-      <c r="HJ14" s="89"/>
-      <c r="HK14" s="89"/>
-      <c r="HL14" s="89"/>
-      <c r="HM14" s="89"/>
-      <c r="HN14" s="89"/>
-      <c r="HO14" s="89"/>
-      <c r="HP14" s="89"/>
-      <c r="HQ14" s="89"/>
-      <c r="HR14" s="89"/>
-      <c r="HS14" s="89"/>
-      <c r="HT14" s="89"/>
-      <c r="HU14" s="89"/>
-      <c r="HV14" s="89"/>
-      <c r="HW14" s="89"/>
-      <c r="HX14" s="89"/>
-      <c r="HY14" s="89"/>
-      <c r="HZ14" s="89"/>
-      <c r="IA14" s="89"/>
-      <c r="IB14" s="89"/>
-      <c r="IC14" s="89"/>
-      <c r="ID14" s="89"/>
-      <c r="IE14" s="89"/>
-      <c r="IF14" s="89"/>
-      <c r="IG14" s="89"/>
-      <c r="IH14" s="89"/>
-      <c r="II14" s="89"/>
-      <c r="IJ14" s="89"/>
-      <c r="IK14" s="89"/>
-      <c r="IL14" s="89"/>
-      <c r="IM14" s="89"/>
-      <c r="IN14" s="89"/>
-      <c r="IO14" s="89"/>
-      <c r="IP14" s="89"/>
-      <c r="IQ14" s="89"/>
-      <c r="IR14" s="89"/>
-      <c r="IS14" s="89"/>
-      <c r="IT14" s="89"/>
-      <c r="IU14" s="89"/>
-      <c r="IV14" s="89"/>
-      <c r="IW14" s="89"/>
-      <c r="IX14" s="89"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="86"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="86"/>
+      <c r="AO14" s="86"/>
+      <c r="AP14" s="86"/>
+      <c r="AQ14" s="86"/>
+      <c r="AR14" s="86"/>
+      <c r="AS14" s="86"/>
+      <c r="AT14" s="86"/>
+      <c r="AU14" s="86"/>
+      <c r="AV14" s="86"/>
+      <c r="AW14" s="86"/>
+      <c r="AX14" s="86"/>
+      <c r="AY14" s="86"/>
+      <c r="AZ14" s="86"/>
+      <c r="BA14" s="86"/>
+      <c r="BB14" s="86"/>
+      <c r="BC14" s="86"/>
+      <c r="BD14" s="86"/>
+      <c r="BE14" s="86"/>
+      <c r="BF14" s="86"/>
+      <c r="BG14" s="86"/>
+      <c r="BH14" s="86"/>
+      <c r="BI14" s="86"/>
+      <c r="BJ14" s="86"/>
+      <c r="BK14" s="86"/>
+      <c r="BL14" s="86"/>
+      <c r="BM14" s="86"/>
+      <c r="BN14" s="86"/>
+      <c r="BO14" s="86"/>
+      <c r="BP14" s="86"/>
+      <c r="BQ14" s="86"/>
+      <c r="BR14" s="86"/>
+      <c r="BS14" s="86"/>
+      <c r="BT14" s="86"/>
+      <c r="BU14" s="86"/>
+      <c r="BV14" s="86"/>
+      <c r="BW14" s="86"/>
+      <c r="BX14" s="86"/>
+      <c r="BY14" s="86"/>
+      <c r="BZ14" s="86"/>
+      <c r="CA14" s="86"/>
+      <c r="CB14" s="86"/>
+      <c r="CC14" s="86"/>
+      <c r="CD14" s="86"/>
+      <c r="CE14" s="86"/>
+      <c r="CF14" s="86"/>
+      <c r="CG14" s="86"/>
+      <c r="CH14" s="86"/>
+      <c r="CI14" s="86"/>
+      <c r="CJ14" s="86"/>
+      <c r="CK14" s="86"/>
+      <c r="CL14" s="86"/>
+      <c r="CM14" s="86"/>
+      <c r="CN14" s="86"/>
+      <c r="CO14" s="86"/>
+      <c r="CP14" s="86"/>
+      <c r="CQ14" s="86"/>
+      <c r="CR14" s="86"/>
+      <c r="CS14" s="86"/>
+      <c r="CT14" s="86"/>
+      <c r="CU14" s="86"/>
+      <c r="CV14" s="86"/>
+      <c r="CW14" s="86"/>
+      <c r="CX14" s="86"/>
+      <c r="CY14" s="86"/>
+      <c r="CZ14" s="86"/>
+      <c r="DA14" s="86"/>
+      <c r="DB14" s="86"/>
+      <c r="DC14" s="86"/>
+      <c r="DD14" s="86"/>
+      <c r="DE14" s="86"/>
+      <c r="DF14" s="86"/>
+      <c r="DG14" s="86"/>
+      <c r="DH14" s="86"/>
+      <c r="DI14" s="86"/>
+      <c r="DJ14" s="86"/>
+      <c r="DK14" s="86"/>
+      <c r="DL14" s="86"/>
+      <c r="DM14" s="86"/>
+      <c r="DN14" s="86"/>
+      <c r="DO14" s="86"/>
+      <c r="DP14" s="86"/>
+      <c r="DQ14" s="86"/>
+      <c r="DR14" s="86"/>
+      <c r="DS14" s="86"/>
+      <c r="DT14" s="86"/>
+      <c r="DU14" s="86"/>
+      <c r="DV14" s="86"/>
+      <c r="DW14" s="86"/>
+      <c r="DX14" s="86"/>
+      <c r="DY14" s="86"/>
+      <c r="DZ14" s="86"/>
+      <c r="EA14" s="86"/>
+      <c r="EB14" s="86"/>
+      <c r="EC14" s="86"/>
+      <c r="ED14" s="86"/>
+      <c r="EE14" s="86"/>
+      <c r="EF14" s="86"/>
+      <c r="EG14" s="86"/>
+      <c r="EH14" s="86"/>
+      <c r="EI14" s="86"/>
+      <c r="EJ14" s="86"/>
+      <c r="EK14" s="86"/>
+      <c r="EL14" s="86"/>
+      <c r="EM14" s="86"/>
+      <c r="EN14" s="86"/>
+      <c r="EO14" s="86"/>
+      <c r="EP14" s="86"/>
+      <c r="EQ14" s="86"/>
+      <c r="ER14" s="86"/>
+      <c r="ES14" s="86"/>
+      <c r="ET14" s="86"/>
+      <c r="EU14" s="86"/>
+      <c r="EV14" s="86"/>
+      <c r="EW14" s="86"/>
+      <c r="EX14" s="86"/>
+      <c r="EY14" s="86"/>
+      <c r="EZ14" s="86"/>
+      <c r="FA14" s="86"/>
+      <c r="FB14" s="86"/>
+      <c r="FC14" s="86"/>
+      <c r="FD14" s="86"/>
+      <c r="FE14" s="86"/>
+      <c r="FF14" s="86"/>
+      <c r="FG14" s="86"/>
+      <c r="FH14" s="86"/>
+      <c r="FI14" s="86"/>
+      <c r="FJ14" s="86"/>
+      <c r="FK14" s="86"/>
+      <c r="FL14" s="86"/>
+      <c r="FM14" s="86"/>
+      <c r="FN14" s="86"/>
+      <c r="FO14" s="86"/>
+      <c r="FP14" s="86"/>
+      <c r="FQ14" s="86"/>
+      <c r="FR14" s="86"/>
+      <c r="FS14" s="86"/>
+      <c r="FT14" s="86"/>
+      <c r="FU14" s="86"/>
+      <c r="FV14" s="86"/>
+      <c r="FW14" s="86"/>
+      <c r="FX14" s="86"/>
+      <c r="FY14" s="86"/>
+      <c r="FZ14" s="86"/>
+      <c r="GA14" s="86"/>
+      <c r="GB14" s="86"/>
+      <c r="GC14" s="86"/>
+      <c r="GD14" s="86"/>
+      <c r="GE14" s="86"/>
+      <c r="GF14" s="86"/>
+      <c r="GG14" s="86"/>
+      <c r="GH14" s="86"/>
+      <c r="GI14" s="86"/>
+      <c r="GJ14" s="86"/>
+      <c r="GK14" s="86"/>
+      <c r="GL14" s="86"/>
+      <c r="GM14" s="86"/>
+      <c r="GN14" s="86"/>
+      <c r="GO14" s="86"/>
+      <c r="GP14" s="86"/>
+      <c r="GQ14" s="86"/>
+      <c r="GR14" s="86"/>
+      <c r="GS14" s="86"/>
+      <c r="GT14" s="86"/>
+      <c r="GU14" s="86"/>
+      <c r="GV14" s="86"/>
+      <c r="GW14" s="86"/>
+      <c r="GX14" s="86"/>
+      <c r="GY14" s="86"/>
+      <c r="GZ14" s="86"/>
+      <c r="HA14" s="86"/>
+      <c r="HB14" s="86"/>
+      <c r="HC14" s="86"/>
+      <c r="HD14" s="86"/>
+      <c r="HE14" s="86"/>
+      <c r="HF14" s="86"/>
+      <c r="HG14" s="86"/>
+      <c r="HH14" s="86"/>
+      <c r="HI14" s="86"/>
+      <c r="HJ14" s="86"/>
+      <c r="HK14" s="86"/>
+      <c r="HL14" s="86"/>
+      <c r="HM14" s="86"/>
+      <c r="HN14" s="86"/>
+      <c r="HO14" s="86"/>
+      <c r="HP14" s="86"/>
+      <c r="HQ14" s="86"/>
+      <c r="HR14" s="86"/>
+      <c r="HS14" s="86"/>
+      <c r="HT14" s="86"/>
+      <c r="HU14" s="86"/>
+      <c r="HV14" s="86"/>
+      <c r="HW14" s="86"/>
+      <c r="HX14" s="86"/>
+      <c r="HY14" s="86"/>
+      <c r="HZ14" s="86"/>
+      <c r="IA14" s="86"/>
+      <c r="IB14" s="86"/>
+      <c r="IC14" s="86"/>
+      <c r="ID14" s="86"/>
+      <c r="IE14" s="86"/>
+      <c r="IF14" s="86"/>
+      <c r="IG14" s="86"/>
+      <c r="IH14" s="86"/>
+      <c r="II14" s="86"/>
+      <c r="IJ14" s="86"/>
+      <c r="IK14" s="86"/>
+      <c r="IL14" s="86"/>
+      <c r="IM14" s="86"/>
+      <c r="IN14" s="86"/>
+      <c r="IO14" s="86"/>
+      <c r="IP14" s="86"/>
+      <c r="IQ14" s="86"/>
+      <c r="IR14" s="86"/>
+      <c r="IS14" s="86"/>
+      <c r="IT14" s="86"/>
+      <c r="IU14" s="86"/>
+      <c r="IV14" s="86"/>
+      <c r="IW14" s="86"/>
+      <c r="IX14" s="86"/>
     </row>
     <row r="15" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A15" s="96"/>
-      <c r="B15" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="65" t="s">
+      <c r="A15" s="105"/>
+      <c r="B15" s="98" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="65"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AK15" s="84"/>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="84"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="84"/>
-      <c r="AS15" s="84"/>
-      <c r="AT15" s="84"/>
-      <c r="AU15" s="84"/>
-      <c r="AV15" s="84"/>
-      <c r="AW15" s="84"/>
-      <c r="AX15" s="84"/>
-      <c r="AY15" s="84"/>
-      <c r="AZ15" s="84"/>
-      <c r="BA15" s="84"/>
-      <c r="BB15" s="84"/>
-      <c r="BC15" s="84"/>
-      <c r="BD15" s="84"/>
-      <c r="BE15" s="84"/>
-      <c r="BF15" s="84"/>
-      <c r="BG15" s="84"/>
-      <c r="BH15" s="84"/>
-      <c r="BI15" s="84"/>
-      <c r="BJ15" s="84"/>
-      <c r="BK15" s="84"/>
-      <c r="BL15" s="84"/>
-      <c r="BM15" s="84"/>
-      <c r="BN15" s="84"/>
-      <c r="BO15" s="84"/>
-      <c r="BP15" s="84"/>
-      <c r="BQ15" s="84"/>
-      <c r="BR15" s="84"/>
-      <c r="BS15" s="84"/>
-      <c r="BT15" s="84"/>
-      <c r="BU15" s="84"/>
-      <c r="BV15" s="84"/>
-      <c r="BW15" s="84"/>
-      <c r="BX15" s="84"/>
-      <c r="BY15" s="84"/>
-      <c r="BZ15" s="84"/>
-      <c r="CA15" s="84"/>
-      <c r="CB15" s="84"/>
-      <c r="CC15" s="84"/>
-      <c r="CD15" s="84"/>
-      <c r="CE15" s="84"/>
-      <c r="CF15" s="84"/>
-      <c r="CG15" s="84"/>
-      <c r="CH15" s="84"/>
-      <c r="CI15" s="84"/>
-      <c r="CJ15" s="84"/>
-      <c r="CK15" s="84"/>
-      <c r="CL15" s="84"/>
-      <c r="CM15" s="84"/>
-      <c r="CN15" s="84"/>
-      <c r="CO15" s="84"/>
-      <c r="CP15" s="84"/>
-      <c r="CQ15" s="84"/>
-      <c r="CR15" s="84"/>
-      <c r="CS15" s="84"/>
-      <c r="CT15" s="84"/>
-      <c r="CU15" s="84"/>
-      <c r="CV15" s="84"/>
-      <c r="CW15" s="84"/>
-      <c r="CX15" s="84"/>
-      <c r="CY15" s="84"/>
-      <c r="CZ15" s="84"/>
-      <c r="DA15" s="84"/>
-      <c r="DB15" s="84"/>
-      <c r="DC15" s="84"/>
-      <c r="DD15" s="84"/>
-      <c r="DE15" s="84"/>
-      <c r="DF15" s="84"/>
-      <c r="DG15" s="84"/>
-      <c r="DH15" s="84"/>
-      <c r="DI15" s="84"/>
-      <c r="DJ15" s="84"/>
-      <c r="DK15" s="84"/>
-      <c r="DL15" s="84"/>
-      <c r="DM15" s="84"/>
-      <c r="DN15" s="84"/>
-      <c r="DO15" s="84"/>
-      <c r="DP15" s="84"/>
-      <c r="DQ15" s="84"/>
-      <c r="DR15" s="84"/>
-      <c r="DS15" s="84"/>
-      <c r="DT15" s="84"/>
-      <c r="DU15" s="84"/>
-      <c r="DV15" s="84"/>
-      <c r="DW15" s="84"/>
-      <c r="DX15" s="84"/>
-      <c r="DY15" s="84"/>
-      <c r="DZ15" s="84"/>
-      <c r="EA15" s="84"/>
-      <c r="EB15" s="84"/>
-      <c r="EC15" s="84"/>
-      <c r="ED15" s="84"/>
-      <c r="EE15" s="84"/>
-      <c r="EF15" s="84"/>
-      <c r="EG15" s="84"/>
-      <c r="EH15" s="84"/>
-      <c r="EI15" s="84"/>
-      <c r="EJ15" s="84"/>
-      <c r="EK15" s="84"/>
-      <c r="EL15" s="84"/>
-      <c r="EM15" s="84"/>
-      <c r="EN15" s="84"/>
-      <c r="EO15" s="84"/>
-      <c r="EP15" s="84"/>
-      <c r="EQ15" s="84"/>
-      <c r="ER15" s="84"/>
-      <c r="ES15" s="84"/>
-      <c r="ET15" s="84"/>
-      <c r="EU15" s="84"/>
-      <c r="EV15" s="84"/>
-      <c r="EW15" s="84"/>
-      <c r="EX15" s="84"/>
-      <c r="EY15" s="84"/>
-      <c r="EZ15" s="84"/>
-      <c r="FA15" s="84"/>
-      <c r="FB15" s="84"/>
-      <c r="FC15" s="84"/>
-      <c r="FD15" s="84"/>
-      <c r="FE15" s="84"/>
-      <c r="FF15" s="84"/>
-      <c r="FG15" s="84"/>
-      <c r="FH15" s="84"/>
-      <c r="FI15" s="84"/>
-      <c r="FJ15" s="84"/>
-      <c r="FK15" s="84"/>
-      <c r="FL15" s="84"/>
-      <c r="FM15" s="84"/>
-      <c r="FN15" s="84"/>
-      <c r="FO15" s="84"/>
-      <c r="FP15" s="84"/>
-      <c r="FQ15" s="84"/>
-      <c r="FR15" s="84"/>
-      <c r="FS15" s="84"/>
-      <c r="FT15" s="84"/>
-      <c r="FU15" s="84"/>
-      <c r="FV15" s="84"/>
-      <c r="FW15" s="84"/>
-      <c r="FX15" s="84"/>
-      <c r="FY15" s="84"/>
-      <c r="FZ15" s="84"/>
-      <c r="GA15" s="84"/>
-      <c r="GB15" s="84"/>
-      <c r="GC15" s="84"/>
-      <c r="GD15" s="84"/>
-      <c r="GE15" s="84"/>
-      <c r="GF15" s="84"/>
-      <c r="GG15" s="84"/>
-      <c r="GH15" s="84"/>
-      <c r="GI15" s="84"/>
-      <c r="GJ15" s="84"/>
-      <c r="GK15" s="84"/>
-      <c r="GL15" s="84"/>
-      <c r="GM15" s="84"/>
-      <c r="GN15" s="84"/>
-      <c r="GO15" s="84"/>
-      <c r="GP15" s="84"/>
-      <c r="GQ15" s="84"/>
-      <c r="GR15" s="84"/>
-      <c r="GS15" s="84"/>
-      <c r="GT15" s="84"/>
-      <c r="GU15" s="84"/>
-      <c r="GV15" s="84"/>
-      <c r="GW15" s="84"/>
-      <c r="GX15" s="84"/>
-      <c r="GY15" s="84"/>
-      <c r="GZ15" s="84"/>
-      <c r="HA15" s="84"/>
-      <c r="HB15" s="84"/>
-      <c r="HC15" s="84"/>
-      <c r="HD15" s="84"/>
-      <c r="HE15" s="84"/>
-      <c r="HF15" s="84"/>
-      <c r="HG15" s="84"/>
-      <c r="HH15" s="84"/>
-      <c r="HI15" s="84"/>
-      <c r="HJ15" s="84"/>
-      <c r="HK15" s="84"/>
-      <c r="HL15" s="84"/>
-      <c r="HM15" s="84"/>
-      <c r="HN15" s="84"/>
-      <c r="HO15" s="84"/>
-      <c r="HP15" s="84"/>
-      <c r="HQ15" s="84"/>
-      <c r="HR15" s="84"/>
-      <c r="HS15" s="84"/>
-      <c r="HT15" s="84"/>
-      <c r="HU15" s="84"/>
-      <c r="HV15" s="84"/>
-      <c r="HW15" s="84"/>
-      <c r="HX15" s="84"/>
-      <c r="HY15" s="84"/>
-      <c r="HZ15" s="84"/>
-      <c r="IA15" s="84"/>
-      <c r="IB15" s="84"/>
-      <c r="IC15" s="84"/>
-      <c r="ID15" s="84"/>
-      <c r="IE15" s="84"/>
-      <c r="IF15" s="84"/>
-      <c r="IG15" s="84"/>
-      <c r="IH15" s="84"/>
-      <c r="II15" s="84"/>
-      <c r="IJ15" s="84"/>
-      <c r="IK15" s="84"/>
-      <c r="IL15" s="84"/>
-      <c r="IM15" s="84"/>
-      <c r="IN15" s="84"/>
-      <c r="IO15" s="84"/>
-      <c r="IP15" s="84"/>
-      <c r="IQ15" s="84"/>
-      <c r="IR15" s="84"/>
-      <c r="IS15" s="84"/>
-      <c r="IT15" s="84"/>
-      <c r="IU15" s="84"/>
-      <c r="IV15" s="84"/>
-      <c r="IW15" s="84"/>
-      <c r="IX15" s="84"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="63"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="81"/>
+      <c r="AH15" s="81"/>
+      <c r="AI15" s="81"/>
+      <c r="AJ15" s="81"/>
+      <c r="AK15" s="81"/>
+      <c r="AL15" s="81"/>
+      <c r="AM15" s="81"/>
+      <c r="AN15" s="81"/>
+      <c r="AO15" s="81"/>
+      <c r="AP15" s="81"/>
+      <c r="AQ15" s="81"/>
+      <c r="AR15" s="81"/>
+      <c r="AS15" s="81"/>
+      <c r="AT15" s="81"/>
+      <c r="AU15" s="81"/>
+      <c r="AV15" s="81"/>
+      <c r="AW15" s="81"/>
+      <c r="AX15" s="81"/>
+      <c r="AY15" s="81"/>
+      <c r="AZ15" s="81"/>
+      <c r="BA15" s="81"/>
+      <c r="BB15" s="81"/>
+      <c r="BC15" s="81"/>
+      <c r="BD15" s="81"/>
+      <c r="BE15" s="81"/>
+      <c r="BF15" s="81"/>
+      <c r="BG15" s="81"/>
+      <c r="BH15" s="81"/>
+      <c r="BI15" s="81"/>
+      <c r="BJ15" s="81"/>
+      <c r="BK15" s="81"/>
+      <c r="BL15" s="81"/>
+      <c r="BM15" s="81"/>
+      <c r="BN15" s="81"/>
+      <c r="BO15" s="81"/>
+      <c r="BP15" s="81"/>
+      <c r="BQ15" s="81"/>
+      <c r="BR15" s="81"/>
+      <c r="BS15" s="81"/>
+      <c r="BT15" s="81"/>
+      <c r="BU15" s="81"/>
+      <c r="BV15" s="81"/>
+      <c r="BW15" s="81"/>
+      <c r="BX15" s="81"/>
+      <c r="BY15" s="81"/>
+      <c r="BZ15" s="81"/>
+      <c r="CA15" s="81"/>
+      <c r="CB15" s="81"/>
+      <c r="CC15" s="81"/>
+      <c r="CD15" s="81"/>
+      <c r="CE15" s="81"/>
+      <c r="CF15" s="81"/>
+      <c r="CG15" s="81"/>
+      <c r="CH15" s="81"/>
+      <c r="CI15" s="81"/>
+      <c r="CJ15" s="81"/>
+      <c r="CK15" s="81"/>
+      <c r="CL15" s="81"/>
+      <c r="CM15" s="81"/>
+      <c r="CN15" s="81"/>
+      <c r="CO15" s="81"/>
+      <c r="CP15" s="81"/>
+      <c r="CQ15" s="81"/>
+      <c r="CR15" s="81"/>
+      <c r="CS15" s="81"/>
+      <c r="CT15" s="81"/>
+      <c r="CU15" s="81"/>
+      <c r="CV15" s="81"/>
+      <c r="CW15" s="81"/>
+      <c r="CX15" s="81"/>
+      <c r="CY15" s="81"/>
+      <c r="CZ15" s="81"/>
+      <c r="DA15" s="81"/>
+      <c r="DB15" s="81"/>
+      <c r="DC15" s="81"/>
+      <c r="DD15" s="81"/>
+      <c r="DE15" s="81"/>
+      <c r="DF15" s="81"/>
+      <c r="DG15" s="81"/>
+      <c r="DH15" s="81"/>
+      <c r="DI15" s="81"/>
+      <c r="DJ15" s="81"/>
+      <c r="DK15" s="81"/>
+      <c r="DL15" s="81"/>
+      <c r="DM15" s="81"/>
+      <c r="DN15" s="81"/>
+      <c r="DO15" s="81"/>
+      <c r="DP15" s="81"/>
+      <c r="DQ15" s="81"/>
+      <c r="DR15" s="81"/>
+      <c r="DS15" s="81"/>
+      <c r="DT15" s="81"/>
+      <c r="DU15" s="81"/>
+      <c r="DV15" s="81"/>
+      <c r="DW15" s="81"/>
+      <c r="DX15" s="81"/>
+      <c r="DY15" s="81"/>
+      <c r="DZ15" s="81"/>
+      <c r="EA15" s="81"/>
+      <c r="EB15" s="81"/>
+      <c r="EC15" s="81"/>
+      <c r="ED15" s="81"/>
+      <c r="EE15" s="81"/>
+      <c r="EF15" s="81"/>
+      <c r="EG15" s="81"/>
+      <c r="EH15" s="81"/>
+      <c r="EI15" s="81"/>
+      <c r="EJ15" s="81"/>
+      <c r="EK15" s="81"/>
+      <c r="EL15" s="81"/>
+      <c r="EM15" s="81"/>
+      <c r="EN15" s="81"/>
+      <c r="EO15" s="81"/>
+      <c r="EP15" s="81"/>
+      <c r="EQ15" s="81"/>
+      <c r="ER15" s="81"/>
+      <c r="ES15" s="81"/>
+      <c r="ET15" s="81"/>
+      <c r="EU15" s="81"/>
+      <c r="EV15" s="81"/>
+      <c r="EW15" s="81"/>
+      <c r="EX15" s="81"/>
+      <c r="EY15" s="81"/>
+      <c r="EZ15" s="81"/>
+      <c r="FA15" s="81"/>
+      <c r="FB15" s="81"/>
+      <c r="FC15" s="81"/>
+      <c r="FD15" s="81"/>
+      <c r="FE15" s="81"/>
+      <c r="FF15" s="81"/>
+      <c r="FG15" s="81"/>
+      <c r="FH15" s="81"/>
+      <c r="FI15" s="81"/>
+      <c r="FJ15" s="81"/>
+      <c r="FK15" s="81"/>
+      <c r="FL15" s="81"/>
+      <c r="FM15" s="81"/>
+      <c r="FN15" s="81"/>
+      <c r="FO15" s="81"/>
+      <c r="FP15" s="81"/>
+      <c r="FQ15" s="81"/>
+      <c r="FR15" s="81"/>
+      <c r="FS15" s="81"/>
+      <c r="FT15" s="81"/>
+      <c r="FU15" s="81"/>
+      <c r="FV15" s="81"/>
+      <c r="FW15" s="81"/>
+      <c r="FX15" s="81"/>
+      <c r="FY15" s="81"/>
+      <c r="FZ15" s="81"/>
+      <c r="GA15" s="81"/>
+      <c r="GB15" s="81"/>
+      <c r="GC15" s="81"/>
+      <c r="GD15" s="81"/>
+      <c r="GE15" s="81"/>
+      <c r="GF15" s="81"/>
+      <c r="GG15" s="81"/>
+      <c r="GH15" s="81"/>
+      <c r="GI15" s="81"/>
+      <c r="GJ15" s="81"/>
+      <c r="GK15" s="81"/>
+      <c r="GL15" s="81"/>
+      <c r="GM15" s="81"/>
+      <c r="GN15" s="81"/>
+      <c r="GO15" s="81"/>
+      <c r="GP15" s="81"/>
+      <c r="GQ15" s="81"/>
+      <c r="GR15" s="81"/>
+      <c r="GS15" s="81"/>
+      <c r="GT15" s="81"/>
+      <c r="GU15" s="81"/>
+      <c r="GV15" s="81"/>
+      <c r="GW15" s="81"/>
+      <c r="GX15" s="81"/>
+      <c r="GY15" s="81"/>
+      <c r="GZ15" s="81"/>
+      <c r="HA15" s="81"/>
+      <c r="HB15" s="81"/>
+      <c r="HC15" s="81"/>
+      <c r="HD15" s="81"/>
+      <c r="HE15" s="81"/>
+      <c r="HF15" s="81"/>
+      <c r="HG15" s="81"/>
+      <c r="HH15" s="81"/>
+      <c r="HI15" s="81"/>
+      <c r="HJ15" s="81"/>
+      <c r="HK15" s="81"/>
+      <c r="HL15" s="81"/>
+      <c r="HM15" s="81"/>
+      <c r="HN15" s="81"/>
+      <c r="HO15" s="81"/>
+      <c r="HP15" s="81"/>
+      <c r="HQ15" s="81"/>
+      <c r="HR15" s="81"/>
+      <c r="HS15" s="81"/>
+      <c r="HT15" s="81"/>
+      <c r="HU15" s="81"/>
+      <c r="HV15" s="81"/>
+      <c r="HW15" s="81"/>
+      <c r="HX15" s="81"/>
+      <c r="HY15" s="81"/>
+      <c r="HZ15" s="81"/>
+      <c r="IA15" s="81"/>
+      <c r="IB15" s="81"/>
+      <c r="IC15" s="81"/>
+      <c r="ID15" s="81"/>
+      <c r="IE15" s="81"/>
+      <c r="IF15" s="81"/>
+      <c r="IG15" s="81"/>
+      <c r="IH15" s="81"/>
+      <c r="II15" s="81"/>
+      <c r="IJ15" s="81"/>
+      <c r="IK15" s="81"/>
+      <c r="IL15" s="81"/>
+      <c r="IM15" s="81"/>
+      <c r="IN15" s="81"/>
+      <c r="IO15" s="81"/>
+      <c r="IP15" s="81"/>
+      <c r="IQ15" s="81"/>
+      <c r="IR15" s="81"/>
+      <c r="IS15" s="81"/>
+      <c r="IT15" s="81"/>
+      <c r="IU15" s="81"/>
+      <c r="IV15" s="81"/>
+      <c r="IW15" s="81"/>
+      <c r="IX15" s="81"/>
     </row>
     <row r="16" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A16" s="96"/>
-      <c r="B16" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="61" t="s">
+      <c r="A16" s="105"/>
+      <c r="B16" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="84"/>
-      <c r="AJ16" s="84"/>
-      <c r="AK16" s="84"/>
-      <c r="AL16" s="84"/>
-      <c r="AM16" s="84"/>
-      <c r="AN16" s="84"/>
-      <c r="AO16" s="84"/>
-      <c r="AP16" s="84"/>
-      <c r="AQ16" s="84"/>
-      <c r="AR16" s="84"/>
-      <c r="AS16" s="84"/>
-      <c r="AT16" s="84"/>
-      <c r="AU16" s="84"/>
-      <c r="AV16" s="84"/>
-      <c r="AW16" s="84"/>
-      <c r="AX16" s="84"/>
-      <c r="AY16" s="84"/>
-      <c r="AZ16" s="84"/>
-      <c r="BA16" s="84"/>
-      <c r="BB16" s="84"/>
-      <c r="BC16" s="84"/>
-      <c r="BD16" s="84"/>
-      <c r="BE16" s="84"/>
-      <c r="BF16" s="84"/>
-      <c r="BG16" s="84"/>
-      <c r="BH16" s="84"/>
-      <c r="BI16" s="84"/>
-      <c r="BJ16" s="84"/>
-      <c r="BK16" s="84"/>
-      <c r="BL16" s="84"/>
-      <c r="BM16" s="84"/>
-      <c r="BN16" s="84"/>
-      <c r="BO16" s="84"/>
-      <c r="BP16" s="84"/>
-      <c r="BQ16" s="84"/>
-      <c r="BR16" s="84"/>
-      <c r="BS16" s="84"/>
-      <c r="BT16" s="84"/>
-      <c r="BU16" s="84"/>
-      <c r="BV16" s="84"/>
-      <c r="BW16" s="84"/>
-      <c r="BX16" s="84"/>
-      <c r="BY16" s="84"/>
-      <c r="BZ16" s="84"/>
-      <c r="CA16" s="84"/>
-      <c r="CB16" s="84"/>
-      <c r="CC16" s="84"/>
-      <c r="CD16" s="84"/>
-      <c r="CE16" s="84"/>
-      <c r="CF16" s="84"/>
-      <c r="CG16" s="84"/>
-      <c r="CH16" s="84"/>
-      <c r="CI16" s="84"/>
-      <c r="CJ16" s="84"/>
-      <c r="CK16" s="84"/>
-      <c r="CL16" s="84"/>
-      <c r="CM16" s="84"/>
-      <c r="CN16" s="84"/>
-      <c r="CO16" s="84"/>
-      <c r="CP16" s="84"/>
-      <c r="CQ16" s="84"/>
-      <c r="CR16" s="84"/>
-      <c r="CS16" s="84"/>
-      <c r="CT16" s="84"/>
-      <c r="CU16" s="84"/>
-      <c r="CV16" s="84"/>
-      <c r="CW16" s="84"/>
-      <c r="CX16" s="84"/>
-      <c r="CY16" s="84"/>
-      <c r="CZ16" s="84"/>
-      <c r="DA16" s="84"/>
-      <c r="DB16" s="84"/>
-      <c r="DC16" s="84"/>
-      <c r="DD16" s="84"/>
-      <c r="DE16" s="84"/>
-      <c r="DF16" s="84"/>
-      <c r="DG16" s="84"/>
-      <c r="DH16" s="84"/>
-      <c r="DI16" s="84"/>
-      <c r="DJ16" s="84"/>
-      <c r="DK16" s="84"/>
-      <c r="DL16" s="84"/>
-      <c r="DM16" s="84"/>
-      <c r="DN16" s="84"/>
-      <c r="DO16" s="84"/>
-      <c r="DP16" s="84"/>
-      <c r="DQ16" s="84"/>
-      <c r="DR16" s="84"/>
-      <c r="DS16" s="84"/>
-      <c r="DT16" s="84"/>
-      <c r="DU16" s="84"/>
-      <c r="DV16" s="84"/>
-      <c r="DW16" s="84"/>
-      <c r="DX16" s="84"/>
-      <c r="DY16" s="84"/>
-      <c r="DZ16" s="84"/>
-      <c r="EA16" s="84"/>
-      <c r="EB16" s="84"/>
-      <c r="EC16" s="84"/>
-      <c r="ED16" s="84"/>
-      <c r="EE16" s="84"/>
-      <c r="EF16" s="84"/>
-      <c r="EG16" s="84"/>
-      <c r="EH16" s="84"/>
-      <c r="EI16" s="84"/>
-      <c r="EJ16" s="84"/>
-      <c r="EK16" s="84"/>
-      <c r="EL16" s="84"/>
-      <c r="EM16" s="84"/>
-      <c r="EN16" s="84"/>
-      <c r="EO16" s="84"/>
-      <c r="EP16" s="84"/>
-      <c r="EQ16" s="84"/>
-      <c r="ER16" s="84"/>
-      <c r="ES16" s="84"/>
-      <c r="ET16" s="84"/>
-      <c r="EU16" s="84"/>
-      <c r="EV16" s="84"/>
-      <c r="EW16" s="84"/>
-      <c r="EX16" s="84"/>
-      <c r="EY16" s="84"/>
-      <c r="EZ16" s="84"/>
-      <c r="FA16" s="84"/>
-      <c r="FB16" s="84"/>
-      <c r="FC16" s="84"/>
-      <c r="FD16" s="84"/>
-      <c r="FE16" s="84"/>
-      <c r="FF16" s="84"/>
-      <c r="FG16" s="84"/>
-      <c r="FH16" s="84"/>
-      <c r="FI16" s="84"/>
-      <c r="FJ16" s="84"/>
-      <c r="FK16" s="84"/>
-      <c r="FL16" s="84"/>
-      <c r="FM16" s="84"/>
-      <c r="FN16" s="84"/>
-      <c r="FO16" s="84"/>
-      <c r="FP16" s="84"/>
-      <c r="FQ16" s="84"/>
-      <c r="FR16" s="84"/>
-      <c r="FS16" s="84"/>
-      <c r="FT16" s="84"/>
-      <c r="FU16" s="84"/>
-      <c r="FV16" s="84"/>
-      <c r="FW16" s="84"/>
-      <c r="FX16" s="84"/>
-      <c r="FY16" s="84"/>
-      <c r="FZ16" s="84"/>
-      <c r="GA16" s="84"/>
-      <c r="GB16" s="84"/>
-      <c r="GC16" s="84"/>
-      <c r="GD16" s="84"/>
-      <c r="GE16" s="84"/>
-      <c r="GF16" s="84"/>
-      <c r="GG16" s="84"/>
-      <c r="GH16" s="84"/>
-      <c r="GI16" s="84"/>
-      <c r="GJ16" s="84"/>
-      <c r="GK16" s="84"/>
-      <c r="GL16" s="84"/>
-      <c r="GM16" s="84"/>
-      <c r="GN16" s="84"/>
-      <c r="GO16" s="84"/>
-      <c r="GP16" s="84"/>
-      <c r="GQ16" s="84"/>
-      <c r="GR16" s="84"/>
-      <c r="GS16" s="84"/>
-      <c r="GT16" s="84"/>
-      <c r="GU16" s="84"/>
-      <c r="GV16" s="84"/>
-      <c r="GW16" s="84"/>
-      <c r="GX16" s="84"/>
-      <c r="GY16" s="84"/>
-      <c r="GZ16" s="84"/>
-      <c r="HA16" s="84"/>
-      <c r="HB16" s="84"/>
-      <c r="HC16" s="84"/>
-      <c r="HD16" s="84"/>
-      <c r="HE16" s="84"/>
-      <c r="HF16" s="84"/>
-      <c r="HG16" s="84"/>
-      <c r="HH16" s="84"/>
-      <c r="HI16" s="84"/>
-      <c r="HJ16" s="84"/>
-      <c r="HK16" s="84"/>
-      <c r="HL16" s="84"/>
-      <c r="HM16" s="84"/>
-      <c r="HN16" s="84"/>
-      <c r="HO16" s="84"/>
-      <c r="HP16" s="84"/>
-      <c r="HQ16" s="84"/>
-      <c r="HR16" s="84"/>
-      <c r="HS16" s="84"/>
-      <c r="HT16" s="84"/>
-      <c r="HU16" s="84"/>
-      <c r="HV16" s="84"/>
-      <c r="HW16" s="84"/>
-      <c r="HX16" s="84"/>
-      <c r="HY16" s="84"/>
-      <c r="HZ16" s="84"/>
-      <c r="IA16" s="84"/>
-      <c r="IB16" s="84"/>
-      <c r="IC16" s="84"/>
-      <c r="ID16" s="84"/>
-      <c r="IE16" s="84"/>
-      <c r="IF16" s="84"/>
-      <c r="IG16" s="84"/>
-      <c r="IH16" s="84"/>
-      <c r="II16" s="84"/>
-      <c r="IJ16" s="84"/>
-      <c r="IK16" s="84"/>
-      <c r="IL16" s="84"/>
-      <c r="IM16" s="84"/>
-      <c r="IN16" s="84"/>
-      <c r="IO16" s="84"/>
-      <c r="IP16" s="84"/>
-      <c r="IQ16" s="84"/>
-      <c r="IR16" s="84"/>
-      <c r="IS16" s="84"/>
-      <c r="IT16" s="84"/>
-      <c r="IU16" s="84"/>
-      <c r="IV16" s="84"/>
-      <c r="IW16" s="84"/>
-      <c r="IX16" s="84"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="59"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="81"/>
+      <c r="AH16" s="81"/>
+      <c r="AI16" s="81"/>
+      <c r="AJ16" s="81"/>
+      <c r="AK16" s="81"/>
+      <c r="AL16" s="81"/>
+      <c r="AM16" s="81"/>
+      <c r="AN16" s="81"/>
+      <c r="AO16" s="81"/>
+      <c r="AP16" s="81"/>
+      <c r="AQ16" s="81"/>
+      <c r="AR16" s="81"/>
+      <c r="AS16" s="81"/>
+      <c r="AT16" s="81"/>
+      <c r="AU16" s="81"/>
+      <c r="AV16" s="81"/>
+      <c r="AW16" s="81"/>
+      <c r="AX16" s="81"/>
+      <c r="AY16" s="81"/>
+      <c r="AZ16" s="81"/>
+      <c r="BA16" s="81"/>
+      <c r="BB16" s="81"/>
+      <c r="BC16" s="81"/>
+      <c r="BD16" s="81"/>
+      <c r="BE16" s="81"/>
+      <c r="BF16" s="81"/>
+      <c r="BG16" s="81"/>
+      <c r="BH16" s="81"/>
+      <c r="BI16" s="81"/>
+      <c r="BJ16" s="81"/>
+      <c r="BK16" s="81"/>
+      <c r="BL16" s="81"/>
+      <c r="BM16" s="81"/>
+      <c r="BN16" s="81"/>
+      <c r="BO16" s="81"/>
+      <c r="BP16" s="81"/>
+      <c r="BQ16" s="81"/>
+      <c r="BR16" s="81"/>
+      <c r="BS16" s="81"/>
+      <c r="BT16" s="81"/>
+      <c r="BU16" s="81"/>
+      <c r="BV16" s="81"/>
+      <c r="BW16" s="81"/>
+      <c r="BX16" s="81"/>
+      <c r="BY16" s="81"/>
+      <c r="BZ16" s="81"/>
+      <c r="CA16" s="81"/>
+      <c r="CB16" s="81"/>
+      <c r="CC16" s="81"/>
+      <c r="CD16" s="81"/>
+      <c r="CE16" s="81"/>
+      <c r="CF16" s="81"/>
+      <c r="CG16" s="81"/>
+      <c r="CH16" s="81"/>
+      <c r="CI16" s="81"/>
+      <c r="CJ16" s="81"/>
+      <c r="CK16" s="81"/>
+      <c r="CL16" s="81"/>
+      <c r="CM16" s="81"/>
+      <c r="CN16" s="81"/>
+      <c r="CO16" s="81"/>
+      <c r="CP16" s="81"/>
+      <c r="CQ16" s="81"/>
+      <c r="CR16" s="81"/>
+      <c r="CS16" s="81"/>
+      <c r="CT16" s="81"/>
+      <c r="CU16" s="81"/>
+      <c r="CV16" s="81"/>
+      <c r="CW16" s="81"/>
+      <c r="CX16" s="81"/>
+      <c r="CY16" s="81"/>
+      <c r="CZ16" s="81"/>
+      <c r="DA16" s="81"/>
+      <c r="DB16" s="81"/>
+      <c r="DC16" s="81"/>
+      <c r="DD16" s="81"/>
+      <c r="DE16" s="81"/>
+      <c r="DF16" s="81"/>
+      <c r="DG16" s="81"/>
+      <c r="DH16" s="81"/>
+      <c r="DI16" s="81"/>
+      <c r="DJ16" s="81"/>
+      <c r="DK16" s="81"/>
+      <c r="DL16" s="81"/>
+      <c r="DM16" s="81"/>
+      <c r="DN16" s="81"/>
+      <c r="DO16" s="81"/>
+      <c r="DP16" s="81"/>
+      <c r="DQ16" s="81"/>
+      <c r="DR16" s="81"/>
+      <c r="DS16" s="81"/>
+      <c r="DT16" s="81"/>
+      <c r="DU16" s="81"/>
+      <c r="DV16" s="81"/>
+      <c r="DW16" s="81"/>
+      <c r="DX16" s="81"/>
+      <c r="DY16" s="81"/>
+      <c r="DZ16" s="81"/>
+      <c r="EA16" s="81"/>
+      <c r="EB16" s="81"/>
+      <c r="EC16" s="81"/>
+      <c r="ED16" s="81"/>
+      <c r="EE16" s="81"/>
+      <c r="EF16" s="81"/>
+      <c r="EG16" s="81"/>
+      <c r="EH16" s="81"/>
+      <c r="EI16" s="81"/>
+      <c r="EJ16" s="81"/>
+      <c r="EK16" s="81"/>
+      <c r="EL16" s="81"/>
+      <c r="EM16" s="81"/>
+      <c r="EN16" s="81"/>
+      <c r="EO16" s="81"/>
+      <c r="EP16" s="81"/>
+      <c r="EQ16" s="81"/>
+      <c r="ER16" s="81"/>
+      <c r="ES16" s="81"/>
+      <c r="ET16" s="81"/>
+      <c r="EU16" s="81"/>
+      <c r="EV16" s="81"/>
+      <c r="EW16" s="81"/>
+      <c r="EX16" s="81"/>
+      <c r="EY16" s="81"/>
+      <c r="EZ16" s="81"/>
+      <c r="FA16" s="81"/>
+      <c r="FB16" s="81"/>
+      <c r="FC16" s="81"/>
+      <c r="FD16" s="81"/>
+      <c r="FE16" s="81"/>
+      <c r="FF16" s="81"/>
+      <c r="FG16" s="81"/>
+      <c r="FH16" s="81"/>
+      <c r="FI16" s="81"/>
+      <c r="FJ16" s="81"/>
+      <c r="FK16" s="81"/>
+      <c r="FL16" s="81"/>
+      <c r="FM16" s="81"/>
+      <c r="FN16" s="81"/>
+      <c r="FO16" s="81"/>
+      <c r="FP16" s="81"/>
+      <c r="FQ16" s="81"/>
+      <c r="FR16" s="81"/>
+      <c r="FS16" s="81"/>
+      <c r="FT16" s="81"/>
+      <c r="FU16" s="81"/>
+      <c r="FV16" s="81"/>
+      <c r="FW16" s="81"/>
+      <c r="FX16" s="81"/>
+      <c r="FY16" s="81"/>
+      <c r="FZ16" s="81"/>
+      <c r="GA16" s="81"/>
+      <c r="GB16" s="81"/>
+      <c r="GC16" s="81"/>
+      <c r="GD16" s="81"/>
+      <c r="GE16" s="81"/>
+      <c r="GF16" s="81"/>
+      <c r="GG16" s="81"/>
+      <c r="GH16" s="81"/>
+      <c r="GI16" s="81"/>
+      <c r="GJ16" s="81"/>
+      <c r="GK16" s="81"/>
+      <c r="GL16" s="81"/>
+      <c r="GM16" s="81"/>
+      <c r="GN16" s="81"/>
+      <c r="GO16" s="81"/>
+      <c r="GP16" s="81"/>
+      <c r="GQ16" s="81"/>
+      <c r="GR16" s="81"/>
+      <c r="GS16" s="81"/>
+      <c r="GT16" s="81"/>
+      <c r="GU16" s="81"/>
+      <c r="GV16" s="81"/>
+      <c r="GW16" s="81"/>
+      <c r="GX16" s="81"/>
+      <c r="GY16" s="81"/>
+      <c r="GZ16" s="81"/>
+      <c r="HA16" s="81"/>
+      <c r="HB16" s="81"/>
+      <c r="HC16" s="81"/>
+      <c r="HD16" s="81"/>
+      <c r="HE16" s="81"/>
+      <c r="HF16" s="81"/>
+      <c r="HG16" s="81"/>
+      <c r="HH16" s="81"/>
+      <c r="HI16" s="81"/>
+      <c r="HJ16" s="81"/>
+      <c r="HK16" s="81"/>
+      <c r="HL16" s="81"/>
+      <c r="HM16" s="81"/>
+      <c r="HN16" s="81"/>
+      <c r="HO16" s="81"/>
+      <c r="HP16" s="81"/>
+      <c r="HQ16" s="81"/>
+      <c r="HR16" s="81"/>
+      <c r="HS16" s="81"/>
+      <c r="HT16" s="81"/>
+      <c r="HU16" s="81"/>
+      <c r="HV16" s="81"/>
+      <c r="HW16" s="81"/>
+      <c r="HX16" s="81"/>
+      <c r="HY16" s="81"/>
+      <c r="HZ16" s="81"/>
+      <c r="IA16" s="81"/>
+      <c r="IB16" s="81"/>
+      <c r="IC16" s="81"/>
+      <c r="ID16" s="81"/>
+      <c r="IE16" s="81"/>
+      <c r="IF16" s="81"/>
+      <c r="IG16" s="81"/>
+      <c r="IH16" s="81"/>
+      <c r="II16" s="81"/>
+      <c r="IJ16" s="81"/>
+      <c r="IK16" s="81"/>
+      <c r="IL16" s="81"/>
+      <c r="IM16" s="81"/>
+      <c r="IN16" s="81"/>
+      <c r="IO16" s="81"/>
+      <c r="IP16" s="81"/>
+      <c r="IQ16" s="81"/>
+      <c r="IR16" s="81"/>
+      <c r="IS16" s="81"/>
+      <c r="IT16" s="81"/>
+      <c r="IU16" s="81"/>
+      <c r="IV16" s="81"/>
+      <c r="IW16" s="81"/>
+      <c r="IX16" s="81"/>
     </row>
     <row r="17" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A17" s="98"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>18</v>
@@ -6674,18 +6689,18 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="73"/>
-      <c r="K17" s="72"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="70"/>
       <c r="L17" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M17" s="51"/>
       <c r="N17" s="51"/>
@@ -6945,7 +6960,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="72"/>
+      <c r="K18" s="70"/>
       <c r="L18" s="21"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
@@ -7195,14 +7210,14 @@
       <c r="IX18" s="24"/>
     </row>
     <row r="19" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A19" s="99" t="s">
-        <v>68</v>
+      <c r="A19" s="108" t="s">
+        <v>64</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>26</v>
@@ -7211,11 +7226,11 @@
       <c r="F19" s="27"/>
       <c r="G19" s="29"/>
       <c r="H19" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="70"/>
       <c r="L19" s="21"/>
       <c r="M19" s="51"/>
       <c r="N19" s="51"/>
@@ -7465,808 +7480,808 @@
       <c r="IX19" s="51"/>
     </row>
     <row r="20" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A20" s="100"/>
-      <c r="B20" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="61" t="s">
+      <c r="A20" s="109"/>
+      <c r="B20" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="84"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="84"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="84"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="84"/>
-      <c r="AK20" s="84"/>
-      <c r="AL20" s="84"/>
-      <c r="AM20" s="84"/>
-      <c r="AN20" s="84"/>
-      <c r="AO20" s="84"/>
-      <c r="AP20" s="84"/>
-      <c r="AQ20" s="84"/>
-      <c r="AR20" s="84"/>
-      <c r="AS20" s="84"/>
-      <c r="AT20" s="84"/>
-      <c r="AU20" s="84"/>
-      <c r="AV20" s="84"/>
-      <c r="AW20" s="84"/>
-      <c r="AX20" s="84"/>
-      <c r="AY20" s="84"/>
-      <c r="AZ20" s="84"/>
-      <c r="BA20" s="84"/>
-      <c r="BB20" s="84"/>
-      <c r="BC20" s="84"/>
-      <c r="BD20" s="84"/>
-      <c r="BE20" s="84"/>
-      <c r="BF20" s="84"/>
-      <c r="BG20" s="84"/>
-      <c r="BH20" s="84"/>
-      <c r="BI20" s="84"/>
-      <c r="BJ20" s="84"/>
-      <c r="BK20" s="84"/>
-      <c r="BL20" s="84"/>
-      <c r="BM20" s="84"/>
-      <c r="BN20" s="84"/>
-      <c r="BO20" s="84"/>
-      <c r="BP20" s="84"/>
-      <c r="BQ20" s="84"/>
-      <c r="BR20" s="84"/>
-      <c r="BS20" s="84"/>
-      <c r="BT20" s="84"/>
-      <c r="BU20" s="84"/>
-      <c r="BV20" s="84"/>
-      <c r="BW20" s="84"/>
-      <c r="BX20" s="84"/>
-      <c r="BY20" s="84"/>
-      <c r="BZ20" s="84"/>
-      <c r="CA20" s="84"/>
-      <c r="CB20" s="84"/>
-      <c r="CC20" s="84"/>
-      <c r="CD20" s="84"/>
-      <c r="CE20" s="84"/>
-      <c r="CF20" s="84"/>
-      <c r="CG20" s="84"/>
-      <c r="CH20" s="84"/>
-      <c r="CI20" s="84"/>
-      <c r="CJ20" s="84"/>
-      <c r="CK20" s="84"/>
-      <c r="CL20" s="84"/>
-      <c r="CM20" s="84"/>
-      <c r="CN20" s="84"/>
-      <c r="CO20" s="84"/>
-      <c r="CP20" s="84"/>
-      <c r="CQ20" s="84"/>
-      <c r="CR20" s="84"/>
-      <c r="CS20" s="84"/>
-      <c r="CT20" s="84"/>
-      <c r="CU20" s="84"/>
-      <c r="CV20" s="84"/>
-      <c r="CW20" s="84"/>
-      <c r="CX20" s="84"/>
-      <c r="CY20" s="84"/>
-      <c r="CZ20" s="84"/>
-      <c r="DA20" s="84"/>
-      <c r="DB20" s="84"/>
-      <c r="DC20" s="84"/>
-      <c r="DD20" s="84"/>
-      <c r="DE20" s="84"/>
-      <c r="DF20" s="84"/>
-      <c r="DG20" s="84"/>
-      <c r="DH20" s="84"/>
-      <c r="DI20" s="84"/>
-      <c r="DJ20" s="84"/>
-      <c r="DK20" s="84"/>
-      <c r="DL20" s="84"/>
-      <c r="DM20" s="84"/>
-      <c r="DN20" s="84"/>
-      <c r="DO20" s="84"/>
-      <c r="DP20" s="84"/>
-      <c r="DQ20" s="84"/>
-      <c r="DR20" s="84"/>
-      <c r="DS20" s="84"/>
-      <c r="DT20" s="84"/>
-      <c r="DU20" s="84"/>
-      <c r="DV20" s="84"/>
-      <c r="DW20" s="84"/>
-      <c r="DX20" s="84"/>
-      <c r="DY20" s="84"/>
-      <c r="DZ20" s="84"/>
-      <c r="EA20" s="84"/>
-      <c r="EB20" s="84"/>
-      <c r="EC20" s="84"/>
-      <c r="ED20" s="84"/>
-      <c r="EE20" s="84"/>
-      <c r="EF20" s="84"/>
-      <c r="EG20" s="84"/>
-      <c r="EH20" s="84"/>
-      <c r="EI20" s="84"/>
-      <c r="EJ20" s="84"/>
-      <c r="EK20" s="84"/>
-      <c r="EL20" s="84"/>
-      <c r="EM20" s="84"/>
-      <c r="EN20" s="84"/>
-      <c r="EO20" s="84"/>
-      <c r="EP20" s="84"/>
-      <c r="EQ20" s="84"/>
-      <c r="ER20" s="84"/>
-      <c r="ES20" s="84"/>
-      <c r="ET20" s="84"/>
-      <c r="EU20" s="84"/>
-      <c r="EV20" s="84"/>
-      <c r="EW20" s="84"/>
-      <c r="EX20" s="84"/>
-      <c r="EY20" s="84"/>
-      <c r="EZ20" s="84"/>
-      <c r="FA20" s="84"/>
-      <c r="FB20" s="84"/>
-      <c r="FC20" s="84"/>
-      <c r="FD20" s="84"/>
-      <c r="FE20" s="84"/>
-      <c r="FF20" s="84"/>
-      <c r="FG20" s="84"/>
-      <c r="FH20" s="84"/>
-      <c r="FI20" s="84"/>
-      <c r="FJ20" s="84"/>
-      <c r="FK20" s="84"/>
-      <c r="FL20" s="84"/>
-      <c r="FM20" s="84"/>
-      <c r="FN20" s="84"/>
-      <c r="FO20" s="84"/>
-      <c r="FP20" s="84"/>
-      <c r="FQ20" s="84"/>
-      <c r="FR20" s="84"/>
-      <c r="FS20" s="84"/>
-      <c r="FT20" s="84"/>
-      <c r="FU20" s="84"/>
-      <c r="FV20" s="84"/>
-      <c r="FW20" s="84"/>
-      <c r="FX20" s="84"/>
-      <c r="FY20" s="84"/>
-      <c r="FZ20" s="84"/>
-      <c r="GA20" s="84"/>
-      <c r="GB20" s="84"/>
-      <c r="GC20" s="84"/>
-      <c r="GD20" s="84"/>
-      <c r="GE20" s="84"/>
-      <c r="GF20" s="84"/>
-      <c r="GG20" s="84"/>
-      <c r="GH20" s="84"/>
-      <c r="GI20" s="84"/>
-      <c r="GJ20" s="84"/>
-      <c r="GK20" s="84"/>
-      <c r="GL20" s="84"/>
-      <c r="GM20" s="84"/>
-      <c r="GN20" s="84"/>
-      <c r="GO20" s="84"/>
-      <c r="GP20" s="84"/>
-      <c r="GQ20" s="84"/>
-      <c r="GR20" s="84"/>
-      <c r="GS20" s="84"/>
-      <c r="GT20" s="84"/>
-      <c r="GU20" s="84"/>
-      <c r="GV20" s="84"/>
-      <c r="GW20" s="84"/>
-      <c r="GX20" s="84"/>
-      <c r="GY20" s="84"/>
-      <c r="GZ20" s="84"/>
-      <c r="HA20" s="84"/>
-      <c r="HB20" s="84"/>
-      <c r="HC20" s="84"/>
-      <c r="HD20" s="84"/>
-      <c r="HE20" s="84"/>
-      <c r="HF20" s="84"/>
-      <c r="HG20" s="84"/>
-      <c r="HH20" s="84"/>
-      <c r="HI20" s="84"/>
-      <c r="HJ20" s="84"/>
-      <c r="HK20" s="84"/>
-      <c r="HL20" s="84"/>
-      <c r="HM20" s="84"/>
-      <c r="HN20" s="84"/>
-      <c r="HO20" s="84"/>
-      <c r="HP20" s="84"/>
-      <c r="HQ20" s="84"/>
-      <c r="HR20" s="84"/>
-      <c r="HS20" s="84"/>
-      <c r="HT20" s="84"/>
-      <c r="HU20" s="84"/>
-      <c r="HV20" s="84"/>
-      <c r="HW20" s="84"/>
-      <c r="HX20" s="84"/>
-      <c r="HY20" s="84"/>
-      <c r="HZ20" s="84"/>
-      <c r="IA20" s="84"/>
-      <c r="IB20" s="84"/>
-      <c r="IC20" s="84"/>
-      <c r="ID20" s="84"/>
-      <c r="IE20" s="84"/>
-      <c r="IF20" s="84"/>
-      <c r="IG20" s="84"/>
-      <c r="IH20" s="84"/>
-      <c r="II20" s="84"/>
-      <c r="IJ20" s="84"/>
-      <c r="IK20" s="84"/>
-      <c r="IL20" s="84"/>
-      <c r="IM20" s="84"/>
-      <c r="IN20" s="84"/>
-      <c r="IO20" s="84"/>
-      <c r="IP20" s="84"/>
-      <c r="IQ20" s="84"/>
-      <c r="IR20" s="84"/>
-      <c r="IS20" s="84"/>
-      <c r="IT20" s="84"/>
-      <c r="IU20" s="84"/>
-      <c r="IV20" s="84"/>
-      <c r="IW20" s="84"/>
-      <c r="IX20" s="84"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="59"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="81"/>
+      <c r="AH20" s="81"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="81"/>
+      <c r="AM20" s="81"/>
+      <c r="AN20" s="81"/>
+      <c r="AO20" s="81"/>
+      <c r="AP20" s="81"/>
+      <c r="AQ20" s="81"/>
+      <c r="AR20" s="81"/>
+      <c r="AS20" s="81"/>
+      <c r="AT20" s="81"/>
+      <c r="AU20" s="81"/>
+      <c r="AV20" s="81"/>
+      <c r="AW20" s="81"/>
+      <c r="AX20" s="81"/>
+      <c r="AY20" s="81"/>
+      <c r="AZ20" s="81"/>
+      <c r="BA20" s="81"/>
+      <c r="BB20" s="81"/>
+      <c r="BC20" s="81"/>
+      <c r="BD20" s="81"/>
+      <c r="BE20" s="81"/>
+      <c r="BF20" s="81"/>
+      <c r="BG20" s="81"/>
+      <c r="BH20" s="81"/>
+      <c r="BI20" s="81"/>
+      <c r="BJ20" s="81"/>
+      <c r="BK20" s="81"/>
+      <c r="BL20" s="81"/>
+      <c r="BM20" s="81"/>
+      <c r="BN20" s="81"/>
+      <c r="BO20" s="81"/>
+      <c r="BP20" s="81"/>
+      <c r="BQ20" s="81"/>
+      <c r="BR20" s="81"/>
+      <c r="BS20" s="81"/>
+      <c r="BT20" s="81"/>
+      <c r="BU20" s="81"/>
+      <c r="BV20" s="81"/>
+      <c r="BW20" s="81"/>
+      <c r="BX20" s="81"/>
+      <c r="BY20" s="81"/>
+      <c r="BZ20" s="81"/>
+      <c r="CA20" s="81"/>
+      <c r="CB20" s="81"/>
+      <c r="CC20" s="81"/>
+      <c r="CD20" s="81"/>
+      <c r="CE20" s="81"/>
+      <c r="CF20" s="81"/>
+      <c r="CG20" s="81"/>
+      <c r="CH20" s="81"/>
+      <c r="CI20" s="81"/>
+      <c r="CJ20" s="81"/>
+      <c r="CK20" s="81"/>
+      <c r="CL20" s="81"/>
+      <c r="CM20" s="81"/>
+      <c r="CN20" s="81"/>
+      <c r="CO20" s="81"/>
+      <c r="CP20" s="81"/>
+      <c r="CQ20" s="81"/>
+      <c r="CR20" s="81"/>
+      <c r="CS20" s="81"/>
+      <c r="CT20" s="81"/>
+      <c r="CU20" s="81"/>
+      <c r="CV20" s="81"/>
+      <c r="CW20" s="81"/>
+      <c r="CX20" s="81"/>
+      <c r="CY20" s="81"/>
+      <c r="CZ20" s="81"/>
+      <c r="DA20" s="81"/>
+      <c r="DB20" s="81"/>
+      <c r="DC20" s="81"/>
+      <c r="DD20" s="81"/>
+      <c r="DE20" s="81"/>
+      <c r="DF20" s="81"/>
+      <c r="DG20" s="81"/>
+      <c r="DH20" s="81"/>
+      <c r="DI20" s="81"/>
+      <c r="DJ20" s="81"/>
+      <c r="DK20" s="81"/>
+      <c r="DL20" s="81"/>
+      <c r="DM20" s="81"/>
+      <c r="DN20" s="81"/>
+      <c r="DO20" s="81"/>
+      <c r="DP20" s="81"/>
+      <c r="DQ20" s="81"/>
+      <c r="DR20" s="81"/>
+      <c r="DS20" s="81"/>
+      <c r="DT20" s="81"/>
+      <c r="DU20" s="81"/>
+      <c r="DV20" s="81"/>
+      <c r="DW20" s="81"/>
+      <c r="DX20" s="81"/>
+      <c r="DY20" s="81"/>
+      <c r="DZ20" s="81"/>
+      <c r="EA20" s="81"/>
+      <c r="EB20" s="81"/>
+      <c r="EC20" s="81"/>
+      <c r="ED20" s="81"/>
+      <c r="EE20" s="81"/>
+      <c r="EF20" s="81"/>
+      <c r="EG20" s="81"/>
+      <c r="EH20" s="81"/>
+      <c r="EI20" s="81"/>
+      <c r="EJ20" s="81"/>
+      <c r="EK20" s="81"/>
+      <c r="EL20" s="81"/>
+      <c r="EM20" s="81"/>
+      <c r="EN20" s="81"/>
+      <c r="EO20" s="81"/>
+      <c r="EP20" s="81"/>
+      <c r="EQ20" s="81"/>
+      <c r="ER20" s="81"/>
+      <c r="ES20" s="81"/>
+      <c r="ET20" s="81"/>
+      <c r="EU20" s="81"/>
+      <c r="EV20" s="81"/>
+      <c r="EW20" s="81"/>
+      <c r="EX20" s="81"/>
+      <c r="EY20" s="81"/>
+      <c r="EZ20" s="81"/>
+      <c r="FA20" s="81"/>
+      <c r="FB20" s="81"/>
+      <c r="FC20" s="81"/>
+      <c r="FD20" s="81"/>
+      <c r="FE20" s="81"/>
+      <c r="FF20" s="81"/>
+      <c r="FG20" s="81"/>
+      <c r="FH20" s="81"/>
+      <c r="FI20" s="81"/>
+      <c r="FJ20" s="81"/>
+      <c r="FK20" s="81"/>
+      <c r="FL20" s="81"/>
+      <c r="FM20" s="81"/>
+      <c r="FN20" s="81"/>
+      <c r="FO20" s="81"/>
+      <c r="FP20" s="81"/>
+      <c r="FQ20" s="81"/>
+      <c r="FR20" s="81"/>
+      <c r="FS20" s="81"/>
+      <c r="FT20" s="81"/>
+      <c r="FU20" s="81"/>
+      <c r="FV20" s="81"/>
+      <c r="FW20" s="81"/>
+      <c r="FX20" s="81"/>
+      <c r="FY20" s="81"/>
+      <c r="FZ20" s="81"/>
+      <c r="GA20" s="81"/>
+      <c r="GB20" s="81"/>
+      <c r="GC20" s="81"/>
+      <c r="GD20" s="81"/>
+      <c r="GE20" s="81"/>
+      <c r="GF20" s="81"/>
+      <c r="GG20" s="81"/>
+      <c r="GH20" s="81"/>
+      <c r="GI20" s="81"/>
+      <c r="GJ20" s="81"/>
+      <c r="GK20" s="81"/>
+      <c r="GL20" s="81"/>
+      <c r="GM20" s="81"/>
+      <c r="GN20" s="81"/>
+      <c r="GO20" s="81"/>
+      <c r="GP20" s="81"/>
+      <c r="GQ20" s="81"/>
+      <c r="GR20" s="81"/>
+      <c r="GS20" s="81"/>
+      <c r="GT20" s="81"/>
+      <c r="GU20" s="81"/>
+      <c r="GV20" s="81"/>
+      <c r="GW20" s="81"/>
+      <c r="GX20" s="81"/>
+      <c r="GY20" s="81"/>
+      <c r="GZ20" s="81"/>
+      <c r="HA20" s="81"/>
+      <c r="HB20" s="81"/>
+      <c r="HC20" s="81"/>
+      <c r="HD20" s="81"/>
+      <c r="HE20" s="81"/>
+      <c r="HF20" s="81"/>
+      <c r="HG20" s="81"/>
+      <c r="HH20" s="81"/>
+      <c r="HI20" s="81"/>
+      <c r="HJ20" s="81"/>
+      <c r="HK20" s="81"/>
+      <c r="HL20" s="81"/>
+      <c r="HM20" s="81"/>
+      <c r="HN20" s="81"/>
+      <c r="HO20" s="81"/>
+      <c r="HP20" s="81"/>
+      <c r="HQ20" s="81"/>
+      <c r="HR20" s="81"/>
+      <c r="HS20" s="81"/>
+      <c r="HT20" s="81"/>
+      <c r="HU20" s="81"/>
+      <c r="HV20" s="81"/>
+      <c r="HW20" s="81"/>
+      <c r="HX20" s="81"/>
+      <c r="HY20" s="81"/>
+      <c r="HZ20" s="81"/>
+      <c r="IA20" s="81"/>
+      <c r="IB20" s="81"/>
+      <c r="IC20" s="81"/>
+      <c r="ID20" s="81"/>
+      <c r="IE20" s="81"/>
+      <c r="IF20" s="81"/>
+      <c r="IG20" s="81"/>
+      <c r="IH20" s="81"/>
+      <c r="II20" s="81"/>
+      <c r="IJ20" s="81"/>
+      <c r="IK20" s="81"/>
+      <c r="IL20" s="81"/>
+      <c r="IM20" s="81"/>
+      <c r="IN20" s="81"/>
+      <c r="IO20" s="81"/>
+      <c r="IP20" s="81"/>
+      <c r="IQ20" s="81"/>
+      <c r="IR20" s="81"/>
+      <c r="IS20" s="81"/>
+      <c r="IT20" s="81"/>
+      <c r="IU20" s="81"/>
+      <c r="IV20" s="81"/>
+      <c r="IW20" s="81"/>
+      <c r="IX20" s="81"/>
     </row>
     <row r="21" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A21" s="100"/>
-      <c r="B21" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="61" t="s">
+      <c r="A21" s="109"/>
+      <c r="B21" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="61"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="84"/>
-      <c r="AJ21" s="84"/>
-      <c r="AK21" s="84"/>
-      <c r="AL21" s="84"/>
-      <c r="AM21" s="84"/>
-      <c r="AN21" s="84"/>
-      <c r="AO21" s="84"/>
-      <c r="AP21" s="84"/>
-      <c r="AQ21" s="84"/>
-      <c r="AR21" s="84"/>
-      <c r="AS21" s="84"/>
-      <c r="AT21" s="84"/>
-      <c r="AU21" s="84"/>
-      <c r="AV21" s="84"/>
-      <c r="AW21" s="84"/>
-      <c r="AX21" s="84"/>
-      <c r="AY21" s="84"/>
-      <c r="AZ21" s="84"/>
-      <c r="BA21" s="84"/>
-      <c r="BB21" s="84"/>
-      <c r="BC21" s="84"/>
-      <c r="BD21" s="84"/>
-      <c r="BE21" s="84"/>
-      <c r="BF21" s="84"/>
-      <c r="BG21" s="84"/>
-      <c r="BH21" s="84"/>
-      <c r="BI21" s="84"/>
-      <c r="BJ21" s="84"/>
-      <c r="BK21" s="84"/>
-      <c r="BL21" s="84"/>
-      <c r="BM21" s="84"/>
-      <c r="BN21" s="84"/>
-      <c r="BO21" s="84"/>
-      <c r="BP21" s="84"/>
-      <c r="BQ21" s="84"/>
-      <c r="BR21" s="84"/>
-      <c r="BS21" s="84"/>
-      <c r="BT21" s="84"/>
-      <c r="BU21" s="84"/>
-      <c r="BV21" s="84"/>
-      <c r="BW21" s="84"/>
-      <c r="BX21" s="84"/>
-      <c r="BY21" s="84"/>
-      <c r="BZ21" s="84"/>
-      <c r="CA21" s="84"/>
-      <c r="CB21" s="84"/>
-      <c r="CC21" s="84"/>
-      <c r="CD21" s="84"/>
-      <c r="CE21" s="84"/>
-      <c r="CF21" s="84"/>
-      <c r="CG21" s="84"/>
-      <c r="CH21" s="84"/>
-      <c r="CI21" s="84"/>
-      <c r="CJ21" s="84"/>
-      <c r="CK21" s="84"/>
-      <c r="CL21" s="84"/>
-      <c r="CM21" s="84"/>
-      <c r="CN21" s="84"/>
-      <c r="CO21" s="84"/>
-      <c r="CP21" s="84"/>
-      <c r="CQ21" s="84"/>
-      <c r="CR21" s="84"/>
-      <c r="CS21" s="84"/>
-      <c r="CT21" s="84"/>
-      <c r="CU21" s="84"/>
-      <c r="CV21" s="84"/>
-      <c r="CW21" s="84"/>
-      <c r="CX21" s="84"/>
-      <c r="CY21" s="84"/>
-      <c r="CZ21" s="84"/>
-      <c r="DA21" s="84"/>
-      <c r="DB21" s="84"/>
-      <c r="DC21" s="84"/>
-      <c r="DD21" s="84"/>
-      <c r="DE21" s="84"/>
-      <c r="DF21" s="84"/>
-      <c r="DG21" s="84"/>
-      <c r="DH21" s="84"/>
-      <c r="DI21" s="84"/>
-      <c r="DJ21" s="84"/>
-      <c r="DK21" s="84"/>
-      <c r="DL21" s="84"/>
-      <c r="DM21" s="84"/>
-      <c r="DN21" s="84"/>
-      <c r="DO21" s="84"/>
-      <c r="DP21" s="84"/>
-      <c r="DQ21" s="84"/>
-      <c r="DR21" s="84"/>
-      <c r="DS21" s="84"/>
-      <c r="DT21" s="84"/>
-      <c r="DU21" s="84"/>
-      <c r="DV21" s="84"/>
-      <c r="DW21" s="84"/>
-      <c r="DX21" s="84"/>
-      <c r="DY21" s="84"/>
-      <c r="DZ21" s="84"/>
-      <c r="EA21" s="84"/>
-      <c r="EB21" s="84"/>
-      <c r="EC21" s="84"/>
-      <c r="ED21" s="84"/>
-      <c r="EE21" s="84"/>
-      <c r="EF21" s="84"/>
-      <c r="EG21" s="84"/>
-      <c r="EH21" s="84"/>
-      <c r="EI21" s="84"/>
-      <c r="EJ21" s="84"/>
-      <c r="EK21" s="84"/>
-      <c r="EL21" s="84"/>
-      <c r="EM21" s="84"/>
-      <c r="EN21" s="84"/>
-      <c r="EO21" s="84"/>
-      <c r="EP21" s="84"/>
-      <c r="EQ21" s="84"/>
-      <c r="ER21" s="84"/>
-      <c r="ES21" s="84"/>
-      <c r="ET21" s="84"/>
-      <c r="EU21" s="84"/>
-      <c r="EV21" s="84"/>
-      <c r="EW21" s="84"/>
-      <c r="EX21" s="84"/>
-      <c r="EY21" s="84"/>
-      <c r="EZ21" s="84"/>
-      <c r="FA21" s="84"/>
-      <c r="FB21" s="84"/>
-      <c r="FC21" s="84"/>
-      <c r="FD21" s="84"/>
-      <c r="FE21" s="84"/>
-      <c r="FF21" s="84"/>
-      <c r="FG21" s="84"/>
-      <c r="FH21" s="84"/>
-      <c r="FI21" s="84"/>
-      <c r="FJ21" s="84"/>
-      <c r="FK21" s="84"/>
-      <c r="FL21" s="84"/>
-      <c r="FM21" s="84"/>
-      <c r="FN21" s="84"/>
-      <c r="FO21" s="84"/>
-      <c r="FP21" s="84"/>
-      <c r="FQ21" s="84"/>
-      <c r="FR21" s="84"/>
-      <c r="FS21" s="84"/>
-      <c r="FT21" s="84"/>
-      <c r="FU21" s="84"/>
-      <c r="FV21" s="84"/>
-      <c r="FW21" s="84"/>
-      <c r="FX21" s="84"/>
-      <c r="FY21" s="84"/>
-      <c r="FZ21" s="84"/>
-      <c r="GA21" s="84"/>
-      <c r="GB21" s="84"/>
-      <c r="GC21" s="84"/>
-      <c r="GD21" s="84"/>
-      <c r="GE21" s="84"/>
-      <c r="GF21" s="84"/>
-      <c r="GG21" s="84"/>
-      <c r="GH21" s="84"/>
-      <c r="GI21" s="84"/>
-      <c r="GJ21" s="84"/>
-      <c r="GK21" s="84"/>
-      <c r="GL21" s="84"/>
-      <c r="GM21" s="84"/>
-      <c r="GN21" s="84"/>
-      <c r="GO21" s="84"/>
-      <c r="GP21" s="84"/>
-      <c r="GQ21" s="84"/>
-      <c r="GR21" s="84"/>
-      <c r="GS21" s="84"/>
-      <c r="GT21" s="84"/>
-      <c r="GU21" s="84"/>
-      <c r="GV21" s="84"/>
-      <c r="GW21" s="84"/>
-      <c r="GX21" s="84"/>
-      <c r="GY21" s="84"/>
-      <c r="GZ21" s="84"/>
-      <c r="HA21" s="84"/>
-      <c r="HB21" s="84"/>
-      <c r="HC21" s="84"/>
-      <c r="HD21" s="84"/>
-      <c r="HE21" s="84"/>
-      <c r="HF21" s="84"/>
-      <c r="HG21" s="84"/>
-      <c r="HH21" s="84"/>
-      <c r="HI21" s="84"/>
-      <c r="HJ21" s="84"/>
-      <c r="HK21" s="84"/>
-      <c r="HL21" s="84"/>
-      <c r="HM21" s="84"/>
-      <c r="HN21" s="84"/>
-      <c r="HO21" s="84"/>
-      <c r="HP21" s="84"/>
-      <c r="HQ21" s="84"/>
-      <c r="HR21" s="84"/>
-      <c r="HS21" s="84"/>
-      <c r="HT21" s="84"/>
-      <c r="HU21" s="84"/>
-      <c r="HV21" s="84"/>
-      <c r="HW21" s="84"/>
-      <c r="HX21" s="84"/>
-      <c r="HY21" s="84"/>
-      <c r="HZ21" s="84"/>
-      <c r="IA21" s="84"/>
-      <c r="IB21" s="84"/>
-      <c r="IC21" s="84"/>
-      <c r="ID21" s="84"/>
-      <c r="IE21" s="84"/>
-      <c r="IF21" s="84"/>
-      <c r="IG21" s="84"/>
-      <c r="IH21" s="84"/>
-      <c r="II21" s="84"/>
-      <c r="IJ21" s="84"/>
-      <c r="IK21" s="84"/>
-      <c r="IL21" s="84"/>
-      <c r="IM21" s="84"/>
-      <c r="IN21" s="84"/>
-      <c r="IO21" s="84"/>
-      <c r="IP21" s="84"/>
-      <c r="IQ21" s="84"/>
-      <c r="IR21" s="84"/>
-      <c r="IS21" s="84"/>
-      <c r="IT21" s="84"/>
-      <c r="IU21" s="84"/>
-      <c r="IV21" s="84"/>
-      <c r="IW21" s="84"/>
-      <c r="IX21" s="84"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="59"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="81"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="81"/>
+      <c r="AH21" s="81"/>
+      <c r="AI21" s="81"/>
+      <c r="AJ21" s="81"/>
+      <c r="AK21" s="81"/>
+      <c r="AL21" s="81"/>
+      <c r="AM21" s="81"/>
+      <c r="AN21" s="81"/>
+      <c r="AO21" s="81"/>
+      <c r="AP21" s="81"/>
+      <c r="AQ21" s="81"/>
+      <c r="AR21" s="81"/>
+      <c r="AS21" s="81"/>
+      <c r="AT21" s="81"/>
+      <c r="AU21" s="81"/>
+      <c r="AV21" s="81"/>
+      <c r="AW21" s="81"/>
+      <c r="AX21" s="81"/>
+      <c r="AY21" s="81"/>
+      <c r="AZ21" s="81"/>
+      <c r="BA21" s="81"/>
+      <c r="BB21" s="81"/>
+      <c r="BC21" s="81"/>
+      <c r="BD21" s="81"/>
+      <c r="BE21" s="81"/>
+      <c r="BF21" s="81"/>
+      <c r="BG21" s="81"/>
+      <c r="BH21" s="81"/>
+      <c r="BI21" s="81"/>
+      <c r="BJ21" s="81"/>
+      <c r="BK21" s="81"/>
+      <c r="BL21" s="81"/>
+      <c r="BM21" s="81"/>
+      <c r="BN21" s="81"/>
+      <c r="BO21" s="81"/>
+      <c r="BP21" s="81"/>
+      <c r="BQ21" s="81"/>
+      <c r="BR21" s="81"/>
+      <c r="BS21" s="81"/>
+      <c r="BT21" s="81"/>
+      <c r="BU21" s="81"/>
+      <c r="BV21" s="81"/>
+      <c r="BW21" s="81"/>
+      <c r="BX21" s="81"/>
+      <c r="BY21" s="81"/>
+      <c r="BZ21" s="81"/>
+      <c r="CA21" s="81"/>
+      <c r="CB21" s="81"/>
+      <c r="CC21" s="81"/>
+      <c r="CD21" s="81"/>
+      <c r="CE21" s="81"/>
+      <c r="CF21" s="81"/>
+      <c r="CG21" s="81"/>
+      <c r="CH21" s="81"/>
+      <c r="CI21" s="81"/>
+      <c r="CJ21" s="81"/>
+      <c r="CK21" s="81"/>
+      <c r="CL21" s="81"/>
+      <c r="CM21" s="81"/>
+      <c r="CN21" s="81"/>
+      <c r="CO21" s="81"/>
+      <c r="CP21" s="81"/>
+      <c r="CQ21" s="81"/>
+      <c r="CR21" s="81"/>
+      <c r="CS21" s="81"/>
+      <c r="CT21" s="81"/>
+      <c r="CU21" s="81"/>
+      <c r="CV21" s="81"/>
+      <c r="CW21" s="81"/>
+      <c r="CX21" s="81"/>
+      <c r="CY21" s="81"/>
+      <c r="CZ21" s="81"/>
+      <c r="DA21" s="81"/>
+      <c r="DB21" s="81"/>
+      <c r="DC21" s="81"/>
+      <c r="DD21" s="81"/>
+      <c r="DE21" s="81"/>
+      <c r="DF21" s="81"/>
+      <c r="DG21" s="81"/>
+      <c r="DH21" s="81"/>
+      <c r="DI21" s="81"/>
+      <c r="DJ21" s="81"/>
+      <c r="DK21" s="81"/>
+      <c r="DL21" s="81"/>
+      <c r="DM21" s="81"/>
+      <c r="DN21" s="81"/>
+      <c r="DO21" s="81"/>
+      <c r="DP21" s="81"/>
+      <c r="DQ21" s="81"/>
+      <c r="DR21" s="81"/>
+      <c r="DS21" s="81"/>
+      <c r="DT21" s="81"/>
+      <c r="DU21" s="81"/>
+      <c r="DV21" s="81"/>
+      <c r="DW21" s="81"/>
+      <c r="DX21" s="81"/>
+      <c r="DY21" s="81"/>
+      <c r="DZ21" s="81"/>
+      <c r="EA21" s="81"/>
+      <c r="EB21" s="81"/>
+      <c r="EC21" s="81"/>
+      <c r="ED21" s="81"/>
+      <c r="EE21" s="81"/>
+      <c r="EF21" s="81"/>
+      <c r="EG21" s="81"/>
+      <c r="EH21" s="81"/>
+      <c r="EI21" s="81"/>
+      <c r="EJ21" s="81"/>
+      <c r="EK21" s="81"/>
+      <c r="EL21" s="81"/>
+      <c r="EM21" s="81"/>
+      <c r="EN21" s="81"/>
+      <c r="EO21" s="81"/>
+      <c r="EP21" s="81"/>
+      <c r="EQ21" s="81"/>
+      <c r="ER21" s="81"/>
+      <c r="ES21" s="81"/>
+      <c r="ET21" s="81"/>
+      <c r="EU21" s="81"/>
+      <c r="EV21" s="81"/>
+      <c r="EW21" s="81"/>
+      <c r="EX21" s="81"/>
+      <c r="EY21" s="81"/>
+      <c r="EZ21" s="81"/>
+      <c r="FA21" s="81"/>
+      <c r="FB21" s="81"/>
+      <c r="FC21" s="81"/>
+      <c r="FD21" s="81"/>
+      <c r="FE21" s="81"/>
+      <c r="FF21" s="81"/>
+      <c r="FG21" s="81"/>
+      <c r="FH21" s="81"/>
+      <c r="FI21" s="81"/>
+      <c r="FJ21" s="81"/>
+      <c r="FK21" s="81"/>
+      <c r="FL21" s="81"/>
+      <c r="FM21" s="81"/>
+      <c r="FN21" s="81"/>
+      <c r="FO21" s="81"/>
+      <c r="FP21" s="81"/>
+      <c r="FQ21" s="81"/>
+      <c r="FR21" s="81"/>
+      <c r="FS21" s="81"/>
+      <c r="FT21" s="81"/>
+      <c r="FU21" s="81"/>
+      <c r="FV21" s="81"/>
+      <c r="FW21" s="81"/>
+      <c r="FX21" s="81"/>
+      <c r="FY21" s="81"/>
+      <c r="FZ21" s="81"/>
+      <c r="GA21" s="81"/>
+      <c r="GB21" s="81"/>
+      <c r="GC21" s="81"/>
+      <c r="GD21" s="81"/>
+      <c r="GE21" s="81"/>
+      <c r="GF21" s="81"/>
+      <c r="GG21" s="81"/>
+      <c r="GH21" s="81"/>
+      <c r="GI21" s="81"/>
+      <c r="GJ21" s="81"/>
+      <c r="GK21" s="81"/>
+      <c r="GL21" s="81"/>
+      <c r="GM21" s="81"/>
+      <c r="GN21" s="81"/>
+      <c r="GO21" s="81"/>
+      <c r="GP21" s="81"/>
+      <c r="GQ21" s="81"/>
+      <c r="GR21" s="81"/>
+      <c r="GS21" s="81"/>
+      <c r="GT21" s="81"/>
+      <c r="GU21" s="81"/>
+      <c r="GV21" s="81"/>
+      <c r="GW21" s="81"/>
+      <c r="GX21" s="81"/>
+      <c r="GY21" s="81"/>
+      <c r="GZ21" s="81"/>
+      <c r="HA21" s="81"/>
+      <c r="HB21" s="81"/>
+      <c r="HC21" s="81"/>
+      <c r="HD21" s="81"/>
+      <c r="HE21" s="81"/>
+      <c r="HF21" s="81"/>
+      <c r="HG21" s="81"/>
+      <c r="HH21" s="81"/>
+      <c r="HI21" s="81"/>
+      <c r="HJ21" s="81"/>
+      <c r="HK21" s="81"/>
+      <c r="HL21" s="81"/>
+      <c r="HM21" s="81"/>
+      <c r="HN21" s="81"/>
+      <c r="HO21" s="81"/>
+      <c r="HP21" s="81"/>
+      <c r="HQ21" s="81"/>
+      <c r="HR21" s="81"/>
+      <c r="HS21" s="81"/>
+      <c r="HT21" s="81"/>
+      <c r="HU21" s="81"/>
+      <c r="HV21" s="81"/>
+      <c r="HW21" s="81"/>
+      <c r="HX21" s="81"/>
+      <c r="HY21" s="81"/>
+      <c r="HZ21" s="81"/>
+      <c r="IA21" s="81"/>
+      <c r="IB21" s="81"/>
+      <c r="IC21" s="81"/>
+      <c r="ID21" s="81"/>
+      <c r="IE21" s="81"/>
+      <c r="IF21" s="81"/>
+      <c r="IG21" s="81"/>
+      <c r="IH21" s="81"/>
+      <c r="II21" s="81"/>
+      <c r="IJ21" s="81"/>
+      <c r="IK21" s="81"/>
+      <c r="IL21" s="81"/>
+      <c r="IM21" s="81"/>
+      <c r="IN21" s="81"/>
+      <c r="IO21" s="81"/>
+      <c r="IP21" s="81"/>
+      <c r="IQ21" s="81"/>
+      <c r="IR21" s="81"/>
+      <c r="IS21" s="81"/>
+      <c r="IT21" s="81"/>
+      <c r="IU21" s="81"/>
+      <c r="IV21" s="81"/>
+      <c r="IW21" s="81"/>
+      <c r="IX21" s="81"/>
     </row>
     <row r="22" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A22" s="101"/>
-      <c r="B22" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="61" t="s">
+      <c r="A22" s="110"/>
+      <c r="B22" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="61"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="84"/>
-      <c r="AL22" s="84"/>
-      <c r="AM22" s="84"/>
-      <c r="AN22" s="84"/>
-      <c r="AO22" s="84"/>
-      <c r="AP22" s="84"/>
-      <c r="AQ22" s="84"/>
-      <c r="AR22" s="84"/>
-      <c r="AS22" s="84"/>
-      <c r="AT22" s="84"/>
-      <c r="AU22" s="84"/>
-      <c r="AV22" s="84"/>
-      <c r="AW22" s="84"/>
-      <c r="AX22" s="84"/>
-      <c r="AY22" s="84"/>
-      <c r="AZ22" s="84"/>
-      <c r="BA22" s="84"/>
-      <c r="BB22" s="84"/>
-      <c r="BC22" s="84"/>
-      <c r="BD22" s="84"/>
-      <c r="BE22" s="84"/>
-      <c r="BF22" s="84"/>
-      <c r="BG22" s="84"/>
-      <c r="BH22" s="84"/>
-      <c r="BI22" s="84"/>
-      <c r="BJ22" s="84"/>
-      <c r="BK22" s="84"/>
-      <c r="BL22" s="84"/>
-      <c r="BM22" s="84"/>
-      <c r="BN22" s="84"/>
-      <c r="BO22" s="84"/>
-      <c r="BP22" s="84"/>
-      <c r="BQ22" s="84"/>
-      <c r="BR22" s="84"/>
-      <c r="BS22" s="84"/>
-      <c r="BT22" s="84"/>
-      <c r="BU22" s="84"/>
-      <c r="BV22" s="84"/>
-      <c r="BW22" s="84"/>
-      <c r="BX22" s="84"/>
-      <c r="BY22" s="84"/>
-      <c r="BZ22" s="84"/>
-      <c r="CA22" s="84"/>
-      <c r="CB22" s="84"/>
-      <c r="CC22" s="84"/>
-      <c r="CD22" s="84"/>
-      <c r="CE22" s="84"/>
-      <c r="CF22" s="84"/>
-      <c r="CG22" s="84"/>
-      <c r="CH22" s="84"/>
-      <c r="CI22" s="84"/>
-      <c r="CJ22" s="84"/>
-      <c r="CK22" s="84"/>
-      <c r="CL22" s="84"/>
-      <c r="CM22" s="84"/>
-      <c r="CN22" s="84"/>
-      <c r="CO22" s="84"/>
-      <c r="CP22" s="84"/>
-      <c r="CQ22" s="84"/>
-      <c r="CR22" s="84"/>
-      <c r="CS22" s="84"/>
-      <c r="CT22" s="84"/>
-      <c r="CU22" s="84"/>
-      <c r="CV22" s="84"/>
-      <c r="CW22" s="84"/>
-      <c r="CX22" s="84"/>
-      <c r="CY22" s="84"/>
-      <c r="CZ22" s="84"/>
-      <c r="DA22" s="84"/>
-      <c r="DB22" s="84"/>
-      <c r="DC22" s="84"/>
-      <c r="DD22" s="84"/>
-      <c r="DE22" s="84"/>
-      <c r="DF22" s="84"/>
-      <c r="DG22" s="84"/>
-      <c r="DH22" s="84"/>
-      <c r="DI22" s="84"/>
-      <c r="DJ22" s="84"/>
-      <c r="DK22" s="84"/>
-      <c r="DL22" s="84"/>
-      <c r="DM22" s="84"/>
-      <c r="DN22" s="84"/>
-      <c r="DO22" s="84"/>
-      <c r="DP22" s="84"/>
-      <c r="DQ22" s="84"/>
-      <c r="DR22" s="84"/>
-      <c r="DS22" s="84"/>
-      <c r="DT22" s="84"/>
-      <c r="DU22" s="84"/>
-      <c r="DV22" s="84"/>
-      <c r="DW22" s="84"/>
-      <c r="DX22" s="84"/>
-      <c r="DY22" s="84"/>
-      <c r="DZ22" s="84"/>
-      <c r="EA22" s="84"/>
-      <c r="EB22" s="84"/>
-      <c r="EC22" s="84"/>
-      <c r="ED22" s="84"/>
-      <c r="EE22" s="84"/>
-      <c r="EF22" s="84"/>
-      <c r="EG22" s="84"/>
-      <c r="EH22" s="84"/>
-      <c r="EI22" s="84"/>
-      <c r="EJ22" s="84"/>
-      <c r="EK22" s="84"/>
-      <c r="EL22" s="84"/>
-      <c r="EM22" s="84"/>
-      <c r="EN22" s="84"/>
-      <c r="EO22" s="84"/>
-      <c r="EP22" s="84"/>
-      <c r="EQ22" s="84"/>
-      <c r="ER22" s="84"/>
-      <c r="ES22" s="84"/>
-      <c r="ET22" s="84"/>
-      <c r="EU22" s="84"/>
-      <c r="EV22" s="84"/>
-      <c r="EW22" s="84"/>
-      <c r="EX22" s="84"/>
-      <c r="EY22" s="84"/>
-      <c r="EZ22" s="84"/>
-      <c r="FA22" s="84"/>
-      <c r="FB22" s="84"/>
-      <c r="FC22" s="84"/>
-      <c r="FD22" s="84"/>
-      <c r="FE22" s="84"/>
-      <c r="FF22" s="84"/>
-      <c r="FG22" s="84"/>
-      <c r="FH22" s="84"/>
-      <c r="FI22" s="84"/>
-      <c r="FJ22" s="84"/>
-      <c r="FK22" s="84"/>
-      <c r="FL22" s="84"/>
-      <c r="FM22" s="84"/>
-      <c r="FN22" s="84"/>
-      <c r="FO22" s="84"/>
-      <c r="FP22" s="84"/>
-      <c r="FQ22" s="84"/>
-      <c r="FR22" s="84"/>
-      <c r="FS22" s="84"/>
-      <c r="FT22" s="84"/>
-      <c r="FU22" s="84"/>
-      <c r="FV22" s="84"/>
-      <c r="FW22" s="84"/>
-      <c r="FX22" s="84"/>
-      <c r="FY22" s="84"/>
-      <c r="FZ22" s="84"/>
-      <c r="GA22" s="84"/>
-      <c r="GB22" s="84"/>
-      <c r="GC22" s="84"/>
-      <c r="GD22" s="84"/>
-      <c r="GE22" s="84"/>
-      <c r="GF22" s="84"/>
-      <c r="GG22" s="84"/>
-      <c r="GH22" s="84"/>
-      <c r="GI22" s="84"/>
-      <c r="GJ22" s="84"/>
-      <c r="GK22" s="84"/>
-      <c r="GL22" s="84"/>
-      <c r="GM22" s="84"/>
-      <c r="GN22" s="84"/>
-      <c r="GO22" s="84"/>
-      <c r="GP22" s="84"/>
-      <c r="GQ22" s="84"/>
-      <c r="GR22" s="84"/>
-      <c r="GS22" s="84"/>
-      <c r="GT22" s="84"/>
-      <c r="GU22" s="84"/>
-      <c r="GV22" s="84"/>
-      <c r="GW22" s="84"/>
-      <c r="GX22" s="84"/>
-      <c r="GY22" s="84"/>
-      <c r="GZ22" s="84"/>
-      <c r="HA22" s="84"/>
-      <c r="HB22" s="84"/>
-      <c r="HC22" s="84"/>
-      <c r="HD22" s="84"/>
-      <c r="HE22" s="84"/>
-      <c r="HF22" s="84"/>
-      <c r="HG22" s="84"/>
-      <c r="HH22" s="84"/>
-      <c r="HI22" s="84"/>
-      <c r="HJ22" s="84"/>
-      <c r="HK22" s="84"/>
-      <c r="HL22" s="84"/>
-      <c r="HM22" s="84"/>
-      <c r="HN22" s="84"/>
-      <c r="HO22" s="84"/>
-      <c r="HP22" s="84"/>
-      <c r="HQ22" s="84"/>
-      <c r="HR22" s="84"/>
-      <c r="HS22" s="84"/>
-      <c r="HT22" s="84"/>
-      <c r="HU22" s="84"/>
-      <c r="HV22" s="84"/>
-      <c r="HW22" s="84"/>
-      <c r="HX22" s="84"/>
-      <c r="HY22" s="84"/>
-      <c r="HZ22" s="84"/>
-      <c r="IA22" s="84"/>
-      <c r="IB22" s="84"/>
-      <c r="IC22" s="84"/>
-      <c r="ID22" s="84"/>
-      <c r="IE22" s="84"/>
-      <c r="IF22" s="84"/>
-      <c r="IG22" s="84"/>
-      <c r="IH22" s="84"/>
-      <c r="II22" s="84"/>
-      <c r="IJ22" s="84"/>
-      <c r="IK22" s="84"/>
-      <c r="IL22" s="84"/>
-      <c r="IM22" s="84"/>
-      <c r="IN22" s="84"/>
-      <c r="IO22" s="84"/>
-      <c r="IP22" s="84"/>
-      <c r="IQ22" s="84"/>
-      <c r="IR22" s="84"/>
-      <c r="IS22" s="84"/>
-      <c r="IT22" s="84"/>
-      <c r="IU22" s="84"/>
-      <c r="IV22" s="84"/>
-      <c r="IW22" s="84"/>
-      <c r="IX22" s="84"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="59"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="81"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="81"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="81"/>
+      <c r="AM22" s="81"/>
+      <c r="AN22" s="81"/>
+      <c r="AO22" s="81"/>
+      <c r="AP22" s="81"/>
+      <c r="AQ22" s="81"/>
+      <c r="AR22" s="81"/>
+      <c r="AS22" s="81"/>
+      <c r="AT22" s="81"/>
+      <c r="AU22" s="81"/>
+      <c r="AV22" s="81"/>
+      <c r="AW22" s="81"/>
+      <c r="AX22" s="81"/>
+      <c r="AY22" s="81"/>
+      <c r="AZ22" s="81"/>
+      <c r="BA22" s="81"/>
+      <c r="BB22" s="81"/>
+      <c r="BC22" s="81"/>
+      <c r="BD22" s="81"/>
+      <c r="BE22" s="81"/>
+      <c r="BF22" s="81"/>
+      <c r="BG22" s="81"/>
+      <c r="BH22" s="81"/>
+      <c r="BI22" s="81"/>
+      <c r="BJ22" s="81"/>
+      <c r="BK22" s="81"/>
+      <c r="BL22" s="81"/>
+      <c r="BM22" s="81"/>
+      <c r="BN22" s="81"/>
+      <c r="BO22" s="81"/>
+      <c r="BP22" s="81"/>
+      <c r="BQ22" s="81"/>
+      <c r="BR22" s="81"/>
+      <c r="BS22" s="81"/>
+      <c r="BT22" s="81"/>
+      <c r="BU22" s="81"/>
+      <c r="BV22" s="81"/>
+      <c r="BW22" s="81"/>
+      <c r="BX22" s="81"/>
+      <c r="BY22" s="81"/>
+      <c r="BZ22" s="81"/>
+      <c r="CA22" s="81"/>
+      <c r="CB22" s="81"/>
+      <c r="CC22" s="81"/>
+      <c r="CD22" s="81"/>
+      <c r="CE22" s="81"/>
+      <c r="CF22" s="81"/>
+      <c r="CG22" s="81"/>
+      <c r="CH22" s="81"/>
+      <c r="CI22" s="81"/>
+      <c r="CJ22" s="81"/>
+      <c r="CK22" s="81"/>
+      <c r="CL22" s="81"/>
+      <c r="CM22" s="81"/>
+      <c r="CN22" s="81"/>
+      <c r="CO22" s="81"/>
+      <c r="CP22" s="81"/>
+      <c r="CQ22" s="81"/>
+      <c r="CR22" s="81"/>
+      <c r="CS22" s="81"/>
+      <c r="CT22" s="81"/>
+      <c r="CU22" s="81"/>
+      <c r="CV22" s="81"/>
+      <c r="CW22" s="81"/>
+      <c r="CX22" s="81"/>
+      <c r="CY22" s="81"/>
+      <c r="CZ22" s="81"/>
+      <c r="DA22" s="81"/>
+      <c r="DB22" s="81"/>
+      <c r="DC22" s="81"/>
+      <c r="DD22" s="81"/>
+      <c r="DE22" s="81"/>
+      <c r="DF22" s="81"/>
+      <c r="DG22" s="81"/>
+      <c r="DH22" s="81"/>
+      <c r="DI22" s="81"/>
+      <c r="DJ22" s="81"/>
+      <c r="DK22" s="81"/>
+      <c r="DL22" s="81"/>
+      <c r="DM22" s="81"/>
+      <c r="DN22" s="81"/>
+      <c r="DO22" s="81"/>
+      <c r="DP22" s="81"/>
+      <c r="DQ22" s="81"/>
+      <c r="DR22" s="81"/>
+      <c r="DS22" s="81"/>
+      <c r="DT22" s="81"/>
+      <c r="DU22" s="81"/>
+      <c r="DV22" s="81"/>
+      <c r="DW22" s="81"/>
+      <c r="DX22" s="81"/>
+      <c r="DY22" s="81"/>
+      <c r="DZ22" s="81"/>
+      <c r="EA22" s="81"/>
+      <c r="EB22" s="81"/>
+      <c r="EC22" s="81"/>
+      <c r="ED22" s="81"/>
+      <c r="EE22" s="81"/>
+      <c r="EF22" s="81"/>
+      <c r="EG22" s="81"/>
+      <c r="EH22" s="81"/>
+      <c r="EI22" s="81"/>
+      <c r="EJ22" s="81"/>
+      <c r="EK22" s="81"/>
+      <c r="EL22" s="81"/>
+      <c r="EM22" s="81"/>
+      <c r="EN22" s="81"/>
+      <c r="EO22" s="81"/>
+      <c r="EP22" s="81"/>
+      <c r="EQ22" s="81"/>
+      <c r="ER22" s="81"/>
+      <c r="ES22" s="81"/>
+      <c r="ET22" s="81"/>
+      <c r="EU22" s="81"/>
+      <c r="EV22" s="81"/>
+      <c r="EW22" s="81"/>
+      <c r="EX22" s="81"/>
+      <c r="EY22" s="81"/>
+      <c r="EZ22" s="81"/>
+      <c r="FA22" s="81"/>
+      <c r="FB22" s="81"/>
+      <c r="FC22" s="81"/>
+      <c r="FD22" s="81"/>
+      <c r="FE22" s="81"/>
+      <c r="FF22" s="81"/>
+      <c r="FG22" s="81"/>
+      <c r="FH22" s="81"/>
+      <c r="FI22" s="81"/>
+      <c r="FJ22" s="81"/>
+      <c r="FK22" s="81"/>
+      <c r="FL22" s="81"/>
+      <c r="FM22" s="81"/>
+      <c r="FN22" s="81"/>
+      <c r="FO22" s="81"/>
+      <c r="FP22" s="81"/>
+      <c r="FQ22" s="81"/>
+      <c r="FR22" s="81"/>
+      <c r="FS22" s="81"/>
+      <c r="FT22" s="81"/>
+      <c r="FU22" s="81"/>
+      <c r="FV22" s="81"/>
+      <c r="FW22" s="81"/>
+      <c r="FX22" s="81"/>
+      <c r="FY22" s="81"/>
+      <c r="FZ22" s="81"/>
+      <c r="GA22" s="81"/>
+      <c r="GB22" s="81"/>
+      <c r="GC22" s="81"/>
+      <c r="GD22" s="81"/>
+      <c r="GE22" s="81"/>
+      <c r="GF22" s="81"/>
+      <c r="GG22" s="81"/>
+      <c r="GH22" s="81"/>
+      <c r="GI22" s="81"/>
+      <c r="GJ22" s="81"/>
+      <c r="GK22" s="81"/>
+      <c r="GL22" s="81"/>
+      <c r="GM22" s="81"/>
+      <c r="GN22" s="81"/>
+      <c r="GO22" s="81"/>
+      <c r="GP22" s="81"/>
+      <c r="GQ22" s="81"/>
+      <c r="GR22" s="81"/>
+      <c r="GS22" s="81"/>
+      <c r="GT22" s="81"/>
+      <c r="GU22" s="81"/>
+      <c r="GV22" s="81"/>
+      <c r="GW22" s="81"/>
+      <c r="GX22" s="81"/>
+      <c r="GY22" s="81"/>
+      <c r="GZ22" s="81"/>
+      <c r="HA22" s="81"/>
+      <c r="HB22" s="81"/>
+      <c r="HC22" s="81"/>
+      <c r="HD22" s="81"/>
+      <c r="HE22" s="81"/>
+      <c r="HF22" s="81"/>
+      <c r="HG22" s="81"/>
+      <c r="HH22" s="81"/>
+      <c r="HI22" s="81"/>
+      <c r="HJ22" s="81"/>
+      <c r="HK22" s="81"/>
+      <c r="HL22" s="81"/>
+      <c r="HM22" s="81"/>
+      <c r="HN22" s="81"/>
+      <c r="HO22" s="81"/>
+      <c r="HP22" s="81"/>
+      <c r="HQ22" s="81"/>
+      <c r="HR22" s="81"/>
+      <c r="HS22" s="81"/>
+      <c r="HT22" s="81"/>
+      <c r="HU22" s="81"/>
+      <c r="HV22" s="81"/>
+      <c r="HW22" s="81"/>
+      <c r="HX22" s="81"/>
+      <c r="HY22" s="81"/>
+      <c r="HZ22" s="81"/>
+      <c r="IA22" s="81"/>
+      <c r="IB22" s="81"/>
+      <c r="IC22" s="81"/>
+      <c r="ID22" s="81"/>
+      <c r="IE22" s="81"/>
+      <c r="IF22" s="81"/>
+      <c r="IG22" s="81"/>
+      <c r="IH22" s="81"/>
+      <c r="II22" s="81"/>
+      <c r="IJ22" s="81"/>
+      <c r="IK22" s="81"/>
+      <c r="IL22" s="81"/>
+      <c r="IM22" s="81"/>
+      <c r="IN22" s="81"/>
+      <c r="IO22" s="81"/>
+      <c r="IP22" s="81"/>
+      <c r="IQ22" s="81"/>
+      <c r="IR22" s="81"/>
+      <c r="IS22" s="81"/>
+      <c r="IT22" s="81"/>
+      <c r="IU22" s="81"/>
+      <c r="IV22" s="81"/>
+      <c r="IW22" s="81"/>
+      <c r="IX22" s="81"/>
     </row>
     <row r="23" spans="1:258" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="A23" s="30"/>
@@ -8279,7 +8294,7 @@
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
-      <c r="K23" s="72"/>
+      <c r="K23" s="70"/>
       <c r="L23" s="21"/>
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
@@ -8529,7 +8544,7 @@
       <c r="IX23" s="24"/>
     </row>
     <row r="24" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A24" s="102"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
@@ -8538,8 +8553,8 @@
       <c r="G24" s="34"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="72"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="70"/>
       <c r="L24" s="21"/>
       <c r="M24" s="51"/>
       <c r="N24" s="51"/>
@@ -8789,7 +8804,7 @@
       <c r="IX24" s="51"/>
     </row>
     <row r="25" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A25" s="102"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -8798,8 +8813,8 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="72"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="70"/>
       <c r="L25" s="21"/>
       <c r="M25" s="51"/>
       <c r="N25" s="51"/>
@@ -9049,7 +9064,7 @@
       <c r="IX25" s="51"/>
     </row>
     <row r="26" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A26" s="102"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
@@ -9058,8 +9073,8 @@
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="72"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="70"/>
       <c r="L26" s="21"/>
       <c r="M26" s="51"/>
       <c r="N26" s="51"/>
@@ -9319,7 +9334,7 @@
       <c r="H27" s="20"/>
       <c r="I27" s="53"/>
       <c r="J27" s="53"/>
-      <c r="K27" s="72"/>
+      <c r="K27" s="70"/>
       <c r="L27" s="21"/>
       <c r="M27" s="51"/>
       <c r="N27" s="51"/>
@@ -9579,7 +9594,7 @@
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
-      <c r="K28" s="72"/>
+      <c r="K28" s="70"/>
       <c r="L28" s="21"/>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
@@ -9829,7 +9844,7 @@
       <c r="IX28" s="24"/>
     </row>
     <row r="29" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A29" s="99"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
       <c r="D29" s="33"/>
@@ -9838,8 +9853,8 @@
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="72"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="70"/>
       <c r="L29" s="21"/>
       <c r="M29" s="51"/>
       <c r="N29" s="51"/>
@@ -10089,7 +10104,7 @@
       <c r="IX29" s="51"/>
     </row>
     <row r="30" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A30" s="100"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -10098,8 +10113,8 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="72"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="70"/>
       <c r="L30" s="21"/>
       <c r="M30" s="51"/>
       <c r="N30" s="51"/>
@@ -10349,7 +10364,7 @@
       <c r="IX30" s="51"/>
     </row>
     <row r="31" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A31" s="101"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="35"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -10358,8 +10373,8 @@
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="93"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="90"/>
       <c r="L31" s="43"/>
     </row>
     <row r="32" spans="1:258" s="4" customFormat="1" ht="18.75" customHeight="1">
@@ -10373,7 +10388,7 @@
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="93"/>
+      <c r="K32" s="90"/>
       <c r="L32" s="43"/>
       <c r="M32" s="39"/>
       <c r="N32" s="39"/>
@@ -10623,7 +10638,7 @@
       <c r="IX32" s="39"/>
     </row>
     <row r="33" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A33" s="103"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="32"/>
       <c r="C33" s="41"/>
       <c r="D33" s="41"/>
@@ -10632,12 +10647,12 @@
       <c r="G33" s="42"/>
       <c r="H33" s="41"/>
       <c r="I33" s="42"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="93"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="90"/>
       <c r="L33" s="43"/>
     </row>
     <row r="34" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A34" s="104"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="20"/>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -10645,12 +10660,12 @@
       <c r="F34" s="41"/>
       <c r="G34" s="44"/>
       <c r="I34" s="44"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
       <c r="L34" s="43"/>
     </row>
     <row r="35" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A35" s="104"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="20"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
@@ -10659,12 +10674,12 @@
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
       <c r="L35" s="43"/>
     </row>
     <row r="36" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A36" s="105"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="35"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -10673,8 +10688,8 @@
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="93"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="90"/>
       <c r="L36" s="43"/>
     </row>
     <row r="37" spans="1:258" s="4" customFormat="1" ht="15.75" customHeight="1">
@@ -10688,7 +10703,7 @@
       <c r="H37" s="39"/>
       <c r="I37" s="40"/>
       <c r="J37" s="39"/>
-      <c r="K37" s="93"/>
+      <c r="K37" s="90"/>
       <c r="L37" s="43"/>
       <c r="M37" s="39"/>
       <c r="N37" s="39"/>
@@ -10938,7 +10953,7 @@
       <c r="IX37" s="39"/>
     </row>
     <row r="38" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A38" s="103"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="42"/>
       <c r="C38" s="41"/>
       <c r="D38" s="41"/>
@@ -10947,12 +10962,12 @@
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="93"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="90"/>
       <c r="L38" s="43"/>
     </row>
     <row r="39" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A39" s="104"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="44"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
@@ -10961,12 +10976,12 @@
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
       <c r="L39" s="43"/>
     </row>
     <row r="40" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A40" s="104"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="44"/>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
@@ -10975,12 +10990,12 @@
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
       <c r="L40" s="43"/>
     </row>
     <row r="41" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A41" s="104"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="44"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -10989,12 +11004,12 @@
       <c r="G41" s="44"/>
       <c r="H41" s="20"/>
       <c r="I41" s="44"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="93"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
       <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A42" s="104"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="44"/>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -11003,12 +11018,12 @@
       <c r="G42" s="20"/>
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
       <c r="L42" s="43"/>
     </row>
     <row r="43" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A43" s="105"/>
+      <c r="A43" s="101"/>
       <c r="B43" s="44"/>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
@@ -11017,12 +11032,12 @@
       <c r="G43" s="44"/>
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A44" s="103"/>
+      <c r="A44" s="99"/>
       <c r="B44" s="44"/>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
@@ -11031,13 +11046,13 @@
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="93"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
       <c r="L44" s="43"/>
     </row>
     <row r="45" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A45" s="104"/>
-      <c r="B45" s="106"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="21"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
@@ -11045,13 +11060,13 @@
       <c r="G45" s="44"/>
       <c r="H45" s="20"/>
       <c r="I45" s="44"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
       <c r="L45" s="43"/>
     </row>
     <row r="46" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A46" s="104"/>
-      <c r="B46" s="107"/>
+      <c r="A46" s="100"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="21"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
@@ -11059,12 +11074,12 @@
       <c r="G46" s="44"/>
       <c r="H46" s="20"/>
       <c r="I46" s="44"/>
-      <c r="J46" s="93"/>
-      <c r="K46" s="93"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
       <c r="L46" s="43"/>
     </row>
     <row r="47" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A47" s="104"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="44"/>
       <c r="C47" s="43"/>
       <c r="D47" s="43"/>
@@ -11073,12 +11088,12 @@
       <c r="G47" s="44"/>
       <c r="H47" s="43"/>
       <c r="I47" s="44"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="93"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
       <c r="L47" s="43"/>
     </row>
     <row r="48" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A48" s="105"/>
+      <c r="A48" s="101"/>
       <c r="B48" s="44"/>
       <c r="C48" s="43"/>
       <c r="D48" s="43"/>
@@ -11087,8 +11102,8 @@
       <c r="G48" s="44"/>
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
       <c r="L48" s="43"/>
     </row>
     <row r="49" spans="1:12" ht="99.95" customHeight="1">
@@ -11101,8 +11116,8 @@
       <c r="G49" s="44"/>
       <c r="H49" s="43"/>
       <c r="I49" s="44"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="93"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
       <c r="L49" s="43"/>
     </row>
     <row r="50" spans="1:12" ht="99.95" customHeight="1">
@@ -11115,8 +11130,8 @@
       <c r="G50" s="44"/>
       <c r="H50" s="43"/>
       <c r="I50" s="44"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
       <c r="L50" s="43"/>
     </row>
     <row r="51" spans="1:12" ht="99.95" customHeight="1">
@@ -11129,8 +11144,8 @@
       <c r="G51" s="44"/>
       <c r="H51" s="43"/>
       <c r="I51" s="44"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
       <c r="L51" s="43"/>
     </row>
     <row r="52" spans="1:12" ht="99.95" customHeight="1">
@@ -11143,8 +11158,8 @@
       <c r="G52" s="44"/>
       <c r="H52" s="43"/>
       <c r="I52" s="44"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="93"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="90"/>
       <c r="L52" s="43"/>
     </row>
   </sheetData>
@@ -11160,11 +11175,11 @@
     <mergeCell ref="A29:A31"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;11&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11775,7 +11790,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>21</v>
@@ -12294,13 +12309,13 @@
     </row>
     <row r="6" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>26</v>
@@ -12309,7 +12324,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="26"/>
@@ -12824,13 +12839,13 @@
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>26</v>
@@ -12839,7 +12854,7 @@
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
       <c r="H8" s="26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="26"/>
@@ -13353,14 +13368,14 @@
       <c r="IX9" s="24"/>
     </row>
     <row r="10" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A10" s="102" t="s">
-        <v>90</v>
+      <c r="A10" s="111" t="s">
+        <v>86</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>18</v>
@@ -13368,10 +13383,10 @@
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="32"/>
@@ -13625,12 +13640,12 @@
       <c r="IX10" s="51"/>
     </row>
     <row r="11" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A11" s="102"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>26</v>
@@ -13639,7 +13654,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="20"/>
@@ -13895,12 +13910,12 @@
       <c r="IX11" s="51"/>
     </row>
     <row r="12" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A12" s="102"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>26</v>
@@ -13909,7 +13924,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
@@ -14167,10 +14182,10 @@
     <row r="13" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>26</v>
@@ -14179,7 +14194,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I13" s="52"/>
       <c r="J13" s="53"/>
@@ -14693,14 +14708,14 @@
       <c r="IX14" s="24"/>
     </row>
     <row r="15" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A15" s="99" t="s">
-        <v>104</v>
+      <c r="A15" s="108" t="s">
+        <v>100</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>18</v>
@@ -14708,10 +14723,10 @@
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="32"/>
@@ -14965,12 +14980,12 @@
       <c r="IX15" s="51"/>
     </row>
     <row r="16" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>26</v>
@@ -14979,7 +14994,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
@@ -15233,12 +15248,12 @@
       <c r="IX16" s="51"/>
     </row>
     <row r="17" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A17" s="101"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>26</v>
@@ -15247,7 +15262,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
@@ -15514,90 +15529,90 @@
       <c r="IX18" s="39"/>
     </row>
     <row r="19" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A19" s="103" t="s">
-        <v>115</v>
+      <c r="A19" s="99" t="s">
+        <v>111</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A20" s="104"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A21" s="104"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A22" s="105"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="35" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -15863,247 +15878,247 @@
       <c r="IX23" s="39"/>
     </row>
     <row r="24" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A24" s="103" t="s">
-        <v>126</v>
+      <c r="A24" s="99" t="s">
+        <v>122</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
     </row>
     <row r="25" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A25" s="104"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="44" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D25" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G25" s="44"/>
       <c r="H25" s="44" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I25" s="43"/>
       <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A26" s="104"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="44" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D26" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A27" s="104"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="44" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D27" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I27" s="43"/>
       <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A28" s="104"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="44" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I28" s="43"/>
       <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A29" s="105"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="44" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I29" s="43"/>
       <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A30" s="103" t="s">
-        <v>144</v>
+      <c r="A30" s="99" t="s">
+        <v>140</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D30" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="44" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I30" s="43"/>
       <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="106" t="s">
-        <v>148</v>
+      <c r="A31" s="100"/>
+      <c r="B31" s="102" t="s">
+        <v>144</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D31" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I31" s="43"/>
       <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="107"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D32" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G32" s="44"/>
       <c r="H32" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I32" s="43"/>
       <c r="J32" s="43"/>
     </row>
     <row r="33" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A33" s="104"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="44" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A34" s="105"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G34" s="44"/>
       <c r="H34" s="44" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -527,23 +527,6 @@
  "remark": ""
 }
 }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Complete
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> "language": "", was removed from returned json.
-</t>
-    </r>
   </si>
   <si>
     <t>Delete users</t>
@@ -1541,12 +1524,28 @@
  ]
 }</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Complete
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "language": "", was removed from returned json.
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1643,13 +1642,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -1670,6 +1662,17 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1854,7 +1857,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2110,9 +2113,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2137,19 +2137,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2191,7 +2194,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2569,8 +2587,8 @@
   <dimension ref="A1:IX52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75"/>
@@ -3161,7 +3179,7 @@
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="91" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -3697,7 +3715,7 @@
       <c r="A6" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="92" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -3710,7 +3728,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="72"/>
@@ -3967,7 +3985,7 @@
     </row>
     <row r="7" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A7" s="105"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="91" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -3980,7 +3998,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="20"/>
       <c r="H7" s="57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="71"/>
@@ -4237,7 +4255,7 @@
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A8" s="105"/>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="98" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -4250,7 +4268,7 @@
       <c r="F8" s="36"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="75"/>
@@ -4507,27 +4525,27 @@
     </row>
     <row r="9" spans="1:258" s="54" customFormat="1" ht="138" customHeight="1">
       <c r="A9" s="105"/>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="94" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="94" t="s">
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="94" t="s">
+      <c r="I9" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="96"/>
+      <c r="J9" s="95"/>
       <c r="K9" s="77"/>
       <c r="L9" s="73" t="s">
         <v>36</v>
@@ -4781,7 +4799,7 @@
     </row>
     <row r="10" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
       <c r="A10" s="105"/>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="112" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -5321,29 +5339,29 @@
       <c r="A12" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="60" t="s">
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="82"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="61" t="s">
+      <c r="J12" s="117"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="114" t="s">
         <v>47</v>
       </c>
       <c r="M12" s="51"/>
@@ -5595,26 +5613,26 @@
     </row>
     <row r="13" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
       <c r="A13" s="105"/>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62" t="s">
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="85" t="s">
-        <v>51</v>
+      <c r="I13" s="114"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="113" t="s">
+        <v>159</v>
       </c>
       <c r="M13" s="81"/>
       <c r="N13" s="81"/>
@@ -5866,7 +5884,7 @@
     <row r="14" spans="1:258" s="56" customFormat="1" ht="99.95" customHeight="1">
       <c r="A14" s="106"/>
       <c r="B14" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="60" t="s">
         <v>45</v>
@@ -5877,7 +5895,7 @@
       <c r="E14" s="61"/>
       <c r="F14" s="61"/>
       <c r="G14" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="60" t="s">
         <v>35</v>
@@ -5888,260 +5906,260 @@
       <c r="L14" s="61">
         <v>1</v>
       </c>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="86"/>
-      <c r="AO14" s="86"/>
-      <c r="AP14" s="86"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="86"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="86"/>
-      <c r="AW14" s="86"/>
-      <c r="AX14" s="86"/>
-      <c r="AY14" s="86"/>
-      <c r="AZ14" s="86"/>
-      <c r="BA14" s="86"/>
-      <c r="BB14" s="86"/>
-      <c r="BC14" s="86"/>
-      <c r="BD14" s="86"/>
-      <c r="BE14" s="86"/>
-      <c r="BF14" s="86"/>
-      <c r="BG14" s="86"/>
-      <c r="BH14" s="86"/>
-      <c r="BI14" s="86"/>
-      <c r="BJ14" s="86"/>
-      <c r="BK14" s="86"/>
-      <c r="BL14" s="86"/>
-      <c r="BM14" s="86"/>
-      <c r="BN14" s="86"/>
-      <c r="BO14" s="86"/>
-      <c r="BP14" s="86"/>
-      <c r="BQ14" s="86"/>
-      <c r="BR14" s="86"/>
-      <c r="BS14" s="86"/>
-      <c r="BT14" s="86"/>
-      <c r="BU14" s="86"/>
-      <c r="BV14" s="86"/>
-      <c r="BW14" s="86"/>
-      <c r="BX14" s="86"/>
-      <c r="BY14" s="86"/>
-      <c r="BZ14" s="86"/>
-      <c r="CA14" s="86"/>
-      <c r="CB14" s="86"/>
-      <c r="CC14" s="86"/>
-      <c r="CD14" s="86"/>
-      <c r="CE14" s="86"/>
-      <c r="CF14" s="86"/>
-      <c r="CG14" s="86"/>
-      <c r="CH14" s="86"/>
-      <c r="CI14" s="86"/>
-      <c r="CJ14" s="86"/>
-      <c r="CK14" s="86"/>
-      <c r="CL14" s="86"/>
-      <c r="CM14" s="86"/>
-      <c r="CN14" s="86"/>
-      <c r="CO14" s="86"/>
-      <c r="CP14" s="86"/>
-      <c r="CQ14" s="86"/>
-      <c r="CR14" s="86"/>
-      <c r="CS14" s="86"/>
-      <c r="CT14" s="86"/>
-      <c r="CU14" s="86"/>
-      <c r="CV14" s="86"/>
-      <c r="CW14" s="86"/>
-      <c r="CX14" s="86"/>
-      <c r="CY14" s="86"/>
-      <c r="CZ14" s="86"/>
-      <c r="DA14" s="86"/>
-      <c r="DB14" s="86"/>
-      <c r="DC14" s="86"/>
-      <c r="DD14" s="86"/>
-      <c r="DE14" s="86"/>
-      <c r="DF14" s="86"/>
-      <c r="DG14" s="86"/>
-      <c r="DH14" s="86"/>
-      <c r="DI14" s="86"/>
-      <c r="DJ14" s="86"/>
-      <c r="DK14" s="86"/>
-      <c r="DL14" s="86"/>
-      <c r="DM14" s="86"/>
-      <c r="DN14" s="86"/>
-      <c r="DO14" s="86"/>
-      <c r="DP14" s="86"/>
-      <c r="DQ14" s="86"/>
-      <c r="DR14" s="86"/>
-      <c r="DS14" s="86"/>
-      <c r="DT14" s="86"/>
-      <c r="DU14" s="86"/>
-      <c r="DV14" s="86"/>
-      <c r="DW14" s="86"/>
-      <c r="DX14" s="86"/>
-      <c r="DY14" s="86"/>
-      <c r="DZ14" s="86"/>
-      <c r="EA14" s="86"/>
-      <c r="EB14" s="86"/>
-      <c r="EC14" s="86"/>
-      <c r="ED14" s="86"/>
-      <c r="EE14" s="86"/>
-      <c r="EF14" s="86"/>
-      <c r="EG14" s="86"/>
-      <c r="EH14" s="86"/>
-      <c r="EI14" s="86"/>
-      <c r="EJ14" s="86"/>
-      <c r="EK14" s="86"/>
-      <c r="EL14" s="86"/>
-      <c r="EM14" s="86"/>
-      <c r="EN14" s="86"/>
-      <c r="EO14" s="86"/>
-      <c r="EP14" s="86"/>
-      <c r="EQ14" s="86"/>
-      <c r="ER14" s="86"/>
-      <c r="ES14" s="86"/>
-      <c r="ET14" s="86"/>
-      <c r="EU14" s="86"/>
-      <c r="EV14" s="86"/>
-      <c r="EW14" s="86"/>
-      <c r="EX14" s="86"/>
-      <c r="EY14" s="86"/>
-      <c r="EZ14" s="86"/>
-      <c r="FA14" s="86"/>
-      <c r="FB14" s="86"/>
-      <c r="FC14" s="86"/>
-      <c r="FD14" s="86"/>
-      <c r="FE14" s="86"/>
-      <c r="FF14" s="86"/>
-      <c r="FG14" s="86"/>
-      <c r="FH14" s="86"/>
-      <c r="FI14" s="86"/>
-      <c r="FJ14" s="86"/>
-      <c r="FK14" s="86"/>
-      <c r="FL14" s="86"/>
-      <c r="FM14" s="86"/>
-      <c r="FN14" s="86"/>
-      <c r="FO14" s="86"/>
-      <c r="FP14" s="86"/>
-      <c r="FQ14" s="86"/>
-      <c r="FR14" s="86"/>
-      <c r="FS14" s="86"/>
-      <c r="FT14" s="86"/>
-      <c r="FU14" s="86"/>
-      <c r="FV14" s="86"/>
-      <c r="FW14" s="86"/>
-      <c r="FX14" s="86"/>
-      <c r="FY14" s="86"/>
-      <c r="FZ14" s="86"/>
-      <c r="GA14" s="86"/>
-      <c r="GB14" s="86"/>
-      <c r="GC14" s="86"/>
-      <c r="GD14" s="86"/>
-      <c r="GE14" s="86"/>
-      <c r="GF14" s="86"/>
-      <c r="GG14" s="86"/>
-      <c r="GH14" s="86"/>
-      <c r="GI14" s="86"/>
-      <c r="GJ14" s="86"/>
-      <c r="GK14" s="86"/>
-      <c r="GL14" s="86"/>
-      <c r="GM14" s="86"/>
-      <c r="GN14" s="86"/>
-      <c r="GO14" s="86"/>
-      <c r="GP14" s="86"/>
-      <c r="GQ14" s="86"/>
-      <c r="GR14" s="86"/>
-      <c r="GS14" s="86"/>
-      <c r="GT14" s="86"/>
-      <c r="GU14" s="86"/>
-      <c r="GV14" s="86"/>
-      <c r="GW14" s="86"/>
-      <c r="GX14" s="86"/>
-      <c r="GY14" s="86"/>
-      <c r="GZ14" s="86"/>
-      <c r="HA14" s="86"/>
-      <c r="HB14" s="86"/>
-      <c r="HC14" s="86"/>
-      <c r="HD14" s="86"/>
-      <c r="HE14" s="86"/>
-      <c r="HF14" s="86"/>
-      <c r="HG14" s="86"/>
-      <c r="HH14" s="86"/>
-      <c r="HI14" s="86"/>
-      <c r="HJ14" s="86"/>
-      <c r="HK14" s="86"/>
-      <c r="HL14" s="86"/>
-      <c r="HM14" s="86"/>
-      <c r="HN14" s="86"/>
-      <c r="HO14" s="86"/>
-      <c r="HP14" s="86"/>
-      <c r="HQ14" s="86"/>
-      <c r="HR14" s="86"/>
-      <c r="HS14" s="86"/>
-      <c r="HT14" s="86"/>
-      <c r="HU14" s="86"/>
-      <c r="HV14" s="86"/>
-      <c r="HW14" s="86"/>
-      <c r="HX14" s="86"/>
-      <c r="HY14" s="86"/>
-      <c r="HZ14" s="86"/>
-      <c r="IA14" s="86"/>
-      <c r="IB14" s="86"/>
-      <c r="IC14" s="86"/>
-      <c r="ID14" s="86"/>
-      <c r="IE14" s="86"/>
-      <c r="IF14" s="86"/>
-      <c r="IG14" s="86"/>
-      <c r="IH14" s="86"/>
-      <c r="II14" s="86"/>
-      <c r="IJ14" s="86"/>
-      <c r="IK14" s="86"/>
-      <c r="IL14" s="86"/>
-      <c r="IM14" s="86"/>
-      <c r="IN14" s="86"/>
-      <c r="IO14" s="86"/>
-      <c r="IP14" s="86"/>
-      <c r="IQ14" s="86"/>
-      <c r="IR14" s="86"/>
-      <c r="IS14" s="86"/>
-      <c r="IT14" s="86"/>
-      <c r="IU14" s="86"/>
-      <c r="IV14" s="86"/>
-      <c r="IW14" s="86"/>
-      <c r="IX14" s="86"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="85"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="85"/>
+      <c r="AE14" s="85"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="85"/>
+      <c r="AI14" s="85"/>
+      <c r="AJ14" s="85"/>
+      <c r="AK14" s="85"/>
+      <c r="AL14" s="85"/>
+      <c r="AM14" s="85"/>
+      <c r="AN14" s="85"/>
+      <c r="AO14" s="85"/>
+      <c r="AP14" s="85"/>
+      <c r="AQ14" s="85"/>
+      <c r="AR14" s="85"/>
+      <c r="AS14" s="85"/>
+      <c r="AT14" s="85"/>
+      <c r="AU14" s="85"/>
+      <c r="AV14" s="85"/>
+      <c r="AW14" s="85"/>
+      <c r="AX14" s="85"/>
+      <c r="AY14" s="85"/>
+      <c r="AZ14" s="85"/>
+      <c r="BA14" s="85"/>
+      <c r="BB14" s="85"/>
+      <c r="BC14" s="85"/>
+      <c r="BD14" s="85"/>
+      <c r="BE14" s="85"/>
+      <c r="BF14" s="85"/>
+      <c r="BG14" s="85"/>
+      <c r="BH14" s="85"/>
+      <c r="BI14" s="85"/>
+      <c r="BJ14" s="85"/>
+      <c r="BK14" s="85"/>
+      <c r="BL14" s="85"/>
+      <c r="BM14" s="85"/>
+      <c r="BN14" s="85"/>
+      <c r="BO14" s="85"/>
+      <c r="BP14" s="85"/>
+      <c r="BQ14" s="85"/>
+      <c r="BR14" s="85"/>
+      <c r="BS14" s="85"/>
+      <c r="BT14" s="85"/>
+      <c r="BU14" s="85"/>
+      <c r="BV14" s="85"/>
+      <c r="BW14" s="85"/>
+      <c r="BX14" s="85"/>
+      <c r="BY14" s="85"/>
+      <c r="BZ14" s="85"/>
+      <c r="CA14" s="85"/>
+      <c r="CB14" s="85"/>
+      <c r="CC14" s="85"/>
+      <c r="CD14" s="85"/>
+      <c r="CE14" s="85"/>
+      <c r="CF14" s="85"/>
+      <c r="CG14" s="85"/>
+      <c r="CH14" s="85"/>
+      <c r="CI14" s="85"/>
+      <c r="CJ14" s="85"/>
+      <c r="CK14" s="85"/>
+      <c r="CL14" s="85"/>
+      <c r="CM14" s="85"/>
+      <c r="CN14" s="85"/>
+      <c r="CO14" s="85"/>
+      <c r="CP14" s="85"/>
+      <c r="CQ14" s="85"/>
+      <c r="CR14" s="85"/>
+      <c r="CS14" s="85"/>
+      <c r="CT14" s="85"/>
+      <c r="CU14" s="85"/>
+      <c r="CV14" s="85"/>
+      <c r="CW14" s="85"/>
+      <c r="CX14" s="85"/>
+      <c r="CY14" s="85"/>
+      <c r="CZ14" s="85"/>
+      <c r="DA14" s="85"/>
+      <c r="DB14" s="85"/>
+      <c r="DC14" s="85"/>
+      <c r="DD14" s="85"/>
+      <c r="DE14" s="85"/>
+      <c r="DF14" s="85"/>
+      <c r="DG14" s="85"/>
+      <c r="DH14" s="85"/>
+      <c r="DI14" s="85"/>
+      <c r="DJ14" s="85"/>
+      <c r="DK14" s="85"/>
+      <c r="DL14" s="85"/>
+      <c r="DM14" s="85"/>
+      <c r="DN14" s="85"/>
+      <c r="DO14" s="85"/>
+      <c r="DP14" s="85"/>
+      <c r="DQ14" s="85"/>
+      <c r="DR14" s="85"/>
+      <c r="DS14" s="85"/>
+      <c r="DT14" s="85"/>
+      <c r="DU14" s="85"/>
+      <c r="DV14" s="85"/>
+      <c r="DW14" s="85"/>
+      <c r="DX14" s="85"/>
+      <c r="DY14" s="85"/>
+      <c r="DZ14" s="85"/>
+      <c r="EA14" s="85"/>
+      <c r="EB14" s="85"/>
+      <c r="EC14" s="85"/>
+      <c r="ED14" s="85"/>
+      <c r="EE14" s="85"/>
+      <c r="EF14" s="85"/>
+      <c r="EG14" s="85"/>
+      <c r="EH14" s="85"/>
+      <c r="EI14" s="85"/>
+      <c r="EJ14" s="85"/>
+      <c r="EK14" s="85"/>
+      <c r="EL14" s="85"/>
+      <c r="EM14" s="85"/>
+      <c r="EN14" s="85"/>
+      <c r="EO14" s="85"/>
+      <c r="EP14" s="85"/>
+      <c r="EQ14" s="85"/>
+      <c r="ER14" s="85"/>
+      <c r="ES14" s="85"/>
+      <c r="ET14" s="85"/>
+      <c r="EU14" s="85"/>
+      <c r="EV14" s="85"/>
+      <c r="EW14" s="85"/>
+      <c r="EX14" s="85"/>
+      <c r="EY14" s="85"/>
+      <c r="EZ14" s="85"/>
+      <c r="FA14" s="85"/>
+      <c r="FB14" s="85"/>
+      <c r="FC14" s="85"/>
+      <c r="FD14" s="85"/>
+      <c r="FE14" s="85"/>
+      <c r="FF14" s="85"/>
+      <c r="FG14" s="85"/>
+      <c r="FH14" s="85"/>
+      <c r="FI14" s="85"/>
+      <c r="FJ14" s="85"/>
+      <c r="FK14" s="85"/>
+      <c r="FL14" s="85"/>
+      <c r="FM14" s="85"/>
+      <c r="FN14" s="85"/>
+      <c r="FO14" s="85"/>
+      <c r="FP14" s="85"/>
+      <c r="FQ14" s="85"/>
+      <c r="FR14" s="85"/>
+      <c r="FS14" s="85"/>
+      <c r="FT14" s="85"/>
+      <c r="FU14" s="85"/>
+      <c r="FV14" s="85"/>
+      <c r="FW14" s="85"/>
+      <c r="FX14" s="85"/>
+      <c r="FY14" s="85"/>
+      <c r="FZ14" s="85"/>
+      <c r="GA14" s="85"/>
+      <c r="GB14" s="85"/>
+      <c r="GC14" s="85"/>
+      <c r="GD14" s="85"/>
+      <c r="GE14" s="85"/>
+      <c r="GF14" s="85"/>
+      <c r="GG14" s="85"/>
+      <c r="GH14" s="85"/>
+      <c r="GI14" s="85"/>
+      <c r="GJ14" s="85"/>
+      <c r="GK14" s="85"/>
+      <c r="GL14" s="85"/>
+      <c r="GM14" s="85"/>
+      <c r="GN14" s="85"/>
+      <c r="GO14" s="85"/>
+      <c r="GP14" s="85"/>
+      <c r="GQ14" s="85"/>
+      <c r="GR14" s="85"/>
+      <c r="GS14" s="85"/>
+      <c r="GT14" s="85"/>
+      <c r="GU14" s="85"/>
+      <c r="GV14" s="85"/>
+      <c r="GW14" s="85"/>
+      <c r="GX14" s="85"/>
+      <c r="GY14" s="85"/>
+      <c r="GZ14" s="85"/>
+      <c r="HA14" s="85"/>
+      <c r="HB14" s="85"/>
+      <c r="HC14" s="85"/>
+      <c r="HD14" s="85"/>
+      <c r="HE14" s="85"/>
+      <c r="HF14" s="85"/>
+      <c r="HG14" s="85"/>
+      <c r="HH14" s="85"/>
+      <c r="HI14" s="85"/>
+      <c r="HJ14" s="85"/>
+      <c r="HK14" s="85"/>
+      <c r="HL14" s="85"/>
+      <c r="HM14" s="85"/>
+      <c r="HN14" s="85"/>
+      <c r="HO14" s="85"/>
+      <c r="HP14" s="85"/>
+      <c r="HQ14" s="85"/>
+      <c r="HR14" s="85"/>
+      <c r="HS14" s="85"/>
+      <c r="HT14" s="85"/>
+      <c r="HU14" s="85"/>
+      <c r="HV14" s="85"/>
+      <c r="HW14" s="85"/>
+      <c r="HX14" s="85"/>
+      <c r="HY14" s="85"/>
+      <c r="HZ14" s="85"/>
+      <c r="IA14" s="85"/>
+      <c r="IB14" s="85"/>
+      <c r="IC14" s="85"/>
+      <c r="ID14" s="85"/>
+      <c r="IE14" s="85"/>
+      <c r="IF14" s="85"/>
+      <c r="IG14" s="85"/>
+      <c r="IH14" s="85"/>
+      <c r="II14" s="85"/>
+      <c r="IJ14" s="85"/>
+      <c r="IK14" s="85"/>
+      <c r="IL14" s="85"/>
+      <c r="IM14" s="85"/>
+      <c r="IN14" s="85"/>
+      <c r="IO14" s="85"/>
+      <c r="IP14" s="85"/>
+      <c r="IQ14" s="85"/>
+      <c r="IR14" s="85"/>
+      <c r="IS14" s="85"/>
+      <c r="IT14" s="85"/>
+      <c r="IU14" s="85"/>
+      <c r="IV14" s="85"/>
+      <c r="IW14" s="85"/>
+      <c r="IX14" s="85"/>
     </row>
     <row r="15" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
       <c r="A15" s="105"/>
-      <c r="B15" s="98" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="98" t="s">
-        <v>54</v>
+      <c r="B15" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>53</v>
       </c>
       <c r="D15" s="63" t="s">
         <v>18</v>
@@ -6149,15 +6167,15 @@
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
       <c r="G15" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="60" t="s">
         <v>55</v>
-      </c>
-      <c r="H15" s="60" t="s">
-        <v>56</v>
       </c>
       <c r="I15" s="63"/>
       <c r="J15" s="62"/>
       <c r="K15" s="84"/>
-      <c r="L15" s="87" t="s">
+      <c r="L15" s="86" t="s">
         <v>47</v>
       </c>
       <c r="M15" s="81"/>
@@ -6410,10 +6428,10 @@
     <row r="16" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
       <c r="A16" s="105"/>
       <c r="B16" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="58" t="s">
         <v>57</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>58</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>26</v>
@@ -6422,7 +6440,7 @@
       <c r="F16" s="59"/>
       <c r="G16" s="58"/>
       <c r="H16" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" s="59"/>
       <c r="J16" s="58"/>
@@ -6678,10 +6696,10 @@
     <row r="17" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A17" s="107"/>
       <c r="B17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>18</v>
@@ -6689,7 +6707,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>35</v>
@@ -6700,7 +6718,7 @@
       <c r="J17" s="71"/>
       <c r="K17" s="70"/>
       <c r="L17" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M17" s="51"/>
       <c r="N17" s="51"/>
@@ -7211,13 +7229,13 @@
     </row>
     <row r="19" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A19" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="C19" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>66</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>26</v>
@@ -7226,7 +7244,7 @@
       <c r="F19" s="27"/>
       <c r="G19" s="29"/>
       <c r="H19" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="72"/>
@@ -7482,10 +7500,10 @@
     <row r="20" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
       <c r="A20" s="109"/>
       <c r="B20" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="58" t="s">
         <v>68</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>69</v>
       </c>
       <c r="D20" s="59" t="s">
         <v>26</v>
@@ -7494,7 +7512,7 @@
       <c r="F20" s="59"/>
       <c r="G20" s="65"/>
       <c r="H20" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" s="59"/>
       <c r="J20" s="58"/>
@@ -7750,10 +7768,10 @@
     <row r="21" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
       <c r="A21" s="109"/>
       <c r="B21" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="59" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" s="59" t="s">
-        <v>72</v>
       </c>
       <c r="D21" s="59" t="s">
         <v>26</v>
@@ -7762,7 +7780,7 @@
       <c r="F21" s="59"/>
       <c r="G21" s="65"/>
       <c r="H21" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I21" s="59"/>
       <c r="J21" s="58"/>
@@ -8018,10 +8036,10 @@
     <row r="22" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
       <c r="A22" s="110"/>
       <c r="B22" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="58" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>75</v>
       </c>
       <c r="D22" s="59" t="s">
         <v>26</v>
@@ -8030,7 +8048,7 @@
       <c r="F22" s="59"/>
       <c r="G22" s="65"/>
       <c r="H22" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" s="59"/>
       <c r="J22" s="58"/>
@@ -8553,7 +8571,7 @@
       <c r="G24" s="34"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="88"/>
+      <c r="J24" s="87"/>
       <c r="K24" s="70"/>
       <c r="L24" s="21"/>
       <c r="M24" s="51"/>
@@ -9853,7 +9871,7 @@
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
-      <c r="J29" s="88"/>
+      <c r="J29" s="87"/>
       <c r="K29" s="70"/>
       <c r="L29" s="21"/>
       <c r="M29" s="51"/>
@@ -10373,8 +10391,8 @@
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="90"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="89"/>
       <c r="L31" s="43"/>
     </row>
     <row r="32" spans="1:258" s="4" customFormat="1" ht="18.75" customHeight="1">
@@ -10388,7 +10406,7 @@
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="90"/>
+      <c r="K32" s="89"/>
       <c r="L32" s="43"/>
       <c r="M32" s="39"/>
       <c r="N32" s="39"/>
@@ -10647,8 +10665,8 @@
       <c r="G33" s="42"/>
       <c r="H33" s="41"/>
       <c r="I33" s="42"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="89"/>
       <c r="L33" s="43"/>
     </row>
     <row r="34" spans="1:258" ht="99.95" customHeight="1">
@@ -10660,8 +10678,8 @@
       <c r="F34" s="41"/>
       <c r="G34" s="44"/>
       <c r="I34" s="44"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
       <c r="L34" s="43"/>
     </row>
     <row r="35" spans="1:258" ht="99.95" customHeight="1">
@@ -10674,8 +10692,8 @@
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
       <c r="L35" s="43"/>
     </row>
     <row r="36" spans="1:258" ht="99.95" customHeight="1">
@@ -10688,8 +10706,8 @@
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="90"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="89"/>
       <c r="L36" s="43"/>
     </row>
     <row r="37" spans="1:258" s="4" customFormat="1" ht="15.75" customHeight="1">
@@ -10703,7 +10721,7 @@
       <c r="H37" s="39"/>
       <c r="I37" s="40"/>
       <c r="J37" s="39"/>
-      <c r="K37" s="90"/>
+      <c r="K37" s="89"/>
       <c r="L37" s="43"/>
       <c r="M37" s="39"/>
       <c r="N37" s="39"/>
@@ -10962,8 +10980,8 @@
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="89"/>
       <c r="L38" s="43"/>
     </row>
     <row r="39" spans="1:258" ht="99.95" customHeight="1">
@@ -10976,8 +10994,8 @@
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
       <c r="L39" s="43"/>
     </row>
     <row r="40" spans="1:258" ht="99.95" customHeight="1">
@@ -10990,8 +11008,8 @@
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
       <c r="L40" s="43"/>
     </row>
     <row r="41" spans="1:258" ht="99.95" customHeight="1">
@@ -11004,8 +11022,8 @@
       <c r="G41" s="44"/>
       <c r="H41" s="20"/>
       <c r="I41" s="44"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
       <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:258" ht="99.95" customHeight="1">
@@ -11018,8 +11036,8 @@
       <c r="G42" s="20"/>
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
       <c r="L42" s="43"/>
     </row>
     <row r="43" spans="1:258" ht="99.95" customHeight="1">
@@ -11032,8 +11050,8 @@
       <c r="G43" s="44"/>
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="1:258" ht="99.95" customHeight="1">
@@ -11046,8 +11064,8 @@
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
       <c r="L44" s="43"/>
     </row>
     <row r="45" spans="1:258" ht="99.95" customHeight="1">
@@ -11060,8 +11078,8 @@
       <c r="G45" s="44"/>
       <c r="H45" s="20"/>
       <c r="I45" s="44"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
       <c r="L45" s="43"/>
     </row>
     <row r="46" spans="1:258" ht="99.95" customHeight="1">
@@ -11074,8 +11092,8 @@
       <c r="G46" s="44"/>
       <c r="H46" s="20"/>
       <c r="I46" s="44"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
       <c r="L46" s="43"/>
     </row>
     <row r="47" spans="1:258" ht="99.95" customHeight="1">
@@ -11088,8 +11106,8 @@
       <c r="G47" s="44"/>
       <c r="H47" s="43"/>
       <c r="I47" s="44"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
       <c r="L47" s="43"/>
     </row>
     <row r="48" spans="1:258" ht="99.95" customHeight="1">
@@ -11102,8 +11120,8 @@
       <c r="G48" s="44"/>
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
       <c r="L48" s="43"/>
     </row>
     <row r="49" spans="1:12" ht="99.95" customHeight="1">
@@ -11116,8 +11134,8 @@
       <c r="G49" s="44"/>
       <c r="H49" s="43"/>
       <c r="I49" s="44"/>
-      <c r="J49" s="90"/>
-      <c r="K49" s="90"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
       <c r="L49" s="43"/>
     </row>
     <row r="50" spans="1:12" ht="99.95" customHeight="1">
@@ -11130,8 +11148,8 @@
       <c r="G50" s="44"/>
       <c r="H50" s="43"/>
       <c r="I50" s="44"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
       <c r="L50" s="43"/>
     </row>
     <row r="51" spans="1:12" ht="99.95" customHeight="1">
@@ -11144,8 +11162,8 @@
       <c r="G51" s="44"/>
       <c r="H51" s="43"/>
       <c r="I51" s="44"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
       <c r="L51" s="43"/>
     </row>
     <row r="52" spans="1:12" ht="99.95" customHeight="1">
@@ -11158,8 +11176,8 @@
       <c r="G52" s="44"/>
       <c r="H52" s="43"/>
       <c r="I52" s="44"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="90"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
       <c r="L52" s="43"/>
     </row>
   </sheetData>
@@ -11790,7 +11808,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>21</v>
@@ -12309,13 +12327,13 @@
     </row>
     <row r="6" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>80</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>26</v>
@@ -12324,7 +12342,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="26"/>
@@ -12839,13 +12857,13 @@
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A8" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>83</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>84</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>26</v>
@@ -12854,7 +12872,7 @@
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
       <c r="H8" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="26"/>
@@ -13369,13 +13387,13 @@
     </row>
     <row r="10" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A10" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="C10" s="32" t="s">
         <v>87</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>88</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>18</v>
@@ -13383,10 +13401,10 @@
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="32" t="s">
         <v>89</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>90</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="32"/>
@@ -13642,10 +13660,10 @@
     <row r="11" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A11" s="111"/>
       <c r="B11" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>26</v>
@@ -13654,7 +13672,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="20"/>
@@ -13912,10 +13930,10 @@
     <row r="12" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A12" s="111"/>
       <c r="B12" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>95</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>26</v>
@@ -13924,7 +13942,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
@@ -14182,10 +14200,10 @@
     <row r="13" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>26</v>
@@ -14194,7 +14212,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I13" s="52"/>
       <c r="J13" s="53"/>
@@ -14709,13 +14727,13 @@
     </row>
     <row r="15" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A15" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="C15" s="32" t="s">
         <v>101</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>102</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>18</v>
@@ -14723,10 +14741,10 @@
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="32" t="s">
         <v>103</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>104</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="32"/>
@@ -14982,10 +15000,10 @@
     <row r="16" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A16" s="109"/>
       <c r="B16" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>105</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>26</v>
@@ -14994,7 +15012,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
@@ -15250,10 +15268,10 @@
     <row r="17" spans="1:258" ht="99.95" customHeight="1">
       <c r="A17" s="110"/>
       <c r="B17" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>108</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>109</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>26</v>
@@ -15262,7 +15280,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
@@ -15530,23 +15548,23 @@
     </row>
     <row r="19" spans="1:258" ht="99.95" customHeight="1">
       <c r="A19" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="C19" s="41" t="s">
         <v>112</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>113</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="42" t="s">
         <v>114</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>115</v>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
@@ -15555,20 +15573,20 @@
     <row r="20" spans="1:258" ht="99.95" customHeight="1">
       <c r="A20" s="100"/>
       <c r="B20" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>116</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>117</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="44" t="s">
         <v>114</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>115</v>
       </c>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
@@ -15576,21 +15594,21 @@
     <row r="21" spans="1:258" ht="99.95" customHeight="1">
       <c r="A21" s="100"/>
       <c r="B21" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="43" t="s">
         <v>118</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>119</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
@@ -15598,21 +15616,21 @@
     <row r="22" spans="1:258" ht="99.95" customHeight="1">
       <c r="A22" s="101"/>
       <c r="B22" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>120</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>121</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -15879,22 +15897,22 @@
     </row>
     <row r="24" spans="1:258" ht="99.95" customHeight="1">
       <c r="A24" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="C24" s="41" t="s">
         <v>123</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>124</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
@@ -15902,21 +15920,21 @@
     <row r="25" spans="1:258" ht="99.95" customHeight="1">
       <c r="A25" s="100"/>
       <c r="B25" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>126</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>127</v>
       </c>
       <c r="D25" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="44"/>
       <c r="H25" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I25" s="43"/>
       <c r="J25" s="43"/>
@@ -15924,23 +15942,23 @@
     <row r="26" spans="1:258" ht="99.95" customHeight="1">
       <c r="A26" s="100"/>
       <c r="B26" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>131</v>
       </c>
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
@@ -15948,21 +15966,21 @@
     <row r="27" spans="1:258" ht="99.95" customHeight="1">
       <c r="A27" s="100"/>
       <c r="B27" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="43" t="s">
         <v>132</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>133</v>
       </c>
       <c r="D27" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I27" s="43"/>
       <c r="J27" s="43"/>
@@ -15970,23 +15988,23 @@
     <row r="28" spans="1:258" ht="99.95" customHeight="1">
       <c r="A28" s="100"/>
       <c r="B28" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="43" t="s">
         <v>135</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>136</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I28" s="43"/>
       <c r="J28" s="43"/>
@@ -15994,45 +16012,45 @@
     <row r="29" spans="1:258" ht="99.95" customHeight="1">
       <c r="A29" s="101"/>
       <c r="B29" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D29" s="43" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I29" s="43"/>
       <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:258" ht="99.95" customHeight="1">
       <c r="A30" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="C30" s="43" t="s">
         <v>141</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>142</v>
       </c>
       <c r="D30" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I30" s="43"/>
       <c r="J30" s="43"/>
@@ -16040,21 +16058,21 @@
     <row r="31" spans="1:258" ht="99.95" customHeight="1">
       <c r="A31" s="100"/>
       <c r="B31" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>145</v>
       </c>
       <c r="D31" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I31" s="43"/>
       <c r="J31" s="43"/>
@@ -16063,18 +16081,18 @@
       <c r="A32" s="100"/>
       <c r="B32" s="103"/>
       <c r="C32" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G32" s="44"/>
       <c r="H32" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I32" s="43"/>
       <c r="J32" s="43"/>
@@ -16082,20 +16100,20 @@
     <row r="33" spans="1:10" ht="99.95" customHeight="1">
       <c r="A33" s="100"/>
       <c r="B33" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>149</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>150</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
@@ -16104,21 +16122,21 @@
     <row r="34" spans="1:10" ht="99.95" customHeight="1">
       <c r="A34" s="101"/>
       <c r="B34" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="43" t="s">
         <v>152</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>153</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G34" s="44"/>
       <c r="H34" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -1857,7 +1857,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2041,9 +2041,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2104,12 +2101,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2155,6 +2146,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2193,24 +2202,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2587,8 +2578,8 @@
   <dimension ref="A1:IX52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75"/>
@@ -2640,7 +2631,7 @@
       <c r="J1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="65" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="43" t="s">
@@ -2663,11 +2654,11 @@
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
       <c r="O2" s="50"/>
@@ -2926,7 +2917,7 @@
       <c r="H3" s="18"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="70"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="21"/>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
@@ -3179,7 +3170,7 @@
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="88" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -3199,8 +3190,8 @@
       <c r="I4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="70" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="21"/>
@@ -3462,7 +3453,7 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
-      <c r="K5" s="71"/>
+      <c r="K5" s="70"/>
       <c r="L5" s="21"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
@@ -3712,10 +3703,10 @@
       <c r="IX5" s="24"/>
     </row>
     <row r="6" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="89" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -3731,9 +3722,9 @@
         <v>154</v>
       </c>
       <c r="I6" s="26"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="73" t="s">
+      <c r="J6" s="71"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="72" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="51"/>
@@ -3984,8 +3975,8 @@
       <c r="IX6" s="51"/>
     </row>
     <row r="7" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A7" s="105"/>
-      <c r="B7" s="91" t="s">
+      <c r="A7" s="108"/>
+      <c r="B7" s="88" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -4001,9 +3992,9 @@
         <v>157</v>
       </c>
       <c r="I7" s="20"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="74" t="s">
+      <c r="J7" s="70"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="73" t="s">
         <v>30</v>
       </c>
       <c r="M7" s="51"/>
@@ -4254,8 +4245,8 @@
       <c r="IX7" s="51"/>
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A8" s="105"/>
-      <c r="B8" s="98" t="s">
+      <c r="A8" s="108"/>
+      <c r="B8" s="95" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -4271,8 +4262,8 @@
         <v>158</v>
       </c>
       <c r="I8" s="35"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76" t="s">
+      <c r="J8" s="74"/>
+      <c r="K8" s="75" t="s">
         <v>33</v>
       </c>
       <c r="L8" s="21"/>
@@ -4524,282 +4515,282 @@
       <c r="IX8" s="51"/>
     </row>
     <row r="9" spans="1:258" s="54" customFormat="1" ht="138" customHeight="1">
-      <c r="A9" s="105"/>
-      <c r="B9" s="96" t="s">
+      <c r="A9" s="108"/>
+      <c r="B9" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="93" t="s">
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="73" t="s">
+      <c r="J9" s="92"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="78"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="78"/>
-      <c r="AL9" s="78"/>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="78"/>
-      <c r="AO9" s="78"/>
-      <c r="AP9" s="78"/>
-      <c r="AQ9" s="78"/>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="78"/>
-      <c r="AT9" s="78"/>
-      <c r="AU9" s="78"/>
-      <c r="AV9" s="78"/>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="78"/>
-      <c r="AZ9" s="78"/>
-      <c r="BA9" s="78"/>
-      <c r="BB9" s="78"/>
-      <c r="BC9" s="78"/>
-      <c r="BD9" s="78"/>
-      <c r="BE9" s="78"/>
-      <c r="BF9" s="78"/>
-      <c r="BG9" s="78"/>
-      <c r="BH9" s="78"/>
-      <c r="BI9" s="78"/>
-      <c r="BJ9" s="78"/>
-      <c r="BK9" s="78"/>
-      <c r="BL9" s="78"/>
-      <c r="BM9" s="78"/>
-      <c r="BN9" s="78"/>
-      <c r="BO9" s="78"/>
-      <c r="BP9" s="78"/>
-      <c r="BQ9" s="78"/>
-      <c r="BR9" s="78"/>
-      <c r="BS9" s="78"/>
-      <c r="BT9" s="78"/>
-      <c r="BU9" s="78"/>
-      <c r="BV9" s="78"/>
-      <c r="BW9" s="78"/>
-      <c r="BX9" s="78"/>
-      <c r="BY9" s="78"/>
-      <c r="BZ9" s="78"/>
-      <c r="CA9" s="78"/>
-      <c r="CB9" s="78"/>
-      <c r="CC9" s="78"/>
-      <c r="CD9" s="78"/>
-      <c r="CE9" s="78"/>
-      <c r="CF9" s="78"/>
-      <c r="CG9" s="78"/>
-      <c r="CH9" s="78"/>
-      <c r="CI9" s="78"/>
-      <c r="CJ9" s="78"/>
-      <c r="CK9" s="78"/>
-      <c r="CL9" s="78"/>
-      <c r="CM9" s="78"/>
-      <c r="CN9" s="78"/>
-      <c r="CO9" s="78"/>
-      <c r="CP9" s="78"/>
-      <c r="CQ9" s="78"/>
-      <c r="CR9" s="78"/>
-      <c r="CS9" s="78"/>
-      <c r="CT9" s="78"/>
-      <c r="CU9" s="78"/>
-      <c r="CV9" s="78"/>
-      <c r="CW9" s="78"/>
-      <c r="CX9" s="78"/>
-      <c r="CY9" s="78"/>
-      <c r="CZ9" s="78"/>
-      <c r="DA9" s="78"/>
-      <c r="DB9" s="78"/>
-      <c r="DC9" s="78"/>
-      <c r="DD9" s="78"/>
-      <c r="DE9" s="78"/>
-      <c r="DF9" s="78"/>
-      <c r="DG9" s="78"/>
-      <c r="DH9" s="78"/>
-      <c r="DI9" s="78"/>
-      <c r="DJ9" s="78"/>
-      <c r="DK9" s="78"/>
-      <c r="DL9" s="78"/>
-      <c r="DM9" s="78"/>
-      <c r="DN9" s="78"/>
-      <c r="DO9" s="78"/>
-      <c r="DP9" s="78"/>
-      <c r="DQ9" s="78"/>
-      <c r="DR9" s="78"/>
-      <c r="DS9" s="78"/>
-      <c r="DT9" s="78"/>
-      <c r="DU9" s="78"/>
-      <c r="DV9" s="78"/>
-      <c r="DW9" s="78"/>
-      <c r="DX9" s="78"/>
-      <c r="DY9" s="78"/>
-      <c r="DZ9" s="78"/>
-      <c r="EA9" s="78"/>
-      <c r="EB9" s="78"/>
-      <c r="EC9" s="78"/>
-      <c r="ED9" s="78"/>
-      <c r="EE9" s="78"/>
-      <c r="EF9" s="78"/>
-      <c r="EG9" s="78"/>
-      <c r="EH9" s="78"/>
-      <c r="EI9" s="78"/>
-      <c r="EJ9" s="78"/>
-      <c r="EK9" s="78"/>
-      <c r="EL9" s="78"/>
-      <c r="EM9" s="78"/>
-      <c r="EN9" s="78"/>
-      <c r="EO9" s="78"/>
-      <c r="EP9" s="78"/>
-      <c r="EQ9" s="78"/>
-      <c r="ER9" s="78"/>
-      <c r="ES9" s="78"/>
-      <c r="ET9" s="78"/>
-      <c r="EU9" s="78"/>
-      <c r="EV9" s="78"/>
-      <c r="EW9" s="78"/>
-      <c r="EX9" s="78"/>
-      <c r="EY9" s="78"/>
-      <c r="EZ9" s="78"/>
-      <c r="FA9" s="78"/>
-      <c r="FB9" s="78"/>
-      <c r="FC9" s="78"/>
-      <c r="FD9" s="78"/>
-      <c r="FE9" s="78"/>
-      <c r="FF9" s="78"/>
-      <c r="FG9" s="78"/>
-      <c r="FH9" s="78"/>
-      <c r="FI9" s="78"/>
-      <c r="FJ9" s="78"/>
-      <c r="FK9" s="78"/>
-      <c r="FL9" s="78"/>
-      <c r="FM9" s="78"/>
-      <c r="FN9" s="78"/>
-      <c r="FO9" s="78"/>
-      <c r="FP9" s="78"/>
-      <c r="FQ9" s="78"/>
-      <c r="FR9" s="78"/>
-      <c r="FS9" s="78"/>
-      <c r="FT9" s="78"/>
-      <c r="FU9" s="78"/>
-      <c r="FV9" s="78"/>
-      <c r="FW9" s="78"/>
-      <c r="FX9" s="78"/>
-      <c r="FY9" s="78"/>
-      <c r="FZ9" s="78"/>
-      <c r="GA9" s="78"/>
-      <c r="GB9" s="78"/>
-      <c r="GC9" s="78"/>
-      <c r="GD9" s="78"/>
-      <c r="GE9" s="78"/>
-      <c r="GF9" s="78"/>
-      <c r="GG9" s="78"/>
-      <c r="GH9" s="78"/>
-      <c r="GI9" s="78"/>
-      <c r="GJ9" s="78"/>
-      <c r="GK9" s="78"/>
-      <c r="GL9" s="78"/>
-      <c r="GM9" s="78"/>
-      <c r="GN9" s="78"/>
-      <c r="GO9" s="78"/>
-      <c r="GP9" s="78"/>
-      <c r="GQ9" s="78"/>
-      <c r="GR9" s="78"/>
-      <c r="GS9" s="78"/>
-      <c r="GT9" s="78"/>
-      <c r="GU9" s="78"/>
-      <c r="GV9" s="78"/>
-      <c r="GW9" s="78"/>
-      <c r="GX9" s="78"/>
-      <c r="GY9" s="78"/>
-      <c r="GZ9" s="78"/>
-      <c r="HA9" s="78"/>
-      <c r="HB9" s="78"/>
-      <c r="HC9" s="78"/>
-      <c r="HD9" s="78"/>
-      <c r="HE9" s="78"/>
-      <c r="HF9" s="78"/>
-      <c r="HG9" s="78"/>
-      <c r="HH9" s="78"/>
-      <c r="HI9" s="78"/>
-      <c r="HJ9" s="78"/>
-      <c r="HK9" s="78"/>
-      <c r="HL9" s="78"/>
-      <c r="HM9" s="78"/>
-      <c r="HN9" s="78"/>
-      <c r="HO9" s="78"/>
-      <c r="HP9" s="78"/>
-      <c r="HQ9" s="78"/>
-      <c r="HR9" s="78"/>
-      <c r="HS9" s="78"/>
-      <c r="HT9" s="78"/>
-      <c r="HU9" s="78"/>
-      <c r="HV9" s="78"/>
-      <c r="HW9" s="78"/>
-      <c r="HX9" s="78"/>
-      <c r="HY9" s="78"/>
-      <c r="HZ9" s="78"/>
-      <c r="IA9" s="78"/>
-      <c r="IB9" s="78"/>
-      <c r="IC9" s="78"/>
-      <c r="ID9" s="78"/>
-      <c r="IE9" s="78"/>
-      <c r="IF9" s="78"/>
-      <c r="IG9" s="78"/>
-      <c r="IH9" s="78"/>
-      <c r="II9" s="78"/>
-      <c r="IJ9" s="78"/>
-      <c r="IK9" s="78"/>
-      <c r="IL9" s="78"/>
-      <c r="IM9" s="78"/>
-      <c r="IN9" s="78"/>
-      <c r="IO9" s="78"/>
-      <c r="IP9" s="78"/>
-      <c r="IQ9" s="78"/>
-      <c r="IR9" s="78"/>
-      <c r="IS9" s="78"/>
-      <c r="IT9" s="78"/>
-      <c r="IU9" s="78"/>
-      <c r="IV9" s="78"/>
-      <c r="IW9" s="78"/>
-      <c r="IX9" s="78"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77"/>
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="77"/>
+      <c r="BD9" s="77"/>
+      <c r="BE9" s="77"/>
+      <c r="BF9" s="77"/>
+      <c r="BG9" s="77"/>
+      <c r="BH9" s="77"/>
+      <c r="BI9" s="77"/>
+      <c r="BJ9" s="77"/>
+      <c r="BK9" s="77"/>
+      <c r="BL9" s="77"/>
+      <c r="BM9" s="77"/>
+      <c r="BN9" s="77"/>
+      <c r="BO9" s="77"/>
+      <c r="BP9" s="77"/>
+      <c r="BQ9" s="77"/>
+      <c r="BR9" s="77"/>
+      <c r="BS9" s="77"/>
+      <c r="BT9" s="77"/>
+      <c r="BU9" s="77"/>
+      <c r="BV9" s="77"/>
+      <c r="BW9" s="77"/>
+      <c r="BX9" s="77"/>
+      <c r="BY9" s="77"/>
+      <c r="BZ9" s="77"/>
+      <c r="CA9" s="77"/>
+      <c r="CB9" s="77"/>
+      <c r="CC9" s="77"/>
+      <c r="CD9" s="77"/>
+      <c r="CE9" s="77"/>
+      <c r="CF9" s="77"/>
+      <c r="CG9" s="77"/>
+      <c r="CH9" s="77"/>
+      <c r="CI9" s="77"/>
+      <c r="CJ9" s="77"/>
+      <c r="CK9" s="77"/>
+      <c r="CL9" s="77"/>
+      <c r="CM9" s="77"/>
+      <c r="CN9" s="77"/>
+      <c r="CO9" s="77"/>
+      <c r="CP9" s="77"/>
+      <c r="CQ9" s="77"/>
+      <c r="CR9" s="77"/>
+      <c r="CS9" s="77"/>
+      <c r="CT9" s="77"/>
+      <c r="CU9" s="77"/>
+      <c r="CV9" s="77"/>
+      <c r="CW9" s="77"/>
+      <c r="CX9" s="77"/>
+      <c r="CY9" s="77"/>
+      <c r="CZ9" s="77"/>
+      <c r="DA9" s="77"/>
+      <c r="DB9" s="77"/>
+      <c r="DC9" s="77"/>
+      <c r="DD9" s="77"/>
+      <c r="DE9" s="77"/>
+      <c r="DF9" s="77"/>
+      <c r="DG9" s="77"/>
+      <c r="DH9" s="77"/>
+      <c r="DI9" s="77"/>
+      <c r="DJ9" s="77"/>
+      <c r="DK9" s="77"/>
+      <c r="DL9" s="77"/>
+      <c r="DM9" s="77"/>
+      <c r="DN9" s="77"/>
+      <c r="DO9" s="77"/>
+      <c r="DP9" s="77"/>
+      <c r="DQ9" s="77"/>
+      <c r="DR9" s="77"/>
+      <c r="DS9" s="77"/>
+      <c r="DT9" s="77"/>
+      <c r="DU9" s="77"/>
+      <c r="DV9" s="77"/>
+      <c r="DW9" s="77"/>
+      <c r="DX9" s="77"/>
+      <c r="DY9" s="77"/>
+      <c r="DZ9" s="77"/>
+      <c r="EA9" s="77"/>
+      <c r="EB9" s="77"/>
+      <c r="EC9" s="77"/>
+      <c r="ED9" s="77"/>
+      <c r="EE9" s="77"/>
+      <c r="EF9" s="77"/>
+      <c r="EG9" s="77"/>
+      <c r="EH9" s="77"/>
+      <c r="EI9" s="77"/>
+      <c r="EJ9" s="77"/>
+      <c r="EK9" s="77"/>
+      <c r="EL9" s="77"/>
+      <c r="EM9" s="77"/>
+      <c r="EN9" s="77"/>
+      <c r="EO9" s="77"/>
+      <c r="EP9" s="77"/>
+      <c r="EQ9" s="77"/>
+      <c r="ER9" s="77"/>
+      <c r="ES9" s="77"/>
+      <c r="ET9" s="77"/>
+      <c r="EU9" s="77"/>
+      <c r="EV9" s="77"/>
+      <c r="EW9" s="77"/>
+      <c r="EX9" s="77"/>
+      <c r="EY9" s="77"/>
+      <c r="EZ9" s="77"/>
+      <c r="FA9" s="77"/>
+      <c r="FB9" s="77"/>
+      <c r="FC9" s="77"/>
+      <c r="FD9" s="77"/>
+      <c r="FE9" s="77"/>
+      <c r="FF9" s="77"/>
+      <c r="FG9" s="77"/>
+      <c r="FH9" s="77"/>
+      <c r="FI9" s="77"/>
+      <c r="FJ9" s="77"/>
+      <c r="FK9" s="77"/>
+      <c r="FL9" s="77"/>
+      <c r="FM9" s="77"/>
+      <c r="FN9" s="77"/>
+      <c r="FO9" s="77"/>
+      <c r="FP9" s="77"/>
+      <c r="FQ9" s="77"/>
+      <c r="FR9" s="77"/>
+      <c r="FS9" s="77"/>
+      <c r="FT9" s="77"/>
+      <c r="FU9" s="77"/>
+      <c r="FV9" s="77"/>
+      <c r="FW9" s="77"/>
+      <c r="FX9" s="77"/>
+      <c r="FY9" s="77"/>
+      <c r="FZ9" s="77"/>
+      <c r="GA9" s="77"/>
+      <c r="GB9" s="77"/>
+      <c r="GC9" s="77"/>
+      <c r="GD9" s="77"/>
+      <c r="GE9" s="77"/>
+      <c r="GF9" s="77"/>
+      <c r="GG9" s="77"/>
+      <c r="GH9" s="77"/>
+      <c r="GI9" s="77"/>
+      <c r="GJ9" s="77"/>
+      <c r="GK9" s="77"/>
+      <c r="GL9" s="77"/>
+      <c r="GM9" s="77"/>
+      <c r="GN9" s="77"/>
+      <c r="GO9" s="77"/>
+      <c r="GP9" s="77"/>
+      <c r="GQ9" s="77"/>
+      <c r="GR9" s="77"/>
+      <c r="GS9" s="77"/>
+      <c r="GT9" s="77"/>
+      <c r="GU9" s="77"/>
+      <c r="GV9" s="77"/>
+      <c r="GW9" s="77"/>
+      <c r="GX9" s="77"/>
+      <c r="GY9" s="77"/>
+      <c r="GZ9" s="77"/>
+      <c r="HA9" s="77"/>
+      <c r="HB9" s="77"/>
+      <c r="HC9" s="77"/>
+      <c r="HD9" s="77"/>
+      <c r="HE9" s="77"/>
+      <c r="HF9" s="77"/>
+      <c r="HG9" s="77"/>
+      <c r="HH9" s="77"/>
+      <c r="HI9" s="77"/>
+      <c r="HJ9" s="77"/>
+      <c r="HK9" s="77"/>
+      <c r="HL9" s="77"/>
+      <c r="HM9" s="77"/>
+      <c r="HN9" s="77"/>
+      <c r="HO9" s="77"/>
+      <c r="HP9" s="77"/>
+      <c r="HQ9" s="77"/>
+      <c r="HR9" s="77"/>
+      <c r="HS9" s="77"/>
+      <c r="HT9" s="77"/>
+      <c r="HU9" s="77"/>
+      <c r="HV9" s="77"/>
+      <c r="HW9" s="77"/>
+      <c r="HX9" s="77"/>
+      <c r="HY9" s="77"/>
+      <c r="HZ9" s="77"/>
+      <c r="IA9" s="77"/>
+      <c r="IB9" s="77"/>
+      <c r="IC9" s="77"/>
+      <c r="ID9" s="77"/>
+      <c r="IE9" s="77"/>
+      <c r="IF9" s="77"/>
+      <c r="IG9" s="77"/>
+      <c r="IH9" s="77"/>
+      <c r="II9" s="77"/>
+      <c r="IJ9" s="77"/>
+      <c r="IK9" s="77"/>
+      <c r="IL9" s="77"/>
+      <c r="IM9" s="77"/>
+      <c r="IN9" s="77"/>
+      <c r="IO9" s="77"/>
+      <c r="IP9" s="77"/>
+      <c r="IQ9" s="77"/>
+      <c r="IR9" s="77"/>
+      <c r="IS9" s="77"/>
+      <c r="IT9" s="77"/>
+      <c r="IU9" s="77"/>
+      <c r="IV9" s="77"/>
+      <c r="IW9" s="77"/>
+      <c r="IX9" s="77"/>
     </row>
     <row r="10" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="112" t="s">
+      <c r="A10" s="108"/>
+      <c r="B10" s="96" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -4816,258 +4807,258 @@
       </c>
       <c r="I10" s="59"/>
       <c r="J10" s="58"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="81"/>
-      <c r="AE10" s="81"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="81"/>
-      <c r="AH10" s="81"/>
-      <c r="AI10" s="81"/>
-      <c r="AJ10" s="81"/>
-      <c r="AK10" s="81"/>
-      <c r="AL10" s="81"/>
-      <c r="AM10" s="81"/>
-      <c r="AN10" s="81"/>
-      <c r="AO10" s="81"/>
-      <c r="AP10" s="81"/>
-      <c r="AQ10" s="81"/>
-      <c r="AR10" s="81"/>
-      <c r="AS10" s="81"/>
-      <c r="AT10" s="81"/>
-      <c r="AU10" s="81"/>
-      <c r="AV10" s="81"/>
-      <c r="AW10" s="81"/>
-      <c r="AX10" s="81"/>
-      <c r="AY10" s="81"/>
-      <c r="AZ10" s="81"/>
-      <c r="BA10" s="81"/>
-      <c r="BB10" s="81"/>
-      <c r="BC10" s="81"/>
-      <c r="BD10" s="81"/>
-      <c r="BE10" s="81"/>
-      <c r="BF10" s="81"/>
-      <c r="BG10" s="81"/>
-      <c r="BH10" s="81"/>
-      <c r="BI10" s="81"/>
-      <c r="BJ10" s="81"/>
-      <c r="BK10" s="81"/>
-      <c r="BL10" s="81"/>
-      <c r="BM10" s="81"/>
-      <c r="BN10" s="81"/>
-      <c r="BO10" s="81"/>
-      <c r="BP10" s="81"/>
-      <c r="BQ10" s="81"/>
-      <c r="BR10" s="81"/>
-      <c r="BS10" s="81"/>
-      <c r="BT10" s="81"/>
-      <c r="BU10" s="81"/>
-      <c r="BV10" s="81"/>
-      <c r="BW10" s="81"/>
-      <c r="BX10" s="81"/>
-      <c r="BY10" s="81"/>
-      <c r="BZ10" s="81"/>
-      <c r="CA10" s="81"/>
-      <c r="CB10" s="81"/>
-      <c r="CC10" s="81"/>
-      <c r="CD10" s="81"/>
-      <c r="CE10" s="81"/>
-      <c r="CF10" s="81"/>
-      <c r="CG10" s="81"/>
-      <c r="CH10" s="81"/>
-      <c r="CI10" s="81"/>
-      <c r="CJ10" s="81"/>
-      <c r="CK10" s="81"/>
-      <c r="CL10" s="81"/>
-      <c r="CM10" s="81"/>
-      <c r="CN10" s="81"/>
-      <c r="CO10" s="81"/>
-      <c r="CP10" s="81"/>
-      <c r="CQ10" s="81"/>
-      <c r="CR10" s="81"/>
-      <c r="CS10" s="81"/>
-      <c r="CT10" s="81"/>
-      <c r="CU10" s="81"/>
-      <c r="CV10" s="81"/>
-      <c r="CW10" s="81"/>
-      <c r="CX10" s="81"/>
-      <c r="CY10" s="81"/>
-      <c r="CZ10" s="81"/>
-      <c r="DA10" s="81"/>
-      <c r="DB10" s="81"/>
-      <c r="DC10" s="81"/>
-      <c r="DD10" s="81"/>
-      <c r="DE10" s="81"/>
-      <c r="DF10" s="81"/>
-      <c r="DG10" s="81"/>
-      <c r="DH10" s="81"/>
-      <c r="DI10" s="81"/>
-      <c r="DJ10" s="81"/>
-      <c r="DK10" s="81"/>
-      <c r="DL10" s="81"/>
-      <c r="DM10" s="81"/>
-      <c r="DN10" s="81"/>
-      <c r="DO10" s="81"/>
-      <c r="DP10" s="81"/>
-      <c r="DQ10" s="81"/>
-      <c r="DR10" s="81"/>
-      <c r="DS10" s="81"/>
-      <c r="DT10" s="81"/>
-      <c r="DU10" s="81"/>
-      <c r="DV10" s="81"/>
-      <c r="DW10" s="81"/>
-      <c r="DX10" s="81"/>
-      <c r="DY10" s="81"/>
-      <c r="DZ10" s="81"/>
-      <c r="EA10" s="81"/>
-      <c r="EB10" s="81"/>
-      <c r="EC10" s="81"/>
-      <c r="ED10" s="81"/>
-      <c r="EE10" s="81"/>
-      <c r="EF10" s="81"/>
-      <c r="EG10" s="81"/>
-      <c r="EH10" s="81"/>
-      <c r="EI10" s="81"/>
-      <c r="EJ10" s="81"/>
-      <c r="EK10" s="81"/>
-      <c r="EL10" s="81"/>
-      <c r="EM10" s="81"/>
-      <c r="EN10" s="81"/>
-      <c r="EO10" s="81"/>
-      <c r="EP10" s="81"/>
-      <c r="EQ10" s="81"/>
-      <c r="ER10" s="81"/>
-      <c r="ES10" s="81"/>
-      <c r="ET10" s="81"/>
-      <c r="EU10" s="81"/>
-      <c r="EV10" s="81"/>
-      <c r="EW10" s="81"/>
-      <c r="EX10" s="81"/>
-      <c r="EY10" s="81"/>
-      <c r="EZ10" s="81"/>
-      <c r="FA10" s="81"/>
-      <c r="FB10" s="81"/>
-      <c r="FC10" s="81"/>
-      <c r="FD10" s="81"/>
-      <c r="FE10" s="81"/>
-      <c r="FF10" s="81"/>
-      <c r="FG10" s="81"/>
-      <c r="FH10" s="81"/>
-      <c r="FI10" s="81"/>
-      <c r="FJ10" s="81"/>
-      <c r="FK10" s="81"/>
-      <c r="FL10" s="81"/>
-      <c r="FM10" s="81"/>
-      <c r="FN10" s="81"/>
-      <c r="FO10" s="81"/>
-      <c r="FP10" s="81"/>
-      <c r="FQ10" s="81"/>
-      <c r="FR10" s="81"/>
-      <c r="FS10" s="81"/>
-      <c r="FT10" s="81"/>
-      <c r="FU10" s="81"/>
-      <c r="FV10" s="81"/>
-      <c r="FW10" s="81"/>
-      <c r="FX10" s="81"/>
-      <c r="FY10" s="81"/>
-      <c r="FZ10" s="81"/>
-      <c r="GA10" s="81"/>
-      <c r="GB10" s="81"/>
-      <c r="GC10" s="81"/>
-      <c r="GD10" s="81"/>
-      <c r="GE10" s="81"/>
-      <c r="GF10" s="81"/>
-      <c r="GG10" s="81"/>
-      <c r="GH10" s="81"/>
-      <c r="GI10" s="81"/>
-      <c r="GJ10" s="81"/>
-      <c r="GK10" s="81"/>
-      <c r="GL10" s="81"/>
-      <c r="GM10" s="81"/>
-      <c r="GN10" s="81"/>
-      <c r="GO10" s="81"/>
-      <c r="GP10" s="81"/>
-      <c r="GQ10" s="81"/>
-      <c r="GR10" s="81"/>
-      <c r="GS10" s="81"/>
-      <c r="GT10" s="81"/>
-      <c r="GU10" s="81"/>
-      <c r="GV10" s="81"/>
-      <c r="GW10" s="81"/>
-      <c r="GX10" s="81"/>
-      <c r="GY10" s="81"/>
-      <c r="GZ10" s="81"/>
-      <c r="HA10" s="81"/>
-      <c r="HB10" s="81"/>
-      <c r="HC10" s="81"/>
-      <c r="HD10" s="81"/>
-      <c r="HE10" s="81"/>
-      <c r="HF10" s="81"/>
-      <c r="HG10" s="81"/>
-      <c r="HH10" s="81"/>
-      <c r="HI10" s="81"/>
-      <c r="HJ10" s="81"/>
-      <c r="HK10" s="81"/>
-      <c r="HL10" s="81"/>
-      <c r="HM10" s="81"/>
-      <c r="HN10" s="81"/>
-      <c r="HO10" s="81"/>
-      <c r="HP10" s="81"/>
-      <c r="HQ10" s="81"/>
-      <c r="HR10" s="81"/>
-      <c r="HS10" s="81"/>
-      <c r="HT10" s="81"/>
-      <c r="HU10" s="81"/>
-      <c r="HV10" s="81"/>
-      <c r="HW10" s="81"/>
-      <c r="HX10" s="81"/>
-      <c r="HY10" s="81"/>
-      <c r="HZ10" s="81"/>
-      <c r="IA10" s="81"/>
-      <c r="IB10" s="81"/>
-      <c r="IC10" s="81"/>
-      <c r="ID10" s="81"/>
-      <c r="IE10" s="81"/>
-      <c r="IF10" s="81"/>
-      <c r="IG10" s="81"/>
-      <c r="IH10" s="81"/>
-      <c r="II10" s="81"/>
-      <c r="IJ10" s="81"/>
-      <c r="IK10" s="81"/>
-      <c r="IL10" s="81"/>
-      <c r="IM10" s="81"/>
-      <c r="IN10" s="81"/>
-      <c r="IO10" s="81"/>
-      <c r="IP10" s="81"/>
-      <c r="IQ10" s="81"/>
-      <c r="IR10" s="81"/>
-      <c r="IS10" s="81"/>
-      <c r="IT10" s="81"/>
-      <c r="IU10" s="81"/>
-      <c r="IV10" s="81"/>
-      <c r="IW10" s="81"/>
-      <c r="IX10" s="81"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="80"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="80"/>
+      <c r="AK10" s="80"/>
+      <c r="AL10" s="80"/>
+      <c r="AM10" s="80"/>
+      <c r="AN10" s="80"/>
+      <c r="AO10" s="80"/>
+      <c r="AP10" s="80"/>
+      <c r="AQ10" s="80"/>
+      <c r="AR10" s="80"/>
+      <c r="AS10" s="80"/>
+      <c r="AT10" s="80"/>
+      <c r="AU10" s="80"/>
+      <c r="AV10" s="80"/>
+      <c r="AW10" s="80"/>
+      <c r="AX10" s="80"/>
+      <c r="AY10" s="80"/>
+      <c r="AZ10" s="80"/>
+      <c r="BA10" s="80"/>
+      <c r="BB10" s="80"/>
+      <c r="BC10" s="80"/>
+      <c r="BD10" s="80"/>
+      <c r="BE10" s="80"/>
+      <c r="BF10" s="80"/>
+      <c r="BG10" s="80"/>
+      <c r="BH10" s="80"/>
+      <c r="BI10" s="80"/>
+      <c r="BJ10" s="80"/>
+      <c r="BK10" s="80"/>
+      <c r="BL10" s="80"/>
+      <c r="BM10" s="80"/>
+      <c r="BN10" s="80"/>
+      <c r="BO10" s="80"/>
+      <c r="BP10" s="80"/>
+      <c r="BQ10" s="80"/>
+      <c r="BR10" s="80"/>
+      <c r="BS10" s="80"/>
+      <c r="BT10" s="80"/>
+      <c r="BU10" s="80"/>
+      <c r="BV10" s="80"/>
+      <c r="BW10" s="80"/>
+      <c r="BX10" s="80"/>
+      <c r="BY10" s="80"/>
+      <c r="BZ10" s="80"/>
+      <c r="CA10" s="80"/>
+      <c r="CB10" s="80"/>
+      <c r="CC10" s="80"/>
+      <c r="CD10" s="80"/>
+      <c r="CE10" s="80"/>
+      <c r="CF10" s="80"/>
+      <c r="CG10" s="80"/>
+      <c r="CH10" s="80"/>
+      <c r="CI10" s="80"/>
+      <c r="CJ10" s="80"/>
+      <c r="CK10" s="80"/>
+      <c r="CL10" s="80"/>
+      <c r="CM10" s="80"/>
+      <c r="CN10" s="80"/>
+      <c r="CO10" s="80"/>
+      <c r="CP10" s="80"/>
+      <c r="CQ10" s="80"/>
+      <c r="CR10" s="80"/>
+      <c r="CS10" s="80"/>
+      <c r="CT10" s="80"/>
+      <c r="CU10" s="80"/>
+      <c r="CV10" s="80"/>
+      <c r="CW10" s="80"/>
+      <c r="CX10" s="80"/>
+      <c r="CY10" s="80"/>
+      <c r="CZ10" s="80"/>
+      <c r="DA10" s="80"/>
+      <c r="DB10" s="80"/>
+      <c r="DC10" s="80"/>
+      <c r="DD10" s="80"/>
+      <c r="DE10" s="80"/>
+      <c r="DF10" s="80"/>
+      <c r="DG10" s="80"/>
+      <c r="DH10" s="80"/>
+      <c r="DI10" s="80"/>
+      <c r="DJ10" s="80"/>
+      <c r="DK10" s="80"/>
+      <c r="DL10" s="80"/>
+      <c r="DM10" s="80"/>
+      <c r="DN10" s="80"/>
+      <c r="DO10" s="80"/>
+      <c r="DP10" s="80"/>
+      <c r="DQ10" s="80"/>
+      <c r="DR10" s="80"/>
+      <c r="DS10" s="80"/>
+      <c r="DT10" s="80"/>
+      <c r="DU10" s="80"/>
+      <c r="DV10" s="80"/>
+      <c r="DW10" s="80"/>
+      <c r="DX10" s="80"/>
+      <c r="DY10" s="80"/>
+      <c r="DZ10" s="80"/>
+      <c r="EA10" s="80"/>
+      <c r="EB10" s="80"/>
+      <c r="EC10" s="80"/>
+      <c r="ED10" s="80"/>
+      <c r="EE10" s="80"/>
+      <c r="EF10" s="80"/>
+      <c r="EG10" s="80"/>
+      <c r="EH10" s="80"/>
+      <c r="EI10" s="80"/>
+      <c r="EJ10" s="80"/>
+      <c r="EK10" s="80"/>
+      <c r="EL10" s="80"/>
+      <c r="EM10" s="80"/>
+      <c r="EN10" s="80"/>
+      <c r="EO10" s="80"/>
+      <c r="EP10" s="80"/>
+      <c r="EQ10" s="80"/>
+      <c r="ER10" s="80"/>
+      <c r="ES10" s="80"/>
+      <c r="ET10" s="80"/>
+      <c r="EU10" s="80"/>
+      <c r="EV10" s="80"/>
+      <c r="EW10" s="80"/>
+      <c r="EX10" s="80"/>
+      <c r="EY10" s="80"/>
+      <c r="EZ10" s="80"/>
+      <c r="FA10" s="80"/>
+      <c r="FB10" s="80"/>
+      <c r="FC10" s="80"/>
+      <c r="FD10" s="80"/>
+      <c r="FE10" s="80"/>
+      <c r="FF10" s="80"/>
+      <c r="FG10" s="80"/>
+      <c r="FH10" s="80"/>
+      <c r="FI10" s="80"/>
+      <c r="FJ10" s="80"/>
+      <c r="FK10" s="80"/>
+      <c r="FL10" s="80"/>
+      <c r="FM10" s="80"/>
+      <c r="FN10" s="80"/>
+      <c r="FO10" s="80"/>
+      <c r="FP10" s="80"/>
+      <c r="FQ10" s="80"/>
+      <c r="FR10" s="80"/>
+      <c r="FS10" s="80"/>
+      <c r="FT10" s="80"/>
+      <c r="FU10" s="80"/>
+      <c r="FV10" s="80"/>
+      <c r="FW10" s="80"/>
+      <c r="FX10" s="80"/>
+      <c r="FY10" s="80"/>
+      <c r="FZ10" s="80"/>
+      <c r="GA10" s="80"/>
+      <c r="GB10" s="80"/>
+      <c r="GC10" s="80"/>
+      <c r="GD10" s="80"/>
+      <c r="GE10" s="80"/>
+      <c r="GF10" s="80"/>
+      <c r="GG10" s="80"/>
+      <c r="GH10" s="80"/>
+      <c r="GI10" s="80"/>
+      <c r="GJ10" s="80"/>
+      <c r="GK10" s="80"/>
+      <c r="GL10" s="80"/>
+      <c r="GM10" s="80"/>
+      <c r="GN10" s="80"/>
+      <c r="GO10" s="80"/>
+      <c r="GP10" s="80"/>
+      <c r="GQ10" s="80"/>
+      <c r="GR10" s="80"/>
+      <c r="GS10" s="80"/>
+      <c r="GT10" s="80"/>
+      <c r="GU10" s="80"/>
+      <c r="GV10" s="80"/>
+      <c r="GW10" s="80"/>
+      <c r="GX10" s="80"/>
+      <c r="GY10" s="80"/>
+      <c r="GZ10" s="80"/>
+      <c r="HA10" s="80"/>
+      <c r="HB10" s="80"/>
+      <c r="HC10" s="80"/>
+      <c r="HD10" s="80"/>
+      <c r="HE10" s="80"/>
+      <c r="HF10" s="80"/>
+      <c r="HG10" s="80"/>
+      <c r="HH10" s="80"/>
+      <c r="HI10" s="80"/>
+      <c r="HJ10" s="80"/>
+      <c r="HK10" s="80"/>
+      <c r="HL10" s="80"/>
+      <c r="HM10" s="80"/>
+      <c r="HN10" s="80"/>
+      <c r="HO10" s="80"/>
+      <c r="HP10" s="80"/>
+      <c r="HQ10" s="80"/>
+      <c r="HR10" s="80"/>
+      <c r="HS10" s="80"/>
+      <c r="HT10" s="80"/>
+      <c r="HU10" s="80"/>
+      <c r="HV10" s="80"/>
+      <c r="HW10" s="80"/>
+      <c r="HX10" s="80"/>
+      <c r="HY10" s="80"/>
+      <c r="HZ10" s="80"/>
+      <c r="IA10" s="80"/>
+      <c r="IB10" s="80"/>
+      <c r="IC10" s="80"/>
+      <c r="ID10" s="80"/>
+      <c r="IE10" s="80"/>
+      <c r="IF10" s="80"/>
+      <c r="IG10" s="80"/>
+      <c r="IH10" s="80"/>
+      <c r="II10" s="80"/>
+      <c r="IJ10" s="80"/>
+      <c r="IK10" s="80"/>
+      <c r="IL10" s="80"/>
+      <c r="IM10" s="80"/>
+      <c r="IN10" s="80"/>
+      <c r="IO10" s="80"/>
+      <c r="IP10" s="80"/>
+      <c r="IQ10" s="80"/>
+      <c r="IR10" s="80"/>
+      <c r="IS10" s="80"/>
+      <c r="IT10" s="80"/>
+      <c r="IU10" s="80"/>
+      <c r="IV10" s="80"/>
+      <c r="IW10" s="80"/>
+      <c r="IX10" s="80"/>
     </row>
     <row r="11" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A11" s="105"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="88" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -5085,8 +5076,8 @@
         <v>35</v>
       </c>
       <c r="I11" s="20"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="69"/>
       <c r="L11" s="21"/>
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
@@ -5336,32 +5327,32 @@
       <c r="IX11" s="51"/>
     </row>
     <row r="12" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="113" t="s">
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="113" t="s">
+      <c r="H12" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="113" t="s">
+      <c r="I12" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="117"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="114" t="s">
+      <c r="J12" s="101"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="98" t="s">
         <v>47</v>
       </c>
       <c r="M12" s="51"/>
@@ -5612,821 +5603,821 @@
       <c r="IX12" s="51"/>
     </row>
     <row r="13" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A13" s="105"/>
-      <c r="B13" s="116" t="s">
+      <c r="A13" s="108"/>
+      <c r="B13" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113" t="s">
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="114"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="113" t="s">
+      <c r="I13" s="98"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="81"/>
-      <c r="AF13" s="81"/>
-      <c r="AG13" s="81"/>
-      <c r="AH13" s="81"/>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="81"/>
-      <c r="AK13" s="81"/>
-      <c r="AL13" s="81"/>
-      <c r="AM13" s="81"/>
-      <c r="AN13" s="81"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="81"/>
-      <c r="AQ13" s="81"/>
-      <c r="AR13" s="81"/>
-      <c r="AS13" s="81"/>
-      <c r="AT13" s="81"/>
-      <c r="AU13" s="81"/>
-      <c r="AV13" s="81"/>
-      <c r="AW13" s="81"/>
-      <c r="AX13" s="81"/>
-      <c r="AY13" s="81"/>
-      <c r="AZ13" s="81"/>
-      <c r="BA13" s="81"/>
-      <c r="BB13" s="81"/>
-      <c r="BC13" s="81"/>
-      <c r="BD13" s="81"/>
-      <c r="BE13" s="81"/>
-      <c r="BF13" s="81"/>
-      <c r="BG13" s="81"/>
-      <c r="BH13" s="81"/>
-      <c r="BI13" s="81"/>
-      <c r="BJ13" s="81"/>
-      <c r="BK13" s="81"/>
-      <c r="BL13" s="81"/>
-      <c r="BM13" s="81"/>
-      <c r="BN13" s="81"/>
-      <c r="BO13" s="81"/>
-      <c r="BP13" s="81"/>
-      <c r="BQ13" s="81"/>
-      <c r="BR13" s="81"/>
-      <c r="BS13" s="81"/>
-      <c r="BT13" s="81"/>
-      <c r="BU13" s="81"/>
-      <c r="BV13" s="81"/>
-      <c r="BW13" s="81"/>
-      <c r="BX13" s="81"/>
-      <c r="BY13" s="81"/>
-      <c r="BZ13" s="81"/>
-      <c r="CA13" s="81"/>
-      <c r="CB13" s="81"/>
-      <c r="CC13" s="81"/>
-      <c r="CD13" s="81"/>
-      <c r="CE13" s="81"/>
-      <c r="CF13" s="81"/>
-      <c r="CG13" s="81"/>
-      <c r="CH13" s="81"/>
-      <c r="CI13" s="81"/>
-      <c r="CJ13" s="81"/>
-      <c r="CK13" s="81"/>
-      <c r="CL13" s="81"/>
-      <c r="CM13" s="81"/>
-      <c r="CN13" s="81"/>
-      <c r="CO13" s="81"/>
-      <c r="CP13" s="81"/>
-      <c r="CQ13" s="81"/>
-      <c r="CR13" s="81"/>
-      <c r="CS13" s="81"/>
-      <c r="CT13" s="81"/>
-      <c r="CU13" s="81"/>
-      <c r="CV13" s="81"/>
-      <c r="CW13" s="81"/>
-      <c r="CX13" s="81"/>
-      <c r="CY13" s="81"/>
-      <c r="CZ13" s="81"/>
-      <c r="DA13" s="81"/>
-      <c r="DB13" s="81"/>
-      <c r="DC13" s="81"/>
-      <c r="DD13" s="81"/>
-      <c r="DE13" s="81"/>
-      <c r="DF13" s="81"/>
-      <c r="DG13" s="81"/>
-      <c r="DH13" s="81"/>
-      <c r="DI13" s="81"/>
-      <c r="DJ13" s="81"/>
-      <c r="DK13" s="81"/>
-      <c r="DL13" s="81"/>
-      <c r="DM13" s="81"/>
-      <c r="DN13" s="81"/>
-      <c r="DO13" s="81"/>
-      <c r="DP13" s="81"/>
-      <c r="DQ13" s="81"/>
-      <c r="DR13" s="81"/>
-      <c r="DS13" s="81"/>
-      <c r="DT13" s="81"/>
-      <c r="DU13" s="81"/>
-      <c r="DV13" s="81"/>
-      <c r="DW13" s="81"/>
-      <c r="DX13" s="81"/>
-      <c r="DY13" s="81"/>
-      <c r="DZ13" s="81"/>
-      <c r="EA13" s="81"/>
-      <c r="EB13" s="81"/>
-      <c r="EC13" s="81"/>
-      <c r="ED13" s="81"/>
-      <c r="EE13" s="81"/>
-      <c r="EF13" s="81"/>
-      <c r="EG13" s="81"/>
-      <c r="EH13" s="81"/>
-      <c r="EI13" s="81"/>
-      <c r="EJ13" s="81"/>
-      <c r="EK13" s="81"/>
-      <c r="EL13" s="81"/>
-      <c r="EM13" s="81"/>
-      <c r="EN13" s="81"/>
-      <c r="EO13" s="81"/>
-      <c r="EP13" s="81"/>
-      <c r="EQ13" s="81"/>
-      <c r="ER13" s="81"/>
-      <c r="ES13" s="81"/>
-      <c r="ET13" s="81"/>
-      <c r="EU13" s="81"/>
-      <c r="EV13" s="81"/>
-      <c r="EW13" s="81"/>
-      <c r="EX13" s="81"/>
-      <c r="EY13" s="81"/>
-      <c r="EZ13" s="81"/>
-      <c r="FA13" s="81"/>
-      <c r="FB13" s="81"/>
-      <c r="FC13" s="81"/>
-      <c r="FD13" s="81"/>
-      <c r="FE13" s="81"/>
-      <c r="FF13" s="81"/>
-      <c r="FG13" s="81"/>
-      <c r="FH13" s="81"/>
-      <c r="FI13" s="81"/>
-      <c r="FJ13" s="81"/>
-      <c r="FK13" s="81"/>
-      <c r="FL13" s="81"/>
-      <c r="FM13" s="81"/>
-      <c r="FN13" s="81"/>
-      <c r="FO13" s="81"/>
-      <c r="FP13" s="81"/>
-      <c r="FQ13" s="81"/>
-      <c r="FR13" s="81"/>
-      <c r="FS13" s="81"/>
-      <c r="FT13" s="81"/>
-      <c r="FU13" s="81"/>
-      <c r="FV13" s="81"/>
-      <c r="FW13" s="81"/>
-      <c r="FX13" s="81"/>
-      <c r="FY13" s="81"/>
-      <c r="FZ13" s="81"/>
-      <c r="GA13" s="81"/>
-      <c r="GB13" s="81"/>
-      <c r="GC13" s="81"/>
-      <c r="GD13" s="81"/>
-      <c r="GE13" s="81"/>
-      <c r="GF13" s="81"/>
-      <c r="GG13" s="81"/>
-      <c r="GH13" s="81"/>
-      <c r="GI13" s="81"/>
-      <c r="GJ13" s="81"/>
-      <c r="GK13" s="81"/>
-      <c r="GL13" s="81"/>
-      <c r="GM13" s="81"/>
-      <c r="GN13" s="81"/>
-      <c r="GO13" s="81"/>
-      <c r="GP13" s="81"/>
-      <c r="GQ13" s="81"/>
-      <c r="GR13" s="81"/>
-      <c r="GS13" s="81"/>
-      <c r="GT13" s="81"/>
-      <c r="GU13" s="81"/>
-      <c r="GV13" s="81"/>
-      <c r="GW13" s="81"/>
-      <c r="GX13" s="81"/>
-      <c r="GY13" s="81"/>
-      <c r="GZ13" s="81"/>
-      <c r="HA13" s="81"/>
-      <c r="HB13" s="81"/>
-      <c r="HC13" s="81"/>
-      <c r="HD13" s="81"/>
-      <c r="HE13" s="81"/>
-      <c r="HF13" s="81"/>
-      <c r="HG13" s="81"/>
-      <c r="HH13" s="81"/>
-      <c r="HI13" s="81"/>
-      <c r="HJ13" s="81"/>
-      <c r="HK13" s="81"/>
-      <c r="HL13" s="81"/>
-      <c r="HM13" s="81"/>
-      <c r="HN13" s="81"/>
-      <c r="HO13" s="81"/>
-      <c r="HP13" s="81"/>
-      <c r="HQ13" s="81"/>
-      <c r="HR13" s="81"/>
-      <c r="HS13" s="81"/>
-      <c r="HT13" s="81"/>
-      <c r="HU13" s="81"/>
-      <c r="HV13" s="81"/>
-      <c r="HW13" s="81"/>
-      <c r="HX13" s="81"/>
-      <c r="HY13" s="81"/>
-      <c r="HZ13" s="81"/>
-      <c r="IA13" s="81"/>
-      <c r="IB13" s="81"/>
-      <c r="IC13" s="81"/>
-      <c r="ID13" s="81"/>
-      <c r="IE13" s="81"/>
-      <c r="IF13" s="81"/>
-      <c r="IG13" s="81"/>
-      <c r="IH13" s="81"/>
-      <c r="II13" s="81"/>
-      <c r="IJ13" s="81"/>
-      <c r="IK13" s="81"/>
-      <c r="IL13" s="81"/>
-      <c r="IM13" s="81"/>
-      <c r="IN13" s="81"/>
-      <c r="IO13" s="81"/>
-      <c r="IP13" s="81"/>
-      <c r="IQ13" s="81"/>
-      <c r="IR13" s="81"/>
-      <c r="IS13" s="81"/>
-      <c r="IT13" s="81"/>
-      <c r="IU13" s="81"/>
-      <c r="IV13" s="81"/>
-      <c r="IW13" s="81"/>
-      <c r="IX13" s="81"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="80"/>
+      <c r="AD13" s="80"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="80"/>
+      <c r="AG13" s="80"/>
+      <c r="AH13" s="80"/>
+      <c r="AI13" s="80"/>
+      <c r="AJ13" s="80"/>
+      <c r="AK13" s="80"/>
+      <c r="AL13" s="80"/>
+      <c r="AM13" s="80"/>
+      <c r="AN13" s="80"/>
+      <c r="AO13" s="80"/>
+      <c r="AP13" s="80"/>
+      <c r="AQ13" s="80"/>
+      <c r="AR13" s="80"/>
+      <c r="AS13" s="80"/>
+      <c r="AT13" s="80"/>
+      <c r="AU13" s="80"/>
+      <c r="AV13" s="80"/>
+      <c r="AW13" s="80"/>
+      <c r="AX13" s="80"/>
+      <c r="AY13" s="80"/>
+      <c r="AZ13" s="80"/>
+      <c r="BA13" s="80"/>
+      <c r="BB13" s="80"/>
+      <c r="BC13" s="80"/>
+      <c r="BD13" s="80"/>
+      <c r="BE13" s="80"/>
+      <c r="BF13" s="80"/>
+      <c r="BG13" s="80"/>
+      <c r="BH13" s="80"/>
+      <c r="BI13" s="80"/>
+      <c r="BJ13" s="80"/>
+      <c r="BK13" s="80"/>
+      <c r="BL13" s="80"/>
+      <c r="BM13" s="80"/>
+      <c r="BN13" s="80"/>
+      <c r="BO13" s="80"/>
+      <c r="BP13" s="80"/>
+      <c r="BQ13" s="80"/>
+      <c r="BR13" s="80"/>
+      <c r="BS13" s="80"/>
+      <c r="BT13" s="80"/>
+      <c r="BU13" s="80"/>
+      <c r="BV13" s="80"/>
+      <c r="BW13" s="80"/>
+      <c r="BX13" s="80"/>
+      <c r="BY13" s="80"/>
+      <c r="BZ13" s="80"/>
+      <c r="CA13" s="80"/>
+      <c r="CB13" s="80"/>
+      <c r="CC13" s="80"/>
+      <c r="CD13" s="80"/>
+      <c r="CE13" s="80"/>
+      <c r="CF13" s="80"/>
+      <c r="CG13" s="80"/>
+      <c r="CH13" s="80"/>
+      <c r="CI13" s="80"/>
+      <c r="CJ13" s="80"/>
+      <c r="CK13" s="80"/>
+      <c r="CL13" s="80"/>
+      <c r="CM13" s="80"/>
+      <c r="CN13" s="80"/>
+      <c r="CO13" s="80"/>
+      <c r="CP13" s="80"/>
+      <c r="CQ13" s="80"/>
+      <c r="CR13" s="80"/>
+      <c r="CS13" s="80"/>
+      <c r="CT13" s="80"/>
+      <c r="CU13" s="80"/>
+      <c r="CV13" s="80"/>
+      <c r="CW13" s="80"/>
+      <c r="CX13" s="80"/>
+      <c r="CY13" s="80"/>
+      <c r="CZ13" s="80"/>
+      <c r="DA13" s="80"/>
+      <c r="DB13" s="80"/>
+      <c r="DC13" s="80"/>
+      <c r="DD13" s="80"/>
+      <c r="DE13" s="80"/>
+      <c r="DF13" s="80"/>
+      <c r="DG13" s="80"/>
+      <c r="DH13" s="80"/>
+      <c r="DI13" s="80"/>
+      <c r="DJ13" s="80"/>
+      <c r="DK13" s="80"/>
+      <c r="DL13" s="80"/>
+      <c r="DM13" s="80"/>
+      <c r="DN13" s="80"/>
+      <c r="DO13" s="80"/>
+      <c r="DP13" s="80"/>
+      <c r="DQ13" s="80"/>
+      <c r="DR13" s="80"/>
+      <c r="DS13" s="80"/>
+      <c r="DT13" s="80"/>
+      <c r="DU13" s="80"/>
+      <c r="DV13" s="80"/>
+      <c r="DW13" s="80"/>
+      <c r="DX13" s="80"/>
+      <c r="DY13" s="80"/>
+      <c r="DZ13" s="80"/>
+      <c r="EA13" s="80"/>
+      <c r="EB13" s="80"/>
+      <c r="EC13" s="80"/>
+      <c r="ED13" s="80"/>
+      <c r="EE13" s="80"/>
+      <c r="EF13" s="80"/>
+      <c r="EG13" s="80"/>
+      <c r="EH13" s="80"/>
+      <c r="EI13" s="80"/>
+      <c r="EJ13" s="80"/>
+      <c r="EK13" s="80"/>
+      <c r="EL13" s="80"/>
+      <c r="EM13" s="80"/>
+      <c r="EN13" s="80"/>
+      <c r="EO13" s="80"/>
+      <c r="EP13" s="80"/>
+      <c r="EQ13" s="80"/>
+      <c r="ER13" s="80"/>
+      <c r="ES13" s="80"/>
+      <c r="ET13" s="80"/>
+      <c r="EU13" s="80"/>
+      <c r="EV13" s="80"/>
+      <c r="EW13" s="80"/>
+      <c r="EX13" s="80"/>
+      <c r="EY13" s="80"/>
+      <c r="EZ13" s="80"/>
+      <c r="FA13" s="80"/>
+      <c r="FB13" s="80"/>
+      <c r="FC13" s="80"/>
+      <c r="FD13" s="80"/>
+      <c r="FE13" s="80"/>
+      <c r="FF13" s="80"/>
+      <c r="FG13" s="80"/>
+      <c r="FH13" s="80"/>
+      <c r="FI13" s="80"/>
+      <c r="FJ13" s="80"/>
+      <c r="FK13" s="80"/>
+      <c r="FL13" s="80"/>
+      <c r="FM13" s="80"/>
+      <c r="FN13" s="80"/>
+      <c r="FO13" s="80"/>
+      <c r="FP13" s="80"/>
+      <c r="FQ13" s="80"/>
+      <c r="FR13" s="80"/>
+      <c r="FS13" s="80"/>
+      <c r="FT13" s="80"/>
+      <c r="FU13" s="80"/>
+      <c r="FV13" s="80"/>
+      <c r="FW13" s="80"/>
+      <c r="FX13" s="80"/>
+      <c r="FY13" s="80"/>
+      <c r="FZ13" s="80"/>
+      <c r="GA13" s="80"/>
+      <c r="GB13" s="80"/>
+      <c r="GC13" s="80"/>
+      <c r="GD13" s="80"/>
+      <c r="GE13" s="80"/>
+      <c r="GF13" s="80"/>
+      <c r="GG13" s="80"/>
+      <c r="GH13" s="80"/>
+      <c r="GI13" s="80"/>
+      <c r="GJ13" s="80"/>
+      <c r="GK13" s="80"/>
+      <c r="GL13" s="80"/>
+      <c r="GM13" s="80"/>
+      <c r="GN13" s="80"/>
+      <c r="GO13" s="80"/>
+      <c r="GP13" s="80"/>
+      <c r="GQ13" s="80"/>
+      <c r="GR13" s="80"/>
+      <c r="GS13" s="80"/>
+      <c r="GT13" s="80"/>
+      <c r="GU13" s="80"/>
+      <c r="GV13" s="80"/>
+      <c r="GW13" s="80"/>
+      <c r="GX13" s="80"/>
+      <c r="GY13" s="80"/>
+      <c r="GZ13" s="80"/>
+      <c r="HA13" s="80"/>
+      <c r="HB13" s="80"/>
+      <c r="HC13" s="80"/>
+      <c r="HD13" s="80"/>
+      <c r="HE13" s="80"/>
+      <c r="HF13" s="80"/>
+      <c r="HG13" s="80"/>
+      <c r="HH13" s="80"/>
+      <c r="HI13" s="80"/>
+      <c r="HJ13" s="80"/>
+      <c r="HK13" s="80"/>
+      <c r="HL13" s="80"/>
+      <c r="HM13" s="80"/>
+      <c r="HN13" s="80"/>
+      <c r="HO13" s="80"/>
+      <c r="HP13" s="80"/>
+      <c r="HQ13" s="80"/>
+      <c r="HR13" s="80"/>
+      <c r="HS13" s="80"/>
+      <c r="HT13" s="80"/>
+      <c r="HU13" s="80"/>
+      <c r="HV13" s="80"/>
+      <c r="HW13" s="80"/>
+      <c r="HX13" s="80"/>
+      <c r="HY13" s="80"/>
+      <c r="HZ13" s="80"/>
+      <c r="IA13" s="80"/>
+      <c r="IB13" s="80"/>
+      <c r="IC13" s="80"/>
+      <c r="ID13" s="80"/>
+      <c r="IE13" s="80"/>
+      <c r="IF13" s="80"/>
+      <c r="IG13" s="80"/>
+      <c r="IH13" s="80"/>
+      <c r="II13" s="80"/>
+      <c r="IJ13" s="80"/>
+      <c r="IK13" s="80"/>
+      <c r="IL13" s="80"/>
+      <c r="IM13" s="80"/>
+      <c r="IN13" s="80"/>
+      <c r="IO13" s="80"/>
+      <c r="IP13" s="80"/>
+      <c r="IQ13" s="80"/>
+      <c r="IR13" s="80"/>
+      <c r="IS13" s="80"/>
+      <c r="IT13" s="80"/>
+      <c r="IU13" s="80"/>
+      <c r="IV13" s="80"/>
+      <c r="IW13" s="80"/>
+      <c r="IX13" s="80"/>
     </row>
     <row r="14" spans="1:258" s="56" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A14" s="106"/>
-      <c r="B14" s="60" t="s">
+      <c r="A14" s="109"/>
+      <c r="B14" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="60" t="s">
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="61">
+      <c r="I14" s="97"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="98">
         <v>1</v>
       </c>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="85"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="85"/>
-      <c r="AH14" s="85"/>
-      <c r="AI14" s="85"/>
-      <c r="AJ14" s="85"/>
-      <c r="AK14" s="85"/>
-      <c r="AL14" s="85"/>
-      <c r="AM14" s="85"/>
-      <c r="AN14" s="85"/>
-      <c r="AO14" s="85"/>
-      <c r="AP14" s="85"/>
-      <c r="AQ14" s="85"/>
-      <c r="AR14" s="85"/>
-      <c r="AS14" s="85"/>
-      <c r="AT14" s="85"/>
-      <c r="AU14" s="85"/>
-      <c r="AV14" s="85"/>
-      <c r="AW14" s="85"/>
-      <c r="AX14" s="85"/>
-      <c r="AY14" s="85"/>
-      <c r="AZ14" s="85"/>
-      <c r="BA14" s="85"/>
-      <c r="BB14" s="85"/>
-      <c r="BC14" s="85"/>
-      <c r="BD14" s="85"/>
-      <c r="BE14" s="85"/>
-      <c r="BF14" s="85"/>
-      <c r="BG14" s="85"/>
-      <c r="BH14" s="85"/>
-      <c r="BI14" s="85"/>
-      <c r="BJ14" s="85"/>
-      <c r="BK14" s="85"/>
-      <c r="BL14" s="85"/>
-      <c r="BM14" s="85"/>
-      <c r="BN14" s="85"/>
-      <c r="BO14" s="85"/>
-      <c r="BP14" s="85"/>
-      <c r="BQ14" s="85"/>
-      <c r="BR14" s="85"/>
-      <c r="BS14" s="85"/>
-      <c r="BT14" s="85"/>
-      <c r="BU14" s="85"/>
-      <c r="BV14" s="85"/>
-      <c r="BW14" s="85"/>
-      <c r="BX14" s="85"/>
-      <c r="BY14" s="85"/>
-      <c r="BZ14" s="85"/>
-      <c r="CA14" s="85"/>
-      <c r="CB14" s="85"/>
-      <c r="CC14" s="85"/>
-      <c r="CD14" s="85"/>
-      <c r="CE14" s="85"/>
-      <c r="CF14" s="85"/>
-      <c r="CG14" s="85"/>
-      <c r="CH14" s="85"/>
-      <c r="CI14" s="85"/>
-      <c r="CJ14" s="85"/>
-      <c r="CK14" s="85"/>
-      <c r="CL14" s="85"/>
-      <c r="CM14" s="85"/>
-      <c r="CN14" s="85"/>
-      <c r="CO14" s="85"/>
-      <c r="CP14" s="85"/>
-      <c r="CQ14" s="85"/>
-      <c r="CR14" s="85"/>
-      <c r="CS14" s="85"/>
-      <c r="CT14" s="85"/>
-      <c r="CU14" s="85"/>
-      <c r="CV14" s="85"/>
-      <c r="CW14" s="85"/>
-      <c r="CX14" s="85"/>
-      <c r="CY14" s="85"/>
-      <c r="CZ14" s="85"/>
-      <c r="DA14" s="85"/>
-      <c r="DB14" s="85"/>
-      <c r="DC14" s="85"/>
-      <c r="DD14" s="85"/>
-      <c r="DE14" s="85"/>
-      <c r="DF14" s="85"/>
-      <c r="DG14" s="85"/>
-      <c r="DH14" s="85"/>
-      <c r="DI14" s="85"/>
-      <c r="DJ14" s="85"/>
-      <c r="DK14" s="85"/>
-      <c r="DL14" s="85"/>
-      <c r="DM14" s="85"/>
-      <c r="DN14" s="85"/>
-      <c r="DO14" s="85"/>
-      <c r="DP14" s="85"/>
-      <c r="DQ14" s="85"/>
-      <c r="DR14" s="85"/>
-      <c r="DS14" s="85"/>
-      <c r="DT14" s="85"/>
-      <c r="DU14" s="85"/>
-      <c r="DV14" s="85"/>
-      <c r="DW14" s="85"/>
-      <c r="DX14" s="85"/>
-      <c r="DY14" s="85"/>
-      <c r="DZ14" s="85"/>
-      <c r="EA14" s="85"/>
-      <c r="EB14" s="85"/>
-      <c r="EC14" s="85"/>
-      <c r="ED14" s="85"/>
-      <c r="EE14" s="85"/>
-      <c r="EF14" s="85"/>
-      <c r="EG14" s="85"/>
-      <c r="EH14" s="85"/>
-      <c r="EI14" s="85"/>
-      <c r="EJ14" s="85"/>
-      <c r="EK14" s="85"/>
-      <c r="EL14" s="85"/>
-      <c r="EM14" s="85"/>
-      <c r="EN14" s="85"/>
-      <c r="EO14" s="85"/>
-      <c r="EP14" s="85"/>
-      <c r="EQ14" s="85"/>
-      <c r="ER14" s="85"/>
-      <c r="ES14" s="85"/>
-      <c r="ET14" s="85"/>
-      <c r="EU14" s="85"/>
-      <c r="EV14" s="85"/>
-      <c r="EW14" s="85"/>
-      <c r="EX14" s="85"/>
-      <c r="EY14" s="85"/>
-      <c r="EZ14" s="85"/>
-      <c r="FA14" s="85"/>
-      <c r="FB14" s="85"/>
-      <c r="FC14" s="85"/>
-      <c r="FD14" s="85"/>
-      <c r="FE14" s="85"/>
-      <c r="FF14" s="85"/>
-      <c r="FG14" s="85"/>
-      <c r="FH14" s="85"/>
-      <c r="FI14" s="85"/>
-      <c r="FJ14" s="85"/>
-      <c r="FK14" s="85"/>
-      <c r="FL14" s="85"/>
-      <c r="FM14" s="85"/>
-      <c r="FN14" s="85"/>
-      <c r="FO14" s="85"/>
-      <c r="FP14" s="85"/>
-      <c r="FQ14" s="85"/>
-      <c r="FR14" s="85"/>
-      <c r="FS14" s="85"/>
-      <c r="FT14" s="85"/>
-      <c r="FU14" s="85"/>
-      <c r="FV14" s="85"/>
-      <c r="FW14" s="85"/>
-      <c r="FX14" s="85"/>
-      <c r="FY14" s="85"/>
-      <c r="FZ14" s="85"/>
-      <c r="GA14" s="85"/>
-      <c r="GB14" s="85"/>
-      <c r="GC14" s="85"/>
-      <c r="GD14" s="85"/>
-      <c r="GE14" s="85"/>
-      <c r="GF14" s="85"/>
-      <c r="GG14" s="85"/>
-      <c r="GH14" s="85"/>
-      <c r="GI14" s="85"/>
-      <c r="GJ14" s="85"/>
-      <c r="GK14" s="85"/>
-      <c r="GL14" s="85"/>
-      <c r="GM14" s="85"/>
-      <c r="GN14" s="85"/>
-      <c r="GO14" s="85"/>
-      <c r="GP14" s="85"/>
-      <c r="GQ14" s="85"/>
-      <c r="GR14" s="85"/>
-      <c r="GS14" s="85"/>
-      <c r="GT14" s="85"/>
-      <c r="GU14" s="85"/>
-      <c r="GV14" s="85"/>
-      <c r="GW14" s="85"/>
-      <c r="GX14" s="85"/>
-      <c r="GY14" s="85"/>
-      <c r="GZ14" s="85"/>
-      <c r="HA14" s="85"/>
-      <c r="HB14" s="85"/>
-      <c r="HC14" s="85"/>
-      <c r="HD14" s="85"/>
-      <c r="HE14" s="85"/>
-      <c r="HF14" s="85"/>
-      <c r="HG14" s="85"/>
-      <c r="HH14" s="85"/>
-      <c r="HI14" s="85"/>
-      <c r="HJ14" s="85"/>
-      <c r="HK14" s="85"/>
-      <c r="HL14" s="85"/>
-      <c r="HM14" s="85"/>
-      <c r="HN14" s="85"/>
-      <c r="HO14" s="85"/>
-      <c r="HP14" s="85"/>
-      <c r="HQ14" s="85"/>
-      <c r="HR14" s="85"/>
-      <c r="HS14" s="85"/>
-      <c r="HT14" s="85"/>
-      <c r="HU14" s="85"/>
-      <c r="HV14" s="85"/>
-      <c r="HW14" s="85"/>
-      <c r="HX14" s="85"/>
-      <c r="HY14" s="85"/>
-      <c r="HZ14" s="85"/>
-      <c r="IA14" s="85"/>
-      <c r="IB14" s="85"/>
-      <c r="IC14" s="85"/>
-      <c r="ID14" s="85"/>
-      <c r="IE14" s="85"/>
-      <c r="IF14" s="85"/>
-      <c r="IG14" s="85"/>
-      <c r="IH14" s="85"/>
-      <c r="II14" s="85"/>
-      <c r="IJ14" s="85"/>
-      <c r="IK14" s="85"/>
-      <c r="IL14" s="85"/>
-      <c r="IM14" s="85"/>
-      <c r="IN14" s="85"/>
-      <c r="IO14" s="85"/>
-      <c r="IP14" s="85"/>
-      <c r="IQ14" s="85"/>
-      <c r="IR14" s="85"/>
-      <c r="IS14" s="85"/>
-      <c r="IT14" s="85"/>
-      <c r="IU14" s="85"/>
-      <c r="IV14" s="85"/>
-      <c r="IW14" s="85"/>
-      <c r="IX14" s="85"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="82"/>
+      <c r="AO14" s="82"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="82"/>
+      <c r="AR14" s="82"/>
+      <c r="AS14" s="82"/>
+      <c r="AT14" s="82"/>
+      <c r="AU14" s="82"/>
+      <c r="AV14" s="82"/>
+      <c r="AW14" s="82"/>
+      <c r="AX14" s="82"/>
+      <c r="AY14" s="82"/>
+      <c r="AZ14" s="82"/>
+      <c r="BA14" s="82"/>
+      <c r="BB14" s="82"/>
+      <c r="BC14" s="82"/>
+      <c r="BD14" s="82"/>
+      <c r="BE14" s="82"/>
+      <c r="BF14" s="82"/>
+      <c r="BG14" s="82"/>
+      <c r="BH14" s="82"/>
+      <c r="BI14" s="82"/>
+      <c r="BJ14" s="82"/>
+      <c r="BK14" s="82"/>
+      <c r="BL14" s="82"/>
+      <c r="BM14" s="82"/>
+      <c r="BN14" s="82"/>
+      <c r="BO14" s="82"/>
+      <c r="BP14" s="82"/>
+      <c r="BQ14" s="82"/>
+      <c r="BR14" s="82"/>
+      <c r="BS14" s="82"/>
+      <c r="BT14" s="82"/>
+      <c r="BU14" s="82"/>
+      <c r="BV14" s="82"/>
+      <c r="BW14" s="82"/>
+      <c r="BX14" s="82"/>
+      <c r="BY14" s="82"/>
+      <c r="BZ14" s="82"/>
+      <c r="CA14" s="82"/>
+      <c r="CB14" s="82"/>
+      <c r="CC14" s="82"/>
+      <c r="CD14" s="82"/>
+      <c r="CE14" s="82"/>
+      <c r="CF14" s="82"/>
+      <c r="CG14" s="82"/>
+      <c r="CH14" s="82"/>
+      <c r="CI14" s="82"/>
+      <c r="CJ14" s="82"/>
+      <c r="CK14" s="82"/>
+      <c r="CL14" s="82"/>
+      <c r="CM14" s="82"/>
+      <c r="CN14" s="82"/>
+      <c r="CO14" s="82"/>
+      <c r="CP14" s="82"/>
+      <c r="CQ14" s="82"/>
+      <c r="CR14" s="82"/>
+      <c r="CS14" s="82"/>
+      <c r="CT14" s="82"/>
+      <c r="CU14" s="82"/>
+      <c r="CV14" s="82"/>
+      <c r="CW14" s="82"/>
+      <c r="CX14" s="82"/>
+      <c r="CY14" s="82"/>
+      <c r="CZ14" s="82"/>
+      <c r="DA14" s="82"/>
+      <c r="DB14" s="82"/>
+      <c r="DC14" s="82"/>
+      <c r="DD14" s="82"/>
+      <c r="DE14" s="82"/>
+      <c r="DF14" s="82"/>
+      <c r="DG14" s="82"/>
+      <c r="DH14" s="82"/>
+      <c r="DI14" s="82"/>
+      <c r="DJ14" s="82"/>
+      <c r="DK14" s="82"/>
+      <c r="DL14" s="82"/>
+      <c r="DM14" s="82"/>
+      <c r="DN14" s="82"/>
+      <c r="DO14" s="82"/>
+      <c r="DP14" s="82"/>
+      <c r="DQ14" s="82"/>
+      <c r="DR14" s="82"/>
+      <c r="DS14" s="82"/>
+      <c r="DT14" s="82"/>
+      <c r="DU14" s="82"/>
+      <c r="DV14" s="82"/>
+      <c r="DW14" s="82"/>
+      <c r="DX14" s="82"/>
+      <c r="DY14" s="82"/>
+      <c r="DZ14" s="82"/>
+      <c r="EA14" s="82"/>
+      <c r="EB14" s="82"/>
+      <c r="EC14" s="82"/>
+      <c r="ED14" s="82"/>
+      <c r="EE14" s="82"/>
+      <c r="EF14" s="82"/>
+      <c r="EG14" s="82"/>
+      <c r="EH14" s="82"/>
+      <c r="EI14" s="82"/>
+      <c r="EJ14" s="82"/>
+      <c r="EK14" s="82"/>
+      <c r="EL14" s="82"/>
+      <c r="EM14" s="82"/>
+      <c r="EN14" s="82"/>
+      <c r="EO14" s="82"/>
+      <c r="EP14" s="82"/>
+      <c r="EQ14" s="82"/>
+      <c r="ER14" s="82"/>
+      <c r="ES14" s="82"/>
+      <c r="ET14" s="82"/>
+      <c r="EU14" s="82"/>
+      <c r="EV14" s="82"/>
+      <c r="EW14" s="82"/>
+      <c r="EX14" s="82"/>
+      <c r="EY14" s="82"/>
+      <c r="EZ14" s="82"/>
+      <c r="FA14" s="82"/>
+      <c r="FB14" s="82"/>
+      <c r="FC14" s="82"/>
+      <c r="FD14" s="82"/>
+      <c r="FE14" s="82"/>
+      <c r="FF14" s="82"/>
+      <c r="FG14" s="82"/>
+      <c r="FH14" s="82"/>
+      <c r="FI14" s="82"/>
+      <c r="FJ14" s="82"/>
+      <c r="FK14" s="82"/>
+      <c r="FL14" s="82"/>
+      <c r="FM14" s="82"/>
+      <c r="FN14" s="82"/>
+      <c r="FO14" s="82"/>
+      <c r="FP14" s="82"/>
+      <c r="FQ14" s="82"/>
+      <c r="FR14" s="82"/>
+      <c r="FS14" s="82"/>
+      <c r="FT14" s="82"/>
+      <c r="FU14" s="82"/>
+      <c r="FV14" s="82"/>
+      <c r="FW14" s="82"/>
+      <c r="FX14" s="82"/>
+      <c r="FY14" s="82"/>
+      <c r="FZ14" s="82"/>
+      <c r="GA14" s="82"/>
+      <c r="GB14" s="82"/>
+      <c r="GC14" s="82"/>
+      <c r="GD14" s="82"/>
+      <c r="GE14" s="82"/>
+      <c r="GF14" s="82"/>
+      <c r="GG14" s="82"/>
+      <c r="GH14" s="82"/>
+      <c r="GI14" s="82"/>
+      <c r="GJ14" s="82"/>
+      <c r="GK14" s="82"/>
+      <c r="GL14" s="82"/>
+      <c r="GM14" s="82"/>
+      <c r="GN14" s="82"/>
+      <c r="GO14" s="82"/>
+      <c r="GP14" s="82"/>
+      <c r="GQ14" s="82"/>
+      <c r="GR14" s="82"/>
+      <c r="GS14" s="82"/>
+      <c r="GT14" s="82"/>
+      <c r="GU14" s="82"/>
+      <c r="GV14" s="82"/>
+      <c r="GW14" s="82"/>
+      <c r="GX14" s="82"/>
+      <c r="GY14" s="82"/>
+      <c r="GZ14" s="82"/>
+      <c r="HA14" s="82"/>
+      <c r="HB14" s="82"/>
+      <c r="HC14" s="82"/>
+      <c r="HD14" s="82"/>
+      <c r="HE14" s="82"/>
+      <c r="HF14" s="82"/>
+      <c r="HG14" s="82"/>
+      <c r="HH14" s="82"/>
+      <c r="HI14" s="82"/>
+      <c r="HJ14" s="82"/>
+      <c r="HK14" s="82"/>
+      <c r="HL14" s="82"/>
+      <c r="HM14" s="82"/>
+      <c r="HN14" s="82"/>
+      <c r="HO14" s="82"/>
+      <c r="HP14" s="82"/>
+      <c r="HQ14" s="82"/>
+      <c r="HR14" s="82"/>
+      <c r="HS14" s="82"/>
+      <c r="HT14" s="82"/>
+      <c r="HU14" s="82"/>
+      <c r="HV14" s="82"/>
+      <c r="HW14" s="82"/>
+      <c r="HX14" s="82"/>
+      <c r="HY14" s="82"/>
+      <c r="HZ14" s="82"/>
+      <c r="IA14" s="82"/>
+      <c r="IB14" s="82"/>
+      <c r="IC14" s="82"/>
+      <c r="ID14" s="82"/>
+      <c r="IE14" s="82"/>
+      <c r="IF14" s="82"/>
+      <c r="IG14" s="82"/>
+      <c r="IH14" s="82"/>
+      <c r="II14" s="82"/>
+      <c r="IJ14" s="82"/>
+      <c r="IK14" s="82"/>
+      <c r="IL14" s="82"/>
+      <c r="IM14" s="82"/>
+      <c r="IN14" s="82"/>
+      <c r="IO14" s="82"/>
+      <c r="IP14" s="82"/>
+      <c r="IQ14" s="82"/>
+      <c r="IR14" s="82"/>
+      <c r="IS14" s="82"/>
+      <c r="IT14" s="82"/>
+      <c r="IU14" s="82"/>
+      <c r="IV14" s="82"/>
+      <c r="IW14" s="82"/>
+      <c r="IX14" s="82"/>
     </row>
     <row r="15" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A15" s="105"/>
-      <c r="B15" s="97" t="s">
+      <c r="A15" s="108"/>
+      <c r="B15" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="62" t="s">
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="61" t="s">
         <v>54</v>
       </c>
       <c r="H15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="86" t="s">
+      <c r="I15" s="62"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="81"/>
-      <c r="AH15" s="81"/>
-      <c r="AI15" s="81"/>
-      <c r="AJ15" s="81"/>
-      <c r="AK15" s="81"/>
-      <c r="AL15" s="81"/>
-      <c r="AM15" s="81"/>
-      <c r="AN15" s="81"/>
-      <c r="AO15" s="81"/>
-      <c r="AP15" s="81"/>
-      <c r="AQ15" s="81"/>
-      <c r="AR15" s="81"/>
-      <c r="AS15" s="81"/>
-      <c r="AT15" s="81"/>
-      <c r="AU15" s="81"/>
-      <c r="AV15" s="81"/>
-      <c r="AW15" s="81"/>
-      <c r="AX15" s="81"/>
-      <c r="AY15" s="81"/>
-      <c r="AZ15" s="81"/>
-      <c r="BA15" s="81"/>
-      <c r="BB15" s="81"/>
-      <c r="BC15" s="81"/>
-      <c r="BD15" s="81"/>
-      <c r="BE15" s="81"/>
-      <c r="BF15" s="81"/>
-      <c r="BG15" s="81"/>
-      <c r="BH15" s="81"/>
-      <c r="BI15" s="81"/>
-      <c r="BJ15" s="81"/>
-      <c r="BK15" s="81"/>
-      <c r="BL15" s="81"/>
-      <c r="BM15" s="81"/>
-      <c r="BN15" s="81"/>
-      <c r="BO15" s="81"/>
-      <c r="BP15" s="81"/>
-      <c r="BQ15" s="81"/>
-      <c r="BR15" s="81"/>
-      <c r="BS15" s="81"/>
-      <c r="BT15" s="81"/>
-      <c r="BU15" s="81"/>
-      <c r="BV15" s="81"/>
-      <c r="BW15" s="81"/>
-      <c r="BX15" s="81"/>
-      <c r="BY15" s="81"/>
-      <c r="BZ15" s="81"/>
-      <c r="CA15" s="81"/>
-      <c r="CB15" s="81"/>
-      <c r="CC15" s="81"/>
-      <c r="CD15" s="81"/>
-      <c r="CE15" s="81"/>
-      <c r="CF15" s="81"/>
-      <c r="CG15" s="81"/>
-      <c r="CH15" s="81"/>
-      <c r="CI15" s="81"/>
-      <c r="CJ15" s="81"/>
-      <c r="CK15" s="81"/>
-      <c r="CL15" s="81"/>
-      <c r="CM15" s="81"/>
-      <c r="CN15" s="81"/>
-      <c r="CO15" s="81"/>
-      <c r="CP15" s="81"/>
-      <c r="CQ15" s="81"/>
-      <c r="CR15" s="81"/>
-      <c r="CS15" s="81"/>
-      <c r="CT15" s="81"/>
-      <c r="CU15" s="81"/>
-      <c r="CV15" s="81"/>
-      <c r="CW15" s="81"/>
-      <c r="CX15" s="81"/>
-      <c r="CY15" s="81"/>
-      <c r="CZ15" s="81"/>
-      <c r="DA15" s="81"/>
-      <c r="DB15" s="81"/>
-      <c r="DC15" s="81"/>
-      <c r="DD15" s="81"/>
-      <c r="DE15" s="81"/>
-      <c r="DF15" s="81"/>
-      <c r="DG15" s="81"/>
-      <c r="DH15" s="81"/>
-      <c r="DI15" s="81"/>
-      <c r="DJ15" s="81"/>
-      <c r="DK15" s="81"/>
-      <c r="DL15" s="81"/>
-      <c r="DM15" s="81"/>
-      <c r="DN15" s="81"/>
-      <c r="DO15" s="81"/>
-      <c r="DP15" s="81"/>
-      <c r="DQ15" s="81"/>
-      <c r="DR15" s="81"/>
-      <c r="DS15" s="81"/>
-      <c r="DT15" s="81"/>
-      <c r="DU15" s="81"/>
-      <c r="DV15" s="81"/>
-      <c r="DW15" s="81"/>
-      <c r="DX15" s="81"/>
-      <c r="DY15" s="81"/>
-      <c r="DZ15" s="81"/>
-      <c r="EA15" s="81"/>
-      <c r="EB15" s="81"/>
-      <c r="EC15" s="81"/>
-      <c r="ED15" s="81"/>
-      <c r="EE15" s="81"/>
-      <c r="EF15" s="81"/>
-      <c r="EG15" s="81"/>
-      <c r="EH15" s="81"/>
-      <c r="EI15" s="81"/>
-      <c r="EJ15" s="81"/>
-      <c r="EK15" s="81"/>
-      <c r="EL15" s="81"/>
-      <c r="EM15" s="81"/>
-      <c r="EN15" s="81"/>
-      <c r="EO15" s="81"/>
-      <c r="EP15" s="81"/>
-      <c r="EQ15" s="81"/>
-      <c r="ER15" s="81"/>
-      <c r="ES15" s="81"/>
-      <c r="ET15" s="81"/>
-      <c r="EU15" s="81"/>
-      <c r="EV15" s="81"/>
-      <c r="EW15" s="81"/>
-      <c r="EX15" s="81"/>
-      <c r="EY15" s="81"/>
-      <c r="EZ15" s="81"/>
-      <c r="FA15" s="81"/>
-      <c r="FB15" s="81"/>
-      <c r="FC15" s="81"/>
-      <c r="FD15" s="81"/>
-      <c r="FE15" s="81"/>
-      <c r="FF15" s="81"/>
-      <c r="FG15" s="81"/>
-      <c r="FH15" s="81"/>
-      <c r="FI15" s="81"/>
-      <c r="FJ15" s="81"/>
-      <c r="FK15" s="81"/>
-      <c r="FL15" s="81"/>
-      <c r="FM15" s="81"/>
-      <c r="FN15" s="81"/>
-      <c r="FO15" s="81"/>
-      <c r="FP15" s="81"/>
-      <c r="FQ15" s="81"/>
-      <c r="FR15" s="81"/>
-      <c r="FS15" s="81"/>
-      <c r="FT15" s="81"/>
-      <c r="FU15" s="81"/>
-      <c r="FV15" s="81"/>
-      <c r="FW15" s="81"/>
-      <c r="FX15" s="81"/>
-      <c r="FY15" s="81"/>
-      <c r="FZ15" s="81"/>
-      <c r="GA15" s="81"/>
-      <c r="GB15" s="81"/>
-      <c r="GC15" s="81"/>
-      <c r="GD15" s="81"/>
-      <c r="GE15" s="81"/>
-      <c r="GF15" s="81"/>
-      <c r="GG15" s="81"/>
-      <c r="GH15" s="81"/>
-      <c r="GI15" s="81"/>
-      <c r="GJ15" s="81"/>
-      <c r="GK15" s="81"/>
-      <c r="GL15" s="81"/>
-      <c r="GM15" s="81"/>
-      <c r="GN15" s="81"/>
-      <c r="GO15" s="81"/>
-      <c r="GP15" s="81"/>
-      <c r="GQ15" s="81"/>
-      <c r="GR15" s="81"/>
-      <c r="GS15" s="81"/>
-      <c r="GT15" s="81"/>
-      <c r="GU15" s="81"/>
-      <c r="GV15" s="81"/>
-      <c r="GW15" s="81"/>
-      <c r="GX15" s="81"/>
-      <c r="GY15" s="81"/>
-      <c r="GZ15" s="81"/>
-      <c r="HA15" s="81"/>
-      <c r="HB15" s="81"/>
-      <c r="HC15" s="81"/>
-      <c r="HD15" s="81"/>
-      <c r="HE15" s="81"/>
-      <c r="HF15" s="81"/>
-      <c r="HG15" s="81"/>
-      <c r="HH15" s="81"/>
-      <c r="HI15" s="81"/>
-      <c r="HJ15" s="81"/>
-      <c r="HK15" s="81"/>
-      <c r="HL15" s="81"/>
-      <c r="HM15" s="81"/>
-      <c r="HN15" s="81"/>
-      <c r="HO15" s="81"/>
-      <c r="HP15" s="81"/>
-      <c r="HQ15" s="81"/>
-      <c r="HR15" s="81"/>
-      <c r="HS15" s="81"/>
-      <c r="HT15" s="81"/>
-      <c r="HU15" s="81"/>
-      <c r="HV15" s="81"/>
-      <c r="HW15" s="81"/>
-      <c r="HX15" s="81"/>
-      <c r="HY15" s="81"/>
-      <c r="HZ15" s="81"/>
-      <c r="IA15" s="81"/>
-      <c r="IB15" s="81"/>
-      <c r="IC15" s="81"/>
-      <c r="ID15" s="81"/>
-      <c r="IE15" s="81"/>
-      <c r="IF15" s="81"/>
-      <c r="IG15" s="81"/>
-      <c r="IH15" s="81"/>
-      <c r="II15" s="81"/>
-      <c r="IJ15" s="81"/>
-      <c r="IK15" s="81"/>
-      <c r="IL15" s="81"/>
-      <c r="IM15" s="81"/>
-      <c r="IN15" s="81"/>
-      <c r="IO15" s="81"/>
-      <c r="IP15" s="81"/>
-      <c r="IQ15" s="81"/>
-      <c r="IR15" s="81"/>
-      <c r="IS15" s="81"/>
-      <c r="IT15" s="81"/>
-      <c r="IU15" s="81"/>
-      <c r="IV15" s="81"/>
-      <c r="IW15" s="81"/>
-      <c r="IX15" s="81"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="80"/>
+      <c r="AC15" s="80"/>
+      <c r="AD15" s="80"/>
+      <c r="AE15" s="80"/>
+      <c r="AF15" s="80"/>
+      <c r="AG15" s="80"/>
+      <c r="AH15" s="80"/>
+      <c r="AI15" s="80"/>
+      <c r="AJ15" s="80"/>
+      <c r="AK15" s="80"/>
+      <c r="AL15" s="80"/>
+      <c r="AM15" s="80"/>
+      <c r="AN15" s="80"/>
+      <c r="AO15" s="80"/>
+      <c r="AP15" s="80"/>
+      <c r="AQ15" s="80"/>
+      <c r="AR15" s="80"/>
+      <c r="AS15" s="80"/>
+      <c r="AT15" s="80"/>
+      <c r="AU15" s="80"/>
+      <c r="AV15" s="80"/>
+      <c r="AW15" s="80"/>
+      <c r="AX15" s="80"/>
+      <c r="AY15" s="80"/>
+      <c r="AZ15" s="80"/>
+      <c r="BA15" s="80"/>
+      <c r="BB15" s="80"/>
+      <c r="BC15" s="80"/>
+      <c r="BD15" s="80"/>
+      <c r="BE15" s="80"/>
+      <c r="BF15" s="80"/>
+      <c r="BG15" s="80"/>
+      <c r="BH15" s="80"/>
+      <c r="BI15" s="80"/>
+      <c r="BJ15" s="80"/>
+      <c r="BK15" s="80"/>
+      <c r="BL15" s="80"/>
+      <c r="BM15" s="80"/>
+      <c r="BN15" s="80"/>
+      <c r="BO15" s="80"/>
+      <c r="BP15" s="80"/>
+      <c r="BQ15" s="80"/>
+      <c r="BR15" s="80"/>
+      <c r="BS15" s="80"/>
+      <c r="BT15" s="80"/>
+      <c r="BU15" s="80"/>
+      <c r="BV15" s="80"/>
+      <c r="BW15" s="80"/>
+      <c r="BX15" s="80"/>
+      <c r="BY15" s="80"/>
+      <c r="BZ15" s="80"/>
+      <c r="CA15" s="80"/>
+      <c r="CB15" s="80"/>
+      <c r="CC15" s="80"/>
+      <c r="CD15" s="80"/>
+      <c r="CE15" s="80"/>
+      <c r="CF15" s="80"/>
+      <c r="CG15" s="80"/>
+      <c r="CH15" s="80"/>
+      <c r="CI15" s="80"/>
+      <c r="CJ15" s="80"/>
+      <c r="CK15" s="80"/>
+      <c r="CL15" s="80"/>
+      <c r="CM15" s="80"/>
+      <c r="CN15" s="80"/>
+      <c r="CO15" s="80"/>
+      <c r="CP15" s="80"/>
+      <c r="CQ15" s="80"/>
+      <c r="CR15" s="80"/>
+      <c r="CS15" s="80"/>
+      <c r="CT15" s="80"/>
+      <c r="CU15" s="80"/>
+      <c r="CV15" s="80"/>
+      <c r="CW15" s="80"/>
+      <c r="CX15" s="80"/>
+      <c r="CY15" s="80"/>
+      <c r="CZ15" s="80"/>
+      <c r="DA15" s="80"/>
+      <c r="DB15" s="80"/>
+      <c r="DC15" s="80"/>
+      <c r="DD15" s="80"/>
+      <c r="DE15" s="80"/>
+      <c r="DF15" s="80"/>
+      <c r="DG15" s="80"/>
+      <c r="DH15" s="80"/>
+      <c r="DI15" s="80"/>
+      <c r="DJ15" s="80"/>
+      <c r="DK15" s="80"/>
+      <c r="DL15" s="80"/>
+      <c r="DM15" s="80"/>
+      <c r="DN15" s="80"/>
+      <c r="DO15" s="80"/>
+      <c r="DP15" s="80"/>
+      <c r="DQ15" s="80"/>
+      <c r="DR15" s="80"/>
+      <c r="DS15" s="80"/>
+      <c r="DT15" s="80"/>
+      <c r="DU15" s="80"/>
+      <c r="DV15" s="80"/>
+      <c r="DW15" s="80"/>
+      <c r="DX15" s="80"/>
+      <c r="DY15" s="80"/>
+      <c r="DZ15" s="80"/>
+      <c r="EA15" s="80"/>
+      <c r="EB15" s="80"/>
+      <c r="EC15" s="80"/>
+      <c r="ED15" s="80"/>
+      <c r="EE15" s="80"/>
+      <c r="EF15" s="80"/>
+      <c r="EG15" s="80"/>
+      <c r="EH15" s="80"/>
+      <c r="EI15" s="80"/>
+      <c r="EJ15" s="80"/>
+      <c r="EK15" s="80"/>
+      <c r="EL15" s="80"/>
+      <c r="EM15" s="80"/>
+      <c r="EN15" s="80"/>
+      <c r="EO15" s="80"/>
+      <c r="EP15" s="80"/>
+      <c r="EQ15" s="80"/>
+      <c r="ER15" s="80"/>
+      <c r="ES15" s="80"/>
+      <c r="ET15" s="80"/>
+      <c r="EU15" s="80"/>
+      <c r="EV15" s="80"/>
+      <c r="EW15" s="80"/>
+      <c r="EX15" s="80"/>
+      <c r="EY15" s="80"/>
+      <c r="EZ15" s="80"/>
+      <c r="FA15" s="80"/>
+      <c r="FB15" s="80"/>
+      <c r="FC15" s="80"/>
+      <c r="FD15" s="80"/>
+      <c r="FE15" s="80"/>
+      <c r="FF15" s="80"/>
+      <c r="FG15" s="80"/>
+      <c r="FH15" s="80"/>
+      <c r="FI15" s="80"/>
+      <c r="FJ15" s="80"/>
+      <c r="FK15" s="80"/>
+      <c r="FL15" s="80"/>
+      <c r="FM15" s="80"/>
+      <c r="FN15" s="80"/>
+      <c r="FO15" s="80"/>
+      <c r="FP15" s="80"/>
+      <c r="FQ15" s="80"/>
+      <c r="FR15" s="80"/>
+      <c r="FS15" s="80"/>
+      <c r="FT15" s="80"/>
+      <c r="FU15" s="80"/>
+      <c r="FV15" s="80"/>
+      <c r="FW15" s="80"/>
+      <c r="FX15" s="80"/>
+      <c r="FY15" s="80"/>
+      <c r="FZ15" s="80"/>
+      <c r="GA15" s="80"/>
+      <c r="GB15" s="80"/>
+      <c r="GC15" s="80"/>
+      <c r="GD15" s="80"/>
+      <c r="GE15" s="80"/>
+      <c r="GF15" s="80"/>
+      <c r="GG15" s="80"/>
+      <c r="GH15" s="80"/>
+      <c r="GI15" s="80"/>
+      <c r="GJ15" s="80"/>
+      <c r="GK15" s="80"/>
+      <c r="GL15" s="80"/>
+      <c r="GM15" s="80"/>
+      <c r="GN15" s="80"/>
+      <c r="GO15" s="80"/>
+      <c r="GP15" s="80"/>
+      <c r="GQ15" s="80"/>
+      <c r="GR15" s="80"/>
+      <c r="GS15" s="80"/>
+      <c r="GT15" s="80"/>
+      <c r="GU15" s="80"/>
+      <c r="GV15" s="80"/>
+      <c r="GW15" s="80"/>
+      <c r="GX15" s="80"/>
+      <c r="GY15" s="80"/>
+      <c r="GZ15" s="80"/>
+      <c r="HA15" s="80"/>
+      <c r="HB15" s="80"/>
+      <c r="HC15" s="80"/>
+      <c r="HD15" s="80"/>
+      <c r="HE15" s="80"/>
+      <c r="HF15" s="80"/>
+      <c r="HG15" s="80"/>
+      <c r="HH15" s="80"/>
+      <c r="HI15" s="80"/>
+      <c r="HJ15" s="80"/>
+      <c r="HK15" s="80"/>
+      <c r="HL15" s="80"/>
+      <c r="HM15" s="80"/>
+      <c r="HN15" s="80"/>
+      <c r="HO15" s="80"/>
+      <c r="HP15" s="80"/>
+      <c r="HQ15" s="80"/>
+      <c r="HR15" s="80"/>
+      <c r="HS15" s="80"/>
+      <c r="HT15" s="80"/>
+      <c r="HU15" s="80"/>
+      <c r="HV15" s="80"/>
+      <c r="HW15" s="80"/>
+      <c r="HX15" s="80"/>
+      <c r="HY15" s="80"/>
+      <c r="HZ15" s="80"/>
+      <c r="IA15" s="80"/>
+      <c r="IB15" s="80"/>
+      <c r="IC15" s="80"/>
+      <c r="ID15" s="80"/>
+      <c r="IE15" s="80"/>
+      <c r="IF15" s="80"/>
+      <c r="IG15" s="80"/>
+      <c r="IH15" s="80"/>
+      <c r="II15" s="80"/>
+      <c r="IJ15" s="80"/>
+      <c r="IK15" s="80"/>
+      <c r="IL15" s="80"/>
+      <c r="IM15" s="80"/>
+      <c r="IN15" s="80"/>
+      <c r="IO15" s="80"/>
+      <c r="IP15" s="80"/>
+      <c r="IQ15" s="80"/>
+      <c r="IR15" s="80"/>
+      <c r="IS15" s="80"/>
+      <c r="IT15" s="80"/>
+      <c r="IU15" s="80"/>
+      <c r="IV15" s="80"/>
+      <c r="IW15" s="80"/>
+      <c r="IX15" s="80"/>
     </row>
     <row r="16" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A16" s="105"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="58" t="s">
         <v>56</v>
       </c>
@@ -6439,262 +6430,262 @@
       <c r="E16" s="59"/>
       <c r="F16" s="59"/>
       <c r="G16" s="58"/>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="63" t="s">
         <v>58</v>
       </c>
       <c r="I16" s="59"/>
       <c r="J16" s="58"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="81"/>
-      <c r="AF16" s="81"/>
-      <c r="AG16" s="81"/>
-      <c r="AH16" s="81"/>
-      <c r="AI16" s="81"/>
-      <c r="AJ16" s="81"/>
-      <c r="AK16" s="81"/>
-      <c r="AL16" s="81"/>
-      <c r="AM16" s="81"/>
-      <c r="AN16" s="81"/>
-      <c r="AO16" s="81"/>
-      <c r="AP16" s="81"/>
-      <c r="AQ16" s="81"/>
-      <c r="AR16" s="81"/>
-      <c r="AS16" s="81"/>
-      <c r="AT16" s="81"/>
-      <c r="AU16" s="81"/>
-      <c r="AV16" s="81"/>
-      <c r="AW16" s="81"/>
-      <c r="AX16" s="81"/>
-      <c r="AY16" s="81"/>
-      <c r="AZ16" s="81"/>
-      <c r="BA16" s="81"/>
-      <c r="BB16" s="81"/>
-      <c r="BC16" s="81"/>
-      <c r="BD16" s="81"/>
-      <c r="BE16" s="81"/>
-      <c r="BF16" s="81"/>
-      <c r="BG16" s="81"/>
-      <c r="BH16" s="81"/>
-      <c r="BI16" s="81"/>
-      <c r="BJ16" s="81"/>
-      <c r="BK16" s="81"/>
-      <c r="BL16" s="81"/>
-      <c r="BM16" s="81"/>
-      <c r="BN16" s="81"/>
-      <c r="BO16" s="81"/>
-      <c r="BP16" s="81"/>
-      <c r="BQ16" s="81"/>
-      <c r="BR16" s="81"/>
-      <c r="BS16" s="81"/>
-      <c r="BT16" s="81"/>
-      <c r="BU16" s="81"/>
-      <c r="BV16" s="81"/>
-      <c r="BW16" s="81"/>
-      <c r="BX16" s="81"/>
-      <c r="BY16" s="81"/>
-      <c r="BZ16" s="81"/>
-      <c r="CA16" s="81"/>
-      <c r="CB16" s="81"/>
-      <c r="CC16" s="81"/>
-      <c r="CD16" s="81"/>
-      <c r="CE16" s="81"/>
-      <c r="CF16" s="81"/>
-      <c r="CG16" s="81"/>
-      <c r="CH16" s="81"/>
-      <c r="CI16" s="81"/>
-      <c r="CJ16" s="81"/>
-      <c r="CK16" s="81"/>
-      <c r="CL16" s="81"/>
-      <c r="CM16" s="81"/>
-      <c r="CN16" s="81"/>
-      <c r="CO16" s="81"/>
-      <c r="CP16" s="81"/>
-      <c r="CQ16" s="81"/>
-      <c r="CR16" s="81"/>
-      <c r="CS16" s="81"/>
-      <c r="CT16" s="81"/>
-      <c r="CU16" s="81"/>
-      <c r="CV16" s="81"/>
-      <c r="CW16" s="81"/>
-      <c r="CX16" s="81"/>
-      <c r="CY16" s="81"/>
-      <c r="CZ16" s="81"/>
-      <c r="DA16" s="81"/>
-      <c r="DB16" s="81"/>
-      <c r="DC16" s="81"/>
-      <c r="DD16" s="81"/>
-      <c r="DE16" s="81"/>
-      <c r="DF16" s="81"/>
-      <c r="DG16" s="81"/>
-      <c r="DH16" s="81"/>
-      <c r="DI16" s="81"/>
-      <c r="DJ16" s="81"/>
-      <c r="DK16" s="81"/>
-      <c r="DL16" s="81"/>
-      <c r="DM16" s="81"/>
-      <c r="DN16" s="81"/>
-      <c r="DO16" s="81"/>
-      <c r="DP16" s="81"/>
-      <c r="DQ16" s="81"/>
-      <c r="DR16" s="81"/>
-      <c r="DS16" s="81"/>
-      <c r="DT16" s="81"/>
-      <c r="DU16" s="81"/>
-      <c r="DV16" s="81"/>
-      <c r="DW16" s="81"/>
-      <c r="DX16" s="81"/>
-      <c r="DY16" s="81"/>
-      <c r="DZ16" s="81"/>
-      <c r="EA16" s="81"/>
-      <c r="EB16" s="81"/>
-      <c r="EC16" s="81"/>
-      <c r="ED16" s="81"/>
-      <c r="EE16" s="81"/>
-      <c r="EF16" s="81"/>
-      <c r="EG16" s="81"/>
-      <c r="EH16" s="81"/>
-      <c r="EI16" s="81"/>
-      <c r="EJ16" s="81"/>
-      <c r="EK16" s="81"/>
-      <c r="EL16" s="81"/>
-      <c r="EM16" s="81"/>
-      <c r="EN16" s="81"/>
-      <c r="EO16" s="81"/>
-      <c r="EP16" s="81"/>
-      <c r="EQ16" s="81"/>
-      <c r="ER16" s="81"/>
-      <c r="ES16" s="81"/>
-      <c r="ET16" s="81"/>
-      <c r="EU16" s="81"/>
-      <c r="EV16" s="81"/>
-      <c r="EW16" s="81"/>
-      <c r="EX16" s="81"/>
-      <c r="EY16" s="81"/>
-      <c r="EZ16" s="81"/>
-      <c r="FA16" s="81"/>
-      <c r="FB16" s="81"/>
-      <c r="FC16" s="81"/>
-      <c r="FD16" s="81"/>
-      <c r="FE16" s="81"/>
-      <c r="FF16" s="81"/>
-      <c r="FG16" s="81"/>
-      <c r="FH16" s="81"/>
-      <c r="FI16" s="81"/>
-      <c r="FJ16" s="81"/>
-      <c r="FK16" s="81"/>
-      <c r="FL16" s="81"/>
-      <c r="FM16" s="81"/>
-      <c r="FN16" s="81"/>
-      <c r="FO16" s="81"/>
-      <c r="FP16" s="81"/>
-      <c r="FQ16" s="81"/>
-      <c r="FR16" s="81"/>
-      <c r="FS16" s="81"/>
-      <c r="FT16" s="81"/>
-      <c r="FU16" s="81"/>
-      <c r="FV16" s="81"/>
-      <c r="FW16" s="81"/>
-      <c r="FX16" s="81"/>
-      <c r="FY16" s="81"/>
-      <c r="FZ16" s="81"/>
-      <c r="GA16" s="81"/>
-      <c r="GB16" s="81"/>
-      <c r="GC16" s="81"/>
-      <c r="GD16" s="81"/>
-      <c r="GE16" s="81"/>
-      <c r="GF16" s="81"/>
-      <c r="GG16" s="81"/>
-      <c r="GH16" s="81"/>
-      <c r="GI16" s="81"/>
-      <c r="GJ16" s="81"/>
-      <c r="GK16" s="81"/>
-      <c r="GL16" s="81"/>
-      <c r="GM16" s="81"/>
-      <c r="GN16" s="81"/>
-      <c r="GO16" s="81"/>
-      <c r="GP16" s="81"/>
-      <c r="GQ16" s="81"/>
-      <c r="GR16" s="81"/>
-      <c r="GS16" s="81"/>
-      <c r="GT16" s="81"/>
-      <c r="GU16" s="81"/>
-      <c r="GV16" s="81"/>
-      <c r="GW16" s="81"/>
-      <c r="GX16" s="81"/>
-      <c r="GY16" s="81"/>
-      <c r="GZ16" s="81"/>
-      <c r="HA16" s="81"/>
-      <c r="HB16" s="81"/>
-      <c r="HC16" s="81"/>
-      <c r="HD16" s="81"/>
-      <c r="HE16" s="81"/>
-      <c r="HF16" s="81"/>
-      <c r="HG16" s="81"/>
-      <c r="HH16" s="81"/>
-      <c r="HI16" s="81"/>
-      <c r="HJ16" s="81"/>
-      <c r="HK16" s="81"/>
-      <c r="HL16" s="81"/>
-      <c r="HM16" s="81"/>
-      <c r="HN16" s="81"/>
-      <c r="HO16" s="81"/>
-      <c r="HP16" s="81"/>
-      <c r="HQ16" s="81"/>
-      <c r="HR16" s="81"/>
-      <c r="HS16" s="81"/>
-      <c r="HT16" s="81"/>
-      <c r="HU16" s="81"/>
-      <c r="HV16" s="81"/>
-      <c r="HW16" s="81"/>
-      <c r="HX16" s="81"/>
-      <c r="HY16" s="81"/>
-      <c r="HZ16" s="81"/>
-      <c r="IA16" s="81"/>
-      <c r="IB16" s="81"/>
-      <c r="IC16" s="81"/>
-      <c r="ID16" s="81"/>
-      <c r="IE16" s="81"/>
-      <c r="IF16" s="81"/>
-      <c r="IG16" s="81"/>
-      <c r="IH16" s="81"/>
-      <c r="II16" s="81"/>
-      <c r="IJ16" s="81"/>
-      <c r="IK16" s="81"/>
-      <c r="IL16" s="81"/>
-      <c r="IM16" s="81"/>
-      <c r="IN16" s="81"/>
-      <c r="IO16" s="81"/>
-      <c r="IP16" s="81"/>
-      <c r="IQ16" s="81"/>
-      <c r="IR16" s="81"/>
-      <c r="IS16" s="81"/>
-      <c r="IT16" s="81"/>
-      <c r="IU16" s="81"/>
-      <c r="IV16" s="81"/>
-      <c r="IW16" s="81"/>
-      <c r="IX16" s="81"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
+      <c r="AK16" s="80"/>
+      <c r="AL16" s="80"/>
+      <c r="AM16" s="80"/>
+      <c r="AN16" s="80"/>
+      <c r="AO16" s="80"/>
+      <c r="AP16" s="80"/>
+      <c r="AQ16" s="80"/>
+      <c r="AR16" s="80"/>
+      <c r="AS16" s="80"/>
+      <c r="AT16" s="80"/>
+      <c r="AU16" s="80"/>
+      <c r="AV16" s="80"/>
+      <c r="AW16" s="80"/>
+      <c r="AX16" s="80"/>
+      <c r="AY16" s="80"/>
+      <c r="AZ16" s="80"/>
+      <c r="BA16" s="80"/>
+      <c r="BB16" s="80"/>
+      <c r="BC16" s="80"/>
+      <c r="BD16" s="80"/>
+      <c r="BE16" s="80"/>
+      <c r="BF16" s="80"/>
+      <c r="BG16" s="80"/>
+      <c r="BH16" s="80"/>
+      <c r="BI16" s="80"/>
+      <c r="BJ16" s="80"/>
+      <c r="BK16" s="80"/>
+      <c r="BL16" s="80"/>
+      <c r="BM16" s="80"/>
+      <c r="BN16" s="80"/>
+      <c r="BO16" s="80"/>
+      <c r="BP16" s="80"/>
+      <c r="BQ16" s="80"/>
+      <c r="BR16" s="80"/>
+      <c r="BS16" s="80"/>
+      <c r="BT16" s="80"/>
+      <c r="BU16" s="80"/>
+      <c r="BV16" s="80"/>
+      <c r="BW16" s="80"/>
+      <c r="BX16" s="80"/>
+      <c r="BY16" s="80"/>
+      <c r="BZ16" s="80"/>
+      <c r="CA16" s="80"/>
+      <c r="CB16" s="80"/>
+      <c r="CC16" s="80"/>
+      <c r="CD16" s="80"/>
+      <c r="CE16" s="80"/>
+      <c r="CF16" s="80"/>
+      <c r="CG16" s="80"/>
+      <c r="CH16" s="80"/>
+      <c r="CI16" s="80"/>
+      <c r="CJ16" s="80"/>
+      <c r="CK16" s="80"/>
+      <c r="CL16" s="80"/>
+      <c r="CM16" s="80"/>
+      <c r="CN16" s="80"/>
+      <c r="CO16" s="80"/>
+      <c r="CP16" s="80"/>
+      <c r="CQ16" s="80"/>
+      <c r="CR16" s="80"/>
+      <c r="CS16" s="80"/>
+      <c r="CT16" s="80"/>
+      <c r="CU16" s="80"/>
+      <c r="CV16" s="80"/>
+      <c r="CW16" s="80"/>
+      <c r="CX16" s="80"/>
+      <c r="CY16" s="80"/>
+      <c r="CZ16" s="80"/>
+      <c r="DA16" s="80"/>
+      <c r="DB16" s="80"/>
+      <c r="DC16" s="80"/>
+      <c r="DD16" s="80"/>
+      <c r="DE16" s="80"/>
+      <c r="DF16" s="80"/>
+      <c r="DG16" s="80"/>
+      <c r="DH16" s="80"/>
+      <c r="DI16" s="80"/>
+      <c r="DJ16" s="80"/>
+      <c r="DK16" s="80"/>
+      <c r="DL16" s="80"/>
+      <c r="DM16" s="80"/>
+      <c r="DN16" s="80"/>
+      <c r="DO16" s="80"/>
+      <c r="DP16" s="80"/>
+      <c r="DQ16" s="80"/>
+      <c r="DR16" s="80"/>
+      <c r="DS16" s="80"/>
+      <c r="DT16" s="80"/>
+      <c r="DU16" s="80"/>
+      <c r="DV16" s="80"/>
+      <c r="DW16" s="80"/>
+      <c r="DX16" s="80"/>
+      <c r="DY16" s="80"/>
+      <c r="DZ16" s="80"/>
+      <c r="EA16" s="80"/>
+      <c r="EB16" s="80"/>
+      <c r="EC16" s="80"/>
+      <c r="ED16" s="80"/>
+      <c r="EE16" s="80"/>
+      <c r="EF16" s="80"/>
+      <c r="EG16" s="80"/>
+      <c r="EH16" s="80"/>
+      <c r="EI16" s="80"/>
+      <c r="EJ16" s="80"/>
+      <c r="EK16" s="80"/>
+      <c r="EL16" s="80"/>
+      <c r="EM16" s="80"/>
+      <c r="EN16" s="80"/>
+      <c r="EO16" s="80"/>
+      <c r="EP16" s="80"/>
+      <c r="EQ16" s="80"/>
+      <c r="ER16" s="80"/>
+      <c r="ES16" s="80"/>
+      <c r="ET16" s="80"/>
+      <c r="EU16" s="80"/>
+      <c r="EV16" s="80"/>
+      <c r="EW16" s="80"/>
+      <c r="EX16" s="80"/>
+      <c r="EY16" s="80"/>
+      <c r="EZ16" s="80"/>
+      <c r="FA16" s="80"/>
+      <c r="FB16" s="80"/>
+      <c r="FC16" s="80"/>
+      <c r="FD16" s="80"/>
+      <c r="FE16" s="80"/>
+      <c r="FF16" s="80"/>
+      <c r="FG16" s="80"/>
+      <c r="FH16" s="80"/>
+      <c r="FI16" s="80"/>
+      <c r="FJ16" s="80"/>
+      <c r="FK16" s="80"/>
+      <c r="FL16" s="80"/>
+      <c r="FM16" s="80"/>
+      <c r="FN16" s="80"/>
+      <c r="FO16" s="80"/>
+      <c r="FP16" s="80"/>
+      <c r="FQ16" s="80"/>
+      <c r="FR16" s="80"/>
+      <c r="FS16" s="80"/>
+      <c r="FT16" s="80"/>
+      <c r="FU16" s="80"/>
+      <c r="FV16" s="80"/>
+      <c r="FW16" s="80"/>
+      <c r="FX16" s="80"/>
+      <c r="FY16" s="80"/>
+      <c r="FZ16" s="80"/>
+      <c r="GA16" s="80"/>
+      <c r="GB16" s="80"/>
+      <c r="GC16" s="80"/>
+      <c r="GD16" s="80"/>
+      <c r="GE16" s="80"/>
+      <c r="GF16" s="80"/>
+      <c r="GG16" s="80"/>
+      <c r="GH16" s="80"/>
+      <c r="GI16" s="80"/>
+      <c r="GJ16" s="80"/>
+      <c r="GK16" s="80"/>
+      <c r="GL16" s="80"/>
+      <c r="GM16" s="80"/>
+      <c r="GN16" s="80"/>
+      <c r="GO16" s="80"/>
+      <c r="GP16" s="80"/>
+      <c r="GQ16" s="80"/>
+      <c r="GR16" s="80"/>
+      <c r="GS16" s="80"/>
+      <c r="GT16" s="80"/>
+      <c r="GU16" s="80"/>
+      <c r="GV16" s="80"/>
+      <c r="GW16" s="80"/>
+      <c r="GX16" s="80"/>
+      <c r="GY16" s="80"/>
+      <c r="GZ16" s="80"/>
+      <c r="HA16" s="80"/>
+      <c r="HB16" s="80"/>
+      <c r="HC16" s="80"/>
+      <c r="HD16" s="80"/>
+      <c r="HE16" s="80"/>
+      <c r="HF16" s="80"/>
+      <c r="HG16" s="80"/>
+      <c r="HH16" s="80"/>
+      <c r="HI16" s="80"/>
+      <c r="HJ16" s="80"/>
+      <c r="HK16" s="80"/>
+      <c r="HL16" s="80"/>
+      <c r="HM16" s="80"/>
+      <c r="HN16" s="80"/>
+      <c r="HO16" s="80"/>
+      <c r="HP16" s="80"/>
+      <c r="HQ16" s="80"/>
+      <c r="HR16" s="80"/>
+      <c r="HS16" s="80"/>
+      <c r="HT16" s="80"/>
+      <c r="HU16" s="80"/>
+      <c r="HV16" s="80"/>
+      <c r="HW16" s="80"/>
+      <c r="HX16" s="80"/>
+      <c r="HY16" s="80"/>
+      <c r="HZ16" s="80"/>
+      <c r="IA16" s="80"/>
+      <c r="IB16" s="80"/>
+      <c r="IC16" s="80"/>
+      <c r="ID16" s="80"/>
+      <c r="IE16" s="80"/>
+      <c r="IF16" s="80"/>
+      <c r="IG16" s="80"/>
+      <c r="IH16" s="80"/>
+      <c r="II16" s="80"/>
+      <c r="IJ16" s="80"/>
+      <c r="IK16" s="80"/>
+      <c r="IL16" s="80"/>
+      <c r="IM16" s="80"/>
+      <c r="IN16" s="80"/>
+      <c r="IO16" s="80"/>
+      <c r="IP16" s="80"/>
+      <c r="IQ16" s="80"/>
+      <c r="IR16" s="80"/>
+      <c r="IS16" s="80"/>
+      <c r="IT16" s="80"/>
+      <c r="IU16" s="80"/>
+      <c r="IV16" s="80"/>
+      <c r="IW16" s="80"/>
+      <c r="IX16" s="80"/>
     </row>
     <row r="17" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A17" s="107"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="20" t="s">
         <v>59</v>
       </c>
@@ -6715,8 +6706,8 @@
       <c r="I17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="71"/>
-      <c r="K17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="69"/>
       <c r="L17" s="21" t="s">
         <v>62</v>
       </c>
@@ -6978,7 +6969,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="70"/>
+      <c r="K18" s="69"/>
       <c r="L18" s="21"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
@@ -7228,7 +7219,7 @@
       <c r="IX18" s="24"/>
     </row>
     <row r="19" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="111" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="26" t="s">
@@ -7247,8 +7238,8 @@
         <v>66</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="70"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="69"/>
       <c r="L19" s="21"/>
       <c r="M19" s="51"/>
       <c r="N19" s="51"/>
@@ -7498,7 +7489,7 @@
       <c r="IX19" s="51"/>
     </row>
     <row r="20" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A20" s="109"/>
+      <c r="A20" s="112"/>
       <c r="B20" s="58" t="s">
         <v>67</v>
       </c>
@@ -7510,263 +7501,263 @@
       </c>
       <c r="E20" s="59"/>
       <c r="F20" s="59"/>
-      <c r="G20" s="65"/>
+      <c r="G20" s="64"/>
       <c r="H20" s="58" t="s">
         <v>69</v>
       </c>
       <c r="I20" s="59"/>
       <c r="J20" s="58"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="81"/>
-      <c r="AF20" s="81"/>
-      <c r="AG20" s="81"/>
-      <c r="AH20" s="81"/>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="81"/>
-      <c r="AK20" s="81"/>
-      <c r="AL20" s="81"/>
-      <c r="AM20" s="81"/>
-      <c r="AN20" s="81"/>
-      <c r="AO20" s="81"/>
-      <c r="AP20" s="81"/>
-      <c r="AQ20" s="81"/>
-      <c r="AR20" s="81"/>
-      <c r="AS20" s="81"/>
-      <c r="AT20" s="81"/>
-      <c r="AU20" s="81"/>
-      <c r="AV20" s="81"/>
-      <c r="AW20" s="81"/>
-      <c r="AX20" s="81"/>
-      <c r="AY20" s="81"/>
-      <c r="AZ20" s="81"/>
-      <c r="BA20" s="81"/>
-      <c r="BB20" s="81"/>
-      <c r="BC20" s="81"/>
-      <c r="BD20" s="81"/>
-      <c r="BE20" s="81"/>
-      <c r="BF20" s="81"/>
-      <c r="BG20" s="81"/>
-      <c r="BH20" s="81"/>
-      <c r="BI20" s="81"/>
-      <c r="BJ20" s="81"/>
-      <c r="BK20" s="81"/>
-      <c r="BL20" s="81"/>
-      <c r="BM20" s="81"/>
-      <c r="BN20" s="81"/>
-      <c r="BO20" s="81"/>
-      <c r="BP20" s="81"/>
-      <c r="BQ20" s="81"/>
-      <c r="BR20" s="81"/>
-      <c r="BS20" s="81"/>
-      <c r="BT20" s="81"/>
-      <c r="BU20" s="81"/>
-      <c r="BV20" s="81"/>
-      <c r="BW20" s="81"/>
-      <c r="BX20" s="81"/>
-      <c r="BY20" s="81"/>
-      <c r="BZ20" s="81"/>
-      <c r="CA20" s="81"/>
-      <c r="CB20" s="81"/>
-      <c r="CC20" s="81"/>
-      <c r="CD20" s="81"/>
-      <c r="CE20" s="81"/>
-      <c r="CF20" s="81"/>
-      <c r="CG20" s="81"/>
-      <c r="CH20" s="81"/>
-      <c r="CI20" s="81"/>
-      <c r="CJ20" s="81"/>
-      <c r="CK20" s="81"/>
-      <c r="CL20" s="81"/>
-      <c r="CM20" s="81"/>
-      <c r="CN20" s="81"/>
-      <c r="CO20" s="81"/>
-      <c r="CP20" s="81"/>
-      <c r="CQ20" s="81"/>
-      <c r="CR20" s="81"/>
-      <c r="CS20" s="81"/>
-      <c r="CT20" s="81"/>
-      <c r="CU20" s="81"/>
-      <c r="CV20" s="81"/>
-      <c r="CW20" s="81"/>
-      <c r="CX20" s="81"/>
-      <c r="CY20" s="81"/>
-      <c r="CZ20" s="81"/>
-      <c r="DA20" s="81"/>
-      <c r="DB20" s="81"/>
-      <c r="DC20" s="81"/>
-      <c r="DD20" s="81"/>
-      <c r="DE20" s="81"/>
-      <c r="DF20" s="81"/>
-      <c r="DG20" s="81"/>
-      <c r="DH20" s="81"/>
-      <c r="DI20" s="81"/>
-      <c r="DJ20" s="81"/>
-      <c r="DK20" s="81"/>
-      <c r="DL20" s="81"/>
-      <c r="DM20" s="81"/>
-      <c r="DN20" s="81"/>
-      <c r="DO20" s="81"/>
-      <c r="DP20" s="81"/>
-      <c r="DQ20" s="81"/>
-      <c r="DR20" s="81"/>
-      <c r="DS20" s="81"/>
-      <c r="DT20" s="81"/>
-      <c r="DU20" s="81"/>
-      <c r="DV20" s="81"/>
-      <c r="DW20" s="81"/>
-      <c r="DX20" s="81"/>
-      <c r="DY20" s="81"/>
-      <c r="DZ20" s="81"/>
-      <c r="EA20" s="81"/>
-      <c r="EB20" s="81"/>
-      <c r="EC20" s="81"/>
-      <c r="ED20" s="81"/>
-      <c r="EE20" s="81"/>
-      <c r="EF20" s="81"/>
-      <c r="EG20" s="81"/>
-      <c r="EH20" s="81"/>
-      <c r="EI20" s="81"/>
-      <c r="EJ20" s="81"/>
-      <c r="EK20" s="81"/>
-      <c r="EL20" s="81"/>
-      <c r="EM20" s="81"/>
-      <c r="EN20" s="81"/>
-      <c r="EO20" s="81"/>
-      <c r="EP20" s="81"/>
-      <c r="EQ20" s="81"/>
-      <c r="ER20" s="81"/>
-      <c r="ES20" s="81"/>
-      <c r="ET20" s="81"/>
-      <c r="EU20" s="81"/>
-      <c r="EV20" s="81"/>
-      <c r="EW20" s="81"/>
-      <c r="EX20" s="81"/>
-      <c r="EY20" s="81"/>
-      <c r="EZ20" s="81"/>
-      <c r="FA20" s="81"/>
-      <c r="FB20" s="81"/>
-      <c r="FC20" s="81"/>
-      <c r="FD20" s="81"/>
-      <c r="FE20" s="81"/>
-      <c r="FF20" s="81"/>
-      <c r="FG20" s="81"/>
-      <c r="FH20" s="81"/>
-      <c r="FI20" s="81"/>
-      <c r="FJ20" s="81"/>
-      <c r="FK20" s="81"/>
-      <c r="FL20" s="81"/>
-      <c r="FM20" s="81"/>
-      <c r="FN20" s="81"/>
-      <c r="FO20" s="81"/>
-      <c r="FP20" s="81"/>
-      <c r="FQ20" s="81"/>
-      <c r="FR20" s="81"/>
-      <c r="FS20" s="81"/>
-      <c r="FT20" s="81"/>
-      <c r="FU20" s="81"/>
-      <c r="FV20" s="81"/>
-      <c r="FW20" s="81"/>
-      <c r="FX20" s="81"/>
-      <c r="FY20" s="81"/>
-      <c r="FZ20" s="81"/>
-      <c r="GA20" s="81"/>
-      <c r="GB20" s="81"/>
-      <c r="GC20" s="81"/>
-      <c r="GD20" s="81"/>
-      <c r="GE20" s="81"/>
-      <c r="GF20" s="81"/>
-      <c r="GG20" s="81"/>
-      <c r="GH20" s="81"/>
-      <c r="GI20" s="81"/>
-      <c r="GJ20" s="81"/>
-      <c r="GK20" s="81"/>
-      <c r="GL20" s="81"/>
-      <c r="GM20" s="81"/>
-      <c r="GN20" s="81"/>
-      <c r="GO20" s="81"/>
-      <c r="GP20" s="81"/>
-      <c r="GQ20" s="81"/>
-      <c r="GR20" s="81"/>
-      <c r="GS20" s="81"/>
-      <c r="GT20" s="81"/>
-      <c r="GU20" s="81"/>
-      <c r="GV20" s="81"/>
-      <c r="GW20" s="81"/>
-      <c r="GX20" s="81"/>
-      <c r="GY20" s="81"/>
-      <c r="GZ20" s="81"/>
-      <c r="HA20" s="81"/>
-      <c r="HB20" s="81"/>
-      <c r="HC20" s="81"/>
-      <c r="HD20" s="81"/>
-      <c r="HE20" s="81"/>
-      <c r="HF20" s="81"/>
-      <c r="HG20" s="81"/>
-      <c r="HH20" s="81"/>
-      <c r="HI20" s="81"/>
-      <c r="HJ20" s="81"/>
-      <c r="HK20" s="81"/>
-      <c r="HL20" s="81"/>
-      <c r="HM20" s="81"/>
-      <c r="HN20" s="81"/>
-      <c r="HO20" s="81"/>
-      <c r="HP20" s="81"/>
-      <c r="HQ20" s="81"/>
-      <c r="HR20" s="81"/>
-      <c r="HS20" s="81"/>
-      <c r="HT20" s="81"/>
-      <c r="HU20" s="81"/>
-      <c r="HV20" s="81"/>
-      <c r="HW20" s="81"/>
-      <c r="HX20" s="81"/>
-      <c r="HY20" s="81"/>
-      <c r="HZ20" s="81"/>
-      <c r="IA20" s="81"/>
-      <c r="IB20" s="81"/>
-      <c r="IC20" s="81"/>
-      <c r="ID20" s="81"/>
-      <c r="IE20" s="81"/>
-      <c r="IF20" s="81"/>
-      <c r="IG20" s="81"/>
-      <c r="IH20" s="81"/>
-      <c r="II20" s="81"/>
-      <c r="IJ20" s="81"/>
-      <c r="IK20" s="81"/>
-      <c r="IL20" s="81"/>
-      <c r="IM20" s="81"/>
-      <c r="IN20" s="81"/>
-      <c r="IO20" s="81"/>
-      <c r="IP20" s="81"/>
-      <c r="IQ20" s="81"/>
-      <c r="IR20" s="81"/>
-      <c r="IS20" s="81"/>
-      <c r="IT20" s="81"/>
-      <c r="IU20" s="81"/>
-      <c r="IV20" s="81"/>
-      <c r="IW20" s="81"/>
-      <c r="IX20" s="81"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="80"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="80"/>
+      <c r="AN20" s="80"/>
+      <c r="AO20" s="80"/>
+      <c r="AP20" s="80"/>
+      <c r="AQ20" s="80"/>
+      <c r="AR20" s="80"/>
+      <c r="AS20" s="80"/>
+      <c r="AT20" s="80"/>
+      <c r="AU20" s="80"/>
+      <c r="AV20" s="80"/>
+      <c r="AW20" s="80"/>
+      <c r="AX20" s="80"/>
+      <c r="AY20" s="80"/>
+      <c r="AZ20" s="80"/>
+      <c r="BA20" s="80"/>
+      <c r="BB20" s="80"/>
+      <c r="BC20" s="80"/>
+      <c r="BD20" s="80"/>
+      <c r="BE20" s="80"/>
+      <c r="BF20" s="80"/>
+      <c r="BG20" s="80"/>
+      <c r="BH20" s="80"/>
+      <c r="BI20" s="80"/>
+      <c r="BJ20" s="80"/>
+      <c r="BK20" s="80"/>
+      <c r="BL20" s="80"/>
+      <c r="BM20" s="80"/>
+      <c r="BN20" s="80"/>
+      <c r="BO20" s="80"/>
+      <c r="BP20" s="80"/>
+      <c r="BQ20" s="80"/>
+      <c r="BR20" s="80"/>
+      <c r="BS20" s="80"/>
+      <c r="BT20" s="80"/>
+      <c r="BU20" s="80"/>
+      <c r="BV20" s="80"/>
+      <c r="BW20" s="80"/>
+      <c r="BX20" s="80"/>
+      <c r="BY20" s="80"/>
+      <c r="BZ20" s="80"/>
+      <c r="CA20" s="80"/>
+      <c r="CB20" s="80"/>
+      <c r="CC20" s="80"/>
+      <c r="CD20" s="80"/>
+      <c r="CE20" s="80"/>
+      <c r="CF20" s="80"/>
+      <c r="CG20" s="80"/>
+      <c r="CH20" s="80"/>
+      <c r="CI20" s="80"/>
+      <c r="CJ20" s="80"/>
+      <c r="CK20" s="80"/>
+      <c r="CL20" s="80"/>
+      <c r="CM20" s="80"/>
+      <c r="CN20" s="80"/>
+      <c r="CO20" s="80"/>
+      <c r="CP20" s="80"/>
+      <c r="CQ20" s="80"/>
+      <c r="CR20" s="80"/>
+      <c r="CS20" s="80"/>
+      <c r="CT20" s="80"/>
+      <c r="CU20" s="80"/>
+      <c r="CV20" s="80"/>
+      <c r="CW20" s="80"/>
+      <c r="CX20" s="80"/>
+      <c r="CY20" s="80"/>
+      <c r="CZ20" s="80"/>
+      <c r="DA20" s="80"/>
+      <c r="DB20" s="80"/>
+      <c r="DC20" s="80"/>
+      <c r="DD20" s="80"/>
+      <c r="DE20" s="80"/>
+      <c r="DF20" s="80"/>
+      <c r="DG20" s="80"/>
+      <c r="DH20" s="80"/>
+      <c r="DI20" s="80"/>
+      <c r="DJ20" s="80"/>
+      <c r="DK20" s="80"/>
+      <c r="DL20" s="80"/>
+      <c r="DM20" s="80"/>
+      <c r="DN20" s="80"/>
+      <c r="DO20" s="80"/>
+      <c r="DP20" s="80"/>
+      <c r="DQ20" s="80"/>
+      <c r="DR20" s="80"/>
+      <c r="DS20" s="80"/>
+      <c r="DT20" s="80"/>
+      <c r="DU20" s="80"/>
+      <c r="DV20" s="80"/>
+      <c r="DW20" s="80"/>
+      <c r="DX20" s="80"/>
+      <c r="DY20" s="80"/>
+      <c r="DZ20" s="80"/>
+      <c r="EA20" s="80"/>
+      <c r="EB20" s="80"/>
+      <c r="EC20" s="80"/>
+      <c r="ED20" s="80"/>
+      <c r="EE20" s="80"/>
+      <c r="EF20" s="80"/>
+      <c r="EG20" s="80"/>
+      <c r="EH20" s="80"/>
+      <c r="EI20" s="80"/>
+      <c r="EJ20" s="80"/>
+      <c r="EK20" s="80"/>
+      <c r="EL20" s="80"/>
+      <c r="EM20" s="80"/>
+      <c r="EN20" s="80"/>
+      <c r="EO20" s="80"/>
+      <c r="EP20" s="80"/>
+      <c r="EQ20" s="80"/>
+      <c r="ER20" s="80"/>
+      <c r="ES20" s="80"/>
+      <c r="ET20" s="80"/>
+      <c r="EU20" s="80"/>
+      <c r="EV20" s="80"/>
+      <c r="EW20" s="80"/>
+      <c r="EX20" s="80"/>
+      <c r="EY20" s="80"/>
+      <c r="EZ20" s="80"/>
+      <c r="FA20" s="80"/>
+      <c r="FB20" s="80"/>
+      <c r="FC20" s="80"/>
+      <c r="FD20" s="80"/>
+      <c r="FE20" s="80"/>
+      <c r="FF20" s="80"/>
+      <c r="FG20" s="80"/>
+      <c r="FH20" s="80"/>
+      <c r="FI20" s="80"/>
+      <c r="FJ20" s="80"/>
+      <c r="FK20" s="80"/>
+      <c r="FL20" s="80"/>
+      <c r="FM20" s="80"/>
+      <c r="FN20" s="80"/>
+      <c r="FO20" s="80"/>
+      <c r="FP20" s="80"/>
+      <c r="FQ20" s="80"/>
+      <c r="FR20" s="80"/>
+      <c r="FS20" s="80"/>
+      <c r="FT20" s="80"/>
+      <c r="FU20" s="80"/>
+      <c r="FV20" s="80"/>
+      <c r="FW20" s="80"/>
+      <c r="FX20" s="80"/>
+      <c r="FY20" s="80"/>
+      <c r="FZ20" s="80"/>
+      <c r="GA20" s="80"/>
+      <c r="GB20" s="80"/>
+      <c r="GC20" s="80"/>
+      <c r="GD20" s="80"/>
+      <c r="GE20" s="80"/>
+      <c r="GF20" s="80"/>
+      <c r="GG20" s="80"/>
+      <c r="GH20" s="80"/>
+      <c r="GI20" s="80"/>
+      <c r="GJ20" s="80"/>
+      <c r="GK20" s="80"/>
+      <c r="GL20" s="80"/>
+      <c r="GM20" s="80"/>
+      <c r="GN20" s="80"/>
+      <c r="GO20" s="80"/>
+      <c r="GP20" s="80"/>
+      <c r="GQ20" s="80"/>
+      <c r="GR20" s="80"/>
+      <c r="GS20" s="80"/>
+      <c r="GT20" s="80"/>
+      <c r="GU20" s="80"/>
+      <c r="GV20" s="80"/>
+      <c r="GW20" s="80"/>
+      <c r="GX20" s="80"/>
+      <c r="GY20" s="80"/>
+      <c r="GZ20" s="80"/>
+      <c r="HA20" s="80"/>
+      <c r="HB20" s="80"/>
+      <c r="HC20" s="80"/>
+      <c r="HD20" s="80"/>
+      <c r="HE20" s="80"/>
+      <c r="HF20" s="80"/>
+      <c r="HG20" s="80"/>
+      <c r="HH20" s="80"/>
+      <c r="HI20" s="80"/>
+      <c r="HJ20" s="80"/>
+      <c r="HK20" s="80"/>
+      <c r="HL20" s="80"/>
+      <c r="HM20" s="80"/>
+      <c r="HN20" s="80"/>
+      <c r="HO20" s="80"/>
+      <c r="HP20" s="80"/>
+      <c r="HQ20" s="80"/>
+      <c r="HR20" s="80"/>
+      <c r="HS20" s="80"/>
+      <c r="HT20" s="80"/>
+      <c r="HU20" s="80"/>
+      <c r="HV20" s="80"/>
+      <c r="HW20" s="80"/>
+      <c r="HX20" s="80"/>
+      <c r="HY20" s="80"/>
+      <c r="HZ20" s="80"/>
+      <c r="IA20" s="80"/>
+      <c r="IB20" s="80"/>
+      <c r="IC20" s="80"/>
+      <c r="ID20" s="80"/>
+      <c r="IE20" s="80"/>
+      <c r="IF20" s="80"/>
+      <c r="IG20" s="80"/>
+      <c r="IH20" s="80"/>
+      <c r="II20" s="80"/>
+      <c r="IJ20" s="80"/>
+      <c r="IK20" s="80"/>
+      <c r="IL20" s="80"/>
+      <c r="IM20" s="80"/>
+      <c r="IN20" s="80"/>
+      <c r="IO20" s="80"/>
+      <c r="IP20" s="80"/>
+      <c r="IQ20" s="80"/>
+      <c r="IR20" s="80"/>
+      <c r="IS20" s="80"/>
+      <c r="IT20" s="80"/>
+      <c r="IU20" s="80"/>
+      <c r="IV20" s="80"/>
+      <c r="IW20" s="80"/>
+      <c r="IX20" s="80"/>
     </row>
     <row r="21" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A21" s="109"/>
+      <c r="A21" s="112"/>
       <c r="B21" s="58" t="s">
         <v>70</v>
       </c>
@@ -7778,263 +7769,263 @@
       </c>
       <c r="E21" s="59"/>
       <c r="F21" s="59"/>
-      <c r="G21" s="65"/>
+      <c r="G21" s="64"/>
       <c r="H21" s="58" t="s">
         <v>72</v>
       </c>
       <c r="I21" s="59"/>
       <c r="J21" s="58"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="81"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="81"/>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="81"/>
-      <c r="AH21" s="81"/>
-      <c r="AI21" s="81"/>
-      <c r="AJ21" s="81"/>
-      <c r="AK21" s="81"/>
-      <c r="AL21" s="81"/>
-      <c r="AM21" s="81"/>
-      <c r="AN21" s="81"/>
-      <c r="AO21" s="81"/>
-      <c r="AP21" s="81"/>
-      <c r="AQ21" s="81"/>
-      <c r="AR21" s="81"/>
-      <c r="AS21" s="81"/>
-      <c r="AT21" s="81"/>
-      <c r="AU21" s="81"/>
-      <c r="AV21" s="81"/>
-      <c r="AW21" s="81"/>
-      <c r="AX21" s="81"/>
-      <c r="AY21" s="81"/>
-      <c r="AZ21" s="81"/>
-      <c r="BA21" s="81"/>
-      <c r="BB21" s="81"/>
-      <c r="BC21" s="81"/>
-      <c r="BD21" s="81"/>
-      <c r="BE21" s="81"/>
-      <c r="BF21" s="81"/>
-      <c r="BG21" s="81"/>
-      <c r="BH21" s="81"/>
-      <c r="BI21" s="81"/>
-      <c r="BJ21" s="81"/>
-      <c r="BK21" s="81"/>
-      <c r="BL21" s="81"/>
-      <c r="BM21" s="81"/>
-      <c r="BN21" s="81"/>
-      <c r="BO21" s="81"/>
-      <c r="BP21" s="81"/>
-      <c r="BQ21" s="81"/>
-      <c r="BR21" s="81"/>
-      <c r="BS21" s="81"/>
-      <c r="BT21" s="81"/>
-      <c r="BU21" s="81"/>
-      <c r="BV21" s="81"/>
-      <c r="BW21" s="81"/>
-      <c r="BX21" s="81"/>
-      <c r="BY21" s="81"/>
-      <c r="BZ21" s="81"/>
-      <c r="CA21" s="81"/>
-      <c r="CB21" s="81"/>
-      <c r="CC21" s="81"/>
-      <c r="CD21" s="81"/>
-      <c r="CE21" s="81"/>
-      <c r="CF21" s="81"/>
-      <c r="CG21" s="81"/>
-      <c r="CH21" s="81"/>
-      <c r="CI21" s="81"/>
-      <c r="CJ21" s="81"/>
-      <c r="CK21" s="81"/>
-      <c r="CL21" s="81"/>
-      <c r="CM21" s="81"/>
-      <c r="CN21" s="81"/>
-      <c r="CO21" s="81"/>
-      <c r="CP21" s="81"/>
-      <c r="CQ21" s="81"/>
-      <c r="CR21" s="81"/>
-      <c r="CS21" s="81"/>
-      <c r="CT21" s="81"/>
-      <c r="CU21" s="81"/>
-      <c r="CV21" s="81"/>
-      <c r="CW21" s="81"/>
-      <c r="CX21" s="81"/>
-      <c r="CY21" s="81"/>
-      <c r="CZ21" s="81"/>
-      <c r="DA21" s="81"/>
-      <c r="DB21" s="81"/>
-      <c r="DC21" s="81"/>
-      <c r="DD21" s="81"/>
-      <c r="DE21" s="81"/>
-      <c r="DF21" s="81"/>
-      <c r="DG21" s="81"/>
-      <c r="DH21" s="81"/>
-      <c r="DI21" s="81"/>
-      <c r="DJ21" s="81"/>
-      <c r="DK21" s="81"/>
-      <c r="DL21" s="81"/>
-      <c r="DM21" s="81"/>
-      <c r="DN21" s="81"/>
-      <c r="DO21" s="81"/>
-      <c r="DP21" s="81"/>
-      <c r="DQ21" s="81"/>
-      <c r="DR21" s="81"/>
-      <c r="DS21" s="81"/>
-      <c r="DT21" s="81"/>
-      <c r="DU21" s="81"/>
-      <c r="DV21" s="81"/>
-      <c r="DW21" s="81"/>
-      <c r="DX21" s="81"/>
-      <c r="DY21" s="81"/>
-      <c r="DZ21" s="81"/>
-      <c r="EA21" s="81"/>
-      <c r="EB21" s="81"/>
-      <c r="EC21" s="81"/>
-      <c r="ED21" s="81"/>
-      <c r="EE21" s="81"/>
-      <c r="EF21" s="81"/>
-      <c r="EG21" s="81"/>
-      <c r="EH21" s="81"/>
-      <c r="EI21" s="81"/>
-      <c r="EJ21" s="81"/>
-      <c r="EK21" s="81"/>
-      <c r="EL21" s="81"/>
-      <c r="EM21" s="81"/>
-      <c r="EN21" s="81"/>
-      <c r="EO21" s="81"/>
-      <c r="EP21" s="81"/>
-      <c r="EQ21" s="81"/>
-      <c r="ER21" s="81"/>
-      <c r="ES21" s="81"/>
-      <c r="ET21" s="81"/>
-      <c r="EU21" s="81"/>
-      <c r="EV21" s="81"/>
-      <c r="EW21" s="81"/>
-      <c r="EX21" s="81"/>
-      <c r="EY21" s="81"/>
-      <c r="EZ21" s="81"/>
-      <c r="FA21" s="81"/>
-      <c r="FB21" s="81"/>
-      <c r="FC21" s="81"/>
-      <c r="FD21" s="81"/>
-      <c r="FE21" s="81"/>
-      <c r="FF21" s="81"/>
-      <c r="FG21" s="81"/>
-      <c r="FH21" s="81"/>
-      <c r="FI21" s="81"/>
-      <c r="FJ21" s="81"/>
-      <c r="FK21" s="81"/>
-      <c r="FL21" s="81"/>
-      <c r="FM21" s="81"/>
-      <c r="FN21" s="81"/>
-      <c r="FO21" s="81"/>
-      <c r="FP21" s="81"/>
-      <c r="FQ21" s="81"/>
-      <c r="FR21" s="81"/>
-      <c r="FS21" s="81"/>
-      <c r="FT21" s="81"/>
-      <c r="FU21" s="81"/>
-      <c r="FV21" s="81"/>
-      <c r="FW21" s="81"/>
-      <c r="FX21" s="81"/>
-      <c r="FY21" s="81"/>
-      <c r="FZ21" s="81"/>
-      <c r="GA21" s="81"/>
-      <c r="GB21" s="81"/>
-      <c r="GC21" s="81"/>
-      <c r="GD21" s="81"/>
-      <c r="GE21" s="81"/>
-      <c r="GF21" s="81"/>
-      <c r="GG21" s="81"/>
-      <c r="GH21" s="81"/>
-      <c r="GI21" s="81"/>
-      <c r="GJ21" s="81"/>
-      <c r="GK21" s="81"/>
-      <c r="GL21" s="81"/>
-      <c r="GM21" s="81"/>
-      <c r="GN21" s="81"/>
-      <c r="GO21" s="81"/>
-      <c r="GP21" s="81"/>
-      <c r="GQ21" s="81"/>
-      <c r="GR21" s="81"/>
-      <c r="GS21" s="81"/>
-      <c r="GT21" s="81"/>
-      <c r="GU21" s="81"/>
-      <c r="GV21" s="81"/>
-      <c r="GW21" s="81"/>
-      <c r="GX21" s="81"/>
-      <c r="GY21" s="81"/>
-      <c r="GZ21" s="81"/>
-      <c r="HA21" s="81"/>
-      <c r="HB21" s="81"/>
-      <c r="HC21" s="81"/>
-      <c r="HD21" s="81"/>
-      <c r="HE21" s="81"/>
-      <c r="HF21" s="81"/>
-      <c r="HG21" s="81"/>
-      <c r="HH21" s="81"/>
-      <c r="HI21" s="81"/>
-      <c r="HJ21" s="81"/>
-      <c r="HK21" s="81"/>
-      <c r="HL21" s="81"/>
-      <c r="HM21" s="81"/>
-      <c r="HN21" s="81"/>
-      <c r="HO21" s="81"/>
-      <c r="HP21" s="81"/>
-      <c r="HQ21" s="81"/>
-      <c r="HR21" s="81"/>
-      <c r="HS21" s="81"/>
-      <c r="HT21" s="81"/>
-      <c r="HU21" s="81"/>
-      <c r="HV21" s="81"/>
-      <c r="HW21" s="81"/>
-      <c r="HX21" s="81"/>
-      <c r="HY21" s="81"/>
-      <c r="HZ21" s="81"/>
-      <c r="IA21" s="81"/>
-      <c r="IB21" s="81"/>
-      <c r="IC21" s="81"/>
-      <c r="ID21" s="81"/>
-      <c r="IE21" s="81"/>
-      <c r="IF21" s="81"/>
-      <c r="IG21" s="81"/>
-      <c r="IH21" s="81"/>
-      <c r="II21" s="81"/>
-      <c r="IJ21" s="81"/>
-      <c r="IK21" s="81"/>
-      <c r="IL21" s="81"/>
-      <c r="IM21" s="81"/>
-      <c r="IN21" s="81"/>
-      <c r="IO21" s="81"/>
-      <c r="IP21" s="81"/>
-      <c r="IQ21" s="81"/>
-      <c r="IR21" s="81"/>
-      <c r="IS21" s="81"/>
-      <c r="IT21" s="81"/>
-      <c r="IU21" s="81"/>
-      <c r="IV21" s="81"/>
-      <c r="IW21" s="81"/>
-      <c r="IX21" s="81"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="80"/>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="80"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="80"/>
+      <c r="AL21" s="80"/>
+      <c r="AM21" s="80"/>
+      <c r="AN21" s="80"/>
+      <c r="AO21" s="80"/>
+      <c r="AP21" s="80"/>
+      <c r="AQ21" s="80"/>
+      <c r="AR21" s="80"/>
+      <c r="AS21" s="80"/>
+      <c r="AT21" s="80"/>
+      <c r="AU21" s="80"/>
+      <c r="AV21" s="80"/>
+      <c r="AW21" s="80"/>
+      <c r="AX21" s="80"/>
+      <c r="AY21" s="80"/>
+      <c r="AZ21" s="80"/>
+      <c r="BA21" s="80"/>
+      <c r="BB21" s="80"/>
+      <c r="BC21" s="80"/>
+      <c r="BD21" s="80"/>
+      <c r="BE21" s="80"/>
+      <c r="BF21" s="80"/>
+      <c r="BG21" s="80"/>
+      <c r="BH21" s="80"/>
+      <c r="BI21" s="80"/>
+      <c r="BJ21" s="80"/>
+      <c r="BK21" s="80"/>
+      <c r="BL21" s="80"/>
+      <c r="BM21" s="80"/>
+      <c r="BN21" s="80"/>
+      <c r="BO21" s="80"/>
+      <c r="BP21" s="80"/>
+      <c r="BQ21" s="80"/>
+      <c r="BR21" s="80"/>
+      <c r="BS21" s="80"/>
+      <c r="BT21" s="80"/>
+      <c r="BU21" s="80"/>
+      <c r="BV21" s="80"/>
+      <c r="BW21" s="80"/>
+      <c r="BX21" s="80"/>
+      <c r="BY21" s="80"/>
+      <c r="BZ21" s="80"/>
+      <c r="CA21" s="80"/>
+      <c r="CB21" s="80"/>
+      <c r="CC21" s="80"/>
+      <c r="CD21" s="80"/>
+      <c r="CE21" s="80"/>
+      <c r="CF21" s="80"/>
+      <c r="CG21" s="80"/>
+      <c r="CH21" s="80"/>
+      <c r="CI21" s="80"/>
+      <c r="CJ21" s="80"/>
+      <c r="CK21" s="80"/>
+      <c r="CL21" s="80"/>
+      <c r="CM21" s="80"/>
+      <c r="CN21" s="80"/>
+      <c r="CO21" s="80"/>
+      <c r="CP21" s="80"/>
+      <c r="CQ21" s="80"/>
+      <c r="CR21" s="80"/>
+      <c r="CS21" s="80"/>
+      <c r="CT21" s="80"/>
+      <c r="CU21" s="80"/>
+      <c r="CV21" s="80"/>
+      <c r="CW21" s="80"/>
+      <c r="CX21" s="80"/>
+      <c r="CY21" s="80"/>
+      <c r="CZ21" s="80"/>
+      <c r="DA21" s="80"/>
+      <c r="DB21" s="80"/>
+      <c r="DC21" s="80"/>
+      <c r="DD21" s="80"/>
+      <c r="DE21" s="80"/>
+      <c r="DF21" s="80"/>
+      <c r="DG21" s="80"/>
+      <c r="DH21" s="80"/>
+      <c r="DI21" s="80"/>
+      <c r="DJ21" s="80"/>
+      <c r="DK21" s="80"/>
+      <c r="DL21" s="80"/>
+      <c r="DM21" s="80"/>
+      <c r="DN21" s="80"/>
+      <c r="DO21" s="80"/>
+      <c r="DP21" s="80"/>
+      <c r="DQ21" s="80"/>
+      <c r="DR21" s="80"/>
+      <c r="DS21" s="80"/>
+      <c r="DT21" s="80"/>
+      <c r="DU21" s="80"/>
+      <c r="DV21" s="80"/>
+      <c r="DW21" s="80"/>
+      <c r="DX21" s="80"/>
+      <c r="DY21" s="80"/>
+      <c r="DZ21" s="80"/>
+      <c r="EA21" s="80"/>
+      <c r="EB21" s="80"/>
+      <c r="EC21" s="80"/>
+      <c r="ED21" s="80"/>
+      <c r="EE21" s="80"/>
+      <c r="EF21" s="80"/>
+      <c r="EG21" s="80"/>
+      <c r="EH21" s="80"/>
+      <c r="EI21" s="80"/>
+      <c r="EJ21" s="80"/>
+      <c r="EK21" s="80"/>
+      <c r="EL21" s="80"/>
+      <c r="EM21" s="80"/>
+      <c r="EN21" s="80"/>
+      <c r="EO21" s="80"/>
+      <c r="EP21" s="80"/>
+      <c r="EQ21" s="80"/>
+      <c r="ER21" s="80"/>
+      <c r="ES21" s="80"/>
+      <c r="ET21" s="80"/>
+      <c r="EU21" s="80"/>
+      <c r="EV21" s="80"/>
+      <c r="EW21" s="80"/>
+      <c r="EX21" s="80"/>
+      <c r="EY21" s="80"/>
+      <c r="EZ21" s="80"/>
+      <c r="FA21" s="80"/>
+      <c r="FB21" s="80"/>
+      <c r="FC21" s="80"/>
+      <c r="FD21" s="80"/>
+      <c r="FE21" s="80"/>
+      <c r="FF21" s="80"/>
+      <c r="FG21" s="80"/>
+      <c r="FH21" s="80"/>
+      <c r="FI21" s="80"/>
+      <c r="FJ21" s="80"/>
+      <c r="FK21" s="80"/>
+      <c r="FL21" s="80"/>
+      <c r="FM21" s="80"/>
+      <c r="FN21" s="80"/>
+      <c r="FO21" s="80"/>
+      <c r="FP21" s="80"/>
+      <c r="FQ21" s="80"/>
+      <c r="FR21" s="80"/>
+      <c r="FS21" s="80"/>
+      <c r="FT21" s="80"/>
+      <c r="FU21" s="80"/>
+      <c r="FV21" s="80"/>
+      <c r="FW21" s="80"/>
+      <c r="FX21" s="80"/>
+      <c r="FY21" s="80"/>
+      <c r="FZ21" s="80"/>
+      <c r="GA21" s="80"/>
+      <c r="GB21" s="80"/>
+      <c r="GC21" s="80"/>
+      <c r="GD21" s="80"/>
+      <c r="GE21" s="80"/>
+      <c r="GF21" s="80"/>
+      <c r="GG21" s="80"/>
+      <c r="GH21" s="80"/>
+      <c r="GI21" s="80"/>
+      <c r="GJ21" s="80"/>
+      <c r="GK21" s="80"/>
+      <c r="GL21" s="80"/>
+      <c r="GM21" s="80"/>
+      <c r="GN21" s="80"/>
+      <c r="GO21" s="80"/>
+      <c r="GP21" s="80"/>
+      <c r="GQ21" s="80"/>
+      <c r="GR21" s="80"/>
+      <c r="GS21" s="80"/>
+      <c r="GT21" s="80"/>
+      <c r="GU21" s="80"/>
+      <c r="GV21" s="80"/>
+      <c r="GW21" s="80"/>
+      <c r="GX21" s="80"/>
+      <c r="GY21" s="80"/>
+      <c r="GZ21" s="80"/>
+      <c r="HA21" s="80"/>
+      <c r="HB21" s="80"/>
+      <c r="HC21" s="80"/>
+      <c r="HD21" s="80"/>
+      <c r="HE21" s="80"/>
+      <c r="HF21" s="80"/>
+      <c r="HG21" s="80"/>
+      <c r="HH21" s="80"/>
+      <c r="HI21" s="80"/>
+      <c r="HJ21" s="80"/>
+      <c r="HK21" s="80"/>
+      <c r="HL21" s="80"/>
+      <c r="HM21" s="80"/>
+      <c r="HN21" s="80"/>
+      <c r="HO21" s="80"/>
+      <c r="HP21" s="80"/>
+      <c r="HQ21" s="80"/>
+      <c r="HR21" s="80"/>
+      <c r="HS21" s="80"/>
+      <c r="HT21" s="80"/>
+      <c r="HU21" s="80"/>
+      <c r="HV21" s="80"/>
+      <c r="HW21" s="80"/>
+      <c r="HX21" s="80"/>
+      <c r="HY21" s="80"/>
+      <c r="HZ21" s="80"/>
+      <c r="IA21" s="80"/>
+      <c r="IB21" s="80"/>
+      <c r="IC21" s="80"/>
+      <c r="ID21" s="80"/>
+      <c r="IE21" s="80"/>
+      <c r="IF21" s="80"/>
+      <c r="IG21" s="80"/>
+      <c r="IH21" s="80"/>
+      <c r="II21" s="80"/>
+      <c r="IJ21" s="80"/>
+      <c r="IK21" s="80"/>
+      <c r="IL21" s="80"/>
+      <c r="IM21" s="80"/>
+      <c r="IN21" s="80"/>
+      <c r="IO21" s="80"/>
+      <c r="IP21" s="80"/>
+      <c r="IQ21" s="80"/>
+      <c r="IR21" s="80"/>
+      <c r="IS21" s="80"/>
+      <c r="IT21" s="80"/>
+      <c r="IU21" s="80"/>
+      <c r="IV21" s="80"/>
+      <c r="IW21" s="80"/>
+      <c r="IX21" s="80"/>
     </row>
     <row r="22" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A22" s="110"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="58" t="s">
         <v>73</v>
       </c>
@@ -8046,260 +8037,260 @@
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="59"/>
-      <c r="G22" s="65"/>
+      <c r="G22" s="64"/>
       <c r="H22" s="58" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="59"/>
       <c r="J22" s="58"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="81"/>
-      <c r="AH22" s="81"/>
-      <c r="AI22" s="81"/>
-      <c r="AJ22" s="81"/>
-      <c r="AK22" s="81"/>
-      <c r="AL22" s="81"/>
-      <c r="AM22" s="81"/>
-      <c r="AN22" s="81"/>
-      <c r="AO22" s="81"/>
-      <c r="AP22" s="81"/>
-      <c r="AQ22" s="81"/>
-      <c r="AR22" s="81"/>
-      <c r="AS22" s="81"/>
-      <c r="AT22" s="81"/>
-      <c r="AU22" s="81"/>
-      <c r="AV22" s="81"/>
-      <c r="AW22" s="81"/>
-      <c r="AX22" s="81"/>
-      <c r="AY22" s="81"/>
-      <c r="AZ22" s="81"/>
-      <c r="BA22" s="81"/>
-      <c r="BB22" s="81"/>
-      <c r="BC22" s="81"/>
-      <c r="BD22" s="81"/>
-      <c r="BE22" s="81"/>
-      <c r="BF22" s="81"/>
-      <c r="BG22" s="81"/>
-      <c r="BH22" s="81"/>
-      <c r="BI22" s="81"/>
-      <c r="BJ22" s="81"/>
-      <c r="BK22" s="81"/>
-      <c r="BL22" s="81"/>
-      <c r="BM22" s="81"/>
-      <c r="BN22" s="81"/>
-      <c r="BO22" s="81"/>
-      <c r="BP22" s="81"/>
-      <c r="BQ22" s="81"/>
-      <c r="BR22" s="81"/>
-      <c r="BS22" s="81"/>
-      <c r="BT22" s="81"/>
-      <c r="BU22" s="81"/>
-      <c r="BV22" s="81"/>
-      <c r="BW22" s="81"/>
-      <c r="BX22" s="81"/>
-      <c r="BY22" s="81"/>
-      <c r="BZ22" s="81"/>
-      <c r="CA22" s="81"/>
-      <c r="CB22" s="81"/>
-      <c r="CC22" s="81"/>
-      <c r="CD22" s="81"/>
-      <c r="CE22" s="81"/>
-      <c r="CF22" s="81"/>
-      <c r="CG22" s="81"/>
-      <c r="CH22" s="81"/>
-      <c r="CI22" s="81"/>
-      <c r="CJ22" s="81"/>
-      <c r="CK22" s="81"/>
-      <c r="CL22" s="81"/>
-      <c r="CM22" s="81"/>
-      <c r="CN22" s="81"/>
-      <c r="CO22" s="81"/>
-      <c r="CP22" s="81"/>
-      <c r="CQ22" s="81"/>
-      <c r="CR22" s="81"/>
-      <c r="CS22" s="81"/>
-      <c r="CT22" s="81"/>
-      <c r="CU22" s="81"/>
-      <c r="CV22" s="81"/>
-      <c r="CW22" s="81"/>
-      <c r="CX22" s="81"/>
-      <c r="CY22" s="81"/>
-      <c r="CZ22" s="81"/>
-      <c r="DA22" s="81"/>
-      <c r="DB22" s="81"/>
-      <c r="DC22" s="81"/>
-      <c r="DD22" s="81"/>
-      <c r="DE22" s="81"/>
-      <c r="DF22" s="81"/>
-      <c r="DG22" s="81"/>
-      <c r="DH22" s="81"/>
-      <c r="DI22" s="81"/>
-      <c r="DJ22" s="81"/>
-      <c r="DK22" s="81"/>
-      <c r="DL22" s="81"/>
-      <c r="DM22" s="81"/>
-      <c r="DN22" s="81"/>
-      <c r="DO22" s="81"/>
-      <c r="DP22" s="81"/>
-      <c r="DQ22" s="81"/>
-      <c r="DR22" s="81"/>
-      <c r="DS22" s="81"/>
-      <c r="DT22" s="81"/>
-      <c r="DU22" s="81"/>
-      <c r="DV22" s="81"/>
-      <c r="DW22" s="81"/>
-      <c r="DX22" s="81"/>
-      <c r="DY22" s="81"/>
-      <c r="DZ22" s="81"/>
-      <c r="EA22" s="81"/>
-      <c r="EB22" s="81"/>
-      <c r="EC22" s="81"/>
-      <c r="ED22" s="81"/>
-      <c r="EE22" s="81"/>
-      <c r="EF22" s="81"/>
-      <c r="EG22" s="81"/>
-      <c r="EH22" s="81"/>
-      <c r="EI22" s="81"/>
-      <c r="EJ22" s="81"/>
-      <c r="EK22" s="81"/>
-      <c r="EL22" s="81"/>
-      <c r="EM22" s="81"/>
-      <c r="EN22" s="81"/>
-      <c r="EO22" s="81"/>
-      <c r="EP22" s="81"/>
-      <c r="EQ22" s="81"/>
-      <c r="ER22" s="81"/>
-      <c r="ES22" s="81"/>
-      <c r="ET22" s="81"/>
-      <c r="EU22" s="81"/>
-      <c r="EV22" s="81"/>
-      <c r="EW22" s="81"/>
-      <c r="EX22" s="81"/>
-      <c r="EY22" s="81"/>
-      <c r="EZ22" s="81"/>
-      <c r="FA22" s="81"/>
-      <c r="FB22" s="81"/>
-      <c r="FC22" s="81"/>
-      <c r="FD22" s="81"/>
-      <c r="FE22" s="81"/>
-      <c r="FF22" s="81"/>
-      <c r="FG22" s="81"/>
-      <c r="FH22" s="81"/>
-      <c r="FI22" s="81"/>
-      <c r="FJ22" s="81"/>
-      <c r="FK22" s="81"/>
-      <c r="FL22" s="81"/>
-      <c r="FM22" s="81"/>
-      <c r="FN22" s="81"/>
-      <c r="FO22" s="81"/>
-      <c r="FP22" s="81"/>
-      <c r="FQ22" s="81"/>
-      <c r="FR22" s="81"/>
-      <c r="FS22" s="81"/>
-      <c r="FT22" s="81"/>
-      <c r="FU22" s="81"/>
-      <c r="FV22" s="81"/>
-      <c r="FW22" s="81"/>
-      <c r="FX22" s="81"/>
-      <c r="FY22" s="81"/>
-      <c r="FZ22" s="81"/>
-      <c r="GA22" s="81"/>
-      <c r="GB22" s="81"/>
-      <c r="GC22" s="81"/>
-      <c r="GD22" s="81"/>
-      <c r="GE22" s="81"/>
-      <c r="GF22" s="81"/>
-      <c r="GG22" s="81"/>
-      <c r="GH22" s="81"/>
-      <c r="GI22" s="81"/>
-      <c r="GJ22" s="81"/>
-      <c r="GK22" s="81"/>
-      <c r="GL22" s="81"/>
-      <c r="GM22" s="81"/>
-      <c r="GN22" s="81"/>
-      <c r="GO22" s="81"/>
-      <c r="GP22" s="81"/>
-      <c r="GQ22" s="81"/>
-      <c r="GR22" s="81"/>
-      <c r="GS22" s="81"/>
-      <c r="GT22" s="81"/>
-      <c r="GU22" s="81"/>
-      <c r="GV22" s="81"/>
-      <c r="GW22" s="81"/>
-      <c r="GX22" s="81"/>
-      <c r="GY22" s="81"/>
-      <c r="GZ22" s="81"/>
-      <c r="HA22" s="81"/>
-      <c r="HB22" s="81"/>
-      <c r="HC22" s="81"/>
-      <c r="HD22" s="81"/>
-      <c r="HE22" s="81"/>
-      <c r="HF22" s="81"/>
-      <c r="HG22" s="81"/>
-      <c r="HH22" s="81"/>
-      <c r="HI22" s="81"/>
-      <c r="HJ22" s="81"/>
-      <c r="HK22" s="81"/>
-      <c r="HL22" s="81"/>
-      <c r="HM22" s="81"/>
-      <c r="HN22" s="81"/>
-      <c r="HO22" s="81"/>
-      <c r="HP22" s="81"/>
-      <c r="HQ22" s="81"/>
-      <c r="HR22" s="81"/>
-      <c r="HS22" s="81"/>
-      <c r="HT22" s="81"/>
-      <c r="HU22" s="81"/>
-      <c r="HV22" s="81"/>
-      <c r="HW22" s="81"/>
-      <c r="HX22" s="81"/>
-      <c r="HY22" s="81"/>
-      <c r="HZ22" s="81"/>
-      <c r="IA22" s="81"/>
-      <c r="IB22" s="81"/>
-      <c r="IC22" s="81"/>
-      <c r="ID22" s="81"/>
-      <c r="IE22" s="81"/>
-      <c r="IF22" s="81"/>
-      <c r="IG22" s="81"/>
-      <c r="IH22" s="81"/>
-      <c r="II22" s="81"/>
-      <c r="IJ22" s="81"/>
-      <c r="IK22" s="81"/>
-      <c r="IL22" s="81"/>
-      <c r="IM22" s="81"/>
-      <c r="IN22" s="81"/>
-      <c r="IO22" s="81"/>
-      <c r="IP22" s="81"/>
-      <c r="IQ22" s="81"/>
-      <c r="IR22" s="81"/>
-      <c r="IS22" s="81"/>
-      <c r="IT22" s="81"/>
-      <c r="IU22" s="81"/>
-      <c r="IV22" s="81"/>
-      <c r="IW22" s="81"/>
-      <c r="IX22" s="81"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="80"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="80"/>
+      <c r="AF22" s="80"/>
+      <c r="AG22" s="80"/>
+      <c r="AH22" s="80"/>
+      <c r="AI22" s="80"/>
+      <c r="AJ22" s="80"/>
+      <c r="AK22" s="80"/>
+      <c r="AL22" s="80"/>
+      <c r="AM22" s="80"/>
+      <c r="AN22" s="80"/>
+      <c r="AO22" s="80"/>
+      <c r="AP22" s="80"/>
+      <c r="AQ22" s="80"/>
+      <c r="AR22" s="80"/>
+      <c r="AS22" s="80"/>
+      <c r="AT22" s="80"/>
+      <c r="AU22" s="80"/>
+      <c r="AV22" s="80"/>
+      <c r="AW22" s="80"/>
+      <c r="AX22" s="80"/>
+      <c r="AY22" s="80"/>
+      <c r="AZ22" s="80"/>
+      <c r="BA22" s="80"/>
+      <c r="BB22" s="80"/>
+      <c r="BC22" s="80"/>
+      <c r="BD22" s="80"/>
+      <c r="BE22" s="80"/>
+      <c r="BF22" s="80"/>
+      <c r="BG22" s="80"/>
+      <c r="BH22" s="80"/>
+      <c r="BI22" s="80"/>
+      <c r="BJ22" s="80"/>
+      <c r="BK22" s="80"/>
+      <c r="BL22" s="80"/>
+      <c r="BM22" s="80"/>
+      <c r="BN22" s="80"/>
+      <c r="BO22" s="80"/>
+      <c r="BP22" s="80"/>
+      <c r="BQ22" s="80"/>
+      <c r="BR22" s="80"/>
+      <c r="BS22" s="80"/>
+      <c r="BT22" s="80"/>
+      <c r="BU22" s="80"/>
+      <c r="BV22" s="80"/>
+      <c r="BW22" s="80"/>
+      <c r="BX22" s="80"/>
+      <c r="BY22" s="80"/>
+      <c r="BZ22" s="80"/>
+      <c r="CA22" s="80"/>
+      <c r="CB22" s="80"/>
+      <c r="CC22" s="80"/>
+      <c r="CD22" s="80"/>
+      <c r="CE22" s="80"/>
+      <c r="CF22" s="80"/>
+      <c r="CG22" s="80"/>
+      <c r="CH22" s="80"/>
+      <c r="CI22" s="80"/>
+      <c r="CJ22" s="80"/>
+      <c r="CK22" s="80"/>
+      <c r="CL22" s="80"/>
+      <c r="CM22" s="80"/>
+      <c r="CN22" s="80"/>
+      <c r="CO22" s="80"/>
+      <c r="CP22" s="80"/>
+      <c r="CQ22" s="80"/>
+      <c r="CR22" s="80"/>
+      <c r="CS22" s="80"/>
+      <c r="CT22" s="80"/>
+      <c r="CU22" s="80"/>
+      <c r="CV22" s="80"/>
+      <c r="CW22" s="80"/>
+      <c r="CX22" s="80"/>
+      <c r="CY22" s="80"/>
+      <c r="CZ22" s="80"/>
+      <c r="DA22" s="80"/>
+      <c r="DB22" s="80"/>
+      <c r="DC22" s="80"/>
+      <c r="DD22" s="80"/>
+      <c r="DE22" s="80"/>
+      <c r="DF22" s="80"/>
+      <c r="DG22" s="80"/>
+      <c r="DH22" s="80"/>
+      <c r="DI22" s="80"/>
+      <c r="DJ22" s="80"/>
+      <c r="DK22" s="80"/>
+      <c r="DL22" s="80"/>
+      <c r="DM22" s="80"/>
+      <c r="DN22" s="80"/>
+      <c r="DO22" s="80"/>
+      <c r="DP22" s="80"/>
+      <c r="DQ22" s="80"/>
+      <c r="DR22" s="80"/>
+      <c r="DS22" s="80"/>
+      <c r="DT22" s="80"/>
+      <c r="DU22" s="80"/>
+      <c r="DV22" s="80"/>
+      <c r="DW22" s="80"/>
+      <c r="DX22" s="80"/>
+      <c r="DY22" s="80"/>
+      <c r="DZ22" s="80"/>
+      <c r="EA22" s="80"/>
+      <c r="EB22" s="80"/>
+      <c r="EC22" s="80"/>
+      <c r="ED22" s="80"/>
+      <c r="EE22" s="80"/>
+      <c r="EF22" s="80"/>
+      <c r="EG22" s="80"/>
+      <c r="EH22" s="80"/>
+      <c r="EI22" s="80"/>
+      <c r="EJ22" s="80"/>
+      <c r="EK22" s="80"/>
+      <c r="EL22" s="80"/>
+      <c r="EM22" s="80"/>
+      <c r="EN22" s="80"/>
+      <c r="EO22" s="80"/>
+      <c r="EP22" s="80"/>
+      <c r="EQ22" s="80"/>
+      <c r="ER22" s="80"/>
+      <c r="ES22" s="80"/>
+      <c r="ET22" s="80"/>
+      <c r="EU22" s="80"/>
+      <c r="EV22" s="80"/>
+      <c r="EW22" s="80"/>
+      <c r="EX22" s="80"/>
+      <c r="EY22" s="80"/>
+      <c r="EZ22" s="80"/>
+      <c r="FA22" s="80"/>
+      <c r="FB22" s="80"/>
+      <c r="FC22" s="80"/>
+      <c r="FD22" s="80"/>
+      <c r="FE22" s="80"/>
+      <c r="FF22" s="80"/>
+      <c r="FG22" s="80"/>
+      <c r="FH22" s="80"/>
+      <c r="FI22" s="80"/>
+      <c r="FJ22" s="80"/>
+      <c r="FK22" s="80"/>
+      <c r="FL22" s="80"/>
+      <c r="FM22" s="80"/>
+      <c r="FN22" s="80"/>
+      <c r="FO22" s="80"/>
+      <c r="FP22" s="80"/>
+      <c r="FQ22" s="80"/>
+      <c r="FR22" s="80"/>
+      <c r="FS22" s="80"/>
+      <c r="FT22" s="80"/>
+      <c r="FU22" s="80"/>
+      <c r="FV22" s="80"/>
+      <c r="FW22" s="80"/>
+      <c r="FX22" s="80"/>
+      <c r="FY22" s="80"/>
+      <c r="FZ22" s="80"/>
+      <c r="GA22" s="80"/>
+      <c r="GB22" s="80"/>
+      <c r="GC22" s="80"/>
+      <c r="GD22" s="80"/>
+      <c r="GE22" s="80"/>
+      <c r="GF22" s="80"/>
+      <c r="GG22" s="80"/>
+      <c r="GH22" s="80"/>
+      <c r="GI22" s="80"/>
+      <c r="GJ22" s="80"/>
+      <c r="GK22" s="80"/>
+      <c r="GL22" s="80"/>
+      <c r="GM22" s="80"/>
+      <c r="GN22" s="80"/>
+      <c r="GO22" s="80"/>
+      <c r="GP22" s="80"/>
+      <c r="GQ22" s="80"/>
+      <c r="GR22" s="80"/>
+      <c r="GS22" s="80"/>
+      <c r="GT22" s="80"/>
+      <c r="GU22" s="80"/>
+      <c r="GV22" s="80"/>
+      <c r="GW22" s="80"/>
+      <c r="GX22" s="80"/>
+      <c r="GY22" s="80"/>
+      <c r="GZ22" s="80"/>
+      <c r="HA22" s="80"/>
+      <c r="HB22" s="80"/>
+      <c r="HC22" s="80"/>
+      <c r="HD22" s="80"/>
+      <c r="HE22" s="80"/>
+      <c r="HF22" s="80"/>
+      <c r="HG22" s="80"/>
+      <c r="HH22" s="80"/>
+      <c r="HI22" s="80"/>
+      <c r="HJ22" s="80"/>
+      <c r="HK22" s="80"/>
+      <c r="HL22" s="80"/>
+      <c r="HM22" s="80"/>
+      <c r="HN22" s="80"/>
+      <c r="HO22" s="80"/>
+      <c r="HP22" s="80"/>
+      <c r="HQ22" s="80"/>
+      <c r="HR22" s="80"/>
+      <c r="HS22" s="80"/>
+      <c r="HT22" s="80"/>
+      <c r="HU22" s="80"/>
+      <c r="HV22" s="80"/>
+      <c r="HW22" s="80"/>
+      <c r="HX22" s="80"/>
+      <c r="HY22" s="80"/>
+      <c r="HZ22" s="80"/>
+      <c r="IA22" s="80"/>
+      <c r="IB22" s="80"/>
+      <c r="IC22" s="80"/>
+      <c r="ID22" s="80"/>
+      <c r="IE22" s="80"/>
+      <c r="IF22" s="80"/>
+      <c r="IG22" s="80"/>
+      <c r="IH22" s="80"/>
+      <c r="II22" s="80"/>
+      <c r="IJ22" s="80"/>
+      <c r="IK22" s="80"/>
+      <c r="IL22" s="80"/>
+      <c r="IM22" s="80"/>
+      <c r="IN22" s="80"/>
+      <c r="IO22" s="80"/>
+      <c r="IP22" s="80"/>
+      <c r="IQ22" s="80"/>
+      <c r="IR22" s="80"/>
+      <c r="IS22" s="80"/>
+      <c r="IT22" s="80"/>
+      <c r="IU22" s="80"/>
+      <c r="IV22" s="80"/>
+      <c r="IW22" s="80"/>
+      <c r="IX22" s="80"/>
     </row>
     <row r="23" spans="1:258" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="A23" s="30"/>
@@ -8312,7 +8303,7 @@
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
-      <c r="K23" s="70"/>
+      <c r="K23" s="69"/>
       <c r="L23" s="21"/>
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
@@ -8562,7 +8553,7 @@
       <c r="IX23" s="24"/>
     </row>
     <row r="24" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A24" s="111"/>
+      <c r="A24" s="114"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
@@ -8571,8 +8562,8 @@
       <c r="G24" s="34"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="70"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="69"/>
       <c r="L24" s="21"/>
       <c r="M24" s="51"/>
       <c r="N24" s="51"/>
@@ -8822,7 +8813,7 @@
       <c r="IX24" s="51"/>
     </row>
     <row r="25" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A25" s="111"/>
+      <c r="A25" s="114"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -8831,8 +8822,8 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="69"/>
       <c r="L25" s="21"/>
       <c r="M25" s="51"/>
       <c r="N25" s="51"/>
@@ -9082,7 +9073,7 @@
       <c r="IX25" s="51"/>
     </row>
     <row r="26" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A26" s="111"/>
+      <c r="A26" s="114"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
@@ -9091,8 +9082,8 @@
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="70"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="69"/>
       <c r="L26" s="21"/>
       <c r="M26" s="51"/>
       <c r="N26" s="51"/>
@@ -9352,7 +9343,7 @@
       <c r="H27" s="20"/>
       <c r="I27" s="53"/>
       <c r="J27" s="53"/>
-      <c r="K27" s="70"/>
+      <c r="K27" s="69"/>
       <c r="L27" s="21"/>
       <c r="M27" s="51"/>
       <c r="N27" s="51"/>
@@ -9612,7 +9603,7 @@
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
-      <c r="K28" s="70"/>
+      <c r="K28" s="69"/>
       <c r="L28" s="21"/>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
@@ -9862,7 +9853,7 @@
       <c r="IX28" s="24"/>
     </row>
     <row r="29" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A29" s="108"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
       <c r="D29" s="33"/>
@@ -9871,8 +9862,8 @@
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="70"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="69"/>
       <c r="L29" s="21"/>
       <c r="M29" s="51"/>
       <c r="N29" s="51"/>
@@ -10122,7 +10113,7 @@
       <c r="IX29" s="51"/>
     </row>
     <row r="30" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A30" s="109"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -10131,8 +10122,8 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="69"/>
       <c r="L30" s="21"/>
       <c r="M30" s="51"/>
       <c r="N30" s="51"/>
@@ -10382,7 +10373,7 @@
       <c r="IX30" s="51"/>
     </row>
     <row r="31" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A31" s="110"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="35"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -10391,8 +10382,8 @@
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="89"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
       <c r="L31" s="43"/>
     </row>
     <row r="32" spans="1:258" s="4" customFormat="1" ht="18.75" customHeight="1">
@@ -10406,7 +10397,7 @@
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="89"/>
+      <c r="K32" s="86"/>
       <c r="L32" s="43"/>
       <c r="M32" s="39"/>
       <c r="N32" s="39"/>
@@ -10656,7 +10647,7 @@
       <c r="IX32" s="39"/>
     </row>
     <row r="33" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A33" s="99"/>
+      <c r="A33" s="102"/>
       <c r="B33" s="32"/>
       <c r="C33" s="41"/>
       <c r="D33" s="41"/>
@@ -10665,12 +10656,12 @@
       <c r="G33" s="42"/>
       <c r="H33" s="41"/>
       <c r="I33" s="42"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="89"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="86"/>
       <c r="L33" s="43"/>
     </row>
     <row r="34" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A34" s="100"/>
+      <c r="A34" s="103"/>
       <c r="B34" s="20"/>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -10678,12 +10669,12 @@
       <c r="F34" s="41"/>
       <c r="G34" s="44"/>
       <c r="I34" s="44"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
       <c r="L34" s="43"/>
     </row>
     <row r="35" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A35" s="100"/>
+      <c r="A35" s="103"/>
       <c r="B35" s="20"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
@@ -10692,12 +10683,12 @@
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
       <c r="L35" s="43"/>
     </row>
     <row r="36" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A36" s="101"/>
+      <c r="A36" s="104"/>
       <c r="B36" s="35"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -10706,8 +10697,8 @@
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="89"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="86"/>
       <c r="L36" s="43"/>
     </row>
     <row r="37" spans="1:258" s="4" customFormat="1" ht="15.75" customHeight="1">
@@ -10721,7 +10712,7 @@
       <c r="H37" s="39"/>
       <c r="I37" s="40"/>
       <c r="J37" s="39"/>
-      <c r="K37" s="89"/>
+      <c r="K37" s="86"/>
       <c r="L37" s="43"/>
       <c r="M37" s="39"/>
       <c r="N37" s="39"/>
@@ -10971,7 +10962,7 @@
       <c r="IX37" s="39"/>
     </row>
     <row r="38" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A38" s="99"/>
+      <c r="A38" s="102"/>
       <c r="B38" s="42"/>
       <c r="C38" s="41"/>
       <c r="D38" s="41"/>
@@ -10980,12 +10971,12 @@
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="89"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="86"/>
       <c r="L38" s="43"/>
     </row>
     <row r="39" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A39" s="100"/>
+      <c r="A39" s="103"/>
       <c r="B39" s="44"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
@@ -10994,12 +10985,12 @@
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
       <c r="L39" s="43"/>
     </row>
     <row r="40" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A40" s="100"/>
+      <c r="A40" s="103"/>
       <c r="B40" s="44"/>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
@@ -11008,12 +10999,12 @@
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
       <c r="L40" s="43"/>
     </row>
     <row r="41" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A41" s="100"/>
+      <c r="A41" s="103"/>
       <c r="B41" s="44"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -11022,12 +11013,12 @@
       <c r="G41" s="44"/>
       <c r="H41" s="20"/>
       <c r="I41" s="44"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
       <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A42" s="100"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="44"/>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -11036,12 +11027,12 @@
       <c r="G42" s="20"/>
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
       <c r="L42" s="43"/>
     </row>
     <row r="43" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A43" s="101"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="44"/>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
@@ -11050,12 +11041,12 @@
       <c r="G43" s="44"/>
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A44" s="99"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="44"/>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
@@ -11064,13 +11055,13 @@
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
       <c r="L44" s="43"/>
     </row>
     <row r="45" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A45" s="100"/>
-      <c r="B45" s="102"/>
+      <c r="A45" s="103"/>
+      <c r="B45" s="105"/>
       <c r="C45" s="21"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
@@ -11078,13 +11069,13 @@
       <c r="G45" s="44"/>
       <c r="H45" s="20"/>
       <c r="I45" s="44"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
       <c r="L45" s="43"/>
     </row>
     <row r="46" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A46" s="100"/>
-      <c r="B46" s="103"/>
+      <c r="A46" s="103"/>
+      <c r="B46" s="106"/>
       <c r="C46" s="21"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
@@ -11092,12 +11083,12 @@
       <c r="G46" s="44"/>
       <c r="H46" s="20"/>
       <c r="I46" s="44"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
       <c r="L46" s="43"/>
     </row>
     <row r="47" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A47" s="100"/>
+      <c r="A47" s="103"/>
       <c r="B47" s="44"/>
       <c r="C47" s="43"/>
       <c r="D47" s="43"/>
@@ -11106,12 +11097,12 @@
       <c r="G47" s="44"/>
       <c r="H47" s="43"/>
       <c r="I47" s="44"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
       <c r="L47" s="43"/>
     </row>
     <row r="48" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A48" s="101"/>
+      <c r="A48" s="104"/>
       <c r="B48" s="44"/>
       <c r="C48" s="43"/>
       <c r="D48" s="43"/>
@@ -11120,8 +11111,8 @@
       <c r="G48" s="44"/>
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
       <c r="L48" s="43"/>
     </row>
     <row r="49" spans="1:12" ht="99.95" customHeight="1">
@@ -11134,8 +11125,8 @@
       <c r="G49" s="44"/>
       <c r="H49" s="43"/>
       <c r="I49" s="44"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="86"/>
       <c r="L49" s="43"/>
     </row>
     <row r="50" spans="1:12" ht="99.95" customHeight="1">
@@ -11148,8 +11139,8 @@
       <c r="G50" s="44"/>
       <c r="H50" s="43"/>
       <c r="I50" s="44"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="86"/>
       <c r="L50" s="43"/>
     </row>
     <row r="51" spans="1:12" ht="99.95" customHeight="1">
@@ -11162,8 +11153,8 @@
       <c r="G51" s="44"/>
       <c r="H51" s="43"/>
       <c r="I51" s="44"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="86"/>
       <c r="L51" s="43"/>
     </row>
     <row r="52" spans="1:12" ht="99.95" customHeight="1">
@@ -11176,8 +11167,8 @@
       <c r="G52" s="44"/>
       <c r="H52" s="43"/>
       <c r="I52" s="44"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="86"/>
       <c r="L52" s="43"/>
     </row>
   </sheetData>
@@ -13386,7 +13377,7 @@
       <c r="IX9" s="24"/>
     </row>
     <row r="10" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="114" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="32" t="s">
@@ -13658,7 +13649,7 @@
       <c r="IX10" s="51"/>
     </row>
     <row r="11" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A11" s="111"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="20" t="s">
         <v>90</v>
       </c>
@@ -13928,7 +13919,7 @@
       <c r="IX11" s="51"/>
     </row>
     <row r="12" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A12" s="111"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="35" t="s">
         <v>93</v>
       </c>
@@ -14726,7 +14717,7 @@
       <c r="IX14" s="24"/>
     </row>
     <row r="15" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="111" t="s">
         <v>99</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -14998,7 +14989,7 @@
       <c r="IX15" s="51"/>
     </row>
     <row r="16" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A16" s="109"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="20" t="s">
         <v>104</v>
       </c>
@@ -15266,7 +15257,7 @@
       <c r="IX16" s="51"/>
     </row>
     <row r="17" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A17" s="110"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="35" t="s">
         <v>107</v>
       </c>
@@ -15547,7 +15538,7 @@
       <c r="IX18" s="39"/>
     </row>
     <row r="19" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="102" t="s">
         <v>110</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -15571,7 +15562,7 @@
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A20" s="100"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="20" t="s">
         <v>115</v>
       </c>
@@ -15592,7 +15583,7 @@
       <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A21" s="100"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="20" t="s">
         <v>117</v>
       </c>
@@ -15614,7 +15605,7 @@
       <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A22" s="101"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="35" t="s">
         <v>119</v>
       </c>
@@ -15896,7 +15887,7 @@
       <c r="IX23" s="39"/>
     </row>
     <row r="24" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="102" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="42" t="s">
@@ -15918,7 +15909,7 @@
       <c r="J24" s="41"/>
     </row>
     <row r="25" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A25" s="100"/>
+      <c r="A25" s="103"/>
       <c r="B25" s="44" t="s">
         <v>125</v>
       </c>
@@ -15940,7 +15931,7 @@
       <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A26" s="100"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="44" t="s">
         <v>128</v>
       </c>
@@ -15964,7 +15955,7 @@
       <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A27" s="100"/>
+      <c r="A27" s="103"/>
       <c r="B27" s="44" t="s">
         <v>131</v>
       </c>
@@ -15986,7 +15977,7 @@
       <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A28" s="100"/>
+      <c r="A28" s="103"/>
       <c r="B28" s="44" t="s">
         <v>134</v>
       </c>
@@ -16010,7 +16001,7 @@
       <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A29" s="101"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="44" t="s">
         <v>137</v>
       </c>
@@ -16032,7 +16023,7 @@
       <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="102" t="s">
         <v>139</v>
       </c>
       <c r="B30" s="44" t="s">
@@ -16056,8 +16047,8 @@
       <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A31" s="100"/>
-      <c r="B31" s="102" t="s">
+      <c r="A31" s="103"/>
+      <c r="B31" s="105" t="s">
         <v>143</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -16078,8 +16069,8 @@
       <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A32" s="100"/>
-      <c r="B32" s="103"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="106"/>
       <c r="C32" s="21" t="s">
         <v>146</v>
       </c>
@@ -16098,7 +16089,7 @@
       <c r="J32" s="43"/>
     </row>
     <row r="33" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A33" s="100"/>
+      <c r="A33" s="103"/>
       <c r="B33" s="44" t="s">
         <v>148</v>
       </c>
@@ -16120,7 +16111,7 @@
       <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A34" s="101"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="44" t="s">
         <v>151</v>
       </c>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -39,10 +39,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment ref="C30" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="G29" authorId="0" shapeId="0">
+    <comment ref="G30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="163">
   <si>
     <t>Module</t>
   </si>
@@ -275,16 +275,10 @@
     <t>Get sub departments</t>
   </si>
   <si>
-    <t>/departments/:departmentId/departments?page=1&amp;pageSize=10</t>
-  </si>
-  <si>
     <t>complete</t>
   </si>
   <si>
     <t>Get all department users</t>
-  </si>
-  <si>
-    <t>/departments/:departmentId/users?page=1&amp;pageSize=10</t>
   </si>
   <si>
     <t>直属机构的员工</t>
@@ -449,9 +443,6 @@
     <t>Get department by id</t>
   </si>
   <si>
-    <t>/departments/:deaprtmentId</t>
-  </si>
-  <si>
     <t>{
  "department": {
  "id": 1,
@@ -507,9 +498,6 @@
     <t>Get user by id</t>
   </si>
   <si>
-    <t>/users/:userId</t>
-  </si>
-  <si>
     <t>{
  "user": {
  "id": 1,
@@ -557,9 +545,6 @@
   </si>
   <si>
     <t>Get user roles information</t>
-  </si>
-  <si>
-    <t>/users/:userId/roles</t>
   </si>
   <si>
     <r>
@@ -732,9 +717,6 @@
     <t>Get role by id</t>
   </si>
   <si>
-    <t>/roles/:roleId</t>
-  </si>
-  <si>
     <t>{
                 role: {
                     id: 1,
@@ -773,9 +755,6 @@
   </si>
   <si>
     <t>Get permission</t>
-  </si>
-  <si>
-    <t>/permissions/:permissionId</t>
   </si>
   <si>
     <t>{
@@ -1540,12 +1519,48 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>/roles/{roleId}</t>
+  </si>
+  <si>
+    <t>/permissions/{permissionId}</t>
+  </si>
+  <si>
+    <t>/users/{userId}/roles</t>
+  </si>
+  <si>
+    <t>/users/{userId}</t>
+  </si>
+  <si>
+    <t>/departments/{deaprtmentId}</t>
+  </si>
+  <si>
+    <t>/departments/{departmentId}/users?page=1&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>/departments/{departmentId}/departments?page=1&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>Add/update role</t>
+  </si>
+  <si>
+    <t>/roles</t>
+  </si>
+  <si>
+    <t>{
+ "id": -1,
+ "name": "",
+ "users": [1,2,3,4,5],
+ "permissions": [1,2,3,4,5],
+ "desc": ""
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1609,12 +1624,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -2050,9 +2059,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2074,7 +2080,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2083,7 +2089,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2128,19 +2134,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2149,19 +2155,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2202,6 +2208,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2575,11 +2584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IX52"/>
+  <dimension ref="A1:IX53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75"/>
@@ -2631,7 +2640,7 @@
       <c r="J1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="64" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="43" t="s">
@@ -2654,11 +2663,11 @@
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="67"/>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
       <c r="O2" s="50"/>
@@ -2917,7 +2926,7 @@
       <c r="H3" s="18"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="69"/>
+      <c r="K3" s="68"/>
       <c r="L3" s="21"/>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
@@ -3170,7 +3179,7 @@
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="87" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -3190,8 +3199,8 @@
       <c r="I4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70" t="s">
+      <c r="J4" s="69"/>
+      <c r="K4" s="69" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="21"/>
@@ -3453,7 +3462,7 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
-      <c r="K5" s="70"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="21"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
@@ -3703,10 +3712,10 @@
       <c r="IX5" s="24"/>
     </row>
     <row r="6" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="88" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -3719,12 +3728,12 @@
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I6" s="26"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="72" t="s">
+      <c r="J6" s="70"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="71" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="51"/>
@@ -3975,12 +3984,12 @@
       <c r="IX6" s="51"/>
     </row>
     <row r="7" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A7" s="108"/>
-      <c r="B7" s="88" t="s">
+      <c r="A7" s="107"/>
+      <c r="B7" s="87" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>26</v>
@@ -3989,13 +3998,13 @@
       <c r="F7" s="21"/>
       <c r="G7" s="20"/>
       <c r="H7" s="57" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I7" s="20"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="73" t="s">
-        <v>30</v>
+      <c r="J7" s="69"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="72" t="s">
+        <v>29</v>
       </c>
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
@@ -4245,12 +4254,12 @@
       <c r="IX7" s="51"/>
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A8" s="108"/>
-      <c r="B8" s="95" t="s">
-        <v>31</v>
+      <c r="A8" s="107"/>
+      <c r="B8" s="94" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>26</v>
@@ -4259,12 +4268,12 @@
       <c r="F8" s="36"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I8" s="35"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75" t="s">
-        <v>33</v>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74" t="s">
+        <v>31</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="51"/>
@@ -4515,286 +4524,286 @@
       <c r="IX8" s="51"/>
     </row>
     <row r="9" spans="1:258" s="54" customFormat="1" ht="138" customHeight="1">
-      <c r="A9" s="108"/>
-      <c r="B9" s="93" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="91"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="H9" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="77"/>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="77"/>
-      <c r="AX9" s="77"/>
-      <c r="AY9" s="77"/>
-      <c r="AZ9" s="77"/>
-      <c r="BA9" s="77"/>
-      <c r="BB9" s="77"/>
-      <c r="BC9" s="77"/>
-      <c r="BD9" s="77"/>
-      <c r="BE9" s="77"/>
-      <c r="BF9" s="77"/>
-      <c r="BG9" s="77"/>
-      <c r="BH9" s="77"/>
-      <c r="BI9" s="77"/>
-      <c r="BJ9" s="77"/>
-      <c r="BK9" s="77"/>
-      <c r="BL9" s="77"/>
-      <c r="BM9" s="77"/>
-      <c r="BN9" s="77"/>
-      <c r="BO9" s="77"/>
-      <c r="BP9" s="77"/>
-      <c r="BQ9" s="77"/>
-      <c r="BR9" s="77"/>
-      <c r="BS9" s="77"/>
-      <c r="BT9" s="77"/>
-      <c r="BU9" s="77"/>
-      <c r="BV9" s="77"/>
-      <c r="BW9" s="77"/>
-      <c r="BX9" s="77"/>
-      <c r="BY9" s="77"/>
-      <c r="BZ9" s="77"/>
-      <c r="CA9" s="77"/>
-      <c r="CB9" s="77"/>
-      <c r="CC9" s="77"/>
-      <c r="CD9" s="77"/>
-      <c r="CE9" s="77"/>
-      <c r="CF9" s="77"/>
-      <c r="CG9" s="77"/>
-      <c r="CH9" s="77"/>
-      <c r="CI9" s="77"/>
-      <c r="CJ9" s="77"/>
-      <c r="CK9" s="77"/>
-      <c r="CL9" s="77"/>
-      <c r="CM9" s="77"/>
-      <c r="CN9" s="77"/>
-      <c r="CO9" s="77"/>
-      <c r="CP9" s="77"/>
-      <c r="CQ9" s="77"/>
-      <c r="CR9" s="77"/>
-      <c r="CS9" s="77"/>
-      <c r="CT9" s="77"/>
-      <c r="CU9" s="77"/>
-      <c r="CV9" s="77"/>
-      <c r="CW9" s="77"/>
-      <c r="CX9" s="77"/>
-      <c r="CY9" s="77"/>
-      <c r="CZ9" s="77"/>
-      <c r="DA9" s="77"/>
-      <c r="DB9" s="77"/>
-      <c r="DC9" s="77"/>
-      <c r="DD9" s="77"/>
-      <c r="DE9" s="77"/>
-      <c r="DF9" s="77"/>
-      <c r="DG9" s="77"/>
-      <c r="DH9" s="77"/>
-      <c r="DI9" s="77"/>
-      <c r="DJ9" s="77"/>
-      <c r="DK9" s="77"/>
-      <c r="DL9" s="77"/>
-      <c r="DM9" s="77"/>
-      <c r="DN9" s="77"/>
-      <c r="DO9" s="77"/>
-      <c r="DP9" s="77"/>
-      <c r="DQ9" s="77"/>
-      <c r="DR9" s="77"/>
-      <c r="DS9" s="77"/>
-      <c r="DT9" s="77"/>
-      <c r="DU9" s="77"/>
-      <c r="DV9" s="77"/>
-      <c r="DW9" s="77"/>
-      <c r="DX9" s="77"/>
-      <c r="DY9" s="77"/>
-      <c r="DZ9" s="77"/>
-      <c r="EA9" s="77"/>
-      <c r="EB9" s="77"/>
-      <c r="EC9" s="77"/>
-      <c r="ED9" s="77"/>
-      <c r="EE9" s="77"/>
-      <c r="EF9" s="77"/>
-      <c r="EG9" s="77"/>
-      <c r="EH9" s="77"/>
-      <c r="EI9" s="77"/>
-      <c r="EJ9" s="77"/>
-      <c r="EK9" s="77"/>
-      <c r="EL9" s="77"/>
-      <c r="EM9" s="77"/>
-      <c r="EN9" s="77"/>
-      <c r="EO9" s="77"/>
-      <c r="EP9" s="77"/>
-      <c r="EQ9" s="77"/>
-      <c r="ER9" s="77"/>
-      <c r="ES9" s="77"/>
-      <c r="ET9" s="77"/>
-      <c r="EU9" s="77"/>
-      <c r="EV9" s="77"/>
-      <c r="EW9" s="77"/>
-      <c r="EX9" s="77"/>
-      <c r="EY9" s="77"/>
-      <c r="EZ9" s="77"/>
-      <c r="FA9" s="77"/>
-      <c r="FB9" s="77"/>
-      <c r="FC9" s="77"/>
-      <c r="FD9" s="77"/>
-      <c r="FE9" s="77"/>
-      <c r="FF9" s="77"/>
-      <c r="FG9" s="77"/>
-      <c r="FH9" s="77"/>
-      <c r="FI9" s="77"/>
-      <c r="FJ9" s="77"/>
-      <c r="FK9" s="77"/>
-      <c r="FL9" s="77"/>
-      <c r="FM9" s="77"/>
-      <c r="FN9" s="77"/>
-      <c r="FO9" s="77"/>
-      <c r="FP9" s="77"/>
-      <c r="FQ9" s="77"/>
-      <c r="FR9" s="77"/>
-      <c r="FS9" s="77"/>
-      <c r="FT9" s="77"/>
-      <c r="FU9" s="77"/>
-      <c r="FV9" s="77"/>
-      <c r="FW9" s="77"/>
-      <c r="FX9" s="77"/>
-      <c r="FY9" s="77"/>
-      <c r="FZ9" s="77"/>
-      <c r="GA9" s="77"/>
-      <c r="GB9" s="77"/>
-      <c r="GC9" s="77"/>
-      <c r="GD9" s="77"/>
-      <c r="GE9" s="77"/>
-      <c r="GF9" s="77"/>
-      <c r="GG9" s="77"/>
-      <c r="GH9" s="77"/>
-      <c r="GI9" s="77"/>
-      <c r="GJ9" s="77"/>
-      <c r="GK9" s="77"/>
-      <c r="GL9" s="77"/>
-      <c r="GM9" s="77"/>
-      <c r="GN9" s="77"/>
-      <c r="GO9" s="77"/>
-      <c r="GP9" s="77"/>
-      <c r="GQ9" s="77"/>
-      <c r="GR9" s="77"/>
-      <c r="GS9" s="77"/>
-      <c r="GT9" s="77"/>
-      <c r="GU9" s="77"/>
-      <c r="GV9" s="77"/>
-      <c r="GW9" s="77"/>
-      <c r="GX9" s="77"/>
-      <c r="GY9" s="77"/>
-      <c r="GZ9" s="77"/>
-      <c r="HA9" s="77"/>
-      <c r="HB9" s="77"/>
-      <c r="HC9" s="77"/>
-      <c r="HD9" s="77"/>
-      <c r="HE9" s="77"/>
-      <c r="HF9" s="77"/>
-      <c r="HG9" s="77"/>
-      <c r="HH9" s="77"/>
-      <c r="HI9" s="77"/>
-      <c r="HJ9" s="77"/>
-      <c r="HK9" s="77"/>
-      <c r="HL9" s="77"/>
-      <c r="HM9" s="77"/>
-      <c r="HN9" s="77"/>
-      <c r="HO9" s="77"/>
-      <c r="HP9" s="77"/>
-      <c r="HQ9" s="77"/>
-      <c r="HR9" s="77"/>
-      <c r="HS9" s="77"/>
-      <c r="HT9" s="77"/>
-      <c r="HU9" s="77"/>
-      <c r="HV9" s="77"/>
-      <c r="HW9" s="77"/>
-      <c r="HX9" s="77"/>
-      <c r="HY9" s="77"/>
-      <c r="HZ9" s="77"/>
-      <c r="IA9" s="77"/>
-      <c r="IB9" s="77"/>
-      <c r="IC9" s="77"/>
-      <c r="ID9" s="77"/>
-      <c r="IE9" s="77"/>
-      <c r="IF9" s="77"/>
-      <c r="IG9" s="77"/>
-      <c r="IH9" s="77"/>
-      <c r="II9" s="77"/>
-      <c r="IJ9" s="77"/>
-      <c r="IK9" s="77"/>
-      <c r="IL9" s="77"/>
-      <c r="IM9" s="77"/>
-      <c r="IN9" s="77"/>
-      <c r="IO9" s="77"/>
-      <c r="IP9" s="77"/>
-      <c r="IQ9" s="77"/>
-      <c r="IR9" s="77"/>
-      <c r="IS9" s="77"/>
-      <c r="IT9" s="77"/>
-      <c r="IU9" s="77"/>
-      <c r="IV9" s="77"/>
-      <c r="IW9" s="77"/>
-      <c r="IX9" s="77"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="76"/>
+      <c r="AN9" s="76"/>
+      <c r="AO9" s="76"/>
+      <c r="AP9" s="76"/>
+      <c r="AQ9" s="76"/>
+      <c r="AR9" s="76"/>
+      <c r="AS9" s="76"/>
+      <c r="AT9" s="76"/>
+      <c r="AU9" s="76"/>
+      <c r="AV9" s="76"/>
+      <c r="AW9" s="76"/>
+      <c r="AX9" s="76"/>
+      <c r="AY9" s="76"/>
+      <c r="AZ9" s="76"/>
+      <c r="BA9" s="76"/>
+      <c r="BB9" s="76"/>
+      <c r="BC9" s="76"/>
+      <c r="BD9" s="76"/>
+      <c r="BE9" s="76"/>
+      <c r="BF9" s="76"/>
+      <c r="BG9" s="76"/>
+      <c r="BH9" s="76"/>
+      <c r="BI9" s="76"/>
+      <c r="BJ9" s="76"/>
+      <c r="BK9" s="76"/>
+      <c r="BL9" s="76"/>
+      <c r="BM9" s="76"/>
+      <c r="BN9" s="76"/>
+      <c r="BO9" s="76"/>
+      <c r="BP9" s="76"/>
+      <c r="BQ9" s="76"/>
+      <c r="BR9" s="76"/>
+      <c r="BS9" s="76"/>
+      <c r="BT9" s="76"/>
+      <c r="BU9" s="76"/>
+      <c r="BV9" s="76"/>
+      <c r="BW9" s="76"/>
+      <c r="BX9" s="76"/>
+      <c r="BY9" s="76"/>
+      <c r="BZ9" s="76"/>
+      <c r="CA9" s="76"/>
+      <c r="CB9" s="76"/>
+      <c r="CC9" s="76"/>
+      <c r="CD9" s="76"/>
+      <c r="CE9" s="76"/>
+      <c r="CF9" s="76"/>
+      <c r="CG9" s="76"/>
+      <c r="CH9" s="76"/>
+      <c r="CI9" s="76"/>
+      <c r="CJ9" s="76"/>
+      <c r="CK9" s="76"/>
+      <c r="CL9" s="76"/>
+      <c r="CM9" s="76"/>
+      <c r="CN9" s="76"/>
+      <c r="CO9" s="76"/>
+      <c r="CP9" s="76"/>
+      <c r="CQ9" s="76"/>
+      <c r="CR9" s="76"/>
+      <c r="CS9" s="76"/>
+      <c r="CT9" s="76"/>
+      <c r="CU9" s="76"/>
+      <c r="CV9" s="76"/>
+      <c r="CW9" s="76"/>
+      <c r="CX9" s="76"/>
+      <c r="CY9" s="76"/>
+      <c r="CZ9" s="76"/>
+      <c r="DA9" s="76"/>
+      <c r="DB9" s="76"/>
+      <c r="DC9" s="76"/>
+      <c r="DD9" s="76"/>
+      <c r="DE9" s="76"/>
+      <c r="DF9" s="76"/>
+      <c r="DG9" s="76"/>
+      <c r="DH9" s="76"/>
+      <c r="DI9" s="76"/>
+      <c r="DJ9" s="76"/>
+      <c r="DK9" s="76"/>
+      <c r="DL9" s="76"/>
+      <c r="DM9" s="76"/>
+      <c r="DN9" s="76"/>
+      <c r="DO9" s="76"/>
+      <c r="DP9" s="76"/>
+      <c r="DQ9" s="76"/>
+      <c r="DR9" s="76"/>
+      <c r="DS9" s="76"/>
+      <c r="DT9" s="76"/>
+      <c r="DU9" s="76"/>
+      <c r="DV9" s="76"/>
+      <c r="DW9" s="76"/>
+      <c r="DX9" s="76"/>
+      <c r="DY9" s="76"/>
+      <c r="DZ9" s="76"/>
+      <c r="EA9" s="76"/>
+      <c r="EB9" s="76"/>
+      <c r="EC9" s="76"/>
+      <c r="ED9" s="76"/>
+      <c r="EE9" s="76"/>
+      <c r="EF9" s="76"/>
+      <c r="EG9" s="76"/>
+      <c r="EH9" s="76"/>
+      <c r="EI9" s="76"/>
+      <c r="EJ9" s="76"/>
+      <c r="EK9" s="76"/>
+      <c r="EL9" s="76"/>
+      <c r="EM9" s="76"/>
+      <c r="EN9" s="76"/>
+      <c r="EO9" s="76"/>
+      <c r="EP9" s="76"/>
+      <c r="EQ9" s="76"/>
+      <c r="ER9" s="76"/>
+      <c r="ES9" s="76"/>
+      <c r="ET9" s="76"/>
+      <c r="EU9" s="76"/>
+      <c r="EV9" s="76"/>
+      <c r="EW9" s="76"/>
+      <c r="EX9" s="76"/>
+      <c r="EY9" s="76"/>
+      <c r="EZ9" s="76"/>
+      <c r="FA9" s="76"/>
+      <c r="FB9" s="76"/>
+      <c r="FC9" s="76"/>
+      <c r="FD9" s="76"/>
+      <c r="FE9" s="76"/>
+      <c r="FF9" s="76"/>
+      <c r="FG9" s="76"/>
+      <c r="FH9" s="76"/>
+      <c r="FI9" s="76"/>
+      <c r="FJ9" s="76"/>
+      <c r="FK9" s="76"/>
+      <c r="FL9" s="76"/>
+      <c r="FM9" s="76"/>
+      <c r="FN9" s="76"/>
+      <c r="FO9" s="76"/>
+      <c r="FP9" s="76"/>
+      <c r="FQ9" s="76"/>
+      <c r="FR9" s="76"/>
+      <c r="FS9" s="76"/>
+      <c r="FT9" s="76"/>
+      <c r="FU9" s="76"/>
+      <c r="FV9" s="76"/>
+      <c r="FW9" s="76"/>
+      <c r="FX9" s="76"/>
+      <c r="FY9" s="76"/>
+      <c r="FZ9" s="76"/>
+      <c r="GA9" s="76"/>
+      <c r="GB9" s="76"/>
+      <c r="GC9" s="76"/>
+      <c r="GD9" s="76"/>
+      <c r="GE9" s="76"/>
+      <c r="GF9" s="76"/>
+      <c r="GG9" s="76"/>
+      <c r="GH9" s="76"/>
+      <c r="GI9" s="76"/>
+      <c r="GJ9" s="76"/>
+      <c r="GK9" s="76"/>
+      <c r="GL9" s="76"/>
+      <c r="GM9" s="76"/>
+      <c r="GN9" s="76"/>
+      <c r="GO9" s="76"/>
+      <c r="GP9" s="76"/>
+      <c r="GQ9" s="76"/>
+      <c r="GR9" s="76"/>
+      <c r="GS9" s="76"/>
+      <c r="GT9" s="76"/>
+      <c r="GU9" s="76"/>
+      <c r="GV9" s="76"/>
+      <c r="GW9" s="76"/>
+      <c r="GX9" s="76"/>
+      <c r="GY9" s="76"/>
+      <c r="GZ9" s="76"/>
+      <c r="HA9" s="76"/>
+      <c r="HB9" s="76"/>
+      <c r="HC9" s="76"/>
+      <c r="HD9" s="76"/>
+      <c r="HE9" s="76"/>
+      <c r="HF9" s="76"/>
+      <c r="HG9" s="76"/>
+      <c r="HH9" s="76"/>
+      <c r="HI9" s="76"/>
+      <c r="HJ9" s="76"/>
+      <c r="HK9" s="76"/>
+      <c r="HL9" s="76"/>
+      <c r="HM9" s="76"/>
+      <c r="HN9" s="76"/>
+      <c r="HO9" s="76"/>
+      <c r="HP9" s="76"/>
+      <c r="HQ9" s="76"/>
+      <c r="HR9" s="76"/>
+      <c r="HS9" s="76"/>
+      <c r="HT9" s="76"/>
+      <c r="HU9" s="76"/>
+      <c r="HV9" s="76"/>
+      <c r="HW9" s="76"/>
+      <c r="HX9" s="76"/>
+      <c r="HY9" s="76"/>
+      <c r="HZ9" s="76"/>
+      <c r="IA9" s="76"/>
+      <c r="IB9" s="76"/>
+      <c r="IC9" s="76"/>
+      <c r="ID9" s="76"/>
+      <c r="IE9" s="76"/>
+      <c r="IF9" s="76"/>
+      <c r="IG9" s="76"/>
+      <c r="IH9" s="76"/>
+      <c r="II9" s="76"/>
+      <c r="IJ9" s="76"/>
+      <c r="IK9" s="76"/>
+      <c r="IL9" s="76"/>
+      <c r="IM9" s="76"/>
+      <c r="IN9" s="76"/>
+      <c r="IO9" s="76"/>
+      <c r="IP9" s="76"/>
+      <c r="IQ9" s="76"/>
+      <c r="IR9" s="76"/>
+      <c r="IS9" s="76"/>
+      <c r="IT9" s="76"/>
+      <c r="IU9" s="76"/>
+      <c r="IV9" s="76"/>
+      <c r="IW9" s="76"/>
+      <c r="IX9" s="76"/>
     </row>
     <row r="10" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A10" s="108"/>
-      <c r="B10" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>38</v>
+      <c r="A10" s="107"/>
+      <c r="B10" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="D10" s="59" t="s">
         <v>26</v>
@@ -4803,281 +4812,281 @@
       <c r="F10" s="59"/>
       <c r="G10" s="58"/>
       <c r="H10" s="58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I10" s="59"/>
       <c r="J10" s="58"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="80"/>
-      <c r="AF10" s="80"/>
-      <c r="AG10" s="80"/>
-      <c r="AH10" s="80"/>
-      <c r="AI10" s="80"/>
-      <c r="AJ10" s="80"/>
-      <c r="AK10" s="80"/>
-      <c r="AL10" s="80"/>
-      <c r="AM10" s="80"/>
-      <c r="AN10" s="80"/>
-      <c r="AO10" s="80"/>
-      <c r="AP10" s="80"/>
-      <c r="AQ10" s="80"/>
-      <c r="AR10" s="80"/>
-      <c r="AS10" s="80"/>
-      <c r="AT10" s="80"/>
-      <c r="AU10" s="80"/>
-      <c r="AV10" s="80"/>
-      <c r="AW10" s="80"/>
-      <c r="AX10" s="80"/>
-      <c r="AY10" s="80"/>
-      <c r="AZ10" s="80"/>
-      <c r="BA10" s="80"/>
-      <c r="BB10" s="80"/>
-      <c r="BC10" s="80"/>
-      <c r="BD10" s="80"/>
-      <c r="BE10" s="80"/>
-      <c r="BF10" s="80"/>
-      <c r="BG10" s="80"/>
-      <c r="BH10" s="80"/>
-      <c r="BI10" s="80"/>
-      <c r="BJ10" s="80"/>
-      <c r="BK10" s="80"/>
-      <c r="BL10" s="80"/>
-      <c r="BM10" s="80"/>
-      <c r="BN10" s="80"/>
-      <c r="BO10" s="80"/>
-      <c r="BP10" s="80"/>
-      <c r="BQ10" s="80"/>
-      <c r="BR10" s="80"/>
-      <c r="BS10" s="80"/>
-      <c r="BT10" s="80"/>
-      <c r="BU10" s="80"/>
-      <c r="BV10" s="80"/>
-      <c r="BW10" s="80"/>
-      <c r="BX10" s="80"/>
-      <c r="BY10" s="80"/>
-      <c r="BZ10" s="80"/>
-      <c r="CA10" s="80"/>
-      <c r="CB10" s="80"/>
-      <c r="CC10" s="80"/>
-      <c r="CD10" s="80"/>
-      <c r="CE10" s="80"/>
-      <c r="CF10" s="80"/>
-      <c r="CG10" s="80"/>
-      <c r="CH10" s="80"/>
-      <c r="CI10" s="80"/>
-      <c r="CJ10" s="80"/>
-      <c r="CK10" s="80"/>
-      <c r="CL10" s="80"/>
-      <c r="CM10" s="80"/>
-      <c r="CN10" s="80"/>
-      <c r="CO10" s="80"/>
-      <c r="CP10" s="80"/>
-      <c r="CQ10" s="80"/>
-      <c r="CR10" s="80"/>
-      <c r="CS10" s="80"/>
-      <c r="CT10" s="80"/>
-      <c r="CU10" s="80"/>
-      <c r="CV10" s="80"/>
-      <c r="CW10" s="80"/>
-      <c r="CX10" s="80"/>
-      <c r="CY10" s="80"/>
-      <c r="CZ10" s="80"/>
-      <c r="DA10" s="80"/>
-      <c r="DB10" s="80"/>
-      <c r="DC10" s="80"/>
-      <c r="DD10" s="80"/>
-      <c r="DE10" s="80"/>
-      <c r="DF10" s="80"/>
-      <c r="DG10" s="80"/>
-      <c r="DH10" s="80"/>
-      <c r="DI10" s="80"/>
-      <c r="DJ10" s="80"/>
-      <c r="DK10" s="80"/>
-      <c r="DL10" s="80"/>
-      <c r="DM10" s="80"/>
-      <c r="DN10" s="80"/>
-      <c r="DO10" s="80"/>
-      <c r="DP10" s="80"/>
-      <c r="DQ10" s="80"/>
-      <c r="DR10" s="80"/>
-      <c r="DS10" s="80"/>
-      <c r="DT10" s="80"/>
-      <c r="DU10" s="80"/>
-      <c r="DV10" s="80"/>
-      <c r="DW10" s="80"/>
-      <c r="DX10" s="80"/>
-      <c r="DY10" s="80"/>
-      <c r="DZ10" s="80"/>
-      <c r="EA10" s="80"/>
-      <c r="EB10" s="80"/>
-      <c r="EC10" s="80"/>
-      <c r="ED10" s="80"/>
-      <c r="EE10" s="80"/>
-      <c r="EF10" s="80"/>
-      <c r="EG10" s="80"/>
-      <c r="EH10" s="80"/>
-      <c r="EI10" s="80"/>
-      <c r="EJ10" s="80"/>
-      <c r="EK10" s="80"/>
-      <c r="EL10" s="80"/>
-      <c r="EM10" s="80"/>
-      <c r="EN10" s="80"/>
-      <c r="EO10" s="80"/>
-      <c r="EP10" s="80"/>
-      <c r="EQ10" s="80"/>
-      <c r="ER10" s="80"/>
-      <c r="ES10" s="80"/>
-      <c r="ET10" s="80"/>
-      <c r="EU10" s="80"/>
-      <c r="EV10" s="80"/>
-      <c r="EW10" s="80"/>
-      <c r="EX10" s="80"/>
-      <c r="EY10" s="80"/>
-      <c r="EZ10" s="80"/>
-      <c r="FA10" s="80"/>
-      <c r="FB10" s="80"/>
-      <c r="FC10" s="80"/>
-      <c r="FD10" s="80"/>
-      <c r="FE10" s="80"/>
-      <c r="FF10" s="80"/>
-      <c r="FG10" s="80"/>
-      <c r="FH10" s="80"/>
-      <c r="FI10" s="80"/>
-      <c r="FJ10" s="80"/>
-      <c r="FK10" s="80"/>
-      <c r="FL10" s="80"/>
-      <c r="FM10" s="80"/>
-      <c r="FN10" s="80"/>
-      <c r="FO10" s="80"/>
-      <c r="FP10" s="80"/>
-      <c r="FQ10" s="80"/>
-      <c r="FR10" s="80"/>
-      <c r="FS10" s="80"/>
-      <c r="FT10" s="80"/>
-      <c r="FU10" s="80"/>
-      <c r="FV10" s="80"/>
-      <c r="FW10" s="80"/>
-      <c r="FX10" s="80"/>
-      <c r="FY10" s="80"/>
-      <c r="FZ10" s="80"/>
-      <c r="GA10" s="80"/>
-      <c r="GB10" s="80"/>
-      <c r="GC10" s="80"/>
-      <c r="GD10" s="80"/>
-      <c r="GE10" s="80"/>
-      <c r="GF10" s="80"/>
-      <c r="GG10" s="80"/>
-      <c r="GH10" s="80"/>
-      <c r="GI10" s="80"/>
-      <c r="GJ10" s="80"/>
-      <c r="GK10" s="80"/>
-      <c r="GL10" s="80"/>
-      <c r="GM10" s="80"/>
-      <c r="GN10" s="80"/>
-      <c r="GO10" s="80"/>
-      <c r="GP10" s="80"/>
-      <c r="GQ10" s="80"/>
-      <c r="GR10" s="80"/>
-      <c r="GS10" s="80"/>
-      <c r="GT10" s="80"/>
-      <c r="GU10" s="80"/>
-      <c r="GV10" s="80"/>
-      <c r="GW10" s="80"/>
-      <c r="GX10" s="80"/>
-      <c r="GY10" s="80"/>
-      <c r="GZ10" s="80"/>
-      <c r="HA10" s="80"/>
-      <c r="HB10" s="80"/>
-      <c r="HC10" s="80"/>
-      <c r="HD10" s="80"/>
-      <c r="HE10" s="80"/>
-      <c r="HF10" s="80"/>
-      <c r="HG10" s="80"/>
-      <c r="HH10" s="80"/>
-      <c r="HI10" s="80"/>
-      <c r="HJ10" s="80"/>
-      <c r="HK10" s="80"/>
-      <c r="HL10" s="80"/>
-      <c r="HM10" s="80"/>
-      <c r="HN10" s="80"/>
-      <c r="HO10" s="80"/>
-      <c r="HP10" s="80"/>
-      <c r="HQ10" s="80"/>
-      <c r="HR10" s="80"/>
-      <c r="HS10" s="80"/>
-      <c r="HT10" s="80"/>
-      <c r="HU10" s="80"/>
-      <c r="HV10" s="80"/>
-      <c r="HW10" s="80"/>
-      <c r="HX10" s="80"/>
-      <c r="HY10" s="80"/>
-      <c r="HZ10" s="80"/>
-      <c r="IA10" s="80"/>
-      <c r="IB10" s="80"/>
-      <c r="IC10" s="80"/>
-      <c r="ID10" s="80"/>
-      <c r="IE10" s="80"/>
-      <c r="IF10" s="80"/>
-      <c r="IG10" s="80"/>
-      <c r="IH10" s="80"/>
-      <c r="II10" s="80"/>
-      <c r="IJ10" s="80"/>
-      <c r="IK10" s="80"/>
-      <c r="IL10" s="80"/>
-      <c r="IM10" s="80"/>
-      <c r="IN10" s="80"/>
-      <c r="IO10" s="80"/>
-      <c r="IP10" s="80"/>
-      <c r="IQ10" s="80"/>
-      <c r="IR10" s="80"/>
-      <c r="IS10" s="80"/>
-      <c r="IT10" s="80"/>
-      <c r="IU10" s="80"/>
-      <c r="IV10" s="80"/>
-      <c r="IW10" s="80"/>
-      <c r="IX10" s="80"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="79"/>
+      <c r="BC10" s="79"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="79"/>
+      <c r="BG10" s="79"/>
+      <c r="BH10" s="79"/>
+      <c r="BI10" s="79"/>
+      <c r="BJ10" s="79"/>
+      <c r="BK10" s="79"/>
+      <c r="BL10" s="79"/>
+      <c r="BM10" s="79"/>
+      <c r="BN10" s="79"/>
+      <c r="BO10" s="79"/>
+      <c r="BP10" s="79"/>
+      <c r="BQ10" s="79"/>
+      <c r="BR10" s="79"/>
+      <c r="BS10" s="79"/>
+      <c r="BT10" s="79"/>
+      <c r="BU10" s="79"/>
+      <c r="BV10" s="79"/>
+      <c r="BW10" s="79"/>
+      <c r="BX10" s="79"/>
+      <c r="BY10" s="79"/>
+      <c r="BZ10" s="79"/>
+      <c r="CA10" s="79"/>
+      <c r="CB10" s="79"/>
+      <c r="CC10" s="79"/>
+      <c r="CD10" s="79"/>
+      <c r="CE10" s="79"/>
+      <c r="CF10" s="79"/>
+      <c r="CG10" s="79"/>
+      <c r="CH10" s="79"/>
+      <c r="CI10" s="79"/>
+      <c r="CJ10" s="79"/>
+      <c r="CK10" s="79"/>
+      <c r="CL10" s="79"/>
+      <c r="CM10" s="79"/>
+      <c r="CN10" s="79"/>
+      <c r="CO10" s="79"/>
+      <c r="CP10" s="79"/>
+      <c r="CQ10" s="79"/>
+      <c r="CR10" s="79"/>
+      <c r="CS10" s="79"/>
+      <c r="CT10" s="79"/>
+      <c r="CU10" s="79"/>
+      <c r="CV10" s="79"/>
+      <c r="CW10" s="79"/>
+      <c r="CX10" s="79"/>
+      <c r="CY10" s="79"/>
+      <c r="CZ10" s="79"/>
+      <c r="DA10" s="79"/>
+      <c r="DB10" s="79"/>
+      <c r="DC10" s="79"/>
+      <c r="DD10" s="79"/>
+      <c r="DE10" s="79"/>
+      <c r="DF10" s="79"/>
+      <c r="DG10" s="79"/>
+      <c r="DH10" s="79"/>
+      <c r="DI10" s="79"/>
+      <c r="DJ10" s="79"/>
+      <c r="DK10" s="79"/>
+      <c r="DL10" s="79"/>
+      <c r="DM10" s="79"/>
+      <c r="DN10" s="79"/>
+      <c r="DO10" s="79"/>
+      <c r="DP10" s="79"/>
+      <c r="DQ10" s="79"/>
+      <c r="DR10" s="79"/>
+      <c r="DS10" s="79"/>
+      <c r="DT10" s="79"/>
+      <c r="DU10" s="79"/>
+      <c r="DV10" s="79"/>
+      <c r="DW10" s="79"/>
+      <c r="DX10" s="79"/>
+      <c r="DY10" s="79"/>
+      <c r="DZ10" s="79"/>
+      <c r="EA10" s="79"/>
+      <c r="EB10" s="79"/>
+      <c r="EC10" s="79"/>
+      <c r="ED10" s="79"/>
+      <c r="EE10" s="79"/>
+      <c r="EF10" s="79"/>
+      <c r="EG10" s="79"/>
+      <c r="EH10" s="79"/>
+      <c r="EI10" s="79"/>
+      <c r="EJ10" s="79"/>
+      <c r="EK10" s="79"/>
+      <c r="EL10" s="79"/>
+      <c r="EM10" s="79"/>
+      <c r="EN10" s="79"/>
+      <c r="EO10" s="79"/>
+      <c r="EP10" s="79"/>
+      <c r="EQ10" s="79"/>
+      <c r="ER10" s="79"/>
+      <c r="ES10" s="79"/>
+      <c r="ET10" s="79"/>
+      <c r="EU10" s="79"/>
+      <c r="EV10" s="79"/>
+      <c r="EW10" s="79"/>
+      <c r="EX10" s="79"/>
+      <c r="EY10" s="79"/>
+      <c r="EZ10" s="79"/>
+      <c r="FA10" s="79"/>
+      <c r="FB10" s="79"/>
+      <c r="FC10" s="79"/>
+      <c r="FD10" s="79"/>
+      <c r="FE10" s="79"/>
+      <c r="FF10" s="79"/>
+      <c r="FG10" s="79"/>
+      <c r="FH10" s="79"/>
+      <c r="FI10" s="79"/>
+      <c r="FJ10" s="79"/>
+      <c r="FK10" s="79"/>
+      <c r="FL10" s="79"/>
+      <c r="FM10" s="79"/>
+      <c r="FN10" s="79"/>
+      <c r="FO10" s="79"/>
+      <c r="FP10" s="79"/>
+      <c r="FQ10" s="79"/>
+      <c r="FR10" s="79"/>
+      <c r="FS10" s="79"/>
+      <c r="FT10" s="79"/>
+      <c r="FU10" s="79"/>
+      <c r="FV10" s="79"/>
+      <c r="FW10" s="79"/>
+      <c r="FX10" s="79"/>
+      <c r="FY10" s="79"/>
+      <c r="FZ10" s="79"/>
+      <c r="GA10" s="79"/>
+      <c r="GB10" s="79"/>
+      <c r="GC10" s="79"/>
+      <c r="GD10" s="79"/>
+      <c r="GE10" s="79"/>
+      <c r="GF10" s="79"/>
+      <c r="GG10" s="79"/>
+      <c r="GH10" s="79"/>
+      <c r="GI10" s="79"/>
+      <c r="GJ10" s="79"/>
+      <c r="GK10" s="79"/>
+      <c r="GL10" s="79"/>
+      <c r="GM10" s="79"/>
+      <c r="GN10" s="79"/>
+      <c r="GO10" s="79"/>
+      <c r="GP10" s="79"/>
+      <c r="GQ10" s="79"/>
+      <c r="GR10" s="79"/>
+      <c r="GS10" s="79"/>
+      <c r="GT10" s="79"/>
+      <c r="GU10" s="79"/>
+      <c r="GV10" s="79"/>
+      <c r="GW10" s="79"/>
+      <c r="GX10" s="79"/>
+      <c r="GY10" s="79"/>
+      <c r="GZ10" s="79"/>
+      <c r="HA10" s="79"/>
+      <c r="HB10" s="79"/>
+      <c r="HC10" s="79"/>
+      <c r="HD10" s="79"/>
+      <c r="HE10" s="79"/>
+      <c r="HF10" s="79"/>
+      <c r="HG10" s="79"/>
+      <c r="HH10" s="79"/>
+      <c r="HI10" s="79"/>
+      <c r="HJ10" s="79"/>
+      <c r="HK10" s="79"/>
+      <c r="HL10" s="79"/>
+      <c r="HM10" s="79"/>
+      <c r="HN10" s="79"/>
+      <c r="HO10" s="79"/>
+      <c r="HP10" s="79"/>
+      <c r="HQ10" s="79"/>
+      <c r="HR10" s="79"/>
+      <c r="HS10" s="79"/>
+      <c r="HT10" s="79"/>
+      <c r="HU10" s="79"/>
+      <c r="HV10" s="79"/>
+      <c r="HW10" s="79"/>
+      <c r="HX10" s="79"/>
+      <c r="HY10" s="79"/>
+      <c r="HZ10" s="79"/>
+      <c r="IA10" s="79"/>
+      <c r="IB10" s="79"/>
+      <c r="IC10" s="79"/>
+      <c r="ID10" s="79"/>
+      <c r="IE10" s="79"/>
+      <c r="IF10" s="79"/>
+      <c r="IG10" s="79"/>
+      <c r="IH10" s="79"/>
+      <c r="II10" s="79"/>
+      <c r="IJ10" s="79"/>
+      <c r="IK10" s="79"/>
+      <c r="IL10" s="79"/>
+      <c r="IM10" s="79"/>
+      <c r="IN10" s="79"/>
+      <c r="IO10" s="79"/>
+      <c r="IP10" s="79"/>
+      <c r="IQ10" s="79"/>
+      <c r="IR10" s="79"/>
+      <c r="IS10" s="79"/>
+      <c r="IT10" s="79"/>
+      <c r="IU10" s="79"/>
+      <c r="IV10" s="79"/>
+      <c r="IW10" s="79"/>
+      <c r="IX10" s="79"/>
     </row>
     <row r="11" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A11" s="108"/>
-      <c r="B11" s="88" t="s">
-        <v>40</v>
+      <c r="A11" s="107"/>
+      <c r="B11" s="87" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I11" s="20"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="68"/>
       <c r="L11" s="21"/>
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
@@ -5327,33 +5336,33 @@
       <c r="IX11" s="51"/>
     </row>
     <row r="12" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="H12" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="100"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="97" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="101"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="98" t="s">
-        <v>47</v>
       </c>
       <c r="M12" s="51"/>
       <c r="N12" s="51"/>
@@ -5603,554 +5612,554 @@
       <c r="IX12" s="51"/>
     </row>
     <row r="13" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A13" s="108"/>
-      <c r="B13" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="98" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="98"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="97" t="s">
-        <v>159</v>
-      </c>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="80"/>
-      <c r="AC13" s="80"/>
-      <c r="AD13" s="80"/>
-      <c r="AE13" s="80"/>
-      <c r="AF13" s="80"/>
-      <c r="AG13" s="80"/>
-      <c r="AH13" s="80"/>
-      <c r="AI13" s="80"/>
-      <c r="AJ13" s="80"/>
-      <c r="AK13" s="80"/>
-      <c r="AL13" s="80"/>
-      <c r="AM13" s="80"/>
-      <c r="AN13" s="80"/>
-      <c r="AO13" s="80"/>
-      <c r="AP13" s="80"/>
-      <c r="AQ13" s="80"/>
-      <c r="AR13" s="80"/>
-      <c r="AS13" s="80"/>
-      <c r="AT13" s="80"/>
-      <c r="AU13" s="80"/>
-      <c r="AV13" s="80"/>
-      <c r="AW13" s="80"/>
-      <c r="AX13" s="80"/>
-      <c r="AY13" s="80"/>
-      <c r="AZ13" s="80"/>
-      <c r="BA13" s="80"/>
-      <c r="BB13" s="80"/>
-      <c r="BC13" s="80"/>
-      <c r="BD13" s="80"/>
-      <c r="BE13" s="80"/>
-      <c r="BF13" s="80"/>
-      <c r="BG13" s="80"/>
-      <c r="BH13" s="80"/>
-      <c r="BI13" s="80"/>
-      <c r="BJ13" s="80"/>
-      <c r="BK13" s="80"/>
-      <c r="BL13" s="80"/>
-      <c r="BM13" s="80"/>
-      <c r="BN13" s="80"/>
-      <c r="BO13" s="80"/>
-      <c r="BP13" s="80"/>
-      <c r="BQ13" s="80"/>
-      <c r="BR13" s="80"/>
-      <c r="BS13" s="80"/>
-      <c r="BT13" s="80"/>
-      <c r="BU13" s="80"/>
-      <c r="BV13" s="80"/>
-      <c r="BW13" s="80"/>
-      <c r="BX13" s="80"/>
-      <c r="BY13" s="80"/>
-      <c r="BZ13" s="80"/>
-      <c r="CA13" s="80"/>
-      <c r="CB13" s="80"/>
-      <c r="CC13" s="80"/>
-      <c r="CD13" s="80"/>
-      <c r="CE13" s="80"/>
-      <c r="CF13" s="80"/>
-      <c r="CG13" s="80"/>
-      <c r="CH13" s="80"/>
-      <c r="CI13" s="80"/>
-      <c r="CJ13" s="80"/>
-      <c r="CK13" s="80"/>
-      <c r="CL13" s="80"/>
-      <c r="CM13" s="80"/>
-      <c r="CN13" s="80"/>
-      <c r="CO13" s="80"/>
-      <c r="CP13" s="80"/>
-      <c r="CQ13" s="80"/>
-      <c r="CR13" s="80"/>
-      <c r="CS13" s="80"/>
-      <c r="CT13" s="80"/>
-      <c r="CU13" s="80"/>
-      <c r="CV13" s="80"/>
-      <c r="CW13" s="80"/>
-      <c r="CX13" s="80"/>
-      <c r="CY13" s="80"/>
-      <c r="CZ13" s="80"/>
-      <c r="DA13" s="80"/>
-      <c r="DB13" s="80"/>
-      <c r="DC13" s="80"/>
-      <c r="DD13" s="80"/>
-      <c r="DE13" s="80"/>
-      <c r="DF13" s="80"/>
-      <c r="DG13" s="80"/>
-      <c r="DH13" s="80"/>
-      <c r="DI13" s="80"/>
-      <c r="DJ13" s="80"/>
-      <c r="DK13" s="80"/>
-      <c r="DL13" s="80"/>
-      <c r="DM13" s="80"/>
-      <c r="DN13" s="80"/>
-      <c r="DO13" s="80"/>
-      <c r="DP13" s="80"/>
-      <c r="DQ13" s="80"/>
-      <c r="DR13" s="80"/>
-      <c r="DS13" s="80"/>
-      <c r="DT13" s="80"/>
-      <c r="DU13" s="80"/>
-      <c r="DV13" s="80"/>
-      <c r="DW13" s="80"/>
-      <c r="DX13" s="80"/>
-      <c r="DY13" s="80"/>
-      <c r="DZ13" s="80"/>
-      <c r="EA13" s="80"/>
-      <c r="EB13" s="80"/>
-      <c r="EC13" s="80"/>
-      <c r="ED13" s="80"/>
-      <c r="EE13" s="80"/>
-      <c r="EF13" s="80"/>
-      <c r="EG13" s="80"/>
-      <c r="EH13" s="80"/>
-      <c r="EI13" s="80"/>
-      <c r="EJ13" s="80"/>
-      <c r="EK13" s="80"/>
-      <c r="EL13" s="80"/>
-      <c r="EM13" s="80"/>
-      <c r="EN13" s="80"/>
-      <c r="EO13" s="80"/>
-      <c r="EP13" s="80"/>
-      <c r="EQ13" s="80"/>
-      <c r="ER13" s="80"/>
-      <c r="ES13" s="80"/>
-      <c r="ET13" s="80"/>
-      <c r="EU13" s="80"/>
-      <c r="EV13" s="80"/>
-      <c r="EW13" s="80"/>
-      <c r="EX13" s="80"/>
-      <c r="EY13" s="80"/>
-      <c r="EZ13" s="80"/>
-      <c r="FA13" s="80"/>
-      <c r="FB13" s="80"/>
-      <c r="FC13" s="80"/>
-      <c r="FD13" s="80"/>
-      <c r="FE13" s="80"/>
-      <c r="FF13" s="80"/>
-      <c r="FG13" s="80"/>
-      <c r="FH13" s="80"/>
-      <c r="FI13" s="80"/>
-      <c r="FJ13" s="80"/>
-      <c r="FK13" s="80"/>
-      <c r="FL13" s="80"/>
-      <c r="FM13" s="80"/>
-      <c r="FN13" s="80"/>
-      <c r="FO13" s="80"/>
-      <c r="FP13" s="80"/>
-      <c r="FQ13" s="80"/>
-      <c r="FR13" s="80"/>
-      <c r="FS13" s="80"/>
-      <c r="FT13" s="80"/>
-      <c r="FU13" s="80"/>
-      <c r="FV13" s="80"/>
-      <c r="FW13" s="80"/>
-      <c r="FX13" s="80"/>
-      <c r="FY13" s="80"/>
-      <c r="FZ13" s="80"/>
-      <c r="GA13" s="80"/>
-      <c r="GB13" s="80"/>
-      <c r="GC13" s="80"/>
-      <c r="GD13" s="80"/>
-      <c r="GE13" s="80"/>
-      <c r="GF13" s="80"/>
-      <c r="GG13" s="80"/>
-      <c r="GH13" s="80"/>
-      <c r="GI13" s="80"/>
-      <c r="GJ13" s="80"/>
-      <c r="GK13" s="80"/>
-      <c r="GL13" s="80"/>
-      <c r="GM13" s="80"/>
-      <c r="GN13" s="80"/>
-      <c r="GO13" s="80"/>
-      <c r="GP13" s="80"/>
-      <c r="GQ13" s="80"/>
-      <c r="GR13" s="80"/>
-      <c r="GS13" s="80"/>
-      <c r="GT13" s="80"/>
-      <c r="GU13" s="80"/>
-      <c r="GV13" s="80"/>
-      <c r="GW13" s="80"/>
-      <c r="GX13" s="80"/>
-      <c r="GY13" s="80"/>
-      <c r="GZ13" s="80"/>
-      <c r="HA13" s="80"/>
-      <c r="HB13" s="80"/>
-      <c r="HC13" s="80"/>
-      <c r="HD13" s="80"/>
-      <c r="HE13" s="80"/>
-      <c r="HF13" s="80"/>
-      <c r="HG13" s="80"/>
-      <c r="HH13" s="80"/>
-      <c r="HI13" s="80"/>
-      <c r="HJ13" s="80"/>
-      <c r="HK13" s="80"/>
-      <c r="HL13" s="80"/>
-      <c r="HM13" s="80"/>
-      <c r="HN13" s="80"/>
-      <c r="HO13" s="80"/>
-      <c r="HP13" s="80"/>
-      <c r="HQ13" s="80"/>
-      <c r="HR13" s="80"/>
-      <c r="HS13" s="80"/>
-      <c r="HT13" s="80"/>
-      <c r="HU13" s="80"/>
-      <c r="HV13" s="80"/>
-      <c r="HW13" s="80"/>
-      <c r="HX13" s="80"/>
-      <c r="HY13" s="80"/>
-      <c r="HZ13" s="80"/>
-      <c r="IA13" s="80"/>
-      <c r="IB13" s="80"/>
-      <c r="IC13" s="80"/>
-      <c r="ID13" s="80"/>
-      <c r="IE13" s="80"/>
-      <c r="IF13" s="80"/>
-      <c r="IG13" s="80"/>
-      <c r="IH13" s="80"/>
-      <c r="II13" s="80"/>
-      <c r="IJ13" s="80"/>
-      <c r="IK13" s="80"/>
-      <c r="IL13" s="80"/>
-      <c r="IM13" s="80"/>
-      <c r="IN13" s="80"/>
-      <c r="IO13" s="80"/>
-      <c r="IP13" s="80"/>
-      <c r="IQ13" s="80"/>
-      <c r="IR13" s="80"/>
-      <c r="IS13" s="80"/>
-      <c r="IT13" s="80"/>
-      <c r="IU13" s="80"/>
-      <c r="IV13" s="80"/>
-      <c r="IW13" s="80"/>
-      <c r="IX13" s="80"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="97"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="79"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="79"/>
+      <c r="AK13" s="79"/>
+      <c r="AL13" s="79"/>
+      <c r="AM13" s="79"/>
+      <c r="AN13" s="79"/>
+      <c r="AO13" s="79"/>
+      <c r="AP13" s="79"/>
+      <c r="AQ13" s="79"/>
+      <c r="AR13" s="79"/>
+      <c r="AS13" s="79"/>
+      <c r="AT13" s="79"/>
+      <c r="AU13" s="79"/>
+      <c r="AV13" s="79"/>
+      <c r="AW13" s="79"/>
+      <c r="AX13" s="79"/>
+      <c r="AY13" s="79"/>
+      <c r="AZ13" s="79"/>
+      <c r="BA13" s="79"/>
+      <c r="BB13" s="79"/>
+      <c r="BC13" s="79"/>
+      <c r="BD13" s="79"/>
+      <c r="BE13" s="79"/>
+      <c r="BF13" s="79"/>
+      <c r="BG13" s="79"/>
+      <c r="BH13" s="79"/>
+      <c r="BI13" s="79"/>
+      <c r="BJ13" s="79"/>
+      <c r="BK13" s="79"/>
+      <c r="BL13" s="79"/>
+      <c r="BM13" s="79"/>
+      <c r="BN13" s="79"/>
+      <c r="BO13" s="79"/>
+      <c r="BP13" s="79"/>
+      <c r="BQ13" s="79"/>
+      <c r="BR13" s="79"/>
+      <c r="BS13" s="79"/>
+      <c r="BT13" s="79"/>
+      <c r="BU13" s="79"/>
+      <c r="BV13" s="79"/>
+      <c r="BW13" s="79"/>
+      <c r="BX13" s="79"/>
+      <c r="BY13" s="79"/>
+      <c r="BZ13" s="79"/>
+      <c r="CA13" s="79"/>
+      <c r="CB13" s="79"/>
+      <c r="CC13" s="79"/>
+      <c r="CD13" s="79"/>
+      <c r="CE13" s="79"/>
+      <c r="CF13" s="79"/>
+      <c r="CG13" s="79"/>
+      <c r="CH13" s="79"/>
+      <c r="CI13" s="79"/>
+      <c r="CJ13" s="79"/>
+      <c r="CK13" s="79"/>
+      <c r="CL13" s="79"/>
+      <c r="CM13" s="79"/>
+      <c r="CN13" s="79"/>
+      <c r="CO13" s="79"/>
+      <c r="CP13" s="79"/>
+      <c r="CQ13" s="79"/>
+      <c r="CR13" s="79"/>
+      <c r="CS13" s="79"/>
+      <c r="CT13" s="79"/>
+      <c r="CU13" s="79"/>
+      <c r="CV13" s="79"/>
+      <c r="CW13" s="79"/>
+      <c r="CX13" s="79"/>
+      <c r="CY13" s="79"/>
+      <c r="CZ13" s="79"/>
+      <c r="DA13" s="79"/>
+      <c r="DB13" s="79"/>
+      <c r="DC13" s="79"/>
+      <c r="DD13" s="79"/>
+      <c r="DE13" s="79"/>
+      <c r="DF13" s="79"/>
+      <c r="DG13" s="79"/>
+      <c r="DH13" s="79"/>
+      <c r="DI13" s="79"/>
+      <c r="DJ13" s="79"/>
+      <c r="DK13" s="79"/>
+      <c r="DL13" s="79"/>
+      <c r="DM13" s="79"/>
+      <c r="DN13" s="79"/>
+      <c r="DO13" s="79"/>
+      <c r="DP13" s="79"/>
+      <c r="DQ13" s="79"/>
+      <c r="DR13" s="79"/>
+      <c r="DS13" s="79"/>
+      <c r="DT13" s="79"/>
+      <c r="DU13" s="79"/>
+      <c r="DV13" s="79"/>
+      <c r="DW13" s="79"/>
+      <c r="DX13" s="79"/>
+      <c r="DY13" s="79"/>
+      <c r="DZ13" s="79"/>
+      <c r="EA13" s="79"/>
+      <c r="EB13" s="79"/>
+      <c r="EC13" s="79"/>
+      <c r="ED13" s="79"/>
+      <c r="EE13" s="79"/>
+      <c r="EF13" s="79"/>
+      <c r="EG13" s="79"/>
+      <c r="EH13" s="79"/>
+      <c r="EI13" s="79"/>
+      <c r="EJ13" s="79"/>
+      <c r="EK13" s="79"/>
+      <c r="EL13" s="79"/>
+      <c r="EM13" s="79"/>
+      <c r="EN13" s="79"/>
+      <c r="EO13" s="79"/>
+      <c r="EP13" s="79"/>
+      <c r="EQ13" s="79"/>
+      <c r="ER13" s="79"/>
+      <c r="ES13" s="79"/>
+      <c r="ET13" s="79"/>
+      <c r="EU13" s="79"/>
+      <c r="EV13" s="79"/>
+      <c r="EW13" s="79"/>
+      <c r="EX13" s="79"/>
+      <c r="EY13" s="79"/>
+      <c r="EZ13" s="79"/>
+      <c r="FA13" s="79"/>
+      <c r="FB13" s="79"/>
+      <c r="FC13" s="79"/>
+      <c r="FD13" s="79"/>
+      <c r="FE13" s="79"/>
+      <c r="FF13" s="79"/>
+      <c r="FG13" s="79"/>
+      <c r="FH13" s="79"/>
+      <c r="FI13" s="79"/>
+      <c r="FJ13" s="79"/>
+      <c r="FK13" s="79"/>
+      <c r="FL13" s="79"/>
+      <c r="FM13" s="79"/>
+      <c r="FN13" s="79"/>
+      <c r="FO13" s="79"/>
+      <c r="FP13" s="79"/>
+      <c r="FQ13" s="79"/>
+      <c r="FR13" s="79"/>
+      <c r="FS13" s="79"/>
+      <c r="FT13" s="79"/>
+      <c r="FU13" s="79"/>
+      <c r="FV13" s="79"/>
+      <c r="FW13" s="79"/>
+      <c r="FX13" s="79"/>
+      <c r="FY13" s="79"/>
+      <c r="FZ13" s="79"/>
+      <c r="GA13" s="79"/>
+      <c r="GB13" s="79"/>
+      <c r="GC13" s="79"/>
+      <c r="GD13" s="79"/>
+      <c r="GE13" s="79"/>
+      <c r="GF13" s="79"/>
+      <c r="GG13" s="79"/>
+      <c r="GH13" s="79"/>
+      <c r="GI13" s="79"/>
+      <c r="GJ13" s="79"/>
+      <c r="GK13" s="79"/>
+      <c r="GL13" s="79"/>
+      <c r="GM13" s="79"/>
+      <c r="GN13" s="79"/>
+      <c r="GO13" s="79"/>
+      <c r="GP13" s="79"/>
+      <c r="GQ13" s="79"/>
+      <c r="GR13" s="79"/>
+      <c r="GS13" s="79"/>
+      <c r="GT13" s="79"/>
+      <c r="GU13" s="79"/>
+      <c r="GV13" s="79"/>
+      <c r="GW13" s="79"/>
+      <c r="GX13" s="79"/>
+      <c r="GY13" s="79"/>
+      <c r="GZ13" s="79"/>
+      <c r="HA13" s="79"/>
+      <c r="HB13" s="79"/>
+      <c r="HC13" s="79"/>
+      <c r="HD13" s="79"/>
+      <c r="HE13" s="79"/>
+      <c r="HF13" s="79"/>
+      <c r="HG13" s="79"/>
+      <c r="HH13" s="79"/>
+      <c r="HI13" s="79"/>
+      <c r="HJ13" s="79"/>
+      <c r="HK13" s="79"/>
+      <c r="HL13" s="79"/>
+      <c r="HM13" s="79"/>
+      <c r="HN13" s="79"/>
+      <c r="HO13" s="79"/>
+      <c r="HP13" s="79"/>
+      <c r="HQ13" s="79"/>
+      <c r="HR13" s="79"/>
+      <c r="HS13" s="79"/>
+      <c r="HT13" s="79"/>
+      <c r="HU13" s="79"/>
+      <c r="HV13" s="79"/>
+      <c r="HW13" s="79"/>
+      <c r="HX13" s="79"/>
+      <c r="HY13" s="79"/>
+      <c r="HZ13" s="79"/>
+      <c r="IA13" s="79"/>
+      <c r="IB13" s="79"/>
+      <c r="IC13" s="79"/>
+      <c r="ID13" s="79"/>
+      <c r="IE13" s="79"/>
+      <c r="IF13" s="79"/>
+      <c r="IG13" s="79"/>
+      <c r="IH13" s="79"/>
+      <c r="II13" s="79"/>
+      <c r="IJ13" s="79"/>
+      <c r="IK13" s="79"/>
+      <c r="IL13" s="79"/>
+      <c r="IM13" s="79"/>
+      <c r="IN13" s="79"/>
+      <c r="IO13" s="79"/>
+      <c r="IP13" s="79"/>
+      <c r="IQ13" s="79"/>
+      <c r="IR13" s="79"/>
+      <c r="IS13" s="79"/>
+      <c r="IT13" s="79"/>
+      <c r="IU13" s="79"/>
+      <c r="IV13" s="79"/>
+      <c r="IW13" s="79"/>
+      <c r="IX13" s="79"/>
     </row>
     <row r="14" spans="1:258" s="56" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A14" s="109"/>
-      <c r="B14" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="97"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="98">
+      <c r="A14" s="108"/>
+      <c r="B14" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="96"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="97">
         <v>1</v>
       </c>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="82"/>
-      <c r="AJ14" s="82"/>
-      <c r="AK14" s="82"/>
-      <c r="AL14" s="82"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="82"/>
-      <c r="AO14" s="82"/>
-      <c r="AP14" s="82"/>
-      <c r="AQ14" s="82"/>
-      <c r="AR14" s="82"/>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="82"/>
-      <c r="AU14" s="82"/>
-      <c r="AV14" s="82"/>
-      <c r="AW14" s="82"/>
-      <c r="AX14" s="82"/>
-      <c r="AY14" s="82"/>
-      <c r="AZ14" s="82"/>
-      <c r="BA14" s="82"/>
-      <c r="BB14" s="82"/>
-      <c r="BC14" s="82"/>
-      <c r="BD14" s="82"/>
-      <c r="BE14" s="82"/>
-      <c r="BF14" s="82"/>
-      <c r="BG14" s="82"/>
-      <c r="BH14" s="82"/>
-      <c r="BI14" s="82"/>
-      <c r="BJ14" s="82"/>
-      <c r="BK14" s="82"/>
-      <c r="BL14" s="82"/>
-      <c r="BM14" s="82"/>
-      <c r="BN14" s="82"/>
-      <c r="BO14" s="82"/>
-      <c r="BP14" s="82"/>
-      <c r="BQ14" s="82"/>
-      <c r="BR14" s="82"/>
-      <c r="BS14" s="82"/>
-      <c r="BT14" s="82"/>
-      <c r="BU14" s="82"/>
-      <c r="BV14" s="82"/>
-      <c r="BW14" s="82"/>
-      <c r="BX14" s="82"/>
-      <c r="BY14" s="82"/>
-      <c r="BZ14" s="82"/>
-      <c r="CA14" s="82"/>
-      <c r="CB14" s="82"/>
-      <c r="CC14" s="82"/>
-      <c r="CD14" s="82"/>
-      <c r="CE14" s="82"/>
-      <c r="CF14" s="82"/>
-      <c r="CG14" s="82"/>
-      <c r="CH14" s="82"/>
-      <c r="CI14" s="82"/>
-      <c r="CJ14" s="82"/>
-      <c r="CK14" s="82"/>
-      <c r="CL14" s="82"/>
-      <c r="CM14" s="82"/>
-      <c r="CN14" s="82"/>
-      <c r="CO14" s="82"/>
-      <c r="CP14" s="82"/>
-      <c r="CQ14" s="82"/>
-      <c r="CR14" s="82"/>
-      <c r="CS14" s="82"/>
-      <c r="CT14" s="82"/>
-      <c r="CU14" s="82"/>
-      <c r="CV14" s="82"/>
-      <c r="CW14" s="82"/>
-      <c r="CX14" s="82"/>
-      <c r="CY14" s="82"/>
-      <c r="CZ14" s="82"/>
-      <c r="DA14" s="82"/>
-      <c r="DB14" s="82"/>
-      <c r="DC14" s="82"/>
-      <c r="DD14" s="82"/>
-      <c r="DE14" s="82"/>
-      <c r="DF14" s="82"/>
-      <c r="DG14" s="82"/>
-      <c r="DH14" s="82"/>
-      <c r="DI14" s="82"/>
-      <c r="DJ14" s="82"/>
-      <c r="DK14" s="82"/>
-      <c r="DL14" s="82"/>
-      <c r="DM14" s="82"/>
-      <c r="DN14" s="82"/>
-      <c r="DO14" s="82"/>
-      <c r="DP14" s="82"/>
-      <c r="DQ14" s="82"/>
-      <c r="DR14" s="82"/>
-      <c r="DS14" s="82"/>
-      <c r="DT14" s="82"/>
-      <c r="DU14" s="82"/>
-      <c r="DV14" s="82"/>
-      <c r="DW14" s="82"/>
-      <c r="DX14" s="82"/>
-      <c r="DY14" s="82"/>
-      <c r="DZ14" s="82"/>
-      <c r="EA14" s="82"/>
-      <c r="EB14" s="82"/>
-      <c r="EC14" s="82"/>
-      <c r="ED14" s="82"/>
-      <c r="EE14" s="82"/>
-      <c r="EF14" s="82"/>
-      <c r="EG14" s="82"/>
-      <c r="EH14" s="82"/>
-      <c r="EI14" s="82"/>
-      <c r="EJ14" s="82"/>
-      <c r="EK14" s="82"/>
-      <c r="EL14" s="82"/>
-      <c r="EM14" s="82"/>
-      <c r="EN14" s="82"/>
-      <c r="EO14" s="82"/>
-      <c r="EP14" s="82"/>
-      <c r="EQ14" s="82"/>
-      <c r="ER14" s="82"/>
-      <c r="ES14" s="82"/>
-      <c r="ET14" s="82"/>
-      <c r="EU14" s="82"/>
-      <c r="EV14" s="82"/>
-      <c r="EW14" s="82"/>
-      <c r="EX14" s="82"/>
-      <c r="EY14" s="82"/>
-      <c r="EZ14" s="82"/>
-      <c r="FA14" s="82"/>
-      <c r="FB14" s="82"/>
-      <c r="FC14" s="82"/>
-      <c r="FD14" s="82"/>
-      <c r="FE14" s="82"/>
-      <c r="FF14" s="82"/>
-      <c r="FG14" s="82"/>
-      <c r="FH14" s="82"/>
-      <c r="FI14" s="82"/>
-      <c r="FJ14" s="82"/>
-      <c r="FK14" s="82"/>
-      <c r="FL14" s="82"/>
-      <c r="FM14" s="82"/>
-      <c r="FN14" s="82"/>
-      <c r="FO14" s="82"/>
-      <c r="FP14" s="82"/>
-      <c r="FQ14" s="82"/>
-      <c r="FR14" s="82"/>
-      <c r="FS14" s="82"/>
-      <c r="FT14" s="82"/>
-      <c r="FU14" s="82"/>
-      <c r="FV14" s="82"/>
-      <c r="FW14" s="82"/>
-      <c r="FX14" s="82"/>
-      <c r="FY14" s="82"/>
-      <c r="FZ14" s="82"/>
-      <c r="GA14" s="82"/>
-      <c r="GB14" s="82"/>
-      <c r="GC14" s="82"/>
-      <c r="GD14" s="82"/>
-      <c r="GE14" s="82"/>
-      <c r="GF14" s="82"/>
-      <c r="GG14" s="82"/>
-      <c r="GH14" s="82"/>
-      <c r="GI14" s="82"/>
-      <c r="GJ14" s="82"/>
-      <c r="GK14" s="82"/>
-      <c r="GL14" s="82"/>
-      <c r="GM14" s="82"/>
-      <c r="GN14" s="82"/>
-      <c r="GO14" s="82"/>
-      <c r="GP14" s="82"/>
-      <c r="GQ14" s="82"/>
-      <c r="GR14" s="82"/>
-      <c r="GS14" s="82"/>
-      <c r="GT14" s="82"/>
-      <c r="GU14" s="82"/>
-      <c r="GV14" s="82"/>
-      <c r="GW14" s="82"/>
-      <c r="GX14" s="82"/>
-      <c r="GY14" s="82"/>
-      <c r="GZ14" s="82"/>
-      <c r="HA14" s="82"/>
-      <c r="HB14" s="82"/>
-      <c r="HC14" s="82"/>
-      <c r="HD14" s="82"/>
-      <c r="HE14" s="82"/>
-      <c r="HF14" s="82"/>
-      <c r="HG14" s="82"/>
-      <c r="HH14" s="82"/>
-      <c r="HI14" s="82"/>
-      <c r="HJ14" s="82"/>
-      <c r="HK14" s="82"/>
-      <c r="HL14" s="82"/>
-      <c r="HM14" s="82"/>
-      <c r="HN14" s="82"/>
-      <c r="HO14" s="82"/>
-      <c r="HP14" s="82"/>
-      <c r="HQ14" s="82"/>
-      <c r="HR14" s="82"/>
-      <c r="HS14" s="82"/>
-      <c r="HT14" s="82"/>
-      <c r="HU14" s="82"/>
-      <c r="HV14" s="82"/>
-      <c r="HW14" s="82"/>
-      <c r="HX14" s="82"/>
-      <c r="HY14" s="82"/>
-      <c r="HZ14" s="82"/>
-      <c r="IA14" s="82"/>
-      <c r="IB14" s="82"/>
-      <c r="IC14" s="82"/>
-      <c r="ID14" s="82"/>
-      <c r="IE14" s="82"/>
-      <c r="IF14" s="82"/>
-      <c r="IG14" s="82"/>
-      <c r="IH14" s="82"/>
-      <c r="II14" s="82"/>
-      <c r="IJ14" s="82"/>
-      <c r="IK14" s="82"/>
-      <c r="IL14" s="82"/>
-      <c r="IM14" s="82"/>
-      <c r="IN14" s="82"/>
-      <c r="IO14" s="82"/>
-      <c r="IP14" s="82"/>
-      <c r="IQ14" s="82"/>
-      <c r="IR14" s="82"/>
-      <c r="IS14" s="82"/>
-      <c r="IT14" s="82"/>
-      <c r="IU14" s="82"/>
-      <c r="IV14" s="82"/>
-      <c r="IW14" s="82"/>
-      <c r="IX14" s="82"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="81"/>
+      <c r="AM14" s="81"/>
+      <c r="AN14" s="81"/>
+      <c r="AO14" s="81"/>
+      <c r="AP14" s="81"/>
+      <c r="AQ14" s="81"/>
+      <c r="AR14" s="81"/>
+      <c r="AS14" s="81"/>
+      <c r="AT14" s="81"/>
+      <c r="AU14" s="81"/>
+      <c r="AV14" s="81"/>
+      <c r="AW14" s="81"/>
+      <c r="AX14" s="81"/>
+      <c r="AY14" s="81"/>
+      <c r="AZ14" s="81"/>
+      <c r="BA14" s="81"/>
+      <c r="BB14" s="81"/>
+      <c r="BC14" s="81"/>
+      <c r="BD14" s="81"/>
+      <c r="BE14" s="81"/>
+      <c r="BF14" s="81"/>
+      <c r="BG14" s="81"/>
+      <c r="BH14" s="81"/>
+      <c r="BI14" s="81"/>
+      <c r="BJ14" s="81"/>
+      <c r="BK14" s="81"/>
+      <c r="BL14" s="81"/>
+      <c r="BM14" s="81"/>
+      <c r="BN14" s="81"/>
+      <c r="BO14" s="81"/>
+      <c r="BP14" s="81"/>
+      <c r="BQ14" s="81"/>
+      <c r="BR14" s="81"/>
+      <c r="BS14" s="81"/>
+      <c r="BT14" s="81"/>
+      <c r="BU14" s="81"/>
+      <c r="BV14" s="81"/>
+      <c r="BW14" s="81"/>
+      <c r="BX14" s="81"/>
+      <c r="BY14" s="81"/>
+      <c r="BZ14" s="81"/>
+      <c r="CA14" s="81"/>
+      <c r="CB14" s="81"/>
+      <c r="CC14" s="81"/>
+      <c r="CD14" s="81"/>
+      <c r="CE14" s="81"/>
+      <c r="CF14" s="81"/>
+      <c r="CG14" s="81"/>
+      <c r="CH14" s="81"/>
+      <c r="CI14" s="81"/>
+      <c r="CJ14" s="81"/>
+      <c r="CK14" s="81"/>
+      <c r="CL14" s="81"/>
+      <c r="CM14" s="81"/>
+      <c r="CN14" s="81"/>
+      <c r="CO14" s="81"/>
+      <c r="CP14" s="81"/>
+      <c r="CQ14" s="81"/>
+      <c r="CR14" s="81"/>
+      <c r="CS14" s="81"/>
+      <c r="CT14" s="81"/>
+      <c r="CU14" s="81"/>
+      <c r="CV14" s="81"/>
+      <c r="CW14" s="81"/>
+      <c r="CX14" s="81"/>
+      <c r="CY14" s="81"/>
+      <c r="CZ14" s="81"/>
+      <c r="DA14" s="81"/>
+      <c r="DB14" s="81"/>
+      <c r="DC14" s="81"/>
+      <c r="DD14" s="81"/>
+      <c r="DE14" s="81"/>
+      <c r="DF14" s="81"/>
+      <c r="DG14" s="81"/>
+      <c r="DH14" s="81"/>
+      <c r="DI14" s="81"/>
+      <c r="DJ14" s="81"/>
+      <c r="DK14" s="81"/>
+      <c r="DL14" s="81"/>
+      <c r="DM14" s="81"/>
+      <c r="DN14" s="81"/>
+      <c r="DO14" s="81"/>
+      <c r="DP14" s="81"/>
+      <c r="DQ14" s="81"/>
+      <c r="DR14" s="81"/>
+      <c r="DS14" s="81"/>
+      <c r="DT14" s="81"/>
+      <c r="DU14" s="81"/>
+      <c r="DV14" s="81"/>
+      <c r="DW14" s="81"/>
+      <c r="DX14" s="81"/>
+      <c r="DY14" s="81"/>
+      <c r="DZ14" s="81"/>
+      <c r="EA14" s="81"/>
+      <c r="EB14" s="81"/>
+      <c r="EC14" s="81"/>
+      <c r="ED14" s="81"/>
+      <c r="EE14" s="81"/>
+      <c r="EF14" s="81"/>
+      <c r="EG14" s="81"/>
+      <c r="EH14" s="81"/>
+      <c r="EI14" s="81"/>
+      <c r="EJ14" s="81"/>
+      <c r="EK14" s="81"/>
+      <c r="EL14" s="81"/>
+      <c r="EM14" s="81"/>
+      <c r="EN14" s="81"/>
+      <c r="EO14" s="81"/>
+      <c r="EP14" s="81"/>
+      <c r="EQ14" s="81"/>
+      <c r="ER14" s="81"/>
+      <c r="ES14" s="81"/>
+      <c r="ET14" s="81"/>
+      <c r="EU14" s="81"/>
+      <c r="EV14" s="81"/>
+      <c r="EW14" s="81"/>
+      <c r="EX14" s="81"/>
+      <c r="EY14" s="81"/>
+      <c r="EZ14" s="81"/>
+      <c r="FA14" s="81"/>
+      <c r="FB14" s="81"/>
+      <c r="FC14" s="81"/>
+      <c r="FD14" s="81"/>
+      <c r="FE14" s="81"/>
+      <c r="FF14" s="81"/>
+      <c r="FG14" s="81"/>
+      <c r="FH14" s="81"/>
+      <c r="FI14" s="81"/>
+      <c r="FJ14" s="81"/>
+      <c r="FK14" s="81"/>
+      <c r="FL14" s="81"/>
+      <c r="FM14" s="81"/>
+      <c r="FN14" s="81"/>
+      <c r="FO14" s="81"/>
+      <c r="FP14" s="81"/>
+      <c r="FQ14" s="81"/>
+      <c r="FR14" s="81"/>
+      <c r="FS14" s="81"/>
+      <c r="FT14" s="81"/>
+      <c r="FU14" s="81"/>
+      <c r="FV14" s="81"/>
+      <c r="FW14" s="81"/>
+      <c r="FX14" s="81"/>
+      <c r="FY14" s="81"/>
+      <c r="FZ14" s="81"/>
+      <c r="GA14" s="81"/>
+      <c r="GB14" s="81"/>
+      <c r="GC14" s="81"/>
+      <c r="GD14" s="81"/>
+      <c r="GE14" s="81"/>
+      <c r="GF14" s="81"/>
+      <c r="GG14" s="81"/>
+      <c r="GH14" s="81"/>
+      <c r="GI14" s="81"/>
+      <c r="GJ14" s="81"/>
+      <c r="GK14" s="81"/>
+      <c r="GL14" s="81"/>
+      <c r="GM14" s="81"/>
+      <c r="GN14" s="81"/>
+      <c r="GO14" s="81"/>
+      <c r="GP14" s="81"/>
+      <c r="GQ14" s="81"/>
+      <c r="GR14" s="81"/>
+      <c r="GS14" s="81"/>
+      <c r="GT14" s="81"/>
+      <c r="GU14" s="81"/>
+      <c r="GV14" s="81"/>
+      <c r="GW14" s="81"/>
+      <c r="GX14" s="81"/>
+      <c r="GY14" s="81"/>
+      <c r="GZ14" s="81"/>
+      <c r="HA14" s="81"/>
+      <c r="HB14" s="81"/>
+      <c r="HC14" s="81"/>
+      <c r="HD14" s="81"/>
+      <c r="HE14" s="81"/>
+      <c r="HF14" s="81"/>
+      <c r="HG14" s="81"/>
+      <c r="HH14" s="81"/>
+      <c r="HI14" s="81"/>
+      <c r="HJ14" s="81"/>
+      <c r="HK14" s="81"/>
+      <c r="HL14" s="81"/>
+      <c r="HM14" s="81"/>
+      <c r="HN14" s="81"/>
+      <c r="HO14" s="81"/>
+      <c r="HP14" s="81"/>
+      <c r="HQ14" s="81"/>
+      <c r="HR14" s="81"/>
+      <c r="HS14" s="81"/>
+      <c r="HT14" s="81"/>
+      <c r="HU14" s="81"/>
+      <c r="HV14" s="81"/>
+      <c r="HW14" s="81"/>
+      <c r="HX14" s="81"/>
+      <c r="HY14" s="81"/>
+      <c r="HZ14" s="81"/>
+      <c r="IA14" s="81"/>
+      <c r="IB14" s="81"/>
+      <c r="IC14" s="81"/>
+      <c r="ID14" s="81"/>
+      <c r="IE14" s="81"/>
+      <c r="IF14" s="81"/>
+      <c r="IG14" s="81"/>
+      <c r="IH14" s="81"/>
+      <c r="II14" s="81"/>
+      <c r="IJ14" s="81"/>
+      <c r="IK14" s="81"/>
+      <c r="IL14" s="81"/>
+      <c r="IM14" s="81"/>
+      <c r="IN14" s="81"/>
+      <c r="IO14" s="81"/>
+      <c r="IP14" s="81"/>
+      <c r="IQ14" s="81"/>
+      <c r="IR14" s="81"/>
+      <c r="IS14" s="81"/>
+      <c r="IT14" s="81"/>
+      <c r="IU14" s="81"/>
+      <c r="IV14" s="81"/>
+      <c r="IW14" s="81"/>
+      <c r="IX14" s="81"/>
     </row>
     <row r="15" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A15" s="108"/>
-      <c r="B15" s="94" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="94" t="s">
-        <v>53</v>
+      <c r="A15" s="107"/>
+      <c r="B15" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>49</v>
       </c>
       <c r="D15" s="62" t="s">
         <v>18</v>
@@ -6158,271 +6167,271 @@
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
       <c r="G15" s="61" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H15" s="60" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="61"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="80"/>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="80"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="80"/>
-      <c r="AH15" s="80"/>
-      <c r="AI15" s="80"/>
-      <c r="AJ15" s="80"/>
-      <c r="AK15" s="80"/>
-      <c r="AL15" s="80"/>
-      <c r="AM15" s="80"/>
-      <c r="AN15" s="80"/>
-      <c r="AO15" s="80"/>
-      <c r="AP15" s="80"/>
-      <c r="AQ15" s="80"/>
-      <c r="AR15" s="80"/>
-      <c r="AS15" s="80"/>
-      <c r="AT15" s="80"/>
-      <c r="AU15" s="80"/>
-      <c r="AV15" s="80"/>
-      <c r="AW15" s="80"/>
-      <c r="AX15" s="80"/>
-      <c r="AY15" s="80"/>
-      <c r="AZ15" s="80"/>
-      <c r="BA15" s="80"/>
-      <c r="BB15" s="80"/>
-      <c r="BC15" s="80"/>
-      <c r="BD15" s="80"/>
-      <c r="BE15" s="80"/>
-      <c r="BF15" s="80"/>
-      <c r="BG15" s="80"/>
-      <c r="BH15" s="80"/>
-      <c r="BI15" s="80"/>
-      <c r="BJ15" s="80"/>
-      <c r="BK15" s="80"/>
-      <c r="BL15" s="80"/>
-      <c r="BM15" s="80"/>
-      <c r="BN15" s="80"/>
-      <c r="BO15" s="80"/>
-      <c r="BP15" s="80"/>
-      <c r="BQ15" s="80"/>
-      <c r="BR15" s="80"/>
-      <c r="BS15" s="80"/>
-      <c r="BT15" s="80"/>
-      <c r="BU15" s="80"/>
-      <c r="BV15" s="80"/>
-      <c r="BW15" s="80"/>
-      <c r="BX15" s="80"/>
-      <c r="BY15" s="80"/>
-      <c r="BZ15" s="80"/>
-      <c r="CA15" s="80"/>
-      <c r="CB15" s="80"/>
-      <c r="CC15" s="80"/>
-      <c r="CD15" s="80"/>
-      <c r="CE15" s="80"/>
-      <c r="CF15" s="80"/>
-      <c r="CG15" s="80"/>
-      <c r="CH15" s="80"/>
-      <c r="CI15" s="80"/>
-      <c r="CJ15" s="80"/>
-      <c r="CK15" s="80"/>
-      <c r="CL15" s="80"/>
-      <c r="CM15" s="80"/>
-      <c r="CN15" s="80"/>
-      <c r="CO15" s="80"/>
-      <c r="CP15" s="80"/>
-      <c r="CQ15" s="80"/>
-      <c r="CR15" s="80"/>
-      <c r="CS15" s="80"/>
-      <c r="CT15" s="80"/>
-      <c r="CU15" s="80"/>
-      <c r="CV15" s="80"/>
-      <c r="CW15" s="80"/>
-      <c r="CX15" s="80"/>
-      <c r="CY15" s="80"/>
-      <c r="CZ15" s="80"/>
-      <c r="DA15" s="80"/>
-      <c r="DB15" s="80"/>
-      <c r="DC15" s="80"/>
-      <c r="DD15" s="80"/>
-      <c r="DE15" s="80"/>
-      <c r="DF15" s="80"/>
-      <c r="DG15" s="80"/>
-      <c r="DH15" s="80"/>
-      <c r="DI15" s="80"/>
-      <c r="DJ15" s="80"/>
-      <c r="DK15" s="80"/>
-      <c r="DL15" s="80"/>
-      <c r="DM15" s="80"/>
-      <c r="DN15" s="80"/>
-      <c r="DO15" s="80"/>
-      <c r="DP15" s="80"/>
-      <c r="DQ15" s="80"/>
-      <c r="DR15" s="80"/>
-      <c r="DS15" s="80"/>
-      <c r="DT15" s="80"/>
-      <c r="DU15" s="80"/>
-      <c r="DV15" s="80"/>
-      <c r="DW15" s="80"/>
-      <c r="DX15" s="80"/>
-      <c r="DY15" s="80"/>
-      <c r="DZ15" s="80"/>
-      <c r="EA15" s="80"/>
-      <c r="EB15" s="80"/>
-      <c r="EC15" s="80"/>
-      <c r="ED15" s="80"/>
-      <c r="EE15" s="80"/>
-      <c r="EF15" s="80"/>
-      <c r="EG15" s="80"/>
-      <c r="EH15" s="80"/>
-      <c r="EI15" s="80"/>
-      <c r="EJ15" s="80"/>
-      <c r="EK15" s="80"/>
-      <c r="EL15" s="80"/>
-      <c r="EM15" s="80"/>
-      <c r="EN15" s="80"/>
-      <c r="EO15" s="80"/>
-      <c r="EP15" s="80"/>
-      <c r="EQ15" s="80"/>
-      <c r="ER15" s="80"/>
-      <c r="ES15" s="80"/>
-      <c r="ET15" s="80"/>
-      <c r="EU15" s="80"/>
-      <c r="EV15" s="80"/>
-      <c r="EW15" s="80"/>
-      <c r="EX15" s="80"/>
-      <c r="EY15" s="80"/>
-      <c r="EZ15" s="80"/>
-      <c r="FA15" s="80"/>
-      <c r="FB15" s="80"/>
-      <c r="FC15" s="80"/>
-      <c r="FD15" s="80"/>
-      <c r="FE15" s="80"/>
-      <c r="FF15" s="80"/>
-      <c r="FG15" s="80"/>
-      <c r="FH15" s="80"/>
-      <c r="FI15" s="80"/>
-      <c r="FJ15" s="80"/>
-      <c r="FK15" s="80"/>
-      <c r="FL15" s="80"/>
-      <c r="FM15" s="80"/>
-      <c r="FN15" s="80"/>
-      <c r="FO15" s="80"/>
-      <c r="FP15" s="80"/>
-      <c r="FQ15" s="80"/>
-      <c r="FR15" s="80"/>
-      <c r="FS15" s="80"/>
-      <c r="FT15" s="80"/>
-      <c r="FU15" s="80"/>
-      <c r="FV15" s="80"/>
-      <c r="FW15" s="80"/>
-      <c r="FX15" s="80"/>
-      <c r="FY15" s="80"/>
-      <c r="FZ15" s="80"/>
-      <c r="GA15" s="80"/>
-      <c r="GB15" s="80"/>
-      <c r="GC15" s="80"/>
-      <c r="GD15" s="80"/>
-      <c r="GE15" s="80"/>
-      <c r="GF15" s="80"/>
-      <c r="GG15" s="80"/>
-      <c r="GH15" s="80"/>
-      <c r="GI15" s="80"/>
-      <c r="GJ15" s="80"/>
-      <c r="GK15" s="80"/>
-      <c r="GL15" s="80"/>
-      <c r="GM15" s="80"/>
-      <c r="GN15" s="80"/>
-      <c r="GO15" s="80"/>
-      <c r="GP15" s="80"/>
-      <c r="GQ15" s="80"/>
-      <c r="GR15" s="80"/>
-      <c r="GS15" s="80"/>
-      <c r="GT15" s="80"/>
-      <c r="GU15" s="80"/>
-      <c r="GV15" s="80"/>
-      <c r="GW15" s="80"/>
-      <c r="GX15" s="80"/>
-      <c r="GY15" s="80"/>
-      <c r="GZ15" s="80"/>
-      <c r="HA15" s="80"/>
-      <c r="HB15" s="80"/>
-      <c r="HC15" s="80"/>
-      <c r="HD15" s="80"/>
-      <c r="HE15" s="80"/>
-      <c r="HF15" s="80"/>
-      <c r="HG15" s="80"/>
-      <c r="HH15" s="80"/>
-      <c r="HI15" s="80"/>
-      <c r="HJ15" s="80"/>
-      <c r="HK15" s="80"/>
-      <c r="HL15" s="80"/>
-      <c r="HM15" s="80"/>
-      <c r="HN15" s="80"/>
-      <c r="HO15" s="80"/>
-      <c r="HP15" s="80"/>
-      <c r="HQ15" s="80"/>
-      <c r="HR15" s="80"/>
-      <c r="HS15" s="80"/>
-      <c r="HT15" s="80"/>
-      <c r="HU15" s="80"/>
-      <c r="HV15" s="80"/>
-      <c r="HW15" s="80"/>
-      <c r="HX15" s="80"/>
-      <c r="HY15" s="80"/>
-      <c r="HZ15" s="80"/>
-      <c r="IA15" s="80"/>
-      <c r="IB15" s="80"/>
-      <c r="IC15" s="80"/>
-      <c r="ID15" s="80"/>
-      <c r="IE15" s="80"/>
-      <c r="IF15" s="80"/>
-      <c r="IG15" s="80"/>
-      <c r="IH15" s="80"/>
-      <c r="II15" s="80"/>
-      <c r="IJ15" s="80"/>
-      <c r="IK15" s="80"/>
-      <c r="IL15" s="80"/>
-      <c r="IM15" s="80"/>
-      <c r="IN15" s="80"/>
-      <c r="IO15" s="80"/>
-      <c r="IP15" s="80"/>
-      <c r="IQ15" s="80"/>
-      <c r="IR15" s="80"/>
-      <c r="IS15" s="80"/>
-      <c r="IT15" s="80"/>
-      <c r="IU15" s="80"/>
-      <c r="IV15" s="80"/>
-      <c r="IW15" s="80"/>
-      <c r="IX15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="79"/>
+      <c r="AI15" s="79"/>
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="79"/>
+      <c r="AM15" s="79"/>
+      <c r="AN15" s="79"/>
+      <c r="AO15" s="79"/>
+      <c r="AP15" s="79"/>
+      <c r="AQ15" s="79"/>
+      <c r="AR15" s="79"/>
+      <c r="AS15" s="79"/>
+      <c r="AT15" s="79"/>
+      <c r="AU15" s="79"/>
+      <c r="AV15" s="79"/>
+      <c r="AW15" s="79"/>
+      <c r="AX15" s="79"/>
+      <c r="AY15" s="79"/>
+      <c r="AZ15" s="79"/>
+      <c r="BA15" s="79"/>
+      <c r="BB15" s="79"/>
+      <c r="BC15" s="79"/>
+      <c r="BD15" s="79"/>
+      <c r="BE15" s="79"/>
+      <c r="BF15" s="79"/>
+      <c r="BG15" s="79"/>
+      <c r="BH15" s="79"/>
+      <c r="BI15" s="79"/>
+      <c r="BJ15" s="79"/>
+      <c r="BK15" s="79"/>
+      <c r="BL15" s="79"/>
+      <c r="BM15" s="79"/>
+      <c r="BN15" s="79"/>
+      <c r="BO15" s="79"/>
+      <c r="BP15" s="79"/>
+      <c r="BQ15" s="79"/>
+      <c r="BR15" s="79"/>
+      <c r="BS15" s="79"/>
+      <c r="BT15" s="79"/>
+      <c r="BU15" s="79"/>
+      <c r="BV15" s="79"/>
+      <c r="BW15" s="79"/>
+      <c r="BX15" s="79"/>
+      <c r="BY15" s="79"/>
+      <c r="BZ15" s="79"/>
+      <c r="CA15" s="79"/>
+      <c r="CB15" s="79"/>
+      <c r="CC15" s="79"/>
+      <c r="CD15" s="79"/>
+      <c r="CE15" s="79"/>
+      <c r="CF15" s="79"/>
+      <c r="CG15" s="79"/>
+      <c r="CH15" s="79"/>
+      <c r="CI15" s="79"/>
+      <c r="CJ15" s="79"/>
+      <c r="CK15" s="79"/>
+      <c r="CL15" s="79"/>
+      <c r="CM15" s="79"/>
+      <c r="CN15" s="79"/>
+      <c r="CO15" s="79"/>
+      <c r="CP15" s="79"/>
+      <c r="CQ15" s="79"/>
+      <c r="CR15" s="79"/>
+      <c r="CS15" s="79"/>
+      <c r="CT15" s="79"/>
+      <c r="CU15" s="79"/>
+      <c r="CV15" s="79"/>
+      <c r="CW15" s="79"/>
+      <c r="CX15" s="79"/>
+      <c r="CY15" s="79"/>
+      <c r="CZ15" s="79"/>
+      <c r="DA15" s="79"/>
+      <c r="DB15" s="79"/>
+      <c r="DC15" s="79"/>
+      <c r="DD15" s="79"/>
+      <c r="DE15" s="79"/>
+      <c r="DF15" s="79"/>
+      <c r="DG15" s="79"/>
+      <c r="DH15" s="79"/>
+      <c r="DI15" s="79"/>
+      <c r="DJ15" s="79"/>
+      <c r="DK15" s="79"/>
+      <c r="DL15" s="79"/>
+      <c r="DM15" s="79"/>
+      <c r="DN15" s="79"/>
+      <c r="DO15" s="79"/>
+      <c r="DP15" s="79"/>
+      <c r="DQ15" s="79"/>
+      <c r="DR15" s="79"/>
+      <c r="DS15" s="79"/>
+      <c r="DT15" s="79"/>
+      <c r="DU15" s="79"/>
+      <c r="DV15" s="79"/>
+      <c r="DW15" s="79"/>
+      <c r="DX15" s="79"/>
+      <c r="DY15" s="79"/>
+      <c r="DZ15" s="79"/>
+      <c r="EA15" s="79"/>
+      <c r="EB15" s="79"/>
+      <c r="EC15" s="79"/>
+      <c r="ED15" s="79"/>
+      <c r="EE15" s="79"/>
+      <c r="EF15" s="79"/>
+      <c r="EG15" s="79"/>
+      <c r="EH15" s="79"/>
+      <c r="EI15" s="79"/>
+      <c r="EJ15" s="79"/>
+      <c r="EK15" s="79"/>
+      <c r="EL15" s="79"/>
+      <c r="EM15" s="79"/>
+      <c r="EN15" s="79"/>
+      <c r="EO15" s="79"/>
+      <c r="EP15" s="79"/>
+      <c r="EQ15" s="79"/>
+      <c r="ER15" s="79"/>
+      <c r="ES15" s="79"/>
+      <c r="ET15" s="79"/>
+      <c r="EU15" s="79"/>
+      <c r="EV15" s="79"/>
+      <c r="EW15" s="79"/>
+      <c r="EX15" s="79"/>
+      <c r="EY15" s="79"/>
+      <c r="EZ15" s="79"/>
+      <c r="FA15" s="79"/>
+      <c r="FB15" s="79"/>
+      <c r="FC15" s="79"/>
+      <c r="FD15" s="79"/>
+      <c r="FE15" s="79"/>
+      <c r="FF15" s="79"/>
+      <c r="FG15" s="79"/>
+      <c r="FH15" s="79"/>
+      <c r="FI15" s="79"/>
+      <c r="FJ15" s="79"/>
+      <c r="FK15" s="79"/>
+      <c r="FL15" s="79"/>
+      <c r="FM15" s="79"/>
+      <c r="FN15" s="79"/>
+      <c r="FO15" s="79"/>
+      <c r="FP15" s="79"/>
+      <c r="FQ15" s="79"/>
+      <c r="FR15" s="79"/>
+      <c r="FS15" s="79"/>
+      <c r="FT15" s="79"/>
+      <c r="FU15" s="79"/>
+      <c r="FV15" s="79"/>
+      <c r="FW15" s="79"/>
+      <c r="FX15" s="79"/>
+      <c r="FY15" s="79"/>
+      <c r="FZ15" s="79"/>
+      <c r="GA15" s="79"/>
+      <c r="GB15" s="79"/>
+      <c r="GC15" s="79"/>
+      <c r="GD15" s="79"/>
+      <c r="GE15" s="79"/>
+      <c r="GF15" s="79"/>
+      <c r="GG15" s="79"/>
+      <c r="GH15" s="79"/>
+      <c r="GI15" s="79"/>
+      <c r="GJ15" s="79"/>
+      <c r="GK15" s="79"/>
+      <c r="GL15" s="79"/>
+      <c r="GM15" s="79"/>
+      <c r="GN15" s="79"/>
+      <c r="GO15" s="79"/>
+      <c r="GP15" s="79"/>
+      <c r="GQ15" s="79"/>
+      <c r="GR15" s="79"/>
+      <c r="GS15" s="79"/>
+      <c r="GT15" s="79"/>
+      <c r="GU15" s="79"/>
+      <c r="GV15" s="79"/>
+      <c r="GW15" s="79"/>
+      <c r="GX15" s="79"/>
+      <c r="GY15" s="79"/>
+      <c r="GZ15" s="79"/>
+      <c r="HA15" s="79"/>
+      <c r="HB15" s="79"/>
+      <c r="HC15" s="79"/>
+      <c r="HD15" s="79"/>
+      <c r="HE15" s="79"/>
+      <c r="HF15" s="79"/>
+      <c r="HG15" s="79"/>
+      <c r="HH15" s="79"/>
+      <c r="HI15" s="79"/>
+      <c r="HJ15" s="79"/>
+      <c r="HK15" s="79"/>
+      <c r="HL15" s="79"/>
+      <c r="HM15" s="79"/>
+      <c r="HN15" s="79"/>
+      <c r="HO15" s="79"/>
+      <c r="HP15" s="79"/>
+      <c r="HQ15" s="79"/>
+      <c r="HR15" s="79"/>
+      <c r="HS15" s="79"/>
+      <c r="HT15" s="79"/>
+      <c r="HU15" s="79"/>
+      <c r="HV15" s="79"/>
+      <c r="HW15" s="79"/>
+      <c r="HX15" s="79"/>
+      <c r="HY15" s="79"/>
+      <c r="HZ15" s="79"/>
+      <c r="IA15" s="79"/>
+      <c r="IB15" s="79"/>
+      <c r="IC15" s="79"/>
+      <c r="ID15" s="79"/>
+      <c r="IE15" s="79"/>
+      <c r="IF15" s="79"/>
+      <c r="IG15" s="79"/>
+      <c r="IH15" s="79"/>
+      <c r="II15" s="79"/>
+      <c r="IJ15" s="79"/>
+      <c r="IK15" s="79"/>
+      <c r="IL15" s="79"/>
+      <c r="IM15" s="79"/>
+      <c r="IN15" s="79"/>
+      <c r="IO15" s="79"/>
+      <c r="IP15" s="79"/>
+      <c r="IQ15" s="79"/>
+      <c r="IR15" s="79"/>
+      <c r="IS15" s="79"/>
+      <c r="IT15" s="79"/>
+      <c r="IU15" s="79"/>
+      <c r="IV15" s="79"/>
+      <c r="IW15" s="79"/>
+      <c r="IX15" s="79"/>
     </row>
     <row r="16" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A16" s="108"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>26</v>
@@ -6430,267 +6439,267 @@
       <c r="E16" s="59"/>
       <c r="F16" s="59"/>
       <c r="G16" s="58"/>
-      <c r="H16" s="63" t="s">
-        <v>58</v>
+      <c r="H16" s="57" t="s">
+        <v>53</v>
       </c>
       <c r="I16" s="59"/>
       <c r="J16" s="58"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="80"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="80"/>
-      <c r="AH16" s="80"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="80"/>
-      <c r="AK16" s="80"/>
-      <c r="AL16" s="80"/>
-      <c r="AM16" s="80"/>
-      <c r="AN16" s="80"/>
-      <c r="AO16" s="80"/>
-      <c r="AP16" s="80"/>
-      <c r="AQ16" s="80"/>
-      <c r="AR16" s="80"/>
-      <c r="AS16" s="80"/>
-      <c r="AT16" s="80"/>
-      <c r="AU16" s="80"/>
-      <c r="AV16" s="80"/>
-      <c r="AW16" s="80"/>
-      <c r="AX16" s="80"/>
-      <c r="AY16" s="80"/>
-      <c r="AZ16" s="80"/>
-      <c r="BA16" s="80"/>
-      <c r="BB16" s="80"/>
-      <c r="BC16" s="80"/>
-      <c r="BD16" s="80"/>
-      <c r="BE16" s="80"/>
-      <c r="BF16" s="80"/>
-      <c r="BG16" s="80"/>
-      <c r="BH16" s="80"/>
-      <c r="BI16" s="80"/>
-      <c r="BJ16" s="80"/>
-      <c r="BK16" s="80"/>
-      <c r="BL16" s="80"/>
-      <c r="BM16" s="80"/>
-      <c r="BN16" s="80"/>
-      <c r="BO16" s="80"/>
-      <c r="BP16" s="80"/>
-      <c r="BQ16" s="80"/>
-      <c r="BR16" s="80"/>
-      <c r="BS16" s="80"/>
-      <c r="BT16" s="80"/>
-      <c r="BU16" s="80"/>
-      <c r="BV16" s="80"/>
-      <c r="BW16" s="80"/>
-      <c r="BX16" s="80"/>
-      <c r="BY16" s="80"/>
-      <c r="BZ16" s="80"/>
-      <c r="CA16" s="80"/>
-      <c r="CB16" s="80"/>
-      <c r="CC16" s="80"/>
-      <c r="CD16" s="80"/>
-      <c r="CE16" s="80"/>
-      <c r="CF16" s="80"/>
-      <c r="CG16" s="80"/>
-      <c r="CH16" s="80"/>
-      <c r="CI16" s="80"/>
-      <c r="CJ16" s="80"/>
-      <c r="CK16" s="80"/>
-      <c r="CL16" s="80"/>
-      <c r="CM16" s="80"/>
-      <c r="CN16" s="80"/>
-      <c r="CO16" s="80"/>
-      <c r="CP16" s="80"/>
-      <c r="CQ16" s="80"/>
-      <c r="CR16" s="80"/>
-      <c r="CS16" s="80"/>
-      <c r="CT16" s="80"/>
-      <c r="CU16" s="80"/>
-      <c r="CV16" s="80"/>
-      <c r="CW16" s="80"/>
-      <c r="CX16" s="80"/>
-      <c r="CY16" s="80"/>
-      <c r="CZ16" s="80"/>
-      <c r="DA16" s="80"/>
-      <c r="DB16" s="80"/>
-      <c r="DC16" s="80"/>
-      <c r="DD16" s="80"/>
-      <c r="DE16" s="80"/>
-      <c r="DF16" s="80"/>
-      <c r="DG16" s="80"/>
-      <c r="DH16" s="80"/>
-      <c r="DI16" s="80"/>
-      <c r="DJ16" s="80"/>
-      <c r="DK16" s="80"/>
-      <c r="DL16" s="80"/>
-      <c r="DM16" s="80"/>
-      <c r="DN16" s="80"/>
-      <c r="DO16" s="80"/>
-      <c r="DP16" s="80"/>
-      <c r="DQ16" s="80"/>
-      <c r="DR16" s="80"/>
-      <c r="DS16" s="80"/>
-      <c r="DT16" s="80"/>
-      <c r="DU16" s="80"/>
-      <c r="DV16" s="80"/>
-      <c r="DW16" s="80"/>
-      <c r="DX16" s="80"/>
-      <c r="DY16" s="80"/>
-      <c r="DZ16" s="80"/>
-      <c r="EA16" s="80"/>
-      <c r="EB16" s="80"/>
-      <c r="EC16" s="80"/>
-      <c r="ED16" s="80"/>
-      <c r="EE16" s="80"/>
-      <c r="EF16" s="80"/>
-      <c r="EG16" s="80"/>
-      <c r="EH16" s="80"/>
-      <c r="EI16" s="80"/>
-      <c r="EJ16" s="80"/>
-      <c r="EK16" s="80"/>
-      <c r="EL16" s="80"/>
-      <c r="EM16" s="80"/>
-      <c r="EN16" s="80"/>
-      <c r="EO16" s="80"/>
-      <c r="EP16" s="80"/>
-      <c r="EQ16" s="80"/>
-      <c r="ER16" s="80"/>
-      <c r="ES16" s="80"/>
-      <c r="ET16" s="80"/>
-      <c r="EU16" s="80"/>
-      <c r="EV16" s="80"/>
-      <c r="EW16" s="80"/>
-      <c r="EX16" s="80"/>
-      <c r="EY16" s="80"/>
-      <c r="EZ16" s="80"/>
-      <c r="FA16" s="80"/>
-      <c r="FB16" s="80"/>
-      <c r="FC16" s="80"/>
-      <c r="FD16" s="80"/>
-      <c r="FE16" s="80"/>
-      <c r="FF16" s="80"/>
-      <c r="FG16" s="80"/>
-      <c r="FH16" s="80"/>
-      <c r="FI16" s="80"/>
-      <c r="FJ16" s="80"/>
-      <c r="FK16" s="80"/>
-      <c r="FL16" s="80"/>
-      <c r="FM16" s="80"/>
-      <c r="FN16" s="80"/>
-      <c r="FO16" s="80"/>
-      <c r="FP16" s="80"/>
-      <c r="FQ16" s="80"/>
-      <c r="FR16" s="80"/>
-      <c r="FS16" s="80"/>
-      <c r="FT16" s="80"/>
-      <c r="FU16" s="80"/>
-      <c r="FV16" s="80"/>
-      <c r="FW16" s="80"/>
-      <c r="FX16" s="80"/>
-      <c r="FY16" s="80"/>
-      <c r="FZ16" s="80"/>
-      <c r="GA16" s="80"/>
-      <c r="GB16" s="80"/>
-      <c r="GC16" s="80"/>
-      <c r="GD16" s="80"/>
-      <c r="GE16" s="80"/>
-      <c r="GF16" s="80"/>
-      <c r="GG16" s="80"/>
-      <c r="GH16" s="80"/>
-      <c r="GI16" s="80"/>
-      <c r="GJ16" s="80"/>
-      <c r="GK16" s="80"/>
-      <c r="GL16" s="80"/>
-      <c r="GM16" s="80"/>
-      <c r="GN16" s="80"/>
-      <c r="GO16" s="80"/>
-      <c r="GP16" s="80"/>
-      <c r="GQ16" s="80"/>
-      <c r="GR16" s="80"/>
-      <c r="GS16" s="80"/>
-      <c r="GT16" s="80"/>
-      <c r="GU16" s="80"/>
-      <c r="GV16" s="80"/>
-      <c r="GW16" s="80"/>
-      <c r="GX16" s="80"/>
-      <c r="GY16" s="80"/>
-      <c r="GZ16" s="80"/>
-      <c r="HA16" s="80"/>
-      <c r="HB16" s="80"/>
-      <c r="HC16" s="80"/>
-      <c r="HD16" s="80"/>
-      <c r="HE16" s="80"/>
-      <c r="HF16" s="80"/>
-      <c r="HG16" s="80"/>
-      <c r="HH16" s="80"/>
-      <c r="HI16" s="80"/>
-      <c r="HJ16" s="80"/>
-      <c r="HK16" s="80"/>
-      <c r="HL16" s="80"/>
-      <c r="HM16" s="80"/>
-      <c r="HN16" s="80"/>
-      <c r="HO16" s="80"/>
-      <c r="HP16" s="80"/>
-      <c r="HQ16" s="80"/>
-      <c r="HR16" s="80"/>
-      <c r="HS16" s="80"/>
-      <c r="HT16" s="80"/>
-      <c r="HU16" s="80"/>
-      <c r="HV16" s="80"/>
-      <c r="HW16" s="80"/>
-      <c r="HX16" s="80"/>
-      <c r="HY16" s="80"/>
-      <c r="HZ16" s="80"/>
-      <c r="IA16" s="80"/>
-      <c r="IB16" s="80"/>
-      <c r="IC16" s="80"/>
-      <c r="ID16" s="80"/>
-      <c r="IE16" s="80"/>
-      <c r="IF16" s="80"/>
-      <c r="IG16" s="80"/>
-      <c r="IH16" s="80"/>
-      <c r="II16" s="80"/>
-      <c r="IJ16" s="80"/>
-      <c r="IK16" s="80"/>
-      <c r="IL16" s="80"/>
-      <c r="IM16" s="80"/>
-      <c r="IN16" s="80"/>
-      <c r="IO16" s="80"/>
-      <c r="IP16" s="80"/>
-      <c r="IQ16" s="80"/>
-      <c r="IR16" s="80"/>
-      <c r="IS16" s="80"/>
-      <c r="IT16" s="80"/>
-      <c r="IU16" s="80"/>
-      <c r="IV16" s="80"/>
-      <c r="IW16" s="80"/>
-      <c r="IX16" s="80"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="79"/>
+      <c r="AM16" s="79"/>
+      <c r="AN16" s="79"/>
+      <c r="AO16" s="79"/>
+      <c r="AP16" s="79"/>
+      <c r="AQ16" s="79"/>
+      <c r="AR16" s="79"/>
+      <c r="AS16" s="79"/>
+      <c r="AT16" s="79"/>
+      <c r="AU16" s="79"/>
+      <c r="AV16" s="79"/>
+      <c r="AW16" s="79"/>
+      <c r="AX16" s="79"/>
+      <c r="AY16" s="79"/>
+      <c r="AZ16" s="79"/>
+      <c r="BA16" s="79"/>
+      <c r="BB16" s="79"/>
+      <c r="BC16" s="79"/>
+      <c r="BD16" s="79"/>
+      <c r="BE16" s="79"/>
+      <c r="BF16" s="79"/>
+      <c r="BG16" s="79"/>
+      <c r="BH16" s="79"/>
+      <c r="BI16" s="79"/>
+      <c r="BJ16" s="79"/>
+      <c r="BK16" s="79"/>
+      <c r="BL16" s="79"/>
+      <c r="BM16" s="79"/>
+      <c r="BN16" s="79"/>
+      <c r="BO16" s="79"/>
+      <c r="BP16" s="79"/>
+      <c r="BQ16" s="79"/>
+      <c r="BR16" s="79"/>
+      <c r="BS16" s="79"/>
+      <c r="BT16" s="79"/>
+      <c r="BU16" s="79"/>
+      <c r="BV16" s="79"/>
+      <c r="BW16" s="79"/>
+      <c r="BX16" s="79"/>
+      <c r="BY16" s="79"/>
+      <c r="BZ16" s="79"/>
+      <c r="CA16" s="79"/>
+      <c r="CB16" s="79"/>
+      <c r="CC16" s="79"/>
+      <c r="CD16" s="79"/>
+      <c r="CE16" s="79"/>
+      <c r="CF16" s="79"/>
+      <c r="CG16" s="79"/>
+      <c r="CH16" s="79"/>
+      <c r="CI16" s="79"/>
+      <c r="CJ16" s="79"/>
+      <c r="CK16" s="79"/>
+      <c r="CL16" s="79"/>
+      <c r="CM16" s="79"/>
+      <c r="CN16" s="79"/>
+      <c r="CO16" s="79"/>
+      <c r="CP16" s="79"/>
+      <c r="CQ16" s="79"/>
+      <c r="CR16" s="79"/>
+      <c r="CS16" s="79"/>
+      <c r="CT16" s="79"/>
+      <c r="CU16" s="79"/>
+      <c r="CV16" s="79"/>
+      <c r="CW16" s="79"/>
+      <c r="CX16" s="79"/>
+      <c r="CY16" s="79"/>
+      <c r="CZ16" s="79"/>
+      <c r="DA16" s="79"/>
+      <c r="DB16" s="79"/>
+      <c r="DC16" s="79"/>
+      <c r="DD16" s="79"/>
+      <c r="DE16" s="79"/>
+      <c r="DF16" s="79"/>
+      <c r="DG16" s="79"/>
+      <c r="DH16" s="79"/>
+      <c r="DI16" s="79"/>
+      <c r="DJ16" s="79"/>
+      <c r="DK16" s="79"/>
+      <c r="DL16" s="79"/>
+      <c r="DM16" s="79"/>
+      <c r="DN16" s="79"/>
+      <c r="DO16" s="79"/>
+      <c r="DP16" s="79"/>
+      <c r="DQ16" s="79"/>
+      <c r="DR16" s="79"/>
+      <c r="DS16" s="79"/>
+      <c r="DT16" s="79"/>
+      <c r="DU16" s="79"/>
+      <c r="DV16" s="79"/>
+      <c r="DW16" s="79"/>
+      <c r="DX16" s="79"/>
+      <c r="DY16" s="79"/>
+      <c r="DZ16" s="79"/>
+      <c r="EA16" s="79"/>
+      <c r="EB16" s="79"/>
+      <c r="EC16" s="79"/>
+      <c r="ED16" s="79"/>
+      <c r="EE16" s="79"/>
+      <c r="EF16" s="79"/>
+      <c r="EG16" s="79"/>
+      <c r="EH16" s="79"/>
+      <c r="EI16" s="79"/>
+      <c r="EJ16" s="79"/>
+      <c r="EK16" s="79"/>
+      <c r="EL16" s="79"/>
+      <c r="EM16" s="79"/>
+      <c r="EN16" s="79"/>
+      <c r="EO16" s="79"/>
+      <c r="EP16" s="79"/>
+      <c r="EQ16" s="79"/>
+      <c r="ER16" s="79"/>
+      <c r="ES16" s="79"/>
+      <c r="ET16" s="79"/>
+      <c r="EU16" s="79"/>
+      <c r="EV16" s="79"/>
+      <c r="EW16" s="79"/>
+      <c r="EX16" s="79"/>
+      <c r="EY16" s="79"/>
+      <c r="EZ16" s="79"/>
+      <c r="FA16" s="79"/>
+      <c r="FB16" s="79"/>
+      <c r="FC16" s="79"/>
+      <c r="FD16" s="79"/>
+      <c r="FE16" s="79"/>
+      <c r="FF16" s="79"/>
+      <c r="FG16" s="79"/>
+      <c r="FH16" s="79"/>
+      <c r="FI16" s="79"/>
+      <c r="FJ16" s="79"/>
+      <c r="FK16" s="79"/>
+      <c r="FL16" s="79"/>
+      <c r="FM16" s="79"/>
+      <c r="FN16" s="79"/>
+      <c r="FO16" s="79"/>
+      <c r="FP16" s="79"/>
+      <c r="FQ16" s="79"/>
+      <c r="FR16" s="79"/>
+      <c r="FS16" s="79"/>
+      <c r="FT16" s="79"/>
+      <c r="FU16" s="79"/>
+      <c r="FV16" s="79"/>
+      <c r="FW16" s="79"/>
+      <c r="FX16" s="79"/>
+      <c r="FY16" s="79"/>
+      <c r="FZ16" s="79"/>
+      <c r="GA16" s="79"/>
+      <c r="GB16" s="79"/>
+      <c r="GC16" s="79"/>
+      <c r="GD16" s="79"/>
+      <c r="GE16" s="79"/>
+      <c r="GF16" s="79"/>
+      <c r="GG16" s="79"/>
+      <c r="GH16" s="79"/>
+      <c r="GI16" s="79"/>
+      <c r="GJ16" s="79"/>
+      <c r="GK16" s="79"/>
+      <c r="GL16" s="79"/>
+      <c r="GM16" s="79"/>
+      <c r="GN16" s="79"/>
+      <c r="GO16" s="79"/>
+      <c r="GP16" s="79"/>
+      <c r="GQ16" s="79"/>
+      <c r="GR16" s="79"/>
+      <c r="GS16" s="79"/>
+      <c r="GT16" s="79"/>
+      <c r="GU16" s="79"/>
+      <c r="GV16" s="79"/>
+      <c r="GW16" s="79"/>
+      <c r="GX16" s="79"/>
+      <c r="GY16" s="79"/>
+      <c r="GZ16" s="79"/>
+      <c r="HA16" s="79"/>
+      <c r="HB16" s="79"/>
+      <c r="HC16" s="79"/>
+      <c r="HD16" s="79"/>
+      <c r="HE16" s="79"/>
+      <c r="HF16" s="79"/>
+      <c r="HG16" s="79"/>
+      <c r="HH16" s="79"/>
+      <c r="HI16" s="79"/>
+      <c r="HJ16" s="79"/>
+      <c r="HK16" s="79"/>
+      <c r="HL16" s="79"/>
+      <c r="HM16" s="79"/>
+      <c r="HN16" s="79"/>
+      <c r="HO16" s="79"/>
+      <c r="HP16" s="79"/>
+      <c r="HQ16" s="79"/>
+      <c r="HR16" s="79"/>
+      <c r="HS16" s="79"/>
+      <c r="HT16" s="79"/>
+      <c r="HU16" s="79"/>
+      <c r="HV16" s="79"/>
+      <c r="HW16" s="79"/>
+      <c r="HX16" s="79"/>
+      <c r="HY16" s="79"/>
+      <c r="HZ16" s="79"/>
+      <c r="IA16" s="79"/>
+      <c r="IB16" s="79"/>
+      <c r="IC16" s="79"/>
+      <c r="ID16" s="79"/>
+      <c r="IE16" s="79"/>
+      <c r="IF16" s="79"/>
+      <c r="IG16" s="79"/>
+      <c r="IH16" s="79"/>
+      <c r="II16" s="79"/>
+      <c r="IJ16" s="79"/>
+      <c r="IK16" s="79"/>
+      <c r="IL16" s="79"/>
+      <c r="IM16" s="79"/>
+      <c r="IN16" s="79"/>
+      <c r="IO16" s="79"/>
+      <c r="IP16" s="79"/>
+      <c r="IQ16" s="79"/>
+      <c r="IR16" s="79"/>
+      <c r="IS16" s="79"/>
+      <c r="IT16" s="79"/>
+      <c r="IU16" s="79"/>
+      <c r="IV16" s="79"/>
+      <c r="IW16" s="79"/>
+      <c r="IX16" s="79"/>
     </row>
     <row r="17" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A17" s="110"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>18</v>
@@ -6698,18 +6707,18 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="70"/>
-      <c r="K17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="68"/>
       <c r="L17" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M17" s="51"/>
       <c r="N17" s="51"/>
@@ -6969,7 +6978,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="69"/>
+      <c r="K18" s="68"/>
       <c r="L18" s="21"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
@@ -7219,14 +7228,14 @@
       <c r="IX18" s="24"/>
     </row>
     <row r="19" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A19" s="111" t="s">
-        <v>63</v>
+      <c r="A19" s="110" t="s">
+        <v>58</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>26</v>
@@ -7235,11 +7244,11 @@
       <c r="F19" s="27"/>
       <c r="G19" s="29"/>
       <c r="H19" s="26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="69"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="68"/>
       <c r="L19" s="21"/>
       <c r="M19" s="51"/>
       <c r="N19" s="51"/>
@@ -7489,1341 +7498,1351 @@
       <c r="IX19" s="51"/>
     </row>
     <row r="20" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A20" s="112"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="D20" s="59" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="59"/>
       <c r="F20" s="59"/>
-      <c r="G20" s="64"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="58" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I20" s="59"/>
       <c r="J20" s="58"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="80"/>
-      <c r="AF20" s="80"/>
-      <c r="AG20" s="80"/>
-      <c r="AH20" s="80"/>
-      <c r="AI20" s="80"/>
-      <c r="AJ20" s="80"/>
-      <c r="AK20" s="80"/>
-      <c r="AL20" s="80"/>
-      <c r="AM20" s="80"/>
-      <c r="AN20" s="80"/>
-      <c r="AO20" s="80"/>
-      <c r="AP20" s="80"/>
-      <c r="AQ20" s="80"/>
-      <c r="AR20" s="80"/>
-      <c r="AS20" s="80"/>
-      <c r="AT20" s="80"/>
-      <c r="AU20" s="80"/>
-      <c r="AV20" s="80"/>
-      <c r="AW20" s="80"/>
-      <c r="AX20" s="80"/>
-      <c r="AY20" s="80"/>
-      <c r="AZ20" s="80"/>
-      <c r="BA20" s="80"/>
-      <c r="BB20" s="80"/>
-      <c r="BC20" s="80"/>
-      <c r="BD20" s="80"/>
-      <c r="BE20" s="80"/>
-      <c r="BF20" s="80"/>
-      <c r="BG20" s="80"/>
-      <c r="BH20" s="80"/>
-      <c r="BI20" s="80"/>
-      <c r="BJ20" s="80"/>
-      <c r="BK20" s="80"/>
-      <c r="BL20" s="80"/>
-      <c r="BM20" s="80"/>
-      <c r="BN20" s="80"/>
-      <c r="BO20" s="80"/>
-      <c r="BP20" s="80"/>
-      <c r="BQ20" s="80"/>
-      <c r="BR20" s="80"/>
-      <c r="BS20" s="80"/>
-      <c r="BT20" s="80"/>
-      <c r="BU20" s="80"/>
-      <c r="BV20" s="80"/>
-      <c r="BW20" s="80"/>
-      <c r="BX20" s="80"/>
-      <c r="BY20" s="80"/>
-      <c r="BZ20" s="80"/>
-      <c r="CA20" s="80"/>
-      <c r="CB20" s="80"/>
-      <c r="CC20" s="80"/>
-      <c r="CD20" s="80"/>
-      <c r="CE20" s="80"/>
-      <c r="CF20" s="80"/>
-      <c r="CG20" s="80"/>
-      <c r="CH20" s="80"/>
-      <c r="CI20" s="80"/>
-      <c r="CJ20" s="80"/>
-      <c r="CK20" s="80"/>
-      <c r="CL20" s="80"/>
-      <c r="CM20" s="80"/>
-      <c r="CN20" s="80"/>
-      <c r="CO20" s="80"/>
-      <c r="CP20" s="80"/>
-      <c r="CQ20" s="80"/>
-      <c r="CR20" s="80"/>
-      <c r="CS20" s="80"/>
-      <c r="CT20" s="80"/>
-      <c r="CU20" s="80"/>
-      <c r="CV20" s="80"/>
-      <c r="CW20" s="80"/>
-      <c r="CX20" s="80"/>
-      <c r="CY20" s="80"/>
-      <c r="CZ20" s="80"/>
-      <c r="DA20" s="80"/>
-      <c r="DB20" s="80"/>
-      <c r="DC20" s="80"/>
-      <c r="DD20" s="80"/>
-      <c r="DE20" s="80"/>
-      <c r="DF20" s="80"/>
-      <c r="DG20" s="80"/>
-      <c r="DH20" s="80"/>
-      <c r="DI20" s="80"/>
-      <c r="DJ20" s="80"/>
-      <c r="DK20" s="80"/>
-      <c r="DL20" s="80"/>
-      <c r="DM20" s="80"/>
-      <c r="DN20" s="80"/>
-      <c r="DO20" s="80"/>
-      <c r="DP20" s="80"/>
-      <c r="DQ20" s="80"/>
-      <c r="DR20" s="80"/>
-      <c r="DS20" s="80"/>
-      <c r="DT20" s="80"/>
-      <c r="DU20" s="80"/>
-      <c r="DV20" s="80"/>
-      <c r="DW20" s="80"/>
-      <c r="DX20" s="80"/>
-      <c r="DY20" s="80"/>
-      <c r="DZ20" s="80"/>
-      <c r="EA20" s="80"/>
-      <c r="EB20" s="80"/>
-      <c r="EC20" s="80"/>
-      <c r="ED20" s="80"/>
-      <c r="EE20" s="80"/>
-      <c r="EF20" s="80"/>
-      <c r="EG20" s="80"/>
-      <c r="EH20" s="80"/>
-      <c r="EI20" s="80"/>
-      <c r="EJ20" s="80"/>
-      <c r="EK20" s="80"/>
-      <c r="EL20" s="80"/>
-      <c r="EM20" s="80"/>
-      <c r="EN20" s="80"/>
-      <c r="EO20" s="80"/>
-      <c r="EP20" s="80"/>
-      <c r="EQ20" s="80"/>
-      <c r="ER20" s="80"/>
-      <c r="ES20" s="80"/>
-      <c r="ET20" s="80"/>
-      <c r="EU20" s="80"/>
-      <c r="EV20" s="80"/>
-      <c r="EW20" s="80"/>
-      <c r="EX20" s="80"/>
-      <c r="EY20" s="80"/>
-      <c r="EZ20" s="80"/>
-      <c r="FA20" s="80"/>
-      <c r="FB20" s="80"/>
-      <c r="FC20" s="80"/>
-      <c r="FD20" s="80"/>
-      <c r="FE20" s="80"/>
-      <c r="FF20" s="80"/>
-      <c r="FG20" s="80"/>
-      <c r="FH20" s="80"/>
-      <c r="FI20" s="80"/>
-      <c r="FJ20" s="80"/>
-      <c r="FK20" s="80"/>
-      <c r="FL20" s="80"/>
-      <c r="FM20" s="80"/>
-      <c r="FN20" s="80"/>
-      <c r="FO20" s="80"/>
-      <c r="FP20" s="80"/>
-      <c r="FQ20" s="80"/>
-      <c r="FR20" s="80"/>
-      <c r="FS20" s="80"/>
-      <c r="FT20" s="80"/>
-      <c r="FU20" s="80"/>
-      <c r="FV20" s="80"/>
-      <c r="FW20" s="80"/>
-      <c r="FX20" s="80"/>
-      <c r="FY20" s="80"/>
-      <c r="FZ20" s="80"/>
-      <c r="GA20" s="80"/>
-      <c r="GB20" s="80"/>
-      <c r="GC20" s="80"/>
-      <c r="GD20" s="80"/>
-      <c r="GE20" s="80"/>
-      <c r="GF20" s="80"/>
-      <c r="GG20" s="80"/>
-      <c r="GH20" s="80"/>
-      <c r="GI20" s="80"/>
-      <c r="GJ20" s="80"/>
-      <c r="GK20" s="80"/>
-      <c r="GL20" s="80"/>
-      <c r="GM20" s="80"/>
-      <c r="GN20" s="80"/>
-      <c r="GO20" s="80"/>
-      <c r="GP20" s="80"/>
-      <c r="GQ20" s="80"/>
-      <c r="GR20" s="80"/>
-      <c r="GS20" s="80"/>
-      <c r="GT20" s="80"/>
-      <c r="GU20" s="80"/>
-      <c r="GV20" s="80"/>
-      <c r="GW20" s="80"/>
-      <c r="GX20" s="80"/>
-      <c r="GY20" s="80"/>
-      <c r="GZ20" s="80"/>
-      <c r="HA20" s="80"/>
-      <c r="HB20" s="80"/>
-      <c r="HC20" s="80"/>
-      <c r="HD20" s="80"/>
-      <c r="HE20" s="80"/>
-      <c r="HF20" s="80"/>
-      <c r="HG20" s="80"/>
-      <c r="HH20" s="80"/>
-      <c r="HI20" s="80"/>
-      <c r="HJ20" s="80"/>
-      <c r="HK20" s="80"/>
-      <c r="HL20" s="80"/>
-      <c r="HM20" s="80"/>
-      <c r="HN20" s="80"/>
-      <c r="HO20" s="80"/>
-      <c r="HP20" s="80"/>
-      <c r="HQ20" s="80"/>
-      <c r="HR20" s="80"/>
-      <c r="HS20" s="80"/>
-      <c r="HT20" s="80"/>
-      <c r="HU20" s="80"/>
-      <c r="HV20" s="80"/>
-      <c r="HW20" s="80"/>
-      <c r="HX20" s="80"/>
-      <c r="HY20" s="80"/>
-      <c r="HZ20" s="80"/>
-      <c r="IA20" s="80"/>
-      <c r="IB20" s="80"/>
-      <c r="IC20" s="80"/>
-      <c r="ID20" s="80"/>
-      <c r="IE20" s="80"/>
-      <c r="IF20" s="80"/>
-      <c r="IG20" s="80"/>
-      <c r="IH20" s="80"/>
-      <c r="II20" s="80"/>
-      <c r="IJ20" s="80"/>
-      <c r="IK20" s="80"/>
-      <c r="IL20" s="80"/>
-      <c r="IM20" s="80"/>
-      <c r="IN20" s="80"/>
-      <c r="IO20" s="80"/>
-      <c r="IP20" s="80"/>
-      <c r="IQ20" s="80"/>
-      <c r="IR20" s="80"/>
-      <c r="IS20" s="80"/>
-      <c r="IT20" s="80"/>
-      <c r="IU20" s="80"/>
-      <c r="IV20" s="80"/>
-      <c r="IW20" s="80"/>
-      <c r="IX20" s="80"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="79"/>
+      <c r="AJ20" s="79"/>
+      <c r="AK20" s="79"/>
+      <c r="AL20" s="79"/>
+      <c r="AM20" s="79"/>
+      <c r="AN20" s="79"/>
+      <c r="AO20" s="79"/>
+      <c r="AP20" s="79"/>
+      <c r="AQ20" s="79"/>
+      <c r="AR20" s="79"/>
+      <c r="AS20" s="79"/>
+      <c r="AT20" s="79"/>
+      <c r="AU20" s="79"/>
+      <c r="AV20" s="79"/>
+      <c r="AW20" s="79"/>
+      <c r="AX20" s="79"/>
+      <c r="AY20" s="79"/>
+      <c r="AZ20" s="79"/>
+      <c r="BA20" s="79"/>
+      <c r="BB20" s="79"/>
+      <c r="BC20" s="79"/>
+      <c r="BD20" s="79"/>
+      <c r="BE20" s="79"/>
+      <c r="BF20" s="79"/>
+      <c r="BG20" s="79"/>
+      <c r="BH20" s="79"/>
+      <c r="BI20" s="79"/>
+      <c r="BJ20" s="79"/>
+      <c r="BK20" s="79"/>
+      <c r="BL20" s="79"/>
+      <c r="BM20" s="79"/>
+      <c r="BN20" s="79"/>
+      <c r="BO20" s="79"/>
+      <c r="BP20" s="79"/>
+      <c r="BQ20" s="79"/>
+      <c r="BR20" s="79"/>
+      <c r="BS20" s="79"/>
+      <c r="BT20" s="79"/>
+      <c r="BU20" s="79"/>
+      <c r="BV20" s="79"/>
+      <c r="BW20" s="79"/>
+      <c r="BX20" s="79"/>
+      <c r="BY20" s="79"/>
+      <c r="BZ20" s="79"/>
+      <c r="CA20" s="79"/>
+      <c r="CB20" s="79"/>
+      <c r="CC20" s="79"/>
+      <c r="CD20" s="79"/>
+      <c r="CE20" s="79"/>
+      <c r="CF20" s="79"/>
+      <c r="CG20" s="79"/>
+      <c r="CH20" s="79"/>
+      <c r="CI20" s="79"/>
+      <c r="CJ20" s="79"/>
+      <c r="CK20" s="79"/>
+      <c r="CL20" s="79"/>
+      <c r="CM20" s="79"/>
+      <c r="CN20" s="79"/>
+      <c r="CO20" s="79"/>
+      <c r="CP20" s="79"/>
+      <c r="CQ20" s="79"/>
+      <c r="CR20" s="79"/>
+      <c r="CS20" s="79"/>
+      <c r="CT20" s="79"/>
+      <c r="CU20" s="79"/>
+      <c r="CV20" s="79"/>
+      <c r="CW20" s="79"/>
+      <c r="CX20" s="79"/>
+      <c r="CY20" s="79"/>
+      <c r="CZ20" s="79"/>
+      <c r="DA20" s="79"/>
+      <c r="DB20" s="79"/>
+      <c r="DC20" s="79"/>
+      <c r="DD20" s="79"/>
+      <c r="DE20" s="79"/>
+      <c r="DF20" s="79"/>
+      <c r="DG20" s="79"/>
+      <c r="DH20" s="79"/>
+      <c r="DI20" s="79"/>
+      <c r="DJ20" s="79"/>
+      <c r="DK20" s="79"/>
+      <c r="DL20" s="79"/>
+      <c r="DM20" s="79"/>
+      <c r="DN20" s="79"/>
+      <c r="DO20" s="79"/>
+      <c r="DP20" s="79"/>
+      <c r="DQ20" s="79"/>
+      <c r="DR20" s="79"/>
+      <c r="DS20" s="79"/>
+      <c r="DT20" s="79"/>
+      <c r="DU20" s="79"/>
+      <c r="DV20" s="79"/>
+      <c r="DW20" s="79"/>
+      <c r="DX20" s="79"/>
+      <c r="DY20" s="79"/>
+      <c r="DZ20" s="79"/>
+      <c r="EA20" s="79"/>
+      <c r="EB20" s="79"/>
+      <c r="EC20" s="79"/>
+      <c r="ED20" s="79"/>
+      <c r="EE20" s="79"/>
+      <c r="EF20" s="79"/>
+      <c r="EG20" s="79"/>
+      <c r="EH20" s="79"/>
+      <c r="EI20" s="79"/>
+      <c r="EJ20" s="79"/>
+      <c r="EK20" s="79"/>
+      <c r="EL20" s="79"/>
+      <c r="EM20" s="79"/>
+      <c r="EN20" s="79"/>
+      <c r="EO20" s="79"/>
+      <c r="EP20" s="79"/>
+      <c r="EQ20" s="79"/>
+      <c r="ER20" s="79"/>
+      <c r="ES20" s="79"/>
+      <c r="ET20" s="79"/>
+      <c r="EU20" s="79"/>
+      <c r="EV20" s="79"/>
+      <c r="EW20" s="79"/>
+      <c r="EX20" s="79"/>
+      <c r="EY20" s="79"/>
+      <c r="EZ20" s="79"/>
+      <c r="FA20" s="79"/>
+      <c r="FB20" s="79"/>
+      <c r="FC20" s="79"/>
+      <c r="FD20" s="79"/>
+      <c r="FE20" s="79"/>
+      <c r="FF20" s="79"/>
+      <c r="FG20" s="79"/>
+      <c r="FH20" s="79"/>
+      <c r="FI20" s="79"/>
+      <c r="FJ20" s="79"/>
+      <c r="FK20" s="79"/>
+      <c r="FL20" s="79"/>
+      <c r="FM20" s="79"/>
+      <c r="FN20" s="79"/>
+      <c r="FO20" s="79"/>
+      <c r="FP20" s="79"/>
+      <c r="FQ20" s="79"/>
+      <c r="FR20" s="79"/>
+      <c r="FS20" s="79"/>
+      <c r="FT20" s="79"/>
+      <c r="FU20" s="79"/>
+      <c r="FV20" s="79"/>
+      <c r="FW20" s="79"/>
+      <c r="FX20" s="79"/>
+      <c r="FY20" s="79"/>
+      <c r="FZ20" s="79"/>
+      <c r="GA20" s="79"/>
+      <c r="GB20" s="79"/>
+      <c r="GC20" s="79"/>
+      <c r="GD20" s="79"/>
+      <c r="GE20" s="79"/>
+      <c r="GF20" s="79"/>
+      <c r="GG20" s="79"/>
+      <c r="GH20" s="79"/>
+      <c r="GI20" s="79"/>
+      <c r="GJ20" s="79"/>
+      <c r="GK20" s="79"/>
+      <c r="GL20" s="79"/>
+      <c r="GM20" s="79"/>
+      <c r="GN20" s="79"/>
+      <c r="GO20" s="79"/>
+      <c r="GP20" s="79"/>
+      <c r="GQ20" s="79"/>
+      <c r="GR20" s="79"/>
+      <c r="GS20" s="79"/>
+      <c r="GT20" s="79"/>
+      <c r="GU20" s="79"/>
+      <c r="GV20" s="79"/>
+      <c r="GW20" s="79"/>
+      <c r="GX20" s="79"/>
+      <c r="GY20" s="79"/>
+      <c r="GZ20" s="79"/>
+      <c r="HA20" s="79"/>
+      <c r="HB20" s="79"/>
+      <c r="HC20" s="79"/>
+      <c r="HD20" s="79"/>
+      <c r="HE20" s="79"/>
+      <c r="HF20" s="79"/>
+      <c r="HG20" s="79"/>
+      <c r="HH20" s="79"/>
+      <c r="HI20" s="79"/>
+      <c r="HJ20" s="79"/>
+      <c r="HK20" s="79"/>
+      <c r="HL20" s="79"/>
+      <c r="HM20" s="79"/>
+      <c r="HN20" s="79"/>
+      <c r="HO20" s="79"/>
+      <c r="HP20" s="79"/>
+      <c r="HQ20" s="79"/>
+      <c r="HR20" s="79"/>
+      <c r="HS20" s="79"/>
+      <c r="HT20" s="79"/>
+      <c r="HU20" s="79"/>
+      <c r="HV20" s="79"/>
+      <c r="HW20" s="79"/>
+      <c r="HX20" s="79"/>
+      <c r="HY20" s="79"/>
+      <c r="HZ20" s="79"/>
+      <c r="IA20" s="79"/>
+      <c r="IB20" s="79"/>
+      <c r="IC20" s="79"/>
+      <c r="ID20" s="79"/>
+      <c r="IE20" s="79"/>
+      <c r="IF20" s="79"/>
+      <c r="IG20" s="79"/>
+      <c r="IH20" s="79"/>
+      <c r="II20" s="79"/>
+      <c r="IJ20" s="79"/>
+      <c r="IK20" s="79"/>
+      <c r="IL20" s="79"/>
+      <c r="IM20" s="79"/>
+      <c r="IN20" s="79"/>
+      <c r="IO20" s="79"/>
+      <c r="IP20" s="79"/>
+      <c r="IQ20" s="79"/>
+      <c r="IR20" s="79"/>
+      <c r="IS20" s="79"/>
+      <c r="IT20" s="79"/>
+      <c r="IU20" s="79"/>
+      <c r="IV20" s="79"/>
+      <c r="IW20" s="79"/>
+      <c r="IX20" s="79"/>
     </row>
     <row r="21" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A21" s="112"/>
-      <c r="B21" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="59"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="114" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="78"/>
       <c r="J21" s="58"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="80"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="80"/>
-      <c r="AE21" s="80"/>
-      <c r="AF21" s="80"/>
-      <c r="AG21" s="80"/>
-      <c r="AH21" s="80"/>
-      <c r="AI21" s="80"/>
-      <c r="AJ21" s="80"/>
-      <c r="AK21" s="80"/>
-      <c r="AL21" s="80"/>
-      <c r="AM21" s="80"/>
-      <c r="AN21" s="80"/>
-      <c r="AO21" s="80"/>
-      <c r="AP21" s="80"/>
-      <c r="AQ21" s="80"/>
-      <c r="AR21" s="80"/>
-      <c r="AS21" s="80"/>
-      <c r="AT21" s="80"/>
-      <c r="AU21" s="80"/>
-      <c r="AV21" s="80"/>
-      <c r="AW21" s="80"/>
-      <c r="AX21" s="80"/>
-      <c r="AY21" s="80"/>
-      <c r="AZ21" s="80"/>
-      <c r="BA21" s="80"/>
-      <c r="BB21" s="80"/>
-      <c r="BC21" s="80"/>
-      <c r="BD21" s="80"/>
-      <c r="BE21" s="80"/>
-      <c r="BF21" s="80"/>
-      <c r="BG21" s="80"/>
-      <c r="BH21" s="80"/>
-      <c r="BI21" s="80"/>
-      <c r="BJ21" s="80"/>
-      <c r="BK21" s="80"/>
-      <c r="BL21" s="80"/>
-      <c r="BM21" s="80"/>
-      <c r="BN21" s="80"/>
-      <c r="BO21" s="80"/>
-      <c r="BP21" s="80"/>
-      <c r="BQ21" s="80"/>
-      <c r="BR21" s="80"/>
-      <c r="BS21" s="80"/>
-      <c r="BT21" s="80"/>
-      <c r="BU21" s="80"/>
-      <c r="BV21" s="80"/>
-      <c r="BW21" s="80"/>
-      <c r="BX21" s="80"/>
-      <c r="BY21" s="80"/>
-      <c r="BZ21" s="80"/>
-      <c r="CA21" s="80"/>
-      <c r="CB21" s="80"/>
-      <c r="CC21" s="80"/>
-      <c r="CD21" s="80"/>
-      <c r="CE21" s="80"/>
-      <c r="CF21" s="80"/>
-      <c r="CG21" s="80"/>
-      <c r="CH21" s="80"/>
-      <c r="CI21" s="80"/>
-      <c r="CJ21" s="80"/>
-      <c r="CK21" s="80"/>
-      <c r="CL21" s="80"/>
-      <c r="CM21" s="80"/>
-      <c r="CN21" s="80"/>
-      <c r="CO21" s="80"/>
-      <c r="CP21" s="80"/>
-      <c r="CQ21" s="80"/>
-      <c r="CR21" s="80"/>
-      <c r="CS21" s="80"/>
-      <c r="CT21" s="80"/>
-      <c r="CU21" s="80"/>
-      <c r="CV21" s="80"/>
-      <c r="CW21" s="80"/>
-      <c r="CX21" s="80"/>
-      <c r="CY21" s="80"/>
-      <c r="CZ21" s="80"/>
-      <c r="DA21" s="80"/>
-      <c r="DB21" s="80"/>
-      <c r="DC21" s="80"/>
-      <c r="DD21" s="80"/>
-      <c r="DE21" s="80"/>
-      <c r="DF21" s="80"/>
-      <c r="DG21" s="80"/>
-      <c r="DH21" s="80"/>
-      <c r="DI21" s="80"/>
-      <c r="DJ21" s="80"/>
-      <c r="DK21" s="80"/>
-      <c r="DL21" s="80"/>
-      <c r="DM21" s="80"/>
-      <c r="DN21" s="80"/>
-      <c r="DO21" s="80"/>
-      <c r="DP21" s="80"/>
-      <c r="DQ21" s="80"/>
-      <c r="DR21" s="80"/>
-      <c r="DS21" s="80"/>
-      <c r="DT21" s="80"/>
-      <c r="DU21" s="80"/>
-      <c r="DV21" s="80"/>
-      <c r="DW21" s="80"/>
-      <c r="DX21" s="80"/>
-      <c r="DY21" s="80"/>
-      <c r="DZ21" s="80"/>
-      <c r="EA21" s="80"/>
-      <c r="EB21" s="80"/>
-      <c r="EC21" s="80"/>
-      <c r="ED21" s="80"/>
-      <c r="EE21" s="80"/>
-      <c r="EF21" s="80"/>
-      <c r="EG21" s="80"/>
-      <c r="EH21" s="80"/>
-      <c r="EI21" s="80"/>
-      <c r="EJ21" s="80"/>
-      <c r="EK21" s="80"/>
-      <c r="EL21" s="80"/>
-      <c r="EM21" s="80"/>
-      <c r="EN21" s="80"/>
-      <c r="EO21" s="80"/>
-      <c r="EP21" s="80"/>
-      <c r="EQ21" s="80"/>
-      <c r="ER21" s="80"/>
-      <c r="ES21" s="80"/>
-      <c r="ET21" s="80"/>
-      <c r="EU21" s="80"/>
-      <c r="EV21" s="80"/>
-      <c r="EW21" s="80"/>
-      <c r="EX21" s="80"/>
-      <c r="EY21" s="80"/>
-      <c r="EZ21" s="80"/>
-      <c r="FA21" s="80"/>
-      <c r="FB21" s="80"/>
-      <c r="FC21" s="80"/>
-      <c r="FD21" s="80"/>
-      <c r="FE21" s="80"/>
-      <c r="FF21" s="80"/>
-      <c r="FG21" s="80"/>
-      <c r="FH21" s="80"/>
-      <c r="FI21" s="80"/>
-      <c r="FJ21" s="80"/>
-      <c r="FK21" s="80"/>
-      <c r="FL21" s="80"/>
-      <c r="FM21" s="80"/>
-      <c r="FN21" s="80"/>
-      <c r="FO21" s="80"/>
-      <c r="FP21" s="80"/>
-      <c r="FQ21" s="80"/>
-      <c r="FR21" s="80"/>
-      <c r="FS21" s="80"/>
-      <c r="FT21" s="80"/>
-      <c r="FU21" s="80"/>
-      <c r="FV21" s="80"/>
-      <c r="FW21" s="80"/>
-      <c r="FX21" s="80"/>
-      <c r="FY21" s="80"/>
-      <c r="FZ21" s="80"/>
-      <c r="GA21" s="80"/>
-      <c r="GB21" s="80"/>
-      <c r="GC21" s="80"/>
-      <c r="GD21" s="80"/>
-      <c r="GE21" s="80"/>
-      <c r="GF21" s="80"/>
-      <c r="GG21" s="80"/>
-      <c r="GH21" s="80"/>
-      <c r="GI21" s="80"/>
-      <c r="GJ21" s="80"/>
-      <c r="GK21" s="80"/>
-      <c r="GL21" s="80"/>
-      <c r="GM21" s="80"/>
-      <c r="GN21" s="80"/>
-      <c r="GO21" s="80"/>
-      <c r="GP21" s="80"/>
-      <c r="GQ21" s="80"/>
-      <c r="GR21" s="80"/>
-      <c r="GS21" s="80"/>
-      <c r="GT21" s="80"/>
-      <c r="GU21" s="80"/>
-      <c r="GV21" s="80"/>
-      <c r="GW21" s="80"/>
-      <c r="GX21" s="80"/>
-      <c r="GY21" s="80"/>
-      <c r="GZ21" s="80"/>
-      <c r="HA21" s="80"/>
-      <c r="HB21" s="80"/>
-      <c r="HC21" s="80"/>
-      <c r="HD21" s="80"/>
-      <c r="HE21" s="80"/>
-      <c r="HF21" s="80"/>
-      <c r="HG21" s="80"/>
-      <c r="HH21" s="80"/>
-      <c r="HI21" s="80"/>
-      <c r="HJ21" s="80"/>
-      <c r="HK21" s="80"/>
-      <c r="HL21" s="80"/>
-      <c r="HM21" s="80"/>
-      <c r="HN21" s="80"/>
-      <c r="HO21" s="80"/>
-      <c r="HP21" s="80"/>
-      <c r="HQ21" s="80"/>
-      <c r="HR21" s="80"/>
-      <c r="HS21" s="80"/>
-      <c r="HT21" s="80"/>
-      <c r="HU21" s="80"/>
-      <c r="HV21" s="80"/>
-      <c r="HW21" s="80"/>
-      <c r="HX21" s="80"/>
-      <c r="HY21" s="80"/>
-      <c r="HZ21" s="80"/>
-      <c r="IA21" s="80"/>
-      <c r="IB21" s="80"/>
-      <c r="IC21" s="80"/>
-      <c r="ID21" s="80"/>
-      <c r="IE21" s="80"/>
-      <c r="IF21" s="80"/>
-      <c r="IG21" s="80"/>
-      <c r="IH21" s="80"/>
-      <c r="II21" s="80"/>
-      <c r="IJ21" s="80"/>
-      <c r="IK21" s="80"/>
-      <c r="IL21" s="80"/>
-      <c r="IM21" s="80"/>
-      <c r="IN21" s="80"/>
-      <c r="IO21" s="80"/>
-      <c r="IP21" s="80"/>
-      <c r="IQ21" s="80"/>
-      <c r="IR21" s="80"/>
-      <c r="IS21" s="80"/>
-      <c r="IT21" s="80"/>
-      <c r="IU21" s="80"/>
-      <c r="IV21" s="80"/>
-      <c r="IW21" s="80"/>
-      <c r="IX21" s="80"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="79"/>
+      <c r="AK21" s="79"/>
+      <c r="AL21" s="79"/>
+      <c r="AM21" s="79"/>
+      <c r="AN21" s="79"/>
+      <c r="AO21" s="79"/>
+      <c r="AP21" s="79"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="79"/>
+      <c r="AS21" s="79"/>
+      <c r="AT21" s="79"/>
+      <c r="AU21" s="79"/>
+      <c r="AV21" s="79"/>
+      <c r="AW21" s="79"/>
+      <c r="AX21" s="79"/>
+      <c r="AY21" s="79"/>
+      <c r="AZ21" s="79"/>
+      <c r="BA21" s="79"/>
+      <c r="BB21" s="79"/>
+      <c r="BC21" s="79"/>
+      <c r="BD21" s="79"/>
+      <c r="BE21" s="79"/>
+      <c r="BF21" s="79"/>
+      <c r="BG21" s="79"/>
+      <c r="BH21" s="79"/>
+      <c r="BI21" s="79"/>
+      <c r="BJ21" s="79"/>
+      <c r="BK21" s="79"/>
+      <c r="BL21" s="79"/>
+      <c r="BM21" s="79"/>
+      <c r="BN21" s="79"/>
+      <c r="BO21" s="79"/>
+      <c r="BP21" s="79"/>
+      <c r="BQ21" s="79"/>
+      <c r="BR21" s="79"/>
+      <c r="BS21" s="79"/>
+      <c r="BT21" s="79"/>
+      <c r="BU21" s="79"/>
+      <c r="BV21" s="79"/>
+      <c r="BW21" s="79"/>
+      <c r="BX21" s="79"/>
+      <c r="BY21" s="79"/>
+      <c r="BZ21" s="79"/>
+      <c r="CA21" s="79"/>
+      <c r="CB21" s="79"/>
+      <c r="CC21" s="79"/>
+      <c r="CD21" s="79"/>
+      <c r="CE21" s="79"/>
+      <c r="CF21" s="79"/>
+      <c r="CG21" s="79"/>
+      <c r="CH21" s="79"/>
+      <c r="CI21" s="79"/>
+      <c r="CJ21" s="79"/>
+      <c r="CK21" s="79"/>
+      <c r="CL21" s="79"/>
+      <c r="CM21" s="79"/>
+      <c r="CN21" s="79"/>
+      <c r="CO21" s="79"/>
+      <c r="CP21" s="79"/>
+      <c r="CQ21" s="79"/>
+      <c r="CR21" s="79"/>
+      <c r="CS21" s="79"/>
+      <c r="CT21" s="79"/>
+      <c r="CU21" s="79"/>
+      <c r="CV21" s="79"/>
+      <c r="CW21" s="79"/>
+      <c r="CX21" s="79"/>
+      <c r="CY21" s="79"/>
+      <c r="CZ21" s="79"/>
+      <c r="DA21" s="79"/>
+      <c r="DB21" s="79"/>
+      <c r="DC21" s="79"/>
+      <c r="DD21" s="79"/>
+      <c r="DE21" s="79"/>
+      <c r="DF21" s="79"/>
+      <c r="DG21" s="79"/>
+      <c r="DH21" s="79"/>
+      <c r="DI21" s="79"/>
+      <c r="DJ21" s="79"/>
+      <c r="DK21" s="79"/>
+      <c r="DL21" s="79"/>
+      <c r="DM21" s="79"/>
+      <c r="DN21" s="79"/>
+      <c r="DO21" s="79"/>
+      <c r="DP21" s="79"/>
+      <c r="DQ21" s="79"/>
+      <c r="DR21" s="79"/>
+      <c r="DS21" s="79"/>
+      <c r="DT21" s="79"/>
+      <c r="DU21" s="79"/>
+      <c r="DV21" s="79"/>
+      <c r="DW21" s="79"/>
+      <c r="DX21" s="79"/>
+      <c r="DY21" s="79"/>
+      <c r="DZ21" s="79"/>
+      <c r="EA21" s="79"/>
+      <c r="EB21" s="79"/>
+      <c r="EC21" s="79"/>
+      <c r="ED21" s="79"/>
+      <c r="EE21" s="79"/>
+      <c r="EF21" s="79"/>
+      <c r="EG21" s="79"/>
+      <c r="EH21" s="79"/>
+      <c r="EI21" s="79"/>
+      <c r="EJ21" s="79"/>
+      <c r="EK21" s="79"/>
+      <c r="EL21" s="79"/>
+      <c r="EM21" s="79"/>
+      <c r="EN21" s="79"/>
+      <c r="EO21" s="79"/>
+      <c r="EP21" s="79"/>
+      <c r="EQ21" s="79"/>
+      <c r="ER21" s="79"/>
+      <c r="ES21" s="79"/>
+      <c r="ET21" s="79"/>
+      <c r="EU21" s="79"/>
+      <c r="EV21" s="79"/>
+      <c r="EW21" s="79"/>
+      <c r="EX21" s="79"/>
+      <c r="EY21" s="79"/>
+      <c r="EZ21" s="79"/>
+      <c r="FA21" s="79"/>
+      <c r="FB21" s="79"/>
+      <c r="FC21" s="79"/>
+      <c r="FD21" s="79"/>
+      <c r="FE21" s="79"/>
+      <c r="FF21" s="79"/>
+      <c r="FG21" s="79"/>
+      <c r="FH21" s="79"/>
+      <c r="FI21" s="79"/>
+      <c r="FJ21" s="79"/>
+      <c r="FK21" s="79"/>
+      <c r="FL21" s="79"/>
+      <c r="FM21" s="79"/>
+      <c r="FN21" s="79"/>
+      <c r="FO21" s="79"/>
+      <c r="FP21" s="79"/>
+      <c r="FQ21" s="79"/>
+      <c r="FR21" s="79"/>
+      <c r="FS21" s="79"/>
+      <c r="FT21" s="79"/>
+      <c r="FU21" s="79"/>
+      <c r="FV21" s="79"/>
+      <c r="FW21" s="79"/>
+      <c r="FX21" s="79"/>
+      <c r="FY21" s="79"/>
+      <c r="FZ21" s="79"/>
+      <c r="GA21" s="79"/>
+      <c r="GB21" s="79"/>
+      <c r="GC21" s="79"/>
+      <c r="GD21" s="79"/>
+      <c r="GE21" s="79"/>
+      <c r="GF21" s="79"/>
+      <c r="GG21" s="79"/>
+      <c r="GH21" s="79"/>
+      <c r="GI21" s="79"/>
+      <c r="GJ21" s="79"/>
+      <c r="GK21" s="79"/>
+      <c r="GL21" s="79"/>
+      <c r="GM21" s="79"/>
+      <c r="GN21" s="79"/>
+      <c r="GO21" s="79"/>
+      <c r="GP21" s="79"/>
+      <c r="GQ21" s="79"/>
+      <c r="GR21" s="79"/>
+      <c r="GS21" s="79"/>
+      <c r="GT21" s="79"/>
+      <c r="GU21" s="79"/>
+      <c r="GV21" s="79"/>
+      <c r="GW21" s="79"/>
+      <c r="GX21" s="79"/>
+      <c r="GY21" s="79"/>
+      <c r="GZ21" s="79"/>
+      <c r="HA21" s="79"/>
+      <c r="HB21" s="79"/>
+      <c r="HC21" s="79"/>
+      <c r="HD21" s="79"/>
+      <c r="HE21" s="79"/>
+      <c r="HF21" s="79"/>
+      <c r="HG21" s="79"/>
+      <c r="HH21" s="79"/>
+      <c r="HI21" s="79"/>
+      <c r="HJ21" s="79"/>
+      <c r="HK21" s="79"/>
+      <c r="HL21" s="79"/>
+      <c r="HM21" s="79"/>
+      <c r="HN21" s="79"/>
+      <c r="HO21" s="79"/>
+      <c r="HP21" s="79"/>
+      <c r="HQ21" s="79"/>
+      <c r="HR21" s="79"/>
+      <c r="HS21" s="79"/>
+      <c r="HT21" s="79"/>
+      <c r="HU21" s="79"/>
+      <c r="HV21" s="79"/>
+      <c r="HW21" s="79"/>
+      <c r="HX21" s="79"/>
+      <c r="HY21" s="79"/>
+      <c r="HZ21" s="79"/>
+      <c r="IA21" s="79"/>
+      <c r="IB21" s="79"/>
+      <c r="IC21" s="79"/>
+      <c r="ID21" s="79"/>
+      <c r="IE21" s="79"/>
+      <c r="IF21" s="79"/>
+      <c r="IG21" s="79"/>
+      <c r="IH21" s="79"/>
+      <c r="II21" s="79"/>
+      <c r="IJ21" s="79"/>
+      <c r="IK21" s="79"/>
+      <c r="IL21" s="79"/>
+      <c r="IM21" s="79"/>
+      <c r="IN21" s="79"/>
+      <c r="IO21" s="79"/>
+      <c r="IP21" s="79"/>
+      <c r="IQ21" s="79"/>
+      <c r="IR21" s="79"/>
+      <c r="IS21" s="79"/>
+      <c r="IT21" s="79"/>
+      <c r="IU21" s="79"/>
+      <c r="IV21" s="79"/>
+      <c r="IW21" s="79"/>
+      <c r="IX21" s="79"/>
     </row>
     <row r="22" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A22" s="113"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>65</v>
       </c>
       <c r="D22" s="59" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="59"/>
-      <c r="G22" s="64"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="58" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I22" s="59"/>
       <c r="J22" s="58"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="80"/>
-      <c r="AB22" s="80"/>
-      <c r="AC22" s="80"/>
-      <c r="AD22" s="80"/>
-      <c r="AE22" s="80"/>
-      <c r="AF22" s="80"/>
-      <c r="AG22" s="80"/>
-      <c r="AH22" s="80"/>
-      <c r="AI22" s="80"/>
-      <c r="AJ22" s="80"/>
-      <c r="AK22" s="80"/>
-      <c r="AL22" s="80"/>
-      <c r="AM22" s="80"/>
-      <c r="AN22" s="80"/>
-      <c r="AO22" s="80"/>
-      <c r="AP22" s="80"/>
-      <c r="AQ22" s="80"/>
-      <c r="AR22" s="80"/>
-      <c r="AS22" s="80"/>
-      <c r="AT22" s="80"/>
-      <c r="AU22" s="80"/>
-      <c r="AV22" s="80"/>
-      <c r="AW22" s="80"/>
-      <c r="AX22" s="80"/>
-      <c r="AY22" s="80"/>
-      <c r="AZ22" s="80"/>
-      <c r="BA22" s="80"/>
-      <c r="BB22" s="80"/>
-      <c r="BC22" s="80"/>
-      <c r="BD22" s="80"/>
-      <c r="BE22" s="80"/>
-      <c r="BF22" s="80"/>
-      <c r="BG22" s="80"/>
-      <c r="BH22" s="80"/>
-      <c r="BI22" s="80"/>
-      <c r="BJ22" s="80"/>
-      <c r="BK22" s="80"/>
-      <c r="BL22" s="80"/>
-      <c r="BM22" s="80"/>
-      <c r="BN22" s="80"/>
-      <c r="BO22" s="80"/>
-      <c r="BP22" s="80"/>
-      <c r="BQ22" s="80"/>
-      <c r="BR22" s="80"/>
-      <c r="BS22" s="80"/>
-      <c r="BT22" s="80"/>
-      <c r="BU22" s="80"/>
-      <c r="BV22" s="80"/>
-      <c r="BW22" s="80"/>
-      <c r="BX22" s="80"/>
-      <c r="BY22" s="80"/>
-      <c r="BZ22" s="80"/>
-      <c r="CA22" s="80"/>
-      <c r="CB22" s="80"/>
-      <c r="CC22" s="80"/>
-      <c r="CD22" s="80"/>
-      <c r="CE22" s="80"/>
-      <c r="CF22" s="80"/>
-      <c r="CG22" s="80"/>
-      <c r="CH22" s="80"/>
-      <c r="CI22" s="80"/>
-      <c r="CJ22" s="80"/>
-      <c r="CK22" s="80"/>
-      <c r="CL22" s="80"/>
-      <c r="CM22" s="80"/>
-      <c r="CN22" s="80"/>
-      <c r="CO22" s="80"/>
-      <c r="CP22" s="80"/>
-      <c r="CQ22" s="80"/>
-      <c r="CR22" s="80"/>
-      <c r="CS22" s="80"/>
-      <c r="CT22" s="80"/>
-      <c r="CU22" s="80"/>
-      <c r="CV22" s="80"/>
-      <c r="CW22" s="80"/>
-      <c r="CX22" s="80"/>
-      <c r="CY22" s="80"/>
-      <c r="CZ22" s="80"/>
-      <c r="DA22" s="80"/>
-      <c r="DB22" s="80"/>
-      <c r="DC22" s="80"/>
-      <c r="DD22" s="80"/>
-      <c r="DE22" s="80"/>
-      <c r="DF22" s="80"/>
-      <c r="DG22" s="80"/>
-      <c r="DH22" s="80"/>
-      <c r="DI22" s="80"/>
-      <c r="DJ22" s="80"/>
-      <c r="DK22" s="80"/>
-      <c r="DL22" s="80"/>
-      <c r="DM22" s="80"/>
-      <c r="DN22" s="80"/>
-      <c r="DO22" s="80"/>
-      <c r="DP22" s="80"/>
-      <c r="DQ22" s="80"/>
-      <c r="DR22" s="80"/>
-      <c r="DS22" s="80"/>
-      <c r="DT22" s="80"/>
-      <c r="DU22" s="80"/>
-      <c r="DV22" s="80"/>
-      <c r="DW22" s="80"/>
-      <c r="DX22" s="80"/>
-      <c r="DY22" s="80"/>
-      <c r="DZ22" s="80"/>
-      <c r="EA22" s="80"/>
-      <c r="EB22" s="80"/>
-      <c r="EC22" s="80"/>
-      <c r="ED22" s="80"/>
-      <c r="EE22" s="80"/>
-      <c r="EF22" s="80"/>
-      <c r="EG22" s="80"/>
-      <c r="EH22" s="80"/>
-      <c r="EI22" s="80"/>
-      <c r="EJ22" s="80"/>
-      <c r="EK22" s="80"/>
-      <c r="EL22" s="80"/>
-      <c r="EM22" s="80"/>
-      <c r="EN22" s="80"/>
-      <c r="EO22" s="80"/>
-      <c r="EP22" s="80"/>
-      <c r="EQ22" s="80"/>
-      <c r="ER22" s="80"/>
-      <c r="ES22" s="80"/>
-      <c r="ET22" s="80"/>
-      <c r="EU22" s="80"/>
-      <c r="EV22" s="80"/>
-      <c r="EW22" s="80"/>
-      <c r="EX22" s="80"/>
-      <c r="EY22" s="80"/>
-      <c r="EZ22" s="80"/>
-      <c r="FA22" s="80"/>
-      <c r="FB22" s="80"/>
-      <c r="FC22" s="80"/>
-      <c r="FD22" s="80"/>
-      <c r="FE22" s="80"/>
-      <c r="FF22" s="80"/>
-      <c r="FG22" s="80"/>
-      <c r="FH22" s="80"/>
-      <c r="FI22" s="80"/>
-      <c r="FJ22" s="80"/>
-      <c r="FK22" s="80"/>
-      <c r="FL22" s="80"/>
-      <c r="FM22" s="80"/>
-      <c r="FN22" s="80"/>
-      <c r="FO22" s="80"/>
-      <c r="FP22" s="80"/>
-      <c r="FQ22" s="80"/>
-      <c r="FR22" s="80"/>
-      <c r="FS22" s="80"/>
-      <c r="FT22" s="80"/>
-      <c r="FU22" s="80"/>
-      <c r="FV22" s="80"/>
-      <c r="FW22" s="80"/>
-      <c r="FX22" s="80"/>
-      <c r="FY22" s="80"/>
-      <c r="FZ22" s="80"/>
-      <c r="GA22" s="80"/>
-      <c r="GB22" s="80"/>
-      <c r="GC22" s="80"/>
-      <c r="GD22" s="80"/>
-      <c r="GE22" s="80"/>
-      <c r="GF22" s="80"/>
-      <c r="GG22" s="80"/>
-      <c r="GH22" s="80"/>
-      <c r="GI22" s="80"/>
-      <c r="GJ22" s="80"/>
-      <c r="GK22" s="80"/>
-      <c r="GL22" s="80"/>
-      <c r="GM22" s="80"/>
-      <c r="GN22" s="80"/>
-      <c r="GO22" s="80"/>
-      <c r="GP22" s="80"/>
-      <c r="GQ22" s="80"/>
-      <c r="GR22" s="80"/>
-      <c r="GS22" s="80"/>
-      <c r="GT22" s="80"/>
-      <c r="GU22" s="80"/>
-      <c r="GV22" s="80"/>
-      <c r="GW22" s="80"/>
-      <c r="GX22" s="80"/>
-      <c r="GY22" s="80"/>
-      <c r="GZ22" s="80"/>
-      <c r="HA22" s="80"/>
-      <c r="HB22" s="80"/>
-      <c r="HC22" s="80"/>
-      <c r="HD22" s="80"/>
-      <c r="HE22" s="80"/>
-      <c r="HF22" s="80"/>
-      <c r="HG22" s="80"/>
-      <c r="HH22" s="80"/>
-      <c r="HI22" s="80"/>
-      <c r="HJ22" s="80"/>
-      <c r="HK22" s="80"/>
-      <c r="HL22" s="80"/>
-      <c r="HM22" s="80"/>
-      <c r="HN22" s="80"/>
-      <c r="HO22" s="80"/>
-      <c r="HP22" s="80"/>
-      <c r="HQ22" s="80"/>
-      <c r="HR22" s="80"/>
-      <c r="HS22" s="80"/>
-      <c r="HT22" s="80"/>
-      <c r="HU22" s="80"/>
-      <c r="HV22" s="80"/>
-      <c r="HW22" s="80"/>
-      <c r="HX22" s="80"/>
-      <c r="HY22" s="80"/>
-      <c r="HZ22" s="80"/>
-      <c r="IA22" s="80"/>
-      <c r="IB22" s="80"/>
-      <c r="IC22" s="80"/>
-      <c r="ID22" s="80"/>
-      <c r="IE22" s="80"/>
-      <c r="IF22" s="80"/>
-      <c r="IG22" s="80"/>
-      <c r="IH22" s="80"/>
-      <c r="II22" s="80"/>
-      <c r="IJ22" s="80"/>
-      <c r="IK22" s="80"/>
-      <c r="IL22" s="80"/>
-      <c r="IM22" s="80"/>
-      <c r="IN22" s="80"/>
-      <c r="IO22" s="80"/>
-      <c r="IP22" s="80"/>
-      <c r="IQ22" s="80"/>
-      <c r="IR22" s="80"/>
-      <c r="IS22" s="80"/>
-      <c r="IT22" s="80"/>
-      <c r="IU22" s="80"/>
-      <c r="IV22" s="80"/>
-      <c r="IW22" s="80"/>
-      <c r="IX22" s="80"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="79"/>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+      <c r="AP22" s="79"/>
+      <c r="AQ22" s="79"/>
+      <c r="AR22" s="79"/>
+      <c r="AS22" s="79"/>
+      <c r="AT22" s="79"/>
+      <c r="AU22" s="79"/>
+      <c r="AV22" s="79"/>
+      <c r="AW22" s="79"/>
+      <c r="AX22" s="79"/>
+      <c r="AY22" s="79"/>
+      <c r="AZ22" s="79"/>
+      <c r="BA22" s="79"/>
+      <c r="BB22" s="79"/>
+      <c r="BC22" s="79"/>
+      <c r="BD22" s="79"/>
+      <c r="BE22" s="79"/>
+      <c r="BF22" s="79"/>
+      <c r="BG22" s="79"/>
+      <c r="BH22" s="79"/>
+      <c r="BI22" s="79"/>
+      <c r="BJ22" s="79"/>
+      <c r="BK22" s="79"/>
+      <c r="BL22" s="79"/>
+      <c r="BM22" s="79"/>
+      <c r="BN22" s="79"/>
+      <c r="BO22" s="79"/>
+      <c r="BP22" s="79"/>
+      <c r="BQ22" s="79"/>
+      <c r="BR22" s="79"/>
+      <c r="BS22" s="79"/>
+      <c r="BT22" s="79"/>
+      <c r="BU22" s="79"/>
+      <c r="BV22" s="79"/>
+      <c r="BW22" s="79"/>
+      <c r="BX22" s="79"/>
+      <c r="BY22" s="79"/>
+      <c r="BZ22" s="79"/>
+      <c r="CA22" s="79"/>
+      <c r="CB22" s="79"/>
+      <c r="CC22" s="79"/>
+      <c r="CD22" s="79"/>
+      <c r="CE22" s="79"/>
+      <c r="CF22" s="79"/>
+      <c r="CG22" s="79"/>
+      <c r="CH22" s="79"/>
+      <c r="CI22" s="79"/>
+      <c r="CJ22" s="79"/>
+      <c r="CK22" s="79"/>
+      <c r="CL22" s="79"/>
+      <c r="CM22" s="79"/>
+      <c r="CN22" s="79"/>
+      <c r="CO22" s="79"/>
+      <c r="CP22" s="79"/>
+      <c r="CQ22" s="79"/>
+      <c r="CR22" s="79"/>
+      <c r="CS22" s="79"/>
+      <c r="CT22" s="79"/>
+      <c r="CU22" s="79"/>
+      <c r="CV22" s="79"/>
+      <c r="CW22" s="79"/>
+      <c r="CX22" s="79"/>
+      <c r="CY22" s="79"/>
+      <c r="CZ22" s="79"/>
+      <c r="DA22" s="79"/>
+      <c r="DB22" s="79"/>
+      <c r="DC22" s="79"/>
+      <c r="DD22" s="79"/>
+      <c r="DE22" s="79"/>
+      <c r="DF22" s="79"/>
+      <c r="DG22" s="79"/>
+      <c r="DH22" s="79"/>
+      <c r="DI22" s="79"/>
+      <c r="DJ22" s="79"/>
+      <c r="DK22" s="79"/>
+      <c r="DL22" s="79"/>
+      <c r="DM22" s="79"/>
+      <c r="DN22" s="79"/>
+      <c r="DO22" s="79"/>
+      <c r="DP22" s="79"/>
+      <c r="DQ22" s="79"/>
+      <c r="DR22" s="79"/>
+      <c r="DS22" s="79"/>
+      <c r="DT22" s="79"/>
+      <c r="DU22" s="79"/>
+      <c r="DV22" s="79"/>
+      <c r="DW22" s="79"/>
+      <c r="DX22" s="79"/>
+      <c r="DY22" s="79"/>
+      <c r="DZ22" s="79"/>
+      <c r="EA22" s="79"/>
+      <c r="EB22" s="79"/>
+      <c r="EC22" s="79"/>
+      <c r="ED22" s="79"/>
+      <c r="EE22" s="79"/>
+      <c r="EF22" s="79"/>
+      <c r="EG22" s="79"/>
+      <c r="EH22" s="79"/>
+      <c r="EI22" s="79"/>
+      <c r="EJ22" s="79"/>
+      <c r="EK22" s="79"/>
+      <c r="EL22" s="79"/>
+      <c r="EM22" s="79"/>
+      <c r="EN22" s="79"/>
+      <c r="EO22" s="79"/>
+      <c r="EP22" s="79"/>
+      <c r="EQ22" s="79"/>
+      <c r="ER22" s="79"/>
+      <c r="ES22" s="79"/>
+      <c r="ET22" s="79"/>
+      <c r="EU22" s="79"/>
+      <c r="EV22" s="79"/>
+      <c r="EW22" s="79"/>
+      <c r="EX22" s="79"/>
+      <c r="EY22" s="79"/>
+      <c r="EZ22" s="79"/>
+      <c r="FA22" s="79"/>
+      <c r="FB22" s="79"/>
+      <c r="FC22" s="79"/>
+      <c r="FD22" s="79"/>
+      <c r="FE22" s="79"/>
+      <c r="FF22" s="79"/>
+      <c r="FG22" s="79"/>
+      <c r="FH22" s="79"/>
+      <c r="FI22" s="79"/>
+      <c r="FJ22" s="79"/>
+      <c r="FK22" s="79"/>
+      <c r="FL22" s="79"/>
+      <c r="FM22" s="79"/>
+      <c r="FN22" s="79"/>
+      <c r="FO22" s="79"/>
+      <c r="FP22" s="79"/>
+      <c r="FQ22" s="79"/>
+      <c r="FR22" s="79"/>
+      <c r="FS22" s="79"/>
+      <c r="FT22" s="79"/>
+      <c r="FU22" s="79"/>
+      <c r="FV22" s="79"/>
+      <c r="FW22" s="79"/>
+      <c r="FX22" s="79"/>
+      <c r="FY22" s="79"/>
+      <c r="FZ22" s="79"/>
+      <c r="GA22" s="79"/>
+      <c r="GB22" s="79"/>
+      <c r="GC22" s="79"/>
+      <c r="GD22" s="79"/>
+      <c r="GE22" s="79"/>
+      <c r="GF22" s="79"/>
+      <c r="GG22" s="79"/>
+      <c r="GH22" s="79"/>
+      <c r="GI22" s="79"/>
+      <c r="GJ22" s="79"/>
+      <c r="GK22" s="79"/>
+      <c r="GL22" s="79"/>
+      <c r="GM22" s="79"/>
+      <c r="GN22" s="79"/>
+      <c r="GO22" s="79"/>
+      <c r="GP22" s="79"/>
+      <c r="GQ22" s="79"/>
+      <c r="GR22" s="79"/>
+      <c r="GS22" s="79"/>
+      <c r="GT22" s="79"/>
+      <c r="GU22" s="79"/>
+      <c r="GV22" s="79"/>
+      <c r="GW22" s="79"/>
+      <c r="GX22" s="79"/>
+      <c r="GY22" s="79"/>
+      <c r="GZ22" s="79"/>
+      <c r="HA22" s="79"/>
+      <c r="HB22" s="79"/>
+      <c r="HC22" s="79"/>
+      <c r="HD22" s="79"/>
+      <c r="HE22" s="79"/>
+      <c r="HF22" s="79"/>
+      <c r="HG22" s="79"/>
+      <c r="HH22" s="79"/>
+      <c r="HI22" s="79"/>
+      <c r="HJ22" s="79"/>
+      <c r="HK22" s="79"/>
+      <c r="HL22" s="79"/>
+      <c r="HM22" s="79"/>
+      <c r="HN22" s="79"/>
+      <c r="HO22" s="79"/>
+      <c r="HP22" s="79"/>
+      <c r="HQ22" s="79"/>
+      <c r="HR22" s="79"/>
+      <c r="HS22" s="79"/>
+      <c r="HT22" s="79"/>
+      <c r="HU22" s="79"/>
+      <c r="HV22" s="79"/>
+      <c r="HW22" s="79"/>
+      <c r="HX22" s="79"/>
+      <c r="HY22" s="79"/>
+      <c r="HZ22" s="79"/>
+      <c r="IA22" s="79"/>
+      <c r="IB22" s="79"/>
+      <c r="IC22" s="79"/>
+      <c r="ID22" s="79"/>
+      <c r="IE22" s="79"/>
+      <c r="IF22" s="79"/>
+      <c r="IG22" s="79"/>
+      <c r="IH22" s="79"/>
+      <c r="II22" s="79"/>
+      <c r="IJ22" s="79"/>
+      <c r="IK22" s="79"/>
+      <c r="IL22" s="79"/>
+      <c r="IM22" s="79"/>
+      <c r="IN22" s="79"/>
+      <c r="IO22" s="79"/>
+      <c r="IP22" s="79"/>
+      <c r="IQ22" s="79"/>
+      <c r="IR22" s="79"/>
+      <c r="IS22" s="79"/>
+      <c r="IT22" s="79"/>
+      <c r="IU22" s="79"/>
+      <c r="IV22" s="79"/>
+      <c r="IW22" s="79"/>
+      <c r="IX22" s="79"/>
     </row>
-    <row r="23" spans="1:258" s="3" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
-      <c r="AS23" s="24"/>
-      <c r="AT23" s="24"/>
-      <c r="AU23" s="24"/>
-      <c r="AV23" s="24"/>
-      <c r="AW23" s="24"/>
-      <c r="AX23" s="24"/>
-      <c r="AY23" s="24"/>
-      <c r="AZ23" s="24"/>
-      <c r="BA23" s="24"/>
-      <c r="BB23" s="24"/>
-      <c r="BC23" s="24"/>
-      <c r="BD23" s="24"/>
-      <c r="BE23" s="24"/>
-      <c r="BF23" s="24"/>
-      <c r="BG23" s="24"/>
-      <c r="BH23" s="24"/>
-      <c r="BI23" s="24"/>
-      <c r="BJ23" s="24"/>
-      <c r="BK23" s="24"/>
-      <c r="BL23" s="24"/>
-      <c r="BM23" s="24"/>
-      <c r="BN23" s="24"/>
-      <c r="BO23" s="24"/>
-      <c r="BP23" s="24"/>
-      <c r="BQ23" s="24"/>
-      <c r="BR23" s="24"/>
-      <c r="BS23" s="24"/>
-      <c r="BT23" s="24"/>
-      <c r="BU23" s="24"/>
-      <c r="BV23" s="24"/>
-      <c r="BW23" s="24"/>
-      <c r="BX23" s="24"/>
-      <c r="BY23" s="24"/>
-      <c r="BZ23" s="24"/>
-      <c r="CA23" s="24"/>
-      <c r="CB23" s="24"/>
-      <c r="CC23" s="24"/>
-      <c r="CD23" s="24"/>
-      <c r="CE23" s="24"/>
-      <c r="CF23" s="24"/>
-      <c r="CG23" s="24"/>
-      <c r="CH23" s="24"/>
-      <c r="CI23" s="24"/>
-      <c r="CJ23" s="24"/>
-      <c r="CK23" s="24"/>
-      <c r="CL23" s="24"/>
-      <c r="CM23" s="24"/>
-      <c r="CN23" s="24"/>
-      <c r="CO23" s="24"/>
-      <c r="CP23" s="24"/>
-      <c r="CQ23" s="24"/>
-      <c r="CR23" s="24"/>
-      <c r="CS23" s="24"/>
-      <c r="CT23" s="24"/>
-      <c r="CU23" s="24"/>
-      <c r="CV23" s="24"/>
-      <c r="CW23" s="24"/>
-      <c r="CX23" s="24"/>
-      <c r="CY23" s="24"/>
-      <c r="CZ23" s="24"/>
-      <c r="DA23" s="24"/>
-      <c r="DB23" s="24"/>
-      <c r="DC23" s="24"/>
-      <c r="DD23" s="24"/>
-      <c r="DE23" s="24"/>
-      <c r="DF23" s="24"/>
-      <c r="DG23" s="24"/>
-      <c r="DH23" s="24"/>
-      <c r="DI23" s="24"/>
-      <c r="DJ23" s="24"/>
-      <c r="DK23" s="24"/>
-      <c r="DL23" s="24"/>
-      <c r="DM23" s="24"/>
-      <c r="DN23" s="24"/>
-      <c r="DO23" s="24"/>
-      <c r="DP23" s="24"/>
-      <c r="DQ23" s="24"/>
-      <c r="DR23" s="24"/>
-      <c r="DS23" s="24"/>
-      <c r="DT23" s="24"/>
-      <c r="DU23" s="24"/>
-      <c r="DV23" s="24"/>
-      <c r="DW23" s="24"/>
-      <c r="DX23" s="24"/>
-      <c r="DY23" s="24"/>
-      <c r="DZ23" s="24"/>
-      <c r="EA23" s="24"/>
-      <c r="EB23" s="24"/>
-      <c r="EC23" s="24"/>
-      <c r="ED23" s="24"/>
-      <c r="EE23" s="24"/>
-      <c r="EF23" s="24"/>
-      <c r="EG23" s="24"/>
-      <c r="EH23" s="24"/>
-      <c r="EI23" s="24"/>
-      <c r="EJ23" s="24"/>
-      <c r="EK23" s="24"/>
-      <c r="EL23" s="24"/>
-      <c r="EM23" s="24"/>
-      <c r="EN23" s="24"/>
-      <c r="EO23" s="24"/>
-      <c r="EP23" s="24"/>
-      <c r="EQ23" s="24"/>
-      <c r="ER23" s="24"/>
-      <c r="ES23" s="24"/>
-      <c r="ET23" s="24"/>
-      <c r="EU23" s="24"/>
-      <c r="EV23" s="24"/>
-      <c r="EW23" s="24"/>
-      <c r="EX23" s="24"/>
-      <c r="EY23" s="24"/>
-      <c r="EZ23" s="24"/>
-      <c r="FA23" s="24"/>
-      <c r="FB23" s="24"/>
-      <c r="FC23" s="24"/>
-      <c r="FD23" s="24"/>
-      <c r="FE23" s="24"/>
-      <c r="FF23" s="24"/>
-      <c r="FG23" s="24"/>
-      <c r="FH23" s="24"/>
-      <c r="FI23" s="24"/>
-      <c r="FJ23" s="24"/>
-      <c r="FK23" s="24"/>
-      <c r="FL23" s="24"/>
-      <c r="FM23" s="24"/>
-      <c r="FN23" s="24"/>
-      <c r="FO23" s="24"/>
-      <c r="FP23" s="24"/>
-      <c r="FQ23" s="24"/>
-      <c r="FR23" s="24"/>
-      <c r="FS23" s="24"/>
-      <c r="FT23" s="24"/>
-      <c r="FU23" s="24"/>
-      <c r="FV23" s="24"/>
-      <c r="FW23" s="24"/>
-      <c r="FX23" s="24"/>
-      <c r="FY23" s="24"/>
-      <c r="FZ23" s="24"/>
-      <c r="GA23" s="24"/>
-      <c r="GB23" s="24"/>
-      <c r="GC23" s="24"/>
-      <c r="GD23" s="24"/>
-      <c r="GE23" s="24"/>
-      <c r="GF23" s="24"/>
-      <c r="GG23" s="24"/>
-      <c r="GH23" s="24"/>
-      <c r="GI23" s="24"/>
-      <c r="GJ23" s="24"/>
-      <c r="GK23" s="24"/>
-      <c r="GL23" s="24"/>
-      <c r="GM23" s="24"/>
-      <c r="GN23" s="24"/>
-      <c r="GO23" s="24"/>
-      <c r="GP23" s="24"/>
-      <c r="GQ23" s="24"/>
-      <c r="GR23" s="24"/>
-      <c r="GS23" s="24"/>
-      <c r="GT23" s="24"/>
-      <c r="GU23" s="24"/>
-      <c r="GV23" s="24"/>
-      <c r="GW23" s="24"/>
-      <c r="GX23" s="24"/>
-      <c r="GY23" s="24"/>
-      <c r="GZ23" s="24"/>
-      <c r="HA23" s="24"/>
-      <c r="HB23" s="24"/>
-      <c r="HC23" s="24"/>
-      <c r="HD23" s="24"/>
-      <c r="HE23" s="24"/>
-      <c r="HF23" s="24"/>
-      <c r="HG23" s="24"/>
-      <c r="HH23" s="24"/>
-      <c r="HI23" s="24"/>
-      <c r="HJ23" s="24"/>
-      <c r="HK23" s="24"/>
-      <c r="HL23" s="24"/>
-      <c r="HM23" s="24"/>
-      <c r="HN23" s="24"/>
-      <c r="HO23" s="24"/>
-      <c r="HP23" s="24"/>
-      <c r="HQ23" s="24"/>
-      <c r="HR23" s="24"/>
-      <c r="HS23" s="24"/>
-      <c r="HT23" s="24"/>
-      <c r="HU23" s="24"/>
-      <c r="HV23" s="24"/>
-      <c r="HW23" s="24"/>
-      <c r="HX23" s="24"/>
-      <c r="HY23" s="24"/>
-      <c r="HZ23" s="24"/>
-      <c r="IA23" s="24"/>
-      <c r="IB23" s="24"/>
-      <c r="IC23" s="24"/>
-      <c r="ID23" s="24"/>
-      <c r="IE23" s="24"/>
-      <c r="IF23" s="24"/>
-      <c r="IG23" s="24"/>
-      <c r="IH23" s="24"/>
-      <c r="II23" s="24"/>
-      <c r="IJ23" s="24"/>
-      <c r="IK23" s="24"/>
-      <c r="IL23" s="24"/>
-      <c r="IM23" s="24"/>
-      <c r="IN23" s="24"/>
-      <c r="IO23" s="24"/>
-      <c r="IP23" s="24"/>
-      <c r="IQ23" s="24"/>
-      <c r="IR23" s="24"/>
-      <c r="IS23" s="24"/>
-      <c r="IT23" s="24"/>
-      <c r="IU23" s="24"/>
-      <c r="IV23" s="24"/>
-      <c r="IW23" s="24"/>
-      <c r="IX23" s="24"/>
+    <row r="23" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
+      <c r="A23" s="112"/>
+      <c r="B23" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="59"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="79"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="79"/>
+      <c r="AK23" s="79"/>
+      <c r="AL23" s="79"/>
+      <c r="AM23" s="79"/>
+      <c r="AN23" s="79"/>
+      <c r="AO23" s="79"/>
+      <c r="AP23" s="79"/>
+      <c r="AQ23" s="79"/>
+      <c r="AR23" s="79"/>
+      <c r="AS23" s="79"/>
+      <c r="AT23" s="79"/>
+      <c r="AU23" s="79"/>
+      <c r="AV23" s="79"/>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="79"/>
+      <c r="AY23" s="79"/>
+      <c r="AZ23" s="79"/>
+      <c r="BA23" s="79"/>
+      <c r="BB23" s="79"/>
+      <c r="BC23" s="79"/>
+      <c r="BD23" s="79"/>
+      <c r="BE23" s="79"/>
+      <c r="BF23" s="79"/>
+      <c r="BG23" s="79"/>
+      <c r="BH23" s="79"/>
+      <c r="BI23" s="79"/>
+      <c r="BJ23" s="79"/>
+      <c r="BK23" s="79"/>
+      <c r="BL23" s="79"/>
+      <c r="BM23" s="79"/>
+      <c r="BN23" s="79"/>
+      <c r="BO23" s="79"/>
+      <c r="BP23" s="79"/>
+      <c r="BQ23" s="79"/>
+      <c r="BR23" s="79"/>
+      <c r="BS23" s="79"/>
+      <c r="BT23" s="79"/>
+      <c r="BU23" s="79"/>
+      <c r="BV23" s="79"/>
+      <c r="BW23" s="79"/>
+      <c r="BX23" s="79"/>
+      <c r="BY23" s="79"/>
+      <c r="BZ23" s="79"/>
+      <c r="CA23" s="79"/>
+      <c r="CB23" s="79"/>
+      <c r="CC23" s="79"/>
+      <c r="CD23" s="79"/>
+      <c r="CE23" s="79"/>
+      <c r="CF23" s="79"/>
+      <c r="CG23" s="79"/>
+      <c r="CH23" s="79"/>
+      <c r="CI23" s="79"/>
+      <c r="CJ23" s="79"/>
+      <c r="CK23" s="79"/>
+      <c r="CL23" s="79"/>
+      <c r="CM23" s="79"/>
+      <c r="CN23" s="79"/>
+      <c r="CO23" s="79"/>
+      <c r="CP23" s="79"/>
+      <c r="CQ23" s="79"/>
+      <c r="CR23" s="79"/>
+      <c r="CS23" s="79"/>
+      <c r="CT23" s="79"/>
+      <c r="CU23" s="79"/>
+      <c r="CV23" s="79"/>
+      <c r="CW23" s="79"/>
+      <c r="CX23" s="79"/>
+      <c r="CY23" s="79"/>
+      <c r="CZ23" s="79"/>
+      <c r="DA23" s="79"/>
+      <c r="DB23" s="79"/>
+      <c r="DC23" s="79"/>
+      <c r="DD23" s="79"/>
+      <c r="DE23" s="79"/>
+      <c r="DF23" s="79"/>
+      <c r="DG23" s="79"/>
+      <c r="DH23" s="79"/>
+      <c r="DI23" s="79"/>
+      <c r="DJ23" s="79"/>
+      <c r="DK23" s="79"/>
+      <c r="DL23" s="79"/>
+      <c r="DM23" s="79"/>
+      <c r="DN23" s="79"/>
+      <c r="DO23" s="79"/>
+      <c r="DP23" s="79"/>
+      <c r="DQ23" s="79"/>
+      <c r="DR23" s="79"/>
+      <c r="DS23" s="79"/>
+      <c r="DT23" s="79"/>
+      <c r="DU23" s="79"/>
+      <c r="DV23" s="79"/>
+      <c r="DW23" s="79"/>
+      <c r="DX23" s="79"/>
+      <c r="DY23" s="79"/>
+      <c r="DZ23" s="79"/>
+      <c r="EA23" s="79"/>
+      <c r="EB23" s="79"/>
+      <c r="EC23" s="79"/>
+      <c r="ED23" s="79"/>
+      <c r="EE23" s="79"/>
+      <c r="EF23" s="79"/>
+      <c r="EG23" s="79"/>
+      <c r="EH23" s="79"/>
+      <c r="EI23" s="79"/>
+      <c r="EJ23" s="79"/>
+      <c r="EK23" s="79"/>
+      <c r="EL23" s="79"/>
+      <c r="EM23" s="79"/>
+      <c r="EN23" s="79"/>
+      <c r="EO23" s="79"/>
+      <c r="EP23" s="79"/>
+      <c r="EQ23" s="79"/>
+      <c r="ER23" s="79"/>
+      <c r="ES23" s="79"/>
+      <c r="ET23" s="79"/>
+      <c r="EU23" s="79"/>
+      <c r="EV23" s="79"/>
+      <c r="EW23" s="79"/>
+      <c r="EX23" s="79"/>
+      <c r="EY23" s="79"/>
+      <c r="EZ23" s="79"/>
+      <c r="FA23" s="79"/>
+      <c r="FB23" s="79"/>
+      <c r="FC23" s="79"/>
+      <c r="FD23" s="79"/>
+      <c r="FE23" s="79"/>
+      <c r="FF23" s="79"/>
+      <c r="FG23" s="79"/>
+      <c r="FH23" s="79"/>
+      <c r="FI23" s="79"/>
+      <c r="FJ23" s="79"/>
+      <c r="FK23" s="79"/>
+      <c r="FL23" s="79"/>
+      <c r="FM23" s="79"/>
+      <c r="FN23" s="79"/>
+      <c r="FO23" s="79"/>
+      <c r="FP23" s="79"/>
+      <c r="FQ23" s="79"/>
+      <c r="FR23" s="79"/>
+      <c r="FS23" s="79"/>
+      <c r="FT23" s="79"/>
+      <c r="FU23" s="79"/>
+      <c r="FV23" s="79"/>
+      <c r="FW23" s="79"/>
+      <c r="FX23" s="79"/>
+      <c r="FY23" s="79"/>
+      <c r="FZ23" s="79"/>
+      <c r="GA23" s="79"/>
+      <c r="GB23" s="79"/>
+      <c r="GC23" s="79"/>
+      <c r="GD23" s="79"/>
+      <c r="GE23" s="79"/>
+      <c r="GF23" s="79"/>
+      <c r="GG23" s="79"/>
+      <c r="GH23" s="79"/>
+      <c r="GI23" s="79"/>
+      <c r="GJ23" s="79"/>
+      <c r="GK23" s="79"/>
+      <c r="GL23" s="79"/>
+      <c r="GM23" s="79"/>
+      <c r="GN23" s="79"/>
+      <c r="GO23" s="79"/>
+      <c r="GP23" s="79"/>
+      <c r="GQ23" s="79"/>
+      <c r="GR23" s="79"/>
+      <c r="GS23" s="79"/>
+      <c r="GT23" s="79"/>
+      <c r="GU23" s="79"/>
+      <c r="GV23" s="79"/>
+      <c r="GW23" s="79"/>
+      <c r="GX23" s="79"/>
+      <c r="GY23" s="79"/>
+      <c r="GZ23" s="79"/>
+      <c r="HA23" s="79"/>
+      <c r="HB23" s="79"/>
+      <c r="HC23" s="79"/>
+      <c r="HD23" s="79"/>
+      <c r="HE23" s="79"/>
+      <c r="HF23" s="79"/>
+      <c r="HG23" s="79"/>
+      <c r="HH23" s="79"/>
+      <c r="HI23" s="79"/>
+      <c r="HJ23" s="79"/>
+      <c r="HK23" s="79"/>
+      <c r="HL23" s="79"/>
+      <c r="HM23" s="79"/>
+      <c r="HN23" s="79"/>
+      <c r="HO23" s="79"/>
+      <c r="HP23" s="79"/>
+      <c r="HQ23" s="79"/>
+      <c r="HR23" s="79"/>
+      <c r="HS23" s="79"/>
+      <c r="HT23" s="79"/>
+      <c r="HU23" s="79"/>
+      <c r="HV23" s="79"/>
+      <c r="HW23" s="79"/>
+      <c r="HX23" s="79"/>
+      <c r="HY23" s="79"/>
+      <c r="HZ23" s="79"/>
+      <c r="IA23" s="79"/>
+      <c r="IB23" s="79"/>
+      <c r="IC23" s="79"/>
+      <c r="ID23" s="79"/>
+      <c r="IE23" s="79"/>
+      <c r="IF23" s="79"/>
+      <c r="IG23" s="79"/>
+      <c r="IH23" s="79"/>
+      <c r="II23" s="79"/>
+      <c r="IJ23" s="79"/>
+      <c r="IK23" s="79"/>
+      <c r="IL23" s="79"/>
+      <c r="IM23" s="79"/>
+      <c r="IN23" s="79"/>
+      <c r="IO23" s="79"/>
+      <c r="IP23" s="79"/>
+      <c r="IQ23" s="79"/>
+      <c r="IR23" s="79"/>
+      <c r="IS23" s="79"/>
+      <c r="IT23" s="79"/>
+      <c r="IU23" s="79"/>
+      <c r="IV23" s="79"/>
+      <c r="IW23" s="79"/>
+      <c r="IX23" s="79"/>
     </row>
-    <row r="24" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="69"/>
+    <row r="24" spans="1:258" s="3" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A24" s="30"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="68"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="51"/>
-      <c r="AG24" s="51"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="51"/>
-      <c r="AL24" s="51"/>
-      <c r="AM24" s="51"/>
-      <c r="AN24" s="51"/>
-      <c r="AO24" s="51"/>
-      <c r="AP24" s="51"/>
-      <c r="AQ24" s="51"/>
-      <c r="AR24" s="51"/>
-      <c r="AS24" s="51"/>
-      <c r="AT24" s="51"/>
-      <c r="AU24" s="51"/>
-      <c r="AV24" s="51"/>
-      <c r="AW24" s="51"/>
-      <c r="AX24" s="51"/>
-      <c r="AY24" s="51"/>
-      <c r="AZ24" s="51"/>
-      <c r="BA24" s="51"/>
-      <c r="BB24" s="51"/>
-      <c r="BC24" s="51"/>
-      <c r="BD24" s="51"/>
-      <c r="BE24" s="51"/>
-      <c r="BF24" s="51"/>
-      <c r="BG24" s="51"/>
-      <c r="BH24" s="51"/>
-      <c r="BI24" s="51"/>
-      <c r="BJ24" s="51"/>
-      <c r="BK24" s="51"/>
-      <c r="BL24" s="51"/>
-      <c r="BM24" s="51"/>
-      <c r="BN24" s="51"/>
-      <c r="BO24" s="51"/>
-      <c r="BP24" s="51"/>
-      <c r="BQ24" s="51"/>
-      <c r="BR24" s="51"/>
-      <c r="BS24" s="51"/>
-      <c r="BT24" s="51"/>
-      <c r="BU24" s="51"/>
-      <c r="BV24" s="51"/>
-      <c r="BW24" s="51"/>
-      <c r="BX24" s="51"/>
-      <c r="BY24" s="51"/>
-      <c r="BZ24" s="51"/>
-      <c r="CA24" s="51"/>
-      <c r="CB24" s="51"/>
-      <c r="CC24" s="51"/>
-      <c r="CD24" s="51"/>
-      <c r="CE24" s="51"/>
-      <c r="CF24" s="51"/>
-      <c r="CG24" s="51"/>
-      <c r="CH24" s="51"/>
-      <c r="CI24" s="51"/>
-      <c r="CJ24" s="51"/>
-      <c r="CK24" s="51"/>
-      <c r="CL24" s="51"/>
-      <c r="CM24" s="51"/>
-      <c r="CN24" s="51"/>
-      <c r="CO24" s="51"/>
-      <c r="CP24" s="51"/>
-      <c r="CQ24" s="51"/>
-      <c r="CR24" s="51"/>
-      <c r="CS24" s="51"/>
-      <c r="CT24" s="51"/>
-      <c r="CU24" s="51"/>
-      <c r="CV24" s="51"/>
-      <c r="CW24" s="51"/>
-      <c r="CX24" s="51"/>
-      <c r="CY24" s="51"/>
-      <c r="CZ24" s="51"/>
-      <c r="DA24" s="51"/>
-      <c r="DB24" s="51"/>
-      <c r="DC24" s="51"/>
-      <c r="DD24" s="51"/>
-      <c r="DE24" s="51"/>
-      <c r="DF24" s="51"/>
-      <c r="DG24" s="51"/>
-      <c r="DH24" s="51"/>
-      <c r="DI24" s="51"/>
-      <c r="DJ24" s="51"/>
-      <c r="DK24" s="51"/>
-      <c r="DL24" s="51"/>
-      <c r="DM24" s="51"/>
-      <c r="DN24" s="51"/>
-      <c r="DO24" s="51"/>
-      <c r="DP24" s="51"/>
-      <c r="DQ24" s="51"/>
-      <c r="DR24" s="51"/>
-      <c r="DS24" s="51"/>
-      <c r="DT24" s="51"/>
-      <c r="DU24" s="51"/>
-      <c r="DV24" s="51"/>
-      <c r="DW24" s="51"/>
-      <c r="DX24" s="51"/>
-      <c r="DY24" s="51"/>
-      <c r="DZ24" s="51"/>
-      <c r="EA24" s="51"/>
-      <c r="EB24" s="51"/>
-      <c r="EC24" s="51"/>
-      <c r="ED24" s="51"/>
-      <c r="EE24" s="51"/>
-      <c r="EF24" s="51"/>
-      <c r="EG24" s="51"/>
-      <c r="EH24" s="51"/>
-      <c r="EI24" s="51"/>
-      <c r="EJ24" s="51"/>
-      <c r="EK24" s="51"/>
-      <c r="EL24" s="51"/>
-      <c r="EM24" s="51"/>
-      <c r="EN24" s="51"/>
-      <c r="EO24" s="51"/>
-      <c r="EP24" s="51"/>
-      <c r="EQ24" s="51"/>
-      <c r="ER24" s="51"/>
-      <c r="ES24" s="51"/>
-      <c r="ET24" s="51"/>
-      <c r="EU24" s="51"/>
-      <c r="EV24" s="51"/>
-      <c r="EW24" s="51"/>
-      <c r="EX24" s="51"/>
-      <c r="EY24" s="51"/>
-      <c r="EZ24" s="51"/>
-      <c r="FA24" s="51"/>
-      <c r="FB24" s="51"/>
-      <c r="FC24" s="51"/>
-      <c r="FD24" s="51"/>
-      <c r="FE24" s="51"/>
-      <c r="FF24" s="51"/>
-      <c r="FG24" s="51"/>
-      <c r="FH24" s="51"/>
-      <c r="FI24" s="51"/>
-      <c r="FJ24" s="51"/>
-      <c r="FK24" s="51"/>
-      <c r="FL24" s="51"/>
-      <c r="FM24" s="51"/>
-      <c r="FN24" s="51"/>
-      <c r="FO24" s="51"/>
-      <c r="FP24" s="51"/>
-      <c r="FQ24" s="51"/>
-      <c r="FR24" s="51"/>
-      <c r="FS24" s="51"/>
-      <c r="FT24" s="51"/>
-      <c r="FU24" s="51"/>
-      <c r="FV24" s="51"/>
-      <c r="FW24" s="51"/>
-      <c r="FX24" s="51"/>
-      <c r="FY24" s="51"/>
-      <c r="FZ24" s="51"/>
-      <c r="GA24" s="51"/>
-      <c r="GB24" s="51"/>
-      <c r="GC24" s="51"/>
-      <c r="GD24" s="51"/>
-      <c r="GE24" s="51"/>
-      <c r="GF24" s="51"/>
-      <c r="GG24" s="51"/>
-      <c r="GH24" s="51"/>
-      <c r="GI24" s="51"/>
-      <c r="GJ24" s="51"/>
-      <c r="GK24" s="51"/>
-      <c r="GL24" s="51"/>
-      <c r="GM24" s="51"/>
-      <c r="GN24" s="51"/>
-      <c r="GO24" s="51"/>
-      <c r="GP24" s="51"/>
-      <c r="GQ24" s="51"/>
-      <c r="GR24" s="51"/>
-      <c r="GS24" s="51"/>
-      <c r="GT24" s="51"/>
-      <c r="GU24" s="51"/>
-      <c r="GV24" s="51"/>
-      <c r="GW24" s="51"/>
-      <c r="GX24" s="51"/>
-      <c r="GY24" s="51"/>
-      <c r="GZ24" s="51"/>
-      <c r="HA24" s="51"/>
-      <c r="HB24" s="51"/>
-      <c r="HC24" s="51"/>
-      <c r="HD24" s="51"/>
-      <c r="HE24" s="51"/>
-      <c r="HF24" s="51"/>
-      <c r="HG24" s="51"/>
-      <c r="HH24" s="51"/>
-      <c r="HI24" s="51"/>
-      <c r="HJ24" s="51"/>
-      <c r="HK24" s="51"/>
-      <c r="HL24" s="51"/>
-      <c r="HM24" s="51"/>
-      <c r="HN24" s="51"/>
-      <c r="HO24" s="51"/>
-      <c r="HP24" s="51"/>
-      <c r="HQ24" s="51"/>
-      <c r="HR24" s="51"/>
-      <c r="HS24" s="51"/>
-      <c r="HT24" s="51"/>
-      <c r="HU24" s="51"/>
-      <c r="HV24" s="51"/>
-      <c r="HW24" s="51"/>
-      <c r="HX24" s="51"/>
-      <c r="HY24" s="51"/>
-      <c r="HZ24" s="51"/>
-      <c r="IA24" s="51"/>
-      <c r="IB24" s="51"/>
-      <c r="IC24" s="51"/>
-      <c r="ID24" s="51"/>
-      <c r="IE24" s="51"/>
-      <c r="IF24" s="51"/>
-      <c r="IG24" s="51"/>
-      <c r="IH24" s="51"/>
-      <c r="II24" s="51"/>
-      <c r="IJ24" s="51"/>
-      <c r="IK24" s="51"/>
-      <c r="IL24" s="51"/>
-      <c r="IM24" s="51"/>
-      <c r="IN24" s="51"/>
-      <c r="IO24" s="51"/>
-      <c r="IP24" s="51"/>
-      <c r="IQ24" s="51"/>
-      <c r="IR24" s="51"/>
-      <c r="IS24" s="51"/>
-      <c r="IT24" s="51"/>
-      <c r="IU24" s="51"/>
-      <c r="IV24" s="51"/>
-      <c r="IW24" s="51"/>
-      <c r="IX24" s="51"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+      <c r="AH24" s="24"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="24"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="24"/>
+      <c r="AQ24" s="24"/>
+      <c r="AR24" s="24"/>
+      <c r="AS24" s="24"/>
+      <c r="AT24" s="24"/>
+      <c r="AU24" s="24"/>
+      <c r="AV24" s="24"/>
+      <c r="AW24" s="24"/>
+      <c r="AX24" s="24"/>
+      <c r="AY24" s="24"/>
+      <c r="AZ24" s="24"/>
+      <c r="BA24" s="24"/>
+      <c r="BB24" s="24"/>
+      <c r="BC24" s="24"/>
+      <c r="BD24" s="24"/>
+      <c r="BE24" s="24"/>
+      <c r="BF24" s="24"/>
+      <c r="BG24" s="24"/>
+      <c r="BH24" s="24"/>
+      <c r="BI24" s="24"/>
+      <c r="BJ24" s="24"/>
+      <c r="BK24" s="24"/>
+      <c r="BL24" s="24"/>
+      <c r="BM24" s="24"/>
+      <c r="BN24" s="24"/>
+      <c r="BO24" s="24"/>
+      <c r="BP24" s="24"/>
+      <c r="BQ24" s="24"/>
+      <c r="BR24" s="24"/>
+      <c r="BS24" s="24"/>
+      <c r="BT24" s="24"/>
+      <c r="BU24" s="24"/>
+      <c r="BV24" s="24"/>
+      <c r="BW24" s="24"/>
+      <c r="BX24" s="24"/>
+      <c r="BY24" s="24"/>
+      <c r="BZ24" s="24"/>
+      <c r="CA24" s="24"/>
+      <c r="CB24" s="24"/>
+      <c r="CC24" s="24"/>
+      <c r="CD24" s="24"/>
+      <c r="CE24" s="24"/>
+      <c r="CF24" s="24"/>
+      <c r="CG24" s="24"/>
+      <c r="CH24" s="24"/>
+      <c r="CI24" s="24"/>
+      <c r="CJ24" s="24"/>
+      <c r="CK24" s="24"/>
+      <c r="CL24" s="24"/>
+      <c r="CM24" s="24"/>
+      <c r="CN24" s="24"/>
+      <c r="CO24" s="24"/>
+      <c r="CP24" s="24"/>
+      <c r="CQ24" s="24"/>
+      <c r="CR24" s="24"/>
+      <c r="CS24" s="24"/>
+      <c r="CT24" s="24"/>
+      <c r="CU24" s="24"/>
+      <c r="CV24" s="24"/>
+      <c r="CW24" s="24"/>
+      <c r="CX24" s="24"/>
+      <c r="CY24" s="24"/>
+      <c r="CZ24" s="24"/>
+      <c r="DA24" s="24"/>
+      <c r="DB24" s="24"/>
+      <c r="DC24" s="24"/>
+      <c r="DD24" s="24"/>
+      <c r="DE24" s="24"/>
+      <c r="DF24" s="24"/>
+      <c r="DG24" s="24"/>
+      <c r="DH24" s="24"/>
+      <c r="DI24" s="24"/>
+      <c r="DJ24" s="24"/>
+      <c r="DK24" s="24"/>
+      <c r="DL24" s="24"/>
+      <c r="DM24" s="24"/>
+      <c r="DN24" s="24"/>
+      <c r="DO24" s="24"/>
+      <c r="DP24" s="24"/>
+      <c r="DQ24" s="24"/>
+      <c r="DR24" s="24"/>
+      <c r="DS24" s="24"/>
+      <c r="DT24" s="24"/>
+      <c r="DU24" s="24"/>
+      <c r="DV24" s="24"/>
+      <c r="DW24" s="24"/>
+      <c r="DX24" s="24"/>
+      <c r="DY24" s="24"/>
+      <c r="DZ24" s="24"/>
+      <c r="EA24" s="24"/>
+      <c r="EB24" s="24"/>
+      <c r="EC24" s="24"/>
+      <c r="ED24" s="24"/>
+      <c r="EE24" s="24"/>
+      <c r="EF24" s="24"/>
+      <c r="EG24" s="24"/>
+      <c r="EH24" s="24"/>
+      <c r="EI24" s="24"/>
+      <c r="EJ24" s="24"/>
+      <c r="EK24" s="24"/>
+      <c r="EL24" s="24"/>
+      <c r="EM24" s="24"/>
+      <c r="EN24" s="24"/>
+      <c r="EO24" s="24"/>
+      <c r="EP24" s="24"/>
+      <c r="EQ24" s="24"/>
+      <c r="ER24" s="24"/>
+      <c r="ES24" s="24"/>
+      <c r="ET24" s="24"/>
+      <c r="EU24" s="24"/>
+      <c r="EV24" s="24"/>
+      <c r="EW24" s="24"/>
+      <c r="EX24" s="24"/>
+      <c r="EY24" s="24"/>
+      <c r="EZ24" s="24"/>
+      <c r="FA24" s="24"/>
+      <c r="FB24" s="24"/>
+      <c r="FC24" s="24"/>
+      <c r="FD24" s="24"/>
+      <c r="FE24" s="24"/>
+      <c r="FF24" s="24"/>
+      <c r="FG24" s="24"/>
+      <c r="FH24" s="24"/>
+      <c r="FI24" s="24"/>
+      <c r="FJ24" s="24"/>
+      <c r="FK24" s="24"/>
+      <c r="FL24" s="24"/>
+      <c r="FM24" s="24"/>
+      <c r="FN24" s="24"/>
+      <c r="FO24" s="24"/>
+      <c r="FP24" s="24"/>
+      <c r="FQ24" s="24"/>
+      <c r="FR24" s="24"/>
+      <c r="FS24" s="24"/>
+      <c r="FT24" s="24"/>
+      <c r="FU24" s="24"/>
+      <c r="FV24" s="24"/>
+      <c r="FW24" s="24"/>
+      <c r="FX24" s="24"/>
+      <c r="FY24" s="24"/>
+      <c r="FZ24" s="24"/>
+      <c r="GA24" s="24"/>
+      <c r="GB24" s="24"/>
+      <c r="GC24" s="24"/>
+      <c r="GD24" s="24"/>
+      <c r="GE24" s="24"/>
+      <c r="GF24" s="24"/>
+      <c r="GG24" s="24"/>
+      <c r="GH24" s="24"/>
+      <c r="GI24" s="24"/>
+      <c r="GJ24" s="24"/>
+      <c r="GK24" s="24"/>
+      <c r="GL24" s="24"/>
+      <c r="GM24" s="24"/>
+      <c r="GN24" s="24"/>
+      <c r="GO24" s="24"/>
+      <c r="GP24" s="24"/>
+      <c r="GQ24" s="24"/>
+      <c r="GR24" s="24"/>
+      <c r="GS24" s="24"/>
+      <c r="GT24" s="24"/>
+      <c r="GU24" s="24"/>
+      <c r="GV24" s="24"/>
+      <c r="GW24" s="24"/>
+      <c r="GX24" s="24"/>
+      <c r="GY24" s="24"/>
+      <c r="GZ24" s="24"/>
+      <c r="HA24" s="24"/>
+      <c r="HB24" s="24"/>
+      <c r="HC24" s="24"/>
+      <c r="HD24" s="24"/>
+      <c r="HE24" s="24"/>
+      <c r="HF24" s="24"/>
+      <c r="HG24" s="24"/>
+      <c r="HH24" s="24"/>
+      <c r="HI24" s="24"/>
+      <c r="HJ24" s="24"/>
+      <c r="HK24" s="24"/>
+      <c r="HL24" s="24"/>
+      <c r="HM24" s="24"/>
+      <c r="HN24" s="24"/>
+      <c r="HO24" s="24"/>
+      <c r="HP24" s="24"/>
+      <c r="HQ24" s="24"/>
+      <c r="HR24" s="24"/>
+      <c r="HS24" s="24"/>
+      <c r="HT24" s="24"/>
+      <c r="HU24" s="24"/>
+      <c r="HV24" s="24"/>
+      <c r="HW24" s="24"/>
+      <c r="HX24" s="24"/>
+      <c r="HY24" s="24"/>
+      <c r="HZ24" s="24"/>
+      <c r="IA24" s="24"/>
+      <c r="IB24" s="24"/>
+      <c r="IC24" s="24"/>
+      <c r="ID24" s="24"/>
+      <c r="IE24" s="24"/>
+      <c r="IF24" s="24"/>
+      <c r="IG24" s="24"/>
+      <c r="IH24" s="24"/>
+      <c r="II24" s="24"/>
+      <c r="IJ24" s="24"/>
+      <c r="IK24" s="24"/>
+      <c r="IL24" s="24"/>
+      <c r="IM24" s="24"/>
+      <c r="IN24" s="24"/>
+      <c r="IO24" s="24"/>
+      <c r="IP24" s="24"/>
+      <c r="IQ24" s="24"/>
+      <c r="IR24" s="24"/>
+      <c r="IS24" s="24"/>
+      <c r="IT24" s="24"/>
+      <c r="IU24" s="24"/>
+      <c r="IV24" s="24"/>
+      <c r="IW24" s="24"/>
+      <c r="IX24" s="24"/>
     </row>
     <row r="25" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="69"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="68"/>
       <c r="L25" s="21"/>
       <c r="M25" s="51"/>
       <c r="N25" s="51"/>
@@ -9073,17 +9092,17 @@
       <c r="IX25" s="51"/>
     </row>
     <row r="26" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A26" s="114"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="69"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="68"/>
       <c r="L26" s="21"/>
       <c r="M26" s="51"/>
       <c r="N26" s="51"/>
@@ -9333,17 +9352,17 @@
       <c r="IX26" s="51"/>
     </row>
     <row r="27" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="69"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="68"/>
       <c r="L27" s="21"/>
       <c r="M27" s="51"/>
       <c r="N27" s="51"/>
@@ -9592,538 +9611,538 @@
       <c r="IW27" s="51"/>
       <c r="IX27" s="51"/>
     </row>
-    <row r="28" spans="1:258" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="69"/>
+    <row r="28" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="68"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="24"/>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="24"/>
-      <c r="AL28" s="24"/>
-      <c r="AM28" s="24"/>
-      <c r="AN28" s="24"/>
-      <c r="AO28" s="24"/>
-      <c r="AP28" s="24"/>
-      <c r="AQ28" s="24"/>
-      <c r="AR28" s="24"/>
-      <c r="AS28" s="24"/>
-      <c r="AT28" s="24"/>
-      <c r="AU28" s="24"/>
-      <c r="AV28" s="24"/>
-      <c r="AW28" s="24"/>
-      <c r="AX28" s="24"/>
-      <c r="AY28" s="24"/>
-      <c r="AZ28" s="24"/>
-      <c r="BA28" s="24"/>
-      <c r="BB28" s="24"/>
-      <c r="BC28" s="24"/>
-      <c r="BD28" s="24"/>
-      <c r="BE28" s="24"/>
-      <c r="BF28" s="24"/>
-      <c r="BG28" s="24"/>
-      <c r="BH28" s="24"/>
-      <c r="BI28" s="24"/>
-      <c r="BJ28" s="24"/>
-      <c r="BK28" s="24"/>
-      <c r="BL28" s="24"/>
-      <c r="BM28" s="24"/>
-      <c r="BN28" s="24"/>
-      <c r="BO28" s="24"/>
-      <c r="BP28" s="24"/>
-      <c r="BQ28" s="24"/>
-      <c r="BR28" s="24"/>
-      <c r="BS28" s="24"/>
-      <c r="BT28" s="24"/>
-      <c r="BU28" s="24"/>
-      <c r="BV28" s="24"/>
-      <c r="BW28" s="24"/>
-      <c r="BX28" s="24"/>
-      <c r="BY28" s="24"/>
-      <c r="BZ28" s="24"/>
-      <c r="CA28" s="24"/>
-      <c r="CB28" s="24"/>
-      <c r="CC28" s="24"/>
-      <c r="CD28" s="24"/>
-      <c r="CE28" s="24"/>
-      <c r="CF28" s="24"/>
-      <c r="CG28" s="24"/>
-      <c r="CH28" s="24"/>
-      <c r="CI28" s="24"/>
-      <c r="CJ28" s="24"/>
-      <c r="CK28" s="24"/>
-      <c r="CL28" s="24"/>
-      <c r="CM28" s="24"/>
-      <c r="CN28" s="24"/>
-      <c r="CO28" s="24"/>
-      <c r="CP28" s="24"/>
-      <c r="CQ28" s="24"/>
-      <c r="CR28" s="24"/>
-      <c r="CS28" s="24"/>
-      <c r="CT28" s="24"/>
-      <c r="CU28" s="24"/>
-      <c r="CV28" s="24"/>
-      <c r="CW28" s="24"/>
-      <c r="CX28" s="24"/>
-      <c r="CY28" s="24"/>
-      <c r="CZ28" s="24"/>
-      <c r="DA28" s="24"/>
-      <c r="DB28" s="24"/>
-      <c r="DC28" s="24"/>
-      <c r="DD28" s="24"/>
-      <c r="DE28" s="24"/>
-      <c r="DF28" s="24"/>
-      <c r="DG28" s="24"/>
-      <c r="DH28" s="24"/>
-      <c r="DI28" s="24"/>
-      <c r="DJ28" s="24"/>
-      <c r="DK28" s="24"/>
-      <c r="DL28" s="24"/>
-      <c r="DM28" s="24"/>
-      <c r="DN28" s="24"/>
-      <c r="DO28" s="24"/>
-      <c r="DP28" s="24"/>
-      <c r="DQ28" s="24"/>
-      <c r="DR28" s="24"/>
-      <c r="DS28" s="24"/>
-      <c r="DT28" s="24"/>
-      <c r="DU28" s="24"/>
-      <c r="DV28" s="24"/>
-      <c r="DW28" s="24"/>
-      <c r="DX28" s="24"/>
-      <c r="DY28" s="24"/>
-      <c r="DZ28" s="24"/>
-      <c r="EA28" s="24"/>
-      <c r="EB28" s="24"/>
-      <c r="EC28" s="24"/>
-      <c r="ED28" s="24"/>
-      <c r="EE28" s="24"/>
-      <c r="EF28" s="24"/>
-      <c r="EG28" s="24"/>
-      <c r="EH28" s="24"/>
-      <c r="EI28" s="24"/>
-      <c r="EJ28" s="24"/>
-      <c r="EK28" s="24"/>
-      <c r="EL28" s="24"/>
-      <c r="EM28" s="24"/>
-      <c r="EN28" s="24"/>
-      <c r="EO28" s="24"/>
-      <c r="EP28" s="24"/>
-      <c r="EQ28" s="24"/>
-      <c r="ER28" s="24"/>
-      <c r="ES28" s="24"/>
-      <c r="ET28" s="24"/>
-      <c r="EU28" s="24"/>
-      <c r="EV28" s="24"/>
-      <c r="EW28" s="24"/>
-      <c r="EX28" s="24"/>
-      <c r="EY28" s="24"/>
-      <c r="EZ28" s="24"/>
-      <c r="FA28" s="24"/>
-      <c r="FB28" s="24"/>
-      <c r="FC28" s="24"/>
-      <c r="FD28" s="24"/>
-      <c r="FE28" s="24"/>
-      <c r="FF28" s="24"/>
-      <c r="FG28" s="24"/>
-      <c r="FH28" s="24"/>
-      <c r="FI28" s="24"/>
-      <c r="FJ28" s="24"/>
-      <c r="FK28" s="24"/>
-      <c r="FL28" s="24"/>
-      <c r="FM28" s="24"/>
-      <c r="FN28" s="24"/>
-      <c r="FO28" s="24"/>
-      <c r="FP28" s="24"/>
-      <c r="FQ28" s="24"/>
-      <c r="FR28" s="24"/>
-      <c r="FS28" s="24"/>
-      <c r="FT28" s="24"/>
-      <c r="FU28" s="24"/>
-      <c r="FV28" s="24"/>
-      <c r="FW28" s="24"/>
-      <c r="FX28" s="24"/>
-      <c r="FY28" s="24"/>
-      <c r="FZ28" s="24"/>
-      <c r="GA28" s="24"/>
-      <c r="GB28" s="24"/>
-      <c r="GC28" s="24"/>
-      <c r="GD28" s="24"/>
-      <c r="GE28" s="24"/>
-      <c r="GF28" s="24"/>
-      <c r="GG28" s="24"/>
-      <c r="GH28" s="24"/>
-      <c r="GI28" s="24"/>
-      <c r="GJ28" s="24"/>
-      <c r="GK28" s="24"/>
-      <c r="GL28" s="24"/>
-      <c r="GM28" s="24"/>
-      <c r="GN28" s="24"/>
-      <c r="GO28" s="24"/>
-      <c r="GP28" s="24"/>
-      <c r="GQ28" s="24"/>
-      <c r="GR28" s="24"/>
-      <c r="GS28" s="24"/>
-      <c r="GT28" s="24"/>
-      <c r="GU28" s="24"/>
-      <c r="GV28" s="24"/>
-      <c r="GW28" s="24"/>
-      <c r="GX28" s="24"/>
-      <c r="GY28" s="24"/>
-      <c r="GZ28" s="24"/>
-      <c r="HA28" s="24"/>
-      <c r="HB28" s="24"/>
-      <c r="HC28" s="24"/>
-      <c r="HD28" s="24"/>
-      <c r="HE28" s="24"/>
-      <c r="HF28" s="24"/>
-      <c r="HG28" s="24"/>
-      <c r="HH28" s="24"/>
-      <c r="HI28" s="24"/>
-      <c r="HJ28" s="24"/>
-      <c r="HK28" s="24"/>
-      <c r="HL28" s="24"/>
-      <c r="HM28" s="24"/>
-      <c r="HN28" s="24"/>
-      <c r="HO28" s="24"/>
-      <c r="HP28" s="24"/>
-      <c r="HQ28" s="24"/>
-      <c r="HR28" s="24"/>
-      <c r="HS28" s="24"/>
-      <c r="HT28" s="24"/>
-      <c r="HU28" s="24"/>
-      <c r="HV28" s="24"/>
-      <c r="HW28" s="24"/>
-      <c r="HX28" s="24"/>
-      <c r="HY28" s="24"/>
-      <c r="HZ28" s="24"/>
-      <c r="IA28" s="24"/>
-      <c r="IB28" s="24"/>
-      <c r="IC28" s="24"/>
-      <c r="ID28" s="24"/>
-      <c r="IE28" s="24"/>
-      <c r="IF28" s="24"/>
-      <c r="IG28" s="24"/>
-      <c r="IH28" s="24"/>
-      <c r="II28" s="24"/>
-      <c r="IJ28" s="24"/>
-      <c r="IK28" s="24"/>
-      <c r="IL28" s="24"/>
-      <c r="IM28" s="24"/>
-      <c r="IN28" s="24"/>
-      <c r="IO28" s="24"/>
-      <c r="IP28" s="24"/>
-      <c r="IQ28" s="24"/>
-      <c r="IR28" s="24"/>
-      <c r="IS28" s="24"/>
-      <c r="IT28" s="24"/>
-      <c r="IU28" s="24"/>
-      <c r="IV28" s="24"/>
-      <c r="IW28" s="24"/>
-      <c r="IX28" s="24"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="51"/>
+      <c r="AO28" s="51"/>
+      <c r="AP28" s="51"/>
+      <c r="AQ28" s="51"/>
+      <c r="AR28" s="51"/>
+      <c r="AS28" s="51"/>
+      <c r="AT28" s="51"/>
+      <c r="AU28" s="51"/>
+      <c r="AV28" s="51"/>
+      <c r="AW28" s="51"/>
+      <c r="AX28" s="51"/>
+      <c r="AY28" s="51"/>
+      <c r="AZ28" s="51"/>
+      <c r="BA28" s="51"/>
+      <c r="BB28" s="51"/>
+      <c r="BC28" s="51"/>
+      <c r="BD28" s="51"/>
+      <c r="BE28" s="51"/>
+      <c r="BF28" s="51"/>
+      <c r="BG28" s="51"/>
+      <c r="BH28" s="51"/>
+      <c r="BI28" s="51"/>
+      <c r="BJ28" s="51"/>
+      <c r="BK28" s="51"/>
+      <c r="BL28" s="51"/>
+      <c r="BM28" s="51"/>
+      <c r="BN28" s="51"/>
+      <c r="BO28" s="51"/>
+      <c r="BP28" s="51"/>
+      <c r="BQ28" s="51"/>
+      <c r="BR28" s="51"/>
+      <c r="BS28" s="51"/>
+      <c r="BT28" s="51"/>
+      <c r="BU28" s="51"/>
+      <c r="BV28" s="51"/>
+      <c r="BW28" s="51"/>
+      <c r="BX28" s="51"/>
+      <c r="BY28" s="51"/>
+      <c r="BZ28" s="51"/>
+      <c r="CA28" s="51"/>
+      <c r="CB28" s="51"/>
+      <c r="CC28" s="51"/>
+      <c r="CD28" s="51"/>
+      <c r="CE28" s="51"/>
+      <c r="CF28" s="51"/>
+      <c r="CG28" s="51"/>
+      <c r="CH28" s="51"/>
+      <c r="CI28" s="51"/>
+      <c r="CJ28" s="51"/>
+      <c r="CK28" s="51"/>
+      <c r="CL28" s="51"/>
+      <c r="CM28" s="51"/>
+      <c r="CN28" s="51"/>
+      <c r="CO28" s="51"/>
+      <c r="CP28" s="51"/>
+      <c r="CQ28" s="51"/>
+      <c r="CR28" s="51"/>
+      <c r="CS28" s="51"/>
+      <c r="CT28" s="51"/>
+      <c r="CU28" s="51"/>
+      <c r="CV28" s="51"/>
+      <c r="CW28" s="51"/>
+      <c r="CX28" s="51"/>
+      <c r="CY28" s="51"/>
+      <c r="CZ28" s="51"/>
+      <c r="DA28" s="51"/>
+      <c r="DB28" s="51"/>
+      <c r="DC28" s="51"/>
+      <c r="DD28" s="51"/>
+      <c r="DE28" s="51"/>
+      <c r="DF28" s="51"/>
+      <c r="DG28" s="51"/>
+      <c r="DH28" s="51"/>
+      <c r="DI28" s="51"/>
+      <c r="DJ28" s="51"/>
+      <c r="DK28" s="51"/>
+      <c r="DL28" s="51"/>
+      <c r="DM28" s="51"/>
+      <c r="DN28" s="51"/>
+      <c r="DO28" s="51"/>
+      <c r="DP28" s="51"/>
+      <c r="DQ28" s="51"/>
+      <c r="DR28" s="51"/>
+      <c r="DS28" s="51"/>
+      <c r="DT28" s="51"/>
+      <c r="DU28" s="51"/>
+      <c r="DV28" s="51"/>
+      <c r="DW28" s="51"/>
+      <c r="DX28" s="51"/>
+      <c r="DY28" s="51"/>
+      <c r="DZ28" s="51"/>
+      <c r="EA28" s="51"/>
+      <c r="EB28" s="51"/>
+      <c r="EC28" s="51"/>
+      <c r="ED28" s="51"/>
+      <c r="EE28" s="51"/>
+      <c r="EF28" s="51"/>
+      <c r="EG28" s="51"/>
+      <c r="EH28" s="51"/>
+      <c r="EI28" s="51"/>
+      <c r="EJ28" s="51"/>
+      <c r="EK28" s="51"/>
+      <c r="EL28" s="51"/>
+      <c r="EM28" s="51"/>
+      <c r="EN28" s="51"/>
+      <c r="EO28" s="51"/>
+      <c r="EP28" s="51"/>
+      <c r="EQ28" s="51"/>
+      <c r="ER28" s="51"/>
+      <c r="ES28" s="51"/>
+      <c r="ET28" s="51"/>
+      <c r="EU28" s="51"/>
+      <c r="EV28" s="51"/>
+      <c r="EW28" s="51"/>
+      <c r="EX28" s="51"/>
+      <c r="EY28" s="51"/>
+      <c r="EZ28" s="51"/>
+      <c r="FA28" s="51"/>
+      <c r="FB28" s="51"/>
+      <c r="FC28" s="51"/>
+      <c r="FD28" s="51"/>
+      <c r="FE28" s="51"/>
+      <c r="FF28" s="51"/>
+      <c r="FG28" s="51"/>
+      <c r="FH28" s="51"/>
+      <c r="FI28" s="51"/>
+      <c r="FJ28" s="51"/>
+      <c r="FK28" s="51"/>
+      <c r="FL28" s="51"/>
+      <c r="FM28" s="51"/>
+      <c r="FN28" s="51"/>
+      <c r="FO28" s="51"/>
+      <c r="FP28" s="51"/>
+      <c r="FQ28" s="51"/>
+      <c r="FR28" s="51"/>
+      <c r="FS28" s="51"/>
+      <c r="FT28" s="51"/>
+      <c r="FU28" s="51"/>
+      <c r="FV28" s="51"/>
+      <c r="FW28" s="51"/>
+      <c r="FX28" s="51"/>
+      <c r="FY28" s="51"/>
+      <c r="FZ28" s="51"/>
+      <c r="GA28" s="51"/>
+      <c r="GB28" s="51"/>
+      <c r="GC28" s="51"/>
+      <c r="GD28" s="51"/>
+      <c r="GE28" s="51"/>
+      <c r="GF28" s="51"/>
+      <c r="GG28" s="51"/>
+      <c r="GH28" s="51"/>
+      <c r="GI28" s="51"/>
+      <c r="GJ28" s="51"/>
+      <c r="GK28" s="51"/>
+      <c r="GL28" s="51"/>
+      <c r="GM28" s="51"/>
+      <c r="GN28" s="51"/>
+      <c r="GO28" s="51"/>
+      <c r="GP28" s="51"/>
+      <c r="GQ28" s="51"/>
+      <c r="GR28" s="51"/>
+      <c r="GS28" s="51"/>
+      <c r="GT28" s="51"/>
+      <c r="GU28" s="51"/>
+      <c r="GV28" s="51"/>
+      <c r="GW28" s="51"/>
+      <c r="GX28" s="51"/>
+      <c r="GY28" s="51"/>
+      <c r="GZ28" s="51"/>
+      <c r="HA28" s="51"/>
+      <c r="HB28" s="51"/>
+      <c r="HC28" s="51"/>
+      <c r="HD28" s="51"/>
+      <c r="HE28" s="51"/>
+      <c r="HF28" s="51"/>
+      <c r="HG28" s="51"/>
+      <c r="HH28" s="51"/>
+      <c r="HI28" s="51"/>
+      <c r="HJ28" s="51"/>
+      <c r="HK28" s="51"/>
+      <c r="HL28" s="51"/>
+      <c r="HM28" s="51"/>
+      <c r="HN28" s="51"/>
+      <c r="HO28" s="51"/>
+      <c r="HP28" s="51"/>
+      <c r="HQ28" s="51"/>
+      <c r="HR28" s="51"/>
+      <c r="HS28" s="51"/>
+      <c r="HT28" s="51"/>
+      <c r="HU28" s="51"/>
+      <c r="HV28" s="51"/>
+      <c r="HW28" s="51"/>
+      <c r="HX28" s="51"/>
+      <c r="HY28" s="51"/>
+      <c r="HZ28" s="51"/>
+      <c r="IA28" s="51"/>
+      <c r="IB28" s="51"/>
+      <c r="IC28" s="51"/>
+      <c r="ID28" s="51"/>
+      <c r="IE28" s="51"/>
+      <c r="IF28" s="51"/>
+      <c r="IG28" s="51"/>
+      <c r="IH28" s="51"/>
+      <c r="II28" s="51"/>
+      <c r="IJ28" s="51"/>
+      <c r="IK28" s="51"/>
+      <c r="IL28" s="51"/>
+      <c r="IM28" s="51"/>
+      <c r="IN28" s="51"/>
+      <c r="IO28" s="51"/>
+      <c r="IP28" s="51"/>
+      <c r="IQ28" s="51"/>
+      <c r="IR28" s="51"/>
+      <c r="IS28" s="51"/>
+      <c r="IT28" s="51"/>
+      <c r="IU28" s="51"/>
+      <c r="IV28" s="51"/>
+      <c r="IW28" s="51"/>
+      <c r="IX28" s="51"/>
     </row>
-    <row r="29" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A29" s="111"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="69"/>
+    <row r="29" spans="1:258" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="68"/>
       <c r="L29" s="21"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="51"/>
-      <c r="AN29" s="51"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="51"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="51"/>
-      <c r="AS29" s="51"/>
-      <c r="AT29" s="51"/>
-      <c r="AU29" s="51"/>
-      <c r="AV29" s="51"/>
-      <c r="AW29" s="51"/>
-      <c r="AX29" s="51"/>
-      <c r="AY29" s="51"/>
-      <c r="AZ29" s="51"/>
-      <c r="BA29" s="51"/>
-      <c r="BB29" s="51"/>
-      <c r="BC29" s="51"/>
-      <c r="BD29" s="51"/>
-      <c r="BE29" s="51"/>
-      <c r="BF29" s="51"/>
-      <c r="BG29" s="51"/>
-      <c r="BH29" s="51"/>
-      <c r="BI29" s="51"/>
-      <c r="BJ29" s="51"/>
-      <c r="BK29" s="51"/>
-      <c r="BL29" s="51"/>
-      <c r="BM29" s="51"/>
-      <c r="BN29" s="51"/>
-      <c r="BO29" s="51"/>
-      <c r="BP29" s="51"/>
-      <c r="BQ29" s="51"/>
-      <c r="BR29" s="51"/>
-      <c r="BS29" s="51"/>
-      <c r="BT29" s="51"/>
-      <c r="BU29" s="51"/>
-      <c r="BV29" s="51"/>
-      <c r="BW29" s="51"/>
-      <c r="BX29" s="51"/>
-      <c r="BY29" s="51"/>
-      <c r="BZ29" s="51"/>
-      <c r="CA29" s="51"/>
-      <c r="CB29" s="51"/>
-      <c r="CC29" s="51"/>
-      <c r="CD29" s="51"/>
-      <c r="CE29" s="51"/>
-      <c r="CF29" s="51"/>
-      <c r="CG29" s="51"/>
-      <c r="CH29" s="51"/>
-      <c r="CI29" s="51"/>
-      <c r="CJ29" s="51"/>
-      <c r="CK29" s="51"/>
-      <c r="CL29" s="51"/>
-      <c r="CM29" s="51"/>
-      <c r="CN29" s="51"/>
-      <c r="CO29" s="51"/>
-      <c r="CP29" s="51"/>
-      <c r="CQ29" s="51"/>
-      <c r="CR29" s="51"/>
-      <c r="CS29" s="51"/>
-      <c r="CT29" s="51"/>
-      <c r="CU29" s="51"/>
-      <c r="CV29" s="51"/>
-      <c r="CW29" s="51"/>
-      <c r="CX29" s="51"/>
-      <c r="CY29" s="51"/>
-      <c r="CZ29" s="51"/>
-      <c r="DA29" s="51"/>
-      <c r="DB29" s="51"/>
-      <c r="DC29" s="51"/>
-      <c r="DD29" s="51"/>
-      <c r="DE29" s="51"/>
-      <c r="DF29" s="51"/>
-      <c r="DG29" s="51"/>
-      <c r="DH29" s="51"/>
-      <c r="DI29" s="51"/>
-      <c r="DJ29" s="51"/>
-      <c r="DK29" s="51"/>
-      <c r="DL29" s="51"/>
-      <c r="DM29" s="51"/>
-      <c r="DN29" s="51"/>
-      <c r="DO29" s="51"/>
-      <c r="DP29" s="51"/>
-      <c r="DQ29" s="51"/>
-      <c r="DR29" s="51"/>
-      <c r="DS29" s="51"/>
-      <c r="DT29" s="51"/>
-      <c r="DU29" s="51"/>
-      <c r="DV29" s="51"/>
-      <c r="DW29" s="51"/>
-      <c r="DX29" s="51"/>
-      <c r="DY29" s="51"/>
-      <c r="DZ29" s="51"/>
-      <c r="EA29" s="51"/>
-      <c r="EB29" s="51"/>
-      <c r="EC29" s="51"/>
-      <c r="ED29" s="51"/>
-      <c r="EE29" s="51"/>
-      <c r="EF29" s="51"/>
-      <c r="EG29" s="51"/>
-      <c r="EH29" s="51"/>
-      <c r="EI29" s="51"/>
-      <c r="EJ29" s="51"/>
-      <c r="EK29" s="51"/>
-      <c r="EL29" s="51"/>
-      <c r="EM29" s="51"/>
-      <c r="EN29" s="51"/>
-      <c r="EO29" s="51"/>
-      <c r="EP29" s="51"/>
-      <c r="EQ29" s="51"/>
-      <c r="ER29" s="51"/>
-      <c r="ES29" s="51"/>
-      <c r="ET29" s="51"/>
-      <c r="EU29" s="51"/>
-      <c r="EV29" s="51"/>
-      <c r="EW29" s="51"/>
-      <c r="EX29" s="51"/>
-      <c r="EY29" s="51"/>
-      <c r="EZ29" s="51"/>
-      <c r="FA29" s="51"/>
-      <c r="FB29" s="51"/>
-      <c r="FC29" s="51"/>
-      <c r="FD29" s="51"/>
-      <c r="FE29" s="51"/>
-      <c r="FF29" s="51"/>
-      <c r="FG29" s="51"/>
-      <c r="FH29" s="51"/>
-      <c r="FI29" s="51"/>
-      <c r="FJ29" s="51"/>
-      <c r="FK29" s="51"/>
-      <c r="FL29" s="51"/>
-      <c r="FM29" s="51"/>
-      <c r="FN29" s="51"/>
-      <c r="FO29" s="51"/>
-      <c r="FP29" s="51"/>
-      <c r="FQ29" s="51"/>
-      <c r="FR29" s="51"/>
-      <c r="FS29" s="51"/>
-      <c r="FT29" s="51"/>
-      <c r="FU29" s="51"/>
-      <c r="FV29" s="51"/>
-      <c r="FW29" s="51"/>
-      <c r="FX29" s="51"/>
-      <c r="FY29" s="51"/>
-      <c r="FZ29" s="51"/>
-      <c r="GA29" s="51"/>
-      <c r="GB29" s="51"/>
-      <c r="GC29" s="51"/>
-      <c r="GD29" s="51"/>
-      <c r="GE29" s="51"/>
-      <c r="GF29" s="51"/>
-      <c r="GG29" s="51"/>
-      <c r="GH29" s="51"/>
-      <c r="GI29" s="51"/>
-      <c r="GJ29" s="51"/>
-      <c r="GK29" s="51"/>
-      <c r="GL29" s="51"/>
-      <c r="GM29" s="51"/>
-      <c r="GN29" s="51"/>
-      <c r="GO29" s="51"/>
-      <c r="GP29" s="51"/>
-      <c r="GQ29" s="51"/>
-      <c r="GR29" s="51"/>
-      <c r="GS29" s="51"/>
-      <c r="GT29" s="51"/>
-      <c r="GU29" s="51"/>
-      <c r="GV29" s="51"/>
-      <c r="GW29" s="51"/>
-      <c r="GX29" s="51"/>
-      <c r="GY29" s="51"/>
-      <c r="GZ29" s="51"/>
-      <c r="HA29" s="51"/>
-      <c r="HB29" s="51"/>
-      <c r="HC29" s="51"/>
-      <c r="HD29" s="51"/>
-      <c r="HE29" s="51"/>
-      <c r="HF29" s="51"/>
-      <c r="HG29" s="51"/>
-      <c r="HH29" s="51"/>
-      <c r="HI29" s="51"/>
-      <c r="HJ29" s="51"/>
-      <c r="HK29" s="51"/>
-      <c r="HL29" s="51"/>
-      <c r="HM29" s="51"/>
-      <c r="HN29" s="51"/>
-      <c r="HO29" s="51"/>
-      <c r="HP29" s="51"/>
-      <c r="HQ29" s="51"/>
-      <c r="HR29" s="51"/>
-      <c r="HS29" s="51"/>
-      <c r="HT29" s="51"/>
-      <c r="HU29" s="51"/>
-      <c r="HV29" s="51"/>
-      <c r="HW29" s="51"/>
-      <c r="HX29" s="51"/>
-      <c r="HY29" s="51"/>
-      <c r="HZ29" s="51"/>
-      <c r="IA29" s="51"/>
-      <c r="IB29" s="51"/>
-      <c r="IC29" s="51"/>
-      <c r="ID29" s="51"/>
-      <c r="IE29" s="51"/>
-      <c r="IF29" s="51"/>
-      <c r="IG29" s="51"/>
-      <c r="IH29" s="51"/>
-      <c r="II29" s="51"/>
-      <c r="IJ29" s="51"/>
-      <c r="IK29" s="51"/>
-      <c r="IL29" s="51"/>
-      <c r="IM29" s="51"/>
-      <c r="IN29" s="51"/>
-      <c r="IO29" s="51"/>
-      <c r="IP29" s="51"/>
-      <c r="IQ29" s="51"/>
-      <c r="IR29" s="51"/>
-      <c r="IS29" s="51"/>
-      <c r="IT29" s="51"/>
-      <c r="IU29" s="51"/>
-      <c r="IV29" s="51"/>
-      <c r="IW29" s="51"/>
-      <c r="IX29" s="51"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="24"/>
+      <c r="AI29" s="24"/>
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="24"/>
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="24"/>
+      <c r="AP29" s="24"/>
+      <c r="AQ29" s="24"/>
+      <c r="AR29" s="24"/>
+      <c r="AS29" s="24"/>
+      <c r="AT29" s="24"/>
+      <c r="AU29" s="24"/>
+      <c r="AV29" s="24"/>
+      <c r="AW29" s="24"/>
+      <c r="AX29" s="24"/>
+      <c r="AY29" s="24"/>
+      <c r="AZ29" s="24"/>
+      <c r="BA29" s="24"/>
+      <c r="BB29" s="24"/>
+      <c r="BC29" s="24"/>
+      <c r="BD29" s="24"/>
+      <c r="BE29" s="24"/>
+      <c r="BF29" s="24"/>
+      <c r="BG29" s="24"/>
+      <c r="BH29" s="24"/>
+      <c r="BI29" s="24"/>
+      <c r="BJ29" s="24"/>
+      <c r="BK29" s="24"/>
+      <c r="BL29" s="24"/>
+      <c r="BM29" s="24"/>
+      <c r="BN29" s="24"/>
+      <c r="BO29" s="24"/>
+      <c r="BP29" s="24"/>
+      <c r="BQ29" s="24"/>
+      <c r="BR29" s="24"/>
+      <c r="BS29" s="24"/>
+      <c r="BT29" s="24"/>
+      <c r="BU29" s="24"/>
+      <c r="BV29" s="24"/>
+      <c r="BW29" s="24"/>
+      <c r="BX29" s="24"/>
+      <c r="BY29" s="24"/>
+      <c r="BZ29" s="24"/>
+      <c r="CA29" s="24"/>
+      <c r="CB29" s="24"/>
+      <c r="CC29" s="24"/>
+      <c r="CD29" s="24"/>
+      <c r="CE29" s="24"/>
+      <c r="CF29" s="24"/>
+      <c r="CG29" s="24"/>
+      <c r="CH29" s="24"/>
+      <c r="CI29" s="24"/>
+      <c r="CJ29" s="24"/>
+      <c r="CK29" s="24"/>
+      <c r="CL29" s="24"/>
+      <c r="CM29" s="24"/>
+      <c r="CN29" s="24"/>
+      <c r="CO29" s="24"/>
+      <c r="CP29" s="24"/>
+      <c r="CQ29" s="24"/>
+      <c r="CR29" s="24"/>
+      <c r="CS29" s="24"/>
+      <c r="CT29" s="24"/>
+      <c r="CU29" s="24"/>
+      <c r="CV29" s="24"/>
+      <c r="CW29" s="24"/>
+      <c r="CX29" s="24"/>
+      <c r="CY29" s="24"/>
+      <c r="CZ29" s="24"/>
+      <c r="DA29" s="24"/>
+      <c r="DB29" s="24"/>
+      <c r="DC29" s="24"/>
+      <c r="DD29" s="24"/>
+      <c r="DE29" s="24"/>
+      <c r="DF29" s="24"/>
+      <c r="DG29" s="24"/>
+      <c r="DH29" s="24"/>
+      <c r="DI29" s="24"/>
+      <c r="DJ29" s="24"/>
+      <c r="DK29" s="24"/>
+      <c r="DL29" s="24"/>
+      <c r="DM29" s="24"/>
+      <c r="DN29" s="24"/>
+      <c r="DO29" s="24"/>
+      <c r="DP29" s="24"/>
+      <c r="DQ29" s="24"/>
+      <c r="DR29" s="24"/>
+      <c r="DS29" s="24"/>
+      <c r="DT29" s="24"/>
+      <c r="DU29" s="24"/>
+      <c r="DV29" s="24"/>
+      <c r="DW29" s="24"/>
+      <c r="DX29" s="24"/>
+      <c r="DY29" s="24"/>
+      <c r="DZ29" s="24"/>
+      <c r="EA29" s="24"/>
+      <c r="EB29" s="24"/>
+      <c r="EC29" s="24"/>
+      <c r="ED29" s="24"/>
+      <c r="EE29" s="24"/>
+      <c r="EF29" s="24"/>
+      <c r="EG29" s="24"/>
+      <c r="EH29" s="24"/>
+      <c r="EI29" s="24"/>
+      <c r="EJ29" s="24"/>
+      <c r="EK29" s="24"/>
+      <c r="EL29" s="24"/>
+      <c r="EM29" s="24"/>
+      <c r="EN29" s="24"/>
+      <c r="EO29" s="24"/>
+      <c r="EP29" s="24"/>
+      <c r="EQ29" s="24"/>
+      <c r="ER29" s="24"/>
+      <c r="ES29" s="24"/>
+      <c r="ET29" s="24"/>
+      <c r="EU29" s="24"/>
+      <c r="EV29" s="24"/>
+      <c r="EW29" s="24"/>
+      <c r="EX29" s="24"/>
+      <c r="EY29" s="24"/>
+      <c r="EZ29" s="24"/>
+      <c r="FA29" s="24"/>
+      <c r="FB29" s="24"/>
+      <c r="FC29" s="24"/>
+      <c r="FD29" s="24"/>
+      <c r="FE29" s="24"/>
+      <c r="FF29" s="24"/>
+      <c r="FG29" s="24"/>
+      <c r="FH29" s="24"/>
+      <c r="FI29" s="24"/>
+      <c r="FJ29" s="24"/>
+      <c r="FK29" s="24"/>
+      <c r="FL29" s="24"/>
+      <c r="FM29" s="24"/>
+      <c r="FN29" s="24"/>
+      <c r="FO29" s="24"/>
+      <c r="FP29" s="24"/>
+      <c r="FQ29" s="24"/>
+      <c r="FR29" s="24"/>
+      <c r="FS29" s="24"/>
+      <c r="FT29" s="24"/>
+      <c r="FU29" s="24"/>
+      <c r="FV29" s="24"/>
+      <c r="FW29" s="24"/>
+      <c r="FX29" s="24"/>
+      <c r="FY29" s="24"/>
+      <c r="FZ29" s="24"/>
+      <c r="GA29" s="24"/>
+      <c r="GB29" s="24"/>
+      <c r="GC29" s="24"/>
+      <c r="GD29" s="24"/>
+      <c r="GE29" s="24"/>
+      <c r="GF29" s="24"/>
+      <c r="GG29" s="24"/>
+      <c r="GH29" s="24"/>
+      <c r="GI29" s="24"/>
+      <c r="GJ29" s="24"/>
+      <c r="GK29" s="24"/>
+      <c r="GL29" s="24"/>
+      <c r="GM29" s="24"/>
+      <c r="GN29" s="24"/>
+      <c r="GO29" s="24"/>
+      <c r="GP29" s="24"/>
+      <c r="GQ29" s="24"/>
+      <c r="GR29" s="24"/>
+      <c r="GS29" s="24"/>
+      <c r="GT29" s="24"/>
+      <c r="GU29" s="24"/>
+      <c r="GV29" s="24"/>
+      <c r="GW29" s="24"/>
+      <c r="GX29" s="24"/>
+      <c r="GY29" s="24"/>
+      <c r="GZ29" s="24"/>
+      <c r="HA29" s="24"/>
+      <c r="HB29" s="24"/>
+      <c r="HC29" s="24"/>
+      <c r="HD29" s="24"/>
+      <c r="HE29" s="24"/>
+      <c r="HF29" s="24"/>
+      <c r="HG29" s="24"/>
+      <c r="HH29" s="24"/>
+      <c r="HI29" s="24"/>
+      <c r="HJ29" s="24"/>
+      <c r="HK29" s="24"/>
+      <c r="HL29" s="24"/>
+      <c r="HM29" s="24"/>
+      <c r="HN29" s="24"/>
+      <c r="HO29" s="24"/>
+      <c r="HP29" s="24"/>
+      <c r="HQ29" s="24"/>
+      <c r="HR29" s="24"/>
+      <c r="HS29" s="24"/>
+      <c r="HT29" s="24"/>
+      <c r="HU29" s="24"/>
+      <c r="HV29" s="24"/>
+      <c r="HW29" s="24"/>
+      <c r="HX29" s="24"/>
+      <c r="HY29" s="24"/>
+      <c r="HZ29" s="24"/>
+      <c r="IA29" s="24"/>
+      <c r="IB29" s="24"/>
+      <c r="IC29" s="24"/>
+      <c r="ID29" s="24"/>
+      <c r="IE29" s="24"/>
+      <c r="IF29" s="24"/>
+      <c r="IG29" s="24"/>
+      <c r="IH29" s="24"/>
+      <c r="II29" s="24"/>
+      <c r="IJ29" s="24"/>
+      <c r="IK29" s="24"/>
+      <c r="IL29" s="24"/>
+      <c r="IM29" s="24"/>
+      <c r="IN29" s="24"/>
+      <c r="IO29" s="24"/>
+      <c r="IP29" s="24"/>
+      <c r="IQ29" s="24"/>
+      <c r="IR29" s="24"/>
+      <c r="IS29" s="24"/>
+      <c r="IT29" s="24"/>
+      <c r="IU29" s="24"/>
+      <c r="IV29" s="24"/>
+      <c r="IW29" s="24"/>
+      <c r="IX29" s="24"/>
     </row>
     <row r="30" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A30" s="112"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="69"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="68"/>
       <c r="L30" s="21"/>
       <c r="M30" s="51"/>
       <c r="N30" s="51"/>
@@ -10372,625 +10391,871 @@
       <c r="IW30" s="51"/>
       <c r="IX30" s="51"/>
     </row>
-    <row r="31" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A31" s="113"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="43"/>
+    <row r="31" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
+      <c r="A31" s="111"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="51"/>
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="51"/>
+      <c r="AO31" s="51"/>
+      <c r="AP31" s="51"/>
+      <c r="AQ31" s="51"/>
+      <c r="AR31" s="51"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="51"/>
+      <c r="AU31" s="51"/>
+      <c r="AV31" s="51"/>
+      <c r="AW31" s="51"/>
+      <c r="AX31" s="51"/>
+      <c r="AY31" s="51"/>
+      <c r="AZ31" s="51"/>
+      <c r="BA31" s="51"/>
+      <c r="BB31" s="51"/>
+      <c r="BC31" s="51"/>
+      <c r="BD31" s="51"/>
+      <c r="BE31" s="51"/>
+      <c r="BF31" s="51"/>
+      <c r="BG31" s="51"/>
+      <c r="BH31" s="51"/>
+      <c r="BI31" s="51"/>
+      <c r="BJ31" s="51"/>
+      <c r="BK31" s="51"/>
+      <c r="BL31" s="51"/>
+      <c r="BM31" s="51"/>
+      <c r="BN31" s="51"/>
+      <c r="BO31" s="51"/>
+      <c r="BP31" s="51"/>
+      <c r="BQ31" s="51"/>
+      <c r="BR31" s="51"/>
+      <c r="BS31" s="51"/>
+      <c r="BT31" s="51"/>
+      <c r="BU31" s="51"/>
+      <c r="BV31" s="51"/>
+      <c r="BW31" s="51"/>
+      <c r="BX31" s="51"/>
+      <c r="BY31" s="51"/>
+      <c r="BZ31" s="51"/>
+      <c r="CA31" s="51"/>
+      <c r="CB31" s="51"/>
+      <c r="CC31" s="51"/>
+      <c r="CD31" s="51"/>
+      <c r="CE31" s="51"/>
+      <c r="CF31" s="51"/>
+      <c r="CG31" s="51"/>
+      <c r="CH31" s="51"/>
+      <c r="CI31" s="51"/>
+      <c r="CJ31" s="51"/>
+      <c r="CK31" s="51"/>
+      <c r="CL31" s="51"/>
+      <c r="CM31" s="51"/>
+      <c r="CN31" s="51"/>
+      <c r="CO31" s="51"/>
+      <c r="CP31" s="51"/>
+      <c r="CQ31" s="51"/>
+      <c r="CR31" s="51"/>
+      <c r="CS31" s="51"/>
+      <c r="CT31" s="51"/>
+      <c r="CU31" s="51"/>
+      <c r="CV31" s="51"/>
+      <c r="CW31" s="51"/>
+      <c r="CX31" s="51"/>
+      <c r="CY31" s="51"/>
+      <c r="CZ31" s="51"/>
+      <c r="DA31" s="51"/>
+      <c r="DB31" s="51"/>
+      <c r="DC31" s="51"/>
+      <c r="DD31" s="51"/>
+      <c r="DE31" s="51"/>
+      <c r="DF31" s="51"/>
+      <c r="DG31" s="51"/>
+      <c r="DH31" s="51"/>
+      <c r="DI31" s="51"/>
+      <c r="DJ31" s="51"/>
+      <c r="DK31" s="51"/>
+      <c r="DL31" s="51"/>
+      <c r="DM31" s="51"/>
+      <c r="DN31" s="51"/>
+      <c r="DO31" s="51"/>
+      <c r="DP31" s="51"/>
+      <c r="DQ31" s="51"/>
+      <c r="DR31" s="51"/>
+      <c r="DS31" s="51"/>
+      <c r="DT31" s="51"/>
+      <c r="DU31" s="51"/>
+      <c r="DV31" s="51"/>
+      <c r="DW31" s="51"/>
+      <c r="DX31" s="51"/>
+      <c r="DY31" s="51"/>
+      <c r="DZ31" s="51"/>
+      <c r="EA31" s="51"/>
+      <c r="EB31" s="51"/>
+      <c r="EC31" s="51"/>
+      <c r="ED31" s="51"/>
+      <c r="EE31" s="51"/>
+      <c r="EF31" s="51"/>
+      <c r="EG31" s="51"/>
+      <c r="EH31" s="51"/>
+      <c r="EI31" s="51"/>
+      <c r="EJ31" s="51"/>
+      <c r="EK31" s="51"/>
+      <c r="EL31" s="51"/>
+      <c r="EM31" s="51"/>
+      <c r="EN31" s="51"/>
+      <c r="EO31" s="51"/>
+      <c r="EP31" s="51"/>
+      <c r="EQ31" s="51"/>
+      <c r="ER31" s="51"/>
+      <c r="ES31" s="51"/>
+      <c r="ET31" s="51"/>
+      <c r="EU31" s="51"/>
+      <c r="EV31" s="51"/>
+      <c r="EW31" s="51"/>
+      <c r="EX31" s="51"/>
+      <c r="EY31" s="51"/>
+      <c r="EZ31" s="51"/>
+      <c r="FA31" s="51"/>
+      <c r="FB31" s="51"/>
+      <c r="FC31" s="51"/>
+      <c r="FD31" s="51"/>
+      <c r="FE31" s="51"/>
+      <c r="FF31" s="51"/>
+      <c r="FG31" s="51"/>
+      <c r="FH31" s="51"/>
+      <c r="FI31" s="51"/>
+      <c r="FJ31" s="51"/>
+      <c r="FK31" s="51"/>
+      <c r="FL31" s="51"/>
+      <c r="FM31" s="51"/>
+      <c r="FN31" s="51"/>
+      <c r="FO31" s="51"/>
+      <c r="FP31" s="51"/>
+      <c r="FQ31" s="51"/>
+      <c r="FR31" s="51"/>
+      <c r="FS31" s="51"/>
+      <c r="FT31" s="51"/>
+      <c r="FU31" s="51"/>
+      <c r="FV31" s="51"/>
+      <c r="FW31" s="51"/>
+      <c r="FX31" s="51"/>
+      <c r="FY31" s="51"/>
+      <c r="FZ31" s="51"/>
+      <c r="GA31" s="51"/>
+      <c r="GB31" s="51"/>
+      <c r="GC31" s="51"/>
+      <c r="GD31" s="51"/>
+      <c r="GE31" s="51"/>
+      <c r="GF31" s="51"/>
+      <c r="GG31" s="51"/>
+      <c r="GH31" s="51"/>
+      <c r="GI31" s="51"/>
+      <c r="GJ31" s="51"/>
+      <c r="GK31" s="51"/>
+      <c r="GL31" s="51"/>
+      <c r="GM31" s="51"/>
+      <c r="GN31" s="51"/>
+      <c r="GO31" s="51"/>
+      <c r="GP31" s="51"/>
+      <c r="GQ31" s="51"/>
+      <c r="GR31" s="51"/>
+      <c r="GS31" s="51"/>
+      <c r="GT31" s="51"/>
+      <c r="GU31" s="51"/>
+      <c r="GV31" s="51"/>
+      <c r="GW31" s="51"/>
+      <c r="GX31" s="51"/>
+      <c r="GY31" s="51"/>
+      <c r="GZ31" s="51"/>
+      <c r="HA31" s="51"/>
+      <c r="HB31" s="51"/>
+      <c r="HC31" s="51"/>
+      <c r="HD31" s="51"/>
+      <c r="HE31" s="51"/>
+      <c r="HF31" s="51"/>
+      <c r="HG31" s="51"/>
+      <c r="HH31" s="51"/>
+      <c r="HI31" s="51"/>
+      <c r="HJ31" s="51"/>
+      <c r="HK31" s="51"/>
+      <c r="HL31" s="51"/>
+      <c r="HM31" s="51"/>
+      <c r="HN31" s="51"/>
+      <c r="HO31" s="51"/>
+      <c r="HP31" s="51"/>
+      <c r="HQ31" s="51"/>
+      <c r="HR31" s="51"/>
+      <c r="HS31" s="51"/>
+      <c r="HT31" s="51"/>
+      <c r="HU31" s="51"/>
+      <c r="HV31" s="51"/>
+      <c r="HW31" s="51"/>
+      <c r="HX31" s="51"/>
+      <c r="HY31" s="51"/>
+      <c r="HZ31" s="51"/>
+      <c r="IA31" s="51"/>
+      <c r="IB31" s="51"/>
+      <c r="IC31" s="51"/>
+      <c r="ID31" s="51"/>
+      <c r="IE31" s="51"/>
+      <c r="IF31" s="51"/>
+      <c r="IG31" s="51"/>
+      <c r="IH31" s="51"/>
+      <c r="II31" s="51"/>
+      <c r="IJ31" s="51"/>
+      <c r="IK31" s="51"/>
+      <c r="IL31" s="51"/>
+      <c r="IM31" s="51"/>
+      <c r="IN31" s="51"/>
+      <c r="IO31" s="51"/>
+      <c r="IP31" s="51"/>
+      <c r="IQ31" s="51"/>
+      <c r="IR31" s="51"/>
+      <c r="IS31" s="51"/>
+      <c r="IT31" s="51"/>
+      <c r="IU31" s="51"/>
+      <c r="IV31" s="51"/>
+      <c r="IW31" s="51"/>
+      <c r="IX31" s="51"/>
     </row>
-    <row r="32" spans="1:258" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="86"/>
+    <row r="32" spans="1:258" ht="99.95" customHeight="1">
+      <c r="A32" s="112"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="85"/>
       <c r="L32" s="43"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="39"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
-      <c r="AP32" s="39"/>
-      <c r="AQ32" s="39"/>
-      <c r="AR32" s="39"/>
-      <c r="AS32" s="39"/>
-      <c r="AT32" s="39"/>
-      <c r="AU32" s="39"/>
-      <c r="AV32" s="39"/>
-      <c r="AW32" s="39"/>
-      <c r="AX32" s="39"/>
-      <c r="AY32" s="39"/>
-      <c r="AZ32" s="39"/>
-      <c r="BA32" s="39"/>
-      <c r="BB32" s="39"/>
-      <c r="BC32" s="39"/>
-      <c r="BD32" s="39"/>
-      <c r="BE32" s="39"/>
-      <c r="BF32" s="39"/>
-      <c r="BG32" s="39"/>
-      <c r="BH32" s="39"/>
-      <c r="BI32" s="39"/>
-      <c r="BJ32" s="39"/>
-      <c r="BK32" s="39"/>
-      <c r="BL32" s="39"/>
-      <c r="BM32" s="39"/>
-      <c r="BN32" s="39"/>
-      <c r="BO32" s="39"/>
-      <c r="BP32" s="39"/>
-      <c r="BQ32" s="39"/>
-      <c r="BR32" s="39"/>
-      <c r="BS32" s="39"/>
-      <c r="BT32" s="39"/>
-      <c r="BU32" s="39"/>
-      <c r="BV32" s="39"/>
-      <c r="BW32" s="39"/>
-      <c r="BX32" s="39"/>
-      <c r="BY32" s="39"/>
-      <c r="BZ32" s="39"/>
-      <c r="CA32" s="39"/>
-      <c r="CB32" s="39"/>
-      <c r="CC32" s="39"/>
-      <c r="CD32" s="39"/>
-      <c r="CE32" s="39"/>
-      <c r="CF32" s="39"/>
-      <c r="CG32" s="39"/>
-      <c r="CH32" s="39"/>
-      <c r="CI32" s="39"/>
-      <c r="CJ32" s="39"/>
-      <c r="CK32" s="39"/>
-      <c r="CL32" s="39"/>
-      <c r="CM32" s="39"/>
-      <c r="CN32" s="39"/>
-      <c r="CO32" s="39"/>
-      <c r="CP32" s="39"/>
-      <c r="CQ32" s="39"/>
-      <c r="CR32" s="39"/>
-      <c r="CS32" s="39"/>
-      <c r="CT32" s="39"/>
-      <c r="CU32" s="39"/>
-      <c r="CV32" s="39"/>
-      <c r="CW32" s="39"/>
-      <c r="CX32" s="39"/>
-      <c r="CY32" s="39"/>
-      <c r="CZ32" s="39"/>
-      <c r="DA32" s="39"/>
-      <c r="DB32" s="39"/>
-      <c r="DC32" s="39"/>
-      <c r="DD32" s="39"/>
-      <c r="DE32" s="39"/>
-      <c r="DF32" s="39"/>
-      <c r="DG32" s="39"/>
-      <c r="DH32" s="39"/>
-      <c r="DI32" s="39"/>
-      <c r="DJ32" s="39"/>
-      <c r="DK32" s="39"/>
-      <c r="DL32" s="39"/>
-      <c r="DM32" s="39"/>
-      <c r="DN32" s="39"/>
-      <c r="DO32" s="39"/>
-      <c r="DP32" s="39"/>
-      <c r="DQ32" s="39"/>
-      <c r="DR32" s="39"/>
-      <c r="DS32" s="39"/>
-      <c r="DT32" s="39"/>
-      <c r="DU32" s="39"/>
-      <c r="DV32" s="39"/>
-      <c r="DW32" s="39"/>
-      <c r="DX32" s="39"/>
-      <c r="DY32" s="39"/>
-      <c r="DZ32" s="39"/>
-      <c r="EA32" s="39"/>
-      <c r="EB32" s="39"/>
-      <c r="EC32" s="39"/>
-      <c r="ED32" s="39"/>
-      <c r="EE32" s="39"/>
-      <c r="EF32" s="39"/>
-      <c r="EG32" s="39"/>
-      <c r="EH32" s="39"/>
-      <c r="EI32" s="39"/>
-      <c r="EJ32" s="39"/>
-      <c r="EK32" s="39"/>
-      <c r="EL32" s="39"/>
-      <c r="EM32" s="39"/>
-      <c r="EN32" s="39"/>
-      <c r="EO32" s="39"/>
-      <c r="EP32" s="39"/>
-      <c r="EQ32" s="39"/>
-      <c r="ER32" s="39"/>
-      <c r="ES32" s="39"/>
-      <c r="ET32" s="39"/>
-      <c r="EU32" s="39"/>
-      <c r="EV32" s="39"/>
-      <c r="EW32" s="39"/>
-      <c r="EX32" s="39"/>
-      <c r="EY32" s="39"/>
-      <c r="EZ32" s="39"/>
-      <c r="FA32" s="39"/>
-      <c r="FB32" s="39"/>
-      <c r="FC32" s="39"/>
-      <c r="FD32" s="39"/>
-      <c r="FE32" s="39"/>
-      <c r="FF32" s="39"/>
-      <c r="FG32" s="39"/>
-      <c r="FH32" s="39"/>
-      <c r="FI32" s="39"/>
-      <c r="FJ32" s="39"/>
-      <c r="FK32" s="39"/>
-      <c r="FL32" s="39"/>
-      <c r="FM32" s="39"/>
-      <c r="FN32" s="39"/>
-      <c r="FO32" s="39"/>
-      <c r="FP32" s="39"/>
-      <c r="FQ32" s="39"/>
-      <c r="FR32" s="39"/>
-      <c r="FS32" s="39"/>
-      <c r="FT32" s="39"/>
-      <c r="FU32" s="39"/>
-      <c r="FV32" s="39"/>
-      <c r="FW32" s="39"/>
-      <c r="FX32" s="39"/>
-      <c r="FY32" s="39"/>
-      <c r="FZ32" s="39"/>
-      <c r="GA32" s="39"/>
-      <c r="GB32" s="39"/>
-      <c r="GC32" s="39"/>
-      <c r="GD32" s="39"/>
-      <c r="GE32" s="39"/>
-      <c r="GF32" s="39"/>
-      <c r="GG32" s="39"/>
-      <c r="GH32" s="39"/>
-      <c r="GI32" s="39"/>
-      <c r="GJ32" s="39"/>
-      <c r="GK32" s="39"/>
-      <c r="GL32" s="39"/>
-      <c r="GM32" s="39"/>
-      <c r="GN32" s="39"/>
-      <c r="GO32" s="39"/>
-      <c r="GP32" s="39"/>
-      <c r="GQ32" s="39"/>
-      <c r="GR32" s="39"/>
-      <c r="GS32" s="39"/>
-      <c r="GT32" s="39"/>
-      <c r="GU32" s="39"/>
-      <c r="GV32" s="39"/>
-      <c r="GW32" s="39"/>
-      <c r="GX32" s="39"/>
-      <c r="GY32" s="39"/>
-      <c r="GZ32" s="39"/>
-      <c r="HA32" s="39"/>
-      <c r="HB32" s="39"/>
-      <c r="HC32" s="39"/>
-      <c r="HD32" s="39"/>
-      <c r="HE32" s="39"/>
-      <c r="HF32" s="39"/>
-      <c r="HG32" s="39"/>
-      <c r="HH32" s="39"/>
-      <c r="HI32" s="39"/>
-      <c r="HJ32" s="39"/>
-      <c r="HK32" s="39"/>
-      <c r="HL32" s="39"/>
-      <c r="HM32" s="39"/>
-      <c r="HN32" s="39"/>
-      <c r="HO32" s="39"/>
-      <c r="HP32" s="39"/>
-      <c r="HQ32" s="39"/>
-      <c r="HR32" s="39"/>
-      <c r="HS32" s="39"/>
-      <c r="HT32" s="39"/>
-      <c r="HU32" s="39"/>
-      <c r="HV32" s="39"/>
-      <c r="HW32" s="39"/>
-      <c r="HX32" s="39"/>
-      <c r="HY32" s="39"/>
-      <c r="HZ32" s="39"/>
-      <c r="IA32" s="39"/>
-      <c r="IB32" s="39"/>
-      <c r="IC32" s="39"/>
-      <c r="ID32" s="39"/>
-      <c r="IE32" s="39"/>
-      <c r="IF32" s="39"/>
-      <c r="IG32" s="39"/>
-      <c r="IH32" s="39"/>
-      <c r="II32" s="39"/>
-      <c r="IJ32" s="39"/>
-      <c r="IK32" s="39"/>
-      <c r="IL32" s="39"/>
-      <c r="IM32" s="39"/>
-      <c r="IN32" s="39"/>
-      <c r="IO32" s="39"/>
-      <c r="IP32" s="39"/>
-      <c r="IQ32" s="39"/>
-      <c r="IR32" s="39"/>
-      <c r="IS32" s="39"/>
-      <c r="IT32" s="39"/>
-      <c r="IU32" s="39"/>
-      <c r="IV32" s="39"/>
-      <c r="IW32" s="39"/>
-      <c r="IX32" s="39"/>
     </row>
-    <row r="33" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A33" s="102"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="86"/>
+    <row r="33" spans="1:258" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="85"/>
       <c r="L33" s="43"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="39"/>
+      <c r="AJ33" s="39"/>
+      <c r="AK33" s="39"/>
+      <c r="AL33" s="39"/>
+      <c r="AM33" s="39"/>
+      <c r="AN33" s="39"/>
+      <c r="AO33" s="39"/>
+      <c r="AP33" s="39"/>
+      <c r="AQ33" s="39"/>
+      <c r="AR33" s="39"/>
+      <c r="AS33" s="39"/>
+      <c r="AT33" s="39"/>
+      <c r="AU33" s="39"/>
+      <c r="AV33" s="39"/>
+      <c r="AW33" s="39"/>
+      <c r="AX33" s="39"/>
+      <c r="AY33" s="39"/>
+      <c r="AZ33" s="39"/>
+      <c r="BA33" s="39"/>
+      <c r="BB33" s="39"/>
+      <c r="BC33" s="39"/>
+      <c r="BD33" s="39"/>
+      <c r="BE33" s="39"/>
+      <c r="BF33" s="39"/>
+      <c r="BG33" s="39"/>
+      <c r="BH33" s="39"/>
+      <c r="BI33" s="39"/>
+      <c r="BJ33" s="39"/>
+      <c r="BK33" s="39"/>
+      <c r="BL33" s="39"/>
+      <c r="BM33" s="39"/>
+      <c r="BN33" s="39"/>
+      <c r="BO33" s="39"/>
+      <c r="BP33" s="39"/>
+      <c r="BQ33" s="39"/>
+      <c r="BR33" s="39"/>
+      <c r="BS33" s="39"/>
+      <c r="BT33" s="39"/>
+      <c r="BU33" s="39"/>
+      <c r="BV33" s="39"/>
+      <c r="BW33" s="39"/>
+      <c r="BX33" s="39"/>
+      <c r="BY33" s="39"/>
+      <c r="BZ33" s="39"/>
+      <c r="CA33" s="39"/>
+      <c r="CB33" s="39"/>
+      <c r="CC33" s="39"/>
+      <c r="CD33" s="39"/>
+      <c r="CE33" s="39"/>
+      <c r="CF33" s="39"/>
+      <c r="CG33" s="39"/>
+      <c r="CH33" s="39"/>
+      <c r="CI33" s="39"/>
+      <c r="CJ33" s="39"/>
+      <c r="CK33" s="39"/>
+      <c r="CL33" s="39"/>
+      <c r="CM33" s="39"/>
+      <c r="CN33" s="39"/>
+      <c r="CO33" s="39"/>
+      <c r="CP33" s="39"/>
+      <c r="CQ33" s="39"/>
+      <c r="CR33" s="39"/>
+      <c r="CS33" s="39"/>
+      <c r="CT33" s="39"/>
+      <c r="CU33" s="39"/>
+      <c r="CV33" s="39"/>
+      <c r="CW33" s="39"/>
+      <c r="CX33" s="39"/>
+      <c r="CY33" s="39"/>
+      <c r="CZ33" s="39"/>
+      <c r="DA33" s="39"/>
+      <c r="DB33" s="39"/>
+      <c r="DC33" s="39"/>
+      <c r="DD33" s="39"/>
+      <c r="DE33" s="39"/>
+      <c r="DF33" s="39"/>
+      <c r="DG33" s="39"/>
+      <c r="DH33" s="39"/>
+      <c r="DI33" s="39"/>
+      <c r="DJ33" s="39"/>
+      <c r="DK33" s="39"/>
+      <c r="DL33" s="39"/>
+      <c r="DM33" s="39"/>
+      <c r="DN33" s="39"/>
+      <c r="DO33" s="39"/>
+      <c r="DP33" s="39"/>
+      <c r="DQ33" s="39"/>
+      <c r="DR33" s="39"/>
+      <c r="DS33" s="39"/>
+      <c r="DT33" s="39"/>
+      <c r="DU33" s="39"/>
+      <c r="DV33" s="39"/>
+      <c r="DW33" s="39"/>
+      <c r="DX33" s="39"/>
+      <c r="DY33" s="39"/>
+      <c r="DZ33" s="39"/>
+      <c r="EA33" s="39"/>
+      <c r="EB33" s="39"/>
+      <c r="EC33" s="39"/>
+      <c r="ED33" s="39"/>
+      <c r="EE33" s="39"/>
+      <c r="EF33" s="39"/>
+      <c r="EG33" s="39"/>
+      <c r="EH33" s="39"/>
+      <c r="EI33" s="39"/>
+      <c r="EJ33" s="39"/>
+      <c r="EK33" s="39"/>
+      <c r="EL33" s="39"/>
+      <c r="EM33" s="39"/>
+      <c r="EN33" s="39"/>
+      <c r="EO33" s="39"/>
+      <c r="EP33" s="39"/>
+      <c r="EQ33" s="39"/>
+      <c r="ER33" s="39"/>
+      <c r="ES33" s="39"/>
+      <c r="ET33" s="39"/>
+      <c r="EU33" s="39"/>
+      <c r="EV33" s="39"/>
+      <c r="EW33" s="39"/>
+      <c r="EX33" s="39"/>
+      <c r="EY33" s="39"/>
+      <c r="EZ33" s="39"/>
+      <c r="FA33" s="39"/>
+      <c r="FB33" s="39"/>
+      <c r="FC33" s="39"/>
+      <c r="FD33" s="39"/>
+      <c r="FE33" s="39"/>
+      <c r="FF33" s="39"/>
+      <c r="FG33" s="39"/>
+      <c r="FH33" s="39"/>
+      <c r="FI33" s="39"/>
+      <c r="FJ33" s="39"/>
+      <c r="FK33" s="39"/>
+      <c r="FL33" s="39"/>
+      <c r="FM33" s="39"/>
+      <c r="FN33" s="39"/>
+      <c r="FO33" s="39"/>
+      <c r="FP33" s="39"/>
+      <c r="FQ33" s="39"/>
+      <c r="FR33" s="39"/>
+      <c r="FS33" s="39"/>
+      <c r="FT33" s="39"/>
+      <c r="FU33" s="39"/>
+      <c r="FV33" s="39"/>
+      <c r="FW33" s="39"/>
+      <c r="FX33" s="39"/>
+      <c r="FY33" s="39"/>
+      <c r="FZ33" s="39"/>
+      <c r="GA33" s="39"/>
+      <c r="GB33" s="39"/>
+      <c r="GC33" s="39"/>
+      <c r="GD33" s="39"/>
+      <c r="GE33" s="39"/>
+      <c r="GF33" s="39"/>
+      <c r="GG33" s="39"/>
+      <c r="GH33" s="39"/>
+      <c r="GI33" s="39"/>
+      <c r="GJ33" s="39"/>
+      <c r="GK33" s="39"/>
+      <c r="GL33" s="39"/>
+      <c r="GM33" s="39"/>
+      <c r="GN33" s="39"/>
+      <c r="GO33" s="39"/>
+      <c r="GP33" s="39"/>
+      <c r="GQ33" s="39"/>
+      <c r="GR33" s="39"/>
+      <c r="GS33" s="39"/>
+      <c r="GT33" s="39"/>
+      <c r="GU33" s="39"/>
+      <c r="GV33" s="39"/>
+      <c r="GW33" s="39"/>
+      <c r="GX33" s="39"/>
+      <c r="GY33" s="39"/>
+      <c r="GZ33" s="39"/>
+      <c r="HA33" s="39"/>
+      <c r="HB33" s="39"/>
+      <c r="HC33" s="39"/>
+      <c r="HD33" s="39"/>
+      <c r="HE33" s="39"/>
+      <c r="HF33" s="39"/>
+      <c r="HG33" s="39"/>
+      <c r="HH33" s="39"/>
+      <c r="HI33" s="39"/>
+      <c r="HJ33" s="39"/>
+      <c r="HK33" s="39"/>
+      <c r="HL33" s="39"/>
+      <c r="HM33" s="39"/>
+      <c r="HN33" s="39"/>
+      <c r="HO33" s="39"/>
+      <c r="HP33" s="39"/>
+      <c r="HQ33" s="39"/>
+      <c r="HR33" s="39"/>
+      <c r="HS33" s="39"/>
+      <c r="HT33" s="39"/>
+      <c r="HU33" s="39"/>
+      <c r="HV33" s="39"/>
+      <c r="HW33" s="39"/>
+      <c r="HX33" s="39"/>
+      <c r="HY33" s="39"/>
+      <c r="HZ33" s="39"/>
+      <c r="IA33" s="39"/>
+      <c r="IB33" s="39"/>
+      <c r="IC33" s="39"/>
+      <c r="ID33" s="39"/>
+      <c r="IE33" s="39"/>
+      <c r="IF33" s="39"/>
+      <c r="IG33" s="39"/>
+      <c r="IH33" s="39"/>
+      <c r="II33" s="39"/>
+      <c r="IJ33" s="39"/>
+      <c r="IK33" s="39"/>
+      <c r="IL33" s="39"/>
+      <c r="IM33" s="39"/>
+      <c r="IN33" s="39"/>
+      <c r="IO33" s="39"/>
+      <c r="IP33" s="39"/>
+      <c r="IQ33" s="39"/>
+      <c r="IR33" s="39"/>
+      <c r="IS33" s="39"/>
+      <c r="IT33" s="39"/>
+      <c r="IU33" s="39"/>
+      <c r="IV33" s="39"/>
+      <c r="IW33" s="39"/>
+      <c r="IX33" s="39"/>
     </row>
     <row r="34" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A34" s="103"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
+      <c r="A34" s="101"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="41"/>
-      <c r="G34" s="44"/>
-      <c r="I34" s="44"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
       <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
+      <c r="K34" s="85"/>
       <c r="L34" s="43"/>
     </row>
     <row r="35" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A35" s="103"/>
+      <c r="A35" s="102"/>
       <c r="B35" s="20"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="41"/>
       <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
       <c r="I35" s="44"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
       <c r="L35" s="43"/>
     </row>
     <row r="36" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A36" s="104"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="41"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
       <c r="J36" s="85"/>
-      <c r="K36" s="86"/>
+      <c r="K36" s="85"/>
       <c r="L36" s="43"/>
     </row>
-    <row r="37" spans="1:258" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="86"/>
+    <row r="37" spans="1:258" ht="99.95" customHeight="1">
+      <c r="A37" s="103"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="85"/>
       <c r="L37" s="43"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39"/>
-      <c r="AH37" s="39"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="39"/>
-      <c r="AL37" s="39"/>
-      <c r="AM37" s="39"/>
-      <c r="AN37" s="39"/>
-      <c r="AO37" s="39"/>
-      <c r="AP37" s="39"/>
-      <c r="AQ37" s="39"/>
-      <c r="AR37" s="39"/>
-      <c r="AS37" s="39"/>
-      <c r="AT37" s="39"/>
-      <c r="AU37" s="39"/>
-      <c r="AV37" s="39"/>
-      <c r="AW37" s="39"/>
-      <c r="AX37" s="39"/>
-      <c r="AY37" s="39"/>
-      <c r="AZ37" s="39"/>
-      <c r="BA37" s="39"/>
-      <c r="BB37" s="39"/>
-      <c r="BC37" s="39"/>
-      <c r="BD37" s="39"/>
-      <c r="BE37" s="39"/>
-      <c r="BF37" s="39"/>
-      <c r="BG37" s="39"/>
-      <c r="BH37" s="39"/>
-      <c r="BI37" s="39"/>
-      <c r="BJ37" s="39"/>
-      <c r="BK37" s="39"/>
-      <c r="BL37" s="39"/>
-      <c r="BM37" s="39"/>
-      <c r="BN37" s="39"/>
-      <c r="BO37" s="39"/>
-      <c r="BP37" s="39"/>
-      <c r="BQ37" s="39"/>
-      <c r="BR37" s="39"/>
-      <c r="BS37" s="39"/>
-      <c r="BT37" s="39"/>
-      <c r="BU37" s="39"/>
-      <c r="BV37" s="39"/>
-      <c r="BW37" s="39"/>
-      <c r="BX37" s="39"/>
-      <c r="BY37" s="39"/>
-      <c r="BZ37" s="39"/>
-      <c r="CA37" s="39"/>
-      <c r="CB37" s="39"/>
-      <c r="CC37" s="39"/>
-      <c r="CD37" s="39"/>
-      <c r="CE37" s="39"/>
-      <c r="CF37" s="39"/>
-      <c r="CG37" s="39"/>
-      <c r="CH37" s="39"/>
-      <c r="CI37" s="39"/>
-      <c r="CJ37" s="39"/>
-      <c r="CK37" s="39"/>
-      <c r="CL37" s="39"/>
-      <c r="CM37" s="39"/>
-      <c r="CN37" s="39"/>
-      <c r="CO37" s="39"/>
-      <c r="CP37" s="39"/>
-      <c r="CQ37" s="39"/>
-      <c r="CR37" s="39"/>
-      <c r="CS37" s="39"/>
-      <c r="CT37" s="39"/>
-      <c r="CU37" s="39"/>
-      <c r="CV37" s="39"/>
-      <c r="CW37" s="39"/>
-      <c r="CX37" s="39"/>
-      <c r="CY37" s="39"/>
-      <c r="CZ37" s="39"/>
-      <c r="DA37" s="39"/>
-      <c r="DB37" s="39"/>
-      <c r="DC37" s="39"/>
-      <c r="DD37" s="39"/>
-      <c r="DE37" s="39"/>
-      <c r="DF37" s="39"/>
-      <c r="DG37" s="39"/>
-      <c r="DH37" s="39"/>
-      <c r="DI37" s="39"/>
-      <c r="DJ37" s="39"/>
-      <c r="DK37" s="39"/>
-      <c r="DL37" s="39"/>
-      <c r="DM37" s="39"/>
-      <c r="DN37" s="39"/>
-      <c r="DO37" s="39"/>
-      <c r="DP37" s="39"/>
-      <c r="DQ37" s="39"/>
-      <c r="DR37" s="39"/>
-      <c r="DS37" s="39"/>
-      <c r="DT37" s="39"/>
-      <c r="DU37" s="39"/>
-      <c r="DV37" s="39"/>
-      <c r="DW37" s="39"/>
-      <c r="DX37" s="39"/>
-      <c r="DY37" s="39"/>
-      <c r="DZ37" s="39"/>
-      <c r="EA37" s="39"/>
-      <c r="EB37" s="39"/>
-      <c r="EC37" s="39"/>
-      <c r="ED37" s="39"/>
-      <c r="EE37" s="39"/>
-      <c r="EF37" s="39"/>
-      <c r="EG37" s="39"/>
-      <c r="EH37" s="39"/>
-      <c r="EI37" s="39"/>
-      <c r="EJ37" s="39"/>
-      <c r="EK37" s="39"/>
-      <c r="EL37" s="39"/>
-      <c r="EM37" s="39"/>
-      <c r="EN37" s="39"/>
-      <c r="EO37" s="39"/>
-      <c r="EP37" s="39"/>
-      <c r="EQ37" s="39"/>
-      <c r="ER37" s="39"/>
-      <c r="ES37" s="39"/>
-      <c r="ET37" s="39"/>
-      <c r="EU37" s="39"/>
-      <c r="EV37" s="39"/>
-      <c r="EW37" s="39"/>
-      <c r="EX37" s="39"/>
-      <c r="EY37" s="39"/>
-      <c r="EZ37" s="39"/>
-      <c r="FA37" s="39"/>
-      <c r="FB37" s="39"/>
-      <c r="FC37" s="39"/>
-      <c r="FD37" s="39"/>
-      <c r="FE37" s="39"/>
-      <c r="FF37" s="39"/>
-      <c r="FG37" s="39"/>
-      <c r="FH37" s="39"/>
-      <c r="FI37" s="39"/>
-      <c r="FJ37" s="39"/>
-      <c r="FK37" s="39"/>
-      <c r="FL37" s="39"/>
-      <c r="FM37" s="39"/>
-      <c r="FN37" s="39"/>
-      <c r="FO37" s="39"/>
-      <c r="FP37" s="39"/>
-      <c r="FQ37" s="39"/>
-      <c r="FR37" s="39"/>
-      <c r="FS37" s="39"/>
-      <c r="FT37" s="39"/>
-      <c r="FU37" s="39"/>
-      <c r="FV37" s="39"/>
-      <c r="FW37" s="39"/>
-      <c r="FX37" s="39"/>
-      <c r="FY37" s="39"/>
-      <c r="FZ37" s="39"/>
-      <c r="GA37" s="39"/>
-      <c r="GB37" s="39"/>
-      <c r="GC37" s="39"/>
-      <c r="GD37" s="39"/>
-      <c r="GE37" s="39"/>
-      <c r="GF37" s="39"/>
-      <c r="GG37" s="39"/>
-      <c r="GH37" s="39"/>
-      <c r="GI37" s="39"/>
-      <c r="GJ37" s="39"/>
-      <c r="GK37" s="39"/>
-      <c r="GL37" s="39"/>
-      <c r="GM37" s="39"/>
-      <c r="GN37" s="39"/>
-      <c r="GO37" s="39"/>
-      <c r="GP37" s="39"/>
-      <c r="GQ37" s="39"/>
-      <c r="GR37" s="39"/>
-      <c r="GS37" s="39"/>
-      <c r="GT37" s="39"/>
-      <c r="GU37" s="39"/>
-      <c r="GV37" s="39"/>
-      <c r="GW37" s="39"/>
-      <c r="GX37" s="39"/>
-      <c r="GY37" s="39"/>
-      <c r="GZ37" s="39"/>
-      <c r="HA37" s="39"/>
-      <c r="HB37" s="39"/>
-      <c r="HC37" s="39"/>
-      <c r="HD37" s="39"/>
-      <c r="HE37" s="39"/>
-      <c r="HF37" s="39"/>
-      <c r="HG37" s="39"/>
-      <c r="HH37" s="39"/>
-      <c r="HI37" s="39"/>
-      <c r="HJ37" s="39"/>
-      <c r="HK37" s="39"/>
-      <c r="HL37" s="39"/>
-      <c r="HM37" s="39"/>
-      <c r="HN37" s="39"/>
-      <c r="HO37" s="39"/>
-      <c r="HP37" s="39"/>
-      <c r="HQ37" s="39"/>
-      <c r="HR37" s="39"/>
-      <c r="HS37" s="39"/>
-      <c r="HT37" s="39"/>
-      <c r="HU37" s="39"/>
-      <c r="HV37" s="39"/>
-      <c r="HW37" s="39"/>
-      <c r="HX37" s="39"/>
-      <c r="HY37" s="39"/>
-      <c r="HZ37" s="39"/>
-      <c r="IA37" s="39"/>
-      <c r="IB37" s="39"/>
-      <c r="IC37" s="39"/>
-      <c r="ID37" s="39"/>
-      <c r="IE37" s="39"/>
-      <c r="IF37" s="39"/>
-      <c r="IG37" s="39"/>
-      <c r="IH37" s="39"/>
-      <c r="II37" s="39"/>
-      <c r="IJ37" s="39"/>
-      <c r="IK37" s="39"/>
-      <c r="IL37" s="39"/>
-      <c r="IM37" s="39"/>
-      <c r="IN37" s="39"/>
-      <c r="IO37" s="39"/>
-      <c r="IP37" s="39"/>
-      <c r="IQ37" s="39"/>
-      <c r="IR37" s="39"/>
-      <c r="IS37" s="39"/>
-      <c r="IT37" s="39"/>
-      <c r="IU37" s="39"/>
-      <c r="IV37" s="39"/>
-      <c r="IW37" s="39"/>
-      <c r="IX37" s="39"/>
     </row>
-    <row r="38" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A38" s="102"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="86"/>
+    <row r="38" spans="1:258" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A38" s="45"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="85"/>
       <c r="L38" s="43"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="39"/>
+      <c r="AM38" s="39"/>
+      <c r="AN38" s="39"/>
+      <c r="AO38" s="39"/>
+      <c r="AP38" s="39"/>
+      <c r="AQ38" s="39"/>
+      <c r="AR38" s="39"/>
+      <c r="AS38" s="39"/>
+      <c r="AT38" s="39"/>
+      <c r="AU38" s="39"/>
+      <c r="AV38" s="39"/>
+      <c r="AW38" s="39"/>
+      <c r="AX38" s="39"/>
+      <c r="AY38" s="39"/>
+      <c r="AZ38" s="39"/>
+      <c r="BA38" s="39"/>
+      <c r="BB38" s="39"/>
+      <c r="BC38" s="39"/>
+      <c r="BD38" s="39"/>
+      <c r="BE38" s="39"/>
+      <c r="BF38" s="39"/>
+      <c r="BG38" s="39"/>
+      <c r="BH38" s="39"/>
+      <c r="BI38" s="39"/>
+      <c r="BJ38" s="39"/>
+      <c r="BK38" s="39"/>
+      <c r="BL38" s="39"/>
+      <c r="BM38" s="39"/>
+      <c r="BN38" s="39"/>
+      <c r="BO38" s="39"/>
+      <c r="BP38" s="39"/>
+      <c r="BQ38" s="39"/>
+      <c r="BR38" s="39"/>
+      <c r="BS38" s="39"/>
+      <c r="BT38" s="39"/>
+      <c r="BU38" s="39"/>
+      <c r="BV38" s="39"/>
+      <c r="BW38" s="39"/>
+      <c r="BX38" s="39"/>
+      <c r="BY38" s="39"/>
+      <c r="BZ38" s="39"/>
+      <c r="CA38" s="39"/>
+      <c r="CB38" s="39"/>
+      <c r="CC38" s="39"/>
+      <c r="CD38" s="39"/>
+      <c r="CE38" s="39"/>
+      <c r="CF38" s="39"/>
+      <c r="CG38" s="39"/>
+      <c r="CH38" s="39"/>
+      <c r="CI38" s="39"/>
+      <c r="CJ38" s="39"/>
+      <c r="CK38" s="39"/>
+      <c r="CL38" s="39"/>
+      <c r="CM38" s="39"/>
+      <c r="CN38" s="39"/>
+      <c r="CO38" s="39"/>
+      <c r="CP38" s="39"/>
+      <c r="CQ38" s="39"/>
+      <c r="CR38" s="39"/>
+      <c r="CS38" s="39"/>
+      <c r="CT38" s="39"/>
+      <c r="CU38" s="39"/>
+      <c r="CV38" s="39"/>
+      <c r="CW38" s="39"/>
+      <c r="CX38" s="39"/>
+      <c r="CY38" s="39"/>
+      <c r="CZ38" s="39"/>
+      <c r="DA38" s="39"/>
+      <c r="DB38" s="39"/>
+      <c r="DC38" s="39"/>
+      <c r="DD38" s="39"/>
+      <c r="DE38" s="39"/>
+      <c r="DF38" s="39"/>
+      <c r="DG38" s="39"/>
+      <c r="DH38" s="39"/>
+      <c r="DI38" s="39"/>
+      <c r="DJ38" s="39"/>
+      <c r="DK38" s="39"/>
+      <c r="DL38" s="39"/>
+      <c r="DM38" s="39"/>
+      <c r="DN38" s="39"/>
+      <c r="DO38" s="39"/>
+      <c r="DP38" s="39"/>
+      <c r="DQ38" s="39"/>
+      <c r="DR38" s="39"/>
+      <c r="DS38" s="39"/>
+      <c r="DT38" s="39"/>
+      <c r="DU38" s="39"/>
+      <c r="DV38" s="39"/>
+      <c r="DW38" s="39"/>
+      <c r="DX38" s="39"/>
+      <c r="DY38" s="39"/>
+      <c r="DZ38" s="39"/>
+      <c r="EA38" s="39"/>
+      <c r="EB38" s="39"/>
+      <c r="EC38" s="39"/>
+      <c r="ED38" s="39"/>
+      <c r="EE38" s="39"/>
+      <c r="EF38" s="39"/>
+      <c r="EG38" s="39"/>
+      <c r="EH38" s="39"/>
+      <c r="EI38" s="39"/>
+      <c r="EJ38" s="39"/>
+      <c r="EK38" s="39"/>
+      <c r="EL38" s="39"/>
+      <c r="EM38" s="39"/>
+      <c r="EN38" s="39"/>
+      <c r="EO38" s="39"/>
+      <c r="EP38" s="39"/>
+      <c r="EQ38" s="39"/>
+      <c r="ER38" s="39"/>
+      <c r="ES38" s="39"/>
+      <c r="ET38" s="39"/>
+      <c r="EU38" s="39"/>
+      <c r="EV38" s="39"/>
+      <c r="EW38" s="39"/>
+      <c r="EX38" s="39"/>
+      <c r="EY38" s="39"/>
+      <c r="EZ38" s="39"/>
+      <c r="FA38" s="39"/>
+      <c r="FB38" s="39"/>
+      <c r="FC38" s="39"/>
+      <c r="FD38" s="39"/>
+      <c r="FE38" s="39"/>
+      <c r="FF38" s="39"/>
+      <c r="FG38" s="39"/>
+      <c r="FH38" s="39"/>
+      <c r="FI38" s="39"/>
+      <c r="FJ38" s="39"/>
+      <c r="FK38" s="39"/>
+      <c r="FL38" s="39"/>
+      <c r="FM38" s="39"/>
+      <c r="FN38" s="39"/>
+      <c r="FO38" s="39"/>
+      <c r="FP38" s="39"/>
+      <c r="FQ38" s="39"/>
+      <c r="FR38" s="39"/>
+      <c r="FS38" s="39"/>
+      <c r="FT38" s="39"/>
+      <c r="FU38" s="39"/>
+      <c r="FV38" s="39"/>
+      <c r="FW38" s="39"/>
+      <c r="FX38" s="39"/>
+      <c r="FY38" s="39"/>
+      <c r="FZ38" s="39"/>
+      <c r="GA38" s="39"/>
+      <c r="GB38" s="39"/>
+      <c r="GC38" s="39"/>
+      <c r="GD38" s="39"/>
+      <c r="GE38" s="39"/>
+      <c r="GF38" s="39"/>
+      <c r="GG38" s="39"/>
+      <c r="GH38" s="39"/>
+      <c r="GI38" s="39"/>
+      <c r="GJ38" s="39"/>
+      <c r="GK38" s="39"/>
+      <c r="GL38" s="39"/>
+      <c r="GM38" s="39"/>
+      <c r="GN38" s="39"/>
+      <c r="GO38" s="39"/>
+      <c r="GP38" s="39"/>
+      <c r="GQ38" s="39"/>
+      <c r="GR38" s="39"/>
+      <c r="GS38" s="39"/>
+      <c r="GT38" s="39"/>
+      <c r="GU38" s="39"/>
+      <c r="GV38" s="39"/>
+      <c r="GW38" s="39"/>
+      <c r="GX38" s="39"/>
+      <c r="GY38" s="39"/>
+      <c r="GZ38" s="39"/>
+      <c r="HA38" s="39"/>
+      <c r="HB38" s="39"/>
+      <c r="HC38" s="39"/>
+      <c r="HD38" s="39"/>
+      <c r="HE38" s="39"/>
+      <c r="HF38" s="39"/>
+      <c r="HG38" s="39"/>
+      <c r="HH38" s="39"/>
+      <c r="HI38" s="39"/>
+      <c r="HJ38" s="39"/>
+      <c r="HK38" s="39"/>
+      <c r="HL38" s="39"/>
+      <c r="HM38" s="39"/>
+      <c r="HN38" s="39"/>
+      <c r="HO38" s="39"/>
+      <c r="HP38" s="39"/>
+      <c r="HQ38" s="39"/>
+      <c r="HR38" s="39"/>
+      <c r="HS38" s="39"/>
+      <c r="HT38" s="39"/>
+      <c r="HU38" s="39"/>
+      <c r="HV38" s="39"/>
+      <c r="HW38" s="39"/>
+      <c r="HX38" s="39"/>
+      <c r="HY38" s="39"/>
+      <c r="HZ38" s="39"/>
+      <c r="IA38" s="39"/>
+      <c r="IB38" s="39"/>
+      <c r="IC38" s="39"/>
+      <c r="ID38" s="39"/>
+      <c r="IE38" s="39"/>
+      <c r="IF38" s="39"/>
+      <c r="IG38" s="39"/>
+      <c r="IH38" s="39"/>
+      <c r="II38" s="39"/>
+      <c r="IJ38" s="39"/>
+      <c r="IK38" s="39"/>
+      <c r="IL38" s="39"/>
+      <c r="IM38" s="39"/>
+      <c r="IN38" s="39"/>
+      <c r="IO38" s="39"/>
+      <c r="IP38" s="39"/>
+      <c r="IQ38" s="39"/>
+      <c r="IR38" s="39"/>
+      <c r="IS38" s="39"/>
+      <c r="IT38" s="39"/>
+      <c r="IU38" s="39"/>
+      <c r="IV38" s="39"/>
+      <c r="IW38" s="39"/>
+      <c r="IX38" s="39"/>
     </row>
     <row r="39" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A39" s="103"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
       <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
+      <c r="K39" s="85"/>
       <c r="L39" s="43"/>
     </row>
     <row r="40" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A40" s="103"/>
+      <c r="A40" s="102"/>
       <c r="B40" s="44"/>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
@@ -10999,54 +11264,54 @@
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
       <c r="L40" s="43"/>
     </row>
     <row r="41" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A41" s="103"/>
+      <c r="A41" s="102"/>
       <c r="B41" s="44"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
       <c r="G41" s="44"/>
-      <c r="H41" s="20"/>
+      <c r="H41" s="44"/>
       <c r="I41" s="44"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
       <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A42" s="103"/>
+      <c r="A42" s="102"/>
       <c r="B42" s="44"/>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="43"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="44"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
       <c r="L42" s="43"/>
     </row>
     <row r="43" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A43" s="104"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="44"/>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
+      <c r="G43" s="20"/>
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A44" s="102"/>
+      <c r="A44" s="103"/>
       <c r="B44" s="44"/>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
@@ -11055,27 +11320,27 @@
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
       <c r="L44" s="43"/>
     </row>
     <row r="45" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A45" s="103"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="21"/>
+      <c r="A45" s="101"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="43"/>
       <c r="G45" s="44"/>
-      <c r="H45" s="20"/>
+      <c r="H45" s="44"/>
       <c r="I45" s="44"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
       <c r="L45" s="43"/>
     </row>
     <row r="46" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A46" s="103"/>
-      <c r="B46" s="106"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="21"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
@@ -11083,50 +11348,50 @@
       <c r="G46" s="44"/>
       <c r="H46" s="20"/>
       <c r="I46" s="44"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
       <c r="L46" s="43"/>
     </row>
     <row r="47" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A47" s="103"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="43"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
       <c r="G47" s="44"/>
-      <c r="H47" s="43"/>
+      <c r="H47" s="20"/>
       <c r="I47" s="44"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
       <c r="L47" s="43"/>
     </row>
     <row r="48" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A48" s="104"/>
+      <c r="A48" s="102"/>
       <c r="B48" s="44"/>
       <c r="C48" s="43"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="43"/>
       <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
+      <c r="H48" s="43"/>
       <c r="I48" s="44"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
       <c r="L48" s="43"/>
     </row>
     <row r="49" spans="1:12" ht="99.95" customHeight="1">
-      <c r="A49" s="46"/>
+      <c r="A49" s="103"/>
       <c r="B49" s="44"/>
       <c r="C49" s="43"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="43"/>
       <c r="G49" s="44"/>
-      <c r="H49" s="43"/>
+      <c r="H49" s="44"/>
       <c r="I49" s="44"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
       <c r="L49" s="43"/>
     </row>
     <row r="50" spans="1:12" ht="99.95" customHeight="1">
@@ -11139,8 +11404,8 @@
       <c r="G50" s="44"/>
       <c r="H50" s="43"/>
       <c r="I50" s="44"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
       <c r="L50" s="43"/>
     </row>
     <row r="51" spans="1:12" ht="99.95" customHeight="1">
@@ -11153,8 +11418,8 @@
       <c r="G51" s="44"/>
       <c r="H51" s="43"/>
       <c r="I51" s="44"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="86"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
       <c r="L51" s="43"/>
     </row>
     <row r="52" spans="1:12" ht="99.95" customHeight="1">
@@ -11167,21 +11432,35 @@
       <c r="G52" s="44"/>
       <c r="H52" s="43"/>
       <c r="I52" s="44"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="86"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
       <c r="L52" s="43"/>
+    </row>
+    <row r="53" spans="1:12" ht="99.95" customHeight="1">
+      <c r="A53" s="46"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A30:A32"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11799,7 +12078,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>21</v>
@@ -12318,13 +12597,13 @@
     </row>
     <row r="6" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>26</v>
@@ -12333,7 +12612,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="26"/>
@@ -12848,13 +13127,13 @@
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>26</v>
@@ -12863,7 +13142,7 @@
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
       <c r="H8" s="26" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="26"/>
@@ -13377,14 +13656,14 @@
       <c r="IX9" s="24"/>
     </row>
     <row r="10" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A10" s="114" t="s">
-        <v>85</v>
+      <c r="A10" s="113" t="s">
+        <v>78</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>18</v>
@@ -13392,10 +13671,10 @@
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="34" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="32"/>
@@ -13649,12 +13928,12 @@
       <c r="IX10" s="51"/>
     </row>
     <row r="11" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A11" s="114"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>26</v>
@@ -13663,7 +13942,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="20"/>
@@ -13919,12 +14198,12 @@
       <c r="IX11" s="51"/>
     </row>
     <row r="12" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A12" s="114"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="35" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>26</v>
@@ -13933,7 +14212,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
@@ -14191,10 +14470,10 @@
     <row r="13" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>26</v>
@@ -14203,7 +14482,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I13" s="52"/>
       <c r="J13" s="53"/>
@@ -14717,14 +14996,14 @@
       <c r="IX14" s="24"/>
     </row>
     <row r="15" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A15" s="111" t="s">
-        <v>99</v>
+      <c r="A15" s="110" t="s">
+        <v>92</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>18</v>
@@ -14732,10 +15011,10 @@
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="32" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="32"/>
@@ -14989,12 +15268,12 @@
       <c r="IX15" s="51"/>
     </row>
     <row r="16" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A16" s="112"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>26</v>
@@ -15003,7 +15282,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
@@ -15257,12 +15536,12 @@
       <c r="IX16" s="51"/>
     </row>
     <row r="17" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A17" s="113"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="35" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>26</v>
@@ -15271,7 +15550,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
@@ -15538,90 +15817,90 @@
       <c r="IX18" s="39"/>
     </row>
     <row r="19" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A19" s="102" t="s">
-        <v>110</v>
+      <c r="A19" s="101" t="s">
+        <v>103</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="41" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A20" s="103"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="41" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A21" s="103"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="41" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="44" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A22" s="104"/>
+      <c r="A22" s="103"/>
       <c r="B22" s="35" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="41" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -15887,247 +16166,247 @@
       <c r="IX23" s="39"/>
     </row>
     <row r="24" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A24" s="102" t="s">
-        <v>121</v>
+      <c r="A24" s="101" t="s">
+        <v>114</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="41" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
     </row>
     <row r="25" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A25" s="103"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="44" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D25" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="43" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G25" s="44"/>
       <c r="H25" s="44" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I25" s="43"/>
       <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A26" s="103"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="44" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D26" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="43" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A27" s="103"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="44" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D27" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I27" s="43"/>
       <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A28" s="103"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="44" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I28" s="43"/>
       <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A29" s="104"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="44" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="43" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="44" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I29" s="43"/>
       <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A30" s="102" t="s">
-        <v>139</v>
+      <c r="A30" s="101" t="s">
+        <v>132</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D30" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="43" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="44" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I30" s="43"/>
       <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A31" s="103"/>
-      <c r="B31" s="105" t="s">
-        <v>143</v>
+      <c r="A31" s="102"/>
+      <c r="B31" s="104" t="s">
+        <v>136</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D31" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="43" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I31" s="43"/>
       <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A32" s="103"/>
-      <c r="B32" s="106"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D32" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="43" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G32" s="44"/>
       <c r="H32" s="20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I32" s="43"/>
       <c r="J32" s="43"/>
     </row>
     <row r="33" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A33" s="103"/>
+      <c r="A33" s="102"/>
       <c r="B33" s="44" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A34" s="104"/>
+      <c r="A34" s="103"/>
       <c r="B34" s="44" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="43" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G34" s="44"/>
       <c r="H34" s="44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -700,18 +700,6 @@
   </si>
   <si>
     <t>/roles?page=1&amp;pageSize=10</t>
-  </si>
-  <si>
-    <t>{
- "count": 100,
- "roles":[{
-   "id": 1,
-   "name": "",
-   "category": "",
-   "creator": "",
-   "remark": ""
-  }]
-}</t>
   </si>
   <si>
     <t>Get role by id</t>
@@ -1555,6 +1543,18 @@
  "desc": ""
 }</t>
   </si>
+  <si>
+    <t>{
+ "count": 100,
+ "result":[{
+   "id": 1,
+   "name": "",
+   "category": "",
+   "creator": "",
+   "remark": ""
+  }]
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -2170,6 +2170,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2208,9 +2211,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2588,7 +2588,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75"/>
@@ -3712,7 +3712,7 @@
       <c r="IX5" s="24"/>
     </row>
     <row r="6" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="107" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="88" t="s">
@@ -3728,7 +3728,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="70"/>
@@ -3984,12 +3984,12 @@
       <c r="IX6" s="51"/>
     </row>
     <row r="7" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A7" s="107"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="87" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>26</v>
@@ -3998,7 +3998,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="20"/>
       <c r="H7" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="69"/>
@@ -4254,12 +4254,12 @@
       <c r="IX7" s="51"/>
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A8" s="107"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="94" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>26</v>
@@ -4268,7 +4268,7 @@
       <c r="F8" s="36"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="73"/>
@@ -4524,7 +4524,7 @@
       <c r="IX8" s="51"/>
     </row>
     <row r="9" spans="1:258" s="54" customFormat="1" ht="138" customHeight="1">
-      <c r="A9" s="107"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="92" t="s">
         <v>32</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H9" s="89" t="s">
         <v>33</v>
@@ -4798,12 +4798,12 @@
       <c r="IX9" s="76"/>
     </row>
     <row r="10" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A10" s="107"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="95" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="59" t="s">
         <v>26</v>
@@ -5066,7 +5066,7 @@
       <c r="IX10" s="79"/>
     </row>
     <row r="11" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A11" s="107"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="87" t="s">
         <v>37</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="IX11" s="51"/>
     </row>
     <row r="12" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="107" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="99" t="s">
@@ -5612,12 +5612,12 @@
       <c r="IX12" s="51"/>
     </row>
     <row r="13" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A13" s="107"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="99" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="97" t="s">
         <v>26</v>
@@ -5632,7 +5632,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="98"/>
       <c r="L13" s="96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M13" s="79"/>
       <c r="N13" s="79"/>
@@ -5882,7 +5882,7 @@
       <c r="IX13" s="79"/>
     </row>
     <row r="14" spans="1:258" s="56" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A14" s="108"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="99" t="s">
         <v>47</v>
       </c>
@@ -6154,9 +6154,9 @@
       <c r="IX14" s="81"/>
     </row>
     <row r="15" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A15" s="107"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="93" t="s">
         <v>49</v>
@@ -6426,12 +6426,12 @@
       <c r="IX15" s="79"/>
     </row>
     <row r="16" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A16" s="107"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="58" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>26</v>
@@ -6694,7 +6694,7 @@
       <c r="IX16" s="79"/>
     </row>
     <row r="17" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A17" s="109"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
       </c>
@@ -7228,7 +7228,7 @@
       <c r="IX18" s="24"/>
     </row>
     <row r="19" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="111" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="26" t="s">
@@ -7244,7 +7244,7 @@
       <c r="F19" s="27"/>
       <c r="G19" s="29"/>
       <c r="H19" s="26" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="70"/>
@@ -7498,12 +7498,12 @@
       <c r="IX19" s="51"/>
     </row>
     <row r="20" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A20" s="111"/>
+      <c r="A20" s="112"/>
       <c r="B20" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" s="59" t="s">
         <v>26</v>
@@ -7512,7 +7512,7 @@
       <c r="F20" s="59"/>
       <c r="G20" s="63"/>
       <c r="H20" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="59"/>
       <c r="J20" s="58"/>
@@ -7766,20 +7766,20 @@
       <c r="IX20" s="79"/>
     </row>
     <row r="21" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A21" s="111"/>
+      <c r="A21" s="112"/>
       <c r="B21" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>160</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>161</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
-      <c r="G21" s="114" t="s">
-        <v>162</v>
+      <c r="G21" s="101" t="s">
+        <v>161</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>33</v>
@@ -8036,12 +8036,12 @@
       <c r="IX21" s="79"/>
     </row>
     <row r="22" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A22" s="111"/>
+      <c r="A22" s="112"/>
       <c r="B22" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="59" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>65</v>
       </c>
       <c r="D22" s="59" t="s">
         <v>26</v>
@@ -8050,7 +8050,7 @@
       <c r="F22" s="59"/>
       <c r="G22" s="63"/>
       <c r="H22" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="59"/>
       <c r="J22" s="58"/>
@@ -8304,12 +8304,12 @@
       <c r="IX22" s="79"/>
     </row>
     <row r="23" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A23" s="112"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D23" s="59" t="s">
         <v>26</v>
@@ -8318,7 +8318,7 @@
       <c r="F23" s="59"/>
       <c r="G23" s="63"/>
       <c r="H23" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23" s="59"/>
       <c r="J23" s="58"/>
@@ -8832,7 +8832,7 @@
       <c r="IX24" s="24"/>
     </row>
     <row r="25" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A25" s="113"/>
+      <c r="A25" s="114"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
@@ -9092,7 +9092,7 @@
       <c r="IX25" s="51"/>
     </row>
     <row r="26" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A26" s="113"/>
+      <c r="A26" s="114"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -9352,7 +9352,7 @@
       <c r="IX26" s="51"/>
     </row>
     <row r="27" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A27" s="113"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
@@ -10132,7 +10132,7 @@
       <c r="IX29" s="24"/>
     </row>
     <row r="30" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A30" s="110"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
@@ -10392,7 +10392,7 @@
       <c r="IX30" s="51"/>
     </row>
     <row r="31" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A31" s="111"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -10652,7 +10652,7 @@
       <c r="IX31" s="51"/>
     </row>
     <row r="32" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A32" s="112"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="35"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -10926,7 +10926,7 @@
       <c r="IX33" s="39"/>
     </row>
     <row r="34" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A34" s="101"/>
+      <c r="A34" s="102"/>
       <c r="B34" s="32"/>
       <c r="C34" s="41"/>
       <c r="D34" s="41"/>
@@ -10940,7 +10940,7 @@
       <c r="L34" s="43"/>
     </row>
     <row r="35" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A35" s="102"/>
+      <c r="A35" s="103"/>
       <c r="B35" s="20"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
@@ -10953,7 +10953,7 @@
       <c r="L35" s="43"/>
     </row>
     <row r="36" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A36" s="102"/>
+      <c r="A36" s="103"/>
       <c r="B36" s="20"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
@@ -10967,7 +10967,7 @@
       <c r="L36" s="43"/>
     </row>
     <row r="37" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A37" s="103"/>
+      <c r="A37" s="104"/>
       <c r="B37" s="35"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -11241,7 +11241,7 @@
       <c r="IX38" s="39"/>
     </row>
     <row r="39" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A39" s="101"/>
+      <c r="A39" s="102"/>
       <c r="B39" s="42"/>
       <c r="C39" s="41"/>
       <c r="D39" s="41"/>
@@ -11255,7 +11255,7 @@
       <c r="L39" s="43"/>
     </row>
     <row r="40" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A40" s="102"/>
+      <c r="A40" s="103"/>
       <c r="B40" s="44"/>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
@@ -11269,7 +11269,7 @@
       <c r="L40" s="43"/>
     </row>
     <row r="41" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A41" s="102"/>
+      <c r="A41" s="103"/>
       <c r="B41" s="44"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -11283,7 +11283,7 @@
       <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A42" s="102"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="44"/>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -11297,7 +11297,7 @@
       <c r="L42" s="43"/>
     </row>
     <row r="43" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A43" s="102"/>
+      <c r="A43" s="103"/>
       <c r="B43" s="44"/>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
@@ -11311,7 +11311,7 @@
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A44" s="103"/>
+      <c r="A44" s="104"/>
       <c r="B44" s="44"/>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
@@ -11325,7 +11325,7 @@
       <c r="L44" s="43"/>
     </row>
     <row r="45" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A45" s="101"/>
+      <c r="A45" s="102"/>
       <c r="B45" s="44"/>
       <c r="C45" s="43"/>
       <c r="D45" s="43"/>
@@ -11339,8 +11339,8 @@
       <c r="L45" s="43"/>
     </row>
     <row r="46" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A46" s="102"/>
-      <c r="B46" s="104"/>
+      <c r="A46" s="103"/>
+      <c r="B46" s="105"/>
       <c r="C46" s="21"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
@@ -11353,8 +11353,8 @@
       <c r="L46" s="43"/>
     </row>
     <row r="47" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A47" s="102"/>
-      <c r="B47" s="105"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="106"/>
       <c r="C47" s="21"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
@@ -11367,7 +11367,7 @@
       <c r="L47" s="43"/>
     </row>
     <row r="48" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A48" s="102"/>
+      <c r="A48" s="103"/>
       <c r="B48" s="44"/>
       <c r="C48" s="43"/>
       <c r="D48" s="43"/>
@@ -11381,7 +11381,7 @@
       <c r="L48" s="43"/>
     </row>
     <row r="49" spans="1:12" ht="99.95" customHeight="1">
-      <c r="A49" s="103"/>
+      <c r="A49" s="104"/>
       <c r="B49" s="44"/>
       <c r="C49" s="43"/>
       <c r="D49" s="43"/>
@@ -12078,7 +12078,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>21</v>
@@ -12597,13 +12597,13 @@
     </row>
     <row r="6" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>72</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>26</v>
@@ -12612,7 +12612,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="26"/>
@@ -13127,13 +13127,13 @@
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A8" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>26</v>
@@ -13142,7 +13142,7 @@
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
       <c r="H8" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="26"/>
@@ -13656,14 +13656,14 @@
       <c r="IX9" s="24"/>
     </row>
     <row r="10" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="C10" s="32" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>80</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>18</v>
@@ -13671,10 +13671,10 @@
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="32" t="s">
         <v>81</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>82</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="32"/>
@@ -13928,12 +13928,12 @@
       <c r="IX10" s="51"/>
     </row>
     <row r="11" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A11" s="113"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>26</v>
@@ -13942,7 +13942,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="20"/>
@@ -14198,12 +14198,12 @@
       <c r="IX11" s="51"/>
     </row>
     <row r="12" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A12" s="113"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>86</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>87</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>26</v>
@@ -14212,7 +14212,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
@@ -14470,10 +14470,10 @@
     <row r="13" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>26</v>
@@ -14482,7 +14482,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="52"/>
       <c r="J13" s="53"/>
@@ -14996,14 +14996,14 @@
       <c r="IX14" s="24"/>
     </row>
     <row r="15" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="C15" s="32" t="s">
         <v>93</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>94</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>18</v>
@@ -15011,10 +15011,10 @@
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>96</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="32"/>
@@ -15268,12 +15268,12 @@
       <c r="IX15" s="51"/>
     </row>
     <row r="16" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A16" s="111"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>26</v>
@@ -15282,7 +15282,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
@@ -15536,12 +15536,12 @@
       <c r="IX16" s="51"/>
     </row>
     <row r="17" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A17" s="112"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>100</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>101</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>26</v>
@@ -15550,7 +15550,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
@@ -15817,90 +15817,90 @@
       <c r="IX18" s="39"/>
     </row>
     <row r="19" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="C19" s="41" t="s">
         <v>104</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>105</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="42" t="s">
         <v>106</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A20" s="102"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>108</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>109</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="44" t="s">
         <v>106</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>107</v>
       </c>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A21" s="102"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="43" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>111</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A22" s="103"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>112</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>113</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -16166,247 +16166,247 @@
       <c r="IX23" s="39"/>
     </row>
     <row r="24" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="C24" s="41" t="s">
         <v>115</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>116</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
     </row>
     <row r="25" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A25" s="102"/>
+      <c r="A25" s="103"/>
       <c r="B25" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>118</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>119</v>
       </c>
       <c r="D25" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G25" s="44"/>
       <c r="H25" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I25" s="43"/>
       <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A26" s="102"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G26" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="44" t="s">
         <v>122</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>123</v>
       </c>
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A27" s="102"/>
+      <c r="A27" s="103"/>
       <c r="B27" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="43" t="s">
         <v>124</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>125</v>
       </c>
       <c r="D27" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I27" s="43"/>
       <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A28" s="102"/>
+      <c r="A28" s="103"/>
       <c r="B28" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="43" t="s">
         <v>127</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>128</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I28" s="43"/>
       <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A29" s="103"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D29" s="43" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I29" s="43"/>
       <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="C30" s="43" t="s">
         <v>133</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>134</v>
       </c>
       <c r="D30" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I30" s="43"/>
       <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A31" s="102"/>
-      <c r="B31" s="104" t="s">
+      <c r="A31" s="103"/>
+      <c r="B31" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="D31" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I31" s="43"/>
       <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:258" ht="99.95" customHeight="1">
-      <c r="A32" s="102"/>
-      <c r="B32" s="105"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="106"/>
       <c r="C32" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G32" s="44"/>
       <c r="H32" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I32" s="43"/>
       <c r="J32" s="43"/>
     </row>
     <row r="33" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A33" s="102"/>
+      <c r="A33" s="103"/>
       <c r="B33" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>141</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>142</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A34" s="103"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="43" t="s">
         <v>144</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>145</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G34" s="44"/>
       <c r="H34" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>

--- a/code/s3d/document/design/API.xlsx
+++ b/code/s3d/document/design/API.xlsx
@@ -39,10 +39,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0">
+    <comment ref="C32" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="G30" authorId="0" shapeId="0">
+    <comment ref="G32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="167">
   <si>
     <t>Module</t>
   </si>
@@ -518,11 +518,6 @@
   </si>
   <si>
     <t>Delete users</t>
-  </si>
-  <si>
-    <t>{
-  "userIds": [1,2,3]
-}</t>
   </si>
   <si>
     <t>/users/search</t>
@@ -1555,6 +1550,23 @@
   }]
 }</t>
   </si>
+  <si>
+    <t>Delete roles</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>{
+  "ids": [1,2,3]
+}</t>
+  </si>
+  <si>
+    <t>Reset system permissions</t>
+  </si>
+  <si>
+    <t>/permissions/reset</t>
+  </si>
 </sst>
 </file>
 
@@ -1866,7 +1878,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2211,6 +2223,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2584,11 +2599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IX53"/>
+  <dimension ref="A1:IX55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.75"/>
@@ -3728,7 +3743,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="70"/>
@@ -3989,7 +4004,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>26</v>
@@ -3998,7 +4013,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="20"/>
       <c r="H7" s="57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="69"/>
@@ -4259,7 +4274,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>26</v>
@@ -4268,7 +4283,7 @@
       <c r="F8" s="36"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="73"/>
@@ -4537,7 +4552,7 @@
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="89" t="s">
         <v>33</v>
@@ -4803,7 +4818,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="59" t="s">
         <v>26</v>
@@ -5617,7 +5632,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="97" t="s">
         <v>26</v>
@@ -5632,7 +5647,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="98"/>
       <c r="L13" s="96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M13" s="79"/>
       <c r="N13" s="79"/>
@@ -5895,7 +5910,7 @@
       <c r="E14" s="97"/>
       <c r="F14" s="97"/>
       <c r="G14" s="96" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="H14" s="96" t="s">
         <v>33</v>
@@ -6156,10 +6171,10 @@
     <row r="15" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
       <c r="A15" s="108"/>
       <c r="B15" s="93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="62" t="s">
         <v>18</v>
@@ -6167,10 +6182,10 @@
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
       <c r="G15" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="60" t="s">
         <v>50</v>
-      </c>
-      <c r="H15" s="60" t="s">
-        <v>51</v>
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="61"/>
@@ -6428,10 +6443,10 @@
     <row r="16" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
       <c r="A16" s="108"/>
       <c r="B16" s="58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>26</v>
@@ -6440,7 +6455,7 @@
       <c r="F16" s="59"/>
       <c r="G16" s="58"/>
       <c r="H16" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="59"/>
       <c r="J16" s="58"/>
@@ -6696,10 +6711,10 @@
     <row r="17" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A17" s="110"/>
       <c r="B17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>55</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>18</v>
@@ -6707,7 +6722,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>33</v>
@@ -6718,7 +6733,7 @@
       <c r="J17" s="69"/>
       <c r="K17" s="68"/>
       <c r="L17" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M17" s="51"/>
       <c r="N17" s="51"/>
@@ -7229,13 +7244,13 @@
     </row>
     <row r="19" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A19" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="C19" s="26" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>60</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>26</v>
@@ -7244,12 +7259,12 @@
       <c r="F19" s="27"/>
       <c r="G19" s="29"/>
       <c r="H19" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="70"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="21"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="36"/>
       <c r="M19" s="51"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51"/>
@@ -7497,294 +7512,292 @@
       <c r="IW19" s="51"/>
       <c r="IX19" s="51"/>
     </row>
-    <row r="20" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
+    <row r="20" spans="1:258" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A20" s="112"/>
-      <c r="B20" s="58" t="s">
-        <v>61</v>
+      <c r="B20" s="87" t="s">
+        <v>162</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="59"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="79"/>
-      <c r="AH20" s="79"/>
-      <c r="AI20" s="79"/>
-      <c r="AJ20" s="79"/>
-      <c r="AK20" s="79"/>
-      <c r="AL20" s="79"/>
-      <c r="AM20" s="79"/>
-      <c r="AN20" s="79"/>
-      <c r="AO20" s="79"/>
-      <c r="AP20" s="79"/>
-      <c r="AQ20" s="79"/>
-      <c r="AR20" s="79"/>
-      <c r="AS20" s="79"/>
-      <c r="AT20" s="79"/>
-      <c r="AU20" s="79"/>
-      <c r="AV20" s="79"/>
-      <c r="AW20" s="79"/>
-      <c r="AX20" s="79"/>
-      <c r="AY20" s="79"/>
-      <c r="AZ20" s="79"/>
-      <c r="BA20" s="79"/>
-      <c r="BB20" s="79"/>
-      <c r="BC20" s="79"/>
-      <c r="BD20" s="79"/>
-      <c r="BE20" s="79"/>
-      <c r="BF20" s="79"/>
-      <c r="BG20" s="79"/>
-      <c r="BH20" s="79"/>
-      <c r="BI20" s="79"/>
-      <c r="BJ20" s="79"/>
-      <c r="BK20" s="79"/>
-      <c r="BL20" s="79"/>
-      <c r="BM20" s="79"/>
-      <c r="BN20" s="79"/>
-      <c r="BO20" s="79"/>
-      <c r="BP20" s="79"/>
-      <c r="BQ20" s="79"/>
-      <c r="BR20" s="79"/>
-      <c r="BS20" s="79"/>
-      <c r="BT20" s="79"/>
-      <c r="BU20" s="79"/>
-      <c r="BV20" s="79"/>
-      <c r="BW20" s="79"/>
-      <c r="BX20" s="79"/>
-      <c r="BY20" s="79"/>
-      <c r="BZ20" s="79"/>
-      <c r="CA20" s="79"/>
-      <c r="CB20" s="79"/>
-      <c r="CC20" s="79"/>
-      <c r="CD20" s="79"/>
-      <c r="CE20" s="79"/>
-      <c r="CF20" s="79"/>
-      <c r="CG20" s="79"/>
-      <c r="CH20" s="79"/>
-      <c r="CI20" s="79"/>
-      <c r="CJ20" s="79"/>
-      <c r="CK20" s="79"/>
-      <c r="CL20" s="79"/>
-      <c r="CM20" s="79"/>
-      <c r="CN20" s="79"/>
-      <c r="CO20" s="79"/>
-      <c r="CP20" s="79"/>
-      <c r="CQ20" s="79"/>
-      <c r="CR20" s="79"/>
-      <c r="CS20" s="79"/>
-      <c r="CT20" s="79"/>
-      <c r="CU20" s="79"/>
-      <c r="CV20" s="79"/>
-      <c r="CW20" s="79"/>
-      <c r="CX20" s="79"/>
-      <c r="CY20" s="79"/>
-      <c r="CZ20" s="79"/>
-      <c r="DA20" s="79"/>
-      <c r="DB20" s="79"/>
-      <c r="DC20" s="79"/>
-      <c r="DD20" s="79"/>
-      <c r="DE20" s="79"/>
-      <c r="DF20" s="79"/>
-      <c r="DG20" s="79"/>
-      <c r="DH20" s="79"/>
-      <c r="DI20" s="79"/>
-      <c r="DJ20" s="79"/>
-      <c r="DK20" s="79"/>
-      <c r="DL20" s="79"/>
-      <c r="DM20" s="79"/>
-      <c r="DN20" s="79"/>
-      <c r="DO20" s="79"/>
-      <c r="DP20" s="79"/>
-      <c r="DQ20" s="79"/>
-      <c r="DR20" s="79"/>
-      <c r="DS20" s="79"/>
-      <c r="DT20" s="79"/>
-      <c r="DU20" s="79"/>
-      <c r="DV20" s="79"/>
-      <c r="DW20" s="79"/>
-      <c r="DX20" s="79"/>
-      <c r="DY20" s="79"/>
-      <c r="DZ20" s="79"/>
-      <c r="EA20" s="79"/>
-      <c r="EB20" s="79"/>
-      <c r="EC20" s="79"/>
-      <c r="ED20" s="79"/>
-      <c r="EE20" s="79"/>
-      <c r="EF20" s="79"/>
-      <c r="EG20" s="79"/>
-      <c r="EH20" s="79"/>
-      <c r="EI20" s="79"/>
-      <c r="EJ20" s="79"/>
-      <c r="EK20" s="79"/>
-      <c r="EL20" s="79"/>
-      <c r="EM20" s="79"/>
-      <c r="EN20" s="79"/>
-      <c r="EO20" s="79"/>
-      <c r="EP20" s="79"/>
-      <c r="EQ20" s="79"/>
-      <c r="ER20" s="79"/>
-      <c r="ES20" s="79"/>
-      <c r="ET20" s="79"/>
-      <c r="EU20" s="79"/>
-      <c r="EV20" s="79"/>
-      <c r="EW20" s="79"/>
-      <c r="EX20" s="79"/>
-      <c r="EY20" s="79"/>
-      <c r="EZ20" s="79"/>
-      <c r="FA20" s="79"/>
-      <c r="FB20" s="79"/>
-      <c r="FC20" s="79"/>
-      <c r="FD20" s="79"/>
-      <c r="FE20" s="79"/>
-      <c r="FF20" s="79"/>
-      <c r="FG20" s="79"/>
-      <c r="FH20" s="79"/>
-      <c r="FI20" s="79"/>
-      <c r="FJ20" s="79"/>
-      <c r="FK20" s="79"/>
-      <c r="FL20" s="79"/>
-      <c r="FM20" s="79"/>
-      <c r="FN20" s="79"/>
-      <c r="FO20" s="79"/>
-      <c r="FP20" s="79"/>
-      <c r="FQ20" s="79"/>
-      <c r="FR20" s="79"/>
-      <c r="FS20" s="79"/>
-      <c r="FT20" s="79"/>
-      <c r="FU20" s="79"/>
-      <c r="FV20" s="79"/>
-      <c r="FW20" s="79"/>
-      <c r="FX20" s="79"/>
-      <c r="FY20" s="79"/>
-      <c r="FZ20" s="79"/>
-      <c r="GA20" s="79"/>
-      <c r="GB20" s="79"/>
-      <c r="GC20" s="79"/>
-      <c r="GD20" s="79"/>
-      <c r="GE20" s="79"/>
-      <c r="GF20" s="79"/>
-      <c r="GG20" s="79"/>
-      <c r="GH20" s="79"/>
-      <c r="GI20" s="79"/>
-      <c r="GJ20" s="79"/>
-      <c r="GK20" s="79"/>
-      <c r="GL20" s="79"/>
-      <c r="GM20" s="79"/>
-      <c r="GN20" s="79"/>
-      <c r="GO20" s="79"/>
-      <c r="GP20" s="79"/>
-      <c r="GQ20" s="79"/>
-      <c r="GR20" s="79"/>
-      <c r="GS20" s="79"/>
-      <c r="GT20" s="79"/>
-      <c r="GU20" s="79"/>
-      <c r="GV20" s="79"/>
-      <c r="GW20" s="79"/>
-      <c r="GX20" s="79"/>
-      <c r="GY20" s="79"/>
-      <c r="GZ20" s="79"/>
-      <c r="HA20" s="79"/>
-      <c r="HB20" s="79"/>
-      <c r="HC20" s="79"/>
-      <c r="HD20" s="79"/>
-      <c r="HE20" s="79"/>
-      <c r="HF20" s="79"/>
-      <c r="HG20" s="79"/>
-      <c r="HH20" s="79"/>
-      <c r="HI20" s="79"/>
-      <c r="HJ20" s="79"/>
-      <c r="HK20" s="79"/>
-      <c r="HL20" s="79"/>
-      <c r="HM20" s="79"/>
-      <c r="HN20" s="79"/>
-      <c r="HO20" s="79"/>
-      <c r="HP20" s="79"/>
-      <c r="HQ20" s="79"/>
-      <c r="HR20" s="79"/>
-      <c r="HS20" s="79"/>
-      <c r="HT20" s="79"/>
-      <c r="HU20" s="79"/>
-      <c r="HV20" s="79"/>
-      <c r="HW20" s="79"/>
-      <c r="HX20" s="79"/>
-      <c r="HY20" s="79"/>
-      <c r="HZ20" s="79"/>
-      <c r="IA20" s="79"/>
-      <c r="IB20" s="79"/>
-      <c r="IC20" s="79"/>
-      <c r="ID20" s="79"/>
-      <c r="IE20" s="79"/>
-      <c r="IF20" s="79"/>
-      <c r="IG20" s="79"/>
-      <c r="IH20" s="79"/>
-      <c r="II20" s="79"/>
-      <c r="IJ20" s="79"/>
-      <c r="IK20" s="79"/>
-      <c r="IL20" s="79"/>
-      <c r="IM20" s="79"/>
-      <c r="IN20" s="79"/>
-      <c r="IO20" s="79"/>
-      <c r="IP20" s="79"/>
-      <c r="IQ20" s="79"/>
-      <c r="IR20" s="79"/>
-      <c r="IS20" s="79"/>
-      <c r="IT20" s="79"/>
-      <c r="IU20" s="79"/>
-      <c r="IV20" s="79"/>
-      <c r="IW20" s="79"/>
-      <c r="IX20" s="79"/>
+        <v>159</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="51"/>
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="51"/>
+      <c r="AM20" s="51"/>
+      <c r="AN20" s="51"/>
+      <c r="AO20" s="51"/>
+      <c r="AP20" s="51"/>
+      <c r="AQ20" s="51"/>
+      <c r="AR20" s="51"/>
+      <c r="AS20" s="51"/>
+      <c r="AT20" s="51"/>
+      <c r="AU20" s="51"/>
+      <c r="AV20" s="51"/>
+      <c r="AW20" s="51"/>
+      <c r="AX20" s="51"/>
+      <c r="AY20" s="51"/>
+      <c r="AZ20" s="51"/>
+      <c r="BA20" s="51"/>
+      <c r="BB20" s="51"/>
+      <c r="BC20" s="51"/>
+      <c r="BD20" s="51"/>
+      <c r="BE20" s="51"/>
+      <c r="BF20" s="51"/>
+      <c r="BG20" s="51"/>
+      <c r="BH20" s="51"/>
+      <c r="BI20" s="51"/>
+      <c r="BJ20" s="51"/>
+      <c r="BK20" s="51"/>
+      <c r="BL20" s="51"/>
+      <c r="BM20" s="51"/>
+      <c r="BN20" s="51"/>
+      <c r="BO20" s="51"/>
+      <c r="BP20" s="51"/>
+      <c r="BQ20" s="51"/>
+      <c r="BR20" s="51"/>
+      <c r="BS20" s="51"/>
+      <c r="BT20" s="51"/>
+      <c r="BU20" s="51"/>
+      <c r="BV20" s="51"/>
+      <c r="BW20" s="51"/>
+      <c r="BX20" s="51"/>
+      <c r="BY20" s="51"/>
+      <c r="BZ20" s="51"/>
+      <c r="CA20" s="51"/>
+      <c r="CB20" s="51"/>
+      <c r="CC20" s="51"/>
+      <c r="CD20" s="51"/>
+      <c r="CE20" s="51"/>
+      <c r="CF20" s="51"/>
+      <c r="CG20" s="51"/>
+      <c r="CH20" s="51"/>
+      <c r="CI20" s="51"/>
+      <c r="CJ20" s="51"/>
+      <c r="CK20" s="51"/>
+      <c r="CL20" s="51"/>
+      <c r="CM20" s="51"/>
+      <c r="CN20" s="51"/>
+      <c r="CO20" s="51"/>
+      <c r="CP20" s="51"/>
+      <c r="CQ20" s="51"/>
+      <c r="CR20" s="51"/>
+      <c r="CS20" s="51"/>
+      <c r="CT20" s="51"/>
+      <c r="CU20" s="51"/>
+      <c r="CV20" s="51"/>
+      <c r="CW20" s="51"/>
+      <c r="CX20" s="51"/>
+      <c r="CY20" s="51"/>
+      <c r="CZ20" s="51"/>
+      <c r="DA20" s="51"/>
+      <c r="DB20" s="51"/>
+      <c r="DC20" s="51"/>
+      <c r="DD20" s="51"/>
+      <c r="DE20" s="51"/>
+      <c r="DF20" s="51"/>
+      <c r="DG20" s="51"/>
+      <c r="DH20" s="51"/>
+      <c r="DI20" s="51"/>
+      <c r="DJ20" s="51"/>
+      <c r="DK20" s="51"/>
+      <c r="DL20" s="51"/>
+      <c r="DM20" s="51"/>
+      <c r="DN20" s="51"/>
+      <c r="DO20" s="51"/>
+      <c r="DP20" s="51"/>
+      <c r="DQ20" s="51"/>
+      <c r="DR20" s="51"/>
+      <c r="DS20" s="51"/>
+      <c r="DT20" s="51"/>
+      <c r="DU20" s="51"/>
+      <c r="DV20" s="51"/>
+      <c r="DW20" s="51"/>
+      <c r="DX20" s="51"/>
+      <c r="DY20" s="51"/>
+      <c r="DZ20" s="51"/>
+      <c r="EA20" s="51"/>
+      <c r="EB20" s="51"/>
+      <c r="EC20" s="51"/>
+      <c r="ED20" s="51"/>
+      <c r="EE20" s="51"/>
+      <c r="EF20" s="51"/>
+      <c r="EG20" s="51"/>
+      <c r="EH20" s="51"/>
+      <c r="EI20" s="51"/>
+      <c r="EJ20" s="51"/>
+      <c r="EK20" s="51"/>
+      <c r="EL20" s="51"/>
+      <c r="EM20" s="51"/>
+      <c r="EN20" s="51"/>
+      <c r="EO20" s="51"/>
+      <c r="EP20" s="51"/>
+      <c r="EQ20" s="51"/>
+      <c r="ER20" s="51"/>
+      <c r="ES20" s="51"/>
+      <c r="ET20" s="51"/>
+      <c r="EU20" s="51"/>
+      <c r="EV20" s="51"/>
+      <c r="EW20" s="51"/>
+      <c r="EX20" s="51"/>
+      <c r="EY20" s="51"/>
+      <c r="EZ20" s="51"/>
+      <c r="FA20" s="51"/>
+      <c r="FB20" s="51"/>
+      <c r="FC20" s="51"/>
+      <c r="FD20" s="51"/>
+      <c r="FE20" s="51"/>
+      <c r="FF20" s="51"/>
+      <c r="FG20" s="51"/>
+      <c r="FH20" s="51"/>
+      <c r="FI20" s="51"/>
+      <c r="FJ20" s="51"/>
+      <c r="FK20" s="51"/>
+      <c r="FL20" s="51"/>
+      <c r="FM20" s="51"/>
+      <c r="FN20" s="51"/>
+      <c r="FO20" s="51"/>
+      <c r="FP20" s="51"/>
+      <c r="FQ20" s="51"/>
+      <c r="FR20" s="51"/>
+      <c r="FS20" s="51"/>
+      <c r="FT20" s="51"/>
+      <c r="FU20" s="51"/>
+      <c r="FV20" s="51"/>
+      <c r="FW20" s="51"/>
+      <c r="FX20" s="51"/>
+      <c r="FY20" s="51"/>
+      <c r="FZ20" s="51"/>
+      <c r="GA20" s="51"/>
+      <c r="GB20" s="51"/>
+      <c r="GC20" s="51"/>
+      <c r="GD20" s="51"/>
+      <c r="GE20" s="51"/>
+      <c r="GF20" s="51"/>
+      <c r="GG20" s="51"/>
+      <c r="GH20" s="51"/>
+      <c r="GI20" s="51"/>
+      <c r="GJ20" s="51"/>
+      <c r="GK20" s="51"/>
+      <c r="GL20" s="51"/>
+      <c r="GM20" s="51"/>
+      <c r="GN20" s="51"/>
+      <c r="GO20" s="51"/>
+      <c r="GP20" s="51"/>
+      <c r="GQ20" s="51"/>
+      <c r="GR20" s="51"/>
+      <c r="GS20" s="51"/>
+      <c r="GT20" s="51"/>
+      <c r="GU20" s="51"/>
+      <c r="GV20" s="51"/>
+      <c r="GW20" s="51"/>
+      <c r="GX20" s="51"/>
+      <c r="GY20" s="51"/>
+      <c r="GZ20" s="51"/>
+      <c r="HA20" s="51"/>
+      <c r="HB20" s="51"/>
+      <c r="HC20" s="51"/>
+      <c r="HD20" s="51"/>
+      <c r="HE20" s="51"/>
+      <c r="HF20" s="51"/>
+      <c r="HG20" s="51"/>
+      <c r="HH20" s="51"/>
+      <c r="HI20" s="51"/>
+      <c r="HJ20" s="51"/>
+      <c r="HK20" s="51"/>
+      <c r="HL20" s="51"/>
+      <c r="HM20" s="51"/>
+      <c r="HN20" s="51"/>
+      <c r="HO20" s="51"/>
+      <c r="HP20" s="51"/>
+      <c r="HQ20" s="51"/>
+      <c r="HR20" s="51"/>
+      <c r="HS20" s="51"/>
+      <c r="HT20" s="51"/>
+      <c r="HU20" s="51"/>
+      <c r="HV20" s="51"/>
+      <c r="HW20" s="51"/>
+      <c r="HX20" s="51"/>
+      <c r="HY20" s="51"/>
+      <c r="HZ20" s="51"/>
+      <c r="IA20" s="51"/>
+      <c r="IB20" s="51"/>
+      <c r="IC20" s="51"/>
+      <c r="ID20" s="51"/>
+      <c r="IE20" s="51"/>
+      <c r="IF20" s="51"/>
+      <c r="IG20" s="51"/>
+      <c r="IH20" s="51"/>
+      <c r="II20" s="51"/>
+      <c r="IJ20" s="51"/>
+      <c r="IK20" s="51"/>
+      <c r="IL20" s="51"/>
+      <c r="IM20" s="51"/>
+      <c r="IN20" s="51"/>
+      <c r="IO20" s="51"/>
+      <c r="IP20" s="51"/>
+      <c r="IQ20" s="51"/>
+      <c r="IR20" s="51"/>
+      <c r="IS20" s="51"/>
+      <c r="IT20" s="51"/>
+      <c r="IU20" s="51"/>
+      <c r="IV20" s="51"/>
+      <c r="IW20" s="51"/>
+      <c r="IX20" s="51"/>
     </row>
     <row r="21" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
       <c r="A21" s="112"/>
-      <c r="B21" s="20" t="s">
-        <v>159</v>
+      <c r="B21" s="58" t="s">
+        <v>60</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="78"/>
+        <v>151</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="59"/>
       <c r="J21" s="58"/>
       <c r="K21" s="77"/>
       <c r="L21" s="78"/>
@@ -8037,22 +8050,24 @@
     </row>
     <row r="22" spans="1:258" s="55" customFormat="1" ht="99.95" customHeight="1">
       <c r="A22" s="112"/>
-      <c r="B22" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="59"/>
+      <c r="B22" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="78"/>
       <c r="J22" s="58"/>
       <c r="K22" s="77"/>
       <c r="L22" s="78"/>
@@ -8304,12 +8319,12 @@
       <c r="IX22" s="79"/>